--- a/lothiancriticalcare/1a74f8f7b8b7e871b413c4697f68b4401fbacdf0/reviewdates.xlsx
+++ b/lothiancriticalcare/1a74f8f7b8b7e871b413c4697f68b4401fbacdf0/reviewdates.xlsx
@@ -67,18 +67,18 @@
     <t>Infection_and_sepsis/SARI/MERS-CoV Guideline.pdf</t>
   </si>
   <si>
+    <t>Infection_and_sepsis/SARI/Suspected Influeza A Avian influenza H5N1 and SARS.pdf</t>
+  </si>
+  <si>
     <t>Infection_and_sepsis/SARI/Suspected Influeza A-H7N9 Guideline.pdf</t>
   </si>
   <si>
-    <t>Infection_and_sepsis/SARI/Suspected Influeza A Avian influenza H5N1 and SARS.pdf</t>
+    <t>Airway/Critical care extubation checklist.pdf</t>
   </si>
   <si>
     <t>ECLS/Extra Corporeal Carbon Dioxide Removal.pdf</t>
   </si>
   <si>
-    <t>Airway/Critical care extubation checklist.pdf</t>
-  </si>
-  <si>
     <t>Airway/Tracheostomy_Laryngectomy/Hospital_in-patients_with_a_Tracheostomy.pdf</t>
   </si>
   <si>
@@ -94,15 +94,15 @@
     <t>End_of_life_care/Reasons to report a death to PF.pdf</t>
   </si>
   <si>
+    <t>Airway/Tracheostomy_Laryngectomy/Tracheostomy suctioning cleaning guideline.pdf</t>
+  </si>
+  <si>
+    <t>Airway/Tracheostomy_Laryngectomy/Tracheostomy change in Critical Care.pdf</t>
+  </si>
+  <si>
     <t>Neurological/SOP -  Femoral site care.pdf</t>
   </si>
   <si>
-    <t>Airway/Tracheostomy_Laryngectomy/Tracheostomy suctioning cleaning guideline.pdf</t>
-  </si>
-  <si>
-    <t>Airway/Tracheostomy_Laryngectomy/Tracheostomy change in Critical Care.pdf</t>
-  </si>
-  <si>
     <t>Drugs/sodium_bicarbonate.pdf</t>
   </si>
   <si>
@@ -112,24 +112,24 @@
     <t>Post_op_care/Epidural top-up.pdf</t>
   </si>
   <si>
+    <t>Covid-19/SJH/SJH COVID19 ITU Intubation Action Card.pdf</t>
+  </si>
+  <si>
+    <t>Diabetes_and_Glucose/Hyperosmolar Hyperglycaemic State.pdf</t>
+  </si>
+  <si>
+    <t>Covid-19/SJH/SJH COVID19 ED Intubation Action Card.pdf</t>
+  </si>
+  <si>
+    <t>Covid-19/WGH/CoVid intubation checklist WGH.pdf</t>
+  </si>
+  <si>
+    <t>Drugs/heparin for Haemofiltration.pdf</t>
+  </si>
+  <si>
     <t>Airway/Emergency intubation checklist_em_pub.pdf</t>
   </si>
   <si>
-    <t>Drugs/heparin for Haemofiltration.pdf</t>
-  </si>
-  <si>
-    <t>Covid-19/WGH/CoVid intubation checklist WGH.pdf</t>
-  </si>
-  <si>
-    <t>Covid-19/SJH/SJH COVID19 ED Intubation Action Card.pdf</t>
-  </si>
-  <si>
-    <t>Covid-19/SJH/SJH COVID19 ITU Intubation Action Card.pdf</t>
-  </si>
-  <si>
-    <t>Diabetes_and_Glucose/Hyperosmolar Hyperglycaemic State.pdf</t>
-  </si>
-  <si>
     <t>Drugs/fentanyl.pdf</t>
   </si>
   <si>
@@ -148,13 +148,16 @@
     <t>Airway/Percutaneous tracheostomy checklist.pdf</t>
   </si>
   <si>
+    <t>Infection_and_sepsis/SOP Ultrasound Cleaning.pdf</t>
+  </si>
+  <si>
     <t>Delirium/Managing a Potentially Violent Patient.pdf</t>
   </si>
   <si>
     <t>Delirium/Risk assessment posi mit.pdf</t>
   </si>
   <si>
-    <t>Infection_and_sepsis/SOP Ultrasound Cleaning.pdf</t>
+    <t>Airway/Tracheostomy_Laryngectomy/Tracheostomy safety box contents.pdf</t>
   </si>
   <si>
     <t>Delirium/Drugs Causing Delirium and Agitiation.pdf</t>
@@ -163,48 +166,45 @@
     <t>GI_Liver_and_Transplant/Treatment of constipation.pdf</t>
   </si>
   <si>
+    <t>Breathing(Respiratory)/HFNO.pdf</t>
+  </si>
+  <si>
     <t>GI_Liver_and_Transplant/Abdominal pressure measurement.pdf</t>
   </si>
   <si>
-    <t>Breathing(Respiratory)/HFNO.pdf</t>
+    <t>Neurological/Sub arachnoid haemorrhage management.pdf</t>
+  </si>
+  <si>
+    <t>Airway/Anticipated difficult airway tool.pdf</t>
+  </si>
+  <si>
+    <t>Airway/McGrath Mac.pdf</t>
   </si>
   <si>
     <t>Drugs/ketamine_in_asthma.pdf</t>
   </si>
   <si>
-    <t>Airway/Tracheostomy_Laryngectomy/Tracheostomy safety box contents.pdf</t>
-  </si>
-  <si>
-    <t>Neurological/Sub arachnoid haemorrhage management.pdf</t>
-  </si>
-  <si>
-    <t>Airway/Anticipated difficult airway tool.pdf</t>
-  </si>
-  <si>
-    <t>Airway/McGrath Mac.pdf</t>
-  </si>
-  <si>
     <t>End_of_life_care/Documentation following death.pdf</t>
   </si>
   <si>
+    <t>Drugs/zanamivir.pdf</t>
+  </si>
+  <si>
     <t>GI_Liver_and_Transplant/stress ulcer prophylaxis.pdf</t>
   </si>
   <si>
-    <t>Drugs/zanamivir.pdf</t>
-  </si>
-  <si>
     <t>Routine_Care/bBraun Spaceplus Failure EMERGENCY ACTION CARD_em.pdf</t>
   </si>
   <si>
     <t>Drugs/phosphate.pdf</t>
   </si>
   <si>
+    <t>Drugs/insulin.pdf</t>
+  </si>
+  <si>
     <t>Breathing(Respiratory)/Equipment/HFNO Set Up.pdf</t>
   </si>
   <si>
-    <t>Drugs/insulin.pdf</t>
-  </si>
-  <si>
     <t>Breathing(Respiratory)/Inhaled Nitrous Oxide.pdf</t>
   </si>
   <si>
@@ -217,12 +217,12 @@
     <t>Post_op_care/Epidural Haematoma.pdf</t>
   </si>
   <si>
+    <t>Breathing(Respiratory)/Equipment/T piece Y piece.pdf</t>
+  </si>
+  <si>
     <t>Neurological/SOP for review of Neurosurgical patients in ITU by neurosurgical team.pdf</t>
   </si>
   <si>
-    <t>Breathing(Respiratory)/Equipment/T piece Y piece.pdf</t>
-  </si>
-  <si>
     <t>Policies_and_admin/General Critical Care Interaction with HEPMA_pub.pdf</t>
   </si>
   <si>
@@ -253,133 +253,196 @@
     <t>GI_Liver_and_Transplant/Nasogastric feeding protocol.pdf</t>
   </si>
   <si>
+    <t>Drugs/Antibiotic doses in CVVHD.pdf</t>
+  </si>
+  <si>
+    <t>Diabetes_and_Glucose/Intravenous Insulin Therapy (not for DKA or HHS).pdf</t>
+  </si>
+  <si>
+    <t>Drugs/calcium.pdf</t>
+  </si>
+  <si>
+    <t>GI_Liver_and_Transplant/Jejunostomy feeding protocol.pdf</t>
+  </si>
+  <si>
+    <t>ECLS/RIE ECLS Anti Xa Protocol.pdf</t>
+  </si>
+  <si>
+    <t>GI_Liver_and_Transplant/Nasojejunal feeding protocol.pdf</t>
+  </si>
+  <si>
+    <t>Drugs/vasopressin organ donation.pdf</t>
+  </si>
+  <si>
+    <t>Infection_and_sepsis/Winter Infections Stepdown Guidance.pdf</t>
+  </si>
+  <si>
+    <t>Drugs/vasopressin_sepsis.pdf</t>
+  </si>
+  <si>
+    <t>Transfer/ACCP Transfers.pdf</t>
+  </si>
+  <si>
+    <t>Covid-19/videos/Donning and Doffing Video.pdf</t>
+  </si>
+  <si>
+    <t>Drugs/valproate.pdf</t>
+  </si>
+  <si>
+    <t>Drugs/thiopentone.pdf</t>
+  </si>
+  <si>
+    <t>Drugs/ketamine for status epilepticus.pdf</t>
+  </si>
+  <si>
+    <t>Breathing(Respiratory)/Equipment/Ventilators Circuits Filters and Closed Suction - Set up and Maintenance.pdf</t>
+  </si>
+  <si>
+    <t>Breathing(Respiratory)/CPAP.pdf</t>
+  </si>
+  <si>
+    <t>Breathing(Respiratory)/Equipment/Bipap V60.pdf</t>
+  </si>
+  <si>
+    <t>Drugs/piperacillin_tazobactam extended_infusion.pdf</t>
+  </si>
+  <si>
+    <t>Infection_and_sepsis/Infection indications for IVIG.pdf</t>
+  </si>
+  <si>
+    <t>Covid-19/Covid 19 Death Certification Guideline.pdf</t>
+  </si>
+  <si>
+    <t>Procedures/CVC Guidance/Securing CVCs.pdf</t>
+  </si>
+  <si>
+    <t>Routine_Care/Video Communication.pdf</t>
+  </si>
+  <si>
+    <t>Neurological/Treatment of status epilepticus.pdf</t>
+  </si>
+  <si>
+    <t>Cardiovascular/Cardiogenic Shock.pdf</t>
+  </si>
+  <si>
+    <t>Drugs/isoprenaline.pdf</t>
+  </si>
+  <si>
+    <t>Haematology_CAR-T/Haem_ICU_transfer.pdf</t>
+  </si>
+  <si>
     <t>Infection_and_sepsis/SARI/Influenza A and B Virology Sampling and Oseltamivir Dose.pdf</t>
   </si>
   <si>
-    <t>Diabetes_and_Glucose/Intravenous Insulin Therapy (not for DKA or HHS).pdf</t>
-  </si>
-  <si>
-    <t>Drugs/Antibiotic doses in CVVHD.pdf</t>
+    <t>Drugs/aminophylline.pdf</t>
+  </si>
+  <si>
+    <t>Cardiovascular/Management of hypertension within Critical Care.pdf</t>
   </si>
   <si>
     <t>Cardiovascular/Central Venous Catheters - Guideline for Management of Misplacement.pdf</t>
   </si>
   <si>
+    <t>Haematology_CAR-T/CRS.pdf</t>
+  </si>
+  <si>
+    <t>Drugs/phenytoin.pdf</t>
+  </si>
+  <si>
+    <t>Drugs/rocuronium.pdf</t>
+  </si>
+  <si>
+    <t>Drugs/pancuronium.pdf</t>
+  </si>
+  <si>
+    <t>Haematology_CAR-T/ICANS.pdf</t>
+  </si>
+  <si>
     <t>Drugs/nimodipine.pdf</t>
   </si>
   <si>
-    <t>Drugs/calcium.pdf</t>
-  </si>
-  <si>
-    <t>ECLS/RIE ECLS Anti Xa Protocol.pdf</t>
-  </si>
-  <si>
-    <t>GI_Liver_and_Transplant/Nasojejunal feeding protocol.pdf</t>
-  </si>
-  <si>
-    <t>GI_Liver_and_Transplant/Jejunostomy feeding protocol.pdf</t>
+    <t>Policies_and_admin/General Critical Care SOP_pub.pdf</t>
+  </si>
+  <si>
+    <t>Drugs/milrinone.pdf</t>
+  </si>
+  <si>
+    <t>Organ_donation/Organ Retrieval SOP.pdf</t>
+  </si>
+  <si>
+    <t>End_of_life_care/Withdrawal of invasive ventilation nursing guide MJB 050623-1.pdf</t>
+  </si>
+  <si>
+    <t>Infection_and_sepsis/Trip Out of Unit infection guidance.pdf</t>
+  </si>
+  <si>
+    <t>End_of_life_care/CMO &amp; NRS Guidance for Doctors completing MCCD - Sept 22.pdf</t>
+  </si>
+  <si>
+    <t>Drugs/clonidine.pdf</t>
+  </si>
+  <si>
+    <t>Covid-19/COVID 19 ICM guidance basic goals_June_2022.pdf</t>
+  </si>
+  <si>
+    <t>Neurological/Management of traumatic brain injury.pdf</t>
   </si>
   <si>
     <t>Ethics_and_Law/Care at the End of Life (FICM).pdf</t>
   </si>
   <si>
-    <t>Drugs/vasopressin_sepsis.pdf</t>
+    <t>Ethics_and_Law/DNACPR policy for Scotland.pdf</t>
+  </si>
+  <si>
+    <t>GI_Liver_and_Transplant/ICU - Upper GI bleeding (Endoscopy guideline).pdf</t>
   </si>
   <si>
     <t>Neurological/Critical Care MRI Procedure_pub.pdf</t>
   </si>
   <si>
-    <t>End_of_life_care/CMO &amp; NRS Guidance for Doctors completing MCCD - Sept 22.pdf</t>
-  </si>
-  <si>
-    <t>Drugs/vasopressin organ donation.pdf</t>
-  </si>
-  <si>
-    <t>Neurological/Management of traumatic brain injury.pdf</t>
-  </si>
-  <si>
-    <t>Ethics_and_Law/DNACPR policy for Scotland.pdf</t>
-  </si>
-  <si>
-    <t>Covid-19/COVID 19 ICM guidance basic goals_June_2022.pdf</t>
-  </si>
-  <si>
-    <t>Organ_donation/Organ Retrieval SOP.pdf</t>
-  </si>
-  <si>
-    <t>Infection_and_sepsis/Winter Infections Stepdown Guidance.pdf</t>
-  </si>
-  <si>
-    <t>Infection_and_sepsis/Trip Out of Unit infection guidance.pdf</t>
-  </si>
-  <si>
-    <t>GI_Liver_and_Transplant/ICU - Upper GI bleeding (Endoscopy guideline).pdf</t>
-  </si>
-  <si>
     <t>Airway/Cook Staged Extubation Set.pdf</t>
   </si>
   <si>
-    <t>Drugs/ketamine for status epilepticus.pdf</t>
-  </si>
-  <si>
-    <t>Covid-19/videos/Donning and Doffing Video.pdf</t>
-  </si>
-  <si>
-    <t>Drugs/thiopentone.pdf</t>
-  </si>
-  <si>
-    <t>Drugs/valproate.pdf</t>
-  </si>
-  <si>
-    <t>End_of_life_care/Withdrawal of invasive ventilation nursing guide MJB 050623-1.pdf</t>
-  </si>
-  <si>
-    <t>Transfer/ACCP Transfers.pdf</t>
-  </si>
-  <si>
     <t>End_of_life_care/Draft NHS Lothian Critical Care End of Life care Guidance Edited June 24th 2023 MIB 050623 (1)-1.pdf</t>
   </si>
   <si>
+    <t>Drugs/noradrenaline (central).pdf</t>
+  </si>
+  <si>
     <t>Post_op_care/Epidural hypotension.pdf</t>
   </si>
   <si>
-    <t>Breathing(Respiratory)/Equipment/Bipap V60.pdf</t>
-  </si>
-  <si>
-    <t>Breathing(Respiratory)/Equipment/Ventilators Circuits Filters and Closed Suction - Set up and Maintenance.pdf</t>
-  </si>
-  <si>
-    <t>Infection_and_sepsis/Infection indications for IVIG.pdf</t>
-  </si>
-  <si>
-    <t>Drugs/piperacillin_tazobactam extended_infusion.pdf</t>
-  </si>
-  <si>
-    <t>Breathing(Respiratory)/CPAP.pdf</t>
+    <t>Drugs/dexmedetomidine.pdf</t>
+  </si>
+  <si>
+    <t>Drugs/glyceryl_trinitrate.pdf</t>
+  </si>
+  <si>
+    <t>GI_Liver_and_Transplant/Fulminant Liver Failure.pdf</t>
+  </si>
+  <si>
+    <t>GI_Liver_and_Transplant/Confirmation of Nasogastric Tube Position.pdf</t>
+  </si>
+  <si>
+    <t>Breathing(Respiratory)/Equipment/Passy Muir Valve.pdf</t>
   </si>
   <si>
     <t>Transfer/Transfer Outdoors to Garden Guideline.pdf</t>
   </si>
   <si>
-    <t>Covid-19/Covid 19 Death Certification Guideline.pdf</t>
-  </si>
-  <si>
-    <t>Procedures/CVC Guidance/Securing CVCs.pdf</t>
+    <t>Cardiovascular/Intra Aortic Balloon Pump Guideline_pub.pdf</t>
+  </si>
+  <si>
+    <t>Cardiovascular/Intra Aortic Balloon Pump Bedside Checks_pub.pdf</t>
   </si>
   <si>
     <t>Breathing(Respiratory)/ARDS Strategy.pdf</t>
   </si>
   <si>
-    <t>Neurological/Treatment of status epilepticus.pdf</t>
-  </si>
-  <si>
-    <t>Routine_Care/Video Communication.pdf</t>
-  </si>
-  <si>
-    <t>Cardiovascular/Cardiogenic Shock.pdf</t>
-  </si>
-  <si>
-    <t>Drugs/isoprenaline.pdf</t>
+    <t>Drugs/dobutamine.pdf</t>
+  </si>
+  <si>
+    <t>Drugs/adrenaline.pdf</t>
   </si>
   <si>
     <t>Drugs/hydralazine.pdf</t>
@@ -394,73 +457,16 @@
     <t>Drugs/magnesium.pdf</t>
   </si>
   <si>
-    <t>Haematology_CAR-T/Haem_ICU_transfer.pdf</t>
-  </si>
-  <si>
-    <t>Drugs/aminophylline.pdf</t>
-  </si>
-  <si>
-    <t>Cardiovascular/Management of hypertension within Critical Care.pdf</t>
-  </si>
-  <si>
-    <t>Haematology_CAR-T/CRS.pdf</t>
-  </si>
-  <si>
-    <t>Haematology_CAR-T/ICANS.pdf</t>
-  </si>
-  <si>
-    <t>Drugs/pancuronium.pdf</t>
-  </si>
-  <si>
-    <t>Drugs/phenytoin.pdf</t>
-  </si>
-  <si>
-    <t>Drugs/rocuronium.pdf</t>
-  </si>
-  <si>
-    <t>Policies_and_admin/General Critical Care SOP_pub.pdf</t>
-  </si>
-  <si>
-    <t>Drugs/milrinone.pdf</t>
-  </si>
-  <si>
-    <t>Drugs/clonidine.pdf</t>
-  </si>
-  <si>
-    <t>Drugs/noradrenaline (central).pdf</t>
-  </si>
-  <si>
-    <t>GI_Liver_and_Transplant/Confirmation of Nasogastric Tube Position.pdf</t>
-  </si>
-  <si>
-    <t>Breathing(Respiratory)/Equipment/Passy Muir Valve.pdf</t>
-  </si>
-  <si>
-    <t>Drugs/glyceryl_trinitrate.pdf</t>
-  </si>
-  <si>
-    <t>GI_Liver_and_Transplant/Fulminant Liver Failure.pdf</t>
-  </si>
-  <si>
-    <t>Drugs/dexmedetomidine.pdf</t>
-  </si>
-  <si>
-    <t>Cardiovascular/Intra Aortic Balloon Pump Guideline_pub.pdf</t>
-  </si>
-  <si>
-    <t>Cardiovascular/Intra Aortic Balloon Pump Bedside Checks_pub.pdf</t>
-  </si>
-  <si>
-    <t>Drugs/dobutamine.pdf</t>
-  </si>
-  <si>
-    <t>Drugs/adrenaline.pdf</t>
+    <t>Drugs/neostigmine.pdf</t>
   </si>
   <si>
     <t>Drugs/vancomycin.pdf</t>
   </si>
   <si>
-    <t>Drugs/neostigmine.pdf</t>
+    <t>Drugs/labetalol.pdf</t>
+  </si>
+  <si>
+    <t>Drugs/alteplase for massive PE.pdf</t>
   </si>
   <si>
     <t>Infection_and_sepsis/Initial investigation and management in unidentified Infections.pdf</t>
@@ -469,60 +475,54 @@
     <t>Neurological/Intrathecal policy RIE feb 2023.1.pdf</t>
   </si>
   <si>
-    <t>Drugs/labetalol.pdf</t>
-  </si>
-  <si>
-    <t>Drugs/alteplase for massive PE.pdf</t>
-  </si>
-  <si>
     <t>Cardiovascular/Management of Acute Type B Aortic Dissection Guideline.pdf</t>
   </si>
   <si>
     <t>Drugs/midazolam.pdf</t>
   </si>
   <si>
+    <t>Procedures/CVC Guidance/CVC NHL  April 2023.pdf</t>
+  </si>
+  <si>
+    <t>Drugs/potassium.pdf</t>
+  </si>
+  <si>
     <t>Drugs/salbutamol.pdf</t>
   </si>
   <si>
-    <t>Drugs/potassium.pdf</t>
-  </si>
-  <si>
-    <t>Procedures/CVC Guidance/CVC NHL  April 2023.pdf</t>
+    <t>Procedures/Arterial Line insertion for ACCPs.pdf</t>
   </si>
   <si>
     <t>Drugs/amiodarone.pdf</t>
   </si>
   <si>
-    <t>Procedures/Arterial Line insertion for ACCPs.pdf</t>
+    <t>Routine_Care/ICU Eye Care Guideline.pdf</t>
   </si>
   <si>
     <t>Drugs/nicardipine.pdf</t>
   </si>
   <si>
-    <t>Routine_Care/ICU Eye Care Guideline.pdf</t>
-  </si>
-  <si>
     <t>Drugs/phenobarbitone.pdf</t>
   </si>
   <si>
+    <t>Drugs/noradrenaline (peripheral).pdf</t>
+  </si>
+  <si>
     <t>Breathing(Respiratory)/Manual Ventilation and MHI.pdf</t>
   </si>
   <si>
+    <t>Drugs/Epoprostenol.pdf</t>
+  </si>
+  <si>
+    <t>Drugs/Morphine 2023 v3.pdf</t>
+  </si>
+  <si>
     <t>Neurological/Ventriculitis Guideline.pdf</t>
   </si>
   <si>
-    <t>Drugs/Epoprostenol.pdf</t>
-  </si>
-  <si>
     <t>Drugs/Phenylephrine v4 Jun 2023.pdf</t>
   </si>
   <si>
-    <t>Drugs/noradrenaline (peripheral).pdf</t>
-  </si>
-  <si>
-    <t>Drugs/Morphine 2023 v3.pdf</t>
-  </si>
-  <si>
     <t>Cardiovascular/Cardiac Output Monitoring_pub .pdf</t>
   </si>
   <si>
@@ -538,15 +538,15 @@
     <t>Breathing(Respiratory)/Proning Guideline.pdf</t>
   </si>
   <si>
+    <t>Post_op_care/Prevention and treatment of paraplegia after major aortic procedures.pdf</t>
+  </si>
+  <si>
     <t>Procedures/ACCPs acquiring initial CVC competencies.pdf</t>
   </si>
   <si>
     <t>Procedures/ACCP CVC placement following completion of initial competencies.pdf</t>
   </si>
   <si>
-    <t>Post_op_care/Prevention and treatment of paraplegia after major aortic procedures.pdf</t>
-  </si>
-  <si>
     <t>Breathing(Respiratory)/Equipment/NIV Set up in Critical Care.pdf</t>
   </si>
   <si>
@@ -556,268 +556,268 @@
     <t>Post_op_care/Perioperative Care of the Transgender or Non-Binary Pateint.pdf</t>
   </si>
   <si>
-    <t>2011-03-10</t>
-  </si>
-  <si>
-    <t>2011-06-10</t>
-  </si>
-  <si>
-    <t>2011-07-10</t>
-  </si>
-  <si>
-    <t>2011-12-10</t>
-  </si>
-  <si>
-    <t>2014-09-10</t>
-  </si>
-  <si>
-    <t>2014-10-10</t>
-  </si>
-  <si>
-    <t>2014-11-10</t>
-  </si>
-  <si>
-    <t>2014-12-10</t>
-  </si>
-  <si>
-    <t>2015-03-10</t>
-  </si>
-  <si>
-    <t>2016-01-10</t>
-  </si>
-  <si>
-    <t>2016-04-10</t>
-  </si>
-  <si>
-    <t>2016-08-10</t>
-  </si>
-  <si>
-    <t>2017-01-10</t>
-  </si>
-  <si>
-    <t>2017-08-10</t>
-  </si>
-  <si>
-    <t>2017-09-10</t>
-  </si>
-  <si>
-    <t>2017-10-10</t>
-  </si>
-  <si>
-    <t>2017-11-10</t>
-  </si>
-  <si>
-    <t>2018-05-10</t>
-  </si>
-  <si>
-    <t>2018-07-10</t>
-  </si>
-  <si>
-    <t>2019-05-10</t>
-  </si>
-  <si>
-    <t>2019-06-10</t>
-  </si>
-  <si>
-    <t>2019-08-10</t>
-  </si>
-  <si>
-    <t>2019-09-10</t>
-  </si>
-  <si>
-    <t>2020-01-10</t>
-  </si>
-  <si>
-    <t>2020-03-10</t>
-  </si>
-  <si>
-    <t>2020-04-10</t>
-  </si>
-  <si>
-    <t>2020-05-10</t>
-  </si>
-  <si>
-    <t>2020-07-10</t>
-  </si>
-  <si>
-    <t>2020-08-10</t>
-  </si>
-  <si>
-    <t>2020-11-10</t>
-  </si>
-  <si>
-    <t>2021-02-10</t>
-  </si>
-  <si>
-    <t>2021-05-10</t>
-  </si>
-  <si>
-    <t>2021-06-10</t>
-  </si>
-  <si>
-    <t>2021-09-10</t>
-  </si>
-  <si>
-    <t>2021-12-10</t>
-  </si>
-  <si>
-    <t>2022-01-10</t>
-  </si>
-  <si>
-    <t>2022-03-10</t>
-  </si>
-  <si>
-    <t>2022-04-10</t>
-  </si>
-  <si>
-    <t>2022-05-10</t>
-  </si>
-  <si>
-    <t>2022-06-10</t>
-  </si>
-  <si>
-    <t>2022-07-10</t>
-  </si>
-  <si>
-    <t>2022-08-10</t>
-  </si>
-  <si>
-    <t>2022-09-10</t>
-  </si>
-  <si>
-    <t>2022-10-10</t>
-  </si>
-  <si>
-    <t>2022-11-10</t>
-  </si>
-  <si>
-    <t>2022-12-10</t>
-  </si>
-  <si>
-    <t>2023-01-10</t>
-  </si>
-  <si>
-    <t>2023-01-18</t>
-  </si>
-  <si>
-    <t>2023-02-10</t>
-  </si>
-  <si>
-    <t>2023-02-12</t>
-  </si>
-  <si>
-    <t>2023-04-02</t>
-  </si>
-  <si>
-    <t>2023-04-10</t>
-  </si>
-  <si>
-    <t>2023-05-10</t>
-  </si>
-  <si>
-    <t>2023-06-02</t>
-  </si>
-  <si>
-    <t>2023-06-10</t>
-  </si>
-  <si>
-    <t>2023-06-26</t>
-  </si>
-  <si>
-    <t>2023-07-10</t>
-  </si>
-  <si>
-    <t>2023-08-10</t>
-  </si>
-  <si>
-    <t>2023-08-15</t>
-  </si>
-  <si>
-    <t>2023-09-10</t>
-  </si>
-  <si>
-    <t>2023-10-10</t>
-  </si>
-  <si>
-    <t>2023-10-24</t>
-  </si>
-  <si>
-    <t>2023-11-20</t>
-  </si>
-  <si>
-    <t>2023-11-24</t>
-  </si>
-  <si>
-    <t>2023-12-24</t>
-  </si>
-  <si>
-    <t>2024-01-10</t>
-  </si>
-  <si>
-    <t>2024-02-10</t>
-  </si>
-  <si>
-    <t>2024-03-10</t>
-  </si>
-  <si>
-    <t>2024-04-10</t>
-  </si>
-  <si>
-    <t>2024-05-10</t>
-  </si>
-  <si>
-    <t>2024-06-10</t>
-  </si>
-  <si>
-    <t>2024-07-10</t>
-  </si>
-  <si>
-    <t>2024-08-10</t>
-  </si>
-  <si>
-    <t>2024-10-10</t>
-  </si>
-  <si>
-    <t>2025-01-10</t>
-  </si>
-  <si>
-    <t>2025-02-10</t>
-  </si>
-  <si>
-    <t>2025-03-10</t>
-  </si>
-  <si>
-    <t>2025-04-10</t>
-  </si>
-  <si>
-    <t>2025-05-10</t>
-  </si>
-  <si>
-    <t>2025-06-10</t>
-  </si>
-  <si>
-    <t>2025-07-10</t>
-  </si>
-  <si>
-    <t>2025-08-10</t>
-  </si>
-  <si>
-    <t>2025-10-10</t>
-  </si>
-  <si>
-    <t>2026-01-10</t>
-  </si>
-  <si>
-    <t>2026-03-10</t>
-  </si>
-  <si>
-    <t>2027-01-10</t>
-  </si>
-  <si>
-    <t>2027-02-10</t>
-  </si>
-  <si>
-    <t>2028-07-10</t>
+    <t>2011-03-03</t>
+  </si>
+  <si>
+    <t>2011-06-03</t>
+  </si>
+  <si>
+    <t>2011-07-03</t>
+  </si>
+  <si>
+    <t>2011-12-03</t>
+  </si>
+  <si>
+    <t>2014-09-03</t>
+  </si>
+  <si>
+    <t>2014-10-03</t>
+  </si>
+  <si>
+    <t>2014-11-03</t>
+  </si>
+  <si>
+    <t>2014-12-03</t>
+  </si>
+  <si>
+    <t>2015-03-03</t>
+  </si>
+  <si>
+    <t>2016-01-03</t>
+  </si>
+  <si>
+    <t>2016-04-03</t>
+  </si>
+  <si>
+    <t>2016-08-03</t>
+  </si>
+  <si>
+    <t>2017-01-03</t>
+  </si>
+  <si>
+    <t>2017-08-03</t>
+  </si>
+  <si>
+    <t>2017-09-03</t>
+  </si>
+  <si>
+    <t>2017-10-03</t>
+  </si>
+  <si>
+    <t>2017-11-03</t>
+  </si>
+  <si>
+    <t>2018-05-03</t>
+  </si>
+  <si>
+    <t>2018-07-03</t>
+  </si>
+  <si>
+    <t>2019-05-03</t>
+  </si>
+  <si>
+    <t>2019-06-03</t>
+  </si>
+  <si>
+    <t>2019-08-03</t>
+  </si>
+  <si>
+    <t>2019-09-03</t>
+  </si>
+  <si>
+    <t>2020-01-03</t>
+  </si>
+  <si>
+    <t>2020-03-03</t>
+  </si>
+  <si>
+    <t>2020-04-03</t>
+  </si>
+  <si>
+    <t>2020-05-03</t>
+  </si>
+  <si>
+    <t>2020-07-03</t>
+  </si>
+  <si>
+    <t>2020-08-03</t>
+  </si>
+  <si>
+    <t>2020-11-03</t>
+  </si>
+  <si>
+    <t>2021-02-03</t>
+  </si>
+  <si>
+    <t>2021-05-03</t>
+  </si>
+  <si>
+    <t>2021-06-03</t>
+  </si>
+  <si>
+    <t>2021-09-03</t>
+  </si>
+  <si>
+    <t>2021-12-03</t>
+  </si>
+  <si>
+    <t>2022-01-03</t>
+  </si>
+  <si>
+    <t>2022-03-03</t>
+  </si>
+  <si>
+    <t>2022-04-03</t>
+  </si>
+  <si>
+    <t>2022-05-03</t>
+  </si>
+  <si>
+    <t>2022-06-03</t>
+  </si>
+  <si>
+    <t>2022-07-03</t>
+  </si>
+  <si>
+    <t>2022-08-03</t>
+  </si>
+  <si>
+    <t>2022-09-03</t>
+  </si>
+  <si>
+    <t>2022-10-03</t>
+  </si>
+  <si>
+    <t>2022-11-03</t>
+  </si>
+  <si>
+    <t>2022-12-03</t>
+  </si>
+  <si>
+    <t>2023-01-03</t>
+  </si>
+  <si>
+    <t>2023-02-03</t>
+  </si>
+  <si>
+    <t>2023-04-03</t>
+  </si>
+  <si>
+    <t>2023-05-03</t>
+  </si>
+  <si>
+    <t>2023-06-03</t>
+  </si>
+  <si>
+    <t>2023-07-03</t>
+  </si>
+  <si>
+    <t>2023-08-03</t>
+  </si>
+  <si>
+    <t>2023-09-03</t>
+  </si>
+  <si>
+    <t>2023-10-03</t>
+  </si>
+  <si>
+    <t>2024-01-03</t>
+  </si>
+  <si>
+    <t>2024-01-18</t>
+  </si>
+  <si>
+    <t>2024-02-03</t>
+  </si>
+  <si>
+    <t>2024-02-12</t>
+  </si>
+  <si>
+    <t>2024-03-03</t>
+  </si>
+  <si>
+    <t>2024-04-02</t>
+  </si>
+  <si>
+    <t>2024-04-03</t>
+  </si>
+  <si>
+    <t>2024-05-03</t>
+  </si>
+  <si>
+    <t>2024-06-02</t>
+  </si>
+  <si>
+    <t>2024-06-03</t>
+  </si>
+  <si>
+    <t>2024-06-26</t>
+  </si>
+  <si>
+    <t>2024-07-03</t>
+  </si>
+  <si>
+    <t>2024-08-03</t>
+  </si>
+  <si>
+    <t>2024-08-15</t>
+  </si>
+  <si>
+    <t>2024-10-03</t>
+  </si>
+  <si>
+    <t>2024-10-24</t>
+  </si>
+  <si>
+    <t>2024-11-20</t>
+  </si>
+  <si>
+    <t>2024-11-24</t>
+  </si>
+  <si>
+    <t>2024-12-24</t>
+  </si>
+  <si>
+    <t>2025-01-03</t>
+  </si>
+  <si>
+    <t>2025-02-03</t>
+  </si>
+  <si>
+    <t>2025-03-03</t>
+  </si>
+  <si>
+    <t>2025-04-03</t>
+  </si>
+  <si>
+    <t>2025-05-03</t>
+  </si>
+  <si>
+    <t>2025-06-03</t>
+  </si>
+  <si>
+    <t>2025-07-03</t>
+  </si>
+  <si>
+    <t>2025-08-03</t>
+  </si>
+  <si>
+    <t>2025-10-03</t>
+  </si>
+  <si>
+    <t>2026-01-03</t>
+  </si>
+  <si>
+    <t>2026-03-03</t>
+  </si>
+  <si>
+    <t>2027-01-03</t>
+  </si>
+  <si>
+    <t>2027-02-03</t>
+  </si>
+  <si>
+    <t>2028-07-03</t>
   </si>
 </sst>
 </file>
@@ -1818,7 +1818,7 @@
         <v>80</v>
       </c>
       <c r="B80" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="81" spans="1:2">
@@ -1834,7 +1834,7 @@
         <v>82</v>
       </c>
       <c r="B82" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="83" spans="1:2">
@@ -1842,7 +1842,7 @@
         <v>83</v>
       </c>
       <c r="B83" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
     </row>
     <row r="84" spans="1:2">
@@ -1850,7 +1850,7 @@
         <v>84</v>
       </c>
       <c r="B84" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
     </row>
     <row r="85" spans="1:2">
@@ -1858,7 +1858,7 @@
         <v>85</v>
       </c>
       <c r="B85" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
     <row r="86" spans="1:2">
@@ -1866,7 +1866,7 @@
         <v>86</v>
       </c>
       <c r="B86" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
     <row r="87" spans="1:2">
@@ -1874,7 +1874,7 @@
         <v>87</v>
       </c>
       <c r="B87" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
     <row r="88" spans="1:2">
@@ -1882,7 +1882,7 @@
         <v>88</v>
       </c>
       <c r="B88" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="89" spans="1:2">
@@ -1890,7 +1890,7 @@
         <v>89</v>
       </c>
       <c r="B89" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="90" spans="1:2">
@@ -1898,7 +1898,7 @@
         <v>90</v>
       </c>
       <c r="B90" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="91" spans="1:2">
@@ -1906,7 +1906,7 @@
         <v>91</v>
       </c>
       <c r="B91" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="92" spans="1:2">
@@ -1914,7 +1914,7 @@
         <v>92</v>
       </c>
       <c r="B92" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="93" spans="1:2">
@@ -1922,7 +1922,7 @@
         <v>93</v>
       </c>
       <c r="B93" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="94" spans="1:2">
@@ -1930,7 +1930,7 @@
         <v>94</v>
       </c>
       <c r="B94" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="95" spans="1:2">
@@ -1938,7 +1938,7 @@
         <v>95</v>
       </c>
       <c r="B95" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="96" spans="1:2">
@@ -1946,7 +1946,7 @@
         <v>96</v>
       </c>
       <c r="B96" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="97" spans="1:2">
@@ -1954,7 +1954,7 @@
         <v>97</v>
       </c>
       <c r="B97" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="98" spans="1:2">
@@ -1986,7 +1986,7 @@
         <v>101</v>
       </c>
       <c r="B101" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="102" spans="1:2">
@@ -2010,7 +2010,7 @@
         <v>104</v>
       </c>
       <c r="B104" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
     </row>
     <row r="105" spans="1:2">
@@ -2018,7 +2018,7 @@
         <v>105</v>
       </c>
       <c r="B105" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
     </row>
     <row r="106" spans="1:2">
@@ -2026,7 +2026,7 @@
         <v>106</v>
       </c>
       <c r="B106" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
     </row>
     <row r="107" spans="1:2">
@@ -2034,7 +2034,7 @@
         <v>107</v>
       </c>
       <c r="B107" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
     </row>
     <row r="108" spans="1:2">
@@ -2042,7 +2042,7 @@
         <v>108</v>
       </c>
       <c r="B108" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
     </row>
     <row r="109" spans="1:2">
@@ -2050,7 +2050,7 @@
         <v>109</v>
       </c>
       <c r="B109" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
     </row>
     <row r="110" spans="1:2">
@@ -2058,7 +2058,7 @@
         <v>110</v>
       </c>
       <c r="B110" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
     </row>
     <row r="111" spans="1:2">
@@ -2066,7 +2066,7 @@
         <v>111</v>
       </c>
       <c r="B111" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
     </row>
     <row r="112" spans="1:2">
@@ -2074,7 +2074,7 @@
         <v>112</v>
       </c>
       <c r="B112" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
     </row>
     <row r="113" spans="1:2">
@@ -2082,7 +2082,7 @@
         <v>113</v>
       </c>
       <c r="B113" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
     </row>
     <row r="114" spans="1:2">
@@ -2090,7 +2090,7 @@
         <v>114</v>
       </c>
       <c r="B114" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
     </row>
     <row r="115" spans="1:2">
@@ -2098,7 +2098,7 @@
         <v>115</v>
       </c>
       <c r="B115" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
     </row>
     <row r="116" spans="1:2">
@@ -2106,7 +2106,7 @@
         <v>116</v>
       </c>
       <c r="B116" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
     </row>
     <row r="117" spans="1:2">
@@ -2114,7 +2114,7 @@
         <v>117</v>
       </c>
       <c r="B117" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
     </row>
     <row r="118" spans="1:2">
@@ -2122,7 +2122,7 @@
         <v>118</v>
       </c>
       <c r="B118" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
     </row>
     <row r="119" spans="1:2">
@@ -2130,7 +2130,7 @@
         <v>119</v>
       </c>
       <c r="B119" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
     </row>
     <row r="120" spans="1:2">
@@ -2138,7 +2138,7 @@
         <v>120</v>
       </c>
       <c r="B120" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
     </row>
     <row r="121" spans="1:2">
@@ -2146,7 +2146,7 @@
         <v>121</v>
       </c>
       <c r="B121" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
     </row>
     <row r="122" spans="1:2">
@@ -2154,7 +2154,7 @@
         <v>122</v>
       </c>
       <c r="B122" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="123" spans="1:2">
@@ -2170,7 +2170,7 @@
         <v>124</v>
       </c>
       <c r="B124" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="125" spans="1:2">
@@ -2178,7 +2178,7 @@
         <v>125</v>
       </c>
       <c r="B125" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="126" spans="1:2">
@@ -2186,7 +2186,7 @@
         <v>126</v>
       </c>
       <c r="B126" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
     </row>
     <row r="127" spans="1:2">
@@ -2194,7 +2194,7 @@
         <v>127</v>
       </c>
       <c r="B127" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
     </row>
     <row r="128" spans="1:2">
@@ -2202,7 +2202,7 @@
         <v>128</v>
       </c>
       <c r="B128" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
     </row>
     <row r="129" spans="1:2">
@@ -2210,7 +2210,7 @@
         <v>129</v>
       </c>
       <c r="B129" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
     </row>
     <row r="130" spans="1:2">
@@ -2218,7 +2218,7 @@
         <v>130</v>
       </c>
       <c r="B130" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
     </row>
     <row r="131" spans="1:2">
@@ -2226,7 +2226,7 @@
         <v>131</v>
       </c>
       <c r="B131" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="132" spans="1:2">
@@ -2234,7 +2234,7 @@
         <v>132</v>
       </c>
       <c r="B132" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="133" spans="1:2">
@@ -2242,7 +2242,7 @@
         <v>133</v>
       </c>
       <c r="B133" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="134" spans="1:2">
@@ -2250,7 +2250,7 @@
         <v>134</v>
       </c>
       <c r="B134" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="135" spans="1:2">
@@ -2258,7 +2258,7 @@
         <v>135</v>
       </c>
       <c r="B135" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="136" spans="1:2">
@@ -2266,7 +2266,7 @@
         <v>136</v>
       </c>
       <c r="B136" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
     </row>
     <row r="137" spans="1:2">
@@ -2274,7 +2274,7 @@
         <v>137</v>
       </c>
       <c r="B137" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
     </row>
     <row r="138" spans="1:2">
@@ -2282,7 +2282,7 @@
         <v>138</v>
       </c>
       <c r="B138" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
     </row>
     <row r="139" spans="1:2">
@@ -2290,7 +2290,7 @@
         <v>139</v>
       </c>
       <c r="B139" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
     </row>
     <row r="140" spans="1:2">
@@ -2298,7 +2298,7 @@
         <v>140</v>
       </c>
       <c r="B140" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
     </row>
     <row r="141" spans="1:2">
@@ -2306,7 +2306,7 @@
         <v>141</v>
       </c>
       <c r="B141" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
     </row>
     <row r="142" spans="1:2">
@@ -2314,7 +2314,7 @@
         <v>142</v>
       </c>
       <c r="B142" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
     </row>
     <row r="143" spans="1:2">
@@ -2322,7 +2322,7 @@
         <v>143</v>
       </c>
       <c r="B143" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="144" spans="1:2">
@@ -2330,7 +2330,7 @@
         <v>144</v>
       </c>
       <c r="B144" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="145" spans="1:2">
@@ -2338,7 +2338,7 @@
         <v>145</v>
       </c>
       <c r="B145" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="146" spans="1:2">

--- a/lothiancriticalcare/1a74f8f7b8b7e871b413c4697f68b4401fbacdf0/reviewdates.xlsx
+++ b/lothiancriticalcare/1a74f8f7b8b7e871b413c4697f68b4401fbacdf0/reviewdates.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="268">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="288">
   <si>
     <t>File</t>
   </si>
@@ -64,21 +64,21 @@
     <t>Routine_Care/Tracheostomy_nursing_care.pdf</t>
   </si>
   <si>
+    <t>Infection_and_sepsis/SARI/Suspected Influeza A Avian influenza H5N1 and SARS.pdf</t>
+  </si>
+  <si>
+    <t>Infection_and_sepsis/SARI/Suspected Influeza A-H7N9 Guideline.pdf</t>
+  </si>
+  <si>
     <t>Infection_and_sepsis/SARI/MERS-CoV Guideline.pdf</t>
   </si>
   <si>
-    <t>Infection_and_sepsis/SARI/Suspected Influeza A Avian influenza H5N1 and SARS.pdf</t>
-  </si>
-  <si>
-    <t>Infection_and_sepsis/SARI/Suspected Influeza A-H7N9 Guideline.pdf</t>
+    <t>ECLS/Extra Corporeal Carbon Dioxide Removal.pdf</t>
   </si>
   <si>
     <t>Airway/Critical care extubation checklist.pdf</t>
   </si>
   <si>
-    <t>ECLS/Extra Corporeal Carbon Dioxide Removal.pdf</t>
-  </si>
-  <si>
     <t>Airway/Tracheostomy_Laryngectomy/Hospital_in-patients_with_a_Tracheostomy.pdf</t>
   </si>
   <si>
@@ -88,10 +88,13 @@
     <t>Drugs/diazepam_diazemuls.pdf</t>
   </si>
   <si>
+    <t>End_of_life_care/Reasons to report a death to PF.pdf</t>
+  </si>
+  <si>
     <t>Breathing(Respiratory)/salbutamol and ipratroprium MDI.pdf</t>
   </si>
   <si>
-    <t>End_of_life_care/Reasons to report a death to PF.pdf</t>
+    <t>Neurological/SOP -  Femoral site care.pdf</t>
   </si>
   <si>
     <t>Airway/Tracheostomy_Laryngectomy/Tracheostomy suctioning cleaning guideline.pdf</t>
@@ -100,9 +103,6 @@
     <t>Airway/Tracheostomy_Laryngectomy/Tracheostomy change in Critical Care.pdf</t>
   </si>
   <si>
-    <t>Neurological/SOP -  Femoral site care.pdf</t>
-  </si>
-  <si>
     <t>Drugs/sodium_bicarbonate.pdf</t>
   </si>
   <si>
@@ -115,21 +115,21 @@
     <t>Covid-19/SJH/SJH COVID19 ITU Intubation Action Card.pdf</t>
   </si>
   <si>
+    <t>Covid-19/SJH/SJH COVID19 ED Intubation Action Card.pdf</t>
+  </si>
+  <si>
+    <t>Covid-19/WGH/CoVid intubation checklist WGH.pdf</t>
+  </si>
+  <si>
+    <t>Airway/Emergency intubation checklist_em_pub.pdf</t>
+  </si>
+  <si>
+    <t>Drugs/heparin for Haemofiltration.pdf</t>
+  </si>
+  <si>
     <t>Diabetes_and_Glucose/Hyperosmolar Hyperglycaemic State.pdf</t>
   </si>
   <si>
-    <t>Covid-19/SJH/SJH COVID19 ED Intubation Action Card.pdf</t>
-  </si>
-  <si>
-    <t>Covid-19/WGH/CoVid intubation checklist WGH.pdf</t>
-  </si>
-  <si>
-    <t>Drugs/heparin for Haemofiltration.pdf</t>
-  </si>
-  <si>
-    <t>Airway/Emergency intubation checklist_em_pub.pdf</t>
-  </si>
-  <si>
     <t>Drugs/fentanyl.pdf</t>
   </si>
   <si>
@@ -148,63 +148,57 @@
     <t>Airway/Percutaneous tracheostomy checklist.pdf</t>
   </si>
   <si>
+    <t>Delirium/Risk assessment posi mit.pdf</t>
+  </si>
+  <si>
     <t>Infection_and_sepsis/SOP Ultrasound Cleaning.pdf</t>
   </si>
   <si>
     <t>Delirium/Managing a Potentially Violent Patient.pdf</t>
   </si>
   <si>
-    <t>Delirium/Risk assessment posi mit.pdf</t>
+    <t>GI_Liver_and_Transplant/Abdominal pressure measurement.pdf</t>
+  </si>
+  <si>
+    <t>Delirium/Drugs Causing Delirium and Agitiation.pdf</t>
+  </si>
+  <si>
+    <t>Drugs/ketamine_in_asthma.pdf</t>
+  </si>
+  <si>
+    <t>Airway/Anticipated difficult airway tool.pdf</t>
+  </si>
+  <si>
+    <t>Breathing(Respiratory)/HFNO.pdf</t>
+  </si>
+  <si>
+    <t>GI_Liver_and_Transplant/Treatment of constipation.pdf</t>
   </si>
   <si>
     <t>Airway/Tracheostomy_Laryngectomy/Tracheostomy safety box contents.pdf</t>
   </si>
   <si>
-    <t>Delirium/Drugs Causing Delirium and Agitiation.pdf</t>
-  </si>
-  <si>
-    <t>GI_Liver_and_Transplant/Treatment of constipation.pdf</t>
-  </si>
-  <si>
-    <t>Breathing(Respiratory)/HFNO.pdf</t>
-  </si>
-  <si>
-    <t>GI_Liver_and_Transplant/Abdominal pressure measurement.pdf</t>
-  </si>
-  <si>
     <t>Neurological/Sub arachnoid haemorrhage management.pdf</t>
   </si>
   <si>
-    <t>Airway/Anticipated difficult airway tool.pdf</t>
-  </si>
-  <si>
     <t>Airway/McGrath Mac.pdf</t>
   </si>
   <si>
-    <t>Drugs/ketamine_in_asthma.pdf</t>
-  </si>
-  <si>
     <t>End_of_life_care/Documentation following death.pdf</t>
   </si>
   <si>
     <t>Drugs/zanamivir.pdf</t>
   </si>
   <si>
-    <t>GI_Liver_and_Transplant/stress ulcer prophylaxis.pdf</t>
-  </si>
-  <si>
     <t>Routine_Care/bBraun Spaceplus Failure EMERGENCY ACTION CARD_em.pdf</t>
   </si>
   <si>
-    <t>Drugs/phosphate.pdf</t>
+    <t>Breathing(Respiratory)/Equipment/HFNO Set Up.pdf</t>
   </si>
   <si>
     <t>Drugs/insulin.pdf</t>
   </si>
   <si>
-    <t>Breathing(Respiratory)/Equipment/HFNO Set Up.pdf</t>
-  </si>
-  <si>
     <t>Breathing(Respiratory)/Inhaled Nitrous Oxide.pdf</t>
   </si>
   <si>
@@ -226,544 +220,586 @@
     <t>Policies_and_admin/General Critical Care Interaction with HEPMA_pub.pdf</t>
   </si>
   <si>
+    <t>Drugs/midazolam and thiopental levels.pdf</t>
+  </si>
+  <si>
+    <t>Breathing(Respiratory)/Equipment/HFNO through ventilator.pdf</t>
+  </si>
+  <si>
+    <t>Post_op_care/Adult Scoliosis Spinal Surgery Post-Op Care.pdf</t>
+  </si>
+  <si>
+    <t>Routine_Care/VTE_Prevention/Dalteparin_thromboprophylaxis.pdf</t>
+  </si>
+  <si>
+    <t>Post_op_care/Post op care pharyngo-laryngo-oesphagectomy PLOG.pdf</t>
+  </si>
+  <si>
+    <t>GI_Liver_and_Transplant/Nasogastric feeding protocol.pdf</t>
+  </si>
+  <si>
+    <t>Diabetes_and_Glucose/Intravenous Insulin Therapy (not for DKA or HHS).pdf</t>
+  </si>
+  <si>
+    <t>Drugs/Antibiotic doses in CVVHD.pdf</t>
+  </si>
+  <si>
+    <t>GI_Liver_and_Transplant/Nasojejunal feeding protocol.pdf</t>
+  </si>
+  <si>
+    <t>GI_Liver_and_Transplant/Jejunostomy feeding protocol.pdf</t>
+  </si>
+  <si>
+    <t>ECLS/RIE ECLS Anti Xa Protocol.pdf</t>
+  </si>
+  <si>
+    <t>Drugs/vasopressin_sepsis.pdf</t>
+  </si>
+  <si>
+    <t>Infection_and_sepsis/Winter Infections Stepdown Guidance.pdf</t>
+  </si>
+  <si>
+    <t>Drugs/vasopressin organ donation.pdf</t>
+  </si>
+  <si>
+    <t>Transfer/ACCP Transfers.pdf</t>
+  </si>
+  <si>
+    <t>Covid-19/videos/Donning and Doffing Video.pdf</t>
+  </si>
+  <si>
+    <t>Breathing(Respiratory)/CPAP.pdf</t>
+  </si>
+  <si>
+    <t>Breathing(Respiratory)/Equipment/Ventilators Circuits Filters and Closed Suction - Set up and Maintenance.pdf</t>
+  </si>
+  <si>
+    <t>Drugs/piperacillin_tazobactam extended_infusion.pdf</t>
+  </si>
+  <si>
+    <t>Breathing(Respiratory)/Equipment/Bipap V60.pdf</t>
+  </si>
+  <si>
+    <t>Infection_and_sepsis/Infection indications for IVIG.pdf</t>
+  </si>
+  <si>
+    <t>Procedures/CVC Guidance/Securing CVCs.pdf</t>
+  </si>
+  <si>
+    <t>Covid-19/Covid 19 Death Certification Guideline.pdf</t>
+  </si>
+  <si>
+    <t>Neurological/Treatment of status epilepticus.pdf</t>
+  </si>
+  <si>
+    <t>Routine_Care/Video Communication.pdf</t>
+  </si>
+  <si>
+    <t>Drugs/isoprenaline.pdf</t>
+  </si>
+  <si>
+    <t>Cardiovascular/Cardiogenic Shock.pdf</t>
+  </si>
+  <si>
+    <t>Haematology_CAR-T/Haem_ICU_transfer.pdf</t>
+  </si>
+  <si>
+    <t>Infection_and_sepsis/SARI/Influenza A and B Virology Sampling and Oseltamivir Dose.pdf</t>
+  </si>
+  <si>
+    <t>Drugs/aminophylline.pdf</t>
+  </si>
+  <si>
+    <t>Cardiovascular/Management of hypertension within Critical Care.pdf</t>
+  </si>
+  <si>
+    <t>Drugs/phenytoin.pdf</t>
+  </si>
+  <si>
+    <t>Drugs/pancuronium.pdf</t>
+  </si>
+  <si>
+    <t>Drugs/rocuronium.pdf</t>
+  </si>
+  <si>
+    <t>Haematology_CAR-T/CRS.pdf</t>
+  </si>
+  <si>
+    <t>Haematology_CAR-T/ICANS.pdf</t>
+  </si>
+  <si>
+    <t>Drugs/nimodipine.pdf</t>
+  </si>
+  <si>
+    <t>Drugs/milrinone.pdf</t>
+  </si>
+  <si>
+    <t>Policies_and_admin/General Critical Care SOP_pub.pdf</t>
+  </si>
+  <si>
+    <t>GI_Liver_and_Transplant/ICU - Upper GI bleeding (Endoscopy guideline).pdf</t>
+  </si>
+  <si>
+    <t>Ethics_and_Law/Care at the End of Life (FICM).pdf</t>
+  </si>
+  <si>
+    <t>Drugs/clonidine.pdf</t>
+  </si>
+  <si>
+    <t>Neurological/Management of traumatic brain injury.pdf</t>
+  </si>
+  <si>
+    <t>End_of_life_care/CMO &amp; NRS Guidance for Doctors completing MCCD - Sept 22.pdf</t>
+  </si>
+  <si>
+    <t>Ethics_and_Law/DNACPR policy for Scotland.pdf</t>
+  </si>
+  <si>
+    <t>Infection_and_sepsis/Trip Out of Unit infection guidance.pdf</t>
+  </si>
+  <si>
+    <t>Neurological/Critical Care MRI Procedure_pub.pdf</t>
+  </si>
+  <si>
+    <t>Covid-19/COVID 19 ICM guidance basic goals_June_2022.pdf</t>
+  </si>
+  <si>
+    <t>Organ_donation/Organ Retrieval SOP.pdf</t>
+  </si>
+  <si>
+    <t>Airway/Cook Staged Extubation Set.pdf</t>
+  </si>
+  <si>
+    <t>Drugs/noradrenaline (central).pdf</t>
+  </si>
+  <si>
+    <t>Post_op_care/Epidural hypotension.pdf</t>
+  </si>
+  <si>
+    <t>Drugs/glyceryl_trinitrate.pdf</t>
+  </si>
+  <si>
+    <t>GI_Liver_and_Transplant/Fulminant Liver Failure.pdf</t>
+  </si>
+  <si>
+    <t>Breathing(Respiratory)/Equipment/Passy Muir Valve.pdf</t>
+  </si>
+  <si>
+    <t>GI_Liver_and_Transplant/Confirmation of Nasogastric Tube Position.pdf</t>
+  </si>
+  <si>
+    <t>Drugs/dexmedetomidine.pdf</t>
+  </si>
+  <si>
+    <t>Infection_and_sepsis/Antifungal guidance in critical care.pdf</t>
+  </si>
+  <si>
+    <t>Cardiovascular/Intra Aortic Balloon Pump Bedside Checks_pub.pdf</t>
+  </si>
+  <si>
+    <t>Cardiovascular/Intra Aortic Balloon Pump Guideline_pub.pdf</t>
+  </si>
+  <si>
+    <t>Transfer/Transfer Outdoors to Garden Guideline.pdf</t>
+  </si>
+  <si>
+    <t>Breathing(Respiratory)/ARDS Strategy.pdf</t>
+  </si>
+  <si>
+    <t>Drugs/adrenaline.pdf</t>
+  </si>
+  <si>
+    <t>Drugs/dobutamine.pdf</t>
+  </si>
+  <si>
+    <t>Drugs/hydralazine.pdf</t>
+  </si>
+  <si>
+    <t>Post_op_care/Major OMFS Free Flap.pdf</t>
+  </si>
+  <si>
+    <t>Drugs/alfentanil.pdf</t>
+  </si>
+  <si>
+    <t>Drugs/Alteplase for massive PE.pdf</t>
+  </si>
+  <si>
+    <t>Drugs/magnesium.pdf</t>
+  </si>
+  <si>
+    <t>Drugs/neostigmine.pdf</t>
+  </si>
+  <si>
+    <t>Drugs/all IV drug infusion information.pdf</t>
+  </si>
+  <si>
+    <t>Drugs/vancomycin.pdf</t>
+  </si>
+  <si>
+    <t>Infection_and_sepsis/Initial investigation and management in unidentified Infections.pdf</t>
+  </si>
+  <si>
+    <t>Neurological/Intrathecal policy RIE feb 2023.1.pdf</t>
+  </si>
+  <si>
+    <t>Drugs/labetalol.pdf</t>
+  </si>
+  <si>
+    <t>Drugs/midazolam.pdf</t>
+  </si>
+  <si>
+    <t>Cardiovascular/Management of Acute Type B Aortic Dissection Guideline.pdf</t>
+  </si>
+  <si>
+    <t>Procedures/CVC Guidance/CVC NHL  April 2023.pdf</t>
+  </si>
+  <si>
+    <t>Drugs/potassium.pdf</t>
+  </si>
+  <si>
+    <t>Drugs/salbutamol.pdf</t>
+  </si>
+  <si>
+    <t>Procedures/Arterial Line insertion for ACCPs.pdf</t>
+  </si>
+  <si>
+    <t>Drugs/phenobarbitone.pdf</t>
+  </si>
+  <si>
+    <t>Drugs/nicardipine.pdf</t>
+  </si>
+  <si>
+    <t>Drugs/amiodarone.pdf</t>
+  </si>
+  <si>
+    <t>Routine_Care/ICU Eye Care Guideline.pdf</t>
+  </si>
+  <si>
+    <t>Drugs/phenylephrine.pdf</t>
+  </si>
+  <si>
+    <t>Drugs/noradrenaline (peripheral).pdf</t>
+  </si>
+  <si>
+    <t>Drugs/Epoprostenol.pdf</t>
+  </si>
+  <si>
+    <t>Drugs/morphine.pdf</t>
+  </si>
+  <si>
+    <t>Neurological/Ventriculitis Guideline.pdf</t>
+  </si>
+  <si>
+    <t>Breathing(Respiratory)/Manual Ventilation and MHI.pdf</t>
+  </si>
+  <si>
+    <t>Drugs/calcium.pdf</t>
+  </si>
+  <si>
+    <t>Cardiovascular/Pulmonary_Embolism_and_DVT/Catheter directed thrombolysis of iliofemoral DVT alteplase_pub.pdf</t>
+  </si>
+  <si>
+    <t>Cardiovascular/Cardiac Output Monitoring_pub .pdf</t>
+  </si>
+  <si>
     <t>Drugs/atracurium.pdf</t>
   </si>
   <si>
-    <t>Infection_and_sepsis/BAL and MiniBAL standardised procedure.pdf</t>
-  </si>
-  <si>
-    <t>Drugs/midazolam and thiopental levels.pdf</t>
-  </si>
-  <si>
-    <t>Drugs/all IV drug infusion information.pdf</t>
-  </si>
-  <si>
-    <t>Breathing(Respiratory)/Equipment/HFNO through ventilator.pdf</t>
-  </si>
-  <si>
-    <t>Post_op_care/Adult Scoliosis Spinal Surgery Post-Op Care.pdf</t>
-  </si>
-  <si>
-    <t>Routine_Care/VTE_Prevention/Dalteparin_thromboprophylaxis.pdf</t>
-  </si>
-  <si>
-    <t>Post_op_care/Post op care pharyngo-laryngo-oesphagectomy PLOG.pdf</t>
-  </si>
-  <si>
-    <t>GI_Liver_and_Transplant/Nasogastric feeding protocol.pdf</t>
-  </si>
-  <si>
-    <t>Drugs/Antibiotic doses in CVVHD.pdf</t>
-  </si>
-  <si>
-    <t>Diabetes_and_Glucose/Intravenous Insulin Therapy (not for DKA or HHS).pdf</t>
-  </si>
-  <si>
-    <t>Drugs/calcium.pdf</t>
-  </si>
-  <si>
-    <t>GI_Liver_and_Transplant/Jejunostomy feeding protocol.pdf</t>
-  </si>
-  <si>
-    <t>ECLS/RIE ECLS Anti Xa Protocol.pdf</t>
-  </si>
-  <si>
-    <t>GI_Liver_and_Transplant/Nasojejunal feeding protocol.pdf</t>
-  </si>
-  <si>
-    <t>Drugs/vasopressin organ donation.pdf</t>
-  </si>
-  <si>
-    <t>Infection_and_sepsis/Winter Infections Stepdown Guidance.pdf</t>
-  </si>
-  <si>
-    <t>Drugs/vasopressin_sepsis.pdf</t>
-  </si>
-  <si>
-    <t>Transfer/ACCP Transfers.pdf</t>
-  </si>
-  <si>
-    <t>Covid-19/videos/Donning and Doffing Video.pdf</t>
+    <t>Drugs/dalteparin_thromboprophylaxis.pdf</t>
+  </si>
+  <si>
+    <t>Drugs/Vancomycin Continuous Infusion Fluid Restricted.pdf</t>
+  </si>
+  <si>
+    <t>Airway/Tracheostomy_Laryngectomy/Decannulation Guidline.pdf</t>
+  </si>
+  <si>
+    <t>Procedures/Inadvertent Catheter Placement Guideline.pdf</t>
   </si>
   <si>
     <t>Drugs/valproate.pdf</t>
   </si>
   <si>
-    <t>Drugs/thiopentone.pdf</t>
-  </si>
-  <si>
-    <t>Drugs/ketamine for status epilepticus.pdf</t>
-  </si>
-  <si>
-    <t>Breathing(Respiratory)/Equipment/Ventilators Circuits Filters and Closed Suction - Set up and Maintenance.pdf</t>
-  </si>
-  <si>
-    <t>Breathing(Respiratory)/CPAP.pdf</t>
-  </si>
-  <si>
-    <t>Breathing(Respiratory)/Equipment/Bipap V60.pdf</t>
-  </si>
-  <si>
-    <t>Drugs/piperacillin_tazobactam extended_infusion.pdf</t>
-  </si>
-  <si>
-    <t>Infection_and_sepsis/Infection indications for IVIG.pdf</t>
-  </si>
-  <si>
-    <t>Covid-19/Covid 19 Death Certification Guideline.pdf</t>
-  </si>
-  <si>
-    <t>Procedures/CVC Guidance/Securing CVCs.pdf</t>
-  </si>
-  <si>
-    <t>Routine_Care/Video Communication.pdf</t>
-  </si>
-  <si>
-    <t>Neurological/Treatment of status epilepticus.pdf</t>
-  </si>
-  <si>
-    <t>Cardiovascular/Cardiogenic Shock.pdf</t>
-  </si>
-  <si>
-    <t>Drugs/isoprenaline.pdf</t>
-  </si>
-  <si>
-    <t>Haematology_CAR-T/Haem_ICU_transfer.pdf</t>
-  </si>
-  <si>
-    <t>Infection_and_sepsis/SARI/Influenza A and B Virology Sampling and Oseltamivir Dose.pdf</t>
-  </si>
-  <si>
-    <t>Drugs/aminophylline.pdf</t>
-  </si>
-  <si>
-    <t>Cardiovascular/Management of hypertension within Critical Care.pdf</t>
-  </si>
-  <si>
-    <t>Cardiovascular/Central Venous Catheters - Guideline for Management of Misplacement.pdf</t>
-  </si>
-  <si>
-    <t>Haematology_CAR-T/CRS.pdf</t>
-  </si>
-  <si>
-    <t>Drugs/phenytoin.pdf</t>
-  </si>
-  <si>
-    <t>Drugs/rocuronium.pdf</t>
-  </si>
-  <si>
-    <t>Drugs/pancuronium.pdf</t>
-  </si>
-  <si>
-    <t>Haematology_CAR-T/ICANS.pdf</t>
-  </si>
-  <si>
-    <t>Drugs/nimodipine.pdf</t>
-  </si>
-  <si>
-    <t>Policies_and_admin/General Critical Care SOP_pub.pdf</t>
-  </si>
-  <si>
-    <t>Drugs/milrinone.pdf</t>
-  </si>
-  <si>
-    <t>Organ_donation/Organ Retrieval SOP.pdf</t>
-  </si>
-  <si>
-    <t>End_of_life_care/Withdrawal of invasive ventilation nursing guide MJB 050623-1.pdf</t>
-  </si>
-  <si>
-    <t>Infection_and_sepsis/Trip Out of Unit infection guidance.pdf</t>
-  </si>
-  <si>
-    <t>End_of_life_care/CMO &amp; NRS Guidance for Doctors completing MCCD - Sept 22.pdf</t>
-  </si>
-  <si>
-    <t>Drugs/clonidine.pdf</t>
-  </si>
-  <si>
-    <t>Covid-19/COVID 19 ICM guidance basic goals_June_2022.pdf</t>
-  </si>
-  <si>
-    <t>Neurological/Management of traumatic brain injury.pdf</t>
-  </si>
-  <si>
-    <t>Ethics_and_Law/Care at the End of Life (FICM).pdf</t>
-  </si>
-  <si>
-    <t>Ethics_and_Law/DNACPR policy for Scotland.pdf</t>
-  </si>
-  <si>
-    <t>GI_Liver_and_Transplant/ICU - Upper GI bleeding (Endoscopy guideline).pdf</t>
-  </si>
-  <si>
-    <t>Neurological/Critical Care MRI Procedure_pub.pdf</t>
-  </si>
-  <si>
-    <t>Airway/Cook Staged Extubation Set.pdf</t>
-  </si>
-  <si>
-    <t>End_of_life_care/Draft NHS Lothian Critical Care End of Life care Guidance Edited June 24th 2023 MIB 050623 (1)-1.pdf</t>
-  </si>
-  <si>
-    <t>Drugs/noradrenaline (central).pdf</t>
-  </si>
-  <si>
-    <t>Post_op_care/Epidural hypotension.pdf</t>
-  </si>
-  <si>
-    <t>Drugs/dexmedetomidine.pdf</t>
-  </si>
-  <si>
-    <t>Drugs/glyceryl_trinitrate.pdf</t>
-  </si>
-  <si>
-    <t>GI_Liver_and_Transplant/Fulminant Liver Failure.pdf</t>
-  </si>
-  <si>
-    <t>GI_Liver_and_Transplant/Confirmation of Nasogastric Tube Position.pdf</t>
-  </si>
-  <si>
-    <t>Breathing(Respiratory)/Equipment/Passy Muir Valve.pdf</t>
-  </si>
-  <si>
-    <t>Transfer/Transfer Outdoors to Garden Guideline.pdf</t>
-  </si>
-  <si>
-    <t>Cardiovascular/Intra Aortic Balloon Pump Guideline_pub.pdf</t>
-  </si>
-  <si>
-    <t>Cardiovascular/Intra Aortic Balloon Pump Bedside Checks_pub.pdf</t>
-  </si>
-  <si>
-    <t>Breathing(Respiratory)/ARDS Strategy.pdf</t>
-  </si>
-  <si>
-    <t>Drugs/dobutamine.pdf</t>
-  </si>
-  <si>
-    <t>Drugs/adrenaline.pdf</t>
-  </si>
-  <si>
-    <t>Drugs/hydralazine.pdf</t>
-  </si>
-  <si>
-    <t>Post_op_care/Major OMFS Free Flap.pdf</t>
-  </si>
-  <si>
-    <t>Drugs/alfentanil.pdf</t>
-  </si>
-  <si>
-    <t>Drugs/magnesium.pdf</t>
-  </si>
-  <si>
-    <t>Drugs/neostigmine.pdf</t>
-  </si>
-  <si>
-    <t>Drugs/vancomycin.pdf</t>
-  </si>
-  <si>
-    <t>Drugs/labetalol.pdf</t>
-  </si>
-  <si>
-    <t>Drugs/alteplase for massive PE.pdf</t>
-  </si>
-  <si>
-    <t>Infection_and_sepsis/Initial investigation and management in unidentified Infections.pdf</t>
-  </si>
-  <si>
-    <t>Neurological/Intrathecal policy RIE feb 2023.1.pdf</t>
-  </si>
-  <si>
-    <t>Cardiovascular/Management of Acute Type B Aortic Dissection Guideline.pdf</t>
-  </si>
-  <si>
-    <t>Drugs/midazolam.pdf</t>
-  </si>
-  <si>
-    <t>Procedures/CVC Guidance/CVC NHL  April 2023.pdf</t>
-  </si>
-  <si>
-    <t>Drugs/potassium.pdf</t>
-  </si>
-  <si>
-    <t>Drugs/salbutamol.pdf</t>
-  </si>
-  <si>
-    <t>Procedures/Arterial Line insertion for ACCPs.pdf</t>
-  </si>
-  <si>
-    <t>Drugs/amiodarone.pdf</t>
-  </si>
-  <si>
-    <t>Routine_Care/ICU Eye Care Guideline.pdf</t>
-  </si>
-  <si>
-    <t>Drugs/nicardipine.pdf</t>
-  </si>
-  <si>
-    <t>Drugs/phenobarbitone.pdf</t>
-  </si>
-  <si>
-    <t>Drugs/noradrenaline (peripheral).pdf</t>
-  </si>
-  <si>
-    <t>Breathing(Respiratory)/Manual Ventilation and MHI.pdf</t>
-  </si>
-  <si>
-    <t>Drugs/Epoprostenol.pdf</t>
-  </si>
-  <si>
-    <t>Drugs/Morphine 2023 v3.pdf</t>
-  </si>
-  <si>
-    <t>Neurological/Ventriculitis Guideline.pdf</t>
-  </si>
-  <si>
-    <t>Drugs/Phenylephrine v4 Jun 2023.pdf</t>
-  </si>
-  <si>
-    <t>Cardiovascular/Cardiac Output Monitoring_pub .pdf</t>
-  </si>
-  <si>
-    <t>Cardiovascular/Pulmonary_Embolism_and_DVT/Catheter directed thrombolysis of iliofemoral DVT alteplase_pub.pdf</t>
-  </si>
-  <si>
-    <t>Airway/Tracheostomy_Laryngectomy/Decannulation Guidline.pdf</t>
-  </si>
-  <si>
-    <t>Procedures/Inadvertent Catheter Placement Guideline.pdf</t>
+    <t>End_of_life_care/Pet Visitation.pdf</t>
+  </si>
+  <si>
+    <t>Policies_and_admin/Pet Visitation.pdf</t>
+  </si>
+  <si>
+    <t>Drugs/stress ulcer prophylaxis.pdf</t>
+  </si>
+  <si>
+    <t>Drugs/Phosphate.pdf</t>
+  </si>
+  <si>
+    <t>Drugs/ketamine_for_status epilepticus.pdf</t>
+  </si>
+  <si>
+    <t>Drugs/Octreotide.pdf</t>
+  </si>
+  <si>
+    <t>Drugs/Prokinetics in ICU.pdf</t>
+  </si>
+  <si>
+    <t>Drugs/Thiopentone.pdf</t>
+  </si>
+  <si>
+    <t>GI_Liver_and_Transplant/Prokinetics in ICU.pdf</t>
   </si>
   <si>
     <t>Breathing(Respiratory)/Proning Guideline.pdf</t>
   </si>
   <si>
+    <t>Procedures/ACCPs acquiring initial CVC competencies.pdf</t>
+  </si>
+  <si>
     <t>Post_op_care/Prevention and treatment of paraplegia after major aortic procedures.pdf</t>
   </si>
   <si>
-    <t>Procedures/ACCPs acquiring initial CVC competencies.pdf</t>
-  </si>
-  <si>
     <t>Procedures/ACCP CVC placement following completion of initial competencies.pdf</t>
   </si>
   <si>
-    <t>Breathing(Respiratory)/Equipment/NIV Set up in Critical Care.pdf</t>
+    <t>Delirium/Violence and Agression Guidlines.pdf</t>
+  </si>
+  <si>
+    <t>Post_op_care/Care of the Transgender Patient.pdf</t>
+  </si>
+  <si>
+    <t>GI_Liver_and_Transplant/Plasma exchange in Acute Liver Failure Guideline.pdf</t>
+  </si>
+  <si>
+    <t>End_of_life_care/Guideline following Sudden Cardiac Death where death occurs in ICU v2.pdf</t>
+  </si>
+  <si>
+    <t>Breathing(Respiratory)/Equipment/NIV through Drager Vent Set up in Critical Care.pdf</t>
+  </si>
+  <si>
+    <t>Cardiovascular/Guideline following Sudden Cardiac Death where death occurs in ICU.pdf</t>
   </si>
   <si>
     <t>Transfer/Transfer Guidelines.pdf</t>
   </si>
   <si>
-    <t>Post_op_care/Perioperative Care of the Transgender or Non-Binary Pateint.pdf</t>
-  </si>
-  <si>
-    <t>2011-03-03</t>
-  </si>
-  <si>
-    <t>2011-06-03</t>
-  </si>
-  <si>
-    <t>2011-07-03</t>
-  </si>
-  <si>
-    <t>2011-12-03</t>
-  </si>
-  <si>
-    <t>2014-09-03</t>
-  </si>
-  <si>
-    <t>2014-10-03</t>
-  </si>
-  <si>
-    <t>2014-11-03</t>
-  </si>
-  <si>
-    <t>2014-12-03</t>
-  </si>
-  <si>
-    <t>2015-03-03</t>
-  </si>
-  <si>
-    <t>2016-01-03</t>
-  </si>
-  <si>
-    <t>2016-04-03</t>
-  </si>
-  <si>
-    <t>2016-08-03</t>
-  </si>
-  <si>
-    <t>2017-01-03</t>
-  </si>
-  <si>
-    <t>2017-08-03</t>
-  </si>
-  <si>
-    <t>2017-09-03</t>
-  </si>
-  <si>
-    <t>2017-10-03</t>
-  </si>
-  <si>
-    <t>2017-11-03</t>
-  </si>
-  <si>
-    <t>2018-05-03</t>
-  </si>
-  <si>
-    <t>2018-07-03</t>
-  </si>
-  <si>
-    <t>2019-05-03</t>
-  </si>
-  <si>
-    <t>2019-06-03</t>
-  </si>
-  <si>
-    <t>2019-08-03</t>
-  </si>
-  <si>
-    <t>2019-09-03</t>
-  </si>
-  <si>
-    <t>2020-01-03</t>
-  </si>
-  <si>
-    <t>2020-03-03</t>
-  </si>
-  <si>
-    <t>2020-04-03</t>
-  </si>
-  <si>
-    <t>2020-05-03</t>
-  </si>
-  <si>
-    <t>2020-07-03</t>
-  </si>
-  <si>
-    <t>2020-08-03</t>
-  </si>
-  <si>
-    <t>2020-11-03</t>
-  </si>
-  <si>
-    <t>2021-02-03</t>
-  </si>
-  <si>
-    <t>2021-05-03</t>
-  </si>
-  <si>
-    <t>2021-06-03</t>
-  </si>
-  <si>
-    <t>2021-09-03</t>
-  </si>
-  <si>
-    <t>2021-12-03</t>
-  </si>
-  <si>
-    <t>2022-01-03</t>
-  </si>
-  <si>
-    <t>2022-03-03</t>
-  </si>
-  <si>
-    <t>2022-04-03</t>
-  </si>
-  <si>
-    <t>2022-05-03</t>
-  </si>
-  <si>
-    <t>2022-06-03</t>
-  </si>
-  <si>
-    <t>2022-07-03</t>
-  </si>
-  <si>
-    <t>2022-08-03</t>
-  </si>
-  <si>
-    <t>2022-09-03</t>
-  </si>
-  <si>
-    <t>2022-10-03</t>
-  </si>
-  <si>
-    <t>2022-11-03</t>
-  </si>
-  <si>
-    <t>2022-12-03</t>
-  </si>
-  <si>
-    <t>2023-01-03</t>
-  </si>
-  <si>
-    <t>2023-02-03</t>
-  </si>
-  <si>
-    <t>2023-04-03</t>
-  </si>
-  <si>
-    <t>2023-05-03</t>
-  </si>
-  <si>
-    <t>2023-06-03</t>
-  </si>
-  <si>
-    <t>2023-07-03</t>
-  </si>
-  <si>
-    <t>2023-08-03</t>
-  </si>
-  <si>
-    <t>2023-09-03</t>
-  </si>
-  <si>
-    <t>2023-10-03</t>
-  </si>
-  <si>
-    <t>2024-01-03</t>
+    <t>Breathing(Respiratory)/Equipment/NIV through Nihon Kohden  Setup.pdf</t>
+  </si>
+  <si>
+    <t>Infection_and_sepsis/Influenza in Critical Care.pdf</t>
+  </si>
+  <si>
+    <t>Policies_and_admin/Anticipated Post op flow surgical patients.pdf</t>
+  </si>
+  <si>
+    <t>Policies_and_admin/Discharge Home from Critical Care .pdf</t>
+  </si>
+  <si>
+    <t>Policies_and_admin/Repatriaiton Checklist for Critical Care.pdf</t>
+  </si>
+  <si>
+    <t>2011-03-04</t>
+  </si>
+  <si>
+    <t>2011-06-04</t>
+  </si>
+  <si>
+    <t>2011-07-04</t>
+  </si>
+  <si>
+    <t>2011-12-04</t>
+  </si>
+  <si>
+    <t>2014-09-04</t>
+  </si>
+  <si>
+    <t>2014-10-04</t>
+  </si>
+  <si>
+    <t>2014-11-04</t>
+  </si>
+  <si>
+    <t>2014-12-04</t>
+  </si>
+  <si>
+    <t>2015-03-04</t>
+  </si>
+  <si>
+    <t>2016-01-04</t>
+  </si>
+  <si>
+    <t>2016-04-04</t>
+  </si>
+  <si>
+    <t>2016-08-04</t>
+  </si>
+  <si>
+    <t>2017-01-04</t>
+  </si>
+  <si>
+    <t>2017-08-04</t>
+  </si>
+  <si>
+    <t>2017-09-04</t>
+  </si>
+  <si>
+    <t>2017-10-04</t>
+  </si>
+  <si>
+    <t>2017-11-04</t>
+  </si>
+  <si>
+    <t>2018-05-04</t>
+  </si>
+  <si>
+    <t>2018-07-04</t>
+  </si>
+  <si>
+    <t>2019-05-04</t>
+  </si>
+  <si>
+    <t>2019-06-04</t>
+  </si>
+  <si>
+    <t>2019-08-04</t>
+  </si>
+  <si>
+    <t>2019-09-04</t>
+  </si>
+  <si>
+    <t>2020-01-04</t>
+  </si>
+  <si>
+    <t>2020-03-04</t>
+  </si>
+  <si>
+    <t>2020-04-04</t>
+  </si>
+  <si>
+    <t>2020-05-04</t>
+  </si>
+  <si>
+    <t>2020-07-04</t>
+  </si>
+  <si>
+    <t>2020-08-04</t>
+  </si>
+  <si>
+    <t>2020-11-04</t>
+  </si>
+  <si>
+    <t>2021-02-04</t>
+  </si>
+  <si>
+    <t>2021-05-04</t>
+  </si>
+  <si>
+    <t>2021-06-04</t>
+  </si>
+  <si>
+    <t>2021-09-04</t>
+  </si>
+  <si>
+    <t>2021-12-04</t>
+  </si>
+  <si>
+    <t>2022-01-04</t>
+  </si>
+  <si>
+    <t>2022-03-04</t>
+  </si>
+  <si>
+    <t>2022-04-04</t>
+  </si>
+  <si>
+    <t>2022-05-04</t>
+  </si>
+  <si>
+    <t>2022-06-04</t>
+  </si>
+  <si>
+    <t>2022-07-04</t>
+  </si>
+  <si>
+    <t>2022-08-04</t>
+  </si>
+  <si>
+    <t>2022-10-04</t>
+  </si>
+  <si>
+    <t>2022-11-04</t>
+  </si>
+  <si>
+    <t>2022-12-04</t>
+  </si>
+  <si>
+    <t>2023-01-04</t>
+  </si>
+  <si>
+    <t>2023-02-04</t>
+  </si>
+  <si>
+    <t>2023-04-04</t>
+  </si>
+  <si>
+    <t>2023-05-04</t>
+  </si>
+  <si>
+    <t>2023-06-04</t>
+  </si>
+  <si>
+    <t>2023-07-04</t>
+  </si>
+  <si>
+    <t>2023-08-04</t>
+  </si>
+  <si>
+    <t>2023-09-04</t>
+  </si>
+  <si>
+    <t>2023-10-04</t>
+  </si>
+  <si>
+    <t>2024-01-04</t>
   </si>
   <si>
     <t>2024-01-18</t>
   </si>
   <si>
-    <t>2024-02-03</t>
-  </si>
-  <si>
-    <t>2024-02-12</t>
-  </si>
-  <si>
-    <t>2024-03-03</t>
+    <t>2024-02-04</t>
+  </si>
+  <si>
+    <t>2024-03-04</t>
   </si>
   <si>
     <t>2024-04-02</t>
   </si>
   <si>
-    <t>2024-04-03</t>
-  </si>
-  <si>
-    <t>2024-05-03</t>
+    <t>2024-04-04</t>
+  </si>
+  <si>
+    <t>2024-05-04</t>
   </si>
   <si>
     <t>2024-06-02</t>
   </si>
   <si>
-    <t>2024-06-03</t>
+    <t>2024-06-04</t>
   </si>
   <si>
     <t>2024-06-26</t>
   </si>
   <si>
-    <t>2024-07-03</t>
-  </si>
-  <si>
-    <t>2024-08-03</t>
+    <t>2024-07-04</t>
+  </si>
+  <si>
+    <t>2024-07-25</t>
+  </si>
+  <si>
+    <t>2024-08-04</t>
   </si>
   <si>
     <t>2024-08-15</t>
   </si>
   <si>
-    <t>2024-10-03</t>
+    <t>2024-10-04</t>
   </si>
   <si>
     <t>2024-10-24</t>
@@ -778,46 +814,70 @@
     <t>2024-12-24</t>
   </si>
   <si>
-    <t>2025-01-03</t>
-  </si>
-  <si>
-    <t>2025-02-03</t>
-  </si>
-  <si>
-    <t>2025-03-03</t>
-  </si>
-  <si>
-    <t>2025-04-03</t>
-  </si>
-  <si>
-    <t>2025-05-03</t>
-  </si>
-  <si>
-    <t>2025-06-03</t>
-  </si>
-  <si>
-    <t>2025-07-03</t>
-  </si>
-  <si>
-    <t>2025-08-03</t>
-  </si>
-  <si>
-    <t>2025-10-03</t>
-  </si>
-  <si>
-    <t>2026-01-03</t>
-  </si>
-  <si>
-    <t>2026-03-03</t>
-  </si>
-  <si>
-    <t>2027-01-03</t>
-  </si>
-  <si>
-    <t>2027-02-03</t>
-  </si>
-  <si>
-    <t>2028-07-03</t>
+    <t>2025-01-04</t>
+  </si>
+  <si>
+    <t>2025-02-04</t>
+  </si>
+  <si>
+    <t>2025-03-04</t>
+  </si>
+  <si>
+    <t>2025-04-04</t>
+  </si>
+  <si>
+    <t>2025-05-04</t>
+  </si>
+  <si>
+    <t>2025-06-04</t>
+  </si>
+  <si>
+    <t>2025-07-04</t>
+  </si>
+  <si>
+    <t>2025-08-04</t>
+  </si>
+  <si>
+    <t>2025-10-04</t>
+  </si>
+  <si>
+    <t>2025-11-04</t>
+  </si>
+  <si>
+    <t>2026-01-04</t>
+  </si>
+  <si>
+    <t>2026-03-04</t>
+  </si>
+  <si>
+    <t>2026-05-04</t>
+  </si>
+  <si>
+    <t>2026-07-04</t>
+  </si>
+  <si>
+    <t>2026-11-04</t>
+  </si>
+  <si>
+    <t>2027-01-04</t>
+  </si>
+  <si>
+    <t>2027-02-04</t>
+  </si>
+  <si>
+    <t>2028-02-04</t>
+  </si>
+  <si>
+    <t>2028-05-04</t>
+  </si>
+  <si>
+    <t>2028-07-04</t>
+  </si>
+  <si>
+    <t>2028-11-04</t>
+  </si>
+  <si>
+    <t>2030-11-04</t>
   </si>
 </sst>
 </file>
@@ -1175,7 +1235,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B179"/>
+  <dimension ref="A1:B192"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1194,7 +1254,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>180</v>
+        <v>193</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -1202,7 +1262,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>181</v>
+        <v>194</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -1210,7 +1270,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>182</v>
+        <v>195</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -1218,7 +1278,7 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>183</v>
+        <v>196</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -1226,7 +1286,7 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>184</v>
+        <v>197</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -1234,7 +1294,7 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>185</v>
+        <v>198</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -1242,7 +1302,7 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>186</v>
+        <v>199</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -1250,7 +1310,7 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>187</v>
+        <v>200</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -1258,7 +1318,7 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>188</v>
+        <v>201</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -1266,7 +1326,7 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>189</v>
+        <v>202</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -1274,7 +1334,7 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>190</v>
+        <v>203</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -1282,7 +1342,7 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>191</v>
+        <v>204</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -1290,7 +1350,7 @@
         <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>192</v>
+        <v>205</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -1298,7 +1358,7 @@
         <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>193</v>
+        <v>206</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -1306,7 +1366,7 @@
         <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>194</v>
+        <v>207</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -1314,7 +1374,7 @@
         <v>17</v>
       </c>
       <c r="B17" t="s">
-        <v>194</v>
+        <v>207</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -1322,7 +1382,7 @@
         <v>18</v>
       </c>
       <c r="B18" t="s">
-        <v>194</v>
+        <v>207</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -1330,7 +1390,7 @@
         <v>19</v>
       </c>
       <c r="B19" t="s">
-        <v>195</v>
+        <v>208</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -1338,7 +1398,7 @@
         <v>20</v>
       </c>
       <c r="B20" t="s">
-        <v>195</v>
+        <v>208</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -1346,7 +1406,7 @@
         <v>21</v>
       </c>
       <c r="B21" t="s">
-        <v>196</v>
+        <v>209</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -1354,7 +1414,7 @@
         <v>22</v>
       </c>
       <c r="B22" t="s">
-        <v>197</v>
+        <v>210</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -1362,7 +1422,7 @@
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>198</v>
+        <v>211</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -1370,7 +1430,7 @@
         <v>24</v>
       </c>
       <c r="B24" t="s">
-        <v>199</v>
+        <v>212</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -1378,7 +1438,7 @@
         <v>25</v>
       </c>
       <c r="B25" t="s">
-        <v>199</v>
+        <v>212</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -1386,7 +1446,7 @@
         <v>26</v>
       </c>
       <c r="B26" t="s">
-        <v>200</v>
+        <v>213</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -1394,7 +1454,7 @@
         <v>27</v>
       </c>
       <c r="B27" t="s">
-        <v>200</v>
+        <v>213</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -1402,7 +1462,7 @@
         <v>28</v>
       </c>
       <c r="B28" t="s">
-        <v>200</v>
+        <v>213</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -1410,7 +1470,7 @@
         <v>29</v>
       </c>
       <c r="B29" t="s">
-        <v>201</v>
+        <v>214</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -1418,7 +1478,7 @@
         <v>30</v>
       </c>
       <c r="B30" t="s">
-        <v>202</v>
+        <v>215</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -1426,7 +1486,7 @@
         <v>31</v>
       </c>
       <c r="B31" t="s">
-        <v>203</v>
+        <v>216</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -1434,7 +1494,7 @@
         <v>32</v>
       </c>
       <c r="B32" t="s">
-        <v>204</v>
+        <v>217</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -1442,7 +1502,7 @@
         <v>33</v>
       </c>
       <c r="B33" t="s">
-        <v>204</v>
+        <v>217</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -1450,7 +1510,7 @@
         <v>34</v>
       </c>
       <c r="B34" t="s">
-        <v>204</v>
+        <v>217</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -1458,7 +1518,7 @@
         <v>35</v>
       </c>
       <c r="B35" t="s">
-        <v>204</v>
+        <v>217</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -1466,7 +1526,7 @@
         <v>36</v>
       </c>
       <c r="B36" t="s">
-        <v>204</v>
+        <v>217</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -1474,7 +1534,7 @@
         <v>37</v>
       </c>
       <c r="B37" t="s">
-        <v>204</v>
+        <v>217</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -1482,7 +1542,7 @@
         <v>38</v>
       </c>
       <c r="B38" t="s">
-        <v>205</v>
+        <v>218</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -1490,7 +1550,7 @@
         <v>39</v>
       </c>
       <c r="B39" t="s">
-        <v>206</v>
+        <v>219</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -1498,7 +1558,7 @@
         <v>40</v>
       </c>
       <c r="B40" t="s">
-        <v>207</v>
+        <v>220</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -1506,7 +1566,7 @@
         <v>41</v>
       </c>
       <c r="B41" t="s">
-        <v>208</v>
+        <v>221</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -1514,7 +1574,7 @@
         <v>42</v>
       </c>
       <c r="B42" t="s">
-        <v>209</v>
+        <v>222</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -1522,7 +1582,7 @@
         <v>43</v>
       </c>
       <c r="B43" t="s">
-        <v>210</v>
+        <v>223</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -1530,7 +1590,7 @@
         <v>44</v>
       </c>
       <c r="B44" t="s">
-        <v>211</v>
+        <v>224</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -1538,7 +1598,7 @@
         <v>45</v>
       </c>
       <c r="B45" t="s">
-        <v>211</v>
+        <v>224</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -1546,7 +1606,7 @@
         <v>46</v>
       </c>
       <c r="B46" t="s">
-        <v>211</v>
+        <v>224</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -1554,7 +1614,7 @@
         <v>47</v>
       </c>
       <c r="B47" t="s">
-        <v>212</v>
+        <v>225</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -1562,7 +1622,7 @@
         <v>48</v>
       </c>
       <c r="B48" t="s">
-        <v>212</v>
+        <v>225</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -1570,7 +1630,7 @@
         <v>49</v>
       </c>
       <c r="B49" t="s">
-        <v>212</v>
+        <v>225</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -1578,7 +1638,7 @@
         <v>50</v>
       </c>
       <c r="B50" t="s">
-        <v>212</v>
+        <v>225</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -1586,7 +1646,7 @@
         <v>51</v>
       </c>
       <c r="B51" t="s">
-        <v>212</v>
+        <v>225</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -1594,7 +1654,7 @@
         <v>52</v>
       </c>
       <c r="B52" t="s">
-        <v>212</v>
+        <v>225</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -1602,7 +1662,7 @@
         <v>53</v>
       </c>
       <c r="B53" t="s">
-        <v>212</v>
+        <v>225</v>
       </c>
     </row>
     <row r="54" spans="1:2">
@@ -1610,7 +1670,7 @@
         <v>54</v>
       </c>
       <c r="B54" t="s">
-        <v>212</v>
+        <v>225</v>
       </c>
     </row>
     <row r="55" spans="1:2">
@@ -1618,7 +1678,7 @@
         <v>55</v>
       </c>
       <c r="B55" t="s">
-        <v>212</v>
+        <v>225</v>
       </c>
     </row>
     <row r="56" spans="1:2">
@@ -1626,7 +1686,7 @@
         <v>56</v>
       </c>
       <c r="B56" t="s">
-        <v>213</v>
+        <v>226</v>
       </c>
     </row>
     <row r="57" spans="1:2">
@@ -1634,7 +1694,7 @@
         <v>57</v>
       </c>
       <c r="B57" t="s">
-        <v>214</v>
+        <v>227</v>
       </c>
     </row>
     <row r="58" spans="1:2">
@@ -1642,7 +1702,7 @@
         <v>58</v>
       </c>
       <c r="B58" t="s">
-        <v>214</v>
+        <v>228</v>
       </c>
     </row>
     <row r="59" spans="1:2">
@@ -1650,7 +1710,7 @@
         <v>59</v>
       </c>
       <c r="B59" t="s">
-        <v>215</v>
+        <v>229</v>
       </c>
     </row>
     <row r="60" spans="1:2">
@@ -1658,7 +1718,7 @@
         <v>60</v>
       </c>
       <c r="B60" t="s">
-        <v>215</v>
+        <v>229</v>
       </c>
     </row>
     <row r="61" spans="1:2">
@@ -1666,7 +1726,7 @@
         <v>61</v>
       </c>
       <c r="B61" t="s">
-        <v>216</v>
+        <v>230</v>
       </c>
     </row>
     <row r="62" spans="1:2">
@@ -1674,7 +1734,7 @@
         <v>62</v>
       </c>
       <c r="B62" t="s">
-        <v>216</v>
+        <v>231</v>
       </c>
     </row>
     <row r="63" spans="1:2">
@@ -1682,7 +1742,7 @@
         <v>63</v>
       </c>
       <c r="B63" t="s">
-        <v>217</v>
+        <v>231</v>
       </c>
     </row>
     <row r="64" spans="1:2">
@@ -1690,7 +1750,7 @@
         <v>64</v>
       </c>
       <c r="B64" t="s">
-        <v>218</v>
+        <v>232</v>
       </c>
     </row>
     <row r="65" spans="1:2">
@@ -1698,7 +1758,7 @@
         <v>65</v>
       </c>
       <c r="B65" t="s">
-        <v>218</v>
+        <v>232</v>
       </c>
     </row>
     <row r="66" spans="1:2">
@@ -1706,7 +1766,7 @@
         <v>66</v>
       </c>
       <c r="B66" t="s">
-        <v>219</v>
+        <v>232</v>
       </c>
     </row>
     <row r="67" spans="1:2">
@@ -1714,7 +1774,7 @@
         <v>67</v>
       </c>
       <c r="B67" t="s">
-        <v>219</v>
+        <v>233</v>
       </c>
     </row>
     <row r="68" spans="1:2">
@@ -1722,7 +1782,7 @@
         <v>68</v>
       </c>
       <c r="B68" t="s">
-        <v>219</v>
+        <v>234</v>
       </c>
     </row>
     <row r="69" spans="1:2">
@@ -1730,7 +1790,7 @@
         <v>69</v>
       </c>
       <c r="B69" t="s">
-        <v>220</v>
+        <v>235</v>
       </c>
     </row>
     <row r="70" spans="1:2">
@@ -1738,7 +1798,7 @@
         <v>70</v>
       </c>
       <c r="B70" t="s">
-        <v>220</v>
+        <v>236</v>
       </c>
     </row>
     <row r="71" spans="1:2">
@@ -1746,7 +1806,7 @@
         <v>71</v>
       </c>
       <c r="B71" t="s">
-        <v>220</v>
+        <v>236</v>
       </c>
     </row>
     <row r="72" spans="1:2">
@@ -1754,7 +1814,7 @@
         <v>72</v>
       </c>
       <c r="B72" t="s">
-        <v>221</v>
+        <v>237</v>
       </c>
     </row>
     <row r="73" spans="1:2">
@@ -1762,7 +1822,7 @@
         <v>73</v>
       </c>
       <c r="B73" t="s">
-        <v>222</v>
+        <v>238</v>
       </c>
     </row>
     <row r="74" spans="1:2">
@@ -1770,7 +1830,7 @@
         <v>74</v>
       </c>
       <c r="B74" t="s">
-        <v>223</v>
+        <v>239</v>
       </c>
     </row>
     <row r="75" spans="1:2">
@@ -1778,7 +1838,7 @@
         <v>75</v>
       </c>
       <c r="B75" t="s">
-        <v>224</v>
+        <v>239</v>
       </c>
     </row>
     <row r="76" spans="1:2">
@@ -1786,7 +1846,7 @@
         <v>76</v>
       </c>
       <c r="B76" t="s">
-        <v>224</v>
+        <v>240</v>
       </c>
     </row>
     <row r="77" spans="1:2">
@@ -1794,7 +1854,7 @@
         <v>77</v>
       </c>
       <c r="B77" t="s">
-        <v>225</v>
+        <v>240</v>
       </c>
     </row>
     <row r="78" spans="1:2">
@@ -1802,7 +1862,7 @@
         <v>78</v>
       </c>
       <c r="B78" t="s">
-        <v>226</v>
+        <v>240</v>
       </c>
     </row>
     <row r="79" spans="1:2">
@@ -1810,7 +1870,7 @@
         <v>79</v>
       </c>
       <c r="B79" t="s">
-        <v>227</v>
+        <v>241</v>
       </c>
     </row>
     <row r="80" spans="1:2">
@@ -1818,7 +1878,7 @@
         <v>80</v>
       </c>
       <c r="B80" t="s">
-        <v>227</v>
+        <v>241</v>
       </c>
     </row>
     <row r="81" spans="1:2">
@@ -1826,7 +1886,7 @@
         <v>81</v>
       </c>
       <c r="B81" t="s">
-        <v>228</v>
+        <v>241</v>
       </c>
     </row>
     <row r="82" spans="1:2">
@@ -1834,7 +1894,7 @@
         <v>82</v>
       </c>
       <c r="B82" t="s">
-        <v>228</v>
+        <v>242</v>
       </c>
     </row>
     <row r="83" spans="1:2">
@@ -1842,7 +1902,7 @@
         <v>83</v>
       </c>
       <c r="B83" t="s">
-        <v>228</v>
+        <v>242</v>
       </c>
     </row>
     <row r="84" spans="1:2">
@@ -1850,7 +1910,7 @@
         <v>84</v>
       </c>
       <c r="B84" t="s">
-        <v>228</v>
+        <v>243</v>
       </c>
     </row>
     <row r="85" spans="1:2">
@@ -1858,7 +1918,7 @@
         <v>85</v>
       </c>
       <c r="B85" t="s">
-        <v>229</v>
+        <v>243</v>
       </c>
     </row>
     <row r="86" spans="1:2">
@@ -1866,7 +1926,7 @@
         <v>86</v>
       </c>
       <c r="B86" t="s">
-        <v>229</v>
+        <v>243</v>
       </c>
     </row>
     <row r="87" spans="1:2">
@@ -1874,7 +1934,7 @@
         <v>87</v>
       </c>
       <c r="B87" t="s">
-        <v>229</v>
+        <v>243</v>
       </c>
     </row>
     <row r="88" spans="1:2">
@@ -1882,7 +1942,7 @@
         <v>88</v>
       </c>
       <c r="B88" t="s">
-        <v>230</v>
+        <v>243</v>
       </c>
     </row>
     <row r="89" spans="1:2">
@@ -1890,7 +1950,7 @@
         <v>89</v>
       </c>
       <c r="B89" t="s">
-        <v>230</v>
+        <v>244</v>
       </c>
     </row>
     <row r="90" spans="1:2">
@@ -1898,7 +1958,7 @@
         <v>90</v>
       </c>
       <c r="B90" t="s">
-        <v>230</v>
+        <v>244</v>
       </c>
     </row>
     <row r="91" spans="1:2">
@@ -1906,7 +1966,7 @@
         <v>91</v>
       </c>
       <c r="B91" t="s">
-        <v>230</v>
+        <v>245</v>
       </c>
     </row>
     <row r="92" spans="1:2">
@@ -1914,7 +1974,7 @@
         <v>92</v>
       </c>
       <c r="B92" t="s">
-        <v>230</v>
+        <v>245</v>
       </c>
     </row>
     <row r="93" spans="1:2">
@@ -1922,7 +1982,7 @@
         <v>93</v>
       </c>
       <c r="B93" t="s">
-        <v>231</v>
+        <v>246</v>
       </c>
     </row>
     <row r="94" spans="1:2">
@@ -1930,7 +1990,7 @@
         <v>94</v>
       </c>
       <c r="B94" t="s">
-        <v>231</v>
+        <v>246</v>
       </c>
     </row>
     <row r="95" spans="1:2">
@@ -1938,7 +1998,7 @@
         <v>95</v>
       </c>
       <c r="B95" t="s">
-        <v>231</v>
+        <v>247</v>
       </c>
     </row>
     <row r="96" spans="1:2">
@@ -1946,7 +2006,7 @@
         <v>96</v>
       </c>
       <c r="B96" t="s">
-        <v>231</v>
+        <v>248</v>
       </c>
     </row>
     <row r="97" spans="1:2">
@@ -1954,7 +2014,7 @@
         <v>97</v>
       </c>
       <c r="B97" t="s">
-        <v>231</v>
+        <v>249</v>
       </c>
     </row>
     <row r="98" spans="1:2">
@@ -1962,7 +2022,7 @@
         <v>98</v>
       </c>
       <c r="B98" t="s">
-        <v>232</v>
+        <v>249</v>
       </c>
     </row>
     <row r="99" spans="1:2">
@@ -1970,7 +2030,7 @@
         <v>99</v>
       </c>
       <c r="B99" t="s">
-        <v>232</v>
+        <v>250</v>
       </c>
     </row>
     <row r="100" spans="1:2">
@@ -1978,7 +2038,7 @@
         <v>100</v>
       </c>
       <c r="B100" t="s">
-        <v>233</v>
+        <v>250</v>
       </c>
     </row>
     <row r="101" spans="1:2">
@@ -1986,7 +2046,7 @@
         <v>101</v>
       </c>
       <c r="B101" t="s">
-        <v>233</v>
+        <v>250</v>
       </c>
     </row>
     <row r="102" spans="1:2">
@@ -1994,7 +2054,7 @@
         <v>102</v>
       </c>
       <c r="B102" t="s">
-        <v>234</v>
+        <v>250</v>
       </c>
     </row>
     <row r="103" spans="1:2">
@@ -2002,7 +2062,7 @@
         <v>103</v>
       </c>
       <c r="B103" t="s">
-        <v>234</v>
+        <v>250</v>
       </c>
     </row>
     <row r="104" spans="1:2">
@@ -2010,7 +2070,7 @@
         <v>104</v>
       </c>
       <c r="B104" t="s">
-        <v>235</v>
+        <v>251</v>
       </c>
     </row>
     <row r="105" spans="1:2">
@@ -2018,7 +2078,7 @@
         <v>105</v>
       </c>
       <c r="B105" t="s">
-        <v>236</v>
+        <v>252</v>
       </c>
     </row>
     <row r="106" spans="1:2">
@@ -2026,7 +2086,7 @@
         <v>106</v>
       </c>
       <c r="B106" t="s">
-        <v>237</v>
+        <v>252</v>
       </c>
     </row>
     <row r="107" spans="1:2">
@@ -2034,7 +2094,7 @@
         <v>107</v>
       </c>
       <c r="B107" t="s">
-        <v>237</v>
+        <v>253</v>
       </c>
     </row>
     <row r="108" spans="1:2">
@@ -2042,7 +2102,7 @@
         <v>108</v>
       </c>
       <c r="B108" t="s">
-        <v>238</v>
+        <v>253</v>
       </c>
     </row>
     <row r="109" spans="1:2">
@@ -2050,7 +2110,7 @@
         <v>109</v>
       </c>
       <c r="B109" t="s">
-        <v>239</v>
+        <v>253</v>
       </c>
     </row>
     <row r="110" spans="1:2">
@@ -2058,7 +2118,7 @@
         <v>110</v>
       </c>
       <c r="B110" t="s">
-        <v>239</v>
+        <v>253</v>
       </c>
     </row>
     <row r="111" spans="1:2">
@@ -2066,7 +2126,7 @@
         <v>111</v>
       </c>
       <c r="B111" t="s">
-        <v>239</v>
+        <v>253</v>
       </c>
     </row>
     <row r="112" spans="1:2">
@@ -2074,7 +2134,7 @@
         <v>112</v>
       </c>
       <c r="B112" t="s">
-        <v>239</v>
+        <v>253</v>
       </c>
     </row>
     <row r="113" spans="1:2">
@@ -2082,7 +2142,7 @@
         <v>113</v>
       </c>
       <c r="B113" t="s">
-        <v>239</v>
+        <v>253</v>
       </c>
     </row>
     <row r="114" spans="1:2">
@@ -2090,7 +2150,7 @@
         <v>114</v>
       </c>
       <c r="B114" t="s">
-        <v>240</v>
+        <v>253</v>
       </c>
     </row>
     <row r="115" spans="1:2">
@@ -2098,7 +2158,7 @@
         <v>115</v>
       </c>
       <c r="B115" t="s">
-        <v>241</v>
+        <v>253</v>
       </c>
     </row>
     <row r="116" spans="1:2">
@@ -2106,7 +2166,7 @@
         <v>116</v>
       </c>
       <c r="B116" t="s">
-        <v>241</v>
+        <v>253</v>
       </c>
     </row>
     <row r="117" spans="1:2">
@@ -2114,7 +2174,7 @@
         <v>117</v>
       </c>
       <c r="B117" t="s">
-        <v>242</v>
+        <v>254</v>
       </c>
     </row>
     <row r="118" spans="1:2">
@@ -2122,7 +2182,7 @@
         <v>118</v>
       </c>
       <c r="B118" t="s">
-        <v>242</v>
+        <v>255</v>
       </c>
     </row>
     <row r="119" spans="1:2">
@@ -2130,7 +2190,7 @@
         <v>119</v>
       </c>
       <c r="B119" t="s">
-        <v>242</v>
+        <v>256</v>
       </c>
     </row>
     <row r="120" spans="1:2">
@@ -2138,7 +2198,7 @@
         <v>120</v>
       </c>
       <c r="B120" t="s">
-        <v>242</v>
+        <v>257</v>
       </c>
     </row>
     <row r="121" spans="1:2">
@@ -2146,7 +2206,7 @@
         <v>121</v>
       </c>
       <c r="B121" t="s">
-        <v>242</v>
+        <v>257</v>
       </c>
     </row>
     <row r="122" spans="1:2">
@@ -2154,7 +2214,7 @@
         <v>122</v>
       </c>
       <c r="B122" t="s">
-        <v>242</v>
+        <v>257</v>
       </c>
     </row>
     <row r="123" spans="1:2">
@@ -2162,7 +2222,7 @@
         <v>123</v>
       </c>
       <c r="B123" t="s">
-        <v>242</v>
+        <v>257</v>
       </c>
     </row>
     <row r="124" spans="1:2">
@@ -2170,7 +2230,7 @@
         <v>124</v>
       </c>
       <c r="B124" t="s">
-        <v>242</v>
+        <v>257</v>
       </c>
     </row>
     <row r="125" spans="1:2">
@@ -2178,7 +2238,7 @@
         <v>125</v>
       </c>
       <c r="B125" t="s">
-        <v>242</v>
+        <v>258</v>
       </c>
     </row>
     <row r="126" spans="1:2">
@@ -2186,7 +2246,7 @@
         <v>126</v>
       </c>
       <c r="B126" t="s">
-        <v>242</v>
+        <v>259</v>
       </c>
     </row>
     <row r="127" spans="1:2">
@@ -2194,7 +2254,7 @@
         <v>127</v>
       </c>
       <c r="B127" t="s">
-        <v>242</v>
+        <v>259</v>
       </c>
     </row>
     <row r="128" spans="1:2">
@@ -2202,7 +2262,7 @@
         <v>128</v>
       </c>
       <c r="B128" t="s">
-        <v>243</v>
+        <v>259</v>
       </c>
     </row>
     <row r="129" spans="1:2">
@@ -2210,7 +2270,7 @@
         <v>129</v>
       </c>
       <c r="B129" t="s">
-        <v>244</v>
+        <v>260</v>
       </c>
     </row>
     <row r="130" spans="1:2">
@@ -2218,7 +2278,7 @@
         <v>130</v>
       </c>
       <c r="B130" t="s">
-        <v>244</v>
+        <v>261</v>
       </c>
     </row>
     <row r="131" spans="1:2">
@@ -2226,7 +2286,7 @@
         <v>131</v>
       </c>
       <c r="B131" t="s">
-        <v>245</v>
+        <v>261</v>
       </c>
     </row>
     <row r="132" spans="1:2">
@@ -2234,7 +2294,7 @@
         <v>132</v>
       </c>
       <c r="B132" t="s">
-        <v>246</v>
+        <v>262</v>
       </c>
     </row>
     <row r="133" spans="1:2">
@@ -2242,7 +2302,7 @@
         <v>133</v>
       </c>
       <c r="B133" t="s">
-        <v>246</v>
+        <v>263</v>
       </c>
     </row>
     <row r="134" spans="1:2">
@@ -2250,7 +2310,7 @@
         <v>134</v>
       </c>
       <c r="B134" t="s">
-        <v>246</v>
+        <v>264</v>
       </c>
     </row>
     <row r="135" spans="1:2">
@@ -2258,7 +2318,7 @@
         <v>135</v>
       </c>
       <c r="B135" t="s">
-        <v>246</v>
+        <v>264</v>
       </c>
     </row>
     <row r="136" spans="1:2">
@@ -2266,7 +2326,7 @@
         <v>136</v>
       </c>
       <c r="B136" t="s">
-        <v>246</v>
+        <v>265</v>
       </c>
     </row>
     <row r="137" spans="1:2">
@@ -2274,7 +2334,7 @@
         <v>137</v>
       </c>
       <c r="B137" t="s">
-        <v>247</v>
+        <v>266</v>
       </c>
     </row>
     <row r="138" spans="1:2">
@@ -2282,7 +2342,7 @@
         <v>138</v>
       </c>
       <c r="B138" t="s">
-        <v>247</v>
+        <v>266</v>
       </c>
     </row>
     <row r="139" spans="1:2">
@@ -2290,7 +2350,7 @@
         <v>139</v>
       </c>
       <c r="B139" t="s">
-        <v>247</v>
+        <v>266</v>
       </c>
     </row>
     <row r="140" spans="1:2">
@@ -2298,7 +2358,7 @@
         <v>140</v>
       </c>
       <c r="B140" t="s">
-        <v>248</v>
+        <v>267</v>
       </c>
     </row>
     <row r="141" spans="1:2">
@@ -2306,7 +2366,7 @@
         <v>141</v>
       </c>
       <c r="B141" t="s">
-        <v>249</v>
+        <v>267</v>
       </c>
     </row>
     <row r="142" spans="1:2">
@@ -2314,7 +2374,7 @@
         <v>142</v>
       </c>
       <c r="B142" t="s">
-        <v>249</v>
+        <v>267</v>
       </c>
     </row>
     <row r="143" spans="1:2">
@@ -2322,7 +2382,7 @@
         <v>143</v>
       </c>
       <c r="B143" t="s">
-        <v>250</v>
+        <v>268</v>
       </c>
     </row>
     <row r="144" spans="1:2">
@@ -2330,7 +2390,7 @@
         <v>144</v>
       </c>
       <c r="B144" t="s">
-        <v>251</v>
+        <v>268</v>
       </c>
     </row>
     <row r="145" spans="1:2">
@@ -2338,7 +2398,7 @@
         <v>145</v>
       </c>
       <c r="B145" t="s">
-        <v>252</v>
+        <v>269</v>
       </c>
     </row>
     <row r="146" spans="1:2">
@@ -2346,7 +2406,7 @@
         <v>146</v>
       </c>
       <c r="B146" t="s">
-        <v>253</v>
+        <v>269</v>
       </c>
     </row>
     <row r="147" spans="1:2">
@@ -2354,7 +2414,7 @@
         <v>147</v>
       </c>
       <c r="B147" t="s">
-        <v>254</v>
+        <v>269</v>
       </c>
     </row>
     <row r="148" spans="1:2">
@@ -2362,7 +2422,7 @@
         <v>148</v>
       </c>
       <c r="B148" t="s">
-        <v>254</v>
+        <v>270</v>
       </c>
     </row>
     <row r="149" spans="1:2">
@@ -2370,7 +2430,7 @@
         <v>149</v>
       </c>
       <c r="B149" t="s">
-        <v>255</v>
+        <v>270</v>
       </c>
     </row>
     <row r="150" spans="1:2">
@@ -2378,7 +2438,7 @@
         <v>150</v>
       </c>
       <c r="B150" t="s">
-        <v>255</v>
+        <v>270</v>
       </c>
     </row>
     <row r="151" spans="1:2">
@@ -2386,7 +2446,7 @@
         <v>151</v>
       </c>
       <c r="B151" t="s">
-        <v>255</v>
+        <v>270</v>
       </c>
     </row>
     <row r="152" spans="1:2">
@@ -2394,7 +2454,7 @@
         <v>152</v>
       </c>
       <c r="B152" t="s">
-        <v>255</v>
+        <v>270</v>
       </c>
     </row>
     <row r="153" spans="1:2">
@@ -2402,7 +2462,7 @@
         <v>153</v>
       </c>
       <c r="B153" t="s">
-        <v>256</v>
+        <v>271</v>
       </c>
     </row>
     <row r="154" spans="1:2">
@@ -2410,7 +2470,7 @@
         <v>154</v>
       </c>
       <c r="B154" t="s">
-        <v>256</v>
+        <v>271</v>
       </c>
     </row>
     <row r="155" spans="1:2">
@@ -2418,7 +2478,7 @@
         <v>155</v>
       </c>
       <c r="B155" t="s">
-        <v>257</v>
+        <v>271</v>
       </c>
     </row>
     <row r="156" spans="1:2">
@@ -2426,7 +2486,7 @@
         <v>156</v>
       </c>
       <c r="B156" t="s">
-        <v>257</v>
+        <v>271</v>
       </c>
     </row>
     <row r="157" spans="1:2">
@@ -2434,7 +2494,7 @@
         <v>157</v>
       </c>
       <c r="B157" t="s">
-        <v>257</v>
+        <v>271</v>
       </c>
     </row>
     <row r="158" spans="1:2">
@@ -2442,7 +2502,7 @@
         <v>158</v>
       </c>
       <c r="B158" t="s">
-        <v>258</v>
+        <v>271</v>
       </c>
     </row>
     <row r="159" spans="1:2">
@@ -2450,7 +2510,7 @@
         <v>159</v>
       </c>
       <c r="B159" t="s">
-        <v>258</v>
+        <v>272</v>
       </c>
     </row>
     <row r="160" spans="1:2">
@@ -2458,7 +2518,7 @@
         <v>160</v>
       </c>
       <c r="B160" t="s">
-        <v>258</v>
+        <v>272</v>
       </c>
     </row>
     <row r="161" spans="1:2">
@@ -2466,7 +2526,7 @@
         <v>161</v>
       </c>
       <c r="B161" t="s">
-        <v>258</v>
+        <v>272</v>
       </c>
     </row>
     <row r="162" spans="1:2">
@@ -2474,7 +2534,7 @@
         <v>162</v>
       </c>
       <c r="B162" t="s">
-        <v>258</v>
+        <v>273</v>
       </c>
     </row>
     <row r="163" spans="1:2">
@@ -2482,7 +2542,7 @@
         <v>163</v>
       </c>
       <c r="B163" t="s">
-        <v>259</v>
+        <v>273</v>
       </c>
     </row>
     <row r="164" spans="1:2">
@@ -2490,7 +2550,7 @@
         <v>164</v>
       </c>
       <c r="B164" t="s">
-        <v>259</v>
+        <v>273</v>
       </c>
     </row>
     <row r="165" spans="1:2">
@@ -2498,7 +2558,7 @@
         <v>165</v>
       </c>
       <c r="B165" t="s">
-        <v>259</v>
+        <v>273</v>
       </c>
     </row>
     <row r="166" spans="1:2">
@@ -2506,7 +2566,7 @@
         <v>166</v>
       </c>
       <c r="B166" t="s">
-        <v>259</v>
+        <v>274</v>
       </c>
     </row>
     <row r="167" spans="1:2">
@@ -2514,7 +2574,7 @@
         <v>167</v>
       </c>
       <c r="B167" t="s">
-        <v>259</v>
+        <v>274</v>
       </c>
     </row>
     <row r="168" spans="1:2">
@@ -2522,7 +2582,7 @@
         <v>168</v>
       </c>
       <c r="B168" t="s">
-        <v>259</v>
+        <v>274</v>
       </c>
     </row>
     <row r="169" spans="1:2">
@@ -2530,7 +2590,7 @@
         <v>169</v>
       </c>
       <c r="B169" t="s">
-        <v>260</v>
+        <v>274</v>
       </c>
     </row>
     <row r="170" spans="1:2">
@@ -2538,7 +2598,7 @@
         <v>170</v>
       </c>
       <c r="B170" t="s">
-        <v>260</v>
+        <v>275</v>
       </c>
     </row>
     <row r="171" spans="1:2">
@@ -2546,7 +2606,7 @@
         <v>171</v>
       </c>
       <c r="B171" t="s">
-        <v>261</v>
+        <v>275</v>
       </c>
     </row>
     <row r="172" spans="1:2">
@@ -2554,7 +2614,7 @@
         <v>172</v>
       </c>
       <c r="B172" t="s">
-        <v>262</v>
+        <v>275</v>
       </c>
     </row>
     <row r="173" spans="1:2">
@@ -2562,7 +2622,7 @@
         <v>173</v>
       </c>
       <c r="B173" t="s">
-        <v>263</v>
+        <v>276</v>
       </c>
     </row>
     <row r="174" spans="1:2">
@@ -2570,7 +2630,7 @@
         <v>174</v>
       </c>
       <c r="B174" t="s">
-        <v>264</v>
+        <v>276</v>
       </c>
     </row>
     <row r="175" spans="1:2">
@@ -2578,7 +2638,7 @@
         <v>175</v>
       </c>
       <c r="B175" t="s">
-        <v>264</v>
+        <v>276</v>
       </c>
     </row>
     <row r="176" spans="1:2">
@@ -2586,7 +2646,7 @@
         <v>176</v>
       </c>
       <c r="B176" t="s">
-        <v>264</v>
+        <v>276</v>
       </c>
     </row>
     <row r="177" spans="1:2">
@@ -2594,7 +2654,7 @@
         <v>177</v>
       </c>
       <c r="B177" t="s">
-        <v>265</v>
+        <v>276</v>
       </c>
     </row>
     <row r="178" spans="1:2">
@@ -2602,7 +2662,7 @@
         <v>178</v>
       </c>
       <c r="B178" t="s">
-        <v>266</v>
+        <v>277</v>
       </c>
     </row>
     <row r="179" spans="1:2">
@@ -2610,7 +2670,111 @@
         <v>179</v>
       </c>
       <c r="B179" t="s">
-        <v>267</v>
+        <v>277</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2">
+      <c r="A180" t="s">
+        <v>180</v>
+      </c>
+      <c r="B180" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2">
+      <c r="A181" t="s">
+        <v>181</v>
+      </c>
+      <c r="B181" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2">
+      <c r="A182" t="s">
+        <v>182</v>
+      </c>
+      <c r="B182" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2">
+      <c r="A183" t="s">
+        <v>183</v>
+      </c>
+      <c r="B183" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2">
+      <c r="A184" t="s">
+        <v>184</v>
+      </c>
+      <c r="B184" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2">
+      <c r="A185" t="s">
+        <v>185</v>
+      </c>
+      <c r="B185" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2">
+      <c r="A186" t="s">
+        <v>186</v>
+      </c>
+      <c r="B186" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2">
+      <c r="A187" t="s">
+        <v>187</v>
+      </c>
+      <c r="B187" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2">
+      <c r="A188" t="s">
+        <v>188</v>
+      </c>
+      <c r="B188" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2">
+      <c r="A189" t="s">
+        <v>189</v>
+      </c>
+      <c r="B189" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2">
+      <c r="A190" t="s">
+        <v>190</v>
+      </c>
+      <c r="B190" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2">
+      <c r="A191" t="s">
+        <v>191</v>
+      </c>
+      <c r="B191" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2">
+      <c r="A192" t="s">
+        <v>192</v>
+      </c>
+      <c r="B192" t="s">
+        <v>287</v>
       </c>
     </row>
   </sheetData>

--- a/lothiancriticalcare/1a74f8f7b8b7e871b413c4697f68b4401fbacdf0/reviewdates.xlsx
+++ b/lothiancriticalcare/1a74f8f7b8b7e871b413c4697f68b4401fbacdf0/reviewdates.xlsx
@@ -67,12 +67,12 @@
     <t>Infection_and_sepsis/SARI/Suspected Influeza A Avian influenza H5N1 and SARS.pdf</t>
   </si>
   <si>
+    <t>Infection_and_sepsis/SARI/MERS-CoV Guideline.pdf</t>
+  </si>
+  <si>
     <t>Infection_and_sepsis/SARI/Suspected Influeza A-H7N9 Guideline.pdf</t>
   </si>
   <si>
-    <t>Infection_and_sepsis/SARI/MERS-CoV Guideline.pdf</t>
-  </si>
-  <si>
     <t>ECLS/Extra Corporeal Carbon Dioxide Removal.pdf</t>
   </si>
   <si>
@@ -97,12 +97,12 @@
     <t>Neurological/SOP -  Femoral site care.pdf</t>
   </si>
   <si>
+    <t>Airway/Tracheostomy_Laryngectomy/Tracheostomy change in Critical Care.pdf</t>
+  </si>
+  <si>
     <t>Airway/Tracheostomy_Laryngectomy/Tracheostomy suctioning cleaning guideline.pdf</t>
   </si>
   <si>
-    <t>Airway/Tracheostomy_Laryngectomy/Tracheostomy change in Critical Care.pdf</t>
-  </si>
-  <si>
     <t>Drugs/sodium_bicarbonate.pdf</t>
   </si>
   <si>
@@ -112,18 +112,18 @@
     <t>Post_op_care/Epidural top-up.pdf</t>
   </si>
   <si>
+    <t>Airway/Emergency intubation checklist_em_pub.pdf</t>
+  </si>
+  <si>
+    <t>Covid-19/WGH/CoVid intubation checklist WGH.pdf</t>
+  </si>
+  <si>
     <t>Covid-19/SJH/SJH COVID19 ITU Intubation Action Card.pdf</t>
   </si>
   <si>
     <t>Covid-19/SJH/SJH COVID19 ED Intubation Action Card.pdf</t>
   </si>
   <si>
-    <t>Covid-19/WGH/CoVid intubation checklist WGH.pdf</t>
-  </si>
-  <si>
-    <t>Airway/Emergency intubation checklist_em_pub.pdf</t>
-  </si>
-  <si>
     <t>Drugs/heparin for Haemofiltration.pdf</t>
   </si>
   <si>
@@ -151,39 +151,39 @@
     <t>Delirium/Risk assessment posi mit.pdf</t>
   </si>
   <si>
+    <t>Delirium/Managing a Potentially Violent Patient.pdf</t>
+  </si>
+  <si>
     <t>Infection_and_sepsis/SOP Ultrasound Cleaning.pdf</t>
   </si>
   <si>
-    <t>Delirium/Managing a Potentially Violent Patient.pdf</t>
+    <t>GI_Liver_and_Transplant/Treatment of constipation.pdf</t>
+  </si>
+  <si>
+    <t>Airway/McGrath Mac.pdf</t>
   </si>
   <si>
     <t>GI_Liver_and_Transplant/Abdominal pressure measurement.pdf</t>
   </si>
   <si>
+    <t>Breathing(Respiratory)/HFNO.pdf</t>
+  </si>
+  <si>
+    <t>Drugs/ketamine_in_asthma.pdf</t>
+  </si>
+  <si>
     <t>Delirium/Drugs Causing Delirium and Agitiation.pdf</t>
   </si>
   <si>
-    <t>Drugs/ketamine_in_asthma.pdf</t>
+    <t>Neurological/Sub arachnoid haemorrhage management.pdf</t>
   </si>
   <si>
     <t>Airway/Anticipated difficult airway tool.pdf</t>
   </si>
   <si>
-    <t>Breathing(Respiratory)/HFNO.pdf</t>
-  </si>
-  <si>
-    <t>GI_Liver_and_Transplant/Treatment of constipation.pdf</t>
-  </si>
-  <si>
     <t>Airway/Tracheostomy_Laryngectomy/Tracheostomy safety box contents.pdf</t>
   </si>
   <si>
-    <t>Neurological/Sub arachnoid haemorrhage management.pdf</t>
-  </si>
-  <si>
-    <t>Airway/McGrath Mac.pdf</t>
-  </si>
-  <si>
     <t>End_of_life_care/Documentation following death.pdf</t>
   </si>
   <si>
@@ -193,12 +193,12 @@
     <t>Routine_Care/bBraun Spaceplus Failure EMERGENCY ACTION CARD_em.pdf</t>
   </si>
   <si>
+    <t>Drugs/insulin.pdf</t>
+  </si>
+  <si>
     <t>Breathing(Respiratory)/Equipment/HFNO Set Up.pdf</t>
   </si>
   <si>
-    <t>Drugs/insulin.pdf</t>
-  </si>
-  <si>
     <t>Breathing(Respiratory)/Inhaled Nitrous Oxide.pdf</t>
   </si>
   <si>
@@ -211,12 +211,12 @@
     <t>Post_op_care/Epidural Haematoma.pdf</t>
   </si>
   <si>
+    <t>Neurological/SOP for review of Neurosurgical patients in ITU by neurosurgical team.pdf</t>
+  </si>
+  <si>
     <t>Breathing(Respiratory)/Equipment/T piece Y piece.pdf</t>
   </si>
   <si>
-    <t>Neurological/SOP for review of Neurosurgical patients in ITU by neurosurgical team.pdf</t>
-  </si>
-  <si>
     <t>Policies_and_admin/General Critical Care Interaction with HEPMA_pub.pdf</t>
   </si>
   <si>
@@ -226,12 +226,12 @@
     <t>Breathing(Respiratory)/Equipment/HFNO through ventilator.pdf</t>
   </si>
   <si>
+    <t>Routine_Care/VTE_Prevention/Dalteparin_thromboprophylaxis.pdf</t>
+  </si>
+  <si>
     <t>Post_op_care/Adult Scoliosis Spinal Surgery Post-Op Care.pdf</t>
   </si>
   <si>
-    <t>Routine_Care/VTE_Prevention/Dalteparin_thromboprophylaxis.pdf</t>
-  </si>
-  <si>
     <t>Post_op_care/Post op care pharyngo-laryngo-oesphagectomy PLOG.pdf</t>
   </si>
   <si>
@@ -244,21 +244,21 @@
     <t>Drugs/Antibiotic doses in CVVHD.pdf</t>
   </si>
   <si>
+    <t>GI_Liver_and_Transplant/Jejunostomy feeding protocol.pdf</t>
+  </si>
+  <si>
     <t>GI_Liver_and_Transplant/Nasojejunal feeding protocol.pdf</t>
   </si>
   <si>
-    <t>GI_Liver_and_Transplant/Jejunostomy feeding protocol.pdf</t>
-  </si>
-  <si>
     <t>ECLS/RIE ECLS Anti Xa Protocol.pdf</t>
   </si>
   <si>
+    <t>Infection_and_sepsis/Winter Infections Stepdown Guidance.pdf</t>
+  </si>
+  <si>
     <t>Drugs/vasopressin_sepsis.pdf</t>
   </si>
   <si>
-    <t>Infection_and_sepsis/Winter Infections Stepdown Guidance.pdf</t>
-  </si>
-  <si>
     <t>Drugs/vasopressin organ donation.pdf</t>
   </si>
   <si>
@@ -268,33 +268,33 @@
     <t>Covid-19/videos/Donning and Doffing Video.pdf</t>
   </si>
   <si>
+    <t>Breathing(Respiratory)/Equipment/Ventilators Circuits Filters and Closed Suction - Set up and Maintenance.pdf</t>
+  </si>
+  <si>
+    <t>Drugs/piperacillin_tazobactam extended_infusion.pdf</t>
+  </si>
+  <si>
+    <t>Breathing(Respiratory)/Equipment/Bipap V60.pdf</t>
+  </si>
+  <si>
     <t>Breathing(Respiratory)/CPAP.pdf</t>
   </si>
   <si>
-    <t>Breathing(Respiratory)/Equipment/Ventilators Circuits Filters and Closed Suction - Set up and Maintenance.pdf</t>
-  </si>
-  <si>
-    <t>Drugs/piperacillin_tazobactam extended_infusion.pdf</t>
-  </si>
-  <si>
-    <t>Breathing(Respiratory)/Equipment/Bipap V60.pdf</t>
-  </si>
-  <si>
     <t>Infection_and_sepsis/Infection indications for IVIG.pdf</t>
   </si>
   <si>
+    <t>Covid-19/Covid 19 Death Certification Guideline.pdf</t>
+  </si>
+  <si>
     <t>Procedures/CVC Guidance/Securing CVCs.pdf</t>
   </si>
   <si>
-    <t>Covid-19/Covid 19 Death Certification Guideline.pdf</t>
+    <t>Routine_Care/Video Communication.pdf</t>
   </si>
   <si>
     <t>Neurological/Treatment of status epilepticus.pdf</t>
   </si>
   <si>
-    <t>Routine_Care/Video Communication.pdf</t>
-  </si>
-  <si>
     <t>Drugs/isoprenaline.pdf</t>
   </si>
   <si>
@@ -307,10 +307,13 @@
     <t>Infection_and_sepsis/SARI/Influenza A and B Virology Sampling and Oseltamivir Dose.pdf</t>
   </si>
   <si>
+    <t>Cardiovascular/Management of hypertension within Critical Care.pdf</t>
+  </si>
+  <si>
     <t>Drugs/aminophylline.pdf</t>
   </si>
   <si>
-    <t>Cardiovascular/Management of hypertension within Critical Care.pdf</t>
+    <t>Haematology_CAR-T/CRS.pdf</t>
   </si>
   <si>
     <t>Drugs/phenytoin.pdf</t>
@@ -319,15 +322,12 @@
     <t>Drugs/pancuronium.pdf</t>
   </si>
   <si>
+    <t>Haematology_CAR-T/ICANS.pdf</t>
+  </si>
+  <si>
     <t>Drugs/rocuronium.pdf</t>
   </si>
   <si>
-    <t>Haematology_CAR-T/CRS.pdf</t>
-  </si>
-  <si>
-    <t>Haematology_CAR-T/ICANS.pdf</t>
-  </si>
-  <si>
     <t>Drugs/nimodipine.pdf</t>
   </si>
   <si>
@@ -337,36 +337,36 @@
     <t>Policies_and_admin/General Critical Care SOP_pub.pdf</t>
   </si>
   <si>
+    <t>Ethics_and_Law/Care at the End of Life (FICM).pdf</t>
+  </si>
+  <si>
     <t>GI_Liver_and_Transplant/ICU - Upper GI bleeding (Endoscopy guideline).pdf</t>
   </si>
   <si>
-    <t>Ethics_and_Law/Care at the End of Life (FICM).pdf</t>
+    <t>Infection_and_sepsis/Trip Out of Unit infection guidance.pdf</t>
+  </si>
+  <si>
+    <t>Ethics_and_Law/DNACPR policy for Scotland.pdf</t>
+  </si>
+  <si>
+    <t>End_of_life_care/CMO &amp; NRS Guidance for Doctors completing MCCD.pdf</t>
+  </si>
+  <si>
+    <t>Covid-19/COVID 19 ICM guidance basic goals_June_2022.pdf</t>
   </si>
   <si>
     <t>Drugs/clonidine.pdf</t>
   </si>
   <si>
+    <t>Organ_donation/Organ Retrieval SOP.pdf</t>
+  </si>
+  <si>
+    <t>Neurological/Critical Care MRI Procedure_pub.pdf</t>
+  </si>
+  <si>
     <t>Neurological/Management of traumatic brain injury.pdf</t>
   </si>
   <si>
-    <t>End_of_life_care/CMO &amp; NRS Guidance for Doctors completing MCCD - Sept 22.pdf</t>
-  </si>
-  <si>
-    <t>Ethics_and_Law/DNACPR policy for Scotland.pdf</t>
-  </si>
-  <si>
-    <t>Infection_and_sepsis/Trip Out of Unit infection guidance.pdf</t>
-  </si>
-  <si>
-    <t>Neurological/Critical Care MRI Procedure_pub.pdf</t>
-  </si>
-  <si>
-    <t>Covid-19/COVID 19 ICM guidance basic goals_June_2022.pdf</t>
-  </si>
-  <si>
-    <t>Organ_donation/Organ Retrieval SOP.pdf</t>
-  </si>
-  <si>
     <t>Airway/Cook Staged Extubation Set.pdf</t>
   </si>
   <si>
@@ -376,6 +376,9 @@
     <t>Post_op_care/Epidural hypotension.pdf</t>
   </si>
   <si>
+    <t>Drugs/dexmedetomidine.pdf</t>
+  </si>
+  <si>
     <t>Drugs/glyceryl_trinitrate.pdf</t>
   </si>
   <si>
@@ -388,21 +391,18 @@
     <t>GI_Liver_and_Transplant/Confirmation of Nasogastric Tube Position.pdf</t>
   </si>
   <si>
-    <t>Drugs/dexmedetomidine.pdf</t>
-  </si>
-  <si>
     <t>Infection_and_sepsis/Antifungal guidance in critical care.pdf</t>
   </si>
   <si>
+    <t>Transfer/Transfer Outdoors to Garden Guideline.pdf</t>
+  </si>
+  <si>
+    <t>Cardiovascular/Intra Aortic Balloon Pump Guideline_pub.pdf</t>
+  </si>
+  <si>
     <t>Cardiovascular/Intra Aortic Balloon Pump Bedside Checks_pub.pdf</t>
   </si>
   <si>
-    <t>Cardiovascular/Intra Aortic Balloon Pump Guideline_pub.pdf</t>
-  </si>
-  <si>
-    <t>Transfer/Transfer Outdoors to Garden Guideline.pdf</t>
-  </si>
-  <si>
     <t>Breathing(Respiratory)/ARDS Strategy.pdf</t>
   </si>
   <si>
@@ -418,39 +418,39 @@
     <t>Post_op_care/Major OMFS Free Flap.pdf</t>
   </si>
   <si>
+    <t>Drugs/Alteplase for massive PE.pdf</t>
+  </si>
+  <si>
     <t>Drugs/alfentanil.pdf</t>
   </si>
   <si>
-    <t>Drugs/Alteplase for massive PE.pdf</t>
-  </si>
-  <si>
     <t>Drugs/magnesium.pdf</t>
   </si>
   <si>
+    <t>Drugs/vancomycin.pdf</t>
+  </si>
+  <si>
+    <t>Drugs/all IV drug infusion information.pdf</t>
+  </si>
+  <si>
     <t>Drugs/neostigmine.pdf</t>
   </si>
   <si>
-    <t>Drugs/all IV drug infusion information.pdf</t>
-  </si>
-  <si>
-    <t>Drugs/vancomycin.pdf</t>
+    <t>Drugs/labetalol.pdf</t>
+  </si>
+  <si>
+    <t>Neurological/Intrathecal policy RIE feb 2023.1.pdf</t>
   </si>
   <si>
     <t>Infection_and_sepsis/Initial investigation and management in unidentified Infections.pdf</t>
   </si>
   <si>
-    <t>Neurological/Intrathecal policy RIE feb 2023.1.pdf</t>
-  </si>
-  <si>
-    <t>Drugs/labetalol.pdf</t>
+    <t>Cardiovascular/Management of Acute Type B Aortic Dissection Guideline.pdf</t>
   </si>
   <si>
     <t>Drugs/midazolam.pdf</t>
   </si>
   <si>
-    <t>Cardiovascular/Management of Acute Type B Aortic Dissection Guideline.pdf</t>
-  </si>
-  <si>
     <t>Procedures/CVC Guidance/CVC NHL  April 2023.pdf</t>
   </si>
   <si>
@@ -460,102 +460,102 @@
     <t>Drugs/salbutamol.pdf</t>
   </si>
   <si>
+    <t>Routine_Care/ICU Eye Care Guideline.pdf</t>
+  </si>
+  <si>
+    <t>Drugs/amiodarone.pdf</t>
+  </si>
+  <si>
     <t>Procedures/Arterial Line insertion for ACCPs.pdf</t>
   </si>
   <si>
+    <t>Drugs/nicardipine.pdf</t>
+  </si>
+  <si>
     <t>Drugs/phenobarbitone.pdf</t>
   </si>
   <si>
-    <t>Drugs/nicardipine.pdf</t>
-  </si>
-  <si>
-    <t>Drugs/amiodarone.pdf</t>
-  </si>
-  <si>
-    <t>Routine_Care/ICU Eye Care Guideline.pdf</t>
+    <t>Drugs/morphine.pdf</t>
+  </si>
+  <si>
+    <t>Drugs/noradrenaline (peripheral).pdf</t>
   </si>
   <si>
     <t>Drugs/phenylephrine.pdf</t>
   </si>
   <si>
-    <t>Drugs/noradrenaline (peripheral).pdf</t>
+    <t>Neurological/Ventriculitis Guideline.pdf</t>
   </si>
   <si>
     <t>Drugs/Epoprostenol.pdf</t>
   </si>
   <si>
-    <t>Drugs/morphine.pdf</t>
-  </si>
-  <si>
-    <t>Neurological/Ventriculitis Guideline.pdf</t>
-  </si>
-  <si>
     <t>Breathing(Respiratory)/Manual Ventilation and MHI.pdf</t>
   </si>
   <si>
+    <t>Cardiovascular/Cardiac Output Monitoring_pub .pdf</t>
+  </si>
+  <si>
     <t>Drugs/calcium.pdf</t>
   </si>
   <si>
     <t>Cardiovascular/Pulmonary_Embolism_and_DVT/Catheter directed thrombolysis of iliofemoral DVT alteplase_pub.pdf</t>
   </si>
   <si>
-    <t>Cardiovascular/Cardiac Output Monitoring_pub .pdf</t>
+    <t>Drugs/Vancomycin Continuous Infusion Fluid Restricted.pdf</t>
   </si>
   <si>
     <t>Drugs/atracurium.pdf</t>
   </si>
   <si>
+    <t>Airway/Tracheostomy_Laryngectomy/Decannulation Guidline.pdf</t>
+  </si>
+  <si>
     <t>Drugs/dalteparin_thromboprophylaxis.pdf</t>
   </si>
   <si>
-    <t>Drugs/Vancomycin Continuous Infusion Fluid Restricted.pdf</t>
-  </si>
-  <si>
-    <t>Airway/Tracheostomy_Laryngectomy/Decannulation Guidline.pdf</t>
+    <t>Policies_and_admin/Pet Visitation.pdf</t>
   </si>
   <si>
     <t>Procedures/Inadvertent Catheter Placement Guideline.pdf</t>
   </si>
   <si>
+    <t>End_of_life_care/Pet Visitation.pdf</t>
+  </si>
+  <si>
     <t>Drugs/valproate.pdf</t>
   </si>
   <si>
-    <t>End_of_life_care/Pet Visitation.pdf</t>
-  </si>
-  <si>
-    <t>Policies_and_admin/Pet Visitation.pdf</t>
-  </si>
-  <si>
     <t>Drugs/stress ulcer prophylaxis.pdf</t>
   </si>
   <si>
+    <t>Drugs/ketamine_for_status epilepticus.pdf</t>
+  </si>
+  <si>
     <t>Drugs/Phosphate.pdf</t>
   </si>
   <si>
-    <t>Drugs/ketamine_for_status epilepticus.pdf</t>
+    <t>Breathing(Respiratory)/Proning Guideline.pdf</t>
+  </si>
+  <si>
+    <t>GI_Liver_and_Transplant/Prokinetics in ICU.pdf</t>
+  </si>
+  <si>
+    <t>Drugs/Thiopentone.pdf</t>
+  </si>
+  <si>
+    <t>Drugs/Prokinetics in ICU.pdf</t>
   </si>
   <si>
     <t>Drugs/Octreotide.pdf</t>
   </si>
   <si>
-    <t>Drugs/Prokinetics in ICU.pdf</t>
-  </si>
-  <si>
-    <t>Drugs/Thiopentone.pdf</t>
-  </si>
-  <si>
-    <t>GI_Liver_and_Transplant/Prokinetics in ICU.pdf</t>
-  </si>
-  <si>
-    <t>Breathing(Respiratory)/Proning Guideline.pdf</t>
+    <t>Post_op_care/Prevention and treatment of paraplegia after major aortic procedures.pdf</t>
   </si>
   <si>
     <t>Procedures/ACCPs acquiring initial CVC competencies.pdf</t>
   </si>
   <si>
-    <t>Post_op_care/Prevention and treatment of paraplegia after major aortic procedures.pdf</t>
-  </si>
-  <si>
     <t>Procedures/ACCP CVC placement following completion of initial competencies.pdf</t>
   </si>
   <si>
@@ -568,10 +568,10 @@
     <t>GI_Liver_and_Transplant/Plasma exchange in Acute Liver Failure Guideline.pdf</t>
   </si>
   <si>
-    <t>End_of_life_care/Guideline following Sudden Cardiac Death where death occurs in ICU v2.pdf</t>
-  </si>
-  <si>
     <t>Breathing(Respiratory)/Equipment/NIV through Drager Vent Set up in Critical Care.pdf</t>
+  </si>
+  <si>
+    <t>End_of_life_care/Guideline following Sudden Cardiac Death where death occurs in ICU.pdf</t>
   </si>
   <si>
     <t>Cardiovascular/Guideline following Sudden Cardiac Death where death occurs in ICU.pdf</t>

--- a/lothiancriticalcare/1a74f8f7b8b7e871b413c4697f68b4401fbacdf0/reviewdates.xlsx
+++ b/lothiancriticalcare/1a74f8f7b8b7e871b413c4697f68b4401fbacdf0/reviewdates.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="288">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="382" uniqueCount="286">
   <si>
     <t>File</t>
   </si>
@@ -64,21 +64,21 @@
     <t>Routine_Care/Tracheostomy_nursing_care.pdf</t>
   </si>
   <si>
+    <t>Infection_and_sepsis/SARI/MERS-CoV Guideline.pdf</t>
+  </si>
+  <si>
     <t>Infection_and_sepsis/SARI/Suspected Influeza A Avian influenza H5N1 and SARS.pdf</t>
   </si>
   <si>
-    <t>Infection_and_sepsis/SARI/MERS-CoV Guideline.pdf</t>
-  </si>
-  <si>
     <t>Infection_and_sepsis/SARI/Suspected Influeza A-H7N9 Guideline.pdf</t>
   </si>
   <si>
+    <t>Airway/Critical care extubation checklist.pdf</t>
+  </si>
+  <si>
     <t>ECLS/Extra Corporeal Carbon Dioxide Removal.pdf</t>
   </si>
   <si>
-    <t>Airway/Critical care extubation checklist.pdf</t>
-  </si>
-  <si>
     <t>Airway/Tracheostomy_Laryngectomy/Hospital_in-patients_with_a_Tracheostomy.pdf</t>
   </si>
   <si>
@@ -88,18 +88,18 @@
     <t>Drugs/diazepam_diazemuls.pdf</t>
   </si>
   <si>
+    <t>Breathing(Respiratory)/salbutamol and ipratroprium MDI.pdf</t>
+  </si>
+  <si>
     <t>End_of_life_care/Reasons to report a death to PF.pdf</t>
   </si>
   <si>
-    <t>Breathing(Respiratory)/salbutamol and ipratroprium MDI.pdf</t>
+    <t>Airway/Tracheostomy_Laryngectomy/Tracheostomy change in Critical Care.pdf</t>
   </si>
   <si>
     <t>Neurological/SOP -  Femoral site care.pdf</t>
   </si>
   <si>
-    <t>Airway/Tracheostomy_Laryngectomy/Tracheostomy change in Critical Care.pdf</t>
-  </si>
-  <si>
     <t>Airway/Tracheostomy_Laryngectomy/Tracheostomy suctioning cleaning guideline.pdf</t>
   </si>
   <si>
@@ -112,24 +112,24 @@
     <t>Post_op_care/Epidural top-up.pdf</t>
   </si>
   <si>
+    <t>Drugs/heparin for Haemofiltration.pdf</t>
+  </si>
+  <si>
+    <t>Diabetes_and_Glucose/Hyperosmolar Hyperglycaemic State.pdf</t>
+  </si>
+  <si>
+    <t>Covid-19/WGH/CoVid intubation checklist WGH.pdf</t>
+  </si>
+  <si>
+    <t>Covid-19/SJH/SJH COVID19 ED Intubation Action Card.pdf</t>
+  </si>
+  <si>
+    <t>Covid-19/SJH/SJH COVID19 ITU Intubation Action Card.pdf</t>
+  </si>
+  <si>
     <t>Airway/Emergency intubation checklist_em_pub.pdf</t>
   </si>
   <si>
-    <t>Covid-19/WGH/CoVid intubation checklist WGH.pdf</t>
-  </si>
-  <si>
-    <t>Covid-19/SJH/SJH COVID19 ITU Intubation Action Card.pdf</t>
-  </si>
-  <si>
-    <t>Covid-19/SJH/SJH COVID19 ED Intubation Action Card.pdf</t>
-  </si>
-  <si>
-    <t>Drugs/heparin for Haemofiltration.pdf</t>
-  </si>
-  <si>
-    <t>Diabetes_and_Glucose/Hyperosmolar Hyperglycaemic State.pdf</t>
-  </si>
-  <si>
     <t>Drugs/fentanyl.pdf</t>
   </si>
   <si>
@@ -148,42 +148,42 @@
     <t>Airway/Percutaneous tracheostomy checklist.pdf</t>
   </si>
   <si>
+    <t>Infection_and_sepsis/SOP Ultrasound Cleaning.pdf</t>
+  </si>
+  <si>
+    <t>Delirium/Managing a Potentially Violent Patient.pdf</t>
+  </si>
+  <si>
     <t>Delirium/Risk assessment posi mit.pdf</t>
   </si>
   <si>
-    <t>Delirium/Managing a Potentially Violent Patient.pdf</t>
-  </si>
-  <si>
-    <t>Infection_and_sepsis/SOP Ultrasound Cleaning.pdf</t>
+    <t>GI_Liver_and_Transplant/Abdominal pressure measurement.pdf</t>
+  </si>
+  <si>
+    <t>Delirium/Drugs Causing Delirium and Agitiation.pdf</t>
+  </si>
+  <si>
+    <t>Airway/Tracheostomy_Laryngectomy/Tracheostomy safety box contents.pdf</t>
+  </si>
+  <si>
+    <t>Airway/McGrath Mac.pdf</t>
+  </si>
+  <si>
+    <t>Neurological/Sub arachnoid haemorrhage management.pdf</t>
   </si>
   <si>
     <t>GI_Liver_and_Transplant/Treatment of constipation.pdf</t>
   </si>
   <si>
-    <t>Airway/McGrath Mac.pdf</t>
-  </si>
-  <si>
-    <t>GI_Liver_and_Transplant/Abdominal pressure measurement.pdf</t>
-  </si>
-  <si>
     <t>Breathing(Respiratory)/HFNO.pdf</t>
   </si>
   <si>
     <t>Drugs/ketamine_in_asthma.pdf</t>
   </si>
   <si>
-    <t>Delirium/Drugs Causing Delirium and Agitiation.pdf</t>
-  </si>
-  <si>
-    <t>Neurological/Sub arachnoid haemorrhage management.pdf</t>
-  </si>
-  <si>
     <t>Airway/Anticipated difficult airway tool.pdf</t>
   </si>
   <si>
-    <t>Airway/Tracheostomy_Laryngectomy/Tracheostomy safety box contents.pdf</t>
-  </si>
-  <si>
     <t>End_of_life_care/Documentation following death.pdf</t>
   </si>
   <si>
@@ -193,12 +193,12 @@
     <t>Routine_Care/bBraun Spaceplus Failure EMERGENCY ACTION CARD_em.pdf</t>
   </si>
   <si>
+    <t>Breathing(Respiratory)/Equipment/HFNO Set Up.pdf</t>
+  </si>
+  <si>
     <t>Drugs/insulin.pdf</t>
   </si>
   <si>
-    <t>Breathing(Respiratory)/Equipment/HFNO Set Up.pdf</t>
-  </si>
-  <si>
     <t>Breathing(Respiratory)/Inhaled Nitrous Oxide.pdf</t>
   </si>
   <si>
@@ -211,12 +211,12 @@
     <t>Post_op_care/Epidural Haematoma.pdf</t>
   </si>
   <si>
+    <t>Breathing(Respiratory)/Equipment/T piece Y piece.pdf</t>
+  </si>
+  <si>
     <t>Neurological/SOP for review of Neurosurgical patients in ITU by neurosurgical team.pdf</t>
   </si>
   <si>
-    <t>Breathing(Respiratory)/Equipment/T piece Y piece.pdf</t>
-  </si>
-  <si>
     <t>Policies_and_admin/General Critical Care Interaction with HEPMA_pub.pdf</t>
   </si>
   <si>
@@ -226,30 +226,30 @@
     <t>Breathing(Respiratory)/Equipment/HFNO through ventilator.pdf</t>
   </si>
   <si>
+    <t>Post_op_care/Adult Scoliosis Spinal Surgery Post-Op Care.pdf</t>
+  </si>
+  <si>
     <t>Routine_Care/VTE_Prevention/Dalteparin_thromboprophylaxis.pdf</t>
   </si>
   <si>
-    <t>Post_op_care/Adult Scoliosis Spinal Surgery Post-Op Care.pdf</t>
-  </si>
-  <si>
     <t>Post_op_care/Post op care pharyngo-laryngo-oesphagectomy PLOG.pdf</t>
   </si>
   <si>
     <t>GI_Liver_and_Transplant/Nasogastric feeding protocol.pdf</t>
   </si>
   <si>
+    <t>Drugs/Antibiotic doses in CVVHD.pdf</t>
+  </si>
+  <si>
     <t>Diabetes_and_Glucose/Intravenous Insulin Therapy (not for DKA or HHS).pdf</t>
   </si>
   <si>
-    <t>Drugs/Antibiotic doses in CVVHD.pdf</t>
+    <t>GI_Liver_and_Transplant/Nasojejunal feeding protocol.pdf</t>
   </si>
   <si>
     <t>GI_Liver_and_Transplant/Jejunostomy feeding protocol.pdf</t>
   </si>
   <si>
-    <t>GI_Liver_and_Transplant/Nasojejunal feeding protocol.pdf</t>
-  </si>
-  <si>
     <t>ECLS/RIE ECLS Anti Xa Protocol.pdf</t>
   </si>
   <si>
@@ -268,231 +268,234 @@
     <t>Covid-19/videos/Donning and Doffing Video.pdf</t>
   </si>
   <si>
+    <t>Drugs/piperacillin_tazobactam extended_infusion.pdf</t>
+  </si>
+  <si>
+    <t>Infection_and_sepsis/Infection indications for IVIG.pdf</t>
+  </si>
+  <si>
+    <t>Breathing(Respiratory)/Equipment/Bipap V60.pdf</t>
+  </si>
+  <si>
     <t>Breathing(Respiratory)/Equipment/Ventilators Circuits Filters and Closed Suction - Set up and Maintenance.pdf</t>
   </si>
   <si>
-    <t>Drugs/piperacillin_tazobactam extended_infusion.pdf</t>
-  </si>
-  <si>
-    <t>Breathing(Respiratory)/Equipment/Bipap V60.pdf</t>
-  </si>
-  <si>
     <t>Breathing(Respiratory)/CPAP.pdf</t>
   </si>
   <si>
-    <t>Infection_and_sepsis/Infection indications for IVIG.pdf</t>
-  </si>
-  <si>
     <t>Covid-19/Covid 19 Death Certification Guideline.pdf</t>
   </si>
   <si>
     <t>Procedures/CVC Guidance/Securing CVCs.pdf</t>
   </si>
   <si>
+    <t>Neurological/Treatment of status epilepticus.pdf</t>
+  </si>
+  <si>
     <t>Routine_Care/Video Communication.pdf</t>
   </si>
   <si>
-    <t>Neurological/Treatment of status epilepticus.pdf</t>
+    <t>Cardiovascular/Cardiogenic Shock.pdf</t>
   </si>
   <si>
     <t>Drugs/isoprenaline.pdf</t>
   </si>
   <si>
-    <t>Cardiovascular/Cardiogenic Shock.pdf</t>
-  </si>
-  <si>
     <t>Haematology_CAR-T/Haem_ICU_transfer.pdf</t>
   </si>
   <si>
     <t>Infection_and_sepsis/SARI/Influenza A and B Virology Sampling and Oseltamivir Dose.pdf</t>
   </si>
   <si>
+    <t>Drugs/aminophylline.pdf</t>
+  </si>
+  <si>
     <t>Cardiovascular/Management of hypertension within Critical Care.pdf</t>
   </si>
   <si>
-    <t>Drugs/aminophylline.pdf</t>
+    <t>Drugs/phenytoin.pdf</t>
+  </si>
+  <si>
+    <t>Drugs/rocuronium.pdf</t>
+  </si>
+  <si>
+    <t>Drugs/pancuronium.pdf</t>
+  </si>
+  <si>
+    <t>Haematology_CAR-T/ICANS.pdf</t>
   </si>
   <si>
     <t>Haematology_CAR-T/CRS.pdf</t>
   </si>
   <si>
-    <t>Drugs/phenytoin.pdf</t>
-  </si>
-  <si>
-    <t>Drugs/pancuronium.pdf</t>
-  </si>
-  <si>
-    <t>Haematology_CAR-T/ICANS.pdf</t>
-  </si>
-  <si>
-    <t>Drugs/rocuronium.pdf</t>
+    <t>Drugs/milrinone.pdf</t>
+  </si>
+  <si>
+    <t>Policies_and_admin/General Critical Care SOP_pub.pdf</t>
+  </si>
+  <si>
+    <t>GI_Liver_and_Transplant/ICU - Upper GI bleeding (Endoscopy guideline).pdf</t>
+  </si>
+  <si>
+    <t>Infection_and_sepsis/Trip Out of Unit infection guidance.pdf</t>
+  </si>
+  <si>
+    <t>Covid-19/COVID 19 ICM guidance basic goals_June_2022.pdf</t>
+  </si>
+  <si>
+    <t>Ethics_and_Law/Care at the End of Life (FICM).pdf</t>
+  </si>
+  <si>
+    <t>Drugs/clonidine.pdf</t>
+  </si>
+  <si>
+    <t>Neurological/Management of traumatic brain injury.pdf</t>
+  </si>
+  <si>
+    <t>Neurological/Critical Care MRI Procedure_pub.pdf</t>
+  </si>
+  <si>
+    <t>End_of_life_care/Palliative extubation &amp; withdrawal of invasive ventilatory support nursing checklist.pdf</t>
+  </si>
+  <si>
+    <t>End_of_life_care/CMO &amp; NRS Guidance for Doctors completing MCCD.pdf</t>
+  </si>
+  <si>
+    <t>Ethics_and_Law/DNACPR policy for Scotland.pdf</t>
+  </si>
+  <si>
+    <t>Organ_donation/Organ Retrieval SOP.pdf</t>
+  </si>
+  <si>
+    <t>Airway/Cook Staged Extubation Set.pdf</t>
+  </si>
+  <si>
+    <t>Drugs/noradrenaline (central).pdf</t>
+  </si>
+  <si>
+    <t>Post_op_care/Epidural hypotension.pdf</t>
+  </si>
+  <si>
+    <t>Drugs/glyceryl_trinitrate.pdf</t>
+  </si>
+  <si>
+    <t>GI_Liver_and_Transplant/Confirmation of Nasogastric Tube Position.pdf</t>
+  </si>
+  <si>
+    <t>GI_Liver_and_Transplant/Fulminant Liver Failure.pdf</t>
+  </si>
+  <si>
+    <t>Drugs/dexmedetomidine.pdf</t>
+  </si>
+  <si>
+    <t>Breathing(Respiratory)/Equipment/Passy Muir Valve.pdf</t>
+  </si>
+  <si>
+    <t>Infection_and_sepsis/Antifungal guidance in critical care.pdf</t>
+  </si>
+  <si>
+    <t>Transfer/Transfer Outdoors to Garden Guideline.pdf</t>
+  </si>
+  <si>
+    <t>Cardiovascular/Intra Aortic Balloon Pump Bedside Checks_pub.pdf</t>
+  </si>
+  <si>
+    <t>Cardiovascular/Intra Aortic Balloon Pump Guideline_pub.pdf</t>
+  </si>
+  <si>
+    <t>Breathing(Respiratory)/ARDS Strategy.pdf</t>
+  </si>
+  <si>
+    <t>Drugs/adrenaline.pdf</t>
+  </si>
+  <si>
+    <t>Drugs/dobutamine.pdf</t>
+  </si>
+  <si>
+    <t>Drugs/hydralazine.pdf</t>
+  </si>
+  <si>
+    <t>Post_op_care/Major OMFS Free Flap.pdf</t>
+  </si>
+  <si>
+    <t>Drugs/alfentanil.pdf</t>
+  </si>
+  <si>
+    <t>Drugs/Alteplase for massive PE.pdf</t>
+  </si>
+  <si>
+    <t>Drugs/magnesium.pdf</t>
+  </si>
+  <si>
+    <t>Drugs/all IV drug infusion information.pdf</t>
+  </si>
+  <si>
+    <t>Drugs/neostigmine.pdf</t>
+  </si>
+  <si>
+    <t>Drugs/vancomycin.pdf</t>
+  </si>
+  <si>
+    <t>Drugs/labetalol.pdf</t>
+  </si>
+  <si>
+    <t>Neurological/Intrathecal policy RIE.pdf</t>
+  </si>
+  <si>
+    <t>Infection_and_sepsis/Initial investigation and management in unidentified Infections.pdf</t>
+  </si>
+  <si>
+    <t>Cardiovascular/Management of Acute Type B Aortic Dissection Guideline.pdf</t>
+  </si>
+  <si>
+    <t>Drugs/midazolam.pdf</t>
+  </si>
+  <si>
+    <t>Drugs/salbutamol.pdf</t>
+  </si>
+  <si>
+    <t>Drugs/potassium.pdf</t>
+  </si>
+  <si>
+    <t>Procedures/CVC Guidance/CVC NHL  April 2023.pdf</t>
   </si>
   <si>
     <t>Drugs/nimodipine.pdf</t>
   </si>
   <si>
-    <t>Drugs/milrinone.pdf</t>
-  </si>
-  <si>
-    <t>Policies_and_admin/General Critical Care SOP_pub.pdf</t>
-  </si>
-  <si>
-    <t>Ethics_and_Law/Care at the End of Life (FICM).pdf</t>
-  </si>
-  <si>
-    <t>GI_Liver_and_Transplant/ICU - Upper GI bleeding (Endoscopy guideline).pdf</t>
-  </si>
-  <si>
-    <t>Infection_and_sepsis/Trip Out of Unit infection guidance.pdf</t>
-  </si>
-  <si>
-    <t>Ethics_and_Law/DNACPR policy for Scotland.pdf</t>
-  </si>
-  <si>
-    <t>End_of_life_care/CMO &amp; NRS Guidance for Doctors completing MCCD.pdf</t>
-  </si>
-  <si>
-    <t>Covid-19/COVID 19 ICM guidance basic goals_June_2022.pdf</t>
-  </si>
-  <si>
-    <t>Drugs/clonidine.pdf</t>
-  </si>
-  <si>
-    <t>Organ_donation/Organ Retrieval SOP.pdf</t>
-  </si>
-  <si>
-    <t>Neurological/Critical Care MRI Procedure_pub.pdf</t>
-  </si>
-  <si>
-    <t>Neurological/Management of traumatic brain injury.pdf</t>
-  </si>
-  <si>
-    <t>Airway/Cook Staged Extubation Set.pdf</t>
-  </si>
-  <si>
-    <t>Drugs/noradrenaline (central).pdf</t>
-  </si>
-  <si>
-    <t>Post_op_care/Epidural hypotension.pdf</t>
-  </si>
-  <si>
-    <t>Drugs/dexmedetomidine.pdf</t>
-  </si>
-  <si>
-    <t>Drugs/glyceryl_trinitrate.pdf</t>
-  </si>
-  <si>
-    <t>GI_Liver_and_Transplant/Fulminant Liver Failure.pdf</t>
-  </si>
-  <si>
-    <t>Breathing(Respiratory)/Equipment/Passy Muir Valve.pdf</t>
-  </si>
-  <si>
-    <t>GI_Liver_and_Transplant/Confirmation of Nasogastric Tube Position.pdf</t>
-  </si>
-  <si>
-    <t>Infection_and_sepsis/Antifungal guidance in critical care.pdf</t>
-  </si>
-  <si>
-    <t>Transfer/Transfer Outdoors to Garden Guideline.pdf</t>
-  </si>
-  <si>
-    <t>Cardiovascular/Intra Aortic Balloon Pump Guideline_pub.pdf</t>
-  </si>
-  <si>
-    <t>Cardiovascular/Intra Aortic Balloon Pump Bedside Checks_pub.pdf</t>
-  </si>
-  <si>
-    <t>Breathing(Respiratory)/ARDS Strategy.pdf</t>
-  </si>
-  <si>
-    <t>Drugs/adrenaline.pdf</t>
-  </si>
-  <si>
-    <t>Drugs/dobutamine.pdf</t>
-  </si>
-  <si>
-    <t>Drugs/hydralazine.pdf</t>
-  </si>
-  <si>
-    <t>Post_op_care/Major OMFS Free Flap.pdf</t>
-  </si>
-  <si>
-    <t>Drugs/Alteplase for massive PE.pdf</t>
-  </si>
-  <si>
-    <t>Drugs/alfentanil.pdf</t>
-  </si>
-  <si>
-    <t>Drugs/magnesium.pdf</t>
-  </si>
-  <si>
-    <t>Drugs/vancomycin.pdf</t>
-  </si>
-  <si>
-    <t>Drugs/all IV drug infusion information.pdf</t>
-  </si>
-  <si>
-    <t>Drugs/neostigmine.pdf</t>
-  </si>
-  <si>
-    <t>Drugs/labetalol.pdf</t>
-  </si>
-  <si>
-    <t>Neurological/Intrathecal policy RIE feb 2023.1.pdf</t>
-  </si>
-  <si>
-    <t>Infection_and_sepsis/Initial investigation and management in unidentified Infections.pdf</t>
-  </si>
-  <si>
-    <t>Cardiovascular/Management of Acute Type B Aortic Dissection Guideline.pdf</t>
-  </si>
-  <si>
-    <t>Drugs/midazolam.pdf</t>
-  </si>
-  <si>
-    <t>Procedures/CVC Guidance/CVC NHL  April 2023.pdf</t>
-  </si>
-  <si>
-    <t>Drugs/potassium.pdf</t>
-  </si>
-  <si>
-    <t>Drugs/salbutamol.pdf</t>
+    <t>Drugs/amiodarone.pdf</t>
+  </si>
+  <si>
+    <t>Procedures/Arterial Line insertion for ACCPs.pdf</t>
   </si>
   <si>
     <t>Routine_Care/ICU Eye Care Guideline.pdf</t>
   </si>
   <si>
-    <t>Drugs/amiodarone.pdf</t>
-  </si>
-  <si>
-    <t>Procedures/Arterial Line insertion for ACCPs.pdf</t>
-  </si>
-  <si>
     <t>Drugs/nicardipine.pdf</t>
   </si>
   <si>
     <t>Drugs/phenobarbitone.pdf</t>
   </si>
   <si>
+    <t>Neurological/Ventriculitis Guideline.pdf</t>
+  </si>
+  <si>
+    <t>Breathing(Respiratory)/Manual Ventilation and MHI.pdf</t>
+  </si>
+  <si>
+    <t>Drugs/noradrenaline (peripheral).pdf</t>
+  </si>
+  <si>
+    <t>Drugs/phenylephrine.pdf</t>
+  </si>
+  <si>
     <t>Drugs/morphine.pdf</t>
   </si>
   <si>
-    <t>Drugs/noradrenaline (peripheral).pdf</t>
-  </si>
-  <si>
-    <t>Drugs/phenylephrine.pdf</t>
-  </si>
-  <si>
-    <t>Neurological/Ventriculitis Guideline.pdf</t>
-  </si>
-  <si>
     <t>Drugs/Epoprostenol.pdf</t>
   </si>
   <si>
-    <t>Breathing(Respiratory)/Manual Ventilation and MHI.pdf</t>
-  </si>
-  <si>
     <t>Cardiovascular/Cardiac Output Monitoring_pub .pdf</t>
   </si>
   <si>
@@ -502,27 +505,24 @@
     <t>Cardiovascular/Pulmonary_Embolism_and_DVT/Catheter directed thrombolysis of iliofemoral DVT alteplase_pub.pdf</t>
   </si>
   <si>
+    <t>Drugs/dalteparin_thromboprophylaxis.pdf</t>
+  </si>
+  <si>
     <t>Drugs/Vancomycin Continuous Infusion Fluid Restricted.pdf</t>
   </si>
   <si>
+    <t>Airway/Tracheostomy_Laryngectomy/Decannulation Guidline.pdf</t>
+  </si>
+  <si>
     <t>Drugs/atracurium.pdf</t>
   </si>
   <si>
-    <t>Airway/Tracheostomy_Laryngectomy/Decannulation Guidline.pdf</t>
-  </si>
-  <si>
-    <t>Drugs/dalteparin_thromboprophylaxis.pdf</t>
-  </si>
-  <si>
     <t>Policies_and_admin/Pet Visitation.pdf</t>
   </si>
   <si>
     <t>Procedures/Inadvertent Catheter Placement Guideline.pdf</t>
   </si>
   <si>
-    <t>End_of_life_care/Pet Visitation.pdf</t>
-  </si>
-  <si>
     <t>Drugs/valproate.pdf</t>
   </si>
   <si>
@@ -535,37 +535,37 @@
     <t>Drugs/Phosphate.pdf</t>
   </si>
   <si>
+    <t>GI_Liver_and_Transplant/Prokinetics in ICU.pdf</t>
+  </si>
+  <si>
+    <t>Drugs/Thiopentone.pdf</t>
+  </si>
+  <si>
     <t>Breathing(Respiratory)/Proning Guideline.pdf</t>
   </si>
   <si>
-    <t>GI_Liver_and_Transplant/Prokinetics in ICU.pdf</t>
-  </si>
-  <si>
-    <t>Drugs/Thiopentone.pdf</t>
-  </si>
-  <si>
     <t>Drugs/Prokinetics in ICU.pdf</t>
   </si>
   <si>
     <t>Drugs/Octreotide.pdf</t>
   </si>
   <si>
+    <t>Procedures/ACCP CVC placement following completion of initial competencies.pdf</t>
+  </si>
+  <si>
+    <t>Procedures/ACCPs acquiring initial CVC competencies.pdf</t>
+  </si>
+  <si>
     <t>Post_op_care/Prevention and treatment of paraplegia after major aortic procedures.pdf</t>
   </si>
   <si>
-    <t>Procedures/ACCPs acquiring initial CVC competencies.pdf</t>
-  </si>
-  <si>
-    <t>Procedures/ACCP CVC placement following completion of initial competencies.pdf</t>
-  </si>
-  <si>
-    <t>Delirium/Violence and Agression Guidlines.pdf</t>
+    <t>Delirium/Violence and Agression.pdf</t>
   </si>
   <si>
     <t>Post_op_care/Care of the Transgender Patient.pdf</t>
   </si>
   <si>
-    <t>GI_Liver_and_Transplant/Plasma exchange in Acute Liver Failure Guideline.pdf</t>
+    <t>GI_Liver_and_Transplant/Plasma exchange in Acute Liver Failure.pdf</t>
   </si>
   <si>
     <t>Breathing(Respiratory)/Equipment/NIV through Drager Vent Set up in Critical Care.pdf</t>
@@ -574,9 +574,6 @@
     <t>End_of_life_care/Guideline following Sudden Cardiac Death where death occurs in ICU.pdf</t>
   </si>
   <si>
-    <t>Cardiovascular/Guideline following Sudden Cardiac Death where death occurs in ICU.pdf</t>
-  </si>
-  <si>
     <t>Transfer/Transfer Guidelines.pdf</t>
   </si>
   <si>
@@ -589,217 +586,214 @@
     <t>Policies_and_admin/Anticipated Post op flow surgical patients.pdf</t>
   </si>
   <si>
-    <t>Policies_and_admin/Discharge Home from Critical Care .pdf</t>
+    <t>Policies_and_admin/Discharge Home from Critical Care.pdf</t>
   </si>
   <si>
     <t>Policies_and_admin/Repatriaiton Checklist for Critical Care.pdf</t>
   </si>
   <si>
-    <t>2011-03-04</t>
-  </si>
-  <si>
-    <t>2011-06-04</t>
-  </si>
-  <si>
-    <t>2011-07-04</t>
-  </si>
-  <si>
-    <t>2011-12-04</t>
-  </si>
-  <si>
-    <t>2014-09-04</t>
-  </si>
-  <si>
-    <t>2014-10-04</t>
-  </si>
-  <si>
-    <t>2014-11-04</t>
-  </si>
-  <si>
-    <t>2014-12-04</t>
-  </si>
-  <si>
-    <t>2015-03-04</t>
-  </si>
-  <si>
-    <t>2016-01-04</t>
-  </si>
-  <si>
-    <t>2016-04-04</t>
-  </si>
-  <si>
-    <t>2016-08-04</t>
-  </si>
-  <si>
-    <t>2017-01-04</t>
-  </si>
-  <si>
-    <t>2017-08-04</t>
-  </si>
-  <si>
-    <t>2017-09-04</t>
-  </si>
-  <si>
-    <t>2017-10-04</t>
-  </si>
-  <si>
-    <t>2017-11-04</t>
-  </si>
-  <si>
-    <t>2018-05-04</t>
-  </si>
-  <si>
-    <t>2018-07-04</t>
-  </si>
-  <si>
-    <t>2019-05-04</t>
-  </si>
-  <si>
-    <t>2019-06-04</t>
-  </si>
-  <si>
-    <t>2019-08-04</t>
-  </si>
-  <si>
-    <t>2019-09-04</t>
-  </si>
-  <si>
-    <t>2020-01-04</t>
-  </si>
-  <si>
-    <t>2020-03-04</t>
-  </si>
-  <si>
-    <t>2020-04-04</t>
-  </si>
-  <si>
-    <t>2020-05-04</t>
-  </si>
-  <si>
-    <t>2020-07-04</t>
-  </si>
-  <si>
-    <t>2020-08-04</t>
-  </si>
-  <si>
-    <t>2020-11-04</t>
-  </si>
-  <si>
-    <t>2021-02-04</t>
-  </si>
-  <si>
-    <t>2021-05-04</t>
-  </si>
-  <si>
-    <t>2021-06-04</t>
-  </si>
-  <si>
-    <t>2021-09-04</t>
-  </si>
-  <si>
-    <t>2021-12-04</t>
-  </si>
-  <si>
-    <t>2022-01-04</t>
-  </si>
-  <si>
-    <t>2022-03-04</t>
-  </si>
-  <si>
-    <t>2022-04-04</t>
-  </si>
-  <si>
-    <t>2022-05-04</t>
-  </si>
-  <si>
-    <t>2022-06-04</t>
-  </si>
-  <si>
-    <t>2022-07-04</t>
-  </si>
-  <si>
-    <t>2022-08-04</t>
-  </si>
-  <si>
-    <t>2022-10-04</t>
-  </si>
-  <si>
-    <t>2022-11-04</t>
-  </si>
-  <si>
-    <t>2022-12-04</t>
-  </si>
-  <si>
-    <t>2023-01-04</t>
-  </si>
-  <si>
-    <t>2023-02-04</t>
-  </si>
-  <si>
-    <t>2023-04-04</t>
-  </si>
-  <si>
-    <t>2023-05-04</t>
-  </si>
-  <si>
-    <t>2023-06-04</t>
-  </si>
-  <si>
-    <t>2023-07-04</t>
-  </si>
-  <si>
-    <t>2023-08-04</t>
-  </si>
-  <si>
-    <t>2023-09-04</t>
-  </si>
-  <si>
-    <t>2023-10-04</t>
-  </si>
-  <si>
-    <t>2024-01-04</t>
+    <t>2011-03-05</t>
+  </si>
+  <si>
+    <t>2011-06-05</t>
+  </si>
+  <si>
+    <t>2011-07-05</t>
+  </si>
+  <si>
+    <t>2011-12-05</t>
+  </si>
+  <si>
+    <t>2014-09-05</t>
+  </si>
+  <si>
+    <t>2014-10-05</t>
+  </si>
+  <si>
+    <t>2014-11-05</t>
+  </si>
+  <si>
+    <t>2014-12-05</t>
+  </si>
+  <si>
+    <t>2015-03-05</t>
+  </si>
+  <si>
+    <t>2016-01-05</t>
+  </si>
+  <si>
+    <t>2016-04-05</t>
+  </si>
+  <si>
+    <t>2016-08-05</t>
+  </si>
+  <si>
+    <t>2017-01-05</t>
+  </si>
+  <si>
+    <t>2017-08-05</t>
+  </si>
+  <si>
+    <t>2017-09-05</t>
+  </si>
+  <si>
+    <t>2017-10-05</t>
+  </si>
+  <si>
+    <t>2017-11-05</t>
+  </si>
+  <si>
+    <t>2018-05-05</t>
+  </si>
+  <si>
+    <t>2018-07-05</t>
+  </si>
+  <si>
+    <t>2019-05-05</t>
+  </si>
+  <si>
+    <t>2019-06-05</t>
+  </si>
+  <si>
+    <t>2019-08-05</t>
+  </si>
+  <si>
+    <t>2019-09-05</t>
+  </si>
+  <si>
+    <t>2020-01-05</t>
+  </si>
+  <si>
+    <t>2020-03-05</t>
+  </si>
+  <si>
+    <t>2020-04-05</t>
+  </si>
+  <si>
+    <t>2020-05-05</t>
+  </si>
+  <si>
+    <t>2020-07-05</t>
+  </si>
+  <si>
+    <t>2020-08-05</t>
+  </si>
+  <si>
+    <t>2020-11-05</t>
+  </si>
+  <si>
+    <t>2021-02-05</t>
+  </si>
+  <si>
+    <t>2021-05-05</t>
+  </si>
+  <si>
+    <t>2021-06-05</t>
+  </si>
+  <si>
+    <t>2021-09-05</t>
+  </si>
+  <si>
+    <t>2021-12-05</t>
+  </si>
+  <si>
+    <t>2022-01-05</t>
+  </si>
+  <si>
+    <t>2022-03-05</t>
+  </si>
+  <si>
+    <t>2022-04-05</t>
+  </si>
+  <si>
+    <t>2022-05-05</t>
+  </si>
+  <si>
+    <t>2022-06-05</t>
+  </si>
+  <si>
+    <t>2022-07-05</t>
+  </si>
+  <si>
+    <t>2022-08-05</t>
+  </si>
+  <si>
+    <t>2022-10-05</t>
+  </si>
+  <si>
+    <t>2022-11-05</t>
+  </si>
+  <si>
+    <t>2022-12-05</t>
+  </si>
+  <si>
+    <t>2023-01-05</t>
+  </si>
+  <si>
+    <t>2023-02-05</t>
+  </si>
+  <si>
+    <t>2023-04-05</t>
+  </si>
+  <si>
+    <t>2023-05-05</t>
+  </si>
+  <si>
+    <t>2023-06-05</t>
+  </si>
+  <si>
+    <t>2023-07-05</t>
+  </si>
+  <si>
+    <t>2023-08-05</t>
+  </si>
+  <si>
+    <t>2023-09-05</t>
+  </si>
+  <si>
+    <t>2023-10-05</t>
+  </si>
+  <si>
+    <t>2024-01-05</t>
   </si>
   <si>
     <t>2024-01-18</t>
   </si>
   <si>
-    <t>2024-02-04</t>
-  </si>
-  <si>
-    <t>2024-03-04</t>
-  </si>
-  <si>
-    <t>2024-04-02</t>
-  </si>
-  <si>
-    <t>2024-04-04</t>
-  </si>
-  <si>
-    <t>2024-05-04</t>
+    <t>2024-02-05</t>
+  </si>
+  <si>
+    <t>2024-03-05</t>
+  </si>
+  <si>
+    <t>2024-04-05</t>
+  </si>
+  <si>
+    <t>2024-05-05</t>
   </si>
   <si>
     <t>2024-06-02</t>
   </si>
   <si>
-    <t>2024-06-04</t>
+    <t>2024-06-05</t>
   </si>
   <si>
     <t>2024-06-26</t>
   </si>
   <si>
-    <t>2024-07-04</t>
+    <t>2024-07-05</t>
   </si>
   <si>
     <t>2024-07-25</t>
   </si>
   <si>
-    <t>2024-08-04</t>
+    <t>2024-08-05</t>
   </si>
   <si>
     <t>2024-08-15</t>
   </si>
   <si>
-    <t>2024-10-04</t>
+    <t>2024-10-05</t>
   </si>
   <si>
     <t>2024-10-24</t>
@@ -814,70 +808,70 @@
     <t>2024-12-24</t>
   </si>
   <si>
-    <t>2025-01-04</t>
-  </si>
-  <si>
-    <t>2025-02-04</t>
-  </si>
-  <si>
-    <t>2025-03-04</t>
-  </si>
-  <si>
-    <t>2025-04-04</t>
-  </si>
-  <si>
-    <t>2025-05-04</t>
-  </si>
-  <si>
-    <t>2025-06-04</t>
-  </si>
-  <si>
-    <t>2025-07-04</t>
-  </si>
-  <si>
-    <t>2025-08-04</t>
-  </si>
-  <si>
-    <t>2025-10-04</t>
-  </si>
-  <si>
-    <t>2025-11-04</t>
-  </si>
-  <si>
-    <t>2026-01-04</t>
-  </si>
-  <si>
-    <t>2026-03-04</t>
-  </si>
-  <si>
-    <t>2026-05-04</t>
-  </si>
-  <si>
-    <t>2026-07-04</t>
-  </si>
-  <si>
-    <t>2026-11-04</t>
-  </si>
-  <si>
-    <t>2027-01-04</t>
-  </si>
-  <si>
-    <t>2027-02-04</t>
-  </si>
-  <si>
-    <t>2028-02-04</t>
-  </si>
-  <si>
-    <t>2028-05-04</t>
-  </si>
-  <si>
-    <t>2028-07-04</t>
-  </si>
-  <si>
-    <t>2028-11-04</t>
-  </si>
-  <si>
-    <t>2030-11-04</t>
+    <t>2025-01-05</t>
+  </si>
+  <si>
+    <t>2025-02-05</t>
+  </si>
+  <si>
+    <t>2025-03-05</t>
+  </si>
+  <si>
+    <t>2025-04-05</t>
+  </si>
+  <si>
+    <t>2025-05-05</t>
+  </si>
+  <si>
+    <t>2025-06-05</t>
+  </si>
+  <si>
+    <t>2025-07-05</t>
+  </si>
+  <si>
+    <t>2025-08-05</t>
+  </si>
+  <si>
+    <t>2025-10-05</t>
+  </si>
+  <si>
+    <t>2025-11-05</t>
+  </si>
+  <si>
+    <t>2026-01-05</t>
+  </si>
+  <si>
+    <t>2026-03-05</t>
+  </si>
+  <si>
+    <t>2026-05-05</t>
+  </si>
+  <si>
+    <t>2026-07-05</t>
+  </si>
+  <si>
+    <t>2026-11-05</t>
+  </si>
+  <si>
+    <t>2027-01-05</t>
+  </si>
+  <si>
+    <t>2027-02-05</t>
+  </si>
+  <si>
+    <t>2028-02-05</t>
+  </si>
+  <si>
+    <t>2028-05-05</t>
+  </si>
+  <si>
+    <t>2028-07-05</t>
+  </si>
+  <si>
+    <t>2028-11-05</t>
+  </si>
+  <si>
+    <t>2030-11-05</t>
   </si>
 </sst>
 </file>
@@ -1235,7 +1229,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B192"/>
+  <dimension ref="A1:B191"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1254,7 +1248,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -1262,7 +1256,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -1270,7 +1264,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -1278,7 +1272,7 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -1286,7 +1280,7 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -1294,7 +1288,7 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -1302,7 +1296,7 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -1310,7 +1304,7 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -1318,7 +1312,7 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -1326,7 +1320,7 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -1334,7 +1328,7 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -1342,7 +1336,7 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -1350,7 +1344,7 @@
         <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -1358,7 +1352,7 @@
         <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -1366,7 +1360,7 @@
         <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -1374,7 +1368,7 @@
         <v>17</v>
       </c>
       <c r="B17" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -1382,7 +1376,7 @@
         <v>18</v>
       </c>
       <c r="B18" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -1390,7 +1384,7 @@
         <v>19</v>
       </c>
       <c r="B19" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -1398,7 +1392,7 @@
         <v>20</v>
       </c>
       <c r="B20" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -1406,7 +1400,7 @@
         <v>21</v>
       </c>
       <c r="B21" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -1414,7 +1408,7 @@
         <v>22</v>
       </c>
       <c r="B22" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -1422,7 +1416,7 @@
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -1430,7 +1424,7 @@
         <v>24</v>
       </c>
       <c r="B24" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -1438,7 +1432,7 @@
         <v>25</v>
       </c>
       <c r="B25" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -1446,7 +1440,7 @@
         <v>26</v>
       </c>
       <c r="B26" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -1454,7 +1448,7 @@
         <v>27</v>
       </c>
       <c r="B27" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -1462,7 +1456,7 @@
         <v>28</v>
       </c>
       <c r="B28" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -1470,7 +1464,7 @@
         <v>29</v>
       </c>
       <c r="B29" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -1478,7 +1472,7 @@
         <v>30</v>
       </c>
       <c r="B30" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -1486,7 +1480,7 @@
         <v>31</v>
       </c>
       <c r="B31" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -1494,7 +1488,7 @@
         <v>32</v>
       </c>
       <c r="B32" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -1502,7 +1496,7 @@
         <v>33</v>
       </c>
       <c r="B33" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -1510,7 +1504,7 @@
         <v>34</v>
       </c>
       <c r="B34" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -1518,7 +1512,7 @@
         <v>35</v>
       </c>
       <c r="B35" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -1526,7 +1520,7 @@
         <v>36</v>
       </c>
       <c r="B36" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -1534,7 +1528,7 @@
         <v>37</v>
       </c>
       <c r="B37" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -1542,7 +1536,7 @@
         <v>38</v>
       </c>
       <c r="B38" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -1550,7 +1544,7 @@
         <v>39</v>
       </c>
       <c r="B39" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -1558,7 +1552,7 @@
         <v>40</v>
       </c>
       <c r="B40" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -1566,7 +1560,7 @@
         <v>41</v>
       </c>
       <c r="B41" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -1574,7 +1568,7 @@
         <v>42</v>
       </c>
       <c r="B42" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -1582,7 +1576,7 @@
         <v>43</v>
       </c>
       <c r="B43" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -1590,7 +1584,7 @@
         <v>44</v>
       </c>
       <c r="B44" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -1598,7 +1592,7 @@
         <v>45</v>
       </c>
       <c r="B45" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -1606,7 +1600,7 @@
         <v>46</v>
       </c>
       <c r="B46" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -1614,7 +1608,7 @@
         <v>47</v>
       </c>
       <c r="B47" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -1622,7 +1616,7 @@
         <v>48</v>
       </c>
       <c r="B48" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -1630,7 +1624,7 @@
         <v>49</v>
       </c>
       <c r="B49" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -1638,7 +1632,7 @@
         <v>50</v>
       </c>
       <c r="B50" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -1646,7 +1640,7 @@
         <v>51</v>
       </c>
       <c r="B51" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -1654,7 +1648,7 @@
         <v>52</v>
       </c>
       <c r="B52" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -1662,7 +1656,7 @@
         <v>53</v>
       </c>
       <c r="B53" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="54" spans="1:2">
@@ -1670,7 +1664,7 @@
         <v>54</v>
       </c>
       <c r="B54" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="55" spans="1:2">
@@ -1678,7 +1672,7 @@
         <v>55</v>
       </c>
       <c r="B55" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="56" spans="1:2">
@@ -1686,7 +1680,7 @@
         <v>56</v>
       </c>
       <c r="B56" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="57" spans="1:2">
@@ -1694,7 +1688,7 @@
         <v>57</v>
       </c>
       <c r="B57" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="58" spans="1:2">
@@ -1702,7 +1696,7 @@
         <v>58</v>
       </c>
       <c r="B58" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="59" spans="1:2">
@@ -1710,7 +1704,7 @@
         <v>59</v>
       </c>
       <c r="B59" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="60" spans="1:2">
@@ -1718,7 +1712,7 @@
         <v>60</v>
       </c>
       <c r="B60" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="61" spans="1:2">
@@ -1726,7 +1720,7 @@
         <v>61</v>
       </c>
       <c r="B61" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="62" spans="1:2">
@@ -1734,7 +1728,7 @@
         <v>62</v>
       </c>
       <c r="B62" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="63" spans="1:2">
@@ -1742,7 +1736,7 @@
         <v>63</v>
       </c>
       <c r="B63" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="64" spans="1:2">
@@ -1750,7 +1744,7 @@
         <v>64</v>
       </c>
       <c r="B64" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="65" spans="1:2">
@@ -1758,7 +1752,7 @@
         <v>65</v>
       </c>
       <c r="B65" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="66" spans="1:2">
@@ -1766,7 +1760,7 @@
         <v>66</v>
       </c>
       <c r="B66" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="67" spans="1:2">
@@ -1774,7 +1768,7 @@
         <v>67</v>
       </c>
       <c r="B67" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="68" spans="1:2">
@@ -1782,7 +1776,7 @@
         <v>68</v>
       </c>
       <c r="B68" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="69" spans="1:2">
@@ -1790,7 +1784,7 @@
         <v>69</v>
       </c>
       <c r="B69" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="70" spans="1:2">
@@ -1798,7 +1792,7 @@
         <v>70</v>
       </c>
       <c r="B70" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="71" spans="1:2">
@@ -1806,7 +1800,7 @@
         <v>71</v>
       </c>
       <c r="B71" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="72" spans="1:2">
@@ -1814,7 +1808,7 @@
         <v>72</v>
       </c>
       <c r="B72" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="73" spans="1:2">
@@ -1822,7 +1816,7 @@
         <v>73</v>
       </c>
       <c r="B73" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="74" spans="1:2">
@@ -1830,7 +1824,7 @@
         <v>74</v>
       </c>
       <c r="B74" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="75" spans="1:2">
@@ -1838,7 +1832,7 @@
         <v>75</v>
       </c>
       <c r="B75" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="76" spans="1:2">
@@ -1846,7 +1840,7 @@
         <v>76</v>
       </c>
       <c r="B76" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="77" spans="1:2">
@@ -1854,7 +1848,7 @@
         <v>77</v>
       </c>
       <c r="B77" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="78" spans="1:2">
@@ -1862,7 +1856,7 @@
         <v>78</v>
       </c>
       <c r="B78" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="79" spans="1:2">
@@ -1870,7 +1864,7 @@
         <v>79</v>
       </c>
       <c r="B79" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="80" spans="1:2">
@@ -1878,7 +1872,7 @@
         <v>80</v>
       </c>
       <c r="B80" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="81" spans="1:2">
@@ -1886,7 +1880,7 @@
         <v>81</v>
       </c>
       <c r="B81" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="82" spans="1:2">
@@ -1894,7 +1888,7 @@
         <v>82</v>
       </c>
       <c r="B82" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="83" spans="1:2">
@@ -1902,7 +1896,7 @@
         <v>83</v>
       </c>
       <c r="B83" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="84" spans="1:2">
@@ -1910,7 +1904,7 @@
         <v>84</v>
       </c>
       <c r="B84" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="85" spans="1:2">
@@ -1918,7 +1912,7 @@
         <v>85</v>
       </c>
       <c r="B85" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="86" spans="1:2">
@@ -1926,7 +1920,7 @@
         <v>86</v>
       </c>
       <c r="B86" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="87" spans="1:2">
@@ -1934,7 +1928,7 @@
         <v>87</v>
       </c>
       <c r="B87" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="88" spans="1:2">
@@ -1942,7 +1936,7 @@
         <v>88</v>
       </c>
       <c r="B88" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="89" spans="1:2">
@@ -1950,7 +1944,7 @@
         <v>89</v>
       </c>
       <c r="B89" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="90" spans="1:2">
@@ -1958,7 +1952,7 @@
         <v>90</v>
       </c>
       <c r="B90" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="91" spans="1:2">
@@ -1966,7 +1960,7 @@
         <v>91</v>
       </c>
       <c r="B91" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="92" spans="1:2">
@@ -1974,7 +1968,7 @@
         <v>92</v>
       </c>
       <c r="B92" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="93" spans="1:2">
@@ -1982,7 +1976,7 @@
         <v>93</v>
       </c>
       <c r="B93" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="94" spans="1:2">
@@ -1990,7 +1984,7 @@
         <v>94</v>
       </c>
       <c r="B94" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="95" spans="1:2">
@@ -1998,7 +1992,7 @@
         <v>95</v>
       </c>
       <c r="B95" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="96" spans="1:2">
@@ -2006,7 +2000,7 @@
         <v>96</v>
       </c>
       <c r="B96" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="97" spans="1:2">
@@ -2014,7 +2008,7 @@
         <v>97</v>
       </c>
       <c r="B97" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="98" spans="1:2">
@@ -2022,7 +2016,7 @@
         <v>98</v>
       </c>
       <c r="B98" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="99" spans="1:2">
@@ -2030,7 +2024,7 @@
         <v>99</v>
       </c>
       <c r="B99" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="100" spans="1:2">
@@ -2038,7 +2032,7 @@
         <v>100</v>
       </c>
       <c r="B100" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="101" spans="1:2">
@@ -2046,7 +2040,7 @@
         <v>101</v>
       </c>
       <c r="B101" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="102" spans="1:2">
@@ -2054,7 +2048,7 @@
         <v>102</v>
       </c>
       <c r="B102" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="103" spans="1:2">
@@ -2062,7 +2056,7 @@
         <v>103</v>
       </c>
       <c r="B103" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="104" spans="1:2">
@@ -2070,7 +2064,7 @@
         <v>104</v>
       </c>
       <c r="B104" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="105" spans="1:2">
@@ -2078,7 +2072,7 @@
         <v>105</v>
       </c>
       <c r="B105" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="106" spans="1:2">
@@ -2086,7 +2080,7 @@
         <v>106</v>
       </c>
       <c r="B106" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="107" spans="1:2">
@@ -2094,7 +2088,7 @@
         <v>107</v>
       </c>
       <c r="B107" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="108" spans="1:2">
@@ -2102,7 +2096,7 @@
         <v>108</v>
       </c>
       <c r="B108" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="109" spans="1:2">
@@ -2110,7 +2104,7 @@
         <v>109</v>
       </c>
       <c r="B109" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="110" spans="1:2">
@@ -2118,7 +2112,7 @@
         <v>110</v>
       </c>
       <c r="B110" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="111" spans="1:2">
@@ -2126,7 +2120,7 @@
         <v>111</v>
       </c>
       <c r="B111" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="112" spans="1:2">
@@ -2134,7 +2128,7 @@
         <v>112</v>
       </c>
       <c r="B112" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="113" spans="1:2">
@@ -2142,7 +2136,7 @@
         <v>113</v>
       </c>
       <c r="B113" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="114" spans="1:2">
@@ -2150,7 +2144,7 @@
         <v>114</v>
       </c>
       <c r="B114" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="115" spans="1:2">
@@ -2158,7 +2152,7 @@
         <v>115</v>
       </c>
       <c r="B115" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="116" spans="1:2">
@@ -2166,7 +2160,7 @@
         <v>116</v>
       </c>
       <c r="B116" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="117" spans="1:2">
@@ -2174,7 +2168,7 @@
         <v>117</v>
       </c>
       <c r="B117" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
     <row r="118" spans="1:2">
@@ -2182,7 +2176,7 @@
         <v>118</v>
       </c>
       <c r="B118" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="119" spans="1:2">
@@ -2190,7 +2184,7 @@
         <v>119</v>
       </c>
       <c r="B119" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
     </row>
     <row r="120" spans="1:2">
@@ -2198,7 +2192,7 @@
         <v>120</v>
       </c>
       <c r="B120" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="121" spans="1:2">
@@ -2206,7 +2200,7 @@
         <v>121</v>
       </c>
       <c r="B121" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="122" spans="1:2">
@@ -2214,7 +2208,7 @@
         <v>122</v>
       </c>
       <c r="B122" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="123" spans="1:2">
@@ -2222,7 +2216,7 @@
         <v>123</v>
       </c>
       <c r="B123" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="124" spans="1:2">
@@ -2230,7 +2224,7 @@
         <v>124</v>
       </c>
       <c r="B124" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="125" spans="1:2">
@@ -2238,7 +2232,7 @@
         <v>125</v>
       </c>
       <c r="B125" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="126" spans="1:2">
@@ -2246,7 +2240,7 @@
         <v>126</v>
       </c>
       <c r="B126" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="127" spans="1:2">
@@ -2254,7 +2248,7 @@
         <v>127</v>
       </c>
       <c r="B127" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="128" spans="1:2">
@@ -2262,7 +2256,7 @@
         <v>128</v>
       </c>
       <c r="B128" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="129" spans="1:2">
@@ -2270,7 +2264,7 @@
         <v>129</v>
       </c>
       <c r="B129" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
     </row>
     <row r="130" spans="1:2">
@@ -2278,7 +2272,7 @@
         <v>130</v>
       </c>
       <c r="B130" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="131" spans="1:2">
@@ -2286,7 +2280,7 @@
         <v>131</v>
       </c>
       <c r="B131" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="132" spans="1:2">
@@ -2294,7 +2288,7 @@
         <v>132</v>
       </c>
       <c r="B132" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="133" spans="1:2">
@@ -2302,7 +2296,7 @@
         <v>133</v>
       </c>
       <c r="B133" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="134" spans="1:2">
@@ -2310,7 +2304,7 @@
         <v>134</v>
       </c>
       <c r="B134" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="135" spans="1:2">
@@ -2318,7 +2312,7 @@
         <v>135</v>
       </c>
       <c r="B135" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="136" spans="1:2">
@@ -2326,7 +2320,7 @@
         <v>136</v>
       </c>
       <c r="B136" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="137" spans="1:2">
@@ -2334,7 +2328,7 @@
         <v>137</v>
       </c>
       <c r="B137" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="138" spans="1:2">
@@ -2342,7 +2336,7 @@
         <v>138</v>
       </c>
       <c r="B138" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="139" spans="1:2">
@@ -2350,7 +2344,7 @@
         <v>139</v>
       </c>
       <c r="B139" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="140" spans="1:2">
@@ -2358,7 +2352,7 @@
         <v>140</v>
       </c>
       <c r="B140" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
     <row r="141" spans="1:2">
@@ -2366,7 +2360,7 @@
         <v>141</v>
       </c>
       <c r="B141" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
     <row r="142" spans="1:2">
@@ -2374,7 +2368,7 @@
         <v>142</v>
       </c>
       <c r="B142" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
     <row r="143" spans="1:2">
@@ -2382,7 +2376,7 @@
         <v>143</v>
       </c>
       <c r="B143" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="144" spans="1:2">
@@ -2390,7 +2384,7 @@
         <v>144</v>
       </c>
       <c r="B144" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="145" spans="1:2">
@@ -2398,7 +2392,7 @@
         <v>145</v>
       </c>
       <c r="B145" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
     <row r="146" spans="1:2">
@@ -2406,7 +2400,7 @@
         <v>146</v>
       </c>
       <c r="B146" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
     <row r="147" spans="1:2">
@@ -2414,7 +2408,7 @@
         <v>147</v>
       </c>
       <c r="B147" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
     <row r="148" spans="1:2">
@@ -2422,7 +2416,7 @@
         <v>148</v>
       </c>
       <c r="B148" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
     </row>
     <row r="149" spans="1:2">
@@ -2430,7 +2424,7 @@
         <v>149</v>
       </c>
       <c r="B149" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
     </row>
     <row r="150" spans="1:2">
@@ -2438,7 +2432,7 @@
         <v>150</v>
       </c>
       <c r="B150" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
     </row>
     <row r="151" spans="1:2">
@@ -2446,7 +2440,7 @@
         <v>151</v>
       </c>
       <c r="B151" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
     </row>
     <row r="152" spans="1:2">
@@ -2454,7 +2448,7 @@
         <v>152</v>
       </c>
       <c r="B152" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
     </row>
     <row r="153" spans="1:2">
@@ -2462,7 +2456,7 @@
         <v>153</v>
       </c>
       <c r="B153" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
     </row>
     <row r="154" spans="1:2">
@@ -2470,7 +2464,7 @@
         <v>154</v>
       </c>
       <c r="B154" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="155" spans="1:2">
@@ -2478,7 +2472,7 @@
         <v>155</v>
       </c>
       <c r="B155" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="156" spans="1:2">
@@ -2486,7 +2480,7 @@
         <v>156</v>
       </c>
       <c r="B156" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="157" spans="1:2">
@@ -2494,7 +2488,7 @@
         <v>157</v>
       </c>
       <c r="B157" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="158" spans="1:2">
@@ -2502,7 +2496,7 @@
         <v>158</v>
       </c>
       <c r="B158" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="159" spans="1:2">
@@ -2510,7 +2504,7 @@
         <v>159</v>
       </c>
       <c r="B159" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
     </row>
     <row r="160" spans="1:2">
@@ -2518,7 +2512,7 @@
         <v>160</v>
       </c>
       <c r="B160" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="161" spans="1:2">
@@ -2526,7 +2520,7 @@
         <v>161</v>
       </c>
       <c r="B161" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="162" spans="1:2">
@@ -2534,7 +2528,7 @@
         <v>162</v>
       </c>
       <c r="B162" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
     </row>
     <row r="163" spans="1:2">
@@ -2542,7 +2536,7 @@
         <v>163</v>
       </c>
       <c r="B163" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="164" spans="1:2">
@@ -2550,7 +2544,7 @@
         <v>164</v>
       </c>
       <c r="B164" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="165" spans="1:2">
@@ -2558,7 +2552,7 @@
         <v>165</v>
       </c>
       <c r="B165" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="166" spans="1:2">
@@ -2566,7 +2560,7 @@
         <v>166</v>
       </c>
       <c r="B166" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
     </row>
     <row r="167" spans="1:2">
@@ -2574,7 +2568,7 @@
         <v>167</v>
       </c>
       <c r="B167" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="168" spans="1:2">
@@ -2582,7 +2576,7 @@
         <v>168</v>
       </c>
       <c r="B168" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="169" spans="1:2">
@@ -2590,7 +2584,7 @@
         <v>169</v>
       </c>
       <c r="B169" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="170" spans="1:2">
@@ -2598,7 +2592,7 @@
         <v>170</v>
       </c>
       <c r="B170" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="171" spans="1:2">
@@ -2606,7 +2600,7 @@
         <v>171</v>
       </c>
       <c r="B171" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="172" spans="1:2">
@@ -2614,7 +2608,7 @@
         <v>172</v>
       </c>
       <c r="B172" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="173" spans="1:2">
@@ -2622,7 +2616,7 @@
         <v>173</v>
       </c>
       <c r="B173" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="174" spans="1:2">
@@ -2630,7 +2624,7 @@
         <v>174</v>
       </c>
       <c r="B174" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="175" spans="1:2">
@@ -2638,7 +2632,7 @@
         <v>175</v>
       </c>
       <c r="B175" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="176" spans="1:2">
@@ -2646,7 +2640,7 @@
         <v>176</v>
       </c>
       <c r="B176" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="177" spans="1:2">
@@ -2654,7 +2648,7 @@
         <v>177</v>
       </c>
       <c r="B177" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="178" spans="1:2">
@@ -2662,7 +2656,7 @@
         <v>178</v>
       </c>
       <c r="B178" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="179" spans="1:2">
@@ -2670,7 +2664,7 @@
         <v>179</v>
       </c>
       <c r="B179" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="180" spans="1:2">
@@ -2678,7 +2672,7 @@
         <v>180</v>
       </c>
       <c r="B180" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="181" spans="1:2">
@@ -2686,7 +2680,7 @@
         <v>181</v>
       </c>
       <c r="B181" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
     </row>
     <row r="182" spans="1:2">
@@ -2694,7 +2688,7 @@
         <v>182</v>
       </c>
       <c r="B182" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="183" spans="1:2">
@@ -2702,7 +2696,7 @@
         <v>183</v>
       </c>
       <c r="B183" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
     </row>
     <row r="184" spans="1:2">
@@ -2710,7 +2704,7 @@
         <v>184</v>
       </c>
       <c r="B184" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="185" spans="1:2">
@@ -2718,7 +2712,7 @@
         <v>185</v>
       </c>
       <c r="B185" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="186" spans="1:2">
@@ -2726,7 +2720,7 @@
         <v>186</v>
       </c>
       <c r="B186" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="187" spans="1:2">
@@ -2734,7 +2728,7 @@
         <v>187</v>
       </c>
       <c r="B187" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="188" spans="1:2">
@@ -2742,7 +2736,7 @@
         <v>188</v>
       </c>
       <c r="B188" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="189" spans="1:2">
@@ -2750,7 +2744,7 @@
         <v>189</v>
       </c>
       <c r="B189" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="190" spans="1:2">
@@ -2758,7 +2752,7 @@
         <v>190</v>
       </c>
       <c r="B190" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="191" spans="1:2">
@@ -2766,15 +2760,7 @@
         <v>191</v>
       </c>
       <c r="B191" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="192" spans="1:2">
-      <c r="A192" t="s">
-        <v>192</v>
-      </c>
-      <c r="B192" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
   </sheetData>

--- a/lothiancriticalcare/1a74f8f7b8b7e871b413c4697f68b4401fbacdf0/reviewdates.xlsx
+++ b/lothiancriticalcare/1a74f8f7b8b7e871b413c4697f68b4401fbacdf0/reviewdates.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="382" uniqueCount="286">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="280">
   <si>
     <t>File</t>
   </si>
@@ -64,21 +64,12 @@
     <t>Routine_Care/Tracheostomy_nursing_care.pdf</t>
   </si>
   <si>
-    <t>Infection_and_sepsis/SARI/MERS-CoV Guideline.pdf</t>
-  </si>
-  <si>
-    <t>Infection_and_sepsis/SARI/Suspected Influeza A Avian influenza H5N1 and SARS.pdf</t>
-  </si>
-  <si>
-    <t>Infection_and_sepsis/SARI/Suspected Influeza A-H7N9 Guideline.pdf</t>
+    <t>ECLS/Extra Corporeal Carbon Dioxide Removal.pdf</t>
   </si>
   <si>
     <t>Airway/Critical care extubation checklist.pdf</t>
   </si>
   <si>
-    <t>ECLS/Extra Corporeal Carbon Dioxide Removal.pdf</t>
-  </si>
-  <si>
     <t>Airway/Tracheostomy_Laryngectomy/Hospital_in-patients_with_a_Tracheostomy.pdf</t>
   </si>
   <si>
@@ -94,15 +85,15 @@
     <t>End_of_life_care/Reasons to report a death to PF.pdf</t>
   </si>
   <si>
+    <t>Neurological/SOP -  Femoral site care.pdf</t>
+  </si>
+  <si>
+    <t>Airway/Tracheostomy_Laryngectomy/Tracheostomy suctioning cleaning guideline.pdf</t>
+  </si>
+  <si>
     <t>Airway/Tracheostomy_Laryngectomy/Tracheostomy change in Critical Care.pdf</t>
   </si>
   <si>
-    <t>Neurological/SOP -  Femoral site care.pdf</t>
-  </si>
-  <si>
-    <t>Airway/Tracheostomy_Laryngectomy/Tracheostomy suctioning cleaning guideline.pdf</t>
-  </si>
-  <si>
     <t>Drugs/sodium_bicarbonate.pdf</t>
   </si>
   <si>
@@ -112,21 +103,21 @@
     <t>Post_op_care/Epidural top-up.pdf</t>
   </si>
   <si>
+    <t>Diabetes_and_Glucose/Hyperosmolar Hyperglycaemic State.pdf</t>
+  </si>
+  <si>
     <t>Drugs/heparin for Haemofiltration.pdf</t>
   </si>
   <si>
-    <t>Diabetes_and_Glucose/Hyperosmolar Hyperglycaemic State.pdf</t>
+    <t>Covid-19/SJH/SJH COVID19 ED Intubation Action Card.pdf</t>
+  </si>
+  <si>
+    <t>Covid-19/SJH/SJH COVID19 ITU Intubation Action Card.pdf</t>
   </si>
   <si>
     <t>Covid-19/WGH/CoVid intubation checklist WGH.pdf</t>
   </si>
   <si>
-    <t>Covid-19/SJH/SJH COVID19 ED Intubation Action Card.pdf</t>
-  </si>
-  <si>
-    <t>Covid-19/SJH/SJH COVID19 ITU Intubation Action Card.pdf</t>
-  </si>
-  <si>
     <t>Airway/Emergency intubation checklist_em_pub.pdf</t>
   </si>
   <si>
@@ -157,33 +148,33 @@
     <t>Delirium/Risk assessment posi mit.pdf</t>
   </si>
   <si>
+    <t>Delirium/Drugs Causing Delirium and Agitiation.pdf</t>
+  </si>
+  <si>
+    <t>Airway/Anticipated difficult airway tool.pdf</t>
+  </si>
+  <si>
     <t>GI_Liver_and_Transplant/Abdominal pressure measurement.pdf</t>
   </si>
   <si>
-    <t>Delirium/Drugs Causing Delirium and Agitiation.pdf</t>
+    <t>Neurological/Sub arachnoid haemorrhage management.pdf</t>
+  </si>
+  <si>
+    <t>Airway/McGrath Mac.pdf</t>
+  </si>
+  <si>
+    <t>Breathing(Respiratory)/HFNO.pdf</t>
   </si>
   <si>
     <t>Airway/Tracheostomy_Laryngectomy/Tracheostomy safety box contents.pdf</t>
   </si>
   <si>
-    <t>Airway/McGrath Mac.pdf</t>
-  </si>
-  <si>
-    <t>Neurological/Sub arachnoid haemorrhage management.pdf</t>
+    <t>Drugs/ketamine_in_asthma.pdf</t>
   </si>
   <si>
     <t>GI_Liver_and_Transplant/Treatment of constipation.pdf</t>
   </si>
   <si>
-    <t>Breathing(Respiratory)/HFNO.pdf</t>
-  </si>
-  <si>
-    <t>Drugs/ketamine_in_asthma.pdf</t>
-  </si>
-  <si>
-    <t>Airway/Anticipated difficult airway tool.pdf</t>
-  </si>
-  <si>
     <t>End_of_life_care/Documentation following death.pdf</t>
   </si>
   <si>
@@ -193,12 +184,12 @@
     <t>Routine_Care/bBraun Spaceplus Failure EMERGENCY ACTION CARD_em.pdf</t>
   </si>
   <si>
+    <t>Drugs/insulin.pdf</t>
+  </si>
+  <si>
     <t>Breathing(Respiratory)/Equipment/HFNO Set Up.pdf</t>
   </si>
   <si>
-    <t>Drugs/insulin.pdf</t>
-  </si>
-  <si>
     <t>Breathing(Respiratory)/Inhaled Nitrous Oxide.pdf</t>
   </si>
   <si>
@@ -208,15 +199,15 @@
     <t>Cardiovascular/Steroids for Septic Shock.pdf</t>
   </si>
   <si>
+    <t>Breathing(Respiratory)/Equipment/T piece Y piece.pdf</t>
+  </si>
+  <si>
+    <t>Neurological/SOP for review of Neurosurgical patients in ITU by neurosurgical team.pdf</t>
+  </si>
+  <si>
     <t>Post_op_care/Epidural Haematoma.pdf</t>
   </si>
   <si>
-    <t>Breathing(Respiratory)/Equipment/T piece Y piece.pdf</t>
-  </si>
-  <si>
-    <t>Neurological/SOP for review of Neurosurgical patients in ITU by neurosurgical team.pdf</t>
-  </si>
-  <si>
     <t>Policies_and_admin/General Critical Care Interaction with HEPMA_pub.pdf</t>
   </si>
   <si>
@@ -226,22 +217,25 @@
     <t>Breathing(Respiratory)/Equipment/HFNO through ventilator.pdf</t>
   </si>
   <si>
+    <t>Routine_Care/VTE_Prevention/Dalteparin_thromboprophylaxis.pdf</t>
+  </si>
+  <si>
     <t>Post_op_care/Adult Scoliosis Spinal Surgery Post-Op Care.pdf</t>
   </si>
   <si>
-    <t>Routine_Care/VTE_Prevention/Dalteparin_thromboprophylaxis.pdf</t>
-  </si>
-  <si>
     <t>Post_op_care/Post op care pharyngo-laryngo-oesphagectomy PLOG.pdf</t>
   </si>
   <si>
     <t>GI_Liver_and_Transplant/Nasogastric feeding protocol.pdf</t>
   </si>
   <si>
+    <t>Diabetes_and_Glucose/Intravenous Insulin Therapy (not for DKA or HHS).pdf</t>
+  </si>
+  <si>
     <t>Drugs/Antibiotic doses in CVVHD.pdf</t>
   </si>
   <si>
-    <t>Diabetes_and_Glucose/Intravenous Insulin Therapy (not for DKA or HHS).pdf</t>
+    <t>ECLS/RIE ECLS Anti Xa Protocol.pdf</t>
   </si>
   <si>
     <t>GI_Liver_and_Transplant/Nasojejunal feeding protocol.pdf</t>
@@ -250,9 +244,6 @@
     <t>GI_Liver_and_Transplant/Jejunostomy feeding protocol.pdf</t>
   </si>
   <si>
-    <t>ECLS/RIE ECLS Anti Xa Protocol.pdf</t>
-  </si>
-  <si>
     <t>Infection_and_sepsis/Winter Infections Stepdown Guidance.pdf</t>
   </si>
   <si>
@@ -262,27 +253,27 @@
     <t>Drugs/vasopressin organ donation.pdf</t>
   </si>
   <si>
+    <t>Covid-19/videos/Donning and Doffing Video.pdf</t>
+  </si>
+  <si>
     <t>Transfer/ACCP Transfers.pdf</t>
   </si>
   <si>
-    <t>Covid-19/videos/Donning and Doffing Video.pdf</t>
+    <t>Breathing(Respiratory)/CPAP.pdf</t>
+  </si>
+  <si>
+    <t>Infection_and_sepsis/Infection indications for IVIG.pdf</t>
   </si>
   <si>
     <t>Drugs/piperacillin_tazobactam extended_infusion.pdf</t>
   </si>
   <si>
-    <t>Infection_and_sepsis/Infection indications for IVIG.pdf</t>
+    <t>Breathing(Respiratory)/Equipment/Ventilators Circuits Filters and Closed Suction - Set up and Maintenance.pdf</t>
   </si>
   <si>
     <t>Breathing(Respiratory)/Equipment/Bipap V60.pdf</t>
   </si>
   <si>
-    <t>Breathing(Respiratory)/Equipment/Ventilators Circuits Filters and Closed Suction - Set up and Maintenance.pdf</t>
-  </si>
-  <si>
-    <t>Breathing(Respiratory)/CPAP.pdf</t>
-  </si>
-  <si>
     <t>Covid-19/Covid 19 Death Certification Guideline.pdf</t>
   </si>
   <si>
@@ -295,39 +286,36 @@
     <t>Routine_Care/Video Communication.pdf</t>
   </si>
   <si>
+    <t>Drugs/isoprenaline.pdf</t>
+  </si>
+  <si>
     <t>Cardiovascular/Cardiogenic Shock.pdf</t>
   </si>
   <si>
-    <t>Drugs/isoprenaline.pdf</t>
-  </si>
-  <si>
     <t>Haematology_CAR-T/Haem_ICU_transfer.pdf</t>
   </si>
   <si>
-    <t>Infection_and_sepsis/SARI/Influenza A and B Virology Sampling and Oseltamivir Dose.pdf</t>
+    <t>Cardiovascular/Management of hypertension within Critical Care.pdf</t>
   </si>
   <si>
     <t>Drugs/aminophylline.pdf</t>
   </si>
   <si>
-    <t>Cardiovascular/Management of hypertension within Critical Care.pdf</t>
+    <t>Drugs/pancuronium.pdf</t>
+  </si>
+  <si>
+    <t>Drugs/rocuronium.pdf</t>
   </si>
   <si>
     <t>Drugs/phenytoin.pdf</t>
   </si>
   <si>
-    <t>Drugs/rocuronium.pdf</t>
-  </si>
-  <si>
-    <t>Drugs/pancuronium.pdf</t>
+    <t>Haematology_CAR-T/CRS.pdf</t>
   </si>
   <si>
     <t>Haematology_CAR-T/ICANS.pdf</t>
   </si>
   <si>
-    <t>Haematology_CAR-T/CRS.pdf</t>
-  </si>
-  <si>
     <t>Drugs/milrinone.pdf</t>
   </si>
   <si>
@@ -346,27 +334,27 @@
     <t>Ethics_and_Law/Care at the End of Life (FICM).pdf</t>
   </si>
   <si>
+    <t>Ethics_and_Law/DNACPR policy for Scotland.pdf</t>
+  </si>
+  <si>
+    <t>End_of_life_care/CMO &amp; NRS Guidance for Doctors completing MCCD.pdf</t>
+  </si>
+  <si>
+    <t>End_of_life_care/Palliative extubation &amp; withdrawal of invasive ventilatory support nursing checklist.pdf</t>
+  </si>
+  <si>
+    <t>Organ_donation/Organ Retrieval SOP.pdf</t>
+  </si>
+  <si>
+    <t>Neurological/Critical Care MRI Procedure_pub.pdf</t>
+  </si>
+  <si>
+    <t>Neurological/Management of traumatic brain injury.pdf</t>
+  </si>
+  <si>
     <t>Drugs/clonidine.pdf</t>
   </si>
   <si>
-    <t>Neurological/Management of traumatic brain injury.pdf</t>
-  </si>
-  <si>
-    <t>Neurological/Critical Care MRI Procedure_pub.pdf</t>
-  </si>
-  <si>
-    <t>End_of_life_care/Palliative extubation &amp; withdrawal of invasive ventilatory support nursing checklist.pdf</t>
-  </si>
-  <si>
-    <t>End_of_life_care/CMO &amp; NRS Guidance for Doctors completing MCCD.pdf</t>
-  </si>
-  <si>
-    <t>Ethics_and_Law/DNACPR policy for Scotland.pdf</t>
-  </si>
-  <si>
-    <t>Organ_donation/Organ Retrieval SOP.pdf</t>
-  </si>
-  <si>
     <t>Airway/Cook Staged Extubation Set.pdf</t>
   </si>
   <si>
@@ -376,6 +364,9 @@
     <t>Post_op_care/Epidural hypotension.pdf</t>
   </si>
   <si>
+    <t>Drugs/dexmedetomidine.pdf</t>
+  </si>
+  <si>
     <t>Drugs/glyceryl_trinitrate.pdf</t>
   </si>
   <si>
@@ -385,177 +376,174 @@
     <t>GI_Liver_and_Transplant/Fulminant Liver Failure.pdf</t>
   </si>
   <si>
-    <t>Drugs/dexmedetomidine.pdf</t>
-  </si>
-  <si>
     <t>Breathing(Respiratory)/Equipment/Passy Muir Valve.pdf</t>
   </si>
   <si>
     <t>Infection_and_sepsis/Antifungal guidance in critical care.pdf</t>
   </si>
   <si>
+    <t>Cardiovascular/Intra Aortic Balloon Pump Bedside Checks_pub.pdf</t>
+  </si>
+  <si>
+    <t>Cardiovascular/Intra Aortic Balloon Pump Guideline_pub.pdf</t>
+  </si>
+  <si>
     <t>Transfer/Transfer Outdoors to Garden Guideline.pdf</t>
   </si>
   <si>
-    <t>Cardiovascular/Intra Aortic Balloon Pump Bedside Checks_pub.pdf</t>
-  </si>
-  <si>
-    <t>Cardiovascular/Intra Aortic Balloon Pump Guideline_pub.pdf</t>
-  </si>
-  <si>
     <t>Breathing(Respiratory)/ARDS Strategy.pdf</t>
   </si>
   <si>
+    <t>Drugs/dobutamine.pdf</t>
+  </si>
+  <si>
     <t>Drugs/adrenaline.pdf</t>
   </si>
   <si>
-    <t>Drugs/dobutamine.pdf</t>
-  </si>
-  <si>
     <t>Drugs/hydralazine.pdf</t>
   </si>
   <si>
     <t>Post_op_care/Major OMFS Free Flap.pdf</t>
   </si>
   <si>
+    <t>Drugs/Alteplase for massive PE.pdf</t>
+  </si>
+  <si>
     <t>Drugs/alfentanil.pdf</t>
   </si>
   <si>
-    <t>Drugs/Alteplase for massive PE.pdf</t>
-  </si>
-  <si>
     <t>Drugs/magnesium.pdf</t>
   </si>
   <si>
+    <t>Drugs/neostigmine.pdf</t>
+  </si>
+  <si>
     <t>Drugs/all IV drug infusion information.pdf</t>
   </si>
   <si>
-    <t>Drugs/neostigmine.pdf</t>
-  </si>
-  <si>
     <t>Drugs/vancomycin.pdf</t>
   </si>
   <si>
+    <t>Neurological/Intrathecal policy RIE.pdf</t>
+  </si>
+  <si>
+    <t>Infection_and_sepsis/Initial investigation and management in unidentified Infections.pdf</t>
+  </si>
+  <si>
     <t>Drugs/labetalol.pdf</t>
   </si>
   <si>
-    <t>Neurological/Intrathecal policy RIE.pdf</t>
-  </si>
-  <si>
-    <t>Infection_and_sepsis/Initial investigation and management in unidentified Infections.pdf</t>
-  </si>
-  <si>
     <t>Cardiovascular/Management of Acute Type B Aortic Dissection Guideline.pdf</t>
   </si>
   <si>
     <t>Drugs/midazolam.pdf</t>
   </si>
   <si>
+    <t>Drugs/potassium.pdf</t>
+  </si>
+  <si>
+    <t>Procedures/CVC Guidance/CVC NHL  April 2023.pdf</t>
+  </si>
+  <si>
     <t>Drugs/salbutamol.pdf</t>
   </si>
   <si>
-    <t>Drugs/potassium.pdf</t>
-  </si>
-  <si>
-    <t>Procedures/CVC Guidance/CVC NHL  April 2023.pdf</t>
-  </si>
-  <si>
     <t>Drugs/nimodipine.pdf</t>
   </si>
   <si>
+    <t>Drugs/phenobarbitone.pdf</t>
+  </si>
+  <si>
+    <t>Routine_Care/ICU Eye Care Guideline.pdf</t>
+  </si>
+  <si>
+    <t>Procedures/Arterial Line insertion for ACCPs.pdf</t>
+  </si>
+  <si>
     <t>Drugs/amiodarone.pdf</t>
   </si>
   <si>
-    <t>Procedures/Arterial Line insertion for ACCPs.pdf</t>
-  </si>
-  <si>
-    <t>Routine_Care/ICU Eye Care Guideline.pdf</t>
-  </si>
-  <si>
     <t>Drugs/nicardipine.pdf</t>
   </si>
   <si>
-    <t>Drugs/phenobarbitone.pdf</t>
+    <t>Drugs/phenylephrine.pdf</t>
+  </si>
+  <si>
+    <t>Breathing(Respiratory)/Manual Ventilation and MHI.pdf</t>
   </si>
   <si>
     <t>Neurological/Ventriculitis Guideline.pdf</t>
   </si>
   <si>
-    <t>Breathing(Respiratory)/Manual Ventilation and MHI.pdf</t>
+    <t>Drugs/morphine.pdf</t>
   </si>
   <si>
     <t>Drugs/noradrenaline (peripheral).pdf</t>
   </si>
   <si>
-    <t>Drugs/phenylephrine.pdf</t>
-  </si>
-  <si>
-    <t>Drugs/morphine.pdf</t>
-  </si>
-  <si>
     <t>Drugs/Epoprostenol.pdf</t>
   </si>
   <si>
+    <t>Drugs/calcium.pdf</t>
+  </si>
+  <si>
     <t>Cardiovascular/Cardiac Output Monitoring_pub .pdf</t>
   </si>
   <si>
-    <t>Drugs/calcium.pdf</t>
-  </si>
-  <si>
     <t>Cardiovascular/Pulmonary_Embolism_and_DVT/Catheter directed thrombolysis of iliofemoral DVT alteplase_pub.pdf</t>
   </si>
   <si>
     <t>Drugs/dalteparin_thromboprophylaxis.pdf</t>
   </si>
   <si>
+    <t>Drugs/atracurium.pdf</t>
+  </si>
+  <si>
     <t>Drugs/Vancomycin Continuous Infusion Fluid Restricted.pdf</t>
   </si>
   <si>
     <t>Airway/Tracheostomy_Laryngectomy/Decannulation Guidline.pdf</t>
   </si>
   <si>
-    <t>Drugs/atracurium.pdf</t>
+    <t>Drugs/valproate.pdf</t>
+  </si>
+  <si>
+    <t>Procedures/Inadvertent Catheter Placement Guideline.pdf</t>
   </si>
   <si>
     <t>Policies_and_admin/Pet Visitation.pdf</t>
   </si>
   <si>
-    <t>Procedures/Inadvertent Catheter Placement Guideline.pdf</t>
-  </si>
-  <si>
-    <t>Drugs/valproate.pdf</t>
+    <t>Drugs/ketamine_for_status epilepticus.pdf</t>
   </si>
   <si>
     <t>Drugs/stress ulcer prophylaxis.pdf</t>
   </si>
   <si>
-    <t>Drugs/ketamine_for_status epilepticus.pdf</t>
-  </si>
-  <si>
     <t>Drugs/Phosphate.pdf</t>
   </si>
   <si>
+    <t>Drugs/Octreotide.pdf</t>
+  </si>
+  <si>
+    <t>Drugs/Thiopentone.pdf</t>
+  </si>
+  <si>
+    <t>Breathing(Respiratory)/Proning Guideline.pdf</t>
+  </si>
+  <si>
     <t>GI_Liver_and_Transplant/Prokinetics in ICU.pdf</t>
   </si>
   <si>
-    <t>Drugs/Thiopentone.pdf</t>
-  </si>
-  <si>
-    <t>Breathing(Respiratory)/Proning Guideline.pdf</t>
-  </si>
-  <si>
     <t>Drugs/Prokinetics in ICU.pdf</t>
   </si>
   <si>
-    <t>Drugs/Octreotide.pdf</t>
+    <t>Procedures/ACCPs acquiring initial CVC competencies.pdf</t>
   </si>
   <si>
     <t>Procedures/ACCP CVC placement following completion of initial competencies.pdf</t>
   </si>
   <si>
-    <t>Procedures/ACCPs acquiring initial CVC competencies.pdf</t>
-  </si>
-  <si>
     <t>Post_op_care/Prevention and treatment of paraplegia after major aortic procedures.pdf</t>
   </si>
   <si>
@@ -634,9 +622,6 @@
     <t>2017-08-05</t>
   </si>
   <si>
-    <t>2017-09-05</t>
-  </si>
-  <si>
     <t>2017-10-05</t>
   </si>
   <si>
@@ -755,9 +740,6 @@
   </si>
   <si>
     <t>2024-01-05</t>
-  </si>
-  <si>
-    <t>2024-01-18</t>
   </si>
   <si>
     <t>2024-02-05</t>
@@ -1229,7 +1211,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B191"/>
+  <dimension ref="A1:B187"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1248,7 +1230,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -1256,7 +1238,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -1264,7 +1246,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -1272,7 +1254,7 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -1280,7 +1262,7 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -1288,7 +1270,7 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -1296,7 +1278,7 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -1304,7 +1286,7 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -1312,7 +1294,7 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -1320,7 +1302,7 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -1328,7 +1310,7 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -1336,7 +1318,7 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -1344,7 +1326,7 @@
         <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -1352,7 +1334,7 @@
         <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -1360,7 +1342,7 @@
         <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -1368,7 +1350,7 @@
         <v>17</v>
       </c>
       <c r="B17" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -1376,7 +1358,7 @@
         <v>18</v>
       </c>
       <c r="B18" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -1384,7 +1366,7 @@
         <v>19</v>
       </c>
       <c r="B19" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -1392,7 +1374,7 @@
         <v>20</v>
       </c>
       <c r="B20" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -1400,7 +1382,7 @@
         <v>21</v>
       </c>
       <c r="B21" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -1408,7 +1390,7 @@
         <v>22</v>
       </c>
       <c r="B22" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -1416,7 +1398,7 @@
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -1424,7 +1406,7 @@
         <v>24</v>
       </c>
       <c r="B24" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -1432,7 +1414,7 @@
         <v>25</v>
       </c>
       <c r="B25" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -1440,7 +1422,7 @@
         <v>26</v>
       </c>
       <c r="B26" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -1448,7 +1430,7 @@
         <v>27</v>
       </c>
       <c r="B27" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -1456,7 +1438,7 @@
         <v>28</v>
       </c>
       <c r="B28" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -1464,7 +1446,7 @@
         <v>29</v>
       </c>
       <c r="B29" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -1472,7 +1454,7 @@
         <v>30</v>
       </c>
       <c r="B30" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -1480,7 +1462,7 @@
         <v>31</v>
       </c>
       <c r="B31" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -1488,7 +1470,7 @@
         <v>32</v>
       </c>
       <c r="B32" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -1496,7 +1478,7 @@
         <v>33</v>
       </c>
       <c r="B33" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -1504,7 +1486,7 @@
         <v>34</v>
       </c>
       <c r="B34" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -1512,7 +1494,7 @@
         <v>35</v>
       </c>
       <c r="B35" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -1520,7 +1502,7 @@
         <v>36</v>
       </c>
       <c r="B36" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -1528,7 +1510,7 @@
         <v>37</v>
       </c>
       <c r="B37" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -1536,7 +1518,7 @@
         <v>38</v>
       </c>
       <c r="B38" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -1544,7 +1526,7 @@
         <v>39</v>
       </c>
       <c r="B39" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -1552,7 +1534,7 @@
         <v>40</v>
       </c>
       <c r="B40" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -1560,7 +1542,7 @@
         <v>41</v>
       </c>
       <c r="B41" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -1568,7 +1550,7 @@
         <v>42</v>
       </c>
       <c r="B42" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -1576,7 +1558,7 @@
         <v>43</v>
       </c>
       <c r="B43" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -1584,7 +1566,7 @@
         <v>44</v>
       </c>
       <c r="B44" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -1592,7 +1574,7 @@
         <v>45</v>
       </c>
       <c r="B45" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -1600,7 +1582,7 @@
         <v>46</v>
       </c>
       <c r="B46" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -1608,7 +1590,7 @@
         <v>47</v>
       </c>
       <c r="B47" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -1616,7 +1598,7 @@
         <v>48</v>
       </c>
       <c r="B48" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -1624,7 +1606,7 @@
         <v>49</v>
       </c>
       <c r="B49" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -1632,7 +1614,7 @@
         <v>50</v>
       </c>
       <c r="B50" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -1640,7 +1622,7 @@
         <v>51</v>
       </c>
       <c r="B51" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -1648,7 +1630,7 @@
         <v>52</v>
       </c>
       <c r="B52" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -1656,7 +1638,7 @@
         <v>53</v>
       </c>
       <c r="B53" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
     </row>
     <row r="54" spans="1:2">
@@ -1664,7 +1646,7 @@
         <v>54</v>
       </c>
       <c r="B54" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
     </row>
     <row r="55" spans="1:2">
@@ -1672,7 +1654,7 @@
         <v>55</v>
       </c>
       <c r="B55" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="56" spans="1:2">
@@ -1680,7 +1662,7 @@
         <v>56</v>
       </c>
       <c r="B56" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="57" spans="1:2">
@@ -1688,7 +1670,7 @@
         <v>57</v>
       </c>
       <c r="B57" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
     </row>
     <row r="58" spans="1:2">
@@ -1696,7 +1678,7 @@
         <v>58</v>
       </c>
       <c r="B58" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
     </row>
     <row r="59" spans="1:2">
@@ -1704,7 +1686,7 @@
         <v>59</v>
       </c>
       <c r="B59" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
     </row>
     <row r="60" spans="1:2">
@@ -1712,7 +1694,7 @@
         <v>60</v>
       </c>
       <c r="B60" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
     </row>
     <row r="61" spans="1:2">
@@ -1720,7 +1702,7 @@
         <v>61</v>
       </c>
       <c r="B61" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
     </row>
     <row r="62" spans="1:2">
@@ -1728,7 +1710,7 @@
         <v>62</v>
       </c>
       <c r="B62" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
     </row>
     <row r="63" spans="1:2">
@@ -1736,7 +1718,7 @@
         <v>63</v>
       </c>
       <c r="B63" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
     </row>
     <row r="64" spans="1:2">
@@ -1744,7 +1726,7 @@
         <v>64</v>
       </c>
       <c r="B64" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
     </row>
     <row r="65" spans="1:2">
@@ -1752,7 +1734,7 @@
         <v>65</v>
       </c>
       <c r="B65" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
     </row>
     <row r="66" spans="1:2">
@@ -1760,7 +1742,7 @@
         <v>66</v>
       </c>
       <c r="B66" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
     <row r="67" spans="1:2">
@@ -1768,7 +1750,7 @@
         <v>67</v>
       </c>
       <c r="B67" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="68" spans="1:2">
@@ -1776,7 +1758,7 @@
         <v>68</v>
       </c>
       <c r="B68" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
     </row>
     <row r="69" spans="1:2">
@@ -1784,7 +1766,7 @@
         <v>69</v>
       </c>
       <c r="B69" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
     </row>
     <row r="70" spans="1:2">
@@ -1792,7 +1774,7 @@
         <v>70</v>
       </c>
       <c r="B70" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
     </row>
     <row r="71" spans="1:2">
@@ -1800,7 +1782,7 @@
         <v>71</v>
       </c>
       <c r="B71" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="72" spans="1:2">
@@ -1808,7 +1790,7 @@
         <v>72</v>
       </c>
       <c r="B72" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
     </row>
     <row r="73" spans="1:2">
@@ -1816,7 +1798,7 @@
         <v>73</v>
       </c>
       <c r="B73" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
     </row>
     <row r="74" spans="1:2">
@@ -1824,7 +1806,7 @@
         <v>74</v>
       </c>
       <c r="B74" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
     </row>
     <row r="75" spans="1:2">
@@ -1832,7 +1814,7 @@
         <v>75</v>
       </c>
       <c r="B75" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
     </row>
     <row r="76" spans="1:2">
@@ -1840,7 +1822,7 @@
         <v>76</v>
       </c>
       <c r="B76" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
     </row>
     <row r="77" spans="1:2">
@@ -1848,7 +1830,7 @@
         <v>77</v>
       </c>
       <c r="B77" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
     </row>
     <row r="78" spans="1:2">
@@ -1856,7 +1838,7 @@
         <v>78</v>
       </c>
       <c r="B78" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
     </row>
     <row r="79" spans="1:2">
@@ -1864,7 +1846,7 @@
         <v>79</v>
       </c>
       <c r="B79" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
     </row>
     <row r="80" spans="1:2">
@@ -1872,7 +1854,7 @@
         <v>80</v>
       </c>
       <c r="B80" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
     </row>
     <row r="81" spans="1:2">
@@ -1880,7 +1862,7 @@
         <v>81</v>
       </c>
       <c r="B81" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
     </row>
     <row r="82" spans="1:2">
@@ -1888,7 +1870,7 @@
         <v>82</v>
       </c>
       <c r="B82" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
     </row>
     <row r="83" spans="1:2">
@@ -1896,7 +1878,7 @@
         <v>83</v>
       </c>
       <c r="B83" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
     </row>
     <row r="84" spans="1:2">
@@ -1904,7 +1886,7 @@
         <v>84</v>
       </c>
       <c r="B84" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
     </row>
     <row r="85" spans="1:2">
@@ -1912,7 +1894,7 @@
         <v>85</v>
       </c>
       <c r="B85" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
     </row>
     <row r="86" spans="1:2">
@@ -1920,7 +1902,7 @@
         <v>86</v>
       </c>
       <c r="B86" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
     </row>
     <row r="87" spans="1:2">
@@ -1928,7 +1910,7 @@
         <v>87</v>
       </c>
       <c r="B87" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
     </row>
     <row r="88" spans="1:2">
@@ -1936,7 +1918,7 @@
         <v>88</v>
       </c>
       <c r="B88" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
     </row>
     <row r="89" spans="1:2">
@@ -1944,7 +1926,7 @@
         <v>89</v>
       </c>
       <c r="B89" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
     </row>
     <row r="90" spans="1:2">
@@ -1952,7 +1934,7 @@
         <v>90</v>
       </c>
       <c r="B90" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
     </row>
     <row r="91" spans="1:2">
@@ -1960,7 +1942,7 @@
         <v>91</v>
       </c>
       <c r="B91" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
     </row>
     <row r="92" spans="1:2">
@@ -1968,7 +1950,7 @@
         <v>92</v>
       </c>
       <c r="B92" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
     </row>
     <row r="93" spans="1:2">
@@ -1976,7 +1958,7 @@
         <v>93</v>
       </c>
       <c r="B93" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
     </row>
     <row r="94" spans="1:2">
@@ -1984,7 +1966,7 @@
         <v>94</v>
       </c>
       <c r="B94" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
     </row>
     <row r="95" spans="1:2">
@@ -1992,7 +1974,7 @@
         <v>95</v>
       </c>
       <c r="B95" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
     </row>
     <row r="96" spans="1:2">
@@ -2000,7 +1982,7 @@
         <v>96</v>
       </c>
       <c r="B96" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
     </row>
     <row r="97" spans="1:2">
@@ -2008,7 +1990,7 @@
         <v>97</v>
       </c>
       <c r="B97" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
     </row>
     <row r="98" spans="1:2">
@@ -2016,7 +1998,7 @@
         <v>98</v>
       </c>
       <c r="B98" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
     </row>
     <row r="99" spans="1:2">
@@ -2024,7 +2006,7 @@
         <v>99</v>
       </c>
       <c r="B99" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
     </row>
     <row r="100" spans="1:2">
@@ -2032,7 +2014,7 @@
         <v>100</v>
       </c>
       <c r="B100" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
     </row>
     <row r="101" spans="1:2">
@@ -2040,7 +2022,7 @@
         <v>101</v>
       </c>
       <c r="B101" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
     </row>
     <row r="102" spans="1:2">
@@ -2048,7 +2030,7 @@
         <v>102</v>
       </c>
       <c r="B102" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
     </row>
     <row r="103" spans="1:2">
@@ -2056,7 +2038,7 @@
         <v>103</v>
       </c>
       <c r="B103" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
     </row>
     <row r="104" spans="1:2">
@@ -2064,7 +2046,7 @@
         <v>104</v>
       </c>
       <c r="B104" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
     </row>
     <row r="105" spans="1:2">
@@ -2072,7 +2054,7 @@
         <v>105</v>
       </c>
       <c r="B105" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
     </row>
     <row r="106" spans="1:2">
@@ -2080,7 +2062,7 @@
         <v>106</v>
       </c>
       <c r="B106" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
     </row>
     <row r="107" spans="1:2">
@@ -2088,7 +2070,7 @@
         <v>107</v>
       </c>
       <c r="B107" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
     </row>
     <row r="108" spans="1:2">
@@ -2096,7 +2078,7 @@
         <v>108</v>
       </c>
       <c r="B108" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
     </row>
     <row r="109" spans="1:2">
@@ -2104,7 +2086,7 @@
         <v>109</v>
       </c>
       <c r="B109" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
     </row>
     <row r="110" spans="1:2">
@@ -2112,7 +2094,7 @@
         <v>110</v>
       </c>
       <c r="B110" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
     </row>
     <row r="111" spans="1:2">
@@ -2120,7 +2102,7 @@
         <v>111</v>
       </c>
       <c r="B111" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
     </row>
     <row r="112" spans="1:2">
@@ -2128,7 +2110,7 @@
         <v>112</v>
       </c>
       <c r="B112" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
     </row>
     <row r="113" spans="1:2">
@@ -2136,7 +2118,7 @@
         <v>113</v>
       </c>
       <c r="B113" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
     </row>
     <row r="114" spans="1:2">
@@ -2144,7 +2126,7 @@
         <v>114</v>
       </c>
       <c r="B114" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
     </row>
     <row r="115" spans="1:2">
@@ -2152,7 +2134,7 @@
         <v>115</v>
       </c>
       <c r="B115" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
     </row>
     <row r="116" spans="1:2">
@@ -2160,7 +2142,7 @@
         <v>116</v>
       </c>
       <c r="B116" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
     </row>
     <row r="117" spans="1:2">
@@ -2168,7 +2150,7 @@
         <v>117</v>
       </c>
       <c r="B117" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
     </row>
     <row r="118" spans="1:2">
@@ -2176,7 +2158,7 @@
         <v>118</v>
       </c>
       <c r="B118" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
     </row>
     <row r="119" spans="1:2">
@@ -2184,7 +2166,7 @@
         <v>119</v>
       </c>
       <c r="B119" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
     </row>
     <row r="120" spans="1:2">
@@ -2192,7 +2174,7 @@
         <v>120</v>
       </c>
       <c r="B120" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
     </row>
     <row r="121" spans="1:2">
@@ -2200,7 +2182,7 @@
         <v>121</v>
       </c>
       <c r="B121" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
     </row>
     <row r="122" spans="1:2">
@@ -2208,7 +2190,7 @@
         <v>122</v>
       </c>
       <c r="B122" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
     </row>
     <row r="123" spans="1:2">
@@ -2216,7 +2198,7 @@
         <v>123</v>
       </c>
       <c r="B123" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
     </row>
     <row r="124" spans="1:2">
@@ -2224,7 +2206,7 @@
         <v>124</v>
       </c>
       <c r="B124" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
     </row>
     <row r="125" spans="1:2">
@@ -2232,7 +2214,7 @@
         <v>125</v>
       </c>
       <c r="B125" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
     </row>
     <row r="126" spans="1:2">
@@ -2240,7 +2222,7 @@
         <v>126</v>
       </c>
       <c r="B126" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
     </row>
     <row r="127" spans="1:2">
@@ -2248,7 +2230,7 @@
         <v>127</v>
       </c>
       <c r="B127" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
     </row>
     <row r="128" spans="1:2">
@@ -2256,7 +2238,7 @@
         <v>128</v>
       </c>
       <c r="B128" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
     </row>
     <row r="129" spans="1:2">
@@ -2264,7 +2246,7 @@
         <v>129</v>
       </c>
       <c r="B129" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
     </row>
     <row r="130" spans="1:2">
@@ -2272,7 +2254,7 @@
         <v>130</v>
       </c>
       <c r="B130" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
     </row>
     <row r="131" spans="1:2">
@@ -2280,7 +2262,7 @@
         <v>131</v>
       </c>
       <c r="B131" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
     </row>
     <row r="132" spans="1:2">
@@ -2288,7 +2270,7 @@
         <v>132</v>
       </c>
       <c r="B132" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
     </row>
     <row r="133" spans="1:2">
@@ -2296,7 +2278,7 @@
         <v>133</v>
       </c>
       <c r="B133" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
     </row>
     <row r="134" spans="1:2">
@@ -2304,7 +2286,7 @@
         <v>134</v>
       </c>
       <c r="B134" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
     </row>
     <row r="135" spans="1:2">
@@ -2312,7 +2294,7 @@
         <v>135</v>
       </c>
       <c r="B135" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
     </row>
     <row r="136" spans="1:2">
@@ -2320,7 +2302,7 @@
         <v>136</v>
       </c>
       <c r="B136" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
     </row>
     <row r="137" spans="1:2">
@@ -2328,7 +2310,7 @@
         <v>137</v>
       </c>
       <c r="B137" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
     </row>
     <row r="138" spans="1:2">
@@ -2336,7 +2318,7 @@
         <v>138</v>
       </c>
       <c r="B138" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
     </row>
     <row r="139" spans="1:2">
@@ -2344,7 +2326,7 @@
         <v>139</v>
       </c>
       <c r="B139" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
     </row>
     <row r="140" spans="1:2">
@@ -2352,7 +2334,7 @@
         <v>140</v>
       </c>
       <c r="B140" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
     </row>
     <row r="141" spans="1:2">
@@ -2360,7 +2342,7 @@
         <v>141</v>
       </c>
       <c r="B141" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
     </row>
     <row r="142" spans="1:2">
@@ -2368,7 +2350,7 @@
         <v>142</v>
       </c>
       <c r="B142" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
     </row>
     <row r="143" spans="1:2">
@@ -2376,7 +2358,7 @@
         <v>143</v>
       </c>
       <c r="B143" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
     </row>
     <row r="144" spans="1:2">
@@ -2384,7 +2366,7 @@
         <v>144</v>
       </c>
       <c r="B144" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
     </row>
     <row r="145" spans="1:2">
@@ -2392,7 +2374,7 @@
         <v>145</v>
       </c>
       <c r="B145" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
     </row>
     <row r="146" spans="1:2">
@@ -2400,7 +2382,7 @@
         <v>146</v>
       </c>
       <c r="B146" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
     </row>
     <row r="147" spans="1:2">
@@ -2408,7 +2390,7 @@
         <v>147</v>
       </c>
       <c r="B147" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
     </row>
     <row r="148" spans="1:2">
@@ -2416,7 +2398,7 @@
         <v>148</v>
       </c>
       <c r="B148" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
     </row>
     <row r="149" spans="1:2">
@@ -2424,7 +2406,7 @@
         <v>149</v>
       </c>
       <c r="B149" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
     </row>
     <row r="150" spans="1:2">
@@ -2432,7 +2414,7 @@
         <v>150</v>
       </c>
       <c r="B150" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
     </row>
     <row r="151" spans="1:2">
@@ -2440,7 +2422,7 @@
         <v>151</v>
       </c>
       <c r="B151" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
     </row>
     <row r="152" spans="1:2">
@@ -2448,7 +2430,7 @@
         <v>152</v>
       </c>
       <c r="B152" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
     </row>
     <row r="153" spans="1:2">
@@ -2456,7 +2438,7 @@
         <v>153</v>
       </c>
       <c r="B153" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
     </row>
     <row r="154" spans="1:2">
@@ -2464,7 +2446,7 @@
         <v>154</v>
       </c>
       <c r="B154" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
     </row>
     <row r="155" spans="1:2">
@@ -2472,7 +2454,7 @@
         <v>155</v>
       </c>
       <c r="B155" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
     </row>
     <row r="156" spans="1:2">
@@ -2480,7 +2462,7 @@
         <v>156</v>
       </c>
       <c r="B156" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
     </row>
     <row r="157" spans="1:2">
@@ -2488,7 +2470,7 @@
         <v>157</v>
       </c>
       <c r="B157" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
     </row>
     <row r="158" spans="1:2">
@@ -2496,7 +2478,7 @@
         <v>158</v>
       </c>
       <c r="B158" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
     </row>
     <row r="159" spans="1:2">
@@ -2504,7 +2486,7 @@
         <v>159</v>
       </c>
       <c r="B159" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
     </row>
     <row r="160" spans="1:2">
@@ -2512,7 +2494,7 @@
         <v>160</v>
       </c>
       <c r="B160" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
     </row>
     <row r="161" spans="1:2">
@@ -2520,7 +2502,7 @@
         <v>161</v>
       </c>
       <c r="B161" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
     </row>
     <row r="162" spans="1:2">
@@ -2528,7 +2510,7 @@
         <v>162</v>
       </c>
       <c r="B162" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
     </row>
     <row r="163" spans="1:2">
@@ -2536,7 +2518,7 @@
         <v>163</v>
       </c>
       <c r="B163" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
     </row>
     <row r="164" spans="1:2">
@@ -2544,7 +2526,7 @@
         <v>164</v>
       </c>
       <c r="B164" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
     </row>
     <row r="165" spans="1:2">
@@ -2552,7 +2534,7 @@
         <v>165</v>
       </c>
       <c r="B165" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
     </row>
     <row r="166" spans="1:2">
@@ -2560,7 +2542,7 @@
         <v>166</v>
       </c>
       <c r="B166" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
     </row>
     <row r="167" spans="1:2">
@@ -2568,7 +2550,7 @@
         <v>167</v>
       </c>
       <c r="B167" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
     </row>
     <row r="168" spans="1:2">
@@ -2576,7 +2558,7 @@
         <v>168</v>
       </c>
       <c r="B168" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
     </row>
     <row r="169" spans="1:2">
@@ -2584,7 +2566,7 @@
         <v>169</v>
       </c>
       <c r="B169" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
     </row>
     <row r="170" spans="1:2">
@@ -2592,7 +2574,7 @@
         <v>170</v>
       </c>
       <c r="B170" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
     </row>
     <row r="171" spans="1:2">
@@ -2600,7 +2582,7 @@
         <v>171</v>
       </c>
       <c r="B171" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
     </row>
     <row r="172" spans="1:2">
@@ -2608,7 +2590,7 @@
         <v>172</v>
       </c>
       <c r="B172" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
     </row>
     <row r="173" spans="1:2">
@@ -2616,7 +2598,7 @@
         <v>173</v>
       </c>
       <c r="B173" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
     </row>
     <row r="174" spans="1:2">
@@ -2624,7 +2606,7 @@
         <v>174</v>
       </c>
       <c r="B174" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
     </row>
     <row r="175" spans="1:2">
@@ -2632,7 +2614,7 @@
         <v>175</v>
       </c>
       <c r="B175" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
     </row>
     <row r="176" spans="1:2">
@@ -2640,7 +2622,7 @@
         <v>176</v>
       </c>
       <c r="B176" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
     </row>
     <row r="177" spans="1:2">
@@ -2648,7 +2630,7 @@
         <v>177</v>
       </c>
       <c r="B177" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
     </row>
     <row r="178" spans="1:2">
@@ -2656,7 +2638,7 @@
         <v>178</v>
       </c>
       <c r="B178" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
     </row>
     <row r="179" spans="1:2">
@@ -2664,7 +2646,7 @@
         <v>179</v>
       </c>
       <c r="B179" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
     </row>
     <row r="180" spans="1:2">
@@ -2672,7 +2654,7 @@
         <v>180</v>
       </c>
       <c r="B180" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="181" spans="1:2">
@@ -2680,7 +2662,7 @@
         <v>181</v>
       </c>
       <c r="B181" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
     </row>
     <row r="182" spans="1:2">
@@ -2688,7 +2670,7 @@
         <v>182</v>
       </c>
       <c r="B182" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="183" spans="1:2">
@@ -2696,7 +2678,7 @@
         <v>183</v>
       </c>
       <c r="B183" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
     </row>
     <row r="184" spans="1:2">
@@ -2704,7 +2686,7 @@
         <v>184</v>
       </c>
       <c r="B184" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
     </row>
     <row r="185" spans="1:2">
@@ -2712,7 +2694,7 @@
         <v>185</v>
       </c>
       <c r="B185" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="186" spans="1:2">
@@ -2720,7 +2702,7 @@
         <v>186</v>
       </c>
       <c r="B186" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
     </row>
     <row r="187" spans="1:2">
@@ -2728,39 +2710,7 @@
         <v>187</v>
       </c>
       <c r="B187" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="188" spans="1:2">
-      <c r="A188" t="s">
-        <v>188</v>
-      </c>
-      <c r="B188" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="189" spans="1:2">
-      <c r="A189" t="s">
-        <v>189</v>
-      </c>
-      <c r="B189" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="190" spans="1:2">
-      <c r="A190" t="s">
-        <v>190</v>
-      </c>
-      <c r="B190" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="191" spans="1:2">
-      <c r="A191" t="s">
-        <v>191</v>
-      </c>
-      <c r="B191" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
     </row>
   </sheetData>

--- a/lothiancriticalcare/1a74f8f7b8b7e871b413c4697f68b4401fbacdf0/reviewdates.xlsx
+++ b/lothiancriticalcare/1a74f8f7b8b7e871b413c4697f68b4401fbacdf0/reviewdates.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="280">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="279">
   <si>
     <t>File</t>
   </si>
@@ -79,12 +79,12 @@
     <t>Drugs/diazepam_diazemuls.pdf</t>
   </si>
   <si>
+    <t>End_of_life_care/Reasons to report a death to PF.pdf</t>
+  </si>
+  <si>
     <t>Breathing(Respiratory)/salbutamol and ipratroprium MDI.pdf</t>
   </si>
   <si>
-    <t>End_of_life_care/Reasons to report a death to PF.pdf</t>
-  </si>
-  <si>
     <t>Neurological/SOP -  Femoral site care.pdf</t>
   </si>
   <si>
@@ -103,21 +103,21 @@
     <t>Post_op_care/Epidural top-up.pdf</t>
   </si>
   <si>
+    <t>Drugs/heparin for Haemofiltration.pdf</t>
+  </si>
+  <si>
+    <t>Covid-19/WGH/CoVid intubation checklist WGH.pdf</t>
+  </si>
+  <si>
+    <t>Covid-19/SJH/SJH COVID19 ITU Intubation Action Card.pdf</t>
+  </si>
+  <si>
     <t>Diabetes_and_Glucose/Hyperosmolar Hyperglycaemic State.pdf</t>
   </si>
   <si>
-    <t>Drugs/heparin for Haemofiltration.pdf</t>
-  </si>
-  <si>
     <t>Covid-19/SJH/SJH COVID19 ED Intubation Action Card.pdf</t>
   </si>
   <si>
-    <t>Covid-19/SJH/SJH COVID19 ITU Intubation Action Card.pdf</t>
-  </si>
-  <si>
-    <t>Covid-19/WGH/CoVid intubation checklist WGH.pdf</t>
-  </si>
-  <si>
     <t>Airway/Emergency intubation checklist_em_pub.pdf</t>
   </si>
   <si>
@@ -148,33 +148,33 @@
     <t>Delirium/Risk assessment posi mit.pdf</t>
   </si>
   <si>
+    <t>Neurological/Sub arachnoid haemorrhage management.pdf</t>
+  </si>
+  <si>
+    <t>Airway/Anticipated difficult airway tool.pdf</t>
+  </si>
+  <si>
+    <t>Airway/McGrath Mac.pdf</t>
+  </si>
+  <si>
     <t>Delirium/Drugs Causing Delirium and Agitiation.pdf</t>
   </si>
   <si>
-    <t>Airway/Anticipated difficult airway tool.pdf</t>
+    <t>Airway/Tracheostomy_Laryngectomy/Tracheostomy safety box contents.pdf</t>
+  </si>
+  <si>
+    <t>Breathing(Respiratory)/HFNO.pdf</t>
+  </si>
+  <si>
+    <t>GI_Liver_and_Transplant/Treatment of constipation.pdf</t>
   </si>
   <si>
     <t>GI_Liver_and_Transplant/Abdominal pressure measurement.pdf</t>
   </si>
   <si>
-    <t>Neurological/Sub arachnoid haemorrhage management.pdf</t>
-  </si>
-  <si>
-    <t>Airway/McGrath Mac.pdf</t>
-  </si>
-  <si>
-    <t>Breathing(Respiratory)/HFNO.pdf</t>
-  </si>
-  <si>
-    <t>Airway/Tracheostomy_Laryngectomy/Tracheostomy safety box contents.pdf</t>
-  </si>
-  <si>
     <t>Drugs/ketamine_in_asthma.pdf</t>
   </si>
   <si>
-    <t>GI_Liver_and_Transplant/Treatment of constipation.pdf</t>
-  </si>
-  <si>
     <t>End_of_life_care/Documentation following death.pdf</t>
   </si>
   <si>
@@ -199,15 +199,15 @@
     <t>Cardiovascular/Steroids for Septic Shock.pdf</t>
   </si>
   <si>
+    <t>Neurological/SOP for review of Neurosurgical patients in ITU by neurosurgical team.pdf</t>
+  </si>
+  <si>
+    <t>Post_op_care/Epidural Haematoma.pdf</t>
+  </si>
+  <si>
     <t>Breathing(Respiratory)/Equipment/T piece Y piece.pdf</t>
   </si>
   <si>
-    <t>Neurological/SOP for review of Neurosurgical patients in ITU by neurosurgical team.pdf</t>
-  </si>
-  <si>
-    <t>Post_op_care/Epidural Haematoma.pdf</t>
-  </si>
-  <si>
     <t>Policies_and_admin/General Critical Care Interaction with HEPMA_pub.pdf</t>
   </si>
   <si>
@@ -217,12 +217,12 @@
     <t>Breathing(Respiratory)/Equipment/HFNO through ventilator.pdf</t>
   </si>
   <si>
+    <t>Post_op_care/Adult Scoliosis Spinal Surgery Post-Op Care.pdf</t>
+  </si>
+  <si>
     <t>Routine_Care/VTE_Prevention/Dalteparin_thromboprophylaxis.pdf</t>
   </si>
   <si>
-    <t>Post_op_care/Adult Scoliosis Spinal Surgery Post-Op Care.pdf</t>
-  </si>
-  <si>
     <t>Post_op_care/Post op care pharyngo-laryngo-oesphagectomy PLOG.pdf</t>
   </si>
   <si>
@@ -235,57 +235,57 @@
     <t>Drugs/Antibiotic doses in CVVHD.pdf</t>
   </si>
   <si>
+    <t>GI_Liver_and_Transplant/Jejunostomy feeding protocol.pdf</t>
+  </si>
+  <si>
     <t>ECLS/RIE ECLS Anti Xa Protocol.pdf</t>
   </si>
   <si>
     <t>GI_Liver_and_Transplant/Nasojejunal feeding protocol.pdf</t>
   </si>
   <si>
-    <t>GI_Liver_and_Transplant/Jejunostomy feeding protocol.pdf</t>
+    <t>Drugs/vasopressin_sepsis.pdf</t>
+  </si>
+  <si>
+    <t>Drugs/vasopressin organ donation.pdf</t>
   </si>
   <si>
     <t>Infection_and_sepsis/Winter Infections Stepdown Guidance.pdf</t>
   </si>
   <si>
-    <t>Drugs/vasopressin_sepsis.pdf</t>
-  </si>
-  <si>
-    <t>Drugs/vasopressin organ donation.pdf</t>
+    <t>Transfer/ACCP Transfers.pdf</t>
   </si>
   <si>
     <t>Covid-19/videos/Donning and Doffing Video.pdf</t>
   </si>
   <si>
-    <t>Transfer/ACCP Transfers.pdf</t>
+    <t>Breathing(Respiratory)/Equipment/Ventilators Circuits Filters and Closed Suction - Set up and Maintenance.pdf</t>
+  </si>
+  <si>
+    <t>Breathing(Respiratory)/Equipment/Bipap V60.pdf</t>
+  </si>
+  <si>
+    <t>Infection_and_sepsis/Infection indications for IVIG.pdf</t>
   </si>
   <si>
     <t>Breathing(Respiratory)/CPAP.pdf</t>
   </si>
   <si>
-    <t>Infection_and_sepsis/Infection indications for IVIG.pdf</t>
-  </si>
-  <si>
     <t>Drugs/piperacillin_tazobactam extended_infusion.pdf</t>
   </si>
   <si>
-    <t>Breathing(Respiratory)/Equipment/Ventilators Circuits Filters and Closed Suction - Set up and Maintenance.pdf</t>
-  </si>
-  <si>
-    <t>Breathing(Respiratory)/Equipment/Bipap V60.pdf</t>
+    <t>Procedures/CVC Guidance/Securing CVCs.pdf</t>
   </si>
   <si>
     <t>Covid-19/Covid 19 Death Certification Guideline.pdf</t>
   </si>
   <si>
-    <t>Procedures/CVC Guidance/Securing CVCs.pdf</t>
+    <t>Routine_Care/Video Communication.pdf</t>
   </si>
   <si>
     <t>Neurological/Treatment of status epilepticus.pdf</t>
   </si>
   <si>
-    <t>Routine_Care/Video Communication.pdf</t>
-  </si>
-  <si>
     <t>Drugs/isoprenaline.pdf</t>
   </si>
   <si>
@@ -301,60 +301,60 @@
     <t>Drugs/aminophylline.pdf</t>
   </si>
   <si>
+    <t>Haematology_CAR-T/ICANS.pdf</t>
+  </si>
+  <si>
     <t>Drugs/pancuronium.pdf</t>
   </si>
   <si>
     <t>Drugs/rocuronium.pdf</t>
   </si>
   <si>
+    <t>Haematology_CAR-T/CRS.pdf</t>
+  </si>
+  <si>
     <t>Drugs/phenytoin.pdf</t>
   </si>
   <si>
-    <t>Haematology_CAR-T/CRS.pdf</t>
-  </si>
-  <si>
-    <t>Haematology_CAR-T/ICANS.pdf</t>
+    <t>Policies_and_admin/General Critical Care SOP_pub.pdf</t>
   </si>
   <si>
     <t>Drugs/milrinone.pdf</t>
   </si>
   <si>
-    <t>Policies_and_admin/General Critical Care SOP_pub.pdf</t>
+    <t>Neurological/Critical Care MRI Procedure_pub.pdf</t>
+  </si>
+  <si>
+    <t>End_of_life_care/Palliative extubation &amp; withdrawal of invasive ventilatory support nursing checklist.pdf</t>
+  </si>
+  <si>
+    <t>End_of_life_care/CMO &amp; NRS Guidance for Doctors completing MCCD.pdf</t>
+  </si>
+  <si>
+    <t>Infection_and_sepsis/Trip Out of Unit infection guidance.pdf</t>
+  </si>
+  <si>
+    <t>Drugs/clonidine.pdf</t>
+  </si>
+  <si>
+    <t>Ethics_and_Law/Care at the End of Life (FICM).pdf</t>
   </si>
   <si>
     <t>GI_Liver_and_Transplant/ICU - Upper GI bleeding (Endoscopy guideline).pdf</t>
   </si>
   <si>
-    <t>Infection_and_sepsis/Trip Out of Unit infection guidance.pdf</t>
+    <t>Neurological/Management of traumatic brain injury.pdf</t>
+  </si>
+  <si>
+    <t>Ethics_and_Law/DNACPR policy for Scotland.pdf</t>
   </si>
   <si>
     <t>Covid-19/COVID 19 ICM guidance basic goals_June_2022.pdf</t>
   </si>
   <si>
-    <t>Ethics_and_Law/Care at the End of Life (FICM).pdf</t>
-  </si>
-  <si>
-    <t>Ethics_and_Law/DNACPR policy for Scotland.pdf</t>
-  </si>
-  <si>
-    <t>End_of_life_care/CMO &amp; NRS Guidance for Doctors completing MCCD.pdf</t>
-  </si>
-  <si>
-    <t>End_of_life_care/Palliative extubation &amp; withdrawal of invasive ventilatory support nursing checklist.pdf</t>
-  </si>
-  <si>
     <t>Organ_donation/Organ Retrieval SOP.pdf</t>
   </si>
   <si>
-    <t>Neurological/Critical Care MRI Procedure_pub.pdf</t>
-  </si>
-  <si>
-    <t>Neurological/Management of traumatic brain injury.pdf</t>
-  </si>
-  <si>
-    <t>Drugs/clonidine.pdf</t>
-  </si>
-  <si>
     <t>Airway/Cook Staged Extubation Set.pdf</t>
   </si>
   <si>
@@ -367,18 +367,18 @@
     <t>Drugs/dexmedetomidine.pdf</t>
   </si>
   <si>
+    <t>GI_Liver_and_Transplant/Fulminant Liver Failure.pdf</t>
+  </si>
+  <si>
+    <t>GI_Liver_and_Transplant/Confirmation of Nasogastric Tube Position.pdf</t>
+  </si>
+  <si>
+    <t>Breathing(Respiratory)/Equipment/Passy Muir Valve.pdf</t>
+  </si>
+  <si>
     <t>Drugs/glyceryl_trinitrate.pdf</t>
   </si>
   <si>
-    <t>GI_Liver_and_Transplant/Confirmation of Nasogastric Tube Position.pdf</t>
-  </si>
-  <si>
-    <t>GI_Liver_and_Transplant/Fulminant Liver Failure.pdf</t>
-  </si>
-  <si>
-    <t>Breathing(Respiratory)/Equipment/Passy Muir Valve.pdf</t>
-  </si>
-  <si>
     <t>Infection_and_sepsis/Antifungal guidance in critical care.pdf</t>
   </si>
   <si>
@@ -394,12 +394,12 @@
     <t>Breathing(Respiratory)/ARDS Strategy.pdf</t>
   </si>
   <si>
+    <t>Drugs/adrenaline.pdf</t>
+  </si>
+  <si>
     <t>Drugs/dobutamine.pdf</t>
   </si>
   <si>
-    <t>Drugs/adrenaline.pdf</t>
-  </si>
-  <si>
     <t>Drugs/hydralazine.pdf</t>
   </si>
   <si>
@@ -415,40 +415,43 @@
     <t>Drugs/magnesium.pdf</t>
   </si>
   <si>
+    <t>Drugs/all IV drug infusion information.pdf</t>
+  </si>
+  <si>
+    <t>Drugs/vancomycin.pdf</t>
+  </si>
+  <si>
     <t>Drugs/neostigmine.pdf</t>
   </si>
   <si>
-    <t>Drugs/all IV drug infusion information.pdf</t>
-  </si>
-  <si>
-    <t>Drugs/vancomycin.pdf</t>
+    <t>Drugs/labetalol.pdf</t>
+  </si>
+  <si>
+    <t>Infection_and_sepsis/Initial investigation and management in unidentified Infections.pdf</t>
   </si>
   <si>
     <t>Neurological/Intrathecal policy RIE.pdf</t>
   </si>
   <si>
-    <t>Infection_and_sepsis/Initial investigation and management in unidentified Infections.pdf</t>
-  </si>
-  <si>
-    <t>Drugs/labetalol.pdf</t>
-  </si>
-  <si>
     <t>Cardiovascular/Management of Acute Type B Aortic Dissection Guideline.pdf</t>
   </si>
   <si>
     <t>Drugs/midazolam.pdf</t>
   </si>
   <si>
+    <t>Procedures/CVC Guidance/CVC NHL  April 2023.pdf</t>
+  </si>
+  <si>
+    <t>Drugs/salbutamol.pdf</t>
+  </si>
+  <si>
+    <t>Drugs/nimodipine.pdf</t>
+  </si>
+  <si>
     <t>Drugs/potassium.pdf</t>
   </si>
   <si>
-    <t>Procedures/CVC Guidance/CVC NHL  April 2023.pdf</t>
-  </si>
-  <si>
-    <t>Drugs/salbutamol.pdf</t>
-  </si>
-  <si>
-    <t>Drugs/nimodipine.pdf</t>
+    <t>Drugs/nicardipine.pdf</t>
   </si>
   <si>
     <t>Drugs/phenobarbitone.pdf</t>
@@ -457,33 +460,30 @@
     <t>Routine_Care/ICU Eye Care Guideline.pdf</t>
   </si>
   <si>
+    <t>Drugs/amiodarone.pdf</t>
+  </si>
+  <si>
     <t>Procedures/Arterial Line insertion for ACCPs.pdf</t>
   </si>
   <si>
-    <t>Drugs/amiodarone.pdf</t>
-  </si>
-  <si>
-    <t>Drugs/nicardipine.pdf</t>
-  </si>
-  <si>
     <t>Drugs/phenylephrine.pdf</t>
   </si>
   <si>
     <t>Breathing(Respiratory)/Manual Ventilation and MHI.pdf</t>
   </si>
   <si>
+    <t>Drugs/morphine.pdf</t>
+  </si>
+  <si>
+    <t>Drugs/noradrenaline (peripheral).pdf</t>
+  </si>
+  <si>
+    <t>Drugs/Epoprostenol.pdf</t>
+  </si>
+  <si>
     <t>Neurological/Ventriculitis Guideline.pdf</t>
   </si>
   <si>
-    <t>Drugs/morphine.pdf</t>
-  </si>
-  <si>
-    <t>Drugs/noradrenaline (peripheral).pdf</t>
-  </si>
-  <si>
-    <t>Drugs/Epoprostenol.pdf</t>
-  </si>
-  <si>
     <t>Drugs/calcium.pdf</t>
   </si>
   <si>
@@ -493,16 +493,19 @@
     <t>Cardiovascular/Pulmonary_Embolism_and_DVT/Catheter directed thrombolysis of iliofemoral DVT alteplase_pub.pdf</t>
   </si>
   <si>
+    <t>Drugs/atracurium.pdf</t>
+  </si>
+  <si>
     <t>Drugs/dalteparin_thromboprophylaxis.pdf</t>
   </si>
   <si>
-    <t>Drugs/atracurium.pdf</t>
+    <t>Airway/Tracheostomy_Laryngectomy/Decannulation Guidline.pdf</t>
   </si>
   <si>
     <t>Drugs/Vancomycin Continuous Infusion Fluid Restricted.pdf</t>
   </si>
   <si>
-    <t>Airway/Tracheostomy_Laryngectomy/Decannulation Guidline.pdf</t>
+    <t>Policies_and_admin/Pet Visitation.pdf</t>
   </si>
   <si>
     <t>Drugs/valproate.pdf</t>
@@ -511,31 +514,25 @@
     <t>Procedures/Inadvertent Catheter Placement Guideline.pdf</t>
   </si>
   <si>
-    <t>Policies_and_admin/Pet Visitation.pdf</t>
+    <t>Drugs/Phosphate.pdf</t>
+  </si>
+  <si>
+    <t>Drugs/stress ulcer prophylaxis.pdf</t>
   </si>
   <si>
     <t>Drugs/ketamine_for_status epilepticus.pdf</t>
   </si>
   <si>
-    <t>Drugs/stress ulcer prophylaxis.pdf</t>
-  </si>
-  <si>
-    <t>Drugs/Phosphate.pdf</t>
+    <t>GI_Liver_and_Transplant/Prokinetics in ICU.pdf</t>
+  </si>
+  <si>
+    <t>Drugs/Thiopentone.pdf</t>
   </si>
   <si>
     <t>Drugs/Octreotide.pdf</t>
   </si>
   <si>
-    <t>Drugs/Thiopentone.pdf</t>
-  </si>
-  <si>
     <t>Breathing(Respiratory)/Proning Guideline.pdf</t>
-  </si>
-  <si>
-    <t>GI_Liver_and_Transplant/Prokinetics in ICU.pdf</t>
-  </si>
-  <si>
-    <t>Drugs/Prokinetics in ICU.pdf</t>
   </si>
   <si>
     <t>Procedures/ACCPs acquiring initial CVC competencies.pdf</t>
@@ -1211,7 +1208,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B187"/>
+  <dimension ref="A1:B186"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1230,7 +1227,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -1238,7 +1235,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -1246,7 +1243,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -1254,7 +1251,7 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -1262,7 +1259,7 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -1270,7 +1267,7 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -1278,7 +1275,7 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -1286,7 +1283,7 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -1294,7 +1291,7 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -1302,7 +1299,7 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -1310,7 +1307,7 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -1318,7 +1315,7 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -1326,7 +1323,7 @@
         <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -1334,7 +1331,7 @@
         <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -1342,7 +1339,7 @@
         <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -1350,7 +1347,7 @@
         <v>17</v>
       </c>
       <c r="B17" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -1358,7 +1355,7 @@
         <v>18</v>
       </c>
       <c r="B18" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -1366,7 +1363,7 @@
         <v>19</v>
       </c>
       <c r="B19" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -1374,7 +1371,7 @@
         <v>20</v>
       </c>
       <c r="B20" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -1382,7 +1379,7 @@
         <v>21</v>
       </c>
       <c r="B21" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -1390,7 +1387,7 @@
         <v>22</v>
       </c>
       <c r="B22" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -1398,7 +1395,7 @@
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -1406,7 +1403,7 @@
         <v>24</v>
       </c>
       <c r="B24" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -1414,7 +1411,7 @@
         <v>25</v>
       </c>
       <c r="B25" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -1422,7 +1419,7 @@
         <v>26</v>
       </c>
       <c r="B26" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -1430,7 +1427,7 @@
         <v>27</v>
       </c>
       <c r="B27" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -1438,7 +1435,7 @@
         <v>28</v>
       </c>
       <c r="B28" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -1446,7 +1443,7 @@
         <v>29</v>
       </c>
       <c r="B29" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -1454,7 +1451,7 @@
         <v>30</v>
       </c>
       <c r="B30" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -1462,7 +1459,7 @@
         <v>31</v>
       </c>
       <c r="B31" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -1470,7 +1467,7 @@
         <v>32</v>
       </c>
       <c r="B32" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -1478,7 +1475,7 @@
         <v>33</v>
       </c>
       <c r="B33" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -1486,7 +1483,7 @@
         <v>34</v>
       </c>
       <c r="B34" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -1494,7 +1491,7 @@
         <v>35</v>
       </c>
       <c r="B35" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -1502,7 +1499,7 @@
         <v>36</v>
       </c>
       <c r="B36" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -1510,7 +1507,7 @@
         <v>37</v>
       </c>
       <c r="B37" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -1518,7 +1515,7 @@
         <v>38</v>
       </c>
       <c r="B38" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -1526,7 +1523,7 @@
         <v>39</v>
       </c>
       <c r="B39" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -1534,7 +1531,7 @@
         <v>40</v>
       </c>
       <c r="B40" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -1542,7 +1539,7 @@
         <v>41</v>
       </c>
       <c r="B41" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -1550,7 +1547,7 @@
         <v>42</v>
       </c>
       <c r="B42" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -1558,7 +1555,7 @@
         <v>43</v>
       </c>
       <c r="B43" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -1566,7 +1563,7 @@
         <v>44</v>
       </c>
       <c r="B44" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -1574,7 +1571,7 @@
         <v>45</v>
       </c>
       <c r="B45" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -1582,7 +1579,7 @@
         <v>46</v>
       </c>
       <c r="B46" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -1590,7 +1587,7 @@
         <v>47</v>
       </c>
       <c r="B47" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -1598,7 +1595,7 @@
         <v>48</v>
       </c>
       <c r="B48" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -1606,7 +1603,7 @@
         <v>49</v>
       </c>
       <c r="B49" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -1614,7 +1611,7 @@
         <v>50</v>
       </c>
       <c r="B50" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -1622,7 +1619,7 @@
         <v>51</v>
       </c>
       <c r="B51" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -1630,7 +1627,7 @@
         <v>52</v>
       </c>
       <c r="B52" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -1638,7 +1635,7 @@
         <v>53</v>
       </c>
       <c r="B53" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="54" spans="1:2">
@@ -1646,7 +1643,7 @@
         <v>54</v>
       </c>
       <c r="B54" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="55" spans="1:2">
@@ -1654,7 +1651,7 @@
         <v>55</v>
       </c>
       <c r="B55" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="56" spans="1:2">
@@ -1662,7 +1659,7 @@
         <v>56</v>
       </c>
       <c r="B56" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="57" spans="1:2">
@@ -1670,7 +1667,7 @@
         <v>57</v>
       </c>
       <c r="B57" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="58" spans="1:2">
@@ -1678,7 +1675,7 @@
         <v>58</v>
       </c>
       <c r="B58" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="59" spans="1:2">
@@ -1686,7 +1683,7 @@
         <v>59</v>
       </c>
       <c r="B59" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="60" spans="1:2">
@@ -1694,7 +1691,7 @@
         <v>60</v>
       </c>
       <c r="B60" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="61" spans="1:2">
@@ -1702,7 +1699,7 @@
         <v>61</v>
       </c>
       <c r="B61" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="62" spans="1:2">
@@ -1710,7 +1707,7 @@
         <v>62</v>
       </c>
       <c r="B62" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="63" spans="1:2">
@@ -1718,7 +1715,7 @@
         <v>63</v>
       </c>
       <c r="B63" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="64" spans="1:2">
@@ -1726,7 +1723,7 @@
         <v>64</v>
       </c>
       <c r="B64" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="65" spans="1:2">
@@ -1734,7 +1731,7 @@
         <v>65</v>
       </c>
       <c r="B65" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="66" spans="1:2">
@@ -1742,7 +1739,7 @@
         <v>66</v>
       </c>
       <c r="B66" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="67" spans="1:2">
@@ -1750,7 +1747,7 @@
         <v>67</v>
       </c>
       <c r="B67" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="68" spans="1:2">
@@ -1758,7 +1755,7 @@
         <v>68</v>
       </c>
       <c r="B68" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="69" spans="1:2">
@@ -1766,7 +1763,7 @@
         <v>69</v>
       </c>
       <c r="B69" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="70" spans="1:2">
@@ -1774,7 +1771,7 @@
         <v>70</v>
       </c>
       <c r="B70" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="71" spans="1:2">
@@ -1782,7 +1779,7 @@
         <v>71</v>
       </c>
       <c r="B71" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="72" spans="1:2">
@@ -1790,7 +1787,7 @@
         <v>72</v>
       </c>
       <c r="B72" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="73" spans="1:2">
@@ -1798,7 +1795,7 @@
         <v>73</v>
       </c>
       <c r="B73" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="74" spans="1:2">
@@ -1806,7 +1803,7 @@
         <v>74</v>
       </c>
       <c r="B74" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="75" spans="1:2">
@@ -1814,7 +1811,7 @@
         <v>75</v>
       </c>
       <c r="B75" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="76" spans="1:2">
@@ -1822,7 +1819,7 @@
         <v>76</v>
       </c>
       <c r="B76" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="77" spans="1:2">
@@ -1830,7 +1827,7 @@
         <v>77</v>
       </c>
       <c r="B77" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="78" spans="1:2">
@@ -1838,7 +1835,7 @@
         <v>78</v>
       </c>
       <c r="B78" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="79" spans="1:2">
@@ -1846,7 +1843,7 @@
         <v>79</v>
       </c>
       <c r="B79" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="80" spans="1:2">
@@ -1854,7 +1851,7 @@
         <v>80</v>
       </c>
       <c r="B80" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="81" spans="1:2">
@@ -1862,7 +1859,7 @@
         <v>81</v>
       </c>
       <c r="B81" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="82" spans="1:2">
@@ -1870,7 +1867,7 @@
         <v>82</v>
       </c>
       <c r="B82" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="83" spans="1:2">
@@ -1878,7 +1875,7 @@
         <v>83</v>
       </c>
       <c r="B83" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="84" spans="1:2">
@@ -1886,7 +1883,7 @@
         <v>84</v>
       </c>
       <c r="B84" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="85" spans="1:2">
@@ -1894,7 +1891,7 @@
         <v>85</v>
       </c>
       <c r="B85" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="86" spans="1:2">
@@ -1902,7 +1899,7 @@
         <v>86</v>
       </c>
       <c r="B86" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="87" spans="1:2">
@@ -1910,7 +1907,7 @@
         <v>87</v>
       </c>
       <c r="B87" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="88" spans="1:2">
@@ -1918,7 +1915,7 @@
         <v>88</v>
       </c>
       <c r="B88" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="89" spans="1:2">
@@ -1926,7 +1923,7 @@
         <v>89</v>
       </c>
       <c r="B89" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="90" spans="1:2">
@@ -1934,7 +1931,7 @@
         <v>90</v>
       </c>
       <c r="B90" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="91" spans="1:2">
@@ -1942,7 +1939,7 @@
         <v>91</v>
       </c>
       <c r="B91" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="92" spans="1:2">
@@ -1950,7 +1947,7 @@
         <v>92</v>
       </c>
       <c r="B92" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="93" spans="1:2">
@@ -1958,7 +1955,7 @@
         <v>93</v>
       </c>
       <c r="B93" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="94" spans="1:2">
@@ -1966,7 +1963,7 @@
         <v>94</v>
       </c>
       <c r="B94" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="95" spans="1:2">
@@ -1974,7 +1971,7 @@
         <v>95</v>
       </c>
       <c r="B95" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="96" spans="1:2">
@@ -1982,7 +1979,7 @@
         <v>96</v>
       </c>
       <c r="B96" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="97" spans="1:2">
@@ -1990,7 +1987,7 @@
         <v>97</v>
       </c>
       <c r="B97" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="98" spans="1:2">
@@ -1998,7 +1995,7 @@
         <v>98</v>
       </c>
       <c r="B98" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="99" spans="1:2">
@@ -2006,7 +2003,7 @@
         <v>99</v>
       </c>
       <c r="B99" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="100" spans="1:2">
@@ -2014,7 +2011,7 @@
         <v>100</v>
       </c>
       <c r="B100" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="101" spans="1:2">
@@ -2022,7 +2019,7 @@
         <v>101</v>
       </c>
       <c r="B101" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="102" spans="1:2">
@@ -2030,7 +2027,7 @@
         <v>102</v>
       </c>
       <c r="B102" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="103" spans="1:2">
@@ -2038,7 +2035,7 @@
         <v>103</v>
       </c>
       <c r="B103" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="104" spans="1:2">
@@ -2046,7 +2043,7 @@
         <v>104</v>
       </c>
       <c r="B104" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="105" spans="1:2">
@@ -2054,7 +2051,7 @@
         <v>105</v>
       </c>
       <c r="B105" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="106" spans="1:2">
@@ -2062,7 +2059,7 @@
         <v>106</v>
       </c>
       <c r="B106" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="107" spans="1:2">
@@ -2070,7 +2067,7 @@
         <v>107</v>
       </c>
       <c r="B107" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="108" spans="1:2">
@@ -2078,7 +2075,7 @@
         <v>108</v>
       </c>
       <c r="B108" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="109" spans="1:2">
@@ -2086,7 +2083,7 @@
         <v>109</v>
       </c>
       <c r="B109" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="110" spans="1:2">
@@ -2094,7 +2091,7 @@
         <v>110</v>
       </c>
       <c r="B110" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="111" spans="1:2">
@@ -2102,7 +2099,7 @@
         <v>111</v>
       </c>
       <c r="B111" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="112" spans="1:2">
@@ -2110,7 +2107,7 @@
         <v>112</v>
       </c>
       <c r="B112" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="113" spans="1:2">
@@ -2118,7 +2115,7 @@
         <v>113</v>
       </c>
       <c r="B113" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="114" spans="1:2">
@@ -2126,7 +2123,7 @@
         <v>114</v>
       </c>
       <c r="B114" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="115" spans="1:2">
@@ -2134,7 +2131,7 @@
         <v>115</v>
       </c>
       <c r="B115" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="116" spans="1:2">
@@ -2142,7 +2139,7 @@
         <v>116</v>
       </c>
       <c r="B116" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="117" spans="1:2">
@@ -2150,7 +2147,7 @@
         <v>117</v>
       </c>
       <c r="B117" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="118" spans="1:2">
@@ -2158,7 +2155,7 @@
         <v>118</v>
       </c>
       <c r="B118" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="119" spans="1:2">
@@ -2166,7 +2163,7 @@
         <v>119</v>
       </c>
       <c r="B119" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="120" spans="1:2">
@@ -2174,7 +2171,7 @@
         <v>120</v>
       </c>
       <c r="B120" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="121" spans="1:2">
@@ -2182,7 +2179,7 @@
         <v>121</v>
       </c>
       <c r="B121" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="122" spans="1:2">
@@ -2190,7 +2187,7 @@
         <v>122</v>
       </c>
       <c r="B122" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="123" spans="1:2">
@@ -2198,7 +2195,7 @@
         <v>123</v>
       </c>
       <c r="B123" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="124" spans="1:2">
@@ -2206,7 +2203,7 @@
         <v>124</v>
       </c>
       <c r="B124" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="125" spans="1:2">
@@ -2214,7 +2211,7 @@
         <v>125</v>
       </c>
       <c r="B125" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="126" spans="1:2">
@@ -2222,7 +2219,7 @@
         <v>126</v>
       </c>
       <c r="B126" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="127" spans="1:2">
@@ -2230,7 +2227,7 @@
         <v>127</v>
       </c>
       <c r="B127" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="128" spans="1:2">
@@ -2238,7 +2235,7 @@
         <v>128</v>
       </c>
       <c r="B128" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="129" spans="1:2">
@@ -2246,7 +2243,7 @@
         <v>129</v>
       </c>
       <c r="B129" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="130" spans="1:2">
@@ -2254,7 +2251,7 @@
         <v>130</v>
       </c>
       <c r="B130" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="131" spans="1:2">
@@ -2262,7 +2259,7 @@
         <v>131</v>
       </c>
       <c r="B131" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="132" spans="1:2">
@@ -2270,7 +2267,7 @@
         <v>132</v>
       </c>
       <c r="B132" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="133" spans="1:2">
@@ -2278,7 +2275,7 @@
         <v>133</v>
       </c>
       <c r="B133" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="134" spans="1:2">
@@ -2286,7 +2283,7 @@
         <v>134</v>
       </c>
       <c r="B134" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="135" spans="1:2">
@@ -2294,7 +2291,7 @@
         <v>135</v>
       </c>
       <c r="B135" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="136" spans="1:2">
@@ -2302,7 +2299,7 @@
         <v>136</v>
       </c>
       <c r="B136" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="137" spans="1:2">
@@ -2310,7 +2307,7 @@
         <v>137</v>
       </c>
       <c r="B137" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="138" spans="1:2">
@@ -2318,7 +2315,7 @@
         <v>138</v>
       </c>
       <c r="B138" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="139" spans="1:2">
@@ -2326,7 +2323,7 @@
         <v>139</v>
       </c>
       <c r="B139" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="140" spans="1:2">
@@ -2334,7 +2331,7 @@
         <v>140</v>
       </c>
       <c r="B140" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="141" spans="1:2">
@@ -2342,7 +2339,7 @@
         <v>141</v>
       </c>
       <c r="B141" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="142" spans="1:2">
@@ -2350,7 +2347,7 @@
         <v>142</v>
       </c>
       <c r="B142" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="143" spans="1:2">
@@ -2358,7 +2355,7 @@
         <v>143</v>
       </c>
       <c r="B143" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="144" spans="1:2">
@@ -2366,7 +2363,7 @@
         <v>144</v>
       </c>
       <c r="B144" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="145" spans="1:2">
@@ -2374,7 +2371,7 @@
         <v>145</v>
       </c>
       <c r="B145" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="146" spans="1:2">
@@ -2382,7 +2379,7 @@
         <v>146</v>
       </c>
       <c r="B146" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="147" spans="1:2">
@@ -2390,7 +2387,7 @@
         <v>147</v>
       </c>
       <c r="B147" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="148" spans="1:2">
@@ -2398,7 +2395,7 @@
         <v>148</v>
       </c>
       <c r="B148" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="149" spans="1:2">
@@ -2406,7 +2403,7 @@
         <v>149</v>
       </c>
       <c r="B149" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="150" spans="1:2">
@@ -2414,7 +2411,7 @@
         <v>150</v>
       </c>
       <c r="B150" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="151" spans="1:2">
@@ -2422,7 +2419,7 @@
         <v>151</v>
       </c>
       <c r="B151" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="152" spans="1:2">
@@ -2430,7 +2427,7 @@
         <v>152</v>
       </c>
       <c r="B152" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="153" spans="1:2">
@@ -2438,7 +2435,7 @@
         <v>153</v>
       </c>
       <c r="B153" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="154" spans="1:2">
@@ -2446,7 +2443,7 @@
         <v>154</v>
       </c>
       <c r="B154" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="155" spans="1:2">
@@ -2454,7 +2451,7 @@
         <v>155</v>
       </c>
       <c r="B155" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="156" spans="1:2">
@@ -2462,7 +2459,7 @@
         <v>156</v>
       </c>
       <c r="B156" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="157" spans="1:2">
@@ -2470,7 +2467,7 @@
         <v>157</v>
       </c>
       <c r="B157" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="158" spans="1:2">
@@ -2478,7 +2475,7 @@
         <v>158</v>
       </c>
       <c r="B158" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="159" spans="1:2">
@@ -2486,7 +2483,7 @@
         <v>159</v>
       </c>
       <c r="B159" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="160" spans="1:2">
@@ -2494,7 +2491,7 @@
         <v>160</v>
       </c>
       <c r="B160" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="161" spans="1:2">
@@ -2502,7 +2499,7 @@
         <v>161</v>
       </c>
       <c r="B161" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="162" spans="1:2">
@@ -2510,7 +2507,7 @@
         <v>162</v>
       </c>
       <c r="B162" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="163" spans="1:2">
@@ -2518,7 +2515,7 @@
         <v>163</v>
       </c>
       <c r="B163" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="164" spans="1:2">
@@ -2526,7 +2523,7 @@
         <v>164</v>
       </c>
       <c r="B164" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="165" spans="1:2">
@@ -2534,7 +2531,7 @@
         <v>165</v>
       </c>
       <c r="B165" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="166" spans="1:2">
@@ -2542,7 +2539,7 @@
         <v>166</v>
       </c>
       <c r="B166" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="167" spans="1:2">
@@ -2550,7 +2547,7 @@
         <v>167</v>
       </c>
       <c r="B167" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="168" spans="1:2">
@@ -2558,7 +2555,7 @@
         <v>168</v>
       </c>
       <c r="B168" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="169" spans="1:2">
@@ -2566,7 +2563,7 @@
         <v>169</v>
       </c>
       <c r="B169" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="170" spans="1:2">
@@ -2574,7 +2571,7 @@
         <v>170</v>
       </c>
       <c r="B170" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="171" spans="1:2">
@@ -2582,7 +2579,7 @@
         <v>171</v>
       </c>
       <c r="B171" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="172" spans="1:2">
@@ -2590,7 +2587,7 @@
         <v>172</v>
       </c>
       <c r="B172" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="173" spans="1:2">
@@ -2606,7 +2603,7 @@
         <v>174</v>
       </c>
       <c r="B174" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="175" spans="1:2">
@@ -2614,7 +2611,7 @@
         <v>175</v>
       </c>
       <c r="B175" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="176" spans="1:2">
@@ -2654,7 +2651,7 @@
         <v>180</v>
       </c>
       <c r="B180" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="181" spans="1:2">
@@ -2703,14 +2700,6 @@
       </c>
       <c r="B186" t="s">
         <v>278</v>
-      </c>
-    </row>
-    <row r="187" spans="1:2">
-      <c r="A187" t="s">
-        <v>187</v>
-      </c>
-      <c r="B187" t="s">
-        <v>279</v>
       </c>
     </row>
   </sheetData>

--- a/lothiancriticalcare/1a74f8f7b8b7e871b413c4697f68b4401fbacdf0/reviewdates.xlsx
+++ b/lothiancriticalcare/1a74f8f7b8b7e871b413c4697f68b4401fbacdf0/reviewdates.xlsx
@@ -64,12 +64,12 @@
     <t>Routine_Care/Tracheostomy_nursing_care.pdf</t>
   </si>
   <si>
+    <t>Airway/Critical care extubation checklist.pdf</t>
+  </si>
+  <si>
     <t>ECLS/Extra Corporeal Carbon Dioxide Removal.pdf</t>
   </si>
   <si>
-    <t>Airway/Critical care extubation checklist.pdf</t>
-  </si>
-  <si>
     <t>Airway/Tracheostomy_Laryngectomy/Hospital_in-patients_with_a_Tracheostomy.pdf</t>
   </si>
   <si>
@@ -79,18 +79,18 @@
     <t>Drugs/diazepam_diazemuls.pdf</t>
   </si>
   <si>
+    <t>Breathing(Respiratory)/salbutamol and ipratroprium MDI.pdf</t>
+  </si>
+  <si>
     <t>End_of_life_care/Reasons to report a death to PF.pdf</t>
   </si>
   <si>
-    <t>Breathing(Respiratory)/salbutamol and ipratroprium MDI.pdf</t>
+    <t>Airway/Tracheostomy_Laryngectomy/Tracheostomy suctioning cleaning guideline.pdf</t>
   </si>
   <si>
     <t>Neurological/SOP -  Femoral site care.pdf</t>
   </si>
   <si>
-    <t>Airway/Tracheostomy_Laryngectomy/Tracheostomy suctioning cleaning guideline.pdf</t>
-  </si>
-  <si>
     <t>Airway/Tracheostomy_Laryngectomy/Tracheostomy change in Critical Care.pdf</t>
   </si>
   <si>
@@ -103,24 +103,24 @@
     <t>Post_op_care/Epidural top-up.pdf</t>
   </si>
   <si>
+    <t>Covid-19/SJH/SJH COVID19 ED Intubation Action Card.pdf</t>
+  </si>
+  <si>
+    <t>Airway/Emergency intubation checklist_em_pub.pdf</t>
+  </si>
+  <si>
     <t>Drugs/heparin for Haemofiltration.pdf</t>
   </si>
   <si>
+    <t>Covid-19/SJH/SJH COVID19 ITU Intubation Action Card.pdf</t>
+  </si>
+  <si>
+    <t>Diabetes_and_Glucose/Hyperosmolar Hyperglycaemic State.pdf</t>
+  </si>
+  <si>
     <t>Covid-19/WGH/CoVid intubation checklist WGH.pdf</t>
   </si>
   <si>
-    <t>Covid-19/SJH/SJH COVID19 ITU Intubation Action Card.pdf</t>
-  </si>
-  <si>
-    <t>Diabetes_and_Glucose/Hyperosmolar Hyperglycaemic State.pdf</t>
-  </si>
-  <si>
-    <t>Covid-19/SJH/SJH COVID19 ED Intubation Action Card.pdf</t>
-  </si>
-  <si>
-    <t>Airway/Emergency intubation checklist_em_pub.pdf</t>
-  </si>
-  <si>
     <t>Drugs/fentanyl.pdf</t>
   </si>
   <si>
@@ -139,13 +139,31 @@
     <t>Airway/Percutaneous tracheostomy checklist.pdf</t>
   </si>
   <si>
+    <t>Delirium/Risk assessment posi mit.pdf</t>
+  </si>
+  <si>
     <t>Infection_and_sepsis/SOP Ultrasound Cleaning.pdf</t>
   </si>
   <si>
     <t>Delirium/Managing a Potentially Violent Patient.pdf</t>
   </si>
   <si>
-    <t>Delirium/Risk assessment posi mit.pdf</t>
+    <t>Breathing(Respiratory)/HFNO.pdf</t>
+  </si>
+  <si>
+    <t>GI_Liver_and_Transplant/Treatment of constipation.pdf</t>
+  </si>
+  <si>
+    <t>Delirium/Drugs Causing Delirium and Agitiation.pdf</t>
+  </si>
+  <si>
+    <t>Airway/Tracheostomy_Laryngectomy/Tracheostomy safety box contents.pdf</t>
+  </si>
+  <si>
+    <t>Drugs/ketamine_in_asthma.pdf</t>
+  </si>
+  <si>
+    <t>Airway/McGrath Mac.pdf</t>
   </si>
   <si>
     <t>Neurological/Sub arachnoid haemorrhage management.pdf</t>
@@ -154,27 +172,9 @@
     <t>Airway/Anticipated difficult airway tool.pdf</t>
   </si>
   <si>
-    <t>Airway/McGrath Mac.pdf</t>
-  </si>
-  <si>
-    <t>Delirium/Drugs Causing Delirium and Agitiation.pdf</t>
-  </si>
-  <si>
-    <t>Airway/Tracheostomy_Laryngectomy/Tracheostomy safety box contents.pdf</t>
-  </si>
-  <si>
-    <t>Breathing(Respiratory)/HFNO.pdf</t>
-  </si>
-  <si>
-    <t>GI_Liver_and_Transplant/Treatment of constipation.pdf</t>
-  </si>
-  <si>
     <t>GI_Liver_and_Transplant/Abdominal pressure measurement.pdf</t>
   </si>
   <si>
-    <t>Drugs/ketamine_in_asthma.pdf</t>
-  </si>
-  <si>
     <t>End_of_life_care/Documentation following death.pdf</t>
   </si>
   <si>
@@ -199,15 +199,15 @@
     <t>Cardiovascular/Steroids for Septic Shock.pdf</t>
   </si>
   <si>
+    <t>Post_op_care/Epidural Haematoma.pdf</t>
+  </si>
+  <si>
+    <t>Breathing(Respiratory)/Equipment/T piece Y piece.pdf</t>
+  </si>
+  <si>
     <t>Neurological/SOP for review of Neurosurgical patients in ITU by neurosurgical team.pdf</t>
   </si>
   <si>
-    <t>Post_op_care/Epidural Haematoma.pdf</t>
-  </si>
-  <si>
-    <t>Breathing(Respiratory)/Equipment/T piece Y piece.pdf</t>
-  </si>
-  <si>
     <t>Policies_and_admin/General Critical Care Interaction with HEPMA_pub.pdf</t>
   </si>
   <si>
@@ -217,12 +217,12 @@
     <t>Breathing(Respiratory)/Equipment/HFNO through ventilator.pdf</t>
   </si>
   <si>
+    <t>Routine_Care/VTE_Prevention/Dalteparin_thromboprophylaxis.pdf</t>
+  </si>
+  <si>
     <t>Post_op_care/Adult Scoliosis Spinal Surgery Post-Op Care.pdf</t>
   </si>
   <si>
-    <t>Routine_Care/VTE_Prevention/Dalteparin_thromboprophylaxis.pdf</t>
-  </si>
-  <si>
     <t>Post_op_care/Post op care pharyngo-laryngo-oesphagectomy PLOG.pdf</t>
   </si>
   <si>
@@ -238,42 +238,42 @@
     <t>GI_Liver_and_Transplant/Jejunostomy feeding protocol.pdf</t>
   </si>
   <si>
+    <t>GI_Liver_and_Transplant/Nasojejunal feeding protocol.pdf</t>
+  </si>
+  <si>
     <t>ECLS/RIE ECLS Anti Xa Protocol.pdf</t>
   </si>
   <si>
-    <t>GI_Liver_and_Transplant/Nasojejunal feeding protocol.pdf</t>
+    <t>Drugs/vasopressin organ donation.pdf</t>
   </si>
   <si>
     <t>Drugs/vasopressin_sepsis.pdf</t>
   </si>
   <si>
-    <t>Drugs/vasopressin organ donation.pdf</t>
-  </si>
-  <si>
     <t>Infection_and_sepsis/Winter Infections Stepdown Guidance.pdf</t>
   </si>
   <si>
+    <t>Covid-19/videos/Donning and Doffing Video.pdf</t>
+  </si>
+  <si>
     <t>Transfer/ACCP Transfers.pdf</t>
   </si>
   <si>
-    <t>Covid-19/videos/Donning and Doffing Video.pdf</t>
+    <t>Drugs/piperacillin_tazobactam extended_infusion.pdf</t>
   </si>
   <si>
     <t>Breathing(Respiratory)/Equipment/Ventilators Circuits Filters and Closed Suction - Set up and Maintenance.pdf</t>
   </si>
   <si>
+    <t>Breathing(Respiratory)/CPAP.pdf</t>
+  </si>
+  <si>
     <t>Breathing(Respiratory)/Equipment/Bipap V60.pdf</t>
   </si>
   <si>
     <t>Infection_and_sepsis/Infection indications for IVIG.pdf</t>
   </si>
   <si>
-    <t>Breathing(Respiratory)/CPAP.pdf</t>
-  </si>
-  <si>
-    <t>Drugs/piperacillin_tazobactam extended_infusion.pdf</t>
-  </si>
-  <si>
     <t>Procedures/CVC Guidance/Securing CVCs.pdf</t>
   </si>
   <si>
@@ -286,75 +286,75 @@
     <t>Neurological/Treatment of status epilepticus.pdf</t>
   </si>
   <si>
+    <t>Cardiovascular/Cardiogenic Shock.pdf</t>
+  </si>
+  <si>
     <t>Drugs/isoprenaline.pdf</t>
   </si>
   <si>
-    <t>Cardiovascular/Cardiogenic Shock.pdf</t>
-  </si>
-  <si>
     <t>Haematology_CAR-T/Haem_ICU_transfer.pdf</t>
   </si>
   <si>
+    <t>Drugs/aminophylline.pdf</t>
+  </si>
+  <si>
     <t>Cardiovascular/Management of hypertension within Critical Care.pdf</t>
   </si>
   <si>
-    <t>Drugs/aminophylline.pdf</t>
+    <t>Drugs/phenytoin.pdf</t>
+  </si>
+  <si>
+    <t>Drugs/pancuronium.pdf</t>
+  </si>
+  <si>
+    <t>Drugs/rocuronium.pdf</t>
   </si>
   <si>
     <t>Haematology_CAR-T/ICANS.pdf</t>
   </si>
   <si>
-    <t>Drugs/pancuronium.pdf</t>
-  </si>
-  <si>
-    <t>Drugs/rocuronium.pdf</t>
-  </si>
-  <si>
     <t>Haematology_CAR-T/CRS.pdf</t>
   </si>
   <si>
-    <t>Drugs/phenytoin.pdf</t>
-  </si>
-  <si>
     <t>Policies_and_admin/General Critical Care SOP_pub.pdf</t>
   </si>
   <si>
     <t>Drugs/milrinone.pdf</t>
   </si>
   <si>
+    <t>Ethics_and_Law/Care at the End of Life (FICM).pdf</t>
+  </si>
+  <si>
+    <t>Infection_and_sepsis/Trip Out of Unit infection guidance.pdf</t>
+  </si>
+  <si>
+    <t>Ethics_and_Law/DNACPR policy for Scotland.pdf</t>
+  </si>
+  <si>
+    <t>Organ_donation/Organ Retrieval SOP.pdf</t>
+  </si>
+  <si>
+    <t>Neurological/Management of traumatic brain injury.pdf</t>
+  </si>
+  <si>
     <t>Neurological/Critical Care MRI Procedure_pub.pdf</t>
   </si>
   <si>
+    <t>End_of_life_care/CMO &amp; NRS Guidance for Doctors completing MCCD.pdf</t>
+  </si>
+  <si>
     <t>End_of_life_care/Palliative extubation &amp; withdrawal of invasive ventilatory support nursing checklist.pdf</t>
   </si>
   <si>
-    <t>End_of_life_care/CMO &amp; NRS Guidance for Doctors completing MCCD.pdf</t>
-  </si>
-  <si>
-    <t>Infection_and_sepsis/Trip Out of Unit infection guidance.pdf</t>
+    <t>Covid-19/COVID 19 ICM guidance basic goals_June_2022.pdf</t>
   </si>
   <si>
     <t>Drugs/clonidine.pdf</t>
   </si>
   <si>
-    <t>Ethics_and_Law/Care at the End of Life (FICM).pdf</t>
-  </si>
-  <si>
     <t>GI_Liver_and_Transplant/ICU - Upper GI bleeding (Endoscopy guideline).pdf</t>
   </si>
   <si>
-    <t>Neurological/Management of traumatic brain injury.pdf</t>
-  </si>
-  <si>
-    <t>Ethics_and_Law/DNACPR policy for Scotland.pdf</t>
-  </si>
-  <si>
-    <t>Covid-19/COVID 19 ICM guidance basic goals_June_2022.pdf</t>
-  </si>
-  <si>
-    <t>Organ_donation/Organ Retrieval SOP.pdf</t>
-  </si>
-  <si>
     <t>Airway/Cook Staged Extubation Set.pdf</t>
   </si>
   <si>
@@ -364,21 +364,21 @@
     <t>Post_op_care/Epidural hypotension.pdf</t>
   </si>
   <si>
+    <t>Drugs/glyceryl_trinitrate.pdf</t>
+  </si>
+  <si>
+    <t>Breathing(Respiratory)/Equipment/Passy Muir Valve.pdf</t>
+  </si>
+  <si>
+    <t>GI_Liver_and_Transplant/Fulminant Liver Failure.pdf</t>
+  </si>
+  <si>
     <t>Drugs/dexmedetomidine.pdf</t>
   </si>
   <si>
-    <t>GI_Liver_and_Transplant/Fulminant Liver Failure.pdf</t>
-  </si>
-  <si>
     <t>GI_Liver_and_Transplant/Confirmation of Nasogastric Tube Position.pdf</t>
   </si>
   <si>
-    <t>Breathing(Respiratory)/Equipment/Passy Muir Valve.pdf</t>
-  </si>
-  <si>
-    <t>Drugs/glyceryl_trinitrate.pdf</t>
-  </si>
-  <si>
     <t>Infection_and_sepsis/Antifungal guidance in critical care.pdf</t>
   </si>
   <si>
@@ -406,24 +406,24 @@
     <t>Post_op_care/Major OMFS Free Flap.pdf</t>
   </si>
   <si>
+    <t>Drugs/alfentanil.pdf</t>
+  </si>
+  <si>
     <t>Drugs/Alteplase for massive PE.pdf</t>
   </si>
   <si>
-    <t>Drugs/alfentanil.pdf</t>
-  </si>
-  <si>
     <t>Drugs/magnesium.pdf</t>
   </si>
   <si>
+    <t>Drugs/neostigmine.pdf</t>
+  </si>
+  <si>
+    <t>Drugs/vancomycin.pdf</t>
+  </si>
+  <si>
     <t>Drugs/all IV drug infusion information.pdf</t>
   </si>
   <si>
-    <t>Drugs/vancomycin.pdf</t>
-  </si>
-  <si>
-    <t>Drugs/neostigmine.pdf</t>
-  </si>
-  <si>
     <t>Drugs/labetalol.pdf</t>
   </si>
   <si>
@@ -439,49 +439,52 @@
     <t>Drugs/midazolam.pdf</t>
   </si>
   <si>
+    <t>Drugs/potassium.pdf</t>
+  </si>
+  <si>
+    <t>Drugs/salbutamol.pdf</t>
+  </si>
+  <si>
     <t>Procedures/CVC Guidance/CVC NHL  April 2023.pdf</t>
   </si>
   <si>
-    <t>Drugs/salbutamol.pdf</t>
-  </si>
-  <si>
     <t>Drugs/nimodipine.pdf</t>
   </si>
   <si>
-    <t>Drugs/potassium.pdf</t>
+    <t>Drugs/phenobarbitone.pdf</t>
+  </si>
+  <si>
+    <t>Procedures/Arterial Line insertion for ACCPs.pdf</t>
+  </si>
+  <si>
+    <t>Drugs/amiodarone.pdf</t>
+  </si>
+  <si>
+    <t>Routine_Care/ICU Eye Care Guideline.pdf</t>
   </si>
   <si>
     <t>Drugs/nicardipine.pdf</t>
   </si>
   <si>
-    <t>Drugs/phenobarbitone.pdf</t>
-  </si>
-  <si>
-    <t>Routine_Care/ICU Eye Care Guideline.pdf</t>
-  </si>
-  <si>
-    <t>Drugs/amiodarone.pdf</t>
-  </si>
-  <si>
-    <t>Procedures/Arterial Line insertion for ACCPs.pdf</t>
+    <t>Neurological/Ventriculitis Guideline.pdf</t>
+  </si>
+  <si>
+    <t>Drugs/Epoprostenol.pdf</t>
+  </si>
+  <si>
+    <t>Drugs/noradrenaline (peripheral).pdf</t>
+  </si>
+  <si>
+    <t>Drugs/morphine.pdf</t>
+  </si>
+  <si>
+    <t>Breathing(Respiratory)/Manual Ventilation and MHI.pdf</t>
   </si>
   <si>
     <t>Drugs/phenylephrine.pdf</t>
   </si>
   <si>
-    <t>Breathing(Respiratory)/Manual Ventilation and MHI.pdf</t>
-  </si>
-  <si>
-    <t>Drugs/morphine.pdf</t>
-  </si>
-  <si>
-    <t>Drugs/noradrenaline (peripheral).pdf</t>
-  </si>
-  <si>
-    <t>Drugs/Epoprostenol.pdf</t>
-  </si>
-  <si>
-    <t>Neurological/Ventriculitis Guideline.pdf</t>
+    <t>Cardiovascular/Pulmonary_Embolism_and_DVT/Catheter directed thrombolysis of iliofemoral DVT alteplase_pub.pdf</t>
   </si>
   <si>
     <t>Drugs/calcium.pdf</t>
@@ -490,58 +493,55 @@
     <t>Cardiovascular/Cardiac Output Monitoring_pub .pdf</t>
   </si>
   <si>
-    <t>Cardiovascular/Pulmonary_Embolism_and_DVT/Catheter directed thrombolysis of iliofemoral DVT alteplase_pub.pdf</t>
+    <t>Airway/Tracheostomy_Laryngectomy/Decannulation Guidline.pdf</t>
+  </si>
+  <si>
+    <t>Drugs/dalteparin_thromboprophylaxis.pdf</t>
   </si>
   <si>
     <t>Drugs/atracurium.pdf</t>
   </si>
   <si>
-    <t>Drugs/dalteparin_thromboprophylaxis.pdf</t>
-  </si>
-  <si>
-    <t>Airway/Tracheostomy_Laryngectomy/Decannulation Guidline.pdf</t>
-  </si>
-  <si>
     <t>Drugs/Vancomycin Continuous Infusion Fluid Restricted.pdf</t>
   </si>
   <si>
+    <t>Drugs/valproate.pdf</t>
+  </si>
+  <si>
     <t>Policies_and_admin/Pet Visitation.pdf</t>
   </si>
   <si>
-    <t>Drugs/valproate.pdf</t>
-  </si>
-  <si>
     <t>Procedures/Inadvertent Catheter Placement Guideline.pdf</t>
   </si>
   <si>
+    <t>Drugs/stress ulcer prophylaxis.pdf</t>
+  </si>
+  <si>
     <t>Drugs/Phosphate.pdf</t>
   </si>
   <si>
-    <t>Drugs/stress ulcer prophylaxis.pdf</t>
-  </si>
-  <si>
     <t>Drugs/ketamine_for_status epilepticus.pdf</t>
   </si>
   <si>
+    <t>Drugs/Octreotide.pdf</t>
+  </si>
+  <si>
+    <t>Drugs/Thiopentone.pdf</t>
+  </si>
+  <si>
     <t>GI_Liver_and_Transplant/Prokinetics in ICU.pdf</t>
   </si>
   <si>
-    <t>Drugs/Thiopentone.pdf</t>
-  </si>
-  <si>
-    <t>Drugs/Octreotide.pdf</t>
-  </si>
-  <si>
     <t>Breathing(Respiratory)/Proning Guideline.pdf</t>
   </si>
   <si>
     <t>Procedures/ACCPs acquiring initial CVC competencies.pdf</t>
   </si>
   <si>
+    <t>Post_op_care/Prevention and treatment of paraplegia after major aortic procedures.pdf</t>
+  </si>
+  <si>
     <t>Procedures/ACCP CVC placement following completion of initial competencies.pdf</t>
-  </si>
-  <si>
-    <t>Post_op_care/Prevention and treatment of paraplegia after major aortic procedures.pdf</t>
   </si>
   <si>
     <t>Delirium/Violence and Agression.pdf</t>

--- a/lothiancriticalcare/1a74f8f7b8b7e871b413c4697f68b4401fbacdf0/reviewdates.xlsx
+++ b/lothiancriticalcare/1a74f8f7b8b7e871b413c4697f68b4401fbacdf0/reviewdates.xlsx
@@ -85,15 +85,15 @@
     <t>End_of_life_care/Reasons to report a death to PF.pdf</t>
   </si>
   <si>
+    <t>Neurological/SOP -  Femoral site care.pdf</t>
+  </si>
+  <si>
+    <t>Airway/Tracheostomy_Laryngectomy/Tracheostomy change in Critical Care.pdf</t>
+  </si>
+  <si>
     <t>Airway/Tracheostomy_Laryngectomy/Tracheostomy suctioning cleaning guideline.pdf</t>
   </si>
   <si>
-    <t>Neurological/SOP -  Femoral site care.pdf</t>
-  </si>
-  <si>
-    <t>Airway/Tracheostomy_Laryngectomy/Tracheostomy change in Critical Care.pdf</t>
-  </si>
-  <si>
     <t>Drugs/sodium_bicarbonate.pdf</t>
   </si>
   <si>
@@ -103,24 +103,24 @@
     <t>Post_op_care/Epidural top-up.pdf</t>
   </si>
   <si>
+    <t>Diabetes_and_Glucose/Hyperosmolar Hyperglycaemic State.pdf</t>
+  </si>
+  <si>
+    <t>Drugs/heparin for Haemofiltration.pdf</t>
+  </si>
+  <si>
     <t>Covid-19/SJH/SJH COVID19 ED Intubation Action Card.pdf</t>
   </si>
   <si>
+    <t>Covid-19/SJH/SJH COVID19 ITU Intubation Action Card.pdf</t>
+  </si>
+  <si>
+    <t>Covid-19/WGH/CoVid intubation checklist WGH.pdf</t>
+  </si>
+  <si>
     <t>Airway/Emergency intubation checklist_em_pub.pdf</t>
   </si>
   <si>
-    <t>Drugs/heparin for Haemofiltration.pdf</t>
-  </si>
-  <si>
-    <t>Covid-19/SJH/SJH COVID19 ITU Intubation Action Card.pdf</t>
-  </si>
-  <si>
-    <t>Diabetes_and_Glucose/Hyperosmolar Hyperglycaemic State.pdf</t>
-  </si>
-  <si>
-    <t>Covid-19/WGH/CoVid intubation checklist WGH.pdf</t>
-  </si>
-  <si>
     <t>Drugs/fentanyl.pdf</t>
   </si>
   <si>
@@ -139,42 +139,42 @@
     <t>Airway/Percutaneous tracheostomy checklist.pdf</t>
   </si>
   <si>
+    <t>Delirium/Managing a Potentially Violent Patient.pdf</t>
+  </si>
+  <si>
     <t>Delirium/Risk assessment posi mit.pdf</t>
   </si>
   <si>
     <t>Infection_and_sepsis/SOP Ultrasound Cleaning.pdf</t>
   </si>
   <si>
-    <t>Delirium/Managing a Potentially Violent Patient.pdf</t>
+    <t>GI_Liver_and_Transplant/Treatment of constipation.pdf</t>
+  </si>
+  <si>
+    <t>GI_Liver_and_Transplant/Abdominal pressure measurement.pdf</t>
+  </si>
+  <si>
+    <t>Airway/Anticipated difficult airway tool.pdf</t>
+  </si>
+  <si>
+    <t>Drugs/ketamine_in_asthma.pdf</t>
   </si>
   <si>
     <t>Breathing(Respiratory)/HFNO.pdf</t>
   </si>
   <si>
-    <t>GI_Liver_and_Transplant/Treatment of constipation.pdf</t>
+    <t>Airway/McGrath Mac.pdf</t>
+  </si>
+  <si>
+    <t>Airway/Tracheostomy_Laryngectomy/Tracheostomy safety box contents.pdf</t>
   </si>
   <si>
     <t>Delirium/Drugs Causing Delirium and Agitiation.pdf</t>
   </si>
   <si>
-    <t>Airway/Tracheostomy_Laryngectomy/Tracheostomy safety box contents.pdf</t>
-  </si>
-  <si>
-    <t>Drugs/ketamine_in_asthma.pdf</t>
-  </si>
-  <si>
-    <t>Airway/McGrath Mac.pdf</t>
-  </si>
-  <si>
     <t>Neurological/Sub arachnoid haemorrhage management.pdf</t>
   </si>
   <si>
-    <t>Airway/Anticipated difficult airway tool.pdf</t>
-  </si>
-  <si>
-    <t>GI_Liver_and_Transplant/Abdominal pressure measurement.pdf</t>
-  </si>
-  <si>
     <t>End_of_life_care/Documentation following death.pdf</t>
   </si>
   <si>
@@ -193,21 +193,21 @@
     <t>Breathing(Respiratory)/Inhaled Nitrous Oxide.pdf</t>
   </si>
   <si>
+    <t>Cardiovascular/Steroids for Septic Shock.pdf</t>
+  </si>
+  <si>
     <t>Breathing(Respiratory)/Equipment/APRV.pdf</t>
   </si>
   <si>
-    <t>Cardiovascular/Steroids for Septic Shock.pdf</t>
-  </si>
-  <si>
     <t>Post_op_care/Epidural Haematoma.pdf</t>
   </si>
   <si>
+    <t>Neurological/SOP for review of Neurosurgical patients in ITU by neurosurgical team.pdf</t>
+  </si>
+  <si>
     <t>Breathing(Respiratory)/Equipment/T piece Y piece.pdf</t>
   </si>
   <si>
-    <t>Neurological/SOP for review of Neurosurgical patients in ITU by neurosurgical team.pdf</t>
-  </si>
-  <si>
     <t>Policies_and_admin/General Critical Care Interaction with HEPMA_pub.pdf</t>
   </si>
   <si>
@@ -229,63 +229,63 @@
     <t>GI_Liver_and_Transplant/Nasogastric feeding protocol.pdf</t>
   </si>
   <si>
+    <t>Drugs/Antibiotic doses in CVVHD.pdf</t>
+  </si>
+  <si>
     <t>Diabetes_and_Glucose/Intravenous Insulin Therapy (not for DKA or HHS).pdf</t>
   </si>
   <si>
-    <t>Drugs/Antibiotic doses in CVVHD.pdf</t>
+    <t>GI_Liver_and_Transplant/Nasojejunal feeding protocol.pdf</t>
   </si>
   <si>
     <t>GI_Liver_and_Transplant/Jejunostomy feeding protocol.pdf</t>
   </si>
   <si>
-    <t>GI_Liver_and_Transplant/Nasojejunal feeding protocol.pdf</t>
-  </si>
-  <si>
     <t>ECLS/RIE ECLS Anti Xa Protocol.pdf</t>
   </si>
   <si>
+    <t>Infection_and_sepsis/Winter Infections Stepdown Guidance.pdf</t>
+  </si>
+  <si>
+    <t>Drugs/vasopressin_sepsis.pdf</t>
+  </si>
+  <si>
     <t>Drugs/vasopressin organ donation.pdf</t>
   </si>
   <si>
-    <t>Drugs/vasopressin_sepsis.pdf</t>
-  </si>
-  <si>
-    <t>Infection_and_sepsis/Winter Infections Stepdown Guidance.pdf</t>
-  </si>
-  <si>
     <t>Covid-19/videos/Donning and Doffing Video.pdf</t>
   </si>
   <si>
     <t>Transfer/ACCP Transfers.pdf</t>
   </si>
   <si>
+    <t>Breathing(Respiratory)/Equipment/Bipap V60.pdf</t>
+  </si>
+  <si>
+    <t>Breathing(Respiratory)/CPAP.pdf</t>
+  </si>
+  <si>
+    <t>Breathing(Respiratory)/Equipment/Ventilators Circuits Filters and Closed Suction - Set up and Maintenance.pdf</t>
+  </si>
+  <si>
+    <t>Infection_and_sepsis/Infection indications for IVIG.pdf</t>
+  </si>
+  <si>
     <t>Drugs/piperacillin_tazobactam extended_infusion.pdf</t>
   </si>
   <si>
-    <t>Breathing(Respiratory)/Equipment/Ventilators Circuits Filters and Closed Suction - Set up and Maintenance.pdf</t>
-  </si>
-  <si>
-    <t>Breathing(Respiratory)/CPAP.pdf</t>
-  </si>
-  <si>
-    <t>Breathing(Respiratory)/Equipment/Bipap V60.pdf</t>
-  </si>
-  <si>
-    <t>Infection_and_sepsis/Infection indications for IVIG.pdf</t>
-  </si>
-  <si>
     <t>Procedures/CVC Guidance/Securing CVCs.pdf</t>
   </si>
   <si>
     <t>Covid-19/Covid 19 Death Certification Guideline.pdf</t>
   </si>
   <si>
+    <t>Neurological/Treatment of status epilepticus.pdf</t>
+  </si>
+  <si>
     <t>Routine_Care/Video Communication.pdf</t>
   </si>
   <si>
-    <t>Neurological/Treatment of status epilepticus.pdf</t>
-  </si>
-  <si>
     <t>Cardiovascular/Cardiogenic Shock.pdf</t>
   </si>
   <si>
@@ -295,66 +295,66 @@
     <t>Haematology_CAR-T/Haem_ICU_transfer.pdf</t>
   </si>
   <si>
+    <t>Cardiovascular/Management of hypertension within Critical Care.pdf</t>
+  </si>
+  <si>
     <t>Drugs/aminophylline.pdf</t>
   </si>
   <si>
-    <t>Cardiovascular/Management of hypertension within Critical Care.pdf</t>
+    <t>Haematology_CAR-T/CRS.pdf</t>
+  </si>
+  <si>
+    <t>Drugs/pancuronium.pdf</t>
+  </si>
+  <si>
+    <t>Haematology_CAR-T/ICANS.pdf</t>
   </si>
   <si>
     <t>Drugs/phenytoin.pdf</t>
   </si>
   <si>
-    <t>Drugs/pancuronium.pdf</t>
-  </si>
-  <si>
     <t>Drugs/rocuronium.pdf</t>
   </si>
   <si>
-    <t>Haematology_CAR-T/ICANS.pdf</t>
-  </si>
-  <si>
-    <t>Haematology_CAR-T/CRS.pdf</t>
+    <t>Drugs/milrinone.pdf</t>
   </si>
   <si>
     <t>Policies_and_admin/General Critical Care SOP_pub.pdf</t>
   </si>
   <si>
-    <t>Drugs/milrinone.pdf</t>
+    <t>GI_Liver_and_Transplant/ICU - Upper GI bleeding (Endoscopy guideline).pdf</t>
+  </si>
+  <si>
+    <t>Drugs/clonidine.pdf</t>
+  </si>
+  <si>
+    <t>Neurological/Critical Care MRI Procedure_pub.pdf</t>
+  </si>
+  <si>
+    <t>Ethics_and_Law/DNACPR policy for Scotland.pdf</t>
+  </si>
+  <si>
+    <t>End_of_life_care/Palliative extubation &amp; withdrawal of invasive ventilatory support nursing checklist.pdf</t>
+  </si>
+  <si>
+    <t>End_of_life_care/CMO &amp; NRS Guidance for Doctors completing MCCD.pdf</t>
+  </si>
+  <si>
+    <t>Neurological/Management of traumatic brain injury.pdf</t>
+  </si>
+  <si>
+    <t>Organ_donation/Organ Retrieval SOP.pdf</t>
+  </si>
+  <si>
+    <t>Covid-19/COVID 19 ICM guidance basic goals_June_2022.pdf</t>
+  </si>
+  <si>
+    <t>Infection_and_sepsis/Trip Out of Unit infection guidance.pdf</t>
   </si>
   <si>
     <t>Ethics_and_Law/Care at the End of Life (FICM).pdf</t>
   </si>
   <si>
-    <t>Infection_and_sepsis/Trip Out of Unit infection guidance.pdf</t>
-  </si>
-  <si>
-    <t>Ethics_and_Law/DNACPR policy for Scotland.pdf</t>
-  </si>
-  <si>
-    <t>Organ_donation/Organ Retrieval SOP.pdf</t>
-  </si>
-  <si>
-    <t>Neurological/Management of traumatic brain injury.pdf</t>
-  </si>
-  <si>
-    <t>Neurological/Critical Care MRI Procedure_pub.pdf</t>
-  </si>
-  <si>
-    <t>End_of_life_care/CMO &amp; NRS Guidance for Doctors completing MCCD.pdf</t>
-  </si>
-  <si>
-    <t>End_of_life_care/Palliative extubation &amp; withdrawal of invasive ventilatory support nursing checklist.pdf</t>
-  </si>
-  <si>
-    <t>Covid-19/COVID 19 ICM guidance basic goals_June_2022.pdf</t>
-  </si>
-  <si>
-    <t>Drugs/clonidine.pdf</t>
-  </si>
-  <si>
-    <t>GI_Liver_and_Transplant/ICU - Upper GI bleeding (Endoscopy guideline).pdf</t>
-  </si>
-  <si>
     <t>Airway/Cook Staged Extubation Set.pdf</t>
   </si>
   <si>
@@ -367,18 +367,18 @@
     <t>Drugs/glyceryl_trinitrate.pdf</t>
   </si>
   <si>
+    <t>GI_Liver_and_Transplant/Confirmation of Nasogastric Tube Position.pdf</t>
+  </si>
+  <si>
+    <t>GI_Liver_and_Transplant/Fulminant Liver Failure.pdf</t>
+  </si>
+  <si>
+    <t>Drugs/dexmedetomidine.pdf</t>
+  </si>
+  <si>
     <t>Breathing(Respiratory)/Equipment/Passy Muir Valve.pdf</t>
   </si>
   <si>
-    <t>GI_Liver_and_Transplant/Fulminant Liver Failure.pdf</t>
-  </si>
-  <si>
-    <t>Drugs/dexmedetomidine.pdf</t>
-  </si>
-  <si>
-    <t>GI_Liver_and_Transplant/Confirmation of Nasogastric Tube Position.pdf</t>
-  </si>
-  <si>
     <t>Infection_and_sepsis/Antifungal guidance in critical care.pdf</t>
   </si>
   <si>
@@ -394,117 +394,117 @@
     <t>Breathing(Respiratory)/ARDS Strategy.pdf</t>
   </si>
   <si>
+    <t>Drugs/dobutamine.pdf</t>
+  </si>
+  <si>
     <t>Drugs/adrenaline.pdf</t>
   </si>
   <si>
-    <t>Drugs/dobutamine.pdf</t>
-  </si>
-  <si>
     <t>Drugs/hydralazine.pdf</t>
   </si>
   <si>
     <t>Post_op_care/Major OMFS Free Flap.pdf</t>
   </si>
   <si>
+    <t>Drugs/Alteplase for massive PE.pdf</t>
+  </si>
+  <si>
     <t>Drugs/alfentanil.pdf</t>
   </si>
   <si>
-    <t>Drugs/Alteplase for massive PE.pdf</t>
-  </si>
-  <si>
     <t>Drugs/magnesium.pdf</t>
   </si>
   <si>
+    <t>Drugs/all IV drug infusion information.pdf</t>
+  </si>
+  <si>
     <t>Drugs/neostigmine.pdf</t>
   </si>
   <si>
     <t>Drugs/vancomycin.pdf</t>
   </si>
   <si>
-    <t>Drugs/all IV drug infusion information.pdf</t>
+    <t>Infection_and_sepsis/Initial investigation and management in unidentified Infections.pdf</t>
   </si>
   <si>
     <t>Drugs/labetalol.pdf</t>
   </si>
   <si>
-    <t>Infection_and_sepsis/Initial investigation and management in unidentified Infections.pdf</t>
-  </si>
-  <si>
     <t>Neurological/Intrathecal policy RIE.pdf</t>
   </si>
   <si>
+    <t>Drugs/midazolam.pdf</t>
+  </si>
+  <si>
     <t>Cardiovascular/Management of Acute Type B Aortic Dissection Guideline.pdf</t>
   </si>
   <si>
-    <t>Drugs/midazolam.pdf</t>
-  </si>
-  <si>
     <t>Drugs/potassium.pdf</t>
   </si>
   <si>
+    <t>Procedures/CVC Guidance/CVC NHL  April 2023.pdf</t>
+  </si>
+  <si>
     <t>Drugs/salbutamol.pdf</t>
   </si>
   <si>
-    <t>Procedures/CVC Guidance/CVC NHL  April 2023.pdf</t>
-  </si>
-  <si>
     <t>Drugs/nimodipine.pdf</t>
   </si>
   <si>
+    <t>Routine_Care/ICU Eye Care Guideline.pdf</t>
+  </si>
+  <si>
+    <t>Drugs/amiodarone.pdf</t>
+  </si>
+  <si>
+    <t>Drugs/nicardipine.pdf</t>
+  </si>
+  <si>
     <t>Drugs/phenobarbitone.pdf</t>
   </si>
   <si>
     <t>Procedures/Arterial Line insertion for ACCPs.pdf</t>
   </si>
   <si>
-    <t>Drugs/amiodarone.pdf</t>
-  </si>
-  <si>
-    <t>Routine_Care/ICU Eye Care Guideline.pdf</t>
-  </si>
-  <si>
-    <t>Drugs/nicardipine.pdf</t>
+    <t>Breathing(Respiratory)/Manual Ventilation and MHI.pdf</t>
+  </si>
+  <si>
+    <t>Drugs/noradrenaline (peripheral).pdf</t>
   </si>
   <si>
     <t>Neurological/Ventriculitis Guideline.pdf</t>
   </si>
   <si>
+    <t>Drugs/morphine.pdf</t>
+  </si>
+  <si>
     <t>Drugs/Epoprostenol.pdf</t>
   </si>
   <si>
-    <t>Drugs/noradrenaline (peripheral).pdf</t>
-  </si>
-  <si>
-    <t>Drugs/morphine.pdf</t>
-  </si>
-  <si>
-    <t>Breathing(Respiratory)/Manual Ventilation and MHI.pdf</t>
-  </si>
-  <si>
     <t>Drugs/phenylephrine.pdf</t>
   </si>
   <si>
+    <t>Cardiovascular/Cardiac Output Monitoring_pub .pdf</t>
+  </si>
+  <si>
     <t>Cardiovascular/Pulmonary_Embolism_and_DVT/Catheter directed thrombolysis of iliofemoral DVT alteplase_pub.pdf</t>
   </si>
   <si>
     <t>Drugs/calcium.pdf</t>
   </si>
   <si>
-    <t>Cardiovascular/Cardiac Output Monitoring_pub .pdf</t>
+    <t>Drugs/dalteparin_thromboprophylaxis.pdf</t>
+  </si>
+  <si>
+    <t>Drugs/Vancomycin Continuous Infusion Fluid Restricted.pdf</t>
+  </si>
+  <si>
+    <t>Drugs/atracurium.pdf</t>
   </si>
   <si>
     <t>Airway/Tracheostomy_Laryngectomy/Decannulation Guidline.pdf</t>
   </si>
   <si>
-    <t>Drugs/dalteparin_thromboprophylaxis.pdf</t>
-  </si>
-  <si>
-    <t>Drugs/atracurium.pdf</t>
-  </si>
-  <si>
-    <t>Drugs/Vancomycin Continuous Infusion Fluid Restricted.pdf</t>
-  </si>
-  <si>
     <t>Drugs/valproate.pdf</t>
   </si>
   <si>
@@ -517,22 +517,25 @@
     <t>Drugs/stress ulcer prophylaxis.pdf</t>
   </si>
   <si>
+    <t>Drugs/ketamine_for_status epilepticus.pdf</t>
+  </si>
+  <si>
     <t>Drugs/Phosphate.pdf</t>
   </si>
   <si>
-    <t>Drugs/ketamine_for_status epilepticus.pdf</t>
+    <t>Drugs/Thiopentone.pdf</t>
+  </si>
+  <si>
+    <t>Breathing(Respiratory)/Proning Guideline.pdf</t>
+  </si>
+  <si>
+    <t>GI_Liver_and_Transplant/Prokinetics in ICU.pdf</t>
   </si>
   <si>
     <t>Drugs/Octreotide.pdf</t>
   </si>
   <si>
-    <t>Drugs/Thiopentone.pdf</t>
-  </si>
-  <si>
-    <t>GI_Liver_and_Transplant/Prokinetics in ICU.pdf</t>
-  </si>
-  <si>
-    <t>Breathing(Respiratory)/Proning Guideline.pdf</t>
+    <t>Procedures/ACCP CVC placement following completion of initial competencies.pdf</t>
   </si>
   <si>
     <t>Procedures/ACCPs acquiring initial CVC competencies.pdf</t>
@@ -541,9 +544,6 @@
     <t>Post_op_care/Prevention and treatment of paraplegia after major aortic procedures.pdf</t>
   </si>
   <si>
-    <t>Procedures/ACCP CVC placement following completion of initial competencies.pdf</t>
-  </si>
-  <si>
     <t>Delirium/Violence and Agression.pdf</t>
   </si>
   <si>
@@ -553,10 +553,10 @@
     <t>GI_Liver_and_Transplant/Plasma exchange in Acute Liver Failure.pdf</t>
   </si>
   <si>
+    <t>End_of_life_care/Guideline following Sudden Cardiac Death where death occurs in ICU.pdf</t>
+  </si>
+  <si>
     <t>Breathing(Respiratory)/Equipment/NIV through Drager Vent Set up in Critical Care.pdf</t>
-  </si>
-  <si>
-    <t>End_of_life_care/Guideline following Sudden Cardiac Death where death occurs in ICU.pdf</t>
   </si>
   <si>
     <t>Transfer/Transfer Guidelines.pdf</t>

--- a/lothiancriticalcare/1a74f8f7b8b7e871b413c4697f68b4401fbacdf0/reviewdates.xlsx
+++ b/lothiancriticalcare/1a74f8f7b8b7e871b413c4697f68b4401fbacdf0/reviewdates.xlsx
@@ -64,12 +64,12 @@
     <t>Routine_Care/Tracheostomy_nursing_care.pdf</t>
   </si>
   <si>
+    <t>ECLS/Extra Corporeal Carbon Dioxide Removal.pdf</t>
+  </si>
+  <si>
     <t>Airway/Critical care extubation checklist.pdf</t>
   </si>
   <si>
-    <t>ECLS/Extra Corporeal Carbon Dioxide Removal.pdf</t>
-  </si>
-  <si>
     <t>Airway/Tracheostomy_Laryngectomy/Hospital_in-patients_with_a_Tracheostomy.pdf</t>
   </si>
   <si>
@@ -79,21 +79,21 @@
     <t>Drugs/diazepam_diazemuls.pdf</t>
   </si>
   <si>
+    <t>End_of_life_care/Reasons to report a death to PF.pdf</t>
+  </si>
+  <si>
     <t>Breathing(Respiratory)/salbutamol and ipratroprium MDI.pdf</t>
   </si>
   <si>
-    <t>End_of_life_care/Reasons to report a death to PF.pdf</t>
-  </si>
-  <si>
     <t>Neurological/SOP -  Femoral site care.pdf</t>
   </si>
   <si>
+    <t>Airway/Tracheostomy_Laryngectomy/Tracheostomy suctioning cleaning guideline.pdf</t>
+  </si>
+  <si>
     <t>Airway/Tracheostomy_Laryngectomy/Tracheostomy change in Critical Care.pdf</t>
   </si>
   <si>
-    <t>Airway/Tracheostomy_Laryngectomy/Tracheostomy suctioning cleaning guideline.pdf</t>
-  </si>
-  <si>
     <t>Drugs/sodium_bicarbonate.pdf</t>
   </si>
   <si>
@@ -103,21 +103,21 @@
     <t>Post_op_care/Epidural top-up.pdf</t>
   </si>
   <si>
+    <t>Drugs/heparin for Haemofiltration.pdf</t>
+  </si>
+  <si>
+    <t>Covid-19/WGH/CoVid intubation checklist WGH.pdf</t>
+  </si>
+  <si>
+    <t>Covid-19/SJH/SJH COVID19 ITU Intubation Action Card.pdf</t>
+  </si>
+  <si>
     <t>Diabetes_and_Glucose/Hyperosmolar Hyperglycaemic State.pdf</t>
   </si>
   <si>
-    <t>Drugs/heparin for Haemofiltration.pdf</t>
-  </si>
-  <si>
     <t>Covid-19/SJH/SJH COVID19 ED Intubation Action Card.pdf</t>
   </si>
   <si>
-    <t>Covid-19/SJH/SJH COVID19 ITU Intubation Action Card.pdf</t>
-  </si>
-  <si>
-    <t>Covid-19/WGH/CoVid intubation checklist WGH.pdf</t>
-  </si>
-  <si>
     <t>Airway/Emergency intubation checklist_em_pub.pdf</t>
   </si>
   <si>
@@ -139,13 +139,31 @@
     <t>Airway/Percutaneous tracheostomy checklist.pdf</t>
   </si>
   <si>
+    <t>Infection_and_sepsis/SOP Ultrasound Cleaning.pdf</t>
+  </si>
+  <si>
     <t>Delirium/Managing a Potentially Violent Patient.pdf</t>
   </si>
   <si>
     <t>Delirium/Risk assessment posi mit.pdf</t>
   </si>
   <si>
-    <t>Infection_and_sepsis/SOP Ultrasound Cleaning.pdf</t>
+    <t>Neurological/Sub arachnoid haemorrhage management.pdf</t>
+  </si>
+  <si>
+    <t>Airway/Anticipated difficult airway tool.pdf</t>
+  </si>
+  <si>
+    <t>Airway/McGrath Mac.pdf</t>
+  </si>
+  <si>
+    <t>Delirium/Drugs Causing Delirium and Agitiation.pdf</t>
+  </si>
+  <si>
+    <t>Airway/Tracheostomy_Laryngectomy/Tracheostomy safety box contents.pdf</t>
+  </si>
+  <si>
+    <t>Breathing(Respiratory)/HFNO.pdf</t>
   </si>
   <si>
     <t>GI_Liver_and_Transplant/Treatment of constipation.pdf</t>
@@ -154,27 +172,9 @@
     <t>GI_Liver_and_Transplant/Abdominal pressure measurement.pdf</t>
   </si>
   <si>
-    <t>Airway/Anticipated difficult airway tool.pdf</t>
-  </si>
-  <si>
     <t>Drugs/ketamine_in_asthma.pdf</t>
   </si>
   <si>
-    <t>Breathing(Respiratory)/HFNO.pdf</t>
-  </si>
-  <si>
-    <t>Airway/McGrath Mac.pdf</t>
-  </si>
-  <si>
-    <t>Airway/Tracheostomy_Laryngectomy/Tracheostomy safety box contents.pdf</t>
-  </si>
-  <si>
-    <t>Delirium/Drugs Causing Delirium and Agitiation.pdf</t>
-  </si>
-  <si>
-    <t>Neurological/Sub arachnoid haemorrhage management.pdf</t>
-  </si>
-  <si>
     <t>End_of_life_care/Documentation following death.pdf</t>
   </si>
   <si>
@@ -193,18 +193,18 @@
     <t>Breathing(Respiratory)/Inhaled Nitrous Oxide.pdf</t>
   </si>
   <si>
+    <t>Breathing(Respiratory)/Equipment/APRV.pdf</t>
+  </si>
+  <si>
     <t>Cardiovascular/Steroids for Septic Shock.pdf</t>
   </si>
   <si>
-    <t>Breathing(Respiratory)/Equipment/APRV.pdf</t>
+    <t>Neurological/SOP for review of Neurosurgical patients in ITU by neurosurgical team.pdf</t>
   </si>
   <si>
     <t>Post_op_care/Epidural Haematoma.pdf</t>
   </si>
   <si>
-    <t>Neurological/SOP for review of Neurosurgical patients in ITU by neurosurgical team.pdf</t>
-  </si>
-  <si>
     <t>Breathing(Respiratory)/Equipment/T piece Y piece.pdf</t>
   </si>
   <si>
@@ -217,60 +217,60 @@
     <t>Breathing(Respiratory)/Equipment/HFNO through ventilator.pdf</t>
   </si>
   <si>
+    <t>Post_op_care/Adult Scoliosis Spinal Surgery Post-Op Care.pdf</t>
+  </si>
+  <si>
     <t>Routine_Care/VTE_Prevention/Dalteparin_thromboprophylaxis.pdf</t>
   </si>
   <si>
-    <t>Post_op_care/Adult Scoliosis Spinal Surgery Post-Op Care.pdf</t>
-  </si>
-  <si>
     <t>Post_op_care/Post op care pharyngo-laryngo-oesphagectomy PLOG.pdf</t>
   </si>
   <si>
     <t>GI_Liver_and_Transplant/Nasogastric feeding protocol.pdf</t>
   </si>
   <si>
+    <t>Diabetes_and_Glucose/Intravenous Insulin Therapy (not for DKA or HHS).pdf</t>
+  </si>
+  <si>
     <t>Drugs/Antibiotic doses in CVVHD.pdf</t>
   </si>
   <si>
-    <t>Diabetes_and_Glucose/Intravenous Insulin Therapy (not for DKA or HHS).pdf</t>
+    <t>GI_Liver_and_Transplant/Jejunostomy feeding protocol.pdf</t>
+  </si>
+  <si>
+    <t>ECLS/RIE ECLS Anti Xa Protocol.pdf</t>
   </si>
   <si>
     <t>GI_Liver_and_Transplant/Nasojejunal feeding protocol.pdf</t>
   </si>
   <si>
-    <t>GI_Liver_and_Transplant/Jejunostomy feeding protocol.pdf</t>
-  </si>
-  <si>
-    <t>ECLS/RIE ECLS Anti Xa Protocol.pdf</t>
+    <t>Drugs/vasopressin_sepsis.pdf</t>
+  </si>
+  <si>
+    <t>Drugs/vasopressin organ donation.pdf</t>
   </si>
   <si>
     <t>Infection_and_sepsis/Winter Infections Stepdown Guidance.pdf</t>
   </si>
   <si>
-    <t>Drugs/vasopressin_sepsis.pdf</t>
-  </si>
-  <si>
-    <t>Drugs/vasopressin organ donation.pdf</t>
+    <t>Transfer/ACCP Transfers.pdf</t>
   </si>
   <si>
     <t>Covid-19/videos/Donning and Doffing Video.pdf</t>
   </si>
   <si>
-    <t>Transfer/ACCP Transfers.pdf</t>
+    <t>Breathing(Respiratory)/Equipment/Ventilators Circuits Filters and Closed Suction - Set up and Maintenance.pdf</t>
   </si>
   <si>
     <t>Breathing(Respiratory)/Equipment/Bipap V60.pdf</t>
   </si>
   <si>
+    <t>Infection_and_sepsis/Infection indications for IVIG.pdf</t>
+  </si>
+  <si>
     <t>Breathing(Respiratory)/CPAP.pdf</t>
   </si>
   <si>
-    <t>Breathing(Respiratory)/Equipment/Ventilators Circuits Filters and Closed Suction - Set up and Maintenance.pdf</t>
-  </si>
-  <si>
-    <t>Infection_and_sepsis/Infection indications for IVIG.pdf</t>
-  </si>
-  <si>
     <t>Drugs/piperacillin_tazobactam extended_infusion.pdf</t>
   </si>
   <si>
@@ -280,18 +280,18 @@
     <t>Covid-19/Covid 19 Death Certification Guideline.pdf</t>
   </si>
   <si>
+    <t>Routine_Care/Video Communication.pdf</t>
+  </si>
+  <si>
     <t>Neurological/Treatment of status epilepticus.pdf</t>
   </si>
   <si>
-    <t>Routine_Care/Video Communication.pdf</t>
+    <t>Drugs/isoprenaline.pdf</t>
   </si>
   <si>
     <t>Cardiovascular/Cardiogenic Shock.pdf</t>
   </si>
   <si>
-    <t>Drugs/isoprenaline.pdf</t>
-  </si>
-  <si>
     <t>Haematology_CAR-T/Haem_ICU_transfer.pdf</t>
   </si>
   <si>
@@ -301,60 +301,60 @@
     <t>Drugs/aminophylline.pdf</t>
   </si>
   <si>
+    <t>Haematology_CAR-T/ICANS.pdf</t>
+  </si>
+  <si>
+    <t>Drugs/pancuronium.pdf</t>
+  </si>
+  <si>
+    <t>Drugs/rocuronium.pdf</t>
+  </si>
+  <si>
     <t>Haematology_CAR-T/CRS.pdf</t>
   </si>
   <si>
-    <t>Drugs/pancuronium.pdf</t>
-  </si>
-  <si>
-    <t>Haematology_CAR-T/ICANS.pdf</t>
-  </si>
-  <si>
     <t>Drugs/phenytoin.pdf</t>
   </si>
   <si>
-    <t>Drugs/rocuronium.pdf</t>
+    <t>Policies_and_admin/General Critical Care SOP_pub.pdf</t>
   </si>
   <si>
     <t>Drugs/milrinone.pdf</t>
   </si>
   <si>
-    <t>Policies_and_admin/General Critical Care SOP_pub.pdf</t>
+    <t>Neurological/Critical Care MRI Procedure_pub.pdf</t>
+  </si>
+  <si>
+    <t>End_of_life_care/Palliative extubation &amp; withdrawal of invasive ventilatory support nursing checklist.pdf</t>
+  </si>
+  <si>
+    <t>End_of_life_care/CMO &amp; NRS Guidance for Doctors completing MCCD.pdf</t>
+  </si>
+  <si>
+    <t>Infection_and_sepsis/Trip Out of Unit infection guidance.pdf</t>
+  </si>
+  <si>
+    <t>Drugs/clonidine.pdf</t>
+  </si>
+  <si>
+    <t>Ethics_and_Law/Care at the End of Life (FICM).pdf</t>
   </si>
   <si>
     <t>GI_Liver_and_Transplant/ICU - Upper GI bleeding (Endoscopy guideline).pdf</t>
   </si>
   <si>
-    <t>Drugs/clonidine.pdf</t>
-  </si>
-  <si>
-    <t>Neurological/Critical Care MRI Procedure_pub.pdf</t>
+    <t>Neurological/Management of traumatic brain injury.pdf</t>
   </si>
   <si>
     <t>Ethics_and_Law/DNACPR policy for Scotland.pdf</t>
   </si>
   <si>
-    <t>End_of_life_care/Palliative extubation &amp; withdrawal of invasive ventilatory support nursing checklist.pdf</t>
-  </si>
-  <si>
-    <t>End_of_life_care/CMO &amp; NRS Guidance for Doctors completing MCCD.pdf</t>
-  </si>
-  <si>
-    <t>Neurological/Management of traumatic brain injury.pdf</t>
+    <t>Covid-19/COVID 19 ICM guidance basic goals_June_2022.pdf</t>
   </si>
   <si>
     <t>Organ_donation/Organ Retrieval SOP.pdf</t>
   </si>
   <si>
-    <t>Covid-19/COVID 19 ICM guidance basic goals_June_2022.pdf</t>
-  </si>
-  <si>
-    <t>Infection_and_sepsis/Trip Out of Unit infection guidance.pdf</t>
-  </si>
-  <si>
-    <t>Ethics_and_Law/Care at the End of Life (FICM).pdf</t>
-  </si>
-  <si>
     <t>Airway/Cook Staged Extubation Set.pdf</t>
   </si>
   <si>
@@ -364,21 +364,21 @@
     <t>Post_op_care/Epidural hypotension.pdf</t>
   </si>
   <si>
+    <t>Drugs/dexmedetomidine.pdf</t>
+  </si>
+  <si>
+    <t>GI_Liver_and_Transplant/Fulminant Liver Failure.pdf</t>
+  </si>
+  <si>
+    <t>GI_Liver_and_Transplant/Confirmation of Nasogastric Tube Position.pdf</t>
+  </si>
+  <si>
+    <t>Breathing(Respiratory)/Equipment/Passy Muir Valve.pdf</t>
+  </si>
+  <si>
     <t>Drugs/glyceryl_trinitrate.pdf</t>
   </si>
   <si>
-    <t>GI_Liver_and_Transplant/Confirmation of Nasogastric Tube Position.pdf</t>
-  </si>
-  <si>
-    <t>GI_Liver_and_Transplant/Fulminant Liver Failure.pdf</t>
-  </si>
-  <si>
-    <t>Drugs/dexmedetomidine.pdf</t>
-  </si>
-  <si>
-    <t>Breathing(Respiratory)/Equipment/Passy Muir Valve.pdf</t>
-  </si>
-  <si>
     <t>Infection_and_sepsis/Antifungal guidance in critical care.pdf</t>
   </si>
   <si>
@@ -394,12 +394,12 @@
     <t>Breathing(Respiratory)/ARDS Strategy.pdf</t>
   </si>
   <si>
+    <t>Drugs/adrenaline.pdf</t>
+  </si>
+  <si>
     <t>Drugs/dobutamine.pdf</t>
   </si>
   <si>
-    <t>Drugs/adrenaline.pdf</t>
-  </si>
-  <si>
     <t>Drugs/hydralazine.pdf</t>
   </si>
   <si>
@@ -418,37 +418,43 @@
     <t>Drugs/all IV drug infusion information.pdf</t>
   </si>
   <si>
+    <t>Drugs/vancomycin.pdf</t>
+  </si>
+  <si>
     <t>Drugs/neostigmine.pdf</t>
   </si>
   <si>
-    <t>Drugs/vancomycin.pdf</t>
+    <t>Drugs/labetalol.pdf</t>
   </si>
   <si>
     <t>Infection_and_sepsis/Initial investigation and management in unidentified Infections.pdf</t>
   </si>
   <si>
-    <t>Drugs/labetalol.pdf</t>
-  </si>
-  <si>
     <t>Neurological/Intrathecal policy RIE.pdf</t>
   </si>
   <si>
+    <t>Cardiovascular/Management of Acute Type B Aortic Dissection Guideline.pdf</t>
+  </si>
+  <si>
     <t>Drugs/midazolam.pdf</t>
   </si>
   <si>
-    <t>Cardiovascular/Management of Acute Type B Aortic Dissection Guideline.pdf</t>
+    <t>Procedures/CVC Guidance/CVC NHL  April 2023.pdf</t>
+  </si>
+  <si>
+    <t>Drugs/salbutamol.pdf</t>
+  </si>
+  <si>
+    <t>Drugs/nimodipine.pdf</t>
   </si>
   <si>
     <t>Drugs/potassium.pdf</t>
   </si>
   <si>
-    <t>Procedures/CVC Guidance/CVC NHL  April 2023.pdf</t>
-  </si>
-  <si>
-    <t>Drugs/salbutamol.pdf</t>
-  </si>
-  <si>
-    <t>Drugs/nimodipine.pdf</t>
+    <t>Drugs/nicardipine.pdf</t>
+  </si>
+  <si>
+    <t>Drugs/phenobarbitone.pdf</t>
   </si>
   <si>
     <t>Routine_Care/ICU Eye Care Guideline.pdf</t>
@@ -457,31 +463,28 @@
     <t>Drugs/amiodarone.pdf</t>
   </si>
   <si>
-    <t>Drugs/nicardipine.pdf</t>
-  </si>
-  <si>
-    <t>Drugs/phenobarbitone.pdf</t>
-  </si>
-  <si>
     <t>Procedures/Arterial Line insertion for ACCPs.pdf</t>
   </si>
   <si>
+    <t>Drugs/phenylephrine.pdf</t>
+  </si>
+  <si>
     <t>Breathing(Respiratory)/Manual Ventilation and MHI.pdf</t>
   </si>
   <si>
+    <t>Drugs/morphine.pdf</t>
+  </si>
+  <si>
     <t>Drugs/noradrenaline (peripheral).pdf</t>
   </si>
   <si>
+    <t>Drugs/Epoprostenol.pdf</t>
+  </si>
+  <si>
     <t>Neurological/Ventriculitis Guideline.pdf</t>
   </si>
   <si>
-    <t>Drugs/morphine.pdf</t>
-  </si>
-  <si>
-    <t>Drugs/Epoprostenol.pdf</t>
-  </si>
-  <si>
-    <t>Drugs/phenylephrine.pdf</t>
+    <t>Drugs/calcium.pdf</t>
   </si>
   <si>
     <t>Cardiovascular/Cardiac Output Monitoring_pub .pdf</t>
@@ -490,57 +493,54 @@
     <t>Cardiovascular/Pulmonary_Embolism_and_DVT/Catheter directed thrombolysis of iliofemoral DVT alteplase_pub.pdf</t>
   </si>
   <si>
-    <t>Drugs/calcium.pdf</t>
+    <t>Drugs/atracurium.pdf</t>
   </si>
   <si>
     <t>Drugs/dalteparin_thromboprophylaxis.pdf</t>
   </si>
   <si>
+    <t>Airway/Tracheostomy_Laryngectomy/Decannulation Guidline.pdf</t>
+  </si>
+  <si>
     <t>Drugs/Vancomycin Continuous Infusion Fluid Restricted.pdf</t>
   </si>
   <si>
-    <t>Drugs/atracurium.pdf</t>
-  </si>
-  <si>
-    <t>Airway/Tracheostomy_Laryngectomy/Decannulation Guidline.pdf</t>
+    <t>Policies_and_admin/Pet Visitation.pdf</t>
   </si>
   <si>
     <t>Drugs/valproate.pdf</t>
   </si>
   <si>
-    <t>Policies_and_admin/Pet Visitation.pdf</t>
-  </si>
-  <si>
     <t>Procedures/Inadvertent Catheter Placement Guideline.pdf</t>
   </si>
   <si>
+    <t>Drugs/Phosphate.pdf</t>
+  </si>
+  <si>
     <t>Drugs/stress ulcer prophylaxis.pdf</t>
   </si>
   <si>
     <t>Drugs/ketamine_for_status epilepticus.pdf</t>
   </si>
   <si>
-    <t>Drugs/Phosphate.pdf</t>
+    <t>GI_Liver_and_Transplant/Prokinetics in ICU.pdf</t>
   </si>
   <si>
     <t>Drugs/Thiopentone.pdf</t>
   </si>
   <si>
+    <t>Drugs/Octreotide.pdf</t>
+  </si>
+  <si>
     <t>Breathing(Respiratory)/Proning Guideline.pdf</t>
   </si>
   <si>
-    <t>GI_Liver_and_Transplant/Prokinetics in ICU.pdf</t>
-  </si>
-  <si>
-    <t>Drugs/Octreotide.pdf</t>
+    <t>Procedures/ACCPs acquiring initial CVC competencies.pdf</t>
   </si>
   <si>
     <t>Procedures/ACCP CVC placement following completion of initial competencies.pdf</t>
   </si>
   <si>
-    <t>Procedures/ACCPs acquiring initial CVC competencies.pdf</t>
-  </si>
-  <si>
     <t>Post_op_care/Prevention and treatment of paraplegia after major aortic procedures.pdf</t>
   </si>
   <si>
@@ -553,12 +553,12 @@
     <t>GI_Liver_and_Transplant/Plasma exchange in Acute Liver Failure.pdf</t>
   </si>
   <si>
+    <t>Breathing(Respiratory)/Equipment/NIV through Drager Vent Set up in Critical Care.pdf</t>
+  </si>
+  <si>
     <t>End_of_life_care/Guideline following Sudden Cardiac Death where death occurs in ICU.pdf</t>
   </si>
   <si>
-    <t>Breathing(Respiratory)/Equipment/NIV through Drager Vent Set up in Critical Care.pdf</t>
-  </si>
-  <si>
     <t>Transfer/Transfer Guidelines.pdf</t>
   </si>
   <si>
@@ -577,202 +577,202 @@
     <t>Policies_and_admin/Repatriaiton Checklist for Critical Care.pdf</t>
   </si>
   <si>
-    <t>2011-03-05</t>
-  </si>
-  <si>
-    <t>2011-06-05</t>
-  </si>
-  <si>
-    <t>2011-07-05</t>
-  </si>
-  <si>
-    <t>2011-12-05</t>
-  </si>
-  <si>
-    <t>2014-09-05</t>
-  </si>
-  <si>
-    <t>2014-10-05</t>
-  </si>
-  <si>
-    <t>2014-11-05</t>
-  </si>
-  <si>
-    <t>2014-12-05</t>
-  </si>
-  <si>
-    <t>2015-03-05</t>
-  </si>
-  <si>
-    <t>2016-01-05</t>
-  </si>
-  <si>
-    <t>2016-04-05</t>
-  </si>
-  <si>
-    <t>2016-08-05</t>
-  </si>
-  <si>
-    <t>2017-01-05</t>
-  </si>
-  <si>
-    <t>2017-08-05</t>
-  </si>
-  <si>
-    <t>2017-10-05</t>
-  </si>
-  <si>
-    <t>2017-11-05</t>
-  </si>
-  <si>
-    <t>2018-05-05</t>
-  </si>
-  <si>
-    <t>2018-07-05</t>
-  </si>
-  <si>
-    <t>2019-05-05</t>
-  </si>
-  <si>
-    <t>2019-06-05</t>
-  </si>
-  <si>
-    <t>2019-08-05</t>
-  </si>
-  <si>
-    <t>2019-09-05</t>
-  </si>
-  <si>
-    <t>2020-01-05</t>
-  </si>
-  <si>
-    <t>2020-03-05</t>
-  </si>
-  <si>
-    <t>2020-04-05</t>
-  </si>
-  <si>
-    <t>2020-05-05</t>
-  </si>
-  <si>
-    <t>2020-07-05</t>
-  </si>
-  <si>
-    <t>2020-08-05</t>
-  </si>
-  <si>
-    <t>2020-11-05</t>
-  </si>
-  <si>
-    <t>2021-02-05</t>
-  </si>
-  <si>
-    <t>2021-05-05</t>
-  </si>
-  <si>
-    <t>2021-06-05</t>
-  </si>
-  <si>
-    <t>2021-09-05</t>
-  </si>
-  <si>
-    <t>2021-12-05</t>
-  </si>
-  <si>
-    <t>2022-01-05</t>
-  </si>
-  <si>
-    <t>2022-03-05</t>
-  </si>
-  <si>
-    <t>2022-04-05</t>
-  </si>
-  <si>
-    <t>2022-05-05</t>
-  </si>
-  <si>
-    <t>2022-06-05</t>
-  </si>
-  <si>
-    <t>2022-07-05</t>
-  </si>
-  <si>
-    <t>2022-08-05</t>
-  </si>
-  <si>
-    <t>2022-10-05</t>
-  </si>
-  <si>
-    <t>2022-11-05</t>
-  </si>
-  <si>
-    <t>2022-12-05</t>
-  </si>
-  <si>
-    <t>2023-01-05</t>
-  </si>
-  <si>
-    <t>2023-02-05</t>
-  </si>
-  <si>
-    <t>2023-04-05</t>
-  </si>
-  <si>
-    <t>2023-05-05</t>
-  </si>
-  <si>
-    <t>2023-06-05</t>
-  </si>
-  <si>
-    <t>2023-07-05</t>
-  </si>
-  <si>
-    <t>2023-08-05</t>
-  </si>
-  <si>
-    <t>2023-09-05</t>
-  </si>
-  <si>
-    <t>2023-10-05</t>
-  </si>
-  <si>
-    <t>2024-01-05</t>
-  </si>
-  <si>
-    <t>2024-02-05</t>
-  </si>
-  <si>
-    <t>2024-03-05</t>
-  </si>
-  <si>
-    <t>2024-04-05</t>
-  </si>
-  <si>
-    <t>2024-05-05</t>
+    <t>2011-03-06</t>
+  </si>
+  <si>
+    <t>2011-06-06</t>
+  </si>
+  <si>
+    <t>2011-07-06</t>
+  </si>
+  <si>
+    <t>2011-12-06</t>
+  </si>
+  <si>
+    <t>2014-09-06</t>
+  </si>
+  <si>
+    <t>2014-10-06</t>
+  </si>
+  <si>
+    <t>2014-11-06</t>
+  </si>
+  <si>
+    <t>2014-12-06</t>
+  </si>
+  <si>
+    <t>2015-03-06</t>
+  </si>
+  <si>
+    <t>2016-01-06</t>
+  </si>
+  <si>
+    <t>2016-04-06</t>
+  </si>
+  <si>
+    <t>2016-08-06</t>
+  </si>
+  <si>
+    <t>2017-01-06</t>
+  </si>
+  <si>
+    <t>2017-08-06</t>
+  </si>
+  <si>
+    <t>2017-10-06</t>
+  </si>
+  <si>
+    <t>2017-11-06</t>
+  </si>
+  <si>
+    <t>2018-05-06</t>
+  </si>
+  <si>
+    <t>2018-07-06</t>
+  </si>
+  <si>
+    <t>2019-05-06</t>
+  </si>
+  <si>
+    <t>2019-06-06</t>
+  </si>
+  <si>
+    <t>2019-08-06</t>
+  </si>
+  <si>
+    <t>2019-09-06</t>
+  </si>
+  <si>
+    <t>2020-01-06</t>
+  </si>
+  <si>
+    <t>2020-03-06</t>
+  </si>
+  <si>
+    <t>2020-04-06</t>
+  </si>
+  <si>
+    <t>2020-05-06</t>
+  </si>
+  <si>
+    <t>2020-07-06</t>
+  </si>
+  <si>
+    <t>2020-08-06</t>
+  </si>
+  <si>
+    <t>2020-11-06</t>
+  </si>
+  <si>
+    <t>2021-02-06</t>
+  </si>
+  <si>
+    <t>2021-05-06</t>
+  </si>
+  <si>
+    <t>2021-06-06</t>
+  </si>
+  <si>
+    <t>2021-09-06</t>
+  </si>
+  <si>
+    <t>2021-12-06</t>
+  </si>
+  <si>
+    <t>2022-01-06</t>
+  </si>
+  <si>
+    <t>2022-03-06</t>
+  </si>
+  <si>
+    <t>2022-04-06</t>
+  </si>
+  <si>
+    <t>2022-05-06</t>
+  </si>
+  <si>
+    <t>2022-06-06</t>
+  </si>
+  <si>
+    <t>2022-07-06</t>
+  </si>
+  <si>
+    <t>2022-08-06</t>
+  </si>
+  <si>
+    <t>2022-10-06</t>
+  </si>
+  <si>
+    <t>2022-11-06</t>
+  </si>
+  <si>
+    <t>2022-12-06</t>
+  </si>
+  <si>
+    <t>2023-01-06</t>
+  </si>
+  <si>
+    <t>2023-02-06</t>
+  </si>
+  <si>
+    <t>2023-04-06</t>
+  </si>
+  <si>
+    <t>2023-05-06</t>
+  </si>
+  <si>
+    <t>2023-06-06</t>
+  </si>
+  <si>
+    <t>2023-07-06</t>
+  </si>
+  <si>
+    <t>2023-08-06</t>
+  </si>
+  <si>
+    <t>2023-09-06</t>
+  </si>
+  <si>
+    <t>2023-10-06</t>
+  </si>
+  <si>
+    <t>2024-01-06</t>
+  </si>
+  <si>
+    <t>2024-02-06</t>
+  </si>
+  <si>
+    <t>2024-03-06</t>
+  </si>
+  <si>
+    <t>2024-04-06</t>
+  </si>
+  <si>
+    <t>2024-05-06</t>
   </si>
   <si>
     <t>2024-06-02</t>
   </si>
   <si>
-    <t>2024-06-05</t>
+    <t>2024-06-06</t>
   </si>
   <si>
     <t>2024-06-26</t>
   </si>
   <si>
-    <t>2024-07-05</t>
+    <t>2024-07-06</t>
   </si>
   <si>
     <t>2024-07-25</t>
   </si>
   <si>
-    <t>2024-08-05</t>
+    <t>2024-08-06</t>
   </si>
   <si>
     <t>2024-08-15</t>
   </si>
   <si>
-    <t>2024-10-05</t>
+    <t>2024-10-06</t>
   </si>
   <si>
     <t>2024-10-24</t>
@@ -787,70 +787,70 @@
     <t>2024-12-24</t>
   </si>
   <si>
-    <t>2025-01-05</t>
-  </si>
-  <si>
-    <t>2025-02-05</t>
-  </si>
-  <si>
-    <t>2025-03-05</t>
-  </si>
-  <si>
-    <t>2025-04-05</t>
-  </si>
-  <si>
-    <t>2025-05-05</t>
-  </si>
-  <si>
-    <t>2025-06-05</t>
-  </si>
-  <si>
-    <t>2025-07-05</t>
-  </si>
-  <si>
-    <t>2025-08-05</t>
-  </si>
-  <si>
-    <t>2025-10-05</t>
-  </si>
-  <si>
-    <t>2025-11-05</t>
-  </si>
-  <si>
-    <t>2026-01-05</t>
-  </si>
-  <si>
-    <t>2026-03-05</t>
-  </si>
-  <si>
-    <t>2026-05-05</t>
-  </si>
-  <si>
-    <t>2026-07-05</t>
-  </si>
-  <si>
-    <t>2026-11-05</t>
-  </si>
-  <si>
-    <t>2027-01-05</t>
-  </si>
-  <si>
-    <t>2027-02-05</t>
-  </si>
-  <si>
-    <t>2028-02-05</t>
-  </si>
-  <si>
-    <t>2028-05-05</t>
-  </si>
-  <si>
-    <t>2028-07-05</t>
-  </si>
-  <si>
-    <t>2028-11-05</t>
-  </si>
-  <si>
-    <t>2030-11-05</t>
+    <t>2025-01-06</t>
+  </si>
+  <si>
+    <t>2025-02-06</t>
+  </si>
+  <si>
+    <t>2025-03-06</t>
+  </si>
+  <si>
+    <t>2025-04-06</t>
+  </si>
+  <si>
+    <t>2025-05-06</t>
+  </si>
+  <si>
+    <t>2025-06-06</t>
+  </si>
+  <si>
+    <t>2025-07-06</t>
+  </si>
+  <si>
+    <t>2025-08-06</t>
+  </si>
+  <si>
+    <t>2025-10-06</t>
+  </si>
+  <si>
+    <t>2025-11-06</t>
+  </si>
+  <si>
+    <t>2026-01-06</t>
+  </si>
+  <si>
+    <t>2026-03-06</t>
+  </si>
+  <si>
+    <t>2026-05-06</t>
+  </si>
+  <si>
+    <t>2026-07-06</t>
+  </si>
+  <si>
+    <t>2026-11-06</t>
+  </si>
+  <si>
+    <t>2027-01-06</t>
+  </si>
+  <si>
+    <t>2027-02-06</t>
+  </si>
+  <si>
+    <t>2028-02-06</t>
+  </si>
+  <si>
+    <t>2028-05-06</t>
+  </si>
+  <si>
+    <t>2028-07-06</t>
+  </si>
+  <si>
+    <t>2028-11-06</t>
+  </si>
+  <si>
+    <t>2030-11-06</t>
   </si>
 </sst>
 </file>

--- a/lothiancriticalcare/1a74f8f7b8b7e871b413c4697f68b4401fbacdf0/reviewdates.xlsx
+++ b/lothiancriticalcare/1a74f8f7b8b7e871b413c4697f68b4401fbacdf0/reviewdates.xlsx
@@ -64,12 +64,12 @@
     <t>Routine_Care/Tracheostomy_nursing_care.pdf</t>
   </si>
   <si>
+    <t>Airway/Critical care extubation checklist.pdf</t>
+  </si>
+  <si>
     <t>ECLS/Extra Corporeal Carbon Dioxide Removal.pdf</t>
   </si>
   <si>
-    <t>Airway/Critical care extubation checklist.pdf</t>
-  </si>
-  <si>
     <t>Airway/Tracheostomy_Laryngectomy/Hospital_in-patients_with_a_Tracheostomy.pdf</t>
   </si>
   <si>
@@ -79,21 +79,21 @@
     <t>Drugs/diazepam_diazemuls.pdf</t>
   </si>
   <si>
+    <t>Breathing(Respiratory)/salbutamol and ipratroprium MDI.pdf</t>
+  </si>
+  <si>
     <t>End_of_life_care/Reasons to report a death to PF.pdf</t>
   </si>
   <si>
-    <t>Breathing(Respiratory)/salbutamol and ipratroprium MDI.pdf</t>
-  </si>
-  <si>
     <t>Neurological/SOP -  Femoral site care.pdf</t>
   </si>
   <si>
+    <t>Airway/Tracheostomy_Laryngectomy/Tracheostomy change in Critical Care.pdf</t>
+  </si>
+  <si>
     <t>Airway/Tracheostomy_Laryngectomy/Tracheostomy suctioning cleaning guideline.pdf</t>
   </si>
   <si>
-    <t>Airway/Tracheostomy_Laryngectomy/Tracheostomy change in Critical Care.pdf</t>
-  </si>
-  <si>
     <t>Drugs/sodium_bicarbonate.pdf</t>
   </si>
   <si>
@@ -103,21 +103,21 @@
     <t>Post_op_care/Epidural top-up.pdf</t>
   </si>
   <si>
+    <t>Diabetes_and_Glucose/Hyperosmolar Hyperglycaemic State.pdf</t>
+  </si>
+  <si>
     <t>Drugs/heparin for Haemofiltration.pdf</t>
   </si>
   <si>
+    <t>Covid-19/SJH/SJH COVID19 ED Intubation Action Card.pdf</t>
+  </si>
+  <si>
+    <t>Covid-19/SJH/SJH COVID19 ITU Intubation Action Card.pdf</t>
+  </si>
+  <si>
     <t>Covid-19/WGH/CoVid intubation checklist WGH.pdf</t>
   </si>
   <si>
-    <t>Covid-19/SJH/SJH COVID19 ITU Intubation Action Card.pdf</t>
-  </si>
-  <si>
-    <t>Diabetes_and_Glucose/Hyperosmolar Hyperglycaemic State.pdf</t>
-  </si>
-  <si>
-    <t>Covid-19/SJH/SJH COVID19 ED Intubation Action Card.pdf</t>
-  </si>
-  <si>
     <t>Airway/Emergency intubation checklist_em_pub.pdf</t>
   </si>
   <si>
@@ -139,42 +139,42 @@
     <t>Airway/Percutaneous tracheostomy checklist.pdf</t>
   </si>
   <si>
+    <t>Delirium/Managing a Potentially Violent Patient.pdf</t>
+  </si>
+  <si>
+    <t>Delirium/Risk assessment posi mit.pdf</t>
+  </si>
+  <si>
     <t>Infection_and_sepsis/SOP Ultrasound Cleaning.pdf</t>
   </si>
   <si>
-    <t>Delirium/Managing a Potentially Violent Patient.pdf</t>
-  </si>
-  <si>
-    <t>Delirium/Risk assessment posi mit.pdf</t>
+    <t>GI_Liver_and_Transplant/Treatment of constipation.pdf</t>
+  </si>
+  <si>
+    <t>GI_Liver_and_Transplant/Abdominal pressure measurement.pdf</t>
+  </si>
+  <si>
+    <t>Airway/Anticipated difficult airway tool.pdf</t>
+  </si>
+  <si>
+    <t>Drugs/ketamine_in_asthma.pdf</t>
+  </si>
+  <si>
+    <t>Breathing(Respiratory)/HFNO.pdf</t>
+  </si>
+  <si>
+    <t>Airway/McGrath Mac.pdf</t>
+  </si>
+  <si>
+    <t>Airway/Tracheostomy_Laryngectomy/Tracheostomy safety box contents.pdf</t>
+  </si>
+  <si>
+    <t>Delirium/Drugs Causing Delirium and Agitiation.pdf</t>
   </si>
   <si>
     <t>Neurological/Sub arachnoid haemorrhage management.pdf</t>
   </si>
   <si>
-    <t>Airway/Anticipated difficult airway tool.pdf</t>
-  </si>
-  <si>
-    <t>Airway/McGrath Mac.pdf</t>
-  </si>
-  <si>
-    <t>Delirium/Drugs Causing Delirium and Agitiation.pdf</t>
-  </si>
-  <si>
-    <t>Airway/Tracheostomy_Laryngectomy/Tracheostomy safety box contents.pdf</t>
-  </si>
-  <si>
-    <t>Breathing(Respiratory)/HFNO.pdf</t>
-  </si>
-  <si>
-    <t>GI_Liver_and_Transplant/Treatment of constipation.pdf</t>
-  </si>
-  <si>
-    <t>GI_Liver_and_Transplant/Abdominal pressure measurement.pdf</t>
-  </si>
-  <si>
-    <t>Drugs/ketamine_in_asthma.pdf</t>
-  </si>
-  <si>
     <t>End_of_life_care/Documentation following death.pdf</t>
   </si>
   <si>
@@ -193,18 +193,18 @@
     <t>Breathing(Respiratory)/Inhaled Nitrous Oxide.pdf</t>
   </si>
   <si>
+    <t>Cardiovascular/Steroids for Septic Shock.pdf</t>
+  </si>
+  <si>
     <t>Breathing(Respiratory)/Equipment/APRV.pdf</t>
   </si>
   <si>
-    <t>Cardiovascular/Steroids for Septic Shock.pdf</t>
+    <t>Post_op_care/Epidural Haematoma.pdf</t>
   </si>
   <si>
     <t>Neurological/SOP for review of Neurosurgical patients in ITU by neurosurgical team.pdf</t>
   </si>
   <si>
-    <t>Post_op_care/Epidural Haematoma.pdf</t>
-  </si>
-  <si>
     <t>Breathing(Respiratory)/Equipment/T piece Y piece.pdf</t>
   </si>
   <si>
@@ -217,22 +217,25 @@
     <t>Breathing(Respiratory)/Equipment/HFNO through ventilator.pdf</t>
   </si>
   <si>
+    <t>Routine_Care/VTE_Prevention/Dalteparin_thromboprophylaxis.pdf</t>
+  </si>
+  <si>
     <t>Post_op_care/Adult Scoliosis Spinal Surgery Post-Op Care.pdf</t>
   </si>
   <si>
-    <t>Routine_Care/VTE_Prevention/Dalteparin_thromboprophylaxis.pdf</t>
-  </si>
-  <si>
     <t>Post_op_care/Post op care pharyngo-laryngo-oesphagectomy PLOG.pdf</t>
   </si>
   <si>
     <t>GI_Liver_and_Transplant/Nasogastric feeding protocol.pdf</t>
   </si>
   <si>
+    <t>Drugs/Antibiotic doses in CVVHD.pdf</t>
+  </si>
+  <si>
     <t>Diabetes_and_Glucose/Intravenous Insulin Therapy (not for DKA or HHS).pdf</t>
   </si>
   <si>
-    <t>Drugs/Antibiotic doses in CVVHD.pdf</t>
+    <t>GI_Liver_and_Transplant/Nasojejunal feeding protocol.pdf</t>
   </si>
   <si>
     <t>GI_Liver_and_Transplant/Jejunostomy feeding protocol.pdf</t>
@@ -241,7 +244,7 @@
     <t>ECLS/RIE ECLS Anti Xa Protocol.pdf</t>
   </si>
   <si>
-    <t>GI_Liver_and_Transplant/Nasojejunal feeding protocol.pdf</t>
+    <t>Infection_and_sepsis/Winter Infections Stepdown Guidance.pdf</t>
   </si>
   <si>
     <t>Drugs/vasopressin_sepsis.pdf</t>
@@ -250,27 +253,24 @@
     <t>Drugs/vasopressin organ donation.pdf</t>
   </si>
   <si>
-    <t>Infection_and_sepsis/Winter Infections Stepdown Guidance.pdf</t>
+    <t>Covid-19/videos/Donning and Doffing Video.pdf</t>
   </si>
   <si>
     <t>Transfer/ACCP Transfers.pdf</t>
   </si>
   <si>
-    <t>Covid-19/videos/Donning and Doffing Video.pdf</t>
+    <t>Breathing(Respiratory)/Equipment/Bipap V60.pdf</t>
+  </si>
+  <si>
+    <t>Breathing(Respiratory)/CPAP.pdf</t>
   </si>
   <si>
     <t>Breathing(Respiratory)/Equipment/Ventilators Circuits Filters and Closed Suction - Set up and Maintenance.pdf</t>
   </si>
   <si>
-    <t>Breathing(Respiratory)/Equipment/Bipap V60.pdf</t>
-  </si>
-  <si>
     <t>Infection_and_sepsis/Infection indications for IVIG.pdf</t>
   </si>
   <si>
-    <t>Breathing(Respiratory)/CPAP.pdf</t>
-  </si>
-  <si>
     <t>Drugs/piperacillin_tazobactam extended_infusion.pdf</t>
   </si>
   <si>
@@ -280,18 +280,18 @@
     <t>Covid-19/Covid 19 Death Certification Guideline.pdf</t>
   </si>
   <si>
+    <t>Neurological/Treatment of status epilepticus.pdf</t>
+  </si>
+  <si>
     <t>Routine_Care/Video Communication.pdf</t>
   </si>
   <si>
-    <t>Neurological/Treatment of status epilepticus.pdf</t>
+    <t>Cardiovascular/Cardiogenic Shock.pdf</t>
   </si>
   <si>
     <t>Drugs/isoprenaline.pdf</t>
   </si>
   <si>
-    <t>Cardiovascular/Cardiogenic Shock.pdf</t>
-  </si>
-  <si>
     <t>Haematology_CAR-T/Haem_ICU_transfer.pdf</t>
   </si>
   <si>
@@ -301,60 +301,60 @@
     <t>Drugs/aminophylline.pdf</t>
   </si>
   <si>
+    <t>Haematology_CAR-T/CRS.pdf</t>
+  </si>
+  <si>
+    <t>Drugs/pancuronium.pdf</t>
+  </si>
+  <si>
     <t>Haematology_CAR-T/ICANS.pdf</t>
   </si>
   <si>
-    <t>Drugs/pancuronium.pdf</t>
+    <t>Drugs/phenytoin.pdf</t>
   </si>
   <si>
     <t>Drugs/rocuronium.pdf</t>
   </si>
   <si>
-    <t>Haematology_CAR-T/CRS.pdf</t>
-  </si>
-  <si>
-    <t>Drugs/phenytoin.pdf</t>
+    <t>Drugs/milrinone.pdf</t>
   </si>
   <si>
     <t>Policies_and_admin/General Critical Care SOP_pub.pdf</t>
   </si>
   <si>
-    <t>Drugs/milrinone.pdf</t>
+    <t>GI_Liver_and_Transplant/ICU - Upper GI bleeding (Endoscopy guideline).pdf</t>
+  </si>
+  <si>
+    <t>Drugs/clonidine.pdf</t>
   </si>
   <si>
     <t>Neurological/Critical Care MRI Procedure_pub.pdf</t>
   </si>
   <si>
+    <t>Ethics_and_Law/DNACPR policy for Scotland.pdf</t>
+  </si>
+  <si>
     <t>End_of_life_care/Palliative extubation &amp; withdrawal of invasive ventilatory support nursing checklist.pdf</t>
   </si>
   <si>
     <t>End_of_life_care/CMO &amp; NRS Guidance for Doctors completing MCCD.pdf</t>
   </si>
   <si>
+    <t>Neurological/Management of traumatic brain injury.pdf</t>
+  </si>
+  <si>
+    <t>Organ_donation/Organ Retrieval SOP.pdf</t>
+  </si>
+  <si>
+    <t>Covid-19/COVID 19 ICM guidance basic goals_June_2022.pdf</t>
+  </si>
+  <si>
     <t>Infection_and_sepsis/Trip Out of Unit infection guidance.pdf</t>
   </si>
   <si>
-    <t>Drugs/clonidine.pdf</t>
-  </si>
-  <si>
     <t>Ethics_and_Law/Care at the End of Life (FICM).pdf</t>
   </si>
   <si>
-    <t>GI_Liver_and_Transplant/ICU - Upper GI bleeding (Endoscopy guideline).pdf</t>
-  </si>
-  <si>
-    <t>Neurological/Management of traumatic brain injury.pdf</t>
-  </si>
-  <si>
-    <t>Ethics_and_Law/DNACPR policy for Scotland.pdf</t>
-  </si>
-  <si>
-    <t>Covid-19/COVID 19 ICM guidance basic goals_June_2022.pdf</t>
-  </si>
-  <si>
-    <t>Organ_donation/Organ Retrieval SOP.pdf</t>
-  </si>
-  <si>
     <t>Airway/Cook Staged Extubation Set.pdf</t>
   </si>
   <si>
@@ -364,21 +364,21 @@
     <t>Post_op_care/Epidural hypotension.pdf</t>
   </si>
   <si>
+    <t>Drugs/glyceryl_trinitrate.pdf</t>
+  </si>
+  <si>
+    <t>GI_Liver_and_Transplant/Confirmation of Nasogastric Tube Position.pdf</t>
+  </si>
+  <si>
+    <t>GI_Liver_and_Transplant/Fulminant Liver Failure.pdf</t>
+  </si>
+  <si>
     <t>Drugs/dexmedetomidine.pdf</t>
   </si>
   <si>
-    <t>GI_Liver_and_Transplant/Fulminant Liver Failure.pdf</t>
-  </si>
-  <si>
-    <t>GI_Liver_and_Transplant/Confirmation of Nasogastric Tube Position.pdf</t>
-  </si>
-  <si>
     <t>Breathing(Respiratory)/Equipment/Passy Muir Valve.pdf</t>
   </si>
   <si>
-    <t>Drugs/glyceryl_trinitrate.pdf</t>
-  </si>
-  <si>
     <t>Infection_and_sepsis/Antifungal guidance in critical care.pdf</t>
   </si>
   <si>
@@ -394,12 +394,12 @@
     <t>Breathing(Respiratory)/ARDS Strategy.pdf</t>
   </si>
   <si>
+    <t>Drugs/dobutamine.pdf</t>
+  </si>
+  <si>
     <t>Drugs/adrenaline.pdf</t>
   </si>
   <si>
-    <t>Drugs/dobutamine.pdf</t>
-  </si>
-  <si>
     <t>Drugs/hydralazine.pdf</t>
   </si>
   <si>
@@ -418,25 +418,28 @@
     <t>Drugs/all IV drug infusion information.pdf</t>
   </si>
   <si>
+    <t>Drugs/neostigmine.pdf</t>
+  </si>
+  <si>
     <t>Drugs/vancomycin.pdf</t>
   </si>
   <si>
-    <t>Drugs/neostigmine.pdf</t>
+    <t>Infection_and_sepsis/Initial investigation and management in unidentified Infections.pdf</t>
   </si>
   <si>
     <t>Drugs/labetalol.pdf</t>
   </si>
   <si>
-    <t>Infection_and_sepsis/Initial investigation and management in unidentified Infections.pdf</t>
-  </si>
-  <si>
     <t>Neurological/Intrathecal policy RIE.pdf</t>
   </si>
   <si>
+    <t>Drugs/midazolam.pdf</t>
+  </si>
+  <si>
     <t>Cardiovascular/Management of Acute Type B Aortic Dissection Guideline.pdf</t>
   </si>
   <si>
-    <t>Drugs/midazolam.pdf</t>
+    <t>Drugs/potassium.pdf</t>
   </si>
   <si>
     <t>Procedures/CVC Guidance/CVC NHL  April 2023.pdf</t>
@@ -448,7 +451,10 @@
     <t>Drugs/nimodipine.pdf</t>
   </si>
   <si>
-    <t>Drugs/potassium.pdf</t>
+    <t>Routine_Care/ICU Eye Care Guideline.pdf</t>
+  </si>
+  <si>
+    <t>Drugs/amiodarone.pdf</t>
   </si>
   <si>
     <t>Drugs/nicardipine.pdf</t>
@@ -457,90 +463,84 @@
     <t>Drugs/phenobarbitone.pdf</t>
   </si>
   <si>
-    <t>Routine_Care/ICU Eye Care Guideline.pdf</t>
-  </si>
-  <si>
-    <t>Drugs/amiodarone.pdf</t>
-  </si>
-  <si>
     <t>Procedures/Arterial Line insertion for ACCPs.pdf</t>
   </si>
   <si>
+    <t>Breathing(Respiratory)/Manual Ventilation and MHI.pdf</t>
+  </si>
+  <si>
+    <t>Drugs/noradrenaline (peripheral).pdf</t>
+  </si>
+  <si>
+    <t>Neurological/Ventriculitis Guideline.pdf</t>
+  </si>
+  <si>
+    <t>Drugs/morphine.pdf</t>
+  </si>
+  <si>
+    <t>Drugs/Epoprostenol.pdf</t>
+  </si>
+  <si>
     <t>Drugs/phenylephrine.pdf</t>
   </si>
   <si>
-    <t>Breathing(Respiratory)/Manual Ventilation and MHI.pdf</t>
-  </si>
-  <si>
-    <t>Drugs/morphine.pdf</t>
-  </si>
-  <si>
-    <t>Drugs/noradrenaline (peripheral).pdf</t>
-  </si>
-  <si>
-    <t>Drugs/Epoprostenol.pdf</t>
-  </si>
-  <si>
-    <t>Neurological/Ventriculitis Guideline.pdf</t>
+    <t>Cardiovascular/Cardiac Output Monitoring_pub .pdf</t>
+  </si>
+  <si>
+    <t>Cardiovascular/Pulmonary_Embolism_and_DVT/Catheter directed thrombolysis of iliofemoral DVT alteplase_pub.pdf</t>
   </si>
   <si>
     <t>Drugs/calcium.pdf</t>
   </si>
   <si>
-    <t>Cardiovascular/Cardiac Output Monitoring_pub .pdf</t>
-  </si>
-  <si>
-    <t>Cardiovascular/Pulmonary_Embolism_and_DVT/Catheter directed thrombolysis of iliofemoral DVT alteplase_pub.pdf</t>
+    <t>Drugs/dalteparin_thromboprophylaxis.pdf</t>
+  </si>
+  <si>
+    <t>Drugs/Vancomycin Continuous Infusion Fluid Restricted.pdf</t>
   </si>
   <si>
     <t>Drugs/atracurium.pdf</t>
   </si>
   <si>
-    <t>Drugs/dalteparin_thromboprophylaxis.pdf</t>
-  </si>
-  <si>
     <t>Airway/Tracheostomy_Laryngectomy/Decannulation Guidline.pdf</t>
   </si>
   <si>
-    <t>Drugs/Vancomycin Continuous Infusion Fluid Restricted.pdf</t>
+    <t>Drugs/valproate.pdf</t>
   </si>
   <si>
     <t>Policies_and_admin/Pet Visitation.pdf</t>
   </si>
   <si>
-    <t>Drugs/valproate.pdf</t>
-  </si>
-  <si>
     <t>Procedures/Inadvertent Catheter Placement Guideline.pdf</t>
   </si>
   <si>
+    <t>Drugs/stress ulcer prophylaxis.pdf</t>
+  </si>
+  <si>
+    <t>Drugs/ketamine_for_status epilepticus.pdf</t>
+  </si>
+  <si>
     <t>Drugs/Phosphate.pdf</t>
   </si>
   <si>
-    <t>Drugs/stress ulcer prophylaxis.pdf</t>
-  </si>
-  <si>
-    <t>Drugs/ketamine_for_status epilepticus.pdf</t>
+    <t>Drugs/Thiopentone.pdf</t>
+  </si>
+  <si>
+    <t>Breathing(Respiratory)/Proning Guideline.pdf</t>
   </si>
   <si>
     <t>GI_Liver_and_Transplant/Prokinetics in ICU.pdf</t>
   </si>
   <si>
-    <t>Drugs/Thiopentone.pdf</t>
-  </si>
-  <si>
     <t>Drugs/Octreotide.pdf</t>
   </si>
   <si>
-    <t>Breathing(Respiratory)/Proning Guideline.pdf</t>
+    <t>Procedures/ACCP CVC placement following completion of initial competencies.pdf</t>
   </si>
   <si>
     <t>Procedures/ACCPs acquiring initial CVC competencies.pdf</t>
   </si>
   <si>
-    <t>Procedures/ACCP CVC placement following completion of initial competencies.pdf</t>
-  </si>
-  <si>
     <t>Post_op_care/Prevention and treatment of paraplegia after major aortic procedures.pdf</t>
   </si>
   <si>
@@ -553,10 +553,10 @@
     <t>GI_Liver_and_Transplant/Plasma exchange in Acute Liver Failure.pdf</t>
   </si>
   <si>
+    <t>End_of_life_care/Guideline following Sudden Cardiac Death where death occurs in ICU.pdf</t>
+  </si>
+  <si>
     <t>Breathing(Respiratory)/Equipment/NIV through Drager Vent Set up in Critical Care.pdf</t>
-  </si>
-  <si>
-    <t>End_of_life_care/Guideline following Sudden Cardiac Death where death occurs in ICU.pdf</t>
   </si>
   <si>
     <t>Transfer/Transfer Guidelines.pdf</t>

--- a/lothiancriticalcare/1a74f8f7b8b7e871b413c4697f68b4401fbacdf0/reviewdates.xlsx
+++ b/lothiancriticalcare/1a74f8f7b8b7e871b413c4697f68b4401fbacdf0/reviewdates.xlsx
@@ -64,12 +64,12 @@
     <t>Routine_Care/Tracheostomy_nursing_care.pdf</t>
   </si>
   <si>
+    <t>ECLS/Extra Corporeal Carbon Dioxide Removal.pdf</t>
+  </si>
+  <si>
     <t>Airway/Critical care extubation checklist.pdf</t>
   </si>
   <si>
-    <t>ECLS/Extra Corporeal Carbon Dioxide Removal.pdf</t>
-  </si>
-  <si>
     <t>Airway/Tracheostomy_Laryngectomy/Hospital_in-patients_with_a_Tracheostomy.pdf</t>
   </si>
   <si>
@@ -79,21 +79,21 @@
     <t>Drugs/diazepam_diazemuls.pdf</t>
   </si>
   <si>
+    <t>End_of_life_care/Reasons to report a death to PF.pdf</t>
+  </si>
+  <si>
     <t>Breathing(Respiratory)/salbutamol and ipratroprium MDI.pdf</t>
   </si>
   <si>
-    <t>End_of_life_care/Reasons to report a death to PF.pdf</t>
-  </si>
-  <si>
     <t>Neurological/SOP -  Femoral site care.pdf</t>
   </si>
   <si>
+    <t>Airway/Tracheostomy_Laryngectomy/Tracheostomy suctioning cleaning guideline.pdf</t>
+  </si>
+  <si>
     <t>Airway/Tracheostomy_Laryngectomy/Tracheostomy change in Critical Care.pdf</t>
   </si>
   <si>
-    <t>Airway/Tracheostomy_Laryngectomy/Tracheostomy suctioning cleaning guideline.pdf</t>
-  </si>
-  <si>
     <t>Drugs/sodium_bicarbonate.pdf</t>
   </si>
   <si>
@@ -103,21 +103,21 @@
     <t>Post_op_care/Epidural top-up.pdf</t>
   </si>
   <si>
+    <t>Drugs/heparin for Haemofiltration.pdf</t>
+  </si>
+  <si>
+    <t>Covid-19/WGH/CoVid intubation checklist WGH.pdf</t>
+  </si>
+  <si>
+    <t>Covid-19/SJH/SJH COVID19 ITU Intubation Action Card.pdf</t>
+  </si>
+  <si>
     <t>Diabetes_and_Glucose/Hyperosmolar Hyperglycaemic State.pdf</t>
   </si>
   <si>
-    <t>Drugs/heparin for Haemofiltration.pdf</t>
-  </si>
-  <si>
     <t>Covid-19/SJH/SJH COVID19 ED Intubation Action Card.pdf</t>
   </si>
   <si>
-    <t>Covid-19/SJH/SJH COVID19 ITU Intubation Action Card.pdf</t>
-  </si>
-  <si>
-    <t>Covid-19/WGH/CoVid intubation checklist WGH.pdf</t>
-  </si>
-  <si>
     <t>Airway/Emergency intubation checklist_em_pub.pdf</t>
   </si>
   <si>
@@ -139,13 +139,31 @@
     <t>Airway/Percutaneous tracheostomy checklist.pdf</t>
   </si>
   <si>
+    <t>Infection_and_sepsis/SOP Ultrasound Cleaning.pdf</t>
+  </si>
+  <si>
     <t>Delirium/Managing a Potentially Violent Patient.pdf</t>
   </si>
   <si>
     <t>Delirium/Risk assessment posi mit.pdf</t>
   </si>
   <si>
-    <t>Infection_and_sepsis/SOP Ultrasound Cleaning.pdf</t>
+    <t>Neurological/Sub arachnoid haemorrhage management.pdf</t>
+  </si>
+  <si>
+    <t>Airway/Anticipated difficult airway tool.pdf</t>
+  </si>
+  <si>
+    <t>Airway/McGrath Mac.pdf</t>
+  </si>
+  <si>
+    <t>Delirium/Drugs Causing Delirium and Agitiation.pdf</t>
+  </si>
+  <si>
+    <t>Airway/Tracheostomy_Laryngectomy/Tracheostomy safety box contents.pdf</t>
+  </si>
+  <si>
+    <t>Breathing(Respiratory)/HFNO.pdf</t>
   </si>
   <si>
     <t>GI_Liver_and_Transplant/Treatment of constipation.pdf</t>
@@ -154,27 +172,9 @@
     <t>GI_Liver_and_Transplant/Abdominal pressure measurement.pdf</t>
   </si>
   <si>
-    <t>Airway/Anticipated difficult airway tool.pdf</t>
-  </si>
-  <si>
     <t>Drugs/ketamine_in_asthma.pdf</t>
   </si>
   <si>
-    <t>Breathing(Respiratory)/HFNO.pdf</t>
-  </si>
-  <si>
-    <t>Airway/McGrath Mac.pdf</t>
-  </si>
-  <si>
-    <t>Airway/Tracheostomy_Laryngectomy/Tracheostomy safety box contents.pdf</t>
-  </si>
-  <si>
-    <t>Delirium/Drugs Causing Delirium and Agitiation.pdf</t>
-  </si>
-  <si>
-    <t>Neurological/Sub arachnoid haemorrhage management.pdf</t>
-  </si>
-  <si>
     <t>End_of_life_care/Documentation following death.pdf</t>
   </si>
   <si>
@@ -193,18 +193,18 @@
     <t>Breathing(Respiratory)/Inhaled Nitrous Oxide.pdf</t>
   </si>
   <si>
+    <t>Breathing(Respiratory)/Equipment/APRV.pdf</t>
+  </si>
+  <si>
     <t>Cardiovascular/Steroids for Septic Shock.pdf</t>
   </si>
   <si>
-    <t>Breathing(Respiratory)/Equipment/APRV.pdf</t>
+    <t>Neurological/SOP for review of Neurosurgical patients in ITU by neurosurgical team.pdf</t>
   </si>
   <si>
     <t>Post_op_care/Epidural Haematoma.pdf</t>
   </si>
   <si>
-    <t>Neurological/SOP for review of Neurosurgical patients in ITU by neurosurgical team.pdf</t>
-  </si>
-  <si>
     <t>Breathing(Respiratory)/Equipment/T piece Y piece.pdf</t>
   </si>
   <si>
@@ -217,60 +217,60 @@
     <t>Breathing(Respiratory)/Equipment/HFNO through ventilator.pdf</t>
   </si>
   <si>
+    <t>Post_op_care/Adult Scoliosis Spinal Surgery Post-Op Care.pdf</t>
+  </si>
+  <si>
     <t>Routine_Care/VTE_Prevention/Dalteparin_thromboprophylaxis.pdf</t>
   </si>
   <si>
-    <t>Post_op_care/Adult Scoliosis Spinal Surgery Post-Op Care.pdf</t>
-  </si>
-  <si>
     <t>Post_op_care/Post op care pharyngo-laryngo-oesphagectomy PLOG.pdf</t>
   </si>
   <si>
     <t>GI_Liver_and_Transplant/Nasogastric feeding protocol.pdf</t>
   </si>
   <si>
+    <t>Diabetes_and_Glucose/Intravenous Insulin Therapy (not for DKA or HHS).pdf</t>
+  </si>
+  <si>
     <t>Drugs/Antibiotic doses in CVVHD.pdf</t>
   </si>
   <si>
-    <t>Diabetes_and_Glucose/Intravenous Insulin Therapy (not for DKA or HHS).pdf</t>
+    <t>GI_Liver_and_Transplant/Jejunostomy feeding protocol.pdf</t>
+  </si>
+  <si>
+    <t>ECLS/RIE ECLS Anti Xa Protocol.pdf</t>
   </si>
   <si>
     <t>GI_Liver_and_Transplant/Nasojejunal feeding protocol.pdf</t>
   </si>
   <si>
-    <t>GI_Liver_and_Transplant/Jejunostomy feeding protocol.pdf</t>
-  </si>
-  <si>
-    <t>ECLS/RIE ECLS Anti Xa Protocol.pdf</t>
+    <t>Drugs/vasopressin_sepsis.pdf</t>
+  </si>
+  <si>
+    <t>Drugs/vasopressin organ donation.pdf</t>
   </si>
   <si>
     <t>Infection_and_sepsis/Winter Infections Stepdown Guidance.pdf</t>
   </si>
   <si>
-    <t>Drugs/vasopressin_sepsis.pdf</t>
-  </si>
-  <si>
-    <t>Drugs/vasopressin organ donation.pdf</t>
+    <t>Transfer/ACCP Transfers.pdf</t>
   </si>
   <si>
     <t>Covid-19/videos/Donning and Doffing Video.pdf</t>
   </si>
   <si>
-    <t>Transfer/ACCP Transfers.pdf</t>
+    <t>Breathing(Respiratory)/Equipment/Ventilators Circuits Filters and Closed Suction - Set up and Maintenance.pdf</t>
   </si>
   <si>
     <t>Breathing(Respiratory)/Equipment/Bipap V60.pdf</t>
   </si>
   <si>
+    <t>Infection_and_sepsis/Infection indications for IVIG.pdf</t>
+  </si>
+  <si>
     <t>Breathing(Respiratory)/CPAP.pdf</t>
   </si>
   <si>
-    <t>Breathing(Respiratory)/Equipment/Ventilators Circuits Filters and Closed Suction - Set up and Maintenance.pdf</t>
-  </si>
-  <si>
-    <t>Infection_and_sepsis/Infection indications for IVIG.pdf</t>
-  </si>
-  <si>
     <t>Drugs/piperacillin_tazobactam extended_infusion.pdf</t>
   </si>
   <si>
@@ -280,18 +280,18 @@
     <t>Covid-19/Covid 19 Death Certification Guideline.pdf</t>
   </si>
   <si>
+    <t>Routine_Care/Video Communication.pdf</t>
+  </si>
+  <si>
     <t>Neurological/Treatment of status epilepticus.pdf</t>
   </si>
   <si>
-    <t>Routine_Care/Video Communication.pdf</t>
+    <t>Drugs/isoprenaline.pdf</t>
   </si>
   <si>
     <t>Cardiovascular/Cardiogenic Shock.pdf</t>
   </si>
   <si>
-    <t>Drugs/isoprenaline.pdf</t>
-  </si>
-  <si>
     <t>Haematology_CAR-T/Haem_ICU_transfer.pdf</t>
   </si>
   <si>
@@ -301,60 +301,60 @@
     <t>Drugs/aminophylline.pdf</t>
   </si>
   <si>
+    <t>Haematology_CAR-T/ICANS.pdf</t>
+  </si>
+  <si>
+    <t>Drugs/pancuronium.pdf</t>
+  </si>
+  <si>
+    <t>Drugs/rocuronium.pdf</t>
+  </si>
+  <si>
     <t>Haematology_CAR-T/CRS.pdf</t>
   </si>
   <si>
-    <t>Drugs/pancuronium.pdf</t>
-  </si>
-  <si>
-    <t>Haematology_CAR-T/ICANS.pdf</t>
-  </si>
-  <si>
     <t>Drugs/phenytoin.pdf</t>
   </si>
   <si>
-    <t>Drugs/rocuronium.pdf</t>
+    <t>Policies_and_admin/General Critical Care SOP_pub.pdf</t>
   </si>
   <si>
     <t>Drugs/milrinone.pdf</t>
   </si>
   <si>
-    <t>Policies_and_admin/General Critical Care SOP_pub.pdf</t>
+    <t>Neurological/Critical Care MRI Procedure_pub.pdf</t>
+  </si>
+  <si>
+    <t>End_of_life_care/Palliative extubation &amp; withdrawal of invasive ventilatory support nursing checklist.pdf</t>
+  </si>
+  <si>
+    <t>End_of_life_care/CMO &amp; NRS Guidance for Doctors completing MCCD.pdf</t>
+  </si>
+  <si>
+    <t>Infection_and_sepsis/Trip Out of Unit infection guidance.pdf</t>
+  </si>
+  <si>
+    <t>Drugs/clonidine.pdf</t>
+  </si>
+  <si>
+    <t>Ethics_and_Law/Care at the End of Life (FICM).pdf</t>
   </si>
   <si>
     <t>GI_Liver_and_Transplant/ICU - Upper GI bleeding (Endoscopy guideline).pdf</t>
   </si>
   <si>
-    <t>Drugs/clonidine.pdf</t>
-  </si>
-  <si>
-    <t>Neurological/Critical Care MRI Procedure_pub.pdf</t>
+    <t>Neurological/Management of traumatic brain injury.pdf</t>
   </si>
   <si>
     <t>Ethics_and_Law/DNACPR policy for Scotland.pdf</t>
   </si>
   <si>
-    <t>End_of_life_care/Palliative extubation &amp; withdrawal of invasive ventilatory support nursing checklist.pdf</t>
-  </si>
-  <si>
-    <t>End_of_life_care/CMO &amp; NRS Guidance for Doctors completing MCCD.pdf</t>
-  </si>
-  <si>
-    <t>Neurological/Management of traumatic brain injury.pdf</t>
+    <t>Covid-19/COVID 19 ICM guidance basic goals_June_2022.pdf</t>
   </si>
   <si>
     <t>Organ_donation/Organ Retrieval SOP.pdf</t>
   </si>
   <si>
-    <t>Covid-19/COVID 19 ICM guidance basic goals_June_2022.pdf</t>
-  </si>
-  <si>
-    <t>Infection_and_sepsis/Trip Out of Unit infection guidance.pdf</t>
-  </si>
-  <si>
-    <t>Ethics_and_Law/Care at the End of Life (FICM).pdf</t>
-  </si>
-  <si>
     <t>Airway/Cook Staged Extubation Set.pdf</t>
   </si>
   <si>
@@ -364,21 +364,21 @@
     <t>Post_op_care/Epidural hypotension.pdf</t>
   </si>
   <si>
+    <t>Drugs/dexmedetomidine.pdf</t>
+  </si>
+  <si>
+    <t>GI_Liver_and_Transplant/Fulminant Liver Failure.pdf</t>
+  </si>
+  <si>
+    <t>GI_Liver_and_Transplant/Confirmation of Nasogastric Tube Position.pdf</t>
+  </si>
+  <si>
+    <t>Breathing(Respiratory)/Equipment/Passy Muir Valve.pdf</t>
+  </si>
+  <si>
     <t>Drugs/glyceryl_trinitrate.pdf</t>
   </si>
   <si>
-    <t>GI_Liver_and_Transplant/Confirmation of Nasogastric Tube Position.pdf</t>
-  </si>
-  <si>
-    <t>GI_Liver_and_Transplant/Fulminant Liver Failure.pdf</t>
-  </si>
-  <si>
-    <t>Drugs/dexmedetomidine.pdf</t>
-  </si>
-  <si>
-    <t>Breathing(Respiratory)/Equipment/Passy Muir Valve.pdf</t>
-  </si>
-  <si>
     <t>Infection_and_sepsis/Antifungal guidance in critical care.pdf</t>
   </si>
   <si>
@@ -394,12 +394,12 @@
     <t>Breathing(Respiratory)/ARDS Strategy.pdf</t>
   </si>
   <si>
+    <t>Drugs/adrenaline.pdf</t>
+  </si>
+  <si>
     <t>Drugs/dobutamine.pdf</t>
   </si>
   <si>
-    <t>Drugs/adrenaline.pdf</t>
-  </si>
-  <si>
     <t>Drugs/hydralazine.pdf</t>
   </si>
   <si>
@@ -418,37 +418,43 @@
     <t>Drugs/all IV drug infusion information.pdf</t>
   </si>
   <si>
+    <t>Drugs/vancomycin.pdf</t>
+  </si>
+  <si>
     <t>Drugs/neostigmine.pdf</t>
   </si>
   <si>
-    <t>Drugs/vancomycin.pdf</t>
+    <t>Drugs/labetalol.pdf</t>
   </si>
   <si>
     <t>Infection_and_sepsis/Initial investigation and management in unidentified Infections.pdf</t>
   </si>
   <si>
-    <t>Drugs/labetalol.pdf</t>
-  </si>
-  <si>
     <t>Neurological/Intrathecal policy RIE.pdf</t>
   </si>
   <si>
+    <t>Cardiovascular/Management of Acute Type B Aortic Dissection Guideline.pdf</t>
+  </si>
+  <si>
     <t>Drugs/midazolam.pdf</t>
   </si>
   <si>
-    <t>Cardiovascular/Management of Acute Type B Aortic Dissection Guideline.pdf</t>
+    <t>Procedures/CVC Guidance/CVC NHL  April 2023.pdf</t>
+  </si>
+  <si>
+    <t>Drugs/salbutamol.pdf</t>
+  </si>
+  <si>
+    <t>Drugs/nimodipine.pdf</t>
   </si>
   <si>
     <t>Drugs/potassium.pdf</t>
   </si>
   <si>
-    <t>Procedures/CVC Guidance/CVC NHL  April 2023.pdf</t>
-  </si>
-  <si>
-    <t>Drugs/salbutamol.pdf</t>
-  </si>
-  <si>
-    <t>Drugs/nimodipine.pdf</t>
+    <t>Drugs/nicardipine.pdf</t>
+  </si>
+  <si>
+    <t>Drugs/phenobarbitone.pdf</t>
   </si>
   <si>
     <t>Routine_Care/ICU Eye Care Guideline.pdf</t>
@@ -457,31 +463,28 @@
     <t>Drugs/amiodarone.pdf</t>
   </si>
   <si>
-    <t>Drugs/nicardipine.pdf</t>
-  </si>
-  <si>
-    <t>Drugs/phenobarbitone.pdf</t>
-  </si>
-  <si>
     <t>Procedures/Arterial Line insertion for ACCPs.pdf</t>
   </si>
   <si>
+    <t>Drugs/phenylephrine.pdf</t>
+  </si>
+  <si>
     <t>Breathing(Respiratory)/Manual Ventilation and MHI.pdf</t>
   </si>
   <si>
+    <t>Drugs/morphine.pdf</t>
+  </si>
+  <si>
     <t>Drugs/noradrenaline (peripheral).pdf</t>
   </si>
   <si>
+    <t>Drugs/Epoprostenol.pdf</t>
+  </si>
+  <si>
     <t>Neurological/Ventriculitis Guideline.pdf</t>
   </si>
   <si>
-    <t>Drugs/morphine.pdf</t>
-  </si>
-  <si>
-    <t>Drugs/Epoprostenol.pdf</t>
-  </si>
-  <si>
-    <t>Drugs/phenylephrine.pdf</t>
+    <t>Drugs/calcium.pdf</t>
   </si>
   <si>
     <t>Cardiovascular/Cardiac Output Monitoring_pub .pdf</t>
@@ -490,57 +493,54 @@
     <t>Cardiovascular/Pulmonary_Embolism_and_DVT/Catheter directed thrombolysis of iliofemoral DVT alteplase_pub.pdf</t>
   </si>
   <si>
-    <t>Drugs/calcium.pdf</t>
+    <t>Drugs/atracurium.pdf</t>
   </si>
   <si>
     <t>Drugs/dalteparin_thromboprophylaxis.pdf</t>
   </si>
   <si>
+    <t>Airway/Tracheostomy_Laryngectomy/Decannulation Guidline.pdf</t>
+  </si>
+  <si>
     <t>Drugs/Vancomycin Continuous Infusion Fluid Restricted.pdf</t>
   </si>
   <si>
-    <t>Drugs/atracurium.pdf</t>
-  </si>
-  <si>
-    <t>Airway/Tracheostomy_Laryngectomy/Decannulation Guidline.pdf</t>
+    <t>Policies_and_admin/Pet Visitation.pdf</t>
   </si>
   <si>
     <t>Drugs/valproate.pdf</t>
   </si>
   <si>
-    <t>Policies_and_admin/Pet Visitation.pdf</t>
-  </si>
-  <si>
     <t>Procedures/Inadvertent Catheter Placement Guideline.pdf</t>
   </si>
   <si>
+    <t>Drugs/Phosphate.pdf</t>
+  </si>
+  <si>
     <t>Drugs/stress ulcer prophylaxis.pdf</t>
   </si>
   <si>
     <t>Drugs/ketamine_for_status epilepticus.pdf</t>
   </si>
   <si>
-    <t>Drugs/Phosphate.pdf</t>
+    <t>GI_Liver_and_Transplant/Prokinetics in ICU.pdf</t>
   </si>
   <si>
     <t>Drugs/Thiopentone.pdf</t>
   </si>
   <si>
+    <t>Drugs/Octreotide.pdf</t>
+  </si>
+  <si>
     <t>Breathing(Respiratory)/Proning Guideline.pdf</t>
   </si>
   <si>
-    <t>GI_Liver_and_Transplant/Prokinetics in ICU.pdf</t>
-  </si>
-  <si>
-    <t>Drugs/Octreotide.pdf</t>
+    <t>Procedures/ACCPs acquiring initial CVC competencies.pdf</t>
   </si>
   <si>
     <t>Procedures/ACCP CVC placement following completion of initial competencies.pdf</t>
   </si>
   <si>
-    <t>Procedures/ACCPs acquiring initial CVC competencies.pdf</t>
-  </si>
-  <si>
     <t>Post_op_care/Prevention and treatment of paraplegia after major aortic procedures.pdf</t>
   </si>
   <si>
@@ -553,10 +553,10 @@
     <t>GI_Liver_and_Transplant/Plasma exchange in Acute Liver Failure.pdf</t>
   </si>
   <si>
+    <t>Breathing(Respiratory)/Equipment/NIV through Drager Vent Set up in Critical Care.pdf</t>
+  </si>
+  <si>
     <t>End_of_life_care/Guideline following Sudden Cardiac Death where death occurs in ICU.pdf</t>
-  </si>
-  <si>
-    <t>Breathing(Respiratory)/Equipment/NIV through Drager Vent Set up in Critical Care.pdf</t>
   </si>
   <si>
     <t>Transfer/Transfer Guidelines.pdf</t>

--- a/lothiancriticalcare/1a74f8f7b8b7e871b413c4697f68b4401fbacdf0/reviewdates.xlsx
+++ b/lothiancriticalcare/1a74f8f7b8b7e871b413c4697f68b4401fbacdf0/reviewdates.xlsx
@@ -295,12 +295,12 @@
     <t>Haematology_CAR-T/Haem_ICU_transfer.pdf</t>
   </si>
   <si>
+    <t>Drugs/aminophylline.pdf</t>
+  </si>
+  <si>
     <t>Cardiovascular/Management of hypertension within Critical Care.pdf</t>
   </si>
   <si>
-    <t>Drugs/aminophylline.pdf</t>
-  </si>
-  <si>
     <t>Haematology_CAR-T/CRS.pdf</t>
   </si>
   <si>
@@ -322,39 +322,39 @@
     <t>Policies_and_admin/General Critical Care SOP_pub.pdf</t>
   </si>
   <si>
+    <t>Neurological/Management of traumatic brain injury.pdf</t>
+  </si>
+  <si>
+    <t>Ethics_and_Law/DNACPR policy for Scotland.pdf</t>
+  </si>
+  <si>
+    <t>Ethics_and_Law/Care at the End of Life (FICM).pdf</t>
+  </si>
+  <si>
+    <t>End_of_life_care/CMO &amp; NRS Guidance for Doctors completing MCCD.pdf</t>
+  </si>
+  <si>
     <t>GI_Liver_and_Transplant/ICU - Upper GI bleeding (Endoscopy guideline).pdf</t>
   </si>
   <si>
+    <t>Neurological/Critical Care MRI Procedure_pub.pdf</t>
+  </si>
+  <si>
+    <t>Infection_and_sepsis/Trip Out of Unit infection guidance.pdf</t>
+  </si>
+  <si>
+    <t>Covid-19/COVID 19 ICM guidance basic goals_June_2022.pdf</t>
+  </si>
+  <si>
+    <t>End_of_life_care/Palliative extubation &amp; withdrawal of invasive ventilatory support nursing checklist.pdf</t>
+  </si>
+  <si>
+    <t>Organ_donation/Organ Retrieval SOP.pdf</t>
+  </si>
+  <si>
     <t>Drugs/clonidine.pdf</t>
   </si>
   <si>
-    <t>Neurological/Critical Care MRI Procedure_pub.pdf</t>
-  </si>
-  <si>
-    <t>Ethics_and_Law/DNACPR policy for Scotland.pdf</t>
-  </si>
-  <si>
-    <t>End_of_life_care/Palliative extubation &amp; withdrawal of invasive ventilatory support nursing checklist.pdf</t>
-  </si>
-  <si>
-    <t>End_of_life_care/CMO &amp; NRS Guidance for Doctors completing MCCD.pdf</t>
-  </si>
-  <si>
-    <t>Neurological/Management of traumatic brain injury.pdf</t>
-  </si>
-  <si>
-    <t>Organ_donation/Organ Retrieval SOP.pdf</t>
-  </si>
-  <si>
-    <t>Covid-19/COVID 19 ICM guidance basic goals_June_2022.pdf</t>
-  </si>
-  <si>
-    <t>Infection_and_sepsis/Trip Out of Unit infection guidance.pdf</t>
-  </si>
-  <si>
-    <t>Ethics_and_Law/Care at the End of Life (FICM).pdf</t>
-  </si>
-  <si>
     <t>Airway/Cook Staged Extubation Set.pdf</t>
   </si>
   <si>
@@ -364,30 +364,30 @@
     <t>Post_op_care/Epidural hypotension.pdf</t>
   </si>
   <si>
+    <t>Breathing(Respiratory)/Equipment/Passy Muir Valve.pdf</t>
+  </si>
+  <si>
+    <t>GI_Liver_and_Transplant/Confirmation of Nasogastric Tube Position.pdf</t>
+  </si>
+  <si>
+    <t>Drugs/dexmedetomidine.pdf</t>
+  </si>
+  <si>
     <t>Drugs/glyceryl_trinitrate.pdf</t>
   </si>
   <si>
-    <t>GI_Liver_and_Transplant/Confirmation of Nasogastric Tube Position.pdf</t>
-  </si>
-  <si>
     <t>GI_Liver_and_Transplant/Fulminant Liver Failure.pdf</t>
   </si>
   <si>
-    <t>Drugs/dexmedetomidine.pdf</t>
-  </si>
-  <si>
-    <t>Breathing(Respiratory)/Equipment/Passy Muir Valve.pdf</t>
-  </si>
-  <si>
     <t>Infection_and_sepsis/Antifungal guidance in critical care.pdf</t>
   </si>
   <si>
+    <t>Cardiovascular/Intra Aortic Balloon Pump Guideline_pub.pdf</t>
+  </si>
+  <si>
     <t>Cardiovascular/Intra Aortic Balloon Pump Bedside Checks_pub.pdf</t>
   </si>
   <si>
-    <t>Cardiovascular/Intra Aortic Balloon Pump Guideline_pub.pdf</t>
-  </si>
-  <si>
     <t>Transfer/Transfer Outdoors to Garden Guideline.pdf</t>
   </si>
   <si>
@@ -406,16 +406,16 @@
     <t>Post_op_care/Major OMFS Free Flap.pdf</t>
   </si>
   <si>
+    <t>Drugs/alfentanil.pdf</t>
+  </si>
+  <si>
     <t>Drugs/Alteplase for massive PE.pdf</t>
   </si>
   <si>
-    <t>Drugs/alfentanil.pdf</t>
-  </si>
-  <si>
     <t>Drugs/magnesium.pdf</t>
   </si>
   <si>
-    <t>Drugs/all IV drug infusion information.pdf</t>
+    <t>Drugs/ICU - IV drug infusions.pdf</t>
   </si>
   <si>
     <t>Drugs/neostigmine.pdf</t>
@@ -424,15 +424,15 @@
     <t>Drugs/vancomycin.pdf</t>
   </si>
   <si>
+    <t>Drugs/labetalol.pdf</t>
+  </si>
+  <si>
+    <t>Neurological/Intrathecal policy RIE.pdf</t>
+  </si>
+  <si>
     <t>Infection_and_sepsis/Initial investigation and management in unidentified Infections.pdf</t>
   </si>
   <si>
-    <t>Drugs/labetalol.pdf</t>
-  </si>
-  <si>
-    <t>Neurological/Intrathecal policy RIE.pdf</t>
-  </si>
-  <si>
     <t>Drugs/midazolam.pdf</t>
   </si>
   <si>
@@ -451,19 +451,22 @@
     <t>Drugs/nimodipine.pdf</t>
   </si>
   <si>
+    <t>Drugs/phenobarbitone.pdf</t>
+  </si>
+  <si>
+    <t>Drugs/nicardipine.pdf</t>
+  </si>
+  <si>
     <t>Routine_Care/ICU Eye Care Guideline.pdf</t>
   </si>
   <si>
+    <t>Procedures/Arterial Line insertion for ACCPs.pdf</t>
+  </si>
+  <si>
     <t>Drugs/amiodarone.pdf</t>
   </si>
   <si>
-    <t>Drugs/nicardipine.pdf</t>
-  </si>
-  <si>
-    <t>Drugs/phenobarbitone.pdf</t>
-  </si>
-  <si>
-    <t>Procedures/Arterial Line insertion for ACCPs.pdf</t>
+    <t>Drugs/phenylephrine.pdf</t>
   </si>
   <si>
     <t>Breathing(Respiratory)/Manual Ventilation and MHI.pdf</t>
@@ -475,15 +478,12 @@
     <t>Neurological/Ventriculitis Guideline.pdf</t>
   </si>
   <si>
+    <t>Drugs/Epoprostenol.pdf</t>
+  </si>
+  <si>
     <t>Drugs/morphine.pdf</t>
   </si>
   <si>
-    <t>Drugs/Epoprostenol.pdf</t>
-  </si>
-  <si>
-    <t>Drugs/phenylephrine.pdf</t>
-  </si>
-  <si>
     <t>Cardiovascular/Cardiac Output Monitoring_pub .pdf</t>
   </si>
   <si>
@@ -505,12 +505,12 @@
     <t>Airway/Tracheostomy_Laryngectomy/Decannulation Guidline.pdf</t>
   </si>
   <si>
+    <t>Policies_and_admin/Pet Visitation.pdf</t>
+  </si>
+  <si>
     <t>Drugs/valproate.pdf</t>
   </si>
   <si>
-    <t>Policies_and_admin/Pet Visitation.pdf</t>
-  </si>
-  <si>
     <t>Procedures/Inadvertent Catheter Placement Guideline.pdf</t>
   </si>
   <si>
@@ -577,202 +577,202 @@
     <t>Policies_and_admin/Repatriaiton Checklist for Critical Care.pdf</t>
   </si>
   <si>
-    <t>2011-03-06</t>
-  </si>
-  <si>
-    <t>2011-06-06</t>
-  </si>
-  <si>
-    <t>2011-07-06</t>
-  </si>
-  <si>
-    <t>2011-12-06</t>
-  </si>
-  <si>
-    <t>2014-09-06</t>
-  </si>
-  <si>
-    <t>2014-10-06</t>
-  </si>
-  <si>
-    <t>2014-11-06</t>
-  </si>
-  <si>
-    <t>2014-12-06</t>
-  </si>
-  <si>
-    <t>2015-03-06</t>
-  </si>
-  <si>
-    <t>2016-01-06</t>
-  </si>
-  <si>
-    <t>2016-04-06</t>
-  </si>
-  <si>
-    <t>2016-08-06</t>
-  </si>
-  <si>
-    <t>2017-01-06</t>
-  </si>
-  <si>
-    <t>2017-08-06</t>
-  </si>
-  <si>
-    <t>2017-10-06</t>
-  </si>
-  <si>
-    <t>2017-11-06</t>
-  </si>
-  <si>
-    <t>2018-05-06</t>
-  </si>
-  <si>
-    <t>2018-07-06</t>
-  </si>
-  <si>
-    <t>2019-05-06</t>
-  </si>
-  <si>
-    <t>2019-06-06</t>
-  </si>
-  <si>
-    <t>2019-08-06</t>
-  </si>
-  <si>
-    <t>2019-09-06</t>
-  </si>
-  <si>
-    <t>2020-01-06</t>
-  </si>
-  <si>
-    <t>2020-03-06</t>
-  </si>
-  <si>
-    <t>2020-04-06</t>
-  </si>
-  <si>
-    <t>2020-05-06</t>
-  </si>
-  <si>
-    <t>2020-07-06</t>
-  </si>
-  <si>
-    <t>2020-08-06</t>
-  </si>
-  <si>
-    <t>2020-11-06</t>
-  </si>
-  <si>
-    <t>2021-02-06</t>
-  </si>
-  <si>
-    <t>2021-05-06</t>
-  </si>
-  <si>
-    <t>2021-06-06</t>
-  </si>
-  <si>
-    <t>2021-09-06</t>
-  </si>
-  <si>
-    <t>2021-12-06</t>
-  </si>
-  <si>
-    <t>2022-01-06</t>
-  </si>
-  <si>
-    <t>2022-03-06</t>
-  </si>
-  <si>
-    <t>2022-04-06</t>
-  </si>
-  <si>
-    <t>2022-05-06</t>
-  </si>
-  <si>
-    <t>2022-06-06</t>
-  </si>
-  <si>
-    <t>2022-07-06</t>
-  </si>
-  <si>
-    <t>2022-08-06</t>
-  </si>
-  <si>
-    <t>2022-10-06</t>
-  </si>
-  <si>
-    <t>2022-11-06</t>
-  </si>
-  <si>
-    <t>2022-12-06</t>
-  </si>
-  <si>
-    <t>2023-01-06</t>
-  </si>
-  <si>
-    <t>2023-02-06</t>
-  </si>
-  <si>
-    <t>2023-04-06</t>
-  </si>
-  <si>
-    <t>2023-05-06</t>
-  </si>
-  <si>
-    <t>2023-06-06</t>
-  </si>
-  <si>
-    <t>2023-07-06</t>
-  </si>
-  <si>
-    <t>2023-08-06</t>
-  </si>
-  <si>
-    <t>2023-09-06</t>
-  </si>
-  <si>
-    <t>2023-10-06</t>
-  </si>
-  <si>
-    <t>2024-01-06</t>
-  </si>
-  <si>
-    <t>2024-02-06</t>
-  </si>
-  <si>
-    <t>2024-03-06</t>
-  </si>
-  <si>
-    <t>2024-04-06</t>
-  </si>
-  <si>
-    <t>2024-05-06</t>
+    <t>2011-03-07</t>
+  </si>
+  <si>
+    <t>2011-06-07</t>
+  </si>
+  <si>
+    <t>2011-07-07</t>
+  </si>
+  <si>
+    <t>2011-12-07</t>
+  </si>
+  <si>
+    <t>2014-09-07</t>
+  </si>
+  <si>
+    <t>2014-10-07</t>
+  </si>
+  <si>
+    <t>2014-11-07</t>
+  </si>
+  <si>
+    <t>2014-12-07</t>
+  </si>
+  <si>
+    <t>2015-03-07</t>
+  </si>
+  <si>
+    <t>2016-01-07</t>
+  </si>
+  <si>
+    <t>2016-04-07</t>
+  </si>
+  <si>
+    <t>2016-08-07</t>
+  </si>
+  <si>
+    <t>2017-01-07</t>
+  </si>
+  <si>
+    <t>2017-08-07</t>
+  </si>
+  <si>
+    <t>2017-10-07</t>
+  </si>
+  <si>
+    <t>2017-11-07</t>
+  </si>
+  <si>
+    <t>2018-05-07</t>
+  </si>
+  <si>
+    <t>2018-07-07</t>
+  </si>
+  <si>
+    <t>2019-05-07</t>
+  </si>
+  <si>
+    <t>2019-06-07</t>
+  </si>
+  <si>
+    <t>2019-08-07</t>
+  </si>
+  <si>
+    <t>2019-09-07</t>
+  </si>
+  <si>
+    <t>2020-01-07</t>
+  </si>
+  <si>
+    <t>2020-03-07</t>
+  </si>
+  <si>
+    <t>2020-04-07</t>
+  </si>
+  <si>
+    <t>2020-05-07</t>
+  </si>
+  <si>
+    <t>2020-07-07</t>
+  </si>
+  <si>
+    <t>2020-08-07</t>
+  </si>
+  <si>
+    <t>2020-11-07</t>
+  </si>
+  <si>
+    <t>2021-02-07</t>
+  </si>
+  <si>
+    <t>2021-05-07</t>
+  </si>
+  <si>
+    <t>2021-06-07</t>
+  </si>
+  <si>
+    <t>2021-09-07</t>
+  </si>
+  <si>
+    <t>2021-12-07</t>
+  </si>
+  <si>
+    <t>2022-01-07</t>
+  </si>
+  <si>
+    <t>2022-03-07</t>
+  </si>
+  <si>
+    <t>2022-04-07</t>
+  </si>
+  <si>
+    <t>2022-05-07</t>
+  </si>
+  <si>
+    <t>2022-06-07</t>
+  </si>
+  <si>
+    <t>2022-07-07</t>
+  </si>
+  <si>
+    <t>2022-08-07</t>
+  </si>
+  <si>
+    <t>2022-10-07</t>
+  </si>
+  <si>
+    <t>2022-11-07</t>
+  </si>
+  <si>
+    <t>2022-12-07</t>
+  </si>
+  <si>
+    <t>2023-01-07</t>
+  </si>
+  <si>
+    <t>2023-02-07</t>
+  </si>
+  <si>
+    <t>2023-04-07</t>
+  </si>
+  <si>
+    <t>2023-05-07</t>
+  </si>
+  <si>
+    <t>2023-06-07</t>
+  </si>
+  <si>
+    <t>2023-07-07</t>
+  </si>
+  <si>
+    <t>2023-08-07</t>
+  </si>
+  <si>
+    <t>2023-09-07</t>
+  </si>
+  <si>
+    <t>2023-10-07</t>
+  </si>
+  <si>
+    <t>2024-01-07</t>
+  </si>
+  <si>
+    <t>2024-02-07</t>
+  </si>
+  <si>
+    <t>2024-03-07</t>
+  </si>
+  <si>
+    <t>2024-04-07</t>
+  </si>
+  <si>
+    <t>2024-05-07</t>
   </si>
   <si>
     <t>2024-06-02</t>
   </si>
   <si>
-    <t>2024-06-06</t>
+    <t>2024-06-07</t>
   </si>
   <si>
     <t>2024-06-26</t>
   </si>
   <si>
-    <t>2024-07-06</t>
+    <t>2024-07-07</t>
   </si>
   <si>
     <t>2024-07-25</t>
   </si>
   <si>
-    <t>2024-08-06</t>
+    <t>2024-08-07</t>
   </si>
   <si>
     <t>2024-08-15</t>
   </si>
   <si>
-    <t>2024-10-06</t>
+    <t>2024-10-07</t>
   </si>
   <si>
     <t>2024-10-24</t>
@@ -787,70 +787,70 @@
     <t>2024-12-24</t>
   </si>
   <si>
-    <t>2025-01-06</t>
-  </si>
-  <si>
-    <t>2025-02-06</t>
-  </si>
-  <si>
-    <t>2025-03-06</t>
-  </si>
-  <si>
-    <t>2025-04-06</t>
-  </si>
-  <si>
-    <t>2025-05-06</t>
-  </si>
-  <si>
-    <t>2025-06-06</t>
-  </si>
-  <si>
-    <t>2025-07-06</t>
-  </si>
-  <si>
-    <t>2025-08-06</t>
-  </si>
-  <si>
-    <t>2025-10-06</t>
-  </si>
-  <si>
-    <t>2025-11-06</t>
-  </si>
-  <si>
-    <t>2026-01-06</t>
-  </si>
-  <si>
-    <t>2026-03-06</t>
-  </si>
-  <si>
-    <t>2026-05-06</t>
-  </si>
-  <si>
-    <t>2026-07-06</t>
-  </si>
-  <si>
-    <t>2026-11-06</t>
-  </si>
-  <si>
-    <t>2027-01-06</t>
-  </si>
-  <si>
-    <t>2027-02-06</t>
-  </si>
-  <si>
-    <t>2028-02-06</t>
-  </si>
-  <si>
-    <t>2028-05-06</t>
-  </si>
-  <si>
-    <t>2028-07-06</t>
-  </si>
-  <si>
-    <t>2028-11-06</t>
-  </si>
-  <si>
-    <t>2030-11-06</t>
+    <t>2025-01-07</t>
+  </si>
+  <si>
+    <t>2025-02-07</t>
+  </si>
+  <si>
+    <t>2025-03-07</t>
+  </si>
+  <si>
+    <t>2025-04-07</t>
+  </si>
+  <si>
+    <t>2025-05-07</t>
+  </si>
+  <si>
+    <t>2025-06-07</t>
+  </si>
+  <si>
+    <t>2025-07-07</t>
+  </si>
+  <si>
+    <t>2025-08-07</t>
+  </si>
+  <si>
+    <t>2025-10-07</t>
+  </si>
+  <si>
+    <t>2025-11-07</t>
+  </si>
+  <si>
+    <t>2026-01-07</t>
+  </si>
+  <si>
+    <t>2026-03-07</t>
+  </si>
+  <si>
+    <t>2026-05-07</t>
+  </si>
+  <si>
+    <t>2026-07-07</t>
+  </si>
+  <si>
+    <t>2026-11-07</t>
+  </si>
+  <si>
+    <t>2027-01-07</t>
+  </si>
+  <si>
+    <t>2027-02-07</t>
+  </si>
+  <si>
+    <t>2028-02-07</t>
+  </si>
+  <si>
+    <t>2028-05-07</t>
+  </si>
+  <si>
+    <t>2028-07-07</t>
+  </si>
+  <si>
+    <t>2028-11-07</t>
+  </si>
+  <si>
+    <t>2030-11-07</t>
   </si>
 </sst>
 </file>

--- a/lothiancriticalcare/1a74f8f7b8b7e871b413c4697f68b4401fbacdf0/reviewdates.xlsx
+++ b/lothiancriticalcare/1a74f8f7b8b7e871b413c4697f68b4401fbacdf0/reviewdates.xlsx
@@ -577,202 +577,202 @@
     <t>Policies_and_admin/Repatriaiton Checklist for Critical Care.pdf</t>
   </si>
   <si>
-    <t>2011-03-07</t>
-  </si>
-  <si>
-    <t>2011-06-07</t>
-  </si>
-  <si>
-    <t>2011-07-07</t>
-  </si>
-  <si>
-    <t>2011-12-07</t>
-  </si>
-  <si>
-    <t>2014-09-07</t>
-  </si>
-  <si>
-    <t>2014-10-07</t>
-  </si>
-  <si>
-    <t>2014-11-07</t>
-  </si>
-  <si>
-    <t>2014-12-07</t>
-  </si>
-  <si>
-    <t>2015-03-07</t>
-  </si>
-  <si>
-    <t>2016-01-07</t>
-  </si>
-  <si>
-    <t>2016-04-07</t>
-  </si>
-  <si>
-    <t>2016-08-07</t>
-  </si>
-  <si>
-    <t>2017-01-07</t>
-  </si>
-  <si>
-    <t>2017-08-07</t>
-  </si>
-  <si>
-    <t>2017-10-07</t>
-  </si>
-  <si>
-    <t>2017-11-07</t>
-  </si>
-  <si>
-    <t>2018-05-07</t>
-  </si>
-  <si>
-    <t>2018-07-07</t>
-  </si>
-  <si>
-    <t>2019-05-07</t>
-  </si>
-  <si>
-    <t>2019-06-07</t>
-  </si>
-  <si>
-    <t>2019-08-07</t>
-  </si>
-  <si>
-    <t>2019-09-07</t>
-  </si>
-  <si>
-    <t>2020-01-07</t>
-  </si>
-  <si>
-    <t>2020-03-07</t>
-  </si>
-  <si>
-    <t>2020-04-07</t>
-  </si>
-  <si>
-    <t>2020-05-07</t>
-  </si>
-  <si>
-    <t>2020-07-07</t>
-  </si>
-  <si>
-    <t>2020-08-07</t>
-  </si>
-  <si>
-    <t>2020-11-07</t>
-  </si>
-  <si>
-    <t>2021-02-07</t>
-  </si>
-  <si>
-    <t>2021-05-07</t>
-  </si>
-  <si>
-    <t>2021-06-07</t>
-  </si>
-  <si>
-    <t>2021-09-07</t>
-  </si>
-  <si>
-    <t>2021-12-07</t>
-  </si>
-  <si>
-    <t>2022-01-07</t>
-  </si>
-  <si>
-    <t>2022-03-07</t>
-  </si>
-  <si>
-    <t>2022-04-07</t>
-  </si>
-  <si>
-    <t>2022-05-07</t>
-  </si>
-  <si>
-    <t>2022-06-07</t>
-  </si>
-  <si>
-    <t>2022-07-07</t>
-  </si>
-  <si>
-    <t>2022-08-07</t>
-  </si>
-  <si>
-    <t>2022-10-07</t>
-  </si>
-  <si>
-    <t>2022-11-07</t>
-  </si>
-  <si>
-    <t>2022-12-07</t>
-  </si>
-  <si>
-    <t>2023-01-07</t>
-  </si>
-  <si>
-    <t>2023-02-07</t>
-  </si>
-  <si>
-    <t>2023-04-07</t>
-  </si>
-  <si>
-    <t>2023-05-07</t>
-  </si>
-  <si>
-    <t>2023-06-07</t>
-  </si>
-  <si>
-    <t>2023-07-07</t>
-  </si>
-  <si>
-    <t>2023-08-07</t>
-  </si>
-  <si>
-    <t>2023-09-07</t>
-  </si>
-  <si>
-    <t>2023-10-07</t>
-  </si>
-  <si>
-    <t>2024-01-07</t>
-  </si>
-  <si>
-    <t>2024-02-07</t>
-  </si>
-  <si>
-    <t>2024-03-07</t>
-  </si>
-  <si>
-    <t>2024-04-07</t>
-  </si>
-  <si>
-    <t>2024-05-07</t>
+    <t>2011-03-09</t>
+  </si>
+  <si>
+    <t>2011-06-09</t>
+  </si>
+  <si>
+    <t>2011-07-09</t>
+  </si>
+  <si>
+    <t>2011-12-09</t>
+  </si>
+  <si>
+    <t>2014-09-09</t>
+  </si>
+  <si>
+    <t>2014-10-09</t>
+  </si>
+  <si>
+    <t>2014-11-09</t>
+  </si>
+  <si>
+    <t>2014-12-09</t>
+  </si>
+  <si>
+    <t>2015-03-09</t>
+  </si>
+  <si>
+    <t>2016-01-09</t>
+  </si>
+  <si>
+    <t>2016-04-09</t>
+  </si>
+  <si>
+    <t>2016-08-09</t>
+  </si>
+  <si>
+    <t>2017-01-09</t>
+  </si>
+  <si>
+    <t>2017-08-09</t>
+  </si>
+  <si>
+    <t>2017-10-09</t>
+  </si>
+  <si>
+    <t>2017-11-09</t>
+  </si>
+  <si>
+    <t>2018-05-09</t>
+  </si>
+  <si>
+    <t>2018-07-09</t>
+  </si>
+  <si>
+    <t>2019-05-09</t>
+  </si>
+  <si>
+    <t>2019-06-09</t>
+  </si>
+  <si>
+    <t>2019-08-09</t>
+  </si>
+  <si>
+    <t>2019-09-09</t>
+  </si>
+  <si>
+    <t>2020-01-09</t>
+  </si>
+  <si>
+    <t>2020-03-09</t>
+  </si>
+  <si>
+    <t>2020-04-09</t>
+  </si>
+  <si>
+    <t>2020-05-09</t>
+  </si>
+  <si>
+    <t>2020-07-09</t>
+  </si>
+  <si>
+    <t>2020-08-09</t>
+  </si>
+  <si>
+    <t>2020-11-09</t>
+  </si>
+  <si>
+    <t>2021-02-09</t>
+  </si>
+  <si>
+    <t>2021-05-09</t>
+  </si>
+  <si>
+    <t>2021-06-09</t>
+  </si>
+  <si>
+    <t>2021-09-09</t>
+  </si>
+  <si>
+    <t>2021-12-09</t>
+  </si>
+  <si>
+    <t>2022-01-09</t>
+  </si>
+  <si>
+    <t>2022-03-09</t>
+  </si>
+  <si>
+    <t>2022-04-09</t>
+  </si>
+  <si>
+    <t>2022-05-09</t>
+  </si>
+  <si>
+    <t>2022-06-09</t>
+  </si>
+  <si>
+    <t>2022-07-09</t>
+  </si>
+  <si>
+    <t>2022-08-09</t>
+  </si>
+  <si>
+    <t>2022-10-09</t>
+  </si>
+  <si>
+    <t>2022-11-09</t>
+  </si>
+  <si>
+    <t>2022-12-09</t>
+  </si>
+  <si>
+    <t>2023-01-09</t>
+  </si>
+  <si>
+    <t>2023-02-09</t>
+  </si>
+  <si>
+    <t>2023-04-09</t>
+  </si>
+  <si>
+    <t>2023-05-09</t>
+  </si>
+  <si>
+    <t>2023-06-09</t>
+  </si>
+  <si>
+    <t>2023-07-09</t>
+  </si>
+  <si>
+    <t>2023-08-09</t>
+  </si>
+  <si>
+    <t>2023-09-09</t>
+  </si>
+  <si>
+    <t>2023-10-09</t>
+  </si>
+  <si>
+    <t>2024-01-09</t>
+  </si>
+  <si>
+    <t>2024-02-09</t>
+  </si>
+  <si>
+    <t>2024-03-09</t>
+  </si>
+  <si>
+    <t>2024-04-09</t>
+  </si>
+  <si>
+    <t>2024-05-09</t>
   </si>
   <si>
     <t>2024-06-02</t>
   </si>
   <si>
-    <t>2024-06-07</t>
+    <t>2024-06-09</t>
   </si>
   <si>
     <t>2024-06-26</t>
   </si>
   <si>
-    <t>2024-07-07</t>
+    <t>2024-07-09</t>
   </si>
   <si>
     <t>2024-07-25</t>
   </si>
   <si>
-    <t>2024-08-07</t>
+    <t>2024-08-09</t>
   </si>
   <si>
     <t>2024-08-15</t>
   </si>
   <si>
-    <t>2024-10-07</t>
+    <t>2024-10-09</t>
   </si>
   <si>
     <t>2024-10-24</t>
@@ -787,70 +787,70 @@
     <t>2024-12-24</t>
   </si>
   <si>
-    <t>2025-01-07</t>
-  </si>
-  <si>
-    <t>2025-02-07</t>
-  </si>
-  <si>
-    <t>2025-03-07</t>
-  </si>
-  <si>
-    <t>2025-04-07</t>
-  </si>
-  <si>
-    <t>2025-05-07</t>
-  </si>
-  <si>
-    <t>2025-06-07</t>
-  </si>
-  <si>
-    <t>2025-07-07</t>
-  </si>
-  <si>
-    <t>2025-08-07</t>
-  </si>
-  <si>
-    <t>2025-10-07</t>
-  </si>
-  <si>
-    <t>2025-11-07</t>
-  </si>
-  <si>
-    <t>2026-01-07</t>
-  </si>
-  <si>
-    <t>2026-03-07</t>
-  </si>
-  <si>
-    <t>2026-05-07</t>
-  </si>
-  <si>
-    <t>2026-07-07</t>
-  </si>
-  <si>
-    <t>2026-11-07</t>
-  </si>
-  <si>
-    <t>2027-01-07</t>
-  </si>
-  <si>
-    <t>2027-02-07</t>
-  </si>
-  <si>
-    <t>2028-02-07</t>
-  </si>
-  <si>
-    <t>2028-05-07</t>
-  </si>
-  <si>
-    <t>2028-07-07</t>
-  </si>
-  <si>
-    <t>2028-11-07</t>
-  </si>
-  <si>
-    <t>2030-11-07</t>
+    <t>2025-01-09</t>
+  </si>
+  <si>
+    <t>2025-02-09</t>
+  </si>
+  <si>
+    <t>2025-03-09</t>
+  </si>
+  <si>
+    <t>2025-04-09</t>
+  </si>
+  <si>
+    <t>2025-05-09</t>
+  </si>
+  <si>
+    <t>2025-06-09</t>
+  </si>
+  <si>
+    <t>2025-07-09</t>
+  </si>
+  <si>
+    <t>2025-08-09</t>
+  </si>
+  <si>
+    <t>2025-10-09</t>
+  </si>
+  <si>
+    <t>2025-11-09</t>
+  </si>
+  <si>
+    <t>2026-01-09</t>
+  </si>
+  <si>
+    <t>2026-03-09</t>
+  </si>
+  <si>
+    <t>2026-05-09</t>
+  </si>
+  <si>
+    <t>2026-07-09</t>
+  </si>
+  <si>
+    <t>2026-11-09</t>
+  </si>
+  <si>
+    <t>2027-01-09</t>
+  </si>
+  <si>
+    <t>2027-02-09</t>
+  </si>
+  <si>
+    <t>2028-02-09</t>
+  </si>
+  <si>
+    <t>2028-05-09</t>
+  </si>
+  <si>
+    <t>2028-07-09</t>
+  </si>
+  <si>
+    <t>2028-11-09</t>
+  </si>
+  <si>
+    <t>2030-11-09</t>
   </si>
 </sst>
 </file>

--- a/lothiancriticalcare/1a74f8f7b8b7e871b413c4697f68b4401fbacdf0/reviewdates.xlsx
+++ b/lothiancriticalcare/1a74f8f7b8b7e871b413c4697f68b4401fbacdf0/reviewdates.xlsx
@@ -85,15 +85,15 @@
     <t>End_of_life_care/Reasons to report a death to PF.pdf</t>
   </si>
   <si>
+    <t>Airway/Tracheostomy_Laryngectomy/Tracheostomy suctioning cleaning guideline.pdf</t>
+  </si>
+  <si>
     <t>Neurological/SOP -  Femoral site care.pdf</t>
   </si>
   <si>
     <t>Airway/Tracheostomy_Laryngectomy/Tracheostomy change in Critical Care.pdf</t>
   </si>
   <si>
-    <t>Airway/Tracheostomy_Laryngectomy/Tracheostomy suctioning cleaning guideline.pdf</t>
-  </si>
-  <si>
     <t>Drugs/sodium_bicarbonate.pdf</t>
   </si>
   <si>
@@ -103,24 +103,24 @@
     <t>Post_op_care/Epidural top-up.pdf</t>
   </si>
   <si>
+    <t>Covid-19/SJH/SJH COVID19 ED Intubation Action Card.pdf</t>
+  </si>
+  <si>
+    <t>Airway/Emergency intubation checklist_em_pub.pdf</t>
+  </si>
+  <si>
+    <t>Drugs/heparin for Haemofiltration.pdf</t>
+  </si>
+  <si>
+    <t>Covid-19/SJH/SJH COVID19 ITU Intubation Action Card.pdf</t>
+  </si>
+  <si>
     <t>Diabetes_and_Glucose/Hyperosmolar Hyperglycaemic State.pdf</t>
   </si>
   <si>
-    <t>Drugs/heparin for Haemofiltration.pdf</t>
-  </si>
-  <si>
-    <t>Covid-19/SJH/SJH COVID19 ED Intubation Action Card.pdf</t>
-  </si>
-  <si>
-    <t>Covid-19/SJH/SJH COVID19 ITU Intubation Action Card.pdf</t>
-  </si>
-  <si>
     <t>Covid-19/WGH/CoVid intubation checklist WGH.pdf</t>
   </si>
   <si>
-    <t>Airway/Emergency intubation checklist_em_pub.pdf</t>
-  </si>
-  <si>
     <t>Drugs/fentanyl.pdf</t>
   </si>
   <si>
@@ -139,42 +139,42 @@
     <t>Airway/Percutaneous tracheostomy checklist.pdf</t>
   </si>
   <si>
+    <t>Delirium/Risk assessment posi mit.pdf</t>
+  </si>
+  <si>
+    <t>Infection_and_sepsis/SOP Ultrasound Cleaning.pdf</t>
+  </si>
+  <si>
     <t>Delirium/Managing a Potentially Violent Patient.pdf</t>
   </si>
   <si>
-    <t>Delirium/Risk assessment posi mit.pdf</t>
-  </si>
-  <si>
-    <t>Infection_and_sepsis/SOP Ultrasound Cleaning.pdf</t>
+    <t>Breathing(Respiratory)/HFNO.pdf</t>
   </si>
   <si>
     <t>GI_Liver_and_Transplant/Treatment of constipation.pdf</t>
   </si>
   <si>
+    <t>Delirium/Drugs Causing Delirium and Agitiation.pdf</t>
+  </si>
+  <si>
+    <t>Airway/Tracheostomy_Laryngectomy/Tracheostomy safety box contents.pdf</t>
+  </si>
+  <si>
+    <t>Drugs/ketamine_in_asthma.pdf</t>
+  </si>
+  <si>
+    <t>Airway/McGrath Mac.pdf</t>
+  </si>
+  <si>
+    <t>Neurological/Sub arachnoid haemorrhage management.pdf</t>
+  </si>
+  <si>
+    <t>Airway/Anticipated difficult airway tool.pdf</t>
+  </si>
+  <si>
     <t>GI_Liver_and_Transplant/Abdominal pressure measurement.pdf</t>
   </si>
   <si>
-    <t>Airway/Anticipated difficult airway tool.pdf</t>
-  </si>
-  <si>
-    <t>Drugs/ketamine_in_asthma.pdf</t>
-  </si>
-  <si>
-    <t>Breathing(Respiratory)/HFNO.pdf</t>
-  </si>
-  <si>
-    <t>Airway/McGrath Mac.pdf</t>
-  </si>
-  <si>
-    <t>Airway/Tracheostomy_Laryngectomy/Tracheostomy safety box contents.pdf</t>
-  </si>
-  <si>
-    <t>Delirium/Drugs Causing Delirium and Agitiation.pdf</t>
-  </si>
-  <si>
-    <t>Neurological/Sub arachnoid haemorrhage management.pdf</t>
-  </si>
-  <si>
     <t>End_of_life_care/Documentation following death.pdf</t>
   </si>
   <si>
@@ -193,21 +193,21 @@
     <t>Breathing(Respiratory)/Inhaled Nitrous Oxide.pdf</t>
   </si>
   <si>
+    <t>Breathing(Respiratory)/Equipment/APRV.pdf</t>
+  </si>
+  <si>
     <t>Cardiovascular/Steroids for Septic Shock.pdf</t>
   </si>
   <si>
-    <t>Breathing(Respiratory)/Equipment/APRV.pdf</t>
-  </si>
-  <si>
     <t>Post_op_care/Epidural Haematoma.pdf</t>
   </si>
   <si>
+    <t>Breathing(Respiratory)/Equipment/T piece Y piece.pdf</t>
+  </si>
+  <si>
     <t>Neurological/SOP for review of Neurosurgical patients in ITU by neurosurgical team.pdf</t>
   </si>
   <si>
-    <t>Breathing(Respiratory)/Equipment/T piece Y piece.pdf</t>
-  </si>
-  <si>
     <t>Policies_and_admin/General Critical Care Interaction with HEPMA_pub.pdf</t>
   </si>
   <si>
@@ -229,132 +229,132 @@
     <t>GI_Liver_and_Transplant/Nasogastric feeding protocol.pdf</t>
   </si>
   <si>
+    <t>Diabetes_and_Glucose/Intravenous Insulin Therapy (not for DKA or HHS).pdf</t>
+  </si>
+  <si>
     <t>Drugs/Antibiotic doses in CVVHD.pdf</t>
   </si>
   <si>
-    <t>Diabetes_and_Glucose/Intravenous Insulin Therapy (not for DKA or HHS).pdf</t>
+    <t>GI_Liver_and_Transplant/Jejunostomy feeding protocol.pdf</t>
   </si>
   <si>
     <t>GI_Liver_and_Transplant/Nasojejunal feeding protocol.pdf</t>
   </si>
   <si>
-    <t>GI_Liver_and_Transplant/Jejunostomy feeding protocol.pdf</t>
-  </si>
-  <si>
     <t>ECLS/RIE ECLS Anti Xa Protocol.pdf</t>
   </si>
   <si>
+    <t>Drugs/vasopressin organ donation.pdf</t>
+  </si>
+  <si>
+    <t>Drugs/vasopressin_sepsis.pdf</t>
+  </si>
+  <si>
     <t>Infection_and_sepsis/Winter Infections Stepdown Guidance.pdf</t>
   </si>
   <si>
-    <t>Drugs/vasopressin_sepsis.pdf</t>
-  </si>
-  <si>
-    <t>Drugs/vasopressin organ donation.pdf</t>
-  </si>
-  <si>
     <t>Covid-19/videos/Donning and Doffing Video.pdf</t>
   </si>
   <si>
     <t>Transfer/ACCP Transfers.pdf</t>
   </si>
   <si>
+    <t>Breathing(Respiratory)/CPAP.pdf</t>
+  </si>
+  <si>
+    <t>Breathing(Respiratory)/Equipment/Ventilators Circuits Filters and Closed Suction - Set up and Maintenance.pdf</t>
+  </si>
+  <si>
+    <t>Infection_and_sepsis/Infection indications for IVIG.pdf</t>
+  </si>
+  <si>
     <t>Breathing(Respiratory)/Equipment/Bipap V60.pdf</t>
   </si>
   <si>
-    <t>Breathing(Respiratory)/CPAP.pdf</t>
-  </si>
-  <si>
-    <t>Breathing(Respiratory)/Equipment/Ventilators Circuits Filters and Closed Suction - Set up and Maintenance.pdf</t>
-  </si>
-  <si>
-    <t>Infection_and_sepsis/Infection indications for IVIG.pdf</t>
-  </si>
-  <si>
     <t>Drugs/piperacillin_tazobactam extended_infusion.pdf</t>
   </si>
   <si>
+    <t>Covid-19/Covid 19 Death Certification Guideline.pdf</t>
+  </si>
+  <si>
     <t>Procedures/CVC Guidance/Securing CVCs.pdf</t>
   </si>
   <si>
-    <t>Covid-19/Covid 19 Death Certification Guideline.pdf</t>
+    <t>Routine_Care/Video Communication.pdf</t>
   </si>
   <si>
     <t>Neurological/Treatment of status epilepticus.pdf</t>
   </si>
   <si>
-    <t>Routine_Care/Video Communication.pdf</t>
+    <t>Drugs/isoprenaline.pdf</t>
   </si>
   <si>
     <t>Cardiovascular/Cardiogenic Shock.pdf</t>
   </si>
   <si>
-    <t>Drugs/isoprenaline.pdf</t>
-  </si>
-  <si>
     <t>Haematology_CAR-T/Haem_ICU_transfer.pdf</t>
   </si>
   <si>
+    <t>Cardiovascular/Management of hypertension within Critical Care.pdf</t>
+  </si>
+  <si>
     <t>Drugs/aminophylline.pdf</t>
   </si>
   <si>
-    <t>Cardiovascular/Management of hypertension within Critical Care.pdf</t>
+    <t>Drugs/rocuronium.pdf</t>
   </si>
   <si>
     <t>Haematology_CAR-T/CRS.pdf</t>
   </si>
   <si>
+    <t>Haematology_CAR-T/ICANS.pdf</t>
+  </si>
+  <si>
+    <t>Drugs/phenytoin.pdf</t>
+  </si>
+  <si>
     <t>Drugs/pancuronium.pdf</t>
   </si>
   <si>
-    <t>Haematology_CAR-T/ICANS.pdf</t>
-  </si>
-  <si>
-    <t>Drugs/phenytoin.pdf</t>
-  </si>
-  <si>
-    <t>Drugs/rocuronium.pdf</t>
-  </si>
-  <si>
     <t>Drugs/milrinone.pdf</t>
   </si>
   <si>
     <t>Policies_and_admin/General Critical Care SOP_pub.pdf</t>
   </si>
   <si>
+    <t>Ethics_and_Law/DNACPR policy for Scotland.pdf</t>
+  </si>
+  <si>
+    <t>GI_Liver_and_Transplant/ICU - Upper GI bleeding (Endoscopy guideline).pdf</t>
+  </si>
+  <si>
+    <t>Infection_and_sepsis/Trip Out of Unit infection guidance.pdf</t>
+  </si>
+  <si>
+    <t>Ethics_and_Law/Care at the End of Life (FICM).pdf</t>
+  </si>
+  <si>
+    <t>Organ_donation/Organ Retrieval SOP.pdf</t>
+  </si>
+  <si>
+    <t>Drugs/clonidine.pdf</t>
+  </si>
+  <si>
     <t>Neurological/Management of traumatic brain injury.pdf</t>
   </si>
   <si>
-    <t>Ethics_and_Law/DNACPR policy for Scotland.pdf</t>
-  </si>
-  <si>
-    <t>Ethics_and_Law/Care at the End of Life (FICM).pdf</t>
+    <t>Neurological/Critical Care MRI Procedure_pub.pdf</t>
+  </si>
+  <si>
+    <t>End_of_life_care/Palliative extubation &amp; withdrawal of invasive ventilatory support nursing checklist.pdf</t>
   </si>
   <si>
     <t>End_of_life_care/CMO &amp; NRS Guidance for Doctors completing MCCD.pdf</t>
   </si>
   <si>
-    <t>GI_Liver_and_Transplant/ICU - Upper GI bleeding (Endoscopy guideline).pdf</t>
-  </si>
-  <si>
-    <t>Neurological/Critical Care MRI Procedure_pub.pdf</t>
-  </si>
-  <si>
-    <t>Infection_and_sepsis/Trip Out of Unit infection guidance.pdf</t>
-  </si>
-  <si>
     <t>Covid-19/COVID 19 ICM guidance basic goals_June_2022.pdf</t>
   </si>
   <si>
-    <t>End_of_life_care/Palliative extubation &amp; withdrawal of invasive ventilatory support nursing checklist.pdf</t>
-  </si>
-  <si>
-    <t>Organ_donation/Organ Retrieval SOP.pdf</t>
-  </si>
-  <si>
-    <t>Drugs/clonidine.pdf</t>
-  </si>
-  <si>
     <t>Airway/Cook Staged Extubation Set.pdf</t>
   </si>
   <si>
@@ -364,21 +364,21 @@
     <t>Post_op_care/Epidural hypotension.pdf</t>
   </si>
   <si>
+    <t>GI_Liver_and_Transplant/Fulminant Liver Failure.pdf</t>
+  </si>
+  <si>
+    <t>GI_Liver_and_Transplant/Confirmation of Nasogastric Tube Position.pdf</t>
+  </si>
+  <si>
+    <t>Drugs/dexmedetomidine.pdf</t>
+  </si>
+  <si>
     <t>Breathing(Respiratory)/Equipment/Passy Muir Valve.pdf</t>
   </si>
   <si>
-    <t>GI_Liver_and_Transplant/Confirmation of Nasogastric Tube Position.pdf</t>
-  </si>
-  <si>
-    <t>Drugs/dexmedetomidine.pdf</t>
-  </si>
-  <si>
     <t>Drugs/glyceryl_trinitrate.pdf</t>
   </si>
   <si>
-    <t>GI_Liver_and_Transplant/Fulminant Liver Failure.pdf</t>
-  </si>
-  <si>
     <t>Infection_and_sepsis/Antifungal guidance in critical care.pdf</t>
   </si>
   <si>
@@ -415,40 +415,43 @@
     <t>Drugs/magnesium.pdf</t>
   </si>
   <si>
+    <t>Drugs/neostigmine.pdf</t>
+  </si>
+  <si>
     <t>Drugs/ICU - IV drug infusions.pdf</t>
   </si>
   <si>
-    <t>Drugs/neostigmine.pdf</t>
-  </si>
-  <si>
     <t>Drugs/vancomycin.pdf</t>
   </si>
   <si>
     <t>Drugs/labetalol.pdf</t>
   </si>
   <si>
+    <t>Infection_and_sepsis/Initial investigation and management in unidentified Infections.pdf</t>
+  </si>
+  <si>
     <t>Neurological/Intrathecal policy RIE.pdf</t>
   </si>
   <si>
-    <t>Infection_and_sepsis/Initial investigation and management in unidentified Infections.pdf</t>
-  </si>
-  <si>
     <t>Drugs/midazolam.pdf</t>
   </si>
   <si>
     <t>Cardiovascular/Management of Acute Type B Aortic Dissection Guideline.pdf</t>
   </si>
   <si>
+    <t>Procedures/CVC Guidance/CVC NHL  April 2023.pdf</t>
+  </si>
+  <si>
+    <t>Drugs/nimodipine.pdf</t>
+  </si>
+  <si>
+    <t>Drugs/salbutamol.pdf</t>
+  </si>
+  <si>
     <t>Drugs/potassium.pdf</t>
   </si>
   <si>
-    <t>Procedures/CVC Guidance/CVC NHL  April 2023.pdf</t>
-  </si>
-  <si>
-    <t>Drugs/salbutamol.pdf</t>
-  </si>
-  <si>
-    <t>Drugs/nimodipine.pdf</t>
+    <t>Routine_Care/ICU Eye Care Guideline.pdf</t>
   </si>
   <si>
     <t>Drugs/phenobarbitone.pdf</t>
@@ -457,63 +460,60 @@
     <t>Drugs/nicardipine.pdf</t>
   </si>
   <si>
-    <t>Routine_Care/ICU Eye Care Guideline.pdf</t>
+    <t>Drugs/amiodarone.pdf</t>
   </si>
   <si>
     <t>Procedures/Arterial Line insertion for ACCPs.pdf</t>
   </si>
   <si>
-    <t>Drugs/amiodarone.pdf</t>
+    <t>Neurological/Ventriculitis Guideline.pdf</t>
+  </si>
+  <si>
+    <t>Drugs/Epoprostenol.pdf</t>
+  </si>
+  <si>
+    <t>Drugs/morphine.pdf</t>
+  </si>
+  <si>
+    <t>Breathing(Respiratory)/Manual Ventilation and MHI.pdf</t>
   </si>
   <si>
     <t>Drugs/phenylephrine.pdf</t>
   </si>
   <si>
-    <t>Breathing(Respiratory)/Manual Ventilation and MHI.pdf</t>
-  </si>
-  <si>
     <t>Drugs/noradrenaline (peripheral).pdf</t>
   </si>
   <si>
-    <t>Neurological/Ventriculitis Guideline.pdf</t>
-  </si>
-  <si>
-    <t>Drugs/Epoprostenol.pdf</t>
-  </si>
-  <si>
-    <t>Drugs/morphine.pdf</t>
+    <t>Drugs/calcium.pdf</t>
+  </si>
+  <si>
+    <t>Cardiovascular/Pulmonary_Embolism_and_DVT/Catheter directed thrombolysis of iliofemoral DVT alteplase_pub.pdf</t>
   </si>
   <si>
     <t>Cardiovascular/Cardiac Output Monitoring_pub .pdf</t>
   </si>
   <si>
-    <t>Cardiovascular/Pulmonary_Embolism_and_DVT/Catheter directed thrombolysis of iliofemoral DVT alteplase_pub.pdf</t>
-  </si>
-  <si>
-    <t>Drugs/calcium.pdf</t>
+    <t>Drugs/Vancomycin Continuous Infusion Fluid Restricted.pdf</t>
   </si>
   <si>
     <t>Drugs/dalteparin_thromboprophylaxis.pdf</t>
   </si>
   <si>
-    <t>Drugs/Vancomycin Continuous Infusion Fluid Restricted.pdf</t>
-  </si>
-  <si>
     <t>Drugs/atracurium.pdf</t>
   </si>
   <si>
     <t>Airway/Tracheostomy_Laryngectomy/Decannulation Guidline.pdf</t>
   </si>
   <si>
+    <t>Procedures/Inadvertent Catheter Placement Guideline.pdf</t>
+  </si>
+  <si>
+    <t>Drugs/valproate.pdf</t>
+  </si>
+  <si>
     <t>Policies_and_admin/Pet Visitation.pdf</t>
   </si>
   <si>
-    <t>Drugs/valproate.pdf</t>
-  </si>
-  <si>
-    <t>Procedures/Inadvertent Catheter Placement Guideline.pdf</t>
-  </si>
-  <si>
     <t>Drugs/stress ulcer prophylaxis.pdf</t>
   </si>
   <si>
@@ -523,24 +523,24 @@
     <t>Drugs/Phosphate.pdf</t>
   </si>
   <si>
+    <t>GI_Liver_and_Transplant/Prokinetics in ICU.pdf</t>
+  </si>
+  <si>
+    <t>Drugs/Octreotide.pdf</t>
+  </si>
+  <si>
     <t>Drugs/Thiopentone.pdf</t>
   </si>
   <si>
     <t>Breathing(Respiratory)/Proning Guideline.pdf</t>
   </si>
   <si>
-    <t>GI_Liver_and_Transplant/Prokinetics in ICU.pdf</t>
-  </si>
-  <si>
-    <t>Drugs/Octreotide.pdf</t>
+    <t>Procedures/ACCPs acquiring initial CVC competencies.pdf</t>
   </si>
   <si>
     <t>Procedures/ACCP CVC placement following completion of initial competencies.pdf</t>
   </si>
   <si>
-    <t>Procedures/ACCPs acquiring initial CVC competencies.pdf</t>
-  </si>
-  <si>
     <t>Post_op_care/Prevention and treatment of paraplegia after major aortic procedures.pdf</t>
   </si>
   <si>
@@ -577,202 +577,202 @@
     <t>Policies_and_admin/Repatriaiton Checklist for Critical Care.pdf</t>
   </si>
   <si>
-    <t>2011-03-07</t>
-  </si>
-  <si>
-    <t>2011-06-07</t>
-  </si>
-  <si>
-    <t>2011-07-07</t>
-  </si>
-  <si>
-    <t>2011-12-07</t>
-  </si>
-  <si>
-    <t>2014-09-07</t>
-  </si>
-  <si>
-    <t>2014-10-07</t>
-  </si>
-  <si>
-    <t>2014-11-07</t>
-  </si>
-  <si>
-    <t>2014-12-07</t>
-  </si>
-  <si>
-    <t>2015-03-07</t>
-  </si>
-  <si>
-    <t>2016-01-07</t>
-  </si>
-  <si>
-    <t>2016-04-07</t>
-  </si>
-  <si>
-    <t>2016-08-07</t>
-  </si>
-  <si>
-    <t>2017-01-07</t>
-  </si>
-  <si>
-    <t>2017-08-07</t>
-  </si>
-  <si>
-    <t>2017-10-07</t>
-  </si>
-  <si>
-    <t>2017-11-07</t>
-  </si>
-  <si>
-    <t>2018-05-07</t>
-  </si>
-  <si>
-    <t>2018-07-07</t>
-  </si>
-  <si>
-    <t>2019-05-07</t>
-  </si>
-  <si>
-    <t>2019-06-07</t>
-  </si>
-  <si>
-    <t>2019-08-07</t>
-  </si>
-  <si>
-    <t>2019-09-07</t>
-  </si>
-  <si>
-    <t>2020-01-07</t>
-  </si>
-  <si>
-    <t>2020-03-07</t>
-  </si>
-  <si>
-    <t>2020-04-07</t>
-  </si>
-  <si>
-    <t>2020-05-07</t>
-  </si>
-  <si>
-    <t>2020-07-07</t>
-  </si>
-  <si>
-    <t>2020-08-07</t>
-  </si>
-  <si>
-    <t>2020-11-07</t>
-  </si>
-  <si>
-    <t>2021-02-07</t>
-  </si>
-  <si>
-    <t>2021-05-07</t>
-  </si>
-  <si>
-    <t>2021-06-07</t>
-  </si>
-  <si>
-    <t>2021-09-07</t>
-  </si>
-  <si>
-    <t>2021-12-07</t>
-  </si>
-  <si>
-    <t>2022-01-07</t>
-  </si>
-  <si>
-    <t>2022-03-07</t>
-  </si>
-  <si>
-    <t>2022-04-07</t>
-  </si>
-  <si>
-    <t>2022-05-07</t>
-  </si>
-  <si>
-    <t>2022-06-07</t>
-  </si>
-  <si>
-    <t>2022-07-07</t>
-  </si>
-  <si>
-    <t>2022-08-07</t>
-  </si>
-  <si>
-    <t>2022-10-07</t>
-  </si>
-  <si>
-    <t>2022-11-07</t>
-  </si>
-  <si>
-    <t>2022-12-07</t>
-  </si>
-  <si>
-    <t>2023-01-07</t>
-  </si>
-  <si>
-    <t>2023-02-07</t>
-  </si>
-  <si>
-    <t>2023-04-07</t>
-  </si>
-  <si>
-    <t>2023-05-07</t>
-  </si>
-  <si>
-    <t>2023-06-07</t>
-  </si>
-  <si>
-    <t>2023-07-07</t>
-  </si>
-  <si>
-    <t>2023-08-07</t>
-  </si>
-  <si>
-    <t>2023-09-07</t>
-  </si>
-  <si>
-    <t>2023-10-07</t>
-  </si>
-  <si>
-    <t>2024-01-07</t>
-  </si>
-  <si>
-    <t>2024-02-07</t>
-  </si>
-  <si>
-    <t>2024-03-07</t>
-  </si>
-  <si>
-    <t>2024-04-07</t>
-  </si>
-  <si>
-    <t>2024-05-07</t>
+    <t>2011-03-09</t>
+  </si>
+  <si>
+    <t>2011-06-09</t>
+  </si>
+  <si>
+    <t>2011-07-09</t>
+  </si>
+  <si>
+    <t>2011-12-09</t>
+  </si>
+  <si>
+    <t>2014-09-09</t>
+  </si>
+  <si>
+    <t>2014-10-09</t>
+  </si>
+  <si>
+    <t>2014-11-09</t>
+  </si>
+  <si>
+    <t>2014-12-09</t>
+  </si>
+  <si>
+    <t>2015-03-09</t>
+  </si>
+  <si>
+    <t>2016-01-09</t>
+  </si>
+  <si>
+    <t>2016-04-09</t>
+  </si>
+  <si>
+    <t>2016-08-09</t>
+  </si>
+  <si>
+    <t>2017-01-09</t>
+  </si>
+  <si>
+    <t>2017-08-09</t>
+  </si>
+  <si>
+    <t>2017-10-09</t>
+  </si>
+  <si>
+    <t>2017-11-09</t>
+  </si>
+  <si>
+    <t>2018-05-09</t>
+  </si>
+  <si>
+    <t>2018-07-09</t>
+  </si>
+  <si>
+    <t>2019-05-09</t>
+  </si>
+  <si>
+    <t>2019-06-09</t>
+  </si>
+  <si>
+    <t>2019-08-09</t>
+  </si>
+  <si>
+    <t>2019-09-09</t>
+  </si>
+  <si>
+    <t>2020-01-09</t>
+  </si>
+  <si>
+    <t>2020-03-09</t>
+  </si>
+  <si>
+    <t>2020-04-09</t>
+  </si>
+  <si>
+    <t>2020-05-09</t>
+  </si>
+  <si>
+    <t>2020-07-09</t>
+  </si>
+  <si>
+    <t>2020-08-09</t>
+  </si>
+  <si>
+    <t>2020-11-09</t>
+  </si>
+  <si>
+    <t>2021-02-09</t>
+  </si>
+  <si>
+    <t>2021-05-09</t>
+  </si>
+  <si>
+    <t>2021-06-09</t>
+  </si>
+  <si>
+    <t>2021-09-09</t>
+  </si>
+  <si>
+    <t>2021-12-09</t>
+  </si>
+  <si>
+    <t>2022-01-09</t>
+  </si>
+  <si>
+    <t>2022-03-09</t>
+  </si>
+  <si>
+    <t>2022-04-09</t>
+  </si>
+  <si>
+    <t>2022-05-09</t>
+  </si>
+  <si>
+    <t>2022-06-09</t>
+  </si>
+  <si>
+    <t>2022-07-09</t>
+  </si>
+  <si>
+    <t>2022-08-09</t>
+  </si>
+  <si>
+    <t>2022-10-09</t>
+  </si>
+  <si>
+    <t>2022-11-09</t>
+  </si>
+  <si>
+    <t>2022-12-09</t>
+  </si>
+  <si>
+    <t>2023-01-09</t>
+  </si>
+  <si>
+    <t>2023-02-09</t>
+  </si>
+  <si>
+    <t>2023-04-09</t>
+  </si>
+  <si>
+    <t>2023-05-09</t>
+  </si>
+  <si>
+    <t>2023-06-09</t>
+  </si>
+  <si>
+    <t>2023-07-09</t>
+  </si>
+  <si>
+    <t>2023-08-09</t>
+  </si>
+  <si>
+    <t>2023-09-09</t>
+  </si>
+  <si>
+    <t>2023-10-09</t>
+  </si>
+  <si>
+    <t>2024-01-09</t>
+  </si>
+  <si>
+    <t>2024-02-09</t>
+  </si>
+  <si>
+    <t>2024-03-09</t>
+  </si>
+  <si>
+    <t>2024-04-09</t>
+  </si>
+  <si>
+    <t>2024-05-09</t>
   </si>
   <si>
     <t>2024-06-02</t>
   </si>
   <si>
-    <t>2024-06-07</t>
+    <t>2024-06-09</t>
   </si>
   <si>
     <t>2024-06-26</t>
   </si>
   <si>
-    <t>2024-07-07</t>
+    <t>2024-07-09</t>
   </si>
   <si>
     <t>2024-07-25</t>
   </si>
   <si>
-    <t>2024-08-07</t>
+    <t>2024-08-09</t>
   </si>
   <si>
     <t>2024-08-15</t>
   </si>
   <si>
-    <t>2024-10-07</t>
+    <t>2024-10-09</t>
   </si>
   <si>
     <t>2024-10-24</t>
@@ -787,70 +787,70 @@
     <t>2024-12-24</t>
   </si>
   <si>
-    <t>2025-01-07</t>
-  </si>
-  <si>
-    <t>2025-02-07</t>
-  </si>
-  <si>
-    <t>2025-03-07</t>
-  </si>
-  <si>
-    <t>2025-04-07</t>
-  </si>
-  <si>
-    <t>2025-05-07</t>
-  </si>
-  <si>
-    <t>2025-06-07</t>
-  </si>
-  <si>
-    <t>2025-07-07</t>
-  </si>
-  <si>
-    <t>2025-08-07</t>
-  </si>
-  <si>
-    <t>2025-10-07</t>
-  </si>
-  <si>
-    <t>2025-11-07</t>
-  </si>
-  <si>
-    <t>2026-01-07</t>
-  </si>
-  <si>
-    <t>2026-03-07</t>
-  </si>
-  <si>
-    <t>2026-05-07</t>
-  </si>
-  <si>
-    <t>2026-07-07</t>
-  </si>
-  <si>
-    <t>2026-11-07</t>
-  </si>
-  <si>
-    <t>2027-01-07</t>
-  </si>
-  <si>
-    <t>2027-02-07</t>
-  </si>
-  <si>
-    <t>2028-02-07</t>
-  </si>
-  <si>
-    <t>2028-05-07</t>
-  </si>
-  <si>
-    <t>2028-07-07</t>
-  </si>
-  <si>
-    <t>2028-11-07</t>
-  </si>
-  <si>
-    <t>2030-11-07</t>
+    <t>2025-01-09</t>
+  </si>
+  <si>
+    <t>2025-02-09</t>
+  </si>
+  <si>
+    <t>2025-03-09</t>
+  </si>
+  <si>
+    <t>2025-04-09</t>
+  </si>
+  <si>
+    <t>2025-05-09</t>
+  </si>
+  <si>
+    <t>2025-06-09</t>
+  </si>
+  <si>
+    <t>2025-07-09</t>
+  </si>
+  <si>
+    <t>2025-08-09</t>
+  </si>
+  <si>
+    <t>2025-10-09</t>
+  </si>
+  <si>
+    <t>2025-11-09</t>
+  </si>
+  <si>
+    <t>2026-01-09</t>
+  </si>
+  <si>
+    <t>2026-03-09</t>
+  </si>
+  <si>
+    <t>2026-05-09</t>
+  </si>
+  <si>
+    <t>2026-07-09</t>
+  </si>
+  <si>
+    <t>2026-11-09</t>
+  </si>
+  <si>
+    <t>2027-01-09</t>
+  </si>
+  <si>
+    <t>2027-02-09</t>
+  </si>
+  <si>
+    <t>2028-02-09</t>
+  </si>
+  <si>
+    <t>2028-05-09</t>
+  </si>
+  <si>
+    <t>2028-07-09</t>
+  </si>
+  <si>
+    <t>2028-11-09</t>
+  </si>
+  <si>
+    <t>2030-11-09</t>
   </si>
 </sst>
 </file>

--- a/lothiancriticalcare/1a74f8f7b8b7e871b413c4697f68b4401fbacdf0/reviewdates.xlsx
+++ b/lothiancriticalcare/1a74f8f7b8b7e871b413c4697f68b4401fbacdf0/reviewdates.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="279">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="280">
   <si>
     <t>File</t>
   </si>
@@ -37,6 +37,9 @@
     <t>Drugs/heparin_critical_care_only.pdf</t>
   </si>
   <si>
+    <t>Routine_Care/test_20240309.pdf</t>
+  </si>
+  <si>
     <t>Routine_Care/Invasive Flush Systems.pdf</t>
   </si>
   <si>
@@ -85,12 +88,12 @@
     <t>End_of_life_care/Reasons to report a death to PF.pdf</t>
   </si>
   <si>
+    <t>Neurological/SOP -  Femoral site care.pdf</t>
+  </si>
+  <si>
     <t>Airway/Tracheostomy_Laryngectomy/Tracheostomy suctioning cleaning guideline.pdf</t>
   </si>
   <si>
-    <t>Neurological/SOP -  Femoral site care.pdf</t>
-  </si>
-  <si>
     <t>Airway/Tracheostomy_Laryngectomy/Tracheostomy change in Critical Care.pdf</t>
   </si>
   <si>
@@ -103,24 +106,24 @@
     <t>Post_op_care/Epidural top-up.pdf</t>
   </si>
   <si>
+    <t>Covid-19/WGH/CoVid intubation checklist WGH.pdf</t>
+  </si>
+  <si>
+    <t>Covid-19/SJH/SJH COVID19 ITU Intubation Action Card.pdf</t>
+  </si>
+  <si>
     <t>Covid-19/SJH/SJH COVID19 ED Intubation Action Card.pdf</t>
   </si>
   <si>
+    <t>Drugs/heparin for Haemofiltration.pdf</t>
+  </si>
+  <si>
+    <t>Diabetes_and_Glucose/Hyperosmolar Hyperglycaemic State.pdf</t>
+  </si>
+  <si>
     <t>Airway/Emergency intubation checklist_em_pub.pdf</t>
   </si>
   <si>
-    <t>Drugs/heparin for Haemofiltration.pdf</t>
-  </si>
-  <si>
-    <t>Covid-19/SJH/SJH COVID19 ITU Intubation Action Card.pdf</t>
-  </si>
-  <si>
-    <t>Diabetes_and_Glucose/Hyperosmolar Hyperglycaemic State.pdf</t>
-  </si>
-  <si>
-    <t>Covid-19/WGH/CoVid intubation checklist WGH.pdf</t>
-  </si>
-  <si>
     <t>Drugs/fentanyl.pdf</t>
   </si>
   <si>
@@ -139,42 +142,42 @@
     <t>Airway/Percutaneous tracheostomy checklist.pdf</t>
   </si>
   <si>
+    <t>Delirium/Managing a Potentially Violent Patient.pdf</t>
+  </si>
+  <si>
     <t>Delirium/Risk assessment posi mit.pdf</t>
   </si>
   <si>
     <t>Infection_and_sepsis/SOP Ultrasound Cleaning.pdf</t>
   </si>
   <si>
-    <t>Delirium/Managing a Potentially Violent Patient.pdf</t>
+    <t>GI_Liver_and_Transplant/Treatment of constipation.pdf</t>
+  </si>
+  <si>
+    <t>GI_Liver_and_Transplant/Abdominal pressure measurement.pdf</t>
+  </si>
+  <si>
+    <t>Airway/Anticipated difficult airway tool.pdf</t>
+  </si>
+  <si>
+    <t>Drugs/ketamine_in_asthma.pdf</t>
   </si>
   <si>
     <t>Breathing(Respiratory)/HFNO.pdf</t>
   </si>
   <si>
-    <t>GI_Liver_and_Transplant/Treatment of constipation.pdf</t>
+    <t>Airway/McGrath Mac.pdf</t>
+  </si>
+  <si>
+    <t>Airway/Tracheostomy_Laryngectomy/Tracheostomy safety box contents.pdf</t>
   </si>
   <si>
     <t>Delirium/Drugs Causing Delirium and Agitiation.pdf</t>
   </si>
   <si>
-    <t>Airway/Tracheostomy_Laryngectomy/Tracheostomy safety box contents.pdf</t>
-  </si>
-  <si>
-    <t>Drugs/ketamine_in_asthma.pdf</t>
-  </si>
-  <si>
-    <t>Airway/McGrath Mac.pdf</t>
-  </si>
-  <si>
     <t>Neurological/Sub arachnoid haemorrhage management.pdf</t>
   </si>
   <si>
-    <t>Airway/Anticipated difficult airway tool.pdf</t>
-  </si>
-  <si>
-    <t>GI_Liver_and_Transplant/Abdominal pressure measurement.pdf</t>
-  </si>
-  <si>
     <t>End_of_life_care/Documentation following death.pdf</t>
   </si>
   <si>
@@ -193,21 +196,21 @@
     <t>Breathing(Respiratory)/Inhaled Nitrous Oxide.pdf</t>
   </si>
   <si>
+    <t>Cardiovascular/Steroids for Septic Shock.pdf</t>
+  </si>
+  <si>
     <t>Breathing(Respiratory)/Equipment/APRV.pdf</t>
   </si>
   <si>
-    <t>Cardiovascular/Steroids for Septic Shock.pdf</t>
-  </si>
-  <si>
     <t>Post_op_care/Epidural Haematoma.pdf</t>
   </si>
   <si>
+    <t>Neurological/SOP for review of Neurosurgical patients in ITU by neurosurgical team.pdf</t>
+  </si>
+  <si>
     <t>Breathing(Respiratory)/Equipment/T piece Y piece.pdf</t>
   </si>
   <si>
-    <t>Neurological/SOP for review of Neurosurgical patients in ITU by neurosurgical team.pdf</t>
-  </si>
-  <si>
     <t>Policies_and_admin/General Critical Care Interaction with HEPMA_pub.pdf</t>
   </si>
   <si>
@@ -229,36 +232,39 @@
     <t>GI_Liver_and_Transplant/Nasogastric feeding protocol.pdf</t>
   </si>
   <si>
+    <t>Drugs/Antibiotic doses in CVVHD.pdf</t>
+  </si>
+  <si>
     <t>Diabetes_and_Glucose/Intravenous Insulin Therapy (not for DKA or HHS).pdf</t>
   </si>
   <si>
-    <t>Drugs/Antibiotic doses in CVVHD.pdf</t>
+    <t>GI_Liver_and_Transplant/Nasojejunal feeding protocol.pdf</t>
   </si>
   <si>
     <t>GI_Liver_and_Transplant/Jejunostomy feeding protocol.pdf</t>
   </si>
   <si>
-    <t>GI_Liver_and_Transplant/Nasojejunal feeding protocol.pdf</t>
-  </si>
-  <si>
     <t>ECLS/RIE ECLS Anti Xa Protocol.pdf</t>
   </si>
   <si>
+    <t>Infection_and_sepsis/Winter Infections Stepdown Guidance.pdf</t>
+  </si>
+  <si>
+    <t>Drugs/vasopressin_sepsis.pdf</t>
+  </si>
+  <si>
     <t>Drugs/vasopressin organ donation.pdf</t>
   </si>
   <si>
-    <t>Drugs/vasopressin_sepsis.pdf</t>
-  </si>
-  <si>
-    <t>Infection_and_sepsis/Winter Infections Stepdown Guidance.pdf</t>
-  </si>
-  <si>
     <t>Covid-19/videos/Donning and Doffing Video.pdf</t>
   </si>
   <si>
     <t>Transfer/ACCP Transfers.pdf</t>
   </si>
   <si>
+    <t>Breathing(Respiratory)/Equipment/Bipap V60.pdf</t>
+  </si>
+  <si>
     <t>Breathing(Respiratory)/CPAP.pdf</t>
   </si>
   <si>
@@ -268,90 +274,87 @@
     <t>Infection_and_sepsis/Infection indications for IVIG.pdf</t>
   </si>
   <si>
-    <t>Breathing(Respiratory)/Equipment/Bipap V60.pdf</t>
-  </si>
-  <si>
     <t>Drugs/piperacillin_tazobactam extended_infusion.pdf</t>
   </si>
   <si>
+    <t>Procedures/CVC Guidance/Securing CVCs.pdf</t>
+  </si>
+  <si>
     <t>Covid-19/Covid 19 Death Certification Guideline.pdf</t>
   </si>
   <si>
-    <t>Procedures/CVC Guidance/Securing CVCs.pdf</t>
+    <t>Neurological/Treatment of status epilepticus.pdf</t>
   </si>
   <si>
     <t>Routine_Care/Video Communication.pdf</t>
   </si>
   <si>
-    <t>Neurological/Treatment of status epilepticus.pdf</t>
+    <t>Cardiovascular/Cardiogenic Shock.pdf</t>
   </si>
   <si>
     <t>Drugs/isoprenaline.pdf</t>
   </si>
   <si>
-    <t>Cardiovascular/Cardiogenic Shock.pdf</t>
-  </si>
-  <si>
     <t>Haematology_CAR-T/Haem_ICU_transfer.pdf</t>
   </si>
   <si>
+    <t>Drugs/aminophylline.pdf</t>
+  </si>
+  <si>
     <t>Cardiovascular/Management of hypertension within Critical Care.pdf</t>
   </si>
   <si>
-    <t>Drugs/aminophylline.pdf</t>
+    <t>Drugs/phenytoin.pdf</t>
+  </si>
+  <si>
+    <t>Haematology_CAR-T/ICANS.pdf</t>
+  </si>
+  <si>
+    <t>Drugs/pancuronium.pdf</t>
+  </si>
+  <si>
+    <t>Haematology_CAR-T/CRS.pdf</t>
   </si>
   <si>
     <t>Drugs/rocuronium.pdf</t>
   </si>
   <si>
-    <t>Haematology_CAR-T/CRS.pdf</t>
-  </si>
-  <si>
-    <t>Haematology_CAR-T/ICANS.pdf</t>
-  </si>
-  <si>
-    <t>Drugs/phenytoin.pdf</t>
-  </si>
-  <si>
-    <t>Drugs/pancuronium.pdf</t>
-  </si>
-  <si>
     <t>Drugs/milrinone.pdf</t>
   </si>
   <si>
     <t>Policies_and_admin/General Critical Care SOP_pub.pdf</t>
   </si>
   <si>
+    <t>Drugs/clonidine.pdf</t>
+  </si>
+  <si>
+    <t>Organ_donation/Organ Retrieval SOP.pdf</t>
+  </si>
+  <si>
+    <t>End_of_life_care/Palliative extubation &amp; withdrawal of invasive ventilatory support nursing checklist.pdf</t>
+  </si>
+  <si>
+    <t>GI_Liver_and_Transplant/ICU - Upper GI bleeding (Endoscopy guideline).pdf</t>
+  </si>
+  <si>
+    <t>Neurological/Critical Care MRI Procedure_pub.pdf</t>
+  </si>
+  <si>
     <t>Ethics_and_Law/DNACPR policy for Scotland.pdf</t>
   </si>
   <si>
-    <t>GI_Liver_and_Transplant/ICU - Upper GI bleeding (Endoscopy guideline).pdf</t>
+    <t>Ethics_and_Law/Care at the End of Life (FICM).pdf</t>
+  </si>
+  <si>
+    <t>End_of_life_care/CMO &amp; NRS Guidance for Doctors completing MCCD.pdf</t>
+  </si>
+  <si>
+    <t>Neurological/Management of traumatic brain injury.pdf</t>
   </si>
   <si>
     <t>Infection_and_sepsis/Trip Out of Unit infection guidance.pdf</t>
   </si>
   <si>
-    <t>Ethics_and_Law/Care at the End of Life (FICM).pdf</t>
-  </si>
-  <si>
-    <t>Organ_donation/Organ Retrieval SOP.pdf</t>
-  </si>
-  <si>
-    <t>Drugs/clonidine.pdf</t>
-  </si>
-  <si>
-    <t>Neurological/Management of traumatic brain injury.pdf</t>
-  </si>
-  <si>
-    <t>Neurological/Critical Care MRI Procedure_pub.pdf</t>
-  </si>
-  <si>
-    <t>End_of_life_care/Palliative extubation &amp; withdrawal of invasive ventilatory support nursing checklist.pdf</t>
-  </si>
-  <si>
-    <t>End_of_life_care/CMO &amp; NRS Guidance for Doctors completing MCCD.pdf</t>
-  </si>
-  <si>
     <t>Covid-19/COVID 19 ICM guidance basic goals_June_2022.pdf</t>
   </si>
   <si>
@@ -367,27 +370,27 @@
     <t>GI_Liver_and_Transplant/Fulminant Liver Failure.pdf</t>
   </si>
   <si>
+    <t>Breathing(Respiratory)/Equipment/Passy Muir Valve.pdf</t>
+  </si>
+  <si>
+    <t>Drugs/glyceryl_trinitrate.pdf</t>
+  </si>
+  <si>
     <t>GI_Liver_and_Transplant/Confirmation of Nasogastric Tube Position.pdf</t>
   </si>
   <si>
     <t>Drugs/dexmedetomidine.pdf</t>
   </si>
   <si>
-    <t>Breathing(Respiratory)/Equipment/Passy Muir Valve.pdf</t>
-  </si>
-  <si>
-    <t>Drugs/glyceryl_trinitrate.pdf</t>
-  </si>
-  <si>
     <t>Infection_and_sepsis/Antifungal guidance in critical care.pdf</t>
   </si>
   <si>
+    <t>Cardiovascular/Intra Aortic Balloon Pump Bedside Checks_pub.pdf</t>
+  </si>
+  <si>
     <t>Cardiovascular/Intra Aortic Balloon Pump Guideline_pub.pdf</t>
   </si>
   <si>
-    <t>Cardiovascular/Intra Aortic Balloon Pump Bedside Checks_pub.pdf</t>
-  </si>
-  <si>
     <t>Transfer/Transfer Outdoors to Garden Guideline.pdf</t>
   </si>
   <si>
@@ -415,48 +418,48 @@
     <t>Drugs/magnesium.pdf</t>
   </si>
   <si>
+    <t>Drugs/ICU - IV drug infusions.pdf</t>
+  </si>
+  <si>
     <t>Drugs/neostigmine.pdf</t>
   </si>
   <si>
-    <t>Drugs/ICU - IV drug infusions.pdf</t>
-  </si>
-  <si>
     <t>Drugs/vancomycin.pdf</t>
   </si>
   <si>
     <t>Drugs/labetalol.pdf</t>
   </si>
   <si>
+    <t>Neurological/Intrathecal policy RIE.pdf</t>
+  </si>
+  <si>
     <t>Infection_and_sepsis/Initial investigation and management in unidentified Infections.pdf</t>
   </si>
   <si>
-    <t>Neurological/Intrathecal policy RIE.pdf</t>
-  </si>
-  <si>
     <t>Drugs/midazolam.pdf</t>
   </si>
   <si>
     <t>Cardiovascular/Management of Acute Type B Aortic Dissection Guideline.pdf</t>
   </si>
   <si>
+    <t>Drugs/salbutamol.pdf</t>
+  </si>
+  <si>
     <t>Procedures/CVC Guidance/CVC NHL  April 2023.pdf</t>
   </si>
   <si>
     <t>Drugs/nimodipine.pdf</t>
   </si>
   <si>
-    <t>Drugs/salbutamol.pdf</t>
-  </si>
-  <si>
     <t>Drugs/potassium.pdf</t>
   </si>
   <si>
+    <t>Drugs/phenobarbitone.pdf</t>
+  </si>
+  <si>
     <t>Routine_Care/ICU Eye Care Guideline.pdf</t>
   </si>
   <si>
-    <t>Drugs/phenobarbitone.pdf</t>
-  </si>
-  <si>
     <t>Drugs/nicardipine.pdf</t>
   </si>
   <si>
@@ -466,54 +469,54 @@
     <t>Procedures/Arterial Line insertion for ACCPs.pdf</t>
   </si>
   <si>
+    <t>Drugs/noradrenaline (peripheral).pdf</t>
+  </si>
+  <si>
+    <t>Drugs/Epoprostenol.pdf</t>
+  </si>
+  <si>
+    <t>Breathing(Respiratory)/Manual Ventilation and MHI.pdf</t>
+  </si>
+  <si>
     <t>Neurological/Ventriculitis Guideline.pdf</t>
   </si>
   <si>
-    <t>Drugs/Epoprostenol.pdf</t>
+    <t>Drugs/phenylephrine.pdf</t>
   </si>
   <si>
     <t>Drugs/morphine.pdf</t>
   </si>
   <si>
-    <t>Breathing(Respiratory)/Manual Ventilation and MHI.pdf</t>
-  </si>
-  <si>
-    <t>Drugs/phenylephrine.pdf</t>
-  </si>
-  <si>
-    <t>Drugs/noradrenaline (peripheral).pdf</t>
+    <t>Cardiovascular/Cardiac Output Monitoring_pub .pdf</t>
+  </si>
+  <si>
+    <t>Cardiovascular/Pulmonary_Embolism_and_DVT/Catheter directed thrombolysis of iliofemoral DVT alteplase_pub.pdf</t>
   </si>
   <si>
     <t>Drugs/calcium.pdf</t>
   </si>
   <si>
-    <t>Cardiovascular/Pulmonary_Embolism_and_DVT/Catheter directed thrombolysis of iliofemoral DVT alteplase_pub.pdf</t>
-  </si>
-  <si>
-    <t>Cardiovascular/Cardiac Output Monitoring_pub .pdf</t>
+    <t>Drugs/dalteparin_thromboprophylaxis.pdf</t>
   </si>
   <si>
     <t>Drugs/Vancomycin Continuous Infusion Fluid Restricted.pdf</t>
   </si>
   <si>
-    <t>Drugs/dalteparin_thromboprophylaxis.pdf</t>
-  </si>
-  <si>
     <t>Drugs/atracurium.pdf</t>
   </si>
   <si>
     <t>Airway/Tracheostomy_Laryngectomy/Decannulation Guidline.pdf</t>
   </si>
   <si>
+    <t>Policies_and_admin/Pet Visitation.pdf</t>
+  </si>
+  <si>
+    <t>Drugs/valproate.pdf</t>
+  </si>
+  <si>
     <t>Procedures/Inadvertent Catheter Placement Guideline.pdf</t>
   </si>
   <si>
-    <t>Drugs/valproate.pdf</t>
-  </si>
-  <si>
-    <t>Policies_and_admin/Pet Visitation.pdf</t>
-  </si>
-  <si>
     <t>Drugs/stress ulcer prophylaxis.pdf</t>
   </si>
   <si>
@@ -523,22 +526,22 @@
     <t>Drugs/Phosphate.pdf</t>
   </si>
   <si>
+    <t>Drugs/Thiopentone.pdf</t>
+  </si>
+  <si>
+    <t>Breathing(Respiratory)/Proning Guideline.pdf</t>
+  </si>
+  <si>
     <t>GI_Liver_and_Transplant/Prokinetics in ICU.pdf</t>
   </si>
   <si>
     <t>Drugs/Octreotide.pdf</t>
   </si>
   <si>
-    <t>Drugs/Thiopentone.pdf</t>
-  </si>
-  <si>
-    <t>Breathing(Respiratory)/Proning Guideline.pdf</t>
+    <t>Procedures/ACCP CVC placement following completion of initial competencies.pdf</t>
   </si>
   <si>
     <t>Procedures/ACCPs acquiring initial CVC competencies.pdf</t>
-  </si>
-  <si>
-    <t>Procedures/ACCP CVC placement following completion of initial competencies.pdf</t>
   </si>
   <si>
     <t>Post_op_care/Prevention and treatment of paraplegia after major aortic procedures.pdf</t>
@@ -1208,7 +1211,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B186"/>
+  <dimension ref="A1:B187"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1227,7 +1230,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -1235,7 +1238,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -1243,7 +1246,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -1251,7 +1254,7 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -1259,7 +1262,7 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -1267,7 +1270,7 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -1347,7 +1350,7 @@
         <v>17</v>
       </c>
       <c r="B17" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -1387,7 +1390,7 @@
         <v>22</v>
       </c>
       <c r="B22" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -1403,7 +1406,7 @@
         <v>24</v>
       </c>
       <c r="B24" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -1411,7 +1414,7 @@
         <v>25</v>
       </c>
       <c r="B25" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -1451,7 +1454,7 @@
         <v>30</v>
       </c>
       <c r="B30" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -1459,7 +1462,7 @@
         <v>31</v>
       </c>
       <c r="B31" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -1467,7 +1470,7 @@
         <v>32</v>
       </c>
       <c r="B32" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -1475,7 +1478,7 @@
         <v>33</v>
       </c>
       <c r="B33" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -1483,7 +1486,7 @@
         <v>34</v>
       </c>
       <c r="B34" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -1547,7 +1550,7 @@
         <v>42</v>
       </c>
       <c r="B42" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -1555,7 +1558,7 @@
         <v>43</v>
       </c>
       <c r="B43" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -1571,7 +1574,7 @@
         <v>45</v>
       </c>
       <c r="B45" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -1579,7 +1582,7 @@
         <v>46</v>
       </c>
       <c r="B46" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -1587,7 +1590,7 @@
         <v>47</v>
       </c>
       <c r="B47" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -1595,7 +1598,7 @@
         <v>48</v>
       </c>
       <c r="B48" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -1603,7 +1606,7 @@
         <v>49</v>
       </c>
       <c r="B49" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -1611,7 +1614,7 @@
         <v>50</v>
       </c>
       <c r="B50" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -1619,7 +1622,7 @@
         <v>51</v>
       </c>
       <c r="B51" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -1627,7 +1630,7 @@
         <v>52</v>
       </c>
       <c r="B52" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -1667,7 +1670,7 @@
         <v>57</v>
       </c>
       <c r="B57" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
     </row>
     <row r="58" spans="1:2">
@@ -1691,7 +1694,7 @@
         <v>60</v>
       </c>
       <c r="B60" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
     </row>
     <row r="61" spans="1:2">
@@ -1707,7 +1710,7 @@
         <v>62</v>
       </c>
       <c r="B62" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
     </row>
     <row r="63" spans="1:2">
@@ -1715,7 +1718,7 @@
         <v>63</v>
       </c>
       <c r="B63" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
     </row>
     <row r="64" spans="1:2">
@@ -1755,7 +1758,7 @@
         <v>68</v>
       </c>
       <c r="B68" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="69" spans="1:2">
@@ -1787,7 +1790,7 @@
         <v>72</v>
       </c>
       <c r="B72" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
     </row>
     <row r="73" spans="1:2">
@@ -1803,7 +1806,7 @@
         <v>74</v>
       </c>
       <c r="B74" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
     </row>
     <row r="75" spans="1:2">
@@ -1811,7 +1814,7 @@
         <v>75</v>
       </c>
       <c r="B75" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
     </row>
     <row r="76" spans="1:2">
@@ -1827,7 +1830,7 @@
         <v>77</v>
       </c>
       <c r="B77" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
     </row>
     <row r="78" spans="1:2">
@@ -1835,7 +1838,7 @@
         <v>78</v>
       </c>
       <c r="B78" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
     </row>
     <row r="79" spans="1:2">
@@ -1851,7 +1854,7 @@
         <v>80</v>
       </c>
       <c r="B80" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="81" spans="1:2">
@@ -1867,7 +1870,7 @@
         <v>82</v>
       </c>
       <c r="B82" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="83" spans="1:2">
@@ -1875,7 +1878,7 @@
         <v>83</v>
       </c>
       <c r="B83" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="84" spans="1:2">
@@ -1883,7 +1886,7 @@
         <v>84</v>
       </c>
       <c r="B84" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="85" spans="1:2">
@@ -1891,7 +1894,7 @@
         <v>85</v>
       </c>
       <c r="B85" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="86" spans="1:2">
@@ -1907,7 +1910,7 @@
         <v>87</v>
       </c>
       <c r="B87" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="88" spans="1:2">
@@ -1923,7 +1926,7 @@
         <v>89</v>
       </c>
       <c r="B89" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="90" spans="1:2">
@@ -1939,7 +1942,7 @@
         <v>91</v>
       </c>
       <c r="B91" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="92" spans="1:2">
@@ -1963,7 +1966,7 @@
         <v>94</v>
       </c>
       <c r="B94" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="95" spans="1:2">
@@ -1979,7 +1982,7 @@
         <v>96</v>
       </c>
       <c r="B96" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="97" spans="1:2">
@@ -1987,7 +1990,7 @@
         <v>97</v>
       </c>
       <c r="B97" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="98" spans="1:2">
@@ -1995,7 +1998,7 @@
         <v>98</v>
       </c>
       <c r="B98" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="99" spans="1:2">
@@ -2003,7 +2006,7 @@
         <v>99</v>
       </c>
       <c r="B99" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="100" spans="1:2">
@@ -2019,7 +2022,7 @@
         <v>101</v>
       </c>
       <c r="B101" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
     </row>
     <row r="102" spans="1:2">
@@ -2035,7 +2038,7 @@
         <v>103</v>
       </c>
       <c r="B103" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="104" spans="1:2">
@@ -2043,7 +2046,7 @@
         <v>104</v>
       </c>
       <c r="B104" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="105" spans="1:2">
@@ -2051,7 +2054,7 @@
         <v>105</v>
       </c>
       <c r="B105" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="106" spans="1:2">
@@ -2059,7 +2062,7 @@
         <v>106</v>
       </c>
       <c r="B106" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="107" spans="1:2">
@@ -2067,7 +2070,7 @@
         <v>107</v>
       </c>
       <c r="B107" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="108" spans="1:2">
@@ -2075,7 +2078,7 @@
         <v>108</v>
       </c>
       <c r="B108" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="109" spans="1:2">
@@ -2083,7 +2086,7 @@
         <v>109</v>
       </c>
       <c r="B109" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="110" spans="1:2">
@@ -2091,7 +2094,7 @@
         <v>110</v>
       </c>
       <c r="B110" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="111" spans="1:2">
@@ -2099,7 +2102,7 @@
         <v>111</v>
       </c>
       <c r="B111" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="112" spans="1:2">
@@ -2107,7 +2110,7 @@
         <v>112</v>
       </c>
       <c r="B112" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="113" spans="1:2">
@@ -2147,7 +2150,7 @@
         <v>117</v>
       </c>
       <c r="B117" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
     </row>
     <row r="118" spans="1:2">
@@ -2155,7 +2158,7 @@
         <v>118</v>
       </c>
       <c r="B118" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
     </row>
     <row r="119" spans="1:2">
@@ -2163,7 +2166,7 @@
         <v>119</v>
       </c>
       <c r="B119" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
     </row>
     <row r="120" spans="1:2">
@@ -2171,7 +2174,7 @@
         <v>120</v>
       </c>
       <c r="B120" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
     </row>
     <row r="121" spans="1:2">
@@ -2195,7 +2198,7 @@
         <v>123</v>
       </c>
       <c r="B123" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
     </row>
     <row r="124" spans="1:2">
@@ -2203,7 +2206,7 @@
         <v>124</v>
       </c>
       <c r="B124" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
     </row>
     <row r="125" spans="1:2">
@@ -2227,7 +2230,7 @@
         <v>127</v>
       </c>
       <c r="B127" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
     </row>
     <row r="128" spans="1:2">
@@ -2259,7 +2262,7 @@
         <v>131</v>
       </c>
       <c r="B131" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="132" spans="1:2">
@@ -2283,7 +2286,7 @@
         <v>134</v>
       </c>
       <c r="B134" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
     <row r="135" spans="1:2">
@@ -2291,7 +2294,7 @@
         <v>135</v>
       </c>
       <c r="B135" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
     <row r="136" spans="1:2">
@@ -2307,7 +2310,7 @@
         <v>137</v>
       </c>
       <c r="B137" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
     <row r="138" spans="1:2">
@@ -2315,7 +2318,7 @@
         <v>138</v>
       </c>
       <c r="B138" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
     <row r="139" spans="1:2">
@@ -2331,7 +2334,7 @@
         <v>140</v>
       </c>
       <c r="B140" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="141" spans="1:2">
@@ -2347,7 +2350,7 @@
         <v>142</v>
       </c>
       <c r="B142" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="143" spans="1:2">
@@ -2355,7 +2358,7 @@
         <v>143</v>
       </c>
       <c r="B143" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="144" spans="1:2">
@@ -2363,7 +2366,7 @@
         <v>144</v>
       </c>
       <c r="B144" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="145" spans="1:2">
@@ -2379,7 +2382,7 @@
         <v>146</v>
       </c>
       <c r="B146" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="147" spans="1:2">
@@ -2387,7 +2390,7 @@
         <v>147</v>
       </c>
       <c r="B147" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="148" spans="1:2">
@@ -2395,7 +2398,7 @@
         <v>148</v>
       </c>
       <c r="B148" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="149" spans="1:2">
@@ -2403,7 +2406,7 @@
         <v>149</v>
       </c>
       <c r="B149" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="150" spans="1:2">
@@ -2419,7 +2422,7 @@
         <v>151</v>
       </c>
       <c r="B151" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
     </row>
     <row r="152" spans="1:2">
@@ -2427,7 +2430,7 @@
         <v>152</v>
       </c>
       <c r="B152" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
     </row>
     <row r="153" spans="1:2">
@@ -2435,7 +2438,7 @@
         <v>153</v>
       </c>
       <c r="B153" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
     </row>
     <row r="154" spans="1:2">
@@ -2443,7 +2446,7 @@
         <v>154</v>
       </c>
       <c r="B154" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
     </row>
     <row r="155" spans="1:2">
@@ -2451,7 +2454,7 @@
         <v>155</v>
       </c>
       <c r="B155" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
     </row>
     <row r="156" spans="1:2">
@@ -2467,7 +2470,7 @@
         <v>157</v>
       </c>
       <c r="B157" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
     </row>
     <row r="158" spans="1:2">
@@ -2475,7 +2478,7 @@
         <v>158</v>
       </c>
       <c r="B158" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
     </row>
     <row r="159" spans="1:2">
@@ -2491,7 +2494,7 @@
         <v>160</v>
       </c>
       <c r="B160" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="161" spans="1:2">
@@ -2499,7 +2502,7 @@
         <v>161</v>
       </c>
       <c r="B161" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="162" spans="1:2">
@@ -2507,7 +2510,7 @@
         <v>162</v>
       </c>
       <c r="B162" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="163" spans="1:2">
@@ -2523,7 +2526,7 @@
         <v>164</v>
       </c>
       <c r="B164" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
     </row>
     <row r="165" spans="1:2">
@@ -2531,7 +2534,7 @@
         <v>165</v>
       </c>
       <c r="B165" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
     </row>
     <row r="166" spans="1:2">
@@ -2547,7 +2550,7 @@
         <v>167</v>
       </c>
       <c r="B167" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
     </row>
     <row r="168" spans="1:2">
@@ -2555,7 +2558,7 @@
         <v>168</v>
       </c>
       <c r="B168" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
     </row>
     <row r="169" spans="1:2">
@@ -2571,7 +2574,7 @@
         <v>170</v>
       </c>
       <c r="B170" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
     </row>
     <row r="171" spans="1:2">
@@ -2579,7 +2582,7 @@
         <v>171</v>
       </c>
       <c r="B171" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
     </row>
     <row r="172" spans="1:2">
@@ -2587,7 +2590,7 @@
         <v>172</v>
       </c>
       <c r="B172" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
     </row>
     <row r="173" spans="1:2">
@@ -2603,7 +2606,7 @@
         <v>174</v>
       </c>
       <c r="B174" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="175" spans="1:2">
@@ -2611,7 +2614,7 @@
         <v>175</v>
       </c>
       <c r="B175" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="176" spans="1:2">
@@ -2651,7 +2654,7 @@
         <v>180</v>
       </c>
       <c r="B180" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
     </row>
     <row r="181" spans="1:2">
@@ -2700,6 +2703,14 @@
       </c>
       <c r="B186" t="s">
         <v>278</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2">
+      <c r="A187" t="s">
+        <v>187</v>
+      </c>
+      <c r="B187" t="s">
+        <v>279</v>
       </c>
     </row>
   </sheetData>

--- a/lothiancriticalcare/1a74f8f7b8b7e871b413c4697f68b4401fbacdf0/reviewdates.xlsx
+++ b/lothiancriticalcare/1a74f8f7b8b7e871b413c4697f68b4401fbacdf0/reviewdates.xlsx
@@ -37,9 +37,6 @@
     <t>Drugs/heparin_critical_care_only.pdf</t>
   </si>
   <si>
-    <t>Routine_Care/test_20240309.pdf</t>
-  </si>
-  <si>
     <t>Routine_Care/Invasive Flush Systems.pdf</t>
   </si>
   <si>
@@ -91,12 +88,12 @@
     <t>Neurological/SOP -  Femoral site care.pdf</t>
   </si>
   <si>
+    <t>Airway/Tracheostomy_Laryngectomy/Tracheostomy change in Critical Care.pdf</t>
+  </si>
+  <si>
     <t>Airway/Tracheostomy_Laryngectomy/Tracheostomy suctioning cleaning guideline.pdf</t>
   </si>
   <si>
-    <t>Airway/Tracheostomy_Laryngectomy/Tracheostomy change in Critical Care.pdf</t>
-  </si>
-  <si>
     <t>Drugs/sodium_bicarbonate.pdf</t>
   </si>
   <si>
@@ -109,21 +106,21 @@
     <t>Covid-19/WGH/CoVid intubation checklist WGH.pdf</t>
   </si>
   <si>
+    <t>Diabetes_and_Glucose/Hyperosmolar Hyperglycaemic State.pdf</t>
+  </si>
+  <si>
+    <t>Drugs/heparin for Haemofiltration.pdf</t>
+  </si>
+  <si>
+    <t>Airway/Emergency intubation checklist_em_pub.pdf</t>
+  </si>
+  <si>
+    <t>Covid-19/SJH/SJH COVID19 ED Intubation Action Card.pdf</t>
+  </si>
+  <si>
     <t>Covid-19/SJH/SJH COVID19 ITU Intubation Action Card.pdf</t>
   </si>
   <si>
-    <t>Covid-19/SJH/SJH COVID19 ED Intubation Action Card.pdf</t>
-  </si>
-  <si>
-    <t>Drugs/heparin for Haemofiltration.pdf</t>
-  </si>
-  <si>
-    <t>Diabetes_and_Glucose/Hyperosmolar Hyperglycaemic State.pdf</t>
-  </si>
-  <si>
-    <t>Airway/Emergency intubation checklist_em_pub.pdf</t>
-  </si>
-  <si>
     <t>Drugs/fentanyl.pdf</t>
   </si>
   <si>
@@ -163,21 +160,21 @@
     <t>Drugs/ketamine_in_asthma.pdf</t>
   </si>
   <si>
+    <t>Airway/McGrath Mac.pdf</t>
+  </si>
+  <si>
     <t>Breathing(Respiratory)/HFNO.pdf</t>
   </si>
   <si>
-    <t>Airway/McGrath Mac.pdf</t>
+    <t>Neurological/Sub arachnoid haemorrhage management.pdf</t>
+  </si>
+  <si>
+    <t>Delirium/Drugs Causing Delirium and Agitiation.pdf</t>
   </si>
   <si>
     <t>Airway/Tracheostomy_Laryngectomy/Tracheostomy safety box contents.pdf</t>
   </si>
   <si>
-    <t>Delirium/Drugs Causing Delirium and Agitiation.pdf</t>
-  </si>
-  <si>
-    <t>Neurological/Sub arachnoid haemorrhage management.pdf</t>
-  </si>
-  <si>
     <t>End_of_life_care/Documentation following death.pdf</t>
   </si>
   <si>
@@ -202,15 +199,15 @@
     <t>Breathing(Respiratory)/Equipment/APRV.pdf</t>
   </si>
   <si>
+    <t>Breathing(Respiratory)/Equipment/T piece Y piece.pdf</t>
+  </si>
+  <si>
     <t>Post_op_care/Epidural Haematoma.pdf</t>
   </si>
   <si>
     <t>Neurological/SOP for review of Neurosurgical patients in ITU by neurosurgical team.pdf</t>
   </si>
   <si>
-    <t>Breathing(Respiratory)/Equipment/T piece Y piece.pdf</t>
-  </si>
-  <si>
     <t>Policies_and_admin/General Critical Care Interaction with HEPMA_pub.pdf</t>
   </si>
   <si>
@@ -238,21 +235,21 @@
     <t>Diabetes_and_Glucose/Intravenous Insulin Therapy (not for DKA or HHS).pdf</t>
   </si>
   <si>
+    <t>GI_Liver_and_Transplant/Jejunostomy feeding protocol.pdf</t>
+  </si>
+  <si>
     <t>GI_Liver_and_Transplant/Nasojejunal feeding protocol.pdf</t>
   </si>
   <si>
-    <t>GI_Liver_and_Transplant/Jejunostomy feeding protocol.pdf</t>
-  </si>
-  <si>
     <t>ECLS/RIE ECLS Anti Xa Protocol.pdf</t>
   </si>
   <si>
+    <t>Drugs/vasopressin_sepsis.pdf</t>
+  </si>
+  <si>
     <t>Infection_and_sepsis/Winter Infections Stepdown Guidance.pdf</t>
   </si>
   <si>
-    <t>Drugs/vasopressin_sepsis.pdf</t>
-  </si>
-  <si>
     <t>Drugs/vasopressin organ donation.pdf</t>
   </si>
   <si>
@@ -262,39 +259,39 @@
     <t>Transfer/ACCP Transfers.pdf</t>
   </si>
   <si>
+    <t>Drugs/piperacillin_tazobactam extended_infusion.pdf</t>
+  </si>
+  <si>
     <t>Breathing(Respiratory)/Equipment/Bipap V60.pdf</t>
   </si>
   <si>
+    <t>Breathing(Respiratory)/Equipment/Ventilators Circuits Filters and Closed Suction - Set up and Maintenance.pdf</t>
+  </si>
+  <si>
+    <t>Infection_and_sepsis/Infection indications for IVIG.pdf</t>
+  </si>
+  <si>
     <t>Breathing(Respiratory)/CPAP.pdf</t>
   </si>
   <si>
-    <t>Breathing(Respiratory)/Equipment/Ventilators Circuits Filters and Closed Suction - Set up and Maintenance.pdf</t>
-  </si>
-  <si>
-    <t>Infection_and_sepsis/Infection indications for IVIG.pdf</t>
-  </si>
-  <si>
-    <t>Drugs/piperacillin_tazobactam extended_infusion.pdf</t>
-  </si>
-  <si>
     <t>Procedures/CVC Guidance/Securing CVCs.pdf</t>
   </si>
   <si>
     <t>Covid-19/Covid 19 Death Certification Guideline.pdf</t>
   </si>
   <si>
+    <t>Routine_Care/Video Communication.pdf</t>
+  </si>
+  <si>
     <t>Neurological/Treatment of status epilepticus.pdf</t>
   </si>
   <si>
-    <t>Routine_Care/Video Communication.pdf</t>
+    <t>Drugs/isoprenaline.pdf</t>
   </si>
   <si>
     <t>Cardiovascular/Cardiogenic Shock.pdf</t>
   </si>
   <si>
-    <t>Drugs/isoprenaline.pdf</t>
-  </si>
-  <si>
     <t>Haematology_CAR-T/Haem_ICU_transfer.pdf</t>
   </si>
   <si>
@@ -325,39 +322,39 @@
     <t>Policies_and_admin/General Critical Care SOP_pub.pdf</t>
   </si>
   <si>
+    <t>Ethics_and_Law/Care at the End of Life (FICM).pdf</t>
+  </si>
+  <si>
     <t>Drugs/clonidine.pdf</t>
   </si>
   <si>
+    <t>GI_Liver_and_Transplant/ICU - Upper GI bleeding (Endoscopy guideline).pdf</t>
+  </si>
+  <si>
     <t>Organ_donation/Organ Retrieval SOP.pdf</t>
   </si>
   <si>
+    <t>End_of_life_care/CMO &amp; NRS Guidance for Doctors completing MCCD.pdf</t>
+  </si>
+  <si>
+    <t>Ethics_and_Law/DNACPR policy for Scotland.pdf</t>
+  </si>
+  <si>
+    <t>Neurological/Critical Care MRI Procedure_pub.pdf</t>
+  </si>
+  <si>
     <t>End_of_life_care/Palliative extubation &amp; withdrawal of invasive ventilatory support nursing checklist.pdf</t>
   </si>
   <si>
-    <t>GI_Liver_and_Transplant/ICU - Upper GI bleeding (Endoscopy guideline).pdf</t>
-  </si>
-  <si>
-    <t>Neurological/Critical Care MRI Procedure_pub.pdf</t>
-  </si>
-  <si>
-    <t>Ethics_and_Law/DNACPR policy for Scotland.pdf</t>
-  </si>
-  <si>
-    <t>Ethics_and_Law/Care at the End of Life (FICM).pdf</t>
-  </si>
-  <si>
-    <t>End_of_life_care/CMO &amp; NRS Guidance for Doctors completing MCCD.pdf</t>
-  </si>
-  <si>
     <t>Neurological/Management of traumatic brain injury.pdf</t>
   </si>
   <si>
+    <t>Covid-19/COVID 19 ICM guidance basic goals_June_2022.pdf</t>
+  </si>
+  <si>
     <t>Infection_and_sepsis/Trip Out of Unit infection guidance.pdf</t>
   </si>
   <si>
-    <t>Covid-19/COVID 19 ICM guidance basic goals_June_2022.pdf</t>
-  </si>
-  <si>
     <t>Airway/Cook Staged Extubation Set.pdf</t>
   </si>
   <si>
@@ -367,33 +364,33 @@
     <t>Post_op_care/Epidural hypotension.pdf</t>
   </si>
   <si>
+    <t>Breathing(Respiratory)/Equipment/Passy Muir Valve.pdf</t>
+  </si>
+  <si>
+    <t>Drugs/glyceryl_trinitrate.pdf</t>
+  </si>
+  <si>
+    <t>GI_Liver_and_Transplant/Confirmation of Nasogastric Tube Position.pdf</t>
+  </si>
+  <si>
+    <t>Drugs/dexmedetomidine.pdf</t>
+  </si>
+  <si>
     <t>GI_Liver_and_Transplant/Fulminant Liver Failure.pdf</t>
   </si>
   <si>
-    <t>Breathing(Respiratory)/Equipment/Passy Muir Valve.pdf</t>
-  </si>
-  <si>
-    <t>Drugs/glyceryl_trinitrate.pdf</t>
-  </si>
-  <si>
-    <t>GI_Liver_and_Transplant/Confirmation of Nasogastric Tube Position.pdf</t>
-  </si>
-  <si>
-    <t>Drugs/dexmedetomidine.pdf</t>
-  </si>
-  <si>
     <t>Infection_and_sepsis/Antifungal guidance in critical care.pdf</t>
   </si>
   <si>
+    <t>Transfer/Transfer Outdoors to Garden Guideline.pdf</t>
+  </si>
+  <si>
+    <t>Cardiovascular/Intra Aortic Balloon Pump Guideline_pub.pdf</t>
+  </si>
+  <si>
     <t>Cardiovascular/Intra Aortic Balloon Pump Bedside Checks_pub.pdf</t>
   </si>
   <si>
-    <t>Cardiovascular/Intra Aortic Balloon Pump Guideline_pub.pdf</t>
-  </si>
-  <si>
-    <t>Transfer/Transfer Outdoors to Garden Guideline.pdf</t>
-  </si>
-  <si>
     <t>Breathing(Respiratory)/ARDS Strategy.pdf</t>
   </si>
   <si>
@@ -442,51 +439,54 @@
     <t>Cardiovascular/Management of Acute Type B Aortic Dissection Guideline.pdf</t>
   </si>
   <si>
+    <t>Drugs/potassium.pdf</t>
+  </si>
+  <si>
+    <t>Drugs/nimodipine.pdf</t>
+  </si>
+  <si>
+    <t>Procedures/CVC Guidance/CVC NHL  April 2023.pdf</t>
+  </si>
+  <si>
     <t>Drugs/salbutamol.pdf</t>
   </si>
   <si>
-    <t>Procedures/CVC Guidance/CVC NHL  April 2023.pdf</t>
-  </si>
-  <si>
-    <t>Drugs/nimodipine.pdf</t>
-  </si>
-  <si>
-    <t>Drugs/potassium.pdf</t>
+    <t>Procedures/Arterial Line insertion for ACCPs.pdf</t>
+  </si>
+  <si>
+    <t>Routine_Care/ICU Eye Care Guideline.pdf</t>
+  </si>
+  <si>
+    <t>Drugs/amiodarone.pdf</t>
+  </si>
+  <si>
+    <t>Routine_Care/newtest_c.pdf</t>
   </si>
   <si>
     <t>Drugs/phenobarbitone.pdf</t>
   </si>
   <si>
-    <t>Routine_Care/ICU Eye Care Guideline.pdf</t>
-  </si>
-  <si>
     <t>Drugs/nicardipine.pdf</t>
   </si>
   <si>
-    <t>Drugs/amiodarone.pdf</t>
-  </si>
-  <si>
-    <t>Procedures/Arterial Line insertion for ACCPs.pdf</t>
+    <t>Drugs/morphine.pdf</t>
+  </si>
+  <si>
+    <t>Drugs/phenylephrine.pdf</t>
+  </si>
+  <si>
+    <t>Breathing(Respiratory)/Manual Ventilation and MHI.pdf</t>
+  </si>
+  <si>
+    <t>Neurological/Ventriculitis Guideline.pdf</t>
+  </si>
+  <si>
+    <t>Drugs/Epoprostenol.pdf</t>
   </si>
   <si>
     <t>Drugs/noradrenaline (peripheral).pdf</t>
   </si>
   <si>
-    <t>Drugs/Epoprostenol.pdf</t>
-  </si>
-  <si>
-    <t>Breathing(Respiratory)/Manual Ventilation and MHI.pdf</t>
-  </si>
-  <si>
-    <t>Neurological/Ventriculitis Guideline.pdf</t>
-  </si>
-  <si>
-    <t>Drugs/phenylephrine.pdf</t>
-  </si>
-  <si>
-    <t>Drugs/morphine.pdf</t>
-  </si>
-  <si>
     <t>Cardiovascular/Cardiac Output Monitoring_pub .pdf</t>
   </si>
   <si>
@@ -499,15 +499,15 @@
     <t>Drugs/dalteparin_thromboprophylaxis.pdf</t>
   </si>
   <si>
+    <t>Airway/Tracheostomy_Laryngectomy/Decannulation Guidline.pdf</t>
+  </si>
+  <si>
+    <t>Drugs/atracurium.pdf</t>
+  </si>
+  <si>
     <t>Drugs/Vancomycin Continuous Infusion Fluid Restricted.pdf</t>
   </si>
   <si>
-    <t>Drugs/atracurium.pdf</t>
-  </si>
-  <si>
-    <t>Airway/Tracheostomy_Laryngectomy/Decannulation Guidline.pdf</t>
-  </si>
-  <si>
     <t>Policies_and_admin/Pet Visitation.pdf</t>
   </si>
   <si>
@@ -517,13 +517,13 @@
     <t>Procedures/Inadvertent Catheter Placement Guideline.pdf</t>
   </si>
   <si>
+    <t>Drugs/Phosphate.pdf</t>
+  </si>
+  <si>
     <t>Drugs/stress ulcer prophylaxis.pdf</t>
   </si>
   <si>
     <t>Drugs/ketamine_for_status epilepticus.pdf</t>
-  </si>
-  <si>
-    <t>Drugs/Phosphate.pdf</t>
   </si>
   <si>
     <t>Drugs/Thiopentone.pdf</t>
@@ -1278,7 +1278,7 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -1286,7 +1286,7 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -1294,7 +1294,7 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -1302,7 +1302,7 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -1310,7 +1310,7 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -1318,7 +1318,7 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -1326,7 +1326,7 @@
         <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -1334,7 +1334,7 @@
         <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -1342,7 +1342,7 @@
         <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -1358,7 +1358,7 @@
         <v>18</v>
       </c>
       <c r="B18" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -1366,7 +1366,7 @@
         <v>19</v>
       </c>
       <c r="B19" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -1374,7 +1374,7 @@
         <v>20</v>
       </c>
       <c r="B20" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -1382,7 +1382,7 @@
         <v>21</v>
       </c>
       <c r="B21" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -1398,7 +1398,7 @@
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -1422,7 +1422,7 @@
         <v>26</v>
       </c>
       <c r="B26" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -1430,7 +1430,7 @@
         <v>27</v>
       </c>
       <c r="B27" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -1438,7 +1438,7 @@
         <v>28</v>
       </c>
       <c r="B28" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -1446,7 +1446,7 @@
         <v>29</v>
       </c>
       <c r="B29" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -1494,7 +1494,7 @@
         <v>35</v>
       </c>
       <c r="B35" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -1502,7 +1502,7 @@
         <v>36</v>
       </c>
       <c r="B36" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -1510,7 +1510,7 @@
         <v>37</v>
       </c>
       <c r="B37" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -1518,7 +1518,7 @@
         <v>38</v>
       </c>
       <c r="B38" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -1526,7 +1526,7 @@
         <v>39</v>
       </c>
       <c r="B39" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -1534,7 +1534,7 @@
         <v>40</v>
       </c>
       <c r="B40" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -1542,7 +1542,7 @@
         <v>41</v>
       </c>
       <c r="B41" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -1566,7 +1566,7 @@
         <v>44</v>
       </c>
       <c r="B44" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -1638,7 +1638,7 @@
         <v>53</v>
       </c>
       <c r="B53" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
     </row>
     <row r="54" spans="1:2">
@@ -1646,7 +1646,7 @@
         <v>54</v>
       </c>
       <c r="B54" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
     </row>
     <row r="55" spans="1:2">
@@ -1654,7 +1654,7 @@
         <v>55</v>
       </c>
       <c r="B55" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
     <row r="56" spans="1:2">
@@ -1662,7 +1662,7 @@
         <v>56</v>
       </c>
       <c r="B56" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
     </row>
     <row r="57" spans="1:2">
@@ -1678,7 +1678,7 @@
         <v>58</v>
       </c>
       <c r="B58" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
     </row>
     <row r="59" spans="1:2">
@@ -1686,7 +1686,7 @@
         <v>59</v>
       </c>
       <c r="B59" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
     </row>
     <row r="60" spans="1:2">
@@ -1702,7 +1702,7 @@
         <v>61</v>
       </c>
       <c r="B61" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
     </row>
     <row r="62" spans="1:2">
@@ -1726,7 +1726,7 @@
         <v>64</v>
       </c>
       <c r="B64" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
     </row>
     <row r="65" spans="1:2">
@@ -1734,7 +1734,7 @@
         <v>65</v>
       </c>
       <c r="B65" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="66" spans="1:2">
@@ -1742,7 +1742,7 @@
         <v>66</v>
       </c>
       <c r="B66" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
     <row r="67" spans="1:2">
@@ -1750,7 +1750,7 @@
         <v>67</v>
       </c>
       <c r="B67" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="68" spans="1:2">
@@ -1766,7 +1766,7 @@
         <v>69</v>
       </c>
       <c r="B69" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
     <row r="70" spans="1:2">
@@ -1774,7 +1774,7 @@
         <v>70</v>
       </c>
       <c r="B70" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
     </row>
     <row r="71" spans="1:2">
@@ -1782,7 +1782,7 @@
         <v>71</v>
       </c>
       <c r="B71" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
     </row>
     <row r="72" spans="1:2">
@@ -1798,7 +1798,7 @@
         <v>73</v>
       </c>
       <c r="B73" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
     </row>
     <row r="74" spans="1:2">
@@ -1822,7 +1822,7 @@
         <v>76</v>
       </c>
       <c r="B76" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
     </row>
     <row r="77" spans="1:2">
@@ -1846,7 +1846,7 @@
         <v>79</v>
       </c>
       <c r="B79" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="80" spans="1:2">
@@ -1862,7 +1862,7 @@
         <v>81</v>
       </c>
       <c r="B81" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="82" spans="1:2">
@@ -1902,7 +1902,7 @@
         <v>86</v>
       </c>
       <c r="B86" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="87" spans="1:2">
@@ -1918,7 +1918,7 @@
         <v>88</v>
       </c>
       <c r="B88" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="89" spans="1:2">
@@ -1934,7 +1934,7 @@
         <v>90</v>
       </c>
       <c r="B90" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="91" spans="1:2">
@@ -1950,7 +1950,7 @@
         <v>92</v>
       </c>
       <c r="B92" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="93" spans="1:2">
@@ -1958,7 +1958,7 @@
         <v>93</v>
       </c>
       <c r="B93" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="94" spans="1:2">
@@ -1974,7 +1974,7 @@
         <v>95</v>
       </c>
       <c r="B95" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="96" spans="1:2">
@@ -2014,7 +2014,7 @@
         <v>100</v>
       </c>
       <c r="B100" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
     </row>
     <row r="101" spans="1:2">
@@ -2030,7 +2030,7 @@
         <v>102</v>
       </c>
       <c r="B102" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="103" spans="1:2">
@@ -2118,7 +2118,7 @@
         <v>113</v>
       </c>
       <c r="B113" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="114" spans="1:2">
@@ -2126,7 +2126,7 @@
         <v>114</v>
       </c>
       <c r="B114" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
     </row>
     <row r="115" spans="1:2">
@@ -2134,7 +2134,7 @@
         <v>115</v>
       </c>
       <c r="B115" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
     </row>
     <row r="116" spans="1:2">
@@ -2142,7 +2142,7 @@
         <v>116</v>
       </c>
       <c r="B116" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
     </row>
     <row r="117" spans="1:2">
@@ -2182,7 +2182,7 @@
         <v>121</v>
       </c>
       <c r="B121" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="122" spans="1:2">
@@ -2190,7 +2190,7 @@
         <v>122</v>
       </c>
       <c r="B122" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
     </row>
     <row r="123" spans="1:2">
@@ -2214,7 +2214,7 @@
         <v>125</v>
       </c>
       <c r="B125" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
     </row>
     <row r="126" spans="1:2">
@@ -2222,7 +2222,7 @@
         <v>126</v>
       </c>
       <c r="B126" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
     </row>
     <row r="127" spans="1:2">
@@ -2238,7 +2238,7 @@
         <v>128</v>
       </c>
       <c r="B128" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
     <row r="129" spans="1:2">
@@ -2246,7 +2246,7 @@
         <v>129</v>
       </c>
       <c r="B129" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="130" spans="1:2">
@@ -2254,7 +2254,7 @@
         <v>130</v>
       </c>
       <c r="B130" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="131" spans="1:2">
@@ -2270,7 +2270,7 @@
         <v>132</v>
       </c>
       <c r="B132" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="133" spans="1:2">
@@ -2278,7 +2278,7 @@
         <v>133</v>
       </c>
       <c r="B133" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
     <row r="134" spans="1:2">
@@ -2302,7 +2302,7 @@
         <v>136</v>
       </c>
       <c r="B136" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
     <row r="137" spans="1:2">
@@ -2326,7 +2326,7 @@
         <v>139</v>
       </c>
       <c r="B139" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="140" spans="1:2">
@@ -2342,7 +2342,7 @@
         <v>141</v>
       </c>
       <c r="B141" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="142" spans="1:2">
@@ -2374,7 +2374,7 @@
         <v>145</v>
       </c>
       <c r="B145" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="146" spans="1:2">

--- a/lothiancriticalcare/1a74f8f7b8b7e871b413c4697f68b4401fbacdf0/reviewdates.xlsx
+++ b/lothiancriticalcare/1a74f8f7b8b7e871b413c4697f68b4401fbacdf0/reviewdates.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="280">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="281">
   <si>
     <t>File</t>
   </si>
@@ -37,9 +37,6 @@
     <t>Drugs/heparin_critical_care_only.pdf</t>
   </si>
   <si>
-    <t>Routine_Care/test_20240309.pdf</t>
-  </si>
-  <si>
     <t>Routine_Care/Invasive Flush Systems.pdf</t>
   </si>
   <si>
@@ -88,15 +85,15 @@
     <t>End_of_life_care/Reasons to report a death to PF.pdf</t>
   </si>
   <si>
+    <t>Airway/Tracheostomy_Laryngectomy/Tracheostomy change in Critical Care.pdf</t>
+  </si>
+  <si>
     <t>Neurological/SOP -  Femoral site care.pdf</t>
   </si>
   <si>
     <t>Airway/Tracheostomy_Laryngectomy/Tracheostomy suctioning cleaning guideline.pdf</t>
   </si>
   <si>
-    <t>Airway/Tracheostomy_Laryngectomy/Tracheostomy change in Critical Care.pdf</t>
-  </si>
-  <si>
     <t>Drugs/sodium_bicarbonate.pdf</t>
   </si>
   <si>
@@ -106,24 +103,24 @@
     <t>Post_op_care/Epidural top-up.pdf</t>
   </si>
   <si>
+    <t>Covid-19/SJH/SJH COVID19 ED Intubation Action Card.pdf</t>
+  </si>
+  <si>
+    <t>Covid-19/SJH/SJH COVID19 ITU Intubation Action Card.pdf</t>
+  </si>
+  <si>
+    <t>Airway/Emergency intubation checklist_em_pub.pdf</t>
+  </si>
+  <si>
+    <t>Drugs/heparin for Haemofiltration.pdf</t>
+  </si>
+  <si>
+    <t>Diabetes_and_Glucose/Hyperosmolar Hyperglycaemic State.pdf</t>
+  </si>
+  <si>
     <t>Covid-19/WGH/CoVid intubation checklist WGH.pdf</t>
   </si>
   <si>
-    <t>Covid-19/SJH/SJH COVID19 ITU Intubation Action Card.pdf</t>
-  </si>
-  <si>
-    <t>Covid-19/SJH/SJH COVID19 ED Intubation Action Card.pdf</t>
-  </si>
-  <si>
-    <t>Drugs/heparin for Haemofiltration.pdf</t>
-  </si>
-  <si>
-    <t>Diabetes_and_Glucose/Hyperosmolar Hyperglycaemic State.pdf</t>
-  </si>
-  <si>
-    <t>Airway/Emergency intubation checklist_em_pub.pdf</t>
-  </si>
-  <si>
     <t>Drugs/fentanyl.pdf</t>
   </si>
   <si>
@@ -142,42 +139,42 @@
     <t>Airway/Percutaneous tracheostomy checklist.pdf</t>
   </si>
   <si>
+    <t>Delirium/Risk assessment posi mit.pdf</t>
+  </si>
+  <si>
+    <t>Infection_and_sepsis/SOP Ultrasound Cleaning.pdf</t>
+  </si>
+  <si>
     <t>Delirium/Managing a Potentially Violent Patient.pdf</t>
   </si>
   <si>
-    <t>Delirium/Risk assessment posi mit.pdf</t>
-  </si>
-  <si>
-    <t>Infection_and_sepsis/SOP Ultrasound Cleaning.pdf</t>
+    <t>Airway/Tracheostomy_Laryngectomy/Tracheostomy safety box contents.pdf</t>
+  </si>
+  <si>
+    <t>Neurological/Sub arachnoid haemorrhage management.pdf</t>
+  </si>
+  <si>
+    <t>Breathing(Respiratory)/HFNO.pdf</t>
+  </si>
+  <si>
+    <t>Drugs/ketamine_in_asthma.pdf</t>
+  </si>
+  <si>
+    <t>Airway/Anticipated difficult airway tool.pdf</t>
+  </si>
+  <si>
+    <t>GI_Liver_and_Transplant/Abdominal pressure measurement.pdf</t>
   </si>
   <si>
     <t>GI_Liver_and_Transplant/Treatment of constipation.pdf</t>
   </si>
   <si>
-    <t>GI_Liver_and_Transplant/Abdominal pressure measurement.pdf</t>
-  </si>
-  <si>
-    <t>Airway/Anticipated difficult airway tool.pdf</t>
-  </si>
-  <si>
-    <t>Drugs/ketamine_in_asthma.pdf</t>
-  </si>
-  <si>
-    <t>Breathing(Respiratory)/HFNO.pdf</t>
-  </si>
-  <si>
     <t>Airway/McGrath Mac.pdf</t>
   </si>
   <si>
-    <t>Airway/Tracheostomy_Laryngectomy/Tracheostomy safety box contents.pdf</t>
-  </si>
-  <si>
     <t>Delirium/Drugs Causing Delirium and Agitiation.pdf</t>
   </si>
   <si>
-    <t>Neurological/Sub arachnoid haemorrhage management.pdf</t>
-  </si>
-  <si>
     <t>End_of_life_care/Documentation following death.pdf</t>
   </si>
   <si>
@@ -187,12 +184,12 @@
     <t>Routine_Care/bBraun Spaceplus Failure EMERGENCY ACTION CARD_em.pdf</t>
   </si>
   <si>
+    <t>Breathing(Respiratory)/Equipment/HFNO Set Up.pdf</t>
+  </si>
+  <si>
     <t>Drugs/insulin.pdf</t>
   </si>
   <si>
-    <t>Breathing(Respiratory)/Equipment/HFNO Set Up.pdf</t>
-  </si>
-  <si>
     <t>Breathing(Respiratory)/Inhaled Nitrous Oxide.pdf</t>
   </si>
   <si>
@@ -202,15 +199,15 @@
     <t>Breathing(Respiratory)/Equipment/APRV.pdf</t>
   </si>
   <si>
+    <t>Breathing(Respiratory)/Equipment/T piece Y piece.pdf</t>
+  </si>
+  <si>
     <t>Post_op_care/Epidural Haematoma.pdf</t>
   </si>
   <si>
     <t>Neurological/SOP for review of Neurosurgical patients in ITU by neurosurgical team.pdf</t>
   </si>
   <si>
-    <t>Breathing(Respiratory)/Equipment/T piece Y piece.pdf</t>
-  </si>
-  <si>
     <t>Policies_and_admin/General Critical Care Interaction with HEPMA_pub.pdf</t>
   </si>
   <si>
@@ -220,24 +217,24 @@
     <t>Breathing(Respiratory)/Equipment/HFNO through ventilator.pdf</t>
   </si>
   <si>
+    <t>Post_op_care/Adult Scoliosis Spinal Surgery Post-Op Care.pdf</t>
+  </si>
+  <si>
     <t>Routine_Care/VTE_Prevention/Dalteparin_thromboprophylaxis.pdf</t>
   </si>
   <si>
-    <t>Post_op_care/Adult Scoliosis Spinal Surgery Post-Op Care.pdf</t>
-  </si>
-  <si>
     <t>Post_op_care/Post op care pharyngo-laryngo-oesphagectomy PLOG.pdf</t>
   </si>
   <si>
     <t>GI_Liver_and_Transplant/Nasogastric feeding protocol.pdf</t>
   </si>
   <si>
+    <t>Diabetes_and_Glucose/Intravenous Insulin Therapy (not for DKA or HHS).pdf</t>
+  </si>
+  <si>
     <t>Drugs/Antibiotic doses in CVVHD.pdf</t>
   </si>
   <si>
-    <t>Diabetes_and_Glucose/Intravenous Insulin Therapy (not for DKA or HHS).pdf</t>
-  </si>
-  <si>
     <t>GI_Liver_and_Transplant/Nasojejunal feeding protocol.pdf</t>
   </si>
   <si>
@@ -247,54 +244,54 @@
     <t>ECLS/RIE ECLS Anti Xa Protocol.pdf</t>
   </si>
   <si>
+    <t>Drugs/vasopressin_sepsis.pdf</t>
+  </si>
+  <si>
     <t>Infection_and_sepsis/Winter Infections Stepdown Guidance.pdf</t>
   </si>
   <si>
-    <t>Drugs/vasopressin_sepsis.pdf</t>
-  </si>
-  <si>
     <t>Drugs/vasopressin organ donation.pdf</t>
   </si>
   <si>
+    <t>Transfer/ACCP Transfers.pdf</t>
+  </si>
+  <si>
     <t>Covid-19/videos/Donning and Doffing Video.pdf</t>
   </si>
   <si>
-    <t>Transfer/ACCP Transfers.pdf</t>
+    <t>Drugs/piperacillin_tazobactam extended_infusion.pdf</t>
+  </si>
+  <si>
+    <t>Infection_and_sepsis/Infection indications for IVIG.pdf</t>
   </si>
   <si>
     <t>Breathing(Respiratory)/Equipment/Bipap V60.pdf</t>
   </si>
   <si>
+    <t>Breathing(Respiratory)/Equipment/Ventilators Circuits Filters and Closed Suction - Set up and Maintenance.pdf</t>
+  </si>
+  <si>
     <t>Breathing(Respiratory)/CPAP.pdf</t>
   </si>
   <si>
-    <t>Breathing(Respiratory)/Equipment/Ventilators Circuits Filters and Closed Suction - Set up and Maintenance.pdf</t>
-  </si>
-  <si>
-    <t>Infection_and_sepsis/Infection indications for IVIG.pdf</t>
-  </si>
-  <si>
-    <t>Drugs/piperacillin_tazobactam extended_infusion.pdf</t>
-  </si>
-  <si>
     <t>Procedures/CVC Guidance/Securing CVCs.pdf</t>
   </si>
   <si>
     <t>Covid-19/Covid 19 Death Certification Guideline.pdf</t>
   </si>
   <si>
+    <t>Routine_Care/Video Communication.pdf</t>
+  </si>
+  <si>
     <t>Neurological/Treatment of status epilepticus.pdf</t>
   </si>
   <si>
-    <t>Routine_Care/Video Communication.pdf</t>
+    <t>Drugs/isoprenaline.pdf</t>
   </si>
   <si>
     <t>Cardiovascular/Cardiogenic Shock.pdf</t>
   </si>
   <si>
-    <t>Drugs/isoprenaline.pdf</t>
-  </si>
-  <si>
     <t>Haematology_CAR-T/Haem_ICU_transfer.pdf</t>
   </si>
   <si>
@@ -304,18 +301,18 @@
     <t>Cardiovascular/Management of hypertension within Critical Care.pdf</t>
   </si>
   <si>
+    <t>Haematology_CAR-T/CRS.pdf</t>
+  </si>
+  <si>
     <t>Drugs/phenytoin.pdf</t>
   </si>
   <si>
+    <t>Drugs/pancuronium.pdf</t>
+  </si>
+  <si>
     <t>Haematology_CAR-T/ICANS.pdf</t>
   </si>
   <si>
-    <t>Drugs/pancuronium.pdf</t>
-  </si>
-  <si>
-    <t>Haematology_CAR-T/CRS.pdf</t>
-  </si>
-  <si>
     <t>Drugs/rocuronium.pdf</t>
   </si>
   <si>
@@ -325,39 +322,39 @@
     <t>Policies_and_admin/General Critical Care SOP_pub.pdf</t>
   </si>
   <si>
+    <t>Covid-19/COVID 19 ICM guidance basic goals_June_2022.pdf</t>
+  </si>
+  <si>
+    <t>Organ_donation/Organ Retrieval SOP.pdf</t>
+  </si>
+  <si>
+    <t>Neurological/Management of traumatic brain injury.pdf</t>
+  </si>
+  <si>
+    <t>Ethics_and_Law/Care at the End of Life (FICM).pdf</t>
+  </si>
+  <si>
+    <t>Ethics_and_Law/DNACPR policy for Scotland.pdf</t>
+  </si>
+  <si>
+    <t>End_of_life_care/Palliative extubation &amp; withdrawal of invasive ventilatory support nursing checklist.pdf</t>
+  </si>
+  <si>
+    <t>Neurological/Critical Care MRI Procedure_pub.pdf</t>
+  </si>
+  <si>
+    <t>Infection_and_sepsis/Trip Out of Unit infection guidance.pdf</t>
+  </si>
+  <si>
+    <t>GI_Liver_and_Transplant/ICU - Upper GI bleeding (Endoscopy guideline).pdf</t>
+  </si>
+  <si>
     <t>Drugs/clonidine.pdf</t>
   </si>
   <si>
-    <t>Organ_donation/Organ Retrieval SOP.pdf</t>
-  </si>
-  <si>
-    <t>End_of_life_care/Palliative extubation &amp; withdrawal of invasive ventilatory support nursing checklist.pdf</t>
-  </si>
-  <si>
-    <t>GI_Liver_and_Transplant/ICU - Upper GI bleeding (Endoscopy guideline).pdf</t>
-  </si>
-  <si>
-    <t>Neurological/Critical Care MRI Procedure_pub.pdf</t>
-  </si>
-  <si>
-    <t>Ethics_and_Law/DNACPR policy for Scotland.pdf</t>
-  </si>
-  <si>
-    <t>Ethics_and_Law/Care at the End of Life (FICM).pdf</t>
-  </si>
-  <si>
     <t>End_of_life_care/CMO &amp; NRS Guidance for Doctors completing MCCD.pdf</t>
   </si>
   <si>
-    <t>Neurological/Management of traumatic brain injury.pdf</t>
-  </si>
-  <si>
-    <t>Infection_and_sepsis/Trip Out of Unit infection guidance.pdf</t>
-  </si>
-  <si>
-    <t>Covid-19/COVID 19 ICM guidance basic goals_June_2022.pdf</t>
-  </si>
-  <si>
     <t>Airway/Cook Staged Extubation Set.pdf</t>
   </si>
   <si>
@@ -367,21 +364,21 @@
     <t>Post_op_care/Epidural hypotension.pdf</t>
   </si>
   <si>
+    <t>Drugs/glyceryl_trinitrate.pdf</t>
+  </si>
+  <si>
+    <t>GI_Liver_and_Transplant/Confirmation of Nasogastric Tube Position.pdf</t>
+  </si>
+  <si>
+    <t>Drugs/dexmedetomidine.pdf</t>
+  </si>
+  <si>
+    <t>Breathing(Respiratory)/Equipment/Passy Muir Valve.pdf</t>
+  </si>
+  <si>
     <t>GI_Liver_and_Transplant/Fulminant Liver Failure.pdf</t>
   </si>
   <si>
-    <t>Breathing(Respiratory)/Equipment/Passy Muir Valve.pdf</t>
-  </si>
-  <si>
-    <t>Drugs/glyceryl_trinitrate.pdf</t>
-  </si>
-  <si>
-    <t>GI_Liver_and_Transplant/Confirmation of Nasogastric Tube Position.pdf</t>
-  </si>
-  <si>
-    <t>Drugs/dexmedetomidine.pdf</t>
-  </si>
-  <si>
     <t>Infection_and_sepsis/Antifungal guidance in critical care.pdf</t>
   </si>
   <si>
@@ -397,24 +394,24 @@
     <t>Breathing(Respiratory)/ARDS Strategy.pdf</t>
   </si>
   <si>
+    <t>Drugs/adrenaline.pdf</t>
+  </si>
+  <si>
     <t>Drugs/dobutamine.pdf</t>
   </si>
   <si>
-    <t>Drugs/adrenaline.pdf</t>
-  </si>
-  <si>
     <t>Drugs/hydralazine.pdf</t>
   </si>
   <si>
     <t>Post_op_care/Major OMFS Free Flap.pdf</t>
   </si>
   <si>
+    <t>Drugs/Alteplase for massive PE.pdf</t>
+  </si>
+  <si>
     <t>Drugs/alfentanil.pdf</t>
   </si>
   <si>
-    <t>Drugs/Alteplase for massive PE.pdf</t>
-  </si>
-  <si>
     <t>Drugs/magnesium.pdf</t>
   </si>
   <si>
@@ -427,31 +424,43 @@
     <t>Drugs/vancomycin.pdf</t>
   </si>
   <si>
+    <t>Infection_and_sepsis/Initial investigation and management in unidentified Infections.pdf</t>
+  </si>
+  <si>
+    <t>Neurological/Intrathecal policy RIE.pdf</t>
+  </si>
+  <si>
     <t>Drugs/labetalol.pdf</t>
   </si>
   <si>
-    <t>Neurological/Intrathecal policy RIE.pdf</t>
-  </si>
-  <si>
-    <t>Infection_and_sepsis/Initial investigation and management in unidentified Infections.pdf</t>
+    <t>Cardiovascular/Management of Acute Type B Aortic Dissection Guideline.pdf</t>
   </si>
   <si>
     <t>Drugs/midazolam.pdf</t>
   </si>
   <si>
-    <t>Cardiovascular/Management of Acute Type B Aortic Dissection Guideline.pdf</t>
+    <t>Procedures/CVC Guidance/CVC NHL  April 2023.pdf</t>
+  </si>
+  <si>
+    <t>Drugs/potassium.pdf</t>
   </si>
   <si>
     <t>Drugs/salbutamol.pdf</t>
   </si>
   <si>
-    <t>Procedures/CVC Guidance/CVC NHL  April 2023.pdf</t>
-  </si>
-  <si>
     <t>Drugs/nimodipine.pdf</t>
   </si>
   <si>
-    <t>Drugs/potassium.pdf</t>
+    <t>Procedures/Arterial Line insertion for ACCPs.pdf</t>
+  </si>
+  <si>
+    <t>Routine_Care/newtest_c.pdf</t>
+  </si>
+  <si>
+    <t>Routine_Care/newtest_c copy.pdf</t>
+  </si>
+  <si>
+    <t>Drugs/nicardipine.pdf</t>
   </si>
   <si>
     <t>Drugs/phenobarbitone.pdf</t>
@@ -460,40 +469,40 @@
     <t>Routine_Care/ICU Eye Care Guideline.pdf</t>
   </si>
   <si>
-    <t>Drugs/nicardipine.pdf</t>
-  </si>
-  <si>
     <t>Drugs/amiodarone.pdf</t>
   </si>
   <si>
-    <t>Procedures/Arterial Line insertion for ACCPs.pdf</t>
+    <t>Drugs/morphine.pdf</t>
   </si>
   <si>
     <t>Drugs/noradrenaline (peripheral).pdf</t>
   </si>
   <si>
+    <t>Neurological/Ventriculitis Guideline.pdf</t>
+  </si>
+  <si>
+    <t>Drugs/phenylephrine.pdf</t>
+  </si>
+  <si>
     <t>Drugs/Epoprostenol.pdf</t>
   </si>
   <si>
     <t>Breathing(Respiratory)/Manual Ventilation and MHI.pdf</t>
   </si>
   <si>
-    <t>Neurological/Ventriculitis Guideline.pdf</t>
-  </si>
-  <si>
-    <t>Drugs/phenylephrine.pdf</t>
-  </si>
-  <si>
-    <t>Drugs/morphine.pdf</t>
+    <t>Drugs/calcium.pdf</t>
+  </si>
+  <si>
+    <t>Cardiovascular/Pulmonary_Embolism_and_DVT/Catheter directed thrombolysis of iliofemoral DVT alteplase_pub.pdf</t>
   </si>
   <si>
     <t>Cardiovascular/Cardiac Output Monitoring_pub .pdf</t>
   </si>
   <si>
-    <t>Cardiovascular/Pulmonary_Embolism_and_DVT/Catheter directed thrombolysis of iliofemoral DVT alteplase_pub.pdf</t>
-  </si>
-  <si>
-    <t>Drugs/calcium.pdf</t>
+    <t>Airway/Tracheostomy_Laryngectomy/Decannulation Guidline.pdf</t>
+  </si>
+  <si>
+    <t>Drugs/atracurium.pdf</t>
   </si>
   <si>
     <t>Drugs/dalteparin_thromboprophylaxis.pdf</t>
@@ -502,10 +511,7 @@
     <t>Drugs/Vancomycin Continuous Infusion Fluid Restricted.pdf</t>
   </si>
   <si>
-    <t>Drugs/atracurium.pdf</t>
-  </si>
-  <si>
-    <t>Airway/Tracheostomy_Laryngectomy/Decannulation Guidline.pdf</t>
+    <t>Procedures/Inadvertent Catheter Placement Guideline.pdf</t>
   </si>
   <si>
     <t>Policies_and_admin/Pet Visitation.pdf</t>
@@ -514,7 +520,7 @@
     <t>Drugs/valproate.pdf</t>
   </si>
   <si>
-    <t>Procedures/Inadvertent Catheter Placement Guideline.pdf</t>
+    <t>Drugs/Phosphate.pdf</t>
   </si>
   <si>
     <t>Drugs/stress ulcer prophylaxis.pdf</t>
@@ -523,30 +529,27 @@
     <t>Drugs/ketamine_for_status epilepticus.pdf</t>
   </si>
   <si>
-    <t>Drugs/Phosphate.pdf</t>
+    <t>Drugs/Octreotide.pdf</t>
+  </si>
+  <si>
+    <t>Breathing(Respiratory)/Proning Guideline.pdf</t>
+  </si>
+  <si>
+    <t>GI_Liver_and_Transplant/Prokinetics in ICU.pdf</t>
   </si>
   <si>
     <t>Drugs/Thiopentone.pdf</t>
   </si>
   <si>
-    <t>Breathing(Respiratory)/Proning Guideline.pdf</t>
-  </si>
-  <si>
-    <t>GI_Liver_and_Transplant/Prokinetics in ICU.pdf</t>
-  </si>
-  <si>
-    <t>Drugs/Octreotide.pdf</t>
-  </si>
-  <si>
     <t>Procedures/ACCP CVC placement following completion of initial competencies.pdf</t>
   </si>
   <si>
+    <t>Post_op_care/Prevention and treatment of paraplegia after major aortic procedures.pdf</t>
+  </si>
+  <si>
     <t>Procedures/ACCPs acquiring initial CVC competencies.pdf</t>
   </si>
   <si>
-    <t>Post_op_care/Prevention and treatment of paraplegia after major aortic procedures.pdf</t>
-  </si>
-  <si>
     <t>Delirium/Violence and Agression.pdf</t>
   </si>
   <si>
@@ -556,10 +559,10 @@
     <t>GI_Liver_and_Transplant/Plasma exchange in Acute Liver Failure.pdf</t>
   </si>
   <si>
+    <t>Breathing(Respiratory)/Equipment/NIV through Drager Vent Set up in Critical Care.pdf</t>
+  </si>
+  <si>
     <t>End_of_life_care/Guideline following Sudden Cardiac Death where death occurs in ICU.pdf</t>
-  </si>
-  <si>
-    <t>Breathing(Respiratory)/Equipment/NIV through Drager Vent Set up in Critical Care.pdf</t>
   </si>
   <si>
     <t>Transfer/Transfer Guidelines.pdf</t>
@@ -1211,7 +1214,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B187"/>
+  <dimension ref="A1:B188"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1230,7 +1233,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -1238,7 +1241,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -1246,7 +1249,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -1254,7 +1257,7 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -1262,7 +1265,7 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -1270,7 +1273,7 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -1278,7 +1281,7 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -1286,7 +1289,7 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -1294,7 +1297,7 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -1302,7 +1305,7 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -1310,7 +1313,7 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -1318,7 +1321,7 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -1326,7 +1329,7 @@
         <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -1334,7 +1337,7 @@
         <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -1342,7 +1345,7 @@
         <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -1350,7 +1353,7 @@
         <v>17</v>
       </c>
       <c r="B17" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -1358,7 +1361,7 @@
         <v>18</v>
       </c>
       <c r="B18" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -1366,7 +1369,7 @@
         <v>19</v>
       </c>
       <c r="B19" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -1374,7 +1377,7 @@
         <v>20</v>
       </c>
       <c r="B20" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -1382,7 +1385,7 @@
         <v>21</v>
       </c>
       <c r="B21" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -1390,7 +1393,7 @@
         <v>22</v>
       </c>
       <c r="B22" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -1398,7 +1401,7 @@
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -1406,7 +1409,7 @@
         <v>24</v>
       </c>
       <c r="B24" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -1414,7 +1417,7 @@
         <v>25</v>
       </c>
       <c r="B25" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -1422,7 +1425,7 @@
         <v>26</v>
       </c>
       <c r="B26" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -1430,7 +1433,7 @@
         <v>27</v>
       </c>
       <c r="B27" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -1438,7 +1441,7 @@
         <v>28</v>
       </c>
       <c r="B28" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -1446,7 +1449,7 @@
         <v>29</v>
       </c>
       <c r="B29" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -1454,7 +1457,7 @@
         <v>30</v>
       </c>
       <c r="B30" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -1462,7 +1465,7 @@
         <v>31</v>
       </c>
       <c r="B31" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -1470,7 +1473,7 @@
         <v>32</v>
       </c>
       <c r="B32" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -1478,7 +1481,7 @@
         <v>33</v>
       </c>
       <c r="B33" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -1486,7 +1489,7 @@
         <v>34</v>
       </c>
       <c r="B34" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -1494,7 +1497,7 @@
         <v>35</v>
       </c>
       <c r="B35" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -1502,7 +1505,7 @@
         <v>36</v>
       </c>
       <c r="B36" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -1510,7 +1513,7 @@
         <v>37</v>
       </c>
       <c r="B37" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -1518,7 +1521,7 @@
         <v>38</v>
       </c>
       <c r="B38" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -1526,7 +1529,7 @@
         <v>39</v>
       </c>
       <c r="B39" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -1534,7 +1537,7 @@
         <v>40</v>
       </c>
       <c r="B40" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -1542,7 +1545,7 @@
         <v>41</v>
       </c>
       <c r="B41" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -1550,7 +1553,7 @@
         <v>42</v>
       </c>
       <c r="B42" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -1558,7 +1561,7 @@
         <v>43</v>
       </c>
       <c r="B43" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -1566,7 +1569,7 @@
         <v>44</v>
       </c>
       <c r="B44" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -1574,7 +1577,7 @@
         <v>45</v>
       </c>
       <c r="B45" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -1582,7 +1585,7 @@
         <v>46</v>
       </c>
       <c r="B46" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -1590,7 +1593,7 @@
         <v>47</v>
       </c>
       <c r="B47" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -1598,7 +1601,7 @@
         <v>48</v>
       </c>
       <c r="B48" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -1606,7 +1609,7 @@
         <v>49</v>
       </c>
       <c r="B49" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -1614,7 +1617,7 @@
         <v>50</v>
       </c>
       <c r="B50" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -1622,7 +1625,7 @@
         <v>51</v>
       </c>
       <c r="B51" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -1630,7 +1633,7 @@
         <v>52</v>
       </c>
       <c r="B52" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -1638,7 +1641,7 @@
         <v>53</v>
       </c>
       <c r="B53" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
     </row>
     <row r="54" spans="1:2">
@@ -1646,7 +1649,7 @@
         <v>54</v>
       </c>
       <c r="B54" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
     </row>
     <row r="55" spans="1:2">
@@ -1654,7 +1657,7 @@
         <v>55</v>
       </c>
       <c r="B55" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
     </row>
     <row r="56" spans="1:2">
@@ -1662,7 +1665,7 @@
         <v>56</v>
       </c>
       <c r="B56" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
     </row>
     <row r="57" spans="1:2">
@@ -1670,7 +1673,7 @@
         <v>57</v>
       </c>
       <c r="B57" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
     </row>
     <row r="58" spans="1:2">
@@ -1678,7 +1681,7 @@
         <v>58</v>
       </c>
       <c r="B58" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
     </row>
     <row r="59" spans="1:2">
@@ -1686,7 +1689,7 @@
         <v>59</v>
       </c>
       <c r="B59" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
     </row>
     <row r="60" spans="1:2">
@@ -1694,7 +1697,7 @@
         <v>60</v>
       </c>
       <c r="B60" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
     </row>
     <row r="61" spans="1:2">
@@ -1702,7 +1705,7 @@
         <v>61</v>
       </c>
       <c r="B61" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
     </row>
     <row r="62" spans="1:2">
@@ -1710,7 +1713,7 @@
         <v>62</v>
       </c>
       <c r="B62" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
     </row>
     <row r="63" spans="1:2">
@@ -1718,7 +1721,7 @@
         <v>63</v>
       </c>
       <c r="B63" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
     </row>
     <row r="64" spans="1:2">
@@ -1726,7 +1729,7 @@
         <v>64</v>
       </c>
       <c r="B64" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
     </row>
     <row r="65" spans="1:2">
@@ -1734,7 +1737,7 @@
         <v>65</v>
       </c>
       <c r="B65" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
     </row>
     <row r="66" spans="1:2">
@@ -1742,7 +1745,7 @@
         <v>66</v>
       </c>
       <c r="B66" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
     </row>
     <row r="67" spans="1:2">
@@ -1750,7 +1753,7 @@
         <v>67</v>
       </c>
       <c r="B67" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
     </row>
     <row r="68" spans="1:2">
@@ -1758,7 +1761,7 @@
         <v>68</v>
       </c>
       <c r="B68" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
     <row r="69" spans="1:2">
@@ -1766,7 +1769,7 @@
         <v>69</v>
       </c>
       <c r="B69" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
     </row>
     <row r="70" spans="1:2">
@@ -1774,7 +1777,7 @@
         <v>70</v>
       </c>
       <c r="B70" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
     </row>
     <row r="71" spans="1:2">
@@ -1782,7 +1785,7 @@
         <v>71</v>
       </c>
       <c r="B71" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
     </row>
     <row r="72" spans="1:2">
@@ -1790,7 +1793,7 @@
         <v>72</v>
       </c>
       <c r="B72" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
     </row>
     <row r="73" spans="1:2">
@@ -1798,7 +1801,7 @@
         <v>73</v>
       </c>
       <c r="B73" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
     </row>
     <row r="74" spans="1:2">
@@ -1806,7 +1809,7 @@
         <v>74</v>
       </c>
       <c r="B74" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
     </row>
     <row r="75" spans="1:2">
@@ -1814,7 +1817,7 @@
         <v>75</v>
       </c>
       <c r="B75" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
     </row>
     <row r="76" spans="1:2">
@@ -1822,7 +1825,7 @@
         <v>76</v>
       </c>
       <c r="B76" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
     </row>
     <row r="77" spans="1:2">
@@ -1830,7 +1833,7 @@
         <v>77</v>
       </c>
       <c r="B77" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="78" spans="1:2">
@@ -1838,7 +1841,7 @@
         <v>78</v>
       </c>
       <c r="B78" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="79" spans="1:2">
@@ -1846,7 +1849,7 @@
         <v>79</v>
       </c>
       <c r="B79" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
     </row>
     <row r="80" spans="1:2">
@@ -1854,7 +1857,7 @@
         <v>80</v>
       </c>
       <c r="B80" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="81" spans="1:2">
@@ -1862,7 +1865,7 @@
         <v>81</v>
       </c>
       <c r="B81" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
     </row>
     <row r="82" spans="1:2">
@@ -1870,7 +1873,7 @@
         <v>82</v>
       </c>
       <c r="B82" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="83" spans="1:2">
@@ -1878,7 +1881,7 @@
         <v>83</v>
       </c>
       <c r="B83" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="84" spans="1:2">
@@ -1886,7 +1889,7 @@
         <v>84</v>
       </c>
       <c r="B84" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="85" spans="1:2">
@@ -1894,7 +1897,7 @@
         <v>85</v>
       </c>
       <c r="B85" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="86" spans="1:2">
@@ -1902,7 +1905,7 @@
         <v>86</v>
       </c>
       <c r="B86" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
     </row>
     <row r="87" spans="1:2">
@@ -1910,7 +1913,7 @@
         <v>87</v>
       </c>
       <c r="B87" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="88" spans="1:2">
@@ -1918,7 +1921,7 @@
         <v>88</v>
       </c>
       <c r="B88" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
     </row>
     <row r="89" spans="1:2">
@@ -1926,7 +1929,7 @@
         <v>89</v>
       </c>
       <c r="B89" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="90" spans="1:2">
@@ -1934,7 +1937,7 @@
         <v>90</v>
       </c>
       <c r="B90" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
     </row>
     <row r="91" spans="1:2">
@@ -1942,7 +1945,7 @@
         <v>91</v>
       </c>
       <c r="B91" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="92" spans="1:2">
@@ -1950,7 +1953,7 @@
         <v>92</v>
       </c>
       <c r="B92" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
     </row>
     <row r="93" spans="1:2">
@@ -1958,7 +1961,7 @@
         <v>93</v>
       </c>
       <c r="B93" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
     </row>
     <row r="94" spans="1:2">
@@ -1966,7 +1969,7 @@
         <v>94</v>
       </c>
       <c r="B94" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="95" spans="1:2">
@@ -1974,7 +1977,7 @@
         <v>95</v>
       </c>
       <c r="B95" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
     </row>
     <row r="96" spans="1:2">
@@ -1982,7 +1985,7 @@
         <v>96</v>
       </c>
       <c r="B96" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
     </row>
     <row r="97" spans="1:2">
@@ -1990,7 +1993,7 @@
         <v>97</v>
       </c>
       <c r="B97" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
     </row>
     <row r="98" spans="1:2">
@@ -1998,7 +2001,7 @@
         <v>98</v>
       </c>
       <c r="B98" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
     </row>
     <row r="99" spans="1:2">
@@ -2006,7 +2009,7 @@
         <v>99</v>
       </c>
       <c r="B99" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
     </row>
     <row r="100" spans="1:2">
@@ -2014,7 +2017,7 @@
         <v>100</v>
       </c>
       <c r="B100" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
     </row>
     <row r="101" spans="1:2">
@@ -2022,7 +2025,7 @@
         <v>101</v>
       </c>
       <c r="B101" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="102" spans="1:2">
@@ -2030,7 +2033,7 @@
         <v>102</v>
       </c>
       <c r="B102" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
     </row>
     <row r="103" spans="1:2">
@@ -2038,7 +2041,7 @@
         <v>103</v>
       </c>
       <c r="B103" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="104" spans="1:2">
@@ -2046,7 +2049,7 @@
         <v>104</v>
       </c>
       <c r="B104" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="105" spans="1:2">
@@ -2054,7 +2057,7 @@
         <v>105</v>
       </c>
       <c r="B105" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="106" spans="1:2">
@@ -2062,7 +2065,7 @@
         <v>106</v>
       </c>
       <c r="B106" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="107" spans="1:2">
@@ -2070,7 +2073,7 @@
         <v>107</v>
       </c>
       <c r="B107" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="108" spans="1:2">
@@ -2078,7 +2081,7 @@
         <v>108</v>
       </c>
       <c r="B108" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="109" spans="1:2">
@@ -2086,7 +2089,7 @@
         <v>109</v>
       </c>
       <c r="B109" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="110" spans="1:2">
@@ -2094,7 +2097,7 @@
         <v>110</v>
       </c>
       <c r="B110" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="111" spans="1:2">
@@ -2102,7 +2105,7 @@
         <v>111</v>
       </c>
       <c r="B111" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="112" spans="1:2">
@@ -2110,7 +2113,7 @@
         <v>112</v>
       </c>
       <c r="B112" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="113" spans="1:2">
@@ -2118,7 +2121,7 @@
         <v>113</v>
       </c>
       <c r="B113" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="114" spans="1:2">
@@ -2126,7 +2129,7 @@
         <v>114</v>
       </c>
       <c r="B114" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
     </row>
     <row r="115" spans="1:2">
@@ -2134,7 +2137,7 @@
         <v>115</v>
       </c>
       <c r="B115" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
     </row>
     <row r="116" spans="1:2">
@@ -2142,7 +2145,7 @@
         <v>116</v>
       </c>
       <c r="B116" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
     </row>
     <row r="117" spans="1:2">
@@ -2150,7 +2153,7 @@
         <v>117</v>
       </c>
       <c r="B117" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="118" spans="1:2">
@@ -2158,7 +2161,7 @@
         <v>118</v>
       </c>
       <c r="B118" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="119" spans="1:2">
@@ -2166,7 +2169,7 @@
         <v>119</v>
       </c>
       <c r="B119" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="120" spans="1:2">
@@ -2174,7 +2177,7 @@
         <v>120</v>
       </c>
       <c r="B120" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="121" spans="1:2">
@@ -2182,7 +2185,7 @@
         <v>121</v>
       </c>
       <c r="B121" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
     </row>
     <row r="122" spans="1:2">
@@ -2190,7 +2193,7 @@
         <v>122</v>
       </c>
       <c r="B122" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
     </row>
     <row r="123" spans="1:2">
@@ -2198,7 +2201,7 @@
         <v>123</v>
       </c>
       <c r="B123" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
     </row>
     <row r="124" spans="1:2">
@@ -2206,7 +2209,7 @@
         <v>124</v>
       </c>
       <c r="B124" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
     </row>
     <row r="125" spans="1:2">
@@ -2214,7 +2217,7 @@
         <v>125</v>
       </c>
       <c r="B125" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
     </row>
     <row r="126" spans="1:2">
@@ -2222,7 +2225,7 @@
         <v>126</v>
       </c>
       <c r="B126" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
     </row>
     <row r="127" spans="1:2">
@@ -2230,7 +2233,7 @@
         <v>127</v>
       </c>
       <c r="B127" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
     <row r="128" spans="1:2">
@@ -2238,7 +2241,7 @@
         <v>128</v>
       </c>
       <c r="B128" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
     </row>
     <row r="129" spans="1:2">
@@ -2246,7 +2249,7 @@
         <v>129</v>
       </c>
       <c r="B129" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row r="130" spans="1:2">
@@ -2254,7 +2257,7 @@
         <v>130</v>
       </c>
       <c r="B130" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
     </row>
     <row r="131" spans="1:2">
@@ -2262,7 +2265,7 @@
         <v>131</v>
       </c>
       <c r="B131" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="132" spans="1:2">
@@ -2270,7 +2273,7 @@
         <v>132</v>
       </c>
       <c r="B132" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
     </row>
     <row r="133" spans="1:2">
@@ -2278,7 +2281,7 @@
         <v>133</v>
       </c>
       <c r="B133" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
     </row>
     <row r="134" spans="1:2">
@@ -2286,7 +2289,7 @@
         <v>134</v>
       </c>
       <c r="B134" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
     <row r="135" spans="1:2">
@@ -2294,7 +2297,7 @@
         <v>135</v>
       </c>
       <c r="B135" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
     <row r="136" spans="1:2">
@@ -2302,7 +2305,7 @@
         <v>136</v>
       </c>
       <c r="B136" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
     </row>
     <row r="137" spans="1:2">
@@ -2310,7 +2313,7 @@
         <v>137</v>
       </c>
       <c r="B137" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="138" spans="1:2">
@@ -2318,7 +2321,7 @@
         <v>138</v>
       </c>
       <c r="B138" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="139" spans="1:2">
@@ -2326,7 +2329,7 @@
         <v>139</v>
       </c>
       <c r="B139" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
     </row>
     <row r="140" spans="1:2">
@@ -2334,7 +2337,7 @@
         <v>140</v>
       </c>
       <c r="B140" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="141" spans="1:2">
@@ -2342,7 +2345,7 @@
         <v>141</v>
       </c>
       <c r="B141" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
     </row>
     <row r="142" spans="1:2">
@@ -2350,7 +2353,7 @@
         <v>142</v>
       </c>
       <c r="B142" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="143" spans="1:2">
@@ -2358,7 +2361,7 @@
         <v>143</v>
       </c>
       <c r="B143" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="144" spans="1:2">
@@ -2366,7 +2369,7 @@
         <v>144</v>
       </c>
       <c r="B144" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="145" spans="1:2">
@@ -2374,7 +2377,7 @@
         <v>145</v>
       </c>
       <c r="B145" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
     </row>
     <row r="146" spans="1:2">
@@ -2382,7 +2385,7 @@
         <v>146</v>
       </c>
       <c r="B146" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
     </row>
     <row r="147" spans="1:2">
@@ -2390,7 +2393,7 @@
         <v>147</v>
       </c>
       <c r="B147" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
     </row>
     <row r="148" spans="1:2">
@@ -2398,7 +2401,7 @@
         <v>148</v>
       </c>
       <c r="B148" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
     </row>
     <row r="149" spans="1:2">
@@ -2406,7 +2409,7 @@
         <v>149</v>
       </c>
       <c r="B149" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
     </row>
     <row r="150" spans="1:2">
@@ -2414,7 +2417,7 @@
         <v>150</v>
       </c>
       <c r="B150" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
     </row>
     <row r="151" spans="1:2">
@@ -2430,7 +2433,7 @@
         <v>152</v>
       </c>
       <c r="B152" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
     </row>
     <row r="153" spans="1:2">
@@ -2438,7 +2441,7 @@
         <v>153</v>
       </c>
       <c r="B153" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
     </row>
     <row r="154" spans="1:2">
@@ -2446,7 +2449,7 @@
         <v>154</v>
       </c>
       <c r="B154" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
     </row>
     <row r="155" spans="1:2">
@@ -2454,7 +2457,7 @@
         <v>155</v>
       </c>
       <c r="B155" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
     </row>
     <row r="156" spans="1:2">
@@ -2462,7 +2465,7 @@
         <v>156</v>
       </c>
       <c r="B156" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
     </row>
     <row r="157" spans="1:2">
@@ -2478,7 +2481,7 @@
         <v>158</v>
       </c>
       <c r="B158" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="159" spans="1:2">
@@ -2486,7 +2489,7 @@
         <v>159</v>
       </c>
       <c r="B159" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="160" spans="1:2">
@@ -2502,7 +2505,7 @@
         <v>161</v>
       </c>
       <c r="B161" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
     </row>
     <row r="162" spans="1:2">
@@ -2510,7 +2513,7 @@
         <v>162</v>
       </c>
       <c r="B162" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
     </row>
     <row r="163" spans="1:2">
@@ -2518,7 +2521,7 @@
         <v>163</v>
       </c>
       <c r="B163" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
     </row>
     <row r="164" spans="1:2">
@@ -2534,7 +2537,7 @@
         <v>165</v>
       </c>
       <c r="B165" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
     </row>
     <row r="166" spans="1:2">
@@ -2542,7 +2545,7 @@
         <v>166</v>
       </c>
       <c r="B166" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
     </row>
     <row r="167" spans="1:2">
@@ -2558,7 +2561,7 @@
         <v>168</v>
       </c>
       <c r="B168" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
     </row>
     <row r="169" spans="1:2">
@@ -2566,7 +2569,7 @@
         <v>169</v>
       </c>
       <c r="B169" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
     </row>
     <row r="170" spans="1:2">
@@ -2582,7 +2585,7 @@
         <v>171</v>
       </c>
       <c r="B171" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="172" spans="1:2">
@@ -2590,7 +2593,7 @@
         <v>172</v>
       </c>
       <c r="B172" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="173" spans="1:2">
@@ -2598,7 +2601,7 @@
         <v>173</v>
       </c>
       <c r="B173" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="174" spans="1:2">
@@ -2614,7 +2617,7 @@
         <v>175</v>
       </c>
       <c r="B175" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
     </row>
     <row r="176" spans="1:2">
@@ -2622,7 +2625,7 @@
         <v>176</v>
       </c>
       <c r="B176" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
     </row>
     <row r="177" spans="1:2">
@@ -2662,7 +2665,7 @@
         <v>181</v>
       </c>
       <c r="B181" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
     </row>
     <row r="182" spans="1:2">
@@ -2711,6 +2714,14 @@
       </c>
       <c r="B187" t="s">
         <v>279</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2">
+      <c r="A188" t="s">
+        <v>188</v>
+      </c>
+      <c r="B188" t="s">
+        <v>280</v>
       </c>
     </row>
   </sheetData>

--- a/lothiancriticalcare/1a74f8f7b8b7e871b413c4697f68b4401fbacdf0/reviewdates.xlsx
+++ b/lothiancriticalcare/1a74f8f7b8b7e871b413c4697f68b4401fbacdf0/reviewdates.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="281">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="279">
   <si>
     <t>File</t>
   </si>
@@ -85,12 +85,12 @@
     <t>End_of_life_care/Reasons to report a death to PF.pdf</t>
   </si>
   <si>
+    <t>Neurological/SOP -  Femoral site care.pdf</t>
+  </si>
+  <si>
     <t>Airway/Tracheostomy_Laryngectomy/Tracheostomy change in Critical Care.pdf</t>
   </si>
   <si>
-    <t>Neurological/SOP -  Femoral site care.pdf</t>
-  </si>
-  <si>
     <t>Airway/Tracheostomy_Laryngectomy/Tracheostomy suctioning cleaning guideline.pdf</t>
   </si>
   <si>
@@ -103,24 +103,24 @@
     <t>Post_op_care/Epidural top-up.pdf</t>
   </si>
   <si>
+    <t>Diabetes_and_Glucose/Hyperosmolar Hyperglycaemic State.pdf</t>
+  </si>
+  <si>
+    <t>Drugs/heparin for Haemofiltration.pdf</t>
+  </si>
+  <si>
     <t>Covid-19/SJH/SJH COVID19 ED Intubation Action Card.pdf</t>
   </si>
   <si>
     <t>Covid-19/SJH/SJH COVID19 ITU Intubation Action Card.pdf</t>
   </si>
   <si>
+    <t>Covid-19/WGH/CoVid intubation checklist WGH.pdf</t>
+  </si>
+  <si>
     <t>Airway/Emergency intubation checklist_em_pub.pdf</t>
   </si>
   <si>
-    <t>Drugs/heparin for Haemofiltration.pdf</t>
-  </si>
-  <si>
-    <t>Diabetes_and_Glucose/Hyperosmolar Hyperglycaemic State.pdf</t>
-  </si>
-  <si>
-    <t>Covid-19/WGH/CoVid intubation checklist WGH.pdf</t>
-  </si>
-  <si>
     <t>Drugs/fentanyl.pdf</t>
   </si>
   <si>
@@ -139,42 +139,42 @@
     <t>Airway/Percutaneous tracheostomy checklist.pdf</t>
   </si>
   <si>
+    <t>Delirium/Managing a Potentially Violent Patient.pdf</t>
+  </si>
+  <si>
     <t>Delirium/Risk assessment posi mit.pdf</t>
   </si>
   <si>
     <t>Infection_and_sepsis/SOP Ultrasound Cleaning.pdf</t>
   </si>
   <si>
-    <t>Delirium/Managing a Potentially Violent Patient.pdf</t>
+    <t>GI_Liver_and_Transplant/Treatment of constipation.pdf</t>
+  </si>
+  <si>
+    <t>GI_Liver_and_Transplant/Abdominal pressure measurement.pdf</t>
+  </si>
+  <si>
+    <t>Airway/Anticipated difficult airway tool.pdf</t>
+  </si>
+  <si>
+    <t>Drugs/ketamine_in_asthma.pdf</t>
+  </si>
+  <si>
+    <t>Breathing(Respiratory)/HFNO.pdf</t>
+  </si>
+  <si>
+    <t>Airway/McGrath Mac.pdf</t>
   </si>
   <si>
     <t>Airway/Tracheostomy_Laryngectomy/Tracheostomy safety box contents.pdf</t>
   </si>
   <si>
+    <t>Delirium/Drugs Causing Delirium and Agitiation.pdf</t>
+  </si>
+  <si>
     <t>Neurological/Sub arachnoid haemorrhage management.pdf</t>
   </si>
   <si>
-    <t>Breathing(Respiratory)/HFNO.pdf</t>
-  </si>
-  <si>
-    <t>Drugs/ketamine_in_asthma.pdf</t>
-  </si>
-  <si>
-    <t>Airway/Anticipated difficult airway tool.pdf</t>
-  </si>
-  <si>
-    <t>GI_Liver_and_Transplant/Abdominal pressure measurement.pdf</t>
-  </si>
-  <si>
-    <t>GI_Liver_and_Transplant/Treatment of constipation.pdf</t>
-  </si>
-  <si>
-    <t>Airway/McGrath Mac.pdf</t>
-  </si>
-  <si>
-    <t>Delirium/Drugs Causing Delirium and Agitiation.pdf</t>
-  </si>
-  <si>
     <t>End_of_life_care/Documentation following death.pdf</t>
   </si>
   <si>
@@ -184,12 +184,12 @@
     <t>Routine_Care/bBraun Spaceplus Failure EMERGENCY ACTION CARD_em.pdf</t>
   </si>
   <si>
+    <t>Drugs/insulin.pdf</t>
+  </si>
+  <si>
     <t>Breathing(Respiratory)/Equipment/HFNO Set Up.pdf</t>
   </si>
   <si>
-    <t>Drugs/insulin.pdf</t>
-  </si>
-  <si>
     <t>Breathing(Respiratory)/Inhaled Nitrous Oxide.pdf</t>
   </si>
   <si>
@@ -199,15 +199,15 @@
     <t>Breathing(Respiratory)/Equipment/APRV.pdf</t>
   </si>
   <si>
+    <t>Post_op_care/Epidural Haematoma.pdf</t>
+  </si>
+  <si>
+    <t>Neurological/SOP for review of Neurosurgical patients in ITU by neurosurgical team.pdf</t>
+  </si>
+  <si>
     <t>Breathing(Respiratory)/Equipment/T piece Y piece.pdf</t>
   </si>
   <si>
-    <t>Post_op_care/Epidural Haematoma.pdf</t>
-  </si>
-  <si>
-    <t>Neurological/SOP for review of Neurosurgical patients in ITU by neurosurgical team.pdf</t>
-  </si>
-  <si>
     <t>Policies_and_admin/General Critical Care Interaction with HEPMA_pub.pdf</t>
   </si>
   <si>
@@ -217,24 +217,24 @@
     <t>Breathing(Respiratory)/Equipment/HFNO through ventilator.pdf</t>
   </si>
   <si>
+    <t>Routine_Care/VTE_Prevention/Dalteparin_thromboprophylaxis.pdf</t>
+  </si>
+  <si>
     <t>Post_op_care/Adult Scoliosis Spinal Surgery Post-Op Care.pdf</t>
   </si>
   <si>
-    <t>Routine_Care/VTE_Prevention/Dalteparin_thromboprophylaxis.pdf</t>
-  </si>
-  <si>
     <t>Post_op_care/Post op care pharyngo-laryngo-oesphagectomy PLOG.pdf</t>
   </si>
   <si>
     <t>GI_Liver_and_Transplant/Nasogastric feeding protocol.pdf</t>
   </si>
   <si>
+    <t>Drugs/Antibiotic doses in CVVHD.pdf</t>
+  </si>
+  <si>
     <t>Diabetes_and_Glucose/Intravenous Insulin Therapy (not for DKA or HHS).pdf</t>
   </si>
   <si>
-    <t>Drugs/Antibiotic doses in CVVHD.pdf</t>
-  </si>
-  <si>
     <t>GI_Liver_and_Transplant/Nasojejunal feeding protocol.pdf</t>
   </si>
   <si>
@@ -244,54 +244,54 @@
     <t>ECLS/RIE ECLS Anti Xa Protocol.pdf</t>
   </si>
   <si>
+    <t>Infection_and_sepsis/Winter Infections Stepdown Guidance.pdf</t>
+  </si>
+  <si>
     <t>Drugs/vasopressin_sepsis.pdf</t>
   </si>
   <si>
-    <t>Infection_and_sepsis/Winter Infections Stepdown Guidance.pdf</t>
-  </si>
-  <si>
     <t>Drugs/vasopressin organ donation.pdf</t>
   </si>
   <si>
+    <t>Covid-19/videos/Donning and Doffing Video.pdf</t>
+  </si>
+  <si>
     <t>Transfer/ACCP Transfers.pdf</t>
   </si>
   <si>
-    <t>Covid-19/videos/Donning and Doffing Video.pdf</t>
+    <t>Breathing(Respiratory)/Equipment/Bipap V60.pdf</t>
+  </si>
+  <si>
+    <t>Breathing(Respiratory)/CPAP.pdf</t>
+  </si>
+  <si>
+    <t>Breathing(Respiratory)/Equipment/Ventilators Circuits Filters and Closed Suction - Set up and Maintenance.pdf</t>
+  </si>
+  <si>
+    <t>Infection_and_sepsis/Infection indications for IVIG.pdf</t>
   </si>
   <si>
     <t>Drugs/piperacillin_tazobactam extended_infusion.pdf</t>
   </si>
   <si>
-    <t>Infection_and_sepsis/Infection indications for IVIG.pdf</t>
-  </si>
-  <si>
-    <t>Breathing(Respiratory)/Equipment/Bipap V60.pdf</t>
-  </si>
-  <si>
-    <t>Breathing(Respiratory)/Equipment/Ventilators Circuits Filters and Closed Suction - Set up and Maintenance.pdf</t>
-  </si>
-  <si>
-    <t>Breathing(Respiratory)/CPAP.pdf</t>
-  </si>
-  <si>
     <t>Procedures/CVC Guidance/Securing CVCs.pdf</t>
   </si>
   <si>
     <t>Covid-19/Covid 19 Death Certification Guideline.pdf</t>
   </si>
   <si>
+    <t>Neurological/Treatment of status epilepticus.pdf</t>
+  </si>
+  <si>
     <t>Routine_Care/Video Communication.pdf</t>
   </si>
   <si>
-    <t>Neurological/Treatment of status epilepticus.pdf</t>
+    <t>Cardiovascular/Cardiogenic Shock.pdf</t>
   </si>
   <si>
     <t>Drugs/isoprenaline.pdf</t>
   </si>
   <si>
-    <t>Cardiovascular/Cardiogenic Shock.pdf</t>
-  </si>
-  <si>
     <t>Haematology_CAR-T/Haem_ICU_transfer.pdf</t>
   </si>
   <si>
@@ -304,15 +304,15 @@
     <t>Haematology_CAR-T/CRS.pdf</t>
   </si>
   <si>
+    <t>Drugs/pancuronium.pdf</t>
+  </si>
+  <si>
+    <t>Haematology_CAR-T/ICANS.pdf</t>
+  </si>
+  <si>
     <t>Drugs/phenytoin.pdf</t>
   </si>
   <si>
-    <t>Drugs/pancuronium.pdf</t>
-  </si>
-  <si>
-    <t>Haematology_CAR-T/ICANS.pdf</t>
-  </si>
-  <si>
     <t>Drugs/rocuronium.pdf</t>
   </si>
   <si>
@@ -322,39 +322,39 @@
     <t>Policies_and_admin/General Critical Care SOP_pub.pdf</t>
   </si>
   <si>
+    <t>Neurological/Management of traumatic brain injury.pdf</t>
+  </si>
+  <si>
+    <t>Ethics_and_Law/DNACPR policy for Scotland.pdf</t>
+  </si>
+  <si>
+    <t>Ethics_and_Law/Care at the End of Life (FICM).pdf</t>
+  </si>
+  <si>
+    <t>End_of_life_care/CMO &amp; NRS Guidance for Doctors completing MCCD.pdf</t>
+  </si>
+  <si>
+    <t>GI_Liver_and_Transplant/ICU - Upper GI bleeding (Endoscopy guideline).pdf</t>
+  </si>
+  <si>
+    <t>Neurological/Critical Care MRI Procedure_pub.pdf</t>
+  </si>
+  <si>
+    <t>Infection_and_sepsis/Trip Out of Unit infection guidance.pdf</t>
+  </si>
+  <si>
     <t>Covid-19/COVID 19 ICM guidance basic goals_June_2022.pdf</t>
   </si>
   <si>
+    <t>End_of_life_care/Palliative extubation &amp; withdrawal of invasive ventilatory support nursing checklist.pdf</t>
+  </si>
+  <si>
     <t>Organ_donation/Organ Retrieval SOP.pdf</t>
   </si>
   <si>
-    <t>Neurological/Management of traumatic brain injury.pdf</t>
-  </si>
-  <si>
-    <t>Ethics_and_Law/Care at the End of Life (FICM).pdf</t>
-  </si>
-  <si>
-    <t>Ethics_and_Law/DNACPR policy for Scotland.pdf</t>
-  </si>
-  <si>
-    <t>End_of_life_care/Palliative extubation &amp; withdrawal of invasive ventilatory support nursing checklist.pdf</t>
-  </si>
-  <si>
-    <t>Neurological/Critical Care MRI Procedure_pub.pdf</t>
-  </si>
-  <si>
-    <t>Infection_and_sepsis/Trip Out of Unit infection guidance.pdf</t>
-  </si>
-  <si>
-    <t>GI_Liver_and_Transplant/ICU - Upper GI bleeding (Endoscopy guideline).pdf</t>
-  </si>
-  <si>
     <t>Drugs/clonidine.pdf</t>
   </si>
   <si>
-    <t>End_of_life_care/CMO &amp; NRS Guidance for Doctors completing MCCD.pdf</t>
-  </si>
-  <si>
     <t>Airway/Cook Staged Extubation Set.pdf</t>
   </si>
   <si>
@@ -364,54 +364,54 @@
     <t>Post_op_care/Epidural hypotension.pdf</t>
   </si>
   <si>
+    <t>Breathing(Respiratory)/Equipment/Passy Muir Valve.pdf</t>
+  </si>
+  <si>
+    <t>GI_Liver_and_Transplant/Confirmation of Nasogastric Tube Position.pdf</t>
+  </si>
+  <si>
+    <t>Drugs/dexmedetomidine.pdf</t>
+  </si>
+  <si>
     <t>Drugs/glyceryl_trinitrate.pdf</t>
   </si>
   <si>
-    <t>GI_Liver_and_Transplant/Confirmation of Nasogastric Tube Position.pdf</t>
-  </si>
-  <si>
-    <t>Drugs/dexmedetomidine.pdf</t>
-  </si>
-  <si>
-    <t>Breathing(Respiratory)/Equipment/Passy Muir Valve.pdf</t>
-  </si>
-  <si>
     <t>GI_Liver_and_Transplant/Fulminant Liver Failure.pdf</t>
   </si>
   <si>
     <t>Infection_and_sepsis/Antifungal guidance in critical care.pdf</t>
   </si>
   <si>
+    <t>Cardiovascular/Intra Aortic Balloon Pump Guideline_pub.pdf</t>
+  </si>
+  <si>
     <t>Cardiovascular/Intra Aortic Balloon Pump Bedside Checks_pub.pdf</t>
   </si>
   <si>
-    <t>Cardiovascular/Intra Aortic Balloon Pump Guideline_pub.pdf</t>
-  </si>
-  <si>
     <t>Transfer/Transfer Outdoors to Garden Guideline.pdf</t>
   </si>
   <si>
     <t>Breathing(Respiratory)/ARDS Strategy.pdf</t>
   </si>
   <si>
+    <t>Drugs/dobutamine.pdf</t>
+  </si>
+  <si>
     <t>Drugs/adrenaline.pdf</t>
   </si>
   <si>
-    <t>Drugs/dobutamine.pdf</t>
-  </si>
-  <si>
     <t>Drugs/hydralazine.pdf</t>
   </si>
   <si>
     <t>Post_op_care/Major OMFS Free Flap.pdf</t>
   </si>
   <si>
+    <t>Drugs/alfentanil.pdf</t>
+  </si>
+  <si>
     <t>Drugs/Alteplase for massive PE.pdf</t>
   </si>
   <si>
-    <t>Drugs/alfentanil.pdf</t>
-  </si>
-  <si>
     <t>Drugs/magnesium.pdf</t>
   </si>
   <si>
@@ -424,132 +424,126 @@
     <t>Drugs/vancomycin.pdf</t>
   </si>
   <si>
+    <t>Drugs/labetalol.pdf</t>
+  </si>
+  <si>
+    <t>Neurological/Intrathecal policy RIE.pdf</t>
+  </si>
+  <si>
     <t>Infection_and_sepsis/Initial investigation and management in unidentified Infections.pdf</t>
   </si>
   <si>
-    <t>Neurological/Intrathecal policy RIE.pdf</t>
-  </si>
-  <si>
-    <t>Drugs/labetalol.pdf</t>
+    <t>Drugs/midazolam.pdf</t>
   </si>
   <si>
     <t>Cardiovascular/Management of Acute Type B Aortic Dissection Guideline.pdf</t>
   </si>
   <si>
-    <t>Drugs/midazolam.pdf</t>
+    <t>Drugs/potassium.pdf</t>
   </si>
   <si>
     <t>Procedures/CVC Guidance/CVC NHL  April 2023.pdf</t>
   </si>
   <si>
-    <t>Drugs/potassium.pdf</t>
-  </si>
-  <si>
     <t>Drugs/salbutamol.pdf</t>
   </si>
   <si>
     <t>Drugs/nimodipine.pdf</t>
   </si>
   <si>
+    <t>Drugs/phenobarbitone.pdf</t>
+  </si>
+  <si>
+    <t>Drugs/nicardipine.pdf</t>
+  </si>
+  <si>
+    <t>Routine_Care/ICU Eye Care Guideline.pdf</t>
+  </si>
+  <si>
     <t>Procedures/Arterial Line insertion for ACCPs.pdf</t>
   </si>
   <si>
-    <t>Routine_Care/newtest_c.pdf</t>
-  </si>
-  <si>
-    <t>Routine_Care/newtest_c copy.pdf</t>
-  </si>
-  <si>
-    <t>Drugs/nicardipine.pdf</t>
-  </si>
-  <si>
-    <t>Drugs/phenobarbitone.pdf</t>
-  </si>
-  <si>
-    <t>Routine_Care/ICU Eye Care Guideline.pdf</t>
-  </si>
-  <si>
     <t>Drugs/amiodarone.pdf</t>
   </si>
   <si>
+    <t>Drugs/phenylephrine.pdf</t>
+  </si>
+  <si>
+    <t>Breathing(Respiratory)/Manual Ventilation and MHI.pdf</t>
+  </si>
+  <si>
+    <t>Drugs/noradrenaline (peripheral).pdf</t>
+  </si>
+  <si>
+    <t>Neurological/Ventriculitis Guideline.pdf</t>
+  </si>
+  <si>
+    <t>Drugs/Epoprostenol.pdf</t>
+  </si>
+  <si>
     <t>Drugs/morphine.pdf</t>
   </si>
   <si>
-    <t>Drugs/noradrenaline (peripheral).pdf</t>
-  </si>
-  <si>
-    <t>Neurological/Ventriculitis Guideline.pdf</t>
-  </si>
-  <si>
-    <t>Drugs/phenylephrine.pdf</t>
-  </si>
-  <si>
-    <t>Drugs/Epoprostenol.pdf</t>
-  </si>
-  <si>
-    <t>Breathing(Respiratory)/Manual Ventilation and MHI.pdf</t>
+    <t>Cardiovascular/Cardiac Output Monitoring_pub .pdf</t>
+  </si>
+  <si>
+    <t>Cardiovascular/Pulmonary_Embolism_and_DVT/Catheter directed thrombolysis of iliofemoral DVT alteplase_pub.pdf</t>
   </si>
   <si>
     <t>Drugs/calcium.pdf</t>
   </si>
   <si>
-    <t>Cardiovascular/Pulmonary_Embolism_and_DVT/Catheter directed thrombolysis of iliofemoral DVT alteplase_pub.pdf</t>
-  </si>
-  <si>
-    <t>Cardiovascular/Cardiac Output Monitoring_pub .pdf</t>
+    <t>Drugs/dalteparin_thromboprophylaxis.pdf</t>
+  </si>
+  <si>
+    <t>Drugs/Vancomycin Continuous Infusion Fluid Restricted.pdf</t>
+  </si>
+  <si>
+    <t>Drugs/atracurium.pdf</t>
   </si>
   <si>
     <t>Airway/Tracheostomy_Laryngectomy/Decannulation Guidline.pdf</t>
   </si>
   <si>
-    <t>Drugs/atracurium.pdf</t>
-  </si>
-  <si>
-    <t>Drugs/dalteparin_thromboprophylaxis.pdf</t>
-  </si>
-  <si>
-    <t>Drugs/Vancomycin Continuous Infusion Fluid Restricted.pdf</t>
+    <t>Policies_and_admin/Pet Visitation.pdf</t>
+  </si>
+  <si>
+    <t>Drugs/valproate.pdf</t>
   </si>
   <si>
     <t>Procedures/Inadvertent Catheter Placement Guideline.pdf</t>
   </si>
   <si>
-    <t>Policies_and_admin/Pet Visitation.pdf</t>
-  </si>
-  <si>
-    <t>Drugs/valproate.pdf</t>
+    <t>Drugs/stress ulcer prophylaxis.pdf</t>
+  </si>
+  <si>
+    <t>Drugs/ketamine_for_status epilepticus.pdf</t>
   </si>
   <si>
     <t>Drugs/Phosphate.pdf</t>
   </si>
   <si>
-    <t>Drugs/stress ulcer prophylaxis.pdf</t>
-  </si>
-  <si>
-    <t>Drugs/ketamine_for_status epilepticus.pdf</t>
+    <t>Drugs/Thiopentone.pdf</t>
+  </si>
+  <si>
+    <t>Breathing(Respiratory)/Proning Guideline.pdf</t>
+  </si>
+  <si>
+    <t>GI_Liver_and_Transplant/Prokinetics in ICU.pdf</t>
   </si>
   <si>
     <t>Drugs/Octreotide.pdf</t>
   </si>
   <si>
-    <t>Breathing(Respiratory)/Proning Guideline.pdf</t>
-  </si>
-  <si>
-    <t>GI_Liver_and_Transplant/Prokinetics in ICU.pdf</t>
-  </si>
-  <si>
-    <t>Drugs/Thiopentone.pdf</t>
-  </si>
-  <si>
     <t>Procedures/ACCP CVC placement following completion of initial competencies.pdf</t>
   </si>
   <si>
+    <t>Procedures/ACCPs acquiring initial CVC competencies.pdf</t>
+  </si>
+  <si>
     <t>Post_op_care/Prevention and treatment of paraplegia after major aortic procedures.pdf</t>
   </si>
   <si>
-    <t>Procedures/ACCPs acquiring initial CVC competencies.pdf</t>
-  </si>
-  <si>
     <t>Delirium/Violence and Agression.pdf</t>
   </si>
   <si>
@@ -559,10 +553,10 @@
     <t>GI_Liver_and_Transplant/Plasma exchange in Acute Liver Failure.pdf</t>
   </si>
   <si>
+    <t>End_of_life_care/Guideline following Sudden Cardiac Death where death occurs in ICU.pdf</t>
+  </si>
+  <si>
     <t>Breathing(Respiratory)/Equipment/NIV through Drager Vent Set up in Critical Care.pdf</t>
-  </si>
-  <si>
-    <t>End_of_life_care/Guideline following Sudden Cardiac Death where death occurs in ICU.pdf</t>
   </si>
   <si>
     <t>Transfer/Transfer Guidelines.pdf</t>
@@ -1214,7 +1208,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B188"/>
+  <dimension ref="A1:B186"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1233,7 +1227,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -1241,7 +1235,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -1249,7 +1243,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -1257,7 +1251,7 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -1265,7 +1259,7 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -1273,7 +1267,7 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -1281,7 +1275,7 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -1289,7 +1283,7 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -1297,7 +1291,7 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -1305,7 +1299,7 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -1313,7 +1307,7 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -1321,7 +1315,7 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -1329,7 +1323,7 @@
         <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -1337,7 +1331,7 @@
         <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -1345,7 +1339,7 @@
         <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -1353,7 +1347,7 @@
         <v>17</v>
       </c>
       <c r="B17" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -1361,7 +1355,7 @@
         <v>18</v>
       </c>
       <c r="B18" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -1369,7 +1363,7 @@
         <v>19</v>
       </c>
       <c r="B19" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -1377,7 +1371,7 @@
         <v>20</v>
       </c>
       <c r="B20" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -1385,7 +1379,7 @@
         <v>21</v>
       </c>
       <c r="B21" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -1393,7 +1387,7 @@
         <v>22</v>
       </c>
       <c r="B22" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -1401,7 +1395,7 @@
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -1409,7 +1403,7 @@
         <v>24</v>
       </c>
       <c r="B24" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -1417,7 +1411,7 @@
         <v>25</v>
       </c>
       <c r="B25" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -1425,7 +1419,7 @@
         <v>26</v>
       </c>
       <c r="B26" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -1433,7 +1427,7 @@
         <v>27</v>
       </c>
       <c r="B27" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -1441,7 +1435,7 @@
         <v>28</v>
       </c>
       <c r="B28" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -1449,7 +1443,7 @@
         <v>29</v>
       </c>
       <c r="B29" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -1457,7 +1451,7 @@
         <v>30</v>
       </c>
       <c r="B30" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -1465,7 +1459,7 @@
         <v>31</v>
       </c>
       <c r="B31" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -1473,7 +1467,7 @@
         <v>32</v>
       </c>
       <c r="B32" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -1481,7 +1475,7 @@
         <v>33</v>
       </c>
       <c r="B33" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -1489,7 +1483,7 @@
         <v>34</v>
       </c>
       <c r="B34" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -1497,7 +1491,7 @@
         <v>35</v>
       </c>
       <c r="B35" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -1505,7 +1499,7 @@
         <v>36</v>
       </c>
       <c r="B36" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -1513,7 +1507,7 @@
         <v>37</v>
       </c>
       <c r="B37" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -1521,7 +1515,7 @@
         <v>38</v>
       </c>
       <c r="B38" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -1529,7 +1523,7 @@
         <v>39</v>
       </c>
       <c r="B39" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -1537,7 +1531,7 @@
         <v>40</v>
       </c>
       <c r="B40" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -1545,7 +1539,7 @@
         <v>41</v>
       </c>
       <c r="B41" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -1553,7 +1547,7 @@
         <v>42</v>
       </c>
       <c r="B42" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -1561,7 +1555,7 @@
         <v>43</v>
       </c>
       <c r="B43" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -1569,7 +1563,7 @@
         <v>44</v>
       </c>
       <c r="B44" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -1577,7 +1571,7 @@
         <v>45</v>
       </c>
       <c r="B45" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -1585,7 +1579,7 @@
         <v>46</v>
       </c>
       <c r="B46" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -1593,7 +1587,7 @@
         <v>47</v>
       </c>
       <c r="B47" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -1601,7 +1595,7 @@
         <v>48</v>
       </c>
       <c r="B48" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -1609,7 +1603,7 @@
         <v>49</v>
       </c>
       <c r="B49" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -1617,7 +1611,7 @@
         <v>50</v>
       </c>
       <c r="B50" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -1625,7 +1619,7 @@
         <v>51</v>
       </c>
       <c r="B51" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -1633,7 +1627,7 @@
         <v>52</v>
       </c>
       <c r="B52" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -1641,7 +1635,7 @@
         <v>53</v>
       </c>
       <c r="B53" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="54" spans="1:2">
@@ -1649,7 +1643,7 @@
         <v>54</v>
       </c>
       <c r="B54" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="55" spans="1:2">
@@ -1657,7 +1651,7 @@
         <v>55</v>
       </c>
       <c r="B55" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="56" spans="1:2">
@@ -1665,7 +1659,7 @@
         <v>56</v>
       </c>
       <c r="B56" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="57" spans="1:2">
@@ -1673,7 +1667,7 @@
         <v>57</v>
       </c>
       <c r="B57" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="58" spans="1:2">
@@ -1681,7 +1675,7 @@
         <v>58</v>
       </c>
       <c r="B58" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="59" spans="1:2">
@@ -1689,7 +1683,7 @@
         <v>59</v>
       </c>
       <c r="B59" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
     </row>
     <row r="60" spans="1:2">
@@ -1697,7 +1691,7 @@
         <v>60</v>
       </c>
       <c r="B60" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
     </row>
     <row r="61" spans="1:2">
@@ -1705,7 +1699,7 @@
         <v>61</v>
       </c>
       <c r="B61" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="62" spans="1:2">
@@ -1713,7 +1707,7 @@
         <v>62</v>
       </c>
       <c r="B62" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="63" spans="1:2">
@@ -1721,7 +1715,7 @@
         <v>63</v>
       </c>
       <c r="B63" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="64" spans="1:2">
@@ -1729,7 +1723,7 @@
         <v>64</v>
       </c>
       <c r="B64" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="65" spans="1:2">
@@ -1737,7 +1731,7 @@
         <v>65</v>
       </c>
       <c r="B65" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="66" spans="1:2">
@@ -1745,7 +1739,7 @@
         <v>66</v>
       </c>
       <c r="B66" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
     </row>
     <row r="67" spans="1:2">
@@ -1753,7 +1747,7 @@
         <v>67</v>
       </c>
       <c r="B67" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
     <row r="68" spans="1:2">
@@ -1761,7 +1755,7 @@
         <v>68</v>
       </c>
       <c r="B68" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
     <row r="69" spans="1:2">
@@ -1769,7 +1763,7 @@
         <v>69</v>
       </c>
       <c r="B69" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="70" spans="1:2">
@@ -1777,7 +1771,7 @@
         <v>70</v>
       </c>
       <c r="B70" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="71" spans="1:2">
@@ -1785,7 +1779,7 @@
         <v>71</v>
       </c>
       <c r="B71" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
     <row r="72" spans="1:2">
@@ -1793,7 +1787,7 @@
         <v>72</v>
       </c>
       <c r="B72" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
     <row r="73" spans="1:2">
@@ -1801,7 +1795,7 @@
         <v>73</v>
       </c>
       <c r="B73" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="74" spans="1:2">
@@ -1809,7 +1803,7 @@
         <v>74</v>
       </c>
       <c r="B74" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="75" spans="1:2">
@@ -1817,7 +1811,7 @@
         <v>75</v>
       </c>
       <c r="B75" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="76" spans="1:2">
@@ -1825,7 +1819,7 @@
         <v>76</v>
       </c>
       <c r="B76" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="77" spans="1:2">
@@ -1833,7 +1827,7 @@
         <v>77</v>
       </c>
       <c r="B77" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="78" spans="1:2">
@@ -1841,7 +1835,7 @@
         <v>78</v>
       </c>
       <c r="B78" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="79" spans="1:2">
@@ -1849,7 +1843,7 @@
         <v>79</v>
       </c>
       <c r="B79" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="80" spans="1:2">
@@ -1857,7 +1851,7 @@
         <v>80</v>
       </c>
       <c r="B80" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="81" spans="1:2">
@@ -1865,7 +1859,7 @@
         <v>81</v>
       </c>
       <c r="B81" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
     <row r="82" spans="1:2">
@@ -1873,7 +1867,7 @@
         <v>82</v>
       </c>
       <c r="B82" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
     <row r="83" spans="1:2">
@@ -1881,7 +1875,7 @@
         <v>83</v>
       </c>
       <c r="B83" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
     <row r="84" spans="1:2">
@@ -1889,7 +1883,7 @@
         <v>84</v>
       </c>
       <c r="B84" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
     <row r="85" spans="1:2">
@@ -1897,7 +1891,7 @@
         <v>85</v>
       </c>
       <c r="B85" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
     <row r="86" spans="1:2">
@@ -1905,7 +1899,7 @@
         <v>86</v>
       </c>
       <c r="B86" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="87" spans="1:2">
@@ -1913,7 +1907,7 @@
         <v>87</v>
       </c>
       <c r="B87" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="88" spans="1:2">
@@ -1921,7 +1915,7 @@
         <v>88</v>
       </c>
       <c r="B88" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="89" spans="1:2">
@@ -1929,7 +1923,7 @@
         <v>89</v>
       </c>
       <c r="B89" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="90" spans="1:2">
@@ -1937,7 +1931,7 @@
         <v>90</v>
       </c>
       <c r="B90" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="91" spans="1:2">
@@ -1945,7 +1939,7 @@
         <v>91</v>
       </c>
       <c r="B91" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="92" spans="1:2">
@@ -1953,7 +1947,7 @@
         <v>92</v>
       </c>
       <c r="B92" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
     </row>
     <row r="93" spans="1:2">
@@ -1961,7 +1955,7 @@
         <v>93</v>
       </c>
       <c r="B93" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="94" spans="1:2">
@@ -1969,7 +1963,7 @@
         <v>94</v>
       </c>
       <c r="B94" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="95" spans="1:2">
@@ -1977,7 +1971,7 @@
         <v>95</v>
       </c>
       <c r="B95" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="96" spans="1:2">
@@ -1985,7 +1979,7 @@
         <v>96</v>
       </c>
       <c r="B96" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="97" spans="1:2">
@@ -1993,7 +1987,7 @@
         <v>97</v>
       </c>
       <c r="B97" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="98" spans="1:2">
@@ -2001,7 +1995,7 @@
         <v>98</v>
       </c>
       <c r="B98" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="99" spans="1:2">
@@ -2009,7 +2003,7 @@
         <v>99</v>
       </c>
       <c r="B99" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="100" spans="1:2">
@@ -2017,7 +2011,7 @@
         <v>100</v>
       </c>
       <c r="B100" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="101" spans="1:2">
@@ -2025,7 +2019,7 @@
         <v>101</v>
       </c>
       <c r="B101" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="102" spans="1:2">
@@ -2033,7 +2027,7 @@
         <v>102</v>
       </c>
       <c r="B102" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="103" spans="1:2">
@@ -2041,7 +2035,7 @@
         <v>103</v>
       </c>
       <c r="B103" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="104" spans="1:2">
@@ -2049,7 +2043,7 @@
         <v>104</v>
       </c>
       <c r="B104" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="105" spans="1:2">
@@ -2057,7 +2051,7 @@
         <v>105</v>
       </c>
       <c r="B105" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="106" spans="1:2">
@@ -2065,7 +2059,7 @@
         <v>106</v>
       </c>
       <c r="B106" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="107" spans="1:2">
@@ -2073,7 +2067,7 @@
         <v>107</v>
       </c>
       <c r="B107" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="108" spans="1:2">
@@ -2081,7 +2075,7 @@
         <v>108</v>
       </c>
       <c r="B108" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="109" spans="1:2">
@@ -2089,7 +2083,7 @@
         <v>109</v>
       </c>
       <c r="B109" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="110" spans="1:2">
@@ -2097,7 +2091,7 @@
         <v>110</v>
       </c>
       <c r="B110" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="111" spans="1:2">
@@ -2105,7 +2099,7 @@
         <v>111</v>
       </c>
       <c r="B111" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="112" spans="1:2">
@@ -2113,7 +2107,7 @@
         <v>112</v>
       </c>
       <c r="B112" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="113" spans="1:2">
@@ -2121,7 +2115,7 @@
         <v>113</v>
       </c>
       <c r="B113" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="114" spans="1:2">
@@ -2129,7 +2123,7 @@
         <v>114</v>
       </c>
       <c r="B114" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="115" spans="1:2">
@@ -2137,7 +2131,7 @@
         <v>115</v>
       </c>
       <c r="B115" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
     </row>
     <row r="116" spans="1:2">
@@ -2145,7 +2139,7 @@
         <v>116</v>
       </c>
       <c r="B116" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="117" spans="1:2">
@@ -2153,7 +2147,7 @@
         <v>117</v>
       </c>
       <c r="B117" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="118" spans="1:2">
@@ -2161,7 +2155,7 @@
         <v>118</v>
       </c>
       <c r="B118" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="119" spans="1:2">
@@ -2169,7 +2163,7 @@
         <v>119</v>
       </c>
       <c r="B119" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="120" spans="1:2">
@@ -2177,7 +2171,7 @@
         <v>120</v>
       </c>
       <c r="B120" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="121" spans="1:2">
@@ -2185,7 +2179,7 @@
         <v>121</v>
       </c>
       <c r="B121" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
     </row>
     <row r="122" spans="1:2">
@@ -2193,7 +2187,7 @@
         <v>122</v>
       </c>
       <c r="B122" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="123" spans="1:2">
@@ -2201,7 +2195,7 @@
         <v>123</v>
       </c>
       <c r="B123" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="124" spans="1:2">
@@ -2209,7 +2203,7 @@
         <v>124</v>
       </c>
       <c r="B124" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="125" spans="1:2">
@@ -2217,7 +2211,7 @@
         <v>125</v>
       </c>
       <c r="B125" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="126" spans="1:2">
@@ -2225,7 +2219,7 @@
         <v>126</v>
       </c>
       <c r="B126" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
     <row r="127" spans="1:2">
@@ -2233,7 +2227,7 @@
         <v>127</v>
       </c>
       <c r="B127" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
     <row r="128" spans="1:2">
@@ -2241,7 +2235,7 @@
         <v>128</v>
       </c>
       <c r="B128" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="129" spans="1:2">
@@ -2249,7 +2243,7 @@
         <v>129</v>
       </c>
       <c r="B129" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
     </row>
     <row r="130" spans="1:2">
@@ -2257,7 +2251,7 @@
         <v>130</v>
       </c>
       <c r="B130" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="131" spans="1:2">
@@ -2265,7 +2259,7 @@
         <v>131</v>
       </c>
       <c r="B131" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="132" spans="1:2">
@@ -2273,7 +2267,7 @@
         <v>132</v>
       </c>
       <c r="B132" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="133" spans="1:2">
@@ -2281,7 +2275,7 @@
         <v>133</v>
       </c>
       <c r="B133" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="134" spans="1:2">
@@ -2289,7 +2283,7 @@
         <v>134</v>
       </c>
       <c r="B134" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="135" spans="1:2">
@@ -2297,7 +2291,7 @@
         <v>135</v>
       </c>
       <c r="B135" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="136" spans="1:2">
@@ -2305,7 +2299,7 @@
         <v>136</v>
       </c>
       <c r="B136" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
     </row>
     <row r="137" spans="1:2">
@@ -2313,7 +2307,7 @@
         <v>137</v>
       </c>
       <c r="B137" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
     </row>
     <row r="138" spans="1:2">
@@ -2321,7 +2315,7 @@
         <v>138</v>
       </c>
       <c r="B138" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
     </row>
     <row r="139" spans="1:2">
@@ -2329,7 +2323,7 @@
         <v>139</v>
       </c>
       <c r="B139" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="140" spans="1:2">
@@ -2337,7 +2331,7 @@
         <v>140</v>
       </c>
       <c r="B140" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="141" spans="1:2">
@@ -2345,7 +2339,7 @@
         <v>141</v>
       </c>
       <c r="B141" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="142" spans="1:2">
@@ -2353,7 +2347,7 @@
         <v>142</v>
       </c>
       <c r="B142" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="143" spans="1:2">
@@ -2361,7 +2355,7 @@
         <v>143</v>
       </c>
       <c r="B143" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="144" spans="1:2">
@@ -2369,7 +2363,7 @@
         <v>144</v>
       </c>
       <c r="B144" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="145" spans="1:2">
@@ -2377,7 +2371,7 @@
         <v>145</v>
       </c>
       <c r="B145" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="146" spans="1:2">
@@ -2385,7 +2379,7 @@
         <v>146</v>
       </c>
       <c r="B146" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="147" spans="1:2">
@@ -2393,7 +2387,7 @@
         <v>147</v>
       </c>
       <c r="B147" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="148" spans="1:2">
@@ -2401,7 +2395,7 @@
         <v>148</v>
       </c>
       <c r="B148" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="149" spans="1:2">
@@ -2409,7 +2403,7 @@
         <v>149</v>
       </c>
       <c r="B149" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="150" spans="1:2">
@@ -2417,7 +2411,7 @@
         <v>150</v>
       </c>
       <c r="B150" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="151" spans="1:2">
@@ -2425,7 +2419,7 @@
         <v>151</v>
       </c>
       <c r="B151" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="152" spans="1:2">
@@ -2433,7 +2427,7 @@
         <v>152</v>
       </c>
       <c r="B152" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="153" spans="1:2">
@@ -2441,7 +2435,7 @@
         <v>153</v>
       </c>
       <c r="B153" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="154" spans="1:2">
@@ -2449,7 +2443,7 @@
         <v>154</v>
       </c>
       <c r="B154" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="155" spans="1:2">
@@ -2457,7 +2451,7 @@
         <v>155</v>
       </c>
       <c r="B155" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="156" spans="1:2">
@@ -2465,7 +2459,7 @@
         <v>156</v>
       </c>
       <c r="B156" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="157" spans="1:2">
@@ -2473,7 +2467,7 @@
         <v>157</v>
       </c>
       <c r="B157" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="158" spans="1:2">
@@ -2481,7 +2475,7 @@
         <v>158</v>
       </c>
       <c r="B158" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="159" spans="1:2">
@@ -2489,7 +2483,7 @@
         <v>159</v>
       </c>
       <c r="B159" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="160" spans="1:2">
@@ -2497,7 +2491,7 @@
         <v>160</v>
       </c>
       <c r="B160" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="161" spans="1:2">
@@ -2505,7 +2499,7 @@
         <v>161</v>
       </c>
       <c r="B161" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="162" spans="1:2">
@@ -2513,7 +2507,7 @@
         <v>162</v>
       </c>
       <c r="B162" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="163" spans="1:2">
@@ -2521,7 +2515,7 @@
         <v>163</v>
       </c>
       <c r="B163" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="164" spans="1:2">
@@ -2529,7 +2523,7 @@
         <v>164</v>
       </c>
       <c r="B164" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="165" spans="1:2">
@@ -2537,7 +2531,7 @@
         <v>165</v>
       </c>
       <c r="B165" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
     <row r="166" spans="1:2">
@@ -2545,7 +2539,7 @@
         <v>166</v>
       </c>
       <c r="B166" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="167" spans="1:2">
@@ -2553,7 +2547,7 @@
         <v>167</v>
       </c>
       <c r="B167" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="168" spans="1:2">
@@ -2561,7 +2555,7 @@
         <v>168</v>
       </c>
       <c r="B168" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="169" spans="1:2">
@@ -2569,7 +2563,7 @@
         <v>169</v>
       </c>
       <c r="B169" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="170" spans="1:2">
@@ -2577,7 +2571,7 @@
         <v>170</v>
       </c>
       <c r="B170" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="171" spans="1:2">
@@ -2585,7 +2579,7 @@
         <v>171</v>
       </c>
       <c r="B171" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
     <row r="172" spans="1:2">
@@ -2593,7 +2587,7 @@
         <v>172</v>
       </c>
       <c r="B172" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
     <row r="173" spans="1:2">
@@ -2601,7 +2595,7 @@
         <v>173</v>
       </c>
       <c r="B173" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="174" spans="1:2">
@@ -2609,7 +2603,7 @@
         <v>174</v>
       </c>
       <c r="B174" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="175" spans="1:2">
@@ -2617,7 +2611,7 @@
         <v>175</v>
       </c>
       <c r="B175" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
     </row>
     <row r="176" spans="1:2">
@@ -2625,7 +2619,7 @@
         <v>176</v>
       </c>
       <c r="B176" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="177" spans="1:2">
@@ -2657,7 +2651,7 @@
         <v>180</v>
       </c>
       <c r="B180" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="181" spans="1:2">
@@ -2665,7 +2659,7 @@
         <v>181</v>
       </c>
       <c r="B181" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="182" spans="1:2">
@@ -2706,22 +2700,6 @@
       </c>
       <c r="B186" t="s">
         <v>278</v>
-      </c>
-    </row>
-    <row r="187" spans="1:2">
-      <c r="A187" t="s">
-        <v>187</v>
-      </c>
-      <c r="B187" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="188" spans="1:2">
-      <c r="A188" t="s">
-        <v>188</v>
-      </c>
-      <c r="B188" t="s">
-        <v>280</v>
       </c>
     </row>
   </sheetData>

--- a/lothiancriticalcare/1a74f8f7b8b7e871b413c4697f68b4401fbacdf0/reviewdates.xlsx
+++ b/lothiancriticalcare/1a74f8f7b8b7e871b413c4697f68b4401fbacdf0/reviewdates.xlsx
@@ -577,202 +577,202 @@
     <t>Policies_and_admin/Repatriaiton Checklist for Critical Care.pdf</t>
   </si>
   <si>
-    <t>2011-03-09</t>
-  </si>
-  <si>
-    <t>2011-06-09</t>
-  </si>
-  <si>
-    <t>2011-07-09</t>
-  </si>
-  <si>
-    <t>2011-12-09</t>
-  </si>
-  <si>
-    <t>2014-09-09</t>
-  </si>
-  <si>
-    <t>2014-10-09</t>
-  </si>
-  <si>
-    <t>2014-11-09</t>
-  </si>
-  <si>
-    <t>2014-12-09</t>
-  </si>
-  <si>
-    <t>2015-03-09</t>
-  </si>
-  <si>
-    <t>2016-01-09</t>
-  </si>
-  <si>
-    <t>2016-04-09</t>
-  </si>
-  <si>
-    <t>2016-08-09</t>
-  </si>
-  <si>
-    <t>2017-01-09</t>
-  </si>
-  <si>
-    <t>2017-08-09</t>
-  </si>
-  <si>
-    <t>2017-10-09</t>
-  </si>
-  <si>
-    <t>2017-11-09</t>
-  </si>
-  <si>
-    <t>2018-05-09</t>
-  </si>
-  <si>
-    <t>2018-07-09</t>
-  </si>
-  <si>
-    <t>2019-05-09</t>
-  </si>
-  <si>
-    <t>2019-06-09</t>
-  </si>
-  <si>
-    <t>2019-08-09</t>
-  </si>
-  <si>
-    <t>2019-09-09</t>
-  </si>
-  <si>
-    <t>2020-01-09</t>
-  </si>
-  <si>
-    <t>2020-03-09</t>
-  </si>
-  <si>
-    <t>2020-04-09</t>
-  </si>
-  <si>
-    <t>2020-05-09</t>
-  </si>
-  <si>
-    <t>2020-07-09</t>
-  </si>
-  <si>
-    <t>2020-08-09</t>
-  </si>
-  <si>
-    <t>2020-11-09</t>
-  </si>
-  <si>
-    <t>2021-02-09</t>
-  </si>
-  <si>
-    <t>2021-05-09</t>
-  </si>
-  <si>
-    <t>2021-06-09</t>
-  </si>
-  <si>
-    <t>2021-09-09</t>
-  </si>
-  <si>
-    <t>2021-12-09</t>
-  </si>
-  <si>
-    <t>2022-01-09</t>
-  </si>
-  <si>
-    <t>2022-03-09</t>
-  </si>
-  <si>
-    <t>2022-04-09</t>
-  </si>
-  <si>
-    <t>2022-05-09</t>
-  </si>
-  <si>
-    <t>2022-06-09</t>
-  </si>
-  <si>
-    <t>2022-07-09</t>
-  </si>
-  <si>
-    <t>2022-08-09</t>
-  </si>
-  <si>
-    <t>2022-10-09</t>
-  </si>
-  <si>
-    <t>2022-11-09</t>
-  </si>
-  <si>
-    <t>2022-12-09</t>
-  </si>
-  <si>
-    <t>2023-01-09</t>
-  </si>
-  <si>
-    <t>2023-02-09</t>
-  </si>
-  <si>
-    <t>2023-04-09</t>
-  </si>
-  <si>
-    <t>2023-05-09</t>
-  </si>
-  <si>
-    <t>2023-06-09</t>
-  </si>
-  <si>
-    <t>2023-07-09</t>
-  </si>
-  <si>
-    <t>2023-08-09</t>
-  </si>
-  <si>
-    <t>2023-09-09</t>
-  </si>
-  <si>
-    <t>2023-10-09</t>
-  </si>
-  <si>
-    <t>2024-01-09</t>
-  </si>
-  <si>
-    <t>2024-02-09</t>
-  </si>
-  <si>
-    <t>2024-03-09</t>
-  </si>
-  <si>
-    <t>2024-04-09</t>
-  </si>
-  <si>
-    <t>2024-05-09</t>
+    <t>2011-03-10</t>
+  </si>
+  <si>
+    <t>2011-06-10</t>
+  </si>
+  <si>
+    <t>2011-07-10</t>
+  </si>
+  <si>
+    <t>2011-12-10</t>
+  </si>
+  <si>
+    <t>2014-09-10</t>
+  </si>
+  <si>
+    <t>2014-10-10</t>
+  </si>
+  <si>
+    <t>2014-11-10</t>
+  </si>
+  <si>
+    <t>2014-12-10</t>
+  </si>
+  <si>
+    <t>2015-03-10</t>
+  </si>
+  <si>
+    <t>2016-01-10</t>
+  </si>
+  <si>
+    <t>2016-04-10</t>
+  </si>
+  <si>
+    <t>2016-08-10</t>
+  </si>
+  <si>
+    <t>2017-01-10</t>
+  </si>
+  <si>
+    <t>2017-08-10</t>
+  </si>
+  <si>
+    <t>2017-10-10</t>
+  </si>
+  <si>
+    <t>2017-11-10</t>
+  </si>
+  <si>
+    <t>2018-05-10</t>
+  </si>
+  <si>
+    <t>2018-07-10</t>
+  </si>
+  <si>
+    <t>2019-05-10</t>
+  </si>
+  <si>
+    <t>2019-06-10</t>
+  </si>
+  <si>
+    <t>2019-08-10</t>
+  </si>
+  <si>
+    <t>2019-09-10</t>
+  </si>
+  <si>
+    <t>2020-01-10</t>
+  </si>
+  <si>
+    <t>2020-03-10</t>
+  </si>
+  <si>
+    <t>2020-04-10</t>
+  </si>
+  <si>
+    <t>2020-05-10</t>
+  </si>
+  <si>
+    <t>2020-07-10</t>
+  </si>
+  <si>
+    <t>2020-08-10</t>
+  </si>
+  <si>
+    <t>2020-11-10</t>
+  </si>
+  <si>
+    <t>2021-02-10</t>
+  </si>
+  <si>
+    <t>2021-05-10</t>
+  </si>
+  <si>
+    <t>2021-06-10</t>
+  </si>
+  <si>
+    <t>2021-09-10</t>
+  </si>
+  <si>
+    <t>2021-12-10</t>
+  </si>
+  <si>
+    <t>2022-01-10</t>
+  </si>
+  <si>
+    <t>2022-03-10</t>
+  </si>
+  <si>
+    <t>2022-04-10</t>
+  </si>
+  <si>
+    <t>2022-05-10</t>
+  </si>
+  <si>
+    <t>2022-06-10</t>
+  </si>
+  <si>
+    <t>2022-07-10</t>
+  </si>
+  <si>
+    <t>2022-08-10</t>
+  </si>
+  <si>
+    <t>2022-10-10</t>
+  </si>
+  <si>
+    <t>2022-11-10</t>
+  </si>
+  <si>
+    <t>2022-12-10</t>
+  </si>
+  <si>
+    <t>2023-01-10</t>
+  </si>
+  <si>
+    <t>2023-02-10</t>
+  </si>
+  <si>
+    <t>2023-04-10</t>
+  </si>
+  <si>
+    <t>2023-05-10</t>
+  </si>
+  <si>
+    <t>2023-06-10</t>
+  </si>
+  <si>
+    <t>2023-07-10</t>
+  </si>
+  <si>
+    <t>2023-08-10</t>
+  </si>
+  <si>
+    <t>2023-09-10</t>
+  </si>
+  <si>
+    <t>2023-10-10</t>
+  </si>
+  <si>
+    <t>2024-01-10</t>
+  </si>
+  <si>
+    <t>2024-02-10</t>
+  </si>
+  <si>
+    <t>2024-03-10</t>
+  </si>
+  <si>
+    <t>2024-04-10</t>
+  </si>
+  <si>
+    <t>2024-05-10</t>
   </si>
   <si>
     <t>2024-06-02</t>
   </si>
   <si>
-    <t>2024-06-09</t>
+    <t>2024-06-10</t>
   </si>
   <si>
     <t>2024-06-26</t>
   </si>
   <si>
-    <t>2024-07-09</t>
+    <t>2024-07-10</t>
   </si>
   <si>
     <t>2024-07-25</t>
   </si>
   <si>
-    <t>2024-08-09</t>
+    <t>2024-08-10</t>
   </si>
   <si>
     <t>2024-08-15</t>
   </si>
   <si>
-    <t>2024-10-09</t>
+    <t>2024-10-10</t>
   </si>
   <si>
     <t>2024-10-24</t>
@@ -787,70 +787,70 @@
     <t>2024-12-24</t>
   </si>
   <si>
-    <t>2025-01-09</t>
-  </si>
-  <si>
-    <t>2025-02-09</t>
-  </si>
-  <si>
-    <t>2025-03-09</t>
-  </si>
-  <si>
-    <t>2025-04-09</t>
-  </si>
-  <si>
-    <t>2025-05-09</t>
-  </si>
-  <si>
-    <t>2025-06-09</t>
-  </si>
-  <si>
-    <t>2025-07-09</t>
-  </si>
-  <si>
-    <t>2025-08-09</t>
-  </si>
-  <si>
-    <t>2025-10-09</t>
-  </si>
-  <si>
-    <t>2025-11-09</t>
-  </si>
-  <si>
-    <t>2026-01-09</t>
-  </si>
-  <si>
-    <t>2026-03-09</t>
-  </si>
-  <si>
-    <t>2026-05-09</t>
-  </si>
-  <si>
-    <t>2026-07-09</t>
-  </si>
-  <si>
-    <t>2026-11-09</t>
-  </si>
-  <si>
-    <t>2027-01-09</t>
-  </si>
-  <si>
-    <t>2027-02-09</t>
-  </si>
-  <si>
-    <t>2028-02-09</t>
-  </si>
-  <si>
-    <t>2028-05-09</t>
-  </si>
-  <si>
-    <t>2028-07-09</t>
-  </si>
-  <si>
-    <t>2028-11-09</t>
-  </si>
-  <si>
-    <t>2030-11-09</t>
+    <t>2025-01-10</t>
+  </si>
+  <si>
+    <t>2025-02-10</t>
+  </si>
+  <si>
+    <t>2025-03-10</t>
+  </si>
+  <si>
+    <t>2025-04-10</t>
+  </si>
+  <si>
+    <t>2025-05-10</t>
+  </si>
+  <si>
+    <t>2025-06-10</t>
+  </si>
+  <si>
+    <t>2025-07-10</t>
+  </si>
+  <si>
+    <t>2025-08-10</t>
+  </si>
+  <si>
+    <t>2025-10-10</t>
+  </si>
+  <si>
+    <t>2025-11-10</t>
+  </si>
+  <si>
+    <t>2026-01-10</t>
+  </si>
+  <si>
+    <t>2026-03-10</t>
+  </si>
+  <si>
+    <t>2026-05-10</t>
+  </si>
+  <si>
+    <t>2026-07-10</t>
+  </si>
+  <si>
+    <t>2026-11-10</t>
+  </si>
+  <si>
+    <t>2027-01-10</t>
+  </si>
+  <si>
+    <t>2027-02-10</t>
+  </si>
+  <si>
+    <t>2028-02-10</t>
+  </si>
+  <si>
+    <t>2028-05-10</t>
+  </si>
+  <si>
+    <t>2028-07-10</t>
+  </si>
+  <si>
+    <t>2028-11-10</t>
+  </si>
+  <si>
+    <t>2030-11-10</t>
   </si>
 </sst>
 </file>

--- a/lothiancriticalcare/1a74f8f7b8b7e871b413c4697f68b4401fbacdf0/reviewdates.xlsx
+++ b/lothiancriticalcare/1a74f8f7b8b7e871b413c4697f68b4401fbacdf0/reviewdates.xlsx
@@ -577,202 +577,202 @@
     <t>Policies_and_admin/Repatriaiton Checklist for Critical Care.pdf</t>
   </si>
   <si>
-    <t>2011-03-10</t>
-  </si>
-  <si>
-    <t>2011-06-10</t>
-  </si>
-  <si>
-    <t>2011-07-10</t>
-  </si>
-  <si>
-    <t>2011-12-10</t>
-  </si>
-  <si>
-    <t>2014-09-10</t>
-  </si>
-  <si>
-    <t>2014-10-10</t>
-  </si>
-  <si>
-    <t>2014-11-10</t>
-  </si>
-  <si>
-    <t>2014-12-10</t>
-  </si>
-  <si>
-    <t>2015-03-10</t>
-  </si>
-  <si>
-    <t>2016-01-10</t>
-  </si>
-  <si>
-    <t>2016-04-10</t>
-  </si>
-  <si>
-    <t>2016-08-10</t>
-  </si>
-  <si>
-    <t>2017-01-10</t>
-  </si>
-  <si>
-    <t>2017-08-10</t>
-  </si>
-  <si>
-    <t>2017-10-10</t>
-  </si>
-  <si>
-    <t>2017-11-10</t>
-  </si>
-  <si>
-    <t>2018-05-10</t>
-  </si>
-  <si>
-    <t>2018-07-10</t>
-  </si>
-  <si>
-    <t>2019-05-10</t>
-  </si>
-  <si>
-    <t>2019-06-10</t>
-  </si>
-  <si>
-    <t>2019-08-10</t>
-  </si>
-  <si>
-    <t>2019-09-10</t>
-  </si>
-  <si>
-    <t>2020-01-10</t>
-  </si>
-  <si>
-    <t>2020-03-10</t>
-  </si>
-  <si>
-    <t>2020-04-10</t>
-  </si>
-  <si>
-    <t>2020-05-10</t>
-  </si>
-  <si>
-    <t>2020-07-10</t>
-  </si>
-  <si>
-    <t>2020-08-10</t>
-  </si>
-  <si>
-    <t>2020-11-10</t>
-  </si>
-  <si>
-    <t>2021-02-10</t>
-  </si>
-  <si>
-    <t>2021-05-10</t>
-  </si>
-  <si>
-    <t>2021-06-10</t>
-  </si>
-  <si>
-    <t>2021-09-10</t>
-  </si>
-  <si>
-    <t>2021-12-10</t>
-  </si>
-  <si>
-    <t>2022-01-10</t>
-  </si>
-  <si>
-    <t>2022-03-10</t>
-  </si>
-  <si>
-    <t>2022-04-10</t>
-  </si>
-  <si>
-    <t>2022-05-10</t>
-  </si>
-  <si>
-    <t>2022-06-10</t>
-  </si>
-  <si>
-    <t>2022-07-10</t>
-  </si>
-  <si>
-    <t>2022-08-10</t>
-  </si>
-  <si>
-    <t>2022-10-10</t>
-  </si>
-  <si>
-    <t>2022-11-10</t>
-  </si>
-  <si>
-    <t>2022-12-10</t>
-  </si>
-  <si>
-    <t>2023-01-10</t>
-  </si>
-  <si>
-    <t>2023-02-10</t>
-  </si>
-  <si>
-    <t>2023-04-10</t>
-  </si>
-  <si>
-    <t>2023-05-10</t>
-  </si>
-  <si>
-    <t>2023-06-10</t>
-  </si>
-  <si>
-    <t>2023-07-10</t>
-  </si>
-  <si>
-    <t>2023-08-10</t>
-  </si>
-  <si>
-    <t>2023-09-10</t>
-  </si>
-  <si>
-    <t>2023-10-10</t>
-  </si>
-  <si>
-    <t>2024-01-10</t>
-  </si>
-  <si>
-    <t>2024-02-10</t>
-  </si>
-  <si>
-    <t>2024-03-10</t>
-  </si>
-  <si>
-    <t>2024-04-10</t>
-  </si>
-  <si>
-    <t>2024-05-10</t>
+    <t>2011-03-11</t>
+  </si>
+  <si>
+    <t>2011-06-11</t>
+  </si>
+  <si>
+    <t>2011-07-11</t>
+  </si>
+  <si>
+    <t>2011-12-11</t>
+  </si>
+  <si>
+    <t>2014-09-11</t>
+  </si>
+  <si>
+    <t>2014-10-11</t>
+  </si>
+  <si>
+    <t>2014-11-11</t>
+  </si>
+  <si>
+    <t>2014-12-11</t>
+  </si>
+  <si>
+    <t>2015-03-11</t>
+  </si>
+  <si>
+    <t>2016-01-11</t>
+  </si>
+  <si>
+    <t>2016-04-11</t>
+  </si>
+  <si>
+    <t>2016-08-11</t>
+  </si>
+  <si>
+    <t>2017-01-11</t>
+  </si>
+  <si>
+    <t>2017-08-11</t>
+  </si>
+  <si>
+    <t>2017-10-11</t>
+  </si>
+  <si>
+    <t>2017-11-11</t>
+  </si>
+  <si>
+    <t>2018-05-11</t>
+  </si>
+  <si>
+    <t>2018-07-11</t>
+  </si>
+  <si>
+    <t>2019-05-11</t>
+  </si>
+  <si>
+    <t>2019-06-11</t>
+  </si>
+  <si>
+    <t>2019-08-11</t>
+  </si>
+  <si>
+    <t>2019-09-11</t>
+  </si>
+  <si>
+    <t>2020-01-11</t>
+  </si>
+  <si>
+    <t>2020-03-11</t>
+  </si>
+  <si>
+    <t>2020-04-11</t>
+  </si>
+  <si>
+    <t>2020-05-11</t>
+  </si>
+  <si>
+    <t>2020-07-11</t>
+  </si>
+  <si>
+    <t>2020-08-11</t>
+  </si>
+  <si>
+    <t>2020-11-11</t>
+  </si>
+  <si>
+    <t>2021-02-11</t>
+  </si>
+  <si>
+    <t>2021-05-11</t>
+  </si>
+  <si>
+    <t>2021-06-11</t>
+  </si>
+  <si>
+    <t>2021-09-11</t>
+  </si>
+  <si>
+    <t>2021-12-11</t>
+  </si>
+  <si>
+    <t>2022-01-11</t>
+  </si>
+  <si>
+    <t>2022-03-11</t>
+  </si>
+  <si>
+    <t>2022-04-11</t>
+  </si>
+  <si>
+    <t>2022-05-11</t>
+  </si>
+  <si>
+    <t>2022-06-11</t>
+  </si>
+  <si>
+    <t>2022-07-11</t>
+  </si>
+  <si>
+    <t>2022-08-11</t>
+  </si>
+  <si>
+    <t>2022-10-11</t>
+  </si>
+  <si>
+    <t>2022-11-11</t>
+  </si>
+  <si>
+    <t>2022-12-11</t>
+  </si>
+  <si>
+    <t>2023-01-11</t>
+  </si>
+  <si>
+    <t>2023-02-11</t>
+  </si>
+  <si>
+    <t>2023-04-11</t>
+  </si>
+  <si>
+    <t>2023-05-11</t>
+  </si>
+  <si>
+    <t>2023-06-11</t>
+  </si>
+  <si>
+    <t>2023-07-11</t>
+  </si>
+  <si>
+    <t>2023-08-11</t>
+  </si>
+  <si>
+    <t>2023-09-11</t>
+  </si>
+  <si>
+    <t>2023-10-11</t>
+  </si>
+  <si>
+    <t>2024-01-11</t>
+  </si>
+  <si>
+    <t>2024-02-11</t>
+  </si>
+  <si>
+    <t>2024-03-11</t>
+  </si>
+  <si>
+    <t>2024-04-11</t>
+  </si>
+  <si>
+    <t>2024-05-11</t>
   </si>
   <si>
     <t>2024-06-02</t>
   </si>
   <si>
-    <t>2024-06-10</t>
+    <t>2024-06-11</t>
   </si>
   <si>
     <t>2024-06-26</t>
   </si>
   <si>
-    <t>2024-07-10</t>
+    <t>2024-07-11</t>
   </si>
   <si>
     <t>2024-07-25</t>
   </si>
   <si>
-    <t>2024-08-10</t>
+    <t>2024-08-11</t>
   </si>
   <si>
     <t>2024-08-15</t>
   </si>
   <si>
-    <t>2024-10-10</t>
+    <t>2024-10-11</t>
   </si>
   <si>
     <t>2024-10-24</t>
@@ -787,70 +787,70 @@
     <t>2024-12-24</t>
   </si>
   <si>
-    <t>2025-01-10</t>
-  </si>
-  <si>
-    <t>2025-02-10</t>
-  </si>
-  <si>
-    <t>2025-03-10</t>
-  </si>
-  <si>
-    <t>2025-04-10</t>
-  </si>
-  <si>
-    <t>2025-05-10</t>
-  </si>
-  <si>
-    <t>2025-06-10</t>
-  </si>
-  <si>
-    <t>2025-07-10</t>
-  </si>
-  <si>
-    <t>2025-08-10</t>
-  </si>
-  <si>
-    <t>2025-10-10</t>
-  </si>
-  <si>
-    <t>2025-11-10</t>
-  </si>
-  <si>
-    <t>2026-01-10</t>
-  </si>
-  <si>
-    <t>2026-03-10</t>
-  </si>
-  <si>
-    <t>2026-05-10</t>
-  </si>
-  <si>
-    <t>2026-07-10</t>
-  </si>
-  <si>
-    <t>2026-11-10</t>
-  </si>
-  <si>
-    <t>2027-01-10</t>
-  </si>
-  <si>
-    <t>2027-02-10</t>
-  </si>
-  <si>
-    <t>2028-02-10</t>
-  </si>
-  <si>
-    <t>2028-05-10</t>
-  </si>
-  <si>
-    <t>2028-07-10</t>
-  </si>
-  <si>
-    <t>2028-11-10</t>
-  </si>
-  <si>
-    <t>2030-11-10</t>
+    <t>2025-01-11</t>
+  </si>
+  <si>
+    <t>2025-02-11</t>
+  </si>
+  <si>
+    <t>2025-03-11</t>
+  </si>
+  <si>
+    <t>2025-04-11</t>
+  </si>
+  <si>
+    <t>2025-05-11</t>
+  </si>
+  <si>
+    <t>2025-06-11</t>
+  </si>
+  <si>
+    <t>2025-07-11</t>
+  </si>
+  <si>
+    <t>2025-08-11</t>
+  </si>
+  <si>
+    <t>2025-10-11</t>
+  </si>
+  <si>
+    <t>2025-11-11</t>
+  </si>
+  <si>
+    <t>2026-01-11</t>
+  </si>
+  <si>
+    <t>2026-03-11</t>
+  </si>
+  <si>
+    <t>2026-05-11</t>
+  </si>
+  <si>
+    <t>2026-07-11</t>
+  </si>
+  <si>
+    <t>2026-11-11</t>
+  </si>
+  <si>
+    <t>2027-01-11</t>
+  </si>
+  <si>
+    <t>2027-02-11</t>
+  </si>
+  <si>
+    <t>2028-02-11</t>
+  </si>
+  <si>
+    <t>2028-05-11</t>
+  </si>
+  <si>
+    <t>2028-07-11</t>
+  </si>
+  <si>
+    <t>2028-11-11</t>
+  </si>
+  <si>
+    <t>2030-11-11</t>
   </si>
 </sst>
 </file>

--- a/lothiancriticalcare/1a74f8f7b8b7e871b413c4697f68b4401fbacdf0/reviewdates.xlsx
+++ b/lothiancriticalcare/1a74f8f7b8b7e871b413c4697f68b4401fbacdf0/reviewdates.xlsx
@@ -79,10 +79,13 @@
     <t>Drugs/diazepam_diazemuls.pdf</t>
   </si>
   <si>
+    <t>End_of_life_care/Reasons to report a death to PF.pdf</t>
+  </si>
+  <si>
     <t>Breathing(Respiratory)/salbutamol and ipratroprium MDI.pdf</t>
   </si>
   <si>
-    <t>End_of_life_care/Reasons to report a death to PF.pdf</t>
+    <t>Airway/Tracheostomy_Laryngectomy/Tracheostomy suctioning cleaning guideline.pdf</t>
   </si>
   <si>
     <t>Neurological/SOP -  Femoral site care.pdf</t>
@@ -91,9 +94,6 @@
     <t>Airway/Tracheostomy_Laryngectomy/Tracheostomy change in Critical Care.pdf</t>
   </si>
   <si>
-    <t>Airway/Tracheostomy_Laryngectomy/Tracheostomy suctioning cleaning guideline.pdf</t>
-  </si>
-  <si>
     <t>Drugs/sodium_bicarbonate.pdf</t>
   </si>
   <si>
@@ -103,24 +103,24 @@
     <t>Post_op_care/Epidural top-up.pdf</t>
   </si>
   <si>
+    <t>Drugs/heparin for Haemofiltration.pdf</t>
+  </si>
+  <si>
+    <t>Covid-19/SJH/SJH COVID19 ED Intubation Action Card.pdf</t>
+  </si>
+  <si>
+    <t>Covid-19/SJH/SJH COVID19 ITU Intubation Action Card.pdf</t>
+  </si>
+  <si>
+    <t>Covid-19/WGH/CoVid intubation checklist WGH.pdf</t>
+  </si>
+  <si>
+    <t>Airway/Emergency intubation checklist_em_pub.pdf</t>
+  </si>
+  <si>
     <t>Diabetes_and_Glucose/Hyperosmolar Hyperglycaemic State.pdf</t>
   </si>
   <si>
-    <t>Drugs/heparin for Haemofiltration.pdf</t>
-  </si>
-  <si>
-    <t>Covid-19/SJH/SJH COVID19 ED Intubation Action Card.pdf</t>
-  </si>
-  <si>
-    <t>Covid-19/SJH/SJH COVID19 ITU Intubation Action Card.pdf</t>
-  </si>
-  <si>
-    <t>Covid-19/WGH/CoVid intubation checklist WGH.pdf</t>
-  </si>
-  <si>
-    <t>Airway/Emergency intubation checklist_em_pub.pdf</t>
-  </si>
-  <si>
     <t>Drugs/fentanyl.pdf</t>
   </si>
   <si>
@@ -148,33 +148,33 @@
     <t>Infection_and_sepsis/SOP Ultrasound Cleaning.pdf</t>
   </si>
   <si>
+    <t>Breathing(Respiratory)/HFNO.pdf</t>
+  </si>
+  <si>
+    <t>Delirium/Drugs Causing Delirium and Agitiation.pdf</t>
+  </si>
+  <si>
+    <t>Drugs/ketamine_in_asthma.pdf</t>
+  </si>
+  <si>
+    <t>Airway/McGrath Mac.pdf</t>
+  </si>
+  <si>
+    <t>Airway/Tracheostomy_Laryngectomy/Tracheostomy safety box contents.pdf</t>
+  </si>
+  <si>
     <t>GI_Liver_and_Transplant/Treatment of constipation.pdf</t>
   </si>
   <si>
     <t>GI_Liver_and_Transplant/Abdominal pressure measurement.pdf</t>
   </si>
   <si>
+    <t>Neurological/Sub arachnoid haemorrhage management.pdf</t>
+  </si>
+  <si>
     <t>Airway/Anticipated difficult airway tool.pdf</t>
   </si>
   <si>
-    <t>Drugs/ketamine_in_asthma.pdf</t>
-  </si>
-  <si>
-    <t>Breathing(Respiratory)/HFNO.pdf</t>
-  </si>
-  <si>
-    <t>Airway/McGrath Mac.pdf</t>
-  </si>
-  <si>
-    <t>Airway/Tracheostomy_Laryngectomy/Tracheostomy safety box contents.pdf</t>
-  </si>
-  <si>
-    <t>Delirium/Drugs Causing Delirium and Agitiation.pdf</t>
-  </si>
-  <si>
-    <t>Neurological/Sub arachnoid haemorrhage management.pdf</t>
-  </si>
-  <si>
     <t>End_of_life_care/Documentation following death.pdf</t>
   </si>
   <si>
@@ -184,12 +184,12 @@
     <t>Routine_Care/bBraun Spaceplus Failure EMERGENCY ACTION CARD_em.pdf</t>
   </si>
   <si>
+    <t>Breathing(Respiratory)/Equipment/HFNO Set Up.pdf</t>
+  </si>
+  <si>
     <t>Drugs/insulin.pdf</t>
   </si>
   <si>
-    <t>Breathing(Respiratory)/Equipment/HFNO Set Up.pdf</t>
-  </si>
-  <si>
     <t>Breathing(Respiratory)/Inhaled Nitrous Oxide.pdf</t>
   </si>
   <si>
@@ -199,15 +199,15 @@
     <t>Breathing(Respiratory)/Equipment/APRV.pdf</t>
   </si>
   <si>
+    <t>Breathing(Respiratory)/Equipment/T piece Y piece.pdf</t>
+  </si>
+  <si>
     <t>Post_op_care/Epidural Haematoma.pdf</t>
   </si>
   <si>
     <t>Neurological/SOP for review of Neurosurgical patients in ITU by neurosurgical team.pdf</t>
   </si>
   <si>
-    <t>Breathing(Respiratory)/Equipment/T piece Y piece.pdf</t>
-  </si>
-  <si>
     <t>Policies_and_admin/General Critical Care Interaction with HEPMA_pub.pdf</t>
   </si>
   <si>
@@ -229,132 +229,132 @@
     <t>GI_Liver_and_Transplant/Nasogastric feeding protocol.pdf</t>
   </si>
   <si>
+    <t>Diabetes_and_Glucose/Intravenous Insulin Therapy (not for DKA or HHS).pdf</t>
+  </si>
+  <si>
     <t>Drugs/Antibiotic doses in CVVHD.pdf</t>
   </si>
   <si>
-    <t>Diabetes_and_Glucose/Intravenous Insulin Therapy (not for DKA or HHS).pdf</t>
+    <t>ECLS/RIE ECLS Anti Xa Protocol.pdf</t>
+  </si>
+  <si>
+    <t>GI_Liver_and_Transplant/Jejunostomy feeding protocol.pdf</t>
   </si>
   <si>
     <t>GI_Liver_and_Transplant/Nasojejunal feeding protocol.pdf</t>
   </si>
   <si>
-    <t>GI_Liver_and_Transplant/Jejunostomy feeding protocol.pdf</t>
-  </si>
-  <si>
-    <t>ECLS/RIE ECLS Anti Xa Protocol.pdf</t>
-  </si>
-  <si>
     <t>Infection_and_sepsis/Winter Infections Stepdown Guidance.pdf</t>
   </si>
   <si>
+    <t>Drugs/vasopressin organ donation.pdf</t>
+  </si>
+  <si>
     <t>Drugs/vasopressin_sepsis.pdf</t>
   </si>
   <si>
-    <t>Drugs/vasopressin organ donation.pdf</t>
-  </si>
-  <si>
     <t>Covid-19/videos/Donning and Doffing Video.pdf</t>
   </si>
   <si>
     <t>Transfer/ACCP Transfers.pdf</t>
   </si>
   <si>
+    <t>Breathing(Respiratory)/CPAP.pdf</t>
+  </si>
+  <si>
+    <t>Breathing(Respiratory)/Equipment/Ventilators Circuits Filters and Closed Suction - Set up and Maintenance.pdf</t>
+  </si>
+  <si>
+    <t>Infection_and_sepsis/Infection indications for IVIG.pdf</t>
+  </si>
+  <si>
+    <t>Drugs/piperacillin_tazobactam extended_infusion.pdf</t>
+  </si>
+  <si>
     <t>Breathing(Respiratory)/Equipment/Bipap V60.pdf</t>
   </si>
   <si>
-    <t>Breathing(Respiratory)/CPAP.pdf</t>
-  </si>
-  <si>
-    <t>Breathing(Respiratory)/Equipment/Ventilators Circuits Filters and Closed Suction - Set up and Maintenance.pdf</t>
-  </si>
-  <si>
-    <t>Infection_and_sepsis/Infection indications for IVIG.pdf</t>
-  </si>
-  <si>
-    <t>Drugs/piperacillin_tazobactam extended_infusion.pdf</t>
+    <t>Covid-19/Covid 19 Death Certification Guideline.pdf</t>
   </si>
   <si>
     <t>Procedures/CVC Guidance/Securing CVCs.pdf</t>
   </si>
   <si>
-    <t>Covid-19/Covid 19 Death Certification Guideline.pdf</t>
+    <t>Routine_Care/Video Communication.pdf</t>
   </si>
   <si>
     <t>Neurological/Treatment of status epilepticus.pdf</t>
   </si>
   <si>
-    <t>Routine_Care/Video Communication.pdf</t>
+    <t>Drugs/isoprenaline.pdf</t>
   </si>
   <si>
     <t>Cardiovascular/Cardiogenic Shock.pdf</t>
   </si>
   <si>
-    <t>Drugs/isoprenaline.pdf</t>
-  </si>
-  <si>
     <t>Haematology_CAR-T/Haem_ICU_transfer.pdf</t>
   </si>
   <si>
+    <t>Cardiovascular/Management of hypertension within Critical Care.pdf</t>
+  </si>
+  <si>
     <t>Drugs/aminophylline.pdf</t>
   </si>
   <si>
-    <t>Cardiovascular/Management of hypertension within Critical Care.pdf</t>
+    <t>Haematology_CAR-T/ICANS.pdf</t>
+  </si>
+  <si>
+    <t>Drugs/rocuronium.pdf</t>
+  </si>
+  <si>
+    <t>Drugs/pancuronium.pdf</t>
+  </si>
+  <si>
+    <t>Drugs/phenytoin.pdf</t>
   </si>
   <si>
     <t>Haematology_CAR-T/CRS.pdf</t>
   </si>
   <si>
-    <t>Drugs/pancuronium.pdf</t>
-  </si>
-  <si>
-    <t>Haematology_CAR-T/ICANS.pdf</t>
-  </si>
-  <si>
-    <t>Drugs/phenytoin.pdf</t>
-  </si>
-  <si>
-    <t>Drugs/rocuronium.pdf</t>
-  </si>
-  <si>
     <t>Drugs/milrinone.pdf</t>
   </si>
   <si>
     <t>Policies_and_admin/General Critical Care SOP_pub.pdf</t>
   </si>
   <si>
+    <t>Covid-19/COVID 19 ICM guidance basic goals_June_2022.pdf</t>
+  </si>
+  <si>
+    <t>Neurological/Critical Care MRI Procedure_pub.pdf</t>
+  </si>
+  <si>
+    <t>Infection_and_sepsis/Trip Out of Unit infection guidance.pdf</t>
+  </si>
+  <si>
+    <t>Organ_donation/Organ Retrieval SOP.pdf</t>
+  </si>
+  <si>
+    <t>Drugs/clonidine.pdf</t>
+  </si>
+  <si>
     <t>Neurological/Management of traumatic brain injury.pdf</t>
   </si>
   <si>
+    <t>Ethics_and_Law/Care at the End of Life (FICM).pdf</t>
+  </si>
+  <si>
     <t>Ethics_and_Law/DNACPR policy for Scotland.pdf</t>
   </si>
   <si>
-    <t>Ethics_and_Law/Care at the End of Life (FICM).pdf</t>
+    <t>GI_Liver_and_Transplant/ICU - Upper GI bleeding (Endoscopy guideline).pdf</t>
   </si>
   <si>
     <t>End_of_life_care/CMO &amp; NRS Guidance for Doctors completing MCCD.pdf</t>
   </si>
   <si>
-    <t>GI_Liver_and_Transplant/ICU - Upper GI bleeding (Endoscopy guideline).pdf</t>
-  </si>
-  <si>
-    <t>Neurological/Critical Care MRI Procedure_pub.pdf</t>
-  </si>
-  <si>
-    <t>Infection_and_sepsis/Trip Out of Unit infection guidance.pdf</t>
-  </si>
-  <si>
-    <t>Covid-19/COVID 19 ICM guidance basic goals_June_2022.pdf</t>
-  </si>
-  <si>
     <t>End_of_life_care/Palliative extubation &amp; withdrawal of invasive ventilatory support nursing checklist.pdf</t>
   </si>
   <si>
-    <t>Organ_donation/Organ Retrieval SOP.pdf</t>
-  </si>
-  <si>
-    <t>Drugs/clonidine.pdf</t>
-  </si>
-  <si>
     <t>Airway/Cook Staged Extubation Set.pdf</t>
   </si>
   <si>
@@ -367,33 +367,33 @@
     <t>Breathing(Respiratory)/Equipment/Passy Muir Valve.pdf</t>
   </si>
   <si>
+    <t>GI_Liver_and_Transplant/Fulminant Liver Failure.pdf</t>
+  </si>
+  <si>
+    <t>Drugs/dexmedetomidine.pdf</t>
+  </si>
+  <si>
+    <t>Drugs/glyceryl_trinitrate.pdf</t>
+  </si>
+  <si>
     <t>GI_Liver_and_Transplant/Confirmation of Nasogastric Tube Position.pdf</t>
   </si>
   <si>
-    <t>Drugs/dexmedetomidine.pdf</t>
-  </si>
-  <si>
-    <t>Drugs/glyceryl_trinitrate.pdf</t>
-  </si>
-  <si>
-    <t>GI_Liver_and_Transplant/Fulminant Liver Failure.pdf</t>
-  </si>
-  <si>
     <t>Infection_and_sepsis/Antifungal guidance in critical care.pdf</t>
   </si>
   <si>
+    <t>Breathing(Respiratory)/ARDS Strategy.pdf</t>
+  </si>
+  <si>
+    <t>Transfer/Transfer Outdoors to Garden Guideline.pdf</t>
+  </si>
+  <si>
+    <t>Cardiovascular/Intra Aortic Balloon Pump Bedside Checks_pub.pdf</t>
+  </si>
+  <si>
     <t>Cardiovascular/Intra Aortic Balloon Pump Guideline_pub.pdf</t>
   </si>
   <si>
-    <t>Cardiovascular/Intra Aortic Balloon Pump Bedside Checks_pub.pdf</t>
-  </si>
-  <si>
-    <t>Transfer/Transfer Outdoors to Garden Guideline.pdf</t>
-  </si>
-  <si>
-    <t>Breathing(Respiratory)/ARDS Strategy.pdf</t>
-  </si>
-  <si>
     <t>Drugs/dobutamine.pdf</t>
   </si>
   <si>
@@ -406,12 +406,12 @@
     <t>Post_op_care/Major OMFS Free Flap.pdf</t>
   </si>
   <si>
+    <t>Drugs/Alteplase for massive PE.pdf</t>
+  </si>
+  <si>
     <t>Drugs/alfentanil.pdf</t>
   </si>
   <si>
-    <t>Drugs/Alteplase for massive PE.pdf</t>
-  </si>
-  <si>
     <t>Drugs/magnesium.pdf</t>
   </si>
   <si>
@@ -442,46 +442,49 @@
     <t>Drugs/potassium.pdf</t>
   </si>
   <si>
+    <t>Drugs/nimodipine.pdf</t>
+  </si>
+  <si>
+    <t>Drugs/salbutamol.pdf</t>
+  </si>
+  <si>
     <t>Procedures/CVC Guidance/CVC NHL  April 2023.pdf</t>
   </si>
   <si>
-    <t>Drugs/salbutamol.pdf</t>
-  </si>
-  <si>
-    <t>Drugs/nimodipine.pdf</t>
+    <t>Routine_Care/ICU Eye Care Guideline.pdf</t>
+  </si>
+  <si>
+    <t>Drugs/nicardipine.pdf</t>
   </si>
   <si>
     <t>Drugs/phenobarbitone.pdf</t>
   </si>
   <si>
-    <t>Drugs/nicardipine.pdf</t>
-  </si>
-  <si>
-    <t>Routine_Care/ICU Eye Care Guideline.pdf</t>
-  </si>
-  <si>
     <t>Procedures/Arterial Line insertion for ACCPs.pdf</t>
   </si>
   <si>
     <t>Drugs/amiodarone.pdf</t>
   </si>
   <si>
+    <t>Drugs/morphine.pdf</t>
+  </si>
+  <si>
     <t>Drugs/phenylephrine.pdf</t>
   </si>
   <si>
+    <t>Drugs/noradrenaline (peripheral).pdf</t>
+  </si>
+  <si>
     <t>Breathing(Respiratory)/Manual Ventilation and MHI.pdf</t>
   </si>
   <si>
-    <t>Drugs/noradrenaline (peripheral).pdf</t>
+    <t>Drugs/Epoprostenol.pdf</t>
   </si>
   <si>
     <t>Neurological/Ventriculitis Guideline.pdf</t>
   </si>
   <si>
-    <t>Drugs/Epoprostenol.pdf</t>
-  </si>
-  <si>
-    <t>Drugs/morphine.pdf</t>
+    <t>Drugs/calcium.pdf</t>
   </si>
   <si>
     <t>Cardiovascular/Cardiac Output Monitoring_pub .pdf</t>
@@ -490,60 +493,57 @@
     <t>Cardiovascular/Pulmonary_Embolism_and_DVT/Catheter directed thrombolysis of iliofemoral DVT alteplase_pub.pdf</t>
   </si>
   <si>
-    <t>Drugs/calcium.pdf</t>
+    <t>Drugs/atracurium.pdf</t>
+  </si>
+  <si>
+    <t>Airway/Tracheostomy_Laryngectomy/Decannulation Guidline.pdf</t>
+  </si>
+  <si>
+    <t>Drugs/Vancomycin Continuous Infusion Fluid Restricted.pdf</t>
   </si>
   <si>
     <t>Drugs/dalteparin_thromboprophylaxis.pdf</t>
   </si>
   <si>
-    <t>Drugs/Vancomycin Continuous Infusion Fluid Restricted.pdf</t>
-  </si>
-  <si>
-    <t>Drugs/atracurium.pdf</t>
-  </si>
-  <si>
-    <t>Airway/Tracheostomy_Laryngectomy/Decannulation Guidline.pdf</t>
+    <t>Drugs/valproate.pdf</t>
   </si>
   <si>
     <t>Policies_and_admin/Pet Visitation.pdf</t>
   </si>
   <si>
-    <t>Drugs/valproate.pdf</t>
-  </si>
-  <si>
     <t>Procedures/Inadvertent Catheter Placement Guideline.pdf</t>
   </si>
   <si>
     <t>Drugs/stress ulcer prophylaxis.pdf</t>
   </si>
   <si>
+    <t>Drugs/Phosphate.pdf</t>
+  </si>
+  <si>
     <t>Drugs/ketamine_for_status epilepticus.pdf</t>
   </si>
   <si>
-    <t>Drugs/Phosphate.pdf</t>
+    <t>GI_Liver_and_Transplant/Prokinetics in ICU.pdf</t>
+  </si>
+  <si>
+    <t>Drugs/Octreotide.pdf</t>
+  </si>
+  <si>
+    <t>Breathing(Respiratory)/Proning Guideline.pdf</t>
   </si>
   <si>
     <t>Drugs/Thiopentone.pdf</t>
   </si>
   <si>
-    <t>Breathing(Respiratory)/Proning Guideline.pdf</t>
-  </si>
-  <si>
-    <t>GI_Liver_and_Transplant/Prokinetics in ICU.pdf</t>
-  </si>
-  <si>
-    <t>Drugs/Octreotide.pdf</t>
+    <t>Procedures/ACCPs acquiring initial CVC competencies.pdf</t>
+  </si>
+  <si>
+    <t>Post_op_care/Prevention and treatment of paraplegia after major aortic procedures.pdf</t>
   </si>
   <si>
     <t>Procedures/ACCP CVC placement following completion of initial competencies.pdf</t>
   </si>
   <si>
-    <t>Procedures/ACCPs acquiring initial CVC competencies.pdf</t>
-  </si>
-  <si>
-    <t>Post_op_care/Prevention and treatment of paraplegia after major aortic procedures.pdf</t>
-  </si>
-  <si>
     <t>Delirium/Violence and Agression.pdf</t>
   </si>
   <si>
@@ -577,202 +577,202 @@
     <t>Policies_and_admin/Repatriaiton Checklist for Critical Care.pdf</t>
   </si>
   <si>
-    <t>2011-03-11</t>
-  </si>
-  <si>
-    <t>2011-06-11</t>
-  </si>
-  <si>
-    <t>2011-07-11</t>
-  </si>
-  <si>
-    <t>2011-12-11</t>
-  </si>
-  <si>
-    <t>2014-09-11</t>
-  </si>
-  <si>
-    <t>2014-10-11</t>
-  </si>
-  <si>
-    <t>2014-11-11</t>
-  </si>
-  <si>
-    <t>2014-12-11</t>
-  </si>
-  <si>
-    <t>2015-03-11</t>
-  </si>
-  <si>
-    <t>2016-01-11</t>
-  </si>
-  <si>
-    <t>2016-04-11</t>
-  </si>
-  <si>
-    <t>2016-08-11</t>
-  </si>
-  <si>
-    <t>2017-01-11</t>
-  </si>
-  <si>
-    <t>2017-08-11</t>
-  </si>
-  <si>
-    <t>2017-10-11</t>
-  </si>
-  <si>
-    <t>2017-11-11</t>
-  </si>
-  <si>
-    <t>2018-05-11</t>
-  </si>
-  <si>
-    <t>2018-07-11</t>
-  </si>
-  <si>
-    <t>2019-05-11</t>
-  </si>
-  <si>
-    <t>2019-06-11</t>
-  </si>
-  <si>
-    <t>2019-08-11</t>
-  </si>
-  <si>
-    <t>2019-09-11</t>
-  </si>
-  <si>
-    <t>2020-01-11</t>
-  </si>
-  <si>
-    <t>2020-03-11</t>
-  </si>
-  <si>
-    <t>2020-04-11</t>
-  </si>
-  <si>
-    <t>2020-05-11</t>
-  </si>
-  <si>
-    <t>2020-07-11</t>
-  </si>
-  <si>
-    <t>2020-08-11</t>
-  </si>
-  <si>
-    <t>2020-11-11</t>
-  </si>
-  <si>
-    <t>2021-02-11</t>
-  </si>
-  <si>
-    <t>2021-05-11</t>
-  </si>
-  <si>
-    <t>2021-06-11</t>
-  </si>
-  <si>
-    <t>2021-09-11</t>
-  </si>
-  <si>
-    <t>2021-12-11</t>
-  </si>
-  <si>
-    <t>2022-01-11</t>
-  </si>
-  <si>
-    <t>2022-03-11</t>
-  </si>
-  <si>
-    <t>2022-04-11</t>
-  </si>
-  <si>
-    <t>2022-05-11</t>
-  </si>
-  <si>
-    <t>2022-06-11</t>
-  </si>
-  <si>
-    <t>2022-07-11</t>
-  </si>
-  <si>
-    <t>2022-08-11</t>
-  </si>
-  <si>
-    <t>2022-10-11</t>
-  </si>
-  <si>
-    <t>2022-11-11</t>
-  </si>
-  <si>
-    <t>2022-12-11</t>
-  </si>
-  <si>
-    <t>2023-01-11</t>
-  </si>
-  <si>
-    <t>2023-02-11</t>
-  </si>
-  <si>
-    <t>2023-04-11</t>
-  </si>
-  <si>
-    <t>2023-05-11</t>
-  </si>
-  <si>
-    <t>2023-06-11</t>
-  </si>
-  <si>
-    <t>2023-07-11</t>
-  </si>
-  <si>
-    <t>2023-08-11</t>
-  </si>
-  <si>
-    <t>2023-09-11</t>
-  </si>
-  <si>
-    <t>2023-10-11</t>
-  </si>
-  <si>
-    <t>2024-01-11</t>
-  </si>
-  <si>
-    <t>2024-02-11</t>
-  </si>
-  <si>
-    <t>2024-03-11</t>
-  </si>
-  <si>
-    <t>2024-04-11</t>
-  </si>
-  <si>
-    <t>2024-05-11</t>
+    <t>2011-03-19</t>
+  </si>
+  <si>
+    <t>2011-06-19</t>
+  </si>
+  <si>
+    <t>2011-07-19</t>
+  </si>
+  <si>
+    <t>2011-12-19</t>
+  </si>
+  <si>
+    <t>2014-09-19</t>
+  </si>
+  <si>
+    <t>2014-10-19</t>
+  </si>
+  <si>
+    <t>2014-11-19</t>
+  </si>
+  <si>
+    <t>2014-12-19</t>
+  </si>
+  <si>
+    <t>2015-03-19</t>
+  </si>
+  <si>
+    <t>2016-01-19</t>
+  </si>
+  <si>
+    <t>2016-04-19</t>
+  </si>
+  <si>
+    <t>2016-08-19</t>
+  </si>
+  <si>
+    <t>2017-01-19</t>
+  </si>
+  <si>
+    <t>2017-08-19</t>
+  </si>
+  <si>
+    <t>2017-10-19</t>
+  </si>
+  <si>
+    <t>2017-11-19</t>
+  </si>
+  <si>
+    <t>2018-05-19</t>
+  </si>
+  <si>
+    <t>2018-07-19</t>
+  </si>
+  <si>
+    <t>2019-05-19</t>
+  </si>
+  <si>
+    <t>2019-06-19</t>
+  </si>
+  <si>
+    <t>2019-08-19</t>
+  </si>
+  <si>
+    <t>2019-09-19</t>
+  </si>
+  <si>
+    <t>2020-01-19</t>
+  </si>
+  <si>
+    <t>2020-03-19</t>
+  </si>
+  <si>
+    <t>2020-04-19</t>
+  </si>
+  <si>
+    <t>2020-05-19</t>
+  </si>
+  <si>
+    <t>2020-07-19</t>
+  </si>
+  <si>
+    <t>2020-08-19</t>
+  </si>
+  <si>
+    <t>2020-11-19</t>
+  </si>
+  <si>
+    <t>2021-02-19</t>
+  </si>
+  <si>
+    <t>2021-05-19</t>
+  </si>
+  <si>
+    <t>2021-06-19</t>
+  </si>
+  <si>
+    <t>2021-09-19</t>
+  </si>
+  <si>
+    <t>2021-12-19</t>
+  </si>
+  <si>
+    <t>2022-01-19</t>
+  </si>
+  <si>
+    <t>2022-03-19</t>
+  </si>
+  <si>
+    <t>2022-04-19</t>
+  </si>
+  <si>
+    <t>2022-05-19</t>
+  </si>
+  <si>
+    <t>2022-06-19</t>
+  </si>
+  <si>
+    <t>2022-07-19</t>
+  </si>
+  <si>
+    <t>2022-08-19</t>
+  </si>
+  <si>
+    <t>2022-10-19</t>
+  </si>
+  <si>
+    <t>2022-11-19</t>
+  </si>
+  <si>
+    <t>2022-12-19</t>
+  </si>
+  <si>
+    <t>2023-01-19</t>
+  </si>
+  <si>
+    <t>2023-02-19</t>
+  </si>
+  <si>
+    <t>2023-04-19</t>
+  </si>
+  <si>
+    <t>2023-05-19</t>
+  </si>
+  <si>
+    <t>2023-06-19</t>
+  </si>
+  <si>
+    <t>2023-07-19</t>
+  </si>
+  <si>
+    <t>2023-08-19</t>
+  </si>
+  <si>
+    <t>2023-09-19</t>
+  </si>
+  <si>
+    <t>2023-10-19</t>
+  </si>
+  <si>
+    <t>2024-01-19</t>
+  </si>
+  <si>
+    <t>2024-02-19</t>
+  </si>
+  <si>
+    <t>2024-03-19</t>
+  </si>
+  <si>
+    <t>2024-04-19</t>
+  </si>
+  <si>
+    <t>2024-05-19</t>
   </si>
   <si>
     <t>2024-06-02</t>
   </si>
   <si>
-    <t>2024-06-11</t>
+    <t>2024-06-19</t>
   </si>
   <si>
     <t>2024-06-26</t>
   </si>
   <si>
-    <t>2024-07-11</t>
+    <t>2024-07-19</t>
   </si>
   <si>
     <t>2024-07-25</t>
   </si>
   <si>
-    <t>2024-08-11</t>
-  </si>
-  <si>
     <t>2024-08-15</t>
   </si>
   <si>
-    <t>2024-10-11</t>
+    <t>2024-08-19</t>
+  </si>
+  <si>
+    <t>2024-10-19</t>
   </si>
   <si>
     <t>2024-10-24</t>
@@ -787,70 +787,70 @@
     <t>2024-12-24</t>
   </si>
   <si>
-    <t>2025-01-11</t>
-  </si>
-  <si>
-    <t>2025-02-11</t>
-  </si>
-  <si>
-    <t>2025-03-11</t>
-  </si>
-  <si>
-    <t>2025-04-11</t>
-  </si>
-  <si>
-    <t>2025-05-11</t>
-  </si>
-  <si>
-    <t>2025-06-11</t>
-  </si>
-  <si>
-    <t>2025-07-11</t>
-  </si>
-  <si>
-    <t>2025-08-11</t>
-  </si>
-  <si>
-    <t>2025-10-11</t>
-  </si>
-  <si>
-    <t>2025-11-11</t>
-  </si>
-  <si>
-    <t>2026-01-11</t>
-  </si>
-  <si>
-    <t>2026-03-11</t>
-  </si>
-  <si>
-    <t>2026-05-11</t>
-  </si>
-  <si>
-    <t>2026-07-11</t>
-  </si>
-  <si>
-    <t>2026-11-11</t>
-  </si>
-  <si>
-    <t>2027-01-11</t>
-  </si>
-  <si>
-    <t>2027-02-11</t>
-  </si>
-  <si>
-    <t>2028-02-11</t>
-  </si>
-  <si>
-    <t>2028-05-11</t>
-  </si>
-  <si>
-    <t>2028-07-11</t>
-  </si>
-  <si>
-    <t>2028-11-11</t>
-  </si>
-  <si>
-    <t>2030-11-11</t>
+    <t>2025-01-19</t>
+  </si>
+  <si>
+    <t>2025-02-19</t>
+  </si>
+  <si>
+    <t>2025-03-19</t>
+  </si>
+  <si>
+    <t>2025-04-19</t>
+  </si>
+  <si>
+    <t>2025-05-19</t>
+  </si>
+  <si>
+    <t>2025-06-19</t>
+  </si>
+  <si>
+    <t>2025-07-19</t>
+  </si>
+  <si>
+    <t>2025-08-19</t>
+  </si>
+  <si>
+    <t>2025-10-19</t>
+  </si>
+  <si>
+    <t>2025-11-19</t>
+  </si>
+  <si>
+    <t>2026-01-19</t>
+  </si>
+  <si>
+    <t>2026-03-19</t>
+  </si>
+  <si>
+    <t>2026-05-19</t>
+  </si>
+  <si>
+    <t>2026-07-19</t>
+  </si>
+  <si>
+    <t>2026-11-19</t>
+  </si>
+  <si>
+    <t>2027-01-19</t>
+  </si>
+  <si>
+    <t>2027-02-19</t>
+  </si>
+  <si>
+    <t>2028-02-19</t>
+  </si>
+  <si>
+    <t>2028-05-19</t>
+  </si>
+  <si>
+    <t>2028-07-19</t>
+  </si>
+  <si>
+    <t>2028-11-19</t>
+  </si>
+  <si>
+    <t>2030-11-19</t>
   </si>
 </sst>
 </file>
@@ -2195,7 +2195,7 @@
         <v>123</v>
       </c>
       <c r="B123" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
     </row>
     <row r="124" spans="1:2">
@@ -2203,7 +2203,7 @@
         <v>124</v>
       </c>
       <c r="B124" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
     </row>
     <row r="125" spans="1:2">

--- a/lothiancriticalcare/1a74f8f7b8b7e871b413c4697f68b4401fbacdf0/reviewdates.xlsx
+++ b/lothiancriticalcare/1a74f8f7b8b7e871b413c4697f68b4401fbacdf0/reviewdates.xlsx
@@ -139,42 +139,42 @@
     <t>Airway/Percutaneous tracheostomy checklist.pdf</t>
   </si>
   <si>
+    <t>Delirium/Risk assessment posi mit.pdf</t>
+  </si>
+  <si>
+    <t>Infection_and_sepsis/SOP Ultrasound Cleaning.pdf</t>
+  </si>
+  <si>
     <t>Delirium/Managing a Potentially Violent Patient.pdf</t>
   </si>
   <si>
-    <t>Delirium/Risk assessment posi mit.pdf</t>
-  </si>
-  <si>
-    <t>Infection_and_sepsis/SOP Ultrasound Cleaning.pdf</t>
+    <t>Airway/Anticipated difficult airway tool.pdf</t>
+  </si>
+  <si>
+    <t>Delirium/Drugs Causing Delirium and Agitiation.pdf</t>
+  </si>
+  <si>
+    <t>Neurological/Sub arachnoid haemorrhage management.pdf</t>
+  </si>
+  <si>
+    <t>Airway/McGrath Mac.pdf</t>
   </si>
   <si>
     <t>Breathing(Respiratory)/HFNO.pdf</t>
   </si>
   <si>
-    <t>Delirium/Drugs Causing Delirium and Agitiation.pdf</t>
+    <t>GI_Liver_and_Transplant/Treatment of constipation.pdf</t>
+  </si>
+  <si>
+    <t>GI_Liver_and_Transplant/Abdominal pressure measurement.pdf</t>
+  </si>
+  <si>
+    <t>Airway/Tracheostomy_Laryngectomy/Tracheostomy safety box contents.pdf</t>
   </si>
   <si>
     <t>Drugs/ketamine_in_asthma.pdf</t>
   </si>
   <si>
-    <t>Airway/McGrath Mac.pdf</t>
-  </si>
-  <si>
-    <t>Airway/Tracheostomy_Laryngectomy/Tracheostomy safety box contents.pdf</t>
-  </si>
-  <si>
-    <t>GI_Liver_and_Transplant/Treatment of constipation.pdf</t>
-  </si>
-  <si>
-    <t>GI_Liver_and_Transplant/Abdominal pressure measurement.pdf</t>
-  </si>
-  <si>
-    <t>Neurological/Sub arachnoid haemorrhage management.pdf</t>
-  </si>
-  <si>
-    <t>Airway/Anticipated difficult airway tool.pdf</t>
-  </si>
-  <si>
     <t>End_of_life_care/Documentation following death.pdf</t>
   </si>
   <si>
@@ -193,10 +193,13 @@
     <t>Breathing(Respiratory)/Inhaled Nitrous Oxide.pdf</t>
   </si>
   <si>
+    <t>Breathing(Respiratory)/Equipment/APRV.pdf</t>
+  </si>
+  <si>
     <t>Cardiovascular/Steroids for Septic Shock.pdf</t>
   </si>
   <si>
-    <t>Breathing(Respiratory)/Equipment/APRV.pdf</t>
+    <t>Neurological/SOP for review of Neurosurgical patients in ITU by neurosurgical team.pdf</t>
   </si>
   <si>
     <t>Breathing(Respiratory)/Equipment/T piece Y piece.pdf</t>
@@ -205,9 +208,6 @@
     <t>Post_op_care/Epidural Haematoma.pdf</t>
   </si>
   <si>
-    <t>Neurological/SOP for review of Neurosurgical patients in ITU by neurosurgical team.pdf</t>
-  </si>
-  <si>
     <t>Policies_and_admin/General Critical Care Interaction with HEPMA_pub.pdf</t>
   </si>
   <si>
@@ -217,24 +217,24 @@
     <t>Breathing(Respiratory)/Equipment/HFNO through ventilator.pdf</t>
   </si>
   <si>
+    <t>Post_op_care/Adult Scoliosis Spinal Surgery Post-Op Care.pdf</t>
+  </si>
+  <si>
     <t>Routine_Care/VTE_Prevention/Dalteparin_thromboprophylaxis.pdf</t>
   </si>
   <si>
-    <t>Post_op_care/Adult Scoliosis Spinal Surgery Post-Op Care.pdf</t>
-  </si>
-  <si>
     <t>Post_op_care/Post op care pharyngo-laryngo-oesphagectomy PLOG.pdf</t>
   </si>
   <si>
     <t>GI_Liver_and_Transplant/Nasogastric feeding protocol.pdf</t>
   </si>
   <si>
+    <t>Drugs/Antibiotic doses in CVVHD.pdf</t>
+  </si>
+  <si>
     <t>Diabetes_and_Glucose/Intravenous Insulin Therapy (not for DKA or HHS).pdf</t>
   </si>
   <si>
-    <t>Drugs/Antibiotic doses in CVVHD.pdf</t>
-  </si>
-  <si>
     <t>ECLS/RIE ECLS Anti Xa Protocol.pdf</t>
   </si>
   <si>
@@ -283,9 +283,6 @@
     <t>Routine_Care/Video Communication.pdf</t>
   </si>
   <si>
-    <t>Neurological/Treatment of status epilepticus.pdf</t>
-  </si>
-  <si>
     <t>Drugs/isoprenaline.pdf</t>
   </si>
   <si>
@@ -331,12 +328,12 @@
     <t>Infection_and_sepsis/Trip Out of Unit infection guidance.pdf</t>
   </si>
   <si>
+    <t>Drugs/clonidine.pdf</t>
+  </si>
+  <si>
     <t>Organ_donation/Organ Retrieval SOP.pdf</t>
   </si>
   <si>
-    <t>Drugs/clonidine.pdf</t>
-  </si>
-  <si>
     <t>Neurological/Management of traumatic brain injury.pdf</t>
   </si>
   <si>
@@ -364,21 +361,21 @@
     <t>Post_op_care/Epidural hypotension.pdf</t>
   </si>
   <si>
+    <t>GI_Liver_and_Transplant/Fulminant Liver Failure.pdf</t>
+  </si>
+  <si>
+    <t>GI_Liver_and_Transplant/Confirmation of Nasogastric Tube Position.pdf</t>
+  </si>
+  <si>
     <t>Breathing(Respiratory)/Equipment/Passy Muir Valve.pdf</t>
   </si>
   <si>
-    <t>GI_Liver_and_Transplant/Fulminant Liver Failure.pdf</t>
-  </si>
-  <si>
     <t>Drugs/dexmedetomidine.pdf</t>
   </si>
   <si>
     <t>Drugs/glyceryl_trinitrate.pdf</t>
   </si>
   <si>
-    <t>GI_Liver_and_Transplant/Confirmation of Nasogastric Tube Position.pdf</t>
-  </si>
-  <si>
     <t>Infection_and_sepsis/Antifungal guidance in critical care.pdf</t>
   </si>
   <si>
@@ -394,12 +391,12 @@
     <t>Cardiovascular/Intra Aortic Balloon Pump Guideline_pub.pdf</t>
   </si>
   <si>
+    <t>Drugs/adrenaline.pdf</t>
+  </si>
+  <si>
     <t>Drugs/dobutamine.pdf</t>
   </si>
   <si>
-    <t>Drugs/adrenaline.pdf</t>
-  </si>
-  <si>
     <t>Drugs/hydralazine.pdf</t>
   </si>
   <si>
@@ -415,96 +412,96 @@
     <t>Drugs/magnesium.pdf</t>
   </si>
   <si>
+    <t>Drugs/neostigmine.pdf</t>
+  </si>
+  <si>
+    <t>Drugs/vancomycin.pdf</t>
+  </si>
+  <si>
     <t>Drugs/ICU - IV drug infusions.pdf</t>
   </si>
   <si>
-    <t>Drugs/neostigmine.pdf</t>
-  </si>
-  <si>
-    <t>Drugs/vancomycin.pdf</t>
+    <t>Neurological/Intrathecal policy RIE.pdf</t>
   </si>
   <si>
     <t>Drugs/labetalol.pdf</t>
   </si>
   <si>
-    <t>Neurological/Intrathecal policy RIE.pdf</t>
-  </si>
-  <si>
     <t>Infection_and_sepsis/Initial investigation and management in unidentified Infections.pdf</t>
   </si>
   <si>
+    <t>Cardiovascular/Management of Acute Type B Aortic Dissection Guideline.pdf</t>
+  </si>
+  <si>
     <t>Drugs/midazolam.pdf</t>
   </si>
   <si>
-    <t>Cardiovascular/Management of Acute Type B Aortic Dissection Guideline.pdf</t>
+    <t>Drugs/nimodipine.pdf</t>
+  </si>
+  <si>
+    <t>Drugs/salbutamol.pdf</t>
   </si>
   <si>
     <t>Drugs/potassium.pdf</t>
   </si>
   <si>
-    <t>Drugs/nimodipine.pdf</t>
-  </si>
-  <si>
-    <t>Drugs/salbutamol.pdf</t>
-  </si>
-  <si>
     <t>Procedures/CVC Guidance/CVC NHL  April 2023.pdf</t>
   </si>
   <si>
+    <t>Drugs/amiodarone.pdf</t>
+  </si>
+  <si>
+    <t>Drugs/phenobarbitone.pdf</t>
+  </si>
+  <si>
+    <t>Procedures/Arterial Line insertion for ACCPs.pdf</t>
+  </si>
+  <si>
     <t>Routine_Care/ICU Eye Care Guideline.pdf</t>
   </si>
   <si>
     <t>Drugs/nicardipine.pdf</t>
   </si>
   <si>
-    <t>Drugs/phenobarbitone.pdf</t>
-  </si>
-  <si>
-    <t>Procedures/Arterial Line insertion for ACCPs.pdf</t>
-  </si>
-  <si>
-    <t>Drugs/amiodarone.pdf</t>
-  </si>
-  <si>
     <t>Drugs/morphine.pdf</t>
   </si>
   <si>
     <t>Drugs/phenylephrine.pdf</t>
   </si>
   <si>
+    <t>Breathing(Respiratory)/Manual Ventilation and MHI.pdf</t>
+  </si>
+  <si>
+    <t>Neurological/Ventriculitis Guideline.pdf</t>
+  </si>
+  <si>
+    <t>Drugs/Epoprostenol.pdf</t>
+  </si>
+  <si>
     <t>Drugs/noradrenaline (peripheral).pdf</t>
   </si>
   <si>
-    <t>Breathing(Respiratory)/Manual Ventilation and MHI.pdf</t>
-  </si>
-  <si>
-    <t>Drugs/Epoprostenol.pdf</t>
-  </si>
-  <si>
-    <t>Neurological/Ventriculitis Guideline.pdf</t>
+    <t>Cardiovascular/Cardiac Output Monitoring_pub .pdf</t>
   </si>
   <si>
     <t>Drugs/calcium.pdf</t>
   </si>
   <si>
-    <t>Cardiovascular/Cardiac Output Monitoring_pub .pdf</t>
-  </si>
-  <si>
     <t>Cardiovascular/Pulmonary_Embolism_and_DVT/Catheter directed thrombolysis of iliofemoral DVT alteplase_pub.pdf</t>
   </si>
   <si>
+    <t>Drugs/dalteparin_thromboprophylaxis.pdf</t>
+  </si>
+  <si>
+    <t>Drugs/Vancomycin Continuous Infusion Fluid Restricted.pdf</t>
+  </si>
+  <si>
+    <t>Airway/Tracheostomy_Laryngectomy/Decannulation Guidline.pdf</t>
+  </si>
+  <si>
     <t>Drugs/atracurium.pdf</t>
   </si>
   <si>
-    <t>Airway/Tracheostomy_Laryngectomy/Decannulation Guidline.pdf</t>
-  </si>
-  <si>
-    <t>Drugs/Vancomycin Continuous Infusion Fluid Restricted.pdf</t>
-  </si>
-  <si>
-    <t>Drugs/dalteparin_thromboprophylaxis.pdf</t>
-  </si>
-  <si>
     <t>Drugs/valproate.pdf</t>
   </si>
   <si>
@@ -514,33 +511,36 @@
     <t>Procedures/Inadvertent Catheter Placement Guideline.pdf</t>
   </si>
   <si>
+    <t>Drugs/Phosphate.pdf</t>
+  </si>
+  <si>
+    <t>Drugs/ketamine_for_status epilepticus.pdf</t>
+  </si>
+  <si>
     <t>Drugs/stress ulcer prophylaxis.pdf</t>
   </si>
   <si>
-    <t>Drugs/Phosphate.pdf</t>
-  </si>
-  <si>
-    <t>Drugs/ketamine_for_status epilepticus.pdf</t>
+    <t>Breathing(Respiratory)/Proning Guideline.pdf</t>
+  </si>
+  <si>
+    <t>Drugs/Octreotide.pdf</t>
+  </si>
+  <si>
+    <t>Drugs/Thiopentone.pdf</t>
+  </si>
+  <si>
+    <t>Neurological/Status guideline 24.pdf</t>
   </si>
   <si>
     <t>GI_Liver_and_Transplant/Prokinetics in ICU.pdf</t>
   </si>
   <si>
-    <t>Drugs/Octreotide.pdf</t>
-  </si>
-  <si>
-    <t>Breathing(Respiratory)/Proning Guideline.pdf</t>
-  </si>
-  <si>
-    <t>Drugs/Thiopentone.pdf</t>
+    <t>Post_op_care/Prevention and treatment of paraplegia after major aortic procedures.pdf</t>
   </si>
   <si>
     <t>Procedures/ACCPs acquiring initial CVC competencies.pdf</t>
   </si>
   <si>
-    <t>Post_op_care/Prevention and treatment of paraplegia after major aortic procedures.pdf</t>
-  </si>
-  <si>
     <t>Procedures/ACCP CVC placement following completion of initial competencies.pdf</t>
   </si>
   <si>
@@ -577,190 +577,190 @@
     <t>Policies_and_admin/Repatriaiton Checklist for Critical Care.pdf</t>
   </si>
   <si>
-    <t>2011-03-19</t>
-  </si>
-  <si>
-    <t>2011-06-19</t>
-  </si>
-  <si>
-    <t>2011-07-19</t>
-  </si>
-  <si>
-    <t>2011-12-19</t>
-  </si>
-  <si>
-    <t>2014-09-19</t>
-  </si>
-  <si>
-    <t>2014-10-19</t>
-  </si>
-  <si>
-    <t>2014-11-19</t>
-  </si>
-  <si>
-    <t>2014-12-19</t>
-  </si>
-  <si>
-    <t>2015-03-19</t>
-  </si>
-  <si>
-    <t>2016-01-19</t>
-  </si>
-  <si>
-    <t>2016-04-19</t>
-  </si>
-  <si>
-    <t>2016-08-19</t>
-  </si>
-  <si>
-    <t>2017-01-19</t>
-  </si>
-  <si>
-    <t>2017-08-19</t>
-  </si>
-  <si>
-    <t>2017-10-19</t>
-  </si>
-  <si>
-    <t>2017-11-19</t>
-  </si>
-  <si>
-    <t>2018-05-19</t>
-  </si>
-  <si>
-    <t>2018-07-19</t>
-  </si>
-  <si>
-    <t>2019-05-19</t>
-  </si>
-  <si>
-    <t>2019-06-19</t>
-  </si>
-  <si>
-    <t>2019-08-19</t>
-  </si>
-  <si>
-    <t>2019-09-19</t>
-  </si>
-  <si>
-    <t>2020-01-19</t>
-  </si>
-  <si>
-    <t>2020-03-19</t>
-  </si>
-  <si>
-    <t>2020-04-19</t>
-  </si>
-  <si>
-    <t>2020-05-19</t>
-  </si>
-  <si>
-    <t>2020-07-19</t>
-  </si>
-  <si>
-    <t>2020-08-19</t>
-  </si>
-  <si>
-    <t>2020-11-19</t>
-  </si>
-  <si>
-    <t>2021-02-19</t>
-  </si>
-  <si>
-    <t>2021-05-19</t>
-  </si>
-  <si>
-    <t>2021-06-19</t>
-  </si>
-  <si>
-    <t>2021-09-19</t>
-  </si>
-  <si>
-    <t>2021-12-19</t>
-  </si>
-  <si>
-    <t>2022-01-19</t>
-  </si>
-  <si>
-    <t>2022-03-19</t>
-  </si>
-  <si>
-    <t>2022-04-19</t>
-  </si>
-  <si>
-    <t>2022-05-19</t>
-  </si>
-  <si>
-    <t>2022-06-19</t>
-  </si>
-  <si>
-    <t>2022-07-19</t>
-  </si>
-  <si>
-    <t>2022-08-19</t>
-  </si>
-  <si>
-    <t>2022-10-19</t>
-  </si>
-  <si>
-    <t>2022-11-19</t>
-  </si>
-  <si>
-    <t>2022-12-19</t>
-  </si>
-  <si>
-    <t>2023-01-19</t>
-  </si>
-  <si>
-    <t>2023-02-19</t>
-  </si>
-  <si>
-    <t>2023-04-19</t>
-  </si>
-  <si>
-    <t>2023-05-19</t>
-  </si>
-  <si>
-    <t>2023-06-19</t>
-  </si>
-  <si>
-    <t>2023-07-19</t>
-  </si>
-  <si>
-    <t>2023-08-19</t>
-  </si>
-  <si>
-    <t>2023-09-19</t>
-  </si>
-  <si>
-    <t>2023-10-19</t>
-  </si>
-  <si>
-    <t>2024-01-19</t>
-  </si>
-  <si>
-    <t>2024-02-19</t>
-  </si>
-  <si>
-    <t>2024-03-19</t>
-  </si>
-  <si>
-    <t>2024-04-19</t>
-  </si>
-  <si>
-    <t>2024-05-19</t>
+    <t>2011-03-20</t>
+  </si>
+  <si>
+    <t>2011-06-20</t>
+  </si>
+  <si>
+    <t>2011-07-20</t>
+  </si>
+  <si>
+    <t>2011-12-20</t>
+  </si>
+  <si>
+    <t>2014-09-20</t>
+  </si>
+  <si>
+    <t>2014-10-20</t>
+  </si>
+  <si>
+    <t>2014-11-20</t>
+  </si>
+  <si>
+    <t>2014-12-20</t>
+  </si>
+  <si>
+    <t>2015-03-20</t>
+  </si>
+  <si>
+    <t>2016-01-20</t>
+  </si>
+  <si>
+    <t>2016-04-20</t>
+  </si>
+  <si>
+    <t>2016-08-20</t>
+  </si>
+  <si>
+    <t>2017-01-20</t>
+  </si>
+  <si>
+    <t>2017-08-20</t>
+  </si>
+  <si>
+    <t>2017-10-20</t>
+  </si>
+  <si>
+    <t>2017-11-20</t>
+  </si>
+  <si>
+    <t>2018-05-20</t>
+  </si>
+  <si>
+    <t>2018-07-20</t>
+  </si>
+  <si>
+    <t>2019-05-20</t>
+  </si>
+  <si>
+    <t>2019-06-20</t>
+  </si>
+  <si>
+    <t>2019-08-20</t>
+  </si>
+  <si>
+    <t>2019-09-20</t>
+  </si>
+  <si>
+    <t>2020-01-20</t>
+  </si>
+  <si>
+    <t>2020-03-20</t>
+  </si>
+  <si>
+    <t>2020-04-20</t>
+  </si>
+  <si>
+    <t>2020-05-20</t>
+  </si>
+  <si>
+    <t>2020-07-20</t>
+  </si>
+  <si>
+    <t>2020-08-20</t>
+  </si>
+  <si>
+    <t>2020-11-20</t>
+  </si>
+  <si>
+    <t>2021-02-20</t>
+  </si>
+  <si>
+    <t>2021-05-20</t>
+  </si>
+  <si>
+    <t>2021-06-20</t>
+  </si>
+  <si>
+    <t>2021-09-20</t>
+  </si>
+  <si>
+    <t>2021-12-20</t>
+  </si>
+  <si>
+    <t>2022-01-20</t>
+  </si>
+  <si>
+    <t>2022-03-20</t>
+  </si>
+  <si>
+    <t>2022-04-20</t>
+  </si>
+  <si>
+    <t>2022-05-20</t>
+  </si>
+  <si>
+    <t>2022-06-20</t>
+  </si>
+  <si>
+    <t>2022-07-20</t>
+  </si>
+  <si>
+    <t>2022-08-20</t>
+  </si>
+  <si>
+    <t>2022-10-20</t>
+  </si>
+  <si>
+    <t>2022-11-20</t>
+  </si>
+  <si>
+    <t>2022-12-20</t>
+  </si>
+  <si>
+    <t>2023-01-20</t>
+  </si>
+  <si>
+    <t>2023-02-20</t>
+  </si>
+  <si>
+    <t>2023-04-20</t>
+  </si>
+  <si>
+    <t>2023-05-20</t>
+  </si>
+  <si>
+    <t>2023-06-20</t>
+  </si>
+  <si>
+    <t>2023-07-20</t>
+  </si>
+  <si>
+    <t>2023-08-20</t>
+  </si>
+  <si>
+    <t>2023-09-20</t>
+  </si>
+  <si>
+    <t>2023-10-20</t>
+  </si>
+  <si>
+    <t>2024-01-20</t>
+  </si>
+  <si>
+    <t>2024-02-20</t>
+  </si>
+  <si>
+    <t>2024-03-20</t>
+  </si>
+  <si>
+    <t>2024-04-20</t>
+  </si>
+  <si>
+    <t>2024-05-20</t>
   </si>
   <si>
     <t>2024-06-02</t>
   </si>
   <si>
-    <t>2024-06-19</t>
+    <t>2024-06-20</t>
   </si>
   <si>
     <t>2024-06-26</t>
   </si>
   <si>
-    <t>2024-07-19</t>
+    <t>2024-07-20</t>
   </si>
   <si>
     <t>2024-07-25</t>
@@ -769,10 +769,10 @@
     <t>2024-08-15</t>
   </si>
   <si>
-    <t>2024-08-19</t>
-  </si>
-  <si>
-    <t>2024-10-19</t>
+    <t>2024-08-20</t>
+  </si>
+  <si>
+    <t>2024-10-20</t>
   </si>
   <si>
     <t>2024-10-24</t>
@@ -787,70 +787,70 @@
     <t>2024-12-24</t>
   </si>
   <si>
-    <t>2025-01-19</t>
-  </si>
-  <si>
-    <t>2025-02-19</t>
-  </si>
-  <si>
-    <t>2025-03-19</t>
-  </si>
-  <si>
-    <t>2025-04-19</t>
-  </si>
-  <si>
-    <t>2025-05-19</t>
-  </si>
-  <si>
-    <t>2025-06-19</t>
-  </si>
-  <si>
-    <t>2025-07-19</t>
-  </si>
-  <si>
-    <t>2025-08-19</t>
-  </si>
-  <si>
-    <t>2025-10-19</t>
-  </si>
-  <si>
-    <t>2025-11-19</t>
-  </si>
-  <si>
-    <t>2026-01-19</t>
-  </si>
-  <si>
-    <t>2026-03-19</t>
-  </si>
-  <si>
-    <t>2026-05-19</t>
-  </si>
-  <si>
-    <t>2026-07-19</t>
-  </si>
-  <si>
-    <t>2026-11-19</t>
-  </si>
-  <si>
-    <t>2027-01-19</t>
-  </si>
-  <si>
-    <t>2027-02-19</t>
-  </si>
-  <si>
-    <t>2028-02-19</t>
-  </si>
-  <si>
-    <t>2028-05-19</t>
-  </si>
-  <si>
-    <t>2028-07-19</t>
-  </si>
-  <si>
-    <t>2028-11-19</t>
-  </si>
-  <si>
-    <t>2030-11-19</t>
+    <t>2025-01-20</t>
+  </si>
+  <si>
+    <t>2025-02-20</t>
+  </si>
+  <si>
+    <t>2025-03-20</t>
+  </si>
+  <si>
+    <t>2025-04-20</t>
+  </si>
+  <si>
+    <t>2025-05-20</t>
+  </si>
+  <si>
+    <t>2025-06-20</t>
+  </si>
+  <si>
+    <t>2025-07-20</t>
+  </si>
+  <si>
+    <t>2025-08-20</t>
+  </si>
+  <si>
+    <t>2025-10-20</t>
+  </si>
+  <si>
+    <t>2025-11-20</t>
+  </si>
+  <si>
+    <t>2026-01-20</t>
+  </si>
+  <si>
+    <t>2026-03-20</t>
+  </si>
+  <si>
+    <t>2026-05-20</t>
+  </si>
+  <si>
+    <t>2026-07-20</t>
+  </si>
+  <si>
+    <t>2026-11-20</t>
+  </si>
+  <si>
+    <t>2027-01-20</t>
+  </si>
+  <si>
+    <t>2027-02-20</t>
+  </si>
+  <si>
+    <t>2028-02-20</t>
+  </si>
+  <si>
+    <t>2028-05-20</t>
+  </si>
+  <si>
+    <t>2028-07-20</t>
+  </si>
+  <si>
+    <t>2028-11-20</t>
+  </si>
+  <si>
+    <t>2030-11-20</t>
   </si>
 </sst>
 </file>
@@ -1923,7 +1923,7 @@
         <v>89</v>
       </c>
       <c r="B89" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="90" spans="1:2">
@@ -1939,7 +1939,7 @@
         <v>91</v>
       </c>
       <c r="B91" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="92" spans="1:2">
@@ -1947,7 +1947,7 @@
         <v>92</v>
       </c>
       <c r="B92" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="93" spans="1:2">
@@ -1963,7 +1963,7 @@
         <v>94</v>
       </c>
       <c r="B94" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="95" spans="1:2">
@@ -2003,7 +2003,7 @@
         <v>99</v>
       </c>
       <c r="B99" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="100" spans="1:2">
@@ -2019,7 +2019,7 @@
         <v>101</v>
       </c>
       <c r="B101" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
     </row>
     <row r="102" spans="1:2">
@@ -2107,7 +2107,7 @@
         <v>112</v>
       </c>
       <c r="B112" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="113" spans="1:2">
@@ -2115,7 +2115,7 @@
         <v>113</v>
       </c>
       <c r="B113" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="114" spans="1:2">
@@ -2123,7 +2123,7 @@
         <v>114</v>
       </c>
       <c r="B114" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
     </row>
     <row r="115" spans="1:2">
@@ -2131,7 +2131,7 @@
         <v>115</v>
       </c>
       <c r="B115" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
     </row>
     <row r="116" spans="1:2">
@@ -2171,7 +2171,7 @@
         <v>120</v>
       </c>
       <c r="B120" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
     </row>
     <row r="121" spans="1:2">
@@ -2179,7 +2179,7 @@
         <v>121</v>
       </c>
       <c r="B121" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="122" spans="1:2">
@@ -2187,7 +2187,7 @@
         <v>122</v>
       </c>
       <c r="B122" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
     </row>
     <row r="123" spans="1:2">
@@ -2211,7 +2211,7 @@
         <v>125</v>
       </c>
       <c r="B125" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
     </row>
     <row r="126" spans="1:2">
@@ -2227,7 +2227,7 @@
         <v>127</v>
       </c>
       <c r="B127" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
     </row>
     <row r="128" spans="1:2">
@@ -2235,7 +2235,7 @@
         <v>128</v>
       </c>
       <c r="B128" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
     <row r="129" spans="1:2">
@@ -2243,7 +2243,7 @@
         <v>129</v>
       </c>
       <c r="B129" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="130" spans="1:2">
@@ -2259,7 +2259,7 @@
         <v>131</v>
       </c>
       <c r="B131" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="132" spans="1:2">
@@ -2267,7 +2267,7 @@
         <v>132</v>
       </c>
       <c r="B132" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="133" spans="1:2">
@@ -2291,7 +2291,7 @@
         <v>135</v>
       </c>
       <c r="B135" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
     <row r="136" spans="1:2">
@@ -2315,7 +2315,7 @@
         <v>138</v>
       </c>
       <c r="B138" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
     <row r="139" spans="1:2">
@@ -2331,7 +2331,7 @@
         <v>140</v>
       </c>
       <c r="B140" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="141" spans="1:2">
@@ -2363,7 +2363,7 @@
         <v>144</v>
       </c>
       <c r="B144" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="145" spans="1:2">
@@ -2403,7 +2403,7 @@
         <v>149</v>
       </c>
       <c r="B149" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="150" spans="1:2">
@@ -2451,7 +2451,7 @@
         <v>155</v>
       </c>
       <c r="B155" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
     </row>
     <row r="156" spans="1:2">
@@ -2475,7 +2475,7 @@
         <v>158</v>
       </c>
       <c r="B158" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
     </row>
     <row r="159" spans="1:2">
@@ -2507,7 +2507,7 @@
         <v>162</v>
       </c>
       <c r="B162" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="163" spans="1:2">
@@ -2531,7 +2531,7 @@
         <v>165</v>
       </c>
       <c r="B165" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
     </row>
     <row r="166" spans="1:2">
@@ -2555,7 +2555,7 @@
         <v>168</v>
       </c>
       <c r="B168" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
     </row>
     <row r="169" spans="1:2">

--- a/lothiancriticalcare/1a74f8f7b8b7e871b413c4697f68b4401fbacdf0/reviewdates.xlsx
+++ b/lothiancriticalcare/1a74f8f7b8b7e871b413c4697f68b4401fbacdf0/reviewdates.xlsx
@@ -505,12 +505,12 @@
     <t>Drugs/valproate.pdf</t>
   </si>
   <si>
+    <t>Procedures/Inadvertent Catheter Placement Guideline.pdf</t>
+  </si>
+  <si>
     <t>Policies_and_admin/Pet Visitation.pdf</t>
   </si>
   <si>
-    <t>Procedures/Inadvertent Catheter Placement Guideline.pdf</t>
-  </si>
-  <si>
     <t>Drugs/Phosphate.pdf</t>
   </si>
   <si>
@@ -526,10 +526,10 @@
     <t>Drugs/Octreotide.pdf</t>
   </si>
   <si>
+    <t>Neurological/Status epilepticus.pdf</t>
+  </si>
+  <si>
     <t>Drugs/Thiopentone.pdf</t>
-  </si>
-  <si>
-    <t>Neurological/Status guideline 24.pdf</t>
   </si>
   <si>
     <t>GI_Liver_and_Transplant/Prokinetics in ICU.pdf</t>

--- a/lothiancriticalcare/1a74f8f7b8b7e871b413c4697f68b4401fbacdf0/reviewdates.xlsx
+++ b/lothiancriticalcare/1a74f8f7b8b7e871b413c4697f68b4401fbacdf0/reviewdates.xlsx
@@ -577,190 +577,190 @@
     <t>Policies_and_admin/Repatriaiton Checklist for Critical Care.pdf</t>
   </si>
   <si>
-    <t>2011-03-20</t>
-  </si>
-  <si>
-    <t>2011-06-20</t>
-  </si>
-  <si>
-    <t>2011-07-20</t>
-  </si>
-  <si>
-    <t>2011-12-20</t>
-  </si>
-  <si>
-    <t>2014-09-20</t>
-  </si>
-  <si>
-    <t>2014-10-20</t>
-  </si>
-  <si>
-    <t>2014-11-20</t>
-  </si>
-  <si>
-    <t>2014-12-20</t>
-  </si>
-  <si>
-    <t>2015-03-20</t>
-  </si>
-  <si>
-    <t>2016-01-20</t>
-  </si>
-  <si>
-    <t>2016-04-20</t>
-  </si>
-  <si>
-    <t>2016-08-20</t>
-  </si>
-  <si>
-    <t>2017-01-20</t>
-  </si>
-  <si>
-    <t>2017-08-20</t>
-  </si>
-  <si>
-    <t>2017-10-20</t>
-  </si>
-  <si>
-    <t>2017-11-20</t>
-  </si>
-  <si>
-    <t>2018-05-20</t>
-  </si>
-  <si>
-    <t>2018-07-20</t>
-  </si>
-  <si>
-    <t>2019-05-20</t>
-  </si>
-  <si>
-    <t>2019-06-20</t>
-  </si>
-  <si>
-    <t>2019-08-20</t>
-  </si>
-  <si>
-    <t>2019-09-20</t>
-  </si>
-  <si>
-    <t>2020-01-20</t>
-  </si>
-  <si>
-    <t>2020-03-20</t>
-  </si>
-  <si>
-    <t>2020-04-20</t>
-  </si>
-  <si>
-    <t>2020-05-20</t>
-  </si>
-  <si>
-    <t>2020-07-20</t>
-  </si>
-  <si>
-    <t>2020-08-20</t>
-  </si>
-  <si>
-    <t>2020-11-20</t>
-  </si>
-  <si>
-    <t>2021-02-20</t>
-  </si>
-  <si>
-    <t>2021-05-20</t>
-  </si>
-  <si>
-    <t>2021-06-20</t>
-  </si>
-  <si>
-    <t>2021-09-20</t>
-  </si>
-  <si>
-    <t>2021-12-20</t>
-  </si>
-  <si>
-    <t>2022-01-20</t>
-  </si>
-  <si>
-    <t>2022-03-20</t>
-  </si>
-  <si>
-    <t>2022-04-20</t>
-  </si>
-  <si>
-    <t>2022-05-20</t>
-  </si>
-  <si>
-    <t>2022-06-20</t>
-  </si>
-  <si>
-    <t>2022-07-20</t>
-  </si>
-  <si>
-    <t>2022-08-20</t>
-  </si>
-  <si>
-    <t>2022-10-20</t>
-  </si>
-  <si>
-    <t>2022-11-20</t>
-  </si>
-  <si>
-    <t>2022-12-20</t>
-  </si>
-  <si>
-    <t>2023-01-20</t>
-  </si>
-  <si>
-    <t>2023-02-20</t>
-  </si>
-  <si>
-    <t>2023-04-20</t>
-  </si>
-  <si>
-    <t>2023-05-20</t>
-  </si>
-  <si>
-    <t>2023-06-20</t>
-  </si>
-  <si>
-    <t>2023-07-20</t>
-  </si>
-  <si>
-    <t>2023-08-20</t>
-  </si>
-  <si>
-    <t>2023-09-20</t>
-  </si>
-  <si>
-    <t>2023-10-20</t>
-  </si>
-  <si>
-    <t>2024-01-20</t>
-  </si>
-  <si>
-    <t>2024-02-20</t>
-  </si>
-  <si>
-    <t>2024-03-20</t>
-  </si>
-  <si>
-    <t>2024-04-20</t>
-  </si>
-  <si>
-    <t>2024-05-20</t>
+    <t>2011-03-21</t>
+  </si>
+  <si>
+    <t>2011-06-21</t>
+  </si>
+  <si>
+    <t>2011-07-21</t>
+  </si>
+  <si>
+    <t>2011-12-21</t>
+  </si>
+  <si>
+    <t>2014-09-21</t>
+  </si>
+  <si>
+    <t>2014-10-21</t>
+  </si>
+  <si>
+    <t>2014-11-21</t>
+  </si>
+  <si>
+    <t>2014-12-21</t>
+  </si>
+  <si>
+    <t>2015-03-21</t>
+  </si>
+  <si>
+    <t>2016-01-21</t>
+  </si>
+  <si>
+    <t>2016-04-21</t>
+  </si>
+  <si>
+    <t>2016-08-21</t>
+  </si>
+  <si>
+    <t>2017-01-21</t>
+  </si>
+  <si>
+    <t>2017-08-21</t>
+  </si>
+  <si>
+    <t>2017-10-21</t>
+  </si>
+  <si>
+    <t>2017-11-21</t>
+  </si>
+  <si>
+    <t>2018-05-21</t>
+  </si>
+  <si>
+    <t>2018-07-21</t>
+  </si>
+  <si>
+    <t>2019-05-21</t>
+  </si>
+  <si>
+    <t>2019-06-21</t>
+  </si>
+  <si>
+    <t>2019-08-21</t>
+  </si>
+  <si>
+    <t>2019-09-21</t>
+  </si>
+  <si>
+    <t>2020-01-21</t>
+  </si>
+  <si>
+    <t>2020-03-21</t>
+  </si>
+  <si>
+    <t>2020-04-21</t>
+  </si>
+  <si>
+    <t>2020-05-21</t>
+  </si>
+  <si>
+    <t>2020-07-21</t>
+  </si>
+  <si>
+    <t>2020-08-21</t>
+  </si>
+  <si>
+    <t>2020-11-21</t>
+  </si>
+  <si>
+    <t>2021-02-21</t>
+  </si>
+  <si>
+    <t>2021-05-21</t>
+  </si>
+  <si>
+    <t>2021-06-21</t>
+  </si>
+  <si>
+    <t>2021-09-21</t>
+  </si>
+  <si>
+    <t>2021-12-21</t>
+  </si>
+  <si>
+    <t>2022-01-21</t>
+  </si>
+  <si>
+    <t>2022-03-21</t>
+  </si>
+  <si>
+    <t>2022-04-21</t>
+  </si>
+  <si>
+    <t>2022-05-21</t>
+  </si>
+  <si>
+    <t>2022-06-21</t>
+  </si>
+  <si>
+    <t>2022-07-21</t>
+  </si>
+  <si>
+    <t>2022-08-21</t>
+  </si>
+  <si>
+    <t>2022-10-21</t>
+  </si>
+  <si>
+    <t>2022-11-21</t>
+  </si>
+  <si>
+    <t>2022-12-21</t>
+  </si>
+  <si>
+    <t>2023-01-21</t>
+  </si>
+  <si>
+    <t>2023-02-21</t>
+  </si>
+  <si>
+    <t>2023-04-21</t>
+  </si>
+  <si>
+    <t>2023-05-21</t>
+  </si>
+  <si>
+    <t>2023-06-21</t>
+  </si>
+  <si>
+    <t>2023-07-21</t>
+  </si>
+  <si>
+    <t>2023-08-21</t>
+  </si>
+  <si>
+    <t>2023-09-21</t>
+  </si>
+  <si>
+    <t>2023-10-21</t>
+  </si>
+  <si>
+    <t>2024-01-21</t>
+  </si>
+  <si>
+    <t>2024-02-21</t>
+  </si>
+  <si>
+    <t>2024-03-21</t>
+  </si>
+  <si>
+    <t>2024-04-21</t>
+  </si>
+  <si>
+    <t>2024-05-21</t>
   </si>
   <si>
     <t>2024-06-02</t>
   </si>
   <si>
-    <t>2024-06-20</t>
+    <t>2024-06-21</t>
   </si>
   <si>
     <t>2024-06-26</t>
   </si>
   <si>
-    <t>2024-07-20</t>
+    <t>2024-07-21</t>
   </si>
   <si>
     <t>2024-07-25</t>
@@ -769,10 +769,10 @@
     <t>2024-08-15</t>
   </si>
   <si>
-    <t>2024-08-20</t>
-  </si>
-  <si>
-    <t>2024-10-20</t>
+    <t>2024-08-21</t>
+  </si>
+  <si>
+    <t>2024-10-21</t>
   </si>
   <si>
     <t>2024-10-24</t>
@@ -787,70 +787,70 @@
     <t>2024-12-24</t>
   </si>
   <si>
-    <t>2025-01-20</t>
-  </si>
-  <si>
-    <t>2025-02-20</t>
-  </si>
-  <si>
-    <t>2025-03-20</t>
-  </si>
-  <si>
-    <t>2025-04-20</t>
-  </si>
-  <si>
-    <t>2025-05-20</t>
-  </si>
-  <si>
-    <t>2025-06-20</t>
-  </si>
-  <si>
-    <t>2025-07-20</t>
-  </si>
-  <si>
-    <t>2025-08-20</t>
-  </si>
-  <si>
-    <t>2025-10-20</t>
-  </si>
-  <si>
-    <t>2025-11-20</t>
-  </si>
-  <si>
-    <t>2026-01-20</t>
-  </si>
-  <si>
-    <t>2026-03-20</t>
-  </si>
-  <si>
-    <t>2026-05-20</t>
-  </si>
-  <si>
-    <t>2026-07-20</t>
-  </si>
-  <si>
-    <t>2026-11-20</t>
-  </si>
-  <si>
-    <t>2027-01-20</t>
-  </si>
-  <si>
-    <t>2027-02-20</t>
-  </si>
-  <si>
-    <t>2028-02-20</t>
-  </si>
-  <si>
-    <t>2028-05-20</t>
-  </si>
-  <si>
-    <t>2028-07-20</t>
-  </si>
-  <si>
-    <t>2028-11-20</t>
-  </si>
-  <si>
-    <t>2030-11-20</t>
+    <t>2025-01-21</t>
+  </si>
+  <si>
+    <t>2025-02-21</t>
+  </si>
+  <si>
+    <t>2025-03-21</t>
+  </si>
+  <si>
+    <t>2025-04-21</t>
+  </si>
+  <si>
+    <t>2025-05-21</t>
+  </si>
+  <si>
+    <t>2025-06-21</t>
+  </si>
+  <si>
+    <t>2025-07-21</t>
+  </si>
+  <si>
+    <t>2025-08-21</t>
+  </si>
+  <si>
+    <t>2025-10-21</t>
+  </si>
+  <si>
+    <t>2025-11-21</t>
+  </si>
+  <si>
+    <t>2026-01-21</t>
+  </si>
+  <si>
+    <t>2026-03-21</t>
+  </si>
+  <si>
+    <t>2026-05-21</t>
+  </si>
+  <si>
+    <t>2026-07-21</t>
+  </si>
+  <si>
+    <t>2026-11-21</t>
+  </si>
+  <si>
+    <t>2027-01-21</t>
+  </si>
+  <si>
+    <t>2027-02-21</t>
+  </si>
+  <si>
+    <t>2028-02-21</t>
+  </si>
+  <si>
+    <t>2028-05-21</t>
+  </si>
+  <si>
+    <t>2028-07-21</t>
+  </si>
+  <si>
+    <t>2028-11-21</t>
+  </si>
+  <si>
+    <t>2030-11-21</t>
   </si>
 </sst>
 </file>

--- a/lothiancriticalcare/1a74f8f7b8b7e871b413c4697f68b4401fbacdf0/reviewdates.xlsx
+++ b/lothiancriticalcare/1a74f8f7b8b7e871b413c4697f68b4401fbacdf0/reviewdates.xlsx
@@ -577,190 +577,190 @@
     <t>Policies_and_admin/Repatriaiton Checklist for Critical Care.pdf</t>
   </si>
   <si>
-    <t>2011-03-21</t>
-  </si>
-  <si>
-    <t>2011-06-21</t>
-  </si>
-  <si>
-    <t>2011-07-21</t>
-  </si>
-  <si>
-    <t>2011-12-21</t>
-  </si>
-  <si>
-    <t>2014-09-21</t>
-  </si>
-  <si>
-    <t>2014-10-21</t>
-  </si>
-  <si>
-    <t>2014-11-21</t>
-  </si>
-  <si>
-    <t>2014-12-21</t>
-  </si>
-  <si>
-    <t>2015-03-21</t>
-  </si>
-  <si>
-    <t>2016-01-21</t>
-  </si>
-  <si>
-    <t>2016-04-21</t>
-  </si>
-  <si>
-    <t>2016-08-21</t>
-  </si>
-  <si>
-    <t>2017-01-21</t>
-  </si>
-  <si>
-    <t>2017-08-21</t>
-  </si>
-  <si>
-    <t>2017-10-21</t>
-  </si>
-  <si>
-    <t>2017-11-21</t>
-  </si>
-  <si>
-    <t>2018-05-21</t>
-  </si>
-  <si>
-    <t>2018-07-21</t>
-  </si>
-  <si>
-    <t>2019-05-21</t>
-  </si>
-  <si>
-    <t>2019-06-21</t>
-  </si>
-  <si>
-    <t>2019-08-21</t>
-  </si>
-  <si>
-    <t>2019-09-21</t>
-  </si>
-  <si>
-    <t>2020-01-21</t>
-  </si>
-  <si>
-    <t>2020-03-21</t>
-  </si>
-  <si>
-    <t>2020-04-21</t>
-  </si>
-  <si>
-    <t>2020-05-21</t>
-  </si>
-  <si>
-    <t>2020-07-21</t>
-  </si>
-  <si>
-    <t>2020-08-21</t>
-  </si>
-  <si>
-    <t>2020-11-21</t>
-  </si>
-  <si>
-    <t>2021-02-21</t>
-  </si>
-  <si>
-    <t>2021-05-21</t>
-  </si>
-  <si>
-    <t>2021-06-21</t>
-  </si>
-  <si>
-    <t>2021-09-21</t>
-  </si>
-  <si>
-    <t>2021-12-21</t>
-  </si>
-  <si>
-    <t>2022-01-21</t>
-  </si>
-  <si>
-    <t>2022-03-21</t>
-  </si>
-  <si>
-    <t>2022-04-21</t>
-  </si>
-  <si>
-    <t>2022-05-21</t>
-  </si>
-  <si>
-    <t>2022-06-21</t>
-  </si>
-  <si>
-    <t>2022-07-21</t>
-  </si>
-  <si>
-    <t>2022-08-21</t>
-  </si>
-  <si>
-    <t>2022-10-21</t>
-  </si>
-  <si>
-    <t>2022-11-21</t>
-  </si>
-  <si>
-    <t>2022-12-21</t>
-  </si>
-  <si>
-    <t>2023-01-21</t>
-  </si>
-  <si>
-    <t>2023-02-21</t>
-  </si>
-  <si>
-    <t>2023-04-21</t>
-  </si>
-  <si>
-    <t>2023-05-21</t>
-  </si>
-  <si>
-    <t>2023-06-21</t>
-  </si>
-  <si>
-    <t>2023-07-21</t>
-  </si>
-  <si>
-    <t>2023-08-21</t>
-  </si>
-  <si>
-    <t>2023-09-21</t>
-  </si>
-  <si>
-    <t>2023-10-21</t>
-  </si>
-  <si>
-    <t>2024-01-21</t>
-  </si>
-  <si>
-    <t>2024-02-21</t>
-  </si>
-  <si>
-    <t>2024-03-21</t>
-  </si>
-  <si>
-    <t>2024-04-21</t>
-  </si>
-  <si>
-    <t>2024-05-21</t>
+    <t>2011-03-22</t>
+  </si>
+  <si>
+    <t>2011-06-22</t>
+  </si>
+  <si>
+    <t>2011-07-22</t>
+  </si>
+  <si>
+    <t>2011-12-22</t>
+  </si>
+  <si>
+    <t>2014-09-22</t>
+  </si>
+  <si>
+    <t>2014-10-22</t>
+  </si>
+  <si>
+    <t>2014-11-22</t>
+  </si>
+  <si>
+    <t>2014-12-22</t>
+  </si>
+  <si>
+    <t>2015-03-22</t>
+  </si>
+  <si>
+    <t>2016-01-22</t>
+  </si>
+  <si>
+    <t>2016-04-22</t>
+  </si>
+  <si>
+    <t>2016-08-22</t>
+  </si>
+  <si>
+    <t>2017-01-22</t>
+  </si>
+  <si>
+    <t>2017-08-22</t>
+  </si>
+  <si>
+    <t>2017-10-22</t>
+  </si>
+  <si>
+    <t>2017-11-22</t>
+  </si>
+  <si>
+    <t>2018-05-22</t>
+  </si>
+  <si>
+    <t>2018-07-22</t>
+  </si>
+  <si>
+    <t>2019-05-22</t>
+  </si>
+  <si>
+    <t>2019-06-22</t>
+  </si>
+  <si>
+    <t>2019-08-22</t>
+  </si>
+  <si>
+    <t>2019-09-22</t>
+  </si>
+  <si>
+    <t>2020-01-22</t>
+  </si>
+  <si>
+    <t>2020-03-22</t>
+  </si>
+  <si>
+    <t>2020-04-22</t>
+  </si>
+  <si>
+    <t>2020-05-22</t>
+  </si>
+  <si>
+    <t>2020-07-22</t>
+  </si>
+  <si>
+    <t>2020-08-22</t>
+  </si>
+  <si>
+    <t>2020-11-22</t>
+  </si>
+  <si>
+    <t>2021-02-22</t>
+  </si>
+  <si>
+    <t>2021-05-22</t>
+  </si>
+  <si>
+    <t>2021-06-22</t>
+  </si>
+  <si>
+    <t>2021-09-22</t>
+  </si>
+  <si>
+    <t>2021-12-22</t>
+  </si>
+  <si>
+    <t>2022-01-22</t>
+  </si>
+  <si>
+    <t>2022-03-22</t>
+  </si>
+  <si>
+    <t>2022-04-22</t>
+  </si>
+  <si>
+    <t>2022-05-22</t>
+  </si>
+  <si>
+    <t>2022-06-22</t>
+  </si>
+  <si>
+    <t>2022-07-22</t>
+  </si>
+  <si>
+    <t>2022-08-22</t>
+  </si>
+  <si>
+    <t>2022-10-22</t>
+  </si>
+  <si>
+    <t>2022-11-22</t>
+  </si>
+  <si>
+    <t>2022-12-22</t>
+  </si>
+  <si>
+    <t>2023-01-22</t>
+  </si>
+  <si>
+    <t>2023-02-22</t>
+  </si>
+  <si>
+    <t>2023-04-22</t>
+  </si>
+  <si>
+    <t>2023-05-22</t>
+  </si>
+  <si>
+    <t>2023-06-22</t>
+  </si>
+  <si>
+    <t>2023-07-22</t>
+  </si>
+  <si>
+    <t>2023-08-22</t>
+  </si>
+  <si>
+    <t>2023-09-22</t>
+  </si>
+  <si>
+    <t>2023-10-22</t>
+  </si>
+  <si>
+    <t>2024-01-22</t>
+  </si>
+  <si>
+    <t>2024-02-22</t>
+  </si>
+  <si>
+    <t>2024-03-22</t>
+  </si>
+  <si>
+    <t>2024-04-22</t>
+  </si>
+  <si>
+    <t>2024-05-22</t>
   </si>
   <si>
     <t>2024-06-02</t>
   </si>
   <si>
-    <t>2024-06-21</t>
+    <t>2024-06-22</t>
   </si>
   <si>
     <t>2024-06-26</t>
   </si>
   <si>
-    <t>2024-07-21</t>
+    <t>2024-07-22</t>
   </si>
   <si>
     <t>2024-07-25</t>
@@ -769,10 +769,10 @@
     <t>2024-08-15</t>
   </si>
   <si>
-    <t>2024-08-21</t>
-  </si>
-  <si>
-    <t>2024-10-21</t>
+    <t>2024-08-22</t>
+  </si>
+  <si>
+    <t>2024-10-22</t>
   </si>
   <si>
     <t>2024-10-24</t>
@@ -787,70 +787,70 @@
     <t>2024-12-24</t>
   </si>
   <si>
-    <t>2025-01-21</t>
-  </si>
-  <si>
-    <t>2025-02-21</t>
-  </si>
-  <si>
-    <t>2025-03-21</t>
-  </si>
-  <si>
-    <t>2025-04-21</t>
-  </si>
-  <si>
-    <t>2025-05-21</t>
-  </si>
-  <si>
-    <t>2025-06-21</t>
-  </si>
-  <si>
-    <t>2025-07-21</t>
-  </si>
-  <si>
-    <t>2025-08-21</t>
-  </si>
-  <si>
-    <t>2025-10-21</t>
-  </si>
-  <si>
-    <t>2025-11-21</t>
-  </si>
-  <si>
-    <t>2026-01-21</t>
-  </si>
-  <si>
-    <t>2026-03-21</t>
-  </si>
-  <si>
-    <t>2026-05-21</t>
-  </si>
-  <si>
-    <t>2026-07-21</t>
-  </si>
-  <si>
-    <t>2026-11-21</t>
-  </si>
-  <si>
-    <t>2027-01-21</t>
-  </si>
-  <si>
-    <t>2027-02-21</t>
-  </si>
-  <si>
-    <t>2028-02-21</t>
-  </si>
-  <si>
-    <t>2028-05-21</t>
-  </si>
-  <si>
-    <t>2028-07-21</t>
-  </si>
-  <si>
-    <t>2028-11-21</t>
-  </si>
-  <si>
-    <t>2030-11-21</t>
+    <t>2025-01-22</t>
+  </si>
+  <si>
+    <t>2025-02-22</t>
+  </si>
+  <si>
+    <t>2025-03-22</t>
+  </si>
+  <si>
+    <t>2025-04-22</t>
+  </si>
+  <si>
+    <t>2025-05-22</t>
+  </si>
+  <si>
+    <t>2025-06-22</t>
+  </si>
+  <si>
+    <t>2025-07-22</t>
+  </si>
+  <si>
+    <t>2025-08-22</t>
+  </si>
+  <si>
+    <t>2025-10-22</t>
+  </si>
+  <si>
+    <t>2025-11-22</t>
+  </si>
+  <si>
+    <t>2026-01-22</t>
+  </si>
+  <si>
+    <t>2026-03-22</t>
+  </si>
+  <si>
+    <t>2026-05-22</t>
+  </si>
+  <si>
+    <t>2026-07-22</t>
+  </si>
+  <si>
+    <t>2026-11-22</t>
+  </si>
+  <si>
+    <t>2027-01-22</t>
+  </si>
+  <si>
+    <t>2027-02-22</t>
+  </si>
+  <si>
+    <t>2028-02-22</t>
+  </si>
+  <si>
+    <t>2028-05-22</t>
+  </si>
+  <si>
+    <t>2028-07-22</t>
+  </si>
+  <si>
+    <t>2028-11-22</t>
+  </si>
+  <si>
+    <t>2030-11-22</t>
   </si>
 </sst>
 </file>

--- a/lothiancriticalcare/1a74f8f7b8b7e871b413c4697f68b4401fbacdf0/reviewdates.xlsx
+++ b/lothiancriticalcare/1a74f8f7b8b7e871b413c4697f68b4401fbacdf0/reviewdates.xlsx
@@ -79,21 +79,21 @@
     <t>Drugs/diazepam_diazemuls.pdf</t>
   </si>
   <si>
+    <t>Breathing(Respiratory)/salbutamol and ipratroprium MDI.pdf</t>
+  </si>
+  <si>
     <t>End_of_life_care/Reasons to report a death to PF.pdf</t>
   </si>
   <si>
-    <t>Breathing(Respiratory)/salbutamol and ipratroprium MDI.pdf</t>
+    <t>Airway/Tracheostomy_Laryngectomy/Tracheostomy change in Critical Care.pdf</t>
+  </si>
+  <si>
+    <t>Neurological/SOP -  Femoral site care.pdf</t>
   </si>
   <si>
     <t>Airway/Tracheostomy_Laryngectomy/Tracheostomy suctioning cleaning guideline.pdf</t>
   </si>
   <si>
-    <t>Neurological/SOP -  Femoral site care.pdf</t>
-  </si>
-  <si>
-    <t>Airway/Tracheostomy_Laryngectomy/Tracheostomy change in Critical Care.pdf</t>
-  </si>
-  <si>
     <t>Drugs/sodium_bicarbonate.pdf</t>
   </si>
   <si>
@@ -103,24 +103,24 @@
     <t>Post_op_care/Epidural top-up.pdf</t>
   </si>
   <si>
+    <t>Covid-19/SJH/SJH COVID19 ITU Intubation Action Card.pdf</t>
+  </si>
+  <si>
+    <t>Diabetes_and_Glucose/Hyperosmolar Hyperglycaemic State.pdf</t>
+  </si>
+  <si>
     <t>Drugs/heparin for Haemofiltration.pdf</t>
   </si>
   <si>
     <t>Covid-19/SJH/SJH COVID19 ED Intubation Action Card.pdf</t>
   </si>
   <si>
-    <t>Covid-19/SJH/SJH COVID19 ITU Intubation Action Card.pdf</t>
-  </si>
-  <si>
     <t>Covid-19/WGH/CoVid intubation checklist WGH.pdf</t>
   </si>
   <si>
     <t>Airway/Emergency intubation checklist_em_pub.pdf</t>
   </si>
   <si>
-    <t>Diabetes_and_Glucose/Hyperosmolar Hyperglycaemic State.pdf</t>
-  </si>
-  <si>
     <t>Drugs/fentanyl.pdf</t>
   </si>
   <si>
@@ -148,33 +148,33 @@
     <t>Delirium/Managing a Potentially Violent Patient.pdf</t>
   </si>
   <si>
+    <t>Drugs/ketamine_in_asthma.pdf</t>
+  </si>
+  <si>
+    <t>GI_Liver_and_Transplant/Treatment of constipation.pdf</t>
+  </si>
+  <si>
+    <t>GI_Liver_and_Transplant/Abdominal pressure measurement.pdf</t>
+  </si>
+  <si>
+    <t>Neurological/Sub arachnoid haemorrhage management.pdf</t>
+  </si>
+  <si>
+    <t>Delirium/Drugs Causing Delirium and Agitiation.pdf</t>
+  </si>
+  <si>
+    <t>Breathing(Respiratory)/HFNO.pdf</t>
+  </si>
+  <si>
     <t>Airway/Anticipated difficult airway tool.pdf</t>
   </si>
   <si>
-    <t>Delirium/Drugs Causing Delirium and Agitiation.pdf</t>
-  </si>
-  <si>
-    <t>Neurological/Sub arachnoid haemorrhage management.pdf</t>
+    <t>Airway/Tracheostomy_Laryngectomy/Tracheostomy safety box contents.pdf</t>
   </si>
   <si>
     <t>Airway/McGrath Mac.pdf</t>
   </si>
   <si>
-    <t>Breathing(Respiratory)/HFNO.pdf</t>
-  </si>
-  <si>
-    <t>GI_Liver_and_Transplant/Treatment of constipation.pdf</t>
-  </si>
-  <si>
-    <t>GI_Liver_and_Transplant/Abdominal pressure measurement.pdf</t>
-  </si>
-  <si>
-    <t>Airway/Tracheostomy_Laryngectomy/Tracheostomy safety box contents.pdf</t>
-  </si>
-  <si>
-    <t>Drugs/ketamine_in_asthma.pdf</t>
-  </si>
-  <si>
     <t>End_of_life_care/Documentation following death.pdf</t>
   </si>
   <si>
@@ -184,12 +184,12 @@
     <t>Routine_Care/bBraun Spaceplus Failure EMERGENCY ACTION CARD_em.pdf</t>
   </si>
   <si>
+    <t>Drugs/insulin.pdf</t>
+  </si>
+  <si>
     <t>Breathing(Respiratory)/Equipment/HFNO Set Up.pdf</t>
   </si>
   <si>
-    <t>Drugs/insulin.pdf</t>
-  </si>
-  <si>
     <t>Breathing(Respiratory)/Inhaled Nitrous Oxide.pdf</t>
   </si>
   <si>
@@ -199,15 +199,15 @@
     <t>Cardiovascular/Steroids for Septic Shock.pdf</t>
   </si>
   <si>
+    <t>Post_op_care/Epidural Haematoma.pdf</t>
+  </si>
+  <si>
+    <t>Breathing(Respiratory)/Equipment/T piece Y piece.pdf</t>
+  </si>
+  <si>
     <t>Neurological/SOP for review of Neurosurgical patients in ITU by neurosurgical team.pdf</t>
   </si>
   <si>
-    <t>Breathing(Respiratory)/Equipment/T piece Y piece.pdf</t>
-  </si>
-  <si>
-    <t>Post_op_care/Epidural Haematoma.pdf</t>
-  </si>
-  <si>
     <t>Policies_and_admin/General Critical Care Interaction with HEPMA_pub.pdf</t>
   </si>
   <si>
@@ -217,12 +217,12 @@
     <t>Breathing(Respiratory)/Equipment/HFNO through ventilator.pdf</t>
   </si>
   <si>
+    <t>Routine_Care/VTE_Prevention/Dalteparin_thromboprophylaxis.pdf</t>
+  </si>
+  <si>
     <t>Post_op_care/Adult Scoliosis Spinal Surgery Post-Op Care.pdf</t>
   </si>
   <si>
-    <t>Routine_Care/VTE_Prevention/Dalteparin_thromboprophylaxis.pdf</t>
-  </si>
-  <si>
     <t>Post_op_care/Post op care pharyngo-laryngo-oesphagectomy PLOG.pdf</t>
   </si>
   <si>
@@ -244,36 +244,30 @@
     <t>GI_Liver_and_Transplant/Nasojejunal feeding protocol.pdf</t>
   </si>
   <si>
+    <t>Drugs/vasopressin organ donation.pdf</t>
+  </si>
+  <si>
     <t>Infection_and_sepsis/Winter Infections Stepdown Guidance.pdf</t>
   </si>
   <si>
-    <t>Drugs/vasopressin organ donation.pdf</t>
-  </si>
-  <si>
     <t>Drugs/vasopressin_sepsis.pdf</t>
   </si>
   <si>
+    <t>Transfer/ACCP Transfers.pdf</t>
+  </si>
+  <si>
     <t>Covid-19/videos/Donning and Doffing Video.pdf</t>
   </si>
   <si>
-    <t>Transfer/ACCP Transfers.pdf</t>
-  </si>
-  <si>
-    <t>Breathing(Respiratory)/CPAP.pdf</t>
-  </si>
-  <si>
     <t>Breathing(Respiratory)/Equipment/Ventilators Circuits Filters and Closed Suction - Set up and Maintenance.pdf</t>
   </si>
   <si>
+    <t>Drugs/piperacillin_tazobactam extended_infusion.pdf</t>
+  </si>
+  <si>
     <t>Infection_and_sepsis/Infection indications for IVIG.pdf</t>
   </si>
   <si>
-    <t>Drugs/piperacillin_tazobactam extended_infusion.pdf</t>
-  </si>
-  <si>
-    <t>Breathing(Respiratory)/Equipment/Bipap V60.pdf</t>
-  </si>
-  <si>
     <t>Covid-19/Covid 19 Death Certification Guideline.pdf</t>
   </si>
   <si>
@@ -292,51 +286,51 @@
     <t>Haematology_CAR-T/Haem_ICU_transfer.pdf</t>
   </si>
   <si>
+    <t>Drugs/aminophylline.pdf</t>
+  </si>
+  <si>
     <t>Cardiovascular/Management of hypertension within Critical Care.pdf</t>
   </si>
   <si>
-    <t>Drugs/aminophylline.pdf</t>
-  </si>
-  <si>
     <t>Haematology_CAR-T/ICANS.pdf</t>
   </si>
   <si>
+    <t>Drugs/pancuronium.pdf</t>
+  </si>
+  <si>
+    <t>Haematology_CAR-T/CRS.pdf</t>
+  </si>
+  <si>
     <t>Drugs/rocuronium.pdf</t>
   </si>
   <si>
-    <t>Drugs/pancuronium.pdf</t>
-  </si>
-  <si>
     <t>Drugs/phenytoin.pdf</t>
   </si>
   <si>
-    <t>Haematology_CAR-T/CRS.pdf</t>
-  </si>
-  <si>
     <t>Drugs/milrinone.pdf</t>
   </si>
   <si>
     <t>Policies_and_admin/General Critical Care SOP_pub.pdf</t>
   </si>
   <si>
+    <t>Neurological/Critical Care MRI Procedure_pub.pdf</t>
+  </si>
+  <si>
+    <t>Organ_donation/Organ Retrieval SOP.pdf</t>
+  </si>
+  <si>
+    <t>Neurological/Management of traumatic brain injury.pdf</t>
+  </si>
+  <si>
+    <t>Infection_and_sepsis/Trip Out of Unit infection guidance.pdf</t>
+  </si>
+  <si>
+    <t>Drugs/clonidine.pdf</t>
+  </si>
+  <si>
     <t>Covid-19/COVID 19 ICM guidance basic goals_June_2022.pdf</t>
   </si>
   <si>
-    <t>Neurological/Critical Care MRI Procedure_pub.pdf</t>
-  </si>
-  <si>
-    <t>Infection_and_sepsis/Trip Out of Unit infection guidance.pdf</t>
-  </si>
-  <si>
-    <t>Drugs/clonidine.pdf</t>
-  </si>
-  <si>
-    <t>Organ_donation/Organ Retrieval SOP.pdf</t>
-  </si>
-  <si>
-    <t>Neurological/Management of traumatic brain injury.pdf</t>
-  </si>
-  <si>
     <t>Ethics_and_Law/Care at the End of Life (FICM).pdf</t>
   </si>
   <si>
@@ -361,24 +355,24 @@
     <t>Post_op_care/Epidural hypotension.pdf</t>
   </si>
   <si>
+    <t>Infection_and_sepsis/Antifungal guidance in critical care.pdf</t>
+  </si>
+  <si>
+    <t>Breathing(Respiratory)/Equipment/Passy Muir Valve.pdf</t>
+  </si>
+  <si>
     <t>GI_Liver_and_Transplant/Fulminant Liver Failure.pdf</t>
   </si>
   <si>
     <t>GI_Liver_and_Transplant/Confirmation of Nasogastric Tube Position.pdf</t>
   </si>
   <si>
-    <t>Breathing(Respiratory)/Equipment/Passy Muir Valve.pdf</t>
-  </si>
-  <si>
     <t>Drugs/dexmedetomidine.pdf</t>
   </si>
   <si>
     <t>Drugs/glyceryl_trinitrate.pdf</t>
   </si>
   <si>
-    <t>Infection_and_sepsis/Antifungal guidance in critical care.pdf</t>
-  </si>
-  <si>
     <t>Breathing(Respiratory)/ARDS Strategy.pdf</t>
   </si>
   <si>
@@ -391,15 +385,15 @@
     <t>Cardiovascular/Intra Aortic Balloon Pump Guideline_pub.pdf</t>
   </si>
   <si>
+    <t>Drugs/hydralazine.pdf</t>
+  </si>
+  <si>
     <t>Drugs/adrenaline.pdf</t>
   </si>
   <si>
     <t>Drugs/dobutamine.pdf</t>
   </si>
   <si>
-    <t>Drugs/hydralazine.pdf</t>
-  </si>
-  <si>
     <t>Post_op_care/Major OMFS Free Flap.pdf</t>
   </si>
   <si>
@@ -412,13 +406,16 @@
     <t>Drugs/magnesium.pdf</t>
   </si>
   <si>
+    <t>Drugs/ICU - IV drug infusions.pdf</t>
+  </si>
+  <si>
     <t>Drugs/neostigmine.pdf</t>
   </si>
   <si>
     <t>Drugs/vancomycin.pdf</t>
   </si>
   <si>
-    <t>Drugs/ICU - IV drug infusions.pdf</t>
+    <t>Infection_and_sepsis/Initial investigation and management in unidentified Infections.pdf</t>
   </si>
   <si>
     <t>Neurological/Intrathecal policy RIE.pdf</t>
@@ -427,27 +424,24 @@
     <t>Drugs/labetalol.pdf</t>
   </si>
   <si>
-    <t>Infection_and_sepsis/Initial investigation and management in unidentified Infections.pdf</t>
-  </si>
-  <si>
     <t>Cardiovascular/Management of Acute Type B Aortic Dissection Guideline.pdf</t>
   </si>
   <si>
     <t>Drugs/midazolam.pdf</t>
   </si>
   <si>
+    <t>Drugs/potassium.pdf</t>
+  </si>
+  <si>
     <t>Drugs/nimodipine.pdf</t>
   </si>
   <si>
+    <t>Procedures/CVC Guidance/CVC NHL  April 2023.pdf</t>
+  </si>
+  <si>
     <t>Drugs/salbutamol.pdf</t>
   </si>
   <si>
-    <t>Drugs/potassium.pdf</t>
-  </si>
-  <si>
-    <t>Procedures/CVC Guidance/CVC NHL  April 2023.pdf</t>
-  </si>
-  <si>
     <t>Drugs/amiodarone.pdf</t>
   </si>
   <si>
@@ -463,31 +457,34 @@
     <t>Drugs/nicardipine.pdf</t>
   </si>
   <si>
+    <t>Drugs/Epoprostenol.pdf</t>
+  </si>
+  <si>
+    <t>Neurological/Ventriculitis Guideline.pdf</t>
+  </si>
+  <si>
     <t>Drugs/morphine.pdf</t>
   </si>
   <si>
+    <t>Breathing(Respiratory)/Manual Ventilation and MHI.pdf</t>
+  </si>
+  <si>
+    <t>Drugs/noradrenaline (peripheral).pdf</t>
+  </si>
+  <si>
     <t>Drugs/phenylephrine.pdf</t>
   </si>
   <si>
-    <t>Breathing(Respiratory)/Manual Ventilation and MHI.pdf</t>
-  </si>
-  <si>
-    <t>Neurological/Ventriculitis Guideline.pdf</t>
-  </si>
-  <si>
-    <t>Drugs/Epoprostenol.pdf</t>
-  </si>
-  <si>
-    <t>Drugs/noradrenaline (peripheral).pdf</t>
+    <t>Cardiovascular/Pulmonary_Embolism_and_DVT/Catheter directed thrombolysis of iliofemoral DVT alteplase_pub.pdf</t>
+  </si>
+  <si>
+    <t>Drugs/calcium.pdf</t>
   </si>
   <si>
     <t>Cardiovascular/Cardiac Output Monitoring_pub .pdf</t>
   </si>
   <si>
-    <t>Drugs/calcium.pdf</t>
-  </si>
-  <si>
-    <t>Cardiovascular/Pulmonary_Embolism_and_DVT/Catheter directed thrombolysis of iliofemoral DVT alteplase_pub.pdf</t>
+    <t>Drugs/atracurium.pdf</t>
   </si>
   <si>
     <t>Drugs/dalteparin_thromboprophylaxis.pdf</t>
@@ -499,18 +496,15 @@
     <t>Airway/Tracheostomy_Laryngectomy/Decannulation Guidline.pdf</t>
   </si>
   <si>
-    <t>Drugs/atracurium.pdf</t>
-  </si>
-  <si>
     <t>Drugs/valproate.pdf</t>
   </si>
   <si>
+    <t>Policies_and_admin/Pet Visitation.pdf</t>
+  </si>
+  <si>
     <t>Procedures/Inadvertent Catheter Placement Guideline.pdf</t>
   </si>
   <si>
-    <t>Policies_and_admin/Pet Visitation.pdf</t>
-  </si>
-  <si>
     <t>Drugs/Phosphate.pdf</t>
   </si>
   <si>
@@ -520,30 +514,30 @@
     <t>Drugs/stress ulcer prophylaxis.pdf</t>
   </si>
   <si>
+    <t>GI_Liver_and_Transplant/Prokinetics in ICU.pdf</t>
+  </si>
+  <si>
+    <t>Neurological/Status epilepticus.pdf</t>
+  </si>
+  <si>
+    <t>Drugs/Thiopentone.pdf</t>
+  </si>
+  <si>
     <t>Breathing(Respiratory)/Proning Guideline.pdf</t>
   </si>
   <si>
     <t>Drugs/Octreotide.pdf</t>
   </si>
   <si>
-    <t>Neurological/Status epilepticus.pdf</t>
-  </si>
-  <si>
-    <t>Drugs/Thiopentone.pdf</t>
-  </si>
-  <si>
-    <t>GI_Liver_and_Transplant/Prokinetics in ICU.pdf</t>
+    <t>Procedures/ACCPs acquiring initial CVC competencies.pdf</t>
+  </si>
+  <si>
+    <t>Procedures/ACCP CVC placement following completion of initial competencies.pdf</t>
   </si>
   <si>
     <t>Post_op_care/Prevention and treatment of paraplegia after major aortic procedures.pdf</t>
   </si>
   <si>
-    <t>Procedures/ACCPs acquiring initial CVC competencies.pdf</t>
-  </si>
-  <si>
-    <t>Procedures/ACCP CVC placement following completion of initial competencies.pdf</t>
-  </si>
-  <si>
     <t>Delirium/Violence and Agression.pdf</t>
   </si>
   <si>
@@ -553,16 +547,22 @@
     <t>GI_Liver_and_Transplant/Plasma exchange in Acute Liver Failure.pdf</t>
   </si>
   <si>
+    <t>Breathing(Respiratory)/Equipment/NIV through Drager Vent Set up in Critical Care.pdf</t>
+  </si>
+  <si>
     <t>End_of_life_care/Guideline following Sudden Cardiac Death where death occurs in ICU.pdf</t>
   </si>
   <si>
-    <t>Breathing(Respiratory)/Equipment/NIV through Drager Vent Set up in Critical Care.pdf</t>
-  </si>
-  <si>
     <t>Transfer/Transfer Guidelines.pdf</t>
   </si>
   <si>
-    <t>Breathing(Respiratory)/Equipment/NIV through Nihon Kohden  Setup.pdf</t>
+    <t>Breathing(Respiratory)/Equipment/Setting up the NKV-330.pdf</t>
+  </si>
+  <si>
+    <t>Breathing(Respiratory)/T1RF - CPAP Guidelines_Mar24.pdf</t>
+  </si>
+  <si>
+    <t>Breathing(Respiratory)/NKV 330 NIV guidelines.pdf</t>
   </si>
   <si>
     <t>Infection_and_sepsis/Influenza in Critical Care.pdf</t>
@@ -577,207 +577,204 @@
     <t>Policies_and_admin/Repatriaiton Checklist for Critical Care.pdf</t>
   </si>
   <si>
-    <t>2011-03-22</t>
-  </si>
-  <si>
-    <t>2011-06-22</t>
-  </si>
-  <si>
-    <t>2011-07-22</t>
-  </si>
-  <si>
-    <t>2011-12-22</t>
-  </si>
-  <si>
-    <t>2014-09-22</t>
-  </si>
-  <si>
-    <t>2014-10-22</t>
-  </si>
-  <si>
-    <t>2014-11-22</t>
-  </si>
-  <si>
-    <t>2014-12-22</t>
-  </si>
-  <si>
-    <t>2015-03-22</t>
-  </si>
-  <si>
-    <t>2016-01-22</t>
-  </si>
-  <si>
-    <t>2016-04-22</t>
-  </si>
-  <si>
-    <t>2016-08-22</t>
-  </si>
-  <si>
-    <t>2017-01-22</t>
-  </si>
-  <si>
-    <t>2017-08-22</t>
-  </si>
-  <si>
-    <t>2017-10-22</t>
-  </si>
-  <si>
-    <t>2017-11-22</t>
-  </si>
-  <si>
-    <t>2018-05-22</t>
-  </si>
-  <si>
-    <t>2018-07-22</t>
-  </si>
-  <si>
-    <t>2019-05-22</t>
-  </si>
-  <si>
-    <t>2019-06-22</t>
-  </si>
-  <si>
-    <t>2019-08-22</t>
-  </si>
-  <si>
-    <t>2019-09-22</t>
-  </si>
-  <si>
-    <t>2020-01-22</t>
-  </si>
-  <si>
-    <t>2020-03-22</t>
-  </si>
-  <si>
-    <t>2020-04-22</t>
-  </si>
-  <si>
-    <t>2020-05-22</t>
-  </si>
-  <si>
-    <t>2020-07-22</t>
-  </si>
-  <si>
-    <t>2020-08-22</t>
-  </si>
-  <si>
-    <t>2020-11-22</t>
-  </si>
-  <si>
-    <t>2021-02-22</t>
-  </si>
-  <si>
-    <t>2021-05-22</t>
-  </si>
-  <si>
-    <t>2021-06-22</t>
-  </si>
-  <si>
-    <t>2021-09-22</t>
-  </si>
-  <si>
-    <t>2021-12-22</t>
-  </si>
-  <si>
-    <t>2022-01-22</t>
-  </si>
-  <si>
-    <t>2022-03-22</t>
-  </si>
-  <si>
-    <t>2022-04-22</t>
-  </si>
-  <si>
-    <t>2022-05-22</t>
-  </si>
-  <si>
-    <t>2022-06-22</t>
-  </si>
-  <si>
-    <t>2022-07-22</t>
-  </si>
-  <si>
-    <t>2022-08-22</t>
-  </si>
-  <si>
-    <t>2022-10-22</t>
-  </si>
-  <si>
-    <t>2022-11-22</t>
-  </si>
-  <si>
-    <t>2022-12-22</t>
-  </si>
-  <si>
-    <t>2023-01-22</t>
-  </si>
-  <si>
-    <t>2023-02-22</t>
-  </si>
-  <si>
-    <t>2023-04-22</t>
-  </si>
-  <si>
-    <t>2023-05-22</t>
-  </si>
-  <si>
-    <t>2023-06-22</t>
-  </si>
-  <si>
-    <t>2023-07-22</t>
-  </si>
-  <si>
-    <t>2023-08-22</t>
-  </si>
-  <si>
-    <t>2023-09-22</t>
-  </si>
-  <si>
-    <t>2023-10-22</t>
-  </si>
-  <si>
-    <t>2024-01-22</t>
-  </si>
-  <si>
-    <t>2024-02-22</t>
-  </si>
-  <si>
-    <t>2024-03-22</t>
-  </si>
-  <si>
-    <t>2024-04-22</t>
-  </si>
-  <si>
-    <t>2024-05-22</t>
+    <t>2011-03-26</t>
+  </si>
+  <si>
+    <t>2011-06-26</t>
+  </si>
+  <si>
+    <t>2011-07-26</t>
+  </si>
+  <si>
+    <t>2011-12-26</t>
+  </si>
+  <si>
+    <t>2014-09-26</t>
+  </si>
+  <si>
+    <t>2014-10-26</t>
+  </si>
+  <si>
+    <t>2014-11-26</t>
+  </si>
+  <si>
+    <t>2014-12-26</t>
+  </si>
+  <si>
+    <t>2015-03-26</t>
+  </si>
+  <si>
+    <t>2016-01-26</t>
+  </si>
+  <si>
+    <t>2016-04-26</t>
+  </si>
+  <si>
+    <t>2016-08-26</t>
+  </si>
+  <si>
+    <t>2017-01-26</t>
+  </si>
+  <si>
+    <t>2017-08-26</t>
+  </si>
+  <si>
+    <t>2017-10-26</t>
+  </si>
+  <si>
+    <t>2017-11-26</t>
+  </si>
+  <si>
+    <t>2018-05-26</t>
+  </si>
+  <si>
+    <t>2018-07-26</t>
+  </si>
+  <si>
+    <t>2019-05-26</t>
+  </si>
+  <si>
+    <t>2019-06-26</t>
+  </si>
+  <si>
+    <t>2019-08-26</t>
+  </si>
+  <si>
+    <t>2019-09-26</t>
+  </si>
+  <si>
+    <t>2020-01-26</t>
+  </si>
+  <si>
+    <t>2020-03-26</t>
+  </si>
+  <si>
+    <t>2020-04-26</t>
+  </si>
+  <si>
+    <t>2020-05-26</t>
+  </si>
+  <si>
+    <t>2020-07-26</t>
+  </si>
+  <si>
+    <t>2020-08-26</t>
+  </si>
+  <si>
+    <t>2020-11-26</t>
+  </si>
+  <si>
+    <t>2021-02-26</t>
+  </si>
+  <si>
+    <t>2021-05-26</t>
+  </si>
+  <si>
+    <t>2021-06-26</t>
+  </si>
+  <si>
+    <t>2021-09-26</t>
+  </si>
+  <si>
+    <t>2021-12-26</t>
+  </si>
+  <si>
+    <t>2022-01-26</t>
+  </si>
+  <si>
+    <t>2022-03-26</t>
+  </si>
+  <si>
+    <t>2022-04-26</t>
+  </si>
+  <si>
+    <t>2022-05-26</t>
+  </si>
+  <si>
+    <t>2022-06-26</t>
+  </si>
+  <si>
+    <t>2022-07-26</t>
+  </si>
+  <si>
+    <t>2022-08-26</t>
+  </si>
+  <si>
+    <t>2022-10-26</t>
+  </si>
+  <si>
+    <t>2022-11-26</t>
+  </si>
+  <si>
+    <t>2022-12-26</t>
+  </si>
+  <si>
+    <t>2023-01-26</t>
+  </si>
+  <si>
+    <t>2023-02-26</t>
+  </si>
+  <si>
+    <t>2023-04-26</t>
+  </si>
+  <si>
+    <t>2023-05-26</t>
+  </si>
+  <si>
+    <t>2023-06-26</t>
+  </si>
+  <si>
+    <t>2023-07-26</t>
+  </si>
+  <si>
+    <t>2023-08-26</t>
+  </si>
+  <si>
+    <t>2023-09-26</t>
+  </si>
+  <si>
+    <t>2023-10-26</t>
+  </si>
+  <si>
+    <t>2024-01-26</t>
+  </si>
+  <si>
+    <t>2024-02-26</t>
+  </si>
+  <si>
+    <t>2024-03-26</t>
+  </si>
+  <si>
+    <t>2024-04-26</t>
+  </si>
+  <si>
+    <t>2024-05-26</t>
   </si>
   <si>
     <t>2024-06-02</t>
   </si>
   <si>
-    <t>2024-06-22</t>
-  </si>
-  <si>
     <t>2024-06-26</t>
   </si>
   <si>
-    <t>2024-07-22</t>
-  </si>
-  <si>
     <t>2024-07-25</t>
   </si>
   <si>
+    <t>2024-07-26</t>
+  </si>
+  <si>
     <t>2024-08-15</t>
   </si>
   <si>
-    <t>2024-08-22</t>
-  </si>
-  <si>
-    <t>2024-10-22</t>
+    <t>2024-08-26</t>
   </si>
   <si>
     <t>2024-10-24</t>
   </si>
   <si>
+    <t>2024-10-26</t>
+  </si>
+  <si>
     <t>2024-11-20</t>
   </si>
   <si>
@@ -787,70 +784,73 @@
     <t>2024-12-24</t>
   </si>
   <si>
-    <t>2025-01-22</t>
-  </si>
-  <si>
-    <t>2025-02-22</t>
-  </si>
-  <si>
-    <t>2025-03-22</t>
-  </si>
-  <si>
-    <t>2025-04-22</t>
-  </si>
-  <si>
-    <t>2025-05-22</t>
-  </si>
-  <si>
-    <t>2025-06-22</t>
-  </si>
-  <si>
-    <t>2025-07-22</t>
-  </si>
-  <si>
-    <t>2025-08-22</t>
-  </si>
-  <si>
-    <t>2025-10-22</t>
-  </si>
-  <si>
-    <t>2025-11-22</t>
-  </si>
-  <si>
-    <t>2026-01-22</t>
-  </si>
-  <si>
-    <t>2026-03-22</t>
-  </si>
-  <si>
-    <t>2026-05-22</t>
-  </si>
-  <si>
-    <t>2026-07-22</t>
-  </si>
-  <si>
-    <t>2026-11-22</t>
-  </si>
-  <si>
-    <t>2027-01-22</t>
-  </si>
-  <si>
-    <t>2027-02-22</t>
-  </si>
-  <si>
-    <t>2028-02-22</t>
-  </si>
-  <si>
-    <t>2028-05-22</t>
-  </si>
-  <si>
-    <t>2028-07-22</t>
-  </si>
-  <si>
-    <t>2028-11-22</t>
-  </si>
-  <si>
-    <t>2030-11-22</t>
+    <t>2025-01-26</t>
+  </si>
+  <si>
+    <t>2025-02-26</t>
+  </si>
+  <si>
+    <t>2025-03-26</t>
+  </si>
+  <si>
+    <t>2025-04-26</t>
+  </si>
+  <si>
+    <t>2025-05-26</t>
+  </si>
+  <si>
+    <t>2025-06-26</t>
+  </si>
+  <si>
+    <t>2025-07-26</t>
+  </si>
+  <si>
+    <t>2025-08-26</t>
+  </si>
+  <si>
+    <t>2025-10-26</t>
+  </si>
+  <si>
+    <t>2025-11-26</t>
+  </si>
+  <si>
+    <t>2026-01-26</t>
+  </si>
+  <si>
+    <t>2026-03-26</t>
+  </si>
+  <si>
+    <t>2026-05-26</t>
+  </si>
+  <si>
+    <t>2026-07-26</t>
+  </si>
+  <si>
+    <t>2026-11-26</t>
+  </si>
+  <si>
+    <t>2027-01-26</t>
+  </si>
+  <si>
+    <t>2027-02-26</t>
+  </si>
+  <si>
+    <t>2028-02-26</t>
+  </si>
+  <si>
+    <t>2028-03-26</t>
+  </si>
+  <si>
+    <t>2028-05-26</t>
+  </si>
+  <si>
+    <t>2028-07-26</t>
+  </si>
+  <si>
+    <t>2028-11-26</t>
+  </si>
+  <si>
+    <t>2030-11-26</t>
   </si>
 </sst>
 </file>
@@ -1883,7 +1883,7 @@
         <v>84</v>
       </c>
       <c r="B84" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="85" spans="1:2">
@@ -1891,7 +1891,7 @@
         <v>85</v>
       </c>
       <c r="B85" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="86" spans="1:2">
@@ -1899,7 +1899,7 @@
         <v>86</v>
       </c>
       <c r="B86" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="87" spans="1:2">
@@ -1907,7 +1907,7 @@
         <v>87</v>
       </c>
       <c r="B87" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
     </row>
     <row r="88" spans="1:2">
@@ -1915,7 +1915,7 @@
         <v>88</v>
       </c>
       <c r="B88" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="89" spans="1:2">
@@ -1923,7 +1923,7 @@
         <v>89</v>
       </c>
       <c r="B89" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="90" spans="1:2">
@@ -1931,7 +1931,7 @@
         <v>90</v>
       </c>
       <c r="B90" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
     </row>
     <row r="91" spans="1:2">
@@ -1939,7 +1939,7 @@
         <v>91</v>
       </c>
       <c r="B91" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="92" spans="1:2">
@@ -1947,7 +1947,7 @@
         <v>92</v>
       </c>
       <c r="B92" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="93" spans="1:2">
@@ -1955,7 +1955,7 @@
         <v>93</v>
       </c>
       <c r="B93" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="94" spans="1:2">
@@ -1987,7 +1987,7 @@
         <v>97</v>
       </c>
       <c r="B97" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="98" spans="1:2">
@@ -1995,7 +1995,7 @@
         <v>98</v>
       </c>
       <c r="B98" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="99" spans="1:2">
@@ -2003,7 +2003,7 @@
         <v>99</v>
       </c>
       <c r="B99" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
     </row>
     <row r="100" spans="1:2">
@@ -2011,7 +2011,7 @@
         <v>100</v>
       </c>
       <c r="B100" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
     </row>
     <row r="101" spans="1:2">
@@ -2091,7 +2091,7 @@
         <v>110</v>
       </c>
       <c r="B110" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="111" spans="1:2">
@@ -2099,7 +2099,7 @@
         <v>111</v>
       </c>
       <c r="B111" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
     </row>
     <row r="112" spans="1:2">
@@ -2107,7 +2107,7 @@
         <v>112</v>
       </c>
       <c r="B112" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="113" spans="1:2">
@@ -2115,7 +2115,7 @@
         <v>113</v>
       </c>
       <c r="B113" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
     </row>
     <row r="114" spans="1:2">
@@ -2123,7 +2123,7 @@
         <v>114</v>
       </c>
       <c r="B114" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
     </row>
     <row r="115" spans="1:2">
@@ -2163,7 +2163,7 @@
         <v>119</v>
       </c>
       <c r="B119" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
     </row>
     <row r="120" spans="1:2">
@@ -2171,7 +2171,7 @@
         <v>120</v>
       </c>
       <c r="B120" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="121" spans="1:2">
@@ -2187,7 +2187,7 @@
         <v>122</v>
       </c>
       <c r="B122" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="123" spans="1:2">
@@ -2203,7 +2203,7 @@
         <v>124</v>
       </c>
       <c r="B124" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
     </row>
     <row r="125" spans="1:2">
@@ -2219,7 +2219,7 @@
         <v>126</v>
       </c>
       <c r="B126" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
     </row>
     <row r="127" spans="1:2">
@@ -2227,7 +2227,7 @@
         <v>127</v>
       </c>
       <c r="B127" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
     <row r="128" spans="1:2">
@@ -2251,7 +2251,7 @@
         <v>130</v>
       </c>
       <c r="B130" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="131" spans="1:2">
@@ -2267,7 +2267,7 @@
         <v>132</v>
       </c>
       <c r="B132" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="133" spans="1:2">
@@ -2291,7 +2291,7 @@
         <v>135</v>
       </c>
       <c r="B135" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="136" spans="1:2">
@@ -2331,7 +2331,7 @@
         <v>140</v>
       </c>
       <c r="B140" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="141" spans="1:2">
@@ -2339,7 +2339,7 @@
         <v>141</v>
       </c>
       <c r="B141" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="142" spans="1:2">
@@ -2363,7 +2363,7 @@
         <v>144</v>
       </c>
       <c r="B144" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="145" spans="1:2">
@@ -2371,7 +2371,7 @@
         <v>145</v>
       </c>
       <c r="B145" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="146" spans="1:2">
@@ -2379,7 +2379,7 @@
         <v>146</v>
       </c>
       <c r="B146" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="147" spans="1:2">
@@ -2403,7 +2403,7 @@
         <v>149</v>
       </c>
       <c r="B149" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="150" spans="1:2">
@@ -2411,7 +2411,7 @@
         <v>150</v>
       </c>
       <c r="B150" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="151" spans="1:2">
@@ -2419,7 +2419,7 @@
         <v>151</v>
       </c>
       <c r="B151" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="152" spans="1:2">
@@ -2427,7 +2427,7 @@
         <v>152</v>
       </c>
       <c r="B152" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="153" spans="1:2">
@@ -2451,7 +2451,7 @@
         <v>155</v>
       </c>
       <c r="B155" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="156" spans="1:2">
@@ -2475,7 +2475,7 @@
         <v>158</v>
       </c>
       <c r="B158" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="159" spans="1:2">
@@ -2483,7 +2483,7 @@
         <v>159</v>
       </c>
       <c r="B159" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="160" spans="1:2">
@@ -2507,7 +2507,7 @@
         <v>162</v>
       </c>
       <c r="B162" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="163" spans="1:2">
@@ -2531,7 +2531,7 @@
         <v>165</v>
       </c>
       <c r="B165" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="166" spans="1:2">
@@ -2555,7 +2555,7 @@
         <v>168</v>
       </c>
       <c r="B168" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="169" spans="1:2">
@@ -2563,7 +2563,7 @@
         <v>169</v>
       </c>
       <c r="B169" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="170" spans="1:2">
@@ -2571,7 +2571,7 @@
         <v>170</v>
       </c>
       <c r="B170" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="171" spans="1:2">
@@ -2595,7 +2595,7 @@
         <v>173</v>
       </c>
       <c r="B173" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="174" spans="1:2">
@@ -2611,7 +2611,7 @@
         <v>175</v>
       </c>
       <c r="B175" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="176" spans="1:2">
@@ -2619,7 +2619,7 @@
         <v>176</v>
       </c>
       <c r="B176" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
     </row>
     <row r="177" spans="1:2">
@@ -2627,7 +2627,7 @@
         <v>177</v>
       </c>
       <c r="B177" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
     </row>
     <row r="178" spans="1:2">
@@ -2651,7 +2651,7 @@
         <v>180</v>
       </c>
       <c r="B180" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
     </row>
     <row r="181" spans="1:2">
@@ -2659,7 +2659,7 @@
         <v>181</v>
       </c>
       <c r="B181" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
     </row>
     <row r="182" spans="1:2">

--- a/lothiancriticalcare/1a74f8f7b8b7e871b413c4697f68b4401fbacdf0/reviewdates.xlsx
+++ b/lothiancriticalcare/1a74f8f7b8b7e871b413c4697f68b4401fbacdf0/reviewdates.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="279">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="280">
   <si>
     <t>File</t>
   </si>
@@ -64,12 +64,12 @@
     <t>Routine_Care/Tracheostomy_nursing_care.pdf</t>
   </si>
   <si>
+    <t>ECLS/Extra Corporeal Carbon Dioxide Removal.pdf</t>
+  </si>
+  <si>
     <t>Airway/Critical care extubation checklist.pdf</t>
   </si>
   <si>
-    <t>ECLS/Extra Corporeal Carbon Dioxide Removal.pdf</t>
-  </si>
-  <si>
     <t>Airway/Tracheostomy_Laryngectomy/Hospital_in-patients_with_a_Tracheostomy.pdf</t>
   </si>
   <si>
@@ -79,10 +79,13 @@
     <t>Drugs/diazepam_diazemuls.pdf</t>
   </si>
   <si>
+    <t>End_of_life_care/Reasons to report a death to PF.pdf</t>
+  </si>
+  <si>
     <t>Breathing(Respiratory)/salbutamol and ipratroprium MDI.pdf</t>
   </si>
   <si>
-    <t>End_of_life_care/Reasons to report a death to PF.pdf</t>
+    <t>Airway/Tracheostomy_Laryngectomy/Tracheostomy suctioning cleaning guideline.pdf</t>
   </si>
   <si>
     <t>Airway/Tracheostomy_Laryngectomy/Tracheostomy change in Critical Care.pdf</t>
@@ -91,9 +94,6 @@
     <t>Neurological/SOP -  Femoral site care.pdf</t>
   </si>
   <si>
-    <t>Airway/Tracheostomy_Laryngectomy/Tracheostomy suctioning cleaning guideline.pdf</t>
-  </si>
-  <si>
     <t>Drugs/sodium_bicarbonate.pdf</t>
   </si>
   <si>
@@ -103,24 +103,24 @@
     <t>Post_op_care/Epidural top-up.pdf</t>
   </si>
   <si>
+    <t>Airway/Emergency intubation checklist_em_pub.pdf</t>
+  </si>
+  <si>
+    <t>Covid-19/SJH/SJH COVID19 ED Intubation Action Card.pdf</t>
+  </si>
+  <si>
+    <t>Covid-19/WGH/CoVid intubation checklist WGH.pdf</t>
+  </si>
+  <si>
+    <t>Diabetes_and_Glucose/Hyperosmolar Hyperglycaemic State.pdf</t>
+  </si>
+  <si>
+    <t>Drugs/heparin for Haemofiltration.pdf</t>
+  </si>
+  <si>
     <t>Covid-19/SJH/SJH COVID19 ITU Intubation Action Card.pdf</t>
   </si>
   <si>
-    <t>Diabetes_and_Glucose/Hyperosmolar Hyperglycaemic State.pdf</t>
-  </si>
-  <si>
-    <t>Drugs/heparin for Haemofiltration.pdf</t>
-  </si>
-  <si>
-    <t>Covid-19/SJH/SJH COVID19 ED Intubation Action Card.pdf</t>
-  </si>
-  <si>
-    <t>Covid-19/WGH/CoVid intubation checklist WGH.pdf</t>
-  </si>
-  <si>
-    <t>Airway/Emergency intubation checklist_em_pub.pdf</t>
-  </si>
-  <si>
     <t>Drugs/fentanyl.pdf</t>
   </si>
   <si>
@@ -139,42 +139,42 @@
     <t>Airway/Percutaneous tracheostomy checklist.pdf</t>
   </si>
   <si>
+    <t>Infection_and_sepsis/SOP Ultrasound Cleaning.pdf</t>
+  </si>
+  <si>
+    <t>Delirium/Managing a Potentially Violent Patient.pdf</t>
+  </si>
+  <si>
     <t>Delirium/Risk assessment posi mit.pdf</t>
   </si>
   <si>
-    <t>Infection_and_sepsis/SOP Ultrasound Cleaning.pdf</t>
-  </si>
-  <si>
-    <t>Delirium/Managing a Potentially Violent Patient.pdf</t>
+    <t>Delirium/Drugs Causing Delirium and Agitiation.pdf</t>
+  </si>
+  <si>
+    <t>Airway/McGrath Mac.pdf</t>
+  </si>
+  <si>
+    <t>Airway/Anticipated difficult airway tool.pdf</t>
+  </si>
+  <si>
+    <t>Neurological/Sub arachnoid haemorrhage management.pdf</t>
+  </si>
+  <si>
+    <t>Breathing(Respiratory)/HFNO.pdf</t>
+  </si>
+  <si>
+    <t>GI_Liver_and_Transplant/Treatment of constipation.pdf</t>
+  </si>
+  <si>
+    <t>GI_Liver_and_Transplant/Abdominal pressure measurement.pdf</t>
   </si>
   <si>
     <t>Drugs/ketamine_in_asthma.pdf</t>
   </si>
   <si>
-    <t>GI_Liver_and_Transplant/Treatment of constipation.pdf</t>
-  </si>
-  <si>
-    <t>GI_Liver_and_Transplant/Abdominal pressure measurement.pdf</t>
-  </si>
-  <si>
-    <t>Neurological/Sub arachnoid haemorrhage management.pdf</t>
-  </si>
-  <si>
-    <t>Delirium/Drugs Causing Delirium and Agitiation.pdf</t>
-  </si>
-  <si>
-    <t>Breathing(Respiratory)/HFNO.pdf</t>
-  </si>
-  <si>
-    <t>Airway/Anticipated difficult airway tool.pdf</t>
-  </si>
-  <si>
     <t>Airway/Tracheostomy_Laryngectomy/Tracheostomy safety box contents.pdf</t>
   </si>
   <si>
-    <t>Airway/McGrath Mac.pdf</t>
-  </si>
-  <si>
     <t>End_of_life_care/Documentation following death.pdf</t>
   </si>
   <si>
@@ -199,12 +199,12 @@
     <t>Cardiovascular/Steroids for Septic Shock.pdf</t>
   </si>
   <si>
+    <t>Breathing(Respiratory)/Equipment/T piece Y piece.pdf</t>
+  </si>
+  <si>
     <t>Post_op_care/Epidural Haematoma.pdf</t>
   </si>
   <si>
-    <t>Breathing(Respiratory)/Equipment/T piece Y piece.pdf</t>
-  </si>
-  <si>
     <t>Neurological/SOP for review of Neurosurgical patients in ITU by neurosurgical team.pdf</t>
   </si>
   <si>
@@ -229,21 +229,21 @@
     <t>GI_Liver_and_Transplant/Nasogastric feeding protocol.pdf</t>
   </si>
   <si>
+    <t>Diabetes_and_Glucose/Intravenous Insulin Therapy (not for DKA or HHS).pdf</t>
+  </si>
+  <si>
     <t>Drugs/Antibiotic doses in CVVHD.pdf</t>
   </si>
   <si>
-    <t>Diabetes_and_Glucose/Intravenous Insulin Therapy (not for DKA or HHS).pdf</t>
+    <t>GI_Liver_and_Transplant/Jejunostomy feeding protocol.pdf</t>
+  </si>
+  <si>
+    <t>GI_Liver_and_Transplant/Nasojejunal feeding protocol.pdf</t>
   </si>
   <si>
     <t>ECLS/RIE ECLS Anti Xa Protocol.pdf</t>
   </si>
   <si>
-    <t>GI_Liver_and_Transplant/Jejunostomy feeding protocol.pdf</t>
-  </si>
-  <si>
-    <t>GI_Liver_and_Transplant/Nasojejunal feeding protocol.pdf</t>
-  </si>
-  <si>
     <t>Drugs/vasopressin organ donation.pdf</t>
   </si>
   <si>
@@ -253,27 +253,27 @@
     <t>Drugs/vasopressin_sepsis.pdf</t>
   </si>
   <si>
+    <t>Covid-19/videos/Donning and Doffing Video.pdf</t>
+  </si>
+  <si>
     <t>Transfer/ACCP Transfers.pdf</t>
   </si>
   <si>
-    <t>Covid-19/videos/Donning and Doffing Video.pdf</t>
-  </si>
-  <si>
     <t>Breathing(Respiratory)/Equipment/Ventilators Circuits Filters and Closed Suction - Set up and Maintenance.pdf</t>
   </si>
   <si>
+    <t>Infection_and_sepsis/Infection indications for IVIG.pdf</t>
+  </si>
+  <si>
     <t>Drugs/piperacillin_tazobactam extended_infusion.pdf</t>
   </si>
   <si>
-    <t>Infection_and_sepsis/Infection indications for IVIG.pdf</t>
+    <t>Procedures/CVC Guidance/Securing CVCs.pdf</t>
   </si>
   <si>
     <t>Covid-19/Covid 19 Death Certification Guideline.pdf</t>
   </si>
   <si>
-    <t>Procedures/CVC Guidance/Securing CVCs.pdf</t>
-  </si>
-  <si>
     <t>Routine_Care/Video Communication.pdf</t>
   </si>
   <si>
@@ -286,114 +286,117 @@
     <t>Haematology_CAR-T/Haem_ICU_transfer.pdf</t>
   </si>
   <si>
+    <t>Cardiovascular/Management of hypertension within Critical Care.pdf</t>
+  </si>
+  <si>
     <t>Drugs/aminophylline.pdf</t>
   </si>
   <si>
-    <t>Cardiovascular/Management of hypertension within Critical Care.pdf</t>
+    <t>Drugs/rocuronium.pdf</t>
   </si>
   <si>
     <t>Haematology_CAR-T/ICANS.pdf</t>
   </si>
   <si>
+    <t>Drugs/phenytoin.pdf</t>
+  </si>
+  <si>
     <t>Drugs/pancuronium.pdf</t>
   </si>
   <si>
     <t>Haematology_CAR-T/CRS.pdf</t>
   </si>
   <si>
-    <t>Drugs/rocuronium.pdf</t>
-  </si>
-  <si>
-    <t>Drugs/phenytoin.pdf</t>
-  </si>
-  <si>
     <t>Drugs/milrinone.pdf</t>
   </si>
   <si>
     <t>Policies_and_admin/General Critical Care SOP_pub.pdf</t>
   </si>
   <si>
+    <t>Neurological/Management of traumatic brain injury.pdf</t>
+  </si>
+  <si>
+    <t>Organ_donation/Organ Retrieval SOP.pdf</t>
+  </si>
+  <si>
+    <t>Drugs/clonidine.pdf</t>
+  </si>
+  <si>
+    <t>Infection_and_sepsis/Trip Out of Unit infection guidance.pdf</t>
+  </si>
+  <si>
+    <t>Covid-19/COVID 19 ICM guidance basic goals_June_2022.pdf</t>
+  </si>
+  <si>
     <t>Neurological/Critical Care MRI Procedure_pub.pdf</t>
   </si>
   <si>
-    <t>Organ_donation/Organ Retrieval SOP.pdf</t>
-  </si>
-  <si>
-    <t>Neurological/Management of traumatic brain injury.pdf</t>
-  </si>
-  <si>
-    <t>Infection_and_sepsis/Trip Out of Unit infection guidance.pdf</t>
-  </si>
-  <si>
-    <t>Drugs/clonidine.pdf</t>
-  </si>
-  <si>
-    <t>Covid-19/COVID 19 ICM guidance basic goals_June_2022.pdf</t>
-  </si>
-  <si>
     <t>Ethics_and_Law/Care at the End of Life (FICM).pdf</t>
   </si>
   <si>
     <t>Ethics_and_Law/DNACPR policy for Scotland.pdf</t>
   </si>
   <si>
+    <t>End_of_life_care/Palliative extubation &amp; withdrawal of invasive ventilatory support nursing checklist.pdf</t>
+  </si>
+  <si>
+    <t>End_of_life_care/CMO &amp; NRS Guidance for Doctors completing MCCD.pdf</t>
+  </si>
+  <si>
     <t>GI_Liver_and_Transplant/ICU - Upper GI bleeding (Endoscopy guideline).pdf</t>
   </si>
   <si>
-    <t>End_of_life_care/CMO &amp; NRS Guidance for Doctors completing MCCD.pdf</t>
-  </si>
-  <si>
-    <t>End_of_life_care/Palliative extubation &amp; withdrawal of invasive ventilatory support nursing checklist.pdf</t>
-  </si>
-  <si>
     <t>Airway/Cook Staged Extubation Set.pdf</t>
   </si>
   <si>
+    <t>End_of_life_care/End of Life Care Guideline for Critical Care.pdf</t>
+  </si>
+  <si>
+    <t>Post_op_care/Epidural hypotension.pdf</t>
+  </si>
+  <si>
     <t>Drugs/noradrenaline (central).pdf</t>
   </si>
   <si>
-    <t>Post_op_care/Epidural hypotension.pdf</t>
-  </si>
-  <si>
     <t>Infection_and_sepsis/Antifungal guidance in critical care.pdf</t>
   </si>
   <si>
+    <t>Drugs/dexmedetomidine.pdf</t>
+  </si>
+  <si>
+    <t>Drugs/glyceryl_trinitrate.pdf</t>
+  </si>
+  <si>
+    <t>GI_Liver_and_Transplant/Confirmation of Nasogastric Tube Position.pdf</t>
+  </si>
+  <si>
     <t>Breathing(Respiratory)/Equipment/Passy Muir Valve.pdf</t>
   </si>
   <si>
     <t>GI_Liver_and_Transplant/Fulminant Liver Failure.pdf</t>
   </si>
   <si>
-    <t>GI_Liver_and_Transplant/Confirmation of Nasogastric Tube Position.pdf</t>
-  </si>
-  <si>
-    <t>Drugs/dexmedetomidine.pdf</t>
-  </si>
-  <si>
-    <t>Drugs/glyceryl_trinitrate.pdf</t>
-  </si>
-  <si>
     <t>Breathing(Respiratory)/ARDS Strategy.pdf</t>
   </si>
   <si>
+    <t>Cardiovascular/Intra Aortic Balloon Pump Guideline_pub.pdf</t>
+  </si>
+  <si>
+    <t>Cardiovascular/Intra Aortic Balloon Pump Bedside Checks_pub.pdf</t>
+  </si>
+  <si>
     <t>Transfer/Transfer Outdoors to Garden Guideline.pdf</t>
   </si>
   <si>
-    <t>Cardiovascular/Intra Aortic Balloon Pump Bedside Checks_pub.pdf</t>
-  </si>
-  <si>
-    <t>Cardiovascular/Intra Aortic Balloon Pump Guideline_pub.pdf</t>
-  </si>
-  <si>
     <t>Drugs/hydralazine.pdf</t>
   </si>
   <si>
+    <t>Drugs/dobutamine.pdf</t>
+  </si>
+  <si>
     <t>Drugs/adrenaline.pdf</t>
   </si>
   <si>
-    <t>Drugs/dobutamine.pdf</t>
-  </si>
-  <si>
     <t>Post_op_care/Major OMFS Free Flap.pdf</t>
   </si>
   <si>
@@ -424,10 +427,16 @@
     <t>Drugs/labetalol.pdf</t>
   </si>
   <si>
+    <t>Drugs/midazolam.pdf</t>
+  </si>
+  <si>
     <t>Cardiovascular/Management of Acute Type B Aortic Dissection Guideline.pdf</t>
   </si>
   <si>
-    <t>Drugs/midazolam.pdf</t>
+    <t>Procedures/CVC Guidance/CVC NHL  April 2023.pdf</t>
+  </si>
+  <si>
+    <t>Drugs/salbutamol.pdf</t>
   </si>
   <si>
     <t>Drugs/potassium.pdf</t>
@@ -436,105 +445,99 @@
     <t>Drugs/nimodipine.pdf</t>
   </si>
   <si>
-    <t>Procedures/CVC Guidance/CVC NHL  April 2023.pdf</t>
-  </si>
-  <si>
-    <t>Drugs/salbutamol.pdf</t>
+    <t>Routine_Care/ICU Eye Care Guideline.pdf</t>
+  </si>
+  <si>
+    <t>Procedures/Arterial Line insertion for ACCPs.pdf</t>
+  </si>
+  <si>
+    <t>Drugs/phenobarbitone.pdf</t>
+  </si>
+  <si>
+    <t>Drugs/nicardipine.pdf</t>
   </si>
   <si>
     <t>Drugs/amiodarone.pdf</t>
   </si>
   <si>
-    <t>Drugs/phenobarbitone.pdf</t>
-  </si>
-  <si>
-    <t>Procedures/Arterial Line insertion for ACCPs.pdf</t>
-  </si>
-  <si>
-    <t>Routine_Care/ICU Eye Care Guideline.pdf</t>
-  </si>
-  <si>
-    <t>Drugs/nicardipine.pdf</t>
+    <t>Breathing(Respiratory)/Manual Ventilation and MHI.pdf</t>
+  </si>
+  <si>
+    <t>Drugs/morphine.pdf</t>
+  </si>
+  <si>
+    <t>Neurological/Ventriculitis Guideline.pdf</t>
+  </si>
+  <si>
+    <t>Drugs/phenylephrine.pdf</t>
   </si>
   <si>
     <t>Drugs/Epoprostenol.pdf</t>
   </si>
   <si>
-    <t>Neurological/Ventriculitis Guideline.pdf</t>
-  </si>
-  <si>
-    <t>Drugs/morphine.pdf</t>
-  </si>
-  <si>
-    <t>Breathing(Respiratory)/Manual Ventilation and MHI.pdf</t>
-  </si>
-  <si>
     <t>Drugs/noradrenaline (peripheral).pdf</t>
   </si>
   <si>
-    <t>Drugs/phenylephrine.pdf</t>
+    <t>Drugs/calcium.pdf</t>
+  </si>
+  <si>
+    <t>Cardiovascular/Cardiac Output Monitoring_pub .pdf</t>
   </si>
   <si>
     <t>Cardiovascular/Pulmonary_Embolism_and_DVT/Catheter directed thrombolysis of iliofemoral DVT alteplase_pub.pdf</t>
   </si>
   <si>
-    <t>Drugs/calcium.pdf</t>
-  </si>
-  <si>
-    <t>Cardiovascular/Cardiac Output Monitoring_pub .pdf</t>
-  </si>
-  <si>
     <t>Drugs/atracurium.pdf</t>
   </si>
   <si>
+    <t>Drugs/Vancomycin Continuous Infusion Fluid Restricted.pdf</t>
+  </si>
+  <si>
     <t>Drugs/dalteparin_thromboprophylaxis.pdf</t>
   </si>
   <si>
-    <t>Drugs/Vancomycin Continuous Infusion Fluid Restricted.pdf</t>
-  </si>
-  <si>
     <t>Airway/Tracheostomy_Laryngectomy/Decannulation Guidline.pdf</t>
   </si>
   <si>
+    <t>Policies_and_admin/Pet Visitation.pdf</t>
+  </si>
+  <si>
     <t>Drugs/valproate.pdf</t>
   </si>
   <si>
-    <t>Policies_and_admin/Pet Visitation.pdf</t>
-  </si>
-  <si>
     <t>Procedures/Inadvertent Catheter Placement Guideline.pdf</t>
   </si>
   <si>
     <t>Drugs/Phosphate.pdf</t>
   </si>
   <si>
+    <t>Drugs/stress ulcer prophylaxis.pdf</t>
+  </si>
+  <si>
     <t>Drugs/ketamine_for_status epilepticus.pdf</t>
   </si>
   <si>
-    <t>Drugs/stress ulcer prophylaxis.pdf</t>
+    <t>Drugs/Thiopentone.pdf</t>
+  </si>
+  <si>
+    <t>Drugs/Octreotide.pdf</t>
+  </si>
+  <si>
+    <t>Breathing(Respiratory)/Proning Guideline.pdf</t>
+  </si>
+  <si>
+    <t>Neurological/Status epilepticus.pdf</t>
   </si>
   <si>
     <t>GI_Liver_and_Transplant/Prokinetics in ICU.pdf</t>
   </si>
   <si>
-    <t>Neurological/Status epilepticus.pdf</t>
-  </si>
-  <si>
-    <t>Drugs/Thiopentone.pdf</t>
-  </si>
-  <si>
-    <t>Breathing(Respiratory)/Proning Guideline.pdf</t>
-  </si>
-  <si>
-    <t>Drugs/Octreotide.pdf</t>
+    <t>Procedures/ACCP CVC placement following completion of initial competencies.pdf</t>
   </si>
   <si>
     <t>Procedures/ACCPs acquiring initial CVC competencies.pdf</t>
   </si>
   <si>
-    <t>Procedures/ACCP CVC placement following completion of initial competencies.pdf</t>
-  </si>
-  <si>
     <t>Post_op_care/Prevention and treatment of paraplegia after major aortic procedures.pdf</t>
   </si>
   <si>
@@ -547,10 +550,10 @@
     <t>GI_Liver_and_Transplant/Plasma exchange in Acute Liver Failure.pdf</t>
   </si>
   <si>
+    <t>End_of_life_care/Guideline following Sudden Cardiac Death where death occurs in ICU.pdf</t>
+  </si>
+  <si>
     <t>Breathing(Respiratory)/Equipment/NIV through Drager Vent Set up in Critical Care.pdf</t>
-  </si>
-  <si>
-    <t>End_of_life_care/Guideline following Sudden Cardiac Death where death occurs in ICU.pdf</t>
   </si>
   <si>
     <t>Transfer/Transfer Guidelines.pdf</t>
@@ -1208,7 +1211,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B186"/>
+  <dimension ref="A1:B187"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1227,7 +1230,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -1235,7 +1238,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -1243,7 +1246,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -1251,7 +1254,7 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -1259,7 +1262,7 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -1267,7 +1270,7 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -1275,7 +1278,7 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -1283,7 +1286,7 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -1291,7 +1294,7 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -1299,7 +1302,7 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -1307,7 +1310,7 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -1315,7 +1318,7 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -1323,7 +1326,7 @@
         <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -1331,7 +1334,7 @@
         <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -1339,7 +1342,7 @@
         <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -1347,7 +1350,7 @@
         <v>17</v>
       </c>
       <c r="B17" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -1355,7 +1358,7 @@
         <v>18</v>
       </c>
       <c r="B18" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -1363,7 +1366,7 @@
         <v>19</v>
       </c>
       <c r="B19" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -1371,7 +1374,7 @@
         <v>20</v>
       </c>
       <c r="B20" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -1379,7 +1382,7 @@
         <v>21</v>
       </c>
       <c r="B21" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -1387,7 +1390,7 @@
         <v>22</v>
       </c>
       <c r="B22" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -1395,7 +1398,7 @@
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -1403,7 +1406,7 @@
         <v>24</v>
       </c>
       <c r="B24" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -1411,7 +1414,7 @@
         <v>25</v>
       </c>
       <c r="B25" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -1419,7 +1422,7 @@
         <v>26</v>
       </c>
       <c r="B26" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -1427,7 +1430,7 @@
         <v>27</v>
       </c>
       <c r="B27" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -1435,7 +1438,7 @@
         <v>28</v>
       </c>
       <c r="B28" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -1443,7 +1446,7 @@
         <v>29</v>
       </c>
       <c r="B29" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -1451,7 +1454,7 @@
         <v>30</v>
       </c>
       <c r="B30" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -1459,7 +1462,7 @@
         <v>31</v>
       </c>
       <c r="B31" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -1467,7 +1470,7 @@
         <v>32</v>
       </c>
       <c r="B32" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -1475,7 +1478,7 @@
         <v>33</v>
       </c>
       <c r="B33" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -1483,7 +1486,7 @@
         <v>34</v>
       </c>
       <c r="B34" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -1491,7 +1494,7 @@
         <v>35</v>
       </c>
       <c r="B35" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -1499,7 +1502,7 @@
         <v>36</v>
       </c>
       <c r="B36" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -1507,7 +1510,7 @@
         <v>37</v>
       </c>
       <c r="B37" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -1515,7 +1518,7 @@
         <v>38</v>
       </c>
       <c r="B38" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -1523,7 +1526,7 @@
         <v>39</v>
       </c>
       <c r="B39" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -1531,7 +1534,7 @@
         <v>40</v>
       </c>
       <c r="B40" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -1539,7 +1542,7 @@
         <v>41</v>
       </c>
       <c r="B41" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -1547,7 +1550,7 @@
         <v>42</v>
       </c>
       <c r="B42" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -1555,7 +1558,7 @@
         <v>43</v>
       </c>
       <c r="B43" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -1563,7 +1566,7 @@
         <v>44</v>
       </c>
       <c r="B44" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -1571,7 +1574,7 @@
         <v>45</v>
       </c>
       <c r="B45" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -1579,7 +1582,7 @@
         <v>46</v>
       </c>
       <c r="B46" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -1587,7 +1590,7 @@
         <v>47</v>
       </c>
       <c r="B47" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -1595,7 +1598,7 @@
         <v>48</v>
       </c>
       <c r="B48" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -1603,7 +1606,7 @@
         <v>49</v>
       </c>
       <c r="B49" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -1611,7 +1614,7 @@
         <v>50</v>
       </c>
       <c r="B50" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -1619,7 +1622,7 @@
         <v>51</v>
       </c>
       <c r="B51" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -1627,7 +1630,7 @@
         <v>52</v>
       </c>
       <c r="B52" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -1635,7 +1638,7 @@
         <v>53</v>
       </c>
       <c r="B53" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
     </row>
     <row r="54" spans="1:2">
@@ -1643,7 +1646,7 @@
         <v>54</v>
       </c>
       <c r="B54" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
     </row>
     <row r="55" spans="1:2">
@@ -1651,7 +1654,7 @@
         <v>55</v>
       </c>
       <c r="B55" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
     <row r="56" spans="1:2">
@@ -1659,7 +1662,7 @@
         <v>56</v>
       </c>
       <c r="B56" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
     </row>
     <row r="57" spans="1:2">
@@ -1667,7 +1670,7 @@
         <v>57</v>
       </c>
       <c r="B57" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
     </row>
     <row r="58" spans="1:2">
@@ -1675,7 +1678,7 @@
         <v>58</v>
       </c>
       <c r="B58" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
     </row>
     <row r="59" spans="1:2">
@@ -1683,7 +1686,7 @@
         <v>59</v>
       </c>
       <c r="B59" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
     </row>
     <row r="60" spans="1:2">
@@ -1691,7 +1694,7 @@
         <v>60</v>
       </c>
       <c r="B60" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
     </row>
     <row r="61" spans="1:2">
@@ -1699,7 +1702,7 @@
         <v>61</v>
       </c>
       <c r="B61" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
     </row>
     <row r="62" spans="1:2">
@@ -1707,7 +1710,7 @@
         <v>62</v>
       </c>
       <c r="B62" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
     </row>
     <row r="63" spans="1:2">
@@ -1715,7 +1718,7 @@
         <v>63</v>
       </c>
       <c r="B63" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
     </row>
     <row r="64" spans="1:2">
@@ -1723,7 +1726,7 @@
         <v>64</v>
       </c>
       <c r="B64" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
     </row>
     <row r="65" spans="1:2">
@@ -1731,7 +1734,7 @@
         <v>65</v>
       </c>
       <c r="B65" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="66" spans="1:2">
@@ -1739,7 +1742,7 @@
         <v>66</v>
       </c>
       <c r="B66" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
     <row r="67" spans="1:2">
@@ -1747,7 +1750,7 @@
         <v>67</v>
       </c>
       <c r="B67" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="68" spans="1:2">
@@ -1755,7 +1758,7 @@
         <v>68</v>
       </c>
       <c r="B68" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="69" spans="1:2">
@@ -1763,7 +1766,7 @@
         <v>69</v>
       </c>
       <c r="B69" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
     <row r="70" spans="1:2">
@@ -1771,7 +1774,7 @@
         <v>70</v>
       </c>
       <c r="B70" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
     </row>
     <row r="71" spans="1:2">
@@ -1779,7 +1782,7 @@
         <v>71</v>
       </c>
       <c r="B71" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
     </row>
     <row r="72" spans="1:2">
@@ -1787,7 +1790,7 @@
         <v>72</v>
       </c>
       <c r="B72" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
     </row>
     <row r="73" spans="1:2">
@@ -1795,7 +1798,7 @@
         <v>73</v>
       </c>
       <c r="B73" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
     </row>
     <row r="74" spans="1:2">
@@ -1803,7 +1806,7 @@
         <v>74</v>
       </c>
       <c r="B74" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
     </row>
     <row r="75" spans="1:2">
@@ -1811,7 +1814,7 @@
         <v>75</v>
       </c>
       <c r="B75" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
     </row>
     <row r="76" spans="1:2">
@@ -1819,7 +1822,7 @@
         <v>76</v>
       </c>
       <c r="B76" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
     </row>
     <row r="77" spans="1:2">
@@ -1827,7 +1830,7 @@
         <v>77</v>
       </c>
       <c r="B77" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
     </row>
     <row r="78" spans="1:2">
@@ -1835,7 +1838,7 @@
         <v>78</v>
       </c>
       <c r="B78" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
     </row>
     <row r="79" spans="1:2">
@@ -1843,7 +1846,7 @@
         <v>79</v>
       </c>
       <c r="B79" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="80" spans="1:2">
@@ -1851,7 +1854,7 @@
         <v>80</v>
       </c>
       <c r="B80" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="81" spans="1:2">
@@ -1859,7 +1862,7 @@
         <v>81</v>
       </c>
       <c r="B81" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="82" spans="1:2">
@@ -1867,7 +1870,7 @@
         <v>82</v>
       </c>
       <c r="B82" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="83" spans="1:2">
@@ -1875,7 +1878,7 @@
         <v>83</v>
       </c>
       <c r="B83" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="84" spans="1:2">
@@ -1883,7 +1886,7 @@
         <v>84</v>
       </c>
       <c r="B84" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="85" spans="1:2">
@@ -1891,7 +1894,7 @@
         <v>85</v>
       </c>
       <c r="B85" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="86" spans="1:2">
@@ -1899,7 +1902,7 @@
         <v>86</v>
       </c>
       <c r="B86" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="87" spans="1:2">
@@ -1907,7 +1910,7 @@
         <v>87</v>
       </c>
       <c r="B87" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="88" spans="1:2">
@@ -1915,7 +1918,7 @@
         <v>88</v>
       </c>
       <c r="B88" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="89" spans="1:2">
@@ -1923,7 +1926,7 @@
         <v>89</v>
       </c>
       <c r="B89" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="90" spans="1:2">
@@ -1931,7 +1934,7 @@
         <v>90</v>
       </c>
       <c r="B90" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="91" spans="1:2">
@@ -1939,7 +1942,7 @@
         <v>91</v>
       </c>
       <c r="B91" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="92" spans="1:2">
@@ -1947,7 +1950,7 @@
         <v>92</v>
       </c>
       <c r="B92" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="93" spans="1:2">
@@ -1955,7 +1958,7 @@
         <v>93</v>
       </c>
       <c r="B93" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="94" spans="1:2">
@@ -1963,7 +1966,7 @@
         <v>94</v>
       </c>
       <c r="B94" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="95" spans="1:2">
@@ -1971,7 +1974,7 @@
         <v>95</v>
       </c>
       <c r="B95" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="96" spans="1:2">
@@ -1979,7 +1982,7 @@
         <v>96</v>
       </c>
       <c r="B96" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="97" spans="1:2">
@@ -1987,7 +1990,7 @@
         <v>97</v>
       </c>
       <c r="B97" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
     </row>
     <row r="98" spans="1:2">
@@ -1995,7 +1998,7 @@
         <v>98</v>
       </c>
       <c r="B98" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
     </row>
     <row r="99" spans="1:2">
@@ -2003,7 +2006,7 @@
         <v>99</v>
       </c>
       <c r="B99" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="100" spans="1:2">
@@ -2011,7 +2014,7 @@
         <v>100</v>
       </c>
       <c r="B100" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="101" spans="1:2">
@@ -2019,7 +2022,7 @@
         <v>101</v>
       </c>
       <c r="B101" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="102" spans="1:2">
@@ -2027,7 +2030,7 @@
         <v>102</v>
       </c>
       <c r="B102" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="103" spans="1:2">
@@ -2035,7 +2038,7 @@
         <v>103</v>
       </c>
       <c r="B103" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="104" spans="1:2">
@@ -2043,7 +2046,7 @@
         <v>104</v>
       </c>
       <c r="B104" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="105" spans="1:2">
@@ -2051,7 +2054,7 @@
         <v>105</v>
       </c>
       <c r="B105" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="106" spans="1:2">
@@ -2059,7 +2062,7 @@
         <v>106</v>
       </c>
       <c r="B106" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="107" spans="1:2">
@@ -2067,7 +2070,7 @@
         <v>107</v>
       </c>
       <c r="B107" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="108" spans="1:2">
@@ -2075,7 +2078,7 @@
         <v>108</v>
       </c>
       <c r="B108" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="109" spans="1:2">
@@ -2083,7 +2086,7 @@
         <v>109</v>
       </c>
       <c r="B109" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="110" spans="1:2">
@@ -2091,7 +2094,7 @@
         <v>110</v>
       </c>
       <c r="B110" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="111" spans="1:2">
@@ -2099,7 +2102,7 @@
         <v>111</v>
       </c>
       <c r="B111" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
     </row>
     <row r="112" spans="1:2">
@@ -2107,7 +2110,7 @@
         <v>112</v>
       </c>
       <c r="B112" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
     </row>
     <row r="113" spans="1:2">
@@ -2131,7 +2134,7 @@
         <v>115</v>
       </c>
       <c r="B115" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
     </row>
     <row r="116" spans="1:2">
@@ -2139,7 +2142,7 @@
         <v>116</v>
       </c>
       <c r="B116" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
     </row>
     <row r="117" spans="1:2">
@@ -2147,7 +2150,7 @@
         <v>117</v>
       </c>
       <c r="B117" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
     </row>
     <row r="118" spans="1:2">
@@ -2155,7 +2158,7 @@
         <v>118</v>
       </c>
       <c r="B118" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
     </row>
     <row r="119" spans="1:2">
@@ -2179,7 +2182,7 @@
         <v>121</v>
       </c>
       <c r="B121" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
     </row>
     <row r="122" spans="1:2">
@@ -2187,7 +2190,7 @@
         <v>122</v>
       </c>
       <c r="B122" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
     </row>
     <row r="123" spans="1:2">
@@ -2211,7 +2214,7 @@
         <v>125</v>
       </c>
       <c r="B125" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
     </row>
     <row r="126" spans="1:2">
@@ -2235,7 +2238,7 @@
         <v>128</v>
       </c>
       <c r="B128" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="129" spans="1:2">
@@ -2259,7 +2262,7 @@
         <v>131</v>
       </c>
       <c r="B131" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="132" spans="1:2">
@@ -2267,7 +2270,7 @@
         <v>132</v>
       </c>
       <c r="B132" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="133" spans="1:2">
@@ -2283,7 +2286,7 @@
         <v>134</v>
       </c>
       <c r="B134" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
     <row r="135" spans="1:2">
@@ -2291,7 +2294,7 @@
         <v>135</v>
       </c>
       <c r="B135" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
     <row r="136" spans="1:2">
@@ -2307,7 +2310,7 @@
         <v>137</v>
       </c>
       <c r="B137" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
     <row r="138" spans="1:2">
@@ -2323,7 +2326,7 @@
         <v>139</v>
       </c>
       <c r="B139" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="140" spans="1:2">
@@ -2331,7 +2334,7 @@
         <v>140</v>
       </c>
       <c r="B140" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="141" spans="1:2">
@@ -2339,7 +2342,7 @@
         <v>141</v>
       </c>
       <c r="B141" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="142" spans="1:2">
@@ -2355,7 +2358,7 @@
         <v>143</v>
       </c>
       <c r="B143" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="144" spans="1:2">
@@ -2363,7 +2366,7 @@
         <v>144</v>
       </c>
       <c r="B144" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="145" spans="1:2">
@@ -2371,7 +2374,7 @@
         <v>145</v>
       </c>
       <c r="B145" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="146" spans="1:2">
@@ -2379,7 +2382,7 @@
         <v>146</v>
       </c>
       <c r="B146" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="147" spans="1:2">
@@ -2395,7 +2398,7 @@
         <v>148</v>
       </c>
       <c r="B148" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="149" spans="1:2">
@@ -2403,7 +2406,7 @@
         <v>149</v>
       </c>
       <c r="B149" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="150" spans="1:2">
@@ -2411,7 +2414,7 @@
         <v>150</v>
       </c>
       <c r="B150" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="151" spans="1:2">
@@ -2419,7 +2422,7 @@
         <v>151</v>
       </c>
       <c r="B151" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="152" spans="1:2">
@@ -2427,7 +2430,7 @@
         <v>152</v>
       </c>
       <c r="B152" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="153" spans="1:2">
@@ -2443,7 +2446,7 @@
         <v>154</v>
       </c>
       <c r="B154" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
     </row>
     <row r="155" spans="1:2">
@@ -2451,7 +2454,7 @@
         <v>155</v>
       </c>
       <c r="B155" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
     </row>
     <row r="156" spans="1:2">
@@ -2467,7 +2470,7 @@
         <v>157</v>
       </c>
       <c r="B157" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
     </row>
     <row r="158" spans="1:2">
@@ -2475,7 +2478,7 @@
         <v>158</v>
       </c>
       <c r="B158" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
     </row>
     <row r="159" spans="1:2">
@@ -2483,7 +2486,7 @@
         <v>159</v>
       </c>
       <c r="B159" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
     </row>
     <row r="160" spans="1:2">
@@ -2499,7 +2502,7 @@
         <v>161</v>
       </c>
       <c r="B161" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="162" spans="1:2">
@@ -2507,7 +2510,7 @@
         <v>162</v>
       </c>
       <c r="B162" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="163" spans="1:2">
@@ -2523,7 +2526,7 @@
         <v>164</v>
       </c>
       <c r="B164" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
     </row>
     <row r="165" spans="1:2">
@@ -2531,7 +2534,7 @@
         <v>165</v>
       </c>
       <c r="B165" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
     </row>
     <row r="166" spans="1:2">
@@ -2547,7 +2550,7 @@
         <v>167</v>
       </c>
       <c r="B167" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
     </row>
     <row r="168" spans="1:2">
@@ -2555,7 +2558,7 @@
         <v>168</v>
       </c>
       <c r="B168" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
     </row>
     <row r="169" spans="1:2">
@@ -2563,7 +2566,7 @@
         <v>169</v>
       </c>
       <c r="B169" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
     </row>
     <row r="170" spans="1:2">
@@ -2571,7 +2574,7 @@
         <v>170</v>
       </c>
       <c r="B170" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
     </row>
     <row r="171" spans="1:2">
@@ -2587,7 +2590,7 @@
         <v>172</v>
       </c>
       <c r="B172" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
     </row>
     <row r="173" spans="1:2">
@@ -2595,7 +2598,7 @@
         <v>173</v>
       </c>
       <c r="B173" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
     </row>
     <row r="174" spans="1:2">
@@ -2635,7 +2638,7 @@
         <v>178</v>
       </c>
       <c r="B178" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
     </row>
     <row r="179" spans="1:2">
@@ -2667,7 +2670,7 @@
         <v>182</v>
       </c>
       <c r="B182" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
     </row>
     <row r="183" spans="1:2">
@@ -2700,6 +2703,14 @@
       </c>
       <c r="B186" t="s">
         <v>278</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2">
+      <c r="A187" t="s">
+        <v>187</v>
+      </c>
+      <c r="B187" t="s">
+        <v>279</v>
       </c>
     </row>
   </sheetData>

--- a/lothiancriticalcare/1a74f8f7b8b7e871b413c4697f68b4401fbacdf0/reviewdates.xlsx
+++ b/lothiancriticalcare/1a74f8f7b8b7e871b413c4697f68b4401fbacdf0/reviewdates.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="280">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="281">
   <si>
     <t>File</t>
   </si>
@@ -349,12 +349,12 @@
     <t>Airway/Cook Staged Extubation Set.pdf</t>
   </si>
   <si>
+    <t>Post_op_care/Epidural hypotension.pdf</t>
+  </si>
+  <si>
     <t>End_of_life_care/End of Life Care Guideline for Critical Care.pdf</t>
   </si>
   <si>
-    <t>Post_op_care/Epidural hypotension.pdf</t>
-  </si>
-  <si>
     <t>Drugs/noradrenaline (central).pdf</t>
   </si>
   <si>
@@ -580,178 +580,178 @@
     <t>Policies_and_admin/Repatriaiton Checklist for Critical Care.pdf</t>
   </si>
   <si>
-    <t>2011-03-26</t>
-  </si>
-  <si>
-    <t>2011-06-26</t>
-  </si>
-  <si>
-    <t>2011-07-26</t>
-  </si>
-  <si>
-    <t>2011-12-26</t>
-  </si>
-  <si>
-    <t>2014-09-26</t>
-  </si>
-  <si>
-    <t>2014-10-26</t>
-  </si>
-  <si>
-    <t>2014-11-26</t>
-  </si>
-  <si>
-    <t>2014-12-26</t>
-  </si>
-  <si>
-    <t>2015-03-26</t>
-  </si>
-  <si>
-    <t>2016-01-26</t>
-  </si>
-  <si>
-    <t>2016-04-26</t>
-  </si>
-  <si>
-    <t>2016-08-26</t>
-  </si>
-  <si>
-    <t>2017-01-26</t>
-  </si>
-  <si>
-    <t>2017-08-26</t>
-  </si>
-  <si>
-    <t>2017-10-26</t>
-  </si>
-  <si>
-    <t>2017-11-26</t>
-  </si>
-  <si>
-    <t>2018-05-26</t>
-  </si>
-  <si>
-    <t>2018-07-26</t>
-  </si>
-  <si>
-    <t>2019-05-26</t>
-  </si>
-  <si>
-    <t>2019-06-26</t>
-  </si>
-  <si>
-    <t>2019-08-26</t>
-  </si>
-  <si>
-    <t>2019-09-26</t>
-  </si>
-  <si>
-    <t>2020-01-26</t>
-  </si>
-  <si>
-    <t>2020-03-26</t>
-  </si>
-  <si>
-    <t>2020-04-26</t>
-  </si>
-  <si>
-    <t>2020-05-26</t>
-  </si>
-  <si>
-    <t>2020-07-26</t>
-  </si>
-  <si>
-    <t>2020-08-26</t>
-  </si>
-  <si>
-    <t>2020-11-26</t>
-  </si>
-  <si>
-    <t>2021-02-26</t>
-  </si>
-  <si>
-    <t>2021-05-26</t>
-  </si>
-  <si>
-    <t>2021-06-26</t>
-  </si>
-  <si>
-    <t>2021-09-26</t>
-  </si>
-  <si>
-    <t>2021-12-26</t>
-  </si>
-  <si>
-    <t>2022-01-26</t>
-  </si>
-  <si>
-    <t>2022-03-26</t>
-  </si>
-  <si>
-    <t>2022-04-26</t>
-  </si>
-  <si>
-    <t>2022-05-26</t>
-  </si>
-  <si>
-    <t>2022-06-26</t>
-  </si>
-  <si>
-    <t>2022-07-26</t>
-  </si>
-  <si>
-    <t>2022-08-26</t>
-  </si>
-  <si>
-    <t>2022-10-26</t>
-  </si>
-  <si>
-    <t>2022-11-26</t>
-  </si>
-  <si>
-    <t>2022-12-26</t>
-  </si>
-  <si>
-    <t>2023-01-26</t>
-  </si>
-  <si>
-    <t>2023-02-26</t>
-  </si>
-  <si>
-    <t>2023-04-26</t>
-  </si>
-  <si>
-    <t>2023-05-26</t>
-  </si>
-  <si>
-    <t>2023-06-26</t>
-  </si>
-  <si>
-    <t>2023-07-26</t>
-  </si>
-  <si>
-    <t>2023-08-26</t>
-  </si>
-  <si>
-    <t>2023-09-26</t>
-  </si>
-  <si>
-    <t>2023-10-26</t>
-  </si>
-  <si>
-    <t>2024-01-26</t>
-  </si>
-  <si>
-    <t>2024-02-26</t>
-  </si>
-  <si>
-    <t>2024-03-26</t>
-  </si>
-  <si>
-    <t>2024-04-26</t>
-  </si>
-  <si>
-    <t>2024-05-26</t>
+    <t>2011-03-27</t>
+  </si>
+  <si>
+    <t>2011-06-27</t>
+  </si>
+  <si>
+    <t>2011-07-27</t>
+  </si>
+  <si>
+    <t>2011-12-27</t>
+  </si>
+  <si>
+    <t>2014-09-27</t>
+  </si>
+  <si>
+    <t>2014-10-27</t>
+  </si>
+  <si>
+    <t>2014-11-27</t>
+  </si>
+  <si>
+    <t>2014-12-27</t>
+  </si>
+  <si>
+    <t>2015-03-27</t>
+  </si>
+  <si>
+    <t>2016-01-27</t>
+  </si>
+  <si>
+    <t>2016-04-27</t>
+  </si>
+  <si>
+    <t>2016-08-27</t>
+  </si>
+  <si>
+    <t>2017-01-27</t>
+  </si>
+  <si>
+    <t>2017-08-27</t>
+  </si>
+  <si>
+    <t>2017-10-27</t>
+  </si>
+  <si>
+    <t>2017-11-27</t>
+  </si>
+  <si>
+    <t>2018-05-27</t>
+  </si>
+  <si>
+    <t>2018-07-27</t>
+  </si>
+  <si>
+    <t>2019-05-27</t>
+  </si>
+  <si>
+    <t>2019-06-27</t>
+  </si>
+  <si>
+    <t>2019-08-27</t>
+  </si>
+  <si>
+    <t>2019-09-27</t>
+  </si>
+  <si>
+    <t>2020-01-27</t>
+  </si>
+  <si>
+    <t>2020-03-27</t>
+  </si>
+  <si>
+    <t>2020-04-27</t>
+  </si>
+  <si>
+    <t>2020-05-27</t>
+  </si>
+  <si>
+    <t>2020-07-27</t>
+  </si>
+  <si>
+    <t>2020-08-27</t>
+  </si>
+  <si>
+    <t>2020-11-27</t>
+  </si>
+  <si>
+    <t>2021-02-27</t>
+  </si>
+  <si>
+    <t>2021-05-27</t>
+  </si>
+  <si>
+    <t>2021-06-27</t>
+  </si>
+  <si>
+    <t>2021-09-27</t>
+  </si>
+  <si>
+    <t>2021-12-27</t>
+  </si>
+  <si>
+    <t>2022-01-27</t>
+  </si>
+  <si>
+    <t>2022-03-27</t>
+  </si>
+  <si>
+    <t>2022-04-27</t>
+  </si>
+  <si>
+    <t>2022-05-27</t>
+  </si>
+  <si>
+    <t>2022-06-27</t>
+  </si>
+  <si>
+    <t>2022-07-27</t>
+  </si>
+  <si>
+    <t>2022-08-27</t>
+  </si>
+  <si>
+    <t>2022-10-27</t>
+  </si>
+  <si>
+    <t>2022-11-27</t>
+  </si>
+  <si>
+    <t>2022-12-27</t>
+  </si>
+  <si>
+    <t>2023-01-27</t>
+  </si>
+  <si>
+    <t>2023-02-27</t>
+  </si>
+  <si>
+    <t>2023-04-27</t>
+  </si>
+  <si>
+    <t>2023-05-27</t>
+  </si>
+  <si>
+    <t>2023-06-27</t>
+  </si>
+  <si>
+    <t>2023-07-27</t>
+  </si>
+  <si>
+    <t>2023-08-27</t>
+  </si>
+  <si>
+    <t>2023-09-27</t>
+  </si>
+  <si>
+    <t>2023-10-27</t>
+  </si>
+  <si>
+    <t>2024-01-27</t>
+  </si>
+  <si>
+    <t>2024-02-27</t>
+  </si>
+  <si>
+    <t>2024-03-27</t>
+  </si>
+  <si>
+    <t>2024-04-27</t>
+  </si>
+  <si>
+    <t>2024-05-27</t>
   </si>
   <si>
     <t>2024-06-02</t>
@@ -760,22 +760,25 @@
     <t>2024-06-26</t>
   </si>
   <si>
+    <t>2024-06-27</t>
+  </si>
+  <si>
     <t>2024-07-25</t>
   </si>
   <si>
-    <t>2024-07-26</t>
+    <t>2024-07-27</t>
   </si>
   <si>
     <t>2024-08-15</t>
   </si>
   <si>
-    <t>2024-08-26</t>
+    <t>2024-08-27</t>
   </si>
   <si>
     <t>2024-10-24</t>
   </si>
   <si>
-    <t>2024-10-26</t>
+    <t>2024-10-27</t>
   </si>
   <si>
     <t>2024-11-20</t>
@@ -787,73 +790,73 @@
     <t>2024-12-24</t>
   </si>
   <si>
-    <t>2025-01-26</t>
-  </si>
-  <si>
-    <t>2025-02-26</t>
-  </si>
-  <si>
-    <t>2025-03-26</t>
-  </si>
-  <si>
-    <t>2025-04-26</t>
-  </si>
-  <si>
-    <t>2025-05-26</t>
-  </si>
-  <si>
-    <t>2025-06-26</t>
-  </si>
-  <si>
-    <t>2025-07-26</t>
-  </si>
-  <si>
-    <t>2025-08-26</t>
-  </si>
-  <si>
-    <t>2025-10-26</t>
-  </si>
-  <si>
-    <t>2025-11-26</t>
-  </si>
-  <si>
-    <t>2026-01-26</t>
-  </si>
-  <si>
-    <t>2026-03-26</t>
-  </si>
-  <si>
-    <t>2026-05-26</t>
-  </si>
-  <si>
-    <t>2026-07-26</t>
-  </si>
-  <si>
-    <t>2026-11-26</t>
-  </si>
-  <si>
-    <t>2027-01-26</t>
-  </si>
-  <si>
-    <t>2027-02-26</t>
-  </si>
-  <si>
-    <t>2028-02-26</t>
-  </si>
-  <si>
-    <t>2028-03-26</t>
-  </si>
-  <si>
-    <t>2028-05-26</t>
-  </si>
-  <si>
-    <t>2028-07-26</t>
-  </si>
-  <si>
-    <t>2028-11-26</t>
-  </si>
-  <si>
-    <t>2030-11-26</t>
+    <t>2025-01-27</t>
+  </si>
+  <si>
+    <t>2025-02-27</t>
+  </si>
+  <si>
+    <t>2025-03-27</t>
+  </si>
+  <si>
+    <t>2025-04-27</t>
+  </si>
+  <si>
+    <t>2025-05-27</t>
+  </si>
+  <si>
+    <t>2025-06-27</t>
+  </si>
+  <si>
+    <t>2025-07-27</t>
+  </si>
+  <si>
+    <t>2025-08-27</t>
+  </si>
+  <si>
+    <t>2025-10-27</t>
+  </si>
+  <si>
+    <t>2025-11-27</t>
+  </si>
+  <si>
+    <t>2026-01-27</t>
+  </si>
+  <si>
+    <t>2026-03-27</t>
+  </si>
+  <si>
+    <t>2026-05-27</t>
+  </si>
+  <si>
+    <t>2026-07-27</t>
+  </si>
+  <si>
+    <t>2026-11-27</t>
+  </si>
+  <si>
+    <t>2027-01-27</t>
+  </si>
+  <si>
+    <t>2027-02-27</t>
+  </si>
+  <si>
+    <t>2028-02-27</t>
+  </si>
+  <si>
+    <t>2028-03-27</t>
+  </si>
+  <si>
+    <t>2028-05-27</t>
+  </si>
+  <si>
+    <t>2028-07-27</t>
+  </si>
+  <si>
+    <t>2028-11-27</t>
+  </si>
+  <si>
+    <t>2030-11-27</t>
   </si>
 </sst>
 </file>
@@ -2110,7 +2113,7 @@
         <v>112</v>
       </c>
       <c r="B112" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
     </row>
     <row r="113" spans="1:2">
@@ -2118,7 +2121,7 @@
         <v>113</v>
       </c>
       <c r="B113" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
     </row>
     <row r="114" spans="1:2">
@@ -2126,7 +2129,7 @@
         <v>114</v>
       </c>
       <c r="B114" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
     </row>
     <row r="115" spans="1:2">
@@ -2134,7 +2137,7 @@
         <v>115</v>
       </c>
       <c r="B115" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="116" spans="1:2">
@@ -2142,7 +2145,7 @@
         <v>116</v>
       </c>
       <c r="B116" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="117" spans="1:2">
@@ -2150,7 +2153,7 @@
         <v>117</v>
       </c>
       <c r="B117" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="118" spans="1:2">
@@ -2158,7 +2161,7 @@
         <v>118</v>
       </c>
       <c r="B118" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="119" spans="1:2">
@@ -2166,7 +2169,7 @@
         <v>119</v>
       </c>
       <c r="B119" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="120" spans="1:2">
@@ -2174,7 +2177,7 @@
         <v>120</v>
       </c>
       <c r="B120" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
     </row>
     <row r="121" spans="1:2">
@@ -2182,7 +2185,7 @@
         <v>121</v>
       </c>
       <c r="B121" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
     </row>
     <row r="122" spans="1:2">
@@ -2190,7 +2193,7 @@
         <v>122</v>
       </c>
       <c r="B122" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
     </row>
     <row r="123" spans="1:2">
@@ -2198,7 +2201,7 @@
         <v>123</v>
       </c>
       <c r="B123" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
     </row>
     <row r="124" spans="1:2">
@@ -2206,7 +2209,7 @@
         <v>124</v>
       </c>
       <c r="B124" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
     </row>
     <row r="125" spans="1:2">
@@ -2214,7 +2217,7 @@
         <v>125</v>
       </c>
       <c r="B125" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
     <row r="126" spans="1:2">
@@ -2222,7 +2225,7 @@
         <v>126</v>
       </c>
       <c r="B126" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
     <row r="127" spans="1:2">
@@ -2230,7 +2233,7 @@
         <v>127</v>
       </c>
       <c r="B127" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="128" spans="1:2">
@@ -2238,7 +2241,7 @@
         <v>128</v>
       </c>
       <c r="B128" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="129" spans="1:2">
@@ -2246,7 +2249,7 @@
         <v>129</v>
       </c>
       <c r="B129" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="130" spans="1:2">
@@ -2254,7 +2257,7 @@
         <v>130</v>
       </c>
       <c r="B130" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="131" spans="1:2">
@@ -2262,7 +2265,7 @@
         <v>131</v>
       </c>
       <c r="B131" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
     <row r="132" spans="1:2">
@@ -2270,7 +2273,7 @@
         <v>132</v>
       </c>
       <c r="B132" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
     <row r="133" spans="1:2">
@@ -2278,7 +2281,7 @@
         <v>133</v>
       </c>
       <c r="B133" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
     <row r="134" spans="1:2">
@@ -2286,7 +2289,7 @@
         <v>134</v>
       </c>
       <c r="B134" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
     <row r="135" spans="1:2">
@@ -2294,7 +2297,7 @@
         <v>135</v>
       </c>
       <c r="B135" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
     <row r="136" spans="1:2">
@@ -2302,7 +2305,7 @@
         <v>136</v>
       </c>
       <c r="B136" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
     <row r="137" spans="1:2">
@@ -2310,7 +2313,7 @@
         <v>137</v>
       </c>
       <c r="B137" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="138" spans="1:2">
@@ -2318,7 +2321,7 @@
         <v>138</v>
       </c>
       <c r="B138" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="139" spans="1:2">
@@ -2326,7 +2329,7 @@
         <v>139</v>
       </c>
       <c r="B139" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="140" spans="1:2">
@@ -2334,7 +2337,7 @@
         <v>140</v>
       </c>
       <c r="B140" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="141" spans="1:2">
@@ -2342,7 +2345,7 @@
         <v>141</v>
       </c>
       <c r="B141" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="142" spans="1:2">
@@ -2350,7 +2353,7 @@
         <v>142</v>
       </c>
       <c r="B142" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="143" spans="1:2">
@@ -2358,7 +2361,7 @@
         <v>143</v>
       </c>
       <c r="B143" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="144" spans="1:2">
@@ -2366,7 +2369,7 @@
         <v>144</v>
       </c>
       <c r="B144" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="145" spans="1:2">
@@ -2374,7 +2377,7 @@
         <v>145</v>
       </c>
       <c r="B145" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="146" spans="1:2">
@@ -2382,7 +2385,7 @@
         <v>146</v>
       </c>
       <c r="B146" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="147" spans="1:2">
@@ -2390,7 +2393,7 @@
         <v>147</v>
       </c>
       <c r="B147" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="148" spans="1:2">
@@ -2398,7 +2401,7 @@
         <v>148</v>
       </c>
       <c r="B148" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
     </row>
     <row r="149" spans="1:2">
@@ -2406,7 +2409,7 @@
         <v>149</v>
       </c>
       <c r="B149" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
     </row>
     <row r="150" spans="1:2">
@@ -2414,7 +2417,7 @@
         <v>150</v>
       </c>
       <c r="B150" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
     </row>
     <row r="151" spans="1:2">
@@ -2422,7 +2425,7 @@
         <v>151</v>
       </c>
       <c r="B151" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
     </row>
     <row r="152" spans="1:2">
@@ -2430,7 +2433,7 @@
         <v>152</v>
       </c>
       <c r="B152" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
     </row>
     <row r="153" spans="1:2">
@@ -2438,7 +2441,7 @@
         <v>153</v>
       </c>
       <c r="B153" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
     </row>
     <row r="154" spans="1:2">
@@ -2446,7 +2449,7 @@
         <v>154</v>
       </c>
       <c r="B154" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
     </row>
     <row r="155" spans="1:2">
@@ -2454,7 +2457,7 @@
         <v>155</v>
       </c>
       <c r="B155" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
     </row>
     <row r="156" spans="1:2">
@@ -2462,7 +2465,7 @@
         <v>156</v>
       </c>
       <c r="B156" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
     </row>
     <row r="157" spans="1:2">
@@ -2470,7 +2473,7 @@
         <v>157</v>
       </c>
       <c r="B157" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="158" spans="1:2">
@@ -2478,7 +2481,7 @@
         <v>158</v>
       </c>
       <c r="B158" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="159" spans="1:2">
@@ -2486,7 +2489,7 @@
         <v>159</v>
       </c>
       <c r="B159" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="160" spans="1:2">
@@ -2494,7 +2497,7 @@
         <v>160</v>
       </c>
       <c r="B160" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="161" spans="1:2">
@@ -2502,7 +2505,7 @@
         <v>161</v>
       </c>
       <c r="B161" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
     </row>
     <row r="162" spans="1:2">
@@ -2510,7 +2513,7 @@
         <v>162</v>
       </c>
       <c r="B162" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
     </row>
     <row r="163" spans="1:2">
@@ -2518,7 +2521,7 @@
         <v>163</v>
       </c>
       <c r="B163" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
     </row>
     <row r="164" spans="1:2">
@@ -2526,7 +2529,7 @@
         <v>164</v>
       </c>
       <c r="B164" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
     </row>
     <row r="165" spans="1:2">
@@ -2534,7 +2537,7 @@
         <v>165</v>
       </c>
       <c r="B165" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
     </row>
     <row r="166" spans="1:2">
@@ -2542,7 +2545,7 @@
         <v>166</v>
       </c>
       <c r="B166" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
     </row>
     <row r="167" spans="1:2">
@@ -2550,7 +2553,7 @@
         <v>167</v>
       </c>
       <c r="B167" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
     </row>
     <row r="168" spans="1:2">
@@ -2558,7 +2561,7 @@
         <v>168</v>
       </c>
       <c r="B168" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
     </row>
     <row r="169" spans="1:2">
@@ -2566,7 +2569,7 @@
         <v>169</v>
       </c>
       <c r="B169" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
     </row>
     <row r="170" spans="1:2">
@@ -2574,7 +2577,7 @@
         <v>170</v>
       </c>
       <c r="B170" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
     </row>
     <row r="171" spans="1:2">
@@ -2582,7 +2585,7 @@
         <v>171</v>
       </c>
       <c r="B171" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
     </row>
     <row r="172" spans="1:2">
@@ -2590,7 +2593,7 @@
         <v>172</v>
       </c>
       <c r="B172" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="173" spans="1:2">
@@ -2598,7 +2601,7 @@
         <v>173</v>
       </c>
       <c r="B173" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="174" spans="1:2">
@@ -2606,7 +2609,7 @@
         <v>174</v>
       </c>
       <c r="B174" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="175" spans="1:2">
@@ -2614,7 +2617,7 @@
         <v>175</v>
       </c>
       <c r="B175" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
     </row>
     <row r="176" spans="1:2">
@@ -2622,7 +2625,7 @@
         <v>176</v>
       </c>
       <c r="B176" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
     </row>
     <row r="177" spans="1:2">
@@ -2630,7 +2633,7 @@
         <v>177</v>
       </c>
       <c r="B177" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
     </row>
     <row r="178" spans="1:2">
@@ -2638,7 +2641,7 @@
         <v>178</v>
       </c>
       <c r="B178" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
     </row>
     <row r="179" spans="1:2">
@@ -2646,7 +2649,7 @@
         <v>179</v>
       </c>
       <c r="B179" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
     </row>
     <row r="180" spans="1:2">
@@ -2654,7 +2657,7 @@
         <v>180</v>
       </c>
       <c r="B180" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
     </row>
     <row r="181" spans="1:2">
@@ -2662,7 +2665,7 @@
         <v>181</v>
       </c>
       <c r="B181" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
     </row>
     <row r="182" spans="1:2">
@@ -2670,7 +2673,7 @@
         <v>182</v>
       </c>
       <c r="B182" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
     </row>
     <row r="183" spans="1:2">
@@ -2678,7 +2681,7 @@
         <v>183</v>
       </c>
       <c r="B183" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
     </row>
     <row r="184" spans="1:2">
@@ -2686,7 +2689,7 @@
         <v>184</v>
       </c>
       <c r="B184" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
     </row>
     <row r="185" spans="1:2">
@@ -2694,7 +2697,7 @@
         <v>185</v>
       </c>
       <c r="B185" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
     </row>
     <row r="186" spans="1:2">
@@ -2702,7 +2705,7 @@
         <v>186</v>
       </c>
       <c r="B186" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
     </row>
     <row r="187" spans="1:2">
@@ -2710,7 +2713,7 @@
         <v>187</v>
       </c>
       <c r="B187" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
     </row>
   </sheetData>

--- a/lothiancriticalcare/1a74f8f7b8b7e871b413c4697f68b4401fbacdf0/reviewdates.xlsx
+++ b/lothiancriticalcare/1a74f8f7b8b7e871b413c4697f68b4401fbacdf0/reviewdates.xlsx
@@ -580,178 +580,178 @@
     <t>Policies_and_admin/Repatriaiton Checklist for Critical Care.pdf</t>
   </si>
   <si>
-    <t>2011-03-27</t>
-  </si>
-  <si>
-    <t>2011-06-27</t>
-  </si>
-  <si>
-    <t>2011-07-27</t>
-  </si>
-  <si>
-    <t>2011-12-27</t>
-  </si>
-  <si>
-    <t>2014-09-27</t>
-  </si>
-  <si>
-    <t>2014-10-27</t>
-  </si>
-  <si>
-    <t>2014-11-27</t>
-  </si>
-  <si>
-    <t>2014-12-27</t>
-  </si>
-  <si>
-    <t>2015-03-27</t>
-  </si>
-  <si>
-    <t>2016-01-27</t>
-  </si>
-  <si>
-    <t>2016-04-27</t>
-  </si>
-  <si>
-    <t>2016-08-27</t>
-  </si>
-  <si>
-    <t>2017-01-27</t>
-  </si>
-  <si>
-    <t>2017-08-27</t>
-  </si>
-  <si>
-    <t>2017-10-27</t>
-  </si>
-  <si>
-    <t>2017-11-27</t>
-  </si>
-  <si>
-    <t>2018-05-27</t>
-  </si>
-  <si>
-    <t>2018-07-27</t>
-  </si>
-  <si>
-    <t>2019-05-27</t>
-  </si>
-  <si>
-    <t>2019-06-27</t>
-  </si>
-  <si>
-    <t>2019-08-27</t>
-  </si>
-  <si>
-    <t>2019-09-27</t>
-  </si>
-  <si>
-    <t>2020-01-27</t>
-  </si>
-  <si>
-    <t>2020-03-27</t>
-  </si>
-  <si>
-    <t>2020-04-27</t>
-  </si>
-  <si>
-    <t>2020-05-27</t>
-  </si>
-  <si>
-    <t>2020-07-27</t>
-  </si>
-  <si>
-    <t>2020-08-27</t>
-  </si>
-  <si>
-    <t>2020-11-27</t>
-  </si>
-  <si>
-    <t>2021-02-27</t>
-  </si>
-  <si>
-    <t>2021-05-27</t>
-  </si>
-  <si>
-    <t>2021-06-27</t>
-  </si>
-  <si>
-    <t>2021-09-27</t>
-  </si>
-  <si>
-    <t>2021-12-27</t>
-  </si>
-  <si>
-    <t>2022-01-27</t>
-  </si>
-  <si>
-    <t>2022-03-27</t>
-  </si>
-  <si>
-    <t>2022-04-27</t>
-  </si>
-  <si>
-    <t>2022-05-27</t>
-  </si>
-  <si>
-    <t>2022-06-27</t>
-  </si>
-  <si>
-    <t>2022-07-27</t>
-  </si>
-  <si>
-    <t>2022-08-27</t>
-  </si>
-  <si>
-    <t>2022-10-27</t>
-  </si>
-  <si>
-    <t>2022-11-27</t>
-  </si>
-  <si>
-    <t>2022-12-27</t>
-  </si>
-  <si>
-    <t>2023-01-27</t>
-  </si>
-  <si>
-    <t>2023-02-27</t>
-  </si>
-  <si>
-    <t>2023-04-27</t>
-  </si>
-  <si>
-    <t>2023-05-27</t>
-  </si>
-  <si>
-    <t>2023-06-27</t>
-  </si>
-  <si>
-    <t>2023-07-27</t>
-  </si>
-  <si>
-    <t>2023-08-27</t>
-  </si>
-  <si>
-    <t>2023-09-27</t>
-  </si>
-  <si>
-    <t>2023-10-27</t>
-  </si>
-  <si>
-    <t>2024-01-27</t>
-  </si>
-  <si>
-    <t>2024-02-27</t>
-  </si>
-  <si>
-    <t>2024-03-27</t>
-  </si>
-  <si>
-    <t>2024-04-27</t>
-  </si>
-  <si>
-    <t>2024-05-27</t>
+    <t>2011-03-28</t>
+  </si>
+  <si>
+    <t>2011-06-28</t>
+  </si>
+  <si>
+    <t>2011-07-28</t>
+  </si>
+  <si>
+    <t>2011-12-28</t>
+  </si>
+  <si>
+    <t>2014-09-28</t>
+  </si>
+  <si>
+    <t>2014-10-28</t>
+  </si>
+  <si>
+    <t>2014-11-28</t>
+  </si>
+  <si>
+    <t>2014-12-28</t>
+  </si>
+  <si>
+    <t>2015-03-28</t>
+  </si>
+  <si>
+    <t>2016-01-28</t>
+  </si>
+  <si>
+    <t>2016-04-28</t>
+  </si>
+  <si>
+    <t>2016-08-28</t>
+  </si>
+  <si>
+    <t>2017-01-28</t>
+  </si>
+  <si>
+    <t>2017-08-28</t>
+  </si>
+  <si>
+    <t>2017-10-28</t>
+  </si>
+  <si>
+    <t>2017-11-28</t>
+  </si>
+  <si>
+    <t>2018-05-28</t>
+  </si>
+  <si>
+    <t>2018-07-28</t>
+  </si>
+  <si>
+    <t>2019-05-28</t>
+  </si>
+  <si>
+    <t>2019-06-28</t>
+  </si>
+  <si>
+    <t>2019-08-28</t>
+  </si>
+  <si>
+    <t>2019-09-28</t>
+  </si>
+  <si>
+    <t>2020-01-28</t>
+  </si>
+  <si>
+    <t>2020-03-28</t>
+  </si>
+  <si>
+    <t>2020-04-28</t>
+  </si>
+  <si>
+    <t>2020-05-28</t>
+  </si>
+  <si>
+    <t>2020-07-28</t>
+  </si>
+  <si>
+    <t>2020-08-28</t>
+  </si>
+  <si>
+    <t>2020-11-28</t>
+  </si>
+  <si>
+    <t>2021-02-28</t>
+  </si>
+  <si>
+    <t>2021-05-28</t>
+  </si>
+  <si>
+    <t>2021-06-28</t>
+  </si>
+  <si>
+    <t>2021-09-28</t>
+  </si>
+  <si>
+    <t>2021-12-28</t>
+  </si>
+  <si>
+    <t>2022-01-28</t>
+  </si>
+  <si>
+    <t>2022-03-28</t>
+  </si>
+  <si>
+    <t>2022-04-28</t>
+  </si>
+  <si>
+    <t>2022-05-28</t>
+  </si>
+  <si>
+    <t>2022-06-28</t>
+  </si>
+  <si>
+    <t>2022-07-28</t>
+  </si>
+  <si>
+    <t>2022-08-28</t>
+  </si>
+  <si>
+    <t>2022-10-28</t>
+  </si>
+  <si>
+    <t>2022-11-28</t>
+  </si>
+  <si>
+    <t>2022-12-28</t>
+  </si>
+  <si>
+    <t>2023-01-28</t>
+  </si>
+  <si>
+    <t>2023-02-28</t>
+  </si>
+  <si>
+    <t>2023-04-28</t>
+  </si>
+  <si>
+    <t>2023-05-28</t>
+  </si>
+  <si>
+    <t>2023-06-28</t>
+  </si>
+  <si>
+    <t>2023-07-28</t>
+  </si>
+  <si>
+    <t>2023-08-28</t>
+  </si>
+  <si>
+    <t>2023-09-28</t>
+  </si>
+  <si>
+    <t>2023-10-28</t>
+  </si>
+  <si>
+    <t>2024-01-28</t>
+  </si>
+  <si>
+    <t>2024-02-28</t>
+  </si>
+  <si>
+    <t>2024-03-28</t>
+  </si>
+  <si>
+    <t>2024-04-28</t>
+  </si>
+  <si>
+    <t>2024-05-28</t>
   </si>
   <si>
     <t>2024-06-02</t>
@@ -760,25 +760,25 @@
     <t>2024-06-26</t>
   </si>
   <si>
-    <t>2024-06-27</t>
+    <t>2024-06-28</t>
   </si>
   <si>
     <t>2024-07-25</t>
   </si>
   <si>
-    <t>2024-07-27</t>
+    <t>2024-07-28</t>
   </si>
   <si>
     <t>2024-08-15</t>
   </si>
   <si>
-    <t>2024-08-27</t>
+    <t>2024-08-28</t>
   </si>
   <si>
     <t>2024-10-24</t>
   </si>
   <si>
-    <t>2024-10-27</t>
+    <t>2024-10-28</t>
   </si>
   <si>
     <t>2024-11-20</t>
@@ -790,73 +790,73 @@
     <t>2024-12-24</t>
   </si>
   <si>
-    <t>2025-01-27</t>
-  </si>
-  <si>
-    <t>2025-02-27</t>
-  </si>
-  <si>
-    <t>2025-03-27</t>
-  </si>
-  <si>
-    <t>2025-04-27</t>
-  </si>
-  <si>
-    <t>2025-05-27</t>
-  </si>
-  <si>
-    <t>2025-06-27</t>
-  </si>
-  <si>
-    <t>2025-07-27</t>
-  </si>
-  <si>
-    <t>2025-08-27</t>
-  </si>
-  <si>
-    <t>2025-10-27</t>
-  </si>
-  <si>
-    <t>2025-11-27</t>
-  </si>
-  <si>
-    <t>2026-01-27</t>
-  </si>
-  <si>
-    <t>2026-03-27</t>
-  </si>
-  <si>
-    <t>2026-05-27</t>
-  </si>
-  <si>
-    <t>2026-07-27</t>
-  </si>
-  <si>
-    <t>2026-11-27</t>
-  </si>
-  <si>
-    <t>2027-01-27</t>
-  </si>
-  <si>
-    <t>2027-02-27</t>
-  </si>
-  <si>
-    <t>2028-02-27</t>
-  </si>
-  <si>
-    <t>2028-03-27</t>
-  </si>
-  <si>
-    <t>2028-05-27</t>
-  </si>
-  <si>
-    <t>2028-07-27</t>
-  </si>
-  <si>
-    <t>2028-11-27</t>
-  </si>
-  <si>
-    <t>2030-11-27</t>
+    <t>2025-01-28</t>
+  </si>
+  <si>
+    <t>2025-02-28</t>
+  </si>
+  <si>
+    <t>2025-03-28</t>
+  </si>
+  <si>
+    <t>2025-04-28</t>
+  </si>
+  <si>
+    <t>2025-05-28</t>
+  </si>
+  <si>
+    <t>2025-06-28</t>
+  </si>
+  <si>
+    <t>2025-07-28</t>
+  </si>
+  <si>
+    <t>2025-08-28</t>
+  </si>
+  <si>
+    <t>2025-10-28</t>
+  </si>
+  <si>
+    <t>2025-11-28</t>
+  </si>
+  <si>
+    <t>2026-01-28</t>
+  </si>
+  <si>
+    <t>2026-03-28</t>
+  </si>
+  <si>
+    <t>2026-05-28</t>
+  </si>
+  <si>
+    <t>2026-07-28</t>
+  </si>
+  <si>
+    <t>2026-11-28</t>
+  </si>
+  <si>
+    <t>2027-01-28</t>
+  </si>
+  <si>
+    <t>2027-02-28</t>
+  </si>
+  <si>
+    <t>2028-02-28</t>
+  </si>
+  <si>
+    <t>2028-03-28</t>
+  </si>
+  <si>
+    <t>2028-05-28</t>
+  </si>
+  <si>
+    <t>2028-07-28</t>
+  </si>
+  <si>
+    <t>2028-11-28</t>
+  </si>
+  <si>
+    <t>2030-11-28</t>
   </si>
 </sst>
 </file>

--- a/lothiancriticalcare/1a74f8f7b8b7e871b413c4697f68b4401fbacdf0/reviewdates.xlsx
+++ b/lothiancriticalcare/1a74f8f7b8b7e871b413c4697f68b4401fbacdf0/reviewdates.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="281">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="282">
   <si>
     <t>File</t>
   </si>
@@ -64,12 +64,12 @@
     <t>Routine_Care/Tracheostomy_nursing_care.pdf</t>
   </si>
   <si>
+    <t>Airway/Critical care extubation checklist.pdf</t>
+  </si>
+  <si>
     <t>ECLS/Extra Corporeal Carbon Dioxide Removal.pdf</t>
   </si>
   <si>
-    <t>Airway/Critical care extubation checklist.pdf</t>
-  </si>
-  <si>
     <t>Airway/Tracheostomy_Laryngectomy/Hospital_in-patients_with_a_Tracheostomy.pdf</t>
   </si>
   <si>
@@ -103,24 +103,24 @@
     <t>Post_op_care/Epidural top-up.pdf</t>
   </si>
   <si>
+    <t>Drugs/heparin for Haemofiltration.pdf</t>
+  </si>
+  <si>
+    <t>Covid-19/SJH/SJH COVID19 ITU Intubation Action Card.pdf</t>
+  </si>
+  <si>
+    <t>Covid-19/SJH/SJH COVID19 ED Intubation Action Card.pdf</t>
+  </si>
+  <si>
     <t>Airway/Emergency intubation checklist_em_pub.pdf</t>
   </si>
   <si>
-    <t>Covid-19/SJH/SJH COVID19 ED Intubation Action Card.pdf</t>
-  </si>
-  <si>
     <t>Covid-19/WGH/CoVid intubation checklist WGH.pdf</t>
   </si>
   <si>
     <t>Diabetes_and_Glucose/Hyperosmolar Hyperglycaemic State.pdf</t>
   </si>
   <si>
-    <t>Drugs/heparin for Haemofiltration.pdf</t>
-  </si>
-  <si>
-    <t>Covid-19/SJH/SJH COVID19 ITU Intubation Action Card.pdf</t>
-  </si>
-  <si>
     <t>Drugs/fentanyl.pdf</t>
   </si>
   <si>
@@ -139,42 +139,42 @@
     <t>Airway/Percutaneous tracheostomy checklist.pdf</t>
   </si>
   <si>
+    <t>Delirium/Risk assessment posi mit.pdf</t>
+  </si>
+  <si>
+    <t>Delirium/Managing a Potentially Violent Patient.pdf</t>
+  </si>
+  <si>
     <t>Infection_and_sepsis/SOP Ultrasound Cleaning.pdf</t>
   </si>
   <si>
-    <t>Delirium/Managing a Potentially Violent Patient.pdf</t>
-  </si>
-  <si>
-    <t>Delirium/Risk assessment posi mit.pdf</t>
+    <t>Neurological/Sub arachnoid haemorrhage management.pdf</t>
+  </si>
+  <si>
+    <t>GI_Liver_and_Transplant/Treatment of constipation.pdf</t>
+  </si>
+  <si>
+    <t>Airway/McGrath Mac.pdf</t>
+  </si>
+  <si>
+    <t>Drugs/ketamine_in_asthma.pdf</t>
+  </si>
+  <si>
+    <t>Airway/Anticipated difficult airway tool.pdf</t>
+  </si>
+  <si>
+    <t>Airway/Tracheostomy_Laryngectomy/Tracheostomy safety box contents.pdf</t>
   </si>
   <si>
     <t>Delirium/Drugs Causing Delirium and Agitiation.pdf</t>
   </si>
   <si>
-    <t>Airway/McGrath Mac.pdf</t>
-  </si>
-  <si>
-    <t>Airway/Anticipated difficult airway tool.pdf</t>
-  </si>
-  <si>
-    <t>Neurological/Sub arachnoid haemorrhage management.pdf</t>
+    <t>GI_Liver_and_Transplant/Abdominal pressure measurement.pdf</t>
   </si>
   <si>
     <t>Breathing(Respiratory)/HFNO.pdf</t>
   </si>
   <si>
-    <t>GI_Liver_and_Transplant/Treatment of constipation.pdf</t>
-  </si>
-  <si>
-    <t>GI_Liver_and_Transplant/Abdominal pressure measurement.pdf</t>
-  </si>
-  <si>
-    <t>Drugs/ketamine_in_asthma.pdf</t>
-  </si>
-  <si>
-    <t>Airway/Tracheostomy_Laryngectomy/Tracheostomy safety box contents.pdf</t>
-  </si>
-  <si>
     <t>End_of_life_care/Documentation following death.pdf</t>
   </si>
   <si>
@@ -184,30 +184,30 @@
     <t>Routine_Care/bBraun Spaceplus Failure EMERGENCY ACTION CARD_em.pdf</t>
   </si>
   <si>
+    <t>Breathing(Respiratory)/Equipment/HFNO Set Up.pdf</t>
+  </si>
+  <si>
     <t>Drugs/insulin.pdf</t>
   </si>
   <si>
-    <t>Breathing(Respiratory)/Equipment/HFNO Set Up.pdf</t>
-  </si>
-  <si>
     <t>Breathing(Respiratory)/Inhaled Nitrous Oxide.pdf</t>
   </si>
   <si>
+    <t>Cardiovascular/Steroids for Septic Shock.pdf</t>
+  </si>
+  <si>
     <t>Breathing(Respiratory)/Equipment/APRV.pdf</t>
   </si>
   <si>
-    <t>Cardiovascular/Steroids for Septic Shock.pdf</t>
+    <t>Neurological/SOP for review of Neurosurgical patients in ITU by neurosurgical team.pdf</t>
+  </si>
+  <si>
+    <t>Post_op_care/Epidural Haematoma.pdf</t>
   </si>
   <si>
     <t>Breathing(Respiratory)/Equipment/T piece Y piece.pdf</t>
   </si>
   <si>
-    <t>Post_op_care/Epidural Haematoma.pdf</t>
-  </si>
-  <si>
-    <t>Neurological/SOP for review of Neurosurgical patients in ITU by neurosurgical team.pdf</t>
-  </si>
-  <si>
     <t>Policies_and_admin/General Critical Care Interaction with HEPMA_pub.pdf</t>
   </si>
   <si>
@@ -235,24 +235,24 @@
     <t>Drugs/Antibiotic doses in CVVHD.pdf</t>
   </si>
   <si>
+    <t>GI_Liver_and_Transplant/Nasojejunal feeding protocol.pdf</t>
+  </si>
+  <si>
     <t>GI_Liver_and_Transplant/Jejunostomy feeding protocol.pdf</t>
   </si>
   <si>
-    <t>GI_Liver_and_Transplant/Nasojejunal feeding protocol.pdf</t>
-  </si>
-  <si>
     <t>ECLS/RIE ECLS Anti Xa Protocol.pdf</t>
   </si>
   <si>
+    <t>Drugs/vasopressin_sepsis.pdf</t>
+  </si>
+  <si>
     <t>Drugs/vasopressin organ donation.pdf</t>
   </si>
   <si>
     <t>Infection_and_sepsis/Winter Infections Stepdown Guidance.pdf</t>
   </si>
   <si>
-    <t>Drugs/vasopressin_sepsis.pdf</t>
-  </si>
-  <si>
     <t>Covid-19/videos/Donning and Doffing Video.pdf</t>
   </si>
   <si>
@@ -268,12 +268,12 @@
     <t>Drugs/piperacillin_tazobactam extended_infusion.pdf</t>
   </si>
   <si>
+    <t>Covid-19/Covid 19 Death Certification Guideline.pdf</t>
+  </si>
+  <si>
     <t>Procedures/CVC Guidance/Securing CVCs.pdf</t>
   </si>
   <si>
-    <t>Covid-19/Covid 19 Death Certification Guideline.pdf</t>
-  </si>
-  <si>
     <t>Routine_Care/Video Communication.pdf</t>
   </si>
   <si>
@@ -292,40 +292,46 @@
     <t>Drugs/aminophylline.pdf</t>
   </si>
   <si>
+    <t>Drugs/pancuronium.pdf</t>
+  </si>
+  <si>
+    <t>Haematology_CAR-T/ICANS.pdf</t>
+  </si>
+  <si>
+    <t>Haematology_CAR-T/CRS.pdf</t>
+  </si>
+  <si>
+    <t>Drugs/phenytoin.pdf</t>
+  </si>
+  <si>
     <t>Drugs/rocuronium.pdf</t>
   </si>
   <si>
-    <t>Haematology_CAR-T/ICANS.pdf</t>
-  </si>
-  <si>
-    <t>Drugs/phenytoin.pdf</t>
-  </si>
-  <si>
-    <t>Drugs/pancuronium.pdf</t>
-  </si>
-  <si>
-    <t>Haematology_CAR-T/CRS.pdf</t>
-  </si>
-  <si>
     <t>Drugs/milrinone.pdf</t>
   </si>
   <si>
     <t>Policies_and_admin/General Critical Care SOP_pub.pdf</t>
   </si>
   <si>
+    <t>Ethics_and_Law/DNACPR policy for Scotland.pdf</t>
+  </si>
+  <si>
+    <t>Covid-19/COVID 19 ICM guidance basic goals_June_2022.pdf</t>
+  </si>
+  <si>
+    <t>Organ_donation/Organ Retrieval SOP.pdf</t>
+  </si>
+  <si>
     <t>Neurological/Management of traumatic brain injury.pdf</t>
   </si>
   <si>
-    <t>Organ_donation/Organ Retrieval SOP.pdf</t>
+    <t>Infection_and_sepsis/Trip Out of Unit infection guidance.pdf</t>
   </si>
   <si>
     <t>Drugs/clonidine.pdf</t>
   </si>
   <si>
-    <t>Infection_and_sepsis/Trip Out of Unit infection guidance.pdf</t>
-  </si>
-  <si>
-    <t>Covid-19/COVID 19 ICM guidance basic goals_June_2022.pdf</t>
+    <t>GI_Liver_and_Transplant/ICU - Upper GI bleeding (Endoscopy guideline).pdf</t>
   </si>
   <si>
     <t>Neurological/Critical Care MRI Procedure_pub.pdf</t>
@@ -334,69 +340,63 @@
     <t>Ethics_and_Law/Care at the End of Life (FICM).pdf</t>
   </si>
   <si>
-    <t>Ethics_and_Law/DNACPR policy for Scotland.pdf</t>
-  </si>
-  <si>
     <t>End_of_life_care/Palliative extubation &amp; withdrawal of invasive ventilatory support nursing checklist.pdf</t>
   </si>
   <si>
     <t>End_of_life_care/CMO &amp; NRS Guidance for Doctors completing MCCD.pdf</t>
   </si>
   <si>
-    <t>GI_Liver_and_Transplant/ICU - Upper GI bleeding (Endoscopy guideline).pdf</t>
-  </si>
-  <si>
     <t>Airway/Cook Staged Extubation Set.pdf</t>
   </si>
   <si>
+    <t>End_of_life_care/End of Life Care Guideline for Critical Care.pdf</t>
+  </si>
+  <si>
+    <t>Drugs/noradrenaline (central).pdf</t>
+  </si>
+  <si>
     <t>Post_op_care/Epidural hypotension.pdf</t>
   </si>
   <si>
-    <t>End_of_life_care/End of Life Care Guideline for Critical Care.pdf</t>
-  </si>
-  <si>
-    <t>Drugs/noradrenaline (central).pdf</t>
+    <t>GI_Liver_and_Transplant/Confirmation of Nasogastric Tube Position.pdf</t>
+  </si>
+  <si>
+    <t>Breathing(Respiratory)/Equipment/Passy Muir Valve.pdf</t>
+  </si>
+  <si>
+    <t>GI_Liver_and_Transplant/Fulminant Liver Failure.pdf</t>
+  </si>
+  <si>
+    <t>Drugs/dexmedetomidine.pdf</t>
+  </si>
+  <si>
+    <t>Drugs/glyceryl_trinitrate.pdf</t>
   </si>
   <si>
     <t>Infection_and_sepsis/Antifungal guidance in critical care.pdf</t>
   </si>
   <si>
-    <t>Drugs/dexmedetomidine.pdf</t>
-  </si>
-  <si>
-    <t>Drugs/glyceryl_trinitrate.pdf</t>
-  </si>
-  <si>
-    <t>GI_Liver_and_Transplant/Confirmation of Nasogastric Tube Position.pdf</t>
-  </si>
-  <si>
-    <t>Breathing(Respiratory)/Equipment/Passy Muir Valve.pdf</t>
-  </si>
-  <si>
-    <t>GI_Liver_and_Transplant/Fulminant Liver Failure.pdf</t>
+    <t>Cardiovascular/Intra Aortic Balloon Pump Guideline_pub.pdf</t>
+  </si>
+  <si>
+    <t>Cardiovascular/Intra Aortic Balloon Pump Bedside Checks_pub.pdf</t>
+  </si>
+  <si>
+    <t>Transfer/Transfer Outdoors to Garden Guideline.pdf</t>
   </si>
   <si>
     <t>Breathing(Respiratory)/ARDS Strategy.pdf</t>
   </si>
   <si>
-    <t>Cardiovascular/Intra Aortic Balloon Pump Guideline_pub.pdf</t>
-  </si>
-  <si>
-    <t>Cardiovascular/Intra Aortic Balloon Pump Bedside Checks_pub.pdf</t>
-  </si>
-  <si>
-    <t>Transfer/Transfer Outdoors to Garden Guideline.pdf</t>
+    <t>Drugs/dobutamine.pdf</t>
+  </si>
+  <si>
+    <t>Drugs/adrenaline.pdf</t>
   </si>
   <si>
     <t>Drugs/hydralazine.pdf</t>
   </si>
   <si>
-    <t>Drugs/dobutamine.pdf</t>
-  </si>
-  <si>
-    <t>Drugs/adrenaline.pdf</t>
-  </si>
-  <si>
     <t>Post_op_care/Major OMFS Free Flap.pdf</t>
   </si>
   <si>
@@ -409,28 +409,34 @@
     <t>Drugs/magnesium.pdf</t>
   </si>
   <si>
+    <t>Drugs/neostigmine.pdf</t>
+  </si>
+  <si>
     <t>Drugs/ICU - IV drug infusions.pdf</t>
   </si>
   <si>
-    <t>Drugs/neostigmine.pdf</t>
-  </si>
-  <si>
     <t>Drugs/vancomycin.pdf</t>
   </si>
   <si>
+    <t>Neurological/Intrathecal policy RIE.pdf</t>
+  </si>
+  <si>
     <t>Infection_and_sepsis/Initial investigation and management in unidentified Infections.pdf</t>
   </si>
   <si>
-    <t>Neurological/Intrathecal policy RIE.pdf</t>
-  </si>
-  <si>
     <t>Drugs/labetalol.pdf</t>
   </si>
   <si>
+    <t>Cardiovascular/Management of Acute Type B Aortic Dissection Guideline.pdf</t>
+  </si>
+  <si>
     <t>Drugs/midazolam.pdf</t>
   </si>
   <si>
-    <t>Cardiovascular/Management of Acute Type B Aortic Dissection Guideline.pdf</t>
+    <t>Drugs/potassium.pdf</t>
+  </si>
+  <si>
+    <t>Drugs/nimodipine.pdf</t>
   </si>
   <si>
     <t>Procedures/CVC Guidance/CVC NHL  April 2023.pdf</t>
@@ -439,82 +445,82 @@
     <t>Drugs/salbutamol.pdf</t>
   </si>
   <si>
-    <t>Drugs/potassium.pdf</t>
-  </si>
-  <si>
-    <t>Drugs/nimodipine.pdf</t>
+    <t>Drugs/nicardipine.pdf</t>
   </si>
   <si>
     <t>Routine_Care/ICU Eye Care Guideline.pdf</t>
   </si>
   <si>
+    <t>Drugs/amiodarone.pdf</t>
+  </si>
+  <si>
     <t>Procedures/Arterial Line insertion for ACCPs.pdf</t>
   </si>
   <si>
     <t>Drugs/phenobarbitone.pdf</t>
   </si>
   <si>
-    <t>Drugs/nicardipine.pdf</t>
-  </si>
-  <si>
-    <t>Drugs/amiodarone.pdf</t>
+    <t>Drugs/morphine.pdf</t>
+  </si>
+  <si>
+    <t>Drugs/noradrenaline (peripheral).pdf</t>
+  </si>
+  <si>
+    <t>Neurological/Ventriculitis Guideline.pdf</t>
+  </si>
+  <si>
+    <t>Drugs/phenylephrine.pdf</t>
+  </si>
+  <si>
+    <t>Drugs/Epoprostenol.pdf</t>
   </si>
   <si>
     <t>Breathing(Respiratory)/Manual Ventilation and MHI.pdf</t>
   </si>
   <si>
-    <t>Drugs/morphine.pdf</t>
-  </si>
-  <si>
-    <t>Neurological/Ventriculitis Guideline.pdf</t>
-  </si>
-  <si>
-    <t>Drugs/phenylephrine.pdf</t>
-  </si>
-  <si>
-    <t>Drugs/Epoprostenol.pdf</t>
-  </si>
-  <si>
-    <t>Drugs/noradrenaline (peripheral).pdf</t>
+    <t>Cardiovascular/Pulmonary_Embolism_and_DVT/Catheter directed thrombolysis of iliofemoral DVT alteplase_pub.pdf</t>
+  </si>
+  <si>
+    <t>Cardiovascular/Cardiac Output Monitoring_pub .pdf</t>
   </si>
   <si>
     <t>Drugs/calcium.pdf</t>
   </si>
   <si>
-    <t>Cardiovascular/Cardiac Output Monitoring_pub .pdf</t>
-  </si>
-  <si>
-    <t>Cardiovascular/Pulmonary_Embolism_and_DVT/Catheter directed thrombolysis of iliofemoral DVT alteplase_pub.pdf</t>
-  </si>
-  <si>
     <t>Drugs/atracurium.pdf</t>
   </si>
   <si>
+    <t>Drugs/dalteparin_thromboprophylaxis.pdf</t>
+  </si>
+  <si>
+    <t>Airway/Tracheostomy_Laryngectomy/Decannulation Guidline.pdf</t>
+  </si>
+  <si>
     <t>Drugs/Vancomycin Continuous Infusion Fluid Restricted.pdf</t>
   </si>
   <si>
-    <t>Drugs/dalteparin_thromboprophylaxis.pdf</t>
-  </si>
-  <si>
-    <t>Airway/Tracheostomy_Laryngectomy/Decannulation Guidline.pdf</t>
-  </si>
-  <si>
     <t>Policies_and_admin/Pet Visitation.pdf</t>
   </si>
   <si>
+    <t>Procedures/Inadvertent Catheter Placement Guideline.pdf</t>
+  </si>
+  <si>
     <t>Drugs/valproate.pdf</t>
   </si>
   <si>
-    <t>Procedures/Inadvertent Catheter Placement Guideline.pdf</t>
+    <t>Drugs/ketamine_for_status epilepticus.pdf</t>
+  </si>
+  <si>
+    <t>Drugs/stress ulcer prophylaxis.pdf</t>
   </si>
   <si>
     <t>Drugs/Phosphate.pdf</t>
   </si>
   <si>
-    <t>Drugs/stress ulcer prophylaxis.pdf</t>
-  </si>
-  <si>
-    <t>Drugs/ketamine_for_status epilepticus.pdf</t>
+    <t>GI_Liver_and_Transplant/Prokinetics in ICU.pdf</t>
+  </si>
+  <si>
+    <t>Neurological/Status epilepticus.pdf</t>
   </si>
   <si>
     <t>Drugs/Thiopentone.pdf</t>
@@ -526,18 +532,12 @@
     <t>Breathing(Respiratory)/Proning Guideline.pdf</t>
   </si>
   <si>
-    <t>Neurological/Status epilepticus.pdf</t>
-  </si>
-  <si>
-    <t>GI_Liver_and_Transplant/Prokinetics in ICU.pdf</t>
+    <t>Procedures/ACCPs acquiring initial CVC competencies.pdf</t>
   </si>
   <si>
     <t>Procedures/ACCP CVC placement following completion of initial competencies.pdf</t>
   </si>
   <si>
-    <t>Procedures/ACCPs acquiring initial CVC competencies.pdf</t>
-  </si>
-  <si>
     <t>Post_op_care/Prevention and treatment of paraplegia after major aortic procedures.pdf</t>
   </si>
   <si>
@@ -550,15 +550,15 @@
     <t>GI_Liver_and_Transplant/Plasma exchange in Acute Liver Failure.pdf</t>
   </si>
   <si>
+    <t>Breathing(Respiratory)/Equipment/NIV through Drager Vent Set up in Critical Care.pdf</t>
+  </si>
+  <si>
+    <t>Transfer/Transfer Guidelines.pdf</t>
+  </si>
+  <si>
     <t>End_of_life_care/Guideline following Sudden Cardiac Death where death occurs in ICU.pdf</t>
   </si>
   <si>
-    <t>Breathing(Respiratory)/Equipment/NIV through Drager Vent Set up in Critical Care.pdf</t>
-  </si>
-  <si>
-    <t>Transfer/Transfer Guidelines.pdf</t>
-  </si>
-  <si>
     <t>Breathing(Respiratory)/Equipment/Setting up the NKV-330.pdf</t>
   </si>
   <si>
@@ -580,207 +580,207 @@
     <t>Policies_and_admin/Repatriaiton Checklist for Critical Care.pdf</t>
   </si>
   <si>
-    <t>2011-03-28</t>
-  </si>
-  <si>
-    <t>2011-06-28</t>
-  </si>
-  <si>
-    <t>2011-07-28</t>
-  </si>
-  <si>
-    <t>2011-12-28</t>
-  </si>
-  <si>
-    <t>2014-09-28</t>
-  </si>
-  <si>
-    <t>2014-10-28</t>
-  </si>
-  <si>
-    <t>2014-11-28</t>
-  </si>
-  <si>
-    <t>2014-12-28</t>
-  </si>
-  <si>
-    <t>2015-03-28</t>
-  </si>
-  <si>
-    <t>2016-01-28</t>
-  </si>
-  <si>
-    <t>2016-04-28</t>
-  </si>
-  <si>
-    <t>2016-08-28</t>
-  </si>
-  <si>
-    <t>2017-01-28</t>
-  </si>
-  <si>
-    <t>2017-08-28</t>
-  </si>
-  <si>
-    <t>2017-10-28</t>
-  </si>
-  <si>
-    <t>2017-11-28</t>
-  </si>
-  <si>
-    <t>2018-05-28</t>
-  </si>
-  <si>
-    <t>2018-07-28</t>
-  </si>
-  <si>
-    <t>2019-05-28</t>
-  </si>
-  <si>
-    <t>2019-06-28</t>
-  </si>
-  <si>
-    <t>2019-08-28</t>
-  </si>
-  <si>
-    <t>2019-09-28</t>
-  </si>
-  <si>
-    <t>2020-01-28</t>
-  </si>
-  <si>
-    <t>2020-03-28</t>
-  </si>
-  <si>
-    <t>2020-04-28</t>
-  </si>
-  <si>
-    <t>2020-05-28</t>
-  </si>
-  <si>
-    <t>2020-07-28</t>
-  </si>
-  <si>
-    <t>2020-08-28</t>
-  </si>
-  <si>
-    <t>2020-11-28</t>
-  </si>
-  <si>
-    <t>2021-02-28</t>
-  </si>
-  <si>
-    <t>2021-05-28</t>
-  </si>
-  <si>
-    <t>2021-06-28</t>
-  </si>
-  <si>
-    <t>2021-09-28</t>
-  </si>
-  <si>
-    <t>2021-12-28</t>
-  </si>
-  <si>
-    <t>2022-01-28</t>
-  </si>
-  <si>
-    <t>2022-03-28</t>
-  </si>
-  <si>
-    <t>2022-04-28</t>
-  </si>
-  <si>
-    <t>2022-05-28</t>
-  </si>
-  <si>
-    <t>2022-06-28</t>
-  </si>
-  <si>
-    <t>2022-07-28</t>
-  </si>
-  <si>
-    <t>2022-08-28</t>
-  </si>
-  <si>
-    <t>2022-10-28</t>
-  </si>
-  <si>
-    <t>2022-11-28</t>
-  </si>
-  <si>
-    <t>2022-12-28</t>
-  </si>
-  <si>
-    <t>2023-01-28</t>
-  </si>
-  <si>
-    <t>2023-02-28</t>
-  </si>
-  <si>
-    <t>2023-04-28</t>
-  </si>
-  <si>
-    <t>2023-05-28</t>
-  </si>
-  <si>
-    <t>2023-06-28</t>
-  </si>
-  <si>
-    <t>2023-07-28</t>
-  </si>
-  <si>
-    <t>2023-08-28</t>
-  </si>
-  <si>
-    <t>2023-09-28</t>
-  </si>
-  <si>
-    <t>2023-10-28</t>
-  </si>
-  <si>
-    <t>2024-01-28</t>
-  </si>
-  <si>
-    <t>2024-02-28</t>
-  </si>
-  <si>
-    <t>2024-03-28</t>
-  </si>
-  <si>
-    <t>2024-04-28</t>
-  </si>
-  <si>
-    <t>2024-05-28</t>
+    <t>2011-03-04</t>
+  </si>
+  <si>
+    <t>2011-06-04</t>
+  </si>
+  <si>
+    <t>2011-07-04</t>
+  </si>
+  <si>
+    <t>2011-12-04</t>
+  </si>
+  <si>
+    <t>2014-09-04</t>
+  </si>
+  <si>
+    <t>2014-10-04</t>
+  </si>
+  <si>
+    <t>2014-11-04</t>
+  </si>
+  <si>
+    <t>2014-12-04</t>
+  </si>
+  <si>
+    <t>2015-03-04</t>
+  </si>
+  <si>
+    <t>2016-01-04</t>
+  </si>
+  <si>
+    <t>2016-04-04</t>
+  </si>
+  <si>
+    <t>2016-08-04</t>
+  </si>
+  <si>
+    <t>2017-01-04</t>
+  </si>
+  <si>
+    <t>2017-08-04</t>
+  </si>
+  <si>
+    <t>2017-10-04</t>
+  </si>
+  <si>
+    <t>2017-11-04</t>
+  </si>
+  <si>
+    <t>2018-05-04</t>
+  </si>
+  <si>
+    <t>2018-07-04</t>
+  </si>
+  <si>
+    <t>2019-05-04</t>
+  </si>
+  <si>
+    <t>2019-06-04</t>
+  </si>
+  <si>
+    <t>2019-08-04</t>
+  </si>
+  <si>
+    <t>2019-09-04</t>
+  </si>
+  <si>
+    <t>2020-01-04</t>
+  </si>
+  <si>
+    <t>2020-03-04</t>
+  </si>
+  <si>
+    <t>2020-04-04</t>
+  </si>
+  <si>
+    <t>2020-05-04</t>
+  </si>
+  <si>
+    <t>2020-07-04</t>
+  </si>
+  <si>
+    <t>2020-08-04</t>
+  </si>
+  <si>
+    <t>2020-11-04</t>
+  </si>
+  <si>
+    <t>2021-02-04</t>
+  </si>
+  <si>
+    <t>2021-05-04</t>
+  </si>
+  <si>
+    <t>2021-06-04</t>
+  </si>
+  <si>
+    <t>2021-09-04</t>
+  </si>
+  <si>
+    <t>2021-12-04</t>
+  </si>
+  <si>
+    <t>2022-01-04</t>
+  </si>
+  <si>
+    <t>2022-03-04</t>
+  </si>
+  <si>
+    <t>2022-04-04</t>
+  </si>
+  <si>
+    <t>2022-05-04</t>
+  </si>
+  <si>
+    <t>2022-06-04</t>
+  </si>
+  <si>
+    <t>2022-07-04</t>
+  </si>
+  <si>
+    <t>2022-08-04</t>
+  </si>
+  <si>
+    <t>2022-10-04</t>
+  </si>
+  <si>
+    <t>2022-11-04</t>
+  </si>
+  <si>
+    <t>2022-12-04</t>
+  </si>
+  <si>
+    <t>2023-01-04</t>
+  </si>
+  <si>
+    <t>2023-02-04</t>
+  </si>
+  <si>
+    <t>2023-04-04</t>
+  </si>
+  <si>
+    <t>2023-05-04</t>
+  </si>
+  <si>
+    <t>2023-06-04</t>
+  </si>
+  <si>
+    <t>2023-07-04</t>
+  </si>
+  <si>
+    <t>2023-08-04</t>
+  </si>
+  <si>
+    <t>2023-09-04</t>
+  </si>
+  <si>
+    <t>2023-10-04</t>
+  </si>
+  <si>
+    <t>2024-01-04</t>
+  </si>
+  <si>
+    <t>2024-02-04</t>
+  </si>
+  <si>
+    <t>2024-03-04</t>
+  </si>
+  <si>
+    <t>2024-04-04</t>
+  </si>
+  <si>
+    <t>2024-05-04</t>
   </si>
   <si>
     <t>2024-06-02</t>
   </si>
   <si>
+    <t>2024-06-04</t>
+  </si>
+  <si>
     <t>2024-06-26</t>
   </si>
   <si>
-    <t>2024-06-28</t>
+    <t>2024-07-04</t>
   </si>
   <si>
     <t>2024-07-25</t>
   </si>
   <si>
-    <t>2024-07-28</t>
+    <t>2024-08-04</t>
   </si>
   <si>
     <t>2024-08-15</t>
   </si>
   <si>
-    <t>2024-08-28</t>
+    <t>2024-10-04</t>
   </si>
   <si>
     <t>2024-10-24</t>
   </si>
   <si>
-    <t>2024-10-28</t>
-  </si>
-  <si>
     <t>2024-11-20</t>
   </si>
   <si>
@@ -790,73 +790,76 @@
     <t>2024-12-24</t>
   </si>
   <si>
-    <t>2025-01-28</t>
-  </si>
-  <si>
-    <t>2025-02-28</t>
-  </si>
-  <si>
-    <t>2025-03-28</t>
-  </si>
-  <si>
-    <t>2025-04-28</t>
-  </si>
-  <si>
-    <t>2025-05-28</t>
-  </si>
-  <si>
-    <t>2025-06-28</t>
-  </si>
-  <si>
-    <t>2025-07-28</t>
-  </si>
-  <si>
-    <t>2025-08-28</t>
-  </si>
-  <si>
-    <t>2025-10-28</t>
-  </si>
-  <si>
-    <t>2025-11-28</t>
-  </si>
-  <si>
-    <t>2026-01-28</t>
-  </si>
-  <si>
-    <t>2026-03-28</t>
-  </si>
-  <si>
-    <t>2026-05-28</t>
-  </si>
-  <si>
-    <t>2026-07-28</t>
-  </si>
-  <si>
-    <t>2026-11-28</t>
-  </si>
-  <si>
-    <t>2027-01-28</t>
-  </si>
-  <si>
-    <t>2027-02-28</t>
-  </si>
-  <si>
-    <t>2028-02-28</t>
-  </si>
-  <si>
-    <t>2028-03-28</t>
-  </si>
-  <si>
-    <t>2028-05-28</t>
-  </si>
-  <si>
-    <t>2028-07-28</t>
-  </si>
-  <si>
-    <t>2028-11-28</t>
-  </si>
-  <si>
-    <t>2030-11-28</t>
+    <t>2025-01-04</t>
+  </si>
+  <si>
+    <t>2025-02-04</t>
+  </si>
+  <si>
+    <t>2025-03-04</t>
+  </si>
+  <si>
+    <t>2025-04-04</t>
+  </si>
+  <si>
+    <t>2025-05-04</t>
+  </si>
+  <si>
+    <t>2025-06-04</t>
+  </si>
+  <si>
+    <t>2025-07-04</t>
+  </si>
+  <si>
+    <t>2025-08-04</t>
+  </si>
+  <si>
+    <t>2025-10-04</t>
+  </si>
+  <si>
+    <t>2025-11-04</t>
+  </si>
+  <si>
+    <t>2026-01-04</t>
+  </si>
+  <si>
+    <t>2026-03-04</t>
+  </si>
+  <si>
+    <t>2026-05-04</t>
+  </si>
+  <si>
+    <t>2026-07-04</t>
+  </si>
+  <si>
+    <t>2026-11-04</t>
+  </si>
+  <si>
+    <t>2027-01-04</t>
+  </si>
+  <si>
+    <t>2027-02-04</t>
+  </si>
+  <si>
+    <t>2027-03-04</t>
+  </si>
+  <si>
+    <t>2028-02-04</t>
+  </si>
+  <si>
+    <t>2028-03-04</t>
+  </si>
+  <si>
+    <t>2028-05-04</t>
+  </si>
+  <si>
+    <t>2028-07-04</t>
+  </si>
+  <si>
+    <t>2028-11-04</t>
+  </si>
+  <si>
+    <t>2030-11-04</t>
   </si>
 </sst>
 </file>
@@ -2113,7 +2116,7 @@
         <v>112</v>
       </c>
       <c r="B112" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="113" spans="1:2">
@@ -2137,7 +2140,7 @@
         <v>115</v>
       </c>
       <c r="B115" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="116" spans="1:2">
@@ -2145,7 +2148,7 @@
         <v>116</v>
       </c>
       <c r="B116" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="117" spans="1:2">
@@ -2153,7 +2156,7 @@
         <v>117</v>
       </c>
       <c r="B117" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="118" spans="1:2">
@@ -2161,7 +2164,7 @@
         <v>118</v>
       </c>
       <c r="B118" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="119" spans="1:2">
@@ -2185,7 +2188,7 @@
         <v>121</v>
       </c>
       <c r="B121" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="122" spans="1:2">
@@ -2193,7 +2196,7 @@
         <v>122</v>
       </c>
       <c r="B122" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="123" spans="1:2">
@@ -2217,7 +2220,7 @@
         <v>125</v>
       </c>
       <c r="B125" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="126" spans="1:2">
@@ -2649,7 +2652,7 @@
         <v>179</v>
       </c>
       <c r="B179" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
     </row>
     <row r="180" spans="1:2">
@@ -2657,7 +2660,7 @@
         <v>180</v>
       </c>
       <c r="B180" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
     </row>
     <row r="181" spans="1:2">
@@ -2665,7 +2668,7 @@
         <v>181</v>
       </c>
       <c r="B181" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
     </row>
     <row r="182" spans="1:2">
@@ -2673,7 +2676,7 @@
         <v>182</v>
       </c>
       <c r="B182" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
     </row>
     <row r="183" spans="1:2">
@@ -2681,7 +2684,7 @@
         <v>183</v>
       </c>
       <c r="B183" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
     </row>
     <row r="184" spans="1:2">
@@ -2689,7 +2692,7 @@
         <v>184</v>
       </c>
       <c r="B184" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
     </row>
     <row r="185" spans="1:2">
@@ -2697,7 +2700,7 @@
         <v>185</v>
       </c>
       <c r="B185" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
     </row>
     <row r="186" spans="1:2">
@@ -2705,7 +2708,7 @@
         <v>186</v>
       </c>
       <c r="B186" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
     </row>
     <row r="187" spans="1:2">
@@ -2713,7 +2716,7 @@
         <v>187</v>
       </c>
       <c r="B187" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
     </row>
   </sheetData>

--- a/lothiancriticalcare/1a74f8f7b8b7e871b413c4697f68b4401fbacdf0/reviewdates.xlsx
+++ b/lothiancriticalcare/1a74f8f7b8b7e871b413c4697f68b4401fbacdf0/reviewdates.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="282">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="281">
   <si>
     <t>File</t>
   </si>
@@ -202,12 +202,12 @@
     <t>Neurological/SOP for review of Neurosurgical patients in ITU by neurosurgical team.pdf</t>
   </si>
   <si>
+    <t>Breathing(Respiratory)/Equipment/T piece Y piece.pdf</t>
+  </si>
+  <si>
     <t>Post_op_care/Epidural Haematoma.pdf</t>
   </si>
   <si>
-    <t>Breathing(Respiratory)/Equipment/T piece Y piece.pdf</t>
-  </si>
-  <si>
     <t>Policies_and_admin/General Critical Care Interaction with HEPMA_pub.pdf</t>
   </si>
   <si>
@@ -217,31 +217,34 @@
     <t>Breathing(Respiratory)/Equipment/HFNO through ventilator.pdf</t>
   </si>
   <si>
+    <t>Post_op_care/Adult Scoliosis Spinal Surgery Post-Op Care.pdf</t>
+  </si>
+  <si>
     <t>Routine_Care/VTE_Prevention/Dalteparin_thromboprophylaxis.pdf</t>
   </si>
   <si>
-    <t>Post_op_care/Adult Scoliosis Spinal Surgery Post-Op Care.pdf</t>
-  </si>
-  <si>
     <t>Post_op_care/Post op care pharyngo-laryngo-oesphagectomy PLOG.pdf</t>
   </si>
   <si>
     <t>GI_Liver_and_Transplant/Nasogastric feeding protocol.pdf</t>
   </si>
   <si>
+    <t>Drugs/Antibiotic doses in CVVHD.pdf</t>
+  </si>
+  <si>
     <t>Diabetes_and_Glucose/Intravenous Insulin Therapy (not for DKA or HHS).pdf</t>
   </si>
   <si>
-    <t>Drugs/Antibiotic doses in CVVHD.pdf</t>
+    <t>ECLS/RIE ECLS Anti Xa Protocol.pdf</t>
+  </si>
+  <si>
+    <t>GI_Liver_and_Transplant/Jejunostomy feeding protocol.pdf</t>
   </si>
   <si>
     <t>GI_Liver_and_Transplant/Nasojejunal feeding protocol.pdf</t>
   </si>
   <si>
-    <t>GI_Liver_and_Transplant/Jejunostomy feeding protocol.pdf</t>
-  </si>
-  <si>
-    <t>ECLS/RIE ECLS Anti Xa Protocol.pdf</t>
+    <t>Infection_and_sepsis/Winter Infections Stepdown Guidance.pdf</t>
   </si>
   <si>
     <t>Drugs/vasopressin_sepsis.pdf</t>
@@ -250,24 +253,21 @@
     <t>Drugs/vasopressin organ donation.pdf</t>
   </si>
   <si>
-    <t>Infection_and_sepsis/Winter Infections Stepdown Guidance.pdf</t>
+    <t>Transfer/ACCP Transfers.pdf</t>
   </si>
   <si>
     <t>Covid-19/videos/Donning and Doffing Video.pdf</t>
   </si>
   <si>
-    <t>Transfer/ACCP Transfers.pdf</t>
-  </si>
-  <si>
     <t>Breathing(Respiratory)/Equipment/Ventilators Circuits Filters and Closed Suction - Set up and Maintenance.pdf</t>
   </si>
   <si>
+    <t>Drugs/piperacillin_tazobactam extended_infusion.pdf</t>
+  </si>
+  <si>
     <t>Infection_and_sepsis/Infection indications for IVIG.pdf</t>
   </si>
   <si>
-    <t>Drugs/piperacillin_tazobactam extended_infusion.pdf</t>
-  </si>
-  <si>
     <t>Covid-19/Covid 19 Death Certification Guideline.pdf</t>
   </si>
   <si>
@@ -277,123 +277,123 @@
     <t>Routine_Care/Video Communication.pdf</t>
   </si>
   <si>
+    <t>Cardiovascular/Cardiogenic Shock.pdf</t>
+  </si>
+  <si>
     <t>Drugs/isoprenaline.pdf</t>
   </si>
   <si>
-    <t>Cardiovascular/Cardiogenic Shock.pdf</t>
-  </si>
-  <si>
     <t>Haematology_CAR-T/Haem_ICU_transfer.pdf</t>
   </si>
   <si>
+    <t>Drugs/aminophylline.pdf</t>
+  </si>
+  <si>
     <t>Cardiovascular/Management of hypertension within Critical Care.pdf</t>
   </si>
   <si>
-    <t>Drugs/aminophylline.pdf</t>
+    <t>Drugs/rocuronium.pdf</t>
   </si>
   <si>
     <t>Drugs/pancuronium.pdf</t>
   </si>
   <si>
+    <t>Haematology_CAR-T/CRS.pdf</t>
+  </si>
+  <si>
     <t>Haematology_CAR-T/ICANS.pdf</t>
   </si>
   <si>
-    <t>Haematology_CAR-T/CRS.pdf</t>
-  </si>
-  <si>
     <t>Drugs/phenytoin.pdf</t>
   </si>
   <si>
-    <t>Drugs/rocuronium.pdf</t>
-  </si>
-  <si>
     <t>Drugs/milrinone.pdf</t>
   </si>
   <si>
     <t>Policies_and_admin/General Critical Care SOP_pub.pdf</t>
   </si>
   <si>
+    <t>Organ_donation/Organ Retrieval SOP.pdf</t>
+  </si>
+  <si>
+    <t>Covid-19/COVID 19 ICM guidance basic goals_June_2022.pdf</t>
+  </si>
+  <si>
     <t>Ethics_and_Law/DNACPR policy for Scotland.pdf</t>
   </si>
   <si>
-    <t>Covid-19/COVID 19 ICM guidance basic goals_June_2022.pdf</t>
-  </si>
-  <si>
-    <t>Organ_donation/Organ Retrieval SOP.pdf</t>
+    <t>Infection_and_sepsis/Trip Out of Unit infection guidance.pdf</t>
+  </si>
+  <si>
+    <t>Neurological/Critical Care MRI Procedure_pub.pdf</t>
   </si>
   <si>
     <t>Neurological/Management of traumatic brain injury.pdf</t>
   </si>
   <si>
-    <t>Infection_and_sepsis/Trip Out of Unit infection guidance.pdf</t>
+    <t>GI_Liver_and_Transplant/ICU - Upper GI bleeding (Endoscopy guideline).pdf</t>
+  </si>
+  <si>
+    <t>Ethics_and_Law/Care at the End of Life (FICM).pdf</t>
+  </si>
+  <si>
+    <t>End_of_life_care/CMO &amp; NRS Guidance for Doctors completing MCCD.pdf</t>
   </si>
   <si>
     <t>Drugs/clonidine.pdf</t>
   </si>
   <si>
-    <t>GI_Liver_and_Transplant/ICU - Upper GI bleeding (Endoscopy guideline).pdf</t>
-  </si>
-  <si>
-    <t>Neurological/Critical Care MRI Procedure_pub.pdf</t>
-  </si>
-  <si>
-    <t>Ethics_and_Law/Care at the End of Life (FICM).pdf</t>
-  </si>
-  <si>
     <t>End_of_life_care/Palliative extubation &amp; withdrawal of invasive ventilatory support nursing checklist.pdf</t>
   </si>
   <si>
-    <t>End_of_life_care/CMO &amp; NRS Guidance for Doctors completing MCCD.pdf</t>
-  </si>
-  <si>
     <t>Airway/Cook Staged Extubation Set.pdf</t>
   </si>
   <si>
+    <t>Drugs/noradrenaline (central).pdf</t>
+  </si>
+  <si>
     <t>End_of_life_care/End of Life Care Guideline for Critical Care.pdf</t>
   </si>
   <si>
-    <t>Drugs/noradrenaline (central).pdf</t>
-  </si>
-  <si>
     <t>Post_op_care/Epidural hypotension.pdf</t>
   </si>
   <si>
+    <t>GI_Liver_and_Transplant/Fulminant Liver Failure.pdf</t>
+  </si>
+  <si>
+    <t>Drugs/dexmedetomidine.pdf</t>
+  </si>
+  <si>
+    <t>Drugs/glyceryl_trinitrate.pdf</t>
+  </si>
+  <si>
     <t>GI_Liver_and_Transplant/Confirmation of Nasogastric Tube Position.pdf</t>
   </si>
   <si>
     <t>Breathing(Respiratory)/Equipment/Passy Muir Valve.pdf</t>
   </si>
   <si>
-    <t>GI_Liver_and_Transplant/Fulminant Liver Failure.pdf</t>
-  </si>
-  <si>
-    <t>Drugs/dexmedetomidine.pdf</t>
-  </si>
-  <si>
-    <t>Drugs/glyceryl_trinitrate.pdf</t>
-  </si>
-  <si>
     <t>Infection_and_sepsis/Antifungal guidance in critical care.pdf</t>
   </si>
   <si>
+    <t>Breathing(Respiratory)/ARDS Strategy.pdf</t>
+  </si>
+  <si>
+    <t>Transfer/Transfer Outdoors to Garden Guideline.pdf</t>
+  </si>
+  <si>
     <t>Cardiovascular/Intra Aortic Balloon Pump Guideline_pub.pdf</t>
   </si>
   <si>
     <t>Cardiovascular/Intra Aortic Balloon Pump Bedside Checks_pub.pdf</t>
   </si>
   <si>
-    <t>Transfer/Transfer Outdoors to Garden Guideline.pdf</t>
-  </si>
-  <si>
-    <t>Breathing(Respiratory)/ARDS Strategy.pdf</t>
-  </si>
-  <si>
-    <t>Drugs/dobutamine.pdf</t>
-  </si>
-  <si>
     <t>Drugs/adrenaline.pdf</t>
   </si>
   <si>
+    <t>Drugs/Dobutamine.pdf</t>
+  </si>
+  <si>
     <t>Drugs/hydralazine.pdf</t>
   </si>
   <si>
@@ -418,31 +418,34 @@
     <t>Drugs/vancomycin.pdf</t>
   </si>
   <si>
+    <t>Infection_and_sepsis/Initial investigation and management in unidentified Infections.pdf</t>
+  </si>
+  <si>
+    <t>Drugs/labetalol.pdf</t>
+  </si>
+  <si>
     <t>Neurological/Intrathecal policy RIE.pdf</t>
   </si>
   <si>
-    <t>Infection_and_sepsis/Initial investigation and management in unidentified Infections.pdf</t>
-  </si>
-  <si>
-    <t>Drugs/labetalol.pdf</t>
-  </si>
-  <si>
     <t>Cardiovascular/Management of Acute Type B Aortic Dissection Guideline.pdf</t>
   </si>
   <si>
     <t>Drugs/midazolam.pdf</t>
   </si>
   <si>
+    <t>Drugs/nimodipine.pdf</t>
+  </si>
+  <si>
     <t>Drugs/potassium.pdf</t>
   </si>
   <si>
-    <t>Drugs/nimodipine.pdf</t>
+    <t>Drugs/salbutamol.pdf</t>
   </si>
   <si>
     <t>Procedures/CVC Guidance/CVC NHL  April 2023.pdf</t>
   </si>
   <si>
-    <t>Drugs/salbutamol.pdf</t>
+    <t>Drugs/amiodarone.pdf</t>
   </si>
   <si>
     <t>Drugs/nicardipine.pdf</t>
@@ -451,96 +454,93 @@
     <t>Routine_Care/ICU Eye Care Guideline.pdf</t>
   </si>
   <si>
-    <t>Drugs/amiodarone.pdf</t>
+    <t>Drugs/phenobarbitone.pdf</t>
   </si>
   <si>
     <t>Procedures/Arterial Line insertion for ACCPs.pdf</t>
   </si>
   <si>
-    <t>Drugs/phenobarbitone.pdf</t>
+    <t>Drugs/noradrenaline (peripheral).pdf</t>
+  </si>
+  <si>
+    <t>Breathing(Respiratory)/Manual Ventilation and MHI.pdf</t>
+  </si>
+  <si>
+    <t>Neurological/Ventriculitis Guideline.pdf</t>
+  </si>
+  <si>
+    <t>Drugs/Epoprostenol.pdf</t>
   </si>
   <si>
     <t>Drugs/morphine.pdf</t>
   </si>
   <si>
-    <t>Drugs/noradrenaline (peripheral).pdf</t>
-  </si>
-  <si>
-    <t>Neurological/Ventriculitis Guideline.pdf</t>
-  </si>
-  <si>
     <t>Drugs/phenylephrine.pdf</t>
   </si>
   <si>
-    <t>Drugs/Epoprostenol.pdf</t>
-  </si>
-  <si>
-    <t>Breathing(Respiratory)/Manual Ventilation and MHI.pdf</t>
+    <t>Drugs/calcium.pdf</t>
+  </si>
+  <si>
+    <t>Cardiovascular/Cardiac Output Monitoring_pub .pdf</t>
   </si>
   <si>
     <t>Cardiovascular/Pulmonary_Embolism_and_DVT/Catheter directed thrombolysis of iliofemoral DVT alteplase_pub.pdf</t>
   </si>
   <si>
-    <t>Cardiovascular/Cardiac Output Monitoring_pub .pdf</t>
-  </si>
-  <si>
-    <t>Drugs/calcium.pdf</t>
-  </si>
-  <si>
     <t>Drugs/atracurium.pdf</t>
   </si>
   <si>
+    <t>Airway/Tracheostomy_Laryngectomy/Decannulation Guidline.pdf</t>
+  </si>
+  <si>
     <t>Drugs/dalteparin_thromboprophylaxis.pdf</t>
   </si>
   <si>
-    <t>Airway/Tracheostomy_Laryngectomy/Decannulation Guidline.pdf</t>
-  </si>
-  <si>
     <t>Drugs/Vancomycin Continuous Infusion Fluid Restricted.pdf</t>
   </si>
   <si>
+    <t>Procedures/Inadvertent Catheter Placement Guideline.pdf</t>
+  </si>
+  <si>
+    <t>Drugs/valproate.pdf</t>
+  </si>
+  <si>
     <t>Policies_and_admin/Pet Visitation.pdf</t>
   </si>
   <si>
-    <t>Procedures/Inadvertent Catheter Placement Guideline.pdf</t>
-  </si>
-  <si>
-    <t>Drugs/valproate.pdf</t>
+    <t>Drugs/Phosphate.pdf</t>
+  </si>
+  <si>
+    <t>Drugs/stress ulcer prophylaxis.pdf</t>
   </si>
   <si>
     <t>Drugs/ketamine_for_status epilepticus.pdf</t>
   </si>
   <si>
-    <t>Drugs/stress ulcer prophylaxis.pdf</t>
-  </si>
-  <si>
-    <t>Drugs/Phosphate.pdf</t>
-  </si>
-  <si>
     <t>GI_Liver_and_Transplant/Prokinetics in ICU.pdf</t>
   </si>
   <si>
+    <t>Drugs/Thiopentone.pdf</t>
+  </si>
+  <si>
     <t>Neurological/Status epilepticus.pdf</t>
   </si>
   <si>
-    <t>Drugs/Thiopentone.pdf</t>
-  </si>
-  <si>
     <t>Drugs/Octreotide.pdf</t>
   </si>
   <si>
     <t>Breathing(Respiratory)/Proning Guideline.pdf</t>
   </si>
   <si>
+    <t>Procedures/ACCP CVC placement following completion of initial competencies.pdf</t>
+  </si>
+  <si>
+    <t>Post_op_care/Prevention and treatment of paraplegia after major aortic procedures.pdf</t>
+  </si>
+  <si>
     <t>Procedures/ACCPs acquiring initial CVC competencies.pdf</t>
   </si>
   <si>
-    <t>Procedures/ACCP CVC placement following completion of initial competencies.pdf</t>
-  </si>
-  <si>
-    <t>Post_op_care/Prevention and treatment of paraplegia after major aortic procedures.pdf</t>
-  </si>
-  <si>
     <t>Delirium/Violence and Agression.pdf</t>
   </si>
   <si>
@@ -562,12 +562,12 @@
     <t>Breathing(Respiratory)/Equipment/Setting up the NKV-330.pdf</t>
   </si>
   <si>
+    <t>Breathing(Respiratory)/NKV 330 NIV guidelines.pdf</t>
+  </si>
+  <si>
     <t>Breathing(Respiratory)/T1RF - CPAP Guidelines_Mar24.pdf</t>
   </si>
   <si>
-    <t>Breathing(Respiratory)/NKV 330 NIV guidelines.pdf</t>
-  </si>
-  <si>
     <t>Infection_and_sepsis/Influenza in Critical Care.pdf</t>
   </si>
   <si>
@@ -580,202 +580,199 @@
     <t>Policies_and_admin/Repatriaiton Checklist for Critical Care.pdf</t>
   </si>
   <si>
-    <t>2011-03-04</t>
-  </si>
-  <si>
-    <t>2011-06-04</t>
-  </si>
-  <si>
-    <t>2011-07-04</t>
-  </si>
-  <si>
-    <t>2011-12-04</t>
-  </si>
-  <si>
-    <t>2014-09-04</t>
-  </si>
-  <si>
-    <t>2014-10-04</t>
-  </si>
-  <si>
-    <t>2014-11-04</t>
-  </si>
-  <si>
-    <t>2014-12-04</t>
-  </si>
-  <si>
-    <t>2015-03-04</t>
-  </si>
-  <si>
-    <t>2016-01-04</t>
-  </si>
-  <si>
-    <t>2016-04-04</t>
-  </si>
-  <si>
-    <t>2016-08-04</t>
-  </si>
-  <si>
-    <t>2017-01-04</t>
-  </si>
-  <si>
-    <t>2017-08-04</t>
-  </si>
-  <si>
-    <t>2017-10-04</t>
-  </si>
-  <si>
-    <t>2017-11-04</t>
-  </si>
-  <si>
-    <t>2018-05-04</t>
-  </si>
-  <si>
-    <t>2018-07-04</t>
-  </si>
-  <si>
-    <t>2019-05-04</t>
-  </si>
-  <si>
-    <t>2019-06-04</t>
-  </si>
-  <si>
-    <t>2019-08-04</t>
-  </si>
-  <si>
-    <t>2019-09-04</t>
-  </si>
-  <si>
-    <t>2020-01-04</t>
-  </si>
-  <si>
-    <t>2020-03-04</t>
-  </si>
-  <si>
-    <t>2020-04-04</t>
-  </si>
-  <si>
-    <t>2020-05-04</t>
-  </si>
-  <si>
-    <t>2020-07-04</t>
-  </si>
-  <si>
-    <t>2020-08-04</t>
-  </si>
-  <si>
-    <t>2020-11-04</t>
-  </si>
-  <si>
-    <t>2021-02-04</t>
-  </si>
-  <si>
-    <t>2021-05-04</t>
-  </si>
-  <si>
-    <t>2021-06-04</t>
-  </si>
-  <si>
-    <t>2021-09-04</t>
-  </si>
-  <si>
-    <t>2021-12-04</t>
-  </si>
-  <si>
-    <t>2022-01-04</t>
-  </si>
-  <si>
-    <t>2022-03-04</t>
-  </si>
-  <si>
-    <t>2022-04-04</t>
-  </si>
-  <si>
-    <t>2022-05-04</t>
-  </si>
-  <si>
-    <t>2022-06-04</t>
-  </si>
-  <si>
-    <t>2022-07-04</t>
-  </si>
-  <si>
-    <t>2022-08-04</t>
-  </si>
-  <si>
-    <t>2022-10-04</t>
-  </si>
-  <si>
-    <t>2022-11-04</t>
-  </si>
-  <si>
-    <t>2022-12-04</t>
-  </si>
-  <si>
-    <t>2023-01-04</t>
-  </si>
-  <si>
-    <t>2023-02-04</t>
-  </si>
-  <si>
-    <t>2023-04-04</t>
-  </si>
-  <si>
-    <t>2023-05-04</t>
-  </si>
-  <si>
-    <t>2023-06-04</t>
-  </si>
-  <si>
-    <t>2023-07-04</t>
-  </si>
-  <si>
-    <t>2023-08-04</t>
-  </si>
-  <si>
-    <t>2023-09-04</t>
-  </si>
-  <si>
-    <t>2023-10-04</t>
-  </si>
-  <si>
-    <t>2024-01-04</t>
-  </si>
-  <si>
-    <t>2024-02-04</t>
-  </si>
-  <si>
-    <t>2024-03-04</t>
-  </si>
-  <si>
-    <t>2024-04-04</t>
-  </si>
-  <si>
-    <t>2024-05-04</t>
+    <t>2011-03-15</t>
+  </si>
+  <si>
+    <t>2011-06-15</t>
+  </si>
+  <si>
+    <t>2011-07-15</t>
+  </si>
+  <si>
+    <t>2011-12-15</t>
+  </si>
+  <si>
+    <t>2014-09-15</t>
+  </si>
+  <si>
+    <t>2014-10-15</t>
+  </si>
+  <si>
+    <t>2014-11-15</t>
+  </si>
+  <si>
+    <t>2014-12-15</t>
+  </si>
+  <si>
+    <t>2015-03-15</t>
+  </si>
+  <si>
+    <t>2016-01-15</t>
+  </si>
+  <si>
+    <t>2016-04-15</t>
+  </si>
+  <si>
+    <t>2016-08-15</t>
+  </si>
+  <si>
+    <t>2017-01-15</t>
+  </si>
+  <si>
+    <t>2017-08-15</t>
+  </si>
+  <si>
+    <t>2017-10-15</t>
+  </si>
+  <si>
+    <t>2017-11-15</t>
+  </si>
+  <si>
+    <t>2018-05-15</t>
+  </si>
+  <si>
+    <t>2018-07-15</t>
+  </si>
+  <si>
+    <t>2019-05-15</t>
+  </si>
+  <si>
+    <t>2019-06-15</t>
+  </si>
+  <si>
+    <t>2019-08-15</t>
+  </si>
+  <si>
+    <t>2019-09-15</t>
+  </si>
+  <si>
+    <t>2020-01-15</t>
+  </si>
+  <si>
+    <t>2020-03-15</t>
+  </si>
+  <si>
+    <t>2020-04-15</t>
+  </si>
+  <si>
+    <t>2020-05-15</t>
+  </si>
+  <si>
+    <t>2020-07-15</t>
+  </si>
+  <si>
+    <t>2020-08-15</t>
+  </si>
+  <si>
+    <t>2020-11-15</t>
+  </si>
+  <si>
+    <t>2021-02-15</t>
+  </si>
+  <si>
+    <t>2021-05-15</t>
+  </si>
+  <si>
+    <t>2021-06-15</t>
+  </si>
+  <si>
+    <t>2021-09-15</t>
+  </si>
+  <si>
+    <t>2021-12-15</t>
+  </si>
+  <si>
+    <t>2022-01-15</t>
+  </si>
+  <si>
+    <t>2022-03-15</t>
+  </si>
+  <si>
+    <t>2022-04-15</t>
+  </si>
+  <si>
+    <t>2022-05-15</t>
+  </si>
+  <si>
+    <t>2022-06-15</t>
+  </si>
+  <si>
+    <t>2022-07-15</t>
+  </si>
+  <si>
+    <t>2022-08-15</t>
+  </si>
+  <si>
+    <t>2022-10-15</t>
+  </si>
+  <si>
+    <t>2022-11-15</t>
+  </si>
+  <si>
+    <t>2022-12-15</t>
+  </si>
+  <si>
+    <t>2023-01-15</t>
+  </si>
+  <si>
+    <t>2023-02-15</t>
+  </si>
+  <si>
+    <t>2023-04-15</t>
+  </si>
+  <si>
+    <t>2023-05-15</t>
+  </si>
+  <si>
+    <t>2023-06-15</t>
+  </si>
+  <si>
+    <t>2023-07-15</t>
+  </si>
+  <si>
+    <t>2023-08-15</t>
+  </si>
+  <si>
+    <t>2023-09-15</t>
+  </si>
+  <si>
+    <t>2023-10-15</t>
+  </si>
+  <si>
+    <t>2024-01-15</t>
+  </si>
+  <si>
+    <t>2024-02-15</t>
+  </si>
+  <si>
+    <t>2024-03-15</t>
+  </si>
+  <si>
+    <t>2024-04-15</t>
+  </si>
+  <si>
+    <t>2024-05-15</t>
   </si>
   <si>
     <t>2024-06-02</t>
   </si>
   <si>
-    <t>2024-06-04</t>
+    <t>2024-06-15</t>
   </si>
   <si>
     <t>2024-06-26</t>
   </si>
   <si>
-    <t>2024-07-04</t>
+    <t>2024-07-15</t>
   </si>
   <si>
     <t>2024-07-25</t>
   </si>
   <si>
-    <t>2024-08-04</t>
-  </si>
-  <si>
     <t>2024-08-15</t>
   </si>
   <si>
-    <t>2024-10-04</t>
+    <t>2024-10-15</t>
   </si>
   <si>
     <t>2024-10-24</t>
@@ -790,76 +787,76 @@
     <t>2024-12-24</t>
   </si>
   <si>
-    <t>2025-01-04</t>
-  </si>
-  <si>
-    <t>2025-02-04</t>
-  </si>
-  <si>
-    <t>2025-03-04</t>
-  </si>
-  <si>
-    <t>2025-04-04</t>
-  </si>
-  <si>
-    <t>2025-05-04</t>
-  </si>
-  <si>
-    <t>2025-06-04</t>
-  </si>
-  <si>
-    <t>2025-07-04</t>
-  </si>
-  <si>
-    <t>2025-08-04</t>
-  </si>
-  <si>
-    <t>2025-10-04</t>
-  </si>
-  <si>
-    <t>2025-11-04</t>
-  </si>
-  <si>
-    <t>2026-01-04</t>
-  </si>
-  <si>
-    <t>2026-03-04</t>
-  </si>
-  <si>
-    <t>2026-05-04</t>
-  </si>
-  <si>
-    <t>2026-07-04</t>
-  </si>
-  <si>
-    <t>2026-11-04</t>
-  </si>
-  <si>
-    <t>2027-01-04</t>
-  </si>
-  <si>
-    <t>2027-02-04</t>
-  </si>
-  <si>
-    <t>2027-03-04</t>
-  </si>
-  <si>
-    <t>2028-02-04</t>
-  </si>
-  <si>
-    <t>2028-03-04</t>
-  </si>
-  <si>
-    <t>2028-05-04</t>
-  </si>
-  <si>
-    <t>2028-07-04</t>
-  </si>
-  <si>
-    <t>2028-11-04</t>
-  </si>
-  <si>
-    <t>2030-11-04</t>
+    <t>2025-01-15</t>
+  </si>
+  <si>
+    <t>2025-02-15</t>
+  </si>
+  <si>
+    <t>2025-03-15</t>
+  </si>
+  <si>
+    <t>2025-04-15</t>
+  </si>
+  <si>
+    <t>2025-05-15</t>
+  </si>
+  <si>
+    <t>2025-06-15</t>
+  </si>
+  <si>
+    <t>2025-07-15</t>
+  </si>
+  <si>
+    <t>2025-08-15</t>
+  </si>
+  <si>
+    <t>2025-10-15</t>
+  </si>
+  <si>
+    <t>2025-11-15</t>
+  </si>
+  <si>
+    <t>2026-01-15</t>
+  </si>
+  <si>
+    <t>2026-03-15</t>
+  </si>
+  <si>
+    <t>2026-05-15</t>
+  </si>
+  <si>
+    <t>2026-07-15</t>
+  </si>
+  <si>
+    <t>2026-11-15</t>
+  </si>
+  <si>
+    <t>2027-01-15</t>
+  </si>
+  <si>
+    <t>2027-02-15</t>
+  </si>
+  <si>
+    <t>2027-03-15</t>
+  </si>
+  <si>
+    <t>2028-02-15</t>
+  </si>
+  <si>
+    <t>2028-03-15</t>
+  </si>
+  <si>
+    <t>2028-05-15</t>
+  </si>
+  <si>
+    <t>2028-07-15</t>
+  </si>
+  <si>
+    <t>2028-11-15</t>
+  </si>
+  <si>
+    <t>2030-11-15</t>
   </si>
 </sst>
 </file>
@@ -2204,7 +2201,7 @@
         <v>123</v>
       </c>
       <c r="B123" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="124" spans="1:2">
@@ -2212,7 +2209,7 @@
         <v>124</v>
       </c>
       <c r="B124" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="125" spans="1:2">
@@ -2220,7 +2217,7 @@
         <v>125</v>
       </c>
       <c r="B125" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="126" spans="1:2">
@@ -2228,7 +2225,7 @@
         <v>126</v>
       </c>
       <c r="B126" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="127" spans="1:2">
@@ -2236,7 +2233,7 @@
         <v>127</v>
       </c>
       <c r="B127" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="128" spans="1:2">
@@ -2244,7 +2241,7 @@
         <v>128</v>
       </c>
       <c r="B128" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="129" spans="1:2">
@@ -2252,7 +2249,7 @@
         <v>129</v>
       </c>
       <c r="B129" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="130" spans="1:2">
@@ -2260,7 +2257,7 @@
         <v>130</v>
       </c>
       <c r="B130" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="131" spans="1:2">
@@ -2268,7 +2265,7 @@
         <v>131</v>
       </c>
       <c r="B131" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="132" spans="1:2">
@@ -2276,7 +2273,7 @@
         <v>132</v>
       </c>
       <c r="B132" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="133" spans="1:2">
@@ -2284,7 +2281,7 @@
         <v>133</v>
       </c>
       <c r="B133" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="134" spans="1:2">
@@ -2292,7 +2289,7 @@
         <v>134</v>
       </c>
       <c r="B134" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="135" spans="1:2">
@@ -2300,7 +2297,7 @@
         <v>135</v>
       </c>
       <c r="B135" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="136" spans="1:2">
@@ -2308,7 +2305,7 @@
         <v>136</v>
       </c>
       <c r="B136" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="137" spans="1:2">
@@ -2316,7 +2313,7 @@
         <v>137</v>
       </c>
       <c r="B137" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="138" spans="1:2">
@@ -2324,7 +2321,7 @@
         <v>138</v>
       </c>
       <c r="B138" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="139" spans="1:2">
@@ -2332,7 +2329,7 @@
         <v>139</v>
       </c>
       <c r="B139" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="140" spans="1:2">
@@ -2340,7 +2337,7 @@
         <v>140</v>
       </c>
       <c r="B140" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="141" spans="1:2">
@@ -2348,7 +2345,7 @@
         <v>141</v>
       </c>
       <c r="B141" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="142" spans="1:2">
@@ -2356,7 +2353,7 @@
         <v>142</v>
       </c>
       <c r="B142" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="143" spans="1:2">
@@ -2364,7 +2361,7 @@
         <v>143</v>
       </c>
       <c r="B143" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="144" spans="1:2">
@@ -2372,7 +2369,7 @@
         <v>144</v>
       </c>
       <c r="B144" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="145" spans="1:2">
@@ -2380,7 +2377,7 @@
         <v>145</v>
       </c>
       <c r="B145" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="146" spans="1:2">
@@ -2388,7 +2385,7 @@
         <v>146</v>
       </c>
       <c r="B146" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="147" spans="1:2">
@@ -2396,7 +2393,7 @@
         <v>147</v>
       </c>
       <c r="B147" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="148" spans="1:2">
@@ -2404,7 +2401,7 @@
         <v>148</v>
       </c>
       <c r="B148" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="149" spans="1:2">
@@ -2412,7 +2409,7 @@
         <v>149</v>
       </c>
       <c r="B149" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="150" spans="1:2">
@@ -2420,7 +2417,7 @@
         <v>150</v>
       </c>
       <c r="B150" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="151" spans="1:2">
@@ -2428,7 +2425,7 @@
         <v>151</v>
       </c>
       <c r="B151" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="152" spans="1:2">
@@ -2436,7 +2433,7 @@
         <v>152</v>
       </c>
       <c r="B152" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="153" spans="1:2">
@@ -2444,7 +2441,7 @@
         <v>153</v>
       </c>
       <c r="B153" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="154" spans="1:2">
@@ -2452,7 +2449,7 @@
         <v>154</v>
       </c>
       <c r="B154" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="155" spans="1:2">
@@ -2460,7 +2457,7 @@
         <v>155</v>
       </c>
       <c r="B155" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="156" spans="1:2">
@@ -2468,7 +2465,7 @@
         <v>156</v>
       </c>
       <c r="B156" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="157" spans="1:2">
@@ -2476,7 +2473,7 @@
         <v>157</v>
       </c>
       <c r="B157" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="158" spans="1:2">
@@ -2484,7 +2481,7 @@
         <v>158</v>
       </c>
       <c r="B158" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="159" spans="1:2">
@@ -2492,7 +2489,7 @@
         <v>159</v>
       </c>
       <c r="B159" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="160" spans="1:2">
@@ -2500,7 +2497,7 @@
         <v>160</v>
       </c>
       <c r="B160" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="161" spans="1:2">
@@ -2508,7 +2505,7 @@
         <v>161</v>
       </c>
       <c r="B161" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="162" spans="1:2">
@@ -2516,7 +2513,7 @@
         <v>162</v>
       </c>
       <c r="B162" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="163" spans="1:2">
@@ -2524,7 +2521,7 @@
         <v>163</v>
       </c>
       <c r="B163" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="164" spans="1:2">
@@ -2532,7 +2529,7 @@
         <v>164</v>
       </c>
       <c r="B164" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="165" spans="1:2">
@@ -2540,7 +2537,7 @@
         <v>165</v>
       </c>
       <c r="B165" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="166" spans="1:2">
@@ -2548,7 +2545,7 @@
         <v>166</v>
       </c>
       <c r="B166" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="167" spans="1:2">
@@ -2556,7 +2553,7 @@
         <v>167</v>
       </c>
       <c r="B167" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="168" spans="1:2">
@@ -2564,7 +2561,7 @@
         <v>168</v>
       </c>
       <c r="B168" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="169" spans="1:2">
@@ -2572,7 +2569,7 @@
         <v>169</v>
       </c>
       <c r="B169" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="170" spans="1:2">
@@ -2580,7 +2577,7 @@
         <v>170</v>
       </c>
       <c r="B170" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="171" spans="1:2">
@@ -2588,7 +2585,7 @@
         <v>171</v>
       </c>
       <c r="B171" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="172" spans="1:2">
@@ -2596,7 +2593,7 @@
         <v>172</v>
       </c>
       <c r="B172" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="173" spans="1:2">
@@ -2604,7 +2601,7 @@
         <v>173</v>
       </c>
       <c r="B173" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="174" spans="1:2">
@@ -2612,7 +2609,7 @@
         <v>174</v>
       </c>
       <c r="B174" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="175" spans="1:2">
@@ -2620,7 +2617,7 @@
         <v>175</v>
       </c>
       <c r="B175" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="176" spans="1:2">
@@ -2628,7 +2625,7 @@
         <v>176</v>
       </c>
       <c r="B176" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="177" spans="1:2">
@@ -2636,7 +2633,7 @@
         <v>177</v>
       </c>
       <c r="B177" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="178" spans="1:2">
@@ -2644,7 +2641,7 @@
         <v>178</v>
       </c>
       <c r="B178" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="179" spans="1:2">
@@ -2652,7 +2649,7 @@
         <v>179</v>
       </c>
       <c r="B179" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="180" spans="1:2">
@@ -2660,7 +2657,7 @@
         <v>180</v>
       </c>
       <c r="B180" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="181" spans="1:2">
@@ -2668,7 +2665,7 @@
         <v>181</v>
       </c>
       <c r="B181" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="182" spans="1:2">
@@ -2676,7 +2673,7 @@
         <v>182</v>
       </c>
       <c r="B182" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="183" spans="1:2">
@@ -2684,7 +2681,7 @@
         <v>183</v>
       </c>
       <c r="B183" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="184" spans="1:2">
@@ -2692,7 +2689,7 @@
         <v>184</v>
       </c>
       <c r="B184" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="185" spans="1:2">
@@ -2700,7 +2697,7 @@
         <v>185</v>
       </c>
       <c r="B185" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="186" spans="1:2">
@@ -2708,7 +2705,7 @@
         <v>186</v>
       </c>
       <c r="B186" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="187" spans="1:2">
@@ -2716,7 +2713,7 @@
         <v>187</v>
       </c>
       <c r="B187" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
   </sheetData>

--- a/lothiancriticalcare/1a74f8f7b8b7e871b413c4697f68b4401fbacdf0/reviewdates.xlsx
+++ b/lothiancriticalcare/1a74f8f7b8b7e871b413c4697f68b4401fbacdf0/reviewdates.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="281">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="282">
   <si>
     <t>File</t>
   </si>
@@ -574,196 +574,196 @@
     <t>Policies_and_admin/Anticipated Post op flow surgical patients.pdf</t>
   </si>
   <si>
-    <t>Policies_and_admin/Discharge Home from Critical Care.pdf</t>
+    <t>Policies_and_admin/Discharge Home from Critical Care .pdf</t>
   </si>
   <si>
     <t>Policies_and_admin/Repatriaiton Checklist for Critical Care.pdf</t>
   </si>
   <si>
-    <t>2011-03-15</t>
-  </si>
-  <si>
-    <t>2011-06-15</t>
-  </si>
-  <si>
-    <t>2011-07-15</t>
-  </si>
-  <si>
-    <t>2011-12-15</t>
-  </si>
-  <si>
-    <t>2014-09-15</t>
-  </si>
-  <si>
-    <t>2014-10-15</t>
-  </si>
-  <si>
-    <t>2014-11-15</t>
-  </si>
-  <si>
-    <t>2014-12-15</t>
-  </si>
-  <si>
-    <t>2015-03-15</t>
-  </si>
-  <si>
-    <t>2016-01-15</t>
-  </si>
-  <si>
-    <t>2016-04-15</t>
-  </si>
-  <si>
-    <t>2016-08-15</t>
-  </si>
-  <si>
-    <t>2017-01-15</t>
-  </si>
-  <si>
-    <t>2017-08-15</t>
-  </si>
-  <si>
-    <t>2017-10-15</t>
-  </si>
-  <si>
-    <t>2017-11-15</t>
-  </si>
-  <si>
-    <t>2018-05-15</t>
-  </si>
-  <si>
-    <t>2018-07-15</t>
-  </si>
-  <si>
-    <t>2019-05-15</t>
-  </si>
-  <si>
-    <t>2019-06-15</t>
-  </si>
-  <si>
-    <t>2019-08-15</t>
-  </si>
-  <si>
-    <t>2019-09-15</t>
-  </si>
-  <si>
-    <t>2020-01-15</t>
-  </si>
-  <si>
-    <t>2020-03-15</t>
-  </si>
-  <si>
-    <t>2020-04-15</t>
-  </si>
-  <si>
-    <t>2020-05-15</t>
-  </si>
-  <si>
-    <t>2020-07-15</t>
-  </si>
-  <si>
-    <t>2020-08-15</t>
-  </si>
-  <si>
-    <t>2020-11-15</t>
-  </si>
-  <si>
-    <t>2021-02-15</t>
-  </si>
-  <si>
-    <t>2021-05-15</t>
-  </si>
-  <si>
-    <t>2021-06-15</t>
-  </si>
-  <si>
-    <t>2021-09-15</t>
-  </si>
-  <si>
-    <t>2021-12-15</t>
-  </si>
-  <si>
-    <t>2022-01-15</t>
-  </si>
-  <si>
-    <t>2022-03-15</t>
-  </si>
-  <si>
-    <t>2022-04-15</t>
-  </si>
-  <si>
-    <t>2022-05-15</t>
-  </si>
-  <si>
-    <t>2022-06-15</t>
-  </si>
-  <si>
-    <t>2022-07-15</t>
-  </si>
-  <si>
-    <t>2022-08-15</t>
-  </si>
-  <si>
-    <t>2022-10-15</t>
-  </si>
-  <si>
-    <t>2022-11-15</t>
-  </si>
-  <si>
-    <t>2022-12-15</t>
-  </si>
-  <si>
-    <t>2023-01-15</t>
-  </si>
-  <si>
-    <t>2023-02-15</t>
-  </si>
-  <si>
-    <t>2023-04-15</t>
-  </si>
-  <si>
-    <t>2023-05-15</t>
-  </si>
-  <si>
-    <t>2023-06-15</t>
-  </si>
-  <si>
-    <t>2023-07-15</t>
-  </si>
-  <si>
-    <t>2023-08-15</t>
-  </si>
-  <si>
-    <t>2023-09-15</t>
-  </si>
-  <si>
-    <t>2023-10-15</t>
-  </si>
-  <si>
-    <t>2024-01-15</t>
-  </si>
-  <si>
-    <t>2024-02-15</t>
-  </si>
-  <si>
-    <t>2024-03-15</t>
-  </si>
-  <si>
-    <t>2024-04-15</t>
-  </si>
-  <si>
-    <t>2024-05-15</t>
+    <t>2011-03-16</t>
+  </si>
+  <si>
+    <t>2011-06-16</t>
+  </si>
+  <si>
+    <t>2011-07-16</t>
+  </si>
+  <si>
+    <t>2011-12-16</t>
+  </si>
+  <si>
+    <t>2014-09-16</t>
+  </si>
+  <si>
+    <t>2014-10-16</t>
+  </si>
+  <si>
+    <t>2014-11-16</t>
+  </si>
+  <si>
+    <t>2014-12-16</t>
+  </si>
+  <si>
+    <t>2015-03-16</t>
+  </si>
+  <si>
+    <t>2016-01-16</t>
+  </si>
+  <si>
+    <t>2016-04-16</t>
+  </si>
+  <si>
+    <t>2016-08-16</t>
+  </si>
+  <si>
+    <t>2017-01-16</t>
+  </si>
+  <si>
+    <t>2017-08-16</t>
+  </si>
+  <si>
+    <t>2017-10-16</t>
+  </si>
+  <si>
+    <t>2017-11-16</t>
+  </si>
+  <si>
+    <t>2018-05-16</t>
+  </si>
+  <si>
+    <t>2018-07-16</t>
+  </si>
+  <si>
+    <t>2019-05-16</t>
+  </si>
+  <si>
+    <t>2019-06-16</t>
+  </si>
+  <si>
+    <t>2019-08-16</t>
+  </si>
+  <si>
+    <t>2019-09-16</t>
+  </si>
+  <si>
+    <t>2020-01-16</t>
+  </si>
+  <si>
+    <t>2020-03-16</t>
+  </si>
+  <si>
+    <t>2020-04-16</t>
+  </si>
+  <si>
+    <t>2020-05-16</t>
+  </si>
+  <si>
+    <t>2020-07-16</t>
+  </si>
+  <si>
+    <t>2020-08-16</t>
+  </si>
+  <si>
+    <t>2020-11-16</t>
+  </si>
+  <si>
+    <t>2021-02-16</t>
+  </si>
+  <si>
+    <t>2021-05-16</t>
+  </si>
+  <si>
+    <t>2021-06-16</t>
+  </si>
+  <si>
+    <t>2021-09-16</t>
+  </si>
+  <si>
+    <t>2021-12-16</t>
+  </si>
+  <si>
+    <t>2022-01-16</t>
+  </si>
+  <si>
+    <t>2022-03-16</t>
+  </si>
+  <si>
+    <t>2022-04-16</t>
+  </si>
+  <si>
+    <t>2022-05-16</t>
+  </si>
+  <si>
+    <t>2022-06-16</t>
+  </si>
+  <si>
+    <t>2022-07-16</t>
+  </si>
+  <si>
+    <t>2022-08-16</t>
+  </si>
+  <si>
+    <t>2022-10-16</t>
+  </si>
+  <si>
+    <t>2022-11-16</t>
+  </si>
+  <si>
+    <t>2022-12-16</t>
+  </si>
+  <si>
+    <t>2023-01-16</t>
+  </si>
+  <si>
+    <t>2023-02-16</t>
+  </si>
+  <si>
+    <t>2023-04-16</t>
+  </si>
+  <si>
+    <t>2023-05-16</t>
+  </si>
+  <si>
+    <t>2023-06-16</t>
+  </si>
+  <si>
+    <t>2023-07-16</t>
+  </si>
+  <si>
+    <t>2023-08-16</t>
+  </si>
+  <si>
+    <t>2023-09-16</t>
+  </si>
+  <si>
+    <t>2023-10-16</t>
+  </si>
+  <si>
+    <t>2024-01-16</t>
+  </si>
+  <si>
+    <t>2024-02-16</t>
+  </si>
+  <si>
+    <t>2024-03-16</t>
+  </si>
+  <si>
+    <t>2024-04-16</t>
+  </si>
+  <si>
+    <t>2024-05-16</t>
   </si>
   <si>
     <t>2024-06-02</t>
   </si>
   <si>
-    <t>2024-06-15</t>
+    <t>2024-06-16</t>
   </si>
   <si>
     <t>2024-06-26</t>
   </si>
   <si>
-    <t>2024-07-15</t>
+    <t>2024-07-16</t>
   </si>
   <si>
     <t>2024-07-25</t>
@@ -772,7 +772,10 @@
     <t>2024-08-15</t>
   </si>
   <si>
-    <t>2024-10-15</t>
+    <t>2024-08-16</t>
+  </si>
+  <si>
+    <t>2024-10-16</t>
   </si>
   <si>
     <t>2024-10-24</t>
@@ -787,76 +790,76 @@
     <t>2024-12-24</t>
   </si>
   <si>
-    <t>2025-01-15</t>
-  </si>
-  <si>
-    <t>2025-02-15</t>
-  </si>
-  <si>
-    <t>2025-03-15</t>
-  </si>
-  <si>
-    <t>2025-04-15</t>
-  </si>
-  <si>
-    <t>2025-05-15</t>
-  </si>
-  <si>
-    <t>2025-06-15</t>
-  </si>
-  <si>
-    <t>2025-07-15</t>
-  </si>
-  <si>
-    <t>2025-08-15</t>
-  </si>
-  <si>
-    <t>2025-10-15</t>
-  </si>
-  <si>
-    <t>2025-11-15</t>
-  </si>
-  <si>
-    <t>2026-01-15</t>
-  </si>
-  <si>
-    <t>2026-03-15</t>
-  </si>
-  <si>
-    <t>2026-05-15</t>
-  </si>
-  <si>
-    <t>2026-07-15</t>
-  </si>
-  <si>
-    <t>2026-11-15</t>
-  </si>
-  <si>
-    <t>2027-01-15</t>
-  </si>
-  <si>
-    <t>2027-02-15</t>
-  </si>
-  <si>
-    <t>2027-03-15</t>
-  </si>
-  <si>
-    <t>2028-02-15</t>
-  </si>
-  <si>
-    <t>2028-03-15</t>
-  </si>
-  <si>
-    <t>2028-05-15</t>
-  </si>
-  <si>
-    <t>2028-07-15</t>
-  </si>
-  <si>
-    <t>2028-11-15</t>
-  </si>
-  <si>
-    <t>2030-11-15</t>
+    <t>2025-01-16</t>
+  </si>
+  <si>
+    <t>2025-02-16</t>
+  </si>
+  <si>
+    <t>2025-03-16</t>
+  </si>
+  <si>
+    <t>2025-04-16</t>
+  </si>
+  <si>
+    <t>2025-05-16</t>
+  </si>
+  <si>
+    <t>2025-06-16</t>
+  </si>
+  <si>
+    <t>2025-07-16</t>
+  </si>
+  <si>
+    <t>2025-08-16</t>
+  </si>
+  <si>
+    <t>2025-10-16</t>
+  </si>
+  <si>
+    <t>2025-11-16</t>
+  </si>
+  <si>
+    <t>2026-01-16</t>
+  </si>
+  <si>
+    <t>2026-03-16</t>
+  </si>
+  <si>
+    <t>2026-05-16</t>
+  </si>
+  <si>
+    <t>2026-07-16</t>
+  </si>
+  <si>
+    <t>2026-11-16</t>
+  </si>
+  <si>
+    <t>2027-01-16</t>
+  </si>
+  <si>
+    <t>2027-02-16</t>
+  </si>
+  <si>
+    <t>2027-03-16</t>
+  </si>
+  <si>
+    <t>2028-02-16</t>
+  </si>
+  <si>
+    <t>2028-03-16</t>
+  </si>
+  <si>
+    <t>2028-05-16</t>
+  </si>
+  <si>
+    <t>2028-07-16</t>
+  </si>
+  <si>
+    <t>2028-11-16</t>
+  </si>
+  <si>
+    <t>2030-11-16</t>
   </si>
 </sst>
 </file>
@@ -2185,7 +2188,7 @@
         <v>121</v>
       </c>
       <c r="B121" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
     </row>
     <row r="122" spans="1:2">
@@ -2193,7 +2196,7 @@
         <v>122</v>
       </c>
       <c r="B122" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
     </row>
     <row r="123" spans="1:2">
@@ -2201,7 +2204,7 @@
         <v>123</v>
       </c>
       <c r="B123" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
     </row>
     <row r="124" spans="1:2">
@@ -2209,7 +2212,7 @@
         <v>124</v>
       </c>
       <c r="B124" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
     </row>
     <row r="125" spans="1:2">
@@ -2217,7 +2220,7 @@
         <v>125</v>
       </c>
       <c r="B125" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
     </row>
     <row r="126" spans="1:2">
@@ -2225,7 +2228,7 @@
         <v>126</v>
       </c>
       <c r="B126" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
     <row r="127" spans="1:2">
@@ -2233,7 +2236,7 @@
         <v>127</v>
       </c>
       <c r="B127" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="128" spans="1:2">
@@ -2241,7 +2244,7 @@
         <v>128</v>
       </c>
       <c r="B128" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="129" spans="1:2">
@@ -2249,7 +2252,7 @@
         <v>129</v>
       </c>
       <c r="B129" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="130" spans="1:2">
@@ -2257,7 +2260,7 @@
         <v>130</v>
       </c>
       <c r="B130" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="131" spans="1:2">
@@ -2265,7 +2268,7 @@
         <v>131</v>
       </c>
       <c r="B131" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
     <row r="132" spans="1:2">
@@ -2273,7 +2276,7 @@
         <v>132</v>
       </c>
       <c r="B132" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
     <row r="133" spans="1:2">
@@ -2281,7 +2284,7 @@
         <v>133</v>
       </c>
       <c r="B133" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
     <row r="134" spans="1:2">
@@ -2289,7 +2292,7 @@
         <v>134</v>
       </c>
       <c r="B134" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
     <row r="135" spans="1:2">
@@ -2297,7 +2300,7 @@
         <v>135</v>
       </c>
       <c r="B135" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
     <row r="136" spans="1:2">
@@ -2305,7 +2308,7 @@
         <v>136</v>
       </c>
       <c r="B136" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
     <row r="137" spans="1:2">
@@ -2313,7 +2316,7 @@
         <v>137</v>
       </c>
       <c r="B137" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="138" spans="1:2">
@@ -2321,7 +2324,7 @@
         <v>138</v>
       </c>
       <c r="B138" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="139" spans="1:2">
@@ -2329,7 +2332,7 @@
         <v>139</v>
       </c>
       <c r="B139" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="140" spans="1:2">
@@ -2337,7 +2340,7 @@
         <v>140</v>
       </c>
       <c r="B140" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="141" spans="1:2">
@@ -2345,7 +2348,7 @@
         <v>141</v>
       </c>
       <c r="B141" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="142" spans="1:2">
@@ -2353,7 +2356,7 @@
         <v>142</v>
       </c>
       <c r="B142" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="143" spans="1:2">
@@ -2361,7 +2364,7 @@
         <v>143</v>
       </c>
       <c r="B143" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="144" spans="1:2">
@@ -2369,7 +2372,7 @@
         <v>144</v>
       </c>
       <c r="B144" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="145" spans="1:2">
@@ -2377,7 +2380,7 @@
         <v>145</v>
       </c>
       <c r="B145" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="146" spans="1:2">
@@ -2385,7 +2388,7 @@
         <v>146</v>
       </c>
       <c r="B146" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="147" spans="1:2">
@@ -2393,7 +2396,7 @@
         <v>147</v>
       </c>
       <c r="B147" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="148" spans="1:2">
@@ -2401,7 +2404,7 @@
         <v>148</v>
       </c>
       <c r="B148" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
     </row>
     <row r="149" spans="1:2">
@@ -2409,7 +2412,7 @@
         <v>149</v>
       </c>
       <c r="B149" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
     </row>
     <row r="150" spans="1:2">
@@ -2417,7 +2420,7 @@
         <v>150</v>
       </c>
       <c r="B150" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
     </row>
     <row r="151" spans="1:2">
@@ -2425,7 +2428,7 @@
         <v>151</v>
       </c>
       <c r="B151" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
     </row>
     <row r="152" spans="1:2">
@@ -2433,7 +2436,7 @@
         <v>152</v>
       </c>
       <c r="B152" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
     </row>
     <row r="153" spans="1:2">
@@ -2441,7 +2444,7 @@
         <v>153</v>
       </c>
       <c r="B153" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
     </row>
     <row r="154" spans="1:2">
@@ -2449,7 +2452,7 @@
         <v>154</v>
       </c>
       <c r="B154" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
     </row>
     <row r="155" spans="1:2">
@@ -2457,7 +2460,7 @@
         <v>155</v>
       </c>
       <c r="B155" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
     </row>
     <row r="156" spans="1:2">
@@ -2465,7 +2468,7 @@
         <v>156</v>
       </c>
       <c r="B156" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
     </row>
     <row r="157" spans="1:2">
@@ -2473,7 +2476,7 @@
         <v>157</v>
       </c>
       <c r="B157" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="158" spans="1:2">
@@ -2481,7 +2484,7 @@
         <v>158</v>
       </c>
       <c r="B158" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="159" spans="1:2">
@@ -2489,7 +2492,7 @@
         <v>159</v>
       </c>
       <c r="B159" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="160" spans="1:2">
@@ -2497,7 +2500,7 @@
         <v>160</v>
       </c>
       <c r="B160" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="161" spans="1:2">
@@ -2505,7 +2508,7 @@
         <v>161</v>
       </c>
       <c r="B161" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
     </row>
     <row r="162" spans="1:2">
@@ -2513,7 +2516,7 @@
         <v>162</v>
       </c>
       <c r="B162" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
     </row>
     <row r="163" spans="1:2">
@@ -2521,7 +2524,7 @@
         <v>163</v>
       </c>
       <c r="B163" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
     </row>
     <row r="164" spans="1:2">
@@ -2529,7 +2532,7 @@
         <v>164</v>
       </c>
       <c r="B164" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
     </row>
     <row r="165" spans="1:2">
@@ -2537,7 +2540,7 @@
         <v>165</v>
       </c>
       <c r="B165" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
     </row>
     <row r="166" spans="1:2">
@@ -2545,7 +2548,7 @@
         <v>166</v>
       </c>
       <c r="B166" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
     </row>
     <row r="167" spans="1:2">
@@ -2553,7 +2556,7 @@
         <v>167</v>
       </c>
       <c r="B167" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
     </row>
     <row r="168" spans="1:2">
@@ -2561,7 +2564,7 @@
         <v>168</v>
       </c>
       <c r="B168" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
     </row>
     <row r="169" spans="1:2">
@@ -2569,7 +2572,7 @@
         <v>169</v>
       </c>
       <c r="B169" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
     </row>
     <row r="170" spans="1:2">
@@ -2577,7 +2580,7 @@
         <v>170</v>
       </c>
       <c r="B170" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
     </row>
     <row r="171" spans="1:2">
@@ -2585,7 +2588,7 @@
         <v>171</v>
       </c>
       <c r="B171" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
     </row>
     <row r="172" spans="1:2">
@@ -2593,7 +2596,7 @@
         <v>172</v>
       </c>
       <c r="B172" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="173" spans="1:2">
@@ -2601,7 +2604,7 @@
         <v>173</v>
       </c>
       <c r="B173" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="174" spans="1:2">
@@ -2609,7 +2612,7 @@
         <v>174</v>
       </c>
       <c r="B174" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="175" spans="1:2">
@@ -2617,7 +2620,7 @@
         <v>175</v>
       </c>
       <c r="B175" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
     </row>
     <row r="176" spans="1:2">
@@ -2625,7 +2628,7 @@
         <v>176</v>
       </c>
       <c r="B176" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
     </row>
     <row r="177" spans="1:2">
@@ -2633,7 +2636,7 @@
         <v>177</v>
       </c>
       <c r="B177" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
     </row>
     <row r="178" spans="1:2">
@@ -2641,7 +2644,7 @@
         <v>178</v>
       </c>
       <c r="B178" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
     </row>
     <row r="179" spans="1:2">
@@ -2649,7 +2652,7 @@
         <v>179</v>
       </c>
       <c r="B179" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
     </row>
     <row r="180" spans="1:2">
@@ -2657,7 +2660,7 @@
         <v>180</v>
       </c>
       <c r="B180" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
     </row>
     <row r="181" spans="1:2">
@@ -2665,7 +2668,7 @@
         <v>181</v>
       </c>
       <c r="B181" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
     </row>
     <row r="182" spans="1:2">
@@ -2673,7 +2676,7 @@
         <v>182</v>
       </c>
       <c r="B182" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
     </row>
     <row r="183" spans="1:2">
@@ -2681,7 +2684,7 @@
         <v>183</v>
       </c>
       <c r="B183" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
     </row>
     <row r="184" spans="1:2">
@@ -2689,7 +2692,7 @@
         <v>184</v>
       </c>
       <c r="B184" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
     </row>
     <row r="185" spans="1:2">
@@ -2697,7 +2700,7 @@
         <v>185</v>
       </c>
       <c r="B185" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
     </row>
     <row r="186" spans="1:2">
@@ -2705,7 +2708,7 @@
         <v>186</v>
       </c>
       <c r="B186" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
     </row>
     <row r="187" spans="1:2">
@@ -2713,7 +2716,7 @@
         <v>187</v>
       </c>
       <c r="B187" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
     </row>
   </sheetData>

--- a/lothiancriticalcare/1a74f8f7b8b7e871b413c4697f68b4401fbacdf0/reviewdates.xlsx
+++ b/lothiancriticalcare/1a74f8f7b8b7e871b413c4697f68b4401fbacdf0/reviewdates.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="282">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="281">
   <si>
     <t>File</t>
   </si>
@@ -64,18 +64,15 @@
     <t>Routine_Care/Tracheostomy_nursing_care.pdf</t>
   </si>
   <si>
+    <t>ECLS/Extra Corporeal Carbon Dioxide Removal.pdf</t>
+  </si>
+  <si>
     <t>Airway/Critical care extubation checklist.pdf</t>
   </si>
   <si>
-    <t>ECLS/Extra Corporeal Carbon Dioxide Removal.pdf</t>
-  </si>
-  <si>
     <t>Airway/Tracheostomy_Laryngectomy/Hospital_in-patients_with_a_Tracheostomy.pdf</t>
   </si>
   <si>
-    <t>Trauma and Burns/Mangement of burns.pdf</t>
-  </si>
-  <si>
     <t>Drugs/diazepam_diazemuls.pdf</t>
   </si>
   <si>
@@ -85,15 +82,15 @@
     <t>Breathing(Respiratory)/salbutamol and ipratroprium MDI.pdf</t>
   </si>
   <si>
+    <t>Neurological/SOP -  Femoral site care.pdf</t>
+  </si>
+  <si>
     <t>Airway/Tracheostomy_Laryngectomy/Tracheostomy suctioning cleaning guideline.pdf</t>
   </si>
   <si>
     <t>Airway/Tracheostomy_Laryngectomy/Tracheostomy change in Critical Care.pdf</t>
   </si>
   <si>
-    <t>Neurological/SOP -  Femoral site care.pdf</t>
-  </si>
-  <si>
     <t>Drugs/sodium_bicarbonate.pdf</t>
   </si>
   <si>
@@ -103,24 +100,24 @@
     <t>Post_op_care/Epidural top-up.pdf</t>
   </si>
   <si>
+    <t>Diabetes_and_Glucose/Hyperosmolar Hyperglycaemic State.pdf</t>
+  </si>
+  <si>
+    <t>Airway/Emergency intubation checklist_em_pub.pdf</t>
+  </si>
+  <si>
+    <t>Covid-19/SJH/SJH COVID19 ED Intubation Action Card.pdf</t>
+  </si>
+  <si>
+    <t>Covid-19/WGH/CoVid intubation checklist WGH.pdf</t>
+  </si>
+  <si>
     <t>Drugs/heparin for Haemofiltration.pdf</t>
   </si>
   <si>
     <t>Covid-19/SJH/SJH COVID19 ITU Intubation Action Card.pdf</t>
   </si>
   <si>
-    <t>Covid-19/SJH/SJH COVID19 ED Intubation Action Card.pdf</t>
-  </si>
-  <si>
-    <t>Airway/Emergency intubation checklist_em_pub.pdf</t>
-  </si>
-  <si>
-    <t>Covid-19/WGH/CoVid intubation checklist WGH.pdf</t>
-  </si>
-  <si>
-    <t>Diabetes_and_Glucose/Hyperosmolar Hyperglycaemic State.pdf</t>
-  </si>
-  <si>
     <t>Drugs/fentanyl.pdf</t>
   </si>
   <si>
@@ -139,42 +136,42 @@
     <t>Airway/Percutaneous tracheostomy checklist.pdf</t>
   </si>
   <si>
+    <t>Infection_and_sepsis/SOP Ultrasound Cleaning.pdf</t>
+  </si>
+  <si>
     <t>Delirium/Risk assessment posi mit.pdf</t>
   </si>
   <si>
     <t>Delirium/Managing a Potentially Violent Patient.pdf</t>
   </si>
   <si>
-    <t>Infection_and_sepsis/SOP Ultrasound Cleaning.pdf</t>
+    <t>GI_Liver_and_Transplant/Treatment of constipation.pdf</t>
+  </si>
+  <si>
+    <t>Delirium/Drugs Causing Delirium and Agitiation.pdf</t>
+  </si>
+  <si>
+    <t>Airway/Tracheostomy_Laryngectomy/Tracheostomy safety box contents.pdf</t>
+  </si>
+  <si>
+    <t>Airway/McGrath Mac.pdf</t>
+  </si>
+  <si>
+    <t>Airway/Anticipated difficult airway tool.pdf</t>
   </si>
   <si>
     <t>Neurological/Sub arachnoid haemorrhage management.pdf</t>
   </si>
   <si>
-    <t>GI_Liver_and_Transplant/Treatment of constipation.pdf</t>
-  </si>
-  <si>
-    <t>Airway/McGrath Mac.pdf</t>
+    <t>Breathing(Respiratory)/HFNO.pdf</t>
   </si>
   <si>
     <t>Drugs/ketamine_in_asthma.pdf</t>
   </si>
   <si>
-    <t>Airway/Anticipated difficult airway tool.pdf</t>
-  </si>
-  <si>
-    <t>Airway/Tracheostomy_Laryngectomy/Tracheostomy safety box contents.pdf</t>
-  </si>
-  <si>
-    <t>Delirium/Drugs Causing Delirium and Agitiation.pdf</t>
-  </si>
-  <si>
     <t>GI_Liver_and_Transplant/Abdominal pressure measurement.pdf</t>
   </si>
   <si>
-    <t>Breathing(Respiratory)/HFNO.pdf</t>
-  </si>
-  <si>
     <t>End_of_life_care/Documentation following death.pdf</t>
   </si>
   <si>
@@ -193,21 +190,21 @@
     <t>Breathing(Respiratory)/Inhaled Nitrous Oxide.pdf</t>
   </si>
   <si>
+    <t>Breathing(Respiratory)/Equipment/APRV.pdf</t>
+  </si>
+  <si>
     <t>Cardiovascular/Steroids for Septic Shock.pdf</t>
   </si>
   <si>
-    <t>Breathing(Respiratory)/Equipment/APRV.pdf</t>
+    <t>Post_op_care/Epidural Haematoma.pdf</t>
+  </si>
+  <si>
+    <t>Breathing(Respiratory)/Equipment/T piece Y piece.pdf</t>
   </si>
   <si>
     <t>Neurological/SOP for review of Neurosurgical patients in ITU by neurosurgical team.pdf</t>
   </si>
   <si>
-    <t>Breathing(Respiratory)/Equipment/T piece Y piece.pdf</t>
-  </si>
-  <si>
-    <t>Post_op_care/Epidural Haematoma.pdf</t>
-  </si>
-  <si>
     <t>Policies_and_admin/General Critical Care Interaction with HEPMA_pub.pdf</t>
   </si>
   <si>
@@ -217,79 +214,82 @@
     <t>Breathing(Respiratory)/Equipment/HFNO through ventilator.pdf</t>
   </si>
   <si>
+    <t>Routine_Care/VTE_Prevention/Dalteparin_thromboprophylaxis.pdf</t>
+  </si>
+  <si>
     <t>Post_op_care/Adult Scoliosis Spinal Surgery Post-Op Care.pdf</t>
   </si>
   <si>
-    <t>Routine_Care/VTE_Prevention/Dalteparin_thromboprophylaxis.pdf</t>
-  </si>
-  <si>
     <t>Post_op_care/Post op care pharyngo-laryngo-oesphagectomy PLOG.pdf</t>
   </si>
   <si>
     <t>GI_Liver_and_Transplant/Nasogastric feeding protocol.pdf</t>
   </si>
   <si>
+    <t>Diabetes_and_Glucose/Intravenous Insulin Therapy (not for DKA or HHS).pdf</t>
+  </si>
+  <si>
     <t>Drugs/Antibiotic doses in CVVHD.pdf</t>
   </si>
   <si>
-    <t>Diabetes_and_Glucose/Intravenous Insulin Therapy (not for DKA or HHS).pdf</t>
+    <t>GI_Liver_and_Transplant/Jejunostomy feeding protocol.pdf</t>
+  </si>
+  <si>
+    <t>GI_Liver_and_Transplant/Nasojejunal feeding protocol.pdf</t>
   </si>
   <si>
     <t>ECLS/RIE ECLS Anti Xa Protocol.pdf</t>
   </si>
   <si>
-    <t>GI_Liver_and_Transplant/Jejunostomy feeding protocol.pdf</t>
-  </si>
-  <si>
-    <t>GI_Liver_and_Transplant/Nasojejunal feeding protocol.pdf</t>
-  </si>
-  <si>
     <t>Infection_and_sepsis/Winter Infections Stepdown Guidance.pdf</t>
   </si>
   <si>
+    <t>Drugs/vasopressin organ donation.pdf</t>
+  </si>
+  <si>
     <t>Drugs/vasopressin_sepsis.pdf</t>
   </si>
   <si>
-    <t>Drugs/vasopressin organ donation.pdf</t>
+    <t>Covid-19/videos/Donning and Doffing Video.pdf</t>
   </si>
   <si>
     <t>Transfer/ACCP Transfers.pdf</t>
   </si>
   <si>
-    <t>Covid-19/videos/Donning and Doffing Video.pdf</t>
+    <t>Infection_and_sepsis/Infection indications for IVIG.pdf</t>
+  </si>
+  <si>
+    <t>Drugs/piperacillin_tazobactam extended_infusion.pdf</t>
   </si>
   <si>
     <t>Breathing(Respiratory)/Equipment/Ventilators Circuits Filters and Closed Suction - Set up and Maintenance.pdf</t>
   </si>
   <si>
-    <t>Drugs/piperacillin_tazobactam extended_infusion.pdf</t>
-  </si>
-  <si>
-    <t>Infection_and_sepsis/Infection indications for IVIG.pdf</t>
+    <t>Procedures/CVC Guidance/Securing CVCs.pdf</t>
   </si>
   <si>
     <t>Covid-19/Covid 19 Death Certification Guideline.pdf</t>
   </si>
   <si>
-    <t>Procedures/CVC Guidance/Securing CVCs.pdf</t>
-  </si>
-  <si>
     <t>Routine_Care/Video Communication.pdf</t>
   </si>
   <si>
+    <t>Drugs/isoprenaline.pdf</t>
+  </si>
+  <si>
     <t>Cardiovascular/Cardiogenic Shock.pdf</t>
   </si>
   <si>
-    <t>Drugs/isoprenaline.pdf</t>
-  </si>
-  <si>
     <t>Haematology_CAR-T/Haem_ICU_transfer.pdf</t>
   </si>
   <si>
+    <t>Cardiovascular/Management of hypertension within Critical Care.pdf</t>
+  </si>
+  <si>
     <t>Drugs/aminophylline.pdf</t>
   </si>
   <si>
-    <t>Cardiovascular/Management of hypertension within Critical Care.pdf</t>
+    <t>Drugs/phenytoin.pdf</t>
   </si>
   <si>
     <t>Drugs/rocuronium.pdf</t>
@@ -304,90 +304,87 @@
     <t>Haematology_CAR-T/ICANS.pdf</t>
   </si>
   <si>
-    <t>Drugs/phenytoin.pdf</t>
-  </si>
-  <si>
     <t>Drugs/milrinone.pdf</t>
   </si>
   <si>
     <t>Policies_and_admin/General Critical Care SOP_pub.pdf</t>
   </si>
   <si>
+    <t>Ethics_and_Law/DNACPR policy for Scotland.pdf</t>
+  </si>
+  <si>
+    <t>Neurological/Management of traumatic brain injury.pdf</t>
+  </si>
+  <si>
+    <t>Drugs/clonidine.pdf</t>
+  </si>
+  <si>
+    <t>Ethics_and_Law/Care at the End of Life (FICM).pdf</t>
+  </si>
+  <si>
+    <t>Neurological/Critical Care MRI Procedure_pub.pdf</t>
+  </si>
+  <si>
     <t>Organ_donation/Organ Retrieval SOP.pdf</t>
   </si>
   <si>
+    <t>End_of_life_care/CMO &amp; NRS Guidance for Doctors completing MCCD.pdf</t>
+  </si>
+  <si>
     <t>Covid-19/COVID 19 ICM guidance basic goals_June_2022.pdf</t>
   </si>
   <si>
-    <t>Ethics_and_Law/DNACPR policy for Scotland.pdf</t>
+    <t>GI_Liver_and_Transplant/ICU - Upper GI bleeding (Endoscopy guideline).pdf</t>
   </si>
   <si>
     <t>Infection_and_sepsis/Trip Out of Unit infection guidance.pdf</t>
   </si>
   <si>
-    <t>Neurological/Critical Care MRI Procedure_pub.pdf</t>
-  </si>
-  <si>
-    <t>Neurological/Management of traumatic brain injury.pdf</t>
-  </si>
-  <si>
-    <t>GI_Liver_and_Transplant/ICU - Upper GI bleeding (Endoscopy guideline).pdf</t>
-  </si>
-  <si>
-    <t>Ethics_and_Law/Care at the End of Life (FICM).pdf</t>
-  </si>
-  <si>
-    <t>End_of_life_care/CMO &amp; NRS Guidance for Doctors completing MCCD.pdf</t>
-  </si>
-  <si>
-    <t>Drugs/clonidine.pdf</t>
-  </si>
-  <si>
     <t>End_of_life_care/Palliative extubation &amp; withdrawal of invasive ventilatory support nursing checklist.pdf</t>
   </si>
   <si>
     <t>Airway/Cook Staged Extubation Set.pdf</t>
   </si>
   <si>
+    <t>End_of_life_care/End of Life Care Guideline for Critical Care.pdf</t>
+  </si>
+  <si>
     <t>Drugs/noradrenaline (central).pdf</t>
   </si>
   <si>
-    <t>End_of_life_care/End of Life Care Guideline for Critical Care.pdf</t>
-  </si>
-  <si>
     <t>Post_op_care/Epidural hypotension.pdf</t>
   </si>
   <si>
+    <t>Drugs/glyceryl_trinitrate.pdf</t>
+  </si>
+  <si>
+    <t>Drugs/dexmedetomidine.pdf</t>
+  </si>
+  <si>
+    <t>Breathing(Respiratory)/Equipment/Passy Muir Valve.pdf</t>
+  </si>
+  <si>
+    <t>GI_Liver_and_Transplant/Confirmation of Nasogastric Tube Position.pdf</t>
+  </si>
+  <si>
     <t>GI_Liver_and_Transplant/Fulminant Liver Failure.pdf</t>
   </si>
   <si>
-    <t>Drugs/dexmedetomidine.pdf</t>
-  </si>
-  <si>
-    <t>Drugs/glyceryl_trinitrate.pdf</t>
-  </si>
-  <si>
-    <t>GI_Liver_and_Transplant/Confirmation of Nasogastric Tube Position.pdf</t>
-  </si>
-  <si>
-    <t>Breathing(Respiratory)/Equipment/Passy Muir Valve.pdf</t>
-  </si>
-  <si>
     <t>Infection_and_sepsis/Antifungal guidance in critical care.pdf</t>
   </si>
   <si>
     <t>Breathing(Respiratory)/ARDS Strategy.pdf</t>
   </si>
   <si>
+    <t>Cardiovascular/Intra Aortic Balloon Pump Bedside Checks_pub.pdf</t>
+  </si>
+  <si>
     <t>Transfer/Transfer Outdoors to Garden Guideline.pdf</t>
   </si>
   <si>
     <t>Cardiovascular/Intra Aortic Balloon Pump Guideline_pub.pdf</t>
   </si>
   <si>
-    <t>Cardiovascular/Intra Aortic Balloon Pump Bedside Checks_pub.pdf</t>
-  </si>
-  <si>
     <t>Drugs/adrenaline.pdf</t>
   </si>
   <si>
@@ -400,64 +397,73 @@
     <t>Post_op_care/Major OMFS Free Flap.pdf</t>
   </si>
   <si>
+    <t>Drugs/alfentanil.pdf</t>
+  </si>
+  <si>
     <t>Drugs/Alteplase for massive PE.pdf</t>
   </si>
   <si>
-    <t>Drugs/alfentanil.pdf</t>
-  </si>
-  <si>
     <t>Drugs/magnesium.pdf</t>
   </si>
   <si>
+    <t>Drugs/vancomycin.pdf</t>
+  </si>
+  <si>
+    <t>Drugs/ICU - IV drug infusions.pdf</t>
+  </si>
+  <si>
     <t>Drugs/neostigmine.pdf</t>
   </si>
   <si>
-    <t>Drugs/ICU - IV drug infusions.pdf</t>
-  </si>
-  <si>
-    <t>Drugs/vancomycin.pdf</t>
+    <t>Neurological/Intrathecal policy RIE.pdf</t>
+  </si>
+  <si>
+    <t>Drugs/labetalol.pdf</t>
   </si>
   <si>
     <t>Infection_and_sepsis/Initial investigation and management in unidentified Infections.pdf</t>
   </si>
   <si>
-    <t>Drugs/labetalol.pdf</t>
-  </si>
-  <si>
-    <t>Neurological/Intrathecal policy RIE.pdf</t>
-  </si>
-  <si>
     <t>Cardiovascular/Management of Acute Type B Aortic Dissection Guideline.pdf</t>
   </si>
   <si>
     <t>Drugs/midazolam.pdf</t>
   </si>
   <si>
+    <t>Drugs/salbutamol.pdf</t>
+  </si>
+  <si>
+    <t>Drugs/potassium.pdf</t>
+  </si>
+  <si>
+    <t>Procedures/CVC Guidance/CVC NHL  April 2023.pdf</t>
+  </si>
+  <si>
     <t>Drugs/nimodipine.pdf</t>
   </si>
   <si>
-    <t>Drugs/potassium.pdf</t>
-  </si>
-  <si>
-    <t>Drugs/salbutamol.pdf</t>
-  </si>
-  <si>
-    <t>Procedures/CVC Guidance/CVC NHL  April 2023.pdf</t>
+    <t>Trauma and Burns/Management of Severe Burns v1.6.pdf</t>
+  </si>
+  <si>
+    <t>Drugs/phenobarbitone.pdf</t>
+  </si>
+  <si>
+    <t>Drugs/nicardipine.pdf</t>
+  </si>
+  <si>
+    <t>Routine_Care/ICU Eye Care Guideline.pdf</t>
+  </si>
+  <si>
+    <t>Procedures/Arterial Line insertion for ACCPs.pdf</t>
   </si>
   <si>
     <t>Drugs/amiodarone.pdf</t>
   </si>
   <si>
-    <t>Drugs/nicardipine.pdf</t>
-  </si>
-  <si>
-    <t>Routine_Care/ICU Eye Care Guideline.pdf</t>
-  </si>
-  <si>
-    <t>Drugs/phenobarbitone.pdf</t>
-  </si>
-  <si>
-    <t>Procedures/Arterial Line insertion for ACCPs.pdf</t>
+    <t>Neurological/Ventriculitis Guideline.pdf</t>
+  </si>
+  <si>
+    <t>Drugs/phenylephrine.pdf</t>
   </si>
   <si>
     <t>Drugs/noradrenaline (peripheral).pdf</t>
@@ -466,18 +472,12 @@
     <t>Breathing(Respiratory)/Manual Ventilation and MHI.pdf</t>
   </si>
   <si>
-    <t>Neurological/Ventriculitis Guideline.pdf</t>
-  </si>
-  <si>
     <t>Drugs/Epoprostenol.pdf</t>
   </si>
   <si>
     <t>Drugs/morphine.pdf</t>
   </si>
   <si>
-    <t>Drugs/phenylephrine.pdf</t>
-  </si>
-  <si>
     <t>Drugs/calcium.pdf</t>
   </si>
   <si>
@@ -487,25 +487,28 @@
     <t>Cardiovascular/Pulmonary_Embolism_and_DVT/Catheter directed thrombolysis of iliofemoral DVT alteplase_pub.pdf</t>
   </si>
   <si>
+    <t>Airway/Tracheostomy_Laryngectomy/Decannulation Guidline.pdf</t>
+  </si>
+  <si>
     <t>Drugs/atracurium.pdf</t>
   </si>
   <si>
-    <t>Airway/Tracheostomy_Laryngectomy/Decannulation Guidline.pdf</t>
-  </si>
-  <si>
     <t>Drugs/dalteparin_thromboprophylaxis.pdf</t>
   </si>
   <si>
     <t>Drugs/Vancomycin Continuous Infusion Fluid Restricted.pdf</t>
   </si>
   <si>
+    <t>Policies_and_admin/Pet Visitation.pdf</t>
+  </si>
+  <si>
+    <t>Drugs/valproate.pdf</t>
+  </si>
+  <si>
     <t>Procedures/Inadvertent Catheter Placement Guideline.pdf</t>
   </si>
   <si>
-    <t>Drugs/valproate.pdf</t>
-  </si>
-  <si>
-    <t>Policies_and_admin/Pet Visitation.pdf</t>
+    <t>Drugs/ketamine_for_status epilepticus.pdf</t>
   </si>
   <si>
     <t>Drugs/Phosphate.pdf</t>
@@ -514,33 +517,30 @@
     <t>Drugs/stress ulcer prophylaxis.pdf</t>
   </si>
   <si>
-    <t>Drugs/ketamine_for_status epilepticus.pdf</t>
-  </si>
-  <si>
     <t>GI_Liver_and_Transplant/Prokinetics in ICU.pdf</t>
   </si>
   <si>
+    <t>Neurological/Status epilepticus.pdf</t>
+  </si>
+  <si>
     <t>Drugs/Thiopentone.pdf</t>
   </si>
   <si>
-    <t>Neurological/Status epilepticus.pdf</t>
+    <t>Breathing(Respiratory)/Proning Guideline.pdf</t>
   </si>
   <si>
     <t>Drugs/Octreotide.pdf</t>
   </si>
   <si>
-    <t>Breathing(Respiratory)/Proning Guideline.pdf</t>
+    <t>Procedures/ACCPs acquiring initial CVC competencies.pdf</t>
+  </si>
+  <si>
+    <t>Post_op_care/Prevention and treatment of paraplegia after major aortic procedures.pdf</t>
   </si>
   <si>
     <t>Procedures/ACCP CVC placement following completion of initial competencies.pdf</t>
   </si>
   <si>
-    <t>Post_op_care/Prevention and treatment of paraplegia after major aortic procedures.pdf</t>
-  </si>
-  <si>
-    <t>Procedures/ACCPs acquiring initial CVC competencies.pdf</t>
-  </si>
-  <si>
     <t>Delirium/Violence and Agression.pdf</t>
   </si>
   <si>
@@ -562,12 +562,12 @@
     <t>Breathing(Respiratory)/Equipment/Setting up the NKV-330.pdf</t>
   </si>
   <si>
+    <t>Breathing(Respiratory)/T1RF - CPAP Guidelines_Mar24.pdf</t>
+  </si>
+  <si>
     <t>Breathing(Respiratory)/NKV 330 NIV guidelines.pdf</t>
   </si>
   <si>
-    <t>Breathing(Respiratory)/T1RF - CPAP Guidelines_Mar24.pdf</t>
-  </si>
-  <si>
     <t>Infection_and_sepsis/Influenza in Critical Care.pdf</t>
   </si>
   <si>
@@ -580,190 +580,187 @@
     <t>Policies_and_admin/Repatriaiton Checklist for Critical Care.pdf</t>
   </si>
   <si>
-    <t>2011-03-16</t>
-  </si>
-  <si>
-    <t>2011-06-16</t>
-  </si>
-  <si>
-    <t>2011-07-16</t>
-  </si>
-  <si>
-    <t>2011-12-16</t>
-  </si>
-  <si>
-    <t>2014-09-16</t>
-  </si>
-  <si>
-    <t>2014-10-16</t>
-  </si>
-  <si>
-    <t>2014-11-16</t>
-  </si>
-  <si>
-    <t>2014-12-16</t>
-  </si>
-  <si>
-    <t>2015-03-16</t>
-  </si>
-  <si>
-    <t>2016-01-16</t>
-  </si>
-  <si>
-    <t>2016-04-16</t>
-  </si>
-  <si>
-    <t>2016-08-16</t>
-  </si>
-  <si>
-    <t>2017-01-16</t>
-  </si>
-  <si>
-    <t>2017-08-16</t>
-  </si>
-  <si>
-    <t>2017-10-16</t>
-  </si>
-  <si>
-    <t>2017-11-16</t>
-  </si>
-  <si>
-    <t>2018-05-16</t>
-  </si>
-  <si>
-    <t>2018-07-16</t>
-  </si>
-  <si>
-    <t>2019-05-16</t>
-  </si>
-  <si>
-    <t>2019-06-16</t>
-  </si>
-  <si>
-    <t>2019-08-16</t>
-  </si>
-  <si>
-    <t>2019-09-16</t>
-  </si>
-  <si>
-    <t>2020-01-16</t>
-  </si>
-  <si>
-    <t>2020-03-16</t>
-  </si>
-  <si>
-    <t>2020-04-16</t>
-  </si>
-  <si>
-    <t>2020-05-16</t>
-  </si>
-  <si>
-    <t>2020-07-16</t>
-  </si>
-  <si>
-    <t>2020-08-16</t>
-  </si>
-  <si>
-    <t>2020-11-16</t>
-  </si>
-  <si>
-    <t>2021-02-16</t>
-  </si>
-  <si>
-    <t>2021-05-16</t>
-  </si>
-  <si>
-    <t>2021-06-16</t>
-  </si>
-  <si>
-    <t>2021-09-16</t>
-  </si>
-  <si>
-    <t>2021-12-16</t>
-  </si>
-  <si>
-    <t>2022-01-16</t>
-  </si>
-  <si>
-    <t>2022-03-16</t>
-  </si>
-  <si>
-    <t>2022-04-16</t>
-  </si>
-  <si>
-    <t>2022-05-16</t>
-  </si>
-  <si>
-    <t>2022-06-16</t>
-  </si>
-  <si>
-    <t>2022-07-16</t>
-  </si>
-  <si>
-    <t>2022-08-16</t>
-  </si>
-  <si>
-    <t>2022-10-16</t>
-  </si>
-  <si>
-    <t>2022-11-16</t>
-  </si>
-  <si>
-    <t>2022-12-16</t>
-  </si>
-  <si>
-    <t>2023-01-16</t>
-  </si>
-  <si>
-    <t>2023-02-16</t>
-  </si>
-  <si>
-    <t>2023-04-16</t>
-  </si>
-  <si>
-    <t>2023-05-16</t>
-  </si>
-  <si>
-    <t>2023-06-16</t>
-  </si>
-  <si>
-    <t>2023-07-16</t>
-  </si>
-  <si>
-    <t>2023-08-16</t>
-  </si>
-  <si>
-    <t>2023-09-16</t>
-  </si>
-  <si>
-    <t>2023-10-16</t>
-  </si>
-  <si>
-    <t>2024-01-16</t>
-  </si>
-  <si>
-    <t>2024-02-16</t>
-  </si>
-  <si>
-    <t>2024-03-16</t>
-  </si>
-  <si>
-    <t>2024-04-16</t>
-  </si>
-  <si>
-    <t>2024-05-16</t>
+    <t>2011-03-18</t>
+  </si>
+  <si>
+    <t>2011-06-18</t>
+  </si>
+  <si>
+    <t>2011-07-18</t>
+  </si>
+  <si>
+    <t>2011-12-18</t>
+  </si>
+  <si>
+    <t>2014-09-18</t>
+  </si>
+  <si>
+    <t>2014-10-18</t>
+  </si>
+  <si>
+    <t>2014-11-18</t>
+  </si>
+  <si>
+    <t>2014-12-18</t>
+  </si>
+  <si>
+    <t>2015-03-18</t>
+  </si>
+  <si>
+    <t>2016-01-18</t>
+  </si>
+  <si>
+    <t>2016-04-18</t>
+  </si>
+  <si>
+    <t>2016-08-18</t>
+  </si>
+  <si>
+    <t>2017-01-18</t>
+  </si>
+  <si>
+    <t>2017-08-18</t>
+  </si>
+  <si>
+    <t>2017-10-18</t>
+  </si>
+  <si>
+    <t>2017-11-18</t>
+  </si>
+  <si>
+    <t>2018-07-18</t>
+  </si>
+  <si>
+    <t>2019-05-18</t>
+  </si>
+  <si>
+    <t>2019-06-18</t>
+  </si>
+  <si>
+    <t>2019-08-18</t>
+  </si>
+  <si>
+    <t>2019-09-18</t>
+  </si>
+  <si>
+    <t>2020-01-18</t>
+  </si>
+  <si>
+    <t>2020-03-18</t>
+  </si>
+  <si>
+    <t>2020-04-18</t>
+  </si>
+  <si>
+    <t>2020-05-18</t>
+  </si>
+  <si>
+    <t>2020-07-18</t>
+  </si>
+  <si>
+    <t>2020-08-18</t>
+  </si>
+  <si>
+    <t>2020-11-18</t>
+  </si>
+  <si>
+    <t>2021-02-18</t>
+  </si>
+  <si>
+    <t>2021-05-18</t>
+  </si>
+  <si>
+    <t>2021-06-18</t>
+  </si>
+  <si>
+    <t>2021-09-18</t>
+  </si>
+  <si>
+    <t>2021-12-18</t>
+  </si>
+  <si>
+    <t>2022-01-18</t>
+  </si>
+  <si>
+    <t>2022-03-18</t>
+  </si>
+  <si>
+    <t>2022-04-18</t>
+  </si>
+  <si>
+    <t>2022-05-18</t>
+  </si>
+  <si>
+    <t>2022-06-18</t>
+  </si>
+  <si>
+    <t>2022-07-18</t>
+  </si>
+  <si>
+    <t>2022-08-18</t>
+  </si>
+  <si>
+    <t>2022-10-18</t>
+  </si>
+  <si>
+    <t>2022-11-18</t>
+  </si>
+  <si>
+    <t>2022-12-18</t>
+  </si>
+  <si>
+    <t>2023-01-18</t>
+  </si>
+  <si>
+    <t>2023-02-18</t>
+  </si>
+  <si>
+    <t>2023-04-18</t>
+  </si>
+  <si>
+    <t>2023-05-18</t>
+  </si>
+  <si>
+    <t>2023-06-18</t>
+  </si>
+  <si>
+    <t>2023-07-18</t>
+  </si>
+  <si>
+    <t>2023-08-18</t>
+  </si>
+  <si>
+    <t>2023-09-18</t>
+  </si>
+  <si>
+    <t>2023-10-18</t>
+  </si>
+  <si>
+    <t>2024-01-18</t>
+  </si>
+  <si>
+    <t>2024-02-18</t>
+  </si>
+  <si>
+    <t>2024-03-18</t>
+  </si>
+  <si>
+    <t>2024-04-18</t>
+  </si>
+  <si>
+    <t>2024-05-18</t>
   </si>
   <si>
     <t>2024-06-02</t>
   </si>
   <si>
-    <t>2024-06-16</t>
+    <t>2024-06-18</t>
   </si>
   <si>
     <t>2024-06-26</t>
   </si>
   <si>
-    <t>2024-07-16</t>
+    <t>2024-07-18</t>
   </si>
   <si>
     <t>2024-07-25</t>
@@ -772,10 +769,10 @@
     <t>2024-08-15</t>
   </si>
   <si>
-    <t>2024-08-16</t>
-  </si>
-  <si>
-    <t>2024-10-16</t>
+    <t>2024-08-18</t>
+  </si>
+  <si>
+    <t>2024-10-18</t>
   </si>
   <si>
     <t>2024-10-24</t>
@@ -790,76 +787,76 @@
     <t>2024-12-24</t>
   </si>
   <si>
-    <t>2025-01-16</t>
-  </si>
-  <si>
-    <t>2025-02-16</t>
-  </si>
-  <si>
-    <t>2025-03-16</t>
-  </si>
-  <si>
-    <t>2025-04-16</t>
-  </si>
-  <si>
-    <t>2025-05-16</t>
-  </si>
-  <si>
-    <t>2025-06-16</t>
-  </si>
-  <si>
-    <t>2025-07-16</t>
-  </si>
-  <si>
-    <t>2025-08-16</t>
-  </si>
-  <si>
-    <t>2025-10-16</t>
-  </si>
-  <si>
-    <t>2025-11-16</t>
-  </si>
-  <si>
-    <t>2026-01-16</t>
-  </si>
-  <si>
-    <t>2026-03-16</t>
-  </si>
-  <si>
-    <t>2026-05-16</t>
-  </si>
-  <si>
-    <t>2026-07-16</t>
-  </si>
-  <si>
-    <t>2026-11-16</t>
-  </si>
-  <si>
-    <t>2027-01-16</t>
-  </si>
-  <si>
-    <t>2027-02-16</t>
-  </si>
-  <si>
-    <t>2027-03-16</t>
-  </si>
-  <si>
-    <t>2028-02-16</t>
-  </si>
-  <si>
-    <t>2028-03-16</t>
-  </si>
-  <si>
-    <t>2028-05-16</t>
-  </si>
-  <si>
-    <t>2028-07-16</t>
-  </si>
-  <si>
-    <t>2028-11-16</t>
-  </si>
-  <si>
-    <t>2030-11-16</t>
+    <t>2025-01-18</t>
+  </si>
+  <si>
+    <t>2025-02-18</t>
+  </si>
+  <si>
+    <t>2025-03-18</t>
+  </si>
+  <si>
+    <t>2025-04-18</t>
+  </si>
+  <si>
+    <t>2025-05-18</t>
+  </si>
+  <si>
+    <t>2025-06-18</t>
+  </si>
+  <si>
+    <t>2025-07-18</t>
+  </si>
+  <si>
+    <t>2025-08-18</t>
+  </si>
+  <si>
+    <t>2025-10-18</t>
+  </si>
+  <si>
+    <t>2025-11-18</t>
+  </si>
+  <si>
+    <t>2026-01-18</t>
+  </si>
+  <si>
+    <t>2026-03-18</t>
+  </si>
+  <si>
+    <t>2026-05-18</t>
+  </si>
+  <si>
+    <t>2026-07-18</t>
+  </si>
+  <si>
+    <t>2026-11-18</t>
+  </si>
+  <si>
+    <t>2027-01-18</t>
+  </si>
+  <si>
+    <t>2027-02-18</t>
+  </si>
+  <si>
+    <t>2027-03-18</t>
+  </si>
+  <si>
+    <t>2028-02-18</t>
+  </si>
+  <si>
+    <t>2028-03-18</t>
+  </si>
+  <si>
+    <t>2028-05-18</t>
+  </si>
+  <si>
+    <t>2028-07-18</t>
+  </si>
+  <si>
+    <t>2028-11-18</t>
+  </si>
+  <si>
+    <t>2030-11-18</t>
   </si>
 </sst>
 </file>
@@ -1388,7 +1385,7 @@
         <v>21</v>
       </c>
       <c r="B21" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -1404,7 +1401,7 @@
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -1412,7 +1409,7 @@
         <v>24</v>
       </c>
       <c r="B24" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -1452,7 +1449,7 @@
         <v>29</v>
       </c>
       <c r="B29" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -1460,7 +1457,7 @@
         <v>30</v>
       </c>
       <c r="B30" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -1468,7 +1465,7 @@
         <v>31</v>
       </c>
       <c r="B31" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -1476,7 +1473,7 @@
         <v>32</v>
       </c>
       <c r="B32" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -1484,7 +1481,7 @@
         <v>33</v>
       </c>
       <c r="B33" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -1548,7 +1545,7 @@
         <v>41</v>
       </c>
       <c r="B41" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -1556,7 +1553,7 @@
         <v>42</v>
       </c>
       <c r="B42" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -1572,7 +1569,7 @@
         <v>44</v>
       </c>
       <c r="B44" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -1580,7 +1577,7 @@
         <v>45</v>
       </c>
       <c r="B45" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -1588,7 +1585,7 @@
         <v>46</v>
       </c>
       <c r="B46" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -1596,7 +1593,7 @@
         <v>47</v>
       </c>
       <c r="B47" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -1604,7 +1601,7 @@
         <v>48</v>
       </c>
       <c r="B48" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -1612,7 +1609,7 @@
         <v>49</v>
       </c>
       <c r="B49" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -1620,7 +1617,7 @@
         <v>50</v>
       </c>
       <c r="B50" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -1628,7 +1625,7 @@
         <v>51</v>
       </c>
       <c r="B51" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -1668,7 +1665,7 @@
         <v>56</v>
       </c>
       <c r="B56" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="57" spans="1:2">
@@ -1692,7 +1689,7 @@
         <v>59</v>
       </c>
       <c r="B59" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="60" spans="1:2">
@@ -1708,7 +1705,7 @@
         <v>61</v>
       </c>
       <c r="B61" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="62" spans="1:2">
@@ -1716,7 +1713,7 @@
         <v>62</v>
       </c>
       <c r="B62" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="63" spans="1:2">
@@ -1756,7 +1753,7 @@
         <v>67</v>
       </c>
       <c r="B67" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="68" spans="1:2">
@@ -1788,7 +1785,7 @@
         <v>71</v>
       </c>
       <c r="B71" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="72" spans="1:2">
@@ -1804,7 +1801,7 @@
         <v>73</v>
       </c>
       <c r="B73" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="74" spans="1:2">
@@ -1812,7 +1809,7 @@
         <v>74</v>
       </c>
       <c r="B74" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="75" spans="1:2">
@@ -1828,7 +1825,7 @@
         <v>76</v>
       </c>
       <c r="B76" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="77" spans="1:2">
@@ -1836,7 +1833,7 @@
         <v>77</v>
       </c>
       <c r="B77" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="78" spans="1:2">
@@ -1852,7 +1849,7 @@
         <v>79</v>
       </c>
       <c r="B79" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="80" spans="1:2">
@@ -1868,7 +1865,7 @@
         <v>81</v>
       </c>
       <c r="B81" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="82" spans="1:2">
@@ -1876,7 +1873,7 @@
         <v>82</v>
       </c>
       <c r="B82" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="83" spans="1:2">
@@ -1892,7 +1889,7 @@
         <v>84</v>
       </c>
       <c r="B84" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="85" spans="1:2">
@@ -1916,7 +1913,7 @@
         <v>87</v>
       </c>
       <c r="B87" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="88" spans="1:2">
@@ -1940,7 +1937,7 @@
         <v>90</v>
       </c>
       <c r="B90" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="91" spans="1:2">
@@ -1956,7 +1953,7 @@
         <v>92</v>
       </c>
       <c r="B92" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="93" spans="1:2">
@@ -1964,7 +1961,7 @@
         <v>93</v>
       </c>
       <c r="B93" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="94" spans="1:2">
@@ -1972,7 +1969,7 @@
         <v>94</v>
       </c>
       <c r="B94" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="95" spans="1:2">
@@ -1980,7 +1977,7 @@
         <v>95</v>
       </c>
       <c r="B95" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="96" spans="1:2">
@@ -1996,7 +1993,7 @@
         <v>97</v>
       </c>
       <c r="B97" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="98" spans="1:2">
@@ -2012,7 +2009,7 @@
         <v>99</v>
       </c>
       <c r="B99" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="100" spans="1:2">
@@ -2020,7 +2017,7 @@
         <v>100</v>
       </c>
       <c r="B100" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="101" spans="1:2">
@@ -2028,7 +2025,7 @@
         <v>101</v>
       </c>
       <c r="B101" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="102" spans="1:2">
@@ -2036,7 +2033,7 @@
         <v>102</v>
       </c>
       <c r="B102" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="103" spans="1:2">
@@ -2044,7 +2041,7 @@
         <v>103</v>
       </c>
       <c r="B103" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="104" spans="1:2">
@@ -2052,7 +2049,7 @@
         <v>104</v>
       </c>
       <c r="B104" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="105" spans="1:2">
@@ -2060,7 +2057,7 @@
         <v>105</v>
       </c>
       <c r="B105" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="106" spans="1:2">
@@ -2068,7 +2065,7 @@
         <v>106</v>
       </c>
       <c r="B106" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="107" spans="1:2">
@@ -2076,7 +2073,7 @@
         <v>107</v>
       </c>
       <c r="B107" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="108" spans="1:2">
@@ -2084,7 +2081,7 @@
         <v>108</v>
       </c>
       <c r="B108" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="109" spans="1:2">
@@ -2108,7 +2105,7 @@
         <v>111</v>
       </c>
       <c r="B111" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="112" spans="1:2">
@@ -2132,7 +2129,7 @@
         <v>114</v>
       </c>
       <c r="B114" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="115" spans="1:2">
@@ -2140,7 +2137,7 @@
         <v>115</v>
       </c>
       <c r="B115" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="116" spans="1:2">
@@ -2148,7 +2145,7 @@
         <v>116</v>
       </c>
       <c r="B116" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="117" spans="1:2">
@@ -2156,7 +2153,7 @@
         <v>117</v>
       </c>
       <c r="B117" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="118" spans="1:2">
@@ -2188,7 +2185,7 @@
         <v>121</v>
       </c>
       <c r="B121" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="122" spans="1:2">
@@ -2196,7 +2193,7 @@
         <v>122</v>
       </c>
       <c r="B122" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="123" spans="1:2">
@@ -2212,7 +2209,7 @@
         <v>124</v>
       </c>
       <c r="B124" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="125" spans="1:2">
@@ -2244,7 +2241,7 @@
         <v>128</v>
       </c>
       <c r="B128" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="129" spans="1:2">
@@ -2268,7 +2265,7 @@
         <v>131</v>
       </c>
       <c r="B131" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="132" spans="1:2">
@@ -2276,7 +2273,7 @@
         <v>132</v>
       </c>
       <c r="B132" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="133" spans="1:2">
@@ -2292,7 +2289,7 @@
         <v>134</v>
       </c>
       <c r="B134" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="135" spans="1:2">
@@ -2300,7 +2297,7 @@
         <v>135</v>
       </c>
       <c r="B135" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="136" spans="1:2">
@@ -2316,7 +2313,7 @@
         <v>137</v>
       </c>
       <c r="B137" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="138" spans="1:2">
@@ -2332,7 +2329,7 @@
         <v>139</v>
       </c>
       <c r="B139" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="140" spans="1:2">
@@ -2340,7 +2337,7 @@
         <v>140</v>
       </c>
       <c r="B140" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="141" spans="1:2">
@@ -2348,7 +2345,7 @@
         <v>141</v>
       </c>
       <c r="B141" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="142" spans="1:2">
@@ -2356,7 +2353,7 @@
         <v>142</v>
       </c>
       <c r="B142" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="143" spans="1:2">
@@ -2364,7 +2361,7 @@
         <v>143</v>
       </c>
       <c r="B143" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="144" spans="1:2">
@@ -2372,7 +2369,7 @@
         <v>144</v>
       </c>
       <c r="B144" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="145" spans="1:2">
@@ -2380,7 +2377,7 @@
         <v>145</v>
       </c>
       <c r="B145" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="146" spans="1:2">
@@ -2388,7 +2385,7 @@
         <v>146</v>
       </c>
       <c r="B146" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="147" spans="1:2">
@@ -2396,7 +2393,7 @@
         <v>147</v>
       </c>
       <c r="B147" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="148" spans="1:2">
@@ -2404,7 +2401,7 @@
         <v>148</v>
       </c>
       <c r="B148" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="149" spans="1:2">
@@ -2412,7 +2409,7 @@
         <v>149</v>
       </c>
       <c r="B149" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="150" spans="1:2">
@@ -2420,7 +2417,7 @@
         <v>150</v>
       </c>
       <c r="B150" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="151" spans="1:2">
@@ -2428,7 +2425,7 @@
         <v>151</v>
       </c>
       <c r="B151" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="152" spans="1:2">
@@ -2436,7 +2433,7 @@
         <v>152</v>
       </c>
       <c r="B152" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="153" spans="1:2">
@@ -2444,7 +2441,7 @@
         <v>153</v>
       </c>
       <c r="B153" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="154" spans="1:2">
@@ -2452,7 +2449,7 @@
         <v>154</v>
       </c>
       <c r="B154" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="155" spans="1:2">
@@ -2460,7 +2457,7 @@
         <v>155</v>
       </c>
       <c r="B155" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="156" spans="1:2">
@@ -2468,7 +2465,7 @@
         <v>156</v>
       </c>
       <c r="B156" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="157" spans="1:2">
@@ -2476,7 +2473,7 @@
         <v>157</v>
       </c>
       <c r="B157" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="158" spans="1:2">
@@ -2484,7 +2481,7 @@
         <v>158</v>
       </c>
       <c r="B158" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="159" spans="1:2">
@@ -2492,7 +2489,7 @@
         <v>159</v>
       </c>
       <c r="B159" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="160" spans="1:2">
@@ -2500,7 +2497,7 @@
         <v>160</v>
       </c>
       <c r="B160" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="161" spans="1:2">
@@ -2508,7 +2505,7 @@
         <v>161</v>
       </c>
       <c r="B161" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="162" spans="1:2">
@@ -2516,7 +2513,7 @@
         <v>162</v>
       </c>
       <c r="B162" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="163" spans="1:2">
@@ -2524,7 +2521,7 @@
         <v>163</v>
       </c>
       <c r="B163" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="164" spans="1:2">
@@ -2532,7 +2529,7 @@
         <v>164</v>
       </c>
       <c r="B164" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="165" spans="1:2">
@@ -2540,7 +2537,7 @@
         <v>165</v>
       </c>
       <c r="B165" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="166" spans="1:2">
@@ -2548,7 +2545,7 @@
         <v>166</v>
       </c>
       <c r="B166" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="167" spans="1:2">
@@ -2556,7 +2553,7 @@
         <v>167</v>
       </c>
       <c r="B167" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="168" spans="1:2">
@@ -2564,7 +2561,7 @@
         <v>168</v>
       </c>
       <c r="B168" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="169" spans="1:2">
@@ -2572,7 +2569,7 @@
         <v>169</v>
       </c>
       <c r="B169" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="170" spans="1:2">
@@ -2580,7 +2577,7 @@
         <v>170</v>
       </c>
       <c r="B170" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="171" spans="1:2">
@@ -2588,7 +2585,7 @@
         <v>171</v>
       </c>
       <c r="B171" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="172" spans="1:2">
@@ -2596,7 +2593,7 @@
         <v>172</v>
       </c>
       <c r="B172" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="173" spans="1:2">
@@ -2604,7 +2601,7 @@
         <v>173</v>
       </c>
       <c r="B173" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="174" spans="1:2">
@@ -2612,7 +2609,7 @@
         <v>174</v>
       </c>
       <c r="B174" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="175" spans="1:2">
@@ -2620,7 +2617,7 @@
         <v>175</v>
       </c>
       <c r="B175" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="176" spans="1:2">
@@ -2628,7 +2625,7 @@
         <v>176</v>
       </c>
       <c r="B176" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="177" spans="1:2">
@@ -2636,7 +2633,7 @@
         <v>177</v>
       </c>
       <c r="B177" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="178" spans="1:2">
@@ -2644,7 +2641,7 @@
         <v>178</v>
       </c>
       <c r="B178" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="179" spans="1:2">
@@ -2652,7 +2649,7 @@
         <v>179</v>
       </c>
       <c r="B179" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="180" spans="1:2">
@@ -2660,7 +2657,7 @@
         <v>180</v>
       </c>
       <c r="B180" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="181" spans="1:2">
@@ -2668,7 +2665,7 @@
         <v>181</v>
       </c>
       <c r="B181" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="182" spans="1:2">
@@ -2676,7 +2673,7 @@
         <v>182</v>
       </c>
       <c r="B182" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="183" spans="1:2">
@@ -2684,7 +2681,7 @@
         <v>183</v>
       </c>
       <c r="B183" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="184" spans="1:2">
@@ -2692,7 +2689,7 @@
         <v>184</v>
       </c>
       <c r="B184" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="185" spans="1:2">
@@ -2700,7 +2697,7 @@
         <v>185</v>
       </c>
       <c r="B185" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="186" spans="1:2">
@@ -2708,7 +2705,7 @@
         <v>186</v>
       </c>
       <c r="B186" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="187" spans="1:2">
@@ -2716,7 +2713,7 @@
         <v>187</v>
       </c>
       <c r="B187" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
   </sheetData>

--- a/lothiancriticalcare/1a74f8f7b8b7e871b413c4697f68b4401fbacdf0/reviewdates.xlsx
+++ b/lothiancriticalcare/1a74f8f7b8b7e871b413c4697f68b4401fbacdf0/reviewdates.xlsx
@@ -343,15 +343,15 @@
     <t>End_of_life_care/Palliative extubation &amp; withdrawal of invasive ventilatory support nursing checklist.pdf</t>
   </si>
   <si>
+    <t>End_of_life_care/End of Life Care Guideline for Critical Care.pdf</t>
+  </si>
+  <si>
+    <t>Drugs/noradrenaline (central).pdf</t>
+  </si>
+  <si>
     <t>Airway/Cook Staged Extubation Set.pdf</t>
   </si>
   <si>
-    <t>End_of_life_care/End of Life Care Guideline for Critical Care.pdf</t>
-  </si>
-  <si>
-    <t>Drugs/noradrenaline (central).pdf</t>
-  </si>
-  <si>
     <t>Post_op_care/Epidural hypotension.pdf</t>
   </si>
   <si>
@@ -373,18 +373,18 @@
     <t>Infection_and_sepsis/Antifungal guidance in critical care.pdf</t>
   </si>
   <si>
+    <t>Cardiovascular/Intra Aortic Balloon Pump Bedside Checks_pub.pdf</t>
+  </si>
+  <si>
+    <t>Transfer/Transfer Outdoors to Garden Guideline.pdf</t>
+  </si>
+  <si>
+    <t>Cardiovascular/Intra Aortic Balloon Pump Guideline_pub.pdf</t>
+  </si>
+  <si>
     <t>Breathing(Respiratory)/ARDS Strategy.pdf</t>
   </si>
   <si>
-    <t>Cardiovascular/Intra Aortic Balloon Pump Bedside Checks_pub.pdf</t>
-  </si>
-  <si>
-    <t>Transfer/Transfer Outdoors to Garden Guideline.pdf</t>
-  </si>
-  <si>
-    <t>Cardiovascular/Intra Aortic Balloon Pump Guideline_pub.pdf</t>
-  </si>
-  <si>
     <t>Drugs/adrenaline.pdf</t>
   </si>
   <si>
@@ -580,199 +580,199 @@
     <t>Policies_and_admin/Repatriaiton Checklist for Critical Care.pdf</t>
   </si>
   <si>
-    <t>2011-03-18</t>
-  </si>
-  <si>
-    <t>2011-06-18</t>
-  </si>
-  <si>
-    <t>2011-07-18</t>
-  </si>
-  <si>
-    <t>2011-12-18</t>
-  </si>
-  <si>
-    <t>2014-09-18</t>
-  </si>
-  <si>
-    <t>2014-10-18</t>
-  </si>
-  <si>
-    <t>2014-11-18</t>
-  </si>
-  <si>
-    <t>2014-12-18</t>
-  </si>
-  <si>
-    <t>2015-03-18</t>
-  </si>
-  <si>
-    <t>2016-01-18</t>
-  </si>
-  <si>
-    <t>2016-04-18</t>
-  </si>
-  <si>
-    <t>2016-08-18</t>
-  </si>
-  <si>
-    <t>2017-01-18</t>
-  </si>
-  <si>
-    <t>2017-08-18</t>
-  </si>
-  <si>
-    <t>2017-10-18</t>
-  </si>
-  <si>
-    <t>2017-11-18</t>
-  </si>
-  <si>
-    <t>2018-07-18</t>
-  </si>
-  <si>
-    <t>2019-05-18</t>
-  </si>
-  <si>
-    <t>2019-06-18</t>
-  </si>
-  <si>
-    <t>2019-08-18</t>
-  </si>
-  <si>
-    <t>2019-09-18</t>
-  </si>
-  <si>
-    <t>2020-01-18</t>
-  </si>
-  <si>
-    <t>2020-03-18</t>
-  </si>
-  <si>
-    <t>2020-04-18</t>
-  </si>
-  <si>
-    <t>2020-05-18</t>
-  </si>
-  <si>
-    <t>2020-07-18</t>
-  </si>
-  <si>
-    <t>2020-08-18</t>
-  </si>
-  <si>
-    <t>2020-11-18</t>
-  </si>
-  <si>
-    <t>2021-02-18</t>
-  </si>
-  <si>
-    <t>2021-05-18</t>
-  </si>
-  <si>
-    <t>2021-06-18</t>
-  </si>
-  <si>
-    <t>2021-09-18</t>
-  </si>
-  <si>
-    <t>2021-12-18</t>
-  </si>
-  <si>
-    <t>2022-01-18</t>
-  </si>
-  <si>
-    <t>2022-03-18</t>
-  </si>
-  <si>
-    <t>2022-04-18</t>
-  </si>
-  <si>
-    <t>2022-05-18</t>
-  </si>
-  <si>
-    <t>2022-06-18</t>
-  </si>
-  <si>
-    <t>2022-07-18</t>
-  </si>
-  <si>
-    <t>2022-08-18</t>
-  </si>
-  <si>
-    <t>2022-10-18</t>
-  </si>
-  <si>
-    <t>2022-11-18</t>
-  </si>
-  <si>
-    <t>2022-12-18</t>
-  </si>
-  <si>
-    <t>2023-01-18</t>
-  </si>
-  <si>
-    <t>2023-02-18</t>
-  </si>
-  <si>
-    <t>2023-04-18</t>
-  </si>
-  <si>
-    <t>2023-05-18</t>
-  </si>
-  <si>
-    <t>2023-06-18</t>
-  </si>
-  <si>
-    <t>2023-07-18</t>
-  </si>
-  <si>
-    <t>2023-08-18</t>
-  </si>
-  <si>
-    <t>2023-09-18</t>
-  </si>
-  <si>
-    <t>2023-10-18</t>
-  </si>
-  <si>
-    <t>2024-01-18</t>
-  </si>
-  <si>
-    <t>2024-02-18</t>
-  </si>
-  <si>
-    <t>2024-03-18</t>
-  </si>
-  <si>
-    <t>2024-04-18</t>
-  </si>
-  <si>
-    <t>2024-05-18</t>
+    <t>2011-03-01</t>
+  </si>
+  <si>
+    <t>2011-06-01</t>
+  </si>
+  <si>
+    <t>2011-07-01</t>
+  </si>
+  <si>
+    <t>2011-12-01</t>
+  </si>
+  <si>
+    <t>2014-09-01</t>
+  </si>
+  <si>
+    <t>2014-10-01</t>
+  </si>
+  <si>
+    <t>2014-11-01</t>
+  </si>
+  <si>
+    <t>2014-12-01</t>
+  </si>
+  <si>
+    <t>2015-03-01</t>
+  </si>
+  <si>
+    <t>2016-01-01</t>
+  </si>
+  <si>
+    <t>2016-04-01</t>
+  </si>
+  <si>
+    <t>2016-08-01</t>
+  </si>
+  <si>
+    <t>2017-01-01</t>
+  </si>
+  <si>
+    <t>2017-08-01</t>
+  </si>
+  <si>
+    <t>2017-10-01</t>
+  </si>
+  <si>
+    <t>2017-11-01</t>
+  </si>
+  <si>
+    <t>2018-07-01</t>
+  </si>
+  <si>
+    <t>2019-05-01</t>
+  </si>
+  <si>
+    <t>2019-06-01</t>
+  </si>
+  <si>
+    <t>2019-08-01</t>
+  </si>
+  <si>
+    <t>2019-09-01</t>
+  </si>
+  <si>
+    <t>2020-01-01</t>
+  </si>
+  <si>
+    <t>2020-03-01</t>
+  </si>
+  <si>
+    <t>2020-04-01</t>
+  </si>
+  <si>
+    <t>2020-05-01</t>
+  </si>
+  <si>
+    <t>2020-07-01</t>
+  </si>
+  <si>
+    <t>2020-08-01</t>
+  </si>
+  <si>
+    <t>2020-11-01</t>
+  </si>
+  <si>
+    <t>2021-02-01</t>
+  </si>
+  <si>
+    <t>2021-05-01</t>
+  </si>
+  <si>
+    <t>2021-06-01</t>
+  </si>
+  <si>
+    <t>2021-09-01</t>
+  </si>
+  <si>
+    <t>2021-12-01</t>
+  </si>
+  <si>
+    <t>2022-01-01</t>
+  </si>
+  <si>
+    <t>2022-03-01</t>
+  </si>
+  <si>
+    <t>2022-04-01</t>
+  </si>
+  <si>
+    <t>2022-05-01</t>
+  </si>
+  <si>
+    <t>2022-06-01</t>
+  </si>
+  <si>
+    <t>2022-07-01</t>
+  </si>
+  <si>
+    <t>2022-08-01</t>
+  </si>
+  <si>
+    <t>2022-10-01</t>
+  </si>
+  <si>
+    <t>2022-11-01</t>
+  </si>
+  <si>
+    <t>2022-12-01</t>
+  </si>
+  <si>
+    <t>2023-01-01</t>
+  </si>
+  <si>
+    <t>2023-02-01</t>
+  </si>
+  <si>
+    <t>2023-04-01</t>
+  </si>
+  <si>
+    <t>2023-05-01</t>
+  </si>
+  <si>
+    <t>2023-06-01</t>
+  </si>
+  <si>
+    <t>2023-07-01</t>
+  </si>
+  <si>
+    <t>2023-08-01</t>
+  </si>
+  <si>
+    <t>2023-09-01</t>
+  </si>
+  <si>
+    <t>2023-10-01</t>
+  </si>
+  <si>
+    <t>2024-01-01</t>
+  </si>
+  <si>
+    <t>2024-02-01</t>
+  </si>
+  <si>
+    <t>2024-03-01</t>
+  </si>
+  <si>
+    <t>2024-04-01</t>
+  </si>
+  <si>
+    <t>2024-05-01</t>
+  </si>
+  <si>
+    <t>2024-06-01</t>
   </si>
   <si>
     <t>2024-06-02</t>
   </si>
   <si>
-    <t>2024-06-18</t>
-  </si>
-  <si>
     <t>2024-06-26</t>
   </si>
   <si>
-    <t>2024-07-18</t>
+    <t>2024-07-01</t>
   </si>
   <si>
     <t>2024-07-25</t>
   </si>
   <si>
+    <t>2024-08-01</t>
+  </si>
+  <si>
     <t>2024-08-15</t>
   </si>
   <si>
-    <t>2024-08-18</t>
-  </si>
-  <si>
-    <t>2024-10-18</t>
+    <t>2024-10-01</t>
   </si>
   <si>
     <t>2024-10-24</t>
@@ -787,76 +787,76 @@
     <t>2024-12-24</t>
   </si>
   <si>
-    <t>2025-01-18</t>
-  </si>
-  <si>
-    <t>2025-02-18</t>
-  </si>
-  <si>
-    <t>2025-03-18</t>
-  </si>
-  <si>
-    <t>2025-04-18</t>
-  </si>
-  <si>
-    <t>2025-05-18</t>
-  </si>
-  <si>
-    <t>2025-06-18</t>
-  </si>
-  <si>
-    <t>2025-07-18</t>
-  </si>
-  <si>
-    <t>2025-08-18</t>
-  </si>
-  <si>
-    <t>2025-10-18</t>
-  </si>
-  <si>
-    <t>2025-11-18</t>
-  </si>
-  <si>
-    <t>2026-01-18</t>
-  </si>
-  <si>
-    <t>2026-03-18</t>
-  </si>
-  <si>
-    <t>2026-05-18</t>
-  </si>
-  <si>
-    <t>2026-07-18</t>
-  </si>
-  <si>
-    <t>2026-11-18</t>
-  </si>
-  <si>
-    <t>2027-01-18</t>
-  </si>
-  <si>
-    <t>2027-02-18</t>
-  </si>
-  <si>
-    <t>2027-03-18</t>
-  </si>
-  <si>
-    <t>2028-02-18</t>
-  </si>
-  <si>
-    <t>2028-03-18</t>
-  </si>
-  <si>
-    <t>2028-05-18</t>
-  </si>
-  <si>
-    <t>2028-07-18</t>
-  </si>
-  <si>
-    <t>2028-11-18</t>
-  </si>
-  <si>
-    <t>2030-11-18</t>
+    <t>2025-01-01</t>
+  </si>
+  <si>
+    <t>2025-02-01</t>
+  </si>
+  <si>
+    <t>2025-03-01</t>
+  </si>
+  <si>
+    <t>2025-04-01</t>
+  </si>
+  <si>
+    <t>2025-05-01</t>
+  </si>
+  <si>
+    <t>2025-06-01</t>
+  </si>
+  <si>
+    <t>2025-07-01</t>
+  </si>
+  <si>
+    <t>2025-08-01</t>
+  </si>
+  <si>
+    <t>2025-10-01</t>
+  </si>
+  <si>
+    <t>2025-11-01</t>
+  </si>
+  <si>
+    <t>2026-01-01</t>
+  </si>
+  <si>
+    <t>2026-03-01</t>
+  </si>
+  <si>
+    <t>2026-05-01</t>
+  </si>
+  <si>
+    <t>2026-07-01</t>
+  </si>
+  <si>
+    <t>2026-11-01</t>
+  </si>
+  <si>
+    <t>2027-01-01</t>
+  </si>
+  <si>
+    <t>2027-02-01</t>
+  </si>
+  <si>
+    <t>2027-03-01</t>
+  </si>
+  <si>
+    <t>2028-02-01</t>
+  </si>
+  <si>
+    <t>2028-03-01</t>
+  </si>
+  <si>
+    <t>2028-05-01</t>
+  </si>
+  <si>
+    <t>2028-07-01</t>
+  </si>
+  <si>
+    <t>2028-11-01</t>
+  </si>
+  <si>
+    <t>2030-11-01</t>
   </si>
 </sst>
 </file>
@@ -2097,7 +2097,7 @@
         <v>110</v>
       </c>
       <c r="B110" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="111" spans="1:2">
@@ -2177,7 +2177,7 @@
         <v>120</v>
       </c>
       <c r="B120" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="121" spans="1:2">
@@ -2185,7 +2185,7 @@
         <v>121</v>
       </c>
       <c r="B121" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="122" spans="1:2">

--- a/lothiancriticalcare/1a74f8f7b8b7e871b413c4697f68b4401fbacdf0/reviewdates.xlsx
+++ b/lothiancriticalcare/1a74f8f7b8b7e871b413c4697f68b4401fbacdf0/reviewdates.xlsx
@@ -343,15 +343,15 @@
     <t>End_of_life_care/Palliative extubation &amp; withdrawal of invasive ventilatory support nursing checklist.pdf</t>
   </si>
   <si>
+    <t>Airway/Cook Staged Extubation Set.pdf</t>
+  </si>
+  <si>
     <t>End_of_life_care/End of Life Care Guideline for Critical Care.pdf</t>
   </si>
   <si>
     <t>Drugs/noradrenaline (central).pdf</t>
   </si>
   <si>
-    <t>Airway/Cook Staged Extubation Set.pdf</t>
-  </si>
-  <si>
     <t>Post_op_care/Epidural hypotension.pdf</t>
   </si>
   <si>
@@ -580,199 +580,199 @@
     <t>Policies_and_admin/Repatriaiton Checklist for Critical Care.pdf</t>
   </si>
   <si>
-    <t>2011-03-01</t>
-  </si>
-  <si>
-    <t>2011-06-01</t>
-  </si>
-  <si>
-    <t>2011-07-01</t>
-  </si>
-  <si>
-    <t>2011-12-01</t>
-  </si>
-  <si>
-    <t>2014-09-01</t>
-  </si>
-  <si>
-    <t>2014-10-01</t>
-  </si>
-  <si>
-    <t>2014-11-01</t>
-  </si>
-  <si>
-    <t>2014-12-01</t>
-  </si>
-  <si>
-    <t>2015-03-01</t>
-  </si>
-  <si>
-    <t>2016-01-01</t>
-  </si>
-  <si>
-    <t>2016-04-01</t>
-  </si>
-  <si>
-    <t>2016-08-01</t>
-  </si>
-  <si>
-    <t>2017-01-01</t>
-  </si>
-  <si>
-    <t>2017-08-01</t>
-  </si>
-  <si>
-    <t>2017-10-01</t>
-  </si>
-  <si>
-    <t>2017-11-01</t>
-  </si>
-  <si>
-    <t>2018-07-01</t>
-  </si>
-  <si>
-    <t>2019-05-01</t>
-  </si>
-  <si>
-    <t>2019-06-01</t>
-  </si>
-  <si>
-    <t>2019-08-01</t>
-  </si>
-  <si>
-    <t>2019-09-01</t>
-  </si>
-  <si>
-    <t>2020-01-01</t>
-  </si>
-  <si>
-    <t>2020-03-01</t>
-  </si>
-  <si>
-    <t>2020-04-01</t>
-  </si>
-  <si>
-    <t>2020-05-01</t>
-  </si>
-  <si>
-    <t>2020-07-01</t>
-  </si>
-  <si>
-    <t>2020-08-01</t>
-  </si>
-  <si>
-    <t>2020-11-01</t>
-  </si>
-  <si>
-    <t>2021-02-01</t>
-  </si>
-  <si>
-    <t>2021-05-01</t>
-  </si>
-  <si>
-    <t>2021-06-01</t>
-  </si>
-  <si>
-    <t>2021-09-01</t>
-  </si>
-  <si>
-    <t>2021-12-01</t>
-  </si>
-  <si>
-    <t>2022-01-01</t>
-  </si>
-  <si>
-    <t>2022-03-01</t>
-  </si>
-  <si>
-    <t>2022-04-01</t>
-  </si>
-  <si>
-    <t>2022-05-01</t>
-  </si>
-  <si>
-    <t>2022-06-01</t>
-  </si>
-  <si>
-    <t>2022-07-01</t>
-  </si>
-  <si>
-    <t>2022-08-01</t>
-  </si>
-  <si>
-    <t>2022-10-01</t>
-  </si>
-  <si>
-    <t>2022-11-01</t>
-  </si>
-  <si>
-    <t>2022-12-01</t>
-  </si>
-  <si>
-    <t>2023-01-01</t>
-  </si>
-  <si>
-    <t>2023-02-01</t>
-  </si>
-  <si>
-    <t>2023-04-01</t>
-  </si>
-  <si>
-    <t>2023-05-01</t>
-  </si>
-  <si>
-    <t>2023-06-01</t>
-  </si>
-  <si>
-    <t>2023-07-01</t>
-  </si>
-  <si>
-    <t>2023-08-01</t>
-  </si>
-  <si>
-    <t>2023-09-01</t>
-  </si>
-  <si>
-    <t>2023-10-01</t>
-  </si>
-  <si>
-    <t>2024-01-01</t>
-  </si>
-  <si>
-    <t>2024-02-01</t>
-  </si>
-  <si>
-    <t>2024-03-01</t>
-  </si>
-  <si>
-    <t>2024-04-01</t>
-  </si>
-  <si>
-    <t>2024-05-01</t>
-  </si>
-  <si>
-    <t>2024-06-01</t>
+    <t>2011-03-08</t>
+  </si>
+  <si>
+    <t>2011-06-08</t>
+  </si>
+  <si>
+    <t>2011-07-08</t>
+  </si>
+  <si>
+    <t>2011-12-08</t>
+  </si>
+  <si>
+    <t>2014-09-08</t>
+  </si>
+  <si>
+    <t>2014-10-08</t>
+  </si>
+  <si>
+    <t>2014-11-08</t>
+  </si>
+  <si>
+    <t>2014-12-08</t>
+  </si>
+  <si>
+    <t>2015-03-08</t>
+  </si>
+  <si>
+    <t>2016-01-08</t>
+  </si>
+  <si>
+    <t>2016-04-08</t>
+  </si>
+  <si>
+    <t>2016-08-08</t>
+  </si>
+  <si>
+    <t>2017-01-08</t>
+  </si>
+  <si>
+    <t>2017-08-08</t>
+  </si>
+  <si>
+    <t>2017-10-08</t>
+  </si>
+  <si>
+    <t>2017-11-08</t>
+  </si>
+  <si>
+    <t>2018-07-08</t>
+  </si>
+  <si>
+    <t>2019-05-08</t>
+  </si>
+  <si>
+    <t>2019-06-08</t>
+  </si>
+  <si>
+    <t>2019-08-08</t>
+  </si>
+  <si>
+    <t>2019-09-08</t>
+  </si>
+  <si>
+    <t>2020-01-08</t>
+  </si>
+  <si>
+    <t>2020-03-08</t>
+  </si>
+  <si>
+    <t>2020-04-08</t>
+  </si>
+  <si>
+    <t>2020-05-08</t>
+  </si>
+  <si>
+    <t>2020-07-08</t>
+  </si>
+  <si>
+    <t>2020-08-08</t>
+  </si>
+  <si>
+    <t>2020-11-08</t>
+  </si>
+  <si>
+    <t>2021-02-08</t>
+  </si>
+  <si>
+    <t>2021-05-08</t>
+  </si>
+  <si>
+    <t>2021-06-08</t>
+  </si>
+  <si>
+    <t>2021-09-08</t>
+  </si>
+  <si>
+    <t>2021-12-08</t>
+  </si>
+  <si>
+    <t>2022-01-08</t>
+  </si>
+  <si>
+    <t>2022-03-08</t>
+  </si>
+  <si>
+    <t>2022-04-08</t>
+  </si>
+  <si>
+    <t>2022-05-08</t>
+  </si>
+  <si>
+    <t>2022-06-08</t>
+  </si>
+  <si>
+    <t>2022-07-08</t>
+  </si>
+  <si>
+    <t>2022-08-08</t>
+  </si>
+  <si>
+    <t>2022-10-08</t>
+  </si>
+  <si>
+    <t>2022-11-08</t>
+  </si>
+  <si>
+    <t>2022-12-08</t>
+  </si>
+  <si>
+    <t>2023-01-08</t>
+  </si>
+  <si>
+    <t>2023-02-08</t>
+  </si>
+  <si>
+    <t>2023-04-08</t>
+  </si>
+  <si>
+    <t>2023-05-08</t>
+  </si>
+  <si>
+    <t>2023-06-08</t>
+  </si>
+  <si>
+    <t>2023-07-08</t>
+  </si>
+  <si>
+    <t>2023-08-08</t>
+  </si>
+  <si>
+    <t>2023-09-08</t>
+  </si>
+  <si>
+    <t>2023-10-08</t>
+  </si>
+  <si>
+    <t>2024-01-08</t>
+  </si>
+  <si>
+    <t>2024-02-08</t>
+  </si>
+  <si>
+    <t>2024-03-08</t>
+  </si>
+  <si>
+    <t>2024-04-08</t>
+  </si>
+  <si>
+    <t>2024-05-08</t>
   </si>
   <si>
     <t>2024-06-02</t>
   </si>
   <si>
+    <t>2024-06-08</t>
+  </si>
+  <si>
     <t>2024-06-26</t>
   </si>
   <si>
-    <t>2024-07-01</t>
+    <t>2024-07-08</t>
   </si>
   <si>
     <t>2024-07-25</t>
   </si>
   <si>
-    <t>2024-08-01</t>
+    <t>2024-08-08</t>
   </si>
   <si>
     <t>2024-08-15</t>
   </si>
   <si>
-    <t>2024-10-01</t>
+    <t>2024-10-08</t>
   </si>
   <si>
     <t>2024-10-24</t>
@@ -787,76 +787,76 @@
     <t>2024-12-24</t>
   </si>
   <si>
-    <t>2025-01-01</t>
-  </si>
-  <si>
-    <t>2025-02-01</t>
-  </si>
-  <si>
-    <t>2025-03-01</t>
-  </si>
-  <si>
-    <t>2025-04-01</t>
-  </si>
-  <si>
-    <t>2025-05-01</t>
-  </si>
-  <si>
-    <t>2025-06-01</t>
-  </si>
-  <si>
-    <t>2025-07-01</t>
-  </si>
-  <si>
-    <t>2025-08-01</t>
-  </si>
-  <si>
-    <t>2025-10-01</t>
-  </si>
-  <si>
-    <t>2025-11-01</t>
-  </si>
-  <si>
-    <t>2026-01-01</t>
-  </si>
-  <si>
-    <t>2026-03-01</t>
-  </si>
-  <si>
-    <t>2026-05-01</t>
-  </si>
-  <si>
-    <t>2026-07-01</t>
-  </si>
-  <si>
-    <t>2026-11-01</t>
-  </si>
-  <si>
-    <t>2027-01-01</t>
-  </si>
-  <si>
-    <t>2027-02-01</t>
-  </si>
-  <si>
-    <t>2027-03-01</t>
-  </si>
-  <si>
-    <t>2028-02-01</t>
-  </si>
-  <si>
-    <t>2028-03-01</t>
-  </si>
-  <si>
-    <t>2028-05-01</t>
-  </si>
-  <si>
-    <t>2028-07-01</t>
-  </si>
-  <si>
-    <t>2028-11-01</t>
-  </si>
-  <si>
-    <t>2030-11-01</t>
+    <t>2025-01-08</t>
+  </si>
+  <si>
+    <t>2025-02-08</t>
+  </si>
+  <si>
+    <t>2025-03-08</t>
+  </si>
+  <si>
+    <t>2025-04-08</t>
+  </si>
+  <si>
+    <t>2025-05-08</t>
+  </si>
+  <si>
+    <t>2025-06-08</t>
+  </si>
+  <si>
+    <t>2025-07-08</t>
+  </si>
+  <si>
+    <t>2025-08-08</t>
+  </si>
+  <si>
+    <t>2025-10-08</t>
+  </si>
+  <si>
+    <t>2025-11-08</t>
+  </si>
+  <si>
+    <t>2026-01-08</t>
+  </si>
+  <si>
+    <t>2026-03-08</t>
+  </si>
+  <si>
+    <t>2026-05-08</t>
+  </si>
+  <si>
+    <t>2026-07-08</t>
+  </si>
+  <si>
+    <t>2026-11-08</t>
+  </si>
+  <si>
+    <t>2027-01-08</t>
+  </si>
+  <si>
+    <t>2027-02-08</t>
+  </si>
+  <si>
+    <t>2027-03-08</t>
+  </si>
+  <si>
+    <t>2028-02-08</t>
+  </si>
+  <si>
+    <t>2028-03-08</t>
+  </si>
+  <si>
+    <t>2028-05-08</t>
+  </si>
+  <si>
+    <t>2028-07-08</t>
+  </si>
+  <si>
+    <t>2028-11-08</t>
+  </si>
+  <si>
+    <t>2030-11-08</t>
   </si>
 </sst>
 </file>
@@ -2097,7 +2097,7 @@
         <v>110</v>
       </c>
       <c r="B110" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="111" spans="1:2">

--- a/lothiancriticalcare/1a74f8f7b8b7e871b413c4697f68b4401fbacdf0/reviewdates.xlsx
+++ b/lothiancriticalcare/1a74f8f7b8b7e871b413c4697f68b4401fbacdf0/reviewdates.xlsx
@@ -82,15 +82,15 @@
     <t>Breathing(Respiratory)/salbutamol and ipratroprium MDI.pdf</t>
   </si>
   <si>
+    <t>Airway/Tracheostomy_Laryngectomy/Tracheostomy suctioning cleaning guideline.pdf</t>
+  </si>
+  <si>
+    <t>Airway/Tracheostomy_Laryngectomy/Tracheostomy change in Critical Care.pdf</t>
+  </si>
+  <si>
     <t>Neurological/SOP -  Femoral site care.pdf</t>
   </si>
   <si>
-    <t>Airway/Tracheostomy_Laryngectomy/Tracheostomy suctioning cleaning guideline.pdf</t>
-  </si>
-  <si>
-    <t>Airway/Tracheostomy_Laryngectomy/Tracheostomy change in Critical Care.pdf</t>
-  </si>
-  <si>
     <t>Drugs/sodium_bicarbonate.pdf</t>
   </si>
   <si>
@@ -100,24 +100,24 @@
     <t>Post_op_care/Epidural top-up.pdf</t>
   </si>
   <si>
+    <t>Covid-19/SJH/SJH COVID19 ED Intubation Action Card.pdf</t>
+  </si>
+  <si>
+    <t>Covid-19/SJH/SJH COVID19 ITU Intubation Action Card.pdf</t>
+  </si>
+  <si>
+    <t>Drugs/heparin for Haemofiltration.pdf</t>
+  </si>
+  <si>
     <t>Diabetes_and_Glucose/Hyperosmolar Hyperglycaemic State.pdf</t>
   </si>
   <si>
     <t>Airway/Emergency intubation checklist_em_pub.pdf</t>
   </si>
   <si>
-    <t>Covid-19/SJH/SJH COVID19 ED Intubation Action Card.pdf</t>
-  </si>
-  <si>
     <t>Covid-19/WGH/CoVid intubation checklist WGH.pdf</t>
   </si>
   <si>
-    <t>Drugs/heparin for Haemofiltration.pdf</t>
-  </si>
-  <si>
-    <t>Covid-19/SJH/SJH COVID19 ITU Intubation Action Card.pdf</t>
-  </si>
-  <si>
     <t>Drugs/fentanyl.pdf</t>
   </si>
   <si>
@@ -136,42 +136,42 @@
     <t>Airway/Percutaneous tracheostomy checklist.pdf</t>
   </si>
   <si>
+    <t>Delirium/Managing a Potentially Violent Patient.pdf</t>
+  </si>
+  <si>
+    <t>Delirium/Risk assessment posi mit.pdf</t>
+  </si>
+  <si>
     <t>Infection_and_sepsis/SOP Ultrasound Cleaning.pdf</t>
   </si>
   <si>
-    <t>Delirium/Risk assessment posi mit.pdf</t>
-  </si>
-  <si>
-    <t>Delirium/Managing a Potentially Violent Patient.pdf</t>
+    <t>Neurological/Sub arachnoid haemorrhage management.pdf</t>
+  </si>
+  <si>
+    <t>Drugs/ketamine_in_asthma.pdf</t>
+  </si>
+  <si>
+    <t>Breathing(Respiratory)/HFNO.pdf</t>
+  </si>
+  <si>
+    <t>Delirium/Drugs Causing Delirium and Agitiation.pdf</t>
+  </si>
+  <si>
+    <t>GI_Liver_and_Transplant/Abdominal pressure measurement.pdf</t>
+  </si>
+  <si>
+    <t>Airway/Tracheostomy_Laryngectomy/Tracheostomy safety box contents.pdf</t>
   </si>
   <si>
     <t>GI_Liver_and_Transplant/Treatment of constipation.pdf</t>
   </si>
   <si>
-    <t>Delirium/Drugs Causing Delirium and Agitiation.pdf</t>
-  </si>
-  <si>
-    <t>Airway/Tracheostomy_Laryngectomy/Tracheostomy safety box contents.pdf</t>
+    <t>Airway/Anticipated difficult airway tool.pdf</t>
   </si>
   <si>
     <t>Airway/McGrath Mac.pdf</t>
   </si>
   <si>
-    <t>Airway/Anticipated difficult airway tool.pdf</t>
-  </si>
-  <si>
-    <t>Neurological/Sub arachnoid haemorrhage management.pdf</t>
-  </si>
-  <si>
-    <t>Breathing(Respiratory)/HFNO.pdf</t>
-  </si>
-  <si>
-    <t>Drugs/ketamine_in_asthma.pdf</t>
-  </si>
-  <si>
-    <t>GI_Liver_and_Transplant/Abdominal pressure measurement.pdf</t>
-  </si>
-  <si>
     <t>End_of_life_care/Documentation following death.pdf</t>
   </si>
   <si>
@@ -181,12 +181,12 @@
     <t>Routine_Care/bBraun Spaceplus Failure EMERGENCY ACTION CARD_em.pdf</t>
   </si>
   <si>
+    <t>Drugs/insulin.pdf</t>
+  </si>
+  <si>
     <t>Breathing(Respiratory)/Equipment/HFNO Set Up.pdf</t>
   </si>
   <si>
-    <t>Drugs/insulin.pdf</t>
-  </si>
-  <si>
     <t>Breathing(Respiratory)/Inhaled Nitrous Oxide.pdf</t>
   </si>
   <si>
@@ -214,72 +214,72 @@
     <t>Breathing(Respiratory)/Equipment/HFNO through ventilator.pdf</t>
   </si>
   <si>
+    <t>Post_op_care/Adult Scoliosis Spinal Surgery Post-Op Care.pdf</t>
+  </si>
+  <si>
     <t>Routine_Care/VTE_Prevention/Dalteparin_thromboprophylaxis.pdf</t>
   </si>
   <si>
-    <t>Post_op_care/Adult Scoliosis Spinal Surgery Post-Op Care.pdf</t>
-  </si>
-  <si>
     <t>Post_op_care/Post op care pharyngo-laryngo-oesphagectomy PLOG.pdf</t>
   </si>
   <si>
     <t>GI_Liver_and_Transplant/Nasogastric feeding protocol.pdf</t>
   </si>
   <si>
+    <t>Drugs/Antibiotic doses in CVVHD.pdf</t>
+  </si>
+  <si>
     <t>Diabetes_and_Glucose/Intravenous Insulin Therapy (not for DKA or HHS).pdf</t>
   </si>
   <si>
-    <t>Drugs/Antibiotic doses in CVVHD.pdf</t>
+    <t>GI_Liver_and_Transplant/Nasojejunal feeding protocol.pdf</t>
+  </si>
+  <si>
+    <t>ECLS/RIE ECLS Anti Xa Protocol.pdf</t>
   </si>
   <si>
     <t>GI_Liver_and_Transplant/Jejunostomy feeding protocol.pdf</t>
   </si>
   <si>
-    <t>GI_Liver_and_Transplant/Nasojejunal feeding protocol.pdf</t>
-  </si>
-  <si>
-    <t>ECLS/RIE ECLS Anti Xa Protocol.pdf</t>
+    <t>Drugs/vasopressin_sepsis.pdf</t>
+  </si>
+  <si>
+    <t>Drugs/vasopressin organ donation.pdf</t>
   </si>
   <si>
     <t>Infection_and_sepsis/Winter Infections Stepdown Guidance.pdf</t>
   </si>
   <si>
-    <t>Drugs/vasopressin organ donation.pdf</t>
-  </si>
-  <si>
-    <t>Drugs/vasopressin_sepsis.pdf</t>
+    <t>Transfer/ACCP Transfers.pdf</t>
   </si>
   <si>
     <t>Covid-19/videos/Donning and Doffing Video.pdf</t>
   </si>
   <si>
-    <t>Transfer/ACCP Transfers.pdf</t>
-  </si>
-  <si>
     <t>Infection_and_sepsis/Infection indications for IVIG.pdf</t>
   </si>
   <si>
+    <t>Breathing(Respiratory)/Equipment/Ventilators Circuits Filters and Closed Suction - Set up and Maintenance.pdf</t>
+  </si>
+  <si>
     <t>Drugs/piperacillin_tazobactam extended_infusion.pdf</t>
   </si>
   <si>
-    <t>Breathing(Respiratory)/Equipment/Ventilators Circuits Filters and Closed Suction - Set up and Maintenance.pdf</t>
+    <t>Covid-19/Covid 19 Death Certification Guideline.pdf</t>
   </si>
   <si>
     <t>Procedures/CVC Guidance/Securing CVCs.pdf</t>
   </si>
   <si>
-    <t>Covid-19/Covid 19 Death Certification Guideline.pdf</t>
-  </si>
-  <si>
     <t>Routine_Care/Video Communication.pdf</t>
   </si>
   <si>
+    <t>Cardiovascular/Cardiogenic Shock.pdf</t>
+  </si>
+  <si>
     <t>Drugs/isoprenaline.pdf</t>
   </si>
   <si>
-    <t>Cardiovascular/Cardiogenic Shock.pdf</t>
-  </si>
-  <si>
     <t>Haematology_CAR-T/Haem_ICU_transfer.pdf</t>
   </si>
   <si>
@@ -289,120 +289,120 @@
     <t>Drugs/aminophylline.pdf</t>
   </si>
   <si>
+    <t>Haematology_CAR-T/ICANS.pdf</t>
+  </si>
+  <si>
+    <t>Haematology_CAR-T/Cytokine Release Syndrome.pdf</t>
+  </si>
+  <si>
+    <t>Drugs/rocuronium.pdf</t>
+  </si>
+  <si>
     <t>Drugs/phenytoin.pdf</t>
   </si>
   <si>
-    <t>Drugs/rocuronium.pdf</t>
-  </si>
-  <si>
     <t>Drugs/pancuronium.pdf</t>
   </si>
   <si>
-    <t>Haematology_CAR-T/CRS.pdf</t>
-  </si>
-  <si>
-    <t>Haematology_CAR-T/ICANS.pdf</t>
+    <t>Policies_and_admin/General Critical Care SOP_pub.pdf</t>
   </si>
   <si>
     <t>Drugs/milrinone.pdf</t>
   </si>
   <si>
-    <t>Policies_and_admin/General Critical Care SOP_pub.pdf</t>
+    <t>Covid-19/COVID 19 ICM guidance basic goals_June_2022.pdf</t>
+  </si>
+  <si>
+    <t>Neurological/Critical Care MRI Procedure_pub.pdf</t>
+  </si>
+  <si>
+    <t>Ethics_and_Law/Care at the End of Life (FICM).pdf</t>
+  </si>
+  <si>
+    <t>Organ_donation/Organ Retrieval SOP.pdf</t>
+  </si>
+  <si>
+    <t>GI_Liver_and_Transplant/ICU - Upper GI bleeding (Endoscopy guideline).pdf</t>
+  </si>
+  <si>
+    <t>Drugs/clonidine.pdf</t>
   </si>
   <si>
     <t>Ethics_and_Law/DNACPR policy for Scotland.pdf</t>
   </si>
   <si>
+    <t>Infection_and_sepsis/Trip Out of Unit infection guidance.pdf</t>
+  </si>
+  <si>
     <t>Neurological/Management of traumatic brain injury.pdf</t>
   </si>
   <si>
-    <t>Drugs/clonidine.pdf</t>
-  </si>
-  <si>
-    <t>Ethics_and_Law/Care at the End of Life (FICM).pdf</t>
-  </si>
-  <si>
-    <t>Neurological/Critical Care MRI Procedure_pub.pdf</t>
-  </si>
-  <si>
-    <t>Organ_donation/Organ Retrieval SOP.pdf</t>
+    <t>End_of_life_care/Palliative extubation &amp; withdrawal of invasive ventilatory support nursing checklist.pdf</t>
   </si>
   <si>
     <t>End_of_life_care/CMO &amp; NRS Guidance for Doctors completing MCCD.pdf</t>
   </si>
   <si>
-    <t>Covid-19/COVID 19 ICM guidance basic goals_June_2022.pdf</t>
-  </si>
-  <si>
-    <t>GI_Liver_and_Transplant/ICU - Upper GI bleeding (Endoscopy guideline).pdf</t>
-  </si>
-  <si>
-    <t>Infection_and_sepsis/Trip Out of Unit infection guidance.pdf</t>
-  </si>
-  <si>
-    <t>End_of_life_care/Palliative extubation &amp; withdrawal of invasive ventilatory support nursing checklist.pdf</t>
-  </si>
-  <si>
     <t>Airway/Cook Staged Extubation Set.pdf</t>
   </si>
   <si>
+    <t>Drugs/noradrenaline (central).pdf</t>
+  </si>
+  <si>
     <t>End_of_life_care/End of Life Care Guideline for Critical Care.pdf</t>
   </si>
   <si>
-    <t>Drugs/noradrenaline (central).pdf</t>
-  </si>
-  <si>
     <t>Post_op_care/Epidural hypotension.pdf</t>
   </si>
   <si>
+    <t>Drugs/dexmedetomidine.pdf</t>
+  </si>
+  <si>
+    <t>Breathing(Respiratory)/Equipment/Passy Muir Valve.pdf</t>
+  </si>
+  <si>
+    <t>GI_Liver_and_Transplant/Confirmation of Nasogastric Tube Position.pdf</t>
+  </si>
+  <si>
+    <t>GI_Liver_and_Transplant/Fulminant Liver Failure.pdf</t>
+  </si>
+  <si>
     <t>Drugs/glyceryl_trinitrate.pdf</t>
   </si>
   <si>
-    <t>Drugs/dexmedetomidine.pdf</t>
-  </si>
-  <si>
-    <t>Breathing(Respiratory)/Equipment/Passy Muir Valve.pdf</t>
-  </si>
-  <si>
-    <t>GI_Liver_and_Transplant/Confirmation of Nasogastric Tube Position.pdf</t>
-  </si>
-  <si>
-    <t>GI_Liver_and_Transplant/Fulminant Liver Failure.pdf</t>
-  </si>
-  <si>
     <t>Infection_and_sepsis/Antifungal guidance in critical care.pdf</t>
   </si>
   <si>
+    <t>Breathing(Respiratory)/ARDS Strategy.pdf</t>
+  </si>
+  <si>
+    <t>Cardiovascular/Intra Aortic Balloon Pump Guideline_pub.pdf</t>
+  </si>
+  <si>
     <t>Cardiovascular/Intra Aortic Balloon Pump Bedside Checks_pub.pdf</t>
   </si>
   <si>
     <t>Transfer/Transfer Outdoors to Garden Guideline.pdf</t>
   </si>
   <si>
-    <t>Cardiovascular/Intra Aortic Balloon Pump Guideline_pub.pdf</t>
-  </si>
-  <si>
-    <t>Breathing(Respiratory)/ARDS Strategy.pdf</t>
+    <t>Drugs/Dobutamine.pdf</t>
   </si>
   <si>
     <t>Drugs/adrenaline.pdf</t>
   </si>
   <si>
-    <t>Drugs/Dobutamine.pdf</t>
-  </si>
-  <si>
     <t>Drugs/hydralazine.pdf</t>
   </si>
   <si>
     <t>Post_op_care/Major OMFS Free Flap.pdf</t>
   </si>
   <si>
+    <t>Drugs/Alteplase for massive PE.pdf</t>
+  </si>
+  <si>
     <t>Drugs/alfentanil.pdf</t>
   </si>
   <si>
-    <t>Drugs/Alteplase for massive PE.pdf</t>
-  </si>
-  <si>
     <t>Drugs/magnesium.pdf</t>
   </si>
   <si>
@@ -415,12 +415,12 @@
     <t>Drugs/neostigmine.pdf</t>
   </si>
   <si>
+    <t>Drugs/labetalol.pdf</t>
+  </si>
+  <si>
     <t>Neurological/Intrathecal policy RIE.pdf</t>
   </si>
   <si>
-    <t>Drugs/labetalol.pdf</t>
-  </si>
-  <si>
     <t>Infection_and_sepsis/Initial investigation and management in unidentified Infections.pdf</t>
   </si>
   <si>
@@ -430,10 +430,13 @@
     <t>Drugs/midazolam.pdf</t>
   </si>
   <si>
+    <t>Drugs/potassium.pdf</t>
+  </si>
+  <si>
     <t>Drugs/salbutamol.pdf</t>
   </si>
   <si>
-    <t>Drugs/potassium.pdf</t>
+    <t>Trauma and Burns/Management of Severe Burns v1.6.pdf</t>
   </si>
   <si>
     <t>Procedures/CVC Guidance/CVC NHL  April 2023.pdf</t>
@@ -442,7 +445,13 @@
     <t>Drugs/nimodipine.pdf</t>
   </si>
   <si>
-    <t>Trauma and Burns/Management of Severe Burns v1.6.pdf</t>
+    <t>Procedures/Arterial Line insertion for ACCPs.pdf</t>
+  </si>
+  <si>
+    <t>Routine_Care/ICU Eye Care Guideline.pdf</t>
+  </si>
+  <si>
+    <t>Drugs/amiodarone.pdf</t>
   </si>
   <si>
     <t>Drugs/phenobarbitone.pdf</t>
@@ -451,13 +460,13 @@
     <t>Drugs/nicardipine.pdf</t>
   </si>
   <si>
-    <t>Routine_Care/ICU Eye Care Guideline.pdf</t>
-  </si>
-  <si>
-    <t>Procedures/Arterial Line insertion for ACCPs.pdf</t>
-  </si>
-  <si>
-    <t>Drugs/amiodarone.pdf</t>
+    <t>Drugs/morphine.pdf</t>
+  </si>
+  <si>
+    <t>Drugs/Epoprostenol.pdf</t>
+  </si>
+  <si>
+    <t>Breathing(Respiratory)/Manual Ventilation and MHI.pdf</t>
   </si>
   <si>
     <t>Neurological/Ventriculitis Guideline.pdf</t>
@@ -469,15 +478,6 @@
     <t>Drugs/noradrenaline (peripheral).pdf</t>
   </si>
   <si>
-    <t>Breathing(Respiratory)/Manual Ventilation and MHI.pdf</t>
-  </si>
-  <si>
-    <t>Drugs/Epoprostenol.pdf</t>
-  </si>
-  <si>
-    <t>Drugs/morphine.pdf</t>
-  </si>
-  <si>
     <t>Drugs/calcium.pdf</t>
   </si>
   <si>
@@ -487,60 +487,60 @@
     <t>Cardiovascular/Pulmonary_Embolism_and_DVT/Catheter directed thrombolysis of iliofemoral DVT alteplase_pub.pdf</t>
   </si>
   <si>
+    <t>Drugs/dalteparin_thromboprophylaxis.pdf</t>
+  </si>
+  <si>
+    <t>Drugs/atracurium.pdf</t>
+  </si>
+  <si>
     <t>Airway/Tracheostomy_Laryngectomy/Decannulation Guidline.pdf</t>
   </si>
   <si>
-    <t>Drugs/atracurium.pdf</t>
-  </si>
-  <si>
-    <t>Drugs/dalteparin_thromboprophylaxis.pdf</t>
-  </si>
-  <si>
     <t>Drugs/Vancomycin Continuous Infusion Fluid Restricted.pdf</t>
   </si>
   <si>
+    <t>Drugs/valproate.pdf</t>
+  </si>
+  <si>
     <t>Policies_and_admin/Pet Visitation.pdf</t>
   </si>
   <si>
-    <t>Drugs/valproate.pdf</t>
-  </si>
-  <si>
     <t>Procedures/Inadvertent Catheter Placement Guideline.pdf</t>
   </si>
   <si>
+    <t>Drugs/stress ulcer prophylaxis.pdf</t>
+  </si>
+  <si>
     <t>Drugs/ketamine_for_status epilepticus.pdf</t>
   </si>
   <si>
     <t>Drugs/Phosphate.pdf</t>
   </si>
   <si>
-    <t>Drugs/stress ulcer prophylaxis.pdf</t>
+    <t>Neurological/Status epilepticus.pdf</t>
   </si>
   <si>
     <t>GI_Liver_and_Transplant/Prokinetics in ICU.pdf</t>
   </si>
   <si>
-    <t>Neurological/Status epilepticus.pdf</t>
+    <t>Drugs/Octreotide.pdf</t>
+  </si>
+  <si>
+    <t>Breathing(Respiratory)/Proning Guideline.pdf</t>
   </si>
   <si>
     <t>Drugs/Thiopentone.pdf</t>
   </si>
   <si>
-    <t>Breathing(Respiratory)/Proning Guideline.pdf</t>
-  </si>
-  <si>
-    <t>Drugs/Octreotide.pdf</t>
-  </si>
-  <si>
     <t>Procedures/ACCPs acquiring initial CVC competencies.pdf</t>
   </si>
   <si>
+    <t>Procedures/ACCP CVC placement following completion of initial competencies.pdf</t>
+  </si>
+  <si>
     <t>Post_op_care/Prevention and treatment of paraplegia after major aortic procedures.pdf</t>
   </si>
   <si>
-    <t>Procedures/ACCP CVC placement following completion of initial competencies.pdf</t>
-  </si>
-  <si>
     <t>Delirium/Violence and Agression.pdf</t>
   </si>
   <si>
@@ -580,199 +580,199 @@
     <t>Policies_and_admin/Repatriaiton Checklist for Critical Care.pdf</t>
   </si>
   <si>
-    <t>2011-03-08</t>
-  </si>
-  <si>
-    <t>2011-06-08</t>
-  </si>
-  <si>
-    <t>2011-07-08</t>
-  </si>
-  <si>
-    <t>2011-12-08</t>
-  </si>
-  <si>
-    <t>2014-09-08</t>
-  </si>
-  <si>
-    <t>2014-10-08</t>
-  </si>
-  <si>
-    <t>2014-11-08</t>
-  </si>
-  <si>
-    <t>2014-12-08</t>
-  </si>
-  <si>
-    <t>2015-03-08</t>
-  </si>
-  <si>
-    <t>2016-01-08</t>
-  </si>
-  <si>
-    <t>2016-04-08</t>
-  </si>
-  <si>
-    <t>2016-08-08</t>
-  </si>
-  <si>
-    <t>2017-01-08</t>
-  </si>
-  <si>
-    <t>2017-08-08</t>
-  </si>
-  <si>
-    <t>2017-10-08</t>
-  </si>
-  <si>
-    <t>2017-11-08</t>
-  </si>
-  <si>
-    <t>2018-07-08</t>
-  </si>
-  <si>
-    <t>2019-05-08</t>
-  </si>
-  <si>
-    <t>2019-06-08</t>
-  </si>
-  <si>
-    <t>2019-08-08</t>
-  </si>
-  <si>
-    <t>2019-09-08</t>
-  </si>
-  <si>
-    <t>2020-01-08</t>
-  </si>
-  <si>
-    <t>2020-03-08</t>
-  </si>
-  <si>
-    <t>2020-04-08</t>
-  </si>
-  <si>
-    <t>2020-05-08</t>
-  </si>
-  <si>
-    <t>2020-07-08</t>
-  </si>
-  <si>
-    <t>2020-08-08</t>
-  </si>
-  <si>
-    <t>2020-11-08</t>
-  </si>
-  <si>
-    <t>2021-02-08</t>
-  </si>
-  <si>
-    <t>2021-05-08</t>
-  </si>
-  <si>
-    <t>2021-06-08</t>
-  </si>
-  <si>
-    <t>2021-09-08</t>
-  </si>
-  <si>
-    <t>2021-12-08</t>
-  </si>
-  <si>
-    <t>2022-01-08</t>
-  </si>
-  <si>
-    <t>2022-03-08</t>
-  </si>
-  <si>
-    <t>2022-04-08</t>
-  </si>
-  <si>
-    <t>2022-05-08</t>
-  </si>
-  <si>
-    <t>2022-06-08</t>
-  </si>
-  <si>
-    <t>2022-07-08</t>
-  </si>
-  <si>
-    <t>2022-08-08</t>
-  </si>
-  <si>
-    <t>2022-10-08</t>
-  </si>
-  <si>
-    <t>2022-11-08</t>
-  </si>
-  <si>
-    <t>2022-12-08</t>
-  </si>
-  <si>
-    <t>2023-01-08</t>
-  </si>
-  <si>
-    <t>2023-02-08</t>
-  </si>
-  <si>
-    <t>2023-04-08</t>
-  </si>
-  <si>
-    <t>2023-05-08</t>
-  </si>
-  <si>
-    <t>2023-06-08</t>
-  </si>
-  <si>
-    <t>2023-07-08</t>
-  </si>
-  <si>
-    <t>2023-08-08</t>
-  </si>
-  <si>
-    <t>2023-09-08</t>
-  </si>
-  <si>
-    <t>2023-10-08</t>
-  </si>
-  <si>
-    <t>2024-01-08</t>
-  </si>
-  <si>
-    <t>2024-02-08</t>
-  </si>
-  <si>
-    <t>2024-03-08</t>
-  </si>
-  <si>
-    <t>2024-04-08</t>
-  </si>
-  <si>
-    <t>2024-05-08</t>
+    <t>2011-03-16</t>
+  </si>
+  <si>
+    <t>2011-06-16</t>
+  </si>
+  <si>
+    <t>2011-07-16</t>
+  </si>
+  <si>
+    <t>2011-12-16</t>
+  </si>
+  <si>
+    <t>2014-09-16</t>
+  </si>
+  <si>
+    <t>2014-10-16</t>
+  </si>
+  <si>
+    <t>2014-11-16</t>
+  </si>
+  <si>
+    <t>2014-12-16</t>
+  </si>
+  <si>
+    <t>2015-03-16</t>
+  </si>
+  <si>
+    <t>2016-01-16</t>
+  </si>
+  <si>
+    <t>2016-04-16</t>
+  </si>
+  <si>
+    <t>2016-08-16</t>
+  </si>
+  <si>
+    <t>2017-01-16</t>
+  </si>
+  <si>
+    <t>2017-08-16</t>
+  </si>
+  <si>
+    <t>2017-10-16</t>
+  </si>
+  <si>
+    <t>2017-11-16</t>
+  </si>
+  <si>
+    <t>2018-07-16</t>
+  </si>
+  <si>
+    <t>2019-05-16</t>
+  </si>
+  <si>
+    <t>2019-06-16</t>
+  </si>
+  <si>
+    <t>2019-08-16</t>
+  </si>
+  <si>
+    <t>2019-09-16</t>
+  </si>
+  <si>
+    <t>2020-01-16</t>
+  </si>
+  <si>
+    <t>2020-03-16</t>
+  </si>
+  <si>
+    <t>2020-04-16</t>
+  </si>
+  <si>
+    <t>2020-05-16</t>
+  </si>
+  <si>
+    <t>2020-07-16</t>
+  </si>
+  <si>
+    <t>2020-08-16</t>
+  </si>
+  <si>
+    <t>2020-11-16</t>
+  </si>
+  <si>
+    <t>2021-02-16</t>
+  </si>
+  <si>
+    <t>2021-05-16</t>
+  </si>
+  <si>
+    <t>2021-06-16</t>
+  </si>
+  <si>
+    <t>2021-09-16</t>
+  </si>
+  <si>
+    <t>2021-12-16</t>
+  </si>
+  <si>
+    <t>2022-01-16</t>
+  </si>
+  <si>
+    <t>2022-03-16</t>
+  </si>
+  <si>
+    <t>2022-04-16</t>
+  </si>
+  <si>
+    <t>2022-05-16</t>
+  </si>
+  <si>
+    <t>2022-06-16</t>
+  </si>
+  <si>
+    <t>2022-07-16</t>
+  </si>
+  <si>
+    <t>2022-08-16</t>
+  </si>
+  <si>
+    <t>2022-10-16</t>
+  </si>
+  <si>
+    <t>2022-11-16</t>
+  </si>
+  <si>
+    <t>2022-12-16</t>
+  </si>
+  <si>
+    <t>2023-01-16</t>
+  </si>
+  <si>
+    <t>2023-02-16</t>
+  </si>
+  <si>
+    <t>2023-04-16</t>
+  </si>
+  <si>
+    <t>2023-05-16</t>
+  </si>
+  <si>
+    <t>2023-06-16</t>
+  </si>
+  <si>
+    <t>2023-07-16</t>
+  </si>
+  <si>
+    <t>2023-08-16</t>
+  </si>
+  <si>
+    <t>2023-09-16</t>
+  </si>
+  <si>
+    <t>2023-10-16</t>
+  </si>
+  <si>
+    <t>2024-01-16</t>
+  </si>
+  <si>
+    <t>2024-02-16</t>
+  </si>
+  <si>
+    <t>2024-03-16</t>
+  </si>
+  <si>
+    <t>2024-04-16</t>
+  </si>
+  <si>
+    <t>2024-05-16</t>
   </si>
   <si>
     <t>2024-06-02</t>
   </si>
   <si>
-    <t>2024-06-08</t>
+    <t>2024-06-16</t>
   </si>
   <si>
     <t>2024-06-26</t>
   </si>
   <si>
-    <t>2024-07-08</t>
+    <t>2024-07-16</t>
   </si>
   <si>
     <t>2024-07-25</t>
   </si>
   <si>
-    <t>2024-08-08</t>
-  </si>
-  <si>
     <t>2024-08-15</t>
   </si>
   <si>
-    <t>2024-10-08</t>
+    <t>2024-08-16</t>
+  </si>
+  <si>
+    <t>2024-10-16</t>
   </si>
   <si>
     <t>2024-10-24</t>
@@ -787,76 +787,76 @@
     <t>2024-12-24</t>
   </si>
   <si>
-    <t>2025-01-08</t>
-  </si>
-  <si>
-    <t>2025-02-08</t>
-  </si>
-  <si>
-    <t>2025-03-08</t>
-  </si>
-  <si>
-    <t>2025-04-08</t>
-  </si>
-  <si>
-    <t>2025-05-08</t>
-  </si>
-  <si>
-    <t>2025-06-08</t>
-  </si>
-  <si>
-    <t>2025-07-08</t>
-  </si>
-  <si>
-    <t>2025-08-08</t>
-  </si>
-  <si>
-    <t>2025-10-08</t>
-  </si>
-  <si>
-    <t>2025-11-08</t>
-  </si>
-  <si>
-    <t>2026-01-08</t>
-  </si>
-  <si>
-    <t>2026-03-08</t>
-  </si>
-  <si>
-    <t>2026-05-08</t>
-  </si>
-  <si>
-    <t>2026-07-08</t>
-  </si>
-  <si>
-    <t>2026-11-08</t>
-  </si>
-  <si>
-    <t>2027-01-08</t>
-  </si>
-  <si>
-    <t>2027-02-08</t>
-  </si>
-  <si>
-    <t>2027-03-08</t>
-  </si>
-  <si>
-    <t>2028-02-08</t>
-  </si>
-  <si>
-    <t>2028-03-08</t>
-  </si>
-  <si>
-    <t>2028-05-08</t>
-  </si>
-  <si>
-    <t>2028-07-08</t>
-  </si>
-  <si>
-    <t>2028-11-08</t>
-  </si>
-  <si>
-    <t>2030-11-08</t>
+    <t>2025-01-16</t>
+  </si>
+  <si>
+    <t>2025-02-16</t>
+  </si>
+  <si>
+    <t>2025-03-16</t>
+  </si>
+  <si>
+    <t>2025-04-16</t>
+  </si>
+  <si>
+    <t>2025-05-16</t>
+  </si>
+  <si>
+    <t>2025-06-16</t>
+  </si>
+  <si>
+    <t>2025-07-16</t>
+  </si>
+  <si>
+    <t>2025-08-16</t>
+  </si>
+  <si>
+    <t>2025-10-16</t>
+  </si>
+  <si>
+    <t>2025-11-16</t>
+  </si>
+  <si>
+    <t>2026-01-16</t>
+  </si>
+  <si>
+    <t>2026-03-16</t>
+  </si>
+  <si>
+    <t>2026-05-16</t>
+  </si>
+  <si>
+    <t>2026-07-16</t>
+  </si>
+  <si>
+    <t>2026-11-16</t>
+  </si>
+  <si>
+    <t>2027-01-16</t>
+  </si>
+  <si>
+    <t>2027-02-16</t>
+  </si>
+  <si>
+    <t>2027-03-16</t>
+  </si>
+  <si>
+    <t>2028-02-16</t>
+  </si>
+  <si>
+    <t>2028-03-16</t>
+  </si>
+  <si>
+    <t>2028-05-16</t>
+  </si>
+  <si>
+    <t>2028-07-16</t>
+  </si>
+  <si>
+    <t>2028-11-16</t>
+  </si>
+  <si>
+    <t>2030-11-16</t>
   </si>
 </sst>
 </file>
@@ -2177,7 +2177,7 @@
         <v>120</v>
       </c>
       <c r="B120" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
     </row>
     <row r="121" spans="1:2">
@@ -2185,7 +2185,7 @@
         <v>121</v>
       </c>
       <c r="B121" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
     </row>
     <row r="122" spans="1:2">

--- a/lothiancriticalcare/1a74f8f7b8b7e871b413c4697f68b4401fbacdf0/reviewdates.xlsx
+++ b/lothiancriticalcare/1a74f8f7b8b7e871b413c4697f68b4401fbacdf0/reviewdates.xlsx
@@ -346,13 +346,25 @@
     <t>Airway/Cook Staged Extubation Set.pdf</t>
   </si>
   <si>
+    <t>Post_op_care/Epidural hypotension.pdf</t>
+  </si>
+  <si>
+    <t>End_of_life_care/End of Life Care Guideline for Critical Care.pdf</t>
+  </si>
+  <si>
     <t>Drugs/noradrenaline (central).pdf</t>
   </si>
   <si>
-    <t>End_of_life_care/End of Life Care Guideline for Critical Care.pdf</t>
-  </si>
-  <si>
-    <t>Post_op_care/Epidural hypotension.pdf</t>
+    <t>Infection_and_sepsis/Antifungal guidance in critical care.pdf</t>
+  </si>
+  <si>
+    <t>GI_Liver_and_Transplant/Fulminant Liver Failure.pdf</t>
+  </si>
+  <si>
+    <t>GI_Liver_and_Transplant/Confirmation of Nasogastric Tube Position.pdf</t>
+  </si>
+  <si>
+    <t>Drugs/glyceryl_trinitrate.pdf</t>
   </si>
   <si>
     <t>Drugs/dexmedetomidine.pdf</t>
@@ -361,39 +373,27 @@
     <t>Breathing(Respiratory)/Equipment/Passy Muir Valve.pdf</t>
   </si>
   <si>
-    <t>GI_Liver_and_Transplant/Confirmation of Nasogastric Tube Position.pdf</t>
-  </si>
-  <si>
-    <t>GI_Liver_and_Transplant/Fulminant Liver Failure.pdf</t>
-  </si>
-  <si>
-    <t>Drugs/glyceryl_trinitrate.pdf</t>
-  </si>
-  <si>
-    <t>Infection_and_sepsis/Antifungal guidance in critical care.pdf</t>
-  </si>
-  <si>
     <t>Breathing(Respiratory)/ARDS Strategy.pdf</t>
   </si>
   <si>
     <t>Cardiovascular/Intra Aortic Balloon Pump Guideline_pub.pdf</t>
   </si>
   <si>
+    <t>Transfer/Transfer Outdoors to Garden Guideline.pdf</t>
+  </si>
+  <si>
     <t>Cardiovascular/Intra Aortic Balloon Pump Bedside Checks_pub.pdf</t>
   </si>
   <si>
-    <t>Transfer/Transfer Outdoors to Garden Guideline.pdf</t>
+    <t>Drugs/hydralazine.pdf</t>
+  </si>
+  <si>
+    <t>Drugs/adrenaline.pdf</t>
   </si>
   <si>
     <t>Drugs/Dobutamine.pdf</t>
   </si>
   <si>
-    <t>Drugs/adrenaline.pdf</t>
-  </si>
-  <si>
-    <t>Drugs/hydralazine.pdf</t>
-  </si>
-  <si>
     <t>Post_op_care/Major OMFS Free Flap.pdf</t>
   </si>
   <si>
@@ -430,63 +430,63 @@
     <t>Drugs/midazolam.pdf</t>
   </si>
   <si>
+    <t>Trauma and Burns/Management of Severe Burns v1.6.pdf</t>
+  </si>
+  <si>
+    <t>Drugs/salbutamol.pdf</t>
+  </si>
+  <si>
+    <t>Drugs/nimodipine.pdf</t>
+  </si>
+  <si>
+    <t>Procedures/CVC Guidance/CVC NHL  April 2023.pdf</t>
+  </si>
+  <si>
     <t>Drugs/potassium.pdf</t>
   </si>
   <si>
-    <t>Drugs/salbutamol.pdf</t>
-  </si>
-  <si>
-    <t>Trauma and Burns/Management of Severe Burns v1.6.pdf</t>
-  </si>
-  <si>
-    <t>Procedures/CVC Guidance/CVC NHL  April 2023.pdf</t>
-  </si>
-  <si>
-    <t>Drugs/nimodipine.pdf</t>
-  </si>
-  <si>
     <t>Procedures/Arterial Line insertion for ACCPs.pdf</t>
   </si>
   <si>
+    <t>Drugs/amiodarone.pdf</t>
+  </si>
+  <si>
     <t>Routine_Care/ICU Eye Care Guideline.pdf</t>
   </si>
   <si>
-    <t>Drugs/amiodarone.pdf</t>
+    <t>Drugs/nicardipine.pdf</t>
   </si>
   <si>
     <t>Drugs/phenobarbitone.pdf</t>
   </si>
   <si>
-    <t>Drugs/nicardipine.pdf</t>
+    <t>Drugs/phenylephrine.pdf</t>
+  </si>
+  <si>
+    <t>Breathing(Respiratory)/Manual Ventilation and MHI.pdf</t>
   </si>
   <si>
     <t>Drugs/morphine.pdf</t>
   </si>
   <si>
+    <t>Drugs/noradrenaline (peripheral).pdf</t>
+  </si>
+  <si>
+    <t>Neurological/Ventriculitis Guideline.pdf</t>
+  </si>
+  <si>
     <t>Drugs/Epoprostenol.pdf</t>
   </si>
   <si>
-    <t>Breathing(Respiratory)/Manual Ventilation and MHI.pdf</t>
-  </si>
-  <si>
-    <t>Neurological/Ventriculitis Guideline.pdf</t>
-  </si>
-  <si>
-    <t>Drugs/phenylephrine.pdf</t>
-  </si>
-  <si>
-    <t>Drugs/noradrenaline (peripheral).pdf</t>
-  </si>
-  <si>
     <t>Drugs/calcium.pdf</t>
   </si>
   <si>
+    <t>Cardiovascular/Pulmonary_Embolism_and_DVT/Catheter directed thrombolysis of iliofemoral DVT alteplase_pub.pdf</t>
+  </si>
+  <si>
     <t>Cardiovascular/Cardiac Output Monitoring_pub .pdf</t>
   </si>
   <si>
-    <t>Cardiovascular/Pulmonary_Embolism_and_DVT/Catheter directed thrombolysis of iliofemoral DVT alteplase_pub.pdf</t>
-  </si>
-  <si>
     <t>Drugs/dalteparin_thromboprophylaxis.pdf</t>
   </si>
   <si>
@@ -580,204 +580,204 @@
     <t>Policies_and_admin/Repatriaiton Checklist for Critical Care.pdf</t>
   </si>
   <si>
-    <t>2011-03-16</t>
-  </si>
-  <si>
-    <t>2011-06-16</t>
-  </si>
-  <si>
-    <t>2011-07-16</t>
-  </si>
-  <si>
-    <t>2011-12-16</t>
-  </si>
-  <si>
-    <t>2014-09-16</t>
-  </si>
-  <si>
-    <t>2014-10-16</t>
-  </si>
-  <si>
-    <t>2014-11-16</t>
-  </si>
-  <si>
-    <t>2014-12-16</t>
-  </si>
-  <si>
-    <t>2015-03-16</t>
-  </si>
-  <si>
-    <t>2016-01-16</t>
-  </si>
-  <si>
-    <t>2016-04-16</t>
-  </si>
-  <si>
-    <t>2016-08-16</t>
-  </si>
-  <si>
-    <t>2017-01-16</t>
-  </si>
-  <si>
-    <t>2017-08-16</t>
-  </si>
-  <si>
-    <t>2017-10-16</t>
-  </si>
-  <si>
-    <t>2017-11-16</t>
-  </si>
-  <si>
-    <t>2018-07-16</t>
-  </si>
-  <si>
-    <t>2019-05-16</t>
-  </si>
-  <si>
-    <t>2019-06-16</t>
-  </si>
-  <si>
-    <t>2019-08-16</t>
-  </si>
-  <si>
-    <t>2019-09-16</t>
-  </si>
-  <si>
-    <t>2020-01-16</t>
-  </si>
-  <si>
-    <t>2020-03-16</t>
-  </si>
-  <si>
-    <t>2020-04-16</t>
-  </si>
-  <si>
-    <t>2020-05-16</t>
-  </si>
-  <si>
-    <t>2020-07-16</t>
-  </si>
-  <si>
-    <t>2020-08-16</t>
-  </si>
-  <si>
-    <t>2020-11-16</t>
-  </si>
-  <si>
-    <t>2021-02-16</t>
-  </si>
-  <si>
-    <t>2021-05-16</t>
-  </si>
-  <si>
-    <t>2021-06-16</t>
-  </si>
-  <si>
-    <t>2021-09-16</t>
-  </si>
-  <si>
-    <t>2021-12-16</t>
-  </si>
-  <si>
-    <t>2022-01-16</t>
-  </si>
-  <si>
-    <t>2022-03-16</t>
-  </si>
-  <si>
-    <t>2022-04-16</t>
-  </si>
-  <si>
-    <t>2022-05-16</t>
-  </si>
-  <si>
-    <t>2022-06-16</t>
-  </si>
-  <si>
-    <t>2022-07-16</t>
-  </si>
-  <si>
-    <t>2022-08-16</t>
-  </si>
-  <si>
-    <t>2022-10-16</t>
-  </si>
-  <si>
-    <t>2022-11-16</t>
-  </si>
-  <si>
-    <t>2022-12-16</t>
-  </si>
-  <si>
-    <t>2023-01-16</t>
-  </si>
-  <si>
-    <t>2023-02-16</t>
-  </si>
-  <si>
-    <t>2023-04-16</t>
-  </si>
-  <si>
-    <t>2023-05-16</t>
-  </si>
-  <si>
-    <t>2023-06-16</t>
-  </si>
-  <si>
-    <t>2023-07-16</t>
-  </si>
-  <si>
-    <t>2023-08-16</t>
-  </si>
-  <si>
-    <t>2023-09-16</t>
-  </si>
-  <si>
-    <t>2023-10-16</t>
-  </si>
-  <si>
-    <t>2024-01-16</t>
-  </si>
-  <si>
-    <t>2024-02-16</t>
-  </si>
-  <si>
-    <t>2024-03-16</t>
-  </si>
-  <si>
-    <t>2024-04-16</t>
-  </si>
-  <si>
-    <t>2024-05-16</t>
+    <t>2011-03-28</t>
+  </si>
+  <si>
+    <t>2011-06-28</t>
+  </si>
+  <si>
+    <t>2011-07-28</t>
+  </si>
+  <si>
+    <t>2011-12-28</t>
+  </si>
+  <si>
+    <t>2014-09-28</t>
+  </si>
+  <si>
+    <t>2014-10-28</t>
+  </si>
+  <si>
+    <t>2014-11-28</t>
+  </si>
+  <si>
+    <t>2014-12-28</t>
+  </si>
+  <si>
+    <t>2015-03-28</t>
+  </si>
+  <si>
+    <t>2016-01-28</t>
+  </si>
+  <si>
+    <t>2016-04-28</t>
+  </si>
+  <si>
+    <t>2016-08-28</t>
+  </si>
+  <si>
+    <t>2017-01-28</t>
+  </si>
+  <si>
+    <t>2017-08-28</t>
+  </si>
+  <si>
+    <t>2017-10-28</t>
+  </si>
+  <si>
+    <t>2017-11-28</t>
+  </si>
+  <si>
+    <t>2018-07-28</t>
+  </si>
+  <si>
+    <t>2019-05-28</t>
+  </si>
+  <si>
+    <t>2019-06-28</t>
+  </si>
+  <si>
+    <t>2019-08-28</t>
+  </si>
+  <si>
+    <t>2019-09-28</t>
+  </si>
+  <si>
+    <t>2020-01-28</t>
+  </si>
+  <si>
+    <t>2020-03-28</t>
+  </si>
+  <si>
+    <t>2020-04-28</t>
+  </si>
+  <si>
+    <t>2020-05-28</t>
+  </si>
+  <si>
+    <t>2020-07-28</t>
+  </si>
+  <si>
+    <t>2020-08-28</t>
+  </si>
+  <si>
+    <t>2020-11-28</t>
+  </si>
+  <si>
+    <t>2021-02-28</t>
+  </si>
+  <si>
+    <t>2021-05-28</t>
+  </si>
+  <si>
+    <t>2021-06-28</t>
+  </si>
+  <si>
+    <t>2021-09-28</t>
+  </si>
+  <si>
+    <t>2021-12-28</t>
+  </si>
+  <si>
+    <t>2022-01-28</t>
+  </si>
+  <si>
+    <t>2022-03-28</t>
+  </si>
+  <si>
+    <t>2022-04-28</t>
+  </si>
+  <si>
+    <t>2022-05-28</t>
+  </si>
+  <si>
+    <t>2022-06-28</t>
+  </si>
+  <si>
+    <t>2022-07-28</t>
+  </si>
+  <si>
+    <t>2022-08-28</t>
+  </si>
+  <si>
+    <t>2022-10-28</t>
+  </si>
+  <si>
+    <t>2022-11-28</t>
+  </si>
+  <si>
+    <t>2022-12-28</t>
+  </si>
+  <si>
+    <t>2023-01-28</t>
+  </si>
+  <si>
+    <t>2023-02-28</t>
+  </si>
+  <si>
+    <t>2023-04-28</t>
+  </si>
+  <si>
+    <t>2023-05-28</t>
+  </si>
+  <si>
+    <t>2023-06-28</t>
+  </si>
+  <si>
+    <t>2023-07-28</t>
+  </si>
+  <si>
+    <t>2023-08-28</t>
+  </si>
+  <si>
+    <t>2023-09-28</t>
+  </si>
+  <si>
+    <t>2023-10-28</t>
+  </si>
+  <si>
+    <t>2024-01-28</t>
+  </si>
+  <si>
+    <t>2024-02-28</t>
+  </si>
+  <si>
+    <t>2024-03-28</t>
+  </si>
+  <si>
+    <t>2024-04-28</t>
+  </si>
+  <si>
+    <t>2024-05-28</t>
   </si>
   <si>
     <t>2024-06-02</t>
   </si>
   <si>
-    <t>2024-06-16</t>
-  </si>
-  <si>
     <t>2024-06-26</t>
   </si>
   <si>
-    <t>2024-07-16</t>
+    <t>2024-06-28</t>
   </si>
   <si>
     <t>2024-07-25</t>
   </si>
   <si>
+    <t>2024-07-28</t>
+  </si>
+  <si>
     <t>2024-08-15</t>
   </si>
   <si>
-    <t>2024-08-16</t>
-  </si>
-  <si>
-    <t>2024-10-16</t>
+    <t>2024-08-28</t>
   </si>
   <si>
     <t>2024-10-24</t>
   </si>
   <si>
+    <t>2024-10-28</t>
+  </si>
+  <si>
     <t>2024-11-20</t>
   </si>
   <si>
@@ -787,76 +787,76 @@
     <t>2024-12-24</t>
   </si>
   <si>
-    <t>2025-01-16</t>
-  </si>
-  <si>
-    <t>2025-02-16</t>
-  </si>
-  <si>
-    <t>2025-03-16</t>
-  </si>
-  <si>
-    <t>2025-04-16</t>
-  </si>
-  <si>
-    <t>2025-05-16</t>
-  </si>
-  <si>
-    <t>2025-06-16</t>
-  </si>
-  <si>
-    <t>2025-07-16</t>
-  </si>
-  <si>
-    <t>2025-08-16</t>
-  </si>
-  <si>
-    <t>2025-10-16</t>
-  </si>
-  <si>
-    <t>2025-11-16</t>
-  </si>
-  <si>
-    <t>2026-01-16</t>
-  </si>
-  <si>
-    <t>2026-03-16</t>
-  </si>
-  <si>
-    <t>2026-05-16</t>
-  </si>
-  <si>
-    <t>2026-07-16</t>
-  </si>
-  <si>
-    <t>2026-11-16</t>
-  </si>
-  <si>
-    <t>2027-01-16</t>
-  </si>
-  <si>
-    <t>2027-02-16</t>
-  </si>
-  <si>
-    <t>2027-03-16</t>
-  </si>
-  <si>
-    <t>2028-02-16</t>
-  </si>
-  <si>
-    <t>2028-03-16</t>
-  </si>
-  <si>
-    <t>2028-05-16</t>
-  </si>
-  <si>
-    <t>2028-07-16</t>
-  </si>
-  <si>
-    <t>2028-11-16</t>
-  </si>
-  <si>
-    <t>2030-11-16</t>
+    <t>2025-01-28</t>
+  </si>
+  <si>
+    <t>2025-02-28</t>
+  </si>
+  <si>
+    <t>2025-03-28</t>
+  </si>
+  <si>
+    <t>2025-04-28</t>
+  </si>
+  <si>
+    <t>2025-05-28</t>
+  </si>
+  <si>
+    <t>2025-06-28</t>
+  </si>
+  <si>
+    <t>2025-07-28</t>
+  </si>
+  <si>
+    <t>2025-08-28</t>
+  </si>
+  <si>
+    <t>2025-10-28</t>
+  </si>
+  <si>
+    <t>2025-11-28</t>
+  </si>
+  <si>
+    <t>2026-01-28</t>
+  </si>
+  <si>
+    <t>2026-03-28</t>
+  </si>
+  <si>
+    <t>2026-05-28</t>
+  </si>
+  <si>
+    <t>2026-07-28</t>
+  </si>
+  <si>
+    <t>2026-11-28</t>
+  </si>
+  <si>
+    <t>2027-01-28</t>
+  </si>
+  <si>
+    <t>2027-02-28</t>
+  </si>
+  <si>
+    <t>2027-03-28</t>
+  </si>
+  <si>
+    <t>2028-02-28</t>
+  </si>
+  <si>
+    <t>2028-03-28</t>
+  </si>
+  <si>
+    <t>2028-05-28</t>
+  </si>
+  <si>
+    <t>2028-07-28</t>
+  </si>
+  <si>
+    <t>2028-11-28</t>
+  </si>
+  <si>
+    <t>2030-11-28</t>
   </si>
 </sst>
 </file>
@@ -2105,7 +2105,7 @@
         <v>111</v>
       </c>
       <c r="B111" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
     </row>
     <row r="112" spans="1:2">
@@ -2129,7 +2129,7 @@
         <v>114</v>
       </c>
       <c r="B114" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
     </row>
     <row r="115" spans="1:2">
@@ -2137,7 +2137,7 @@
         <v>115</v>
       </c>
       <c r="B115" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
     </row>
     <row r="116" spans="1:2">
@@ -2145,7 +2145,7 @@
         <v>116</v>
       </c>
       <c r="B116" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
     </row>
     <row r="117" spans="1:2">
@@ -2153,7 +2153,7 @@
         <v>117</v>
       </c>
       <c r="B117" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
     </row>
     <row r="118" spans="1:2">
@@ -2209,7 +2209,7 @@
         <v>124</v>
       </c>
       <c r="B124" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
     </row>
     <row r="125" spans="1:2">

--- a/lothiancriticalcare/1a74f8f7b8b7e871b413c4697f68b4401fbacdf0/reviewdates.xlsx
+++ b/lothiancriticalcare/1a74f8f7b8b7e871b413c4697f68b4401fbacdf0/reviewdates.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="281">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="280">
   <si>
     <t>File</t>
   </si>
@@ -214,42 +214,42 @@
     <t>Breathing(Respiratory)/Equipment/HFNO through ventilator.pdf</t>
   </si>
   <si>
+    <t>Routine_Care/VTE_Prevention/Dalteparin_thromboprophylaxis.pdf</t>
+  </si>
+  <si>
     <t>Post_op_care/Adult Scoliosis Spinal Surgery Post-Op Care.pdf</t>
   </si>
   <si>
-    <t>Routine_Care/VTE_Prevention/Dalteparin_thromboprophylaxis.pdf</t>
-  </si>
-  <si>
     <t>Post_op_care/Post op care pharyngo-laryngo-oesphagectomy PLOG.pdf</t>
   </si>
   <si>
     <t>GI_Liver_and_Transplant/Nasogastric feeding protocol.pdf</t>
   </si>
   <si>
+    <t>Diabetes_and_Glucose/Intravenous Insulin Therapy (not for DKA or HHS).pdf</t>
+  </si>
+  <si>
     <t>Drugs/Antibiotic doses in CVVHD.pdf</t>
   </si>
   <si>
-    <t>Diabetes_and_Glucose/Intravenous Insulin Therapy (not for DKA or HHS).pdf</t>
-  </si>
-  <si>
     <t>GI_Liver_and_Transplant/Nasojejunal feeding protocol.pdf</t>
   </si>
   <si>
+    <t>GI_Liver_and_Transplant/Jejunostomy feeding protocol.pdf</t>
+  </si>
+  <si>
     <t>ECLS/RIE ECLS Anti Xa Protocol.pdf</t>
   </si>
   <si>
-    <t>GI_Liver_and_Transplant/Jejunostomy feeding protocol.pdf</t>
+    <t>Infection_and_sepsis/Winter Infections Stepdown Guidance.pdf</t>
+  </si>
+  <si>
+    <t>Drugs/vasopressin organ donation.pdf</t>
   </si>
   <si>
     <t>Drugs/vasopressin_sepsis.pdf</t>
   </si>
   <si>
-    <t>Drugs/vasopressin organ donation.pdf</t>
-  </si>
-  <si>
-    <t>Infection_and_sepsis/Winter Infections Stepdown Guidance.pdf</t>
-  </si>
-  <si>
     <t>Transfer/ACCP Transfers.pdf</t>
   </si>
   <si>
@@ -274,75 +274,75 @@
     <t>Routine_Care/Video Communication.pdf</t>
   </si>
   <si>
+    <t>Drugs/isoprenaline.pdf</t>
+  </si>
+  <si>
     <t>Cardiovascular/Cardiogenic Shock.pdf</t>
   </si>
   <si>
-    <t>Drugs/isoprenaline.pdf</t>
-  </si>
-  <si>
     <t>Haematology_CAR-T/Haem_ICU_transfer.pdf</t>
   </si>
   <si>
+    <t>Drugs/aminophylline.pdf</t>
+  </si>
+  <si>
     <t>Cardiovascular/Management of hypertension within Critical Care.pdf</t>
   </si>
   <si>
-    <t>Drugs/aminophylline.pdf</t>
-  </si>
-  <si>
     <t>Haematology_CAR-T/ICANS.pdf</t>
   </si>
   <si>
+    <t>Drugs/pancuronium.pdf</t>
+  </si>
+  <si>
+    <t>Drugs/phenytoin.pdf</t>
+  </si>
+  <si>
+    <t>Drugs/rocuronium.pdf</t>
+  </si>
+  <si>
     <t>Haematology_CAR-T/Cytokine Release Syndrome.pdf</t>
   </si>
   <si>
-    <t>Drugs/rocuronium.pdf</t>
-  </si>
-  <si>
-    <t>Drugs/phenytoin.pdf</t>
-  </si>
-  <si>
-    <t>Drugs/pancuronium.pdf</t>
+    <t>Drugs/milrinone.pdf</t>
   </si>
   <si>
     <t>Policies_and_admin/General Critical Care SOP_pub.pdf</t>
   </si>
   <si>
-    <t>Drugs/milrinone.pdf</t>
+    <t>End_of_life_care/CMO &amp; NRS Guidance for Doctors completing MCCD.pdf</t>
+  </si>
+  <si>
+    <t>Ethics_and_Law/Care at the End of Life (FICM).pdf</t>
+  </si>
+  <si>
+    <t>End_of_life_care/Palliative extubation &amp; withdrawal of invasive ventilatory support nursing checklist.pdf</t>
+  </si>
+  <si>
+    <t>Neurological/Critical Care MRI Procedure_pub.pdf</t>
+  </si>
+  <si>
+    <t>Drugs/clonidine.pdf</t>
+  </si>
+  <si>
+    <t>Ethics_and_Law/DNACPR policy for Scotland.pdf</t>
+  </si>
+  <si>
+    <t>Organ_donation/Organ Retrieval SOP.pdf</t>
   </si>
   <si>
     <t>Covid-19/COVID 19 ICM guidance basic goals_June_2022.pdf</t>
   </si>
   <si>
-    <t>Neurological/Critical Care MRI Procedure_pub.pdf</t>
-  </si>
-  <si>
-    <t>Ethics_and_Law/Care at the End of Life (FICM).pdf</t>
-  </si>
-  <si>
-    <t>Organ_donation/Organ Retrieval SOP.pdf</t>
+    <t>Neurological/Management of traumatic brain injury.pdf</t>
+  </si>
+  <si>
+    <t>Infection_and_sepsis/Trip Out of Unit infection guidance.pdf</t>
   </si>
   <si>
     <t>GI_Liver_and_Transplant/ICU - Upper GI bleeding (Endoscopy guideline).pdf</t>
   </si>
   <si>
-    <t>Drugs/clonidine.pdf</t>
-  </si>
-  <si>
-    <t>Ethics_and_Law/DNACPR policy for Scotland.pdf</t>
-  </si>
-  <si>
-    <t>Infection_and_sepsis/Trip Out of Unit infection guidance.pdf</t>
-  </si>
-  <si>
-    <t>Neurological/Management of traumatic brain injury.pdf</t>
-  </si>
-  <si>
-    <t>End_of_life_care/Palliative extubation &amp; withdrawal of invasive ventilatory support nursing checklist.pdf</t>
-  </si>
-  <si>
-    <t>End_of_life_care/CMO &amp; NRS Guidance for Doctors completing MCCD.pdf</t>
-  </si>
-  <si>
     <t>Airway/Cook Staged Extubation Set.pdf</t>
   </si>
   <si>
@@ -364,72 +364,75 @@
     <t>GI_Liver_and_Transplant/Confirmation of Nasogastric Tube Position.pdf</t>
   </si>
   <si>
+    <t>Drugs/dexmedetomidine.pdf</t>
+  </si>
+  <si>
     <t>Drugs/glyceryl_trinitrate.pdf</t>
   </si>
   <si>
-    <t>Drugs/dexmedetomidine.pdf</t>
-  </si>
-  <si>
     <t>Breathing(Respiratory)/Equipment/Passy Muir Valve.pdf</t>
   </si>
   <si>
     <t>Breathing(Respiratory)/ARDS Strategy.pdf</t>
   </si>
   <si>
+    <t>Transfer/Transfer Outdoors to Garden Guideline.pdf</t>
+  </si>
+  <si>
+    <t>Cardiovascular/Intra Aortic Balloon Pump Bedside Checks_pub.pdf</t>
+  </si>
+  <si>
     <t>Cardiovascular/Intra Aortic Balloon Pump Guideline_pub.pdf</t>
   </si>
   <si>
-    <t>Transfer/Transfer Outdoors to Garden Guideline.pdf</t>
-  </si>
-  <si>
-    <t>Cardiovascular/Intra Aortic Balloon Pump Bedside Checks_pub.pdf</t>
-  </si>
-  <si>
     <t>Drugs/hydralazine.pdf</t>
   </si>
   <si>
+    <t>Drugs/Dobutamine.pdf</t>
+  </si>
+  <si>
     <t>Drugs/adrenaline.pdf</t>
   </si>
   <si>
-    <t>Drugs/Dobutamine.pdf</t>
-  </si>
-  <si>
     <t>Post_op_care/Major OMFS Free Flap.pdf</t>
   </si>
   <si>
+    <t>Drugs/alfentanil.pdf</t>
+  </si>
+  <si>
     <t>Drugs/Alteplase for massive PE.pdf</t>
   </si>
   <si>
-    <t>Drugs/alfentanil.pdf</t>
-  </si>
-  <si>
     <t>Drugs/magnesium.pdf</t>
   </si>
   <si>
+    <t>Drugs/ICU - IV drug infusions.pdf</t>
+  </si>
+  <si>
+    <t>Drugs/neostigmine.pdf</t>
+  </si>
+  <si>
     <t>Drugs/vancomycin.pdf</t>
   </si>
   <si>
-    <t>Drugs/ICU - IV drug infusions.pdf</t>
-  </si>
-  <si>
-    <t>Drugs/neostigmine.pdf</t>
+    <t>Infection_and_sepsis/Initial investigation and management in unidentified Infections.pdf</t>
+  </si>
+  <si>
+    <t>Neurological/Intrathecal policy RIE.pdf</t>
   </si>
   <si>
     <t>Drugs/labetalol.pdf</t>
   </si>
   <si>
-    <t>Neurological/Intrathecal policy RIE.pdf</t>
-  </si>
-  <si>
-    <t>Infection_and_sepsis/Initial investigation and management in unidentified Infections.pdf</t>
-  </si>
-  <si>
     <t>Cardiovascular/Management of Acute Type B Aortic Dissection Guideline.pdf</t>
   </si>
   <si>
     <t>Drugs/midazolam.pdf</t>
   </si>
   <si>
+    <t>Procedures/CVC Guidance/CVC NHL  April 2023.pdf</t>
+  </si>
+  <si>
     <t>Trauma and Burns/Management of Severe Burns v1.6.pdf</t>
   </si>
   <si>
@@ -439,73 +442,70 @@
     <t>Drugs/nimodipine.pdf</t>
   </si>
   <si>
-    <t>Procedures/CVC Guidance/CVC NHL  April 2023.pdf</t>
-  </si>
-  <si>
     <t>Drugs/potassium.pdf</t>
   </si>
   <si>
+    <t>Drugs/phenobarbitone.pdf</t>
+  </si>
+  <si>
+    <t>Drugs/nicardipine.pdf</t>
+  </si>
+  <si>
+    <t>Drugs/amiodarone.pdf</t>
+  </si>
+  <si>
     <t>Procedures/Arterial Line insertion for ACCPs.pdf</t>
   </si>
   <si>
-    <t>Drugs/amiodarone.pdf</t>
-  </si>
-  <si>
     <t>Routine_Care/ICU Eye Care Guideline.pdf</t>
   </si>
   <si>
-    <t>Drugs/nicardipine.pdf</t>
-  </si>
-  <si>
-    <t>Drugs/phenobarbitone.pdf</t>
+    <t>Neurological/Ventriculitis Guideline.pdf</t>
+  </si>
+  <si>
+    <t>Drugs/morphine.pdf</t>
+  </si>
+  <si>
+    <t>Breathing(Respiratory)/Manual Ventilation and MHI.pdf</t>
   </si>
   <si>
     <t>Drugs/phenylephrine.pdf</t>
   </si>
   <si>
-    <t>Breathing(Respiratory)/Manual Ventilation and MHI.pdf</t>
-  </si>
-  <si>
-    <t>Drugs/morphine.pdf</t>
-  </si>
-  <si>
-    <t>Drugs/noradrenaline (peripheral).pdf</t>
-  </si>
-  <si>
-    <t>Neurological/Ventriculitis Guideline.pdf</t>
-  </si>
-  <si>
     <t>Drugs/Epoprostenol.pdf</t>
   </si>
   <si>
+    <t>Cardiovascular/Pulmonary_Embolism_and_DVT/Catheter directed thrombolysis of iliofemoral DVT alteplase_pub.pdf</t>
+  </si>
+  <si>
+    <t>Cardiovascular/Cardiac Output Monitoring_pub .pdf</t>
+  </si>
+  <si>
     <t>Drugs/calcium.pdf</t>
   </si>
   <si>
-    <t>Cardiovascular/Pulmonary_Embolism_and_DVT/Catheter directed thrombolysis of iliofemoral DVT alteplase_pub.pdf</t>
-  </si>
-  <si>
-    <t>Cardiovascular/Cardiac Output Monitoring_pub .pdf</t>
+    <t>Drugs/atracurium.pdf</t>
+  </si>
+  <si>
+    <t>Drugs/Vancomycin Continuous Infusion Fluid Restricted.pdf</t>
+  </si>
+  <si>
+    <t>Airway/Tracheostomy_Laryngectomy/Decannulation Guidline.pdf</t>
   </si>
   <si>
     <t>Drugs/dalteparin_thromboprophylaxis.pdf</t>
   </si>
   <si>
-    <t>Drugs/atracurium.pdf</t>
-  </si>
-  <si>
-    <t>Airway/Tracheostomy_Laryngectomy/Decannulation Guidline.pdf</t>
-  </si>
-  <si>
-    <t>Drugs/Vancomycin Continuous Infusion Fluid Restricted.pdf</t>
-  </si>
-  <si>
     <t>Drugs/valproate.pdf</t>
   </si>
   <si>
+    <t>Procedures/Inadvertent Catheter Placement Guideline.pdf</t>
+  </si>
+  <si>
     <t>Policies_and_admin/Pet Visitation.pdf</t>
   </si>
   <si>
-    <t>Procedures/Inadvertent Catheter Placement Guideline.pdf</t>
+    <t>Drugs/Phosphate.pdf</t>
   </si>
   <si>
     <t>Drugs/stress ulcer prophylaxis.pdf</t>
@@ -514,21 +514,18 @@
     <t>Drugs/ketamine_for_status epilepticus.pdf</t>
   </si>
   <si>
-    <t>Drugs/Phosphate.pdf</t>
+    <t>Breathing(Respiratory)/Proning Guideline.pdf</t>
   </si>
   <si>
     <t>Neurological/Status epilepticus.pdf</t>
   </si>
   <si>
+    <t>Drugs/Octreotide.pdf</t>
+  </si>
+  <si>
     <t>GI_Liver_and_Transplant/Prokinetics in ICU.pdf</t>
   </si>
   <si>
-    <t>Drugs/Octreotide.pdf</t>
-  </si>
-  <si>
-    <t>Breathing(Respiratory)/Proning Guideline.pdf</t>
-  </si>
-  <si>
     <t>Drugs/Thiopentone.pdf</t>
   </si>
   <si>
@@ -562,12 +559,12 @@
     <t>Breathing(Respiratory)/Equipment/Setting up the NKV-330.pdf</t>
   </si>
   <si>
+    <t>Breathing(Respiratory)/NKV 330 NIV guidelines.pdf</t>
+  </si>
+  <si>
     <t>Breathing(Respiratory)/T1RF - CPAP Guidelines_Mar24.pdf</t>
   </si>
   <si>
-    <t>Breathing(Respiratory)/NKV 330 NIV guidelines.pdf</t>
-  </si>
-  <si>
     <t>Infection_and_sepsis/Influenza in Critical Care.pdf</t>
   </si>
   <si>
@@ -580,175 +577,175 @@
     <t>Policies_and_admin/Repatriaiton Checklist for Critical Care.pdf</t>
   </si>
   <si>
-    <t>2011-03-28</t>
-  </si>
-  <si>
-    <t>2011-06-28</t>
-  </si>
-  <si>
-    <t>2011-07-28</t>
-  </si>
-  <si>
-    <t>2011-12-28</t>
-  </si>
-  <si>
-    <t>2014-09-28</t>
-  </si>
-  <si>
-    <t>2014-10-28</t>
-  </si>
-  <si>
-    <t>2014-11-28</t>
-  </si>
-  <si>
-    <t>2014-12-28</t>
-  </si>
-  <si>
-    <t>2015-03-28</t>
-  </si>
-  <si>
-    <t>2016-01-28</t>
-  </si>
-  <si>
-    <t>2016-04-28</t>
-  </si>
-  <si>
-    <t>2016-08-28</t>
-  </si>
-  <si>
-    <t>2017-01-28</t>
-  </si>
-  <si>
-    <t>2017-08-28</t>
-  </si>
-  <si>
-    <t>2017-10-28</t>
-  </si>
-  <si>
-    <t>2017-11-28</t>
-  </si>
-  <si>
-    <t>2018-07-28</t>
-  </si>
-  <si>
-    <t>2019-05-28</t>
-  </si>
-  <si>
-    <t>2019-06-28</t>
-  </si>
-  <si>
-    <t>2019-08-28</t>
-  </si>
-  <si>
-    <t>2019-09-28</t>
-  </si>
-  <si>
-    <t>2020-01-28</t>
-  </si>
-  <si>
-    <t>2020-03-28</t>
-  </si>
-  <si>
-    <t>2020-04-28</t>
-  </si>
-  <si>
-    <t>2020-05-28</t>
-  </si>
-  <si>
-    <t>2020-07-28</t>
-  </si>
-  <si>
-    <t>2020-08-28</t>
-  </si>
-  <si>
-    <t>2020-11-28</t>
+    <t>2011-03-30</t>
+  </si>
+  <si>
+    <t>2011-06-30</t>
+  </si>
+  <si>
+    <t>2011-07-30</t>
+  </si>
+  <si>
+    <t>2011-12-30</t>
+  </si>
+  <si>
+    <t>2014-09-30</t>
+  </si>
+  <si>
+    <t>2014-10-30</t>
+  </si>
+  <si>
+    <t>2014-11-30</t>
+  </si>
+  <si>
+    <t>2014-12-30</t>
+  </si>
+  <si>
+    <t>2015-03-30</t>
+  </si>
+  <si>
+    <t>2016-01-30</t>
+  </si>
+  <si>
+    <t>2016-04-30</t>
+  </si>
+  <si>
+    <t>2016-08-30</t>
+  </si>
+  <si>
+    <t>2017-01-30</t>
+  </si>
+  <si>
+    <t>2017-08-30</t>
+  </si>
+  <si>
+    <t>2017-10-30</t>
+  </si>
+  <si>
+    <t>2017-11-30</t>
+  </si>
+  <si>
+    <t>2018-07-30</t>
+  </si>
+  <si>
+    <t>2019-05-30</t>
+  </si>
+  <si>
+    <t>2019-06-30</t>
+  </si>
+  <si>
+    <t>2019-08-30</t>
+  </si>
+  <si>
+    <t>2019-09-30</t>
+  </si>
+  <si>
+    <t>2020-01-30</t>
+  </si>
+  <si>
+    <t>2020-03-30</t>
+  </si>
+  <si>
+    <t>2020-04-30</t>
+  </si>
+  <si>
+    <t>2020-05-30</t>
+  </si>
+  <si>
+    <t>2020-07-30</t>
+  </si>
+  <si>
+    <t>2020-08-30</t>
+  </si>
+  <si>
+    <t>2020-11-30</t>
   </si>
   <si>
     <t>2021-02-28</t>
   </si>
   <si>
-    <t>2021-05-28</t>
-  </si>
-  <si>
-    <t>2021-06-28</t>
-  </si>
-  <si>
-    <t>2021-09-28</t>
-  </si>
-  <si>
-    <t>2021-12-28</t>
-  </si>
-  <si>
-    <t>2022-01-28</t>
-  </si>
-  <si>
-    <t>2022-03-28</t>
-  </si>
-  <si>
-    <t>2022-04-28</t>
-  </si>
-  <si>
-    <t>2022-05-28</t>
-  </si>
-  <si>
-    <t>2022-06-28</t>
-  </si>
-  <si>
-    <t>2022-07-28</t>
-  </si>
-  <si>
-    <t>2022-08-28</t>
-  </si>
-  <si>
-    <t>2022-10-28</t>
-  </si>
-  <si>
-    <t>2022-11-28</t>
-  </si>
-  <si>
-    <t>2022-12-28</t>
-  </si>
-  <si>
-    <t>2023-01-28</t>
+    <t>2021-05-30</t>
+  </si>
+  <si>
+    <t>2021-06-30</t>
+  </si>
+  <si>
+    <t>2021-09-30</t>
+  </si>
+  <si>
+    <t>2021-12-30</t>
+  </si>
+  <si>
+    <t>2022-01-30</t>
+  </si>
+  <si>
+    <t>2022-03-30</t>
+  </si>
+  <si>
+    <t>2022-04-30</t>
+  </si>
+  <si>
+    <t>2022-05-30</t>
+  </si>
+  <si>
+    <t>2022-06-30</t>
+  </si>
+  <si>
+    <t>2022-07-30</t>
+  </si>
+  <si>
+    <t>2022-08-30</t>
+  </si>
+  <si>
+    <t>2022-10-30</t>
+  </si>
+  <si>
+    <t>2022-11-30</t>
+  </si>
+  <si>
+    <t>2022-12-30</t>
+  </si>
+  <si>
+    <t>2023-01-30</t>
   </si>
   <si>
     <t>2023-02-28</t>
   </si>
   <si>
-    <t>2023-04-28</t>
-  </si>
-  <si>
-    <t>2023-05-28</t>
-  </si>
-  <si>
-    <t>2023-06-28</t>
-  </si>
-  <si>
-    <t>2023-07-28</t>
-  </si>
-  <si>
-    <t>2023-08-28</t>
-  </si>
-  <si>
-    <t>2023-09-28</t>
-  </si>
-  <si>
-    <t>2023-10-28</t>
-  </si>
-  <si>
-    <t>2024-01-28</t>
-  </si>
-  <si>
-    <t>2024-02-28</t>
-  </si>
-  <si>
-    <t>2024-03-28</t>
-  </si>
-  <si>
-    <t>2024-04-28</t>
-  </si>
-  <si>
-    <t>2024-05-28</t>
+    <t>2023-04-30</t>
+  </si>
+  <si>
+    <t>2023-05-30</t>
+  </si>
+  <si>
+    <t>2023-06-30</t>
+  </si>
+  <si>
+    <t>2023-07-30</t>
+  </si>
+  <si>
+    <t>2023-08-30</t>
+  </si>
+  <si>
+    <t>2023-09-30</t>
+  </si>
+  <si>
+    <t>2023-10-30</t>
+  </si>
+  <si>
+    <t>2024-01-30</t>
+  </si>
+  <si>
+    <t>2024-02-29</t>
+  </si>
+  <si>
+    <t>2024-03-30</t>
+  </si>
+  <si>
+    <t>2024-04-30</t>
+  </si>
+  <si>
+    <t>2024-05-30</t>
   </si>
   <si>
     <t>2024-06-02</t>
@@ -757,25 +754,25 @@
     <t>2024-06-26</t>
   </si>
   <si>
-    <t>2024-06-28</t>
+    <t>2024-06-30</t>
   </si>
   <si>
     <t>2024-07-25</t>
   </si>
   <si>
-    <t>2024-07-28</t>
+    <t>2024-07-30</t>
   </si>
   <si>
     <t>2024-08-15</t>
   </si>
   <si>
-    <t>2024-08-28</t>
+    <t>2024-08-30</t>
   </si>
   <si>
     <t>2024-10-24</t>
   </si>
   <si>
-    <t>2024-10-28</t>
+    <t>2024-10-30</t>
   </si>
   <si>
     <t>2024-11-20</t>
@@ -787,76 +784,76 @@
     <t>2024-12-24</t>
   </si>
   <si>
-    <t>2025-01-28</t>
+    <t>2025-01-30</t>
   </si>
   <si>
     <t>2025-02-28</t>
   </si>
   <si>
-    <t>2025-03-28</t>
-  </si>
-  <si>
-    <t>2025-04-28</t>
-  </si>
-  <si>
-    <t>2025-05-28</t>
-  </si>
-  <si>
-    <t>2025-06-28</t>
-  </si>
-  <si>
-    <t>2025-07-28</t>
-  </si>
-  <si>
-    <t>2025-08-28</t>
-  </si>
-  <si>
-    <t>2025-10-28</t>
-  </si>
-  <si>
-    <t>2025-11-28</t>
-  </si>
-  <si>
-    <t>2026-01-28</t>
-  </si>
-  <si>
-    <t>2026-03-28</t>
-  </si>
-  <si>
-    <t>2026-05-28</t>
-  </si>
-  <si>
-    <t>2026-07-28</t>
-  </si>
-  <si>
-    <t>2026-11-28</t>
-  </si>
-  <si>
-    <t>2027-01-28</t>
+    <t>2025-03-30</t>
+  </si>
+  <si>
+    <t>2025-04-30</t>
+  </si>
+  <si>
+    <t>2025-05-30</t>
+  </si>
+  <si>
+    <t>2025-06-30</t>
+  </si>
+  <si>
+    <t>2025-07-30</t>
+  </si>
+  <si>
+    <t>2025-08-30</t>
+  </si>
+  <si>
+    <t>2025-10-30</t>
+  </si>
+  <si>
+    <t>2025-11-30</t>
+  </si>
+  <si>
+    <t>2026-01-30</t>
+  </si>
+  <si>
+    <t>2026-03-30</t>
+  </si>
+  <si>
+    <t>2026-05-30</t>
+  </si>
+  <si>
+    <t>2026-07-30</t>
+  </si>
+  <si>
+    <t>2026-11-30</t>
+  </si>
+  <si>
+    <t>2027-01-30</t>
   </si>
   <si>
     <t>2027-02-28</t>
   </si>
   <si>
-    <t>2027-03-28</t>
-  </si>
-  <si>
-    <t>2028-02-28</t>
-  </si>
-  <si>
-    <t>2028-03-28</t>
-  </si>
-  <si>
-    <t>2028-05-28</t>
-  </si>
-  <si>
-    <t>2028-07-28</t>
-  </si>
-  <si>
-    <t>2028-11-28</t>
-  </si>
-  <si>
-    <t>2030-11-28</t>
+    <t>2027-03-30</t>
+  </si>
+  <si>
+    <t>2028-02-29</t>
+  </si>
+  <si>
+    <t>2028-03-30</t>
+  </si>
+  <si>
+    <t>2028-05-30</t>
+  </si>
+  <si>
+    <t>2028-07-30</t>
+  </si>
+  <si>
+    <t>2028-11-30</t>
+  </si>
+  <si>
+    <t>2030-11-30</t>
   </si>
 </sst>
 </file>
@@ -1214,7 +1211,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B187"/>
+  <dimension ref="A1:B186"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1233,7 +1230,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -1241,7 +1238,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -1249,7 +1246,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -1257,7 +1254,7 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -1265,7 +1262,7 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -1273,7 +1270,7 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -1281,7 +1278,7 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -1289,7 +1286,7 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -1297,7 +1294,7 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -1305,7 +1302,7 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -1313,7 +1310,7 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -1321,7 +1318,7 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -1329,7 +1326,7 @@
         <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -1337,7 +1334,7 @@
         <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -1345,7 +1342,7 @@
         <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -1353,7 +1350,7 @@
         <v>17</v>
       </c>
       <c r="B17" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -1361,7 +1358,7 @@
         <v>18</v>
       </c>
       <c r="B18" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -1369,7 +1366,7 @@
         <v>19</v>
       </c>
       <c r="B19" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -1377,7 +1374,7 @@
         <v>20</v>
       </c>
       <c r="B20" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -1385,7 +1382,7 @@
         <v>21</v>
       </c>
       <c r="B21" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -1393,7 +1390,7 @@
         <v>22</v>
       </c>
       <c r="B22" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -1401,7 +1398,7 @@
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -1409,7 +1406,7 @@
         <v>24</v>
       </c>
       <c r="B24" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -1417,7 +1414,7 @@
         <v>25</v>
       </c>
       <c r="B25" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -1425,7 +1422,7 @@
         <v>26</v>
       </c>
       <c r="B26" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -1433,7 +1430,7 @@
         <v>27</v>
       </c>
       <c r="B27" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -1441,7 +1438,7 @@
         <v>28</v>
       </c>
       <c r="B28" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -1449,7 +1446,7 @@
         <v>29</v>
       </c>
       <c r="B29" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -1457,7 +1454,7 @@
         <v>30</v>
       </c>
       <c r="B30" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -1465,7 +1462,7 @@
         <v>31</v>
       </c>
       <c r="B31" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -1473,7 +1470,7 @@
         <v>32</v>
       </c>
       <c r="B32" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -1481,7 +1478,7 @@
         <v>33</v>
       </c>
       <c r="B33" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -1489,7 +1486,7 @@
         <v>34</v>
       </c>
       <c r="B34" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -1497,7 +1494,7 @@
         <v>35</v>
       </c>
       <c r="B35" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -1505,7 +1502,7 @@
         <v>36</v>
       </c>
       <c r="B36" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -1513,7 +1510,7 @@
         <v>37</v>
       </c>
       <c r="B37" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -1521,7 +1518,7 @@
         <v>38</v>
       </c>
       <c r="B38" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -1529,7 +1526,7 @@
         <v>39</v>
       </c>
       <c r="B39" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -1537,7 +1534,7 @@
         <v>40</v>
       </c>
       <c r="B40" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -1545,7 +1542,7 @@
         <v>41</v>
       </c>
       <c r="B41" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -1553,7 +1550,7 @@
         <v>42</v>
       </c>
       <c r="B42" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -1561,7 +1558,7 @@
         <v>43</v>
       </c>
       <c r="B43" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -1569,7 +1566,7 @@
         <v>44</v>
       </c>
       <c r="B44" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -1577,7 +1574,7 @@
         <v>45</v>
       </c>
       <c r="B45" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -1585,7 +1582,7 @@
         <v>46</v>
       </c>
       <c r="B46" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -1593,7 +1590,7 @@
         <v>47</v>
       </c>
       <c r="B47" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -1601,7 +1598,7 @@
         <v>48</v>
       </c>
       <c r="B48" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -1609,7 +1606,7 @@
         <v>49</v>
       </c>
       <c r="B49" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -1617,7 +1614,7 @@
         <v>50</v>
       </c>
       <c r="B50" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -1625,7 +1622,7 @@
         <v>51</v>
       </c>
       <c r="B51" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -1633,7 +1630,7 @@
         <v>52</v>
       </c>
       <c r="B52" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -1641,7 +1638,7 @@
         <v>53</v>
       </c>
       <c r="B53" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="54" spans="1:2">
@@ -1649,7 +1646,7 @@
         <v>54</v>
       </c>
       <c r="B54" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="55" spans="1:2">
@@ -1657,7 +1654,7 @@
         <v>55</v>
       </c>
       <c r="B55" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="56" spans="1:2">
@@ -1665,7 +1662,7 @@
         <v>56</v>
       </c>
       <c r="B56" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="57" spans="1:2">
@@ -1673,7 +1670,7 @@
         <v>57</v>
       </c>
       <c r="B57" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="58" spans="1:2">
@@ -1681,7 +1678,7 @@
         <v>58</v>
       </c>
       <c r="B58" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="59" spans="1:2">
@@ -1689,7 +1686,7 @@
         <v>59</v>
       </c>
       <c r="B59" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="60" spans="1:2">
@@ -1697,7 +1694,7 @@
         <v>60</v>
       </c>
       <c r="B60" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="61" spans="1:2">
@@ -1705,7 +1702,7 @@
         <v>61</v>
       </c>
       <c r="B61" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="62" spans="1:2">
@@ -1713,7 +1710,7 @@
         <v>62</v>
       </c>
       <c r="B62" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="63" spans="1:2">
@@ -1721,7 +1718,7 @@
         <v>63</v>
       </c>
       <c r="B63" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="64" spans="1:2">
@@ -1729,7 +1726,7 @@
         <v>64</v>
       </c>
       <c r="B64" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="65" spans="1:2">
@@ -1737,7 +1734,7 @@
         <v>65</v>
       </c>
       <c r="B65" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="66" spans="1:2">
@@ -1745,7 +1742,7 @@
         <v>66</v>
       </c>
       <c r="B66" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="67" spans="1:2">
@@ -1753,7 +1750,7 @@
         <v>67</v>
       </c>
       <c r="B67" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="68" spans="1:2">
@@ -1761,7 +1758,7 @@
         <v>68</v>
       </c>
       <c r="B68" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="69" spans="1:2">
@@ -1769,7 +1766,7 @@
         <v>69</v>
       </c>
       <c r="B69" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="70" spans="1:2">
@@ -1777,7 +1774,7 @@
         <v>70</v>
       </c>
       <c r="B70" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="71" spans="1:2">
@@ -1785,7 +1782,7 @@
         <v>71</v>
       </c>
       <c r="B71" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="72" spans="1:2">
@@ -1793,7 +1790,7 @@
         <v>72</v>
       </c>
       <c r="B72" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="73" spans="1:2">
@@ -1801,7 +1798,7 @@
         <v>73</v>
       </c>
       <c r="B73" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="74" spans="1:2">
@@ -1809,7 +1806,7 @@
         <v>74</v>
       </c>
       <c r="B74" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="75" spans="1:2">
@@ -1817,7 +1814,7 @@
         <v>75</v>
       </c>
       <c r="B75" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="76" spans="1:2">
@@ -1825,7 +1822,7 @@
         <v>76</v>
       </c>
       <c r="B76" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="77" spans="1:2">
@@ -1833,7 +1830,7 @@
         <v>77</v>
       </c>
       <c r="B77" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="78" spans="1:2">
@@ -1841,7 +1838,7 @@
         <v>78</v>
       </c>
       <c r="B78" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="79" spans="1:2">
@@ -1849,7 +1846,7 @@
         <v>79</v>
       </c>
       <c r="B79" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="80" spans="1:2">
@@ -1857,7 +1854,7 @@
         <v>80</v>
       </c>
       <c r="B80" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="81" spans="1:2">
@@ -1865,7 +1862,7 @@
         <v>81</v>
       </c>
       <c r="B81" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="82" spans="1:2">
@@ -1873,7 +1870,7 @@
         <v>82</v>
       </c>
       <c r="B82" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="83" spans="1:2">
@@ -1881,7 +1878,7 @@
         <v>83</v>
       </c>
       <c r="B83" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="84" spans="1:2">
@@ -1889,7 +1886,7 @@
         <v>84</v>
       </c>
       <c r="B84" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="85" spans="1:2">
@@ -1897,7 +1894,7 @@
         <v>85</v>
       </c>
       <c r="B85" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="86" spans="1:2">
@@ -1905,7 +1902,7 @@
         <v>86</v>
       </c>
       <c r="B86" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="87" spans="1:2">
@@ -1913,7 +1910,7 @@
         <v>87</v>
       </c>
       <c r="B87" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="88" spans="1:2">
@@ -1921,7 +1918,7 @@
         <v>88</v>
       </c>
       <c r="B88" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="89" spans="1:2">
@@ -1929,7 +1926,7 @@
         <v>89</v>
       </c>
       <c r="B89" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="90" spans="1:2">
@@ -1937,7 +1934,7 @@
         <v>90</v>
       </c>
       <c r="B90" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="91" spans="1:2">
@@ -1945,7 +1942,7 @@
         <v>91</v>
       </c>
       <c r="B91" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="92" spans="1:2">
@@ -1953,7 +1950,7 @@
         <v>92</v>
       </c>
       <c r="B92" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="93" spans="1:2">
@@ -1961,7 +1958,7 @@
         <v>93</v>
       </c>
       <c r="B93" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="94" spans="1:2">
@@ -1969,7 +1966,7 @@
         <v>94</v>
       </c>
       <c r="B94" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="95" spans="1:2">
@@ -1977,7 +1974,7 @@
         <v>95</v>
       </c>
       <c r="B95" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="96" spans="1:2">
@@ -1985,7 +1982,7 @@
         <v>96</v>
       </c>
       <c r="B96" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="97" spans="1:2">
@@ -1993,7 +1990,7 @@
         <v>97</v>
       </c>
       <c r="B97" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="98" spans="1:2">
@@ -2001,7 +1998,7 @@
         <v>98</v>
       </c>
       <c r="B98" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="99" spans="1:2">
@@ -2009,7 +2006,7 @@
         <v>99</v>
       </c>
       <c r="B99" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="100" spans="1:2">
@@ -2017,7 +2014,7 @@
         <v>100</v>
       </c>
       <c r="B100" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="101" spans="1:2">
@@ -2025,7 +2022,7 @@
         <v>101</v>
       </c>
       <c r="B101" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="102" spans="1:2">
@@ -2033,7 +2030,7 @@
         <v>102</v>
       </c>
       <c r="B102" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="103" spans="1:2">
@@ -2041,7 +2038,7 @@
         <v>103</v>
       </c>
       <c r="B103" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="104" spans="1:2">
@@ -2049,7 +2046,7 @@
         <v>104</v>
       </c>
       <c r="B104" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="105" spans="1:2">
@@ -2057,7 +2054,7 @@
         <v>105</v>
       </c>
       <c r="B105" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="106" spans="1:2">
@@ -2065,7 +2062,7 @@
         <v>106</v>
       </c>
       <c r="B106" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="107" spans="1:2">
@@ -2073,7 +2070,7 @@
         <v>107</v>
       </c>
       <c r="B107" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="108" spans="1:2">
@@ -2081,7 +2078,7 @@
         <v>108</v>
       </c>
       <c r="B108" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="109" spans="1:2">
@@ -2089,7 +2086,7 @@
         <v>109</v>
       </c>
       <c r="B109" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="110" spans="1:2">
@@ -2097,7 +2094,7 @@
         <v>110</v>
       </c>
       <c r="B110" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="111" spans="1:2">
@@ -2105,7 +2102,7 @@
         <v>111</v>
       </c>
       <c r="B111" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="112" spans="1:2">
@@ -2113,7 +2110,7 @@
         <v>112</v>
       </c>
       <c r="B112" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="113" spans="1:2">
@@ -2121,7 +2118,7 @@
         <v>113</v>
       </c>
       <c r="B113" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="114" spans="1:2">
@@ -2129,7 +2126,7 @@
         <v>114</v>
       </c>
       <c r="B114" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="115" spans="1:2">
@@ -2137,7 +2134,7 @@
         <v>115</v>
       </c>
       <c r="B115" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="116" spans="1:2">
@@ -2145,7 +2142,7 @@
         <v>116</v>
       </c>
       <c r="B116" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="117" spans="1:2">
@@ -2153,7 +2150,7 @@
         <v>117</v>
       </c>
       <c r="B117" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="118" spans="1:2">
@@ -2161,7 +2158,7 @@
         <v>118</v>
       </c>
       <c r="B118" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="119" spans="1:2">
@@ -2169,7 +2166,7 @@
         <v>119</v>
       </c>
       <c r="B119" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="120" spans="1:2">
@@ -2177,7 +2174,7 @@
         <v>120</v>
       </c>
       <c r="B120" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="121" spans="1:2">
@@ -2185,7 +2182,7 @@
         <v>121</v>
       </c>
       <c r="B121" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="122" spans="1:2">
@@ -2193,7 +2190,7 @@
         <v>122</v>
       </c>
       <c r="B122" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="123" spans="1:2">
@@ -2201,7 +2198,7 @@
         <v>123</v>
       </c>
       <c r="B123" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="124" spans="1:2">
@@ -2209,7 +2206,7 @@
         <v>124</v>
       </c>
       <c r="B124" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="125" spans="1:2">
@@ -2217,7 +2214,7 @@
         <v>125</v>
       </c>
       <c r="B125" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="126" spans="1:2">
@@ -2225,7 +2222,7 @@
         <v>126</v>
       </c>
       <c r="B126" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="127" spans="1:2">
@@ -2233,7 +2230,7 @@
         <v>127</v>
       </c>
       <c r="B127" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="128" spans="1:2">
@@ -2241,7 +2238,7 @@
         <v>128</v>
       </c>
       <c r="B128" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="129" spans="1:2">
@@ -2249,7 +2246,7 @@
         <v>129</v>
       </c>
       <c r="B129" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="130" spans="1:2">
@@ -2257,7 +2254,7 @@
         <v>130</v>
       </c>
       <c r="B130" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="131" spans="1:2">
@@ -2265,7 +2262,7 @@
         <v>131</v>
       </c>
       <c r="B131" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="132" spans="1:2">
@@ -2273,7 +2270,7 @@
         <v>132</v>
       </c>
       <c r="B132" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="133" spans="1:2">
@@ -2281,7 +2278,7 @@
         <v>133</v>
       </c>
       <c r="B133" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="134" spans="1:2">
@@ -2289,7 +2286,7 @@
         <v>134</v>
       </c>
       <c r="B134" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="135" spans="1:2">
@@ -2297,7 +2294,7 @@
         <v>135</v>
       </c>
       <c r="B135" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="136" spans="1:2">
@@ -2305,7 +2302,7 @@
         <v>136</v>
       </c>
       <c r="B136" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="137" spans="1:2">
@@ -2313,7 +2310,7 @@
         <v>137</v>
       </c>
       <c r="B137" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="138" spans="1:2">
@@ -2321,7 +2318,7 @@
         <v>138</v>
       </c>
       <c r="B138" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="139" spans="1:2">
@@ -2329,7 +2326,7 @@
         <v>139</v>
       </c>
       <c r="B139" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="140" spans="1:2">
@@ -2337,7 +2334,7 @@
         <v>140</v>
       </c>
       <c r="B140" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="141" spans="1:2">
@@ -2345,7 +2342,7 @@
         <v>141</v>
       </c>
       <c r="B141" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="142" spans="1:2">
@@ -2353,7 +2350,7 @@
         <v>142</v>
       </c>
       <c r="B142" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="143" spans="1:2">
@@ -2361,7 +2358,7 @@
         <v>143</v>
       </c>
       <c r="B143" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="144" spans="1:2">
@@ -2369,7 +2366,7 @@
         <v>144</v>
       </c>
       <c r="B144" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="145" spans="1:2">
@@ -2377,7 +2374,7 @@
         <v>145</v>
       </c>
       <c r="B145" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="146" spans="1:2">
@@ -2385,7 +2382,7 @@
         <v>146</v>
       </c>
       <c r="B146" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="147" spans="1:2">
@@ -2393,7 +2390,7 @@
         <v>147</v>
       </c>
       <c r="B147" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="148" spans="1:2">
@@ -2401,7 +2398,7 @@
         <v>148</v>
       </c>
       <c r="B148" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="149" spans="1:2">
@@ -2409,7 +2406,7 @@
         <v>149</v>
       </c>
       <c r="B149" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="150" spans="1:2">
@@ -2417,7 +2414,7 @@
         <v>150</v>
       </c>
       <c r="B150" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="151" spans="1:2">
@@ -2425,7 +2422,7 @@
         <v>151</v>
       </c>
       <c r="B151" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="152" spans="1:2">
@@ -2433,7 +2430,7 @@
         <v>152</v>
       </c>
       <c r="B152" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="153" spans="1:2">
@@ -2449,7 +2446,7 @@
         <v>154</v>
       </c>
       <c r="B154" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="155" spans="1:2">
@@ -2457,7 +2454,7 @@
         <v>155</v>
       </c>
       <c r="B155" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="156" spans="1:2">
@@ -2473,7 +2470,7 @@
         <v>157</v>
       </c>
       <c r="B157" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="158" spans="1:2">
@@ -2481,7 +2478,7 @@
         <v>158</v>
       </c>
       <c r="B158" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="159" spans="1:2">
@@ -2489,7 +2486,7 @@
         <v>159</v>
       </c>
       <c r="B159" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="160" spans="1:2">
@@ -2505,7 +2502,7 @@
         <v>161</v>
       </c>
       <c r="B161" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="162" spans="1:2">
@@ -2513,7 +2510,7 @@
         <v>162</v>
       </c>
       <c r="B162" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="163" spans="1:2">
@@ -2529,7 +2526,7 @@
         <v>164</v>
       </c>
       <c r="B164" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="165" spans="1:2">
@@ -2537,7 +2534,7 @@
         <v>165</v>
       </c>
       <c r="B165" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="166" spans="1:2">
@@ -2553,7 +2550,7 @@
         <v>167</v>
       </c>
       <c r="B167" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="168" spans="1:2">
@@ -2561,7 +2558,7 @@
         <v>168</v>
       </c>
       <c r="B168" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="169" spans="1:2">
@@ -2569,7 +2566,7 @@
         <v>169</v>
       </c>
       <c r="B169" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="170" spans="1:2">
@@ -2577,7 +2574,7 @@
         <v>170</v>
       </c>
       <c r="B170" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="171" spans="1:2">
@@ -2593,7 +2590,7 @@
         <v>172</v>
       </c>
       <c r="B172" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="173" spans="1:2">
@@ -2601,7 +2598,7 @@
         <v>173</v>
       </c>
       <c r="B173" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="174" spans="1:2">
@@ -2673,7 +2670,7 @@
         <v>182</v>
       </c>
       <c r="B182" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="183" spans="1:2">
@@ -2706,14 +2703,6 @@
       </c>
       <c r="B186" t="s">
         <v>279</v>
-      </c>
-    </row>
-    <row r="187" spans="1:2">
-      <c r="A187" t="s">
-        <v>187</v>
-      </c>
-      <c r="B187" t="s">
-        <v>280</v>
       </c>
     </row>
   </sheetData>

--- a/lothiancriticalcare/1a74f8f7b8b7e871b413c4697f68b4401fbacdf0/reviewdates.xlsx
+++ b/lothiancriticalcare/1a74f8f7b8b7e871b413c4697f68b4401fbacdf0/reviewdates.xlsx
@@ -289,90 +289,90 @@
     <t>Cardiovascular/Management of hypertension within Critical Care.pdf</t>
   </si>
   <si>
+    <t>Haematology_CAR-T/Cytokine Release Syndrome.pdf</t>
+  </si>
+  <si>
+    <t>Drugs/pancuronium.pdf</t>
+  </si>
+  <si>
+    <t>Drugs/phenytoin.pdf</t>
+  </si>
+  <si>
+    <t>Drugs/rocuronium.pdf</t>
+  </si>
+  <si>
     <t>Haematology_CAR-T/ICANS.pdf</t>
   </si>
   <si>
-    <t>Drugs/pancuronium.pdf</t>
-  </si>
-  <si>
-    <t>Drugs/phenytoin.pdf</t>
-  </si>
-  <si>
-    <t>Drugs/rocuronium.pdf</t>
-  </si>
-  <si>
-    <t>Haematology_CAR-T/Cytokine Release Syndrome.pdf</t>
-  </si>
-  <si>
     <t>Drugs/milrinone.pdf</t>
   </si>
   <si>
     <t>Policies_and_admin/General Critical Care SOP_pub.pdf</t>
   </si>
   <si>
+    <t>Covid-19/COVID 19 ICM guidance basic goals_June_2022.pdf</t>
+  </si>
+  <si>
     <t>End_of_life_care/CMO &amp; NRS Guidance for Doctors completing MCCD.pdf</t>
   </si>
   <si>
     <t>Ethics_and_Law/Care at the End of Life (FICM).pdf</t>
   </si>
   <si>
+    <t>GI_Liver_and_Transplant/ICU - Upper GI bleeding (Endoscopy guideline).pdf</t>
+  </si>
+  <si>
+    <t>Organ_donation/Organ Retrieval SOP.pdf</t>
+  </si>
+  <si>
     <t>End_of_life_care/Palliative extubation &amp; withdrawal of invasive ventilatory support nursing checklist.pdf</t>
   </si>
   <si>
+    <t>Infection_and_sepsis/Trip Out of Unit infection guidance.pdf</t>
+  </si>
+  <si>
+    <t>Drugs/clonidine.pdf</t>
+  </si>
+  <si>
+    <t>Neurological/Management of traumatic brain injury.pdf</t>
+  </si>
+  <si>
     <t>Neurological/Critical Care MRI Procedure_pub.pdf</t>
   </si>
   <si>
-    <t>Drugs/clonidine.pdf</t>
-  </si>
-  <si>
     <t>Ethics_and_Law/DNACPR policy for Scotland.pdf</t>
   </si>
   <si>
-    <t>Organ_donation/Organ Retrieval SOP.pdf</t>
-  </si>
-  <si>
-    <t>Covid-19/COVID 19 ICM guidance basic goals_June_2022.pdf</t>
-  </si>
-  <si>
-    <t>Neurological/Management of traumatic brain injury.pdf</t>
-  </si>
-  <si>
-    <t>Infection_and_sepsis/Trip Out of Unit infection guidance.pdf</t>
-  </si>
-  <si>
-    <t>GI_Liver_and_Transplant/ICU - Upper GI bleeding (Endoscopy guideline).pdf</t>
-  </si>
-  <si>
     <t>Airway/Cook Staged Extubation Set.pdf</t>
   </si>
   <si>
+    <t>Drugs/noradrenaline (central).pdf</t>
+  </si>
+  <si>
+    <t>End_of_life_care/End of Life Care Guideline for Critical Care.pdf</t>
+  </si>
+  <si>
     <t>Post_op_care/Epidural hypotension.pdf</t>
   </si>
   <si>
-    <t>End_of_life_care/End of Life Care Guideline for Critical Care.pdf</t>
-  </si>
-  <si>
-    <t>Drugs/noradrenaline (central).pdf</t>
+    <t>GI_Liver_and_Transplant/Fulminant Liver Failure.pdf</t>
+  </si>
+  <si>
+    <t>GI_Liver_and_Transplant/Confirmation of Nasogastric Tube Position.pdf</t>
+  </si>
+  <si>
+    <t>Drugs/dexmedetomidine.pdf</t>
+  </si>
+  <si>
+    <t>Drugs/glyceryl_trinitrate.pdf</t>
+  </si>
+  <si>
+    <t>Breathing(Respiratory)/Equipment/Passy Muir Valve.pdf</t>
   </si>
   <si>
     <t>Infection_and_sepsis/Antifungal guidance in critical care.pdf</t>
   </si>
   <si>
-    <t>GI_Liver_and_Transplant/Fulminant Liver Failure.pdf</t>
-  </si>
-  <si>
-    <t>GI_Liver_and_Transplant/Confirmation of Nasogastric Tube Position.pdf</t>
-  </si>
-  <si>
-    <t>Drugs/dexmedetomidine.pdf</t>
-  </si>
-  <si>
-    <t>Drugs/glyceryl_trinitrate.pdf</t>
-  </si>
-  <si>
-    <t>Breathing(Respiratory)/Equipment/Passy Muir Valve.pdf</t>
-  </si>
-  <si>
     <t>Breathing(Respiratory)/ARDS Strategy.pdf</t>
   </si>
   <si>
@@ -385,15 +385,15 @@
     <t>Cardiovascular/Intra Aortic Balloon Pump Guideline_pub.pdf</t>
   </si>
   <si>
+    <t>Drugs/Dobutamine.pdf</t>
+  </si>
+  <si>
+    <t>Drugs/adrenaline.pdf</t>
+  </si>
+  <si>
     <t>Drugs/hydralazine.pdf</t>
   </si>
   <si>
-    <t>Drugs/Dobutamine.pdf</t>
-  </si>
-  <si>
-    <t>Drugs/adrenaline.pdf</t>
-  </si>
-  <si>
     <t>Post_op_care/Major OMFS Free Flap.pdf</t>
   </si>
   <si>
@@ -577,204 +577,204 @@
     <t>Policies_and_admin/Repatriaiton Checklist for Critical Care.pdf</t>
   </si>
   <si>
-    <t>2011-03-30</t>
-  </si>
-  <si>
-    <t>2011-06-30</t>
-  </si>
-  <si>
-    <t>2011-07-30</t>
-  </si>
-  <si>
-    <t>2011-12-30</t>
-  </si>
-  <si>
-    <t>2014-09-30</t>
-  </si>
-  <si>
-    <t>2014-10-30</t>
-  </si>
-  <si>
-    <t>2014-11-30</t>
-  </si>
-  <si>
-    <t>2014-12-30</t>
-  </si>
-  <si>
-    <t>2015-03-30</t>
-  </si>
-  <si>
-    <t>2016-01-30</t>
-  </si>
-  <si>
-    <t>2016-04-30</t>
-  </si>
-  <si>
-    <t>2016-08-30</t>
-  </si>
-  <si>
-    <t>2017-01-30</t>
-  </si>
-  <si>
-    <t>2017-08-30</t>
-  </si>
-  <si>
-    <t>2017-10-30</t>
-  </si>
-  <si>
-    <t>2017-11-30</t>
-  </si>
-  <si>
-    <t>2018-07-30</t>
-  </si>
-  <si>
-    <t>2019-05-30</t>
-  </si>
-  <si>
-    <t>2019-06-30</t>
-  </si>
-  <si>
-    <t>2019-08-30</t>
-  </si>
-  <si>
-    <t>2019-09-30</t>
-  </si>
-  <si>
-    <t>2020-01-30</t>
-  </si>
-  <si>
-    <t>2020-03-30</t>
-  </si>
-  <si>
-    <t>2020-04-30</t>
-  </si>
-  <si>
-    <t>2020-05-30</t>
-  </si>
-  <si>
-    <t>2020-07-30</t>
-  </si>
-  <si>
-    <t>2020-08-30</t>
-  </si>
-  <si>
-    <t>2020-11-30</t>
-  </si>
-  <si>
-    <t>2021-02-28</t>
-  </si>
-  <si>
-    <t>2021-05-30</t>
-  </si>
-  <si>
-    <t>2021-06-30</t>
-  </si>
-  <si>
-    <t>2021-09-30</t>
-  </si>
-  <si>
-    <t>2021-12-30</t>
-  </si>
-  <si>
-    <t>2022-01-30</t>
-  </si>
-  <si>
-    <t>2022-03-30</t>
-  </si>
-  <si>
-    <t>2022-04-30</t>
-  </si>
-  <si>
-    <t>2022-05-30</t>
-  </si>
-  <si>
-    <t>2022-06-30</t>
-  </si>
-  <si>
-    <t>2022-07-30</t>
-  </si>
-  <si>
-    <t>2022-08-30</t>
-  </si>
-  <si>
-    <t>2022-10-30</t>
-  </si>
-  <si>
-    <t>2022-11-30</t>
-  </si>
-  <si>
-    <t>2022-12-30</t>
-  </si>
-  <si>
-    <t>2023-01-30</t>
-  </si>
-  <si>
-    <t>2023-02-28</t>
-  </si>
-  <si>
-    <t>2023-04-30</t>
-  </si>
-  <si>
-    <t>2023-05-30</t>
-  </si>
-  <si>
-    <t>2023-06-30</t>
-  </si>
-  <si>
-    <t>2023-07-30</t>
-  </si>
-  <si>
-    <t>2023-08-30</t>
-  </si>
-  <si>
-    <t>2023-09-30</t>
-  </si>
-  <si>
-    <t>2023-10-30</t>
-  </si>
-  <si>
-    <t>2024-01-30</t>
-  </si>
-  <si>
-    <t>2024-02-29</t>
-  </si>
-  <si>
-    <t>2024-03-30</t>
-  </si>
-  <si>
-    <t>2024-04-30</t>
-  </si>
-  <si>
-    <t>2024-05-30</t>
+    <t>2011-03-18</t>
+  </si>
+  <si>
+    <t>2011-06-18</t>
+  </si>
+  <si>
+    <t>2011-07-18</t>
+  </si>
+  <si>
+    <t>2011-12-18</t>
+  </si>
+  <si>
+    <t>2014-09-18</t>
+  </si>
+  <si>
+    <t>2014-10-18</t>
+  </si>
+  <si>
+    <t>2014-11-18</t>
+  </si>
+  <si>
+    <t>2014-12-18</t>
+  </si>
+  <si>
+    <t>2015-03-18</t>
+  </si>
+  <si>
+    <t>2016-01-18</t>
+  </si>
+  <si>
+    <t>2016-04-18</t>
+  </si>
+  <si>
+    <t>2016-08-18</t>
+  </si>
+  <si>
+    <t>2017-01-18</t>
+  </si>
+  <si>
+    <t>2017-08-18</t>
+  </si>
+  <si>
+    <t>2017-10-18</t>
+  </si>
+  <si>
+    <t>2017-11-18</t>
+  </si>
+  <si>
+    <t>2018-07-18</t>
+  </si>
+  <si>
+    <t>2019-05-18</t>
+  </si>
+  <si>
+    <t>2019-06-18</t>
+  </si>
+  <si>
+    <t>2019-08-18</t>
+  </si>
+  <si>
+    <t>2019-09-18</t>
+  </si>
+  <si>
+    <t>2020-01-18</t>
+  </si>
+  <si>
+    <t>2020-03-18</t>
+  </si>
+  <si>
+    <t>2020-04-18</t>
+  </si>
+  <si>
+    <t>2020-05-18</t>
+  </si>
+  <si>
+    <t>2020-07-18</t>
+  </si>
+  <si>
+    <t>2020-08-18</t>
+  </si>
+  <si>
+    <t>2020-11-18</t>
+  </si>
+  <si>
+    <t>2021-02-18</t>
+  </si>
+  <si>
+    <t>2021-05-18</t>
+  </si>
+  <si>
+    <t>2021-06-18</t>
+  </si>
+  <si>
+    <t>2021-09-18</t>
+  </si>
+  <si>
+    <t>2021-12-18</t>
+  </si>
+  <si>
+    <t>2022-01-18</t>
+  </si>
+  <si>
+    <t>2022-03-18</t>
+  </si>
+  <si>
+    <t>2022-04-18</t>
+  </si>
+  <si>
+    <t>2022-05-18</t>
+  </si>
+  <si>
+    <t>2022-06-18</t>
+  </si>
+  <si>
+    <t>2022-07-18</t>
+  </si>
+  <si>
+    <t>2022-08-18</t>
+  </si>
+  <si>
+    <t>2022-10-18</t>
+  </si>
+  <si>
+    <t>2022-11-18</t>
+  </si>
+  <si>
+    <t>2022-12-18</t>
+  </si>
+  <si>
+    <t>2023-01-18</t>
+  </si>
+  <si>
+    <t>2023-02-18</t>
+  </si>
+  <si>
+    <t>2023-04-18</t>
+  </si>
+  <si>
+    <t>2023-05-18</t>
+  </si>
+  <si>
+    <t>2023-06-18</t>
+  </si>
+  <si>
+    <t>2023-07-18</t>
+  </si>
+  <si>
+    <t>2023-08-18</t>
+  </si>
+  <si>
+    <t>2023-09-18</t>
+  </si>
+  <si>
+    <t>2023-10-18</t>
+  </si>
+  <si>
+    <t>2024-01-18</t>
+  </si>
+  <si>
+    <t>2024-02-18</t>
+  </si>
+  <si>
+    <t>2024-03-18</t>
+  </si>
+  <si>
+    <t>2024-04-18</t>
+  </si>
+  <si>
+    <t>2024-05-18</t>
   </si>
   <si>
     <t>2024-06-02</t>
   </si>
   <si>
+    <t>2024-06-18</t>
+  </si>
+  <si>
     <t>2024-06-26</t>
   </si>
   <si>
-    <t>2024-06-30</t>
+    <t>2024-07-18</t>
   </si>
   <si>
     <t>2024-07-25</t>
   </si>
   <si>
-    <t>2024-07-30</t>
-  </si>
-  <si>
     <t>2024-08-15</t>
   </si>
   <si>
-    <t>2024-08-30</t>
+    <t>2024-08-18</t>
+  </si>
+  <si>
+    <t>2024-10-18</t>
   </si>
   <si>
     <t>2024-10-24</t>
   </si>
   <si>
-    <t>2024-10-30</t>
-  </si>
-  <si>
     <t>2024-11-20</t>
   </si>
   <si>
@@ -784,76 +784,76 @@
     <t>2024-12-24</t>
   </si>
   <si>
-    <t>2025-01-30</t>
-  </si>
-  <si>
-    <t>2025-02-28</t>
-  </si>
-  <si>
-    <t>2025-03-30</t>
-  </si>
-  <si>
-    <t>2025-04-30</t>
-  </si>
-  <si>
-    <t>2025-05-30</t>
-  </si>
-  <si>
-    <t>2025-06-30</t>
-  </si>
-  <si>
-    <t>2025-07-30</t>
-  </si>
-  <si>
-    <t>2025-08-30</t>
-  </si>
-  <si>
-    <t>2025-10-30</t>
-  </si>
-  <si>
-    <t>2025-11-30</t>
-  </si>
-  <si>
-    <t>2026-01-30</t>
-  </si>
-  <si>
-    <t>2026-03-30</t>
-  </si>
-  <si>
-    <t>2026-05-30</t>
-  </si>
-  <si>
-    <t>2026-07-30</t>
-  </si>
-  <si>
-    <t>2026-11-30</t>
-  </si>
-  <si>
-    <t>2027-01-30</t>
-  </si>
-  <si>
-    <t>2027-02-28</t>
-  </si>
-  <si>
-    <t>2027-03-30</t>
-  </si>
-  <si>
-    <t>2028-02-29</t>
-  </si>
-  <si>
-    <t>2028-03-30</t>
-  </si>
-  <si>
-    <t>2028-05-30</t>
-  </si>
-  <si>
-    <t>2028-07-30</t>
-  </si>
-  <si>
-    <t>2028-11-30</t>
-  </si>
-  <si>
-    <t>2030-11-30</t>
+    <t>2025-01-18</t>
+  </si>
+  <si>
+    <t>2025-02-18</t>
+  </si>
+  <si>
+    <t>2025-03-18</t>
+  </si>
+  <si>
+    <t>2025-04-18</t>
+  </si>
+  <si>
+    <t>2025-05-18</t>
+  </si>
+  <si>
+    <t>2025-06-18</t>
+  </si>
+  <si>
+    <t>2025-07-18</t>
+  </si>
+  <si>
+    <t>2025-08-18</t>
+  </si>
+  <si>
+    <t>2025-10-18</t>
+  </si>
+  <si>
+    <t>2025-11-18</t>
+  </si>
+  <si>
+    <t>2026-01-18</t>
+  </si>
+  <si>
+    <t>2026-03-18</t>
+  </si>
+  <si>
+    <t>2026-05-18</t>
+  </si>
+  <si>
+    <t>2026-07-18</t>
+  </si>
+  <si>
+    <t>2026-11-18</t>
+  </si>
+  <si>
+    <t>2027-01-18</t>
+  </si>
+  <si>
+    <t>2027-02-18</t>
+  </si>
+  <si>
+    <t>2027-03-18</t>
+  </si>
+  <si>
+    <t>2028-02-18</t>
+  </si>
+  <si>
+    <t>2028-03-18</t>
+  </si>
+  <si>
+    <t>2028-05-18</t>
+  </si>
+  <si>
+    <t>2028-07-18</t>
+  </si>
+  <si>
+    <t>2028-11-18</t>
+  </si>
+  <si>
+    <t>2030-11-18</t>
   </si>
 </sst>
 </file>
@@ -2102,7 +2102,7 @@
         <v>111</v>
       </c>
       <c r="B111" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="112" spans="1:2">
@@ -2126,7 +2126,7 @@
         <v>114</v>
       </c>
       <c r="B114" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="115" spans="1:2">
@@ -2134,7 +2134,7 @@
         <v>115</v>
       </c>
       <c r="B115" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="116" spans="1:2">
@@ -2142,7 +2142,7 @@
         <v>116</v>
       </c>
       <c r="B116" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="117" spans="1:2">
@@ -2150,7 +2150,7 @@
         <v>117</v>
       </c>
       <c r="B117" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="118" spans="1:2">
@@ -2206,7 +2206,7 @@
         <v>124</v>
       </c>
       <c r="B124" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="125" spans="1:2">

--- a/lothiancriticalcare/1a74f8f7b8b7e871b413c4697f68b4401fbacdf0/reviewdates.xlsx
+++ b/lothiancriticalcare/1a74f8f7b8b7e871b413c4697f68b4401fbacdf0/reviewdates.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="280">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="279">
   <si>
     <t>File</t>
   </si>
@@ -82,12 +82,12 @@
     <t>Breathing(Respiratory)/salbutamol and ipratroprium MDI.pdf</t>
   </si>
   <si>
+    <t>Airway/Tracheostomy_Laryngectomy/Tracheostomy change in Critical Care.pdf</t>
+  </si>
+  <si>
     <t>Airway/Tracheostomy_Laryngectomy/Tracheostomy suctioning cleaning guideline.pdf</t>
   </si>
   <si>
-    <t>Airway/Tracheostomy_Laryngectomy/Tracheostomy change in Critical Care.pdf</t>
-  </si>
-  <si>
     <t>Neurological/SOP -  Femoral site care.pdf</t>
   </si>
   <si>
@@ -100,6 +100,9 @@
     <t>Post_op_care/Epidural top-up.pdf</t>
   </si>
   <si>
+    <t>Airway/Emergency intubation checklist_em_pub.pdf</t>
+  </si>
+  <si>
     <t>Covid-19/SJH/SJH COVID19 ED Intubation Action Card.pdf</t>
   </si>
   <si>
@@ -112,9 +115,6 @@
     <t>Diabetes_and_Glucose/Hyperosmolar Hyperglycaemic State.pdf</t>
   </si>
   <si>
-    <t>Airway/Emergency intubation checklist_em_pub.pdf</t>
-  </si>
-  <si>
     <t>Covid-19/WGH/CoVid intubation checklist WGH.pdf</t>
   </si>
   <si>
@@ -136,42 +136,39 @@
     <t>Airway/Percutaneous tracheostomy checklist.pdf</t>
   </si>
   <si>
-    <t>Delirium/Managing a Potentially Violent Patient.pdf</t>
-  </si>
-  <si>
     <t>Delirium/Risk assessment posi mit.pdf</t>
   </si>
   <si>
     <t>Infection_and_sepsis/SOP Ultrasound Cleaning.pdf</t>
   </si>
   <si>
+    <t>Drugs/ketamine_in_asthma.pdf</t>
+  </si>
+  <si>
+    <t>GI_Liver_and_Transplant/Abdominal pressure measurement.pdf</t>
+  </si>
+  <si>
+    <t>Airway/McGrath Mac.pdf</t>
+  </si>
+  <si>
+    <t>Airway/Anticipated difficult airway tool.pdf</t>
+  </si>
+  <si>
+    <t>GI_Liver_and_Transplant/Treatment of constipation.pdf</t>
+  </si>
+  <si>
     <t>Neurological/Sub arachnoid haemorrhage management.pdf</t>
   </si>
   <si>
-    <t>Drugs/ketamine_in_asthma.pdf</t>
+    <t>Airway/Tracheostomy_Laryngectomy/Tracheostomy safety box contents.pdf</t>
+  </si>
+  <si>
+    <t>Delirium/Drugs Causing Delirium and Agitiation.pdf</t>
   </si>
   <si>
     <t>Breathing(Respiratory)/HFNO.pdf</t>
   </si>
   <si>
-    <t>Delirium/Drugs Causing Delirium and Agitiation.pdf</t>
-  </si>
-  <si>
-    <t>GI_Liver_and_Transplant/Abdominal pressure measurement.pdf</t>
-  </si>
-  <si>
-    <t>Airway/Tracheostomy_Laryngectomy/Tracheostomy safety box contents.pdf</t>
-  </si>
-  <si>
-    <t>GI_Liver_and_Transplant/Treatment of constipation.pdf</t>
-  </si>
-  <si>
-    <t>Airway/Anticipated difficult airway tool.pdf</t>
-  </si>
-  <si>
-    <t>Airway/McGrath Mac.pdf</t>
-  </si>
-  <si>
     <t>End_of_life_care/Documentation following death.pdf</t>
   </si>
   <si>
@@ -226,42 +223,42 @@
     <t>GI_Liver_and_Transplant/Nasogastric feeding protocol.pdf</t>
   </si>
   <si>
+    <t>Drugs/Antibiotic doses in CVVHD.pdf</t>
+  </si>
+  <si>
     <t>Diabetes_and_Glucose/Intravenous Insulin Therapy (not for DKA or HHS).pdf</t>
   </si>
   <si>
-    <t>Drugs/Antibiotic doses in CVVHD.pdf</t>
-  </si>
-  <si>
     <t>GI_Liver_and_Transplant/Nasojejunal feeding protocol.pdf</t>
   </si>
   <si>
+    <t>ECLS/RIE ECLS Anti Xa Protocol.pdf</t>
+  </si>
+  <si>
     <t>GI_Liver_and_Transplant/Jejunostomy feeding protocol.pdf</t>
   </si>
   <si>
-    <t>ECLS/RIE ECLS Anti Xa Protocol.pdf</t>
+    <t>Drugs/vasopressin_sepsis.pdf</t>
+  </si>
+  <si>
+    <t>Drugs/vasopressin organ donation.pdf</t>
   </si>
   <si>
     <t>Infection_and_sepsis/Winter Infections Stepdown Guidance.pdf</t>
   </si>
   <si>
-    <t>Drugs/vasopressin organ donation.pdf</t>
-  </si>
-  <si>
-    <t>Drugs/vasopressin_sepsis.pdf</t>
-  </si>
-  <si>
     <t>Transfer/ACCP Transfers.pdf</t>
   </si>
   <si>
     <t>Covid-19/videos/Donning and Doffing Video.pdf</t>
   </si>
   <si>
+    <t>Breathing(Respiratory)/Equipment/Ventilators Circuits Filters and Closed Suction - Set up and Maintenance.pdf</t>
+  </si>
+  <si>
     <t>Infection_and_sepsis/Infection indications for IVIG.pdf</t>
   </si>
   <si>
-    <t>Breathing(Respiratory)/Equipment/Ventilators Circuits Filters and Closed Suction - Set up and Maintenance.pdf</t>
-  </si>
-  <si>
     <t>Drugs/piperacillin_tazobactam extended_infusion.pdf</t>
   </si>
   <si>
@@ -283,66 +280,66 @@
     <t>Haematology_CAR-T/Haem_ICU_transfer.pdf</t>
   </si>
   <si>
+    <t>Cardiovascular/Management of hypertension within Critical Care.pdf</t>
+  </si>
+  <si>
     <t>Drugs/aminophylline.pdf</t>
   </si>
   <si>
-    <t>Cardiovascular/Management of hypertension within Critical Care.pdf</t>
+    <t>Haematology_CAR-T/ICANS.pdf</t>
+  </si>
+  <si>
+    <t>Drugs/rocuronium.pdf</t>
+  </si>
+  <si>
+    <t>Drugs/phenytoin.pdf</t>
+  </si>
+  <si>
+    <t>Drugs/pancuronium.pdf</t>
   </si>
   <si>
     <t>Haematology_CAR-T/Cytokine Release Syndrome.pdf</t>
   </si>
   <si>
-    <t>Drugs/pancuronium.pdf</t>
-  </si>
-  <si>
-    <t>Drugs/phenytoin.pdf</t>
-  </si>
-  <si>
-    <t>Drugs/rocuronium.pdf</t>
-  </si>
-  <si>
-    <t>Haematology_CAR-T/ICANS.pdf</t>
-  </si>
-  <si>
     <t>Drugs/milrinone.pdf</t>
   </si>
   <si>
     <t>Policies_and_admin/General Critical Care SOP_pub.pdf</t>
   </si>
   <si>
+    <t>Ethics_and_Law/DNACPR policy for Scotland.pdf</t>
+  </si>
+  <si>
+    <t>Drugs/clonidine.pdf</t>
+  </si>
+  <si>
+    <t>GI_Liver_and_Transplant/ICU - Upper GI bleeding (Endoscopy guideline).pdf</t>
+  </si>
+  <si>
+    <t>Ethics_and_Law/Care at the End of Life (FICM).pdf</t>
+  </si>
+  <si>
+    <t>End_of_life_care/Palliative extubation &amp; withdrawal of invasive ventilatory support nursing checklist.pdf</t>
+  </si>
+  <si>
     <t>Covid-19/COVID 19 ICM guidance basic goals_June_2022.pdf</t>
   </si>
   <si>
+    <t>Organ_donation/Organ Retrieval SOP.pdf</t>
+  </si>
+  <si>
+    <t>Neurological/Management of traumatic brain injury.pdf</t>
+  </si>
+  <si>
+    <t>Infection_and_sepsis/Trip Out of Unit infection guidance.pdf</t>
+  </si>
+  <si>
+    <t>Neurological/Critical Care MRI Procedure_pub.pdf</t>
+  </si>
+  <si>
     <t>End_of_life_care/CMO &amp; NRS Guidance for Doctors completing MCCD.pdf</t>
   </si>
   <si>
-    <t>Ethics_and_Law/Care at the End of Life (FICM).pdf</t>
-  </si>
-  <si>
-    <t>GI_Liver_and_Transplant/ICU - Upper GI bleeding (Endoscopy guideline).pdf</t>
-  </si>
-  <si>
-    <t>Organ_donation/Organ Retrieval SOP.pdf</t>
-  </si>
-  <si>
-    <t>End_of_life_care/Palliative extubation &amp; withdrawal of invasive ventilatory support nursing checklist.pdf</t>
-  </si>
-  <si>
-    <t>Infection_and_sepsis/Trip Out of Unit infection guidance.pdf</t>
-  </si>
-  <si>
-    <t>Drugs/clonidine.pdf</t>
-  </si>
-  <si>
-    <t>Neurological/Management of traumatic brain injury.pdf</t>
-  </si>
-  <si>
-    <t>Neurological/Critical Care MRI Procedure_pub.pdf</t>
-  </si>
-  <si>
-    <t>Ethics_and_Law/DNACPR policy for Scotland.pdf</t>
-  </si>
-  <si>
     <t>Airway/Cook Staged Extubation Set.pdf</t>
   </si>
   <si>
@@ -355,18 +352,18 @@
     <t>Post_op_care/Epidural hypotension.pdf</t>
   </si>
   <si>
+    <t>GI_Liver_and_Transplant/Confirmation of Nasogastric Tube Position.pdf</t>
+  </si>
+  <si>
     <t>GI_Liver_and_Transplant/Fulminant Liver Failure.pdf</t>
   </si>
   <si>
-    <t>GI_Liver_and_Transplant/Confirmation of Nasogastric Tube Position.pdf</t>
+    <t>Drugs/glyceryl_trinitrate.pdf</t>
   </si>
   <si>
     <t>Drugs/dexmedetomidine.pdf</t>
   </si>
   <si>
-    <t>Drugs/glyceryl_trinitrate.pdf</t>
-  </si>
-  <si>
     <t>Breathing(Respiratory)/Equipment/Passy Muir Valve.pdf</t>
   </si>
   <si>
@@ -379,12 +376,12 @@
     <t>Transfer/Transfer Outdoors to Garden Guideline.pdf</t>
   </si>
   <si>
+    <t>Cardiovascular/Intra Aortic Balloon Pump Guideline_pub.pdf</t>
+  </si>
+  <si>
     <t>Cardiovascular/Intra Aortic Balloon Pump Bedside Checks_pub.pdf</t>
   </si>
   <si>
-    <t>Cardiovascular/Intra Aortic Balloon Pump Guideline_pub.pdf</t>
-  </si>
-  <si>
     <t>Drugs/Dobutamine.pdf</t>
   </si>
   <si>
@@ -397,24 +394,24 @@
     <t>Post_op_care/Major OMFS Free Flap.pdf</t>
   </si>
   <si>
+    <t>Drugs/Alteplase for massive PE.pdf</t>
+  </si>
+  <si>
     <t>Drugs/alfentanil.pdf</t>
   </si>
   <si>
-    <t>Drugs/Alteplase for massive PE.pdf</t>
-  </si>
-  <si>
     <t>Drugs/magnesium.pdf</t>
   </si>
   <si>
+    <t>Drugs/neostigmine.pdf</t>
+  </si>
+  <si>
+    <t>Drugs/vancomycin.pdf</t>
+  </si>
+  <si>
     <t>Drugs/ICU - IV drug infusions.pdf</t>
   </si>
   <si>
-    <t>Drugs/neostigmine.pdf</t>
-  </si>
-  <si>
-    <t>Drugs/vancomycin.pdf</t>
-  </si>
-  <si>
     <t>Infection_and_sepsis/Initial investigation and management in unidentified Infections.pdf</t>
   </si>
   <si>
@@ -430,19 +427,22 @@
     <t>Drugs/midazolam.pdf</t>
   </si>
   <si>
+    <t>Trauma and Burns/Management of Severe Burns v1.6.pdf</t>
+  </si>
+  <si>
+    <t>Drugs/salbutamol.pdf</t>
+  </si>
+  <si>
+    <t>Drugs/potassium.pdf</t>
+  </si>
+  <si>
+    <t>Drugs/nimodipine.pdf</t>
+  </si>
+  <si>
     <t>Procedures/CVC Guidance/CVC NHL  April 2023.pdf</t>
   </si>
   <si>
-    <t>Trauma and Burns/Management of Severe Burns v1.6.pdf</t>
-  </si>
-  <si>
-    <t>Drugs/salbutamol.pdf</t>
-  </si>
-  <si>
-    <t>Drugs/nimodipine.pdf</t>
-  </si>
-  <si>
-    <t>Drugs/potassium.pdf</t>
+    <t>Procedures/Arterial Line insertion for ACCPs.pdf</t>
   </si>
   <si>
     <t>Drugs/phenobarbitone.pdf</t>
@@ -451,60 +451,57 @@
     <t>Drugs/nicardipine.pdf</t>
   </si>
   <si>
+    <t>Routine_Care/ICU Eye Care Guideline.pdf</t>
+  </si>
+  <si>
     <t>Drugs/amiodarone.pdf</t>
   </si>
   <si>
-    <t>Procedures/Arterial Line insertion for ACCPs.pdf</t>
-  </si>
-  <si>
-    <t>Routine_Care/ICU Eye Care Guideline.pdf</t>
+    <t>Drugs/morphine.pdf</t>
+  </si>
+  <si>
+    <t>Breathing(Respiratory)/Manual Ventilation and MHI.pdf</t>
   </si>
   <si>
     <t>Neurological/Ventriculitis Guideline.pdf</t>
   </si>
   <si>
-    <t>Drugs/morphine.pdf</t>
-  </si>
-  <si>
-    <t>Breathing(Respiratory)/Manual Ventilation and MHI.pdf</t>
-  </si>
-  <si>
     <t>Drugs/phenylephrine.pdf</t>
   </si>
   <si>
     <t>Drugs/Epoprostenol.pdf</t>
   </si>
   <si>
+    <t>Drugs/calcium.pdf</t>
+  </si>
+  <si>
+    <t>Cardiovascular/Cardiac Output Monitoring_pub .pdf</t>
+  </si>
+  <si>
     <t>Cardiovascular/Pulmonary_Embolism_and_DVT/Catheter directed thrombolysis of iliofemoral DVT alteplase_pub.pdf</t>
   </si>
   <si>
-    <t>Cardiovascular/Cardiac Output Monitoring_pub .pdf</t>
-  </si>
-  <si>
-    <t>Drugs/calcium.pdf</t>
+    <t>Drugs/dalteparin_thromboprophylaxis.pdf</t>
+  </si>
+  <si>
+    <t>Airway/Tracheostomy_Laryngectomy/Decannulation Guidline.pdf</t>
+  </si>
+  <si>
+    <t>Drugs/Vancomycin Continuous Infusion Fluid Restricted.pdf</t>
   </si>
   <si>
     <t>Drugs/atracurium.pdf</t>
   </si>
   <si>
-    <t>Drugs/Vancomycin Continuous Infusion Fluid Restricted.pdf</t>
-  </si>
-  <si>
-    <t>Airway/Tracheostomy_Laryngectomy/Decannulation Guidline.pdf</t>
-  </si>
-  <si>
-    <t>Drugs/dalteparin_thromboprophylaxis.pdf</t>
+    <t>Policies_and_admin/Pet Visitation.pdf</t>
+  </si>
+  <si>
+    <t>Procedures/Inadvertent Catheter Placement Guideline.pdf</t>
   </si>
   <si>
     <t>Drugs/valproate.pdf</t>
   </si>
   <si>
-    <t>Procedures/Inadvertent Catheter Placement Guideline.pdf</t>
-  </si>
-  <si>
-    <t>Policies_and_admin/Pet Visitation.pdf</t>
-  </si>
-  <si>
     <t>Drugs/Phosphate.pdf</t>
   </si>
   <si>
@@ -514,16 +511,16 @@
     <t>Drugs/ketamine_for_status epilepticus.pdf</t>
   </si>
   <si>
+    <t>Neurological/Status epilepticus.pdf</t>
+  </si>
+  <si>
+    <t>GI_Liver_and_Transplant/Prokinetics in ICU.pdf</t>
+  </si>
+  <si>
+    <t>Drugs/Octreotide.pdf</t>
+  </si>
+  <si>
     <t>Breathing(Respiratory)/Proning Guideline.pdf</t>
-  </si>
-  <si>
-    <t>Neurological/Status epilepticus.pdf</t>
-  </si>
-  <si>
-    <t>Drugs/Octreotide.pdf</t>
-  </si>
-  <si>
-    <t>GI_Liver_and_Transplant/Prokinetics in ICU.pdf</t>
   </si>
   <si>
     <t>Drugs/Thiopentone.pdf</t>
@@ -1211,7 +1208,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B186"/>
+  <dimension ref="A1:B185"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1230,7 +1227,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -1238,7 +1235,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -1246,7 +1243,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -1254,7 +1251,7 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -1262,7 +1259,7 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -1270,7 +1267,7 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -1278,7 +1275,7 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -1286,7 +1283,7 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -1294,7 +1291,7 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -1302,7 +1299,7 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -1310,7 +1307,7 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -1318,7 +1315,7 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -1326,7 +1323,7 @@
         <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -1334,7 +1331,7 @@
         <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -1342,7 +1339,7 @@
         <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -1350,7 +1347,7 @@
         <v>17</v>
       </c>
       <c r="B17" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -1358,7 +1355,7 @@
         <v>18</v>
       </c>
       <c r="B18" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -1366,7 +1363,7 @@
         <v>19</v>
       </c>
       <c r="B19" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -1374,7 +1371,7 @@
         <v>20</v>
       </c>
       <c r="B20" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -1382,7 +1379,7 @@
         <v>21</v>
       </c>
       <c r="B21" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -1390,7 +1387,7 @@
         <v>22</v>
       </c>
       <c r="B22" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -1398,7 +1395,7 @@
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -1406,7 +1403,7 @@
         <v>24</v>
       </c>
       <c r="B24" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -1414,7 +1411,7 @@
         <v>25</v>
       </c>
       <c r="B25" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -1422,7 +1419,7 @@
         <v>26</v>
       </c>
       <c r="B26" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -1430,7 +1427,7 @@
         <v>27</v>
       </c>
       <c r="B27" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -1438,7 +1435,7 @@
         <v>28</v>
       </c>
       <c r="B28" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -1446,7 +1443,7 @@
         <v>29</v>
       </c>
       <c r="B29" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -1454,7 +1451,7 @@
         <v>30</v>
       </c>
       <c r="B30" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -1462,7 +1459,7 @@
         <v>31</v>
       </c>
       <c r="B31" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -1470,7 +1467,7 @@
         <v>32</v>
       </c>
       <c r="B32" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -1478,7 +1475,7 @@
         <v>33</v>
       </c>
       <c r="B33" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -1486,7 +1483,7 @@
         <v>34</v>
       </c>
       <c r="B34" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -1494,7 +1491,7 @@
         <v>35</v>
       </c>
       <c r="B35" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -1502,7 +1499,7 @@
         <v>36</v>
       </c>
       <c r="B36" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -1510,7 +1507,7 @@
         <v>37</v>
       </c>
       <c r="B37" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -1518,7 +1515,7 @@
         <v>38</v>
       </c>
       <c r="B38" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -1526,7 +1523,7 @@
         <v>39</v>
       </c>
       <c r="B39" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -1534,7 +1531,7 @@
         <v>40</v>
       </c>
       <c r="B40" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -1542,7 +1539,7 @@
         <v>41</v>
       </c>
       <c r="B41" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -1558,7 +1555,7 @@
         <v>43</v>
       </c>
       <c r="B43" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -1566,7 +1563,7 @@
         <v>44</v>
       </c>
       <c r="B44" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -1574,7 +1571,7 @@
         <v>45</v>
       </c>
       <c r="B45" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -1582,7 +1579,7 @@
         <v>46</v>
       </c>
       <c r="B46" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -1590,7 +1587,7 @@
         <v>47</v>
       </c>
       <c r="B47" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -1598,7 +1595,7 @@
         <v>48</v>
       </c>
       <c r="B48" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -1606,7 +1603,7 @@
         <v>49</v>
       </c>
       <c r="B49" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -1614,7 +1611,7 @@
         <v>50</v>
       </c>
       <c r="B50" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -1654,7 +1651,7 @@
         <v>55</v>
       </c>
       <c r="B55" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="56" spans="1:2">
@@ -1678,7 +1675,7 @@
         <v>58</v>
       </c>
       <c r="B58" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="59" spans="1:2">
@@ -1694,7 +1691,7 @@
         <v>60</v>
       </c>
       <c r="B60" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="61" spans="1:2">
@@ -1702,7 +1699,7 @@
         <v>61</v>
       </c>
       <c r="B61" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="62" spans="1:2">
@@ -1742,7 +1739,7 @@
         <v>66</v>
       </c>
       <c r="B66" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="67" spans="1:2">
@@ -1774,7 +1771,7 @@
         <v>70</v>
       </c>
       <c r="B70" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="71" spans="1:2">
@@ -1790,7 +1787,7 @@
         <v>72</v>
       </c>
       <c r="B72" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="73" spans="1:2">
@@ -1798,7 +1795,7 @@
         <v>73</v>
       </c>
       <c r="B73" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="74" spans="1:2">
@@ -1814,7 +1811,7 @@
         <v>75</v>
       </c>
       <c r="B75" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="76" spans="1:2">
@@ -1822,7 +1819,7 @@
         <v>76</v>
       </c>
       <c r="B76" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="77" spans="1:2">
@@ -1838,7 +1835,7 @@
         <v>78</v>
       </c>
       <c r="B78" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="79" spans="1:2">
@@ -1854,7 +1851,7 @@
         <v>80</v>
       </c>
       <c r="B80" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="81" spans="1:2">
@@ -1862,7 +1859,7 @@
         <v>81</v>
       </c>
       <c r="B81" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="82" spans="1:2">
@@ -1878,7 +1875,7 @@
         <v>83</v>
       </c>
       <c r="B83" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="84" spans="1:2">
@@ -1902,7 +1899,7 @@
         <v>86</v>
       </c>
       <c r="B86" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="87" spans="1:2">
@@ -1926,7 +1923,7 @@
         <v>89</v>
       </c>
       <c r="B89" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="90" spans="1:2">
@@ -1942,7 +1939,7 @@
         <v>91</v>
       </c>
       <c r="B91" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="92" spans="1:2">
@@ -1950,7 +1947,7 @@
         <v>92</v>
       </c>
       <c r="B92" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="93" spans="1:2">
@@ -1958,7 +1955,7 @@
         <v>93</v>
       </c>
       <c r="B93" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="94" spans="1:2">
@@ -1966,7 +1963,7 @@
         <v>94</v>
       </c>
       <c r="B94" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="95" spans="1:2">
@@ -1982,7 +1979,7 @@
         <v>96</v>
       </c>
       <c r="B96" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="97" spans="1:2">
@@ -1998,7 +1995,7 @@
         <v>98</v>
       </c>
       <c r="B98" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="99" spans="1:2">
@@ -2006,7 +2003,7 @@
         <v>99</v>
       </c>
       <c r="B99" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="100" spans="1:2">
@@ -2014,7 +2011,7 @@
         <v>100</v>
       </c>
       <c r="B100" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="101" spans="1:2">
@@ -2022,7 +2019,7 @@
         <v>101</v>
       </c>
       <c r="B101" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="102" spans="1:2">
@@ -2030,7 +2027,7 @@
         <v>102</v>
       </c>
       <c r="B102" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="103" spans="1:2">
@@ -2038,7 +2035,7 @@
         <v>103</v>
       </c>
       <c r="B103" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="104" spans="1:2">
@@ -2046,7 +2043,7 @@
         <v>104</v>
       </c>
       <c r="B104" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="105" spans="1:2">
@@ -2054,7 +2051,7 @@
         <v>105</v>
       </c>
       <c r="B105" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="106" spans="1:2">
@@ -2062,7 +2059,7 @@
         <v>106</v>
       </c>
       <c r="B106" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="107" spans="1:2">
@@ -2070,7 +2067,7 @@
         <v>107</v>
       </c>
       <c r="B107" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="108" spans="1:2">
@@ -2094,7 +2091,7 @@
         <v>110</v>
       </c>
       <c r="B110" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="111" spans="1:2">
@@ -2118,7 +2115,7 @@
         <v>113</v>
       </c>
       <c r="B113" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="114" spans="1:2">
@@ -2126,7 +2123,7 @@
         <v>114</v>
       </c>
       <c r="B114" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="115" spans="1:2">
@@ -2134,7 +2131,7 @@
         <v>115</v>
       </c>
       <c r="B115" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="116" spans="1:2">
@@ -2142,7 +2139,7 @@
         <v>116</v>
       </c>
       <c r="B116" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="117" spans="1:2">
@@ -2174,7 +2171,7 @@
         <v>120</v>
       </c>
       <c r="B120" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="121" spans="1:2">
@@ -2182,7 +2179,7 @@
         <v>121</v>
       </c>
       <c r="B121" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="122" spans="1:2">
@@ -2198,7 +2195,7 @@
         <v>123</v>
       </c>
       <c r="B123" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="124" spans="1:2">
@@ -2230,7 +2227,7 @@
         <v>127</v>
       </c>
       <c r="B127" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="128" spans="1:2">
@@ -2254,7 +2251,7 @@
         <v>130</v>
       </c>
       <c r="B130" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="131" spans="1:2">
@@ -2262,7 +2259,7 @@
         <v>131</v>
       </c>
       <c r="B131" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="132" spans="1:2">
@@ -2278,7 +2275,7 @@
         <v>133</v>
       </c>
       <c r="B133" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="134" spans="1:2">
@@ -2286,7 +2283,7 @@
         <v>134</v>
       </c>
       <c r="B134" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="135" spans="1:2">
@@ -2302,7 +2299,7 @@
         <v>136</v>
       </c>
       <c r="B136" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="137" spans="1:2">
@@ -2318,7 +2315,7 @@
         <v>138</v>
       </c>
       <c r="B138" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="139" spans="1:2">
@@ -2326,7 +2323,7 @@
         <v>139</v>
       </c>
       <c r="B139" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="140" spans="1:2">
@@ -2334,7 +2331,7 @@
         <v>140</v>
       </c>
       <c r="B140" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="141" spans="1:2">
@@ -2342,7 +2339,7 @@
         <v>141</v>
       </c>
       <c r="B141" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="142" spans="1:2">
@@ -2358,7 +2355,7 @@
         <v>143</v>
       </c>
       <c r="B143" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="144" spans="1:2">
@@ -2366,7 +2363,7 @@
         <v>144</v>
       </c>
       <c r="B144" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="145" spans="1:2">
@@ -2374,7 +2371,7 @@
         <v>145</v>
       </c>
       <c r="B145" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="146" spans="1:2">
@@ -2382,7 +2379,7 @@
         <v>146</v>
       </c>
       <c r="B146" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="147" spans="1:2">
@@ -2398,7 +2395,7 @@
         <v>148</v>
       </c>
       <c r="B148" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="149" spans="1:2">
@@ -2406,7 +2403,7 @@
         <v>149</v>
       </c>
       <c r="B149" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="150" spans="1:2">
@@ -2414,7 +2411,7 @@
         <v>150</v>
       </c>
       <c r="B150" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="151" spans="1:2">
@@ -2422,7 +2419,7 @@
         <v>151</v>
       </c>
       <c r="B151" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="152" spans="1:2">
@@ -2438,7 +2435,7 @@
         <v>153</v>
       </c>
       <c r="B153" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="154" spans="1:2">
@@ -2446,7 +2443,7 @@
         <v>154</v>
       </c>
       <c r="B154" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="155" spans="1:2">
@@ -2462,7 +2459,7 @@
         <v>156</v>
       </c>
       <c r="B156" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="157" spans="1:2">
@@ -2470,7 +2467,7 @@
         <v>157</v>
       </c>
       <c r="B157" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="158" spans="1:2">
@@ -2478,7 +2475,7 @@
         <v>158</v>
       </c>
       <c r="B158" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="159" spans="1:2">
@@ -2494,7 +2491,7 @@
         <v>160</v>
       </c>
       <c r="B160" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="161" spans="1:2">
@@ -2502,7 +2499,7 @@
         <v>161</v>
       </c>
       <c r="B161" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="162" spans="1:2">
@@ -2518,7 +2515,7 @@
         <v>163</v>
       </c>
       <c r="B163" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="164" spans="1:2">
@@ -2526,7 +2523,7 @@
         <v>164</v>
       </c>
       <c r="B164" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="165" spans="1:2">
@@ -2542,7 +2539,7 @@
         <v>166</v>
       </c>
       <c r="B166" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="167" spans="1:2">
@@ -2550,7 +2547,7 @@
         <v>167</v>
       </c>
       <c r="B167" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="168" spans="1:2">
@@ -2558,7 +2555,7 @@
         <v>168</v>
       </c>
       <c r="B168" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="169" spans="1:2">
@@ -2566,7 +2563,7 @@
         <v>169</v>
       </c>
       <c r="B169" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="170" spans="1:2">
@@ -2582,7 +2579,7 @@
         <v>171</v>
       </c>
       <c r="B171" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="172" spans="1:2">
@@ -2590,7 +2587,7 @@
         <v>172</v>
       </c>
       <c r="B172" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="173" spans="1:2">
@@ -2662,7 +2659,7 @@
         <v>181</v>
       </c>
       <c r="B181" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="182" spans="1:2">
@@ -2695,14 +2692,6 @@
       </c>
       <c r="B185" t="s">
         <v>278</v>
-      </c>
-    </row>
-    <row r="186" spans="1:2">
-      <c r="A186" t="s">
-        <v>186</v>
-      </c>
-      <c r="B186" t="s">
-        <v>279</v>
       </c>
     </row>
   </sheetData>

--- a/lothiancriticalcare/1a74f8f7b8b7e871b413c4697f68b4401fbacdf0/reviewdates.xlsx
+++ b/lothiancriticalcare/1a74f8f7b8b7e871b413c4697f68b4401fbacdf0/reviewdates.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="279">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="278">
   <si>
     <t>File</t>
   </si>
@@ -109,15 +109,15 @@
     <t>Covid-19/SJH/SJH COVID19 ITU Intubation Action Card.pdf</t>
   </si>
   <si>
+    <t>Covid-19/WGH/CoVid intubation checklist WGH.pdf</t>
+  </si>
+  <si>
     <t>Drugs/heparin for Haemofiltration.pdf</t>
   </si>
   <si>
     <t>Diabetes_and_Glucose/Hyperosmolar Hyperglycaemic State.pdf</t>
   </si>
   <si>
-    <t>Covid-19/WGH/CoVid intubation checklist WGH.pdf</t>
-  </si>
-  <si>
     <t>Drugs/fentanyl.pdf</t>
   </si>
   <si>
@@ -163,9 +163,6 @@
     <t>Airway/Tracheostomy_Laryngectomy/Tracheostomy safety box contents.pdf</t>
   </si>
   <si>
-    <t>Delirium/Drugs Causing Delirium and Agitiation.pdf</t>
-  </si>
-  <si>
     <t>Breathing(Respiratory)/HFNO.pdf</t>
   </si>
   <si>
@@ -178,12 +175,12 @@
     <t>Routine_Care/bBraun Spaceplus Failure EMERGENCY ACTION CARD_em.pdf</t>
   </si>
   <si>
+    <t>Breathing(Respiratory)/Equipment/HFNO Set Up.pdf</t>
+  </si>
+  <si>
     <t>Drugs/insulin.pdf</t>
   </si>
   <si>
-    <t>Breathing(Respiratory)/Equipment/HFNO Set Up.pdf</t>
-  </si>
-  <si>
     <t>Breathing(Respiratory)/Inhaled Nitrous Oxide.pdf</t>
   </si>
   <si>
@@ -211,39 +208,39 @@
     <t>Breathing(Respiratory)/Equipment/HFNO through ventilator.pdf</t>
   </si>
   <si>
+    <t>Post_op_care/Adult Scoliosis Spinal Surgery Post-Op Care.pdf</t>
+  </si>
+  <si>
     <t>Routine_Care/VTE_Prevention/Dalteparin_thromboprophylaxis.pdf</t>
   </si>
   <si>
-    <t>Post_op_care/Adult Scoliosis Spinal Surgery Post-Op Care.pdf</t>
-  </si>
-  <si>
     <t>Post_op_care/Post op care pharyngo-laryngo-oesphagectomy PLOG.pdf</t>
   </si>
   <si>
     <t>GI_Liver_and_Transplant/Nasogastric feeding protocol.pdf</t>
   </si>
   <si>
+    <t>Diabetes_and_Glucose/Intravenous Insulin Therapy (not for DKA or HHS).pdf</t>
+  </si>
+  <si>
     <t>Drugs/Antibiotic doses in CVVHD.pdf</t>
   </si>
   <si>
-    <t>Diabetes_and_Glucose/Intravenous Insulin Therapy (not for DKA or HHS).pdf</t>
+    <t>GI_Liver_and_Transplant/Jejunostomy feeding protocol.pdf</t>
+  </si>
+  <si>
+    <t>ECLS/RIE ECLS Anti Xa Protocol.pdf</t>
   </si>
   <si>
     <t>GI_Liver_and_Transplant/Nasojejunal feeding protocol.pdf</t>
   </si>
   <si>
-    <t>ECLS/RIE ECLS Anti Xa Protocol.pdf</t>
-  </si>
-  <si>
-    <t>GI_Liver_and_Transplant/Jejunostomy feeding protocol.pdf</t>
+    <t>Drugs/vasopressin organ donation.pdf</t>
   </si>
   <si>
     <t>Drugs/vasopressin_sepsis.pdf</t>
   </si>
   <si>
-    <t>Drugs/vasopressin organ donation.pdf</t>
-  </si>
-  <si>
     <t>Infection_and_sepsis/Winter Infections Stepdown Guidance.pdf</t>
   </si>
   <si>
@@ -256,12 +253,12 @@
     <t>Breathing(Respiratory)/Equipment/Ventilators Circuits Filters and Closed Suction - Set up and Maintenance.pdf</t>
   </si>
   <si>
+    <t>Drugs/piperacillin_tazobactam extended_infusion.pdf</t>
+  </si>
+  <si>
     <t>Infection_and_sepsis/Infection indications for IVIG.pdf</t>
   </si>
   <si>
-    <t>Drugs/piperacillin_tazobactam extended_infusion.pdf</t>
-  </si>
-  <si>
     <t>Covid-19/Covid 19 Death Certification Guideline.pdf</t>
   </si>
   <si>
@@ -280,66 +277,66 @@
     <t>Haematology_CAR-T/Haem_ICU_transfer.pdf</t>
   </si>
   <si>
+    <t>Drugs/aminophylline.pdf</t>
+  </si>
+  <si>
     <t>Cardiovascular/Management of hypertension within Critical Care.pdf</t>
   </si>
   <si>
-    <t>Drugs/aminophylline.pdf</t>
-  </si>
-  <si>
     <t>Haematology_CAR-T/ICANS.pdf</t>
   </si>
   <si>
+    <t>Haematology_CAR-T/Cytokine Release Syndrome.pdf</t>
+  </si>
+  <si>
+    <t>Drugs/pancuronium.pdf</t>
+  </si>
+  <si>
     <t>Drugs/rocuronium.pdf</t>
   </si>
   <si>
     <t>Drugs/phenytoin.pdf</t>
   </si>
   <si>
-    <t>Drugs/pancuronium.pdf</t>
-  </si>
-  <si>
-    <t>Haematology_CAR-T/Cytokine Release Syndrome.pdf</t>
-  </si>
-  <si>
     <t>Drugs/milrinone.pdf</t>
   </si>
   <si>
     <t>Policies_and_admin/General Critical Care SOP_pub.pdf</t>
   </si>
   <si>
+    <t>Ethics_and_Law/Care at the End of Life (FICM).pdf</t>
+  </si>
+  <si>
     <t>Ethics_and_Law/DNACPR policy for Scotland.pdf</t>
   </si>
   <si>
+    <t>Neurological/Critical Care MRI Procedure_pub.pdf</t>
+  </si>
+  <si>
+    <t>End_of_life_care/CMO &amp; NRS Guidance for Doctors completing MCCD.pdf</t>
+  </si>
+  <si>
     <t>Drugs/clonidine.pdf</t>
   </si>
   <si>
+    <t>Covid-19/COVID 19 ICM guidance basic goals_June_2022.pdf</t>
+  </si>
+  <si>
+    <t>Organ_donation/Organ Retrieval SOP.pdf</t>
+  </si>
+  <si>
+    <t>Neurological/Management of traumatic brain injury.pdf</t>
+  </si>
+  <si>
+    <t>Infection_and_sepsis/Trip Out of Unit infection guidance.pdf</t>
+  </si>
+  <si>
     <t>GI_Liver_and_Transplant/ICU - Upper GI bleeding (Endoscopy guideline).pdf</t>
   </si>
   <si>
-    <t>Ethics_and_Law/Care at the End of Life (FICM).pdf</t>
-  </si>
-  <si>
     <t>End_of_life_care/Palliative extubation &amp; withdrawal of invasive ventilatory support nursing checklist.pdf</t>
   </si>
   <si>
-    <t>Covid-19/COVID 19 ICM guidance basic goals_June_2022.pdf</t>
-  </si>
-  <si>
-    <t>Organ_donation/Organ Retrieval SOP.pdf</t>
-  </si>
-  <si>
-    <t>Neurological/Management of traumatic brain injury.pdf</t>
-  </si>
-  <si>
-    <t>Infection_and_sepsis/Trip Out of Unit infection guidance.pdf</t>
-  </si>
-  <si>
-    <t>Neurological/Critical Care MRI Procedure_pub.pdf</t>
-  </si>
-  <si>
-    <t>End_of_life_care/CMO &amp; NRS Guidance for Doctors completing MCCD.pdf</t>
-  </si>
-  <si>
     <t>Airway/Cook Staged Extubation Set.pdf</t>
   </si>
   <si>
@@ -352,66 +349,66 @@
     <t>Post_op_care/Epidural hypotension.pdf</t>
   </si>
   <si>
+    <t>Breathing(Respiratory)/Equipment/Passy Muir Valve.pdf</t>
+  </si>
+  <si>
     <t>GI_Liver_and_Transplant/Confirmation of Nasogastric Tube Position.pdf</t>
   </si>
   <si>
     <t>GI_Liver_and_Transplant/Fulminant Liver Failure.pdf</t>
   </si>
   <si>
+    <t>Drugs/dexmedetomidine.pdf</t>
+  </si>
+  <si>
     <t>Drugs/glyceryl_trinitrate.pdf</t>
   </si>
   <si>
-    <t>Drugs/dexmedetomidine.pdf</t>
-  </si>
-  <si>
-    <t>Breathing(Respiratory)/Equipment/Passy Muir Valve.pdf</t>
-  </si>
-  <si>
     <t>Infection_and_sepsis/Antifungal guidance in critical care.pdf</t>
   </si>
   <si>
     <t>Breathing(Respiratory)/ARDS Strategy.pdf</t>
   </si>
   <si>
+    <t>Cardiovascular/Intra Aortic Balloon Pump Guideline_pub.pdf</t>
+  </si>
+  <si>
+    <t>Cardiovascular/Intra Aortic Balloon Pump Bedside Checks_pub.pdf</t>
+  </si>
+  <si>
     <t>Transfer/Transfer Outdoors to Garden Guideline.pdf</t>
   </si>
   <si>
-    <t>Cardiovascular/Intra Aortic Balloon Pump Guideline_pub.pdf</t>
-  </si>
-  <si>
-    <t>Cardiovascular/Intra Aortic Balloon Pump Bedside Checks_pub.pdf</t>
+    <t>Drugs/adrenaline.pdf</t>
   </si>
   <si>
     <t>Drugs/Dobutamine.pdf</t>
   </si>
   <si>
-    <t>Drugs/adrenaline.pdf</t>
-  </si>
-  <si>
     <t>Drugs/hydralazine.pdf</t>
   </si>
   <si>
     <t>Post_op_care/Major OMFS Free Flap.pdf</t>
   </si>
   <si>
+    <t>Drugs/alfentanil.pdf</t>
+  </si>
+  <si>
     <t>Drugs/Alteplase for massive PE.pdf</t>
   </si>
   <si>
-    <t>Drugs/alfentanil.pdf</t>
-  </si>
-  <si>
     <t>Drugs/magnesium.pdf</t>
   </si>
   <si>
+    <t>Drugs/ICU - IV drug infusions.pdf</t>
+  </si>
+  <si>
     <t>Drugs/neostigmine.pdf</t>
   </si>
   <si>
     <t>Drugs/vancomycin.pdf</t>
   </si>
   <si>
-    <t>Drugs/ICU - IV drug infusions.pdf</t>
-  </si>
-  <si>
     <t>Infection_and_sepsis/Initial investigation and management in unidentified Infections.pdf</t>
   </si>
   <si>
@@ -421,57 +418,57 @@
     <t>Drugs/labetalol.pdf</t>
   </si>
   <si>
+    <t>Drugs/midazolam.pdf</t>
+  </si>
+  <si>
     <t>Cardiovascular/Management of Acute Type B Aortic Dissection Guideline.pdf</t>
   </si>
   <si>
-    <t>Drugs/midazolam.pdf</t>
+    <t>Drugs/nimodipine.pdf</t>
+  </si>
+  <si>
+    <t>Drugs/salbutamol.pdf</t>
+  </si>
+  <si>
+    <t>Drugs/potassium.pdf</t>
   </si>
   <si>
     <t>Trauma and Burns/Management of Severe Burns v1.6.pdf</t>
   </si>
   <si>
-    <t>Drugs/salbutamol.pdf</t>
-  </si>
-  <si>
-    <t>Drugs/potassium.pdf</t>
-  </si>
-  <si>
-    <t>Drugs/nimodipine.pdf</t>
-  </si>
-  <si>
     <t>Procedures/CVC Guidance/CVC NHL  April 2023.pdf</t>
   </si>
   <si>
+    <t>Drugs/phenobarbitone.pdf</t>
+  </si>
+  <si>
+    <t>Drugs/amiodarone.pdf</t>
+  </si>
+  <si>
+    <t>Routine_Care/ICU Eye Care Guideline.pdf</t>
+  </si>
+  <si>
     <t>Procedures/Arterial Line insertion for ACCPs.pdf</t>
   </si>
   <si>
-    <t>Drugs/phenobarbitone.pdf</t>
-  </si>
-  <si>
     <t>Drugs/nicardipine.pdf</t>
   </si>
   <si>
-    <t>Routine_Care/ICU Eye Care Guideline.pdf</t>
-  </si>
-  <si>
-    <t>Drugs/amiodarone.pdf</t>
+    <t>Drugs/phenylephrine.pdf</t>
+  </si>
+  <si>
+    <t>Breathing(Respiratory)/Manual Ventilation and MHI.pdf</t>
   </si>
   <si>
     <t>Drugs/morphine.pdf</t>
   </si>
   <si>
-    <t>Breathing(Respiratory)/Manual Ventilation and MHI.pdf</t>
+    <t>Drugs/Epoprostenol.pdf</t>
   </si>
   <si>
     <t>Neurological/Ventriculitis Guideline.pdf</t>
   </si>
   <si>
-    <t>Drugs/phenylephrine.pdf</t>
-  </si>
-  <si>
-    <t>Drugs/Epoprostenol.pdf</t>
-  </si>
-  <si>
     <t>Drugs/calcium.pdf</t>
   </si>
   <si>
@@ -481,16 +478,19 @@
     <t>Cardiovascular/Pulmonary_Embolism_and_DVT/Catheter directed thrombolysis of iliofemoral DVT alteplase_pub.pdf</t>
   </si>
   <si>
+    <t>Drugs/atracurium.pdf</t>
+  </si>
+  <si>
+    <t>Drugs/Vancomycin Continuous Infusion Fluid Restricted.pdf</t>
+  </si>
+  <si>
+    <t>Airway/Tracheostomy_Laryngectomy/Decannulation Guidline.pdf</t>
+  </si>
+  <si>
     <t>Drugs/dalteparin_thromboprophylaxis.pdf</t>
   </si>
   <si>
-    <t>Airway/Tracheostomy_Laryngectomy/Decannulation Guidline.pdf</t>
-  </si>
-  <si>
-    <t>Drugs/Vancomycin Continuous Infusion Fluid Restricted.pdf</t>
-  </si>
-  <si>
-    <t>Drugs/atracurium.pdf</t>
+    <t>Drugs/valproate.pdf</t>
   </si>
   <si>
     <t>Policies_and_admin/Pet Visitation.pdf</t>
@@ -499,9 +499,6 @@
     <t>Procedures/Inadvertent Catheter Placement Guideline.pdf</t>
   </si>
   <si>
-    <t>Drugs/valproate.pdf</t>
-  </si>
-  <si>
     <t>Drugs/Phosphate.pdf</t>
   </si>
   <si>
@@ -511,25 +508,25 @@
     <t>Drugs/ketamine_for_status epilepticus.pdf</t>
   </si>
   <si>
+    <t>Breathing(Respiratory)/Proning Guideline.pdf</t>
+  </si>
+  <si>
+    <t>Drugs/Thiopentone.pdf</t>
+  </si>
+  <si>
     <t>Neurological/Status epilepticus.pdf</t>
   </si>
   <si>
+    <t>Drugs/Octreotide.pdf</t>
+  </si>
+  <si>
     <t>GI_Liver_and_Transplant/Prokinetics in ICU.pdf</t>
   </si>
   <si>
-    <t>Drugs/Octreotide.pdf</t>
-  </si>
-  <si>
-    <t>Breathing(Respiratory)/Proning Guideline.pdf</t>
-  </si>
-  <si>
-    <t>Drugs/Thiopentone.pdf</t>
+    <t>Procedures/ACCP CVC placement following completion of initial competencies.pdf</t>
   </si>
   <si>
     <t>Procedures/ACCPs acquiring initial CVC competencies.pdf</t>
-  </si>
-  <si>
-    <t>Procedures/ACCP CVC placement following completion of initial competencies.pdf</t>
   </si>
   <si>
     <t>Post_op_care/Prevention and treatment of paraplegia after major aortic procedures.pdf</t>
@@ -1208,7 +1205,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B185"/>
+  <dimension ref="A1:B184"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1227,7 +1224,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -1235,7 +1232,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -1243,7 +1240,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -1251,7 +1248,7 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -1259,7 +1256,7 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -1267,7 +1264,7 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -1275,7 +1272,7 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -1283,7 +1280,7 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -1291,7 +1288,7 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -1299,7 +1296,7 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -1307,7 +1304,7 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -1315,7 +1312,7 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -1323,7 +1320,7 @@
         <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -1331,7 +1328,7 @@
         <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -1339,7 +1336,7 @@
         <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -1347,7 +1344,7 @@
         <v>17</v>
       </c>
       <c r="B17" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -1355,7 +1352,7 @@
         <v>18</v>
       </c>
       <c r="B18" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -1363,7 +1360,7 @@
         <v>19</v>
       </c>
       <c r="B19" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -1371,7 +1368,7 @@
         <v>20</v>
       </c>
       <c r="B20" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -1379,7 +1376,7 @@
         <v>21</v>
       </c>
       <c r="B21" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -1387,7 +1384,7 @@
         <v>22</v>
       </c>
       <c r="B22" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -1395,7 +1392,7 @@
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -1403,7 +1400,7 @@
         <v>24</v>
       </c>
       <c r="B24" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -1411,7 +1408,7 @@
         <v>25</v>
       </c>
       <c r="B25" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -1419,7 +1416,7 @@
         <v>26</v>
       </c>
       <c r="B26" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -1427,7 +1424,7 @@
         <v>27</v>
       </c>
       <c r="B27" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -1435,7 +1432,7 @@
         <v>28</v>
       </c>
       <c r="B28" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -1443,7 +1440,7 @@
         <v>29</v>
       </c>
       <c r="B29" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -1451,7 +1448,7 @@
         <v>30</v>
       </c>
       <c r="B30" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -1459,7 +1456,7 @@
         <v>31</v>
       </c>
       <c r="B31" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -1467,7 +1464,7 @@
         <v>32</v>
       </c>
       <c r="B32" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -1475,7 +1472,7 @@
         <v>33</v>
       </c>
       <c r="B33" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -1483,7 +1480,7 @@
         <v>34</v>
       </c>
       <c r="B34" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -1491,7 +1488,7 @@
         <v>35</v>
       </c>
       <c r="B35" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -1499,7 +1496,7 @@
         <v>36</v>
       </c>
       <c r="B36" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -1507,7 +1504,7 @@
         <v>37</v>
       </c>
       <c r="B37" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -1515,7 +1512,7 @@
         <v>38</v>
       </c>
       <c r="B38" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -1523,7 +1520,7 @@
         <v>39</v>
       </c>
       <c r="B39" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -1531,7 +1528,7 @@
         <v>40</v>
       </c>
       <c r="B40" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -1539,7 +1536,7 @@
         <v>41</v>
       </c>
       <c r="B41" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -1547,7 +1544,7 @@
         <v>42</v>
       </c>
       <c r="B42" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -1555,7 +1552,7 @@
         <v>43</v>
       </c>
       <c r="B43" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -1563,7 +1560,7 @@
         <v>44</v>
       </c>
       <c r="B44" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -1571,7 +1568,7 @@
         <v>45</v>
       </c>
       <c r="B45" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -1579,7 +1576,7 @@
         <v>46</v>
       </c>
       <c r="B46" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -1587,7 +1584,7 @@
         <v>47</v>
       </c>
       <c r="B47" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -1595,7 +1592,7 @@
         <v>48</v>
       </c>
       <c r="B48" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -1603,7 +1600,7 @@
         <v>49</v>
       </c>
       <c r="B49" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -1643,7 +1640,7 @@
         <v>54</v>
       </c>
       <c r="B54" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="55" spans="1:2">
@@ -1667,7 +1664,7 @@
         <v>57</v>
       </c>
       <c r="B57" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="58" spans="1:2">
@@ -1683,7 +1680,7 @@
         <v>59</v>
       </c>
       <c r="B59" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="60" spans="1:2">
@@ -1691,7 +1688,7 @@
         <v>60</v>
       </c>
       <c r="B60" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="61" spans="1:2">
@@ -1731,7 +1728,7 @@
         <v>65</v>
       </c>
       <c r="B65" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="66" spans="1:2">
@@ -1763,7 +1760,7 @@
         <v>69</v>
       </c>
       <c r="B69" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="70" spans="1:2">
@@ -1779,7 +1776,7 @@
         <v>71</v>
       </c>
       <c r="B71" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="72" spans="1:2">
@@ -1787,7 +1784,7 @@
         <v>72</v>
       </c>
       <c r="B72" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="73" spans="1:2">
@@ -1803,7 +1800,7 @@
         <v>74</v>
       </c>
       <c r="B74" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="75" spans="1:2">
@@ -1811,7 +1808,7 @@
         <v>75</v>
       </c>
       <c r="B75" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="76" spans="1:2">
@@ -1827,7 +1824,7 @@
         <v>77</v>
       </c>
       <c r="B77" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="78" spans="1:2">
@@ -1843,7 +1840,7 @@
         <v>79</v>
       </c>
       <c r="B79" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="80" spans="1:2">
@@ -1851,7 +1848,7 @@
         <v>80</v>
       </c>
       <c r="B80" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="81" spans="1:2">
@@ -1867,7 +1864,7 @@
         <v>82</v>
       </c>
       <c r="B82" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="83" spans="1:2">
@@ -1891,7 +1888,7 @@
         <v>85</v>
       </c>
       <c r="B85" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="86" spans="1:2">
@@ -1915,7 +1912,7 @@
         <v>88</v>
       </c>
       <c r="B88" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="89" spans="1:2">
@@ -1931,7 +1928,7 @@
         <v>90</v>
       </c>
       <c r="B90" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="91" spans="1:2">
@@ -1939,7 +1936,7 @@
         <v>91</v>
       </c>
       <c r="B91" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="92" spans="1:2">
@@ -1947,7 +1944,7 @@
         <v>92</v>
       </c>
       <c r="B92" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="93" spans="1:2">
@@ -1955,7 +1952,7 @@
         <v>93</v>
       </c>
       <c r="B93" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="94" spans="1:2">
@@ -1971,7 +1968,7 @@
         <v>95</v>
       </c>
       <c r="B95" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="96" spans="1:2">
@@ -1987,7 +1984,7 @@
         <v>97</v>
       </c>
       <c r="B97" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="98" spans="1:2">
@@ -1995,7 +1992,7 @@
         <v>98</v>
       </c>
       <c r="B98" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="99" spans="1:2">
@@ -2003,7 +2000,7 @@
         <v>99</v>
       </c>
       <c r="B99" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="100" spans="1:2">
@@ -2011,7 +2008,7 @@
         <v>100</v>
       </c>
       <c r="B100" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="101" spans="1:2">
@@ -2019,7 +2016,7 @@
         <v>101</v>
       </c>
       <c r="B101" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="102" spans="1:2">
@@ -2027,7 +2024,7 @@
         <v>102</v>
       </c>
       <c r="B102" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="103" spans="1:2">
@@ -2035,7 +2032,7 @@
         <v>103</v>
       </c>
       <c r="B103" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="104" spans="1:2">
@@ -2043,7 +2040,7 @@
         <v>104</v>
       </c>
       <c r="B104" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="105" spans="1:2">
@@ -2051,7 +2048,7 @@
         <v>105</v>
       </c>
       <c r="B105" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="106" spans="1:2">
@@ -2059,7 +2056,7 @@
         <v>106</v>
       </c>
       <c r="B106" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="107" spans="1:2">
@@ -2083,7 +2080,7 @@
         <v>109</v>
       </c>
       <c r="B109" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="110" spans="1:2">
@@ -2107,7 +2104,7 @@
         <v>112</v>
       </c>
       <c r="B112" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="113" spans="1:2">
@@ -2115,7 +2112,7 @@
         <v>113</v>
       </c>
       <c r="B113" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="114" spans="1:2">
@@ -2123,7 +2120,7 @@
         <v>114</v>
       </c>
       <c r="B114" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="115" spans="1:2">
@@ -2131,7 +2128,7 @@
         <v>115</v>
       </c>
       <c r="B115" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="116" spans="1:2">
@@ -2163,7 +2160,7 @@
         <v>119</v>
       </c>
       <c r="B119" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="120" spans="1:2">
@@ -2171,7 +2168,7 @@
         <v>120</v>
       </c>
       <c r="B120" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="121" spans="1:2">
@@ -2187,7 +2184,7 @@
         <v>122</v>
       </c>
       <c r="B122" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="123" spans="1:2">
@@ -2219,7 +2216,7 @@
         <v>126</v>
       </c>
       <c r="B126" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="127" spans="1:2">
@@ -2243,7 +2240,7 @@
         <v>129</v>
       </c>
       <c r="B129" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="130" spans="1:2">
@@ -2251,7 +2248,7 @@
         <v>130</v>
       </c>
       <c r="B130" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="131" spans="1:2">
@@ -2267,7 +2264,7 @@
         <v>132</v>
       </c>
       <c r="B132" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="133" spans="1:2">
@@ -2275,7 +2272,7 @@
         <v>133</v>
       </c>
       <c r="B133" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="134" spans="1:2">
@@ -2291,7 +2288,7 @@
         <v>135</v>
       </c>
       <c r="B135" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="136" spans="1:2">
@@ -2307,7 +2304,7 @@
         <v>137</v>
       </c>
       <c r="B137" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="138" spans="1:2">
@@ -2315,7 +2312,7 @@
         <v>138</v>
       </c>
       <c r="B138" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="139" spans="1:2">
@@ -2323,7 +2320,7 @@
         <v>139</v>
       </c>
       <c r="B139" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="140" spans="1:2">
@@ -2331,7 +2328,7 @@
         <v>140</v>
       </c>
       <c r="B140" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="141" spans="1:2">
@@ -2347,7 +2344,7 @@
         <v>142</v>
       </c>
       <c r="B142" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="143" spans="1:2">
@@ -2355,7 +2352,7 @@
         <v>143</v>
       </c>
       <c r="B143" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="144" spans="1:2">
@@ -2363,7 +2360,7 @@
         <v>144</v>
       </c>
       <c r="B144" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="145" spans="1:2">
@@ -2371,7 +2368,7 @@
         <v>145</v>
       </c>
       <c r="B145" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="146" spans="1:2">
@@ -2387,7 +2384,7 @@
         <v>147</v>
       </c>
       <c r="B147" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="148" spans="1:2">
@@ -2395,7 +2392,7 @@
         <v>148</v>
       </c>
       <c r="B148" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="149" spans="1:2">
@@ -2403,7 +2400,7 @@
         <v>149</v>
       </c>
       <c r="B149" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="150" spans="1:2">
@@ -2411,7 +2408,7 @@
         <v>150</v>
       </c>
       <c r="B150" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="151" spans="1:2">
@@ -2427,7 +2424,7 @@
         <v>152</v>
       </c>
       <c r="B152" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="153" spans="1:2">
@@ -2435,7 +2432,7 @@
         <v>153</v>
       </c>
       <c r="B153" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="154" spans="1:2">
@@ -2451,7 +2448,7 @@
         <v>155</v>
       </c>
       <c r="B155" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="156" spans="1:2">
@@ -2459,7 +2456,7 @@
         <v>156</v>
       </c>
       <c r="B156" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="157" spans="1:2">
@@ -2467,7 +2464,7 @@
         <v>157</v>
       </c>
       <c r="B157" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="158" spans="1:2">
@@ -2483,7 +2480,7 @@
         <v>159</v>
       </c>
       <c r="B159" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="160" spans="1:2">
@@ -2491,7 +2488,7 @@
         <v>160</v>
       </c>
       <c r="B160" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="161" spans="1:2">
@@ -2507,7 +2504,7 @@
         <v>162</v>
       </c>
       <c r="B162" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="163" spans="1:2">
@@ -2515,7 +2512,7 @@
         <v>163</v>
       </c>
       <c r="B163" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="164" spans="1:2">
@@ -2531,7 +2528,7 @@
         <v>165</v>
       </c>
       <c r="B165" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="166" spans="1:2">
@@ -2539,7 +2536,7 @@
         <v>166</v>
       </c>
       <c r="B166" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="167" spans="1:2">
@@ -2547,7 +2544,7 @@
         <v>167</v>
       </c>
       <c r="B167" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="168" spans="1:2">
@@ -2555,7 +2552,7 @@
         <v>168</v>
       </c>
       <c r="B168" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="169" spans="1:2">
@@ -2571,7 +2568,7 @@
         <v>170</v>
       </c>
       <c r="B170" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="171" spans="1:2">
@@ -2579,7 +2576,7 @@
         <v>171</v>
       </c>
       <c r="B171" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="172" spans="1:2">
@@ -2651,7 +2648,7 @@
         <v>180</v>
       </c>
       <c r="B180" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="181" spans="1:2">
@@ -2684,14 +2681,6 @@
       </c>
       <c r="B184" t="s">
         <v>277</v>
-      </c>
-    </row>
-    <row r="185" spans="1:2">
-      <c r="A185" t="s">
-        <v>185</v>
-      </c>
-      <c r="B185" t="s">
-        <v>278</v>
       </c>
     </row>
   </sheetData>

--- a/lothiancriticalcare/1a74f8f7b8b7e871b413c4697f68b4401fbacdf0/reviewdates.xlsx
+++ b/lothiancriticalcare/1a74f8f7b8b7e871b413c4697f68b4401fbacdf0/reviewdates.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="278">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="279">
   <si>
     <t>File</t>
   </si>
@@ -64,30 +64,30 @@
     <t>Routine_Care/Tracheostomy_nursing_care.pdf</t>
   </si>
   <si>
+    <t>Airway/Critical care extubation checklist.pdf</t>
+  </si>
+  <si>
     <t>ECLS/Extra Corporeal Carbon Dioxide Removal.pdf</t>
   </si>
   <si>
-    <t>Airway/Critical care extubation checklist.pdf</t>
-  </si>
-  <si>
     <t>Airway/Tracheostomy_Laryngectomy/Hospital_in-patients_with_a_Tracheostomy.pdf</t>
   </si>
   <si>
     <t>Drugs/diazepam_diazemuls.pdf</t>
   </si>
   <si>
+    <t>Breathing(Respiratory)/salbutamol and ipratroprium MDI.pdf</t>
+  </si>
+  <si>
     <t>End_of_life_care/Reasons to report a death to PF.pdf</t>
   </si>
   <si>
-    <t>Breathing(Respiratory)/salbutamol and ipratroprium MDI.pdf</t>
+    <t>Airway/Tracheostomy_Laryngectomy/Tracheostomy suctioning cleaning guideline.pdf</t>
   </si>
   <si>
     <t>Airway/Tracheostomy_Laryngectomy/Tracheostomy change in Critical Care.pdf</t>
   </si>
   <si>
-    <t>Airway/Tracheostomy_Laryngectomy/Tracheostomy suctioning cleaning guideline.pdf</t>
-  </si>
-  <si>
     <t>Neurological/SOP -  Femoral site care.pdf</t>
   </si>
   <si>
@@ -100,21 +100,21 @@
     <t>Post_op_care/Epidural top-up.pdf</t>
   </si>
   <si>
+    <t>Covid-19/SJH/SJH COVID19 ED Intubation Action Card.pdf</t>
+  </si>
+  <si>
+    <t>Covid-19/SJH/SJH COVID19 ITU Intubation Action Card.pdf</t>
+  </si>
+  <si>
+    <t>Drugs/heparin for Haemofiltration.pdf</t>
+  </si>
+  <si>
+    <t>Covid-19/WGH/CoVid intubation checklist WGH.pdf</t>
+  </si>
+  <si>
     <t>Airway/Emergency intubation checklist_em_pub.pdf</t>
   </si>
   <si>
-    <t>Covid-19/SJH/SJH COVID19 ED Intubation Action Card.pdf</t>
-  </si>
-  <si>
-    <t>Covid-19/SJH/SJH COVID19 ITU Intubation Action Card.pdf</t>
-  </si>
-  <si>
-    <t>Covid-19/WGH/CoVid intubation checklist WGH.pdf</t>
-  </si>
-  <si>
-    <t>Drugs/heparin for Haemofiltration.pdf</t>
-  </si>
-  <si>
     <t>Diabetes_and_Glucose/Hyperosmolar Hyperglycaemic State.pdf</t>
   </si>
   <si>
@@ -142,24 +142,24 @@
     <t>Infection_and_sepsis/SOP Ultrasound Cleaning.pdf</t>
   </si>
   <si>
+    <t>GI_Liver_and_Transplant/Treatment of constipation.pdf</t>
+  </si>
+  <si>
     <t>Drugs/ketamine_in_asthma.pdf</t>
   </si>
   <si>
+    <t>Neurological/Sub arachnoid haemorrhage management.pdf</t>
+  </si>
+  <si>
+    <t>Airway/McGrath Mac.pdf</t>
+  </si>
+  <si>
+    <t>Airway/Anticipated difficult airway tool.pdf</t>
+  </si>
+  <si>
     <t>GI_Liver_and_Transplant/Abdominal pressure measurement.pdf</t>
   </si>
   <si>
-    <t>Airway/McGrath Mac.pdf</t>
-  </si>
-  <si>
-    <t>Airway/Anticipated difficult airway tool.pdf</t>
-  </si>
-  <si>
-    <t>GI_Liver_and_Transplant/Treatment of constipation.pdf</t>
-  </si>
-  <si>
-    <t>Neurological/Sub arachnoid haemorrhage management.pdf</t>
-  </si>
-  <si>
     <t>Airway/Tracheostomy_Laryngectomy/Tracheostomy safety box contents.pdf</t>
   </si>
   <si>
@@ -184,12 +184,12 @@
     <t>Breathing(Respiratory)/Inhaled Nitrous Oxide.pdf</t>
   </si>
   <si>
+    <t>Cardiovascular/Steroids for Septic Shock.pdf</t>
+  </si>
+  <si>
     <t>Breathing(Respiratory)/Equipment/APRV.pdf</t>
   </si>
   <si>
-    <t>Cardiovascular/Steroids for Septic Shock.pdf</t>
-  </si>
-  <si>
     <t>Post_op_care/Epidural Haematoma.pdf</t>
   </si>
   <si>
@@ -244,18 +244,18 @@
     <t>Infection_and_sepsis/Winter Infections Stepdown Guidance.pdf</t>
   </si>
   <si>
+    <t>Covid-19/videos/Donning and Doffing Video.pdf</t>
+  </si>
+  <si>
     <t>Transfer/ACCP Transfers.pdf</t>
   </si>
   <si>
-    <t>Covid-19/videos/Donning and Doffing Video.pdf</t>
+    <t>Drugs/piperacillin_tazobactam extended_infusion.pdf</t>
   </si>
   <si>
     <t>Breathing(Respiratory)/Equipment/Ventilators Circuits Filters and Closed Suction - Set up and Maintenance.pdf</t>
   </si>
   <si>
-    <t>Drugs/piperacillin_tazobactam extended_infusion.pdf</t>
-  </si>
-  <si>
     <t>Infection_and_sepsis/Infection indications for IVIG.pdf</t>
   </si>
   <si>
@@ -268,75 +268,75 @@
     <t>Routine_Care/Video Communication.pdf</t>
   </si>
   <si>
+    <t>Cardiovascular/Cardiogenic Shock.pdf</t>
+  </si>
+  <si>
     <t>Drugs/isoprenaline.pdf</t>
   </si>
   <si>
-    <t>Cardiovascular/Cardiogenic Shock.pdf</t>
-  </si>
-  <si>
     <t>Haematology_CAR-T/Haem_ICU_transfer.pdf</t>
   </si>
   <si>
+    <t>Cardiovascular/Management of hypertension within Critical Care.pdf</t>
+  </si>
+  <si>
     <t>Drugs/aminophylline.pdf</t>
   </si>
   <si>
-    <t>Cardiovascular/Management of hypertension within Critical Care.pdf</t>
+    <t>Drugs/phenytoin.pdf</t>
+  </si>
+  <si>
+    <t>Haematology_CAR-T/Cytokine Release Syndrome.pdf</t>
+  </si>
+  <si>
+    <t>Drugs/rocuronium.pdf</t>
+  </si>
+  <si>
+    <t>Drugs/pancuronium.pdf</t>
   </si>
   <si>
     <t>Haematology_CAR-T/ICANS.pdf</t>
   </si>
   <si>
-    <t>Haematology_CAR-T/Cytokine Release Syndrome.pdf</t>
-  </si>
-  <si>
-    <t>Drugs/pancuronium.pdf</t>
-  </si>
-  <si>
-    <t>Drugs/rocuronium.pdf</t>
-  </si>
-  <si>
-    <t>Drugs/phenytoin.pdf</t>
-  </si>
-  <si>
     <t>Drugs/milrinone.pdf</t>
   </si>
   <si>
     <t>Policies_and_admin/General Critical Care SOP_pub.pdf</t>
   </si>
   <si>
+    <t>End_of_life_care/Palliative extubation &amp; withdrawal of invasive ventilatory support nursing checklist.pdf</t>
+  </si>
+  <si>
+    <t>End_of_life_care/CMO &amp; NRS Guidance for Doctors completing MCCD.pdf</t>
+  </si>
+  <si>
     <t>Ethics_and_Law/Care at the End of Life (FICM).pdf</t>
   </si>
   <si>
     <t>Ethics_and_Law/DNACPR policy for Scotland.pdf</t>
   </si>
   <si>
+    <t>Organ_donation/Organ Retrieval SOP.pdf</t>
+  </si>
+  <si>
+    <t>Covid-19/COVID 19 ICM guidance basic goals_June_2022.pdf</t>
+  </si>
+  <si>
+    <t>GI_Liver_and_Transplant/ICU - Upper GI bleeding (Endoscopy guideline).pdf</t>
+  </si>
+  <si>
+    <t>Infection_and_sepsis/Trip Out of Unit infection guidance.pdf</t>
+  </si>
+  <si>
     <t>Neurological/Critical Care MRI Procedure_pub.pdf</t>
   </si>
   <si>
-    <t>End_of_life_care/CMO &amp; NRS Guidance for Doctors completing MCCD.pdf</t>
+    <t>Neurological/Management of traumatic brain injury.pdf</t>
   </si>
   <si>
     <t>Drugs/clonidine.pdf</t>
   </si>
   <si>
-    <t>Covid-19/COVID 19 ICM guidance basic goals_June_2022.pdf</t>
-  </si>
-  <si>
-    <t>Organ_donation/Organ Retrieval SOP.pdf</t>
-  </si>
-  <si>
-    <t>Neurological/Management of traumatic brain injury.pdf</t>
-  </si>
-  <si>
-    <t>Infection_and_sepsis/Trip Out of Unit infection guidance.pdf</t>
-  </si>
-  <si>
-    <t>GI_Liver_and_Transplant/ICU - Upper GI bleeding (Endoscopy guideline).pdf</t>
-  </si>
-  <si>
-    <t>End_of_life_care/Palliative extubation &amp; withdrawal of invasive ventilatory support nursing checklist.pdf</t>
-  </si>
-  <si>
     <t>Airway/Cook Staged Extubation Set.pdf</t>
   </si>
   <si>
@@ -352,61 +352,67 @@
     <t>Breathing(Respiratory)/Equipment/Passy Muir Valve.pdf</t>
   </si>
   <si>
+    <t>GI_Liver_and_Transplant/Fulminant Liver Failure.pdf</t>
+  </si>
+  <si>
+    <t>Drugs/glyceryl_trinitrate.pdf</t>
+  </si>
+  <si>
     <t>GI_Liver_and_Transplant/Confirmation of Nasogastric Tube Position.pdf</t>
   </si>
   <si>
-    <t>GI_Liver_and_Transplant/Fulminant Liver Failure.pdf</t>
-  </si>
-  <si>
     <t>Drugs/dexmedetomidine.pdf</t>
   </si>
   <si>
-    <t>Drugs/glyceryl_trinitrate.pdf</t>
-  </si>
-  <si>
     <t>Infection_and_sepsis/Antifungal guidance in critical care.pdf</t>
   </si>
   <si>
     <t>Breathing(Respiratory)/ARDS Strategy.pdf</t>
   </si>
   <si>
+    <t>Transfer/Transfer Outdoors to Garden Guideline.pdf</t>
+  </si>
+  <si>
+    <t>Cardiovascular/Intra Aortic Balloon Pump Bedside Checks_pub.pdf</t>
+  </si>
+  <si>
     <t>Cardiovascular/Intra Aortic Balloon Pump Guideline_pub.pdf</t>
   </si>
   <si>
-    <t>Cardiovascular/Intra Aortic Balloon Pump Bedside Checks_pub.pdf</t>
-  </si>
-  <si>
-    <t>Transfer/Transfer Outdoors to Garden Guideline.pdf</t>
+    <t>Drugs/Dobutamine.pdf</t>
   </si>
   <si>
     <t>Drugs/adrenaline.pdf</t>
   </si>
   <si>
-    <t>Drugs/Dobutamine.pdf</t>
-  </si>
-  <si>
     <t>Drugs/hydralazine.pdf</t>
   </si>
   <si>
     <t>Post_op_care/Major OMFS Free Flap.pdf</t>
   </si>
   <si>
+    <t>Drugs/Alteplase for massive PE.pdf</t>
+  </si>
+  <si>
     <t>Drugs/alfentanil.pdf</t>
   </si>
   <si>
-    <t>Drugs/Alteplase for massive PE.pdf</t>
-  </si>
-  <si>
     <t>Drugs/magnesium.pdf</t>
   </si>
   <si>
+    <t>Drugs/vancomycin continuous infusion.pdf</t>
+  </si>
+  <si>
+    <t>Drugs/vancomycin.pdf</t>
+  </si>
+  <si>
     <t>Drugs/ICU - IV drug infusions.pdf</t>
   </si>
   <si>
     <t>Drugs/neostigmine.pdf</t>
   </si>
   <si>
-    <t>Drugs/vancomycin.pdf</t>
+    <t>Drugs/labetalol.pdf</t>
   </si>
   <si>
     <t>Infection_and_sepsis/Initial investigation and management in unidentified Infections.pdf</t>
@@ -415,81 +421,78 @@
     <t>Neurological/Intrathecal policy RIE.pdf</t>
   </si>
   <si>
-    <t>Drugs/labetalol.pdf</t>
-  </si>
-  <si>
     <t>Drugs/midazolam.pdf</t>
   </si>
   <si>
     <t>Cardiovascular/Management of Acute Type B Aortic Dissection Guideline.pdf</t>
   </si>
   <si>
+    <t>Drugs/salbutamol.pdf</t>
+  </si>
+  <si>
+    <t>Procedures/CVC Guidance/CVC NHL  April 2023.pdf</t>
+  </si>
+  <si>
+    <t>Trauma and Burns/Management of Severe Burns v1.6.pdf</t>
+  </si>
+  <si>
     <t>Drugs/nimodipine.pdf</t>
   </si>
   <si>
-    <t>Drugs/salbutamol.pdf</t>
-  </si>
-  <si>
     <t>Drugs/potassium.pdf</t>
   </si>
   <si>
-    <t>Trauma and Burns/Management of Severe Burns v1.6.pdf</t>
-  </si>
-  <si>
-    <t>Procedures/CVC Guidance/CVC NHL  April 2023.pdf</t>
+    <t>Drugs/nicardipine.pdf</t>
+  </si>
+  <si>
+    <t>Procedures/Arterial Line insertion for ACCPs.pdf</t>
+  </si>
+  <si>
+    <t>Routine_Care/ICU Eye Care Guideline.pdf</t>
+  </si>
+  <si>
+    <t>Drugs/amiodarone.pdf</t>
   </si>
   <si>
     <t>Drugs/phenobarbitone.pdf</t>
   </si>
   <si>
-    <t>Drugs/amiodarone.pdf</t>
-  </si>
-  <si>
-    <t>Routine_Care/ICU Eye Care Guideline.pdf</t>
-  </si>
-  <si>
-    <t>Procedures/Arterial Line insertion for ACCPs.pdf</t>
-  </si>
-  <si>
-    <t>Drugs/nicardipine.pdf</t>
+    <t>Drugs/morphine.pdf</t>
+  </si>
+  <si>
+    <t>Breathing(Respiratory)/Manual Ventilation and MHI.pdf</t>
+  </si>
+  <si>
+    <t>Drugs/Epoprostenol.pdf</t>
+  </si>
+  <si>
+    <t>Neurological/Ventriculitis Guideline.pdf</t>
   </si>
   <si>
     <t>Drugs/phenylephrine.pdf</t>
   </si>
   <si>
-    <t>Breathing(Respiratory)/Manual Ventilation and MHI.pdf</t>
-  </si>
-  <si>
-    <t>Drugs/morphine.pdf</t>
-  </si>
-  <si>
-    <t>Drugs/Epoprostenol.pdf</t>
-  </si>
-  <si>
-    <t>Neurological/Ventriculitis Guideline.pdf</t>
+    <t>Cardiovascular/Cardiac Output Monitoring_pub .pdf</t>
   </si>
   <si>
     <t>Drugs/calcium.pdf</t>
   </si>
   <si>
-    <t>Cardiovascular/Cardiac Output Monitoring_pub .pdf</t>
-  </si>
-  <si>
     <t>Cardiovascular/Pulmonary_Embolism_and_DVT/Catheter directed thrombolysis of iliofemoral DVT alteplase_pub.pdf</t>
   </si>
   <si>
+    <t>Drugs/dalteparin_thromboprophylaxis.pdf</t>
+  </si>
+  <si>
     <t>Drugs/atracurium.pdf</t>
   </si>
   <si>
+    <t>Airway/Tracheostomy_Laryngectomy/Decannulation Guidline.pdf</t>
+  </si>
+  <si>
     <t>Drugs/Vancomycin Continuous Infusion Fluid Restricted.pdf</t>
   </si>
   <si>
-    <t>Airway/Tracheostomy_Laryngectomy/Decannulation Guidline.pdf</t>
-  </si>
-  <si>
-    <t>Drugs/dalteparin_thromboprophylaxis.pdf</t>
-  </si>
-  <si>
     <t>Drugs/valproate.pdf</t>
   </si>
   <si>
@@ -499,10 +502,10 @@
     <t>Procedures/Inadvertent Catheter Placement Guideline.pdf</t>
   </si>
   <si>
+    <t>Drugs/stress ulcer prophylaxis.pdf</t>
+  </si>
+  <si>
     <t>Drugs/Phosphate.pdf</t>
-  </si>
-  <si>
-    <t>Drugs/stress ulcer prophylaxis.pdf</t>
   </si>
   <si>
     <t>Drugs/ketamine_for_status epilepticus.pdf</t>
@@ -1205,7 +1208,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B184"/>
+  <dimension ref="A1:B185"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1224,7 +1227,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -1232,7 +1235,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -1240,7 +1243,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -1248,7 +1251,7 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -1256,7 +1259,7 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -1264,7 +1267,7 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -1272,7 +1275,7 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -1280,7 +1283,7 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -1288,7 +1291,7 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -1296,7 +1299,7 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -1304,7 +1307,7 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -1312,7 +1315,7 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -1320,7 +1323,7 @@
         <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -1328,7 +1331,7 @@
         <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -1336,7 +1339,7 @@
         <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -1344,7 +1347,7 @@
         <v>17</v>
       </c>
       <c r="B17" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -1352,7 +1355,7 @@
         <v>18</v>
       </c>
       <c r="B18" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -1360,7 +1363,7 @@
         <v>19</v>
       </c>
       <c r="B19" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -1368,7 +1371,7 @@
         <v>20</v>
       </c>
       <c r="B20" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -1376,7 +1379,7 @@
         <v>21</v>
       </c>
       <c r="B21" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -1384,7 +1387,7 @@
         <v>22</v>
       </c>
       <c r="B22" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -1392,7 +1395,7 @@
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -1400,7 +1403,7 @@
         <v>24</v>
       </c>
       <c r="B24" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -1408,7 +1411,7 @@
         <v>25</v>
       </c>
       <c r="B25" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -1416,7 +1419,7 @@
         <v>26</v>
       </c>
       <c r="B26" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -1424,7 +1427,7 @@
         <v>27</v>
       </c>
       <c r="B27" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -1432,7 +1435,7 @@
         <v>28</v>
       </c>
       <c r="B28" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -1440,7 +1443,7 @@
         <v>29</v>
       </c>
       <c r="B29" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -1448,7 +1451,7 @@
         <v>30</v>
       </c>
       <c r="B30" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -1456,7 +1459,7 @@
         <v>31</v>
       </c>
       <c r="B31" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -1464,7 +1467,7 @@
         <v>32</v>
       </c>
       <c r="B32" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -1472,7 +1475,7 @@
         <v>33</v>
       </c>
       <c r="B33" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -1480,7 +1483,7 @@
         <v>34</v>
       </c>
       <c r="B34" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -1488,7 +1491,7 @@
         <v>35</v>
       </c>
       <c r="B35" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -1496,7 +1499,7 @@
         <v>36</v>
       </c>
       <c r="B36" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -1504,7 +1507,7 @@
         <v>37</v>
       </c>
       <c r="B37" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -1512,7 +1515,7 @@
         <v>38</v>
       </c>
       <c r="B38" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -1520,7 +1523,7 @@
         <v>39</v>
       </c>
       <c r="B39" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -1528,7 +1531,7 @@
         <v>40</v>
       </c>
       <c r="B40" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -1536,7 +1539,7 @@
         <v>41</v>
       </c>
       <c r="B41" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -1544,7 +1547,7 @@
         <v>42</v>
       </c>
       <c r="B42" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -1552,7 +1555,7 @@
         <v>43</v>
       </c>
       <c r="B43" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -1560,7 +1563,7 @@
         <v>44</v>
       </c>
       <c r="B44" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -1568,7 +1571,7 @@
         <v>45</v>
       </c>
       <c r="B45" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -1576,7 +1579,7 @@
         <v>46</v>
       </c>
       <c r="B46" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -1584,7 +1587,7 @@
         <v>47</v>
       </c>
       <c r="B47" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -1592,7 +1595,7 @@
         <v>48</v>
       </c>
       <c r="B48" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -1600,7 +1603,7 @@
         <v>49</v>
       </c>
       <c r="B49" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -1608,7 +1611,7 @@
         <v>50</v>
       </c>
       <c r="B50" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -1616,7 +1619,7 @@
         <v>51</v>
       </c>
       <c r="B51" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -1624,7 +1627,7 @@
         <v>52</v>
       </c>
       <c r="B52" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -1632,7 +1635,7 @@
         <v>53</v>
       </c>
       <c r="B53" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
     </row>
     <row r="54" spans="1:2">
@@ -1640,7 +1643,7 @@
         <v>54</v>
       </c>
       <c r="B54" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
     </row>
     <row r="55" spans="1:2">
@@ -1648,7 +1651,7 @@
         <v>55</v>
       </c>
       <c r="B55" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
     </row>
     <row r="56" spans="1:2">
@@ -1656,7 +1659,7 @@
         <v>56</v>
       </c>
       <c r="B56" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
     <row r="57" spans="1:2">
@@ -1664,7 +1667,7 @@
         <v>57</v>
       </c>
       <c r="B57" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
     <row r="58" spans="1:2">
@@ -1672,7 +1675,7 @@
         <v>58</v>
       </c>
       <c r="B58" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
     </row>
     <row r="59" spans="1:2">
@@ -1680,7 +1683,7 @@
         <v>59</v>
       </c>
       <c r="B59" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
     </row>
     <row r="60" spans="1:2">
@@ -1688,7 +1691,7 @@
         <v>60</v>
       </c>
       <c r="B60" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
     </row>
     <row r="61" spans="1:2">
@@ -1696,7 +1699,7 @@
         <v>61</v>
       </c>
       <c r="B61" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
     </row>
     <row r="62" spans="1:2">
@@ -1704,7 +1707,7 @@
         <v>62</v>
       </c>
       <c r="B62" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
     </row>
     <row r="63" spans="1:2">
@@ -1712,7 +1715,7 @@
         <v>63</v>
       </c>
       <c r="B63" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
     </row>
     <row r="64" spans="1:2">
@@ -1720,7 +1723,7 @@
         <v>64</v>
       </c>
       <c r="B64" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
     </row>
     <row r="65" spans="1:2">
@@ -1728,7 +1731,7 @@
         <v>65</v>
       </c>
       <c r="B65" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
     </row>
     <row r="66" spans="1:2">
@@ -1736,7 +1739,7 @@
         <v>66</v>
       </c>
       <c r="B66" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="67" spans="1:2">
@@ -1744,7 +1747,7 @@
         <v>67</v>
       </c>
       <c r="B67" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
     <row r="68" spans="1:2">
@@ -1752,7 +1755,7 @@
         <v>68</v>
       </c>
       <c r="B68" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="69" spans="1:2">
@@ -1760,7 +1763,7 @@
         <v>69</v>
       </c>
       <c r="B69" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="70" spans="1:2">
@@ -1768,7 +1771,7 @@
         <v>70</v>
       </c>
       <c r="B70" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
     <row r="71" spans="1:2">
@@ -1776,7 +1779,7 @@
         <v>71</v>
       </c>
       <c r="B71" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
     <row r="72" spans="1:2">
@@ -1784,7 +1787,7 @@
         <v>72</v>
       </c>
       <c r="B72" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
     <row r="73" spans="1:2">
@@ -1792,7 +1795,7 @@
         <v>73</v>
       </c>
       <c r="B73" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
     </row>
     <row r="74" spans="1:2">
@@ -1800,7 +1803,7 @@
         <v>74</v>
       </c>
       <c r="B74" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
     </row>
     <row r="75" spans="1:2">
@@ -1808,7 +1811,7 @@
         <v>75</v>
       </c>
       <c r="B75" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
     </row>
     <row r="76" spans="1:2">
@@ -1816,7 +1819,7 @@
         <v>76</v>
       </c>
       <c r="B76" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
     </row>
     <row r="77" spans="1:2">
@@ -1824,7 +1827,7 @@
         <v>77</v>
       </c>
       <c r="B77" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
     </row>
     <row r="78" spans="1:2">
@@ -1832,7 +1835,7 @@
         <v>78</v>
       </c>
       <c r="B78" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
     </row>
     <row r="79" spans="1:2">
@@ -1840,7 +1843,7 @@
         <v>79</v>
       </c>
       <c r="B79" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
     </row>
     <row r="80" spans="1:2">
@@ -1848,7 +1851,7 @@
         <v>80</v>
       </c>
       <c r="B80" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
     </row>
     <row r="81" spans="1:2">
@@ -1856,7 +1859,7 @@
         <v>81</v>
       </c>
       <c r="B81" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
     </row>
     <row r="82" spans="1:2">
@@ -1864,7 +1867,7 @@
         <v>82</v>
       </c>
       <c r="B82" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
     </row>
     <row r="83" spans="1:2">
@@ -1872,7 +1875,7 @@
         <v>83</v>
       </c>
       <c r="B83" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="84" spans="1:2">
@@ -1880,7 +1883,7 @@
         <v>84</v>
       </c>
       <c r="B84" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="85" spans="1:2">
@@ -1888,7 +1891,7 @@
         <v>85</v>
       </c>
       <c r="B85" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="86" spans="1:2">
@@ -1896,7 +1899,7 @@
         <v>86</v>
       </c>
       <c r="B86" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="87" spans="1:2">
@@ -1904,7 +1907,7 @@
         <v>87</v>
       </c>
       <c r="B87" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="88" spans="1:2">
@@ -1912,7 +1915,7 @@
         <v>88</v>
       </c>
       <c r="B88" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="89" spans="1:2">
@@ -1920,7 +1923,7 @@
         <v>89</v>
       </c>
       <c r="B89" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="90" spans="1:2">
@@ -1928,7 +1931,7 @@
         <v>90</v>
       </c>
       <c r="B90" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="91" spans="1:2">
@@ -1936,7 +1939,7 @@
         <v>91</v>
       </c>
       <c r="B91" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="92" spans="1:2">
@@ -1944,7 +1947,7 @@
         <v>92</v>
       </c>
       <c r="B92" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="93" spans="1:2">
@@ -1952,7 +1955,7 @@
         <v>93</v>
       </c>
       <c r="B93" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="94" spans="1:2">
@@ -1960,7 +1963,7 @@
         <v>94</v>
       </c>
       <c r="B94" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="95" spans="1:2">
@@ -1968,7 +1971,7 @@
         <v>95</v>
       </c>
       <c r="B95" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="96" spans="1:2">
@@ -1976,7 +1979,7 @@
         <v>96</v>
       </c>
       <c r="B96" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="97" spans="1:2">
@@ -1984,7 +1987,7 @@
         <v>97</v>
       </c>
       <c r="B97" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="98" spans="1:2">
@@ -1992,7 +1995,7 @@
         <v>98</v>
       </c>
       <c r="B98" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="99" spans="1:2">
@@ -2000,7 +2003,7 @@
         <v>99</v>
       </c>
       <c r="B99" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="100" spans="1:2">
@@ -2008,7 +2011,7 @@
         <v>100</v>
       </c>
       <c r="B100" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="101" spans="1:2">
@@ -2016,7 +2019,7 @@
         <v>101</v>
       </c>
       <c r="B101" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="102" spans="1:2">
@@ -2024,7 +2027,7 @@
         <v>102</v>
       </c>
       <c r="B102" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="103" spans="1:2">
@@ -2032,7 +2035,7 @@
         <v>103</v>
       </c>
       <c r="B103" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="104" spans="1:2">
@@ -2040,7 +2043,7 @@
         <v>104</v>
       </c>
       <c r="B104" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="105" spans="1:2">
@@ -2048,7 +2051,7 @@
         <v>105</v>
       </c>
       <c r="B105" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="106" spans="1:2">
@@ -2056,7 +2059,7 @@
         <v>106</v>
       </c>
       <c r="B106" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="107" spans="1:2">
@@ -2064,7 +2067,7 @@
         <v>107</v>
       </c>
       <c r="B107" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="108" spans="1:2">
@@ -2072,7 +2075,7 @@
         <v>108</v>
       </c>
       <c r="B108" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
     </row>
     <row r="109" spans="1:2">
@@ -2080,7 +2083,7 @@
         <v>109</v>
       </c>
       <c r="B109" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
     </row>
     <row r="110" spans="1:2">
@@ -2088,7 +2091,7 @@
         <v>110</v>
       </c>
       <c r="B110" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="111" spans="1:2">
@@ -2096,7 +2099,7 @@
         <v>111</v>
       </c>
       <c r="B111" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="112" spans="1:2">
@@ -2104,7 +2107,7 @@
         <v>112</v>
       </c>
       <c r="B112" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="113" spans="1:2">
@@ -2112,7 +2115,7 @@
         <v>113</v>
       </c>
       <c r="B113" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="114" spans="1:2">
@@ -2120,7 +2123,7 @@
         <v>114</v>
       </c>
       <c r="B114" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="115" spans="1:2">
@@ -2128,7 +2131,7 @@
         <v>115</v>
       </c>
       <c r="B115" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="116" spans="1:2">
@@ -2136,7 +2139,7 @@
         <v>116</v>
       </c>
       <c r="B116" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
     </row>
     <row r="117" spans="1:2">
@@ -2144,7 +2147,7 @@
         <v>117</v>
       </c>
       <c r="B117" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
     </row>
     <row r="118" spans="1:2">
@@ -2152,7 +2155,7 @@
         <v>118</v>
       </c>
       <c r="B118" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
     </row>
     <row r="119" spans="1:2">
@@ -2160,7 +2163,7 @@
         <v>119</v>
       </c>
       <c r="B119" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
     </row>
     <row r="120" spans="1:2">
@@ -2168,7 +2171,7 @@
         <v>120</v>
       </c>
       <c r="B120" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
     </row>
     <row r="121" spans="1:2">
@@ -2176,7 +2179,7 @@
         <v>121</v>
       </c>
       <c r="B121" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="122" spans="1:2">
@@ -2184,7 +2187,7 @@
         <v>122</v>
       </c>
       <c r="B122" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="123" spans="1:2">
@@ -2192,7 +2195,7 @@
         <v>123</v>
       </c>
       <c r="B123" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
     </row>
     <row r="124" spans="1:2">
@@ -2200,7 +2203,7 @@
         <v>124</v>
       </c>
       <c r="B124" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
     </row>
     <row r="125" spans="1:2">
@@ -2208,7 +2211,7 @@
         <v>125</v>
       </c>
       <c r="B125" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
     </row>
     <row r="126" spans="1:2">
@@ -2216,7 +2219,7 @@
         <v>126</v>
       </c>
       <c r="B126" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
     </row>
     <row r="127" spans="1:2">
@@ -2224,7 +2227,7 @@
         <v>127</v>
       </c>
       <c r="B127" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
     <row r="128" spans="1:2">
@@ -2232,7 +2235,7 @@
         <v>128</v>
       </c>
       <c r="B128" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="129" spans="1:2">
@@ -2240,7 +2243,7 @@
         <v>129</v>
       </c>
       <c r="B129" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="130" spans="1:2">
@@ -2248,7 +2251,7 @@
         <v>130</v>
       </c>
       <c r="B130" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="131" spans="1:2">
@@ -2264,7 +2267,7 @@
         <v>132</v>
       </c>
       <c r="B132" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="133" spans="1:2">
@@ -2272,7 +2275,7 @@
         <v>133</v>
       </c>
       <c r="B133" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="134" spans="1:2">
@@ -2288,7 +2291,7 @@
         <v>135</v>
       </c>
       <c r="B135" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="136" spans="1:2">
@@ -2304,7 +2307,7 @@
         <v>137</v>
       </c>
       <c r="B137" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
     <row r="138" spans="1:2">
@@ -2312,7 +2315,7 @@
         <v>138</v>
       </c>
       <c r="B138" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
     <row r="139" spans="1:2">
@@ -2320,7 +2323,7 @@
         <v>139</v>
       </c>
       <c r="B139" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
     <row r="140" spans="1:2">
@@ -2328,7 +2331,7 @@
         <v>140</v>
       </c>
       <c r="B140" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
     <row r="141" spans="1:2">
@@ -2344,7 +2347,7 @@
         <v>142</v>
       </c>
       <c r="B142" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
     <row r="143" spans="1:2">
@@ -2352,7 +2355,7 @@
         <v>143</v>
       </c>
       <c r="B143" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
     <row r="144" spans="1:2">
@@ -2360,7 +2363,7 @@
         <v>144</v>
       </c>
       <c r="B144" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
     <row r="145" spans="1:2">
@@ -2368,7 +2371,7 @@
         <v>145</v>
       </c>
       <c r="B145" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
     <row r="146" spans="1:2">
@@ -2384,7 +2387,7 @@
         <v>147</v>
       </c>
       <c r="B147" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="148" spans="1:2">
@@ -2392,7 +2395,7 @@
         <v>148</v>
       </c>
       <c r="B148" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="149" spans="1:2">
@@ -2400,7 +2403,7 @@
         <v>149</v>
       </c>
       <c r="B149" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="150" spans="1:2">
@@ -2408,7 +2411,7 @@
         <v>150</v>
       </c>
       <c r="B150" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="151" spans="1:2">
@@ -2424,7 +2427,7 @@
         <v>152</v>
       </c>
       <c r="B152" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="153" spans="1:2">
@@ -2432,7 +2435,7 @@
         <v>153</v>
       </c>
       <c r="B153" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="154" spans="1:2">
@@ -2448,7 +2451,7 @@
         <v>155</v>
       </c>
       <c r="B155" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="156" spans="1:2">
@@ -2456,7 +2459,7 @@
         <v>156</v>
       </c>
       <c r="B156" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="157" spans="1:2">
@@ -2464,7 +2467,7 @@
         <v>157</v>
       </c>
       <c r="B157" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="158" spans="1:2">
@@ -2480,7 +2483,7 @@
         <v>159</v>
       </c>
       <c r="B159" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
     </row>
     <row r="160" spans="1:2">
@@ -2488,7 +2491,7 @@
         <v>160</v>
       </c>
       <c r="B160" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
     </row>
     <row r="161" spans="1:2">
@@ -2504,7 +2507,7 @@
         <v>162</v>
       </c>
       <c r="B162" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
     </row>
     <row r="163" spans="1:2">
@@ -2512,7 +2515,7 @@
         <v>163</v>
       </c>
       <c r="B163" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
     </row>
     <row r="164" spans="1:2">
@@ -2528,7 +2531,7 @@
         <v>165</v>
       </c>
       <c r="B165" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="166" spans="1:2">
@@ -2536,7 +2539,7 @@
         <v>166</v>
       </c>
       <c r="B166" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="167" spans="1:2">
@@ -2544,7 +2547,7 @@
         <v>167</v>
       </c>
       <c r="B167" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="168" spans="1:2">
@@ -2552,7 +2555,7 @@
         <v>168</v>
       </c>
       <c r="B168" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="169" spans="1:2">
@@ -2568,7 +2571,7 @@
         <v>170</v>
       </c>
       <c r="B170" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
     </row>
     <row r="171" spans="1:2">
@@ -2576,7 +2579,7 @@
         <v>171</v>
       </c>
       <c r="B171" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
     </row>
     <row r="172" spans="1:2">
@@ -2648,7 +2651,7 @@
         <v>180</v>
       </c>
       <c r="B180" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
     </row>
     <row r="181" spans="1:2">
@@ -2681,6 +2684,14 @@
       </c>
       <c r="B184" t="s">
         <v>277</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2">
+      <c r="A185" t="s">
+        <v>185</v>
+      </c>
+      <c r="B185" t="s">
+        <v>278</v>
       </c>
     </row>
   </sheetData>

--- a/lothiancriticalcare/1a74f8f7b8b7e871b413c4697f68b4401fbacdf0/reviewdates.xlsx
+++ b/lothiancriticalcare/1a74f8f7b8b7e871b413c4697f68b4401fbacdf0/reviewdates.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="279">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="278">
   <si>
     <t>File</t>
   </si>
@@ -244,96 +244,96 @@
     <t>Infection_and_sepsis/Winter Infections Stepdown Guidance.pdf</t>
   </si>
   <si>
+    <t>Transfer/ACCP Transfers.pdf</t>
+  </si>
+  <si>
     <t>Covid-19/videos/Donning and Doffing Video.pdf</t>
   </si>
   <si>
-    <t>Transfer/ACCP Transfers.pdf</t>
+    <t>Infection_and_sepsis/Infection indications for IVIG.pdf</t>
+  </si>
+  <si>
+    <t>Breathing(Respiratory)/Equipment/Ventilators Circuits Filters and Closed Suction - Set up and Maintenance.pdf</t>
   </si>
   <si>
     <t>Drugs/piperacillin_tazobactam extended_infusion.pdf</t>
   </si>
   <si>
-    <t>Breathing(Respiratory)/Equipment/Ventilators Circuits Filters and Closed Suction - Set up and Maintenance.pdf</t>
-  </si>
-  <si>
-    <t>Infection_and_sepsis/Infection indications for IVIG.pdf</t>
+    <t>Procedures/CVC Guidance/Securing CVCs.pdf</t>
   </si>
   <si>
     <t>Covid-19/Covid 19 Death Certification Guideline.pdf</t>
   </si>
   <si>
-    <t>Procedures/CVC Guidance/Securing CVCs.pdf</t>
-  </si>
-  <si>
     <t>Routine_Care/Video Communication.pdf</t>
   </si>
   <si>
+    <t>Drugs/isoprenaline.pdf</t>
+  </si>
+  <si>
     <t>Cardiovascular/Cardiogenic Shock.pdf</t>
   </si>
   <si>
-    <t>Drugs/isoprenaline.pdf</t>
-  </si>
-  <si>
     <t>Haematology_CAR-T/Haem_ICU_transfer.pdf</t>
   </si>
   <si>
+    <t>Drugs/aminophylline.pdf</t>
+  </si>
+  <si>
     <t>Cardiovascular/Management of hypertension within Critical Care.pdf</t>
   </si>
   <si>
-    <t>Drugs/aminophylline.pdf</t>
-  </si>
-  <si>
     <t>Drugs/phenytoin.pdf</t>
   </si>
   <si>
+    <t>Drugs/rocuronium.pdf</t>
+  </si>
+  <si>
     <t>Haematology_CAR-T/Cytokine Release Syndrome.pdf</t>
   </si>
   <si>
-    <t>Drugs/rocuronium.pdf</t>
-  </si>
-  <si>
     <t>Drugs/pancuronium.pdf</t>
   </si>
   <si>
     <t>Haematology_CAR-T/ICANS.pdf</t>
   </si>
   <si>
+    <t>Policies_and_admin/General Critical Care SOP_pub.pdf</t>
+  </si>
+  <si>
     <t>Drugs/milrinone.pdf</t>
   </si>
   <si>
-    <t>Policies_and_admin/General Critical Care SOP_pub.pdf</t>
+    <t>Organ_donation/Organ Retrieval SOP.pdf</t>
   </si>
   <si>
     <t>End_of_life_care/Palliative extubation &amp; withdrawal of invasive ventilatory support nursing checklist.pdf</t>
   </si>
   <si>
+    <t>GI_Liver_and_Transplant/ICU - Upper GI bleeding (Endoscopy guideline).pdf</t>
+  </si>
+  <si>
     <t>End_of_life_care/CMO &amp; NRS Guidance for Doctors completing MCCD.pdf</t>
   </si>
   <si>
+    <t>Infection_and_sepsis/Trip Out of Unit infection guidance.pdf</t>
+  </si>
+  <si>
     <t>Ethics_and_Law/Care at the End of Life (FICM).pdf</t>
   </si>
   <si>
+    <t>Covid-19/COVID 19 ICM guidance basic goals_June_2022.pdf</t>
+  </si>
+  <si>
     <t>Ethics_and_Law/DNACPR policy for Scotland.pdf</t>
   </si>
   <si>
-    <t>Organ_donation/Organ Retrieval SOP.pdf</t>
-  </si>
-  <si>
-    <t>Covid-19/COVID 19 ICM guidance basic goals_June_2022.pdf</t>
-  </si>
-  <si>
-    <t>GI_Liver_and_Transplant/ICU - Upper GI bleeding (Endoscopy guideline).pdf</t>
-  </si>
-  <si>
-    <t>Infection_and_sepsis/Trip Out of Unit infection guidance.pdf</t>
+    <t>Neurological/Management of traumatic brain injury.pdf</t>
   </si>
   <si>
     <t>Neurological/Critical Care MRI Procedure_pub.pdf</t>
   </si>
   <si>
-    <t>Neurological/Management of traumatic brain injury.pdf</t>
-  </si>
-  <si>
     <t>Drugs/clonidine.pdf</t>
   </si>
   <si>
@@ -352,6 +352,9 @@
     <t>Breathing(Respiratory)/Equipment/Passy Muir Valve.pdf</t>
   </si>
   <si>
+    <t>Drugs/dexmedetomidine.pdf</t>
+  </si>
+  <si>
     <t>GI_Liver_and_Transplant/Fulminant Liver Failure.pdf</t>
   </si>
   <si>
@@ -361,85 +364,82 @@
     <t>GI_Liver_and_Transplant/Confirmation of Nasogastric Tube Position.pdf</t>
   </si>
   <si>
-    <t>Drugs/dexmedetomidine.pdf</t>
-  </si>
-  <si>
     <t>Infection_and_sepsis/Antifungal guidance in critical care.pdf</t>
   </si>
   <si>
     <t>Breathing(Respiratory)/ARDS Strategy.pdf</t>
   </si>
   <si>
+    <t>Cardiovascular/Intra Aortic Balloon Pump Guideline_pub.pdf</t>
+  </si>
+  <si>
+    <t>Cardiovascular/Intra Aortic Balloon Pump Bedside Checks_pub.pdf</t>
+  </si>
+  <si>
     <t>Transfer/Transfer Outdoors to Garden Guideline.pdf</t>
   </si>
   <si>
-    <t>Cardiovascular/Intra Aortic Balloon Pump Bedside Checks_pub.pdf</t>
-  </si>
-  <si>
-    <t>Cardiovascular/Intra Aortic Balloon Pump Guideline_pub.pdf</t>
+    <t>Drugs/adrenaline.pdf</t>
   </si>
   <si>
     <t>Drugs/Dobutamine.pdf</t>
   </si>
   <si>
-    <t>Drugs/adrenaline.pdf</t>
-  </si>
-  <si>
     <t>Drugs/hydralazine.pdf</t>
   </si>
   <si>
     <t>Post_op_care/Major OMFS Free Flap.pdf</t>
   </si>
   <si>
+    <t>Drugs/alfentanil.pdf</t>
+  </si>
+  <si>
     <t>Drugs/Alteplase for massive PE.pdf</t>
   </si>
   <si>
-    <t>Drugs/alfentanil.pdf</t>
-  </si>
-  <si>
     <t>Drugs/magnesium.pdf</t>
   </si>
   <si>
+    <t>Drugs/ICU - IV drug infusions.pdf</t>
+  </si>
+  <si>
     <t>Drugs/vancomycin continuous infusion.pdf</t>
   </si>
   <si>
-    <t>Drugs/vancomycin.pdf</t>
-  </si>
-  <si>
-    <t>Drugs/ICU - IV drug infusions.pdf</t>
-  </si>
-  <si>
     <t>Drugs/neostigmine.pdf</t>
   </si>
   <si>
+    <t>Neurological/Intrathecal policy RIE.pdf</t>
+  </si>
+  <si>
+    <t>Infection_and_sepsis/Initial investigation and management in unidentified Infections.pdf</t>
+  </si>
+  <si>
     <t>Drugs/labetalol.pdf</t>
   </si>
   <si>
-    <t>Infection_and_sepsis/Initial investigation and management in unidentified Infections.pdf</t>
-  </si>
-  <si>
-    <t>Neurological/Intrathecal policy RIE.pdf</t>
+    <t>Cardiovascular/Management of Acute Type B Aortic Dissection Guideline.pdf</t>
   </si>
   <si>
     <t>Drugs/midazolam.pdf</t>
   </si>
   <si>
-    <t>Cardiovascular/Management of Acute Type B Aortic Dissection Guideline.pdf</t>
+    <t>Trauma and Burns/Management of Severe Burns v1.6.pdf</t>
+  </si>
+  <si>
+    <t>Procedures/CVC Guidance/CVC NHL  April 2023.pdf</t>
+  </si>
+  <si>
+    <t>Drugs/potassium.pdf</t>
+  </si>
+  <si>
+    <t>Drugs/nimodipine.pdf</t>
   </si>
   <si>
     <t>Drugs/salbutamol.pdf</t>
   </si>
   <si>
-    <t>Procedures/CVC Guidance/CVC NHL  April 2023.pdf</t>
-  </si>
-  <si>
-    <t>Trauma and Burns/Management of Severe Burns v1.6.pdf</t>
-  </si>
-  <si>
-    <t>Drugs/nimodipine.pdf</t>
-  </si>
-  <si>
-    <t>Drugs/potassium.pdf</t>
+    <t>Routine_Care/ICU Eye Care Guideline.pdf</t>
   </si>
   <si>
     <t>Drugs/nicardipine.pdf</t>
@@ -448,9 +448,6 @@
     <t>Procedures/Arterial Line insertion for ACCPs.pdf</t>
   </si>
   <si>
-    <t>Routine_Care/ICU Eye Care Guideline.pdf</t>
-  </si>
-  <si>
     <t>Drugs/amiodarone.pdf</t>
   </si>
   <si>
@@ -460,16 +457,19 @@
     <t>Drugs/morphine.pdf</t>
   </si>
   <si>
+    <t>Drugs/phenylephrine.pdf</t>
+  </si>
+  <si>
+    <t>Drugs/Epoprostenol.pdf</t>
+  </si>
+  <si>
+    <t>Neurological/Ventriculitis Guideline.pdf</t>
+  </si>
+  <si>
     <t>Breathing(Respiratory)/Manual Ventilation and MHI.pdf</t>
   </si>
   <si>
-    <t>Drugs/Epoprostenol.pdf</t>
-  </si>
-  <si>
-    <t>Neurological/Ventriculitis Guideline.pdf</t>
-  </si>
-  <si>
-    <t>Drugs/phenylephrine.pdf</t>
+    <t>Cardiovascular/Pulmonary_Embolism_and_DVT/Catheter directed thrombolysis of iliofemoral DVT alteplase_pub.pdf</t>
   </si>
   <si>
     <t>Cardiovascular/Cardiac Output Monitoring_pub .pdf</t>
@@ -478,7 +478,7 @@
     <t>Drugs/calcium.pdf</t>
   </si>
   <si>
-    <t>Cardiovascular/Pulmonary_Embolism_and_DVT/Catheter directed thrombolysis of iliofemoral DVT alteplase_pub.pdf</t>
+    <t>Airway/Tracheostomy_Laryngectomy/Decannulation Guidline.pdf</t>
   </si>
   <si>
     <t>Drugs/dalteparin_thromboprophylaxis.pdf</t>
@@ -487,16 +487,13 @@
     <t>Drugs/atracurium.pdf</t>
   </si>
   <si>
-    <t>Airway/Tracheostomy_Laryngectomy/Decannulation Guidline.pdf</t>
-  </si>
-  <si>
-    <t>Drugs/Vancomycin Continuous Infusion Fluid Restricted.pdf</t>
+    <t>Drugs/Vancomycin continuous infusion Fluid Restricted.pdf</t>
+  </si>
+  <si>
+    <t>Policies_and_admin/Pet Visitation.pdf</t>
   </si>
   <si>
     <t>Drugs/valproate.pdf</t>
-  </si>
-  <si>
-    <t>Policies_and_admin/Pet Visitation.pdf</t>
   </si>
   <si>
     <t>Procedures/Inadvertent Catheter Placement Guideline.pdf</t>
@@ -1208,7 +1205,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B185"/>
+  <dimension ref="A1:B184"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1227,7 +1224,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -1235,7 +1232,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -1243,7 +1240,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -1251,7 +1248,7 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -1259,7 +1256,7 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -1267,7 +1264,7 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -1275,7 +1272,7 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -1283,7 +1280,7 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -1291,7 +1288,7 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -1299,7 +1296,7 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -1307,7 +1304,7 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -1315,7 +1312,7 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -1323,7 +1320,7 @@
         <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -1331,7 +1328,7 @@
         <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -1339,7 +1336,7 @@
         <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -1347,7 +1344,7 @@
         <v>17</v>
       </c>
       <c r="B17" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -1355,7 +1352,7 @@
         <v>18</v>
       </c>
       <c r="B18" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -1363,7 +1360,7 @@
         <v>19</v>
       </c>
       <c r="B19" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -1371,7 +1368,7 @@
         <v>20</v>
       </c>
       <c r="B20" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -1379,7 +1376,7 @@
         <v>21</v>
       </c>
       <c r="B21" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -1387,7 +1384,7 @@
         <v>22</v>
       </c>
       <c r="B22" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -1395,7 +1392,7 @@
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -1403,7 +1400,7 @@
         <v>24</v>
       </c>
       <c r="B24" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -1411,7 +1408,7 @@
         <v>25</v>
       </c>
       <c r="B25" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -1419,7 +1416,7 @@
         <v>26</v>
       </c>
       <c r="B26" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -1427,7 +1424,7 @@
         <v>27</v>
       </c>
       <c r="B27" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -1435,7 +1432,7 @@
         <v>28</v>
       </c>
       <c r="B28" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -1443,7 +1440,7 @@
         <v>29</v>
       </c>
       <c r="B29" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -1451,7 +1448,7 @@
         <v>30</v>
       </c>
       <c r="B30" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -1459,7 +1456,7 @@
         <v>31</v>
       </c>
       <c r="B31" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -1467,7 +1464,7 @@
         <v>32</v>
       </c>
       <c r="B32" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -1475,7 +1472,7 @@
         <v>33</v>
       </c>
       <c r="B33" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -1483,7 +1480,7 @@
         <v>34</v>
       </c>
       <c r="B34" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -1491,7 +1488,7 @@
         <v>35</v>
       </c>
       <c r="B35" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -1499,7 +1496,7 @@
         <v>36</v>
       </c>
       <c r="B36" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -1507,7 +1504,7 @@
         <v>37</v>
       </c>
       <c r="B37" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -1515,7 +1512,7 @@
         <v>38</v>
       </c>
       <c r="B38" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -1523,7 +1520,7 @@
         <v>39</v>
       </c>
       <c r="B39" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -1531,7 +1528,7 @@
         <v>40</v>
       </c>
       <c r="B40" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -1539,7 +1536,7 @@
         <v>41</v>
       </c>
       <c r="B41" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -1547,7 +1544,7 @@
         <v>42</v>
       </c>
       <c r="B42" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -1555,7 +1552,7 @@
         <v>43</v>
       </c>
       <c r="B43" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -1563,7 +1560,7 @@
         <v>44</v>
       </c>
       <c r="B44" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -1571,7 +1568,7 @@
         <v>45</v>
       </c>
       <c r="B45" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -1579,7 +1576,7 @@
         <v>46</v>
       </c>
       <c r="B46" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -1587,7 +1584,7 @@
         <v>47</v>
       </c>
       <c r="B47" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -1595,7 +1592,7 @@
         <v>48</v>
       </c>
       <c r="B48" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -1603,7 +1600,7 @@
         <v>49</v>
       </c>
       <c r="B49" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -1611,7 +1608,7 @@
         <v>50</v>
       </c>
       <c r="B50" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -1619,7 +1616,7 @@
         <v>51</v>
       </c>
       <c r="B51" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -1627,7 +1624,7 @@
         <v>52</v>
       </c>
       <c r="B52" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -1635,7 +1632,7 @@
         <v>53</v>
       </c>
       <c r="B53" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="54" spans="1:2">
@@ -1643,7 +1640,7 @@
         <v>54</v>
       </c>
       <c r="B54" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="55" spans="1:2">
@@ -1651,7 +1648,7 @@
         <v>55</v>
       </c>
       <c r="B55" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="56" spans="1:2">
@@ -1659,7 +1656,7 @@
         <v>56</v>
       </c>
       <c r="B56" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="57" spans="1:2">
@@ -1667,7 +1664,7 @@
         <v>57</v>
       </c>
       <c r="B57" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="58" spans="1:2">
@@ -1675,7 +1672,7 @@
         <v>58</v>
       </c>
       <c r="B58" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="59" spans="1:2">
@@ -1683,7 +1680,7 @@
         <v>59</v>
       </c>
       <c r="B59" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="60" spans="1:2">
@@ -1691,7 +1688,7 @@
         <v>60</v>
       </c>
       <c r="B60" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="61" spans="1:2">
@@ -1699,7 +1696,7 @@
         <v>61</v>
       </c>
       <c r="B61" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="62" spans="1:2">
@@ -1707,7 +1704,7 @@
         <v>62</v>
       </c>
       <c r="B62" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="63" spans="1:2">
@@ -1715,7 +1712,7 @@
         <v>63</v>
       </c>
       <c r="B63" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="64" spans="1:2">
@@ -1723,7 +1720,7 @@
         <v>64</v>
       </c>
       <c r="B64" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="65" spans="1:2">
@@ -1731,7 +1728,7 @@
         <v>65</v>
       </c>
       <c r="B65" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="66" spans="1:2">
@@ -1739,7 +1736,7 @@
         <v>66</v>
       </c>
       <c r="B66" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="67" spans="1:2">
@@ -1747,7 +1744,7 @@
         <v>67</v>
       </c>
       <c r="B67" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="68" spans="1:2">
@@ -1755,7 +1752,7 @@
         <v>68</v>
       </c>
       <c r="B68" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="69" spans="1:2">
@@ -1763,7 +1760,7 @@
         <v>69</v>
       </c>
       <c r="B69" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="70" spans="1:2">
@@ -1771,7 +1768,7 @@
         <v>70</v>
       </c>
       <c r="B70" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="71" spans="1:2">
@@ -1779,7 +1776,7 @@
         <v>71</v>
       </c>
       <c r="B71" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="72" spans="1:2">
@@ -1787,7 +1784,7 @@
         <v>72</v>
       </c>
       <c r="B72" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="73" spans="1:2">
@@ -1795,7 +1792,7 @@
         <v>73</v>
       </c>
       <c r="B73" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="74" spans="1:2">
@@ -1803,7 +1800,7 @@
         <v>74</v>
       </c>
       <c r="B74" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="75" spans="1:2">
@@ -1811,7 +1808,7 @@
         <v>75</v>
       </c>
       <c r="B75" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="76" spans="1:2">
@@ -1819,7 +1816,7 @@
         <v>76</v>
       </c>
       <c r="B76" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="77" spans="1:2">
@@ -1827,7 +1824,7 @@
         <v>77</v>
       </c>
       <c r="B77" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="78" spans="1:2">
@@ -1835,7 +1832,7 @@
         <v>78</v>
       </c>
       <c r="B78" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="79" spans="1:2">
@@ -1843,7 +1840,7 @@
         <v>79</v>
       </c>
       <c r="B79" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="80" spans="1:2">
@@ -1851,7 +1848,7 @@
         <v>80</v>
       </c>
       <c r="B80" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="81" spans="1:2">
@@ -1859,7 +1856,7 @@
         <v>81</v>
       </c>
       <c r="B81" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="82" spans="1:2">
@@ -1867,7 +1864,7 @@
         <v>82</v>
       </c>
       <c r="B82" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="83" spans="1:2">
@@ -1875,7 +1872,7 @@
         <v>83</v>
       </c>
       <c r="B83" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="84" spans="1:2">
@@ -1883,7 +1880,7 @@
         <v>84</v>
       </c>
       <c r="B84" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="85" spans="1:2">
@@ -1891,7 +1888,7 @@
         <v>85</v>
       </c>
       <c r="B85" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="86" spans="1:2">
@@ -1899,7 +1896,7 @@
         <v>86</v>
       </c>
       <c r="B86" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="87" spans="1:2">
@@ -1907,7 +1904,7 @@
         <v>87</v>
       </c>
       <c r="B87" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="88" spans="1:2">
@@ -1915,7 +1912,7 @@
         <v>88</v>
       </c>
       <c r="B88" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="89" spans="1:2">
@@ -1923,7 +1920,7 @@
         <v>89</v>
       </c>
       <c r="B89" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="90" spans="1:2">
@@ -1931,7 +1928,7 @@
         <v>90</v>
       </c>
       <c r="B90" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="91" spans="1:2">
@@ -1939,7 +1936,7 @@
         <v>91</v>
       </c>
       <c r="B91" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="92" spans="1:2">
@@ -1947,7 +1944,7 @@
         <v>92</v>
       </c>
       <c r="B92" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="93" spans="1:2">
@@ -1955,7 +1952,7 @@
         <v>93</v>
       </c>
       <c r="B93" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="94" spans="1:2">
@@ -1963,7 +1960,7 @@
         <v>94</v>
       </c>
       <c r="B94" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="95" spans="1:2">
@@ -1971,7 +1968,7 @@
         <v>95</v>
       </c>
       <c r="B95" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="96" spans="1:2">
@@ -1979,7 +1976,7 @@
         <v>96</v>
       </c>
       <c r="B96" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="97" spans="1:2">
@@ -1987,7 +1984,7 @@
         <v>97</v>
       </c>
       <c r="B97" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="98" spans="1:2">
@@ -1995,7 +1992,7 @@
         <v>98</v>
       </c>
       <c r="B98" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="99" spans="1:2">
@@ -2003,7 +2000,7 @@
         <v>99</v>
       </c>
       <c r="B99" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="100" spans="1:2">
@@ -2011,7 +2008,7 @@
         <v>100</v>
       </c>
       <c r="B100" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="101" spans="1:2">
@@ -2019,7 +2016,7 @@
         <v>101</v>
       </c>
       <c r="B101" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="102" spans="1:2">
@@ -2027,7 +2024,7 @@
         <v>102</v>
       </c>
       <c r="B102" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="103" spans="1:2">
@@ -2035,7 +2032,7 @@
         <v>103</v>
       </c>
       <c r="B103" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="104" spans="1:2">
@@ -2043,7 +2040,7 @@
         <v>104</v>
       </c>
       <c r="B104" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="105" spans="1:2">
@@ -2051,7 +2048,7 @@
         <v>105</v>
       </c>
       <c r="B105" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="106" spans="1:2">
@@ -2059,7 +2056,7 @@
         <v>106</v>
       </c>
       <c r="B106" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="107" spans="1:2">
@@ -2067,7 +2064,7 @@
         <v>107</v>
       </c>
       <c r="B107" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="108" spans="1:2">
@@ -2075,7 +2072,7 @@
         <v>108</v>
       </c>
       <c r="B108" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="109" spans="1:2">
@@ -2083,7 +2080,7 @@
         <v>109</v>
       </c>
       <c r="B109" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="110" spans="1:2">
@@ -2091,7 +2088,7 @@
         <v>110</v>
       </c>
       <c r="B110" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="111" spans="1:2">
@@ -2099,7 +2096,7 @@
         <v>111</v>
       </c>
       <c r="B111" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="112" spans="1:2">
@@ -2107,7 +2104,7 @@
         <v>112</v>
       </c>
       <c r="B112" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="113" spans="1:2">
@@ -2115,7 +2112,7 @@
         <v>113</v>
       </c>
       <c r="B113" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="114" spans="1:2">
@@ -2123,7 +2120,7 @@
         <v>114</v>
       </c>
       <c r="B114" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="115" spans="1:2">
@@ -2131,7 +2128,7 @@
         <v>115</v>
       </c>
       <c r="B115" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="116" spans="1:2">
@@ -2139,7 +2136,7 @@
         <v>116</v>
       </c>
       <c r="B116" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="117" spans="1:2">
@@ -2147,7 +2144,7 @@
         <v>117</v>
       </c>
       <c r="B117" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="118" spans="1:2">
@@ -2155,7 +2152,7 @@
         <v>118</v>
       </c>
       <c r="B118" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="119" spans="1:2">
@@ -2163,7 +2160,7 @@
         <v>119</v>
       </c>
       <c r="B119" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="120" spans="1:2">
@@ -2171,7 +2168,7 @@
         <v>120</v>
       </c>
       <c r="B120" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="121" spans="1:2">
@@ -2179,7 +2176,7 @@
         <v>121</v>
       </c>
       <c r="B121" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="122" spans="1:2">
@@ -2187,7 +2184,7 @@
         <v>122</v>
       </c>
       <c r="B122" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="123" spans="1:2">
@@ -2195,7 +2192,7 @@
         <v>123</v>
       </c>
       <c r="B123" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="124" spans="1:2">
@@ -2203,7 +2200,7 @@
         <v>124</v>
       </c>
       <c r="B124" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="125" spans="1:2">
@@ -2211,7 +2208,7 @@
         <v>125</v>
       </c>
       <c r="B125" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="126" spans="1:2">
@@ -2219,7 +2216,7 @@
         <v>126</v>
       </c>
       <c r="B126" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="127" spans="1:2">
@@ -2227,7 +2224,7 @@
         <v>127</v>
       </c>
       <c r="B127" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="128" spans="1:2">
@@ -2235,7 +2232,7 @@
         <v>128</v>
       </c>
       <c r="B128" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="129" spans="1:2">
@@ -2243,7 +2240,7 @@
         <v>129</v>
       </c>
       <c r="B129" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="130" spans="1:2">
@@ -2251,7 +2248,7 @@
         <v>130</v>
       </c>
       <c r="B130" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="131" spans="1:2">
@@ -2267,7 +2264,7 @@
         <v>132</v>
       </c>
       <c r="B132" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="133" spans="1:2">
@@ -2275,7 +2272,7 @@
         <v>133</v>
       </c>
       <c r="B133" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="134" spans="1:2">
@@ -2291,7 +2288,7 @@
         <v>135</v>
       </c>
       <c r="B135" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="136" spans="1:2">
@@ -2307,7 +2304,7 @@
         <v>137</v>
       </c>
       <c r="B137" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="138" spans="1:2">
@@ -2315,7 +2312,7 @@
         <v>138</v>
       </c>
       <c r="B138" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="139" spans="1:2">
@@ -2323,7 +2320,7 @@
         <v>139</v>
       </c>
       <c r="B139" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="140" spans="1:2">
@@ -2331,7 +2328,7 @@
         <v>140</v>
       </c>
       <c r="B140" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="141" spans="1:2">
@@ -2347,7 +2344,7 @@
         <v>142</v>
       </c>
       <c r="B142" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="143" spans="1:2">
@@ -2355,7 +2352,7 @@
         <v>143</v>
       </c>
       <c r="B143" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="144" spans="1:2">
@@ -2363,7 +2360,7 @@
         <v>144</v>
       </c>
       <c r="B144" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="145" spans="1:2">
@@ -2371,7 +2368,7 @@
         <v>145</v>
       </c>
       <c r="B145" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="146" spans="1:2">
@@ -2387,7 +2384,7 @@
         <v>147</v>
       </c>
       <c r="B147" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="148" spans="1:2">
@@ -2395,7 +2392,7 @@
         <v>148</v>
       </c>
       <c r="B148" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="149" spans="1:2">
@@ -2403,7 +2400,7 @@
         <v>149</v>
       </c>
       <c r="B149" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="150" spans="1:2">
@@ -2411,7 +2408,7 @@
         <v>150</v>
       </c>
       <c r="B150" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="151" spans="1:2">
@@ -2427,7 +2424,7 @@
         <v>152</v>
       </c>
       <c r="B152" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="153" spans="1:2">
@@ -2435,7 +2432,7 @@
         <v>153</v>
       </c>
       <c r="B153" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="154" spans="1:2">
@@ -2451,7 +2448,7 @@
         <v>155</v>
       </c>
       <c r="B155" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="156" spans="1:2">
@@ -2459,7 +2456,7 @@
         <v>156</v>
       </c>
       <c r="B156" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="157" spans="1:2">
@@ -2467,7 +2464,7 @@
         <v>157</v>
       </c>
       <c r="B157" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="158" spans="1:2">
@@ -2483,7 +2480,7 @@
         <v>159</v>
       </c>
       <c r="B159" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="160" spans="1:2">
@@ -2491,7 +2488,7 @@
         <v>160</v>
       </c>
       <c r="B160" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="161" spans="1:2">
@@ -2507,7 +2504,7 @@
         <v>162</v>
       </c>
       <c r="B162" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="163" spans="1:2">
@@ -2515,7 +2512,7 @@
         <v>163</v>
       </c>
       <c r="B163" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="164" spans="1:2">
@@ -2531,7 +2528,7 @@
         <v>165</v>
       </c>
       <c r="B165" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="166" spans="1:2">
@@ -2539,7 +2536,7 @@
         <v>166</v>
       </c>
       <c r="B166" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="167" spans="1:2">
@@ -2547,7 +2544,7 @@
         <v>167</v>
       </c>
       <c r="B167" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="168" spans="1:2">
@@ -2555,7 +2552,7 @@
         <v>168</v>
       </c>
       <c r="B168" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="169" spans="1:2">
@@ -2571,7 +2568,7 @@
         <v>170</v>
       </c>
       <c r="B170" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="171" spans="1:2">
@@ -2579,7 +2576,7 @@
         <v>171</v>
       </c>
       <c r="B171" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="172" spans="1:2">
@@ -2651,7 +2648,7 @@
         <v>180</v>
       </c>
       <c r="B180" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="181" spans="1:2">
@@ -2684,14 +2681,6 @@
       </c>
       <c r="B184" t="s">
         <v>277</v>
-      </c>
-    </row>
-    <row r="185" spans="1:2">
-      <c r="A185" t="s">
-        <v>185</v>
-      </c>
-      <c r="B185" t="s">
-        <v>278</v>
       </c>
     </row>
   </sheetData>

--- a/lothiancriticalcare/1a74f8f7b8b7e871b413c4697f68b4401fbacdf0/reviewdates.xlsx
+++ b/lothiancriticalcare/1a74f8f7b8b7e871b413c4697f68b4401fbacdf0/reviewdates.xlsx
@@ -64,12 +64,12 @@
     <t>Routine_Care/Tracheostomy_nursing_care.pdf</t>
   </si>
   <si>
+    <t>ECLS/Extra Corporeal Carbon Dioxide Removal.pdf</t>
+  </si>
+  <si>
     <t>Airway/Critical care extubation checklist.pdf</t>
   </si>
   <si>
-    <t>ECLS/Extra Corporeal Carbon Dioxide Removal.pdf</t>
-  </si>
-  <si>
     <t>Airway/Tracheostomy_Laryngectomy/Hospital_in-patients_with_a_Tracheostomy.pdf</t>
   </si>
   <si>
@@ -82,15 +82,15 @@
     <t>End_of_life_care/Reasons to report a death to PF.pdf</t>
   </si>
   <si>
+    <t>Neurological/SOP -  Femoral site care.pdf</t>
+  </si>
+  <si>
+    <t>Airway/Tracheostomy_Laryngectomy/Tracheostomy change in Critical Care.pdf</t>
+  </si>
+  <si>
     <t>Airway/Tracheostomy_Laryngectomy/Tracheostomy suctioning cleaning guideline.pdf</t>
   </si>
   <si>
-    <t>Airway/Tracheostomy_Laryngectomy/Tracheostomy change in Critical Care.pdf</t>
-  </si>
-  <si>
-    <t>Neurological/SOP -  Femoral site care.pdf</t>
-  </si>
-  <si>
     <t>Drugs/sodium_bicarbonate.pdf</t>
   </si>
   <si>
@@ -100,24 +100,24 @@
     <t>Post_op_care/Epidural top-up.pdf</t>
   </si>
   <si>
+    <t>Covid-19/SJH/SJH COVID19 ITU Intubation Action Card.pdf</t>
+  </si>
+  <si>
+    <t>Drugs/heparin for Haemofiltration.pdf</t>
+  </si>
+  <si>
+    <t>Covid-19/WGH/CoVid intubation checklist WGH.pdf</t>
+  </si>
+  <si>
+    <t>Diabetes_and_Glucose/Hyperosmolar Hyperglycaemic State.pdf</t>
+  </si>
+  <si>
     <t>Covid-19/SJH/SJH COVID19 ED Intubation Action Card.pdf</t>
   </si>
   <si>
-    <t>Covid-19/SJH/SJH COVID19 ITU Intubation Action Card.pdf</t>
-  </si>
-  <si>
-    <t>Drugs/heparin for Haemofiltration.pdf</t>
-  </si>
-  <si>
-    <t>Covid-19/WGH/CoVid intubation checklist WGH.pdf</t>
-  </si>
-  <si>
     <t>Airway/Emergency intubation checklist_em_pub.pdf</t>
   </si>
   <si>
-    <t>Diabetes_and_Glucose/Hyperosmolar Hyperglycaemic State.pdf</t>
-  </si>
-  <si>
     <t>Drugs/fentanyl.pdf</t>
   </si>
   <si>
@@ -136,36 +136,36 @@
     <t>Airway/Percutaneous tracheostomy checklist.pdf</t>
   </si>
   <si>
+    <t>Infection_and_sepsis/SOP Ultrasound Cleaning.pdf</t>
+  </si>
+  <si>
     <t>Delirium/Risk assessment posi mit.pdf</t>
   </si>
   <si>
-    <t>Infection_and_sepsis/SOP Ultrasound Cleaning.pdf</t>
+    <t>Neurological/Sub arachnoid haemorrhage management.pdf</t>
+  </si>
+  <si>
+    <t>Breathing(Respiratory)/HFNO.pdf</t>
   </si>
   <si>
     <t>GI_Liver_and_Transplant/Treatment of constipation.pdf</t>
   </si>
   <si>
+    <t>Airway/McGrath Mac.pdf</t>
+  </si>
+  <si>
+    <t>Airway/Anticipated difficult airway tool.pdf</t>
+  </si>
+  <si>
+    <t>GI_Liver_and_Transplant/Abdominal pressure measurement.pdf</t>
+  </si>
+  <si>
     <t>Drugs/ketamine_in_asthma.pdf</t>
   </si>
   <si>
-    <t>Neurological/Sub arachnoid haemorrhage management.pdf</t>
-  </si>
-  <si>
-    <t>Airway/McGrath Mac.pdf</t>
-  </si>
-  <si>
-    <t>Airway/Anticipated difficult airway tool.pdf</t>
-  </si>
-  <si>
-    <t>GI_Liver_and_Transplant/Abdominal pressure measurement.pdf</t>
-  </si>
-  <si>
     <t>Airway/Tracheostomy_Laryngectomy/Tracheostomy safety box contents.pdf</t>
   </si>
   <si>
-    <t>Breathing(Respiratory)/HFNO.pdf</t>
-  </si>
-  <si>
     <t>End_of_life_care/Documentation following death.pdf</t>
   </si>
   <si>
@@ -184,21 +184,21 @@
     <t>Breathing(Respiratory)/Inhaled Nitrous Oxide.pdf</t>
   </si>
   <si>
+    <t>Breathing(Respiratory)/Equipment/APRV.pdf</t>
+  </si>
+  <si>
     <t>Cardiovascular/Steroids for Septic Shock.pdf</t>
   </si>
   <si>
-    <t>Breathing(Respiratory)/Equipment/APRV.pdf</t>
+    <t>Neurological/SOP for review of Neurosurgical patients in ITU by neurosurgical team.pdf</t>
+  </si>
+  <si>
+    <t>Breathing(Respiratory)/Equipment/T piece Y piece.pdf</t>
   </si>
   <si>
     <t>Post_op_care/Epidural Haematoma.pdf</t>
   </si>
   <si>
-    <t>Breathing(Respiratory)/Equipment/T piece Y piece.pdf</t>
-  </si>
-  <si>
-    <t>Neurological/SOP for review of Neurosurgical patients in ITU by neurosurgical team.pdf</t>
-  </si>
-  <si>
     <t>Policies_and_admin/General Critical Care Interaction with HEPMA_pub.pdf</t>
   </si>
   <si>
@@ -220,12 +220,12 @@
     <t>GI_Liver_and_Transplant/Nasogastric feeding protocol.pdf</t>
   </si>
   <si>
+    <t>Drugs/Antibiotic doses in CVVHD.pdf</t>
+  </si>
+  <si>
     <t>Diabetes_and_Glucose/Intravenous Insulin Therapy (not for DKA or HHS).pdf</t>
   </si>
   <si>
-    <t>Drugs/Antibiotic doses in CVVHD.pdf</t>
-  </si>
-  <si>
     <t>GI_Liver_and_Transplant/Jejunostomy feeding protocol.pdf</t>
   </si>
   <si>
@@ -259,28 +259,31 @@
     <t>Drugs/piperacillin_tazobactam extended_infusion.pdf</t>
   </si>
   <si>
+    <t>Covid-19/Covid 19 Death Certification Guideline.pdf</t>
+  </si>
+  <si>
     <t>Procedures/CVC Guidance/Securing CVCs.pdf</t>
   </si>
   <si>
-    <t>Covid-19/Covid 19 Death Certification Guideline.pdf</t>
-  </si>
-  <si>
     <t>Routine_Care/Video Communication.pdf</t>
   </si>
   <si>
+    <t>Cardiovascular/Cardiogenic Shock.pdf</t>
+  </si>
+  <si>
     <t>Drugs/isoprenaline.pdf</t>
   </si>
   <si>
-    <t>Cardiovascular/Cardiogenic Shock.pdf</t>
-  </si>
-  <si>
     <t>Haematology_CAR-T/Haem_ICU_transfer.pdf</t>
   </si>
   <si>
+    <t>Cardiovascular/Management of hypertension within Critical Care.pdf</t>
+  </si>
+  <si>
     <t>Drugs/aminophylline.pdf</t>
   </si>
   <si>
-    <t>Cardiovascular/Management of hypertension within Critical Care.pdf</t>
+    <t>Drugs/pancuronium.pdf</t>
   </si>
   <si>
     <t>Drugs/phenytoin.pdf</t>
@@ -292,91 +295,91 @@
     <t>Haematology_CAR-T/Cytokine Release Syndrome.pdf</t>
   </si>
   <si>
-    <t>Drugs/pancuronium.pdf</t>
-  </si>
-  <si>
     <t>Haematology_CAR-T/ICANS.pdf</t>
   </si>
   <si>
+    <t>Drugs/milrinone.pdf</t>
+  </si>
+  <si>
     <t>Policies_and_admin/General Critical Care SOP_pub.pdf</t>
   </si>
   <si>
-    <t>Drugs/milrinone.pdf</t>
+    <t>GI_Liver_and_Transplant/ICU - Upper GI bleeding (Endoscopy guideline).pdf</t>
   </si>
   <si>
     <t>Organ_donation/Organ Retrieval SOP.pdf</t>
   </si>
   <si>
+    <t>Drugs/clonidine.pdf</t>
+  </si>
+  <si>
+    <t>Neurological/Management of traumatic brain injury.pdf</t>
+  </si>
+  <si>
+    <t>Neurological/Critical Care MRI Procedure_pub.pdf</t>
+  </si>
+  <si>
+    <t>Infection_and_sepsis/Trip Out of Unit infection guidance.pdf</t>
+  </si>
+  <si>
+    <t>Ethics_and_Law/Care at the End of Life (FICM).pdf</t>
+  </si>
+  <si>
+    <t>End_of_life_care/CMO &amp; NRS Guidance for Doctors completing MCCD.pdf</t>
+  </si>
+  <si>
+    <t>Ethics_and_Law/DNACPR policy for Scotland.pdf</t>
+  </si>
+  <si>
     <t>End_of_life_care/Palliative extubation &amp; withdrawal of invasive ventilatory support nursing checklist.pdf</t>
   </si>
   <si>
-    <t>GI_Liver_and_Transplant/ICU - Upper GI bleeding (Endoscopy guideline).pdf</t>
-  </si>
-  <si>
-    <t>End_of_life_care/CMO &amp; NRS Guidance for Doctors completing MCCD.pdf</t>
-  </si>
-  <si>
-    <t>Infection_and_sepsis/Trip Out of Unit infection guidance.pdf</t>
-  </si>
-  <si>
-    <t>Ethics_and_Law/Care at the End of Life (FICM).pdf</t>
-  </si>
-  <si>
     <t>Covid-19/COVID 19 ICM guidance basic goals_June_2022.pdf</t>
   </si>
   <si>
-    <t>Ethics_and_Law/DNACPR policy for Scotland.pdf</t>
-  </si>
-  <si>
-    <t>Neurological/Management of traumatic brain injury.pdf</t>
-  </si>
-  <si>
-    <t>Neurological/Critical Care MRI Procedure_pub.pdf</t>
-  </si>
-  <si>
-    <t>Drugs/clonidine.pdf</t>
-  </si>
-  <si>
     <t>Airway/Cook Staged Extubation Set.pdf</t>
   </si>
   <si>
+    <t>Post_op_care/Epidural hypotension.pdf</t>
+  </si>
+  <si>
     <t>Drugs/noradrenaline (central).pdf</t>
   </si>
   <si>
     <t>End_of_life_care/End of Life Care Guideline for Critical Care.pdf</t>
   </si>
   <si>
-    <t>Post_op_care/Epidural hypotension.pdf</t>
+    <t>Infection_and_sepsis/Antifungal guidance in critical care.pdf</t>
+  </si>
+  <si>
+    <t>Drugs/dexmedetomidine.pdf</t>
+  </si>
+  <si>
+    <t>GI_Liver_and_Transplant/Fulminant Liver Failure.pdf</t>
+  </si>
+  <si>
+    <t>GI_Liver_and_Transplant/Confirmation of Nasogastric Tube Position.pdf</t>
+  </si>
+  <si>
+    <t>Drugs/glyceryl_trinitrate.pdf</t>
   </si>
   <si>
     <t>Breathing(Respiratory)/Equipment/Passy Muir Valve.pdf</t>
   </si>
   <si>
-    <t>Drugs/dexmedetomidine.pdf</t>
-  </si>
-  <si>
-    <t>GI_Liver_and_Transplant/Fulminant Liver Failure.pdf</t>
-  </si>
-  <si>
-    <t>Drugs/glyceryl_trinitrate.pdf</t>
-  </si>
-  <si>
-    <t>GI_Liver_and_Transplant/Confirmation of Nasogastric Tube Position.pdf</t>
-  </si>
-  <si>
-    <t>Infection_and_sepsis/Antifungal guidance in critical care.pdf</t>
-  </si>
-  <si>
     <t>Breathing(Respiratory)/ARDS Strategy.pdf</t>
   </si>
   <si>
+    <t>Transfer/Transfer Outdoors to Garden Guideline.pdf</t>
+  </si>
+  <si>
     <t>Cardiovascular/Intra Aortic Balloon Pump Guideline_pub.pdf</t>
   </si>
   <si>
     <t>Cardiovascular/Intra Aortic Balloon Pump Bedside Checks_pub.pdf</t>
   </si>
   <si>
-    <t>Transfer/Transfer Outdoors to Garden Guideline.pdf</t>
+    <t>Drugs/hydralazine.pdf</t>
   </si>
   <si>
     <t>Drugs/adrenaline.pdf</t>
@@ -385,9 +388,6 @@
     <t>Drugs/Dobutamine.pdf</t>
   </si>
   <si>
-    <t>Drugs/hydralazine.pdf</t>
-  </si>
-  <si>
     <t>Post_op_care/Major OMFS Free Flap.pdf</t>
   </si>
   <si>
@@ -403,18 +403,18 @@
     <t>Drugs/ICU - IV drug infusions.pdf</t>
   </si>
   <si>
+    <t>Drugs/neostigmine.pdf</t>
+  </si>
+  <si>
     <t>Drugs/vancomycin continuous infusion.pdf</t>
   </si>
   <si>
-    <t>Drugs/neostigmine.pdf</t>
+    <t>Infection_and_sepsis/Initial investigation and management in unidentified Infections.pdf</t>
   </si>
   <si>
     <t>Neurological/Intrathecal policy RIE.pdf</t>
   </si>
   <si>
-    <t>Infection_and_sepsis/Initial investigation and management in unidentified Infections.pdf</t>
-  </si>
-  <si>
     <t>Drugs/labetalol.pdf</t>
   </si>
   <si>
@@ -424,72 +424,72 @@
     <t>Drugs/midazolam.pdf</t>
   </si>
   <si>
+    <t>Procedures/CVC Guidance/CVC NHL  April 2023.pdf</t>
+  </si>
+  <si>
+    <t>Drugs/nimodipine.pdf</t>
+  </si>
+  <si>
     <t>Trauma and Burns/Management of Severe Burns v1.6.pdf</t>
   </si>
   <si>
-    <t>Procedures/CVC Guidance/CVC NHL  April 2023.pdf</t>
-  </si>
-  <si>
     <t>Drugs/potassium.pdf</t>
   </si>
   <si>
-    <t>Drugs/nimodipine.pdf</t>
-  </si>
-  <si>
     <t>Drugs/salbutamol.pdf</t>
   </si>
   <si>
+    <t>Drugs/phenobarbitone.pdf</t>
+  </si>
+  <si>
+    <t>Drugs/nicardipine.pdf</t>
+  </si>
+  <si>
     <t>Routine_Care/ICU Eye Care Guideline.pdf</t>
   </si>
   <si>
-    <t>Drugs/nicardipine.pdf</t>
-  </si>
-  <si>
     <t>Procedures/Arterial Line insertion for ACCPs.pdf</t>
   </si>
   <si>
     <t>Drugs/amiodarone.pdf</t>
   </si>
   <si>
-    <t>Drugs/phenobarbitone.pdf</t>
-  </si>
-  <si>
     <t>Drugs/morphine.pdf</t>
   </si>
   <si>
+    <t>Neurological/Ventriculitis Guideline.pdf</t>
+  </si>
+  <si>
     <t>Drugs/phenylephrine.pdf</t>
   </si>
   <si>
     <t>Drugs/Epoprostenol.pdf</t>
   </si>
   <si>
-    <t>Neurological/Ventriculitis Guideline.pdf</t>
-  </si>
-  <si>
     <t>Breathing(Respiratory)/Manual Ventilation and MHI.pdf</t>
   </si>
   <si>
+    <t>Drugs/calcium.pdf</t>
+  </si>
+  <si>
+    <t>Cardiovascular/Cardiac Output Monitoring_pub .pdf</t>
+  </si>
+  <si>
     <t>Cardiovascular/Pulmonary_Embolism_and_DVT/Catheter directed thrombolysis of iliofemoral DVT alteplase_pub.pdf</t>
   </si>
   <si>
-    <t>Cardiovascular/Cardiac Output Monitoring_pub .pdf</t>
-  </si>
-  <si>
-    <t>Drugs/calcium.pdf</t>
+    <t>Drugs/Vancomycin continuous infusion Fluid Restricted.pdf</t>
+  </si>
+  <si>
+    <t>Drugs/dalteparin_thromboprophylaxis.pdf</t>
   </si>
   <si>
     <t>Airway/Tracheostomy_Laryngectomy/Decannulation Guidline.pdf</t>
   </si>
   <si>
-    <t>Drugs/dalteparin_thromboprophylaxis.pdf</t>
-  </si>
-  <si>
     <t>Drugs/atracurium.pdf</t>
   </si>
   <si>
-    <t>Drugs/Vancomycin continuous infusion Fluid Restricted.pdf</t>
-  </si>
-  <si>
     <t>Policies_and_admin/Pet Visitation.pdf</t>
   </si>
   <si>
@@ -499,36 +499,36 @@
     <t>Procedures/Inadvertent Catheter Placement Guideline.pdf</t>
   </si>
   <si>
+    <t>Drugs/Phosphate.pdf</t>
+  </si>
+  <si>
     <t>Drugs/stress ulcer prophylaxis.pdf</t>
   </si>
   <si>
-    <t>Drugs/Phosphate.pdf</t>
-  </si>
-  <si>
     <t>Drugs/ketamine_for_status epilepticus.pdf</t>
   </si>
   <si>
     <t>Breathing(Respiratory)/Proning Guideline.pdf</t>
   </si>
   <si>
+    <t>GI_Liver_and_Transplant/Prokinetics in ICU.pdf</t>
+  </si>
+  <si>
+    <t>Drugs/Octreotide.pdf</t>
+  </si>
+  <si>
     <t>Drugs/Thiopentone.pdf</t>
   </si>
   <si>
     <t>Neurological/Status epilepticus.pdf</t>
   </si>
   <si>
-    <t>Drugs/Octreotide.pdf</t>
-  </si>
-  <si>
-    <t>GI_Liver_and_Transplant/Prokinetics in ICU.pdf</t>
+    <t>Procedures/ACCPs acquiring initial CVC competencies.pdf</t>
   </si>
   <si>
     <t>Procedures/ACCP CVC placement following completion of initial competencies.pdf</t>
   </si>
   <si>
-    <t>Procedures/ACCPs acquiring initial CVC competencies.pdf</t>
-  </si>
-  <si>
     <t>Post_op_care/Prevention and treatment of paraplegia after major aortic procedures.pdf</t>
   </si>
   <si>
@@ -553,12 +553,12 @@
     <t>Breathing(Respiratory)/Equipment/Setting up the NKV-330.pdf</t>
   </si>
   <si>
+    <t>Breathing(Respiratory)/T1RF - CPAP Guidelines_Mar24.pdf</t>
+  </si>
+  <si>
     <t>Breathing(Respiratory)/NKV 330 NIV guidelines.pdf</t>
   </si>
   <si>
-    <t>Breathing(Respiratory)/T1RF - CPAP Guidelines_Mar24.pdf</t>
-  </si>
-  <si>
     <t>Infection_and_sepsis/Influenza in Critical Care.pdf</t>
   </si>
   <si>
@@ -571,204 +571,204 @@
     <t>Policies_and_admin/Repatriaiton Checklist for Critical Care.pdf</t>
   </si>
   <si>
-    <t>2011-03-18</t>
-  </si>
-  <si>
-    <t>2011-06-18</t>
-  </si>
-  <si>
-    <t>2011-07-18</t>
-  </si>
-  <si>
-    <t>2011-12-18</t>
-  </si>
-  <si>
-    <t>2014-09-18</t>
-  </si>
-  <si>
-    <t>2014-10-18</t>
-  </si>
-  <si>
-    <t>2014-11-18</t>
-  </si>
-  <si>
-    <t>2014-12-18</t>
-  </si>
-  <si>
-    <t>2015-03-18</t>
-  </si>
-  <si>
-    <t>2016-01-18</t>
-  </si>
-  <si>
-    <t>2016-04-18</t>
-  </si>
-  <si>
-    <t>2016-08-18</t>
-  </si>
-  <si>
-    <t>2017-01-18</t>
-  </si>
-  <si>
-    <t>2017-08-18</t>
-  </si>
-  <si>
-    <t>2017-10-18</t>
-  </si>
-  <si>
-    <t>2017-11-18</t>
-  </si>
-  <si>
-    <t>2018-07-18</t>
-  </si>
-  <si>
-    <t>2019-05-18</t>
-  </si>
-  <si>
-    <t>2019-06-18</t>
-  </si>
-  <si>
-    <t>2019-08-18</t>
-  </si>
-  <si>
-    <t>2019-09-18</t>
-  </si>
-  <si>
-    <t>2020-01-18</t>
-  </si>
-  <si>
-    <t>2020-03-18</t>
-  </si>
-  <si>
-    <t>2020-04-18</t>
-  </si>
-  <si>
-    <t>2020-05-18</t>
-  </si>
-  <si>
-    <t>2020-07-18</t>
-  </si>
-  <si>
-    <t>2020-08-18</t>
-  </si>
-  <si>
-    <t>2020-11-18</t>
-  </si>
-  <si>
-    <t>2021-02-18</t>
-  </si>
-  <si>
-    <t>2021-05-18</t>
-  </si>
-  <si>
-    <t>2021-06-18</t>
-  </si>
-  <si>
-    <t>2021-09-18</t>
-  </si>
-  <si>
-    <t>2021-12-18</t>
-  </si>
-  <si>
-    <t>2022-01-18</t>
-  </si>
-  <si>
-    <t>2022-03-18</t>
-  </si>
-  <si>
-    <t>2022-04-18</t>
-  </si>
-  <si>
-    <t>2022-05-18</t>
-  </si>
-  <si>
-    <t>2022-06-18</t>
-  </si>
-  <si>
-    <t>2022-07-18</t>
-  </si>
-  <si>
-    <t>2022-08-18</t>
-  </si>
-  <si>
-    <t>2022-10-18</t>
-  </si>
-  <si>
-    <t>2022-11-18</t>
-  </si>
-  <si>
-    <t>2022-12-18</t>
-  </si>
-  <si>
-    <t>2023-01-18</t>
-  </si>
-  <si>
-    <t>2023-02-18</t>
-  </si>
-  <si>
-    <t>2023-04-18</t>
-  </si>
-  <si>
-    <t>2023-05-18</t>
-  </si>
-  <si>
-    <t>2023-06-18</t>
-  </si>
-  <si>
-    <t>2023-07-18</t>
-  </si>
-  <si>
-    <t>2023-08-18</t>
-  </si>
-  <si>
-    <t>2023-09-18</t>
-  </si>
-  <si>
-    <t>2023-10-18</t>
-  </si>
-  <si>
-    <t>2024-01-18</t>
-  </si>
-  <si>
-    <t>2024-02-18</t>
-  </si>
-  <si>
-    <t>2024-03-18</t>
-  </si>
-  <si>
-    <t>2024-04-18</t>
-  </si>
-  <si>
-    <t>2024-05-18</t>
+    <t>2011-03-27</t>
+  </si>
+  <si>
+    <t>2011-06-27</t>
+  </si>
+  <si>
+    <t>2011-07-27</t>
+  </si>
+  <si>
+    <t>2011-12-27</t>
+  </si>
+  <si>
+    <t>2014-09-27</t>
+  </si>
+  <si>
+    <t>2014-10-27</t>
+  </si>
+  <si>
+    <t>2014-11-27</t>
+  </si>
+  <si>
+    <t>2014-12-27</t>
+  </si>
+  <si>
+    <t>2015-03-27</t>
+  </si>
+  <si>
+    <t>2016-01-27</t>
+  </si>
+  <si>
+    <t>2016-04-27</t>
+  </si>
+  <si>
+    <t>2016-08-27</t>
+  </si>
+  <si>
+    <t>2017-01-27</t>
+  </si>
+  <si>
+    <t>2017-08-27</t>
+  </si>
+  <si>
+    <t>2017-10-27</t>
+  </si>
+  <si>
+    <t>2017-11-27</t>
+  </si>
+  <si>
+    <t>2018-07-27</t>
+  </si>
+  <si>
+    <t>2019-05-27</t>
+  </si>
+  <si>
+    <t>2019-06-27</t>
+  </si>
+  <si>
+    <t>2019-08-27</t>
+  </si>
+  <si>
+    <t>2019-09-27</t>
+  </si>
+  <si>
+    <t>2020-01-27</t>
+  </si>
+  <si>
+    <t>2020-03-27</t>
+  </si>
+  <si>
+    <t>2020-04-27</t>
+  </si>
+  <si>
+    <t>2020-05-27</t>
+  </si>
+  <si>
+    <t>2020-07-27</t>
+  </si>
+  <si>
+    <t>2020-08-27</t>
+  </si>
+  <si>
+    <t>2020-11-27</t>
+  </si>
+  <si>
+    <t>2021-02-27</t>
+  </si>
+  <si>
+    <t>2021-05-27</t>
+  </si>
+  <si>
+    <t>2021-06-27</t>
+  </si>
+  <si>
+    <t>2021-09-27</t>
+  </si>
+  <si>
+    <t>2021-12-27</t>
+  </si>
+  <si>
+    <t>2022-01-27</t>
+  </si>
+  <si>
+    <t>2022-03-27</t>
+  </si>
+  <si>
+    <t>2022-04-27</t>
+  </si>
+  <si>
+    <t>2022-05-27</t>
+  </si>
+  <si>
+    <t>2022-06-27</t>
+  </si>
+  <si>
+    <t>2022-07-27</t>
+  </si>
+  <si>
+    <t>2022-08-27</t>
+  </si>
+  <si>
+    <t>2022-10-27</t>
+  </si>
+  <si>
+    <t>2022-11-27</t>
+  </si>
+  <si>
+    <t>2022-12-27</t>
+  </si>
+  <si>
+    <t>2023-01-27</t>
+  </si>
+  <si>
+    <t>2023-02-27</t>
+  </si>
+  <si>
+    <t>2023-04-27</t>
+  </si>
+  <si>
+    <t>2023-05-27</t>
+  </si>
+  <si>
+    <t>2023-06-27</t>
+  </si>
+  <si>
+    <t>2023-07-27</t>
+  </si>
+  <si>
+    <t>2023-08-27</t>
+  </si>
+  <si>
+    <t>2023-09-27</t>
+  </si>
+  <si>
+    <t>2023-10-27</t>
+  </si>
+  <si>
+    <t>2024-01-27</t>
+  </si>
+  <si>
+    <t>2024-02-27</t>
+  </si>
+  <si>
+    <t>2024-03-27</t>
+  </si>
+  <si>
+    <t>2024-04-27</t>
+  </si>
+  <si>
+    <t>2024-05-27</t>
   </si>
   <si>
     <t>2024-06-02</t>
   </si>
   <si>
-    <t>2024-06-18</t>
-  </si>
-  <si>
     <t>2024-06-26</t>
   </si>
   <si>
-    <t>2024-07-18</t>
+    <t>2024-06-27</t>
   </si>
   <si>
     <t>2024-07-25</t>
   </si>
   <si>
+    <t>2024-07-27</t>
+  </si>
+  <si>
     <t>2024-08-15</t>
   </si>
   <si>
-    <t>2024-08-18</t>
-  </si>
-  <si>
-    <t>2024-10-18</t>
+    <t>2024-08-27</t>
   </si>
   <si>
     <t>2024-10-24</t>
   </si>
   <si>
+    <t>2024-10-27</t>
+  </si>
+  <si>
     <t>2024-11-20</t>
   </si>
   <si>
@@ -778,76 +778,76 @@
     <t>2024-12-24</t>
   </si>
   <si>
-    <t>2025-01-18</t>
-  </si>
-  <si>
-    <t>2025-02-18</t>
-  </si>
-  <si>
-    <t>2025-03-18</t>
-  </si>
-  <si>
-    <t>2025-04-18</t>
-  </si>
-  <si>
-    <t>2025-05-18</t>
-  </si>
-  <si>
-    <t>2025-06-18</t>
-  </si>
-  <si>
-    <t>2025-07-18</t>
-  </si>
-  <si>
-    <t>2025-08-18</t>
-  </si>
-  <si>
-    <t>2025-10-18</t>
-  </si>
-  <si>
-    <t>2025-11-18</t>
-  </si>
-  <si>
-    <t>2026-01-18</t>
-  </si>
-  <si>
-    <t>2026-03-18</t>
-  </si>
-  <si>
-    <t>2026-05-18</t>
-  </si>
-  <si>
-    <t>2026-07-18</t>
-  </si>
-  <si>
-    <t>2026-11-18</t>
-  </si>
-  <si>
-    <t>2027-01-18</t>
-  </si>
-  <si>
-    <t>2027-02-18</t>
-  </si>
-  <si>
-    <t>2027-03-18</t>
-  </si>
-  <si>
-    <t>2028-02-18</t>
-  </si>
-  <si>
-    <t>2028-03-18</t>
-  </si>
-  <si>
-    <t>2028-05-18</t>
-  </si>
-  <si>
-    <t>2028-07-18</t>
-  </si>
-  <si>
-    <t>2028-11-18</t>
-  </si>
-  <si>
-    <t>2030-11-18</t>
+    <t>2025-01-27</t>
+  </si>
+  <si>
+    <t>2025-02-27</t>
+  </si>
+  <si>
+    <t>2025-03-27</t>
+  </si>
+  <si>
+    <t>2025-04-27</t>
+  </si>
+  <si>
+    <t>2025-05-27</t>
+  </si>
+  <si>
+    <t>2025-06-27</t>
+  </si>
+  <si>
+    <t>2025-07-27</t>
+  </si>
+  <si>
+    <t>2025-08-27</t>
+  </si>
+  <si>
+    <t>2025-10-27</t>
+  </si>
+  <si>
+    <t>2025-11-27</t>
+  </si>
+  <si>
+    <t>2026-01-27</t>
+  </si>
+  <si>
+    <t>2026-03-27</t>
+  </si>
+  <si>
+    <t>2026-05-27</t>
+  </si>
+  <si>
+    <t>2026-07-27</t>
+  </si>
+  <si>
+    <t>2026-11-27</t>
+  </si>
+  <si>
+    <t>2027-01-27</t>
+  </si>
+  <si>
+    <t>2027-02-27</t>
+  </si>
+  <si>
+    <t>2027-03-27</t>
+  </si>
+  <si>
+    <t>2028-02-27</t>
+  </si>
+  <si>
+    <t>2028-03-27</t>
+  </si>
+  <si>
+    <t>2028-05-27</t>
+  </si>
+  <si>
+    <t>2028-07-27</t>
+  </si>
+  <si>
+    <t>2028-11-27</t>
+  </si>
+  <si>
+    <t>2030-11-27</t>
   </si>
 </sst>
 </file>
@@ -2080,7 +2080,7 @@
         <v>109</v>
       </c>
       <c r="B109" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
     </row>
     <row r="110" spans="1:2">
@@ -2104,7 +2104,7 @@
         <v>112</v>
       </c>
       <c r="B112" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="113" spans="1:2">
@@ -2112,7 +2112,7 @@
         <v>113</v>
       </c>
       <c r="B113" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="114" spans="1:2">
@@ -2120,7 +2120,7 @@
         <v>114</v>
       </c>
       <c r="B114" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="115" spans="1:2">
@@ -2128,7 +2128,7 @@
         <v>115</v>
       </c>
       <c r="B115" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="116" spans="1:2">
@@ -2184,7 +2184,7 @@
         <v>122</v>
       </c>
       <c r="B122" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="123" spans="1:2">

--- a/lothiancriticalcare/1a74f8f7b8b7e871b413c4697f68b4401fbacdf0/reviewdates.xlsx
+++ b/lothiancriticalcare/1a74f8f7b8b7e871b413c4697f68b4401fbacdf0/reviewdates.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="278">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="281">
   <si>
     <t>File</t>
   </si>
@@ -49,9 +49,6 @@
     <t>Infection_and_sepsis/Ebola/Ebola.pdf</t>
   </si>
   <si>
-    <t>GI_Liver_and_Transplant/Nasal bridle.pdf</t>
-  </si>
-  <si>
     <t>Breathing(Respiratory)/Equipment/AMBU AScope.pdf</t>
   </si>
   <si>
@@ -82,15 +79,15 @@
     <t>End_of_life_care/Reasons to report a death to PF.pdf</t>
   </si>
   <si>
+    <t>Airway/Tracheostomy_Laryngectomy/Tracheostomy suctioning cleaning guideline.pdf</t>
+  </si>
+  <si>
+    <t>Airway/Tracheostomy_Laryngectomy/Tracheostomy change in Critical Care.pdf</t>
+  </si>
+  <si>
     <t>Neurological/SOP -  Femoral site care.pdf</t>
   </si>
   <si>
-    <t>Airway/Tracheostomy_Laryngectomy/Tracheostomy change in Critical Care.pdf</t>
-  </si>
-  <si>
-    <t>Airway/Tracheostomy_Laryngectomy/Tracheostomy suctioning cleaning guideline.pdf</t>
-  </si>
-  <si>
     <t>Drugs/sodium_bicarbonate.pdf</t>
   </si>
   <si>
@@ -103,21 +100,21 @@
     <t>Covid-19/SJH/SJH COVID19 ITU Intubation Action Card.pdf</t>
   </si>
   <si>
+    <t>Airway/Emergency intubation checklist_em_pub.pdf</t>
+  </si>
+  <si>
+    <t>Covid-19/SJH/SJH COVID19 ED Intubation Action Card.pdf</t>
+  </si>
+  <si>
+    <t>Diabetes_and_Glucose/Hyperosmolar Hyperglycaemic State.pdf</t>
+  </si>
+  <si>
     <t>Drugs/heparin for Haemofiltration.pdf</t>
   </si>
   <si>
     <t>Covid-19/WGH/CoVid intubation checklist WGH.pdf</t>
   </si>
   <si>
-    <t>Diabetes_and_Glucose/Hyperosmolar Hyperglycaemic State.pdf</t>
-  </si>
-  <si>
-    <t>Covid-19/SJH/SJH COVID19 ED Intubation Action Card.pdf</t>
-  </si>
-  <si>
-    <t>Airway/Emergency intubation checklist_em_pub.pdf</t>
-  </si>
-  <si>
     <t>Drugs/fentanyl.pdf</t>
   </si>
   <si>
@@ -142,30 +139,30 @@
     <t>Delirium/Risk assessment posi mit.pdf</t>
   </si>
   <si>
+    <t>Drugs/ketamine_in_asthma.pdf</t>
+  </si>
+  <si>
+    <t>Airway/McGrath Mac.pdf</t>
+  </si>
+  <si>
+    <t>Airway/Anticipated difficult airway tool.pdf</t>
+  </si>
+  <si>
+    <t>GI_Liver_and_Transplant/Treatment of constipation.pdf</t>
+  </si>
+  <si>
+    <t>GI_Liver_and_Transplant/Abdominal pressure measurement.pdf</t>
+  </si>
+  <si>
     <t>Neurological/Sub arachnoid haemorrhage management.pdf</t>
   </si>
   <si>
+    <t>Airway/Tracheostomy_Laryngectomy/Tracheostomy safety box contents.pdf</t>
+  </si>
+  <si>
     <t>Breathing(Respiratory)/HFNO.pdf</t>
   </si>
   <si>
-    <t>GI_Liver_and_Transplant/Treatment of constipation.pdf</t>
-  </si>
-  <si>
-    <t>Airway/McGrath Mac.pdf</t>
-  </si>
-  <si>
-    <t>Airway/Anticipated difficult airway tool.pdf</t>
-  </si>
-  <si>
-    <t>GI_Liver_and_Transplant/Abdominal pressure measurement.pdf</t>
-  </si>
-  <si>
-    <t>Drugs/ketamine_in_asthma.pdf</t>
-  </si>
-  <si>
-    <t>Airway/Tracheostomy_Laryngectomy/Tracheostomy safety box contents.pdf</t>
-  </si>
-  <si>
     <t>End_of_life_care/Documentation following death.pdf</t>
   </si>
   <si>
@@ -175,27 +172,27 @@
     <t>Routine_Care/bBraun Spaceplus Failure EMERGENCY ACTION CARD_em.pdf</t>
   </si>
   <si>
+    <t>Drugs/insulin.pdf</t>
+  </si>
+  <si>
     <t>Breathing(Respiratory)/Equipment/HFNO Set Up.pdf</t>
   </si>
   <si>
-    <t>Drugs/insulin.pdf</t>
-  </si>
-  <si>
     <t>Breathing(Respiratory)/Inhaled Nitrous Oxide.pdf</t>
   </si>
   <si>
+    <t>Cardiovascular/Steroids for Septic Shock.pdf</t>
+  </si>
+  <si>
     <t>Breathing(Respiratory)/Equipment/APRV.pdf</t>
   </si>
   <si>
-    <t>Cardiovascular/Steroids for Septic Shock.pdf</t>
+    <t>Breathing(Respiratory)/Equipment/T piece Y piece.pdf</t>
   </si>
   <si>
     <t>Neurological/SOP for review of Neurosurgical patients in ITU by neurosurgical team.pdf</t>
   </si>
   <si>
-    <t>Breathing(Respiratory)/Equipment/T piece Y piece.pdf</t>
-  </si>
-  <si>
     <t>Post_op_care/Epidural Haematoma.pdf</t>
   </si>
   <si>
@@ -220,34 +217,37 @@
     <t>GI_Liver_and_Transplant/Nasogastric feeding protocol.pdf</t>
   </si>
   <si>
+    <t>Diabetes_and_Glucose/Intravenous Insulin Therapy (not for DKA or HHS).pdf</t>
+  </si>
+  <si>
     <t>Drugs/Antibiotic doses in CVVHD.pdf</t>
   </si>
   <si>
-    <t>Diabetes_and_Glucose/Intravenous Insulin Therapy (not for DKA or HHS).pdf</t>
+    <t>GI_Liver_and_Transplant/Nasojejunal feeding protocol.pdf</t>
+  </si>
+  <si>
+    <t>ECLS/RIE ECLS Anti Xa Protocol.pdf</t>
   </si>
   <si>
     <t>GI_Liver_and_Transplant/Jejunostomy feeding protocol.pdf</t>
   </si>
   <si>
-    <t>ECLS/RIE ECLS Anti Xa Protocol.pdf</t>
-  </si>
-  <si>
-    <t>GI_Liver_and_Transplant/Nasojejunal feeding protocol.pdf</t>
+    <t>Drugs/vasopressin_sepsis.pdf</t>
   </si>
   <si>
     <t>Drugs/vasopressin organ donation.pdf</t>
   </si>
   <si>
-    <t>Drugs/vasopressin_sepsis.pdf</t>
-  </si>
-  <si>
     <t>Infection_and_sepsis/Winter Infections Stepdown Guidance.pdf</t>
   </si>
   <si>
+    <t>Covid-19/videos/Donning and Doffing Video.pdf</t>
+  </si>
+  <si>
     <t>Transfer/ACCP Transfers.pdf</t>
   </si>
   <si>
-    <t>Covid-19/videos/Donning and Doffing Video.pdf</t>
+    <t>Drugs/piperacillin_tazobactam extended_infusion.pdf</t>
   </si>
   <si>
     <t>Infection_and_sepsis/Infection indications for IVIG.pdf</t>
@@ -256,24 +256,21 @@
     <t>Breathing(Respiratory)/Equipment/Ventilators Circuits Filters and Closed Suction - Set up and Maintenance.pdf</t>
   </si>
   <si>
-    <t>Drugs/piperacillin_tazobactam extended_infusion.pdf</t>
+    <t>Procedures/CVC Guidance/Securing CVCs.pdf</t>
   </si>
   <si>
     <t>Covid-19/Covid 19 Death Certification Guideline.pdf</t>
   </si>
   <si>
-    <t>Procedures/CVC Guidance/Securing CVCs.pdf</t>
-  </si>
-  <si>
     <t>Routine_Care/Video Communication.pdf</t>
   </si>
   <si>
+    <t>Drugs/isoprenaline.pdf</t>
+  </si>
+  <si>
     <t>Cardiovascular/Cardiogenic Shock.pdf</t>
   </si>
   <si>
-    <t>Drugs/isoprenaline.pdf</t>
-  </si>
-  <si>
     <t>Haematology_CAR-T/Haem_ICU_transfer.pdf</t>
   </si>
   <si>
@@ -283,90 +280,90 @@
     <t>Drugs/aminophylline.pdf</t>
   </si>
   <si>
+    <t>Drugs/rocuronium.pdf</t>
+  </si>
+  <si>
+    <t>Drugs/phenytoin.pdf</t>
+  </si>
+  <si>
+    <t>Haematology_CAR-T/Cytokine Release Syndrome.pdf</t>
+  </si>
+  <si>
+    <t>Haematology_CAR-T/ICANS.pdf</t>
+  </si>
+  <si>
     <t>Drugs/pancuronium.pdf</t>
   </si>
   <si>
-    <t>Drugs/phenytoin.pdf</t>
-  </si>
-  <si>
-    <t>Drugs/rocuronium.pdf</t>
-  </si>
-  <si>
-    <t>Haematology_CAR-T/Cytokine Release Syndrome.pdf</t>
-  </si>
-  <si>
-    <t>Haematology_CAR-T/ICANS.pdf</t>
+    <t>Policies_and_admin/General Critical Care SOP_pub.pdf</t>
   </si>
   <si>
     <t>Drugs/milrinone.pdf</t>
   </si>
   <si>
-    <t>Policies_and_admin/General Critical Care SOP_pub.pdf</t>
+    <t>Neurological/Critical Care MRI Procedure_pub.pdf</t>
+  </si>
+  <si>
+    <t>Organ_donation/Organ Retrieval SOP.pdf</t>
+  </si>
+  <si>
+    <t>End_of_life_care/Palliative extubation &amp; withdrawal of invasive ventilatory support nursing checklist.pdf</t>
+  </si>
+  <si>
+    <t>End_of_life_care/CMO &amp; NRS Guidance for Doctors completing MCCD.pdf</t>
+  </si>
+  <si>
+    <t>Infection_and_sepsis/Trip Out of Unit infection guidance.pdf</t>
+  </si>
+  <si>
+    <t>Neurological/Management of traumatic brain injury.pdf</t>
+  </si>
+  <si>
+    <t>Ethics_and_Law/DNACPR policy for Scotland.pdf</t>
+  </si>
+  <si>
+    <t>Ethics_and_Law/Care at the End of Life (FICM).pdf</t>
   </si>
   <si>
     <t>GI_Liver_and_Transplant/ICU - Upper GI bleeding (Endoscopy guideline).pdf</t>
   </si>
   <si>
-    <t>Organ_donation/Organ Retrieval SOP.pdf</t>
+    <t>Covid-19/COVID 19 ICM guidance basic goals_June_2022.pdf</t>
   </si>
   <si>
     <t>Drugs/clonidine.pdf</t>
   </si>
   <si>
-    <t>Neurological/Management of traumatic brain injury.pdf</t>
-  </si>
-  <si>
-    <t>Neurological/Critical Care MRI Procedure_pub.pdf</t>
-  </si>
-  <si>
-    <t>Infection_and_sepsis/Trip Out of Unit infection guidance.pdf</t>
-  </si>
-  <si>
-    <t>Ethics_and_Law/Care at the End of Life (FICM).pdf</t>
-  </si>
-  <si>
-    <t>End_of_life_care/CMO &amp; NRS Guidance for Doctors completing MCCD.pdf</t>
-  </si>
-  <si>
-    <t>Ethics_and_Law/DNACPR policy for Scotland.pdf</t>
-  </si>
-  <si>
-    <t>End_of_life_care/Palliative extubation &amp; withdrawal of invasive ventilatory support nursing checklist.pdf</t>
-  </si>
-  <si>
-    <t>Covid-19/COVID 19 ICM guidance basic goals_June_2022.pdf</t>
-  </si>
-  <si>
     <t>Airway/Cook Staged Extubation Set.pdf</t>
   </si>
   <si>
     <t>Post_op_care/Epidural hypotension.pdf</t>
   </si>
   <si>
+    <t>End_of_life_care/End of Life Care Guideline for Critical Care.pdf</t>
+  </si>
+  <si>
     <t>Drugs/noradrenaline (central).pdf</t>
   </si>
   <si>
-    <t>End_of_life_care/End of Life Care Guideline for Critical Care.pdf</t>
-  </si>
-  <si>
     <t>Infection_and_sepsis/Antifungal guidance in critical care.pdf</t>
   </si>
   <si>
+    <t>Breathing(Respiratory)/Equipment/Passy Muir Valve.pdf</t>
+  </si>
+  <si>
     <t>Drugs/dexmedetomidine.pdf</t>
   </si>
   <si>
     <t>GI_Liver_and_Transplant/Fulminant Liver Failure.pdf</t>
   </si>
   <si>
+    <t>Drugs/glyceryl_trinitrate.pdf</t>
+  </si>
+  <si>
     <t>GI_Liver_and_Transplant/Confirmation of Nasogastric Tube Position.pdf</t>
   </si>
   <si>
-    <t>Drugs/glyceryl_trinitrate.pdf</t>
-  </si>
-  <si>
-    <t>Breathing(Respiratory)/Equipment/Passy Muir Valve.pdf</t>
-  </si>
-  <si>
     <t>Breathing(Respiratory)/ARDS Strategy.pdf</t>
   </si>
   <si>
@@ -382,12 +379,12 @@
     <t>Drugs/hydralazine.pdf</t>
   </si>
   <si>
+    <t>Drugs/Dobutamine.pdf</t>
+  </si>
+  <si>
     <t>Drugs/adrenaline.pdf</t>
   </si>
   <si>
-    <t>Drugs/Dobutamine.pdf</t>
-  </si>
-  <si>
     <t>Post_op_care/Major OMFS Free Flap.pdf</t>
   </si>
   <si>
@@ -400,12 +397,12 @@
     <t>Drugs/magnesium.pdf</t>
   </si>
   <si>
+    <t>Drugs/neostigmine.pdf</t>
+  </si>
+  <si>
     <t>Drugs/ICU - IV drug infusions.pdf</t>
   </si>
   <si>
-    <t>Drugs/neostigmine.pdf</t>
-  </si>
-  <si>
     <t>Drugs/vancomycin continuous infusion.pdf</t>
   </si>
   <si>
@@ -418,15 +415,18 @@
     <t>Drugs/labetalol.pdf</t>
   </si>
   <si>
+    <t>Drugs/midazolam.pdf</t>
+  </si>
+  <si>
     <t>Cardiovascular/Management of Acute Type B Aortic Dissection Guideline.pdf</t>
   </si>
   <si>
-    <t>Drugs/midazolam.pdf</t>
-  </si>
-  <si>
     <t>Procedures/CVC Guidance/CVC NHL  April 2023.pdf</t>
   </si>
   <si>
+    <t>Drugs/salbutamol.pdf</t>
+  </si>
+  <si>
     <t>Drugs/nimodipine.pdf</t>
   </si>
   <si>
@@ -436,58 +436,58 @@
     <t>Drugs/potassium.pdf</t>
   </si>
   <si>
-    <t>Drugs/salbutamol.pdf</t>
-  </si>
-  <si>
     <t>Drugs/phenobarbitone.pdf</t>
   </si>
   <si>
+    <t>Procedures/Arterial Line insertion for ACCPs.pdf</t>
+  </si>
+  <si>
+    <t>Routine_Care/ICU Eye Care Guideline.pdf</t>
+  </si>
+  <si>
     <t>Drugs/nicardipine.pdf</t>
   </si>
   <si>
-    <t>Routine_Care/ICU Eye Care Guideline.pdf</t>
-  </si>
-  <si>
-    <t>Procedures/Arterial Line insertion for ACCPs.pdf</t>
-  </si>
-  <si>
     <t>Drugs/amiodarone.pdf</t>
   </si>
   <si>
+    <t>Drugs/phenylephrine.pdf</t>
+  </si>
+  <si>
     <t>Drugs/morphine.pdf</t>
   </si>
   <si>
+    <t>Breathing(Respiratory)/Manual Ventilation and MHI.pdf</t>
+  </si>
+  <si>
     <t>Neurological/Ventriculitis Guideline.pdf</t>
   </si>
   <si>
-    <t>Drugs/phenylephrine.pdf</t>
-  </si>
-  <si>
     <t>Drugs/Epoprostenol.pdf</t>
   </si>
   <si>
-    <t>Breathing(Respiratory)/Manual Ventilation and MHI.pdf</t>
+    <t>Cardiovascular/Cardiac Output Monitoring_pub .pdf</t>
+  </si>
+  <si>
+    <t>Cardiovascular/Pulmonary_Embolism_and_DVT/Catheter directed thrombolysis of iliofemoral DVT alteplase_pub.pdf</t>
   </si>
   <si>
     <t>Drugs/calcium.pdf</t>
   </si>
   <si>
-    <t>Cardiovascular/Cardiac Output Monitoring_pub .pdf</t>
-  </si>
-  <si>
-    <t>Cardiovascular/Pulmonary_Embolism_and_DVT/Catheter directed thrombolysis of iliofemoral DVT alteplase_pub.pdf</t>
+    <t>Drugs/atracurium.pdf</t>
+  </si>
+  <si>
+    <t>Airway/Tracheostomy_Laryngectomy/Decannulation Guidline.pdf</t>
+  </si>
+  <si>
+    <t>Drugs/dalteparin_thromboprophylaxis.pdf</t>
   </si>
   <si>
     <t>Drugs/Vancomycin continuous infusion Fluid Restricted.pdf</t>
   </si>
   <si>
-    <t>Drugs/dalteparin_thromboprophylaxis.pdf</t>
-  </si>
-  <si>
-    <t>Airway/Tracheostomy_Laryngectomy/Decannulation Guidline.pdf</t>
-  </si>
-  <si>
-    <t>Drugs/atracurium.pdf</t>
+    <t>Procedures/Inadvertent Catheter Placement Guideline.pdf</t>
   </si>
   <si>
     <t>Policies_and_admin/Pet Visitation.pdf</t>
@@ -496,42 +496,39 @@
     <t>Drugs/valproate.pdf</t>
   </si>
   <si>
-    <t>Procedures/Inadvertent Catheter Placement Guideline.pdf</t>
+    <t>Drugs/ketamine_for_status epilepticus.pdf</t>
+  </si>
+  <si>
+    <t>Drugs/stress ulcer prophylaxis.pdf</t>
   </si>
   <si>
     <t>Drugs/Phosphate.pdf</t>
   </si>
   <si>
-    <t>Drugs/stress ulcer prophylaxis.pdf</t>
-  </si>
-  <si>
-    <t>Drugs/ketamine_for_status epilepticus.pdf</t>
+    <t>GI_Liver_and_Transplant/Prokinetics in ICU.pdf</t>
+  </si>
+  <si>
+    <t>Neurological/Status epilepticus.pdf</t>
+  </si>
+  <si>
+    <t>Drugs/Octreotide.pdf</t>
   </si>
   <si>
     <t>Breathing(Respiratory)/Proning Guideline.pdf</t>
   </si>
   <si>
-    <t>GI_Liver_and_Transplant/Prokinetics in ICU.pdf</t>
-  </si>
-  <si>
-    <t>Drugs/Octreotide.pdf</t>
-  </si>
-  <si>
     <t>Drugs/Thiopentone.pdf</t>
   </si>
   <si>
-    <t>Neurological/Status epilepticus.pdf</t>
+    <t>Procedures/ACCP CVC placement following completion of initial competencies.pdf</t>
+  </si>
+  <si>
+    <t>Post_op_care/Prevention and treatment of paraplegia after major aortic procedures.pdf</t>
   </si>
   <si>
     <t>Procedures/ACCPs acquiring initial CVC competencies.pdf</t>
   </si>
   <si>
-    <t>Procedures/ACCP CVC placement following completion of initial competencies.pdf</t>
-  </si>
-  <si>
-    <t>Post_op_care/Prevention and treatment of paraplegia after major aortic procedures.pdf</t>
-  </si>
-  <si>
     <t>Delirium/Violence and Agression.pdf</t>
   </si>
   <si>
@@ -568,6 +565,15 @@
     <t>Policies_and_admin/Discharge Home from Critical Care .pdf</t>
   </si>
   <si>
+    <t>GI_Liver_and_Transplant/Insertion of Nasojejunal Tubes.pdf</t>
+  </si>
+  <si>
+    <t>GI_Liver_and_Transplant/Nasal Bridle use in Critical Care.pdf</t>
+  </si>
+  <si>
+    <t>GI_Liver_and_Transplant/Pabrinex Guidline.pdf</t>
+  </si>
+  <si>
     <t>Policies_and_admin/Repatriaiton Checklist for Critical Care.pdf</t>
   </si>
   <si>
@@ -598,9 +604,6 @@
     <t>2015-03-27</t>
   </si>
   <si>
-    <t>2016-01-27</t>
-  </si>
-  <si>
     <t>2016-04-27</t>
   </si>
   <si>
@@ -845,6 +848,12 @@
   </si>
   <si>
     <t>2028-11-27</t>
+  </si>
+  <si>
+    <t>2029-02-27</t>
+  </si>
+  <si>
+    <t>2029-06-27</t>
   </si>
   <si>
     <t>2030-11-27</t>
@@ -1205,7 +1214,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B184"/>
+  <dimension ref="A1:B186"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1224,7 +1233,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -1232,7 +1241,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -1240,7 +1249,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -1248,7 +1257,7 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -1256,7 +1265,7 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -1264,7 +1273,7 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -1272,7 +1281,7 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -1280,7 +1289,7 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -1288,7 +1297,7 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -1296,7 +1305,7 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -1304,7 +1313,7 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -1312,7 +1321,7 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -1320,7 +1329,7 @@
         <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -1328,7 +1337,7 @@
         <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -1336,7 +1345,7 @@
         <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -1344,7 +1353,7 @@
         <v>17</v>
       </c>
       <c r="B17" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -1352,7 +1361,7 @@
         <v>18</v>
       </c>
       <c r="B18" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -1360,7 +1369,7 @@
         <v>19</v>
       </c>
       <c r="B19" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -1368,7 +1377,7 @@
         <v>20</v>
       </c>
       <c r="B20" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -1376,7 +1385,7 @@
         <v>21</v>
       </c>
       <c r="B21" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -1384,7 +1393,7 @@
         <v>22</v>
       </c>
       <c r="B22" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -1392,7 +1401,7 @@
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -1400,7 +1409,7 @@
         <v>24</v>
       </c>
       <c r="B24" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -1408,7 +1417,7 @@
         <v>25</v>
       </c>
       <c r="B25" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -1416,7 +1425,7 @@
         <v>26</v>
       </c>
       <c r="B26" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -1424,7 +1433,7 @@
         <v>27</v>
       </c>
       <c r="B27" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -1432,7 +1441,7 @@
         <v>28</v>
       </c>
       <c r="B28" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -1440,7 +1449,7 @@
         <v>29</v>
       </c>
       <c r="B29" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -1448,7 +1457,7 @@
         <v>30</v>
       </c>
       <c r="B30" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -1456,7 +1465,7 @@
         <v>31</v>
       </c>
       <c r="B31" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -1464,7 +1473,7 @@
         <v>32</v>
       </c>
       <c r="B32" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -1472,7 +1481,7 @@
         <v>33</v>
       </c>
       <c r="B33" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -1480,7 +1489,7 @@
         <v>34</v>
       </c>
       <c r="B34" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -1488,7 +1497,7 @@
         <v>35</v>
       </c>
       <c r="B35" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -1496,7 +1505,7 @@
         <v>36</v>
       </c>
       <c r="B36" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -1504,7 +1513,7 @@
         <v>37</v>
       </c>
       <c r="B37" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -1512,7 +1521,7 @@
         <v>38</v>
       </c>
       <c r="B38" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -1520,7 +1529,7 @@
         <v>39</v>
       </c>
       <c r="B39" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -1528,7 +1537,7 @@
         <v>40</v>
       </c>
       <c r="B40" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -1536,7 +1545,7 @@
         <v>41</v>
       </c>
       <c r="B41" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -1544,7 +1553,7 @@
         <v>42</v>
       </c>
       <c r="B42" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -1552,7 +1561,7 @@
         <v>43</v>
       </c>
       <c r="B43" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -1560,7 +1569,7 @@
         <v>44</v>
       </c>
       <c r="B44" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -1568,7 +1577,7 @@
         <v>45</v>
       </c>
       <c r="B45" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -1576,7 +1585,7 @@
         <v>46</v>
       </c>
       <c r="B46" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -1584,7 +1593,7 @@
         <v>47</v>
       </c>
       <c r="B47" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -1592,7 +1601,7 @@
         <v>48</v>
       </c>
       <c r="B48" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -1600,7 +1609,7 @@
         <v>49</v>
       </c>
       <c r="B49" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -1608,7 +1617,7 @@
         <v>50</v>
       </c>
       <c r="B50" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -1616,7 +1625,7 @@
         <v>51</v>
       </c>
       <c r="B51" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -1624,7 +1633,7 @@
         <v>52</v>
       </c>
       <c r="B52" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -1632,7 +1641,7 @@
         <v>53</v>
       </c>
       <c r="B53" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
     </row>
     <row r="54" spans="1:2">
@@ -1640,7 +1649,7 @@
         <v>54</v>
       </c>
       <c r="B54" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
     </row>
     <row r="55" spans="1:2">
@@ -1648,7 +1657,7 @@
         <v>55</v>
       </c>
       <c r="B55" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
     </row>
     <row r="56" spans="1:2">
@@ -1656,7 +1665,7 @@
         <v>56</v>
       </c>
       <c r="B56" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
     <row r="57" spans="1:2">
@@ -1664,7 +1673,7 @@
         <v>57</v>
       </c>
       <c r="B57" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
     </row>
     <row r="58" spans="1:2">
@@ -1672,7 +1681,7 @@
         <v>58</v>
       </c>
       <c r="B58" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
     </row>
     <row r="59" spans="1:2">
@@ -1680,7 +1689,7 @@
         <v>59</v>
       </c>
       <c r="B59" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
     </row>
     <row r="60" spans="1:2">
@@ -1688,7 +1697,7 @@
         <v>60</v>
       </c>
       <c r="B60" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
     </row>
     <row r="61" spans="1:2">
@@ -1696,7 +1705,7 @@
         <v>61</v>
       </c>
       <c r="B61" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
     </row>
     <row r="62" spans="1:2">
@@ -1704,7 +1713,7 @@
         <v>62</v>
       </c>
       <c r="B62" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
     </row>
     <row r="63" spans="1:2">
@@ -1712,7 +1721,7 @@
         <v>63</v>
       </c>
       <c r="B63" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
     </row>
     <row r="64" spans="1:2">
@@ -1720,7 +1729,7 @@
         <v>64</v>
       </c>
       <c r="B64" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
     </row>
     <row r="65" spans="1:2">
@@ -1728,7 +1737,7 @@
         <v>65</v>
       </c>
       <c r="B65" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
     </row>
     <row r="66" spans="1:2">
@@ -1736,7 +1745,7 @@
         <v>66</v>
       </c>
       <c r="B66" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
     </row>
     <row r="67" spans="1:2">
@@ -1744,7 +1753,7 @@
         <v>67</v>
       </c>
       <c r="B67" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
     </row>
     <row r="68" spans="1:2">
@@ -1752,7 +1761,7 @@
         <v>68</v>
       </c>
       <c r="B68" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="69" spans="1:2">
@@ -1760,7 +1769,7 @@
         <v>69</v>
       </c>
       <c r="B69" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
     </row>
     <row r="70" spans="1:2">
@@ -1768,7 +1777,7 @@
         <v>70</v>
       </c>
       <c r="B70" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
     <row r="71" spans="1:2">
@@ -1776,7 +1785,7 @@
         <v>71</v>
       </c>
       <c r="B71" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
     <row r="72" spans="1:2">
@@ -1784,7 +1793,7 @@
         <v>72</v>
       </c>
       <c r="B72" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
     </row>
     <row r="73" spans="1:2">
@@ -1792,7 +1801,7 @@
         <v>73</v>
       </c>
       <c r="B73" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
     </row>
     <row r="74" spans="1:2">
@@ -1800,7 +1809,7 @@
         <v>74</v>
       </c>
       <c r="B74" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
     </row>
     <row r="75" spans="1:2">
@@ -1808,7 +1817,7 @@
         <v>75</v>
       </c>
       <c r="B75" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
     </row>
     <row r="76" spans="1:2">
@@ -1816,7 +1825,7 @@
         <v>76</v>
       </c>
       <c r="B76" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
     </row>
     <row r="77" spans="1:2">
@@ -1824,7 +1833,7 @@
         <v>77</v>
       </c>
       <c r="B77" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
     </row>
     <row r="78" spans="1:2">
@@ -1832,7 +1841,7 @@
         <v>78</v>
       </c>
       <c r="B78" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
     </row>
     <row r="79" spans="1:2">
@@ -1840,7 +1849,7 @@
         <v>79</v>
       </c>
       <c r="B79" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
     </row>
     <row r="80" spans="1:2">
@@ -1848,7 +1857,7 @@
         <v>80</v>
       </c>
       <c r="B80" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
     </row>
     <row r="81" spans="1:2">
@@ -1856,7 +1865,7 @@
         <v>81</v>
       </c>
       <c r="B81" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
     </row>
     <row r="82" spans="1:2">
@@ -1864,7 +1873,7 @@
         <v>82</v>
       </c>
       <c r="B82" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
     </row>
     <row r="83" spans="1:2">
@@ -1872,7 +1881,7 @@
         <v>83</v>
       </c>
       <c r="B83" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
     </row>
     <row r="84" spans="1:2">
@@ -1880,7 +1889,7 @@
         <v>84</v>
       </c>
       <c r="B84" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="85" spans="1:2">
@@ -1888,7 +1897,7 @@
         <v>85</v>
       </c>
       <c r="B85" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
     </row>
     <row r="86" spans="1:2">
@@ -1896,7 +1905,7 @@
         <v>86</v>
       </c>
       <c r="B86" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
     </row>
     <row r="87" spans="1:2">
@@ -1904,7 +1913,7 @@
         <v>87</v>
       </c>
       <c r="B87" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="88" spans="1:2">
@@ -1912,7 +1921,7 @@
         <v>88</v>
       </c>
       <c r="B88" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
     </row>
     <row r="89" spans="1:2">
@@ -1920,7 +1929,7 @@
         <v>89</v>
       </c>
       <c r="B89" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="90" spans="1:2">
@@ -1928,7 +1937,7 @@
         <v>90</v>
       </c>
       <c r="B90" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="91" spans="1:2">
@@ -1936,7 +1945,7 @@
         <v>91</v>
       </c>
       <c r="B91" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="92" spans="1:2">
@@ -1944,7 +1953,7 @@
         <v>92</v>
       </c>
       <c r="B92" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="93" spans="1:2">
@@ -1952,7 +1961,7 @@
         <v>93</v>
       </c>
       <c r="B93" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
     </row>
     <row r="94" spans="1:2">
@@ -1960,7 +1969,7 @@
         <v>94</v>
       </c>
       <c r="B94" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="95" spans="1:2">
@@ -1968,7 +1977,7 @@
         <v>95</v>
       </c>
       <c r="B95" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
     </row>
     <row r="96" spans="1:2">
@@ -1976,7 +1985,7 @@
         <v>96</v>
       </c>
       <c r="B96" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="97" spans="1:2">
@@ -1984,7 +1993,7 @@
         <v>97</v>
       </c>
       <c r="B97" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="98" spans="1:2">
@@ -1992,7 +2001,7 @@
         <v>98</v>
       </c>
       <c r="B98" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="99" spans="1:2">
@@ -2000,7 +2009,7 @@
         <v>99</v>
       </c>
       <c r="B99" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="100" spans="1:2">
@@ -2008,7 +2017,7 @@
         <v>100</v>
       </c>
       <c r="B100" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="101" spans="1:2">
@@ -2016,7 +2025,7 @@
         <v>101</v>
       </c>
       <c r="B101" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="102" spans="1:2">
@@ -2024,7 +2033,7 @@
         <v>102</v>
       </c>
       <c r="B102" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="103" spans="1:2">
@@ -2032,7 +2041,7 @@
         <v>103</v>
       </c>
       <c r="B103" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="104" spans="1:2">
@@ -2040,7 +2049,7 @@
         <v>104</v>
       </c>
       <c r="B104" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="105" spans="1:2">
@@ -2048,7 +2057,7 @@
         <v>105</v>
       </c>
       <c r="B105" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="106" spans="1:2">
@@ -2056,7 +2065,7 @@
         <v>106</v>
       </c>
       <c r="B106" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
     </row>
     <row r="107" spans="1:2">
@@ -2064,7 +2073,7 @@
         <v>107</v>
       </c>
       <c r="B107" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
     </row>
     <row r="108" spans="1:2">
@@ -2072,7 +2081,7 @@
         <v>108</v>
       </c>
       <c r="B108" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
     </row>
     <row r="109" spans="1:2">
@@ -2080,7 +2089,7 @@
         <v>109</v>
       </c>
       <c r="B109" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="110" spans="1:2">
@@ -2088,7 +2097,7 @@
         <v>110</v>
       </c>
       <c r="B110" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
     </row>
     <row r="111" spans="1:2">
@@ -2096,7 +2105,7 @@
         <v>111</v>
       </c>
       <c r="B111" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="112" spans="1:2">
@@ -2104,7 +2113,7 @@
         <v>112</v>
       </c>
       <c r="B112" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
     </row>
     <row r="113" spans="1:2">
@@ -2112,7 +2121,7 @@
         <v>113</v>
       </c>
       <c r="B113" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
     </row>
     <row r="114" spans="1:2">
@@ -2120,7 +2129,7 @@
         <v>114</v>
       </c>
       <c r="B114" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
     </row>
     <row r="115" spans="1:2">
@@ -2128,7 +2137,7 @@
         <v>115</v>
       </c>
       <c r="B115" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
     </row>
     <row r="116" spans="1:2">
@@ -2136,7 +2145,7 @@
         <v>116</v>
       </c>
       <c r="B116" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
     </row>
     <row r="117" spans="1:2">
@@ -2144,7 +2153,7 @@
         <v>117</v>
       </c>
       <c r="B117" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
     </row>
     <row r="118" spans="1:2">
@@ -2152,7 +2161,7 @@
         <v>118</v>
       </c>
       <c r="B118" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
     </row>
     <row r="119" spans="1:2">
@@ -2160,7 +2169,7 @@
         <v>119</v>
       </c>
       <c r="B119" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
     </row>
     <row r="120" spans="1:2">
@@ -2168,7 +2177,7 @@
         <v>120</v>
       </c>
       <c r="B120" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
     </row>
     <row r="121" spans="1:2">
@@ -2176,7 +2185,7 @@
         <v>121</v>
       </c>
       <c r="B121" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
     </row>
     <row r="122" spans="1:2">
@@ -2184,7 +2193,7 @@
         <v>122</v>
       </c>
       <c r="B122" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
     </row>
     <row r="123" spans="1:2">
@@ -2192,7 +2201,7 @@
         <v>123</v>
       </c>
       <c r="B123" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
     </row>
     <row r="124" spans="1:2">
@@ -2200,7 +2209,7 @@
         <v>124</v>
       </c>
       <c r="B124" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
     </row>
     <row r="125" spans="1:2">
@@ -2208,7 +2217,7 @@
         <v>125</v>
       </c>
       <c r="B125" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
     </row>
     <row r="126" spans="1:2">
@@ -2216,7 +2225,7 @@
         <v>126</v>
       </c>
       <c r="B126" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
     </row>
     <row r="127" spans="1:2">
@@ -2224,7 +2233,7 @@
         <v>127</v>
       </c>
       <c r="B127" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
     </row>
     <row r="128" spans="1:2">
@@ -2232,7 +2241,7 @@
         <v>128</v>
       </c>
       <c r="B128" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="129" spans="1:2">
@@ -2240,7 +2249,7 @@
         <v>129</v>
       </c>
       <c r="B129" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="130" spans="1:2">
@@ -2248,7 +2257,7 @@
         <v>130</v>
       </c>
       <c r="B130" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row r="131" spans="1:2">
@@ -2256,7 +2265,7 @@
         <v>131</v>
       </c>
       <c r="B131" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="132" spans="1:2">
@@ -2264,7 +2273,7 @@
         <v>132</v>
       </c>
       <c r="B132" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="133" spans="1:2">
@@ -2272,7 +2281,7 @@
         <v>133</v>
       </c>
       <c r="B133" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
     </row>
     <row r="134" spans="1:2">
@@ -2280,7 +2289,7 @@
         <v>134</v>
       </c>
       <c r="B134" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="135" spans="1:2">
@@ -2288,7 +2297,7 @@
         <v>135</v>
       </c>
       <c r="B135" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
     </row>
     <row r="136" spans="1:2">
@@ -2296,7 +2305,7 @@
         <v>136</v>
       </c>
       <c r="B136" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
     <row r="137" spans="1:2">
@@ -2304,7 +2313,7 @@
         <v>137</v>
       </c>
       <c r="B137" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
     <row r="138" spans="1:2">
@@ -2312,7 +2321,7 @@
         <v>138</v>
       </c>
       <c r="B138" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
     <row r="139" spans="1:2">
@@ -2320,7 +2329,7 @@
         <v>139</v>
       </c>
       <c r="B139" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
     <row r="140" spans="1:2">
@@ -2328,7 +2337,7 @@
         <v>140</v>
       </c>
       <c r="B140" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
     </row>
     <row r="141" spans="1:2">
@@ -2336,7 +2345,7 @@
         <v>141</v>
       </c>
       <c r="B141" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
     <row r="142" spans="1:2">
@@ -2344,7 +2353,7 @@
         <v>142</v>
       </c>
       <c r="B142" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
     <row r="143" spans="1:2">
@@ -2352,7 +2361,7 @@
         <v>143</v>
       </c>
       <c r="B143" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
     <row r="144" spans="1:2">
@@ -2360,7 +2369,7 @@
         <v>144</v>
       </c>
       <c r="B144" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
     <row r="145" spans="1:2">
@@ -2368,7 +2377,7 @@
         <v>145</v>
       </c>
       <c r="B145" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
     </row>
     <row r="146" spans="1:2">
@@ -2376,7 +2385,7 @@
         <v>146</v>
       </c>
       <c r="B146" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="147" spans="1:2">
@@ -2384,7 +2393,7 @@
         <v>147</v>
       </c>
       <c r="B147" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="148" spans="1:2">
@@ -2392,7 +2401,7 @@
         <v>148</v>
       </c>
       <c r="B148" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="149" spans="1:2">
@@ -2400,7 +2409,7 @@
         <v>149</v>
       </c>
       <c r="B149" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="150" spans="1:2">
@@ -2408,7 +2417,7 @@
         <v>150</v>
       </c>
       <c r="B150" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
     </row>
     <row r="151" spans="1:2">
@@ -2416,7 +2425,7 @@
         <v>151</v>
       </c>
       <c r="B151" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="152" spans="1:2">
@@ -2424,7 +2433,7 @@
         <v>152</v>
       </c>
       <c r="B152" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="153" spans="1:2">
@@ -2432,7 +2441,7 @@
         <v>153</v>
       </c>
       <c r="B153" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
     </row>
     <row r="154" spans="1:2">
@@ -2440,7 +2449,7 @@
         <v>154</v>
       </c>
       <c r="B154" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="155" spans="1:2">
@@ -2448,7 +2457,7 @@
         <v>155</v>
       </c>
       <c r="B155" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="156" spans="1:2">
@@ -2456,7 +2465,7 @@
         <v>156</v>
       </c>
       <c r="B156" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="157" spans="1:2">
@@ -2464,7 +2473,7 @@
         <v>157</v>
       </c>
       <c r="B157" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
     </row>
     <row r="158" spans="1:2">
@@ -2472,7 +2481,7 @@
         <v>158</v>
       </c>
       <c r="B158" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
     </row>
     <row r="159" spans="1:2">
@@ -2480,7 +2489,7 @@
         <v>159</v>
       </c>
       <c r="B159" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
     </row>
     <row r="160" spans="1:2">
@@ -2488,7 +2497,7 @@
         <v>160</v>
       </c>
       <c r="B160" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
     </row>
     <row r="161" spans="1:2">
@@ -2496,7 +2505,7 @@
         <v>161</v>
       </c>
       <c r="B161" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
     </row>
     <row r="162" spans="1:2">
@@ -2504,7 +2513,7 @@
         <v>162</v>
       </c>
       <c r="B162" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
     </row>
     <row r="163" spans="1:2">
@@ -2512,7 +2521,7 @@
         <v>163</v>
       </c>
       <c r="B163" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
     </row>
     <row r="164" spans="1:2">
@@ -2520,7 +2529,7 @@
         <v>164</v>
       </c>
       <c r="B164" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="165" spans="1:2">
@@ -2528,7 +2537,7 @@
         <v>165</v>
       </c>
       <c r="B165" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="166" spans="1:2">
@@ -2536,7 +2545,7 @@
         <v>166</v>
       </c>
       <c r="B166" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="167" spans="1:2">
@@ -2544,7 +2553,7 @@
         <v>167</v>
       </c>
       <c r="B167" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="168" spans="1:2">
@@ -2552,7 +2561,7 @@
         <v>168</v>
       </c>
       <c r="B168" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
     </row>
     <row r="169" spans="1:2">
@@ -2560,7 +2569,7 @@
         <v>169</v>
       </c>
       <c r="B169" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
     </row>
     <row r="170" spans="1:2">
@@ -2568,7 +2577,7 @@
         <v>170</v>
       </c>
       <c r="B170" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
     </row>
     <row r="171" spans="1:2">
@@ -2576,7 +2585,7 @@
         <v>171</v>
       </c>
       <c r="B171" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
     </row>
     <row r="172" spans="1:2">
@@ -2584,7 +2593,7 @@
         <v>172</v>
       </c>
       <c r="B172" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
     </row>
     <row r="173" spans="1:2">
@@ -2592,7 +2601,7 @@
         <v>173</v>
       </c>
       <c r="B173" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
     </row>
     <row r="174" spans="1:2">
@@ -2600,7 +2609,7 @@
         <v>174</v>
       </c>
       <c r="B174" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
     </row>
     <row r="175" spans="1:2">
@@ -2608,7 +2617,7 @@
         <v>175</v>
       </c>
       <c r="B175" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
     </row>
     <row r="176" spans="1:2">
@@ -2616,7 +2625,7 @@
         <v>176</v>
       </c>
       <c r="B176" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
     </row>
     <row r="177" spans="1:2">
@@ -2624,7 +2633,7 @@
         <v>177</v>
       </c>
       <c r="B177" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
     </row>
     <row r="178" spans="1:2">
@@ -2632,7 +2641,7 @@
         <v>178</v>
       </c>
       <c r="B178" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
     </row>
     <row r="179" spans="1:2">
@@ -2640,7 +2649,7 @@
         <v>179</v>
       </c>
       <c r="B179" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
     </row>
     <row r="180" spans="1:2">
@@ -2648,7 +2657,7 @@
         <v>180</v>
       </c>
       <c r="B180" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
     </row>
     <row r="181" spans="1:2">
@@ -2656,7 +2665,7 @@
         <v>181</v>
       </c>
       <c r="B181" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
     </row>
     <row r="182" spans="1:2">
@@ -2664,7 +2673,7 @@
         <v>182</v>
       </c>
       <c r="B182" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
     </row>
     <row r="183" spans="1:2">
@@ -2672,7 +2681,7 @@
         <v>183</v>
       </c>
       <c r="B183" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
     </row>
     <row r="184" spans="1:2">
@@ -2680,7 +2689,23 @@
         <v>184</v>
       </c>
       <c r="B184" t="s">
-        <v>277</v>
+        <v>278</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2">
+      <c r="A185" t="s">
+        <v>185</v>
+      </c>
+      <c r="B185" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2">
+      <c r="A186" t="s">
+        <v>186</v>
+      </c>
+      <c r="B186" t="s">
+        <v>280</v>
       </c>
     </row>
   </sheetData>

--- a/lothiancriticalcare/1a74f8f7b8b7e871b413c4697f68b4401fbacdf0/reviewdates.xlsx
+++ b/lothiancriticalcare/1a74f8f7b8b7e871b413c4697f68b4401fbacdf0/reviewdates.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="281">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="282">
   <si>
     <t>File</t>
   </si>
@@ -73,12 +73,12 @@
     <t>Drugs/diazepam_diazemuls.pdf</t>
   </si>
   <si>
+    <t>End_of_life_care/Reasons to report a death to PF.pdf</t>
+  </si>
+  <si>
     <t>Breathing(Respiratory)/salbutamol and ipratroprium MDI.pdf</t>
   </si>
   <si>
-    <t>End_of_life_care/Reasons to report a death to PF.pdf</t>
-  </si>
-  <si>
     <t>Airway/Tracheostomy_Laryngectomy/Tracheostomy suctioning cleaning guideline.pdf</t>
   </si>
   <si>
@@ -100,21 +100,21 @@
     <t>Covid-19/SJH/SJH COVID19 ITU Intubation Action Card.pdf</t>
   </si>
   <si>
+    <t>Drugs/heparin for Haemofiltration.pdf</t>
+  </si>
+  <si>
+    <t>Covid-19/SJH/SJH COVID19 ED Intubation Action Card.pdf</t>
+  </si>
+  <si>
+    <t>Diabetes_and_Glucose/Hyperosmolar Hyperglycaemic State.pdf</t>
+  </si>
+  <si>
+    <t>Covid-19/WGH/CoVid intubation checklist WGH.pdf</t>
+  </si>
+  <si>
     <t>Airway/Emergency intubation checklist_em_pub.pdf</t>
   </si>
   <si>
-    <t>Covid-19/SJH/SJH COVID19 ED Intubation Action Card.pdf</t>
-  </si>
-  <si>
-    <t>Diabetes_and_Glucose/Hyperosmolar Hyperglycaemic State.pdf</t>
-  </si>
-  <si>
-    <t>Drugs/heparin for Haemofiltration.pdf</t>
-  </si>
-  <si>
-    <t>Covid-19/WGH/CoVid intubation checklist WGH.pdf</t>
-  </si>
-  <si>
     <t>Drugs/fentanyl.pdf</t>
   </si>
   <si>
@@ -133,36 +133,36 @@
     <t>Airway/Percutaneous tracheostomy checklist.pdf</t>
   </si>
   <si>
+    <t>Delirium/Risk assessment posi mit.pdf</t>
+  </si>
+  <si>
     <t>Infection_and_sepsis/SOP Ultrasound Cleaning.pdf</t>
   </si>
   <si>
-    <t>Delirium/Risk assessment posi mit.pdf</t>
+    <t>Neurological/Sub arachnoid haemorrhage management.pdf</t>
+  </si>
+  <si>
+    <t>Airway/McGrath Mac.pdf</t>
+  </si>
+  <si>
+    <t>Airway/Anticipated difficult airway tool.pdf</t>
   </si>
   <si>
     <t>Drugs/ketamine_in_asthma.pdf</t>
   </si>
   <si>
-    <t>Airway/McGrath Mac.pdf</t>
-  </si>
-  <si>
-    <t>Airway/Anticipated difficult airway tool.pdf</t>
+    <t>Airway/Tracheostomy_Laryngectomy/Tracheostomy safety box contents.pdf</t>
   </si>
   <si>
     <t>GI_Liver_and_Transplant/Treatment of constipation.pdf</t>
   </si>
   <si>
+    <t>Breathing(Respiratory)/HFNO.pdf</t>
+  </si>
+  <si>
     <t>GI_Liver_and_Transplant/Abdominal pressure measurement.pdf</t>
   </si>
   <si>
-    <t>Neurological/Sub arachnoid haemorrhage management.pdf</t>
-  </si>
-  <si>
-    <t>Airway/Tracheostomy_Laryngectomy/Tracheostomy safety box contents.pdf</t>
-  </si>
-  <si>
-    <t>Breathing(Respiratory)/HFNO.pdf</t>
-  </si>
-  <si>
     <t>End_of_life_care/Documentation following death.pdf</t>
   </si>
   <si>
@@ -187,15 +187,15 @@
     <t>Breathing(Respiratory)/Equipment/APRV.pdf</t>
   </si>
   <si>
+    <t>Post_op_care/Epidural Haematoma.pdf</t>
+  </si>
+  <si>
+    <t>Neurological/SOP for review of Neurosurgical patients in ITU by neurosurgical team.pdf</t>
+  </si>
+  <si>
     <t>Breathing(Respiratory)/Equipment/T piece Y piece.pdf</t>
   </si>
   <si>
-    <t>Neurological/SOP for review of Neurosurgical patients in ITU by neurosurgical team.pdf</t>
-  </si>
-  <si>
-    <t>Post_op_care/Epidural Haematoma.pdf</t>
-  </si>
-  <si>
     <t>Policies_and_admin/General Critical Care Interaction with HEPMA_pub.pdf</t>
   </si>
   <si>
@@ -223,100 +223,103 @@
     <t>Drugs/Antibiotic doses in CVVHD.pdf</t>
   </si>
   <si>
+    <t>ECLS/RIE ECLS Anti Xa Protocol.pdf</t>
+  </si>
+  <si>
+    <t>GI_Liver_and_Transplant/Jejunostomy feeding protocol.pdf</t>
+  </si>
+  <si>
     <t>GI_Liver_and_Transplant/Nasojejunal feeding protocol.pdf</t>
   </si>
   <si>
-    <t>ECLS/RIE ECLS Anti Xa Protocol.pdf</t>
-  </si>
-  <si>
-    <t>GI_Liver_and_Transplant/Jejunostomy feeding protocol.pdf</t>
+    <t>Drugs/vasopressin organ donation.pdf</t>
+  </si>
+  <si>
+    <t>Infection_and_sepsis/Winter Infections Stepdown Guidance.pdf</t>
   </si>
   <si>
     <t>Drugs/vasopressin_sepsis.pdf</t>
   </si>
   <si>
-    <t>Drugs/vasopressin organ donation.pdf</t>
-  </si>
-  <si>
-    <t>Infection_and_sepsis/Winter Infections Stepdown Guidance.pdf</t>
+    <t>Transfer/ACCP Transfers.pdf</t>
   </si>
   <si>
     <t>Covid-19/videos/Donning and Doffing Video.pdf</t>
   </si>
   <si>
-    <t>Transfer/ACCP Transfers.pdf</t>
+    <t>Infection_and_sepsis/Infection indications for IVIG.pdf</t>
+  </si>
+  <si>
+    <t>Breathing(Respiratory)/Equipment/Ventilators Circuits Filters and Closed Suction - Set up and Maintenance.pdf</t>
   </si>
   <si>
     <t>Drugs/piperacillin_tazobactam extended_infusion.pdf</t>
   </si>
   <si>
-    <t>Infection_and_sepsis/Infection indications for IVIG.pdf</t>
-  </si>
-  <si>
-    <t>Breathing(Respiratory)/Equipment/Ventilators Circuits Filters and Closed Suction - Set up and Maintenance.pdf</t>
+    <t>Covid-19/Covid 19 Death Certification Guideline.pdf</t>
   </si>
   <si>
     <t>Procedures/CVC Guidance/Securing CVCs.pdf</t>
   </si>
   <si>
-    <t>Covid-19/Covid 19 Death Certification Guideline.pdf</t>
-  </si>
-  <si>
     <t>Routine_Care/Video Communication.pdf</t>
   </si>
   <si>
+    <t>Cardiovascular/Cardiogenic Shock.pdf</t>
+  </si>
+  <si>
     <t>Drugs/isoprenaline.pdf</t>
   </si>
   <si>
-    <t>Cardiovascular/Cardiogenic Shock.pdf</t>
-  </si>
-  <si>
     <t>Haematology_CAR-T/Haem_ICU_transfer.pdf</t>
   </si>
   <si>
+    <t>Drugs/aminophylline.pdf</t>
+  </si>
+  <si>
     <t>Cardiovascular/Management of hypertension within Critical Care.pdf</t>
   </si>
   <si>
-    <t>Drugs/aminophylline.pdf</t>
+    <t>Drugs/pancuronium.pdf</t>
+  </si>
+  <si>
+    <t>Haematology_CAR-T/ICANS.pdf</t>
+  </si>
+  <si>
+    <t>Drugs/phenytoin.pdf</t>
   </si>
   <si>
     <t>Drugs/rocuronium.pdf</t>
   </si>
   <si>
-    <t>Drugs/phenytoin.pdf</t>
-  </si>
-  <si>
     <t>Haematology_CAR-T/Cytokine Release Syndrome.pdf</t>
   </si>
   <si>
-    <t>Haematology_CAR-T/ICANS.pdf</t>
-  </si>
-  <si>
-    <t>Drugs/pancuronium.pdf</t>
+    <t>Drugs/milrinone.pdf</t>
   </si>
   <si>
     <t>Policies_and_admin/General Critical Care SOP_pub.pdf</t>
   </si>
   <si>
-    <t>Drugs/milrinone.pdf</t>
+    <t>End_of_life_care/CMO &amp; NRS Guidance for Doctors completing MCCD.pdf</t>
+  </si>
+  <si>
+    <t>End_of_life_care/Palliative extubation &amp; withdrawal of invasive ventilatory support nursing checklist.pdf</t>
+  </si>
+  <si>
+    <t>Organ_donation/Organ Retrieval SOP.pdf</t>
   </si>
   <si>
     <t>Neurological/Critical Care MRI Procedure_pub.pdf</t>
   </si>
   <si>
-    <t>Organ_donation/Organ Retrieval SOP.pdf</t>
-  </si>
-  <si>
-    <t>End_of_life_care/Palliative extubation &amp; withdrawal of invasive ventilatory support nursing checklist.pdf</t>
-  </si>
-  <si>
-    <t>End_of_life_care/CMO &amp; NRS Guidance for Doctors completing MCCD.pdf</t>
+    <t>Neurological/Management of traumatic brain injury.pdf</t>
   </si>
   <si>
     <t>Infection_and_sepsis/Trip Out of Unit infection guidance.pdf</t>
   </si>
   <si>
-    <t>Neurological/Management of traumatic brain injury.pdf</t>
+    <t>Covid-19/COVID 19 ICM guidance basic goals_June_2022.pdf</t>
   </si>
   <si>
     <t>Ethics_and_Law/DNACPR policy for Scotland.pdf</t>
@@ -328,9 +331,6 @@
     <t>GI_Liver_and_Transplant/ICU - Upper GI bleeding (Endoscopy guideline).pdf</t>
   </si>
   <si>
-    <t>Covid-19/COVID 19 ICM guidance basic goals_June_2022.pdf</t>
-  </si>
-  <si>
     <t>Drugs/clonidine.pdf</t>
   </si>
   <si>
@@ -370,12 +370,12 @@
     <t>Transfer/Transfer Outdoors to Garden Guideline.pdf</t>
   </si>
   <si>
+    <t>Cardiovascular/Intra Aortic Balloon Pump Bedside Checks_pub.pdf</t>
+  </si>
+  <si>
     <t>Cardiovascular/Intra Aortic Balloon Pump Guideline_pub.pdf</t>
   </si>
   <si>
-    <t>Cardiovascular/Intra Aortic Balloon Pump Bedside Checks_pub.pdf</t>
-  </si>
-  <si>
     <t>Drugs/hydralazine.pdf</t>
   </si>
   <si>
@@ -397,51 +397,51 @@
     <t>Drugs/magnesium.pdf</t>
   </si>
   <si>
+    <t>Drugs/ICU - IV drug infusions.pdf</t>
+  </si>
+  <si>
     <t>Drugs/neostigmine.pdf</t>
   </si>
   <si>
-    <t>Drugs/ICU - IV drug infusions.pdf</t>
-  </si>
-  <si>
     <t>Drugs/vancomycin continuous infusion.pdf</t>
   </si>
   <si>
+    <t>Neurological/Intrathecal policy RIE.pdf</t>
+  </si>
+  <si>
+    <t>Drugs/labetalol.pdf</t>
+  </si>
+  <si>
     <t>Infection_and_sepsis/Initial investigation and management in unidentified Infections.pdf</t>
   </si>
   <si>
-    <t>Neurological/Intrathecal policy RIE.pdf</t>
-  </si>
-  <si>
-    <t>Drugs/labetalol.pdf</t>
+    <t>Cardiovascular/Management of Acute Type B Aortic Dissection Guideline.pdf</t>
   </si>
   <si>
     <t>Drugs/midazolam.pdf</t>
   </si>
   <si>
-    <t>Cardiovascular/Management of Acute Type B Aortic Dissection Guideline.pdf</t>
-  </si>
-  <si>
     <t>Procedures/CVC Guidance/CVC NHL  April 2023.pdf</t>
   </si>
   <si>
+    <t>Drugs/nimodipine.pdf</t>
+  </si>
+  <si>
     <t>Drugs/salbutamol.pdf</t>
   </si>
   <si>
-    <t>Drugs/nimodipine.pdf</t>
+    <t>Drugs/potassium.pdf</t>
   </si>
   <si>
     <t>Trauma and Burns/Management of Severe Burns v1.6.pdf</t>
   </si>
   <si>
-    <t>Drugs/potassium.pdf</t>
+    <t>Procedures/Arterial Line insertion for ACCPs.pdf</t>
   </si>
   <si>
     <t>Drugs/phenobarbitone.pdf</t>
   </si>
   <si>
-    <t>Procedures/Arterial Line insertion for ACCPs.pdf</t>
-  </si>
-  <si>
     <t>Routine_Care/ICU Eye Care Guideline.pdf</t>
   </si>
   <si>
@@ -451,21 +451,21 @@
     <t>Drugs/amiodarone.pdf</t>
   </si>
   <si>
+    <t>Drugs/Epoprostenol.pdf</t>
+  </si>
+  <si>
     <t>Drugs/phenylephrine.pdf</t>
   </si>
   <si>
+    <t>Breathing(Respiratory)/Manual Ventilation and MHI.pdf</t>
+  </si>
+  <si>
+    <t>Neurological/Ventriculitis Guideline.pdf</t>
+  </si>
+  <si>
     <t>Drugs/morphine.pdf</t>
   </si>
   <si>
-    <t>Breathing(Respiratory)/Manual Ventilation and MHI.pdf</t>
-  </si>
-  <si>
-    <t>Neurological/Ventriculitis Guideline.pdf</t>
-  </si>
-  <si>
-    <t>Drugs/Epoprostenol.pdf</t>
-  </si>
-  <si>
     <t>Cardiovascular/Cardiac Output Monitoring_pub .pdf</t>
   </si>
   <si>
@@ -487,48 +487,48 @@
     <t>Drugs/Vancomycin continuous infusion Fluid Restricted.pdf</t>
   </si>
   <si>
+    <t>Policies_and_admin/Pet Visitation.pdf</t>
+  </si>
+  <si>
     <t>Procedures/Inadvertent Catheter Placement Guideline.pdf</t>
   </si>
   <si>
-    <t>Policies_and_admin/Pet Visitation.pdf</t>
-  </si>
-  <si>
     <t>Drugs/valproate.pdf</t>
   </si>
   <si>
+    <t>Drugs/stress ulcer prophylaxis.pdf</t>
+  </si>
+  <si>
+    <t>Drugs/Phosphate.pdf</t>
+  </si>
+  <si>
     <t>Drugs/ketamine_for_status epilepticus.pdf</t>
   </si>
   <si>
-    <t>Drugs/stress ulcer prophylaxis.pdf</t>
-  </si>
-  <si>
-    <t>Drugs/Phosphate.pdf</t>
+    <t>Drugs/Octreotide.pdf</t>
+  </si>
+  <si>
+    <t>Neurological/Status epilepticus.pdf</t>
+  </si>
+  <si>
+    <t>Breathing(Respiratory)/Proning Guideline.pdf</t>
   </si>
   <si>
     <t>GI_Liver_and_Transplant/Prokinetics in ICU.pdf</t>
   </si>
   <si>
-    <t>Neurological/Status epilepticus.pdf</t>
-  </si>
-  <si>
-    <t>Drugs/Octreotide.pdf</t>
-  </si>
-  <si>
-    <t>Breathing(Respiratory)/Proning Guideline.pdf</t>
-  </si>
-  <si>
     <t>Drugs/Thiopentone.pdf</t>
   </si>
   <si>
+    <t>Procedures/ACCPs acquiring initial CVC competencies.pdf</t>
+  </si>
+  <si>
     <t>Procedures/ACCP CVC placement following completion of initial competencies.pdf</t>
   </si>
   <si>
     <t>Post_op_care/Prevention and treatment of paraplegia after major aortic procedures.pdf</t>
   </si>
   <si>
-    <t>Procedures/ACCPs acquiring initial CVC competencies.pdf</t>
-  </si>
-  <si>
     <t>Delirium/Violence and Agression.pdf</t>
   </si>
   <si>
@@ -550,12 +550,12 @@
     <t>Breathing(Respiratory)/Equipment/Setting up the NKV-330.pdf</t>
   </si>
   <si>
+    <t>Breathing(Respiratory)/NKV 330 NIV guidelines.pdf</t>
+  </si>
+  <si>
     <t>Breathing(Respiratory)/T1RF - CPAP Guidelines_Mar24.pdf</t>
   </si>
   <si>
-    <t>Breathing(Respiratory)/NKV 330 NIV guidelines.pdf</t>
-  </si>
-  <si>
     <t>Infection_and_sepsis/Influenza in Critical Care.pdf</t>
   </si>
   <si>
@@ -571,7 +571,10 @@
     <t>GI_Liver_and_Transplant/Nasal Bridle use in Critical Care.pdf</t>
   </si>
   <si>
-    <t>GI_Liver_and_Transplant/Pabrinex Guidline.pdf</t>
+    <t>GI_Liver_and_Transplant/Pabrinex.pdf</t>
+  </si>
+  <si>
+    <t>Drugs/Pabrinex.pdf</t>
   </si>
   <si>
     <t>Policies_and_admin/Repatriaiton Checklist for Critical Care.pdf</t>
@@ -1214,7 +1217,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B186"/>
+  <dimension ref="A1:B187"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1233,7 +1236,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -1241,7 +1244,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -1249,7 +1252,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -1257,7 +1260,7 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -1265,7 +1268,7 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -1273,7 +1276,7 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -1281,7 +1284,7 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -1289,7 +1292,7 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -1297,7 +1300,7 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -1305,7 +1308,7 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -1313,7 +1316,7 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -1321,7 +1324,7 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -1329,7 +1332,7 @@
         <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -1337,7 +1340,7 @@
         <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -1345,7 +1348,7 @@
         <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -1353,7 +1356,7 @@
         <v>17</v>
       </c>
       <c r="B17" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -1361,7 +1364,7 @@
         <v>18</v>
       </c>
       <c r="B18" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -1369,7 +1372,7 @@
         <v>19</v>
       </c>
       <c r="B19" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -1377,7 +1380,7 @@
         <v>20</v>
       </c>
       <c r="B20" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -1385,7 +1388,7 @@
         <v>21</v>
       </c>
       <c r="B21" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -1393,7 +1396,7 @@
         <v>22</v>
       </c>
       <c r="B22" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -1401,7 +1404,7 @@
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -1409,7 +1412,7 @@
         <v>24</v>
       </c>
       <c r="B24" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -1417,7 +1420,7 @@
         <v>25</v>
       </c>
       <c r="B25" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -1425,7 +1428,7 @@
         <v>26</v>
       </c>
       <c r="B26" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -1433,7 +1436,7 @@
         <v>27</v>
       </c>
       <c r="B27" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -1441,7 +1444,7 @@
         <v>28</v>
       </c>
       <c r="B28" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -1449,7 +1452,7 @@
         <v>29</v>
       </c>
       <c r="B29" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -1457,7 +1460,7 @@
         <v>30</v>
       </c>
       <c r="B30" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -1465,7 +1468,7 @@
         <v>31</v>
       </c>
       <c r="B31" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -1473,7 +1476,7 @@
         <v>32</v>
       </c>
       <c r="B32" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -1481,7 +1484,7 @@
         <v>33</v>
       </c>
       <c r="B33" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -1489,7 +1492,7 @@
         <v>34</v>
       </c>
       <c r="B34" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -1497,7 +1500,7 @@
         <v>35</v>
       </c>
       <c r="B35" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -1505,7 +1508,7 @@
         <v>36</v>
       </c>
       <c r="B36" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -1513,7 +1516,7 @@
         <v>37</v>
       </c>
       <c r="B37" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -1521,7 +1524,7 @@
         <v>38</v>
       </c>
       <c r="B38" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -1529,7 +1532,7 @@
         <v>39</v>
       </c>
       <c r="B39" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -1537,7 +1540,7 @@
         <v>40</v>
       </c>
       <c r="B40" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -1545,7 +1548,7 @@
         <v>41</v>
       </c>
       <c r="B41" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -1553,7 +1556,7 @@
         <v>42</v>
       </c>
       <c r="B42" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -1561,7 +1564,7 @@
         <v>43</v>
       </c>
       <c r="B43" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -1569,7 +1572,7 @@
         <v>44</v>
       </c>
       <c r="B44" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -1577,7 +1580,7 @@
         <v>45</v>
       </c>
       <c r="B45" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -1585,7 +1588,7 @@
         <v>46</v>
       </c>
       <c r="B46" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -1593,7 +1596,7 @@
         <v>47</v>
       </c>
       <c r="B47" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -1601,7 +1604,7 @@
         <v>48</v>
       </c>
       <c r="B48" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -1609,7 +1612,7 @@
         <v>49</v>
       </c>
       <c r="B49" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -1617,7 +1620,7 @@
         <v>50</v>
       </c>
       <c r="B50" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -1625,7 +1628,7 @@
         <v>51</v>
       </c>
       <c r="B51" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -1633,7 +1636,7 @@
         <v>52</v>
       </c>
       <c r="B52" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -1641,7 +1644,7 @@
         <v>53</v>
       </c>
       <c r="B53" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
     </row>
     <row r="54" spans="1:2">
@@ -1649,7 +1652,7 @@
         <v>54</v>
       </c>
       <c r="B54" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
     <row r="55" spans="1:2">
@@ -1657,7 +1660,7 @@
         <v>55</v>
       </c>
       <c r="B55" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
     </row>
     <row r="56" spans="1:2">
@@ -1665,7 +1668,7 @@
         <v>56</v>
       </c>
       <c r="B56" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
     </row>
     <row r="57" spans="1:2">
@@ -1673,7 +1676,7 @@
         <v>57</v>
       </c>
       <c r="B57" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
     </row>
     <row r="58" spans="1:2">
@@ -1681,7 +1684,7 @@
         <v>58</v>
       </c>
       <c r="B58" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
     </row>
     <row r="59" spans="1:2">
@@ -1689,7 +1692,7 @@
         <v>59</v>
       </c>
       <c r="B59" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
     </row>
     <row r="60" spans="1:2">
@@ -1697,7 +1700,7 @@
         <v>60</v>
       </c>
       <c r="B60" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
     </row>
     <row r="61" spans="1:2">
@@ -1705,7 +1708,7 @@
         <v>61</v>
       </c>
       <c r="B61" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
     </row>
     <row r="62" spans="1:2">
@@ -1713,7 +1716,7 @@
         <v>62</v>
       </c>
       <c r="B62" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
     </row>
     <row r="63" spans="1:2">
@@ -1721,7 +1724,7 @@
         <v>63</v>
       </c>
       <c r="B63" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="64" spans="1:2">
@@ -1729,7 +1732,7 @@
         <v>64</v>
       </c>
       <c r="B64" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="65" spans="1:2">
@@ -1737,7 +1740,7 @@
         <v>65</v>
       </c>
       <c r="B65" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
     <row r="66" spans="1:2">
@@ -1745,7 +1748,7 @@
         <v>66</v>
       </c>
       <c r="B66" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="67" spans="1:2">
@@ -1753,7 +1756,7 @@
         <v>67</v>
       </c>
       <c r="B67" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
     <row r="68" spans="1:2">
@@ -1761,7 +1764,7 @@
         <v>68</v>
       </c>
       <c r="B68" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
     <row r="69" spans="1:2">
@@ -1769,7 +1772,7 @@
         <v>69</v>
       </c>
       <c r="B69" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
     </row>
     <row r="70" spans="1:2">
@@ -1777,7 +1780,7 @@
         <v>70</v>
       </c>
       <c r="B70" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
     </row>
     <row r="71" spans="1:2">
@@ -1785,7 +1788,7 @@
         <v>71</v>
       </c>
       <c r="B71" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
     </row>
     <row r="72" spans="1:2">
@@ -1793,7 +1796,7 @@
         <v>72</v>
       </c>
       <c r="B72" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
     </row>
     <row r="73" spans="1:2">
@@ -1801,7 +1804,7 @@
         <v>73</v>
       </c>
       <c r="B73" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
     </row>
     <row r="74" spans="1:2">
@@ -1809,7 +1812,7 @@
         <v>74</v>
       </c>
       <c r="B74" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
     </row>
     <row r="75" spans="1:2">
@@ -1817,7 +1820,7 @@
         <v>75</v>
       </c>
       <c r="B75" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
     </row>
     <row r="76" spans="1:2">
@@ -1825,7 +1828,7 @@
         <v>76</v>
       </c>
       <c r="B76" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
     </row>
     <row r="77" spans="1:2">
@@ -1833,7 +1836,7 @@
         <v>77</v>
       </c>
       <c r="B77" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
     </row>
     <row r="78" spans="1:2">
@@ -1841,7 +1844,7 @@
         <v>78</v>
       </c>
       <c r="B78" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
     </row>
     <row r="79" spans="1:2">
@@ -1849,7 +1852,7 @@
         <v>79</v>
       </c>
       <c r="B79" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
     </row>
     <row r="80" spans="1:2">
@@ -1857,7 +1860,7 @@
         <v>80</v>
       </c>
       <c r="B80" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="81" spans="1:2">
@@ -1865,7 +1868,7 @@
         <v>81</v>
       </c>
       <c r="B81" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="82" spans="1:2">
@@ -1873,7 +1876,7 @@
         <v>82</v>
       </c>
       <c r="B82" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="83" spans="1:2">
@@ -1881,7 +1884,7 @@
         <v>83</v>
       </c>
       <c r="B83" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="84" spans="1:2">
@@ -1889,7 +1892,7 @@
         <v>84</v>
       </c>
       <c r="B84" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="85" spans="1:2">
@@ -1897,7 +1900,7 @@
         <v>85</v>
       </c>
       <c r="B85" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="86" spans="1:2">
@@ -1905,7 +1908,7 @@
         <v>86</v>
       </c>
       <c r="B86" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="87" spans="1:2">
@@ -1913,7 +1916,7 @@
         <v>87</v>
       </c>
       <c r="B87" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="88" spans="1:2">
@@ -1921,7 +1924,7 @@
         <v>88</v>
       </c>
       <c r="B88" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="89" spans="1:2">
@@ -1929,7 +1932,7 @@
         <v>89</v>
       </c>
       <c r="B89" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="90" spans="1:2">
@@ -1937,7 +1940,7 @@
         <v>90</v>
       </c>
       <c r="B90" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="91" spans="1:2">
@@ -1945,7 +1948,7 @@
         <v>91</v>
       </c>
       <c r="B91" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="92" spans="1:2">
@@ -1953,7 +1956,7 @@
         <v>92</v>
       </c>
       <c r="B92" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="93" spans="1:2">
@@ -1961,7 +1964,7 @@
         <v>93</v>
       </c>
       <c r="B93" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="94" spans="1:2">
@@ -1969,7 +1972,7 @@
         <v>94</v>
       </c>
       <c r="B94" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="95" spans="1:2">
@@ -1977,7 +1980,7 @@
         <v>95</v>
       </c>
       <c r="B95" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="96" spans="1:2">
@@ -1985,7 +1988,7 @@
         <v>96</v>
       </c>
       <c r="B96" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="97" spans="1:2">
@@ -1993,7 +1996,7 @@
         <v>97</v>
       </c>
       <c r="B97" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="98" spans="1:2">
@@ -2001,7 +2004,7 @@
         <v>98</v>
       </c>
       <c r="B98" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="99" spans="1:2">
@@ -2009,7 +2012,7 @@
         <v>99</v>
       </c>
       <c r="B99" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="100" spans="1:2">
@@ -2017,7 +2020,7 @@
         <v>100</v>
       </c>
       <c r="B100" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="101" spans="1:2">
@@ -2025,7 +2028,7 @@
         <v>101</v>
       </c>
       <c r="B101" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="102" spans="1:2">
@@ -2033,7 +2036,7 @@
         <v>102</v>
       </c>
       <c r="B102" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="103" spans="1:2">
@@ -2041,7 +2044,7 @@
         <v>103</v>
       </c>
       <c r="B103" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="104" spans="1:2">
@@ -2049,7 +2052,7 @@
         <v>104</v>
       </c>
       <c r="B104" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="105" spans="1:2">
@@ -2057,7 +2060,7 @@
         <v>105</v>
       </c>
       <c r="B105" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="106" spans="1:2">
@@ -2065,7 +2068,7 @@
         <v>106</v>
       </c>
       <c r="B106" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
     </row>
     <row r="107" spans="1:2">
@@ -2073,7 +2076,7 @@
         <v>107</v>
       </c>
       <c r="B107" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="108" spans="1:2">
@@ -2081,7 +2084,7 @@
         <v>108</v>
       </c>
       <c r="B108" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="109" spans="1:2">
@@ -2089,7 +2092,7 @@
         <v>109</v>
       </c>
       <c r="B109" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="110" spans="1:2">
@@ -2097,7 +2100,7 @@
         <v>110</v>
       </c>
       <c r="B110" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
     </row>
     <row r="111" spans="1:2">
@@ -2105,7 +2108,7 @@
         <v>111</v>
       </c>
       <c r="B111" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
     </row>
     <row r="112" spans="1:2">
@@ -2113,7 +2116,7 @@
         <v>112</v>
       </c>
       <c r="B112" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
     </row>
     <row r="113" spans="1:2">
@@ -2121,7 +2124,7 @@
         <v>113</v>
       </c>
       <c r="B113" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
     </row>
     <row r="114" spans="1:2">
@@ -2129,7 +2132,7 @@
         <v>114</v>
       </c>
       <c r="B114" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
     </row>
     <row r="115" spans="1:2">
@@ -2137,7 +2140,7 @@
         <v>115</v>
       </c>
       <c r="B115" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
     </row>
     <row r="116" spans="1:2">
@@ -2145,7 +2148,7 @@
         <v>116</v>
       </c>
       <c r="B116" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
     </row>
     <row r="117" spans="1:2">
@@ -2153,7 +2156,7 @@
         <v>117</v>
       </c>
       <c r="B117" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="118" spans="1:2">
@@ -2161,7 +2164,7 @@
         <v>118</v>
       </c>
       <c r="B118" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="119" spans="1:2">
@@ -2169,7 +2172,7 @@
         <v>119</v>
       </c>
       <c r="B119" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="120" spans="1:2">
@@ -2177,7 +2180,7 @@
         <v>120</v>
       </c>
       <c r="B120" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
     </row>
     <row r="121" spans="1:2">
@@ -2185,7 +2188,7 @@
         <v>121</v>
       </c>
       <c r="B121" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
     </row>
     <row r="122" spans="1:2">
@@ -2193,7 +2196,7 @@
         <v>122</v>
       </c>
       <c r="B122" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
     </row>
     <row r="123" spans="1:2">
@@ -2201,7 +2204,7 @@
         <v>123</v>
       </c>
       <c r="B123" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
     </row>
     <row r="124" spans="1:2">
@@ -2209,7 +2212,7 @@
         <v>124</v>
       </c>
       <c r="B124" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
     <row r="125" spans="1:2">
@@ -2217,7 +2220,7 @@
         <v>125</v>
       </c>
       <c r="B125" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
     <row r="126" spans="1:2">
@@ -2225,7 +2228,7 @@
         <v>126</v>
       </c>
       <c r="B126" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="127" spans="1:2">
@@ -2233,7 +2236,7 @@
         <v>127</v>
       </c>
       <c r="B127" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="128" spans="1:2">
@@ -2241,7 +2244,7 @@
         <v>128</v>
       </c>
       <c r="B128" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="129" spans="1:2">
@@ -2249,7 +2252,7 @@
         <v>129</v>
       </c>
       <c r="B129" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="130" spans="1:2">
@@ -2257,7 +2260,7 @@
         <v>130</v>
       </c>
       <c r="B130" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="131" spans="1:2">
@@ -2265,7 +2268,7 @@
         <v>131</v>
       </c>
       <c r="B131" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="132" spans="1:2">
@@ -2273,7 +2276,7 @@
         <v>132</v>
       </c>
       <c r="B132" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="133" spans="1:2">
@@ -2281,7 +2284,7 @@
         <v>133</v>
       </c>
       <c r="B133" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
     <row r="134" spans="1:2">
@@ -2289,7 +2292,7 @@
         <v>134</v>
       </c>
       <c r="B134" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
     <row r="135" spans="1:2">
@@ -2297,7 +2300,7 @@
         <v>135</v>
       </c>
       <c r="B135" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
     <row r="136" spans="1:2">
@@ -2305,7 +2308,7 @@
         <v>136</v>
       </c>
       <c r="B136" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
     <row r="137" spans="1:2">
@@ -2313,7 +2316,7 @@
         <v>137</v>
       </c>
       <c r="B137" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
     <row r="138" spans="1:2">
@@ -2321,7 +2324,7 @@
         <v>138</v>
       </c>
       <c r="B138" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
     <row r="139" spans="1:2">
@@ -2329,7 +2332,7 @@
         <v>139</v>
       </c>
       <c r="B139" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
     <row r="140" spans="1:2">
@@ -2337,7 +2340,7 @@
         <v>140</v>
       </c>
       <c r="B140" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="141" spans="1:2">
@@ -2345,7 +2348,7 @@
         <v>141</v>
       </c>
       <c r="B141" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="142" spans="1:2">
@@ -2353,7 +2356,7 @@
         <v>142</v>
       </c>
       <c r="B142" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="143" spans="1:2">
@@ -2361,7 +2364,7 @@
         <v>143</v>
       </c>
       <c r="B143" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="144" spans="1:2">
@@ -2369,7 +2372,7 @@
         <v>144</v>
       </c>
       <c r="B144" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="145" spans="1:2">
@@ -2377,7 +2380,7 @@
         <v>145</v>
       </c>
       <c r="B145" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="146" spans="1:2">
@@ -2385,7 +2388,7 @@
         <v>146</v>
       </c>
       <c r="B146" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="147" spans="1:2">
@@ -2393,7 +2396,7 @@
         <v>147</v>
       </c>
       <c r="B147" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="148" spans="1:2">
@@ -2401,7 +2404,7 @@
         <v>148</v>
       </c>
       <c r="B148" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="149" spans="1:2">
@@ -2409,7 +2412,7 @@
         <v>149</v>
       </c>
       <c r="B149" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="150" spans="1:2">
@@ -2417,7 +2420,7 @@
         <v>150</v>
       </c>
       <c r="B150" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="151" spans="1:2">
@@ -2425,7 +2428,7 @@
         <v>151</v>
       </c>
       <c r="B151" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="152" spans="1:2">
@@ -2433,7 +2436,7 @@
         <v>152</v>
       </c>
       <c r="B152" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="153" spans="1:2">
@@ -2441,7 +2444,7 @@
         <v>153</v>
       </c>
       <c r="B153" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
     </row>
     <row r="154" spans="1:2">
@@ -2449,7 +2452,7 @@
         <v>154</v>
       </c>
       <c r="B154" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
     </row>
     <row r="155" spans="1:2">
@@ -2457,7 +2460,7 @@
         <v>155</v>
       </c>
       <c r="B155" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
     </row>
     <row r="156" spans="1:2">
@@ -2465,7 +2468,7 @@
         <v>156</v>
       </c>
       <c r="B156" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
     </row>
     <row r="157" spans="1:2">
@@ -2473,7 +2476,7 @@
         <v>157</v>
       </c>
       <c r="B157" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
     </row>
     <row r="158" spans="1:2">
@@ -2481,7 +2484,7 @@
         <v>158</v>
       </c>
       <c r="B158" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
     </row>
     <row r="159" spans="1:2">
@@ -2489,7 +2492,7 @@
         <v>159</v>
       </c>
       <c r="B159" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
     </row>
     <row r="160" spans="1:2">
@@ -2497,7 +2500,7 @@
         <v>160</v>
       </c>
       <c r="B160" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="161" spans="1:2">
@@ -2505,7 +2508,7 @@
         <v>161</v>
       </c>
       <c r="B161" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="162" spans="1:2">
@@ -2513,7 +2516,7 @@
         <v>162</v>
       </c>
       <c r="B162" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="163" spans="1:2">
@@ -2521,7 +2524,7 @@
         <v>163</v>
       </c>
       <c r="B163" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
     </row>
     <row r="164" spans="1:2">
@@ -2529,7 +2532,7 @@
         <v>164</v>
       </c>
       <c r="B164" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
     </row>
     <row r="165" spans="1:2">
@@ -2537,7 +2540,7 @@
         <v>165</v>
       </c>
       <c r="B165" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
     </row>
     <row r="166" spans="1:2">
@@ -2545,7 +2548,7 @@
         <v>166</v>
       </c>
       <c r="B166" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
     </row>
     <row r="167" spans="1:2">
@@ -2553,7 +2556,7 @@
         <v>167</v>
       </c>
       <c r="B167" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
     </row>
     <row r="168" spans="1:2">
@@ -2561,7 +2564,7 @@
         <v>168</v>
       </c>
       <c r="B168" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
     </row>
     <row r="169" spans="1:2">
@@ -2569,7 +2572,7 @@
         <v>169</v>
       </c>
       <c r="B169" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
     </row>
     <row r="170" spans="1:2">
@@ -2577,7 +2580,7 @@
         <v>170</v>
       </c>
       <c r="B170" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
     </row>
     <row r="171" spans="1:2">
@@ -2585,7 +2588,7 @@
         <v>171</v>
       </c>
       <c r="B171" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
     </row>
     <row r="172" spans="1:2">
@@ -2593,7 +2596,7 @@
         <v>172</v>
       </c>
       <c r="B172" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="173" spans="1:2">
@@ -2601,7 +2604,7 @@
         <v>173</v>
       </c>
       <c r="B173" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
     </row>
     <row r="174" spans="1:2">
@@ -2609,7 +2612,7 @@
         <v>174</v>
       </c>
       <c r="B174" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
     </row>
     <row r="175" spans="1:2">
@@ -2617,7 +2620,7 @@
         <v>175</v>
       </c>
       <c r="B175" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
     </row>
     <row r="176" spans="1:2">
@@ -2625,7 +2628,7 @@
         <v>176</v>
       </c>
       <c r="B176" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
     </row>
     <row r="177" spans="1:2">
@@ -2633,7 +2636,7 @@
         <v>177</v>
       </c>
       <c r="B177" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
     </row>
     <row r="178" spans="1:2">
@@ -2641,7 +2644,7 @@
         <v>178</v>
       </c>
       <c r="B178" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
     </row>
     <row r="179" spans="1:2">
@@ -2649,7 +2652,7 @@
         <v>179</v>
       </c>
       <c r="B179" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
     </row>
     <row r="180" spans="1:2">
@@ -2657,7 +2660,7 @@
         <v>180</v>
       </c>
       <c r="B180" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
     </row>
     <row r="181" spans="1:2">
@@ -2665,7 +2668,7 @@
         <v>181</v>
       </c>
       <c r="B181" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
     </row>
     <row r="182" spans="1:2">
@@ -2673,7 +2676,7 @@
         <v>182</v>
       </c>
       <c r="B182" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
     </row>
     <row r="183" spans="1:2">
@@ -2681,7 +2684,7 @@
         <v>183</v>
       </c>
       <c r="B183" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
     </row>
     <row r="184" spans="1:2">
@@ -2689,7 +2692,7 @@
         <v>184</v>
       </c>
       <c r="B184" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
     </row>
     <row r="185" spans="1:2">
@@ -2697,7 +2700,7 @@
         <v>185</v>
       </c>
       <c r="B185" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
     </row>
     <row r="186" spans="1:2">
@@ -2706,6 +2709,14 @@
       </c>
       <c r="B186" t="s">
         <v>280</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2">
+      <c r="A187" t="s">
+        <v>187</v>
+      </c>
+      <c r="B187" t="s">
+        <v>281</v>
       </c>
     </row>
   </sheetData>

--- a/lothiancriticalcare/1a74f8f7b8b7e871b413c4697f68b4401fbacdf0/reviewdates.xlsx
+++ b/lothiancriticalcare/1a74f8f7b8b7e871b413c4697f68b4401fbacdf0/reviewdates.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="282">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="283">
   <si>
     <t>File</t>
   </si>
@@ -73,12 +73,12 @@
     <t>Drugs/diazepam_diazemuls.pdf</t>
   </si>
   <si>
+    <t>Breathing(Respiratory)/salbutamol and ipratroprium MDI.pdf</t>
+  </si>
+  <si>
     <t>End_of_life_care/Reasons to report a death to PF.pdf</t>
   </si>
   <si>
-    <t>Breathing(Respiratory)/salbutamol and ipratroprium MDI.pdf</t>
-  </si>
-  <si>
     <t>Airway/Tracheostomy_Laryngectomy/Tracheostomy suctioning cleaning guideline.pdf</t>
   </si>
   <si>
@@ -100,21 +100,21 @@
     <t>Covid-19/SJH/SJH COVID19 ITU Intubation Action Card.pdf</t>
   </si>
   <si>
+    <t>Airway/Emergency intubation checklist_em_pub.pdf</t>
+  </si>
+  <si>
+    <t>Covid-19/SJH/SJH COVID19 ED Intubation Action Card.pdf</t>
+  </si>
+  <si>
+    <t>Diabetes_and_Glucose/Hyperosmolar Hyperglycaemic State.pdf</t>
+  </si>
+  <si>
     <t>Drugs/heparin for Haemofiltration.pdf</t>
   </si>
   <si>
-    <t>Covid-19/SJH/SJH COVID19 ED Intubation Action Card.pdf</t>
-  </si>
-  <si>
-    <t>Diabetes_and_Glucose/Hyperosmolar Hyperglycaemic State.pdf</t>
-  </si>
-  <si>
     <t>Covid-19/WGH/CoVid intubation checklist WGH.pdf</t>
   </si>
   <si>
-    <t>Airway/Emergency intubation checklist_em_pub.pdf</t>
-  </si>
-  <si>
     <t>Drugs/fentanyl.pdf</t>
   </si>
   <si>
@@ -139,30 +139,30 @@
     <t>Infection_and_sepsis/SOP Ultrasound Cleaning.pdf</t>
   </si>
   <si>
+    <t>Drugs/ketamine_in_asthma.pdf</t>
+  </si>
+  <si>
+    <t>Airway/McGrath Mac.pdf</t>
+  </si>
+  <si>
+    <t>Airway/Anticipated difficult airway tool.pdf</t>
+  </si>
+  <si>
+    <t>GI_Liver_and_Transplant/Treatment of constipation.pdf</t>
+  </si>
+  <si>
     <t>Neurological/Sub arachnoid haemorrhage management.pdf</t>
   </si>
   <si>
-    <t>Airway/McGrath Mac.pdf</t>
-  </si>
-  <si>
-    <t>Airway/Anticipated difficult airway tool.pdf</t>
-  </si>
-  <si>
-    <t>Drugs/ketamine_in_asthma.pdf</t>
+    <t>GI_Liver_and_Transplant/Abdominal pressure measurement.pdf</t>
   </si>
   <si>
     <t>Airway/Tracheostomy_Laryngectomy/Tracheostomy safety box contents.pdf</t>
   </si>
   <si>
-    <t>GI_Liver_and_Transplant/Treatment of constipation.pdf</t>
-  </si>
-  <si>
     <t>Breathing(Respiratory)/HFNO.pdf</t>
   </si>
   <si>
-    <t>GI_Liver_and_Transplant/Abdominal pressure measurement.pdf</t>
-  </si>
-  <si>
     <t>End_of_life_care/Documentation following death.pdf</t>
   </si>
   <si>
@@ -187,15 +187,15 @@
     <t>Breathing(Respiratory)/Equipment/APRV.pdf</t>
   </si>
   <si>
+    <t>Breathing(Respiratory)/Equipment/T piece Y piece.pdf</t>
+  </si>
+  <si>
+    <t>Neurological/SOP for review of Neurosurgical patients in ITU by neurosurgical team.pdf</t>
+  </si>
+  <si>
     <t>Post_op_care/Epidural Haematoma.pdf</t>
   </si>
   <si>
-    <t>Neurological/SOP for review of Neurosurgical patients in ITU by neurosurgical team.pdf</t>
-  </si>
-  <si>
-    <t>Breathing(Respiratory)/Equipment/T piece Y piece.pdf</t>
-  </si>
-  <si>
     <t>Policies_and_admin/General Critical Care Interaction with HEPMA_pub.pdf</t>
   </si>
   <si>
@@ -205,12 +205,12 @@
     <t>Breathing(Respiratory)/Equipment/HFNO through ventilator.pdf</t>
   </si>
   <si>
+    <t>Routine_Care/VTE_Prevention/Dalteparin_thromboprophylaxis.pdf</t>
+  </si>
+  <si>
     <t>Post_op_care/Adult Scoliosis Spinal Surgery Post-Op Care.pdf</t>
   </si>
   <si>
-    <t>Routine_Care/VTE_Prevention/Dalteparin_thromboprophylaxis.pdf</t>
-  </si>
-  <si>
     <t>Post_op_care/Post op care pharyngo-laryngo-oesphagectomy PLOG.pdf</t>
   </si>
   <si>
@@ -223,45 +223,45 @@
     <t>Drugs/Antibiotic doses in CVVHD.pdf</t>
   </si>
   <si>
+    <t>GI_Liver_and_Transplant/Jejunostomy feeding protocol.pdf</t>
+  </si>
+  <si>
     <t>ECLS/RIE ECLS Anti Xa Protocol.pdf</t>
   </si>
   <si>
-    <t>GI_Liver_and_Transplant/Jejunostomy feeding protocol.pdf</t>
-  </si>
-  <si>
     <t>GI_Liver_and_Transplant/Nasojejunal feeding protocol.pdf</t>
   </si>
   <si>
     <t>Drugs/vasopressin organ donation.pdf</t>
   </si>
   <si>
+    <t>Drugs/vasopressin_sepsis.pdf</t>
+  </si>
+  <si>
     <t>Infection_and_sepsis/Winter Infections Stepdown Guidance.pdf</t>
   </si>
   <si>
-    <t>Drugs/vasopressin_sepsis.pdf</t>
-  </si>
-  <si>
     <t>Transfer/ACCP Transfers.pdf</t>
   </si>
   <si>
     <t>Covid-19/videos/Donning and Doffing Video.pdf</t>
   </si>
   <si>
+    <t>Drugs/piperacillin_tazobactam extended_infusion.pdf</t>
+  </si>
+  <si>
     <t>Infection_and_sepsis/Infection indications for IVIG.pdf</t>
   </si>
   <si>
     <t>Breathing(Respiratory)/Equipment/Ventilators Circuits Filters and Closed Suction - Set up and Maintenance.pdf</t>
   </si>
   <si>
-    <t>Drugs/piperacillin_tazobactam extended_infusion.pdf</t>
+    <t>Procedures/CVC Guidance/Securing CVCs.pdf</t>
   </si>
   <si>
     <t>Covid-19/Covid 19 Death Certification Guideline.pdf</t>
   </si>
   <si>
-    <t>Procedures/CVC Guidance/Securing CVCs.pdf</t>
-  </si>
-  <si>
     <t>Routine_Care/Video Communication.pdf</t>
   </si>
   <si>
@@ -280,6 +280,9 @@
     <t>Cardiovascular/Management of hypertension within Critical Care.pdf</t>
   </si>
   <si>
+    <t>Haematology_CAR-T/Cytokine Release Syndrome.pdf</t>
+  </si>
+  <si>
     <t>Drugs/pancuronium.pdf</t>
   </si>
   <si>
@@ -292,33 +295,30 @@
     <t>Drugs/rocuronium.pdf</t>
   </si>
   <si>
-    <t>Haematology_CAR-T/Cytokine Release Syndrome.pdf</t>
-  </si>
-  <si>
     <t>Drugs/milrinone.pdf</t>
   </si>
   <si>
     <t>Policies_and_admin/General Critical Care SOP_pub.pdf</t>
   </si>
   <si>
+    <t>End_of_life_care/Palliative extubation &amp; withdrawal of invasive ventilatory support nursing checklist.pdf</t>
+  </si>
+  <si>
     <t>End_of_life_care/CMO &amp; NRS Guidance for Doctors completing MCCD.pdf</t>
   </si>
   <si>
-    <t>End_of_life_care/Palliative extubation &amp; withdrawal of invasive ventilatory support nursing checklist.pdf</t>
+    <t>Neurological/Critical Care MRI Procedure_pub.pdf</t>
+  </si>
+  <si>
+    <t>Neurological/Management of traumatic brain injury.pdf</t>
+  </si>
+  <si>
+    <t>Infection_and_sepsis/Trip Out of Unit infection guidance.pdf</t>
   </si>
   <si>
     <t>Organ_donation/Organ Retrieval SOP.pdf</t>
   </si>
   <si>
-    <t>Neurological/Critical Care MRI Procedure_pub.pdf</t>
-  </si>
-  <si>
-    <t>Neurological/Management of traumatic brain injury.pdf</t>
-  </si>
-  <si>
-    <t>Infection_and_sepsis/Trip Out of Unit infection guidance.pdf</t>
-  </si>
-  <si>
     <t>Covid-19/COVID 19 ICM guidance basic goals_June_2022.pdf</t>
   </si>
   <si>
@@ -328,39 +328,39 @@
     <t>Ethics_and_Law/Care at the End of Life (FICM).pdf</t>
   </si>
   <si>
+    <t>Drugs/clonidine.pdf</t>
+  </si>
+  <si>
     <t>GI_Liver_and_Transplant/ICU - Upper GI bleeding (Endoscopy guideline).pdf</t>
   </si>
   <si>
-    <t>Drugs/clonidine.pdf</t>
-  </si>
-  <si>
     <t>Airway/Cook Staged Extubation Set.pdf</t>
   </si>
   <si>
     <t>Post_op_care/Epidural hypotension.pdf</t>
   </si>
   <si>
+    <t>Drugs/noradrenaline (central).pdf</t>
+  </si>
+  <si>
     <t>End_of_life_care/End of Life Care Guideline for Critical Care.pdf</t>
   </si>
   <si>
-    <t>Drugs/noradrenaline (central).pdf</t>
-  </si>
-  <si>
     <t>Infection_and_sepsis/Antifungal guidance in critical care.pdf</t>
   </si>
   <si>
     <t>Breathing(Respiratory)/Equipment/Passy Muir Valve.pdf</t>
   </si>
   <si>
+    <t>GI_Liver_and_Transplant/Fulminant Liver Failure.pdf</t>
+  </si>
+  <si>
+    <t>Drugs/glyceryl_trinitrate.pdf</t>
+  </si>
+  <si>
     <t>Drugs/dexmedetomidine.pdf</t>
   </si>
   <si>
-    <t>GI_Liver_and_Transplant/Fulminant Liver Failure.pdf</t>
-  </si>
-  <si>
-    <t>Drugs/glyceryl_trinitrate.pdf</t>
-  </si>
-  <si>
     <t>GI_Liver_and_Transplant/Confirmation of Nasogastric Tube Position.pdf</t>
   </si>
   <si>
@@ -370,21 +370,21 @@
     <t>Transfer/Transfer Outdoors to Garden Guideline.pdf</t>
   </si>
   <si>
+    <t>Cardiovascular/Intra Aortic Balloon Pump Guideline_pub.pdf</t>
+  </si>
+  <si>
     <t>Cardiovascular/Intra Aortic Balloon Pump Bedside Checks_pub.pdf</t>
   </si>
   <si>
-    <t>Cardiovascular/Intra Aortic Balloon Pump Guideline_pub.pdf</t>
-  </si>
-  <si>
     <t>Drugs/hydralazine.pdf</t>
   </si>
   <si>
+    <t>Drugs/adrenaline.pdf</t>
+  </si>
+  <si>
     <t>Drugs/Dobutamine.pdf</t>
   </si>
   <si>
-    <t>Drugs/adrenaline.pdf</t>
-  </si>
-  <si>
     <t>Post_op_care/Major OMFS Free Flap.pdf</t>
   </si>
   <si>
@@ -397,21 +397,21 @@
     <t>Drugs/magnesium.pdf</t>
   </si>
   <si>
+    <t>Drugs/vancomycin continuous infusion.pdf</t>
+  </si>
+  <si>
+    <t>Drugs/neostigmine.pdf</t>
+  </si>
+  <si>
     <t>Drugs/ICU - IV drug infusions.pdf</t>
   </si>
   <si>
-    <t>Drugs/neostigmine.pdf</t>
-  </si>
-  <si>
-    <t>Drugs/vancomycin continuous infusion.pdf</t>
+    <t>Drugs/labetalol.pdf</t>
   </si>
   <si>
     <t>Neurological/Intrathecal policy RIE.pdf</t>
   </si>
   <si>
-    <t>Drugs/labetalol.pdf</t>
-  </si>
-  <si>
     <t>Infection_and_sepsis/Initial investigation and management in unidentified Infections.pdf</t>
   </si>
   <si>
@@ -424,46 +424,49 @@
     <t>Procedures/CVC Guidance/CVC NHL  April 2023.pdf</t>
   </si>
   <si>
+    <t>Drugs/salbutamol.pdf</t>
+  </si>
+  <si>
     <t>Drugs/nimodipine.pdf</t>
   </si>
   <si>
-    <t>Drugs/salbutamol.pdf</t>
+    <t>Trauma and Burns/Management of Severe Burns v1.6.pdf</t>
   </si>
   <si>
     <t>Drugs/potassium.pdf</t>
   </si>
   <si>
-    <t>Trauma and Burns/Management of Severe Burns v1.6.pdf</t>
+    <t>Routine_Care/ICU Eye Care Guideline.pdf</t>
+  </si>
+  <si>
+    <t>Drugs/phenobarbitone.pdf</t>
   </si>
   <si>
     <t>Procedures/Arterial Line insertion for ACCPs.pdf</t>
   </si>
   <si>
-    <t>Drugs/phenobarbitone.pdf</t>
-  </si>
-  <si>
-    <t>Routine_Care/ICU Eye Care Guideline.pdf</t>
-  </si>
-  <si>
     <t>Drugs/nicardipine.pdf</t>
   </si>
   <si>
     <t>Drugs/amiodarone.pdf</t>
   </si>
   <si>
+    <t>Drugs/morphine.pdf</t>
+  </si>
+  <si>
+    <t>Drugs/phenylephrine.pdf</t>
+  </si>
+  <si>
     <t>Drugs/Epoprostenol.pdf</t>
   </si>
   <si>
-    <t>Drugs/phenylephrine.pdf</t>
-  </si>
-  <si>
     <t>Breathing(Respiratory)/Manual Ventilation and MHI.pdf</t>
   </si>
   <si>
     <t>Neurological/Ventriculitis Guideline.pdf</t>
   </si>
   <si>
-    <t>Drugs/morphine.pdf</t>
+    <t>Drugs/calcium.pdf</t>
   </si>
   <si>
     <t>Cardiovascular/Cardiac Output Monitoring_pub .pdf</t>
@@ -472,15 +475,12 @@
     <t>Cardiovascular/Pulmonary_Embolism_and_DVT/Catheter directed thrombolysis of iliofemoral DVT alteplase_pub.pdf</t>
   </si>
   <si>
-    <t>Drugs/calcium.pdf</t>
+    <t>Airway/Tracheostomy_Laryngectomy/Decannulation Guidline.pdf</t>
   </si>
   <si>
     <t>Drugs/atracurium.pdf</t>
   </si>
   <si>
-    <t>Airway/Tracheostomy_Laryngectomy/Decannulation Guidline.pdf</t>
-  </si>
-  <si>
     <t>Drugs/dalteparin_thromboprophylaxis.pdf</t>
   </si>
   <si>
@@ -496,13 +496,19 @@
     <t>Drugs/valproate.pdf</t>
   </si>
   <si>
+    <t>Drugs/ketamine_for_status epilepticus.pdf</t>
+  </si>
+  <si>
     <t>Drugs/stress ulcer prophylaxis.pdf</t>
   </si>
   <si>
     <t>Drugs/Phosphate.pdf</t>
   </si>
   <si>
-    <t>Drugs/ketamine_for_status epilepticus.pdf</t>
+    <t>Breathing(Respiratory)/Proning Guideline.pdf</t>
+  </si>
+  <si>
+    <t>GI_Liver_and_Transplant/Prokinetics in ICU.pdf</t>
   </si>
   <si>
     <t>Drugs/Octreotide.pdf</t>
@@ -511,24 +517,18 @@
     <t>Neurological/Status epilepticus.pdf</t>
   </si>
   <si>
-    <t>Breathing(Respiratory)/Proning Guideline.pdf</t>
-  </si>
-  <si>
-    <t>GI_Liver_and_Transplant/Prokinetics in ICU.pdf</t>
-  </si>
-  <si>
     <t>Drugs/Thiopentone.pdf</t>
   </si>
   <si>
+    <t>Procedures/ACCP CVC placement following completion of initial competencies.pdf</t>
+  </si>
+  <si>
+    <t>Post_op_care/Prevention and treatment of paraplegia after major aortic procedures.pdf</t>
+  </si>
+  <si>
     <t>Procedures/ACCPs acquiring initial CVC competencies.pdf</t>
   </si>
   <si>
-    <t>Procedures/ACCP CVC placement following completion of initial competencies.pdf</t>
-  </si>
-  <si>
-    <t>Post_op_care/Prevention and treatment of paraplegia after major aortic procedures.pdf</t>
-  </si>
-  <si>
     <t>Delirium/Violence and Agression.pdf</t>
   </si>
   <si>
@@ -550,12 +550,12 @@
     <t>Breathing(Respiratory)/Equipment/Setting up the NKV-330.pdf</t>
   </si>
   <si>
+    <t>Breathing(Respiratory)/T1RF - CPAP Guidelines_Mar24.pdf</t>
+  </si>
+  <si>
     <t>Breathing(Respiratory)/NKV 330 NIV guidelines.pdf</t>
   </si>
   <si>
-    <t>Breathing(Respiratory)/T1RF - CPAP Guidelines_Mar24.pdf</t>
-  </si>
-  <si>
     <t>Infection_and_sepsis/Influenza in Critical Care.pdf</t>
   </si>
   <si>
@@ -574,178 +574,181 @@
     <t>GI_Liver_and_Transplant/Pabrinex.pdf</t>
   </si>
   <si>
+    <t>Cardiovascular/Focused TOE Guideline for General Critical Care_pub.pdf</t>
+  </si>
+  <si>
     <t>Drugs/Pabrinex.pdf</t>
   </si>
   <si>
     <t>Policies_and_admin/Repatriaiton Checklist for Critical Care.pdf</t>
   </si>
   <si>
-    <t>2011-03-27</t>
-  </si>
-  <si>
-    <t>2011-06-27</t>
-  </si>
-  <si>
-    <t>2011-07-27</t>
-  </si>
-  <si>
-    <t>2011-12-27</t>
-  </si>
-  <si>
-    <t>2014-09-27</t>
-  </si>
-  <si>
-    <t>2014-10-27</t>
-  </si>
-  <si>
-    <t>2014-11-27</t>
-  </si>
-  <si>
-    <t>2014-12-27</t>
-  </si>
-  <si>
-    <t>2015-03-27</t>
-  </si>
-  <si>
-    <t>2016-04-27</t>
-  </si>
-  <si>
-    <t>2016-08-27</t>
-  </si>
-  <si>
-    <t>2017-01-27</t>
-  </si>
-  <si>
-    <t>2017-08-27</t>
-  </si>
-  <si>
-    <t>2017-10-27</t>
-  </si>
-  <si>
-    <t>2017-11-27</t>
-  </si>
-  <si>
-    <t>2018-07-27</t>
-  </si>
-  <si>
-    <t>2019-05-27</t>
-  </si>
-  <si>
-    <t>2019-06-27</t>
-  </si>
-  <si>
-    <t>2019-08-27</t>
-  </si>
-  <si>
-    <t>2019-09-27</t>
-  </si>
-  <si>
-    <t>2020-01-27</t>
-  </si>
-  <si>
-    <t>2020-03-27</t>
-  </si>
-  <si>
-    <t>2020-04-27</t>
-  </si>
-  <si>
-    <t>2020-05-27</t>
-  </si>
-  <si>
-    <t>2020-07-27</t>
-  </si>
-  <si>
-    <t>2020-08-27</t>
-  </si>
-  <si>
-    <t>2020-11-27</t>
-  </si>
-  <si>
-    <t>2021-02-27</t>
-  </si>
-  <si>
-    <t>2021-05-27</t>
-  </si>
-  <si>
-    <t>2021-06-27</t>
-  </si>
-  <si>
-    <t>2021-09-27</t>
-  </si>
-  <si>
-    <t>2021-12-27</t>
-  </si>
-  <si>
-    <t>2022-01-27</t>
-  </si>
-  <si>
-    <t>2022-03-27</t>
-  </si>
-  <si>
-    <t>2022-04-27</t>
-  </si>
-  <si>
-    <t>2022-05-27</t>
-  </si>
-  <si>
-    <t>2022-06-27</t>
-  </si>
-  <si>
-    <t>2022-07-27</t>
-  </si>
-  <si>
-    <t>2022-08-27</t>
-  </si>
-  <si>
-    <t>2022-10-27</t>
-  </si>
-  <si>
-    <t>2022-11-27</t>
-  </si>
-  <si>
-    <t>2022-12-27</t>
-  </si>
-  <si>
-    <t>2023-01-27</t>
-  </si>
-  <si>
-    <t>2023-02-27</t>
-  </si>
-  <si>
-    <t>2023-04-27</t>
-  </si>
-  <si>
-    <t>2023-05-27</t>
-  </si>
-  <si>
-    <t>2023-06-27</t>
-  </si>
-  <si>
-    <t>2023-07-27</t>
-  </si>
-  <si>
-    <t>2023-08-27</t>
-  </si>
-  <si>
-    <t>2023-09-27</t>
-  </si>
-  <si>
-    <t>2023-10-27</t>
-  </si>
-  <si>
-    <t>2024-01-27</t>
-  </si>
-  <si>
-    <t>2024-02-27</t>
-  </si>
-  <si>
-    <t>2024-03-27</t>
-  </si>
-  <si>
-    <t>2024-04-27</t>
-  </si>
-  <si>
-    <t>2024-05-27</t>
+    <t>2011-03-28</t>
+  </si>
+  <si>
+    <t>2011-06-28</t>
+  </si>
+  <si>
+    <t>2011-07-28</t>
+  </si>
+  <si>
+    <t>2011-12-28</t>
+  </si>
+  <si>
+    <t>2014-09-28</t>
+  </si>
+  <si>
+    <t>2014-10-28</t>
+  </si>
+  <si>
+    <t>2014-11-28</t>
+  </si>
+  <si>
+    <t>2014-12-28</t>
+  </si>
+  <si>
+    <t>2015-03-28</t>
+  </si>
+  <si>
+    <t>2016-04-28</t>
+  </si>
+  <si>
+    <t>2016-08-28</t>
+  </si>
+  <si>
+    <t>2017-01-28</t>
+  </si>
+  <si>
+    <t>2017-08-28</t>
+  </si>
+  <si>
+    <t>2017-10-28</t>
+  </si>
+  <si>
+    <t>2017-11-28</t>
+  </si>
+  <si>
+    <t>2018-07-28</t>
+  </si>
+  <si>
+    <t>2019-05-28</t>
+  </si>
+  <si>
+    <t>2019-06-28</t>
+  </si>
+  <si>
+    <t>2019-08-28</t>
+  </si>
+  <si>
+    <t>2019-09-28</t>
+  </si>
+  <si>
+    <t>2020-01-28</t>
+  </si>
+  <si>
+    <t>2020-03-28</t>
+  </si>
+  <si>
+    <t>2020-04-28</t>
+  </si>
+  <si>
+    <t>2020-05-28</t>
+  </si>
+  <si>
+    <t>2020-07-28</t>
+  </si>
+  <si>
+    <t>2020-08-28</t>
+  </si>
+  <si>
+    <t>2020-11-28</t>
+  </si>
+  <si>
+    <t>2021-02-28</t>
+  </si>
+  <si>
+    <t>2021-05-28</t>
+  </si>
+  <si>
+    <t>2021-06-28</t>
+  </si>
+  <si>
+    <t>2021-09-28</t>
+  </si>
+  <si>
+    <t>2021-12-28</t>
+  </si>
+  <si>
+    <t>2022-01-28</t>
+  </si>
+  <si>
+    <t>2022-03-28</t>
+  </si>
+  <si>
+    <t>2022-04-28</t>
+  </si>
+  <si>
+    <t>2022-05-28</t>
+  </si>
+  <si>
+    <t>2022-06-28</t>
+  </si>
+  <si>
+    <t>2022-07-28</t>
+  </si>
+  <si>
+    <t>2022-08-28</t>
+  </si>
+  <si>
+    <t>2022-10-28</t>
+  </si>
+  <si>
+    <t>2022-11-28</t>
+  </si>
+  <si>
+    <t>2022-12-28</t>
+  </si>
+  <si>
+    <t>2023-01-28</t>
+  </si>
+  <si>
+    <t>2023-02-28</t>
+  </si>
+  <si>
+    <t>2023-04-28</t>
+  </si>
+  <si>
+    <t>2023-05-28</t>
+  </si>
+  <si>
+    <t>2023-06-28</t>
+  </si>
+  <si>
+    <t>2023-07-28</t>
+  </si>
+  <si>
+    <t>2023-08-28</t>
+  </si>
+  <si>
+    <t>2023-09-28</t>
+  </si>
+  <si>
+    <t>2023-10-28</t>
+  </si>
+  <si>
+    <t>2024-01-28</t>
+  </si>
+  <si>
+    <t>2024-02-28</t>
+  </si>
+  <si>
+    <t>2024-03-28</t>
+  </si>
+  <si>
+    <t>2024-04-28</t>
+  </si>
+  <si>
+    <t>2024-05-28</t>
   </si>
   <si>
     <t>2024-06-02</t>
@@ -754,25 +757,25 @@
     <t>2024-06-26</t>
   </si>
   <si>
-    <t>2024-06-27</t>
+    <t>2024-06-28</t>
   </si>
   <si>
     <t>2024-07-25</t>
   </si>
   <si>
-    <t>2024-07-27</t>
+    <t>2024-07-28</t>
   </si>
   <si>
     <t>2024-08-15</t>
   </si>
   <si>
-    <t>2024-08-27</t>
+    <t>2024-08-28</t>
   </si>
   <si>
     <t>2024-10-24</t>
   </si>
   <si>
-    <t>2024-10-27</t>
+    <t>2024-10-28</t>
   </si>
   <si>
     <t>2024-11-20</t>
@@ -784,82 +787,82 @@
     <t>2024-12-24</t>
   </si>
   <si>
-    <t>2025-01-27</t>
-  </si>
-  <si>
-    <t>2025-02-27</t>
-  </si>
-  <si>
-    <t>2025-03-27</t>
-  </si>
-  <si>
-    <t>2025-04-27</t>
-  </si>
-  <si>
-    <t>2025-05-27</t>
-  </si>
-  <si>
-    <t>2025-06-27</t>
-  </si>
-  <si>
-    <t>2025-07-27</t>
-  </si>
-  <si>
-    <t>2025-08-27</t>
-  </si>
-  <si>
-    <t>2025-10-27</t>
-  </si>
-  <si>
-    <t>2025-11-27</t>
-  </si>
-  <si>
-    <t>2026-01-27</t>
-  </si>
-  <si>
-    <t>2026-03-27</t>
-  </si>
-  <si>
-    <t>2026-05-27</t>
-  </si>
-  <si>
-    <t>2026-07-27</t>
-  </si>
-  <si>
-    <t>2026-11-27</t>
-  </si>
-  <si>
-    <t>2027-01-27</t>
-  </si>
-  <si>
-    <t>2027-02-27</t>
-  </si>
-  <si>
-    <t>2027-03-27</t>
-  </si>
-  <si>
-    <t>2028-02-27</t>
-  </si>
-  <si>
-    <t>2028-03-27</t>
-  </si>
-  <si>
-    <t>2028-05-27</t>
-  </si>
-  <si>
-    <t>2028-07-27</t>
-  </si>
-  <si>
-    <t>2028-11-27</t>
-  </si>
-  <si>
-    <t>2029-02-27</t>
-  </si>
-  <si>
-    <t>2029-06-27</t>
-  </si>
-  <si>
-    <t>2030-11-27</t>
+    <t>2025-01-28</t>
+  </si>
+  <si>
+    <t>2025-02-28</t>
+  </si>
+  <si>
+    <t>2025-03-28</t>
+  </si>
+  <si>
+    <t>2025-04-28</t>
+  </si>
+  <si>
+    <t>2025-05-28</t>
+  </si>
+  <si>
+    <t>2025-06-28</t>
+  </si>
+  <si>
+    <t>2025-07-28</t>
+  </si>
+  <si>
+    <t>2025-08-28</t>
+  </si>
+  <si>
+    <t>2025-10-28</t>
+  </si>
+  <si>
+    <t>2025-11-28</t>
+  </si>
+  <si>
+    <t>2026-01-28</t>
+  </si>
+  <si>
+    <t>2026-03-28</t>
+  </si>
+  <si>
+    <t>2026-05-28</t>
+  </si>
+  <si>
+    <t>2026-07-28</t>
+  </si>
+  <si>
+    <t>2026-11-28</t>
+  </si>
+  <si>
+    <t>2027-01-28</t>
+  </si>
+  <si>
+    <t>2027-02-28</t>
+  </si>
+  <si>
+    <t>2027-03-28</t>
+  </si>
+  <si>
+    <t>2028-02-28</t>
+  </si>
+  <si>
+    <t>2028-03-28</t>
+  </si>
+  <si>
+    <t>2028-05-28</t>
+  </si>
+  <si>
+    <t>2028-07-28</t>
+  </si>
+  <si>
+    <t>2028-11-28</t>
+  </si>
+  <si>
+    <t>2029-02-28</t>
+  </si>
+  <si>
+    <t>2029-06-28</t>
+  </si>
+  <si>
+    <t>2030-11-28</t>
   </si>
 </sst>
 </file>
@@ -1217,7 +1220,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B187"/>
+  <dimension ref="A1:B188"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1236,7 +1239,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -1244,7 +1247,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -1252,7 +1255,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -1260,7 +1263,7 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -1268,7 +1271,7 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -1276,7 +1279,7 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -1284,7 +1287,7 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -1292,7 +1295,7 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -1300,7 +1303,7 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -1308,7 +1311,7 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -1316,7 +1319,7 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -1324,7 +1327,7 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -1332,7 +1335,7 @@
         <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -1340,7 +1343,7 @@
         <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -1348,7 +1351,7 @@
         <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -1356,7 +1359,7 @@
         <v>17</v>
       </c>
       <c r="B17" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -1364,7 +1367,7 @@
         <v>18</v>
       </c>
       <c r="B18" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -1372,7 +1375,7 @@
         <v>19</v>
       </c>
       <c r="B19" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -1380,7 +1383,7 @@
         <v>20</v>
       </c>
       <c r="B20" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -1388,7 +1391,7 @@
         <v>21</v>
       </c>
       <c r="B21" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -1396,7 +1399,7 @@
         <v>22</v>
       </c>
       <c r="B22" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -1404,7 +1407,7 @@
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -1412,7 +1415,7 @@
         <v>24</v>
       </c>
       <c r="B24" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -1420,7 +1423,7 @@
         <v>25</v>
       </c>
       <c r="B25" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -1428,7 +1431,7 @@
         <v>26</v>
       </c>
       <c r="B26" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -1436,7 +1439,7 @@
         <v>27</v>
       </c>
       <c r="B27" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -1444,7 +1447,7 @@
         <v>28</v>
       </c>
       <c r="B28" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -1452,7 +1455,7 @@
         <v>29</v>
       </c>
       <c r="B29" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -1460,7 +1463,7 @@
         <v>30</v>
       </c>
       <c r="B30" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -1468,7 +1471,7 @@
         <v>31</v>
       </c>
       <c r="B31" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -1476,7 +1479,7 @@
         <v>32</v>
       </c>
       <c r="B32" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -1484,7 +1487,7 @@
         <v>33</v>
       </c>
       <c r="B33" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -1492,7 +1495,7 @@
         <v>34</v>
       </c>
       <c r="B34" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -1500,7 +1503,7 @@
         <v>35</v>
       </c>
       <c r="B35" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -1508,7 +1511,7 @@
         <v>36</v>
       </c>
       <c r="B36" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -1516,7 +1519,7 @@
         <v>37</v>
       </c>
       <c r="B37" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -1524,7 +1527,7 @@
         <v>38</v>
       </c>
       <c r="B38" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -1532,7 +1535,7 @@
         <v>39</v>
       </c>
       <c r="B39" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -1540,7 +1543,7 @@
         <v>40</v>
       </c>
       <c r="B40" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -1548,7 +1551,7 @@
         <v>41</v>
       </c>
       <c r="B41" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -1556,7 +1559,7 @@
         <v>42</v>
       </c>
       <c r="B42" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -1564,7 +1567,7 @@
         <v>43</v>
       </c>
       <c r="B43" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -1572,7 +1575,7 @@
         <v>44</v>
       </c>
       <c r="B44" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -1580,7 +1583,7 @@
         <v>45</v>
       </c>
       <c r="B45" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -1588,7 +1591,7 @@
         <v>46</v>
       </c>
       <c r="B46" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -1596,7 +1599,7 @@
         <v>47</v>
       </c>
       <c r="B47" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -1604,7 +1607,7 @@
         <v>48</v>
       </c>
       <c r="B48" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -1612,7 +1615,7 @@
         <v>49</v>
       </c>
       <c r="B49" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -1620,7 +1623,7 @@
         <v>50</v>
       </c>
       <c r="B50" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -1628,7 +1631,7 @@
         <v>51</v>
       </c>
       <c r="B51" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -1636,7 +1639,7 @@
         <v>52</v>
       </c>
       <c r="B52" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -1644,7 +1647,7 @@
         <v>53</v>
       </c>
       <c r="B53" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
     <row r="54" spans="1:2">
@@ -1652,7 +1655,7 @@
         <v>54</v>
       </c>
       <c r="B54" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
     </row>
     <row r="55" spans="1:2">
@@ -1660,7 +1663,7 @@
         <v>55</v>
       </c>
       <c r="B55" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
     </row>
     <row r="56" spans="1:2">
@@ -1668,7 +1671,7 @@
         <v>56</v>
       </c>
       <c r="B56" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
     </row>
     <row r="57" spans="1:2">
@@ -1676,7 +1679,7 @@
         <v>57</v>
       </c>
       <c r="B57" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
     </row>
     <row r="58" spans="1:2">
@@ -1684,7 +1687,7 @@
         <v>58</v>
       </c>
       <c r="B58" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
     </row>
     <row r="59" spans="1:2">
@@ -1692,7 +1695,7 @@
         <v>59</v>
       </c>
       <c r="B59" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
     </row>
     <row r="60" spans="1:2">
@@ -1700,7 +1703,7 @@
         <v>60</v>
       </c>
       <c r="B60" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
     </row>
     <row r="61" spans="1:2">
@@ -1708,7 +1711,7 @@
         <v>61</v>
       </c>
       <c r="B61" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
     </row>
     <row r="62" spans="1:2">
@@ -1716,7 +1719,7 @@
         <v>62</v>
       </c>
       <c r="B62" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="63" spans="1:2">
@@ -1724,7 +1727,7 @@
         <v>63</v>
       </c>
       <c r="B63" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
     <row r="64" spans="1:2">
@@ -1732,7 +1735,7 @@
         <v>64</v>
       </c>
       <c r="B64" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
     <row r="65" spans="1:2">
@@ -1740,7 +1743,7 @@
         <v>65</v>
       </c>
       <c r="B65" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="66" spans="1:2">
@@ -1748,7 +1751,7 @@
         <v>66</v>
       </c>
       <c r="B66" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
     <row r="67" spans="1:2">
@@ -1756,7 +1759,7 @@
         <v>67</v>
       </c>
       <c r="B67" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
     </row>
     <row r="68" spans="1:2">
@@ -1764,7 +1767,7 @@
         <v>68</v>
       </c>
       <c r="B68" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
     </row>
     <row r="69" spans="1:2">
@@ -1772,7 +1775,7 @@
         <v>69</v>
       </c>
       <c r="B69" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
     </row>
     <row r="70" spans="1:2">
@@ -1780,7 +1783,7 @@
         <v>70</v>
       </c>
       <c r="B70" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
     </row>
     <row r="71" spans="1:2">
@@ -1788,7 +1791,7 @@
         <v>71</v>
       </c>
       <c r="B71" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
     </row>
     <row r="72" spans="1:2">
@@ -1796,7 +1799,7 @@
         <v>72</v>
       </c>
       <c r="B72" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
     </row>
     <row r="73" spans="1:2">
@@ -1804,7 +1807,7 @@
         <v>73</v>
       </c>
       <c r="B73" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
     </row>
     <row r="74" spans="1:2">
@@ -1812,7 +1815,7 @@
         <v>74</v>
       </c>
       <c r="B74" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
     </row>
     <row r="75" spans="1:2">
@@ -1820,7 +1823,7 @@
         <v>75</v>
       </c>
       <c r="B75" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
     </row>
     <row r="76" spans="1:2">
@@ -1828,7 +1831,7 @@
         <v>76</v>
       </c>
       <c r="B76" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
     </row>
     <row r="77" spans="1:2">
@@ -1836,7 +1839,7 @@
         <v>77</v>
       </c>
       <c r="B77" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="78" spans="1:2">
@@ -1844,7 +1847,7 @@
         <v>78</v>
       </c>
       <c r="B78" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="79" spans="1:2">
@@ -1852,7 +1855,7 @@
         <v>79</v>
       </c>
       <c r="B79" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="80" spans="1:2">
@@ -1860,7 +1863,7 @@
         <v>80</v>
       </c>
       <c r="B80" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="81" spans="1:2">
@@ -1868,7 +1871,7 @@
         <v>81</v>
       </c>
       <c r="B81" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="82" spans="1:2">
@@ -1876,7 +1879,7 @@
         <v>82</v>
       </c>
       <c r="B82" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="83" spans="1:2">
@@ -1884,7 +1887,7 @@
         <v>83</v>
       </c>
       <c r="B83" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="84" spans="1:2">
@@ -1892,7 +1895,7 @@
         <v>84</v>
       </c>
       <c r="B84" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="85" spans="1:2">
@@ -1900,7 +1903,7 @@
         <v>85</v>
       </c>
       <c r="B85" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="86" spans="1:2">
@@ -1908,7 +1911,7 @@
         <v>86</v>
       </c>
       <c r="B86" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="87" spans="1:2">
@@ -1916,7 +1919,7 @@
         <v>87</v>
       </c>
       <c r="B87" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="88" spans="1:2">
@@ -1924,7 +1927,7 @@
         <v>88</v>
       </c>
       <c r="B88" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="89" spans="1:2">
@@ -1932,7 +1935,7 @@
         <v>89</v>
       </c>
       <c r="B89" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="90" spans="1:2">
@@ -1940,7 +1943,7 @@
         <v>90</v>
       </c>
       <c r="B90" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="91" spans="1:2">
@@ -1948,7 +1951,7 @@
         <v>91</v>
       </c>
       <c r="B91" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="92" spans="1:2">
@@ -1956,7 +1959,7 @@
         <v>92</v>
       </c>
       <c r="B92" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="93" spans="1:2">
@@ -1964,7 +1967,7 @@
         <v>93</v>
       </c>
       <c r="B93" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="94" spans="1:2">
@@ -1972,7 +1975,7 @@
         <v>94</v>
       </c>
       <c r="B94" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="95" spans="1:2">
@@ -1980,7 +1983,7 @@
         <v>95</v>
       </c>
       <c r="B95" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
     </row>
     <row r="96" spans="1:2">
@@ -1988,7 +1991,7 @@
         <v>96</v>
       </c>
       <c r="B96" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
     </row>
     <row r="97" spans="1:2">
@@ -1996,7 +1999,7 @@
         <v>97</v>
       </c>
       <c r="B97" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
     </row>
     <row r="98" spans="1:2">
@@ -2004,7 +2007,7 @@
         <v>98</v>
       </c>
       <c r="B98" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
     </row>
     <row r="99" spans="1:2">
@@ -2012,7 +2015,7 @@
         <v>99</v>
       </c>
       <c r="B99" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
     </row>
     <row r="100" spans="1:2">
@@ -2020,7 +2023,7 @@
         <v>100</v>
       </c>
       <c r="B100" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
     </row>
     <row r="101" spans="1:2">
@@ -2028,7 +2031,7 @@
         <v>101</v>
       </c>
       <c r="B101" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
     </row>
     <row r="102" spans="1:2">
@@ -2036,7 +2039,7 @@
         <v>102</v>
       </c>
       <c r="B102" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
     </row>
     <row r="103" spans="1:2">
@@ -2044,7 +2047,7 @@
         <v>103</v>
       </c>
       <c r="B103" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
     </row>
     <row r="104" spans="1:2">
@@ -2052,7 +2055,7 @@
         <v>104</v>
       </c>
       <c r="B104" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
     </row>
     <row r="105" spans="1:2">
@@ -2060,7 +2063,7 @@
         <v>105</v>
       </c>
       <c r="B105" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
     </row>
     <row r="106" spans="1:2">
@@ -2068,7 +2071,7 @@
         <v>106</v>
       </c>
       <c r="B106" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="107" spans="1:2">
@@ -2076,7 +2079,7 @@
         <v>107</v>
       </c>
       <c r="B107" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="108" spans="1:2">
@@ -2084,7 +2087,7 @@
         <v>108</v>
       </c>
       <c r="B108" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
     </row>
     <row r="109" spans="1:2">
@@ -2092,7 +2095,7 @@
         <v>109</v>
       </c>
       <c r="B109" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
     </row>
     <row r="110" spans="1:2">
@@ -2100,7 +2103,7 @@
         <v>110</v>
       </c>
       <c r="B110" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
     </row>
     <row r="111" spans="1:2">
@@ -2108,7 +2111,7 @@
         <v>111</v>
       </c>
       <c r="B111" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
     </row>
     <row r="112" spans="1:2">
@@ -2116,7 +2119,7 @@
         <v>112</v>
       </c>
       <c r="B112" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
     </row>
     <row r="113" spans="1:2">
@@ -2124,7 +2127,7 @@
         <v>113</v>
       </c>
       <c r="B113" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
     </row>
     <row r="114" spans="1:2">
@@ -2132,7 +2135,7 @@
         <v>114</v>
       </c>
       <c r="B114" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
     </row>
     <row r="115" spans="1:2">
@@ -2140,7 +2143,7 @@
         <v>115</v>
       </c>
       <c r="B115" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
     </row>
     <row r="116" spans="1:2">
@@ -2148,7 +2151,7 @@
         <v>116</v>
       </c>
       <c r="B116" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="117" spans="1:2">
@@ -2156,7 +2159,7 @@
         <v>117</v>
       </c>
       <c r="B117" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
     </row>
     <row r="118" spans="1:2">
@@ -2164,7 +2167,7 @@
         <v>118</v>
       </c>
       <c r="B118" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
     </row>
     <row r="119" spans="1:2">
@@ -2172,7 +2175,7 @@
         <v>119</v>
       </c>
       <c r="B119" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
     </row>
     <row r="120" spans="1:2">
@@ -2180,7 +2183,7 @@
         <v>120</v>
       </c>
       <c r="B120" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
     </row>
     <row r="121" spans="1:2">
@@ -2188,7 +2191,7 @@
         <v>121</v>
       </c>
       <c r="B121" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
     </row>
     <row r="122" spans="1:2">
@@ -2196,7 +2199,7 @@
         <v>122</v>
       </c>
       <c r="B122" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
     </row>
     <row r="123" spans="1:2">
@@ -2204,7 +2207,7 @@
         <v>123</v>
       </c>
       <c r="B123" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
     <row r="124" spans="1:2">
@@ -2212,7 +2215,7 @@
         <v>124</v>
       </c>
       <c r="B124" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="125" spans="1:2">
@@ -2220,7 +2223,7 @@
         <v>125</v>
       </c>
       <c r="B125" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="126" spans="1:2">
@@ -2228,7 +2231,7 @@
         <v>126</v>
       </c>
       <c r="B126" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="127" spans="1:2">
@@ -2236,7 +2239,7 @@
         <v>127</v>
       </c>
       <c r="B127" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="128" spans="1:2">
@@ -2244,7 +2247,7 @@
         <v>128</v>
       </c>
       <c r="B128" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="129" spans="1:2">
@@ -2252,7 +2255,7 @@
         <v>129</v>
       </c>
       <c r="B129" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="130" spans="1:2">
@@ -2260,7 +2263,7 @@
         <v>130</v>
       </c>
       <c r="B130" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
     <row r="131" spans="1:2">
@@ -2268,7 +2271,7 @@
         <v>131</v>
       </c>
       <c r="B131" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
     <row r="132" spans="1:2">
@@ -2276,7 +2279,7 @@
         <v>132</v>
       </c>
       <c r="B132" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
     <row r="133" spans="1:2">
@@ -2284,7 +2287,7 @@
         <v>133</v>
       </c>
       <c r="B133" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
     <row r="134" spans="1:2">
@@ -2292,7 +2295,7 @@
         <v>134</v>
       </c>
       <c r="B134" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
     <row r="135" spans="1:2">
@@ -2300,7 +2303,7 @@
         <v>135</v>
       </c>
       <c r="B135" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="136" spans="1:2">
@@ -2308,7 +2311,7 @@
         <v>136</v>
       </c>
       <c r="B136" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="137" spans="1:2">
@@ -2316,7 +2319,7 @@
         <v>137</v>
       </c>
       <c r="B137" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="138" spans="1:2">
@@ -2324,7 +2327,7 @@
         <v>138</v>
       </c>
       <c r="B138" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="139" spans="1:2">
@@ -2332,7 +2335,7 @@
         <v>139</v>
       </c>
       <c r="B139" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="140" spans="1:2">
@@ -2340,7 +2343,7 @@
         <v>140</v>
       </c>
       <c r="B140" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="141" spans="1:2">
@@ -2348,7 +2351,7 @@
         <v>141</v>
       </c>
       <c r="B141" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="142" spans="1:2">
@@ -2356,7 +2359,7 @@
         <v>142</v>
       </c>
       <c r="B142" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="143" spans="1:2">
@@ -2364,7 +2367,7 @@
         <v>143</v>
       </c>
       <c r="B143" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="144" spans="1:2">
@@ -2372,7 +2375,7 @@
         <v>144</v>
       </c>
       <c r="B144" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="145" spans="1:2">
@@ -2380,7 +2383,7 @@
         <v>145</v>
       </c>
       <c r="B145" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="146" spans="1:2">
@@ -2388,7 +2391,7 @@
         <v>146</v>
       </c>
       <c r="B146" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="147" spans="1:2">
@@ -2396,7 +2399,7 @@
         <v>147</v>
       </c>
       <c r="B147" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="148" spans="1:2">
@@ -2404,7 +2407,7 @@
         <v>148</v>
       </c>
       <c r="B148" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="149" spans="1:2">
@@ -2412,7 +2415,7 @@
         <v>149</v>
       </c>
       <c r="B149" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="150" spans="1:2">
@@ -2420,7 +2423,7 @@
         <v>150</v>
       </c>
       <c r="B150" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
     </row>
     <row r="151" spans="1:2">
@@ -2428,7 +2431,7 @@
         <v>151</v>
       </c>
       <c r="B151" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
     </row>
     <row r="152" spans="1:2">
@@ -2436,7 +2439,7 @@
         <v>152</v>
       </c>
       <c r="B152" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
     </row>
     <row r="153" spans="1:2">
@@ -2444,7 +2447,7 @@
         <v>153</v>
       </c>
       <c r="B153" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
     </row>
     <row r="154" spans="1:2">
@@ -2452,7 +2455,7 @@
         <v>154</v>
       </c>
       <c r="B154" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
     </row>
     <row r="155" spans="1:2">
@@ -2460,7 +2463,7 @@
         <v>155</v>
       </c>
       <c r="B155" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
     </row>
     <row r="156" spans="1:2">
@@ -2468,7 +2471,7 @@
         <v>156</v>
       </c>
       <c r="B156" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
     </row>
     <row r="157" spans="1:2">
@@ -2476,7 +2479,7 @@
         <v>157</v>
       </c>
       <c r="B157" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="158" spans="1:2">
@@ -2484,7 +2487,7 @@
         <v>158</v>
       </c>
       <c r="B158" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="159" spans="1:2">
@@ -2492,7 +2495,7 @@
         <v>159</v>
       </c>
       <c r="B159" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="160" spans="1:2">
@@ -2500,7 +2503,7 @@
         <v>160</v>
       </c>
       <c r="B160" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
     </row>
     <row r="161" spans="1:2">
@@ -2508,7 +2511,7 @@
         <v>161</v>
       </c>
       <c r="B161" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
     </row>
     <row r="162" spans="1:2">
@@ -2516,7 +2519,7 @@
         <v>162</v>
       </c>
       <c r="B162" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
     </row>
     <row r="163" spans="1:2">
@@ -2524,7 +2527,7 @@
         <v>163</v>
       </c>
       <c r="B163" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
     </row>
     <row r="164" spans="1:2">
@@ -2532,7 +2535,7 @@
         <v>164</v>
       </c>
       <c r="B164" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
     </row>
     <row r="165" spans="1:2">
@@ -2540,7 +2543,7 @@
         <v>165</v>
       </c>
       <c r="B165" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
     </row>
     <row r="166" spans="1:2">
@@ -2548,7 +2551,7 @@
         <v>166</v>
       </c>
       <c r="B166" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
     </row>
     <row r="167" spans="1:2">
@@ -2556,7 +2559,7 @@
         <v>167</v>
       </c>
       <c r="B167" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
     </row>
     <row r="168" spans="1:2">
@@ -2564,7 +2567,7 @@
         <v>168</v>
       </c>
       <c r="B168" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
     </row>
     <row r="169" spans="1:2">
@@ -2572,7 +2575,7 @@
         <v>169</v>
       </c>
       <c r="B169" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
     </row>
     <row r="170" spans="1:2">
@@ -2580,7 +2583,7 @@
         <v>170</v>
       </c>
       <c r="B170" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
     </row>
     <row r="171" spans="1:2">
@@ -2588,7 +2591,7 @@
         <v>171</v>
       </c>
       <c r="B171" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="172" spans="1:2">
@@ -2596,7 +2599,7 @@
         <v>172</v>
       </c>
       <c r="B172" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
     </row>
     <row r="173" spans="1:2">
@@ -2604,7 +2607,7 @@
         <v>173</v>
       </c>
       <c r="B173" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
     </row>
     <row r="174" spans="1:2">
@@ -2612,7 +2615,7 @@
         <v>174</v>
       </c>
       <c r="B174" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
     </row>
     <row r="175" spans="1:2">
@@ -2620,7 +2623,7 @@
         <v>175</v>
       </c>
       <c r="B175" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
     </row>
     <row r="176" spans="1:2">
@@ -2628,7 +2631,7 @@
         <v>176</v>
       </c>
       <c r="B176" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
     </row>
     <row r="177" spans="1:2">
@@ -2636,7 +2639,7 @@
         <v>177</v>
       </c>
       <c r="B177" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
     </row>
     <row r="178" spans="1:2">
@@ -2644,7 +2647,7 @@
         <v>178</v>
       </c>
       <c r="B178" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
     </row>
     <row r="179" spans="1:2">
@@ -2652,7 +2655,7 @@
         <v>179</v>
       </c>
       <c r="B179" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
     </row>
     <row r="180" spans="1:2">
@@ -2660,7 +2663,7 @@
         <v>180</v>
       </c>
       <c r="B180" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
     </row>
     <row r="181" spans="1:2">
@@ -2668,7 +2671,7 @@
         <v>181</v>
       </c>
       <c r="B181" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
     </row>
     <row r="182" spans="1:2">
@@ -2676,7 +2679,7 @@
         <v>182</v>
       </c>
       <c r="B182" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
     </row>
     <row r="183" spans="1:2">
@@ -2684,7 +2687,7 @@
         <v>183</v>
       </c>
       <c r="B183" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
     </row>
     <row r="184" spans="1:2">
@@ -2692,7 +2695,7 @@
         <v>184</v>
       </c>
       <c r="B184" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
     </row>
     <row r="185" spans="1:2">
@@ -2700,7 +2703,7 @@
         <v>185</v>
       </c>
       <c r="B185" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
     </row>
     <row r="186" spans="1:2">
@@ -2708,7 +2711,7 @@
         <v>186</v>
       </c>
       <c r="B186" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
     </row>
     <row r="187" spans="1:2">
@@ -2717,6 +2720,14 @@
       </c>
       <c r="B187" t="s">
         <v>281</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2">
+      <c r="A188" t="s">
+        <v>188</v>
+      </c>
+      <c r="B188" t="s">
+        <v>282</v>
       </c>
     </row>
   </sheetData>

--- a/lothiancriticalcare/1a74f8f7b8b7e871b413c4697f68b4401fbacdf0/reviewdates.xlsx
+++ b/lothiancriticalcare/1a74f8f7b8b7e871b413c4697f68b4401fbacdf0/reviewdates.xlsx
@@ -61,22 +61,25 @@
     <t>Routine_Care/Tracheostomy_nursing_care.pdf</t>
   </si>
   <si>
+    <t>Airway/Critical care extubation checklist.pdf</t>
+  </si>
+  <si>
     <t>ECLS/Extra Corporeal Carbon Dioxide Removal.pdf</t>
   </si>
   <si>
-    <t>Airway/Critical care extubation checklist.pdf</t>
-  </si>
-  <si>
     <t>Airway/Tracheostomy_Laryngectomy/Hospital_in-patients_with_a_Tracheostomy.pdf</t>
   </si>
   <si>
     <t>Drugs/diazepam_diazemuls.pdf</t>
   </si>
   <si>
+    <t>End_of_life_care/Reasons to report a death to PF.pdf</t>
+  </si>
+  <si>
     <t>Breathing(Respiratory)/salbutamol and ipratroprium MDI.pdf</t>
   </si>
   <si>
-    <t>End_of_life_care/Reasons to report a death to PF.pdf</t>
+    <t>Neurological/SOP -  Femoral site care.pdf</t>
   </si>
   <si>
     <t>Airway/Tracheostomy_Laryngectomy/Tracheostomy suctioning cleaning guideline.pdf</t>
@@ -85,9 +88,6 @@
     <t>Airway/Tracheostomy_Laryngectomy/Tracheostomy change in Critical Care.pdf</t>
   </si>
   <si>
-    <t>Neurological/SOP -  Femoral site care.pdf</t>
-  </si>
-  <si>
     <t>Drugs/sodium_bicarbonate.pdf</t>
   </si>
   <si>
@@ -97,24 +97,24 @@
     <t>Post_op_care/Epidural top-up.pdf</t>
   </si>
   <si>
+    <t>Airway/Emergency intubation checklist_em_pub.pdf</t>
+  </si>
+  <si>
+    <t>Covid-19/WGH/CoVid intubation checklist WGH.pdf</t>
+  </si>
+  <si>
+    <t>Diabetes_and_Glucose/Hyperosmolar Hyperglycaemic State.pdf</t>
+  </si>
+  <si>
+    <t>Drugs/heparin for Haemofiltration.pdf</t>
+  </si>
+  <si>
+    <t>Covid-19/SJH/SJH COVID19 ED Intubation Action Card.pdf</t>
+  </si>
+  <si>
     <t>Covid-19/SJH/SJH COVID19 ITU Intubation Action Card.pdf</t>
   </si>
   <si>
-    <t>Airway/Emergency intubation checklist_em_pub.pdf</t>
-  </si>
-  <si>
-    <t>Covid-19/SJH/SJH COVID19 ED Intubation Action Card.pdf</t>
-  </si>
-  <si>
-    <t>Diabetes_and_Glucose/Hyperosmolar Hyperglycaemic State.pdf</t>
-  </si>
-  <si>
-    <t>Drugs/heparin for Haemofiltration.pdf</t>
-  </si>
-  <si>
-    <t>Covid-19/WGH/CoVid intubation checklist WGH.pdf</t>
-  </si>
-  <si>
     <t>Drugs/fentanyl.pdf</t>
   </si>
   <si>
@@ -133,36 +133,36 @@
     <t>Airway/Percutaneous tracheostomy checklist.pdf</t>
   </si>
   <si>
+    <t>Infection_and_sepsis/SOP Ultrasound Cleaning.pdf</t>
+  </si>
+  <si>
     <t>Delirium/Risk assessment posi mit.pdf</t>
   </si>
   <si>
-    <t>Infection_and_sepsis/SOP Ultrasound Cleaning.pdf</t>
+    <t>Airway/McGrath Mac.pdf</t>
+  </si>
+  <si>
+    <t>Airway/Anticipated difficult airway tool.pdf</t>
+  </si>
+  <si>
+    <t>GI_Liver_and_Transplant/Treatment of constipation.pdf</t>
+  </si>
+  <si>
+    <t>Neurological/Sub arachnoid haemorrhage management.pdf</t>
   </si>
   <si>
     <t>Drugs/ketamine_in_asthma.pdf</t>
   </si>
   <si>
-    <t>Airway/McGrath Mac.pdf</t>
-  </si>
-  <si>
-    <t>Airway/Anticipated difficult airway tool.pdf</t>
-  </si>
-  <si>
-    <t>GI_Liver_and_Transplant/Treatment of constipation.pdf</t>
-  </si>
-  <si>
-    <t>Neurological/Sub arachnoid haemorrhage management.pdf</t>
-  </si>
-  <si>
     <t>GI_Liver_and_Transplant/Abdominal pressure measurement.pdf</t>
   </si>
   <si>
+    <t>Breathing(Respiratory)/HFNO.pdf</t>
+  </si>
+  <si>
     <t>Airway/Tracheostomy_Laryngectomy/Tracheostomy safety box contents.pdf</t>
   </si>
   <si>
-    <t>Breathing(Respiratory)/HFNO.pdf</t>
-  </si>
-  <si>
     <t>End_of_life_care/Documentation following death.pdf</t>
   </si>
   <si>
@@ -187,12 +187,12 @@
     <t>Breathing(Respiratory)/Equipment/APRV.pdf</t>
   </si>
   <si>
+    <t>Neurological/SOP for review of Neurosurgical patients in ITU by neurosurgical team.pdf</t>
+  </si>
+  <si>
     <t>Breathing(Respiratory)/Equipment/T piece Y piece.pdf</t>
   </si>
   <si>
-    <t>Neurological/SOP for review of Neurosurgical patients in ITU by neurosurgical team.pdf</t>
-  </si>
-  <si>
     <t>Post_op_care/Epidural Haematoma.pdf</t>
   </si>
   <si>
@@ -223,24 +223,24 @@
     <t>Drugs/Antibiotic doses in CVVHD.pdf</t>
   </si>
   <si>
+    <t>GI_Liver_and_Transplant/Nasojejunal feeding protocol.pdf</t>
+  </si>
+  <si>
+    <t>ECLS/RIE ECLS Anti Xa Protocol.pdf</t>
+  </si>
+  <si>
     <t>GI_Liver_and_Transplant/Jejunostomy feeding protocol.pdf</t>
   </si>
   <si>
-    <t>ECLS/RIE ECLS Anti Xa Protocol.pdf</t>
-  </si>
-  <si>
-    <t>GI_Liver_and_Transplant/Nasojejunal feeding protocol.pdf</t>
+    <t>Drugs/vasopressin_sepsis.pdf</t>
+  </si>
+  <si>
+    <t>Infection_and_sepsis/Winter Infections Stepdown Guidance.pdf</t>
   </si>
   <si>
     <t>Drugs/vasopressin organ donation.pdf</t>
   </si>
   <si>
-    <t>Drugs/vasopressin_sepsis.pdf</t>
-  </si>
-  <si>
-    <t>Infection_and_sepsis/Winter Infections Stepdown Guidance.pdf</t>
-  </si>
-  <si>
     <t>Transfer/ACCP Transfers.pdf</t>
   </si>
   <si>
@@ -256,72 +256,69 @@
     <t>Breathing(Respiratory)/Equipment/Ventilators Circuits Filters and Closed Suction - Set up and Maintenance.pdf</t>
   </si>
   <si>
+    <t>Covid-19/Covid 19 Death Certification Guideline.pdf</t>
+  </si>
+  <si>
     <t>Procedures/CVC Guidance/Securing CVCs.pdf</t>
   </si>
   <si>
-    <t>Covid-19/Covid 19 Death Certification Guideline.pdf</t>
-  </si>
-  <si>
     <t>Routine_Care/Video Communication.pdf</t>
   </si>
   <si>
+    <t>Drugs/isoprenaline.pdf</t>
+  </si>
+  <si>
     <t>Cardiovascular/Cardiogenic Shock.pdf</t>
   </si>
   <si>
-    <t>Drugs/isoprenaline.pdf</t>
-  </si>
-  <si>
     <t>Haematology_CAR-T/Haem_ICU_transfer.pdf</t>
   </si>
   <si>
+    <t>Cardiovascular/Management of hypertension within Critical Care.pdf</t>
+  </si>
+  <si>
     <t>Drugs/aminophylline.pdf</t>
   </si>
   <si>
-    <t>Cardiovascular/Management of hypertension within Critical Care.pdf</t>
+    <t>Haematology_CAR-T/ICANS.pdf</t>
+  </si>
+  <si>
+    <t>Drugs/phenytoin.pdf</t>
+  </si>
+  <si>
+    <t>Drugs/pancuronium.pdf</t>
   </si>
   <si>
     <t>Haematology_CAR-T/Cytokine Release Syndrome.pdf</t>
   </si>
   <si>
-    <t>Drugs/pancuronium.pdf</t>
-  </si>
-  <si>
-    <t>Haematology_CAR-T/ICANS.pdf</t>
-  </si>
-  <si>
-    <t>Drugs/phenytoin.pdf</t>
-  </si>
-  <si>
-    <t>Drugs/rocuronium.pdf</t>
+    <t>Policies_and_admin/General Critical Care SOP_pub.pdf</t>
   </si>
   <si>
     <t>Drugs/milrinone.pdf</t>
   </si>
   <si>
-    <t>Policies_and_admin/General Critical Care SOP_pub.pdf</t>
-  </si>
-  <si>
     <t>End_of_life_care/Palliative extubation &amp; withdrawal of invasive ventilatory support nursing checklist.pdf</t>
   </si>
   <si>
     <t>End_of_life_care/CMO &amp; NRS Guidance for Doctors completing MCCD.pdf</t>
   </si>
   <si>
+    <t>Neurological/Management of traumatic brain injury.pdf</t>
+  </si>
+  <si>
+    <t>Organ_donation/Organ Retrieval SOP.pdf</t>
+  </si>
+  <si>
+    <t>Covid-19/COVID 19 ICM guidance basic goals_June_2022.pdf</t>
+  </si>
+  <si>
+    <t>Infection_and_sepsis/Trip Out of Unit infection guidance.pdf</t>
+  </si>
+  <si>
     <t>Neurological/Critical Care MRI Procedure_pub.pdf</t>
   </si>
   <si>
-    <t>Neurological/Management of traumatic brain injury.pdf</t>
-  </si>
-  <si>
-    <t>Infection_and_sepsis/Trip Out of Unit infection guidance.pdf</t>
-  </si>
-  <si>
-    <t>Organ_donation/Organ Retrieval SOP.pdf</t>
-  </si>
-  <si>
-    <t>Covid-19/COVID 19 ICM guidance basic goals_June_2022.pdf</t>
-  </si>
-  <si>
     <t>Ethics_and_Law/DNACPR policy for Scotland.pdf</t>
   </si>
   <si>
@@ -337,93 +334,96 @@
     <t>Airway/Cook Staged Extubation Set.pdf</t>
   </si>
   <si>
+    <t>Drugs/noradrenaline (central).pdf</t>
+  </si>
+  <si>
+    <t>End_of_life_care/End of Life Care Guideline for Critical Care.pdf</t>
+  </si>
+  <si>
     <t>Post_op_care/Epidural hypotension.pdf</t>
   </si>
   <si>
-    <t>Drugs/noradrenaline (central).pdf</t>
-  </si>
-  <si>
-    <t>End_of_life_care/End of Life Care Guideline for Critical Care.pdf</t>
+    <t>Drugs/glyceryl_trinitrate.pdf</t>
+  </si>
+  <si>
+    <t>Breathing(Respiratory)/Equipment/Passy Muir Valve.pdf</t>
+  </si>
+  <si>
+    <t>GI_Liver_and_Transplant/Fulminant Liver Failure.pdf</t>
+  </si>
+  <si>
+    <t>Drugs/dexmedetomidine.pdf</t>
+  </si>
+  <si>
+    <t>GI_Liver_and_Transplant/Confirmation of Nasogastric Tube Position.pdf</t>
   </si>
   <si>
     <t>Infection_and_sepsis/Antifungal guidance in critical care.pdf</t>
   </si>
   <si>
-    <t>Breathing(Respiratory)/Equipment/Passy Muir Valve.pdf</t>
-  </si>
-  <si>
-    <t>GI_Liver_and_Transplant/Fulminant Liver Failure.pdf</t>
-  </si>
-  <si>
-    <t>Drugs/glyceryl_trinitrate.pdf</t>
-  </si>
-  <si>
-    <t>Drugs/dexmedetomidine.pdf</t>
-  </si>
-  <si>
-    <t>GI_Liver_and_Transplant/Confirmation of Nasogastric Tube Position.pdf</t>
+    <t>Cardiovascular/Intra Aortic Balloon Pump Guideline_pub.pdf</t>
+  </si>
+  <si>
+    <t>Transfer/Transfer Outdoors to Garden Guideline.pdf</t>
+  </si>
+  <si>
+    <t>Cardiovascular/Intra Aortic Balloon Pump Bedside Checks_pub.pdf</t>
   </si>
   <si>
     <t>Breathing(Respiratory)/ARDS Strategy.pdf</t>
   </si>
   <si>
-    <t>Transfer/Transfer Outdoors to Garden Guideline.pdf</t>
-  </si>
-  <si>
-    <t>Cardiovascular/Intra Aortic Balloon Pump Guideline_pub.pdf</t>
-  </si>
-  <si>
-    <t>Cardiovascular/Intra Aortic Balloon Pump Bedside Checks_pub.pdf</t>
+    <t>Drugs/Dobutamine.pdf</t>
+  </si>
+  <si>
+    <t>Drugs/adrenaline.pdf</t>
   </si>
   <si>
     <t>Drugs/hydralazine.pdf</t>
   </si>
   <si>
-    <t>Drugs/adrenaline.pdf</t>
-  </si>
-  <si>
-    <t>Drugs/Dobutamine.pdf</t>
-  </si>
-  <si>
     <t>Post_op_care/Major OMFS Free Flap.pdf</t>
   </si>
   <si>
+    <t>Drugs/Alteplase for massive PE.pdf</t>
+  </si>
+  <si>
     <t>Drugs/alfentanil.pdf</t>
   </si>
   <si>
-    <t>Drugs/Alteplase for massive PE.pdf</t>
-  </si>
-  <si>
     <t>Drugs/magnesium.pdf</t>
   </si>
   <si>
+    <t>Drugs/neostigmine.pdf</t>
+  </si>
+  <si>
+    <t>Drugs/ICU - IV drug infusions.pdf</t>
+  </si>
+  <si>
     <t>Drugs/vancomycin continuous infusion.pdf</t>
   </si>
   <si>
-    <t>Drugs/neostigmine.pdf</t>
-  </si>
-  <si>
-    <t>Drugs/ICU - IV drug infusions.pdf</t>
+    <t>Neurological/Intrathecal policy RIE.pdf</t>
+  </si>
+  <si>
+    <t>Infection_and_sepsis/Initial investigation and management in unidentified Infections.pdf</t>
   </si>
   <si>
     <t>Drugs/labetalol.pdf</t>
   </si>
   <si>
-    <t>Neurological/Intrathecal policy RIE.pdf</t>
-  </si>
-  <si>
-    <t>Infection_and_sepsis/Initial investigation and management in unidentified Infections.pdf</t>
+    <t>Drugs/midazolam.pdf</t>
   </si>
   <si>
     <t>Cardiovascular/Management of Acute Type B Aortic Dissection Guideline.pdf</t>
   </si>
   <si>
-    <t>Drugs/midazolam.pdf</t>
-  </si>
-  <si>
     <t>Procedures/CVC Guidance/CVC NHL  April 2023.pdf</t>
   </si>
   <si>
+    <t>Drugs/potassium.pdf</t>
+  </si>
+  <si>
     <t>Drugs/salbutamol.pdf</t>
   </si>
   <si>
@@ -433,9 +433,6 @@
     <t>Trauma and Burns/Management of Severe Burns v1.6.pdf</t>
   </si>
   <si>
-    <t>Drugs/potassium.pdf</t>
-  </si>
-  <si>
     <t>Routine_Care/ICU Eye Care Guideline.pdf</t>
   </si>
   <si>
@@ -445,10 +442,16 @@
     <t>Procedures/Arterial Line insertion for ACCPs.pdf</t>
   </si>
   <si>
+    <t>Drugs/amiodarone.pdf</t>
+  </si>
+  <si>
     <t>Drugs/nicardipine.pdf</t>
   </si>
   <si>
-    <t>Drugs/amiodarone.pdf</t>
+    <t>Breathing(Respiratory)/Manual Ventilation and MHI.pdf</t>
+  </si>
+  <si>
+    <t>Neurological/Ventriculitis Guideline.pdf</t>
   </si>
   <si>
     <t>Drugs/morphine.pdf</t>
@@ -460,66 +463,60 @@
     <t>Drugs/Epoprostenol.pdf</t>
   </si>
   <si>
-    <t>Breathing(Respiratory)/Manual Ventilation and MHI.pdf</t>
-  </si>
-  <si>
-    <t>Neurological/Ventriculitis Guideline.pdf</t>
+    <t>Cardiovascular/Pulmonary_Embolism_and_DVT/Catheter directed thrombolysis of iliofemoral DVT alteplase_pub.pdf</t>
+  </si>
+  <si>
+    <t>Cardiovascular/Cardiac Output Monitoring_pub .pdf</t>
   </si>
   <si>
     <t>Drugs/calcium.pdf</t>
   </si>
   <si>
-    <t>Cardiovascular/Cardiac Output Monitoring_pub .pdf</t>
-  </si>
-  <si>
-    <t>Cardiovascular/Pulmonary_Embolism_and_DVT/Catheter directed thrombolysis of iliofemoral DVT alteplase_pub.pdf</t>
+    <t>Drugs/Vancomycin continuous infusion Fluid Restricted.pdf</t>
+  </si>
+  <si>
+    <t>Drugs/dalteparin_thromboprophylaxis.pdf</t>
+  </si>
+  <si>
+    <t>Drugs/atracurium.pdf</t>
   </si>
   <si>
     <t>Airway/Tracheostomy_Laryngectomy/Decannulation Guidline.pdf</t>
   </si>
   <si>
-    <t>Drugs/atracurium.pdf</t>
-  </si>
-  <si>
-    <t>Drugs/dalteparin_thromboprophylaxis.pdf</t>
-  </si>
-  <si>
-    <t>Drugs/Vancomycin continuous infusion Fluid Restricted.pdf</t>
+    <t>Procedures/Inadvertent Catheter Placement Guideline.pdf</t>
   </si>
   <si>
     <t>Policies_and_admin/Pet Visitation.pdf</t>
   </si>
   <si>
-    <t>Procedures/Inadvertent Catheter Placement Guideline.pdf</t>
-  </si>
-  <si>
     <t>Drugs/valproate.pdf</t>
   </si>
   <si>
+    <t>Drugs/stress ulcer prophylaxis.pdf</t>
+  </si>
+  <si>
     <t>Drugs/ketamine_for_status epilepticus.pdf</t>
   </si>
   <si>
-    <t>Drugs/stress ulcer prophylaxis.pdf</t>
-  </si>
-  <si>
     <t>Drugs/Phosphate.pdf</t>
   </si>
   <si>
+    <t>Drugs/Octreotide.pdf</t>
+  </si>
+  <si>
+    <t>Neurological/Status epilepticus.pdf</t>
+  </si>
+  <si>
+    <t>Drugs/Thiopentone.pdf</t>
+  </si>
+  <si>
+    <t>GI_Liver_and_Transplant/Prokinetics in ICU.pdf</t>
+  </si>
+  <si>
     <t>Breathing(Respiratory)/Proning Guideline.pdf</t>
   </si>
   <si>
-    <t>GI_Liver_and_Transplant/Prokinetics in ICU.pdf</t>
-  </si>
-  <si>
-    <t>Drugs/Octreotide.pdf</t>
-  </si>
-  <si>
-    <t>Neurological/Status epilepticus.pdf</t>
-  </si>
-  <si>
-    <t>Drugs/Thiopentone.pdf</t>
-  </si>
-  <si>
     <t>Procedures/ACCP CVC placement following completion of initial competencies.pdf</t>
   </si>
   <si>
@@ -532,6 +529,9 @@
     <t>Delirium/Violence and Agression.pdf</t>
   </si>
   <si>
+    <t>Drugs/Rocuronium.pdf</t>
+  </si>
+  <si>
     <t>Post_op_care/Care of the Transgender Patient.pdf</t>
   </si>
   <si>
@@ -550,12 +550,12 @@
     <t>Breathing(Respiratory)/Equipment/Setting up the NKV-330.pdf</t>
   </si>
   <si>
+    <t>Breathing(Respiratory)/NKV 330 NIV guidelines.pdf</t>
+  </si>
+  <si>
     <t>Breathing(Respiratory)/T1RF - CPAP Guidelines_Mar24.pdf</t>
   </si>
   <si>
-    <t>Breathing(Respiratory)/NKV 330 NIV guidelines.pdf</t>
-  </si>
-  <si>
     <t>Infection_and_sepsis/Influenza in Critical Care.pdf</t>
   </si>
   <si>
@@ -565,12 +565,12 @@
     <t>Policies_and_admin/Discharge Home from Critical Care .pdf</t>
   </si>
   <si>
+    <t>GI_Liver_and_Transplant/Nasal Bridle use in Critical Care.pdf</t>
+  </si>
+  <si>
     <t>GI_Liver_and_Transplant/Insertion of Nasojejunal Tubes.pdf</t>
   </si>
   <si>
-    <t>GI_Liver_and_Transplant/Nasal Bridle use in Critical Care.pdf</t>
-  </si>
-  <si>
     <t>GI_Liver_and_Transplant/Pabrinex.pdf</t>
   </si>
   <si>
@@ -583,201 +583,201 @@
     <t>Policies_and_admin/Repatriaiton Checklist for Critical Care.pdf</t>
   </si>
   <si>
-    <t>2011-03-28</t>
-  </si>
-  <si>
-    <t>2011-06-28</t>
-  </si>
-  <si>
-    <t>2011-07-28</t>
-  </si>
-  <si>
-    <t>2011-12-28</t>
-  </si>
-  <si>
-    <t>2014-09-28</t>
-  </si>
-  <si>
-    <t>2014-10-28</t>
-  </si>
-  <si>
-    <t>2014-11-28</t>
-  </si>
-  <si>
-    <t>2014-12-28</t>
-  </si>
-  <si>
-    <t>2015-03-28</t>
-  </si>
-  <si>
-    <t>2016-04-28</t>
-  </si>
-  <si>
-    <t>2016-08-28</t>
-  </si>
-  <si>
-    <t>2017-01-28</t>
-  </si>
-  <si>
-    <t>2017-08-28</t>
-  </si>
-  <si>
-    <t>2017-10-28</t>
-  </si>
-  <si>
-    <t>2017-11-28</t>
-  </si>
-  <si>
-    <t>2018-07-28</t>
-  </si>
-  <si>
-    <t>2019-05-28</t>
-  </si>
-  <si>
-    <t>2019-06-28</t>
-  </si>
-  <si>
-    <t>2019-08-28</t>
-  </si>
-  <si>
-    <t>2019-09-28</t>
-  </si>
-  <si>
-    <t>2020-01-28</t>
-  </si>
-  <si>
-    <t>2020-03-28</t>
-  </si>
-  <si>
-    <t>2020-04-28</t>
-  </si>
-  <si>
-    <t>2020-05-28</t>
-  </si>
-  <si>
-    <t>2020-07-28</t>
-  </si>
-  <si>
-    <t>2020-08-28</t>
-  </si>
-  <si>
-    <t>2020-11-28</t>
-  </si>
-  <si>
-    <t>2021-02-28</t>
-  </si>
-  <si>
-    <t>2021-05-28</t>
-  </si>
-  <si>
-    <t>2021-06-28</t>
-  </si>
-  <si>
-    <t>2021-09-28</t>
-  </si>
-  <si>
-    <t>2021-12-28</t>
-  </si>
-  <si>
-    <t>2022-01-28</t>
-  </si>
-  <si>
-    <t>2022-03-28</t>
-  </si>
-  <si>
-    <t>2022-04-28</t>
-  </si>
-  <si>
-    <t>2022-05-28</t>
-  </si>
-  <si>
-    <t>2022-06-28</t>
-  </si>
-  <si>
-    <t>2022-07-28</t>
-  </si>
-  <si>
-    <t>2022-08-28</t>
-  </si>
-  <si>
-    <t>2022-10-28</t>
-  </si>
-  <si>
-    <t>2022-11-28</t>
-  </si>
-  <si>
-    <t>2022-12-28</t>
-  </si>
-  <si>
-    <t>2023-01-28</t>
-  </si>
-  <si>
-    <t>2023-02-28</t>
-  </si>
-  <si>
-    <t>2023-04-28</t>
-  </si>
-  <si>
-    <t>2023-05-28</t>
-  </si>
-  <si>
-    <t>2023-06-28</t>
-  </si>
-  <si>
-    <t>2023-07-28</t>
-  </si>
-  <si>
-    <t>2023-08-28</t>
-  </si>
-  <si>
-    <t>2023-09-28</t>
-  </si>
-  <si>
-    <t>2023-10-28</t>
-  </si>
-  <si>
-    <t>2024-01-28</t>
-  </si>
-  <si>
-    <t>2024-02-28</t>
-  </si>
-  <si>
-    <t>2024-03-28</t>
-  </si>
-  <si>
-    <t>2024-04-28</t>
-  </si>
-  <si>
-    <t>2024-05-28</t>
+    <t>2011-03-03</t>
+  </si>
+  <si>
+    <t>2011-06-03</t>
+  </si>
+  <si>
+    <t>2011-07-03</t>
+  </si>
+  <si>
+    <t>2011-12-03</t>
+  </si>
+  <si>
+    <t>2014-09-03</t>
+  </si>
+  <si>
+    <t>2014-10-03</t>
+  </si>
+  <si>
+    <t>2014-11-03</t>
+  </si>
+  <si>
+    <t>2014-12-03</t>
+  </si>
+  <si>
+    <t>2015-03-03</t>
+  </si>
+  <si>
+    <t>2016-04-03</t>
+  </si>
+  <si>
+    <t>2016-08-03</t>
+  </si>
+  <si>
+    <t>2017-01-03</t>
+  </si>
+  <si>
+    <t>2017-08-03</t>
+  </si>
+  <si>
+    <t>2017-10-03</t>
+  </si>
+  <si>
+    <t>2017-11-03</t>
+  </si>
+  <si>
+    <t>2018-07-03</t>
+  </si>
+  <si>
+    <t>2019-05-03</t>
+  </si>
+  <si>
+    <t>2019-06-03</t>
+  </si>
+  <si>
+    <t>2019-08-03</t>
+  </si>
+  <si>
+    <t>2019-09-03</t>
+  </si>
+  <si>
+    <t>2020-01-03</t>
+  </si>
+  <si>
+    <t>2020-03-03</t>
+  </si>
+  <si>
+    <t>2020-04-03</t>
+  </si>
+  <si>
+    <t>2020-05-03</t>
+  </si>
+  <si>
+    <t>2020-07-03</t>
+  </si>
+  <si>
+    <t>2020-08-03</t>
+  </si>
+  <si>
+    <t>2020-11-03</t>
+  </si>
+  <si>
+    <t>2021-02-03</t>
+  </si>
+  <si>
+    <t>2021-05-03</t>
+  </si>
+  <si>
+    <t>2021-06-03</t>
+  </si>
+  <si>
+    <t>2021-09-03</t>
+  </si>
+  <si>
+    <t>2021-12-03</t>
+  </si>
+  <si>
+    <t>2022-01-03</t>
+  </si>
+  <si>
+    <t>2022-03-03</t>
+  </si>
+  <si>
+    <t>2022-04-03</t>
+  </si>
+  <si>
+    <t>2022-05-03</t>
+  </si>
+  <si>
+    <t>2022-06-03</t>
+  </si>
+  <si>
+    <t>2022-07-03</t>
+  </si>
+  <si>
+    <t>2022-08-03</t>
+  </si>
+  <si>
+    <t>2022-10-03</t>
+  </si>
+  <si>
+    <t>2022-11-03</t>
+  </si>
+  <si>
+    <t>2022-12-03</t>
+  </si>
+  <si>
+    <t>2023-01-03</t>
+  </si>
+  <si>
+    <t>2023-02-03</t>
+  </si>
+  <si>
+    <t>2023-04-03</t>
+  </si>
+  <si>
+    <t>2023-05-03</t>
+  </si>
+  <si>
+    <t>2023-06-03</t>
+  </si>
+  <si>
+    <t>2023-07-03</t>
+  </si>
+  <si>
+    <t>2023-08-03</t>
+  </si>
+  <si>
+    <t>2023-09-03</t>
+  </si>
+  <si>
+    <t>2023-10-03</t>
+  </si>
+  <si>
+    <t>2024-01-03</t>
+  </si>
+  <si>
+    <t>2024-02-03</t>
+  </si>
+  <si>
+    <t>2024-03-03</t>
+  </si>
+  <si>
+    <t>2024-04-03</t>
+  </si>
+  <si>
+    <t>2024-05-03</t>
   </si>
   <si>
     <t>2024-06-02</t>
   </si>
   <si>
+    <t>2024-06-03</t>
+  </si>
+  <si>
     <t>2024-06-26</t>
   </si>
   <si>
-    <t>2024-06-28</t>
+    <t>2024-07-03</t>
   </si>
   <si>
     <t>2024-07-25</t>
   </si>
   <si>
-    <t>2024-07-28</t>
+    <t>2024-08-03</t>
   </si>
   <si>
     <t>2024-08-15</t>
   </si>
   <si>
-    <t>2024-08-28</t>
+    <t>2024-10-03</t>
   </si>
   <si>
     <t>2024-10-24</t>
   </si>
   <si>
-    <t>2024-10-28</t>
-  </si>
-  <si>
     <t>2024-11-20</t>
   </si>
   <si>
@@ -787,82 +787,82 @@
     <t>2024-12-24</t>
   </si>
   <si>
-    <t>2025-01-28</t>
-  </si>
-  <si>
-    <t>2025-02-28</t>
-  </si>
-  <si>
-    <t>2025-03-28</t>
-  </si>
-  <si>
-    <t>2025-04-28</t>
-  </si>
-  <si>
-    <t>2025-05-28</t>
-  </si>
-  <si>
-    <t>2025-06-28</t>
-  </si>
-  <si>
-    <t>2025-07-28</t>
-  </si>
-  <si>
-    <t>2025-08-28</t>
-  </si>
-  <si>
-    <t>2025-10-28</t>
-  </si>
-  <si>
-    <t>2025-11-28</t>
-  </si>
-  <si>
-    <t>2026-01-28</t>
-  </si>
-  <si>
-    <t>2026-03-28</t>
-  </si>
-  <si>
-    <t>2026-05-28</t>
-  </si>
-  <si>
-    <t>2026-07-28</t>
-  </si>
-  <si>
-    <t>2026-11-28</t>
-  </si>
-  <si>
-    <t>2027-01-28</t>
-  </si>
-  <si>
-    <t>2027-02-28</t>
-  </si>
-  <si>
-    <t>2027-03-28</t>
-  </si>
-  <si>
-    <t>2028-02-28</t>
-  </si>
-  <si>
-    <t>2028-03-28</t>
-  </si>
-  <si>
-    <t>2028-05-28</t>
-  </si>
-  <si>
-    <t>2028-07-28</t>
-  </si>
-  <si>
-    <t>2028-11-28</t>
-  </si>
-  <si>
-    <t>2029-02-28</t>
-  </si>
-  <si>
-    <t>2029-06-28</t>
-  </si>
-  <si>
-    <t>2030-11-28</t>
+    <t>2025-01-03</t>
+  </si>
+  <si>
+    <t>2025-02-03</t>
+  </si>
+  <si>
+    <t>2025-03-03</t>
+  </si>
+  <si>
+    <t>2025-04-03</t>
+  </si>
+  <si>
+    <t>2025-05-03</t>
+  </si>
+  <si>
+    <t>2025-06-03</t>
+  </si>
+  <si>
+    <t>2025-07-03</t>
+  </si>
+  <si>
+    <t>2025-08-03</t>
+  </si>
+  <si>
+    <t>2025-10-03</t>
+  </si>
+  <si>
+    <t>2025-11-03</t>
+  </si>
+  <si>
+    <t>2026-01-03</t>
+  </si>
+  <si>
+    <t>2026-03-03</t>
+  </si>
+  <si>
+    <t>2026-05-03</t>
+  </si>
+  <si>
+    <t>2026-07-03</t>
+  </si>
+  <si>
+    <t>2026-11-03</t>
+  </si>
+  <si>
+    <t>2027-01-03</t>
+  </si>
+  <si>
+    <t>2027-02-03</t>
+  </si>
+  <si>
+    <t>2027-03-03</t>
+  </si>
+  <si>
+    <t>2028-02-03</t>
+  </si>
+  <si>
+    <t>2028-03-03</t>
+  </si>
+  <si>
+    <t>2028-05-03</t>
+  </si>
+  <si>
+    <t>2028-07-03</t>
+  </si>
+  <si>
+    <t>2028-11-03</t>
+  </si>
+  <si>
+    <t>2029-02-03</t>
+  </si>
+  <si>
+    <t>2029-06-03</t>
+  </si>
+  <si>
+    <t>2030-11-03</t>
   </si>
 </sst>
 </file>
@@ -1959,7 +1959,7 @@
         <v>92</v>
       </c>
       <c r="B92" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="93" spans="1:2">
@@ -1975,7 +1975,7 @@
         <v>94</v>
       </c>
       <c r="B94" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
     </row>
     <row r="95" spans="1:2">
@@ -2063,7 +2063,7 @@
         <v>105</v>
       </c>
       <c r="B105" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="106" spans="1:2">
@@ -2071,7 +2071,7 @@
         <v>106</v>
       </c>
       <c r="B106" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="107" spans="1:2">
@@ -2095,7 +2095,7 @@
         <v>109</v>
       </c>
       <c r="B109" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
     </row>
     <row r="110" spans="1:2">
@@ -2111,7 +2111,7 @@
         <v>111</v>
       </c>
       <c r="B111" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="112" spans="1:2">
@@ -2119,7 +2119,7 @@
         <v>112</v>
       </c>
       <c r="B112" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="113" spans="1:2">
@@ -2127,7 +2127,7 @@
         <v>113</v>
       </c>
       <c r="B113" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="114" spans="1:2">
@@ -2143,7 +2143,7 @@
         <v>115</v>
       </c>
       <c r="B115" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="116" spans="1:2">
@@ -2159,7 +2159,7 @@
         <v>117</v>
       </c>
       <c r="B117" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="118" spans="1:2">
@@ -2175,7 +2175,7 @@
         <v>119</v>
       </c>
       <c r="B119" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
     </row>
     <row r="120" spans="1:2">
@@ -2199,7 +2199,7 @@
         <v>122</v>
       </c>
       <c r="B122" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
     <row r="123" spans="1:2">
@@ -2207,7 +2207,7 @@
         <v>123</v>
       </c>
       <c r="B123" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="124" spans="1:2">
@@ -2223,7 +2223,7 @@
         <v>125</v>
       </c>
       <c r="B125" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="126" spans="1:2">
@@ -2231,7 +2231,7 @@
         <v>126</v>
       </c>
       <c r="B126" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="127" spans="1:2">
@@ -2255,7 +2255,7 @@
         <v>129</v>
       </c>
       <c r="B129" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
     <row r="130" spans="1:2">
@@ -2279,7 +2279,7 @@
         <v>132</v>
       </c>
       <c r="B132" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
     <row r="133" spans="1:2">
@@ -2295,7 +2295,7 @@
         <v>134</v>
       </c>
       <c r="B134" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="135" spans="1:2">
@@ -2335,7 +2335,7 @@
         <v>139</v>
       </c>
       <c r="B139" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="140" spans="1:2">
@@ -2375,7 +2375,7 @@
         <v>144</v>
       </c>
       <c r="B144" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="145" spans="1:2">
@@ -2415,7 +2415,7 @@
         <v>149</v>
       </c>
       <c r="B149" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
     </row>
     <row r="150" spans="1:2">
@@ -2439,7 +2439,7 @@
         <v>152</v>
       </c>
       <c r="B152" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
     </row>
     <row r="153" spans="1:2">
@@ -2471,7 +2471,7 @@
         <v>156</v>
       </c>
       <c r="B156" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="157" spans="1:2">
@@ -2495,7 +2495,7 @@
         <v>159</v>
       </c>
       <c r="B159" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
     </row>
     <row r="160" spans="1:2">
@@ -2519,7 +2519,7 @@
         <v>162</v>
       </c>
       <c r="B162" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
     </row>
     <row r="163" spans="1:2">
@@ -2559,7 +2559,7 @@
         <v>167</v>
       </c>
       <c r="B167" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
     </row>
     <row r="168" spans="1:2">
@@ -2583,7 +2583,7 @@
         <v>170</v>
       </c>
       <c r="B170" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="171" spans="1:2">

--- a/lothiancriticalcare/1a74f8f7b8b7e871b413c4697f68b4401fbacdf0/reviewdates.xlsx
+++ b/lothiancriticalcare/1a74f8f7b8b7e871b413c4697f68b4401fbacdf0/reviewdates.xlsx
@@ -79,15 +79,15 @@
     <t>Breathing(Respiratory)/salbutamol and ipratroprium MDI.pdf</t>
   </si>
   <si>
+    <t>Airway/Tracheostomy_Laryngectomy/Tracheostomy suctioning cleaning guideline.pdf</t>
+  </si>
+  <si>
+    <t>Airway/Tracheostomy_Laryngectomy/Tracheostomy change in Critical Care.pdf</t>
+  </si>
+  <si>
     <t>Neurological/SOP -  Femoral site care.pdf</t>
   </si>
   <si>
-    <t>Airway/Tracheostomy_Laryngectomy/Tracheostomy suctioning cleaning guideline.pdf</t>
-  </si>
-  <si>
-    <t>Airway/Tracheostomy_Laryngectomy/Tracheostomy change in Critical Care.pdf</t>
-  </si>
-  <si>
     <t>Drugs/sodium_bicarbonate.pdf</t>
   </si>
   <si>
@@ -97,24 +97,24 @@
     <t>Post_op_care/Epidural top-up.pdf</t>
   </si>
   <si>
+    <t>Diabetes_and_Glucose/Hyperosmolar Hyperglycaemic State.pdf</t>
+  </si>
+  <si>
+    <t>Drugs/heparin for Haemofiltration.pdf</t>
+  </si>
+  <si>
     <t>Airway/Emergency intubation checklist_em_pub.pdf</t>
   </si>
   <si>
     <t>Covid-19/WGH/CoVid intubation checklist WGH.pdf</t>
   </si>
   <si>
-    <t>Diabetes_and_Glucose/Hyperosmolar Hyperglycaemic State.pdf</t>
-  </si>
-  <si>
-    <t>Drugs/heparin for Haemofiltration.pdf</t>
+    <t>Covid-19/SJH/SJH COVID19 ITU Intubation Action Card.pdf</t>
   </si>
   <si>
     <t>Covid-19/SJH/SJH COVID19 ED Intubation Action Card.pdf</t>
   </si>
   <si>
-    <t>Covid-19/SJH/SJH COVID19 ITU Intubation Action Card.pdf</t>
-  </si>
-  <si>
     <t>Drugs/fentanyl.pdf</t>
   </si>
   <si>
@@ -139,30 +139,27 @@
     <t>Delirium/Risk assessment posi mit.pdf</t>
   </si>
   <si>
+    <t>Breathing(Respiratory)/HFNO.pdf</t>
+  </si>
+  <si>
+    <t>Neurological/Sub arachnoid haemorrhage management.pdf</t>
+  </si>
+  <si>
+    <t>Airway/Anticipated difficult airway tool.pdf</t>
+  </si>
+  <si>
     <t>Airway/McGrath Mac.pdf</t>
   </si>
   <si>
-    <t>Airway/Anticipated difficult airway tool.pdf</t>
+    <t>Airway/Tracheostomy_Laryngectomy/Tracheostomy safety box contents.pdf</t>
+  </si>
+  <si>
+    <t>GI_Liver_and_Transplant/Abdominal pressure measurement.pdf</t>
   </si>
   <si>
     <t>GI_Liver_and_Transplant/Treatment of constipation.pdf</t>
   </si>
   <si>
-    <t>Neurological/Sub arachnoid haemorrhage management.pdf</t>
-  </si>
-  <si>
-    <t>Drugs/ketamine_in_asthma.pdf</t>
-  </si>
-  <si>
-    <t>GI_Liver_and_Transplant/Abdominal pressure measurement.pdf</t>
-  </si>
-  <si>
-    <t>Breathing(Respiratory)/HFNO.pdf</t>
-  </si>
-  <si>
-    <t>Airway/Tracheostomy_Laryngectomy/Tracheostomy safety box contents.pdf</t>
-  </si>
-  <si>
     <t>End_of_life_care/Documentation following death.pdf</t>
   </si>
   <si>
@@ -172,30 +169,30 @@
     <t>Routine_Care/bBraun Spaceplus Failure EMERGENCY ACTION CARD_em.pdf</t>
   </si>
   <si>
+    <t>Breathing(Respiratory)/Equipment/HFNO Set Up.pdf</t>
+  </si>
+  <si>
     <t>Drugs/insulin.pdf</t>
   </si>
   <si>
-    <t>Breathing(Respiratory)/Equipment/HFNO Set Up.pdf</t>
-  </si>
-  <si>
     <t>Breathing(Respiratory)/Inhaled Nitrous Oxide.pdf</t>
   </si>
   <si>
+    <t>Breathing(Respiratory)/Equipment/APRV.pdf</t>
+  </si>
+  <si>
     <t>Cardiovascular/Steroids for Septic Shock.pdf</t>
   </si>
   <si>
-    <t>Breathing(Respiratory)/Equipment/APRV.pdf</t>
-  </si>
-  <si>
     <t>Neurological/SOP for review of Neurosurgical patients in ITU by neurosurgical team.pdf</t>
   </si>
   <si>
+    <t>Post_op_care/Epidural Haematoma.pdf</t>
+  </si>
+  <si>
     <t>Breathing(Respiratory)/Equipment/T piece Y piece.pdf</t>
   </si>
   <si>
-    <t>Post_op_care/Epidural Haematoma.pdf</t>
-  </si>
-  <si>
     <t>Policies_and_admin/General Critical Care Interaction with HEPMA_pub.pdf</t>
   </si>
   <si>
@@ -223,21 +220,21 @@
     <t>Drugs/Antibiotic doses in CVVHD.pdf</t>
   </si>
   <si>
+    <t>GI_Liver_and_Transplant/Jejunostomy feeding protocol.pdf</t>
+  </si>
+  <si>
+    <t>ECLS/RIE ECLS Anti Xa Protocol.pdf</t>
+  </si>
+  <si>
     <t>GI_Liver_and_Transplant/Nasojejunal feeding protocol.pdf</t>
   </si>
   <si>
-    <t>ECLS/RIE ECLS Anti Xa Protocol.pdf</t>
-  </si>
-  <si>
-    <t>GI_Liver_and_Transplant/Jejunostomy feeding protocol.pdf</t>
+    <t>Infection_and_sepsis/Winter Infections Stepdown Guidance.pdf</t>
   </si>
   <si>
     <t>Drugs/vasopressin_sepsis.pdf</t>
   </si>
   <si>
-    <t>Infection_and_sepsis/Winter Infections Stepdown Guidance.pdf</t>
-  </si>
-  <si>
     <t>Drugs/vasopressin organ donation.pdf</t>
   </si>
   <si>
@@ -250,18 +247,18 @@
     <t>Drugs/piperacillin_tazobactam extended_infusion.pdf</t>
   </si>
   <si>
+    <t>Breathing(Respiratory)/Equipment/Ventilators Circuits Filters and Closed Suction - Set up and Maintenance.pdf</t>
+  </si>
+  <si>
     <t>Infection_and_sepsis/Infection indications for IVIG.pdf</t>
   </si>
   <si>
-    <t>Breathing(Respiratory)/Equipment/Ventilators Circuits Filters and Closed Suction - Set up and Maintenance.pdf</t>
+    <t>Procedures/CVC Guidance/Securing CVCs.pdf</t>
   </si>
   <si>
     <t>Covid-19/Covid 19 Death Certification Guideline.pdf</t>
   </si>
   <si>
-    <t>Procedures/CVC Guidance/Securing CVCs.pdf</t>
-  </si>
-  <si>
     <t>Routine_Care/Video Communication.pdf</t>
   </si>
   <si>
@@ -274,63 +271,63 @@
     <t>Haematology_CAR-T/Haem_ICU_transfer.pdf</t>
   </si>
   <si>
+    <t>Drugs/aminophylline.pdf</t>
+  </si>
+  <si>
     <t>Cardiovascular/Management of hypertension within Critical Care.pdf</t>
   </si>
   <si>
-    <t>Drugs/aminophylline.pdf</t>
-  </si>
-  <si>
     <t>Haematology_CAR-T/ICANS.pdf</t>
   </si>
   <si>
+    <t>Haematology_CAR-T/Cytokine Release Syndrome.pdf</t>
+  </si>
+  <si>
+    <t>Drugs/pancuronium.pdf</t>
+  </si>
+  <si>
     <t>Drugs/phenytoin.pdf</t>
   </si>
   <si>
-    <t>Drugs/pancuronium.pdf</t>
-  </si>
-  <si>
-    <t>Haematology_CAR-T/Cytokine Release Syndrome.pdf</t>
-  </si>
-  <si>
     <t>Policies_and_admin/General Critical Care SOP_pub.pdf</t>
   </si>
   <si>
     <t>Drugs/milrinone.pdf</t>
   </si>
   <si>
+    <t>End_of_life_care/CMO &amp; NRS Guidance for Doctors completing MCCD.pdf</t>
+  </si>
+  <si>
+    <t>Drugs/clonidine.pdf</t>
+  </si>
+  <si>
+    <t>GI_Liver_and_Transplant/ICU - Upper GI bleeding (Endoscopy guideline).pdf</t>
+  </si>
+  <si>
+    <t>Neurological/Management of traumatic brain injury.pdf</t>
+  </si>
+  <si>
+    <t>Infection_and_sepsis/Trip Out of Unit infection guidance.pdf</t>
+  </si>
+  <si>
     <t>End_of_life_care/Palliative extubation &amp; withdrawal of invasive ventilatory support nursing checklist.pdf</t>
   </si>
   <si>
-    <t>End_of_life_care/CMO &amp; NRS Guidance for Doctors completing MCCD.pdf</t>
-  </si>
-  <si>
-    <t>Neurological/Management of traumatic brain injury.pdf</t>
+    <t>Ethics_and_Law/DNACPR policy for Scotland.pdf</t>
   </si>
   <si>
     <t>Organ_donation/Organ Retrieval SOP.pdf</t>
   </si>
   <si>
+    <t>Ethics_and_Law/Care at the End of Life (FICM).pdf</t>
+  </si>
+  <si>
+    <t>Neurological/Critical Care MRI Procedure_pub.pdf</t>
+  </si>
+  <si>
     <t>Covid-19/COVID 19 ICM guidance basic goals_June_2022.pdf</t>
   </si>
   <si>
-    <t>Infection_and_sepsis/Trip Out of Unit infection guidance.pdf</t>
-  </si>
-  <si>
-    <t>Neurological/Critical Care MRI Procedure_pub.pdf</t>
-  </si>
-  <si>
-    <t>Ethics_and_Law/DNACPR policy for Scotland.pdf</t>
-  </si>
-  <si>
-    <t>Ethics_and_Law/Care at the End of Life (FICM).pdf</t>
-  </si>
-  <si>
-    <t>Drugs/clonidine.pdf</t>
-  </si>
-  <si>
-    <t>GI_Liver_and_Transplant/ICU - Upper GI bleeding (Endoscopy guideline).pdf</t>
-  </si>
-  <si>
     <t>Airway/Cook Staged Extubation Set.pdf</t>
   </si>
   <si>
@@ -343,33 +340,33 @@
     <t>Post_op_care/Epidural hypotension.pdf</t>
   </si>
   <si>
+    <t>Breathing(Respiratory)/Equipment/Passy Muir Valve.pdf</t>
+  </si>
+  <si>
+    <t>GI_Liver_and_Transplant/Confirmation of Nasogastric Tube Position.pdf</t>
+  </si>
+  <si>
     <t>Drugs/glyceryl_trinitrate.pdf</t>
   </si>
   <si>
-    <t>Breathing(Respiratory)/Equipment/Passy Muir Valve.pdf</t>
-  </si>
-  <si>
     <t>GI_Liver_and_Transplant/Fulminant Liver Failure.pdf</t>
   </si>
   <si>
     <t>Drugs/dexmedetomidine.pdf</t>
   </si>
   <si>
-    <t>GI_Liver_and_Transplant/Confirmation of Nasogastric Tube Position.pdf</t>
-  </si>
-  <si>
     <t>Infection_and_sepsis/Antifungal guidance in critical care.pdf</t>
   </si>
   <si>
     <t>Cardiovascular/Intra Aortic Balloon Pump Guideline_pub.pdf</t>
   </si>
   <si>
+    <t>Cardiovascular/Intra Aortic Balloon Pump Bedside Checks_pub.pdf</t>
+  </si>
+  <si>
     <t>Transfer/Transfer Outdoors to Garden Guideline.pdf</t>
   </si>
   <si>
-    <t>Cardiovascular/Intra Aortic Balloon Pump Bedside Checks_pub.pdf</t>
-  </si>
-  <si>
     <t>Breathing(Respiratory)/ARDS Strategy.pdf</t>
   </si>
   <si>
@@ -394,58 +391,67 @@
     <t>Drugs/magnesium.pdf</t>
   </si>
   <si>
+    <t>Drugs/vancomycin continuous infusion.pdf</t>
+  </si>
+  <si>
     <t>Drugs/neostigmine.pdf</t>
   </si>
   <si>
     <t>Drugs/ICU - IV drug infusions.pdf</t>
   </si>
   <si>
-    <t>Drugs/vancomycin continuous infusion.pdf</t>
+    <t>Infection_and_sepsis/Initial investigation and management in unidentified Infections.pdf</t>
+  </si>
+  <si>
+    <t>Drugs/labetalol.pdf</t>
   </si>
   <si>
     <t>Neurological/Intrathecal policy RIE.pdf</t>
   </si>
   <si>
-    <t>Infection_and_sepsis/Initial investigation and management in unidentified Infections.pdf</t>
-  </si>
-  <si>
-    <t>Drugs/labetalol.pdf</t>
-  </si>
-  <si>
     <t>Drugs/midazolam.pdf</t>
   </si>
   <si>
     <t>Cardiovascular/Management of Acute Type B Aortic Dissection Guideline.pdf</t>
   </si>
   <si>
+    <t>Drugs/potassium.pdf</t>
+  </si>
+  <si>
+    <t>Drugs/nimodipine.pdf</t>
+  </si>
+  <si>
+    <t>Drugs/salbutamol.pdf</t>
+  </si>
+  <si>
+    <t>Trauma and Burns/Management of Severe Burns v1.6.pdf</t>
+  </si>
+  <si>
     <t>Procedures/CVC Guidance/CVC NHL  April 2023.pdf</t>
   </si>
   <si>
-    <t>Drugs/potassium.pdf</t>
-  </si>
-  <si>
-    <t>Drugs/salbutamol.pdf</t>
-  </si>
-  <si>
-    <t>Drugs/nimodipine.pdf</t>
-  </si>
-  <si>
-    <t>Trauma and Burns/Management of Severe Burns v1.6.pdf</t>
+    <t>Drugs/amiodarone.pdf</t>
+  </si>
+  <si>
+    <t>Procedures/Arterial Line insertion for ACCPs.pdf</t>
   </si>
   <si>
     <t>Routine_Care/ICU Eye Care Guideline.pdf</t>
   </si>
   <si>
+    <t>Drugs/nicardipine.pdf</t>
+  </si>
+  <si>
     <t>Drugs/phenobarbitone.pdf</t>
   </si>
   <si>
-    <t>Procedures/Arterial Line insertion for ACCPs.pdf</t>
-  </si>
-  <si>
-    <t>Drugs/amiodarone.pdf</t>
-  </si>
-  <si>
-    <t>Drugs/nicardipine.pdf</t>
+    <t>Drugs/morphine.pdf</t>
+  </si>
+  <si>
+    <t>Drugs/phenylephrine.pdf</t>
+  </si>
+  <si>
+    <t>Drugs/Epoprostenol.pdf</t>
   </si>
   <si>
     <t>Breathing(Respiratory)/Manual Ventilation and MHI.pdf</t>
@@ -454,36 +460,27 @@
     <t>Neurological/Ventriculitis Guideline.pdf</t>
   </si>
   <si>
-    <t>Drugs/morphine.pdf</t>
-  </si>
-  <si>
-    <t>Drugs/phenylephrine.pdf</t>
-  </si>
-  <si>
-    <t>Drugs/Epoprostenol.pdf</t>
-  </si>
-  <si>
     <t>Cardiovascular/Pulmonary_Embolism_and_DVT/Catheter directed thrombolysis of iliofemoral DVT alteplase_pub.pdf</t>
   </si>
   <si>
+    <t>Drugs/calcium.pdf</t>
+  </si>
+  <si>
     <t>Cardiovascular/Cardiac Output Monitoring_pub .pdf</t>
   </si>
   <si>
-    <t>Drugs/calcium.pdf</t>
-  </si>
-  <si>
     <t>Drugs/Vancomycin continuous infusion Fluid Restricted.pdf</t>
   </si>
   <si>
+    <t>Airway/Tracheostomy_Laryngectomy/Decannulation Guidline.pdf</t>
+  </si>
+  <si>
+    <t>Drugs/atracurium.pdf</t>
+  </si>
+  <si>
     <t>Drugs/dalteparin_thromboprophylaxis.pdf</t>
   </si>
   <si>
-    <t>Drugs/atracurium.pdf</t>
-  </si>
-  <si>
-    <t>Airway/Tracheostomy_Laryngectomy/Decannulation Guidline.pdf</t>
-  </si>
-  <si>
     <t>Procedures/Inadvertent Catheter Placement Guideline.pdf</t>
   </si>
   <si>
@@ -493,37 +490,40 @@
     <t>Drugs/valproate.pdf</t>
   </si>
   <si>
+    <t>Drugs/ketamine_for_status epilepticus.pdf</t>
+  </si>
+  <si>
     <t>Drugs/stress ulcer prophylaxis.pdf</t>
   </si>
   <si>
-    <t>Drugs/ketamine_for_status epilepticus.pdf</t>
-  </si>
-  <si>
     <t>Drugs/Phosphate.pdf</t>
   </si>
   <si>
+    <t>Drugs/Thiopentone.pdf</t>
+  </si>
+  <si>
+    <t>Breathing(Respiratory)/Proning Guideline.pdf</t>
+  </si>
+  <si>
     <t>Drugs/Octreotide.pdf</t>
   </si>
   <si>
+    <t>GI_Liver_and_Transplant/Prokinetics in ICU.pdf</t>
+  </si>
+  <si>
     <t>Neurological/Status epilepticus.pdf</t>
   </si>
   <si>
-    <t>Drugs/Thiopentone.pdf</t>
-  </si>
-  <si>
-    <t>GI_Liver_and_Transplant/Prokinetics in ICU.pdf</t>
-  </si>
-  <si>
-    <t>Breathing(Respiratory)/Proning Guideline.pdf</t>
-  </si>
-  <si>
     <t>Procedures/ACCP CVC placement following completion of initial competencies.pdf</t>
   </si>
   <si>
+    <t>Procedures/ACCPs acquiring initial CVC competencies.pdf</t>
+  </si>
+  <si>
     <t>Post_op_care/Prevention and treatment of paraplegia after major aortic procedures.pdf</t>
   </si>
   <si>
-    <t>Procedures/ACCPs acquiring initial CVC competencies.pdf</t>
+    <t>Drugs/Ketamine_in_asthma.pdf</t>
   </si>
   <si>
     <t>Delirium/Violence and Agression.pdf</t>
@@ -550,12 +550,12 @@
     <t>Breathing(Respiratory)/Equipment/Setting up the NKV-330.pdf</t>
   </si>
   <si>
+    <t>Breathing(Respiratory)/T1RF - CPAP Guidelines_Mar24.pdf</t>
+  </si>
+  <si>
     <t>Breathing(Respiratory)/NKV 330 NIV guidelines.pdf</t>
   </si>
   <si>
-    <t>Breathing(Respiratory)/T1RF - CPAP Guidelines_Mar24.pdf</t>
-  </si>
-  <si>
     <t>Infection_and_sepsis/Influenza in Critical Care.pdf</t>
   </si>
   <si>
@@ -565,10 +565,13 @@
     <t>Policies_and_admin/Discharge Home from Critical Care .pdf</t>
   </si>
   <si>
+    <t>GI_Liver_and_Transplant/Insertion of Nasojejunal Tubes.pdf</t>
+  </si>
+  <si>
     <t>GI_Liver_and_Transplant/Nasal Bridle use in Critical Care.pdf</t>
   </si>
   <si>
-    <t>GI_Liver_and_Transplant/Insertion of Nasojejunal Tubes.pdf</t>
+    <t>Drugs/Pabrinex.pdf</t>
   </si>
   <si>
     <t>GI_Liver_and_Transplant/Pabrinex.pdf</t>
@@ -577,202 +580,199 @@
     <t>Cardiovascular/Focused TOE Guideline for General Critical Care_pub.pdf</t>
   </si>
   <si>
-    <t>Drugs/Pabrinex.pdf</t>
-  </si>
-  <si>
     <t>Policies_and_admin/Repatriaiton Checklist for Critical Care.pdf</t>
   </si>
   <si>
-    <t>2011-03-03</t>
-  </si>
-  <si>
-    <t>2011-06-03</t>
-  </si>
-  <si>
-    <t>2011-07-03</t>
-  </si>
-  <si>
-    <t>2011-12-03</t>
-  </si>
-  <si>
-    <t>2014-09-03</t>
-  </si>
-  <si>
-    <t>2014-10-03</t>
-  </si>
-  <si>
-    <t>2014-11-03</t>
-  </si>
-  <si>
-    <t>2014-12-03</t>
-  </si>
-  <si>
-    <t>2015-03-03</t>
-  </si>
-  <si>
-    <t>2016-04-03</t>
-  </si>
-  <si>
-    <t>2016-08-03</t>
-  </si>
-  <si>
-    <t>2017-01-03</t>
-  </si>
-  <si>
-    <t>2017-08-03</t>
-  </si>
-  <si>
-    <t>2017-10-03</t>
-  </si>
-  <si>
-    <t>2017-11-03</t>
-  </si>
-  <si>
-    <t>2018-07-03</t>
-  </si>
-  <si>
-    <t>2019-05-03</t>
-  </si>
-  <si>
-    <t>2019-06-03</t>
-  </si>
-  <si>
-    <t>2019-08-03</t>
-  </si>
-  <si>
-    <t>2019-09-03</t>
-  </si>
-  <si>
-    <t>2020-01-03</t>
-  </si>
-  <si>
-    <t>2020-03-03</t>
-  </si>
-  <si>
-    <t>2020-04-03</t>
-  </si>
-  <si>
-    <t>2020-05-03</t>
-  </si>
-  <si>
-    <t>2020-07-03</t>
-  </si>
-  <si>
-    <t>2020-08-03</t>
-  </si>
-  <si>
-    <t>2020-11-03</t>
-  </si>
-  <si>
-    <t>2021-02-03</t>
-  </si>
-  <si>
-    <t>2021-05-03</t>
-  </si>
-  <si>
-    <t>2021-06-03</t>
-  </si>
-  <si>
-    <t>2021-09-03</t>
-  </si>
-  <si>
-    <t>2021-12-03</t>
-  </si>
-  <si>
-    <t>2022-01-03</t>
-  </si>
-  <si>
-    <t>2022-03-03</t>
-  </si>
-  <si>
-    <t>2022-04-03</t>
-  </si>
-  <si>
-    <t>2022-05-03</t>
-  </si>
-  <si>
-    <t>2022-06-03</t>
-  </si>
-  <si>
-    <t>2022-07-03</t>
-  </si>
-  <si>
-    <t>2022-08-03</t>
-  </si>
-  <si>
-    <t>2022-10-03</t>
-  </si>
-  <si>
-    <t>2022-11-03</t>
-  </si>
-  <si>
-    <t>2022-12-03</t>
-  </si>
-  <si>
-    <t>2023-01-03</t>
-  </si>
-  <si>
-    <t>2023-02-03</t>
-  </si>
-  <si>
-    <t>2023-04-03</t>
-  </si>
-  <si>
-    <t>2023-05-03</t>
-  </si>
-  <si>
-    <t>2023-06-03</t>
-  </si>
-  <si>
-    <t>2023-07-03</t>
-  </si>
-  <si>
-    <t>2023-08-03</t>
-  </si>
-  <si>
-    <t>2023-09-03</t>
-  </si>
-  <si>
-    <t>2023-10-03</t>
-  </si>
-  <si>
-    <t>2024-01-03</t>
-  </si>
-  <si>
-    <t>2024-02-03</t>
-  </si>
-  <si>
-    <t>2024-03-03</t>
-  </si>
-  <si>
-    <t>2024-04-03</t>
-  </si>
-  <si>
-    <t>2024-05-03</t>
+    <t>2011-03-10</t>
+  </si>
+  <si>
+    <t>2011-06-10</t>
+  </si>
+  <si>
+    <t>2011-07-10</t>
+  </si>
+  <si>
+    <t>2011-12-10</t>
+  </si>
+  <si>
+    <t>2014-09-10</t>
+  </si>
+  <si>
+    <t>2014-10-10</t>
+  </si>
+  <si>
+    <t>2014-11-10</t>
+  </si>
+  <si>
+    <t>2014-12-10</t>
+  </si>
+  <si>
+    <t>2015-03-10</t>
+  </si>
+  <si>
+    <t>2016-04-10</t>
+  </si>
+  <si>
+    <t>2016-08-10</t>
+  </si>
+  <si>
+    <t>2017-01-10</t>
+  </si>
+  <si>
+    <t>2017-08-10</t>
+  </si>
+  <si>
+    <t>2017-10-10</t>
+  </si>
+  <si>
+    <t>2017-11-10</t>
+  </si>
+  <si>
+    <t>2018-07-10</t>
+  </si>
+  <si>
+    <t>2019-05-10</t>
+  </si>
+  <si>
+    <t>2019-06-10</t>
+  </si>
+  <si>
+    <t>2019-08-10</t>
+  </si>
+  <si>
+    <t>2019-09-10</t>
+  </si>
+  <si>
+    <t>2020-01-10</t>
+  </si>
+  <si>
+    <t>2020-03-10</t>
+  </si>
+  <si>
+    <t>2020-04-10</t>
+  </si>
+  <si>
+    <t>2020-05-10</t>
+  </si>
+  <si>
+    <t>2020-07-10</t>
+  </si>
+  <si>
+    <t>2020-08-10</t>
+  </si>
+  <si>
+    <t>2020-11-10</t>
+  </si>
+  <si>
+    <t>2021-02-10</t>
+  </si>
+  <si>
+    <t>2021-05-10</t>
+  </si>
+  <si>
+    <t>2021-06-10</t>
+  </si>
+  <si>
+    <t>2021-09-10</t>
+  </si>
+  <si>
+    <t>2021-12-10</t>
+  </si>
+  <si>
+    <t>2022-01-10</t>
+  </si>
+  <si>
+    <t>2022-03-10</t>
+  </si>
+  <si>
+    <t>2022-04-10</t>
+  </si>
+  <si>
+    <t>2022-05-10</t>
+  </si>
+  <si>
+    <t>2022-06-10</t>
+  </si>
+  <si>
+    <t>2022-07-10</t>
+  </si>
+  <si>
+    <t>2022-08-10</t>
+  </si>
+  <si>
+    <t>2022-10-10</t>
+  </si>
+  <si>
+    <t>2022-11-10</t>
+  </si>
+  <si>
+    <t>2022-12-10</t>
+  </si>
+  <si>
+    <t>2023-01-10</t>
+  </si>
+  <si>
+    <t>2023-02-10</t>
+  </si>
+  <si>
+    <t>2023-04-10</t>
+  </si>
+  <si>
+    <t>2023-05-10</t>
+  </si>
+  <si>
+    <t>2023-06-10</t>
+  </si>
+  <si>
+    <t>2023-07-10</t>
+  </si>
+  <si>
+    <t>2023-08-10</t>
+  </si>
+  <si>
+    <t>2023-09-10</t>
+  </si>
+  <si>
+    <t>2023-10-10</t>
+  </si>
+  <si>
+    <t>2024-01-10</t>
+  </si>
+  <si>
+    <t>2024-02-10</t>
+  </si>
+  <si>
+    <t>2024-03-10</t>
+  </si>
+  <si>
+    <t>2024-04-10</t>
+  </si>
+  <si>
+    <t>2024-05-10</t>
   </si>
   <si>
     <t>2024-06-02</t>
   </si>
   <si>
-    <t>2024-06-03</t>
+    <t>2024-06-10</t>
   </si>
   <si>
     <t>2024-06-26</t>
   </si>
   <si>
-    <t>2024-07-03</t>
+    <t>2024-07-10</t>
   </si>
   <si>
     <t>2024-07-25</t>
   </si>
   <si>
-    <t>2024-08-03</t>
+    <t>2024-08-10</t>
   </si>
   <si>
     <t>2024-08-15</t>
   </si>
   <si>
-    <t>2024-10-03</t>
+    <t>2024-10-10</t>
   </si>
   <si>
     <t>2024-10-24</t>
@@ -787,82 +787,82 @@
     <t>2024-12-24</t>
   </si>
   <si>
-    <t>2025-01-03</t>
-  </si>
-  <si>
-    <t>2025-02-03</t>
-  </si>
-  <si>
-    <t>2025-03-03</t>
-  </si>
-  <si>
-    <t>2025-04-03</t>
-  </si>
-  <si>
-    <t>2025-05-03</t>
-  </si>
-  <si>
-    <t>2025-06-03</t>
-  </si>
-  <si>
-    <t>2025-07-03</t>
-  </si>
-  <si>
-    <t>2025-08-03</t>
-  </si>
-  <si>
-    <t>2025-10-03</t>
-  </si>
-  <si>
-    <t>2025-11-03</t>
-  </si>
-  <si>
-    <t>2026-01-03</t>
-  </si>
-  <si>
-    <t>2026-03-03</t>
-  </si>
-  <si>
-    <t>2026-05-03</t>
-  </si>
-  <si>
-    <t>2026-07-03</t>
-  </si>
-  <si>
-    <t>2026-11-03</t>
-  </si>
-  <si>
-    <t>2027-01-03</t>
-  </si>
-  <si>
-    <t>2027-02-03</t>
-  </si>
-  <si>
-    <t>2027-03-03</t>
-  </si>
-  <si>
-    <t>2028-02-03</t>
-  </si>
-  <si>
-    <t>2028-03-03</t>
-  </si>
-  <si>
-    <t>2028-05-03</t>
-  </si>
-  <si>
-    <t>2028-07-03</t>
-  </si>
-  <si>
-    <t>2028-11-03</t>
-  </si>
-  <si>
-    <t>2029-02-03</t>
-  </si>
-  <si>
-    <t>2029-06-03</t>
-  </si>
-  <si>
-    <t>2030-11-03</t>
+    <t>2025-01-10</t>
+  </si>
+  <si>
+    <t>2025-02-10</t>
+  </si>
+  <si>
+    <t>2025-03-10</t>
+  </si>
+  <si>
+    <t>2025-04-10</t>
+  </si>
+  <si>
+    <t>2025-05-10</t>
+  </si>
+  <si>
+    <t>2025-06-10</t>
+  </si>
+  <si>
+    <t>2025-07-10</t>
+  </si>
+  <si>
+    <t>2025-08-10</t>
+  </si>
+  <si>
+    <t>2025-10-10</t>
+  </si>
+  <si>
+    <t>2025-11-10</t>
+  </si>
+  <si>
+    <t>2026-01-10</t>
+  </si>
+  <si>
+    <t>2026-03-10</t>
+  </si>
+  <si>
+    <t>2026-05-10</t>
+  </si>
+  <si>
+    <t>2026-07-10</t>
+  </si>
+  <si>
+    <t>2026-11-10</t>
+  </si>
+  <si>
+    <t>2027-01-10</t>
+  </si>
+  <si>
+    <t>2027-02-10</t>
+  </si>
+  <si>
+    <t>2027-03-10</t>
+  </si>
+  <si>
+    <t>2028-02-10</t>
+  </si>
+  <si>
+    <t>2028-03-10</t>
+  </si>
+  <si>
+    <t>2028-05-10</t>
+  </si>
+  <si>
+    <t>2028-07-10</t>
+  </si>
+  <si>
+    <t>2028-11-10</t>
+  </si>
+  <si>
+    <t>2029-02-10</t>
+  </si>
+  <si>
+    <t>2029-06-10</t>
+  </si>
+  <si>
+    <t>2030-11-10</t>
   </si>
 </sst>
 </file>
@@ -1607,7 +1607,7 @@
         <v>48</v>
       </c>
       <c r="B48" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -1615,7 +1615,7 @@
         <v>49</v>
       </c>
       <c r="B49" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -1623,7 +1623,7 @@
         <v>50</v>
       </c>
       <c r="B50" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -1631,7 +1631,7 @@
         <v>51</v>
       </c>
       <c r="B51" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -1647,7 +1647,7 @@
         <v>53</v>
       </c>
       <c r="B53" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
     </row>
     <row r="54" spans="1:2">
@@ -1655,7 +1655,7 @@
         <v>54</v>
       </c>
       <c r="B54" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
     </row>
     <row r="55" spans="1:2">
@@ -1671,7 +1671,7 @@
         <v>56</v>
       </c>
       <c r="B56" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
     </row>
     <row r="57" spans="1:2">
@@ -1695,7 +1695,7 @@
         <v>59</v>
       </c>
       <c r="B59" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
     </row>
     <row r="60" spans="1:2">
@@ -1703,7 +1703,7 @@
         <v>60</v>
       </c>
       <c r="B60" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
     </row>
     <row r="61" spans="1:2">
@@ -1711,7 +1711,7 @@
         <v>61</v>
       </c>
       <c r="B61" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="62" spans="1:2">
@@ -1719,7 +1719,7 @@
         <v>62</v>
       </c>
       <c r="B62" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
     <row r="63" spans="1:2">
@@ -1735,7 +1735,7 @@
         <v>64</v>
       </c>
       <c r="B64" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="65" spans="1:2">
@@ -1743,7 +1743,7 @@
         <v>65</v>
       </c>
       <c r="B65" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
     <row r="66" spans="1:2">
@@ -1751,7 +1751,7 @@
         <v>66</v>
       </c>
       <c r="B66" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
     </row>
     <row r="67" spans="1:2">
@@ -1767,7 +1767,7 @@
         <v>68</v>
       </c>
       <c r="B68" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
     </row>
     <row r="69" spans="1:2">
@@ -1791,7 +1791,7 @@
         <v>71</v>
       </c>
       <c r="B71" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
     </row>
     <row r="72" spans="1:2">
@@ -1815,7 +1815,7 @@
         <v>74</v>
       </c>
       <c r="B74" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
     </row>
     <row r="75" spans="1:2">
@@ -1831,7 +1831,7 @@
         <v>76</v>
       </c>
       <c r="B76" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="77" spans="1:2">
@@ -1855,7 +1855,7 @@
         <v>79</v>
       </c>
       <c r="B79" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="80" spans="1:2">
@@ -1871,7 +1871,7 @@
         <v>81</v>
       </c>
       <c r="B81" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="82" spans="1:2">
@@ -1879,7 +1879,7 @@
         <v>82</v>
       </c>
       <c r="B82" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="83" spans="1:2">
@@ -1895,7 +1895,7 @@
         <v>84</v>
       </c>
       <c r="B84" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="85" spans="1:2">
@@ -1903,7 +1903,7 @@
         <v>85</v>
       </c>
       <c r="B85" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="86" spans="1:2">
@@ -1919,7 +1919,7 @@
         <v>87</v>
       </c>
       <c r="B87" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="88" spans="1:2">
@@ -1951,7 +1951,7 @@
         <v>91</v>
       </c>
       <c r="B91" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="92" spans="1:2">
@@ -1967,7 +1967,7 @@
         <v>93</v>
       </c>
       <c r="B93" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
     </row>
     <row r="94" spans="1:2">
@@ -2055,7 +2055,7 @@
         <v>104</v>
       </c>
       <c r="B104" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="105" spans="1:2">
@@ -2063,7 +2063,7 @@
         <v>105</v>
       </c>
       <c r="B105" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="106" spans="1:2">
@@ -2079,7 +2079,7 @@
         <v>107</v>
       </c>
       <c r="B107" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
     </row>
     <row r="108" spans="1:2">
@@ -2087,7 +2087,7 @@
         <v>108</v>
       </c>
       <c r="B108" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
     </row>
     <row r="109" spans="1:2">
@@ -2127,7 +2127,7 @@
         <v>113</v>
       </c>
       <c r="B113" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
     </row>
     <row r="114" spans="1:2">
@@ -2135,7 +2135,7 @@
         <v>114</v>
       </c>
       <c r="B114" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="115" spans="1:2">
@@ -2159,7 +2159,7 @@
         <v>117</v>
       </c>
       <c r="B117" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
     </row>
     <row r="118" spans="1:2">
@@ -2167,7 +2167,7 @@
         <v>118</v>
       </c>
       <c r="B118" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
     </row>
     <row r="119" spans="1:2">
@@ -2183,7 +2183,7 @@
         <v>120</v>
       </c>
       <c r="B120" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
     </row>
     <row r="121" spans="1:2">
@@ -2191,7 +2191,7 @@
         <v>121</v>
       </c>
       <c r="B121" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
     <row r="122" spans="1:2">
@@ -2199,7 +2199,7 @@
         <v>122</v>
       </c>
       <c r="B122" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="123" spans="1:2">
@@ -2215,7 +2215,7 @@
         <v>124</v>
       </c>
       <c r="B124" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="125" spans="1:2">
@@ -2223,7 +2223,7 @@
         <v>125</v>
       </c>
       <c r="B125" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="126" spans="1:2">
@@ -2247,7 +2247,7 @@
         <v>128</v>
       </c>
       <c r="B128" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
     <row r="129" spans="1:2">
@@ -2271,7 +2271,7 @@
         <v>131</v>
       </c>
       <c r="B131" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
     <row r="132" spans="1:2">
@@ -2287,7 +2287,7 @@
         <v>133</v>
       </c>
       <c r="B133" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="134" spans="1:2">
@@ -2327,7 +2327,7 @@
         <v>138</v>
       </c>
       <c r="B138" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="139" spans="1:2">
@@ -2367,7 +2367,7 @@
         <v>143</v>
       </c>
       <c r="B143" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="144" spans="1:2">
@@ -2407,7 +2407,7 @@
         <v>148</v>
       </c>
       <c r="B148" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
     </row>
     <row r="149" spans="1:2">
@@ -2431,7 +2431,7 @@
         <v>151</v>
       </c>
       <c r="B151" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
     </row>
     <row r="152" spans="1:2">
@@ -2463,7 +2463,7 @@
         <v>155</v>
       </c>
       <c r="B155" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="156" spans="1:2">
@@ -2487,7 +2487,7 @@
         <v>158</v>
       </c>
       <c r="B158" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
     </row>
     <row r="159" spans="1:2">
@@ -2511,7 +2511,7 @@
         <v>161</v>
       </c>
       <c r="B161" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
     </row>
     <row r="162" spans="1:2">
@@ -2551,7 +2551,7 @@
         <v>166</v>
       </c>
       <c r="B166" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
     </row>
     <row r="167" spans="1:2">
@@ -2575,7 +2575,7 @@
         <v>169</v>
       </c>
       <c r="B169" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="170" spans="1:2">

--- a/lothiancriticalcare/1a74f8f7b8b7e871b413c4697f68b4401fbacdf0/reviewdates.xlsx
+++ b/lothiancriticalcare/1a74f8f7b8b7e871b413c4697f68b4401fbacdf0/reviewdates.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="283">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="284">
   <si>
     <t>File</t>
   </si>
@@ -61,33 +61,33 @@
     <t>Routine_Care/Tracheostomy_nursing_care.pdf</t>
   </si>
   <si>
+    <t>ECLS/Extra Corporeal Carbon Dioxide Removal.pdf</t>
+  </si>
+  <si>
     <t>Airway/Critical care extubation checklist.pdf</t>
   </si>
   <si>
-    <t>ECLS/Extra Corporeal Carbon Dioxide Removal.pdf</t>
-  </si>
-  <si>
     <t>Airway/Tracheostomy_Laryngectomy/Hospital_in-patients_with_a_Tracheostomy.pdf</t>
   </si>
   <si>
     <t>Drugs/diazepam_diazemuls.pdf</t>
   </si>
   <si>
+    <t>Breathing(Respiratory)/salbutamol and ipratroprium MDI.pdf</t>
+  </si>
+  <si>
     <t>End_of_life_care/Reasons to report a death to PF.pdf</t>
   </si>
   <si>
-    <t>Breathing(Respiratory)/salbutamol and ipratroprium MDI.pdf</t>
+    <t>Airway/Tracheostomy_Laryngectomy/Tracheostomy change in Critical Care.pdf</t>
+  </si>
+  <si>
+    <t>Neurological/SOP -  Femoral site care.pdf</t>
   </si>
   <si>
     <t>Airway/Tracheostomy_Laryngectomy/Tracheostomy suctioning cleaning guideline.pdf</t>
   </si>
   <si>
-    <t>Airway/Tracheostomy_Laryngectomy/Tracheostomy change in Critical Care.pdf</t>
-  </si>
-  <si>
-    <t>Neurological/SOP -  Femoral site care.pdf</t>
-  </si>
-  <si>
     <t>Drugs/sodium_bicarbonate.pdf</t>
   </si>
   <si>
@@ -100,12 +100,12 @@
     <t>Diabetes_and_Glucose/Hyperosmolar Hyperglycaemic State.pdf</t>
   </si>
   <si>
+    <t>Airway/Emergency intubation checklist_em_pub.pdf</t>
+  </si>
+  <si>
     <t>Drugs/heparin for Haemofiltration.pdf</t>
   </si>
   <si>
-    <t>Airway/Emergency intubation checklist_em_pub.pdf</t>
-  </si>
-  <si>
     <t>Covid-19/WGH/CoVid intubation checklist WGH.pdf</t>
   </si>
   <si>
@@ -139,24 +139,24 @@
     <t>Delirium/Risk assessment posi mit.pdf</t>
   </si>
   <si>
+    <t>Airway/Tracheostomy_Laryngectomy/Tracheostomy safety box contents.pdf</t>
+  </si>
+  <si>
     <t>Breathing(Respiratory)/HFNO.pdf</t>
   </si>
   <si>
+    <t>Airway/Anticipated difficult airway tool.pdf</t>
+  </si>
+  <si>
+    <t>GI_Liver_and_Transplant/Abdominal pressure measurement.pdf</t>
+  </si>
+  <si>
     <t>Neurological/Sub arachnoid haemorrhage management.pdf</t>
   </si>
   <si>
-    <t>Airway/Anticipated difficult airway tool.pdf</t>
-  </si>
-  <si>
     <t>Airway/McGrath Mac.pdf</t>
   </si>
   <si>
-    <t>Airway/Tracheostomy_Laryngectomy/Tracheostomy safety box contents.pdf</t>
-  </si>
-  <si>
-    <t>GI_Liver_and_Transplant/Abdominal pressure measurement.pdf</t>
-  </si>
-  <si>
     <t>GI_Liver_and_Transplant/Treatment of constipation.pdf</t>
   </si>
   <si>
@@ -169,27 +169,27 @@
     <t>Routine_Care/bBraun Spaceplus Failure EMERGENCY ACTION CARD_em.pdf</t>
   </si>
   <si>
+    <t>Drugs/insulin.pdf</t>
+  </si>
+  <si>
     <t>Breathing(Respiratory)/Equipment/HFNO Set Up.pdf</t>
   </si>
   <si>
-    <t>Drugs/insulin.pdf</t>
-  </si>
-  <si>
     <t>Breathing(Respiratory)/Inhaled Nitrous Oxide.pdf</t>
   </si>
   <si>
+    <t>Cardiovascular/Steroids for Septic Shock.pdf</t>
+  </si>
+  <si>
     <t>Breathing(Respiratory)/Equipment/APRV.pdf</t>
   </si>
   <si>
-    <t>Cardiovascular/Steroids for Septic Shock.pdf</t>
+    <t>Post_op_care/Epidural Haematoma.pdf</t>
   </si>
   <si>
     <t>Neurological/SOP for review of Neurosurgical patients in ITU by neurosurgical team.pdf</t>
   </si>
   <si>
-    <t>Post_op_care/Epidural Haematoma.pdf</t>
-  </si>
-  <si>
     <t>Breathing(Respiratory)/Equipment/T piece Y piece.pdf</t>
   </si>
   <si>
@@ -220,12 +220,12 @@
     <t>Drugs/Antibiotic doses in CVVHD.pdf</t>
   </si>
   <si>
+    <t>ECLS/RIE ECLS Anti Xa Protocol.pdf</t>
+  </si>
+  <si>
     <t>GI_Liver_and_Transplant/Jejunostomy feeding protocol.pdf</t>
   </si>
   <si>
-    <t>ECLS/RIE ECLS Anti Xa Protocol.pdf</t>
-  </si>
-  <si>
     <t>GI_Liver_and_Transplant/Nasojejunal feeding protocol.pdf</t>
   </si>
   <si>
@@ -244,21 +244,21 @@
     <t>Covid-19/videos/Donning and Doffing Video.pdf</t>
   </si>
   <si>
+    <t>Breathing(Respiratory)/Equipment/Ventilators Circuits Filters and Closed Suction - Set up and Maintenance.pdf</t>
+  </si>
+  <si>
     <t>Drugs/piperacillin_tazobactam extended_infusion.pdf</t>
   </si>
   <si>
-    <t>Breathing(Respiratory)/Equipment/Ventilators Circuits Filters and Closed Suction - Set up and Maintenance.pdf</t>
-  </si>
-  <si>
     <t>Infection_and_sepsis/Infection indications for IVIG.pdf</t>
   </si>
   <si>
+    <t>Covid-19/Covid 19 Death Certification Guideline.pdf</t>
+  </si>
+  <si>
     <t>Procedures/CVC Guidance/Securing CVCs.pdf</t>
   </si>
   <si>
-    <t>Covid-19/Covid 19 Death Certification Guideline.pdf</t>
-  </si>
-  <si>
     <t>Routine_Care/Video Communication.pdf</t>
   </si>
   <si>
@@ -271,12 +271,12 @@
     <t>Haematology_CAR-T/Haem_ICU_transfer.pdf</t>
   </si>
   <si>
+    <t>Cardiovascular/Management of hypertension within Critical Care.pdf</t>
+  </si>
+  <si>
     <t>Drugs/aminophylline.pdf</t>
   </si>
   <si>
-    <t>Cardiovascular/Management of hypertension within Critical Care.pdf</t>
-  </si>
-  <si>
     <t>Haematology_CAR-T/ICANS.pdf</t>
   </si>
   <si>
@@ -289,214 +289,220 @@
     <t>Drugs/phenytoin.pdf</t>
   </si>
   <si>
+    <t>Drugs/milrinone.pdf</t>
+  </si>
+  <si>
     <t>Policies_and_admin/General Critical Care SOP_pub.pdf</t>
   </si>
   <si>
-    <t>Drugs/milrinone.pdf</t>
+    <t>GI_Liver_and_Transplant/ICU - Upper GI bleeding (Endoscopy guideline).pdf</t>
+  </si>
+  <si>
+    <t>Neurological/Management of traumatic brain injury.pdf</t>
+  </si>
+  <si>
+    <t>Infection_and_sepsis/Trip Out of Unit infection guidance.pdf</t>
+  </si>
+  <si>
+    <t>Organ_donation/Organ Retrieval SOP.pdf</t>
+  </si>
+  <si>
+    <t>Drugs/clonidine.pdf</t>
+  </si>
+  <si>
+    <t>Ethics_and_Law/Care at the End of Life (FICM).pdf</t>
+  </si>
+  <si>
+    <t>Ethics_and_Law/DNACPR policy for Scotland.pdf</t>
+  </si>
+  <si>
+    <t>Neurological/Critical Care MRI Procedure_pub.pdf</t>
   </si>
   <si>
     <t>End_of_life_care/CMO &amp; NRS Guidance for Doctors completing MCCD.pdf</t>
   </si>
   <si>
-    <t>Drugs/clonidine.pdf</t>
-  </si>
-  <si>
-    <t>GI_Liver_and_Transplant/ICU - Upper GI bleeding (Endoscopy guideline).pdf</t>
-  </si>
-  <si>
-    <t>Neurological/Management of traumatic brain injury.pdf</t>
-  </si>
-  <si>
-    <t>Infection_and_sepsis/Trip Out of Unit infection guidance.pdf</t>
-  </si>
-  <si>
     <t>End_of_life_care/Palliative extubation &amp; withdrawal of invasive ventilatory support nursing checklist.pdf</t>
   </si>
   <si>
-    <t>Ethics_and_Law/DNACPR policy for Scotland.pdf</t>
-  </si>
-  <si>
-    <t>Organ_donation/Organ Retrieval SOP.pdf</t>
-  </si>
-  <si>
-    <t>Ethics_and_Law/Care at the End of Life (FICM).pdf</t>
-  </si>
-  <si>
-    <t>Neurological/Critical Care MRI Procedure_pub.pdf</t>
-  </si>
-  <si>
     <t>Covid-19/COVID 19 ICM guidance basic goals_June_2022.pdf</t>
   </si>
   <si>
     <t>Airway/Cook Staged Extubation Set.pdf</t>
   </si>
   <si>
+    <t>Post_op_care/Epidural hypotension.pdf</t>
+  </si>
+  <si>
+    <t>End_of_life_care/End of Life Care Guideline for Critical Care.pdf</t>
+  </si>
+  <si>
     <t>Drugs/noradrenaline (central).pdf</t>
   </si>
   <si>
-    <t>End_of_life_care/End of Life Care Guideline for Critical Care.pdf</t>
-  </si>
-  <si>
-    <t>Post_op_care/Epidural hypotension.pdf</t>
+    <t>Infection_and_sepsis/Antifungal guidance in critical care.pdf</t>
+  </si>
+  <si>
+    <t>GI_Liver_and_Transplant/Confirmation of Nasogastric Tube Position.pdf</t>
+  </si>
+  <si>
+    <t>Drugs/glyceryl_trinitrate.pdf</t>
   </si>
   <si>
     <t>Breathing(Respiratory)/Equipment/Passy Muir Valve.pdf</t>
   </si>
   <si>
-    <t>GI_Liver_and_Transplant/Confirmation of Nasogastric Tube Position.pdf</t>
-  </si>
-  <si>
-    <t>Drugs/glyceryl_trinitrate.pdf</t>
+    <t>Drugs/dexmedetomidine.pdf</t>
   </si>
   <si>
     <t>GI_Liver_and_Transplant/Fulminant Liver Failure.pdf</t>
   </si>
   <si>
-    <t>Drugs/dexmedetomidine.pdf</t>
-  </si>
-  <si>
-    <t>Infection_and_sepsis/Antifungal guidance in critical care.pdf</t>
+    <t>Breathing(Respiratory)/ARDS Strategy.pdf</t>
+  </si>
+  <si>
+    <t>Transfer/Transfer Outdoors to Garden Guideline.pdf</t>
+  </si>
+  <si>
+    <t>Cardiovascular/Intra Aortic Balloon Pump Bedside Checks_pub.pdf</t>
   </si>
   <si>
     <t>Cardiovascular/Intra Aortic Balloon Pump Guideline_pub.pdf</t>
   </si>
   <si>
-    <t>Cardiovascular/Intra Aortic Balloon Pump Bedside Checks_pub.pdf</t>
-  </si>
-  <si>
-    <t>Transfer/Transfer Outdoors to Garden Guideline.pdf</t>
-  </si>
-  <si>
-    <t>Breathing(Respiratory)/ARDS Strategy.pdf</t>
+    <t>Drugs/hydralazine.pdf</t>
+  </si>
+  <si>
+    <t>Drugs/adrenaline.pdf</t>
   </si>
   <si>
     <t>Drugs/Dobutamine.pdf</t>
   </si>
   <si>
-    <t>Drugs/adrenaline.pdf</t>
-  </si>
-  <si>
-    <t>Drugs/hydralazine.pdf</t>
-  </si>
-  <si>
     <t>Post_op_care/Major OMFS Free Flap.pdf</t>
   </si>
   <si>
+    <t>Drugs/alfentanil.pdf</t>
+  </si>
+  <si>
     <t>Drugs/Alteplase for massive PE.pdf</t>
   </si>
   <si>
-    <t>Drugs/alfentanil.pdf</t>
-  </si>
-  <si>
     <t>Drugs/magnesium.pdf</t>
   </si>
   <si>
     <t>Drugs/vancomycin continuous infusion.pdf</t>
   </si>
   <si>
+    <t>Drugs/ICU - IV drug infusions.pdf</t>
+  </si>
+  <si>
     <t>Drugs/neostigmine.pdf</t>
   </si>
   <si>
-    <t>Drugs/ICU - IV drug infusions.pdf</t>
+    <t>Drugs/labetalol.pdf</t>
   </si>
   <si>
     <t>Infection_and_sepsis/Initial investigation and management in unidentified Infections.pdf</t>
   </si>
   <si>
-    <t>Drugs/labetalol.pdf</t>
-  </si>
-  <si>
     <t>Neurological/Intrathecal policy RIE.pdf</t>
   </si>
   <si>
+    <t>Cardiovascular/Management of Acute Type B Aortic Dissection Guideline.pdf</t>
+  </si>
+  <si>
     <t>Drugs/midazolam.pdf</t>
   </si>
   <si>
-    <t>Cardiovascular/Management of Acute Type B Aortic Dissection Guideline.pdf</t>
+    <t>Procedures/CVC Guidance/CVC NHL  April 2023.pdf</t>
+  </si>
+  <si>
+    <t>Drugs/salbutamol.pdf</t>
+  </si>
+  <si>
+    <t>Drugs/nimodipine.pdf</t>
   </si>
   <si>
     <t>Drugs/potassium.pdf</t>
   </si>
   <si>
-    <t>Drugs/nimodipine.pdf</t>
-  </si>
-  <si>
-    <t>Drugs/salbutamol.pdf</t>
-  </si>
-  <si>
     <t>Trauma and Burns/Management of Severe Burns v1.6.pdf</t>
   </si>
   <si>
-    <t>Procedures/CVC Guidance/CVC NHL  April 2023.pdf</t>
+    <t>Drugs/nicardipine.pdf</t>
+  </si>
+  <si>
+    <t>Drugs/phenobarbitone.pdf</t>
+  </si>
+  <si>
+    <t>Routine_Care/ICU Eye Care Guideline.pdf</t>
+  </si>
+  <si>
+    <t>Procedures/Arterial Line insertion for ACCPs.pdf</t>
   </si>
   <si>
     <t>Drugs/amiodarone.pdf</t>
   </si>
   <si>
-    <t>Procedures/Arterial Line insertion for ACCPs.pdf</t>
-  </si>
-  <si>
-    <t>Routine_Care/ICU Eye Care Guideline.pdf</t>
-  </si>
-  <si>
-    <t>Drugs/nicardipine.pdf</t>
-  </si>
-  <si>
-    <t>Drugs/phenobarbitone.pdf</t>
+    <t>Neurological/Ventriculitis Guideline.pdf</t>
   </si>
   <si>
     <t>Drugs/morphine.pdf</t>
   </si>
   <si>
+    <t>Drugs/Epoprostenol.pdf</t>
+  </si>
+  <si>
     <t>Drugs/phenylephrine.pdf</t>
   </si>
   <si>
-    <t>Drugs/Epoprostenol.pdf</t>
-  </si>
-  <si>
     <t>Breathing(Respiratory)/Manual Ventilation and MHI.pdf</t>
   </si>
   <si>
-    <t>Neurological/Ventriculitis Guideline.pdf</t>
+    <t>Drugs/calcium.pdf</t>
+  </si>
+  <si>
+    <t>Cardiovascular/Cardiac Output Monitoring_pub .pdf</t>
   </si>
   <si>
     <t>Cardiovascular/Pulmonary_Embolism_and_DVT/Catheter directed thrombolysis of iliofemoral DVT alteplase_pub.pdf</t>
   </si>
   <si>
-    <t>Drugs/calcium.pdf</t>
-  </si>
-  <si>
-    <t>Cardiovascular/Cardiac Output Monitoring_pub .pdf</t>
+    <t>Airway/Tracheostomy_Laryngectomy/Decannulation Guidline.pdf</t>
+  </si>
+  <si>
+    <t>Drugs/dalteparin_thromboprophylaxis.pdf</t>
+  </si>
+  <si>
+    <t>Drugs/atracurium.pdf</t>
   </si>
   <si>
     <t>Drugs/Vancomycin continuous infusion Fluid Restricted.pdf</t>
   </si>
   <si>
-    <t>Airway/Tracheostomy_Laryngectomy/Decannulation Guidline.pdf</t>
-  </si>
-  <si>
-    <t>Drugs/atracurium.pdf</t>
-  </si>
-  <si>
-    <t>Drugs/dalteparin_thromboprophylaxis.pdf</t>
+    <t>Policies_and_admin/Pet Visitation.pdf</t>
   </si>
   <si>
     <t>Procedures/Inadvertent Catheter Placement Guideline.pdf</t>
   </si>
   <si>
-    <t>Policies_and_admin/Pet Visitation.pdf</t>
-  </si>
-  <si>
     <t>Drugs/valproate.pdf</t>
   </si>
   <si>
     <t>Drugs/ketamine_for_status epilepticus.pdf</t>
   </si>
   <si>
+    <t>Drugs/Phosphate.pdf</t>
+  </si>
+  <si>
     <t>Drugs/stress ulcer prophylaxis.pdf</t>
   </si>
   <si>
-    <t>Drugs/Phosphate.pdf</t>
+    <t>GI_Liver_and_Transplant/Prokinetics in ICU.pdf</t>
+  </si>
+  <si>
+    <t>Neurological/Status epilepticus.pdf</t>
   </si>
   <si>
     <t>Drugs/Thiopentone.pdf</t>
@@ -508,12 +514,6 @@
     <t>Drugs/Octreotide.pdf</t>
   </si>
   <si>
-    <t>GI_Liver_and_Transplant/Prokinetics in ICU.pdf</t>
-  </si>
-  <si>
-    <t>Neurological/Status epilepticus.pdf</t>
-  </si>
-  <si>
     <t>Procedures/ACCP CVC placement following completion of initial competencies.pdf</t>
   </si>
   <si>
@@ -523,12 +523,12 @@
     <t>Post_op_care/Prevention and treatment of paraplegia after major aortic procedures.pdf</t>
   </si>
   <si>
+    <t>Delirium/Violence and Agression.pdf</t>
+  </si>
+  <si>
     <t>Drugs/Ketamine_in_asthma.pdf</t>
   </si>
   <si>
-    <t>Delirium/Violence and Agression.pdf</t>
-  </si>
-  <si>
     <t>Drugs/Rocuronium.pdf</t>
   </si>
   <si>
@@ -571,213 +571,216 @@
     <t>GI_Liver_and_Transplant/Nasal Bridle use in Critical Care.pdf</t>
   </si>
   <si>
+    <t>GI_Liver_and_Transplant/Pabrinex.pdf</t>
+  </si>
+  <si>
+    <t>Cardiovascular/Focused TOE Guideline for General Critical Care_pub.pdf</t>
+  </si>
+  <si>
     <t>Drugs/Pabrinex.pdf</t>
   </si>
   <si>
-    <t>GI_Liver_and_Transplant/Pabrinex.pdf</t>
-  </si>
-  <si>
-    <t>Cardiovascular/Focused TOE Guideline for General Critical Care_pub.pdf</t>
-  </si>
-  <si>
     <t>Policies_and_admin/Repatriaiton Checklist for Critical Care.pdf</t>
   </si>
   <si>
-    <t>2011-03-10</t>
-  </si>
-  <si>
-    <t>2011-06-10</t>
-  </si>
-  <si>
-    <t>2011-07-10</t>
-  </si>
-  <si>
-    <t>2011-12-10</t>
-  </si>
-  <si>
-    <t>2014-09-10</t>
-  </si>
-  <si>
-    <t>2014-10-10</t>
-  </si>
-  <si>
-    <t>2014-11-10</t>
-  </si>
-  <si>
-    <t>2014-12-10</t>
-  </si>
-  <si>
-    <t>2015-03-10</t>
-  </si>
-  <si>
-    <t>2016-04-10</t>
-  </si>
-  <si>
-    <t>2016-08-10</t>
-  </si>
-  <si>
-    <t>2017-01-10</t>
-  </si>
-  <si>
-    <t>2017-08-10</t>
-  </si>
-  <si>
-    <t>2017-10-10</t>
-  </si>
-  <si>
-    <t>2017-11-10</t>
-  </si>
-  <si>
-    <t>2018-07-10</t>
-  </si>
-  <si>
-    <t>2019-05-10</t>
-  </si>
-  <si>
-    <t>2019-06-10</t>
-  </si>
-  <si>
-    <t>2019-08-10</t>
-  </si>
-  <si>
-    <t>2019-09-10</t>
-  </si>
-  <si>
-    <t>2020-01-10</t>
-  </si>
-  <si>
-    <t>2020-03-10</t>
-  </si>
-  <si>
-    <t>2020-04-10</t>
-  </si>
-  <si>
-    <t>2020-05-10</t>
-  </si>
-  <si>
-    <t>2020-07-10</t>
-  </si>
-  <si>
-    <t>2020-08-10</t>
-  </si>
-  <si>
-    <t>2020-11-10</t>
-  </si>
-  <si>
-    <t>2021-02-10</t>
-  </si>
-  <si>
-    <t>2021-05-10</t>
-  </si>
-  <si>
-    <t>2021-06-10</t>
-  </si>
-  <si>
-    <t>2021-09-10</t>
-  </si>
-  <si>
-    <t>2021-12-10</t>
-  </si>
-  <si>
-    <t>2022-01-10</t>
-  </si>
-  <si>
-    <t>2022-03-10</t>
-  </si>
-  <si>
-    <t>2022-04-10</t>
-  </si>
-  <si>
-    <t>2022-05-10</t>
-  </si>
-  <si>
-    <t>2022-06-10</t>
-  </si>
-  <si>
-    <t>2022-07-10</t>
-  </si>
-  <si>
-    <t>2022-08-10</t>
-  </si>
-  <si>
-    <t>2022-10-10</t>
-  </si>
-  <si>
-    <t>2022-11-10</t>
-  </si>
-  <si>
-    <t>2022-12-10</t>
-  </si>
-  <si>
-    <t>2023-01-10</t>
-  </si>
-  <si>
-    <t>2023-02-10</t>
-  </si>
-  <si>
-    <t>2023-04-10</t>
-  </si>
-  <si>
-    <t>2023-05-10</t>
-  </si>
-  <si>
-    <t>2023-06-10</t>
-  </si>
-  <si>
-    <t>2023-07-10</t>
-  </si>
-  <si>
-    <t>2023-08-10</t>
-  </si>
-  <si>
-    <t>2023-09-10</t>
-  </si>
-  <si>
-    <t>2023-10-10</t>
-  </si>
-  <si>
-    <t>2024-01-10</t>
-  </si>
-  <si>
-    <t>2024-02-10</t>
-  </si>
-  <si>
-    <t>2024-03-10</t>
-  </si>
-  <si>
-    <t>2024-04-10</t>
-  </si>
-  <si>
-    <t>2024-05-10</t>
+    <t>Transfer/Repatriaiton Checklist for Critical Care.pdf</t>
+  </si>
+  <si>
+    <t>2011-03-27</t>
+  </si>
+  <si>
+    <t>2011-06-27</t>
+  </si>
+  <si>
+    <t>2011-07-27</t>
+  </si>
+  <si>
+    <t>2011-12-27</t>
+  </si>
+  <si>
+    <t>2014-09-27</t>
+  </si>
+  <si>
+    <t>2014-10-27</t>
+  </si>
+  <si>
+    <t>2014-11-27</t>
+  </si>
+  <si>
+    <t>2014-12-27</t>
+  </si>
+  <si>
+    <t>2015-03-27</t>
+  </si>
+  <si>
+    <t>2016-04-27</t>
+  </si>
+  <si>
+    <t>2016-08-27</t>
+  </si>
+  <si>
+    <t>2017-01-27</t>
+  </si>
+  <si>
+    <t>2017-08-27</t>
+  </si>
+  <si>
+    <t>2017-10-27</t>
+  </si>
+  <si>
+    <t>2017-11-27</t>
+  </si>
+  <si>
+    <t>2018-07-27</t>
+  </si>
+  <si>
+    <t>2019-05-27</t>
+  </si>
+  <si>
+    <t>2019-06-27</t>
+  </si>
+  <si>
+    <t>2019-08-27</t>
+  </si>
+  <si>
+    <t>2019-09-27</t>
+  </si>
+  <si>
+    <t>2020-01-27</t>
+  </si>
+  <si>
+    <t>2020-03-27</t>
+  </si>
+  <si>
+    <t>2020-04-27</t>
+  </si>
+  <si>
+    <t>2020-05-27</t>
+  </si>
+  <si>
+    <t>2020-07-27</t>
+  </si>
+  <si>
+    <t>2020-08-27</t>
+  </si>
+  <si>
+    <t>2020-11-27</t>
+  </si>
+  <si>
+    <t>2021-02-27</t>
+  </si>
+  <si>
+    <t>2021-05-27</t>
+  </si>
+  <si>
+    <t>2021-06-27</t>
+  </si>
+  <si>
+    <t>2021-09-27</t>
+  </si>
+  <si>
+    <t>2021-12-27</t>
+  </si>
+  <si>
+    <t>2022-01-27</t>
+  </si>
+  <si>
+    <t>2022-03-27</t>
+  </si>
+  <si>
+    <t>2022-04-27</t>
+  </si>
+  <si>
+    <t>2022-05-27</t>
+  </si>
+  <si>
+    <t>2022-06-27</t>
+  </si>
+  <si>
+    <t>2022-07-27</t>
+  </si>
+  <si>
+    <t>2022-08-27</t>
+  </si>
+  <si>
+    <t>2022-10-27</t>
+  </si>
+  <si>
+    <t>2022-11-27</t>
+  </si>
+  <si>
+    <t>2022-12-27</t>
+  </si>
+  <si>
+    <t>2023-01-27</t>
+  </si>
+  <si>
+    <t>2023-02-27</t>
+  </si>
+  <si>
+    <t>2023-04-27</t>
+  </si>
+  <si>
+    <t>2023-05-27</t>
+  </si>
+  <si>
+    <t>2023-06-27</t>
+  </si>
+  <si>
+    <t>2023-07-27</t>
+  </si>
+  <si>
+    <t>2023-08-27</t>
+  </si>
+  <si>
+    <t>2023-09-27</t>
+  </si>
+  <si>
+    <t>2023-10-27</t>
+  </si>
+  <si>
+    <t>2024-01-27</t>
+  </si>
+  <si>
+    <t>2024-02-27</t>
+  </si>
+  <si>
+    <t>2024-03-27</t>
+  </si>
+  <si>
+    <t>2024-04-27</t>
+  </si>
+  <si>
+    <t>2024-05-27</t>
   </si>
   <si>
     <t>2024-06-02</t>
   </si>
   <si>
-    <t>2024-06-10</t>
-  </si>
-  <si>
     <t>2024-06-26</t>
   </si>
   <si>
-    <t>2024-07-10</t>
+    <t>2024-06-27</t>
   </si>
   <si>
     <t>2024-07-25</t>
   </si>
   <si>
-    <t>2024-08-10</t>
+    <t>2024-07-27</t>
   </si>
   <si>
     <t>2024-08-15</t>
   </si>
   <si>
-    <t>2024-10-10</t>
+    <t>2024-08-27</t>
   </si>
   <si>
     <t>2024-10-24</t>
   </si>
   <si>
+    <t>2024-10-27</t>
+  </si>
+  <si>
     <t>2024-11-20</t>
   </si>
   <si>
@@ -787,82 +790,82 @@
     <t>2024-12-24</t>
   </si>
   <si>
-    <t>2025-01-10</t>
-  </si>
-  <si>
-    <t>2025-02-10</t>
-  </si>
-  <si>
-    <t>2025-03-10</t>
-  </si>
-  <si>
-    <t>2025-04-10</t>
-  </si>
-  <si>
-    <t>2025-05-10</t>
-  </si>
-  <si>
-    <t>2025-06-10</t>
-  </si>
-  <si>
-    <t>2025-07-10</t>
-  </si>
-  <si>
-    <t>2025-08-10</t>
-  </si>
-  <si>
-    <t>2025-10-10</t>
-  </si>
-  <si>
-    <t>2025-11-10</t>
-  </si>
-  <si>
-    <t>2026-01-10</t>
-  </si>
-  <si>
-    <t>2026-03-10</t>
-  </si>
-  <si>
-    <t>2026-05-10</t>
-  </si>
-  <si>
-    <t>2026-07-10</t>
-  </si>
-  <si>
-    <t>2026-11-10</t>
-  </si>
-  <si>
-    <t>2027-01-10</t>
-  </si>
-  <si>
-    <t>2027-02-10</t>
-  </si>
-  <si>
-    <t>2027-03-10</t>
-  </si>
-  <si>
-    <t>2028-02-10</t>
-  </si>
-  <si>
-    <t>2028-03-10</t>
-  </si>
-  <si>
-    <t>2028-05-10</t>
-  </si>
-  <si>
-    <t>2028-07-10</t>
-  </si>
-  <si>
-    <t>2028-11-10</t>
-  </si>
-  <si>
-    <t>2029-02-10</t>
-  </si>
-  <si>
-    <t>2029-06-10</t>
-  </si>
-  <si>
-    <t>2030-11-10</t>
+    <t>2025-01-27</t>
+  </si>
+  <si>
+    <t>2025-02-27</t>
+  </si>
+  <si>
+    <t>2025-03-27</t>
+  </si>
+  <si>
+    <t>2025-04-27</t>
+  </si>
+  <si>
+    <t>2025-05-27</t>
+  </si>
+  <si>
+    <t>2025-06-27</t>
+  </si>
+  <si>
+    <t>2025-07-27</t>
+  </si>
+  <si>
+    <t>2025-08-27</t>
+  </si>
+  <si>
+    <t>2025-10-27</t>
+  </si>
+  <si>
+    <t>2025-11-27</t>
+  </si>
+  <si>
+    <t>2026-01-27</t>
+  </si>
+  <si>
+    <t>2026-03-27</t>
+  </si>
+  <si>
+    <t>2026-05-27</t>
+  </si>
+  <si>
+    <t>2026-07-27</t>
+  </si>
+  <si>
+    <t>2026-11-27</t>
+  </si>
+  <si>
+    <t>2027-01-27</t>
+  </si>
+  <si>
+    <t>2027-02-27</t>
+  </si>
+  <si>
+    <t>2027-03-27</t>
+  </si>
+  <si>
+    <t>2028-02-27</t>
+  </si>
+  <si>
+    <t>2028-03-27</t>
+  </si>
+  <si>
+    <t>2028-05-27</t>
+  </si>
+  <si>
+    <t>2028-07-27</t>
+  </si>
+  <si>
+    <t>2028-11-27</t>
+  </si>
+  <si>
+    <t>2029-02-27</t>
+  </si>
+  <si>
+    <t>2029-06-27</t>
+  </si>
+  <si>
+    <t>2030-11-27</t>
   </si>
 </sst>
 </file>
@@ -1220,7 +1223,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B188"/>
+  <dimension ref="A1:B189"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1239,7 +1242,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -1247,7 +1250,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -1255,7 +1258,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -1263,7 +1266,7 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -1271,7 +1274,7 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -1279,7 +1282,7 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -1287,7 +1290,7 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -1295,7 +1298,7 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -1303,7 +1306,7 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -1311,7 +1314,7 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -1319,7 +1322,7 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -1327,7 +1330,7 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -1335,7 +1338,7 @@
         <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -1343,7 +1346,7 @@
         <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -1351,7 +1354,7 @@
         <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -1359,7 +1362,7 @@
         <v>17</v>
       </c>
       <c r="B17" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -1367,7 +1370,7 @@
         <v>18</v>
       </c>
       <c r="B18" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -1375,7 +1378,7 @@
         <v>19</v>
       </c>
       <c r="B19" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -1383,7 +1386,7 @@
         <v>20</v>
       </c>
       <c r="B20" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -1391,7 +1394,7 @@
         <v>21</v>
       </c>
       <c r="B21" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -1399,7 +1402,7 @@
         <v>22</v>
       </c>
       <c r="B22" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -1407,7 +1410,7 @@
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -1415,7 +1418,7 @@
         <v>24</v>
       </c>
       <c r="B24" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -1423,7 +1426,7 @@
         <v>25</v>
       </c>
       <c r="B25" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -1431,7 +1434,7 @@
         <v>26</v>
       </c>
       <c r="B26" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -1439,7 +1442,7 @@
         <v>27</v>
       </c>
       <c r="B27" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -1447,7 +1450,7 @@
         <v>28</v>
       </c>
       <c r="B28" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -1455,7 +1458,7 @@
         <v>29</v>
       </c>
       <c r="B29" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -1463,7 +1466,7 @@
         <v>30</v>
       </c>
       <c r="B30" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -1471,7 +1474,7 @@
         <v>31</v>
       </c>
       <c r="B31" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -1479,7 +1482,7 @@
         <v>32</v>
       </c>
       <c r="B32" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -1487,7 +1490,7 @@
         <v>33</v>
       </c>
       <c r="B33" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -1495,7 +1498,7 @@
         <v>34</v>
       </c>
       <c r="B34" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -1503,7 +1506,7 @@
         <v>35</v>
       </c>
       <c r="B35" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -1511,7 +1514,7 @@
         <v>36</v>
       </c>
       <c r="B36" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -1519,7 +1522,7 @@
         <v>37</v>
       </c>
       <c r="B37" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -1527,7 +1530,7 @@
         <v>38</v>
       </c>
       <c r="B38" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -1535,7 +1538,7 @@
         <v>39</v>
       </c>
       <c r="B39" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -1543,7 +1546,7 @@
         <v>40</v>
       </c>
       <c r="B40" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -1551,7 +1554,7 @@
         <v>41</v>
       </c>
       <c r="B41" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -1559,7 +1562,7 @@
         <v>42</v>
       </c>
       <c r="B42" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -1567,7 +1570,7 @@
         <v>43</v>
       </c>
       <c r="B43" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -1575,7 +1578,7 @@
         <v>44</v>
       </c>
       <c r="B44" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -1583,7 +1586,7 @@
         <v>45</v>
       </c>
       <c r="B45" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -1591,7 +1594,7 @@
         <v>46</v>
       </c>
       <c r="B46" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -1599,7 +1602,7 @@
         <v>47</v>
       </c>
       <c r="B47" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -1607,7 +1610,7 @@
         <v>48</v>
       </c>
       <c r="B48" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -1615,7 +1618,7 @@
         <v>49</v>
       </c>
       <c r="B49" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -1623,7 +1626,7 @@
         <v>50</v>
       </c>
       <c r="B50" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -1631,7 +1634,7 @@
         <v>51</v>
       </c>
       <c r="B51" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -1639,7 +1642,7 @@
         <v>52</v>
       </c>
       <c r="B52" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -1647,7 +1650,7 @@
         <v>53</v>
       </c>
       <c r="B53" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
     </row>
     <row r="54" spans="1:2">
@@ -1655,7 +1658,7 @@
         <v>54</v>
       </c>
       <c r="B54" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
     </row>
     <row r="55" spans="1:2">
@@ -1663,7 +1666,7 @@
         <v>55</v>
       </c>
       <c r="B55" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
     </row>
     <row r="56" spans="1:2">
@@ -1671,7 +1674,7 @@
         <v>56</v>
       </c>
       <c r="B56" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
     </row>
     <row r="57" spans="1:2">
@@ -1679,7 +1682,7 @@
         <v>57</v>
       </c>
       <c r="B57" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
     </row>
     <row r="58" spans="1:2">
@@ -1687,7 +1690,7 @@
         <v>58</v>
       </c>
       <c r="B58" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
     </row>
     <row r="59" spans="1:2">
@@ -1695,7 +1698,7 @@
         <v>59</v>
       </c>
       <c r="B59" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
     </row>
     <row r="60" spans="1:2">
@@ -1703,7 +1706,7 @@
         <v>60</v>
       </c>
       <c r="B60" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="61" spans="1:2">
@@ -1711,7 +1714,7 @@
         <v>61</v>
       </c>
       <c r="B61" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
     <row r="62" spans="1:2">
@@ -1719,7 +1722,7 @@
         <v>62</v>
       </c>
       <c r="B62" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="63" spans="1:2">
@@ -1727,7 +1730,7 @@
         <v>63</v>
       </c>
       <c r="B63" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="64" spans="1:2">
@@ -1735,7 +1738,7 @@
         <v>64</v>
       </c>
       <c r="B64" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
     <row r="65" spans="1:2">
@@ -1743,7 +1746,7 @@
         <v>65</v>
       </c>
       <c r="B65" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
     </row>
     <row r="66" spans="1:2">
@@ -1751,7 +1754,7 @@
         <v>66</v>
       </c>
       <c r="B66" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
     </row>
     <row r="67" spans="1:2">
@@ -1759,7 +1762,7 @@
         <v>67</v>
       </c>
       <c r="B67" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
     </row>
     <row r="68" spans="1:2">
@@ -1767,7 +1770,7 @@
         <v>68</v>
       </c>
       <c r="B68" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
     </row>
     <row r="69" spans="1:2">
@@ -1775,7 +1778,7 @@
         <v>69</v>
       </c>
       <c r="B69" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
     </row>
     <row r="70" spans="1:2">
@@ -1783,7 +1786,7 @@
         <v>70</v>
       </c>
       <c r="B70" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
     </row>
     <row r="71" spans="1:2">
@@ -1791,7 +1794,7 @@
         <v>71</v>
       </c>
       <c r="B71" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
     </row>
     <row r="72" spans="1:2">
@@ -1799,7 +1802,7 @@
         <v>72</v>
       </c>
       <c r="B72" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
     </row>
     <row r="73" spans="1:2">
@@ -1807,7 +1810,7 @@
         <v>73</v>
       </c>
       <c r="B73" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
     </row>
     <row r="74" spans="1:2">
@@ -1815,7 +1818,7 @@
         <v>74</v>
       </c>
       <c r="B74" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="75" spans="1:2">
@@ -1823,7 +1826,7 @@
         <v>75</v>
       </c>
       <c r="B75" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="76" spans="1:2">
@@ -1831,7 +1834,7 @@
         <v>76</v>
       </c>
       <c r="B76" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="77" spans="1:2">
@@ -1839,7 +1842,7 @@
         <v>77</v>
       </c>
       <c r="B77" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="78" spans="1:2">
@@ -1847,7 +1850,7 @@
         <v>78</v>
       </c>
       <c r="B78" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="79" spans="1:2">
@@ -1855,7 +1858,7 @@
         <v>79</v>
       </c>
       <c r="B79" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="80" spans="1:2">
@@ -1863,7 +1866,7 @@
         <v>80</v>
       </c>
       <c r="B80" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="81" spans="1:2">
@@ -1871,7 +1874,7 @@
         <v>81</v>
       </c>
       <c r="B81" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="82" spans="1:2">
@@ -1879,7 +1882,7 @@
         <v>82</v>
       </c>
       <c r="B82" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="83" spans="1:2">
@@ -1887,7 +1890,7 @@
         <v>83</v>
       </c>
       <c r="B83" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="84" spans="1:2">
@@ -1895,7 +1898,7 @@
         <v>84</v>
       </c>
       <c r="B84" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="85" spans="1:2">
@@ -1903,7 +1906,7 @@
         <v>85</v>
       </c>
       <c r="B85" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="86" spans="1:2">
@@ -1911,7 +1914,7 @@
         <v>86</v>
       </c>
       <c r="B86" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="87" spans="1:2">
@@ -1919,7 +1922,7 @@
         <v>87</v>
       </c>
       <c r="B87" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="88" spans="1:2">
@@ -1927,7 +1930,7 @@
         <v>88</v>
       </c>
       <c r="B88" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="89" spans="1:2">
@@ -1935,7 +1938,7 @@
         <v>89</v>
       </c>
       <c r="B89" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="90" spans="1:2">
@@ -1943,7 +1946,7 @@
         <v>90</v>
       </c>
       <c r="B90" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="91" spans="1:2">
@@ -1951,7 +1954,7 @@
         <v>91</v>
       </c>
       <c r="B91" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
     </row>
     <row r="92" spans="1:2">
@@ -1959,7 +1962,7 @@
         <v>92</v>
       </c>
       <c r="B92" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
     </row>
     <row r="93" spans="1:2">
@@ -1967,7 +1970,7 @@
         <v>93</v>
       </c>
       <c r="B93" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="94" spans="1:2">
@@ -1975,7 +1978,7 @@
         <v>94</v>
       </c>
       <c r="B94" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="95" spans="1:2">
@@ -1983,7 +1986,7 @@
         <v>95</v>
       </c>
       <c r="B95" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="96" spans="1:2">
@@ -1991,7 +1994,7 @@
         <v>96</v>
       </c>
       <c r="B96" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="97" spans="1:2">
@@ -1999,7 +2002,7 @@
         <v>97</v>
       </c>
       <c r="B97" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="98" spans="1:2">
@@ -2007,7 +2010,7 @@
         <v>98</v>
       </c>
       <c r="B98" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="99" spans="1:2">
@@ -2015,7 +2018,7 @@
         <v>99</v>
       </c>
       <c r="B99" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="100" spans="1:2">
@@ -2023,7 +2026,7 @@
         <v>100</v>
       </c>
       <c r="B100" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="101" spans="1:2">
@@ -2031,7 +2034,7 @@
         <v>101</v>
       </c>
       <c r="B101" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="102" spans="1:2">
@@ -2039,7 +2042,7 @@
         <v>102</v>
       </c>
       <c r="B102" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="103" spans="1:2">
@@ -2047,7 +2050,7 @@
         <v>103</v>
       </c>
       <c r="B103" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="104" spans="1:2">
@@ -2055,7 +2058,7 @@
         <v>104</v>
       </c>
       <c r="B104" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="105" spans="1:2">
@@ -2063,7 +2066,7 @@
         <v>105</v>
       </c>
       <c r="B105" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
     </row>
     <row r="106" spans="1:2">
@@ -2071,7 +2074,7 @@
         <v>106</v>
       </c>
       <c r="B106" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
     </row>
     <row r="107" spans="1:2">
@@ -2079,7 +2082,7 @@
         <v>107</v>
       </c>
       <c r="B107" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
     </row>
     <row r="108" spans="1:2">
@@ -2087,7 +2090,7 @@
         <v>108</v>
       </c>
       <c r="B108" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
     </row>
     <row r="109" spans="1:2">
@@ -2095,7 +2098,7 @@
         <v>109</v>
       </c>
       <c r="B109" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
     </row>
     <row r="110" spans="1:2">
@@ -2103,7 +2106,7 @@
         <v>110</v>
       </c>
       <c r="B110" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
     </row>
     <row r="111" spans="1:2">
@@ -2111,7 +2114,7 @@
         <v>111</v>
       </c>
       <c r="B111" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
     </row>
     <row r="112" spans="1:2">
@@ -2119,7 +2122,7 @@
         <v>112</v>
       </c>
       <c r="B112" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
     </row>
     <row r="113" spans="1:2">
@@ -2127,7 +2130,7 @@
         <v>113</v>
       </c>
       <c r="B113" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="114" spans="1:2">
@@ -2135,7 +2138,7 @@
         <v>114</v>
       </c>
       <c r="B114" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
     </row>
     <row r="115" spans="1:2">
@@ -2143,7 +2146,7 @@
         <v>115</v>
       </c>
       <c r="B115" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
     </row>
     <row r="116" spans="1:2">
@@ -2151,7 +2154,7 @@
         <v>116</v>
       </c>
       <c r="B116" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
     </row>
     <row r="117" spans="1:2">
@@ -2159,7 +2162,7 @@
         <v>117</v>
       </c>
       <c r="B117" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
     </row>
     <row r="118" spans="1:2">
@@ -2167,7 +2170,7 @@
         <v>118</v>
       </c>
       <c r="B118" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
     </row>
     <row r="119" spans="1:2">
@@ -2175,7 +2178,7 @@
         <v>119</v>
       </c>
       <c r="B119" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
     </row>
     <row r="120" spans="1:2">
@@ -2183,7 +2186,7 @@
         <v>120</v>
       </c>
       <c r="B120" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
     <row r="121" spans="1:2">
@@ -2191,7 +2194,7 @@
         <v>121</v>
       </c>
       <c r="B121" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="122" spans="1:2">
@@ -2199,7 +2202,7 @@
         <v>122</v>
       </c>
       <c r="B122" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="123" spans="1:2">
@@ -2207,7 +2210,7 @@
         <v>123</v>
       </c>
       <c r="B123" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="124" spans="1:2">
@@ -2215,7 +2218,7 @@
         <v>124</v>
       </c>
       <c r="B124" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="125" spans="1:2">
@@ -2223,7 +2226,7 @@
         <v>125</v>
       </c>
       <c r="B125" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
     <row r="126" spans="1:2">
@@ -2231,7 +2234,7 @@
         <v>126</v>
       </c>
       <c r="B126" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
     <row r="127" spans="1:2">
@@ -2239,7 +2242,7 @@
         <v>127</v>
       </c>
       <c r="B127" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
     <row r="128" spans="1:2">
@@ -2247,7 +2250,7 @@
         <v>128</v>
       </c>
       <c r="B128" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
     <row r="129" spans="1:2">
@@ -2255,7 +2258,7 @@
         <v>129</v>
       </c>
       <c r="B129" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
     <row r="130" spans="1:2">
@@ -2263,7 +2266,7 @@
         <v>130</v>
       </c>
       <c r="B130" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
     <row r="131" spans="1:2">
@@ -2271,7 +2274,7 @@
         <v>131</v>
       </c>
       <c r="B131" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="132" spans="1:2">
@@ -2279,7 +2282,7 @@
         <v>132</v>
       </c>
       <c r="B132" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="133" spans="1:2">
@@ -2287,7 +2290,7 @@
         <v>133</v>
       </c>
       <c r="B133" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="134" spans="1:2">
@@ -2295,7 +2298,7 @@
         <v>134</v>
       </c>
       <c r="B134" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="135" spans="1:2">
@@ -2303,7 +2306,7 @@
         <v>135</v>
       </c>
       <c r="B135" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="136" spans="1:2">
@@ -2311,7 +2314,7 @@
         <v>136</v>
       </c>
       <c r="B136" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="137" spans="1:2">
@@ -2319,7 +2322,7 @@
         <v>137</v>
       </c>
       <c r="B137" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="138" spans="1:2">
@@ -2327,7 +2330,7 @@
         <v>138</v>
       </c>
       <c r="B138" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="139" spans="1:2">
@@ -2335,7 +2338,7 @@
         <v>139</v>
       </c>
       <c r="B139" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="140" spans="1:2">
@@ -2343,7 +2346,7 @@
         <v>140</v>
       </c>
       <c r="B140" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="141" spans="1:2">
@@ -2351,7 +2354,7 @@
         <v>141</v>
       </c>
       <c r="B141" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="142" spans="1:2">
@@ -2359,7 +2362,7 @@
         <v>142</v>
       </c>
       <c r="B142" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="143" spans="1:2">
@@ -2367,7 +2370,7 @@
         <v>143</v>
       </c>
       <c r="B143" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
     </row>
     <row r="144" spans="1:2">
@@ -2375,7 +2378,7 @@
         <v>144</v>
       </c>
       <c r="B144" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
     </row>
     <row r="145" spans="1:2">
@@ -2383,7 +2386,7 @@
         <v>145</v>
       </c>
       <c r="B145" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
     </row>
     <row r="146" spans="1:2">
@@ -2391,7 +2394,7 @@
         <v>146</v>
       </c>
       <c r="B146" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
     </row>
     <row r="147" spans="1:2">
@@ -2399,7 +2402,7 @@
         <v>147</v>
       </c>
       <c r="B147" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
     </row>
     <row r="148" spans="1:2">
@@ -2407,7 +2410,7 @@
         <v>148</v>
       </c>
       <c r="B148" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
     </row>
     <row r="149" spans="1:2">
@@ -2415,7 +2418,7 @@
         <v>149</v>
       </c>
       <c r="B149" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
     </row>
     <row r="150" spans="1:2">
@@ -2423,7 +2426,7 @@
         <v>150</v>
       </c>
       <c r="B150" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
     </row>
     <row r="151" spans="1:2">
@@ -2431,7 +2434,7 @@
         <v>151</v>
       </c>
       <c r="B151" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="152" spans="1:2">
@@ -2439,7 +2442,7 @@
         <v>152</v>
       </c>
       <c r="B152" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="153" spans="1:2">
@@ -2447,7 +2450,7 @@
         <v>153</v>
       </c>
       <c r="B153" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="154" spans="1:2">
@@ -2455,7 +2458,7 @@
         <v>154</v>
       </c>
       <c r="B154" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="155" spans="1:2">
@@ -2463,7 +2466,7 @@
         <v>155</v>
       </c>
       <c r="B155" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
     </row>
     <row r="156" spans="1:2">
@@ -2471,7 +2474,7 @@
         <v>156</v>
       </c>
       <c r="B156" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
     </row>
     <row r="157" spans="1:2">
@@ -2479,7 +2482,7 @@
         <v>157</v>
       </c>
       <c r="B157" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
     </row>
     <row r="158" spans="1:2">
@@ -2487,7 +2490,7 @@
         <v>158</v>
       </c>
       <c r="B158" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
     </row>
     <row r="159" spans="1:2">
@@ -2495,7 +2498,7 @@
         <v>159</v>
       </c>
       <c r="B159" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
     </row>
     <row r="160" spans="1:2">
@@ -2503,7 +2506,7 @@
         <v>160</v>
       </c>
       <c r="B160" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
     </row>
     <row r="161" spans="1:2">
@@ -2511,7 +2514,7 @@
         <v>161</v>
       </c>
       <c r="B161" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
     </row>
     <row r="162" spans="1:2">
@@ -2519,7 +2522,7 @@
         <v>162</v>
       </c>
       <c r="B162" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
     </row>
     <row r="163" spans="1:2">
@@ -2527,7 +2530,7 @@
         <v>163</v>
       </c>
       <c r="B163" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
     </row>
     <row r="164" spans="1:2">
@@ -2535,7 +2538,7 @@
         <v>164</v>
       </c>
       <c r="B164" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
     </row>
     <row r="165" spans="1:2">
@@ -2543,7 +2546,7 @@
         <v>165</v>
       </c>
       <c r="B165" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
     </row>
     <row r="166" spans="1:2">
@@ -2551,7 +2554,7 @@
         <v>166</v>
       </c>
       <c r="B166" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="167" spans="1:2">
@@ -2559,7 +2562,7 @@
         <v>167</v>
       </c>
       <c r="B167" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="168" spans="1:2">
@@ -2567,7 +2570,7 @@
         <v>168</v>
       </c>
       <c r="B168" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="169" spans="1:2">
@@ -2575,7 +2578,7 @@
         <v>169</v>
       </c>
       <c r="B169" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
     </row>
     <row r="170" spans="1:2">
@@ -2583,7 +2586,7 @@
         <v>170</v>
       </c>
       <c r="B170" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
     </row>
     <row r="171" spans="1:2">
@@ -2591,7 +2594,7 @@
         <v>171</v>
       </c>
       <c r="B171" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
     </row>
     <row r="172" spans="1:2">
@@ -2599,7 +2602,7 @@
         <v>172</v>
       </c>
       <c r="B172" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
     </row>
     <row r="173" spans="1:2">
@@ -2607,7 +2610,7 @@
         <v>173</v>
       </c>
       <c r="B173" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
     </row>
     <row r="174" spans="1:2">
@@ -2615,7 +2618,7 @@
         <v>174</v>
       </c>
       <c r="B174" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
     </row>
     <row r="175" spans="1:2">
@@ -2623,7 +2626,7 @@
         <v>175</v>
       </c>
       <c r="B175" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
     </row>
     <row r="176" spans="1:2">
@@ -2631,7 +2634,7 @@
         <v>176</v>
       </c>
       <c r="B176" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
     </row>
     <row r="177" spans="1:2">
@@ -2639,7 +2642,7 @@
         <v>177</v>
       </c>
       <c r="B177" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
     </row>
     <row r="178" spans="1:2">
@@ -2647,7 +2650,7 @@
         <v>178</v>
       </c>
       <c r="B178" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
     </row>
     <row r="179" spans="1:2">
@@ -2655,7 +2658,7 @@
         <v>179</v>
       </c>
       <c r="B179" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
     </row>
     <row r="180" spans="1:2">
@@ -2663,7 +2666,7 @@
         <v>180</v>
       </c>
       <c r="B180" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
     </row>
     <row r="181" spans="1:2">
@@ -2671,7 +2674,7 @@
         <v>181</v>
       </c>
       <c r="B181" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
     </row>
     <row r="182" spans="1:2">
@@ -2679,7 +2682,7 @@
         <v>182</v>
       </c>
       <c r="B182" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
     </row>
     <row r="183" spans="1:2">
@@ -2687,7 +2690,7 @@
         <v>183</v>
       </c>
       <c r="B183" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
     </row>
     <row r="184" spans="1:2">
@@ -2695,7 +2698,7 @@
         <v>184</v>
       </c>
       <c r="B184" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
     </row>
     <row r="185" spans="1:2">
@@ -2703,7 +2706,7 @@
         <v>185</v>
       </c>
       <c r="B185" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
     </row>
     <row r="186" spans="1:2">
@@ -2711,7 +2714,7 @@
         <v>186</v>
       </c>
       <c r="B186" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
     </row>
     <row r="187" spans="1:2">
@@ -2719,7 +2722,7 @@
         <v>187</v>
       </c>
       <c r="B187" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
     </row>
     <row r="188" spans="1:2">
@@ -2727,7 +2730,15 @@
         <v>188</v>
       </c>
       <c r="B188" t="s">
-        <v>282</v>
+        <v>283</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2">
+      <c r="A189" t="s">
+        <v>189</v>
+      </c>
+      <c r="B189" t="s">
+        <v>283</v>
       </c>
     </row>
   </sheetData>

--- a/lothiancriticalcare/1a74f8f7b8b7e871b413c4697f68b4401fbacdf0/reviewdates.xlsx
+++ b/lothiancriticalcare/1a74f8f7b8b7e871b413c4697f68b4401fbacdf0/reviewdates.xlsx
@@ -79,15 +79,15 @@
     <t>End_of_life_care/Reasons to report a death to PF.pdf</t>
   </si>
   <si>
+    <t>Airway/Tracheostomy_Laryngectomy/Tracheostomy suctioning cleaning guideline.pdf</t>
+  </si>
+  <si>
     <t>Airway/Tracheostomy_Laryngectomy/Tracheostomy change in Critical Care.pdf</t>
   </si>
   <si>
     <t>Neurological/SOP -  Femoral site care.pdf</t>
   </si>
   <si>
-    <t>Airway/Tracheostomy_Laryngectomy/Tracheostomy suctioning cleaning guideline.pdf</t>
-  </si>
-  <si>
     <t>Drugs/sodium_bicarbonate.pdf</t>
   </si>
   <si>
@@ -97,24 +97,24 @@
     <t>Post_op_care/Epidural top-up.pdf</t>
   </si>
   <si>
+    <t>Covid-19/SJH/SJH COVID19 ITU Intubation Action Card.pdf</t>
+  </si>
+  <si>
+    <t>Covid-19/SJH/SJH COVID19 ED Intubation Action Card.pdf</t>
+  </si>
+  <si>
+    <t>Covid-19/WGH/CoVid intubation checklist WGH.pdf</t>
+  </si>
+  <si>
+    <t>Drugs/heparin for Haemofiltration.pdf</t>
+  </si>
+  <si>
     <t>Diabetes_and_Glucose/Hyperosmolar Hyperglycaemic State.pdf</t>
   </si>
   <si>
     <t>Airway/Emergency intubation checklist_em_pub.pdf</t>
   </si>
   <si>
-    <t>Drugs/heparin for Haemofiltration.pdf</t>
-  </si>
-  <si>
-    <t>Covid-19/WGH/CoVid intubation checklist WGH.pdf</t>
-  </si>
-  <si>
-    <t>Covid-19/SJH/SJH COVID19 ITU Intubation Action Card.pdf</t>
-  </si>
-  <si>
-    <t>Covid-19/SJH/SJH COVID19 ED Intubation Action Card.pdf</t>
-  </si>
-  <si>
     <t>Drugs/fentanyl.pdf</t>
   </si>
   <si>
@@ -133,33 +133,33 @@
     <t>Airway/Percutaneous tracheostomy checklist.pdf</t>
   </si>
   <si>
+    <t>Delirium/Risk assessment posi mit.pdf</t>
+  </si>
+  <si>
     <t>Infection_and_sepsis/SOP Ultrasound Cleaning.pdf</t>
   </si>
   <si>
-    <t>Delirium/Risk assessment posi mit.pdf</t>
+    <t>Airway/Anticipated difficult airway tool.pdf</t>
+  </si>
+  <si>
+    <t>GI_Liver_and_Transplant/Abdominal pressure measurement.pdf</t>
+  </si>
+  <si>
+    <t>GI_Liver_and_Transplant/Treatment of constipation.pdf</t>
   </si>
   <si>
     <t>Airway/Tracheostomy_Laryngectomy/Tracheostomy safety box contents.pdf</t>
   </si>
   <si>
+    <t>Airway/McGrath Mac.pdf</t>
+  </si>
+  <si>
     <t>Breathing(Respiratory)/HFNO.pdf</t>
   </si>
   <si>
-    <t>Airway/Anticipated difficult airway tool.pdf</t>
-  </si>
-  <si>
-    <t>GI_Liver_and_Transplant/Abdominal pressure measurement.pdf</t>
-  </si>
-  <si>
     <t>Neurological/Sub arachnoid haemorrhage management.pdf</t>
   </si>
   <si>
-    <t>Airway/McGrath Mac.pdf</t>
-  </si>
-  <si>
-    <t>GI_Liver_and_Transplant/Treatment of constipation.pdf</t>
-  </si>
-  <si>
     <t>End_of_life_care/Documentation following death.pdf</t>
   </si>
   <si>
@@ -178,21 +178,21 @@
     <t>Breathing(Respiratory)/Inhaled Nitrous Oxide.pdf</t>
   </si>
   <si>
+    <t>Breathing(Respiratory)/Equipment/APRV.pdf</t>
+  </si>
+  <si>
     <t>Cardiovascular/Steroids for Septic Shock.pdf</t>
   </si>
   <si>
-    <t>Breathing(Respiratory)/Equipment/APRV.pdf</t>
+    <t>Breathing(Respiratory)/Equipment/T piece Y piece.pdf</t>
+  </si>
+  <si>
+    <t>Neurological/SOP for review of Neurosurgical patients in ITU by neurosurgical team.pdf</t>
   </si>
   <si>
     <t>Post_op_care/Epidural Haematoma.pdf</t>
   </si>
   <si>
-    <t>Neurological/SOP for review of Neurosurgical patients in ITU by neurosurgical team.pdf</t>
-  </si>
-  <si>
-    <t>Breathing(Respiratory)/Equipment/T piece Y piece.pdf</t>
-  </si>
-  <si>
     <t>Policies_and_admin/General Critical Care Interaction with HEPMA_pub.pdf</t>
   </si>
   <si>
@@ -220,36 +220,36 @@
     <t>Drugs/Antibiotic doses in CVVHD.pdf</t>
   </si>
   <si>
+    <t>GI_Liver_and_Transplant/Jejunostomy feeding protocol.pdf</t>
+  </si>
+  <si>
     <t>ECLS/RIE ECLS Anti Xa Protocol.pdf</t>
   </si>
   <si>
-    <t>GI_Liver_and_Transplant/Jejunostomy feeding protocol.pdf</t>
-  </si>
-  <si>
     <t>GI_Liver_and_Transplant/Nasojejunal feeding protocol.pdf</t>
   </si>
   <si>
+    <t>Drugs/vasopressin_sepsis.pdf</t>
+  </si>
+  <si>
     <t>Infection_and_sepsis/Winter Infections Stepdown Guidance.pdf</t>
   </si>
   <si>
-    <t>Drugs/vasopressin_sepsis.pdf</t>
-  </si>
-  <si>
     <t>Drugs/vasopressin organ donation.pdf</t>
   </si>
   <si>
+    <t>Covid-19/videos/Donning and Doffing Video.pdf</t>
+  </si>
+  <si>
     <t>Transfer/ACCP Transfers.pdf</t>
   </si>
   <si>
-    <t>Covid-19/videos/Donning and Doffing Video.pdf</t>
+    <t>Drugs/piperacillin_tazobactam extended_infusion.pdf</t>
   </si>
   <si>
     <t>Breathing(Respiratory)/Equipment/Ventilators Circuits Filters and Closed Suction - Set up and Maintenance.pdf</t>
   </si>
   <si>
-    <t>Drugs/piperacillin_tazobactam extended_infusion.pdf</t>
-  </si>
-  <si>
     <t>Infection_and_sepsis/Infection indications for IVIG.pdf</t>
   </si>
   <si>
@@ -262,19 +262,25 @@
     <t>Routine_Care/Video Communication.pdf</t>
   </si>
   <si>
+    <t>Cardiovascular/Cardiogenic Shock.pdf</t>
+  </si>
+  <si>
     <t>Drugs/isoprenaline.pdf</t>
   </si>
   <si>
-    <t>Cardiovascular/Cardiogenic Shock.pdf</t>
-  </si>
-  <si>
     <t>Haematology_CAR-T/Haem_ICU_transfer.pdf</t>
   </si>
   <si>
+    <t>Drugs/aminophylline.pdf</t>
+  </si>
+  <si>
     <t>Cardiovascular/Management of hypertension within Critical Care.pdf</t>
   </si>
   <si>
-    <t>Drugs/aminophylline.pdf</t>
+    <t>Drugs/phenytoin.pdf</t>
+  </si>
+  <si>
+    <t>Drugs/pancuronium.pdf</t>
   </si>
   <si>
     <t>Haematology_CAR-T/ICANS.pdf</t>
@@ -283,22 +289,34 @@
     <t>Haematology_CAR-T/Cytokine Release Syndrome.pdf</t>
   </si>
   <si>
-    <t>Drugs/pancuronium.pdf</t>
-  </si>
-  <si>
-    <t>Drugs/phenytoin.pdf</t>
-  </si>
-  <si>
     <t>Drugs/milrinone.pdf</t>
   </si>
   <si>
     <t>Policies_and_admin/General Critical Care SOP_pub.pdf</t>
   </si>
   <si>
+    <t>Neurological/Management of traumatic brain injury.pdf</t>
+  </si>
+  <si>
+    <t>Ethics_and_Law/Care at the End of Life (FICM).pdf</t>
+  </si>
+  <si>
+    <t>Ethics_and_Law/DNACPR policy for Scotland.pdf</t>
+  </si>
+  <si>
+    <t>Covid-19/COVID 19 ICM guidance basic goals_June_2022.pdf</t>
+  </si>
+  <si>
     <t>GI_Liver_and_Transplant/ICU - Upper GI bleeding (Endoscopy guideline).pdf</t>
   </si>
   <si>
-    <t>Neurological/Management of traumatic brain injury.pdf</t>
+    <t>End_of_life_care/Palliative extubation &amp; withdrawal of invasive ventilatory support nursing checklist.pdf</t>
+  </si>
+  <si>
+    <t>Neurological/Critical Care MRI Procedure_pub.pdf</t>
+  </si>
+  <si>
+    <t>Drugs/clonidine.pdf</t>
   </si>
   <si>
     <t>Infection_and_sepsis/Trip Out of Unit infection guidance.pdf</t>
@@ -307,159 +325,141 @@
     <t>Organ_donation/Organ Retrieval SOP.pdf</t>
   </si>
   <si>
-    <t>Drugs/clonidine.pdf</t>
-  </si>
-  <si>
-    <t>Ethics_and_Law/Care at the End of Life (FICM).pdf</t>
-  </si>
-  <si>
-    <t>Ethics_and_Law/DNACPR policy for Scotland.pdf</t>
-  </si>
-  <si>
-    <t>Neurological/Critical Care MRI Procedure_pub.pdf</t>
-  </si>
-  <si>
     <t>End_of_life_care/CMO &amp; NRS Guidance for Doctors completing MCCD.pdf</t>
   </si>
   <si>
-    <t>End_of_life_care/Palliative extubation &amp; withdrawal of invasive ventilatory support nursing checklist.pdf</t>
-  </si>
-  <si>
-    <t>Covid-19/COVID 19 ICM guidance basic goals_June_2022.pdf</t>
-  </si>
-  <si>
     <t>Airway/Cook Staged Extubation Set.pdf</t>
   </si>
   <si>
+    <t>End_of_life_care/End of Life Care Guideline for Critical Care.pdf</t>
+  </si>
+  <si>
+    <t>Drugs/noradrenaline (central).pdf</t>
+  </si>
+  <si>
     <t>Post_op_care/Epidural hypotension.pdf</t>
   </si>
   <si>
-    <t>End_of_life_care/End of Life Care Guideline for Critical Care.pdf</t>
-  </si>
-  <si>
-    <t>Drugs/noradrenaline (central).pdf</t>
+    <t>Drugs/dexmedetomidine.pdf</t>
+  </si>
+  <si>
+    <t>Drugs/glyceryl_trinitrate.pdf</t>
+  </si>
+  <si>
+    <t>GI_Liver_and_Transplant/Fulminant Liver Failure.pdf</t>
+  </si>
+  <si>
+    <t>Breathing(Respiratory)/Equipment/Passy Muir Valve.pdf</t>
+  </si>
+  <si>
+    <t>GI_Liver_and_Transplant/Confirmation of Nasogastric Tube Position.pdf</t>
   </si>
   <si>
     <t>Infection_and_sepsis/Antifungal guidance in critical care.pdf</t>
   </si>
   <si>
-    <t>GI_Liver_and_Transplant/Confirmation of Nasogastric Tube Position.pdf</t>
-  </si>
-  <si>
-    <t>Drugs/glyceryl_trinitrate.pdf</t>
-  </si>
-  <si>
-    <t>Breathing(Respiratory)/Equipment/Passy Muir Valve.pdf</t>
-  </si>
-  <si>
-    <t>Drugs/dexmedetomidine.pdf</t>
-  </si>
-  <si>
-    <t>GI_Liver_and_Transplant/Fulminant Liver Failure.pdf</t>
+    <t>Transfer/Transfer Outdoors to Garden Guideline.pdf</t>
+  </si>
+  <si>
+    <t>Cardiovascular/Intra Aortic Balloon Pump Bedside Checks_pub.pdf</t>
+  </si>
+  <si>
+    <t>Cardiovascular/Intra Aortic Balloon Pump Guideline_pub.pdf</t>
   </si>
   <si>
     <t>Breathing(Respiratory)/ARDS Strategy.pdf</t>
   </si>
   <si>
-    <t>Transfer/Transfer Outdoors to Garden Guideline.pdf</t>
-  </si>
-  <si>
-    <t>Cardiovascular/Intra Aortic Balloon Pump Bedside Checks_pub.pdf</t>
-  </si>
-  <si>
-    <t>Cardiovascular/Intra Aortic Balloon Pump Guideline_pub.pdf</t>
+    <t>Drugs/Dobutamine.pdf</t>
+  </si>
+  <si>
+    <t>Drugs/adrenaline.pdf</t>
   </si>
   <si>
     <t>Drugs/hydralazine.pdf</t>
   </si>
   <si>
-    <t>Drugs/adrenaline.pdf</t>
-  </si>
-  <si>
-    <t>Drugs/Dobutamine.pdf</t>
-  </si>
-  <si>
     <t>Post_op_care/Major OMFS Free Flap.pdf</t>
   </si>
   <si>
+    <t>Drugs/Alteplase for massive PE.pdf</t>
+  </si>
+  <si>
     <t>Drugs/alfentanil.pdf</t>
   </si>
   <si>
-    <t>Drugs/Alteplase for massive PE.pdf</t>
-  </si>
-  <si>
     <t>Drugs/magnesium.pdf</t>
   </si>
   <si>
+    <t>Drugs/neostigmine.pdf</t>
+  </si>
+  <si>
+    <t>Drugs/ICU - IV drug infusions.pdf</t>
+  </si>
+  <si>
     <t>Drugs/vancomycin continuous infusion.pdf</t>
   </si>
   <si>
-    <t>Drugs/ICU - IV drug infusions.pdf</t>
-  </si>
-  <si>
-    <t>Drugs/neostigmine.pdf</t>
-  </si>
-  <si>
     <t>Drugs/labetalol.pdf</t>
   </si>
   <si>
+    <t>Neurological/Intrathecal policy RIE.pdf</t>
+  </si>
+  <si>
     <t>Infection_and_sepsis/Initial investigation and management in unidentified Infections.pdf</t>
   </si>
   <si>
-    <t>Neurological/Intrathecal policy RIE.pdf</t>
-  </si>
-  <si>
     <t>Cardiovascular/Management of Acute Type B Aortic Dissection Guideline.pdf</t>
   </si>
   <si>
     <t>Drugs/midazolam.pdf</t>
   </si>
   <si>
+    <t>Drugs/nimodipine.pdf</t>
+  </si>
+  <si>
+    <t>Trauma and Burns/Management of Severe Burns v1.6.pdf</t>
+  </si>
+  <si>
+    <t>Drugs/salbutamol.pdf</t>
+  </si>
+  <si>
+    <t>Drugs/potassium.pdf</t>
+  </si>
+  <si>
     <t>Procedures/CVC Guidance/CVC NHL  April 2023.pdf</t>
   </si>
   <si>
-    <t>Drugs/salbutamol.pdf</t>
-  </si>
-  <si>
-    <t>Drugs/nimodipine.pdf</t>
-  </si>
-  <si>
-    <t>Drugs/potassium.pdf</t>
-  </si>
-  <si>
-    <t>Trauma and Burns/Management of Severe Burns v1.6.pdf</t>
+    <t>Routine_Care/ICU Eye Care Guideline.pdf</t>
+  </si>
+  <si>
+    <t>Drugs/phenobarbitone.pdf</t>
+  </si>
+  <si>
+    <t>Procedures/Arterial Line insertion for ACCPs.pdf</t>
   </si>
   <si>
     <t>Drugs/nicardipine.pdf</t>
   </si>
   <si>
-    <t>Drugs/phenobarbitone.pdf</t>
-  </si>
-  <si>
-    <t>Routine_Care/ICU Eye Care Guideline.pdf</t>
-  </si>
-  <si>
-    <t>Procedures/Arterial Line insertion for ACCPs.pdf</t>
-  </si>
-  <si>
     <t>Drugs/amiodarone.pdf</t>
   </si>
   <si>
+    <t>Breathing(Respiratory)/Manual Ventilation and MHI.pdf</t>
+  </si>
+  <si>
     <t>Neurological/Ventriculitis Guideline.pdf</t>
   </si>
   <si>
+    <t>Drugs/phenylephrine.pdf</t>
+  </si>
+  <si>
     <t>Drugs/morphine.pdf</t>
   </si>
   <si>
     <t>Drugs/Epoprostenol.pdf</t>
   </si>
   <si>
-    <t>Drugs/phenylephrine.pdf</t>
-  </si>
-  <si>
-    <t>Breathing(Respiratory)/Manual Ventilation and MHI.pdf</t>
-  </si>
-  <si>
     <t>Drugs/calcium.pdf</t>
   </si>
   <si>
@@ -469,48 +469,48 @@
     <t>Cardiovascular/Pulmonary_Embolism_and_DVT/Catheter directed thrombolysis of iliofemoral DVT alteplase_pub.pdf</t>
   </si>
   <si>
+    <t>Drugs/Vancomycin continuous infusion Fluid Restricted.pdf</t>
+  </si>
+  <si>
+    <t>Drugs/dalteparin_thromboprophylaxis.pdf</t>
+  </si>
+  <si>
+    <t>Drugs/atracurium.pdf</t>
+  </si>
+  <si>
     <t>Airway/Tracheostomy_Laryngectomy/Decannulation Guidline.pdf</t>
   </si>
   <si>
-    <t>Drugs/dalteparin_thromboprophylaxis.pdf</t>
-  </si>
-  <si>
-    <t>Drugs/atracurium.pdf</t>
-  </si>
-  <si>
-    <t>Drugs/Vancomycin continuous infusion Fluid Restricted.pdf</t>
+    <t>Procedures/Inadvertent Catheter Placement Guideline.pdf</t>
+  </si>
+  <si>
+    <t>Drugs/valproate.pdf</t>
   </si>
   <si>
     <t>Policies_and_admin/Pet Visitation.pdf</t>
   </si>
   <si>
-    <t>Procedures/Inadvertent Catheter Placement Guideline.pdf</t>
-  </si>
-  <si>
-    <t>Drugs/valproate.pdf</t>
-  </si>
-  <si>
     <t>Drugs/ketamine_for_status epilepticus.pdf</t>
   </si>
   <si>
+    <t>Drugs/stress ulcer prophylaxis.pdf</t>
+  </si>
+  <si>
     <t>Drugs/Phosphate.pdf</t>
   </si>
   <si>
-    <t>Drugs/stress ulcer prophylaxis.pdf</t>
+    <t>Breathing(Respiratory)/Proning Guideline.pdf</t>
+  </si>
+  <si>
+    <t>Drugs/Thiopentone.pdf</t>
+  </si>
+  <si>
+    <t>Neurological/Status epilepticus.pdf</t>
   </si>
   <si>
     <t>GI_Liver_and_Transplant/Prokinetics in ICU.pdf</t>
   </si>
   <si>
-    <t>Neurological/Status epilepticus.pdf</t>
-  </si>
-  <si>
-    <t>Drugs/Thiopentone.pdf</t>
-  </si>
-  <si>
-    <t>Breathing(Respiratory)/Proning Guideline.pdf</t>
-  </si>
-  <si>
     <t>Drugs/Octreotide.pdf</t>
   </si>
   <si>
@@ -523,15 +523,15 @@
     <t>Post_op_care/Prevention and treatment of paraplegia after major aortic procedures.pdf</t>
   </si>
   <si>
+    <t>Drugs/Rocuronium.pdf</t>
+  </si>
+  <si>
+    <t>Drugs/Ketamine_in_asthma.pdf</t>
+  </si>
+  <si>
     <t>Delirium/Violence and Agression.pdf</t>
   </si>
   <si>
-    <t>Drugs/Ketamine_in_asthma.pdf</t>
-  </si>
-  <si>
-    <t>Drugs/Rocuronium.pdf</t>
-  </si>
-  <si>
     <t>Post_op_care/Care of the Transgender Patient.pdf</t>
   </si>
   <si>
@@ -550,12 +550,12 @@
     <t>Breathing(Respiratory)/Equipment/Setting up the NKV-330.pdf</t>
   </si>
   <si>
+    <t>Breathing(Respiratory)/NKV 330 NIV guidelines.pdf</t>
+  </si>
+  <si>
     <t>Breathing(Respiratory)/T1RF - CPAP Guidelines_Mar24.pdf</t>
   </si>
   <si>
-    <t>Breathing(Respiratory)/NKV 330 NIV guidelines.pdf</t>
-  </si>
-  <si>
     <t>Infection_and_sepsis/Influenza in Critical Care.pdf</t>
   </si>
   <si>
@@ -571,216 +571,216 @@
     <t>GI_Liver_and_Transplant/Nasal Bridle use in Critical Care.pdf</t>
   </si>
   <si>
+    <t>Cardiovascular/Focused TOE Guideline for General Critical Care_pub.pdf</t>
+  </si>
+  <si>
+    <t>Drugs/Pabrinex.pdf</t>
+  </si>
+  <si>
     <t>GI_Liver_and_Transplant/Pabrinex.pdf</t>
   </si>
   <si>
-    <t>Cardiovascular/Focused TOE Guideline for General Critical Care_pub.pdf</t>
-  </si>
-  <si>
-    <t>Drugs/Pabrinex.pdf</t>
+    <t>Transfer/Repatriaiton Checklist for Critical Care.pdf</t>
   </si>
   <si>
     <t>Policies_and_admin/Repatriaiton Checklist for Critical Care.pdf</t>
   </si>
   <si>
-    <t>Transfer/Repatriaiton Checklist for Critical Care.pdf</t>
-  </si>
-  <si>
-    <t>2011-03-27</t>
-  </si>
-  <si>
-    <t>2011-06-27</t>
-  </si>
-  <si>
-    <t>2011-07-27</t>
-  </si>
-  <si>
-    <t>2011-12-27</t>
-  </si>
-  <si>
-    <t>2014-09-27</t>
-  </si>
-  <si>
-    <t>2014-10-27</t>
-  </si>
-  <si>
-    <t>2014-11-27</t>
-  </si>
-  <si>
-    <t>2014-12-27</t>
-  </si>
-  <si>
-    <t>2015-03-27</t>
-  </si>
-  <si>
-    <t>2016-04-27</t>
-  </si>
-  <si>
-    <t>2016-08-27</t>
-  </si>
-  <si>
-    <t>2017-01-27</t>
-  </si>
-  <si>
-    <t>2017-08-27</t>
-  </si>
-  <si>
-    <t>2017-10-27</t>
-  </si>
-  <si>
-    <t>2017-11-27</t>
-  </si>
-  <si>
-    <t>2018-07-27</t>
-  </si>
-  <si>
-    <t>2019-05-27</t>
-  </si>
-  <si>
-    <t>2019-06-27</t>
-  </si>
-  <si>
-    <t>2019-08-27</t>
-  </si>
-  <si>
-    <t>2019-09-27</t>
-  </si>
-  <si>
-    <t>2020-01-27</t>
-  </si>
-  <si>
-    <t>2020-03-27</t>
-  </si>
-  <si>
-    <t>2020-04-27</t>
-  </si>
-  <si>
-    <t>2020-05-27</t>
-  </si>
-  <si>
-    <t>2020-07-27</t>
-  </si>
-  <si>
-    <t>2020-08-27</t>
-  </si>
-  <si>
-    <t>2020-11-27</t>
-  </si>
-  <si>
-    <t>2021-02-27</t>
-  </si>
-  <si>
-    <t>2021-05-27</t>
-  </si>
-  <si>
-    <t>2021-06-27</t>
-  </si>
-  <si>
-    <t>2021-09-27</t>
-  </si>
-  <si>
-    <t>2021-12-27</t>
-  </si>
-  <si>
-    <t>2022-01-27</t>
-  </si>
-  <si>
-    <t>2022-03-27</t>
-  </si>
-  <si>
-    <t>2022-04-27</t>
-  </si>
-  <si>
-    <t>2022-05-27</t>
-  </si>
-  <si>
-    <t>2022-06-27</t>
-  </si>
-  <si>
-    <t>2022-07-27</t>
-  </si>
-  <si>
-    <t>2022-08-27</t>
-  </si>
-  <si>
-    <t>2022-10-27</t>
-  </si>
-  <si>
-    <t>2022-11-27</t>
-  </si>
-  <si>
-    <t>2022-12-27</t>
-  </si>
-  <si>
-    <t>2023-01-27</t>
-  </si>
-  <si>
-    <t>2023-02-27</t>
-  </si>
-  <si>
-    <t>2023-04-27</t>
-  </si>
-  <si>
-    <t>2023-05-27</t>
-  </si>
-  <si>
-    <t>2023-06-27</t>
-  </si>
-  <si>
-    <t>2023-07-27</t>
-  </si>
-  <si>
-    <t>2023-08-27</t>
-  </si>
-  <si>
-    <t>2023-09-27</t>
-  </si>
-  <si>
-    <t>2023-10-27</t>
-  </si>
-  <si>
-    <t>2024-01-27</t>
-  </si>
-  <si>
-    <t>2024-02-27</t>
-  </si>
-  <si>
-    <t>2024-03-27</t>
-  </si>
-  <si>
-    <t>2024-04-27</t>
-  </si>
-  <si>
-    <t>2024-05-27</t>
+    <t>2011-03-13</t>
+  </si>
+  <si>
+    <t>2011-06-13</t>
+  </si>
+  <si>
+    <t>2011-07-13</t>
+  </si>
+  <si>
+    <t>2011-12-13</t>
+  </si>
+  <si>
+    <t>2014-09-13</t>
+  </si>
+  <si>
+    <t>2014-10-13</t>
+  </si>
+  <si>
+    <t>2014-11-13</t>
+  </si>
+  <si>
+    <t>2014-12-13</t>
+  </si>
+  <si>
+    <t>2015-03-13</t>
+  </si>
+  <si>
+    <t>2016-04-13</t>
+  </si>
+  <si>
+    <t>2016-08-13</t>
+  </si>
+  <si>
+    <t>2017-01-13</t>
+  </si>
+  <si>
+    <t>2017-08-13</t>
+  </si>
+  <si>
+    <t>2017-10-13</t>
+  </si>
+  <si>
+    <t>2017-11-13</t>
+  </si>
+  <si>
+    <t>2018-07-13</t>
+  </si>
+  <si>
+    <t>2019-05-13</t>
+  </si>
+  <si>
+    <t>2019-06-13</t>
+  </si>
+  <si>
+    <t>2019-08-13</t>
+  </si>
+  <si>
+    <t>2019-09-13</t>
+  </si>
+  <si>
+    <t>2020-01-13</t>
+  </si>
+  <si>
+    <t>2020-03-13</t>
+  </si>
+  <si>
+    <t>2020-04-13</t>
+  </si>
+  <si>
+    <t>2020-05-13</t>
+  </si>
+  <si>
+    <t>2020-07-13</t>
+  </si>
+  <si>
+    <t>2020-08-13</t>
+  </si>
+  <si>
+    <t>2020-11-13</t>
+  </si>
+  <si>
+    <t>2021-02-13</t>
+  </si>
+  <si>
+    <t>2021-05-13</t>
+  </si>
+  <si>
+    <t>2021-06-13</t>
+  </si>
+  <si>
+    <t>2021-09-13</t>
+  </si>
+  <si>
+    <t>2021-12-13</t>
+  </si>
+  <si>
+    <t>2022-01-13</t>
+  </si>
+  <si>
+    <t>2022-03-13</t>
+  </si>
+  <si>
+    <t>2022-04-13</t>
+  </si>
+  <si>
+    <t>2022-05-13</t>
+  </si>
+  <si>
+    <t>2022-06-13</t>
+  </si>
+  <si>
+    <t>2022-07-13</t>
+  </si>
+  <si>
+    <t>2022-08-13</t>
+  </si>
+  <si>
+    <t>2022-10-13</t>
+  </si>
+  <si>
+    <t>2022-11-13</t>
+  </si>
+  <si>
+    <t>2022-12-13</t>
+  </si>
+  <si>
+    <t>2023-01-13</t>
+  </si>
+  <si>
+    <t>2023-02-13</t>
+  </si>
+  <si>
+    <t>2023-04-13</t>
+  </si>
+  <si>
+    <t>2023-05-13</t>
+  </si>
+  <si>
+    <t>2023-06-13</t>
+  </si>
+  <si>
+    <t>2023-07-13</t>
+  </si>
+  <si>
+    <t>2023-08-13</t>
+  </si>
+  <si>
+    <t>2023-09-13</t>
+  </si>
+  <si>
+    <t>2023-10-13</t>
+  </si>
+  <si>
+    <t>2024-01-13</t>
+  </si>
+  <si>
+    <t>2024-02-13</t>
+  </si>
+  <si>
+    <t>2024-03-13</t>
+  </si>
+  <si>
+    <t>2024-04-13</t>
+  </si>
+  <si>
+    <t>2024-05-13</t>
   </si>
   <si>
     <t>2024-06-02</t>
   </si>
   <si>
+    <t>2024-06-13</t>
+  </si>
+  <si>
     <t>2024-06-26</t>
   </si>
   <si>
-    <t>2024-06-27</t>
+    <t>2024-07-13</t>
   </si>
   <si>
     <t>2024-07-25</t>
   </si>
   <si>
-    <t>2024-07-27</t>
+    <t>2024-08-13</t>
   </si>
   <si>
     <t>2024-08-15</t>
   </si>
   <si>
-    <t>2024-08-27</t>
+    <t>2024-10-13</t>
   </si>
   <si>
     <t>2024-10-24</t>
   </si>
   <si>
-    <t>2024-10-27</t>
-  </si>
-  <si>
     <t>2024-11-20</t>
   </si>
   <si>
@@ -790,82 +790,82 @@
     <t>2024-12-24</t>
   </si>
   <si>
-    <t>2025-01-27</t>
-  </si>
-  <si>
-    <t>2025-02-27</t>
-  </si>
-  <si>
-    <t>2025-03-27</t>
-  </si>
-  <si>
-    <t>2025-04-27</t>
-  </si>
-  <si>
-    <t>2025-05-27</t>
-  </si>
-  <si>
-    <t>2025-06-27</t>
-  </si>
-  <si>
-    <t>2025-07-27</t>
-  </si>
-  <si>
-    <t>2025-08-27</t>
-  </si>
-  <si>
-    <t>2025-10-27</t>
-  </si>
-  <si>
-    <t>2025-11-27</t>
-  </si>
-  <si>
-    <t>2026-01-27</t>
-  </si>
-  <si>
-    <t>2026-03-27</t>
-  </si>
-  <si>
-    <t>2026-05-27</t>
-  </si>
-  <si>
-    <t>2026-07-27</t>
-  </si>
-  <si>
-    <t>2026-11-27</t>
-  </si>
-  <si>
-    <t>2027-01-27</t>
-  </si>
-  <si>
-    <t>2027-02-27</t>
-  </si>
-  <si>
-    <t>2027-03-27</t>
-  </si>
-  <si>
-    <t>2028-02-27</t>
-  </si>
-  <si>
-    <t>2028-03-27</t>
-  </si>
-  <si>
-    <t>2028-05-27</t>
-  </si>
-  <si>
-    <t>2028-07-27</t>
-  </si>
-  <si>
-    <t>2028-11-27</t>
-  </si>
-  <si>
-    <t>2029-02-27</t>
-  </si>
-  <si>
-    <t>2029-06-27</t>
-  </si>
-  <si>
-    <t>2030-11-27</t>
+    <t>2025-01-13</t>
+  </si>
+  <si>
+    <t>2025-02-13</t>
+  </si>
+  <si>
+    <t>2025-03-13</t>
+  </si>
+  <si>
+    <t>2025-04-13</t>
+  </si>
+  <si>
+    <t>2025-05-13</t>
+  </si>
+  <si>
+    <t>2025-06-13</t>
+  </si>
+  <si>
+    <t>2025-07-13</t>
+  </si>
+  <si>
+    <t>2025-08-13</t>
+  </si>
+  <si>
+    <t>2025-10-13</t>
+  </si>
+  <si>
+    <t>2025-11-13</t>
+  </si>
+  <si>
+    <t>2026-01-13</t>
+  </si>
+  <si>
+    <t>2026-03-13</t>
+  </si>
+  <si>
+    <t>2026-05-13</t>
+  </si>
+  <si>
+    <t>2026-07-13</t>
+  </si>
+  <si>
+    <t>2026-11-13</t>
+  </si>
+  <si>
+    <t>2027-01-13</t>
+  </si>
+  <si>
+    <t>2027-02-13</t>
+  </si>
+  <si>
+    <t>2027-03-13</t>
+  </si>
+  <si>
+    <t>2028-02-13</t>
+  </si>
+  <si>
+    <t>2028-03-13</t>
+  </si>
+  <si>
+    <t>2028-05-13</t>
+  </si>
+  <si>
+    <t>2028-07-13</t>
+  </si>
+  <si>
+    <t>2028-11-13</t>
+  </si>
+  <si>
+    <t>2029-02-13</t>
+  </si>
+  <si>
+    <t>2029-06-13</t>
+  </si>
+  <si>
+    <t>2030-11-13</t>
   </si>
 </sst>
 </file>
@@ -2074,7 +2074,7 @@
         <v>106</v>
       </c>
       <c r="B106" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="107" spans="1:2">
@@ -2098,7 +2098,7 @@
         <v>109</v>
       </c>
       <c r="B109" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="110" spans="1:2">
@@ -2106,7 +2106,7 @@
         <v>110</v>
       </c>
       <c r="B110" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="111" spans="1:2">
@@ -2114,7 +2114,7 @@
         <v>111</v>
       </c>
       <c r="B111" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="112" spans="1:2">
@@ -2122,7 +2122,7 @@
         <v>112</v>
       </c>
       <c r="B112" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="113" spans="1:2">
@@ -2146,7 +2146,7 @@
         <v>115</v>
       </c>
       <c r="B115" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="116" spans="1:2">
@@ -2154,7 +2154,7 @@
         <v>116</v>
       </c>
       <c r="B116" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="117" spans="1:2">
@@ -2178,7 +2178,7 @@
         <v>119</v>
       </c>
       <c r="B119" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="120" spans="1:2">

--- a/lothiancriticalcare/1a74f8f7b8b7e871b413c4697f68b4401fbacdf0/reviewdates.xlsx
+++ b/lothiancriticalcare/1a74f8f7b8b7e871b413c4697f68b4401fbacdf0/reviewdates.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="284">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="283">
   <si>
     <t>File</t>
   </si>
@@ -133,33 +133,33 @@
     <t>Airway/Percutaneous tracheostomy checklist.pdf</t>
   </si>
   <si>
+    <t>Infection_and_sepsis/SOP Ultrasound Cleaning.pdf</t>
+  </si>
+  <si>
     <t>Delirium/Risk assessment posi mit.pdf</t>
   </si>
   <si>
-    <t>Infection_and_sepsis/SOP Ultrasound Cleaning.pdf</t>
+    <t>Breathing(Respiratory)/HFNO.pdf</t>
+  </si>
+  <si>
+    <t>Neurological/Sub arachnoid haemorrhage management.pdf</t>
+  </si>
+  <si>
+    <t>GI_Liver_and_Transplant/Treatment of constipation.pdf</t>
+  </si>
+  <si>
+    <t>Airway/Tracheostomy_Laryngectomy/Tracheostomy safety box contents.pdf</t>
+  </si>
+  <si>
+    <t>GI_Liver_and_Transplant/Abdominal pressure measurement.pdf</t>
+  </si>
+  <si>
+    <t>Airway/McGrath Mac.pdf</t>
   </si>
   <si>
     <t>Airway/Anticipated difficult airway tool.pdf</t>
   </si>
   <si>
-    <t>GI_Liver_and_Transplant/Abdominal pressure measurement.pdf</t>
-  </si>
-  <si>
-    <t>GI_Liver_and_Transplant/Treatment of constipation.pdf</t>
-  </si>
-  <si>
-    <t>Airway/Tracheostomy_Laryngectomy/Tracheostomy safety box contents.pdf</t>
-  </si>
-  <si>
-    <t>Airway/McGrath Mac.pdf</t>
-  </si>
-  <si>
-    <t>Breathing(Respiratory)/HFNO.pdf</t>
-  </si>
-  <si>
-    <t>Neurological/Sub arachnoid haemorrhage management.pdf</t>
-  </si>
-  <si>
     <t>End_of_life_care/Documentation following death.pdf</t>
   </si>
   <si>
@@ -184,15 +184,15 @@
     <t>Cardiovascular/Steroids for Septic Shock.pdf</t>
   </si>
   <si>
+    <t>Post_op_care/Epidural Haematoma.pdf</t>
+  </si>
+  <si>
     <t>Breathing(Respiratory)/Equipment/T piece Y piece.pdf</t>
   </si>
   <si>
     <t>Neurological/SOP for review of Neurosurgical patients in ITU by neurosurgical team.pdf</t>
   </si>
   <si>
-    <t>Post_op_care/Epidural Haematoma.pdf</t>
-  </si>
-  <si>
     <t>Policies_and_admin/General Critical Care Interaction with HEPMA_pub.pdf</t>
   </si>
   <si>
@@ -229,36 +229,36 @@
     <t>GI_Liver_and_Transplant/Nasojejunal feeding protocol.pdf</t>
   </si>
   <si>
+    <t>Drugs/vasopressin organ donation.pdf</t>
+  </si>
+  <si>
+    <t>Infection_and_sepsis/Winter Infections Stepdown Guidance.pdf</t>
+  </si>
+  <si>
     <t>Drugs/vasopressin_sepsis.pdf</t>
   </si>
   <si>
-    <t>Infection_and_sepsis/Winter Infections Stepdown Guidance.pdf</t>
-  </si>
-  <si>
-    <t>Drugs/vasopressin organ donation.pdf</t>
+    <t>Transfer/ACCP Transfers.pdf</t>
   </si>
   <si>
     <t>Covid-19/videos/Donning and Doffing Video.pdf</t>
   </si>
   <si>
-    <t>Transfer/ACCP Transfers.pdf</t>
+    <t>Breathing(Respiratory)/Equipment/Ventilators Circuits Filters and Closed Suction - Set up and Maintenance.pdf</t>
   </si>
   <si>
     <t>Drugs/piperacillin_tazobactam extended_infusion.pdf</t>
   </si>
   <si>
-    <t>Breathing(Respiratory)/Equipment/Ventilators Circuits Filters and Closed Suction - Set up and Maintenance.pdf</t>
-  </si>
-  <si>
     <t>Infection_and_sepsis/Infection indications for IVIG.pdf</t>
   </si>
   <si>
+    <t>Procedures/CVC Guidance/Securing CVCs.pdf</t>
+  </si>
+  <si>
     <t>Covid-19/Covid 19 Death Certification Guideline.pdf</t>
   </si>
   <si>
-    <t>Procedures/CVC Guidance/Securing CVCs.pdf</t>
-  </si>
-  <si>
     <t>Routine_Care/Video Communication.pdf</t>
   </si>
   <si>
@@ -271,99 +271,99 @@
     <t>Haematology_CAR-T/Haem_ICU_transfer.pdf</t>
   </si>
   <si>
+    <t>Cardiovascular/Management of hypertension within Critical Care.pdf</t>
+  </si>
+  <si>
     <t>Drugs/aminophylline.pdf</t>
   </si>
   <si>
-    <t>Cardiovascular/Management of hypertension within Critical Care.pdf</t>
+    <t>Drugs/pancuronium.pdf</t>
+  </si>
+  <si>
+    <t>Haematology_CAR-T/Cytokine Release Syndrome.pdf</t>
   </si>
   <si>
     <t>Drugs/phenytoin.pdf</t>
   </si>
   <si>
-    <t>Drugs/pancuronium.pdf</t>
-  </si>
-  <si>
     <t>Haematology_CAR-T/ICANS.pdf</t>
   </si>
   <si>
-    <t>Haematology_CAR-T/Cytokine Release Syndrome.pdf</t>
-  </si>
-  <si>
     <t>Drugs/milrinone.pdf</t>
   </si>
   <si>
     <t>Policies_and_admin/General Critical Care SOP_pub.pdf</t>
   </si>
   <si>
+    <t>Organ_donation/Organ Retrieval SOP.pdf</t>
+  </si>
+  <si>
+    <t>Infection_and_sepsis/Trip Out of Unit infection guidance.pdf</t>
+  </si>
+  <si>
+    <t>Drugs/clonidine.pdf</t>
+  </si>
+  <si>
     <t>Neurological/Management of traumatic brain injury.pdf</t>
   </si>
   <si>
+    <t>GI_Liver_and_Transplant/ICU - Upper GI bleeding (Endoscopy guideline).pdf</t>
+  </si>
+  <si>
+    <t>End_of_life_care/CMO &amp; NRS Guidance for Doctors completing MCCD.pdf</t>
+  </si>
+  <si>
+    <t>Neurological/Critical Care MRI Procedure_pub.pdf</t>
+  </si>
+  <si>
+    <t>Ethics_and_Law/DNACPR policy for Scotland.pdf</t>
+  </si>
+  <si>
+    <t>End_of_life_care/Palliative extubation &amp; withdrawal of invasive ventilatory support nursing checklist.pdf</t>
+  </si>
+  <si>
     <t>Ethics_and_Law/Care at the End of Life (FICM).pdf</t>
   </si>
   <si>
-    <t>Ethics_and_Law/DNACPR policy for Scotland.pdf</t>
-  </si>
-  <si>
     <t>Covid-19/COVID 19 ICM guidance basic goals_June_2022.pdf</t>
   </si>
   <si>
-    <t>GI_Liver_and_Transplant/ICU - Upper GI bleeding (Endoscopy guideline).pdf</t>
-  </si>
-  <si>
-    <t>End_of_life_care/Palliative extubation &amp; withdrawal of invasive ventilatory support nursing checklist.pdf</t>
-  </si>
-  <si>
-    <t>Neurological/Critical Care MRI Procedure_pub.pdf</t>
-  </si>
-  <si>
-    <t>Drugs/clonidine.pdf</t>
-  </si>
-  <si>
-    <t>Infection_and_sepsis/Trip Out of Unit infection guidance.pdf</t>
-  </si>
-  <si>
-    <t>Organ_donation/Organ Retrieval SOP.pdf</t>
-  </si>
-  <si>
-    <t>End_of_life_care/CMO &amp; NRS Guidance for Doctors completing MCCD.pdf</t>
-  </si>
-  <si>
     <t>Airway/Cook Staged Extubation Set.pdf</t>
   </si>
   <si>
+    <t>Drugs/noradrenaline (central).pdf</t>
+  </si>
+  <si>
     <t>End_of_life_care/End of Life Care Guideline for Critical Care.pdf</t>
   </si>
   <si>
-    <t>Drugs/noradrenaline (central).pdf</t>
-  </si>
-  <si>
     <t>Post_op_care/Epidural hypotension.pdf</t>
   </si>
   <si>
+    <t>Drugs/glyceryl_trinitrate.pdf</t>
+  </si>
+  <si>
     <t>Drugs/dexmedetomidine.pdf</t>
   </si>
   <si>
-    <t>Drugs/glyceryl_trinitrate.pdf</t>
-  </si>
-  <si>
     <t>GI_Liver_and_Transplant/Fulminant Liver Failure.pdf</t>
   </si>
   <si>
+    <t>GI_Liver_and_Transplant/Confirmation of Nasogastric Tube Position.pdf</t>
+  </si>
+  <si>
     <t>Breathing(Respiratory)/Equipment/Passy Muir Valve.pdf</t>
   </si>
   <si>
-    <t>GI_Liver_and_Transplant/Confirmation of Nasogastric Tube Position.pdf</t>
-  </si>
-  <si>
     <t>Infection_and_sepsis/Antifungal guidance in critical care.pdf</t>
   </si>
   <si>
+    <t>Cardiovascular/Intra Aortic Balloon Pump Bedside Checks_pub.pdf</t>
+  </si>
+  <si>
     <t>Transfer/Transfer Outdoors to Garden Guideline.pdf</t>
   </si>
   <si>
-    <t>Cardiovascular/Intra Aortic Balloon Pump Bedside Checks_pub.pdf</t>
-  </si>
-  <si>
     <t>Cardiovascular/Intra Aortic Balloon Pump Guideline_pub.pdf</t>
   </si>
   <si>
@@ -400,64 +400,67 @@
     <t>Drugs/vancomycin continuous infusion.pdf</t>
   </si>
   <si>
+    <t>Infection_and_sepsis/Initial investigation and management in unidentified Infections.pdf</t>
+  </si>
+  <si>
     <t>Drugs/labetalol.pdf</t>
   </si>
   <si>
     <t>Neurological/Intrathecal policy RIE.pdf</t>
   </si>
   <si>
-    <t>Infection_and_sepsis/Initial investigation and management in unidentified Infections.pdf</t>
-  </si>
-  <si>
     <t>Cardiovascular/Management of Acute Type B Aortic Dissection Guideline.pdf</t>
   </si>
   <si>
     <t>Drugs/midazolam.pdf</t>
   </si>
   <si>
+    <t>Drugs/potassium.pdf</t>
+  </si>
+  <si>
+    <t>Procedures/CVC Guidance/CVC NHL  April 2023.pdf</t>
+  </si>
+  <si>
+    <t>Trauma and Burns/Management of Severe Burns v1.6.pdf</t>
+  </si>
+  <si>
     <t>Drugs/nimodipine.pdf</t>
   </si>
   <si>
-    <t>Trauma and Burns/Management of Severe Burns v1.6.pdf</t>
-  </si>
-  <si>
     <t>Drugs/salbutamol.pdf</t>
   </si>
   <si>
-    <t>Drugs/potassium.pdf</t>
-  </si>
-  <si>
-    <t>Procedures/CVC Guidance/CVC NHL  April 2023.pdf</t>
-  </si>
-  <si>
     <t>Routine_Care/ICU Eye Care Guideline.pdf</t>
   </si>
   <si>
     <t>Drugs/phenobarbitone.pdf</t>
   </si>
   <si>
+    <t>Drugs/nicardipine.pdf</t>
+  </si>
+  <si>
+    <t>Drugs/amiodarone.pdf</t>
+  </si>
+  <si>
     <t>Procedures/Arterial Line insertion for ACCPs.pdf</t>
   </si>
   <si>
-    <t>Drugs/nicardipine.pdf</t>
-  </si>
-  <si>
-    <t>Drugs/amiodarone.pdf</t>
-  </si>
-  <si>
     <t>Breathing(Respiratory)/Manual Ventilation and MHI.pdf</t>
   </si>
   <si>
+    <t>Drugs/Epoprostenol.pdf</t>
+  </si>
+  <si>
     <t>Neurological/Ventriculitis Guideline.pdf</t>
   </si>
   <si>
+    <t>Drugs/morphine.pdf</t>
+  </si>
+  <si>
     <t>Drugs/phenylephrine.pdf</t>
   </si>
   <si>
-    <t>Drugs/morphine.pdf</t>
-  </si>
-  <si>
-    <t>Drugs/Epoprostenol.pdf</t>
+    <t>Breathing(Respiratory)/Pulmonary_Embolism_and_DVT/Catheter directed thrombolysis of iliofemoral DVT alteplase_pub.pdf</t>
   </si>
   <si>
     <t>Drugs/calcium.pdf</t>
@@ -466,19 +469,19 @@
     <t>Cardiovascular/Cardiac Output Monitoring_pub .pdf</t>
   </si>
   <si>
-    <t>Cardiovascular/Pulmonary_Embolism_and_DVT/Catheter directed thrombolysis of iliofemoral DVT alteplase_pub.pdf</t>
-  </si>
-  <si>
     <t>Drugs/Vancomycin continuous infusion Fluid Restricted.pdf</t>
   </si>
   <si>
+    <t>Airway/Tracheostomy_Laryngectomy/Decannulation Guidline.pdf</t>
+  </si>
+  <si>
+    <t>Drugs/atracurium.pdf</t>
+  </si>
+  <si>
     <t>Drugs/dalteparin_thromboprophylaxis.pdf</t>
   </si>
   <si>
-    <t>Drugs/atracurium.pdf</t>
-  </si>
-  <si>
-    <t>Airway/Tracheostomy_Laryngectomy/Decannulation Guidline.pdf</t>
+    <t>Policies_and_admin/Pet Visitation.pdf</t>
   </si>
   <si>
     <t>Procedures/Inadvertent Catheter Placement Guideline.pdf</t>
@@ -487,31 +490,31 @@
     <t>Drugs/valproate.pdf</t>
   </si>
   <si>
-    <t>Policies_and_admin/Pet Visitation.pdf</t>
-  </si>
-  <si>
     <t>Drugs/ketamine_for_status epilepticus.pdf</t>
   </si>
   <si>
+    <t>Drugs/Phosphate.pdf</t>
+  </si>
+  <si>
     <t>Drugs/stress ulcer prophylaxis.pdf</t>
   </si>
   <si>
-    <t>Drugs/Phosphate.pdf</t>
+    <t>Drugs/Octreotide.pdf</t>
+  </si>
+  <si>
+    <t>GI_Liver_and_Transplant/Prokinetics in ICU.pdf</t>
   </si>
   <si>
     <t>Breathing(Respiratory)/Proning Guideline.pdf</t>
   </si>
   <si>
+    <t>Neurological/Status epilepticus.pdf</t>
+  </si>
+  <si>
     <t>Drugs/Thiopentone.pdf</t>
   </si>
   <si>
-    <t>Neurological/Status epilepticus.pdf</t>
-  </si>
-  <si>
-    <t>GI_Liver_and_Transplant/Prokinetics in ICU.pdf</t>
-  </si>
-  <si>
-    <t>Drugs/Octreotide.pdf</t>
+    <t>Post_op_care/Prevention and treatment of paraplegia after major aortic procedures.pdf</t>
   </si>
   <si>
     <t>Procedures/ACCP CVC placement following completion of initial competencies.pdf</t>
@@ -520,9 +523,6 @@
     <t>Procedures/ACCPs acquiring initial CVC competencies.pdf</t>
   </si>
   <si>
-    <t>Post_op_care/Prevention and treatment of paraplegia after major aortic procedures.pdf</t>
-  </si>
-  <si>
     <t>Drugs/Rocuronium.pdf</t>
   </si>
   <si>
@@ -550,12 +550,12 @@
     <t>Breathing(Respiratory)/Equipment/Setting up the NKV-330.pdf</t>
   </si>
   <si>
+    <t>Breathing(Respiratory)/T1RF - CPAP Guidelines_Mar24.pdf</t>
+  </si>
+  <si>
     <t>Breathing(Respiratory)/NKV 330 NIV guidelines.pdf</t>
   </si>
   <si>
-    <t>Breathing(Respiratory)/T1RF - CPAP Guidelines_Mar24.pdf</t>
-  </si>
-  <si>
     <t>Infection_and_sepsis/Influenza in Critical Care.pdf</t>
   </si>
   <si>
@@ -565,10 +565,13 @@
     <t>Policies_and_admin/Discharge Home from Critical Care .pdf</t>
   </si>
   <si>
+    <t>GI_Liver_and_Transplant/Nasal Bridle use in Critical Care.pdf</t>
+  </si>
+  <si>
     <t>GI_Liver_and_Transplant/Insertion of Nasojejunal Tubes.pdf</t>
   </si>
   <si>
-    <t>GI_Liver_and_Transplant/Nasal Bridle use in Critical Care.pdf</t>
+    <t>GI_Liver_and_Transplant/Pabrinex.pdf</t>
   </si>
   <si>
     <t>Cardiovascular/Focused TOE Guideline for General Critical Care_pub.pdf</t>
@@ -577,205 +580,199 @@
     <t>Drugs/Pabrinex.pdf</t>
   </si>
   <si>
-    <t>GI_Liver_and_Transplant/Pabrinex.pdf</t>
+    <t>Policies_and_admin/Repatriaiton Checklist for Critical Care.pdf</t>
   </si>
   <si>
     <t>Transfer/Repatriaiton Checklist for Critical Care.pdf</t>
   </si>
   <si>
-    <t>Policies_and_admin/Repatriaiton Checklist for Critical Care.pdf</t>
-  </si>
-  <si>
-    <t>2011-03-13</t>
-  </si>
-  <si>
-    <t>2011-06-13</t>
-  </si>
-  <si>
-    <t>2011-07-13</t>
-  </si>
-  <si>
-    <t>2011-12-13</t>
-  </si>
-  <si>
-    <t>2014-09-13</t>
-  </si>
-  <si>
-    <t>2014-10-13</t>
-  </si>
-  <si>
-    <t>2014-11-13</t>
-  </si>
-  <si>
-    <t>2014-12-13</t>
-  </si>
-  <si>
-    <t>2015-03-13</t>
-  </si>
-  <si>
-    <t>2016-04-13</t>
-  </si>
-  <si>
-    <t>2016-08-13</t>
-  </si>
-  <si>
-    <t>2017-01-13</t>
-  </si>
-  <si>
-    <t>2017-08-13</t>
-  </si>
-  <si>
-    <t>2017-10-13</t>
-  </si>
-  <si>
-    <t>2017-11-13</t>
-  </si>
-  <si>
-    <t>2018-07-13</t>
-  </si>
-  <si>
-    <t>2019-05-13</t>
-  </si>
-  <si>
-    <t>2019-06-13</t>
-  </si>
-  <si>
-    <t>2019-08-13</t>
-  </si>
-  <si>
-    <t>2019-09-13</t>
-  </si>
-  <si>
-    <t>2020-01-13</t>
-  </si>
-  <si>
-    <t>2020-03-13</t>
-  </si>
-  <si>
-    <t>2020-04-13</t>
-  </si>
-  <si>
-    <t>2020-05-13</t>
-  </si>
-  <si>
-    <t>2020-07-13</t>
-  </si>
-  <si>
-    <t>2020-08-13</t>
-  </si>
-  <si>
-    <t>2020-11-13</t>
-  </si>
-  <si>
-    <t>2021-02-13</t>
-  </si>
-  <si>
-    <t>2021-05-13</t>
-  </si>
-  <si>
-    <t>2021-06-13</t>
-  </si>
-  <si>
-    <t>2021-09-13</t>
-  </si>
-  <si>
-    <t>2021-12-13</t>
-  </si>
-  <si>
-    <t>2022-01-13</t>
-  </si>
-  <si>
-    <t>2022-03-13</t>
-  </si>
-  <si>
-    <t>2022-04-13</t>
-  </si>
-  <si>
-    <t>2022-05-13</t>
-  </si>
-  <si>
-    <t>2022-06-13</t>
-  </si>
-  <si>
-    <t>2022-07-13</t>
-  </si>
-  <si>
-    <t>2022-08-13</t>
-  </si>
-  <si>
-    <t>2022-10-13</t>
-  </si>
-  <si>
-    <t>2022-11-13</t>
-  </si>
-  <si>
-    <t>2022-12-13</t>
-  </si>
-  <si>
-    <t>2023-01-13</t>
-  </si>
-  <si>
-    <t>2023-02-13</t>
-  </si>
-  <si>
-    <t>2023-04-13</t>
-  </si>
-  <si>
-    <t>2023-05-13</t>
-  </si>
-  <si>
-    <t>2023-06-13</t>
-  </si>
-  <si>
-    <t>2023-07-13</t>
-  </si>
-  <si>
-    <t>2023-08-13</t>
-  </si>
-  <si>
-    <t>2023-09-13</t>
-  </si>
-  <si>
-    <t>2023-10-13</t>
-  </si>
-  <si>
-    <t>2024-01-13</t>
-  </si>
-  <si>
-    <t>2024-02-13</t>
-  </si>
-  <si>
-    <t>2024-03-13</t>
-  </si>
-  <si>
-    <t>2024-04-13</t>
-  </si>
-  <si>
-    <t>2024-05-13</t>
+    <t>2011-03-15</t>
+  </si>
+  <si>
+    <t>2011-06-15</t>
+  </si>
+  <si>
+    <t>2011-07-15</t>
+  </si>
+  <si>
+    <t>2011-12-15</t>
+  </si>
+  <si>
+    <t>2014-09-15</t>
+  </si>
+  <si>
+    <t>2014-10-15</t>
+  </si>
+  <si>
+    <t>2014-11-15</t>
+  </si>
+  <si>
+    <t>2014-12-15</t>
+  </si>
+  <si>
+    <t>2015-03-15</t>
+  </si>
+  <si>
+    <t>2016-04-15</t>
+  </si>
+  <si>
+    <t>2016-08-15</t>
+  </si>
+  <si>
+    <t>2017-01-15</t>
+  </si>
+  <si>
+    <t>2017-08-15</t>
+  </si>
+  <si>
+    <t>2017-10-15</t>
+  </si>
+  <si>
+    <t>2017-11-15</t>
+  </si>
+  <si>
+    <t>2018-07-15</t>
+  </si>
+  <si>
+    <t>2019-05-15</t>
+  </si>
+  <si>
+    <t>2019-06-15</t>
+  </si>
+  <si>
+    <t>2019-08-15</t>
+  </si>
+  <si>
+    <t>2019-09-15</t>
+  </si>
+  <si>
+    <t>2020-01-15</t>
+  </si>
+  <si>
+    <t>2020-03-15</t>
+  </si>
+  <si>
+    <t>2020-04-15</t>
+  </si>
+  <si>
+    <t>2020-05-15</t>
+  </si>
+  <si>
+    <t>2020-07-15</t>
+  </si>
+  <si>
+    <t>2020-08-15</t>
+  </si>
+  <si>
+    <t>2020-11-15</t>
+  </si>
+  <si>
+    <t>2021-02-15</t>
+  </si>
+  <si>
+    <t>2021-05-15</t>
+  </si>
+  <si>
+    <t>2021-06-15</t>
+  </si>
+  <si>
+    <t>2021-09-15</t>
+  </si>
+  <si>
+    <t>2021-12-15</t>
+  </si>
+  <si>
+    <t>2022-01-15</t>
+  </si>
+  <si>
+    <t>2022-03-15</t>
+  </si>
+  <si>
+    <t>2022-04-15</t>
+  </si>
+  <si>
+    <t>2022-05-15</t>
+  </si>
+  <si>
+    <t>2022-06-15</t>
+  </si>
+  <si>
+    <t>2022-07-15</t>
+  </si>
+  <si>
+    <t>2022-08-15</t>
+  </si>
+  <si>
+    <t>2022-10-15</t>
+  </si>
+  <si>
+    <t>2022-11-15</t>
+  </si>
+  <si>
+    <t>2022-12-15</t>
+  </si>
+  <si>
+    <t>2023-01-15</t>
+  </si>
+  <si>
+    <t>2023-02-15</t>
+  </si>
+  <si>
+    <t>2023-04-15</t>
+  </si>
+  <si>
+    <t>2023-05-15</t>
+  </si>
+  <si>
+    <t>2023-06-15</t>
+  </si>
+  <si>
+    <t>2023-07-15</t>
+  </si>
+  <si>
+    <t>2023-08-15</t>
+  </si>
+  <si>
+    <t>2023-09-15</t>
+  </si>
+  <si>
+    <t>2023-10-15</t>
+  </si>
+  <si>
+    <t>2024-01-15</t>
+  </si>
+  <si>
+    <t>2024-02-15</t>
+  </si>
+  <si>
+    <t>2024-03-15</t>
+  </si>
+  <si>
+    <t>2024-04-15</t>
+  </si>
+  <si>
+    <t>2024-05-15</t>
   </si>
   <si>
     <t>2024-06-02</t>
   </si>
   <si>
-    <t>2024-06-13</t>
+    <t>2024-06-15</t>
   </si>
   <si>
     <t>2024-06-26</t>
   </si>
   <si>
-    <t>2024-07-13</t>
+    <t>2024-07-15</t>
   </si>
   <si>
     <t>2024-07-25</t>
   </si>
   <si>
-    <t>2024-08-13</t>
-  </si>
-  <si>
     <t>2024-08-15</t>
   </si>
   <si>
-    <t>2024-10-13</t>
+    <t>2024-10-15</t>
   </si>
   <si>
     <t>2024-10-24</t>
@@ -790,82 +787,82 @@
     <t>2024-12-24</t>
   </si>
   <si>
-    <t>2025-01-13</t>
-  </si>
-  <si>
-    <t>2025-02-13</t>
-  </si>
-  <si>
-    <t>2025-03-13</t>
-  </si>
-  <si>
-    <t>2025-04-13</t>
-  </si>
-  <si>
-    <t>2025-05-13</t>
-  </si>
-  <si>
-    <t>2025-06-13</t>
-  </si>
-  <si>
-    <t>2025-07-13</t>
-  </si>
-  <si>
-    <t>2025-08-13</t>
-  </si>
-  <si>
-    <t>2025-10-13</t>
-  </si>
-  <si>
-    <t>2025-11-13</t>
-  </si>
-  <si>
-    <t>2026-01-13</t>
-  </si>
-  <si>
-    <t>2026-03-13</t>
-  </si>
-  <si>
-    <t>2026-05-13</t>
-  </si>
-  <si>
-    <t>2026-07-13</t>
-  </si>
-  <si>
-    <t>2026-11-13</t>
-  </si>
-  <si>
-    <t>2027-01-13</t>
-  </si>
-  <si>
-    <t>2027-02-13</t>
-  </si>
-  <si>
-    <t>2027-03-13</t>
-  </si>
-  <si>
-    <t>2028-02-13</t>
-  </si>
-  <si>
-    <t>2028-03-13</t>
-  </si>
-  <si>
-    <t>2028-05-13</t>
-  </si>
-  <si>
-    <t>2028-07-13</t>
-  </si>
-  <si>
-    <t>2028-11-13</t>
-  </si>
-  <si>
-    <t>2029-02-13</t>
-  </si>
-  <si>
-    <t>2029-06-13</t>
-  </si>
-  <si>
-    <t>2030-11-13</t>
+    <t>2025-01-15</t>
+  </si>
+  <si>
+    <t>2025-02-15</t>
+  </si>
+  <si>
+    <t>2025-03-15</t>
+  </si>
+  <si>
+    <t>2025-04-15</t>
+  </si>
+  <si>
+    <t>2025-05-15</t>
+  </si>
+  <si>
+    <t>2025-06-15</t>
+  </si>
+  <si>
+    <t>2025-07-15</t>
+  </si>
+  <si>
+    <t>2025-08-15</t>
+  </si>
+  <si>
+    <t>2025-10-15</t>
+  </si>
+  <si>
+    <t>2025-11-15</t>
+  </si>
+  <si>
+    <t>2026-01-15</t>
+  </si>
+  <si>
+    <t>2026-03-15</t>
+  </si>
+  <si>
+    <t>2026-05-15</t>
+  </si>
+  <si>
+    <t>2026-07-15</t>
+  </si>
+  <si>
+    <t>2026-11-15</t>
+  </si>
+  <si>
+    <t>2027-01-15</t>
+  </si>
+  <si>
+    <t>2027-02-15</t>
+  </si>
+  <si>
+    <t>2027-03-15</t>
+  </si>
+  <si>
+    <t>2028-02-15</t>
+  </si>
+  <si>
+    <t>2028-03-15</t>
+  </si>
+  <si>
+    <t>2028-05-15</t>
+  </si>
+  <si>
+    <t>2028-07-15</t>
+  </si>
+  <si>
+    <t>2028-11-15</t>
+  </si>
+  <si>
+    <t>2029-02-15</t>
+  </si>
+  <si>
+    <t>2029-06-15</t>
+  </si>
+  <si>
+    <t>2030-11-15</t>
   </si>
 </sst>
 </file>
@@ -2162,7 +2159,7 @@
         <v>117</v>
       </c>
       <c r="B117" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="118" spans="1:2">
@@ -2170,7 +2167,7 @@
         <v>118</v>
       </c>
       <c r="B118" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="119" spans="1:2">
@@ -2178,7 +2175,7 @@
         <v>119</v>
       </c>
       <c r="B119" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="120" spans="1:2">
@@ -2186,7 +2183,7 @@
         <v>120</v>
       </c>
       <c r="B120" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="121" spans="1:2">
@@ -2194,7 +2191,7 @@
         <v>121</v>
       </c>
       <c r="B121" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="122" spans="1:2">
@@ -2202,7 +2199,7 @@
         <v>122</v>
       </c>
       <c r="B122" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="123" spans="1:2">
@@ -2210,7 +2207,7 @@
         <v>123</v>
       </c>
       <c r="B123" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="124" spans="1:2">
@@ -2218,7 +2215,7 @@
         <v>124</v>
       </c>
       <c r="B124" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="125" spans="1:2">
@@ -2226,7 +2223,7 @@
         <v>125</v>
       </c>
       <c r="B125" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="126" spans="1:2">
@@ -2234,7 +2231,7 @@
         <v>126</v>
       </c>
       <c r="B126" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="127" spans="1:2">
@@ -2242,7 +2239,7 @@
         <v>127</v>
       </c>
       <c r="B127" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="128" spans="1:2">
@@ -2250,7 +2247,7 @@
         <v>128</v>
       </c>
       <c r="B128" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="129" spans="1:2">
@@ -2258,7 +2255,7 @@
         <v>129</v>
       </c>
       <c r="B129" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="130" spans="1:2">
@@ -2266,7 +2263,7 @@
         <v>130</v>
       </c>
       <c r="B130" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="131" spans="1:2">
@@ -2274,7 +2271,7 @@
         <v>131</v>
       </c>
       <c r="B131" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="132" spans="1:2">
@@ -2282,7 +2279,7 @@
         <v>132</v>
       </c>
       <c r="B132" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="133" spans="1:2">
@@ -2290,7 +2287,7 @@
         <v>133</v>
       </c>
       <c r="B133" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="134" spans="1:2">
@@ -2298,7 +2295,7 @@
         <v>134</v>
       </c>
       <c r="B134" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="135" spans="1:2">
@@ -2306,7 +2303,7 @@
         <v>135</v>
       </c>
       <c r="B135" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="136" spans="1:2">
@@ -2314,7 +2311,7 @@
         <v>136</v>
       </c>
       <c r="B136" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="137" spans="1:2">
@@ -2322,7 +2319,7 @@
         <v>137</v>
       </c>
       <c r="B137" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="138" spans="1:2">
@@ -2330,7 +2327,7 @@
         <v>138</v>
       </c>
       <c r="B138" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="139" spans="1:2">
@@ -2338,7 +2335,7 @@
         <v>139</v>
       </c>
       <c r="B139" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="140" spans="1:2">
@@ -2346,7 +2343,7 @@
         <v>140</v>
       </c>
       <c r="B140" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="141" spans="1:2">
@@ -2354,7 +2351,7 @@
         <v>141</v>
       </c>
       <c r="B141" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="142" spans="1:2">
@@ -2362,7 +2359,7 @@
         <v>142</v>
       </c>
       <c r="B142" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="143" spans="1:2">
@@ -2370,7 +2367,7 @@
         <v>143</v>
       </c>
       <c r="B143" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="144" spans="1:2">
@@ -2378,7 +2375,7 @@
         <v>144</v>
       </c>
       <c r="B144" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="145" spans="1:2">
@@ -2386,7 +2383,7 @@
         <v>145</v>
       </c>
       <c r="B145" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="146" spans="1:2">
@@ -2394,7 +2391,7 @@
         <v>146</v>
       </c>
       <c r="B146" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="147" spans="1:2">
@@ -2402,7 +2399,7 @@
         <v>147</v>
       </c>
       <c r="B147" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="148" spans="1:2">
@@ -2410,7 +2407,7 @@
         <v>148</v>
       </c>
       <c r="B148" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="149" spans="1:2">
@@ -2418,7 +2415,7 @@
         <v>149</v>
       </c>
       <c r="B149" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="150" spans="1:2">
@@ -2426,7 +2423,7 @@
         <v>150</v>
       </c>
       <c r="B150" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="151" spans="1:2">
@@ -2434,7 +2431,7 @@
         <v>151</v>
       </c>
       <c r="B151" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="152" spans="1:2">
@@ -2442,7 +2439,7 @@
         <v>152</v>
       </c>
       <c r="B152" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="153" spans="1:2">
@@ -2450,7 +2447,7 @@
         <v>153</v>
       </c>
       <c r="B153" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="154" spans="1:2">
@@ -2458,7 +2455,7 @@
         <v>154</v>
       </c>
       <c r="B154" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="155" spans="1:2">
@@ -2466,7 +2463,7 @@
         <v>155</v>
       </c>
       <c r="B155" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="156" spans="1:2">
@@ -2474,7 +2471,7 @@
         <v>156</v>
       </c>
       <c r="B156" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="157" spans="1:2">
@@ -2482,7 +2479,7 @@
         <v>157</v>
       </c>
       <c r="B157" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="158" spans="1:2">
@@ -2490,7 +2487,7 @@
         <v>158</v>
       </c>
       <c r="B158" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="159" spans="1:2">
@@ -2498,7 +2495,7 @@
         <v>159</v>
       </c>
       <c r="B159" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="160" spans="1:2">
@@ -2506,7 +2503,7 @@
         <v>160</v>
       </c>
       <c r="B160" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="161" spans="1:2">
@@ -2514,7 +2511,7 @@
         <v>161</v>
       </c>
       <c r="B161" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="162" spans="1:2">
@@ -2522,7 +2519,7 @@
         <v>162</v>
       </c>
       <c r="B162" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="163" spans="1:2">
@@ -2530,7 +2527,7 @@
         <v>163</v>
       </c>
       <c r="B163" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="164" spans="1:2">
@@ -2538,7 +2535,7 @@
         <v>164</v>
       </c>
       <c r="B164" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="165" spans="1:2">
@@ -2546,7 +2543,7 @@
         <v>165</v>
       </c>
       <c r="B165" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="166" spans="1:2">
@@ -2554,7 +2551,7 @@
         <v>166</v>
       </c>
       <c r="B166" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="167" spans="1:2">
@@ -2562,7 +2559,7 @@
         <v>167</v>
       </c>
       <c r="B167" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="168" spans="1:2">
@@ -2570,7 +2567,7 @@
         <v>168</v>
       </c>
       <c r="B168" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="169" spans="1:2">
@@ -2578,7 +2575,7 @@
         <v>169</v>
       </c>
       <c r="B169" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="170" spans="1:2">
@@ -2586,7 +2583,7 @@
         <v>170</v>
       </c>
       <c r="B170" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="171" spans="1:2">
@@ -2594,7 +2591,7 @@
         <v>171</v>
       </c>
       <c r="B171" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="172" spans="1:2">
@@ -2602,7 +2599,7 @@
         <v>172</v>
       </c>
       <c r="B172" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="173" spans="1:2">
@@ -2610,7 +2607,7 @@
         <v>173</v>
       </c>
       <c r="B173" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="174" spans="1:2">
@@ -2618,7 +2615,7 @@
         <v>174</v>
       </c>
       <c r="B174" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="175" spans="1:2">
@@ -2626,7 +2623,7 @@
         <v>175</v>
       </c>
       <c r="B175" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="176" spans="1:2">
@@ -2634,7 +2631,7 @@
         <v>176</v>
       </c>
       <c r="B176" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="177" spans="1:2">
@@ -2642,7 +2639,7 @@
         <v>177</v>
       </c>
       <c r="B177" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="178" spans="1:2">
@@ -2650,7 +2647,7 @@
         <v>178</v>
       </c>
       <c r="B178" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="179" spans="1:2">
@@ -2658,7 +2655,7 @@
         <v>179</v>
       </c>
       <c r="B179" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="180" spans="1:2">
@@ -2666,7 +2663,7 @@
         <v>180</v>
       </c>
       <c r="B180" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="181" spans="1:2">
@@ -2674,7 +2671,7 @@
         <v>181</v>
       </c>
       <c r="B181" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="182" spans="1:2">
@@ -2682,7 +2679,7 @@
         <v>182</v>
       </c>
       <c r="B182" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="183" spans="1:2">
@@ -2690,7 +2687,7 @@
         <v>183</v>
       </c>
       <c r="B183" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="184" spans="1:2">
@@ -2698,7 +2695,7 @@
         <v>184</v>
       </c>
       <c r="B184" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="185" spans="1:2">
@@ -2706,7 +2703,7 @@
         <v>185</v>
       </c>
       <c r="B185" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="186" spans="1:2">
@@ -2714,7 +2711,7 @@
         <v>186</v>
       </c>
       <c r="B186" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="187" spans="1:2">
@@ -2722,7 +2719,7 @@
         <v>187</v>
       </c>
       <c r="B187" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="188" spans="1:2">
@@ -2730,7 +2727,7 @@
         <v>188</v>
       </c>
       <c r="B188" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="189" spans="1:2">
@@ -2738,7 +2735,7 @@
         <v>189</v>
       </c>
       <c r="B189" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
   </sheetData>

--- a/lothiancriticalcare/1a74f8f7b8b7e871b413c4697f68b4401fbacdf0/reviewdates.xlsx
+++ b/lothiancriticalcare/1a74f8f7b8b7e871b413c4697f68b4401fbacdf0/reviewdates.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="283">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="284">
   <si>
     <t>File</t>
   </si>
@@ -358,6 +358,9 @@
     <t>Infection_and_sepsis/Antifungal guidance in critical care.pdf</t>
   </si>
   <si>
+    <t>Breathing(Respiratory)/ARDS Strategy.pdf</t>
+  </si>
+  <si>
     <t>Cardiovascular/Intra Aortic Balloon Pump Bedside Checks_pub.pdf</t>
   </si>
   <si>
@@ -367,9 +370,6 @@
     <t>Cardiovascular/Intra Aortic Balloon Pump Guideline_pub.pdf</t>
   </si>
   <si>
-    <t>Breathing(Respiratory)/ARDS Strategy.pdf</t>
-  </si>
-  <si>
     <t>Drugs/Dobutamine.pdf</t>
   </si>
   <si>
@@ -586,184 +586,184 @@
     <t>Transfer/Repatriaiton Checklist for Critical Care.pdf</t>
   </si>
   <si>
-    <t>2011-03-15</t>
-  </si>
-  <si>
-    <t>2011-06-15</t>
-  </si>
-  <si>
-    <t>2011-07-15</t>
-  </si>
-  <si>
-    <t>2011-12-15</t>
-  </si>
-  <si>
-    <t>2014-09-15</t>
-  </si>
-  <si>
-    <t>2014-10-15</t>
-  </si>
-  <si>
-    <t>2014-11-15</t>
-  </si>
-  <si>
-    <t>2014-12-15</t>
-  </si>
-  <si>
-    <t>2015-03-15</t>
-  </si>
-  <si>
-    <t>2016-04-15</t>
-  </si>
-  <si>
-    <t>2016-08-15</t>
-  </si>
-  <si>
-    <t>2017-01-15</t>
-  </si>
-  <si>
-    <t>2017-08-15</t>
-  </si>
-  <si>
-    <t>2017-10-15</t>
-  </si>
-  <si>
-    <t>2017-11-15</t>
-  </si>
-  <si>
-    <t>2018-07-15</t>
-  </si>
-  <si>
-    <t>2019-05-15</t>
-  </si>
-  <si>
-    <t>2019-06-15</t>
-  </si>
-  <si>
-    <t>2019-08-15</t>
-  </si>
-  <si>
-    <t>2019-09-15</t>
-  </si>
-  <si>
-    <t>2020-01-15</t>
-  </si>
-  <si>
-    <t>2020-03-15</t>
-  </si>
-  <si>
-    <t>2020-04-15</t>
-  </si>
-  <si>
-    <t>2020-05-15</t>
-  </si>
-  <si>
-    <t>2020-07-15</t>
-  </si>
-  <si>
-    <t>2020-08-15</t>
-  </si>
-  <si>
-    <t>2020-11-15</t>
-  </si>
-  <si>
-    <t>2021-02-15</t>
-  </si>
-  <si>
-    <t>2021-05-15</t>
-  </si>
-  <si>
-    <t>2021-06-15</t>
-  </si>
-  <si>
-    <t>2021-09-15</t>
-  </si>
-  <si>
-    <t>2021-12-15</t>
-  </si>
-  <si>
-    <t>2022-01-15</t>
-  </si>
-  <si>
-    <t>2022-03-15</t>
-  </si>
-  <si>
-    <t>2022-04-15</t>
-  </si>
-  <si>
-    <t>2022-05-15</t>
-  </si>
-  <si>
-    <t>2022-06-15</t>
-  </si>
-  <si>
-    <t>2022-07-15</t>
-  </si>
-  <si>
-    <t>2022-08-15</t>
-  </si>
-  <si>
-    <t>2022-10-15</t>
-  </si>
-  <si>
-    <t>2022-11-15</t>
-  </si>
-  <si>
-    <t>2022-12-15</t>
-  </si>
-  <si>
-    <t>2023-01-15</t>
-  </si>
-  <si>
-    <t>2023-02-15</t>
-  </si>
-  <si>
-    <t>2023-04-15</t>
-  </si>
-  <si>
-    <t>2023-05-15</t>
-  </si>
-  <si>
-    <t>2023-06-15</t>
-  </si>
-  <si>
-    <t>2023-07-15</t>
-  </si>
-  <si>
-    <t>2023-08-15</t>
-  </si>
-  <si>
-    <t>2023-09-15</t>
-  </si>
-  <si>
-    <t>2023-10-15</t>
-  </si>
-  <si>
-    <t>2024-01-15</t>
-  </si>
-  <si>
-    <t>2024-02-15</t>
-  </si>
-  <si>
-    <t>2024-03-15</t>
-  </si>
-  <si>
-    <t>2024-04-15</t>
-  </si>
-  <si>
-    <t>2024-05-15</t>
+    <t>2011-03-18</t>
+  </si>
+  <si>
+    <t>2011-06-18</t>
+  </si>
+  <si>
+    <t>2011-07-18</t>
+  </si>
+  <si>
+    <t>2011-12-18</t>
+  </si>
+  <si>
+    <t>2014-09-18</t>
+  </si>
+  <si>
+    <t>2014-10-18</t>
+  </si>
+  <si>
+    <t>2014-11-18</t>
+  </si>
+  <si>
+    <t>2014-12-18</t>
+  </si>
+  <si>
+    <t>2015-03-18</t>
+  </si>
+  <si>
+    <t>2016-04-18</t>
+  </si>
+  <si>
+    <t>2016-08-18</t>
+  </si>
+  <si>
+    <t>2017-01-18</t>
+  </si>
+  <si>
+    <t>2017-08-18</t>
+  </si>
+  <si>
+    <t>2017-10-18</t>
+  </si>
+  <si>
+    <t>2017-11-18</t>
+  </si>
+  <si>
+    <t>2018-07-18</t>
+  </si>
+  <si>
+    <t>2019-05-18</t>
+  </si>
+  <si>
+    <t>2019-06-18</t>
+  </si>
+  <si>
+    <t>2019-08-18</t>
+  </si>
+  <si>
+    <t>2019-09-18</t>
+  </si>
+  <si>
+    <t>2020-01-18</t>
+  </si>
+  <si>
+    <t>2020-03-18</t>
+  </si>
+  <si>
+    <t>2020-04-18</t>
+  </si>
+  <si>
+    <t>2020-05-18</t>
+  </si>
+  <si>
+    <t>2020-07-18</t>
+  </si>
+  <si>
+    <t>2020-08-18</t>
+  </si>
+  <si>
+    <t>2020-11-18</t>
+  </si>
+  <si>
+    <t>2021-02-18</t>
+  </si>
+  <si>
+    <t>2021-05-18</t>
+  </si>
+  <si>
+    <t>2021-06-18</t>
+  </si>
+  <si>
+    <t>2021-09-18</t>
+  </si>
+  <si>
+    <t>2021-12-18</t>
+  </si>
+  <si>
+    <t>2022-01-18</t>
+  </si>
+  <si>
+    <t>2022-03-18</t>
+  </si>
+  <si>
+    <t>2022-04-18</t>
+  </si>
+  <si>
+    <t>2022-05-18</t>
+  </si>
+  <si>
+    <t>2022-06-18</t>
+  </si>
+  <si>
+    <t>2022-07-18</t>
+  </si>
+  <si>
+    <t>2022-08-18</t>
+  </si>
+  <si>
+    <t>2022-10-18</t>
+  </si>
+  <si>
+    <t>2022-11-18</t>
+  </si>
+  <si>
+    <t>2022-12-18</t>
+  </si>
+  <si>
+    <t>2023-01-18</t>
+  </si>
+  <si>
+    <t>2023-02-18</t>
+  </si>
+  <si>
+    <t>2023-04-18</t>
+  </si>
+  <si>
+    <t>2023-05-18</t>
+  </si>
+  <si>
+    <t>2023-06-18</t>
+  </si>
+  <si>
+    <t>2023-07-18</t>
+  </si>
+  <si>
+    <t>2023-08-18</t>
+  </si>
+  <si>
+    <t>2023-09-18</t>
+  </si>
+  <si>
+    <t>2023-10-18</t>
+  </si>
+  <si>
+    <t>2024-01-18</t>
+  </si>
+  <si>
+    <t>2024-02-18</t>
+  </si>
+  <si>
+    <t>2024-03-18</t>
+  </si>
+  <si>
+    <t>2024-04-18</t>
+  </si>
+  <si>
+    <t>2024-05-18</t>
   </si>
   <si>
     <t>2024-06-02</t>
   </si>
   <si>
-    <t>2024-06-15</t>
+    <t>2024-06-18</t>
   </si>
   <si>
     <t>2024-06-26</t>
   </si>
   <si>
-    <t>2024-07-15</t>
+    <t>2024-07-18</t>
   </si>
   <si>
     <t>2024-07-25</t>
@@ -772,7 +772,10 @@
     <t>2024-08-15</t>
   </si>
   <si>
-    <t>2024-10-15</t>
+    <t>2024-08-18</t>
+  </si>
+  <si>
+    <t>2024-10-18</t>
   </si>
   <si>
     <t>2024-10-24</t>
@@ -787,82 +790,82 @@
     <t>2024-12-24</t>
   </si>
   <si>
-    <t>2025-01-15</t>
-  </si>
-  <si>
-    <t>2025-02-15</t>
-  </si>
-  <si>
-    <t>2025-03-15</t>
-  </si>
-  <si>
-    <t>2025-04-15</t>
-  </si>
-  <si>
-    <t>2025-05-15</t>
-  </si>
-  <si>
-    <t>2025-06-15</t>
-  </si>
-  <si>
-    <t>2025-07-15</t>
-  </si>
-  <si>
-    <t>2025-08-15</t>
-  </si>
-  <si>
-    <t>2025-10-15</t>
-  </si>
-  <si>
-    <t>2025-11-15</t>
-  </si>
-  <si>
-    <t>2026-01-15</t>
-  </si>
-  <si>
-    <t>2026-03-15</t>
-  </si>
-  <si>
-    <t>2026-05-15</t>
-  </si>
-  <si>
-    <t>2026-07-15</t>
-  </si>
-  <si>
-    <t>2026-11-15</t>
-  </si>
-  <si>
-    <t>2027-01-15</t>
-  </si>
-  <si>
-    <t>2027-02-15</t>
-  </si>
-  <si>
-    <t>2027-03-15</t>
-  </si>
-  <si>
-    <t>2028-02-15</t>
-  </si>
-  <si>
-    <t>2028-03-15</t>
-  </si>
-  <si>
-    <t>2028-05-15</t>
-  </si>
-  <si>
-    <t>2028-07-15</t>
-  </si>
-  <si>
-    <t>2028-11-15</t>
-  </si>
-  <si>
-    <t>2029-02-15</t>
-  </si>
-  <si>
-    <t>2029-06-15</t>
-  </si>
-  <si>
-    <t>2030-11-15</t>
+    <t>2025-01-18</t>
+  </si>
+  <si>
+    <t>2025-02-18</t>
+  </si>
+  <si>
+    <t>2025-03-18</t>
+  </si>
+  <si>
+    <t>2025-04-18</t>
+  </si>
+  <si>
+    <t>2025-05-18</t>
+  </si>
+  <si>
+    <t>2025-06-18</t>
+  </si>
+  <si>
+    <t>2025-07-18</t>
+  </si>
+  <si>
+    <t>2025-08-18</t>
+  </si>
+  <si>
+    <t>2025-10-18</t>
+  </si>
+  <si>
+    <t>2025-11-18</t>
+  </si>
+  <si>
+    <t>2026-01-18</t>
+  </si>
+  <si>
+    <t>2026-03-18</t>
+  </si>
+  <si>
+    <t>2026-05-18</t>
+  </si>
+  <si>
+    <t>2026-07-18</t>
+  </si>
+  <si>
+    <t>2026-11-18</t>
+  </si>
+  <si>
+    <t>2027-01-18</t>
+  </si>
+  <si>
+    <t>2027-02-18</t>
+  </si>
+  <si>
+    <t>2027-03-18</t>
+  </si>
+  <si>
+    <t>2028-02-18</t>
+  </si>
+  <si>
+    <t>2028-03-18</t>
+  </si>
+  <si>
+    <t>2028-05-18</t>
+  </si>
+  <si>
+    <t>2028-07-18</t>
+  </si>
+  <si>
+    <t>2028-11-18</t>
+  </si>
+  <si>
+    <t>2029-02-18</t>
+  </si>
+  <si>
+    <t>2029-06-18</t>
+  </si>
+  <si>
+    <t>2030-11-18</t>
   </si>
 </sst>
 </file>
@@ -2143,7 +2146,7 @@
         <v>115</v>
       </c>
       <c r="B115" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
     </row>
     <row r="116" spans="1:2">
@@ -2151,7 +2154,7 @@
         <v>116</v>
       </c>
       <c r="B116" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
     </row>
     <row r="117" spans="1:2">
@@ -2159,7 +2162,7 @@
         <v>117</v>
       </c>
       <c r="B117" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
     </row>
     <row r="118" spans="1:2">
@@ -2167,7 +2170,7 @@
         <v>118</v>
       </c>
       <c r="B118" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
     </row>
     <row r="119" spans="1:2">
@@ -2175,7 +2178,7 @@
         <v>119</v>
       </c>
       <c r="B119" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
     </row>
     <row r="120" spans="1:2">
@@ -2183,7 +2186,7 @@
         <v>120</v>
       </c>
       <c r="B120" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
     <row r="121" spans="1:2">
@@ -2191,7 +2194,7 @@
         <v>121</v>
       </c>
       <c r="B121" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="122" spans="1:2">
@@ -2199,7 +2202,7 @@
         <v>122</v>
       </c>
       <c r="B122" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="123" spans="1:2">
@@ -2207,7 +2210,7 @@
         <v>123</v>
       </c>
       <c r="B123" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="124" spans="1:2">
@@ -2215,7 +2218,7 @@
         <v>124</v>
       </c>
       <c r="B124" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="125" spans="1:2">
@@ -2223,7 +2226,7 @@
         <v>125</v>
       </c>
       <c r="B125" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
     <row r="126" spans="1:2">
@@ -2231,7 +2234,7 @@
         <v>126</v>
       </c>
       <c r="B126" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
     <row r="127" spans="1:2">
@@ -2239,7 +2242,7 @@
         <v>127</v>
       </c>
       <c r="B127" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
     <row r="128" spans="1:2">
@@ -2247,7 +2250,7 @@
         <v>128</v>
       </c>
       <c r="B128" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
     <row r="129" spans="1:2">
@@ -2255,7 +2258,7 @@
         <v>129</v>
       </c>
       <c r="B129" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
     <row r="130" spans="1:2">
@@ -2263,7 +2266,7 @@
         <v>130</v>
       </c>
       <c r="B130" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
     <row r="131" spans="1:2">
@@ -2271,7 +2274,7 @@
         <v>131</v>
       </c>
       <c r="B131" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="132" spans="1:2">
@@ -2279,7 +2282,7 @@
         <v>132</v>
       </c>
       <c r="B132" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="133" spans="1:2">
@@ -2287,7 +2290,7 @@
         <v>133</v>
       </c>
       <c r="B133" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="134" spans="1:2">
@@ -2295,7 +2298,7 @@
         <v>134</v>
       </c>
       <c r="B134" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="135" spans="1:2">
@@ -2303,7 +2306,7 @@
         <v>135</v>
       </c>
       <c r="B135" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="136" spans="1:2">
@@ -2311,7 +2314,7 @@
         <v>136</v>
       </c>
       <c r="B136" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="137" spans="1:2">
@@ -2319,7 +2322,7 @@
         <v>137</v>
       </c>
       <c r="B137" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="138" spans="1:2">
@@ -2327,7 +2330,7 @@
         <v>138</v>
       </c>
       <c r="B138" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="139" spans="1:2">
@@ -2335,7 +2338,7 @@
         <v>139</v>
       </c>
       <c r="B139" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="140" spans="1:2">
@@ -2343,7 +2346,7 @@
         <v>140</v>
       </c>
       <c r="B140" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="141" spans="1:2">
@@ -2351,7 +2354,7 @@
         <v>141</v>
       </c>
       <c r="B141" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="142" spans="1:2">
@@ -2359,7 +2362,7 @@
         <v>142</v>
       </c>
       <c r="B142" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="143" spans="1:2">
@@ -2367,7 +2370,7 @@
         <v>143</v>
       </c>
       <c r="B143" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
     </row>
     <row r="144" spans="1:2">
@@ -2375,7 +2378,7 @@
         <v>144</v>
       </c>
       <c r="B144" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
     </row>
     <row r="145" spans="1:2">
@@ -2383,7 +2386,7 @@
         <v>145</v>
       </c>
       <c r="B145" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
     </row>
     <row r="146" spans="1:2">
@@ -2391,7 +2394,7 @@
         <v>146</v>
       </c>
       <c r="B146" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
     </row>
     <row r="147" spans="1:2">
@@ -2399,7 +2402,7 @@
         <v>147</v>
       </c>
       <c r="B147" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
     </row>
     <row r="148" spans="1:2">
@@ -2407,7 +2410,7 @@
         <v>148</v>
       </c>
       <c r="B148" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
     </row>
     <row r="149" spans="1:2">
@@ -2415,7 +2418,7 @@
         <v>149</v>
       </c>
       <c r="B149" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
     </row>
     <row r="150" spans="1:2">
@@ -2423,7 +2426,7 @@
         <v>150</v>
       </c>
       <c r="B150" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
     </row>
     <row r="151" spans="1:2">
@@ -2431,7 +2434,7 @@
         <v>151</v>
       </c>
       <c r="B151" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="152" spans="1:2">
@@ -2439,7 +2442,7 @@
         <v>152</v>
       </c>
       <c r="B152" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="153" spans="1:2">
@@ -2447,7 +2450,7 @@
         <v>153</v>
       </c>
       <c r="B153" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="154" spans="1:2">
@@ -2455,7 +2458,7 @@
         <v>154</v>
       </c>
       <c r="B154" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="155" spans="1:2">
@@ -2463,7 +2466,7 @@
         <v>155</v>
       </c>
       <c r="B155" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
     </row>
     <row r="156" spans="1:2">
@@ -2471,7 +2474,7 @@
         <v>156</v>
       </c>
       <c r="B156" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
     </row>
     <row r="157" spans="1:2">
@@ -2479,7 +2482,7 @@
         <v>157</v>
       </c>
       <c r="B157" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
     </row>
     <row r="158" spans="1:2">
@@ -2487,7 +2490,7 @@
         <v>158</v>
       </c>
       <c r="B158" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
     </row>
     <row r="159" spans="1:2">
@@ -2495,7 +2498,7 @@
         <v>159</v>
       </c>
       <c r="B159" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
     </row>
     <row r="160" spans="1:2">
@@ -2503,7 +2506,7 @@
         <v>160</v>
       </c>
       <c r="B160" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
     </row>
     <row r="161" spans="1:2">
@@ -2511,7 +2514,7 @@
         <v>161</v>
       </c>
       <c r="B161" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
     </row>
     <row r="162" spans="1:2">
@@ -2519,7 +2522,7 @@
         <v>162</v>
       </c>
       <c r="B162" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
     </row>
     <row r="163" spans="1:2">
@@ -2527,7 +2530,7 @@
         <v>163</v>
       </c>
       <c r="B163" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
     </row>
     <row r="164" spans="1:2">
@@ -2535,7 +2538,7 @@
         <v>164</v>
       </c>
       <c r="B164" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
     </row>
     <row r="165" spans="1:2">
@@ -2543,7 +2546,7 @@
         <v>165</v>
       </c>
       <c r="B165" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
     </row>
     <row r="166" spans="1:2">
@@ -2551,7 +2554,7 @@
         <v>166</v>
       </c>
       <c r="B166" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="167" spans="1:2">
@@ -2559,7 +2562,7 @@
         <v>167</v>
       </c>
       <c r="B167" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="168" spans="1:2">
@@ -2567,7 +2570,7 @@
         <v>168</v>
       </c>
       <c r="B168" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="169" spans="1:2">
@@ -2575,7 +2578,7 @@
         <v>169</v>
       </c>
       <c r="B169" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
     </row>
     <row r="170" spans="1:2">
@@ -2583,7 +2586,7 @@
         <v>170</v>
       </c>
       <c r="B170" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
     </row>
     <row r="171" spans="1:2">
@@ -2591,7 +2594,7 @@
         <v>171</v>
       </c>
       <c r="B171" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
     </row>
     <row r="172" spans="1:2">
@@ -2599,7 +2602,7 @@
         <v>172</v>
       </c>
       <c r="B172" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
     </row>
     <row r="173" spans="1:2">
@@ -2607,7 +2610,7 @@
         <v>173</v>
       </c>
       <c r="B173" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
     </row>
     <row r="174" spans="1:2">
@@ -2615,7 +2618,7 @@
         <v>174</v>
       </c>
       <c r="B174" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
     </row>
     <row r="175" spans="1:2">
@@ -2623,7 +2626,7 @@
         <v>175</v>
       </c>
       <c r="B175" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
     </row>
     <row r="176" spans="1:2">
@@ -2631,7 +2634,7 @@
         <v>176</v>
       </c>
       <c r="B176" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
     </row>
     <row r="177" spans="1:2">
@@ -2639,7 +2642,7 @@
         <v>177</v>
       </c>
       <c r="B177" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
     </row>
     <row r="178" spans="1:2">
@@ -2647,7 +2650,7 @@
         <v>178</v>
       </c>
       <c r="B178" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
     </row>
     <row r="179" spans="1:2">
@@ -2655,7 +2658,7 @@
         <v>179</v>
       </c>
       <c r="B179" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
     </row>
     <row r="180" spans="1:2">
@@ -2663,7 +2666,7 @@
         <v>180</v>
       </c>
       <c r="B180" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
     </row>
     <row r="181" spans="1:2">
@@ -2671,7 +2674,7 @@
         <v>181</v>
       </c>
       <c r="B181" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
     </row>
     <row r="182" spans="1:2">
@@ -2679,7 +2682,7 @@
         <v>182</v>
       </c>
       <c r="B182" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
     </row>
     <row r="183" spans="1:2">
@@ -2687,7 +2690,7 @@
         <v>183</v>
       </c>
       <c r="B183" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
     </row>
     <row r="184" spans="1:2">
@@ -2695,7 +2698,7 @@
         <v>184</v>
       </c>
       <c r="B184" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
     </row>
     <row r="185" spans="1:2">
@@ -2703,7 +2706,7 @@
         <v>185</v>
       </c>
       <c r="B185" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
     </row>
     <row r="186" spans="1:2">
@@ -2711,7 +2714,7 @@
         <v>186</v>
       </c>
       <c r="B186" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
     </row>
     <row r="187" spans="1:2">
@@ -2719,7 +2722,7 @@
         <v>187</v>
       </c>
       <c r="B187" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
     </row>
     <row r="188" spans="1:2">
@@ -2727,7 +2730,7 @@
         <v>188</v>
       </c>
       <c r="B188" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
     </row>
     <row r="189" spans="1:2">
@@ -2735,7 +2738,7 @@
         <v>189</v>
       </c>
       <c r="B189" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
     </row>
   </sheetData>

--- a/lothiancriticalcare/1a74f8f7b8b7e871b413c4697f68b4401fbacdf0/reviewdates.xlsx
+++ b/lothiancriticalcare/1a74f8f7b8b7e871b413c4697f68b4401fbacdf0/reviewdates.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="284">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="283">
   <si>
     <t>File</t>
   </si>
@@ -133,30 +133,30 @@
     <t>Airway/Percutaneous tracheostomy checklist.pdf</t>
   </si>
   <si>
+    <t>Delirium/Risk assessment posi mit.pdf</t>
+  </si>
+  <si>
     <t>Infection_and_sepsis/SOP Ultrasound Cleaning.pdf</t>
   </si>
   <si>
-    <t>Delirium/Risk assessment posi mit.pdf</t>
+    <t>Airway/McGrath Mac.pdf</t>
+  </si>
+  <si>
+    <t>GI_Liver_and_Transplant/Treatment of constipation.pdf</t>
+  </si>
+  <si>
+    <t>GI_Liver_and_Transplant/Abdominal pressure measurement.pdf</t>
   </si>
   <si>
     <t>Breathing(Respiratory)/HFNO.pdf</t>
   </si>
   <si>
+    <t>Airway/Tracheostomy_Laryngectomy/Tracheostomy safety box contents.pdf</t>
+  </si>
+  <si>
     <t>Neurological/Sub arachnoid haemorrhage management.pdf</t>
   </si>
   <si>
-    <t>GI_Liver_and_Transplant/Treatment of constipation.pdf</t>
-  </si>
-  <si>
-    <t>Airway/Tracheostomy_Laryngectomy/Tracheostomy safety box contents.pdf</t>
-  </si>
-  <si>
-    <t>GI_Liver_and_Transplant/Abdominal pressure measurement.pdf</t>
-  </si>
-  <si>
-    <t>Airway/McGrath Mac.pdf</t>
-  </si>
-  <si>
     <t>Airway/Anticipated difficult airway tool.pdf</t>
   </si>
   <si>
@@ -178,18 +178,18 @@
     <t>Breathing(Respiratory)/Inhaled Nitrous Oxide.pdf</t>
   </si>
   <si>
+    <t>Cardiovascular/Steroids for Septic Shock.pdf</t>
+  </si>
+  <si>
     <t>Breathing(Respiratory)/Equipment/APRV.pdf</t>
   </si>
   <si>
-    <t>Cardiovascular/Steroids for Septic Shock.pdf</t>
+    <t>Breathing(Respiratory)/Equipment/T piece Y piece.pdf</t>
   </si>
   <si>
     <t>Post_op_care/Epidural Haematoma.pdf</t>
   </si>
   <si>
-    <t>Breathing(Respiratory)/Equipment/T piece Y piece.pdf</t>
-  </si>
-  <si>
     <t>Neurological/SOP for review of Neurosurgical patients in ITU by neurosurgical team.pdf</t>
   </si>
   <si>
@@ -202,63 +202,63 @@
     <t>Breathing(Respiratory)/Equipment/HFNO through ventilator.pdf</t>
   </si>
   <si>
+    <t>Post_op_care/Adult Scoliosis Spinal Surgery Post-Op Care.pdf</t>
+  </si>
+  <si>
     <t>Routine_Care/VTE_Prevention/Dalteparin_thromboprophylaxis.pdf</t>
   </si>
   <si>
-    <t>Post_op_care/Adult Scoliosis Spinal Surgery Post-Op Care.pdf</t>
-  </si>
-  <si>
     <t>Post_op_care/Post op care pharyngo-laryngo-oesphagectomy PLOG.pdf</t>
   </si>
   <si>
     <t>GI_Liver_and_Transplant/Nasogastric feeding protocol.pdf</t>
   </si>
   <si>
+    <t>Drugs/Antibiotic doses in CVVHD.pdf</t>
+  </si>
+  <si>
     <t>Diabetes_and_Glucose/Intravenous Insulin Therapy (not for DKA or HHS).pdf</t>
   </si>
   <si>
-    <t>Drugs/Antibiotic doses in CVVHD.pdf</t>
+    <t>GI_Liver_and_Transplant/Nasojejunal feeding protocol.pdf</t>
+  </si>
+  <si>
+    <t>ECLS/RIE ECLS Anti Xa Protocol.pdf</t>
   </si>
   <si>
     <t>GI_Liver_and_Transplant/Jejunostomy feeding protocol.pdf</t>
   </si>
   <si>
-    <t>ECLS/RIE ECLS Anti Xa Protocol.pdf</t>
-  </si>
-  <si>
-    <t>GI_Liver_and_Transplant/Nasojejunal feeding protocol.pdf</t>
+    <t>Drugs/vasopressin_sepsis.pdf</t>
+  </si>
+  <si>
+    <t>Infection_and_sepsis/Winter Infections Stepdown Guidance.pdf</t>
   </si>
   <si>
     <t>Drugs/vasopressin organ donation.pdf</t>
   </si>
   <si>
-    <t>Infection_and_sepsis/Winter Infections Stepdown Guidance.pdf</t>
-  </si>
-  <si>
-    <t>Drugs/vasopressin_sepsis.pdf</t>
-  </si>
-  <si>
     <t>Transfer/ACCP Transfers.pdf</t>
   </si>
   <si>
     <t>Covid-19/videos/Donning and Doffing Video.pdf</t>
   </si>
   <si>
+    <t>Infection_and_sepsis/Infection indications for IVIG.pdf</t>
+  </si>
+  <si>
     <t>Breathing(Respiratory)/Equipment/Ventilators Circuits Filters and Closed Suction - Set up and Maintenance.pdf</t>
   </si>
   <si>
     <t>Drugs/piperacillin_tazobactam extended_infusion.pdf</t>
   </si>
   <si>
-    <t>Infection_and_sepsis/Infection indications for IVIG.pdf</t>
+    <t>Covid-19/Covid 19 Death Certification Guideline.pdf</t>
   </si>
   <si>
     <t>Procedures/CVC Guidance/Securing CVCs.pdf</t>
   </si>
   <si>
-    <t>Covid-19/Covid 19 Death Certification Guideline.pdf</t>
-  </si>
-  <si>
     <t>Routine_Care/Video Communication.pdf</t>
   </si>
   <si>
@@ -271,93 +271,93 @@
     <t>Haematology_CAR-T/Haem_ICU_transfer.pdf</t>
   </si>
   <si>
+    <t>Drugs/aminophylline.pdf</t>
+  </si>
+  <si>
     <t>Cardiovascular/Management of hypertension within Critical Care.pdf</t>
   </si>
   <si>
-    <t>Drugs/aminophylline.pdf</t>
+    <t>Haematology_CAR-T/ICANS.pdf</t>
   </si>
   <si>
     <t>Drugs/pancuronium.pdf</t>
   </si>
   <si>
+    <t>Drugs/phenytoin.pdf</t>
+  </si>
+  <si>
     <t>Haematology_CAR-T/Cytokine Release Syndrome.pdf</t>
   </si>
   <si>
-    <t>Drugs/phenytoin.pdf</t>
-  </si>
-  <si>
-    <t>Haematology_CAR-T/ICANS.pdf</t>
-  </si>
-  <si>
     <t>Drugs/milrinone.pdf</t>
   </si>
   <si>
     <t>Policies_and_admin/General Critical Care SOP_pub.pdf</t>
   </si>
   <si>
+    <t>Drugs/clonidine.pdf</t>
+  </si>
+  <si>
+    <t>GI_Liver_and_Transplant/ICU - Upper GI bleeding (Endoscopy guideline).pdf</t>
+  </si>
+  <si>
     <t>Organ_donation/Organ Retrieval SOP.pdf</t>
   </si>
   <si>
+    <t>Covid-19/COVID 19 ICM guidance basic goals_June_2022.pdf</t>
+  </si>
+  <si>
+    <t>Neurological/Management of traumatic brain injury.pdf</t>
+  </si>
+  <si>
+    <t>Ethics_and_Law/DNACPR policy for Scotland.pdf</t>
+  </si>
+  <si>
+    <t>Ethics_and_Law/Care at the End of Life (FICM).pdf</t>
+  </si>
+  <si>
+    <t>Neurological/Critical Care MRI Procedure_pub.pdf</t>
+  </si>
+  <si>
     <t>Infection_and_sepsis/Trip Out of Unit infection guidance.pdf</t>
   </si>
   <si>
-    <t>Drugs/clonidine.pdf</t>
-  </si>
-  <si>
-    <t>Neurological/Management of traumatic brain injury.pdf</t>
-  </si>
-  <si>
-    <t>GI_Liver_and_Transplant/ICU - Upper GI bleeding (Endoscopy guideline).pdf</t>
-  </si>
-  <si>
     <t>End_of_life_care/CMO &amp; NRS Guidance for Doctors completing MCCD.pdf</t>
   </si>
   <si>
-    <t>Neurological/Critical Care MRI Procedure_pub.pdf</t>
-  </si>
-  <si>
-    <t>Ethics_and_Law/DNACPR policy for Scotland.pdf</t>
-  </si>
-  <si>
     <t>End_of_life_care/Palliative extubation &amp; withdrawal of invasive ventilatory support nursing checklist.pdf</t>
   </si>
   <si>
-    <t>Ethics_and_Law/Care at the End of Life (FICM).pdf</t>
-  </si>
-  <si>
-    <t>Covid-19/COVID 19 ICM guidance basic goals_June_2022.pdf</t>
-  </si>
-  <si>
     <t>Airway/Cook Staged Extubation Set.pdf</t>
   </si>
   <si>
+    <t>Post_op_care/Epidural hypotension.pdf</t>
+  </si>
+  <si>
     <t>Drugs/noradrenaline (central).pdf</t>
   </si>
   <si>
     <t>End_of_life_care/End of Life Care Guideline for Critical Care.pdf</t>
   </si>
   <si>
-    <t>Post_op_care/Epidural hypotension.pdf</t>
+    <t>Infection_and_sepsis/Antifungal guidance in critical care.pdf</t>
+  </si>
+  <si>
+    <t>GI_Liver_and_Transplant/Fulminant Liver Failure.pdf</t>
+  </si>
+  <si>
+    <t>Breathing(Respiratory)/Equipment/Passy Muir Valve.pdf</t>
+  </si>
+  <si>
+    <t>GI_Liver_and_Transplant/Confirmation of Nasogastric Tube Position.pdf</t>
+  </si>
+  <si>
+    <t>Drugs/dexmedetomidine.pdf</t>
   </si>
   <si>
     <t>Drugs/glyceryl_trinitrate.pdf</t>
   </si>
   <si>
-    <t>Drugs/dexmedetomidine.pdf</t>
-  </si>
-  <si>
-    <t>GI_Liver_and_Transplant/Fulminant Liver Failure.pdf</t>
-  </si>
-  <si>
-    <t>GI_Liver_and_Transplant/Confirmation of Nasogastric Tube Position.pdf</t>
-  </si>
-  <si>
-    <t>Breathing(Respiratory)/Equipment/Passy Muir Valve.pdf</t>
-  </si>
-  <si>
-    <t>Infection_and_sepsis/Antifungal guidance in critical care.pdf</t>
-  </si>
-  <si>
     <t>Breathing(Respiratory)/ARDS Strategy.pdf</t>
   </si>
   <si>
@@ -370,36 +370,36 @@
     <t>Cardiovascular/Intra Aortic Balloon Pump Guideline_pub.pdf</t>
   </si>
   <si>
+    <t>Drugs/hydralazine.pdf</t>
+  </si>
+  <si>
+    <t>Drugs/adrenaline.pdf</t>
+  </si>
+  <si>
     <t>Drugs/Dobutamine.pdf</t>
   </si>
   <si>
-    <t>Drugs/adrenaline.pdf</t>
-  </si>
-  <si>
-    <t>Drugs/hydralazine.pdf</t>
-  </si>
-  <si>
     <t>Post_op_care/Major OMFS Free Flap.pdf</t>
   </si>
   <si>
+    <t>Drugs/alfentanil.pdf</t>
+  </si>
+  <si>
     <t>Drugs/Alteplase for massive PE.pdf</t>
   </si>
   <si>
-    <t>Drugs/alfentanil.pdf</t>
-  </si>
-  <si>
     <t>Drugs/magnesium.pdf</t>
   </si>
   <si>
     <t>Drugs/neostigmine.pdf</t>
   </si>
   <si>
+    <t>Drugs/vancomycin continuous infusion.pdf</t>
+  </si>
+  <si>
     <t>Drugs/ICU - IV drug infusions.pdf</t>
   </si>
   <si>
-    <t>Drugs/vancomycin continuous infusion.pdf</t>
-  </si>
-  <si>
     <t>Infection_and_sepsis/Initial investigation and management in unidentified Infections.pdf</t>
   </si>
   <si>
@@ -412,37 +412,43 @@
     <t>Cardiovascular/Management of Acute Type B Aortic Dissection Guideline.pdf</t>
   </si>
   <si>
-    <t>Drugs/midazolam.pdf</t>
+    <t>Procedures/CVC Guidance/CVC NHL  April 2023.pdf</t>
+  </si>
+  <si>
+    <t>Trauma and Burns/Management of Severe Burns v1.6.pdf</t>
   </si>
   <si>
     <t>Drugs/potassium.pdf</t>
   </si>
   <si>
-    <t>Procedures/CVC Guidance/CVC NHL  April 2023.pdf</t>
-  </si>
-  <si>
-    <t>Trauma and Burns/Management of Severe Burns v1.6.pdf</t>
-  </si>
-  <si>
     <t>Drugs/nimodipine.pdf</t>
   </si>
   <si>
     <t>Drugs/salbutamol.pdf</t>
   </si>
   <si>
+    <t>Drugs/amiodarone.pdf</t>
+  </si>
+  <si>
+    <t>Drugs/phenobarbitone.pdf</t>
+  </si>
+  <si>
     <t>Routine_Care/ICU Eye Care Guideline.pdf</t>
   </si>
   <si>
-    <t>Drugs/phenobarbitone.pdf</t>
+    <t>Procedures/Arterial Line insertion for ACCPs.pdf</t>
   </si>
   <si>
     <t>Drugs/nicardipine.pdf</t>
   </si>
   <si>
-    <t>Drugs/amiodarone.pdf</t>
-  </si>
-  <si>
-    <t>Procedures/Arterial Line insertion for ACCPs.pdf</t>
+    <t>Drugs/morphine.pdf</t>
+  </si>
+  <si>
+    <t>Neurological/Ventriculitis Guideline.pdf</t>
+  </si>
+  <si>
+    <t>Drugs/phenylephrine.pdf</t>
   </si>
   <si>
     <t>Breathing(Respiratory)/Manual Ventilation and MHI.pdf</t>
@@ -451,13 +457,7 @@
     <t>Drugs/Epoprostenol.pdf</t>
   </si>
   <si>
-    <t>Neurological/Ventriculitis Guideline.pdf</t>
-  </si>
-  <si>
-    <t>Drugs/morphine.pdf</t>
-  </si>
-  <si>
-    <t>Drugs/phenylephrine.pdf</t>
+    <t>Cardiovascular/Cardiac Output Monitoring_pub .pdf</t>
   </si>
   <si>
     <t>Breathing(Respiratory)/Pulmonary_Embolism_and_DVT/Catheter directed thrombolysis of iliofemoral DVT alteplase_pub.pdf</t>
@@ -466,18 +466,15 @@
     <t>Drugs/calcium.pdf</t>
   </si>
   <si>
-    <t>Cardiovascular/Cardiac Output Monitoring_pub .pdf</t>
-  </si>
-  <si>
     <t>Drugs/Vancomycin continuous infusion Fluid Restricted.pdf</t>
   </si>
   <si>
+    <t>Drugs/atracurium.pdf</t>
+  </si>
+  <si>
     <t>Airway/Tracheostomy_Laryngectomy/Decannulation Guidline.pdf</t>
   </si>
   <si>
-    <t>Drugs/atracurium.pdf</t>
-  </si>
-  <si>
     <t>Drugs/dalteparin_thromboprophylaxis.pdf</t>
   </si>
   <si>
@@ -499,21 +496,21 @@
     <t>Drugs/stress ulcer prophylaxis.pdf</t>
   </si>
   <si>
+    <t>Neurological/Status epilepticus.pdf</t>
+  </si>
+  <si>
     <t>Drugs/Octreotide.pdf</t>
   </si>
   <si>
+    <t>Drugs/Thiopentone.pdf</t>
+  </si>
+  <si>
     <t>GI_Liver_and_Transplant/Prokinetics in ICU.pdf</t>
   </si>
   <si>
     <t>Breathing(Respiratory)/Proning Guideline.pdf</t>
   </si>
   <si>
-    <t>Neurological/Status epilepticus.pdf</t>
-  </si>
-  <si>
-    <t>Drugs/Thiopentone.pdf</t>
-  </si>
-  <si>
     <t>Post_op_care/Prevention and treatment of paraplegia after major aortic procedures.pdf</t>
   </si>
   <si>
@@ -526,12 +523,12 @@
     <t>Drugs/Rocuronium.pdf</t>
   </si>
   <si>
+    <t>Delirium/Violence and Agression.pdf</t>
+  </si>
+  <si>
     <t>Drugs/Ketamine_in_asthma.pdf</t>
   </si>
   <si>
-    <t>Delirium/Violence and Agression.pdf</t>
-  </si>
-  <si>
     <t>Post_op_care/Care of the Transgender Patient.pdf</t>
   </si>
   <si>
@@ -565,12 +562,12 @@
     <t>Policies_and_admin/Discharge Home from Critical Care .pdf</t>
   </si>
   <si>
+    <t>GI_Liver_and_Transplant/Insertion of Nasojejunal Tubes.pdf</t>
+  </si>
+  <si>
     <t>GI_Liver_and_Transplant/Nasal Bridle use in Critical Care.pdf</t>
   </si>
   <si>
-    <t>GI_Liver_and_Transplant/Insertion of Nasojejunal Tubes.pdf</t>
-  </si>
-  <si>
     <t>GI_Liver_and_Transplant/Pabrinex.pdf</t>
   </si>
   <si>
@@ -586,201 +583,201 @@
     <t>Transfer/Repatriaiton Checklist for Critical Care.pdf</t>
   </si>
   <si>
-    <t>2011-03-18</t>
-  </si>
-  <si>
-    <t>2011-06-18</t>
-  </si>
-  <si>
-    <t>2011-07-18</t>
-  </si>
-  <si>
-    <t>2011-12-18</t>
-  </si>
-  <si>
-    <t>2014-09-18</t>
-  </si>
-  <si>
-    <t>2014-10-18</t>
-  </si>
-  <si>
-    <t>2014-11-18</t>
-  </si>
-  <si>
-    <t>2014-12-18</t>
-  </si>
-  <si>
-    <t>2015-03-18</t>
-  </si>
-  <si>
-    <t>2016-04-18</t>
-  </si>
-  <si>
-    <t>2016-08-18</t>
-  </si>
-  <si>
-    <t>2017-01-18</t>
-  </si>
-  <si>
-    <t>2017-08-18</t>
-  </si>
-  <si>
-    <t>2017-10-18</t>
-  </si>
-  <si>
-    <t>2017-11-18</t>
-  </si>
-  <si>
-    <t>2018-07-18</t>
-  </si>
-  <si>
-    <t>2019-05-18</t>
-  </si>
-  <si>
-    <t>2019-06-18</t>
-  </si>
-  <si>
-    <t>2019-08-18</t>
-  </si>
-  <si>
-    <t>2019-09-18</t>
-  </si>
-  <si>
-    <t>2020-01-18</t>
-  </si>
-  <si>
-    <t>2020-03-18</t>
-  </si>
-  <si>
-    <t>2020-04-18</t>
-  </si>
-  <si>
-    <t>2020-05-18</t>
-  </si>
-  <si>
-    <t>2020-07-18</t>
-  </si>
-  <si>
-    <t>2020-08-18</t>
-  </si>
-  <si>
-    <t>2020-11-18</t>
-  </si>
-  <si>
-    <t>2021-02-18</t>
-  </si>
-  <si>
-    <t>2021-05-18</t>
-  </si>
-  <si>
-    <t>2021-06-18</t>
-  </si>
-  <si>
-    <t>2021-09-18</t>
-  </si>
-  <si>
-    <t>2021-12-18</t>
-  </si>
-  <si>
-    <t>2022-01-18</t>
-  </si>
-  <si>
-    <t>2022-03-18</t>
-  </si>
-  <si>
-    <t>2022-04-18</t>
-  </si>
-  <si>
-    <t>2022-05-18</t>
-  </si>
-  <si>
-    <t>2022-06-18</t>
-  </si>
-  <si>
-    <t>2022-07-18</t>
-  </si>
-  <si>
-    <t>2022-08-18</t>
-  </si>
-  <si>
-    <t>2022-10-18</t>
-  </si>
-  <si>
-    <t>2022-11-18</t>
-  </si>
-  <si>
-    <t>2022-12-18</t>
-  </si>
-  <si>
-    <t>2023-01-18</t>
-  </si>
-  <si>
-    <t>2023-02-18</t>
-  </si>
-  <si>
-    <t>2023-04-18</t>
-  </si>
-  <si>
-    <t>2023-05-18</t>
-  </si>
-  <si>
-    <t>2023-06-18</t>
-  </si>
-  <si>
-    <t>2023-07-18</t>
-  </si>
-  <si>
-    <t>2023-08-18</t>
-  </si>
-  <si>
-    <t>2023-09-18</t>
-  </si>
-  <si>
-    <t>2023-10-18</t>
-  </si>
-  <si>
-    <t>2024-01-18</t>
-  </si>
-  <si>
-    <t>2024-02-18</t>
-  </si>
-  <si>
-    <t>2024-03-18</t>
-  </si>
-  <si>
-    <t>2024-04-18</t>
-  </si>
-  <si>
-    <t>2024-05-18</t>
+    <t>2011-03-29</t>
+  </si>
+  <si>
+    <t>2011-06-29</t>
+  </si>
+  <si>
+    <t>2011-07-29</t>
+  </si>
+  <si>
+    <t>2011-12-29</t>
+  </si>
+  <si>
+    <t>2014-09-29</t>
+  </si>
+  <si>
+    <t>2014-10-29</t>
+  </si>
+  <si>
+    <t>2014-11-29</t>
+  </si>
+  <si>
+    <t>2014-12-29</t>
+  </si>
+  <si>
+    <t>2015-03-29</t>
+  </si>
+  <si>
+    <t>2016-04-29</t>
+  </si>
+  <si>
+    <t>2016-08-29</t>
+  </si>
+  <si>
+    <t>2017-01-29</t>
+  </si>
+  <si>
+    <t>2017-08-29</t>
+  </si>
+  <si>
+    <t>2017-10-29</t>
+  </si>
+  <si>
+    <t>2017-11-29</t>
+  </si>
+  <si>
+    <t>2018-07-29</t>
+  </si>
+  <si>
+    <t>2019-05-29</t>
+  </si>
+  <si>
+    <t>2019-06-29</t>
+  </si>
+  <si>
+    <t>2019-08-29</t>
+  </si>
+  <si>
+    <t>2019-09-29</t>
+  </si>
+  <si>
+    <t>2020-01-29</t>
+  </si>
+  <si>
+    <t>2020-03-29</t>
+  </si>
+  <si>
+    <t>2020-04-29</t>
+  </si>
+  <si>
+    <t>2020-05-29</t>
+  </si>
+  <si>
+    <t>2020-07-29</t>
+  </si>
+  <si>
+    <t>2020-08-29</t>
+  </si>
+  <si>
+    <t>2020-11-29</t>
+  </si>
+  <si>
+    <t>2021-02-28</t>
+  </si>
+  <si>
+    <t>2021-05-29</t>
+  </si>
+  <si>
+    <t>2021-06-29</t>
+  </si>
+  <si>
+    <t>2021-09-29</t>
+  </si>
+  <si>
+    <t>2021-12-29</t>
+  </si>
+  <si>
+    <t>2022-01-29</t>
+  </si>
+  <si>
+    <t>2022-03-29</t>
+  </si>
+  <si>
+    <t>2022-04-29</t>
+  </si>
+  <si>
+    <t>2022-05-29</t>
+  </si>
+  <si>
+    <t>2022-06-29</t>
+  </si>
+  <si>
+    <t>2022-07-29</t>
+  </si>
+  <si>
+    <t>2022-08-29</t>
+  </si>
+  <si>
+    <t>2022-10-29</t>
+  </si>
+  <si>
+    <t>2022-11-29</t>
+  </si>
+  <si>
+    <t>2022-12-29</t>
+  </si>
+  <si>
+    <t>2023-01-29</t>
+  </si>
+  <si>
+    <t>2023-02-28</t>
+  </si>
+  <si>
+    <t>2023-04-29</t>
+  </si>
+  <si>
+    <t>2023-05-29</t>
+  </si>
+  <si>
+    <t>2023-06-29</t>
+  </si>
+  <si>
+    <t>2023-07-29</t>
+  </si>
+  <si>
+    <t>2023-08-29</t>
+  </si>
+  <si>
+    <t>2023-09-29</t>
+  </si>
+  <si>
+    <t>2023-10-29</t>
+  </si>
+  <si>
+    <t>2024-01-29</t>
+  </si>
+  <si>
+    <t>2024-02-29</t>
+  </si>
+  <si>
+    <t>2024-03-29</t>
+  </si>
+  <si>
+    <t>2024-04-29</t>
+  </si>
+  <si>
+    <t>2024-05-29</t>
   </si>
   <si>
     <t>2024-06-02</t>
   </si>
   <si>
-    <t>2024-06-18</t>
-  </si>
-  <si>
     <t>2024-06-26</t>
   </si>
   <si>
-    <t>2024-07-18</t>
+    <t>2024-06-29</t>
   </si>
   <si>
     <t>2024-07-25</t>
   </si>
   <si>
+    <t>2024-07-29</t>
+  </si>
+  <si>
     <t>2024-08-15</t>
   </si>
   <si>
-    <t>2024-08-18</t>
-  </si>
-  <si>
-    <t>2024-10-18</t>
+    <t>2024-08-29</t>
   </si>
   <si>
     <t>2024-10-24</t>
   </si>
   <si>
+    <t>2024-10-29</t>
+  </si>
+  <si>
     <t>2024-11-20</t>
   </si>
   <si>
@@ -790,82 +787,82 @@
     <t>2024-12-24</t>
   </si>
   <si>
-    <t>2025-01-18</t>
-  </si>
-  <si>
-    <t>2025-02-18</t>
-  </si>
-  <si>
-    <t>2025-03-18</t>
-  </si>
-  <si>
-    <t>2025-04-18</t>
-  </si>
-  <si>
-    <t>2025-05-18</t>
-  </si>
-  <si>
-    <t>2025-06-18</t>
-  </si>
-  <si>
-    <t>2025-07-18</t>
-  </si>
-  <si>
-    <t>2025-08-18</t>
-  </si>
-  <si>
-    <t>2025-10-18</t>
-  </si>
-  <si>
-    <t>2025-11-18</t>
-  </si>
-  <si>
-    <t>2026-01-18</t>
-  </si>
-  <si>
-    <t>2026-03-18</t>
-  </si>
-  <si>
-    <t>2026-05-18</t>
-  </si>
-  <si>
-    <t>2026-07-18</t>
-  </si>
-  <si>
-    <t>2026-11-18</t>
-  </si>
-  <si>
-    <t>2027-01-18</t>
-  </si>
-  <si>
-    <t>2027-02-18</t>
-  </si>
-  <si>
-    <t>2027-03-18</t>
-  </si>
-  <si>
-    <t>2028-02-18</t>
-  </si>
-  <si>
-    <t>2028-03-18</t>
-  </si>
-  <si>
-    <t>2028-05-18</t>
-  </si>
-  <si>
-    <t>2028-07-18</t>
-  </si>
-  <si>
-    <t>2028-11-18</t>
-  </si>
-  <si>
-    <t>2029-02-18</t>
-  </si>
-  <si>
-    <t>2029-06-18</t>
-  </si>
-  <si>
-    <t>2030-11-18</t>
+    <t>2025-01-29</t>
+  </si>
+  <si>
+    <t>2025-02-28</t>
+  </si>
+  <si>
+    <t>2025-03-29</t>
+  </si>
+  <si>
+    <t>2025-04-29</t>
+  </si>
+  <si>
+    <t>2025-05-29</t>
+  </si>
+  <si>
+    <t>2025-06-29</t>
+  </si>
+  <si>
+    <t>2025-07-29</t>
+  </si>
+  <si>
+    <t>2025-08-29</t>
+  </si>
+  <si>
+    <t>2025-10-29</t>
+  </si>
+  <si>
+    <t>2025-11-29</t>
+  </si>
+  <si>
+    <t>2026-01-29</t>
+  </si>
+  <si>
+    <t>2026-03-29</t>
+  </si>
+  <si>
+    <t>2026-05-29</t>
+  </si>
+  <si>
+    <t>2026-07-29</t>
+  </si>
+  <si>
+    <t>2026-11-29</t>
+  </si>
+  <si>
+    <t>2027-01-29</t>
+  </si>
+  <si>
+    <t>2027-02-28</t>
+  </si>
+  <si>
+    <t>2027-03-29</t>
+  </si>
+  <si>
+    <t>2028-02-29</t>
+  </si>
+  <si>
+    <t>2028-03-29</t>
+  </si>
+  <si>
+    <t>2028-05-29</t>
+  </si>
+  <si>
+    <t>2028-07-29</t>
+  </si>
+  <si>
+    <t>2028-11-29</t>
+  </si>
+  <si>
+    <t>2029-02-28</t>
+  </si>
+  <si>
+    <t>2029-06-29</t>
+  </si>
+  <si>
+    <t>2030-11-29</t>
   </si>
 </sst>
 </file>
@@ -1223,7 +1220,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B189"/>
+  <dimension ref="A1:B188"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1242,7 +1239,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -1250,7 +1247,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -1258,7 +1255,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -1266,7 +1263,7 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -1274,7 +1271,7 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -1282,7 +1279,7 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -1290,7 +1287,7 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -1298,7 +1295,7 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -1306,7 +1303,7 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -1314,7 +1311,7 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -1322,7 +1319,7 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -1330,7 +1327,7 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -1338,7 +1335,7 @@
         <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -1346,7 +1343,7 @@
         <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -1354,7 +1351,7 @@
         <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -1362,7 +1359,7 @@
         <v>17</v>
       </c>
       <c r="B17" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -1370,7 +1367,7 @@
         <v>18</v>
       </c>
       <c r="B18" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -1378,7 +1375,7 @@
         <v>19</v>
       </c>
       <c r="B19" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -1386,7 +1383,7 @@
         <v>20</v>
       </c>
       <c r="B20" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -1394,7 +1391,7 @@
         <v>21</v>
       </c>
       <c r="B21" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -1402,7 +1399,7 @@
         <v>22</v>
       </c>
       <c r="B22" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -1410,7 +1407,7 @@
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -1418,7 +1415,7 @@
         <v>24</v>
       </c>
       <c r="B24" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -1426,7 +1423,7 @@
         <v>25</v>
       </c>
       <c r="B25" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -1434,7 +1431,7 @@
         <v>26</v>
       </c>
       <c r="B26" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -1442,7 +1439,7 @@
         <v>27</v>
       </c>
       <c r="B27" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -1450,7 +1447,7 @@
         <v>28</v>
       </c>
       <c r="B28" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -1458,7 +1455,7 @@
         <v>29</v>
       </c>
       <c r="B29" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -1466,7 +1463,7 @@
         <v>30</v>
       </c>
       <c r="B30" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -1474,7 +1471,7 @@
         <v>31</v>
       </c>
       <c r="B31" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -1482,7 +1479,7 @@
         <v>32</v>
       </c>
       <c r="B32" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -1490,7 +1487,7 @@
         <v>33</v>
       </c>
       <c r="B33" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -1498,7 +1495,7 @@
         <v>34</v>
       </c>
       <c r="B34" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -1506,7 +1503,7 @@
         <v>35</v>
       </c>
       <c r="B35" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -1514,7 +1511,7 @@
         <v>36</v>
       </c>
       <c r="B36" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -1522,7 +1519,7 @@
         <v>37</v>
       </c>
       <c r="B37" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -1530,7 +1527,7 @@
         <v>38</v>
       </c>
       <c r="B38" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -1538,7 +1535,7 @@
         <v>39</v>
       </c>
       <c r="B39" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -1546,7 +1543,7 @@
         <v>40</v>
       </c>
       <c r="B40" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -1554,7 +1551,7 @@
         <v>41</v>
       </c>
       <c r="B41" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -1562,7 +1559,7 @@
         <v>42</v>
       </c>
       <c r="B42" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -1570,7 +1567,7 @@
         <v>43</v>
       </c>
       <c r="B43" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -1578,7 +1575,7 @@
         <v>44</v>
       </c>
       <c r="B44" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -1586,7 +1583,7 @@
         <v>45</v>
       </c>
       <c r="B45" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -1594,7 +1591,7 @@
         <v>46</v>
       </c>
       <c r="B46" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -1602,7 +1599,7 @@
         <v>47</v>
       </c>
       <c r="B47" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -1610,7 +1607,7 @@
         <v>48</v>
       </c>
       <c r="B48" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -1618,7 +1615,7 @@
         <v>49</v>
       </c>
       <c r="B49" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -1626,7 +1623,7 @@
         <v>50</v>
       </c>
       <c r="B50" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -1634,7 +1631,7 @@
         <v>51</v>
       </c>
       <c r="B51" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -1642,7 +1639,7 @@
         <v>52</v>
       </c>
       <c r="B52" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -1650,7 +1647,7 @@
         <v>53</v>
       </c>
       <c r="B53" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="54" spans="1:2">
@@ -1658,7 +1655,7 @@
         <v>54</v>
       </c>
       <c r="B54" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="55" spans="1:2">
@@ -1666,7 +1663,7 @@
         <v>55</v>
       </c>
       <c r="B55" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="56" spans="1:2">
@@ -1674,7 +1671,7 @@
         <v>56</v>
       </c>
       <c r="B56" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="57" spans="1:2">
@@ -1682,7 +1679,7 @@
         <v>57</v>
       </c>
       <c r="B57" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="58" spans="1:2">
@@ -1690,7 +1687,7 @@
         <v>58</v>
       </c>
       <c r="B58" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="59" spans="1:2">
@@ -1698,7 +1695,7 @@
         <v>59</v>
       </c>
       <c r="B59" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="60" spans="1:2">
@@ -1706,7 +1703,7 @@
         <v>60</v>
       </c>
       <c r="B60" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="61" spans="1:2">
@@ -1714,7 +1711,7 @@
         <v>61</v>
       </c>
       <c r="B61" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="62" spans="1:2">
@@ -1722,7 +1719,7 @@
         <v>62</v>
       </c>
       <c r="B62" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="63" spans="1:2">
@@ -1730,7 +1727,7 @@
         <v>63</v>
       </c>
       <c r="B63" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="64" spans="1:2">
@@ -1738,7 +1735,7 @@
         <v>64</v>
       </c>
       <c r="B64" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="65" spans="1:2">
@@ -1746,7 +1743,7 @@
         <v>65</v>
       </c>
       <c r="B65" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="66" spans="1:2">
@@ -1754,7 +1751,7 @@
         <v>66</v>
       </c>
       <c r="B66" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="67" spans="1:2">
@@ -1762,7 +1759,7 @@
         <v>67</v>
       </c>
       <c r="B67" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="68" spans="1:2">
@@ -1770,7 +1767,7 @@
         <v>68</v>
       </c>
       <c r="B68" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="69" spans="1:2">
@@ -1778,7 +1775,7 @@
         <v>69</v>
       </c>
       <c r="B69" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="70" spans="1:2">
@@ -1786,7 +1783,7 @@
         <v>70</v>
       </c>
       <c r="B70" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="71" spans="1:2">
@@ -1794,7 +1791,7 @@
         <v>71</v>
       </c>
       <c r="B71" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="72" spans="1:2">
@@ -1802,7 +1799,7 @@
         <v>72</v>
       </c>
       <c r="B72" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="73" spans="1:2">
@@ -1810,7 +1807,7 @@
         <v>73</v>
       </c>
       <c r="B73" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="74" spans="1:2">
@@ -1818,7 +1815,7 @@
         <v>74</v>
       </c>
       <c r="B74" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="75" spans="1:2">
@@ -1826,7 +1823,7 @@
         <v>75</v>
       </c>
       <c r="B75" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="76" spans="1:2">
@@ -1834,7 +1831,7 @@
         <v>76</v>
       </c>
       <c r="B76" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="77" spans="1:2">
@@ -1842,7 +1839,7 @@
         <v>77</v>
       </c>
       <c r="B77" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="78" spans="1:2">
@@ -1850,7 +1847,7 @@
         <v>78</v>
       </c>
       <c r="B78" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="79" spans="1:2">
@@ -1858,7 +1855,7 @@
         <v>79</v>
       </c>
       <c r="B79" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="80" spans="1:2">
@@ -1866,7 +1863,7 @@
         <v>80</v>
       </c>
       <c r="B80" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="81" spans="1:2">
@@ -1874,7 +1871,7 @@
         <v>81</v>
       </c>
       <c r="B81" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="82" spans="1:2">
@@ -1882,7 +1879,7 @@
         <v>82</v>
       </c>
       <c r="B82" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="83" spans="1:2">
@@ -1890,7 +1887,7 @@
         <v>83</v>
       </c>
       <c r="B83" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="84" spans="1:2">
@@ -1898,7 +1895,7 @@
         <v>84</v>
       </c>
       <c r="B84" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="85" spans="1:2">
@@ -1906,7 +1903,7 @@
         <v>85</v>
       </c>
       <c r="B85" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="86" spans="1:2">
@@ -1914,7 +1911,7 @@
         <v>86</v>
       </c>
       <c r="B86" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="87" spans="1:2">
@@ -1922,7 +1919,7 @@
         <v>87</v>
       </c>
       <c r="B87" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="88" spans="1:2">
@@ -1930,7 +1927,7 @@
         <v>88</v>
       </c>
       <c r="B88" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="89" spans="1:2">
@@ -1938,7 +1935,7 @@
         <v>89</v>
       </c>
       <c r="B89" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="90" spans="1:2">
@@ -1946,7 +1943,7 @@
         <v>90</v>
       </c>
       <c r="B90" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="91" spans="1:2">
@@ -1954,7 +1951,7 @@
         <v>91</v>
       </c>
       <c r="B91" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="92" spans="1:2">
@@ -1962,7 +1959,7 @@
         <v>92</v>
       </c>
       <c r="B92" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="93" spans="1:2">
@@ -1970,7 +1967,7 @@
         <v>93</v>
       </c>
       <c r="B93" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="94" spans="1:2">
@@ -1978,7 +1975,7 @@
         <v>94</v>
       </c>
       <c r="B94" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="95" spans="1:2">
@@ -1986,7 +1983,7 @@
         <v>95</v>
       </c>
       <c r="B95" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="96" spans="1:2">
@@ -1994,7 +1991,7 @@
         <v>96</v>
       </c>
       <c r="B96" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="97" spans="1:2">
@@ -2002,7 +1999,7 @@
         <v>97</v>
       </c>
       <c r="B97" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="98" spans="1:2">
@@ -2010,7 +2007,7 @@
         <v>98</v>
       </c>
       <c r="B98" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="99" spans="1:2">
@@ -2018,7 +2015,7 @@
         <v>99</v>
       </c>
       <c r="B99" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="100" spans="1:2">
@@ -2026,7 +2023,7 @@
         <v>100</v>
       </c>
       <c r="B100" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="101" spans="1:2">
@@ -2034,7 +2031,7 @@
         <v>101</v>
       </c>
       <c r="B101" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="102" spans="1:2">
@@ -2042,7 +2039,7 @@
         <v>102</v>
       </c>
       <c r="B102" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="103" spans="1:2">
@@ -2050,7 +2047,7 @@
         <v>103</v>
       </c>
       <c r="B103" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="104" spans="1:2">
@@ -2058,7 +2055,7 @@
         <v>104</v>
       </c>
       <c r="B104" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="105" spans="1:2">
@@ -2066,7 +2063,7 @@
         <v>105</v>
       </c>
       <c r="B105" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="106" spans="1:2">
@@ -2082,7 +2079,7 @@
         <v>107</v>
       </c>
       <c r="B107" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="108" spans="1:2">
@@ -2090,7 +2087,7 @@
         <v>108</v>
       </c>
       <c r="B108" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="109" spans="1:2">
@@ -2130,7 +2127,7 @@
         <v>113</v>
       </c>
       <c r="B113" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="114" spans="1:2">
@@ -2138,7 +2135,7 @@
         <v>114</v>
       </c>
       <c r="B114" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="115" spans="1:2">
@@ -2146,7 +2143,7 @@
         <v>115</v>
       </c>
       <c r="B115" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="116" spans="1:2">
@@ -2154,7 +2151,7 @@
         <v>116</v>
       </c>
       <c r="B116" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="117" spans="1:2">
@@ -2162,7 +2159,7 @@
         <v>117</v>
       </c>
       <c r="B117" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="118" spans="1:2">
@@ -2170,7 +2167,7 @@
         <v>118</v>
       </c>
       <c r="B118" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="119" spans="1:2">
@@ -2186,7 +2183,7 @@
         <v>120</v>
       </c>
       <c r="B120" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="121" spans="1:2">
@@ -2194,7 +2191,7 @@
         <v>121</v>
       </c>
       <c r="B121" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="122" spans="1:2">
@@ -2202,7 +2199,7 @@
         <v>122</v>
       </c>
       <c r="B122" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="123" spans="1:2">
@@ -2210,7 +2207,7 @@
         <v>123</v>
       </c>
       <c r="B123" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="124" spans="1:2">
@@ -2218,7 +2215,7 @@
         <v>124</v>
       </c>
       <c r="B124" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="125" spans="1:2">
@@ -2226,7 +2223,7 @@
         <v>125</v>
       </c>
       <c r="B125" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="126" spans="1:2">
@@ -2234,7 +2231,7 @@
         <v>126</v>
       </c>
       <c r="B126" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="127" spans="1:2">
@@ -2242,7 +2239,7 @@
         <v>127</v>
       </c>
       <c r="B127" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="128" spans="1:2">
@@ -2250,7 +2247,7 @@
         <v>128</v>
       </c>
       <c r="B128" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="129" spans="1:2">
@@ -2258,7 +2255,7 @@
         <v>129</v>
       </c>
       <c r="B129" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="130" spans="1:2">
@@ -2266,7 +2263,7 @@
         <v>130</v>
       </c>
       <c r="B130" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="131" spans="1:2">
@@ -2274,7 +2271,7 @@
         <v>131</v>
       </c>
       <c r="B131" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="132" spans="1:2">
@@ -2290,7 +2287,7 @@
         <v>133</v>
       </c>
       <c r="B133" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="134" spans="1:2">
@@ -2298,7 +2295,7 @@
         <v>134</v>
       </c>
       <c r="B134" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="135" spans="1:2">
@@ -2306,7 +2303,7 @@
         <v>135</v>
       </c>
       <c r="B135" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="136" spans="1:2">
@@ -2314,7 +2311,7 @@
         <v>136</v>
       </c>
       <c r="B136" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="137" spans="1:2">
@@ -2330,7 +2327,7 @@
         <v>138</v>
       </c>
       <c r="B138" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="139" spans="1:2">
@@ -2338,7 +2335,7 @@
         <v>139</v>
       </c>
       <c r="B139" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="140" spans="1:2">
@@ -2346,7 +2343,7 @@
         <v>140</v>
       </c>
       <c r="B140" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="141" spans="1:2">
@@ -2354,7 +2351,7 @@
         <v>141</v>
       </c>
       <c r="B141" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="142" spans="1:2">
@@ -2370,7 +2367,7 @@
         <v>143</v>
       </c>
       <c r="B143" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="144" spans="1:2">
@@ -2378,7 +2375,7 @@
         <v>144</v>
       </c>
       <c r="B144" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="145" spans="1:2">
@@ -2386,7 +2383,7 @@
         <v>145</v>
       </c>
       <c r="B145" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="146" spans="1:2">
@@ -2394,7 +2391,7 @@
         <v>146</v>
       </c>
       <c r="B146" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="147" spans="1:2">
@@ -2410,7 +2407,7 @@
         <v>148</v>
       </c>
       <c r="B148" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="149" spans="1:2">
@@ -2418,7 +2415,7 @@
         <v>149</v>
       </c>
       <c r="B149" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="150" spans="1:2">
@@ -2434,7 +2431,7 @@
         <v>151</v>
       </c>
       <c r="B151" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="152" spans="1:2">
@@ -2442,7 +2439,7 @@
         <v>152</v>
       </c>
       <c r="B152" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="153" spans="1:2">
@@ -2450,7 +2447,7 @@
         <v>153</v>
       </c>
       <c r="B153" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="154" spans="1:2">
@@ -2466,7 +2463,7 @@
         <v>155</v>
       </c>
       <c r="B155" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="156" spans="1:2">
@@ -2474,7 +2471,7 @@
         <v>156</v>
       </c>
       <c r="B156" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="157" spans="1:2">
@@ -2490,7 +2487,7 @@
         <v>158</v>
       </c>
       <c r="B158" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="159" spans="1:2">
@@ -2498,7 +2495,7 @@
         <v>159</v>
       </c>
       <c r="B159" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="160" spans="1:2">
@@ -2514,7 +2511,7 @@
         <v>161</v>
       </c>
       <c r="B161" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="162" spans="1:2">
@@ -2522,7 +2519,7 @@
         <v>162</v>
       </c>
       <c r="B162" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="163" spans="1:2">
@@ -2530,7 +2527,7 @@
         <v>163</v>
       </c>
       <c r="B163" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="164" spans="1:2">
@@ -2538,7 +2535,7 @@
         <v>164</v>
       </c>
       <c r="B164" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="165" spans="1:2">
@@ -2554,7 +2551,7 @@
         <v>166</v>
       </c>
       <c r="B166" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="167" spans="1:2">
@@ -2562,7 +2559,7 @@
         <v>167</v>
       </c>
       <c r="B167" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="168" spans="1:2">
@@ -2578,7 +2575,7 @@
         <v>169</v>
       </c>
       <c r="B169" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="170" spans="1:2">
@@ -2586,7 +2583,7 @@
         <v>170</v>
       </c>
       <c r="B170" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="171" spans="1:2">
@@ -2650,7 +2647,7 @@
         <v>178</v>
       </c>
       <c r="B178" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="179" spans="1:2">
@@ -2690,7 +2687,7 @@
         <v>183</v>
       </c>
       <c r="B183" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="184" spans="1:2">
@@ -2706,7 +2703,7 @@
         <v>185</v>
       </c>
       <c r="B185" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="186" spans="1:2">
@@ -2714,7 +2711,7 @@
         <v>186</v>
       </c>
       <c r="B186" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="187" spans="1:2">
@@ -2730,15 +2727,7 @@
         <v>188</v>
       </c>
       <c r="B188" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="189" spans="1:2">
-      <c r="A189" t="s">
-        <v>189</v>
-      </c>
-      <c r="B189" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
   </sheetData>

--- a/lothiancriticalcare/1a74f8f7b8b7e871b413c4697f68b4401fbacdf0/reviewdates.xlsx
+++ b/lothiancriticalcare/1a74f8f7b8b7e871b413c4697f68b4401fbacdf0/reviewdates.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="283">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="286">
   <si>
     <t>File</t>
   </si>
@@ -73,21 +73,21 @@
     <t>Drugs/diazepam_diazemuls.pdf</t>
   </si>
   <si>
+    <t>End_of_life_care/Reasons to report a death to PF.pdf</t>
+  </si>
+  <si>
     <t>Breathing(Respiratory)/salbutamol and ipratroprium MDI.pdf</t>
   </si>
   <si>
-    <t>End_of_life_care/Reasons to report a death to PF.pdf</t>
-  </si>
-  <si>
     <t>Airway/Tracheostomy_Laryngectomy/Tracheostomy suctioning cleaning guideline.pdf</t>
   </si>
   <si>
+    <t>Neurological/SOP -  Femoral site care.pdf</t>
+  </si>
+  <si>
     <t>Airway/Tracheostomy_Laryngectomy/Tracheostomy change in Critical Care.pdf</t>
   </si>
   <si>
-    <t>Neurological/SOP -  Femoral site care.pdf</t>
-  </si>
-  <si>
     <t>Drugs/sodium_bicarbonate.pdf</t>
   </si>
   <si>
@@ -97,6 +97,12 @@
     <t>Post_op_care/Epidural top-up.pdf</t>
   </si>
   <si>
+    <t>Airway/Emergency intubation checklist_em_pub.pdf</t>
+  </si>
+  <si>
+    <t>Drugs/heparin for Haemofiltration.pdf</t>
+  </si>
+  <si>
     <t>Covid-19/SJH/SJH COVID19 ITU Intubation Action Card.pdf</t>
   </si>
   <si>
@@ -106,15 +112,9 @@
     <t>Covid-19/WGH/CoVid intubation checklist WGH.pdf</t>
   </si>
   <si>
-    <t>Drugs/heparin for Haemofiltration.pdf</t>
-  </si>
-  <si>
     <t>Diabetes_and_Glucose/Hyperosmolar Hyperglycaemic State.pdf</t>
   </si>
   <si>
-    <t>Airway/Emergency intubation checklist_em_pub.pdf</t>
-  </si>
-  <si>
     <t>Drugs/fentanyl.pdf</t>
   </si>
   <si>
@@ -133,33 +133,33 @@
     <t>Airway/Percutaneous tracheostomy checklist.pdf</t>
   </si>
   <si>
+    <t>Infection_and_sepsis/SOP Ultrasound Cleaning.pdf</t>
+  </si>
+  <si>
     <t>Delirium/Risk assessment posi mit.pdf</t>
   </si>
   <si>
-    <t>Infection_and_sepsis/SOP Ultrasound Cleaning.pdf</t>
+    <t>Neurological/Sub arachnoid haemorrhage management.pdf</t>
+  </si>
+  <si>
+    <t>Airway/Tracheostomy_Laryngectomy/Tracheostomy safety box contents.pdf</t>
+  </si>
+  <si>
+    <t>Airway/Anticipated difficult airway tool.pdf</t>
   </si>
   <si>
     <t>Airway/McGrath Mac.pdf</t>
   </si>
   <si>
+    <t>GI_Liver_and_Transplant/Abdominal pressure measurement.pdf</t>
+  </si>
+  <si>
+    <t>Breathing(Respiratory)/HFNO.pdf</t>
+  </si>
+  <si>
     <t>GI_Liver_and_Transplant/Treatment of constipation.pdf</t>
   </si>
   <si>
-    <t>GI_Liver_and_Transplant/Abdominal pressure measurement.pdf</t>
-  </si>
-  <si>
-    <t>Breathing(Respiratory)/HFNO.pdf</t>
-  </si>
-  <si>
-    <t>Airway/Tracheostomy_Laryngectomy/Tracheostomy safety box contents.pdf</t>
-  </si>
-  <si>
-    <t>Neurological/Sub arachnoid haemorrhage management.pdf</t>
-  </si>
-  <si>
-    <t>Airway/Anticipated difficult airway tool.pdf</t>
-  </si>
-  <si>
     <t>End_of_life_care/Documentation following death.pdf</t>
   </si>
   <si>
@@ -169,21 +169,21 @@
     <t>Routine_Care/bBraun Spaceplus Failure EMERGENCY ACTION CARD_em.pdf</t>
   </si>
   <si>
+    <t>Breathing(Respiratory)/Equipment/HFNO Set Up.pdf</t>
+  </si>
+  <si>
     <t>Drugs/insulin.pdf</t>
   </si>
   <si>
-    <t>Breathing(Respiratory)/Equipment/HFNO Set Up.pdf</t>
-  </si>
-  <si>
     <t>Breathing(Respiratory)/Inhaled Nitrous Oxide.pdf</t>
   </si>
   <si>
+    <t>Breathing(Respiratory)/Equipment/APRV.pdf</t>
+  </si>
+  <si>
     <t>Cardiovascular/Steroids for Septic Shock.pdf</t>
   </si>
   <si>
-    <t>Breathing(Respiratory)/Equipment/APRV.pdf</t>
-  </si>
-  <si>
     <t>Breathing(Respiratory)/Equipment/T piece Y piece.pdf</t>
   </si>
   <si>
@@ -202,12 +202,12 @@
     <t>Breathing(Respiratory)/Equipment/HFNO through ventilator.pdf</t>
   </si>
   <si>
+    <t>Routine_Care/VTE_Prevention/Dalteparin_thromboprophylaxis.pdf</t>
+  </si>
+  <si>
     <t>Post_op_care/Adult Scoliosis Spinal Surgery Post-Op Care.pdf</t>
   </si>
   <si>
-    <t>Routine_Care/VTE_Prevention/Dalteparin_thromboprophylaxis.pdf</t>
-  </si>
-  <si>
     <t>Post_op_care/Post op care pharyngo-laryngo-oesphagectomy PLOG.pdf</t>
   </si>
   <si>
@@ -223,27 +223,27 @@
     <t>GI_Liver_and_Transplant/Nasojejunal feeding protocol.pdf</t>
   </si>
   <si>
+    <t>GI_Liver_and_Transplant/Jejunostomy feeding protocol.pdf</t>
+  </si>
+  <si>
     <t>ECLS/RIE ECLS Anti Xa Protocol.pdf</t>
   </si>
   <si>
-    <t>GI_Liver_and_Transplant/Jejunostomy feeding protocol.pdf</t>
+    <t>Infection_and_sepsis/Winter Infections Stepdown Guidance.pdf</t>
   </si>
   <si>
     <t>Drugs/vasopressin_sepsis.pdf</t>
   </si>
   <si>
-    <t>Infection_and_sepsis/Winter Infections Stepdown Guidance.pdf</t>
-  </si>
-  <si>
     <t>Drugs/vasopressin organ donation.pdf</t>
   </si>
   <si>
+    <t>Covid-19/videos/Donning and Doffing Video.pdf</t>
+  </si>
+  <si>
     <t>Transfer/ACCP Transfers.pdf</t>
   </si>
   <si>
-    <t>Covid-19/videos/Donning and Doffing Video.pdf</t>
-  </si>
-  <si>
     <t>Infection_and_sepsis/Infection indications for IVIG.pdf</t>
   </si>
   <si>
@@ -262,274 +262,277 @@
     <t>Routine_Care/Video Communication.pdf</t>
   </si>
   <si>
+    <t>Drugs/isoprenaline.pdf</t>
+  </si>
+  <si>
     <t>Cardiovascular/Cardiogenic Shock.pdf</t>
   </si>
   <si>
-    <t>Drugs/isoprenaline.pdf</t>
-  </si>
-  <si>
     <t>Haematology_CAR-T/Haem_ICU_transfer.pdf</t>
   </si>
   <si>
+    <t>Cardiovascular/Management of hypertension within Critical Care.pdf</t>
+  </si>
+  <si>
+    <t>Haematology_CAR-T/Cytokine Release Syndrome.pdf</t>
+  </si>
+  <si>
+    <t>Haematology_CAR-T/ICANS.pdf</t>
+  </si>
+  <si>
+    <t>Drugs/pancuronium.pdf</t>
+  </si>
+  <si>
+    <t>Drugs/milrinone.pdf</t>
+  </si>
+  <si>
+    <t>Policies_and_admin/General Critical Care SOP_pub.pdf</t>
+  </si>
+  <si>
+    <t>Covid-19/COVID 19 ICM guidance basic goals_June_2022.pdf</t>
+  </si>
+  <si>
+    <t>Ethics_and_Law/DNACPR policy for Scotland.pdf</t>
+  </si>
+  <si>
+    <t>GI_Liver_and_Transplant/ICU - Upper GI bleeding (Endoscopy guideline).pdf</t>
+  </si>
+  <si>
+    <t>Infection_and_sepsis/Trip Out of Unit infection guidance.pdf</t>
+  </si>
+  <si>
+    <t>Drugs/clonidine.pdf</t>
+  </si>
+  <si>
+    <t>Ethics_and_Law/Care at the End of Life (FICM).pdf</t>
+  </si>
+  <si>
+    <t>Neurological/Critical Care MRI Procedure_pub.pdf</t>
+  </si>
+  <si>
+    <t>Organ_donation/Organ Retrieval SOP.pdf</t>
+  </si>
+  <si>
+    <t>End_of_life_care/CMO &amp; NRS Guidance for Doctors completing MCCD.pdf</t>
+  </si>
+  <si>
+    <t>End_of_life_care/Palliative extubation &amp; withdrawal of invasive ventilatory support nursing checklist.pdf</t>
+  </si>
+  <si>
+    <t>Neurological/Management of traumatic brain injury.pdf</t>
+  </si>
+  <si>
+    <t>Airway/Cook Staged Extubation Set.pdf</t>
+  </si>
+  <si>
+    <t>Drugs/noradrenaline (central).pdf</t>
+  </si>
+  <si>
+    <t>End_of_life_care/End of Life Care Guideline for Critical Care.pdf</t>
+  </si>
+  <si>
+    <t>Post_op_care/Epidural hypotension.pdf</t>
+  </si>
+  <si>
+    <t>Drugs/glyceryl_trinitrate.pdf</t>
+  </si>
+  <si>
+    <t>GI_Liver_and_Transplant/Fulminant Liver Failure.pdf</t>
+  </si>
+  <si>
+    <t>Drugs/dexmedetomidine.pdf</t>
+  </si>
+  <si>
+    <t>GI_Liver_and_Transplant/Confirmation of Nasogastric Tube Position.pdf</t>
+  </si>
+  <si>
+    <t>Breathing(Respiratory)/Equipment/Passy Muir Valve.pdf</t>
+  </si>
+  <si>
+    <t>Infection_and_sepsis/Antifungal guidance in critical care.pdf</t>
+  </si>
+  <si>
+    <t>Transfer/Transfer Outdoors to Garden Guideline.pdf</t>
+  </si>
+  <si>
+    <t>Cardiovascular/Intra Aortic Balloon Pump Guideline_pub.pdf</t>
+  </si>
+  <si>
+    <t>Cardiovascular/Intra Aortic Balloon Pump Bedside Checks_pub.pdf</t>
+  </si>
+  <si>
+    <t>Breathing(Respiratory)/ARDS Strategy.pdf</t>
+  </si>
+  <si>
+    <t>Drugs/Dobutamine.pdf</t>
+  </si>
+  <si>
+    <t>Drugs/adrenaline.pdf</t>
+  </si>
+  <si>
+    <t>Drugs/hydralazine.pdf</t>
+  </si>
+  <si>
+    <t>Post_op_care/Major OMFS Free Flap.pdf</t>
+  </si>
+  <si>
+    <t>Drugs/Alteplase for massive PE.pdf</t>
+  </si>
+  <si>
+    <t>Drugs/alfentanil.pdf</t>
+  </si>
+  <si>
+    <t>Drugs/magnesium.pdf</t>
+  </si>
+  <si>
+    <t>Drugs/vancomycin continuous infusion.pdf</t>
+  </si>
+  <si>
+    <t>Drugs/neostigmine.pdf</t>
+  </si>
+  <si>
+    <t>Drugs/ICU - IV drug infusions.pdf</t>
+  </si>
+  <si>
+    <t>Infection_and_sepsis/Initial investigation and management in unidentified Infections.pdf</t>
+  </si>
+  <si>
+    <t>Drugs/labetalol.pdf</t>
+  </si>
+  <si>
+    <t>Neurological/Intrathecal policy RIE.pdf</t>
+  </si>
+  <si>
+    <t>Cardiovascular/Management of Acute Type B Aortic Dissection Guideline.pdf</t>
+  </si>
+  <si>
+    <t>Drugs/nimodipine.pdf</t>
+  </si>
+  <si>
+    <t>Drugs/potassium.pdf</t>
+  </si>
+  <si>
+    <t>Trauma and Burns/Management of Severe Burns v1.6.pdf</t>
+  </si>
+  <si>
+    <t>Procedures/CVC Guidance/CVC NHL  April 2023.pdf</t>
+  </si>
+  <si>
+    <t>Drugs/salbutamol.pdf</t>
+  </si>
+  <si>
+    <t>Drugs/nicardipine.pdf</t>
+  </si>
+  <si>
+    <t>Drugs/amiodarone.pdf</t>
+  </si>
+  <si>
+    <t>Drugs/phenobarbitone.pdf</t>
+  </si>
+  <si>
+    <t>Routine_Care/ICU Eye Care Guideline.pdf</t>
+  </si>
+  <si>
+    <t>Procedures/Arterial Line insertion for ACCPs.pdf</t>
+  </si>
+  <si>
+    <t>Breathing(Respiratory)/Manual Ventilation and MHI.pdf</t>
+  </si>
+  <si>
+    <t>Drugs/morphine.pdf</t>
+  </si>
+  <si>
+    <t>Neurological/Ventriculitis Guideline.pdf</t>
+  </si>
+  <si>
+    <t>Drugs/phenylephrine.pdf</t>
+  </si>
+  <si>
+    <t>Drugs/Epoprostenol.pdf</t>
+  </si>
+  <si>
+    <t>Drugs/calcium.pdf</t>
+  </si>
+  <si>
+    <t>Breathing(Respiratory)/Pulmonary_Embolism_and_DVT/Catheter directed thrombolysis of iliofemoral DVT alteplase_pub.pdf</t>
+  </si>
+  <si>
+    <t>Cardiovascular/Cardiac Output Monitoring_pub .pdf</t>
+  </si>
+  <si>
+    <t>Drugs/atracurium.pdf</t>
+  </si>
+  <si>
+    <t>Airway/Tracheostomy_Laryngectomy/Decannulation Guidline.pdf</t>
+  </si>
+  <si>
+    <t>Drugs/dalteparin_thromboprophylaxis.pdf</t>
+  </si>
+  <si>
+    <t>Drugs/Vancomycin continuous infusion Fluid Restricted.pdf</t>
+  </si>
+  <si>
+    <t>Procedures/Inadvertent Catheter Placement Guideline.pdf</t>
+  </si>
+  <si>
+    <t>Policies_and_admin/Pet Visitation.pdf</t>
+  </si>
+  <si>
+    <t>Drugs/valproate.pdf</t>
+  </si>
+  <si>
+    <t>Drugs/Phosphate.pdf</t>
+  </si>
+  <si>
+    <t>Drugs/ketamine_for_status epilepticus.pdf</t>
+  </si>
+  <si>
+    <t>Drugs/stress ulcer prophylaxis.pdf</t>
+  </si>
+  <si>
+    <t>GI_Liver_and_Transplant/Prokinetics in ICU.pdf</t>
+  </si>
+  <si>
+    <t>Breathing(Respiratory)/Proning Guideline.pdf</t>
+  </si>
+  <si>
+    <t>Drugs/Octreotide.pdf</t>
+  </si>
+  <si>
+    <t>Neurological/Status epilepticus.pdf</t>
+  </si>
+  <si>
+    <t>Drugs/Thiopentone.pdf</t>
+  </si>
+  <si>
+    <t>Procedures/ACCP CVC placement following completion of initial competencies.pdf</t>
+  </si>
+  <si>
+    <t>Post_op_care/Prevention and treatment of paraplegia after major aortic procedures.pdf</t>
+  </si>
+  <si>
+    <t>Procedures/ACCPs acquiring initial CVC competencies.pdf</t>
+  </si>
+  <si>
+    <t>Drugs/Ketamine_in_asthma.pdf</t>
+  </si>
+  <si>
+    <t>Drugs/Rocuronium.pdf</t>
+  </si>
+  <si>
+    <t>Delirium/Violence and Agression.pdf</t>
+  </si>
+  <si>
+    <t>Post_op_care/Care of the Transgender Patient.pdf</t>
+  </si>
+  <si>
+    <t>Drugs/IVIG in staph and strep toxic shock syndrome.pdf</t>
+  </si>
+  <si>
     <t>Drugs/aminophylline.pdf</t>
   </si>
   <si>
-    <t>Cardiovascular/Management of hypertension within Critical Care.pdf</t>
-  </si>
-  <si>
-    <t>Haematology_CAR-T/ICANS.pdf</t>
-  </si>
-  <si>
-    <t>Drugs/pancuronium.pdf</t>
-  </si>
-  <si>
-    <t>Drugs/phenytoin.pdf</t>
-  </si>
-  <si>
-    <t>Haematology_CAR-T/Cytokine Release Syndrome.pdf</t>
-  </si>
-  <si>
-    <t>Drugs/milrinone.pdf</t>
-  </si>
-  <si>
-    <t>Policies_and_admin/General Critical Care SOP_pub.pdf</t>
-  </si>
-  <si>
-    <t>Drugs/clonidine.pdf</t>
-  </si>
-  <si>
-    <t>GI_Liver_and_Transplant/ICU - Upper GI bleeding (Endoscopy guideline).pdf</t>
-  </si>
-  <si>
-    <t>Organ_donation/Organ Retrieval SOP.pdf</t>
-  </si>
-  <si>
-    <t>Covid-19/COVID 19 ICM guidance basic goals_June_2022.pdf</t>
-  </si>
-  <si>
-    <t>Neurological/Management of traumatic brain injury.pdf</t>
-  </si>
-  <si>
-    <t>Ethics_and_Law/DNACPR policy for Scotland.pdf</t>
-  </si>
-  <si>
-    <t>Ethics_and_Law/Care at the End of Life (FICM).pdf</t>
-  </si>
-  <si>
-    <t>Neurological/Critical Care MRI Procedure_pub.pdf</t>
-  </si>
-  <si>
-    <t>Infection_and_sepsis/Trip Out of Unit infection guidance.pdf</t>
-  </si>
-  <si>
-    <t>End_of_life_care/CMO &amp; NRS Guidance for Doctors completing MCCD.pdf</t>
-  </si>
-  <si>
-    <t>End_of_life_care/Palliative extubation &amp; withdrawal of invasive ventilatory support nursing checklist.pdf</t>
-  </si>
-  <si>
-    <t>Airway/Cook Staged Extubation Set.pdf</t>
-  </si>
-  <si>
-    <t>Post_op_care/Epidural hypotension.pdf</t>
-  </si>
-  <si>
-    <t>Drugs/noradrenaline (central).pdf</t>
-  </si>
-  <si>
-    <t>End_of_life_care/End of Life Care Guideline for Critical Care.pdf</t>
-  </si>
-  <si>
-    <t>Infection_and_sepsis/Antifungal guidance in critical care.pdf</t>
-  </si>
-  <si>
-    <t>GI_Liver_and_Transplant/Fulminant Liver Failure.pdf</t>
-  </si>
-  <si>
-    <t>Breathing(Respiratory)/Equipment/Passy Muir Valve.pdf</t>
-  </si>
-  <si>
-    <t>GI_Liver_and_Transplant/Confirmation of Nasogastric Tube Position.pdf</t>
-  </si>
-  <si>
-    <t>Drugs/dexmedetomidine.pdf</t>
-  </si>
-  <si>
-    <t>Drugs/glyceryl_trinitrate.pdf</t>
-  </si>
-  <si>
-    <t>Breathing(Respiratory)/ARDS Strategy.pdf</t>
-  </si>
-  <si>
-    <t>Cardiovascular/Intra Aortic Balloon Pump Bedside Checks_pub.pdf</t>
-  </si>
-  <si>
-    <t>Transfer/Transfer Outdoors to Garden Guideline.pdf</t>
-  </si>
-  <si>
-    <t>Cardiovascular/Intra Aortic Balloon Pump Guideline_pub.pdf</t>
-  </si>
-  <si>
-    <t>Drugs/hydralazine.pdf</t>
-  </si>
-  <si>
-    <t>Drugs/adrenaline.pdf</t>
-  </si>
-  <si>
-    <t>Drugs/Dobutamine.pdf</t>
-  </si>
-  <si>
-    <t>Post_op_care/Major OMFS Free Flap.pdf</t>
-  </si>
-  <si>
-    <t>Drugs/alfentanil.pdf</t>
-  </si>
-  <si>
-    <t>Drugs/Alteplase for massive PE.pdf</t>
-  </si>
-  <si>
-    <t>Drugs/magnesium.pdf</t>
-  </si>
-  <si>
-    <t>Drugs/neostigmine.pdf</t>
-  </si>
-  <si>
-    <t>Drugs/vancomycin continuous infusion.pdf</t>
-  </si>
-  <si>
-    <t>Drugs/ICU - IV drug infusions.pdf</t>
-  </si>
-  <si>
-    <t>Infection_and_sepsis/Initial investigation and management in unidentified Infections.pdf</t>
-  </si>
-  <si>
-    <t>Drugs/labetalol.pdf</t>
-  </si>
-  <si>
-    <t>Neurological/Intrathecal policy RIE.pdf</t>
-  </si>
-  <si>
-    <t>Cardiovascular/Management of Acute Type B Aortic Dissection Guideline.pdf</t>
-  </si>
-  <si>
-    <t>Procedures/CVC Guidance/CVC NHL  April 2023.pdf</t>
-  </si>
-  <si>
-    <t>Trauma and Burns/Management of Severe Burns v1.6.pdf</t>
-  </si>
-  <si>
-    <t>Drugs/potassium.pdf</t>
-  </si>
-  <si>
-    <t>Drugs/nimodipine.pdf</t>
-  </si>
-  <si>
-    <t>Drugs/salbutamol.pdf</t>
-  </si>
-  <si>
-    <t>Drugs/amiodarone.pdf</t>
-  </si>
-  <si>
-    <t>Drugs/phenobarbitone.pdf</t>
-  </si>
-  <si>
-    <t>Routine_Care/ICU Eye Care Guideline.pdf</t>
-  </si>
-  <si>
-    <t>Procedures/Arterial Line insertion for ACCPs.pdf</t>
-  </si>
-  <si>
-    <t>Drugs/nicardipine.pdf</t>
-  </si>
-  <si>
-    <t>Drugs/morphine.pdf</t>
-  </si>
-  <si>
-    <t>Neurological/Ventriculitis Guideline.pdf</t>
-  </si>
-  <si>
-    <t>Drugs/phenylephrine.pdf</t>
-  </si>
-  <si>
-    <t>Breathing(Respiratory)/Manual Ventilation and MHI.pdf</t>
-  </si>
-  <si>
-    <t>Drugs/Epoprostenol.pdf</t>
-  </si>
-  <si>
-    <t>Cardiovascular/Cardiac Output Monitoring_pub .pdf</t>
-  </si>
-  <si>
-    <t>Breathing(Respiratory)/Pulmonary_Embolism_and_DVT/Catheter directed thrombolysis of iliofemoral DVT alteplase_pub.pdf</t>
-  </si>
-  <si>
-    <t>Drugs/calcium.pdf</t>
-  </si>
-  <si>
-    <t>Drugs/Vancomycin continuous infusion Fluid Restricted.pdf</t>
-  </si>
-  <si>
-    <t>Drugs/atracurium.pdf</t>
-  </si>
-  <si>
-    <t>Airway/Tracheostomy_Laryngectomy/Decannulation Guidline.pdf</t>
-  </si>
-  <si>
-    <t>Drugs/dalteparin_thromboprophylaxis.pdf</t>
-  </si>
-  <si>
-    <t>Policies_and_admin/Pet Visitation.pdf</t>
-  </si>
-  <si>
-    <t>Procedures/Inadvertent Catheter Placement Guideline.pdf</t>
-  </si>
-  <si>
-    <t>Drugs/valproate.pdf</t>
-  </si>
-  <si>
-    <t>Drugs/ketamine_for_status epilepticus.pdf</t>
-  </si>
-  <si>
-    <t>Drugs/Phosphate.pdf</t>
-  </si>
-  <si>
-    <t>Drugs/stress ulcer prophylaxis.pdf</t>
-  </si>
-  <si>
-    <t>Neurological/Status epilepticus.pdf</t>
-  </si>
-  <si>
-    <t>Drugs/Octreotide.pdf</t>
-  </si>
-  <si>
-    <t>Drugs/Thiopentone.pdf</t>
-  </si>
-  <si>
-    <t>GI_Liver_and_Transplant/Prokinetics in ICU.pdf</t>
-  </si>
-  <si>
-    <t>Breathing(Respiratory)/Proning Guideline.pdf</t>
-  </si>
-  <si>
-    <t>Post_op_care/Prevention and treatment of paraplegia after major aortic procedures.pdf</t>
-  </si>
-  <si>
-    <t>Procedures/ACCP CVC placement following completion of initial competencies.pdf</t>
-  </si>
-  <si>
-    <t>Procedures/ACCPs acquiring initial CVC competencies.pdf</t>
-  </si>
-  <si>
-    <t>Drugs/Rocuronium.pdf</t>
-  </si>
-  <si>
-    <t>Delirium/Violence and Agression.pdf</t>
-  </si>
-  <si>
-    <t>Drugs/Ketamine_in_asthma.pdf</t>
-  </si>
-  <si>
-    <t>Post_op_care/Care of the Transgender Patient.pdf</t>
+    <t>Drugs/Phenytoin.pdf</t>
   </si>
   <si>
     <t>GI_Liver_and_Transplant/Plasma exchange in Acute Liver Failure.pdf</t>
@@ -547,12 +550,12 @@
     <t>Breathing(Respiratory)/Equipment/Setting up the NKV-330.pdf</t>
   </si>
   <si>
+    <t>Breathing(Respiratory)/NKV 330 NIV guidelines.pdf</t>
+  </si>
+  <si>
     <t>Breathing(Respiratory)/T1RF - CPAP Guidelines_Mar24.pdf</t>
   </si>
   <si>
-    <t>Breathing(Respiratory)/NKV 330 NIV guidelines.pdf</t>
-  </si>
-  <si>
     <t>Infection_and_sepsis/Influenza in Critical Care.pdf</t>
   </si>
   <si>
@@ -562,222 +565,222 @@
     <t>Policies_and_admin/Discharge Home from Critical Care .pdf</t>
   </si>
   <si>
+    <t>GI_Liver_and_Transplant/Nasal Bridle use in Critical Care.pdf</t>
+  </si>
+  <si>
     <t>GI_Liver_and_Transplant/Insertion of Nasojejunal Tubes.pdf</t>
   </si>
   <si>
-    <t>GI_Liver_and_Transplant/Nasal Bridle use in Critical Care.pdf</t>
+    <t>Drugs/Pabrinex.pdf</t>
+  </si>
+  <si>
+    <t>Cardiovascular/Focused TOE Guideline for General Critical Care_pub.pdf</t>
   </si>
   <si>
     <t>GI_Liver_and_Transplant/Pabrinex.pdf</t>
   </si>
   <si>
-    <t>Cardiovascular/Focused TOE Guideline for General Critical Care_pub.pdf</t>
-  </si>
-  <si>
-    <t>Drugs/Pabrinex.pdf</t>
-  </si>
-  <si>
     <t>Policies_and_admin/Repatriaiton Checklist for Critical Care.pdf</t>
   </si>
   <si>
     <t>Transfer/Repatriaiton Checklist for Critical Care.pdf</t>
   </si>
   <si>
-    <t>2011-03-29</t>
-  </si>
-  <si>
-    <t>2011-06-29</t>
-  </si>
-  <si>
-    <t>2011-07-29</t>
-  </si>
-  <si>
-    <t>2011-12-29</t>
-  </si>
-  <si>
-    <t>2014-09-29</t>
-  </si>
-  <si>
-    <t>2014-10-29</t>
-  </si>
-  <si>
-    <t>2014-11-29</t>
-  </si>
-  <si>
-    <t>2014-12-29</t>
-  </si>
-  <si>
-    <t>2015-03-29</t>
-  </si>
-  <si>
-    <t>2016-04-29</t>
-  </si>
-  <si>
-    <t>2016-08-29</t>
-  </si>
-  <si>
-    <t>2017-01-29</t>
-  </si>
-  <si>
-    <t>2017-08-29</t>
-  </si>
-  <si>
-    <t>2017-10-29</t>
-  </si>
-  <si>
-    <t>2017-11-29</t>
-  </si>
-  <si>
-    <t>2018-07-29</t>
-  </si>
-  <si>
-    <t>2019-05-29</t>
-  </si>
-  <si>
-    <t>2019-06-29</t>
-  </si>
-  <si>
-    <t>2019-08-29</t>
-  </si>
-  <si>
-    <t>2019-09-29</t>
-  </si>
-  <si>
-    <t>2020-01-29</t>
-  </si>
-  <si>
-    <t>2020-03-29</t>
-  </si>
-  <si>
-    <t>2020-04-29</t>
-  </si>
-  <si>
-    <t>2020-05-29</t>
-  </si>
-  <si>
-    <t>2020-07-29</t>
-  </si>
-  <si>
-    <t>2020-08-29</t>
-  </si>
-  <si>
-    <t>2020-11-29</t>
-  </si>
-  <si>
-    <t>2021-02-28</t>
-  </si>
-  <si>
-    <t>2021-05-29</t>
-  </si>
-  <si>
-    <t>2021-06-29</t>
-  </si>
-  <si>
-    <t>2021-09-29</t>
-  </si>
-  <si>
-    <t>2021-12-29</t>
-  </si>
-  <si>
-    <t>2022-01-29</t>
-  </si>
-  <si>
-    <t>2022-03-29</t>
-  </si>
-  <si>
-    <t>2022-04-29</t>
-  </si>
-  <si>
-    <t>2022-05-29</t>
-  </si>
-  <si>
-    <t>2022-06-29</t>
-  </si>
-  <si>
-    <t>2022-07-29</t>
-  </si>
-  <si>
-    <t>2022-08-29</t>
-  </si>
-  <si>
-    <t>2022-10-29</t>
-  </si>
-  <si>
-    <t>2022-11-29</t>
-  </si>
-  <si>
-    <t>2022-12-29</t>
-  </si>
-  <si>
-    <t>2023-01-29</t>
-  </si>
-  <si>
-    <t>2023-02-28</t>
-  </si>
-  <si>
-    <t>2023-04-29</t>
-  </si>
-  <si>
-    <t>2023-05-29</t>
-  </si>
-  <si>
-    <t>2023-06-29</t>
-  </si>
-  <si>
-    <t>2023-07-29</t>
-  </si>
-  <si>
-    <t>2023-08-29</t>
-  </si>
-  <si>
-    <t>2023-09-29</t>
-  </si>
-  <si>
-    <t>2023-10-29</t>
-  </si>
-  <si>
-    <t>2024-01-29</t>
-  </si>
-  <si>
-    <t>2024-02-29</t>
-  </si>
-  <si>
-    <t>2024-03-29</t>
-  </si>
-  <si>
-    <t>2024-04-29</t>
-  </si>
-  <si>
-    <t>2024-05-29</t>
+    <t>2011-03-05</t>
+  </si>
+  <si>
+    <t>2011-06-05</t>
+  </si>
+  <si>
+    <t>2011-07-05</t>
+  </si>
+  <si>
+    <t>2011-12-05</t>
+  </si>
+  <si>
+    <t>2014-09-05</t>
+  </si>
+  <si>
+    <t>2014-10-05</t>
+  </si>
+  <si>
+    <t>2014-11-05</t>
+  </si>
+  <si>
+    <t>2014-12-05</t>
+  </si>
+  <si>
+    <t>2015-03-05</t>
+  </si>
+  <si>
+    <t>2016-04-05</t>
+  </si>
+  <si>
+    <t>2016-08-05</t>
+  </si>
+  <si>
+    <t>2017-01-05</t>
+  </si>
+  <si>
+    <t>2017-08-05</t>
+  </si>
+  <si>
+    <t>2017-10-05</t>
+  </si>
+  <si>
+    <t>2017-11-05</t>
+  </si>
+  <si>
+    <t>2018-07-05</t>
+  </si>
+  <si>
+    <t>2019-05-05</t>
+  </si>
+  <si>
+    <t>2019-06-05</t>
+  </si>
+  <si>
+    <t>2019-08-05</t>
+  </si>
+  <si>
+    <t>2019-09-05</t>
+  </si>
+  <si>
+    <t>2020-01-05</t>
+  </si>
+  <si>
+    <t>2020-03-05</t>
+  </si>
+  <si>
+    <t>2020-04-05</t>
+  </si>
+  <si>
+    <t>2020-05-05</t>
+  </si>
+  <si>
+    <t>2020-07-05</t>
+  </si>
+  <si>
+    <t>2020-08-05</t>
+  </si>
+  <si>
+    <t>2020-11-05</t>
+  </si>
+  <si>
+    <t>2021-02-05</t>
+  </si>
+  <si>
+    <t>2021-05-05</t>
+  </si>
+  <si>
+    <t>2021-06-05</t>
+  </si>
+  <si>
+    <t>2021-09-05</t>
+  </si>
+  <si>
+    <t>2021-12-05</t>
+  </si>
+  <si>
+    <t>2022-01-05</t>
+  </si>
+  <si>
+    <t>2022-03-05</t>
+  </si>
+  <si>
+    <t>2022-04-05</t>
+  </si>
+  <si>
+    <t>2022-05-05</t>
+  </si>
+  <si>
+    <t>2022-06-05</t>
+  </si>
+  <si>
+    <t>2022-07-05</t>
+  </si>
+  <si>
+    <t>2022-08-05</t>
+  </si>
+  <si>
+    <t>2022-10-05</t>
+  </si>
+  <si>
+    <t>2022-11-05</t>
+  </si>
+  <si>
+    <t>2022-12-05</t>
+  </si>
+  <si>
+    <t>2023-01-05</t>
+  </si>
+  <si>
+    <t>2023-02-05</t>
+  </si>
+  <si>
+    <t>2023-04-05</t>
+  </si>
+  <si>
+    <t>2023-05-05</t>
+  </si>
+  <si>
+    <t>2023-06-05</t>
+  </si>
+  <si>
+    <t>2023-07-05</t>
+  </si>
+  <si>
+    <t>2023-08-05</t>
+  </si>
+  <si>
+    <t>2023-09-05</t>
+  </si>
+  <si>
+    <t>2023-10-05</t>
+  </si>
+  <si>
+    <t>2024-01-05</t>
+  </si>
+  <si>
+    <t>2024-02-05</t>
+  </si>
+  <si>
+    <t>2024-03-05</t>
+  </si>
+  <si>
+    <t>2024-04-05</t>
+  </si>
+  <si>
+    <t>2024-05-05</t>
   </si>
   <si>
     <t>2024-06-02</t>
   </si>
   <si>
+    <t>2024-06-05</t>
+  </si>
+  <si>
     <t>2024-06-26</t>
   </si>
   <si>
-    <t>2024-06-29</t>
+    <t>2024-07-05</t>
   </si>
   <si>
     <t>2024-07-25</t>
   </si>
   <si>
-    <t>2024-07-29</t>
+    <t>2024-08-05</t>
   </si>
   <si>
     <t>2024-08-15</t>
   </si>
   <si>
-    <t>2024-08-29</t>
+    <t>2024-10-05</t>
   </si>
   <si>
     <t>2024-10-24</t>
   </si>
   <si>
-    <t>2024-10-29</t>
-  </si>
-  <si>
     <t>2024-11-20</t>
   </si>
   <si>
@@ -787,82 +790,88 @@
     <t>2024-12-24</t>
   </si>
   <si>
-    <t>2025-01-29</t>
-  </si>
-  <si>
-    <t>2025-02-28</t>
-  </si>
-  <si>
-    <t>2025-03-29</t>
-  </si>
-  <si>
-    <t>2025-04-29</t>
-  </si>
-  <si>
-    <t>2025-05-29</t>
-  </si>
-  <si>
-    <t>2025-06-29</t>
-  </si>
-  <si>
-    <t>2025-07-29</t>
-  </si>
-  <si>
-    <t>2025-08-29</t>
-  </si>
-  <si>
-    <t>2025-10-29</t>
-  </si>
-  <si>
-    <t>2025-11-29</t>
-  </si>
-  <si>
-    <t>2026-01-29</t>
-  </si>
-  <si>
-    <t>2026-03-29</t>
-  </si>
-  <si>
-    <t>2026-05-29</t>
-  </si>
-  <si>
-    <t>2026-07-29</t>
-  </si>
-  <si>
-    <t>2026-11-29</t>
-  </si>
-  <si>
-    <t>2027-01-29</t>
-  </si>
-  <si>
-    <t>2027-02-28</t>
-  </si>
-  <si>
-    <t>2027-03-29</t>
-  </si>
-  <si>
-    <t>2028-02-29</t>
-  </si>
-  <si>
-    <t>2028-03-29</t>
-  </si>
-  <si>
-    <t>2028-05-29</t>
-  </si>
-  <si>
-    <t>2028-07-29</t>
-  </si>
-  <si>
-    <t>2028-11-29</t>
-  </si>
-  <si>
-    <t>2029-02-28</t>
-  </si>
-  <si>
-    <t>2029-06-29</t>
-  </si>
-  <si>
-    <t>2030-11-29</t>
+    <t>2025-01-05</t>
+  </si>
+  <si>
+    <t>2025-02-05</t>
+  </si>
+  <si>
+    <t>2025-03-05</t>
+  </si>
+  <si>
+    <t>2025-04-05</t>
+  </si>
+  <si>
+    <t>2025-05-05</t>
+  </si>
+  <si>
+    <t>2025-06-05</t>
+  </si>
+  <si>
+    <t>2025-07-05</t>
+  </si>
+  <si>
+    <t>2025-08-05</t>
+  </si>
+  <si>
+    <t>2025-10-05</t>
+  </si>
+  <si>
+    <t>2025-11-05</t>
+  </si>
+  <si>
+    <t>2026-01-05</t>
+  </si>
+  <si>
+    <t>2026-03-05</t>
+  </si>
+  <si>
+    <t>2026-05-05</t>
+  </si>
+  <si>
+    <t>2026-07-05</t>
+  </si>
+  <si>
+    <t>2026-08-05</t>
+  </si>
+  <si>
+    <t>2026-09-05</t>
+  </si>
+  <si>
+    <t>2026-11-05</t>
+  </si>
+  <si>
+    <t>2027-01-05</t>
+  </si>
+  <si>
+    <t>2027-02-05</t>
+  </si>
+  <si>
+    <t>2027-03-05</t>
+  </si>
+  <si>
+    <t>2028-02-05</t>
+  </si>
+  <si>
+    <t>2028-03-05</t>
+  </si>
+  <si>
+    <t>2028-05-05</t>
+  </si>
+  <si>
+    <t>2028-07-05</t>
+  </si>
+  <si>
+    <t>2028-11-05</t>
+  </si>
+  <si>
+    <t>2029-02-05</t>
+  </si>
+  <si>
+    <t>2029-06-05</t>
+  </si>
+  <si>
+    <t>2030-11-05</t>
   </si>
 </sst>
 </file>
@@ -1220,7 +1229,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B188"/>
+  <dimension ref="A1:B189"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1239,7 +1248,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -1247,7 +1256,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -1255,7 +1264,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -1263,7 +1272,7 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -1271,7 +1280,7 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -1279,7 +1288,7 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -1287,7 +1296,7 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -1295,7 +1304,7 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -1303,7 +1312,7 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -1311,7 +1320,7 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -1319,7 +1328,7 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -1327,7 +1336,7 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -1335,7 +1344,7 @@
         <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -1343,7 +1352,7 @@
         <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -1351,7 +1360,7 @@
         <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -1359,7 +1368,7 @@
         <v>17</v>
       </c>
       <c r="B17" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -1367,7 +1376,7 @@
         <v>18</v>
       </c>
       <c r="B18" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -1375,7 +1384,7 @@
         <v>19</v>
       </c>
       <c r="B19" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -1383,7 +1392,7 @@
         <v>20</v>
       </c>
       <c r="B20" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -1391,7 +1400,7 @@
         <v>21</v>
       </c>
       <c r="B21" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -1399,7 +1408,7 @@
         <v>22</v>
       </c>
       <c r="B22" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -1407,7 +1416,7 @@
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -1415,7 +1424,7 @@
         <v>24</v>
       </c>
       <c r="B24" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -1423,7 +1432,7 @@
         <v>25</v>
       </c>
       <c r="B25" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -1431,7 +1440,7 @@
         <v>26</v>
       </c>
       <c r="B26" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -1439,7 +1448,7 @@
         <v>27</v>
       </c>
       <c r="B27" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -1447,7 +1456,7 @@
         <v>28</v>
       </c>
       <c r="B28" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -1455,7 +1464,7 @@
         <v>29</v>
       </c>
       <c r="B29" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -1463,7 +1472,7 @@
         <v>30</v>
       </c>
       <c r="B30" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -1471,7 +1480,7 @@
         <v>31</v>
       </c>
       <c r="B31" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -1479,7 +1488,7 @@
         <v>32</v>
       </c>
       <c r="B32" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -1487,7 +1496,7 @@
         <v>33</v>
       </c>
       <c r="B33" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -1495,7 +1504,7 @@
         <v>34</v>
       </c>
       <c r="B34" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -1503,7 +1512,7 @@
         <v>35</v>
       </c>
       <c r="B35" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -1511,7 +1520,7 @@
         <v>36</v>
       </c>
       <c r="B36" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -1519,7 +1528,7 @@
         <v>37</v>
       </c>
       <c r="B37" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -1527,7 +1536,7 @@
         <v>38</v>
       </c>
       <c r="B38" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -1535,7 +1544,7 @@
         <v>39</v>
       </c>
       <c r="B39" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -1543,7 +1552,7 @@
         <v>40</v>
       </c>
       <c r="B40" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -1551,7 +1560,7 @@
         <v>41</v>
       </c>
       <c r="B41" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -1559,7 +1568,7 @@
         <v>42</v>
       </c>
       <c r="B42" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -1567,7 +1576,7 @@
         <v>43</v>
       </c>
       <c r="B43" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -1575,7 +1584,7 @@
         <v>44</v>
       </c>
       <c r="B44" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -1583,7 +1592,7 @@
         <v>45</v>
       </c>
       <c r="B45" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -1591,7 +1600,7 @@
         <v>46</v>
       </c>
       <c r="B46" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -1599,7 +1608,7 @@
         <v>47</v>
       </c>
       <c r="B47" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -1607,7 +1616,7 @@
         <v>48</v>
       </c>
       <c r="B48" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -1615,7 +1624,7 @@
         <v>49</v>
       </c>
       <c r="B49" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -1623,7 +1632,7 @@
         <v>50</v>
       </c>
       <c r="B50" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -1631,7 +1640,7 @@
         <v>51</v>
       </c>
       <c r="B51" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -1639,7 +1648,7 @@
         <v>52</v>
       </c>
       <c r="B52" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -1647,7 +1656,7 @@
         <v>53</v>
       </c>
       <c r="B53" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
     </row>
     <row r="54" spans="1:2">
@@ -1655,7 +1664,7 @@
         <v>54</v>
       </c>
       <c r="B54" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
     </row>
     <row r="55" spans="1:2">
@@ -1663,7 +1672,7 @@
         <v>55</v>
       </c>
       <c r="B55" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
     </row>
     <row r="56" spans="1:2">
@@ -1671,7 +1680,7 @@
         <v>56</v>
       </c>
       <c r="B56" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
     </row>
     <row r="57" spans="1:2">
@@ -1679,7 +1688,7 @@
         <v>57</v>
       </c>
       <c r="B57" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
     </row>
     <row r="58" spans="1:2">
@@ -1687,7 +1696,7 @@
         <v>58</v>
       </c>
       <c r="B58" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
     </row>
     <row r="59" spans="1:2">
@@ -1695,7 +1704,7 @@
         <v>59</v>
       </c>
       <c r="B59" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
     </row>
     <row r="60" spans="1:2">
@@ -1703,7 +1712,7 @@
         <v>60</v>
       </c>
       <c r="B60" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="61" spans="1:2">
@@ -1711,7 +1720,7 @@
         <v>61</v>
       </c>
       <c r="B61" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
     <row r="62" spans="1:2">
@@ -1719,7 +1728,7 @@
         <v>62</v>
       </c>
       <c r="B62" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="63" spans="1:2">
@@ -1727,7 +1736,7 @@
         <v>63</v>
       </c>
       <c r="B63" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="64" spans="1:2">
@@ -1735,7 +1744,7 @@
         <v>64</v>
       </c>
       <c r="B64" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
     <row r="65" spans="1:2">
@@ -1743,7 +1752,7 @@
         <v>65</v>
       </c>
       <c r="B65" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
     </row>
     <row r="66" spans="1:2">
@@ -1751,7 +1760,7 @@
         <v>66</v>
       </c>
       <c r="B66" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
     </row>
     <row r="67" spans="1:2">
@@ -1759,7 +1768,7 @@
         <v>67</v>
       </c>
       <c r="B67" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
     </row>
     <row r="68" spans="1:2">
@@ -1767,7 +1776,7 @@
         <v>68</v>
       </c>
       <c r="B68" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
     </row>
     <row r="69" spans="1:2">
@@ -1775,7 +1784,7 @@
         <v>69</v>
       </c>
       <c r="B69" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
     </row>
     <row r="70" spans="1:2">
@@ -1783,7 +1792,7 @@
         <v>70</v>
       </c>
       <c r="B70" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
     </row>
     <row r="71" spans="1:2">
@@ -1791,7 +1800,7 @@
         <v>71</v>
       </c>
       <c r="B71" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
     </row>
     <row r="72" spans="1:2">
@@ -1799,7 +1808,7 @@
         <v>72</v>
       </c>
       <c r="B72" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
     </row>
     <row r="73" spans="1:2">
@@ -1807,7 +1816,7 @@
         <v>73</v>
       </c>
       <c r="B73" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
     </row>
     <row r="74" spans="1:2">
@@ -1815,7 +1824,7 @@
         <v>74</v>
       </c>
       <c r="B74" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="75" spans="1:2">
@@ -1823,7 +1832,7 @@
         <v>75</v>
       </c>
       <c r="B75" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="76" spans="1:2">
@@ -1831,7 +1840,7 @@
         <v>76</v>
       </c>
       <c r="B76" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="77" spans="1:2">
@@ -1839,7 +1848,7 @@
         <v>77</v>
       </c>
       <c r="B77" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="78" spans="1:2">
@@ -1847,7 +1856,7 @@
         <v>78</v>
       </c>
       <c r="B78" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="79" spans="1:2">
@@ -1855,7 +1864,7 @@
         <v>79</v>
       </c>
       <c r="B79" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="80" spans="1:2">
@@ -1863,7 +1872,7 @@
         <v>80</v>
       </c>
       <c r="B80" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="81" spans="1:2">
@@ -1871,7 +1880,7 @@
         <v>81</v>
       </c>
       <c r="B81" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="82" spans="1:2">
@@ -1879,7 +1888,7 @@
         <v>82</v>
       </c>
       <c r="B82" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="83" spans="1:2">
@@ -1887,7 +1896,7 @@
         <v>83</v>
       </c>
       <c r="B83" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="84" spans="1:2">
@@ -1895,7 +1904,7 @@
         <v>84</v>
       </c>
       <c r="B84" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="85" spans="1:2">
@@ -1903,7 +1912,7 @@
         <v>85</v>
       </c>
       <c r="B85" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="86" spans="1:2">
@@ -1911,7 +1920,7 @@
         <v>86</v>
       </c>
       <c r="B86" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
     </row>
     <row r="87" spans="1:2">
@@ -1919,7 +1928,7 @@
         <v>87</v>
       </c>
       <c r="B87" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="88" spans="1:2">
@@ -1927,7 +1936,7 @@
         <v>88</v>
       </c>
       <c r="B88" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="89" spans="1:2">
@@ -1935,7 +1944,7 @@
         <v>89</v>
       </c>
       <c r="B89" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
     </row>
     <row r="90" spans="1:2">
@@ -1943,7 +1952,7 @@
         <v>90</v>
       </c>
       <c r="B90" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
     </row>
     <row r="91" spans="1:2">
@@ -1951,7 +1960,7 @@
         <v>91</v>
       </c>
       <c r="B91" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
     </row>
     <row r="92" spans="1:2">
@@ -1959,7 +1968,7 @@
         <v>92</v>
       </c>
       <c r="B92" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
     </row>
     <row r="93" spans="1:2">
@@ -1967,7 +1976,7 @@
         <v>93</v>
       </c>
       <c r="B93" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="94" spans="1:2">
@@ -1975,7 +1984,7 @@
         <v>94</v>
       </c>
       <c r="B94" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="95" spans="1:2">
@@ -1983,7 +1992,7 @@
         <v>95</v>
       </c>
       <c r="B95" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="96" spans="1:2">
@@ -1991,7 +2000,7 @@
         <v>96</v>
       </c>
       <c r="B96" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="97" spans="1:2">
@@ -1999,7 +2008,7 @@
         <v>97</v>
       </c>
       <c r="B97" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="98" spans="1:2">
@@ -2007,7 +2016,7 @@
         <v>98</v>
       </c>
       <c r="B98" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="99" spans="1:2">
@@ -2015,7 +2024,7 @@
         <v>99</v>
       </c>
       <c r="B99" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="100" spans="1:2">
@@ -2023,7 +2032,7 @@
         <v>100</v>
       </c>
       <c r="B100" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="101" spans="1:2">
@@ -2031,7 +2040,7 @@
         <v>101</v>
       </c>
       <c r="B101" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="102" spans="1:2">
@@ -2039,7 +2048,7 @@
         <v>102</v>
       </c>
       <c r="B102" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
     </row>
     <row r="103" spans="1:2">
@@ -2047,7 +2056,7 @@
         <v>103</v>
       </c>
       <c r="B103" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
     </row>
     <row r="104" spans="1:2">
@@ -2055,7 +2064,7 @@
         <v>104</v>
       </c>
       <c r="B104" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="105" spans="1:2">
@@ -2063,7 +2072,7 @@
         <v>105</v>
       </c>
       <c r="B105" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
     </row>
     <row r="106" spans="1:2">
@@ -2071,7 +2080,7 @@
         <v>106</v>
       </c>
       <c r="B106" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
     </row>
     <row r="107" spans="1:2">
@@ -2079,7 +2088,7 @@
         <v>107</v>
       </c>
       <c r="B107" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
     </row>
     <row r="108" spans="1:2">
@@ -2087,7 +2096,7 @@
         <v>108</v>
       </c>
       <c r="B108" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
     </row>
     <row r="109" spans="1:2">
@@ -2111,7 +2120,7 @@
         <v>111</v>
       </c>
       <c r="B111" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="112" spans="1:2">
@@ -2119,7 +2128,7 @@
         <v>112</v>
       </c>
       <c r="B112" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
     </row>
     <row r="113" spans="1:2">
@@ -2127,7 +2136,7 @@
         <v>113</v>
       </c>
       <c r="B113" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
     </row>
     <row r="114" spans="1:2">
@@ -2135,7 +2144,7 @@
         <v>114</v>
       </c>
       <c r="B114" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
     </row>
     <row r="115" spans="1:2">
@@ -2143,7 +2152,7 @@
         <v>115</v>
       </c>
       <c r="B115" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
     </row>
     <row r="116" spans="1:2">
@@ -2151,7 +2160,7 @@
         <v>116</v>
       </c>
       <c r="B116" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
     </row>
     <row r="117" spans="1:2">
@@ -2159,7 +2168,7 @@
         <v>117</v>
       </c>
       <c r="B117" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
     </row>
     <row r="118" spans="1:2">
@@ -2167,7 +2176,7 @@
         <v>118</v>
       </c>
       <c r="B118" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
     </row>
     <row r="119" spans="1:2">
@@ -2175,7 +2184,7 @@
         <v>119</v>
       </c>
       <c r="B119" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
     </row>
     <row r="120" spans="1:2">
@@ -2183,7 +2192,7 @@
         <v>120</v>
       </c>
       <c r="B120" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
     </row>
     <row r="121" spans="1:2">
@@ -2191,7 +2200,7 @@
         <v>121</v>
       </c>
       <c r="B121" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row r="122" spans="1:2">
@@ -2199,7 +2208,7 @@
         <v>122</v>
       </c>
       <c r="B122" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
     </row>
     <row r="123" spans="1:2">
@@ -2207,7 +2216,7 @@
         <v>123</v>
       </c>
       <c r="B123" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
     </row>
     <row r="124" spans="1:2">
@@ -2215,7 +2224,7 @@
         <v>124</v>
       </c>
       <c r="B124" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
     </row>
     <row r="125" spans="1:2">
@@ -2223,7 +2232,7 @@
         <v>125</v>
       </c>
       <c r="B125" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
     <row r="126" spans="1:2">
@@ -2231,7 +2240,7 @@
         <v>126</v>
       </c>
       <c r="B126" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
     </row>
     <row r="127" spans="1:2">
@@ -2239,7 +2248,7 @@
         <v>127</v>
       </c>
       <c r="B127" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
     </row>
     <row r="128" spans="1:2">
@@ -2247,7 +2256,7 @@
         <v>128</v>
       </c>
       <c r="B128" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
     <row r="129" spans="1:2">
@@ -2255,7 +2264,7 @@
         <v>129</v>
       </c>
       <c r="B129" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
     </row>
     <row r="130" spans="1:2">
@@ -2263,7 +2272,7 @@
         <v>130</v>
       </c>
       <c r="B130" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
     </row>
     <row r="131" spans="1:2">
@@ -2271,7 +2280,7 @@
         <v>131</v>
       </c>
       <c r="B131" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
     </row>
     <row r="132" spans="1:2">
@@ -2279,7 +2288,7 @@
         <v>132</v>
       </c>
       <c r="B132" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="133" spans="1:2">
@@ -2287,7 +2296,7 @@
         <v>133</v>
       </c>
       <c r="B133" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="134" spans="1:2">
@@ -2295,7 +2304,7 @@
         <v>134</v>
       </c>
       <c r="B134" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="135" spans="1:2">
@@ -2303,7 +2312,7 @@
         <v>135</v>
       </c>
       <c r="B135" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
     </row>
     <row r="136" spans="1:2">
@@ -2311,7 +2320,7 @@
         <v>136</v>
       </c>
       <c r="B136" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
     </row>
     <row r="137" spans="1:2">
@@ -2319,7 +2328,7 @@
         <v>137</v>
       </c>
       <c r="B137" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="138" spans="1:2">
@@ -2327,7 +2336,7 @@
         <v>138</v>
       </c>
       <c r="B138" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="139" spans="1:2">
@@ -2335,7 +2344,7 @@
         <v>139</v>
       </c>
       <c r="B139" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="140" spans="1:2">
@@ -2343,7 +2352,7 @@
         <v>140</v>
       </c>
       <c r="B140" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
     </row>
     <row r="141" spans="1:2">
@@ -2351,7 +2360,7 @@
         <v>141</v>
       </c>
       <c r="B141" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
     </row>
     <row r="142" spans="1:2">
@@ -2359,7 +2368,7 @@
         <v>142</v>
       </c>
       <c r="B142" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
     </row>
     <row r="143" spans="1:2">
@@ -2367,7 +2376,7 @@
         <v>143</v>
       </c>
       <c r="B143" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
     </row>
     <row r="144" spans="1:2">
@@ -2375,7 +2384,7 @@
         <v>144</v>
       </c>
       <c r="B144" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
     </row>
     <row r="145" spans="1:2">
@@ -2383,7 +2392,7 @@
         <v>145</v>
       </c>
       <c r="B145" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
     </row>
     <row r="146" spans="1:2">
@@ -2391,7 +2400,7 @@
         <v>146</v>
       </c>
       <c r="B146" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
     </row>
     <row r="147" spans="1:2">
@@ -2399,7 +2408,7 @@
         <v>147</v>
       </c>
       <c r="B147" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
     </row>
     <row r="148" spans="1:2">
@@ -2407,7 +2416,7 @@
         <v>148</v>
       </c>
       <c r="B148" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
     </row>
     <row r="149" spans="1:2">
@@ -2415,7 +2424,7 @@
         <v>149</v>
       </c>
       <c r="B149" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
     </row>
     <row r="150" spans="1:2">
@@ -2423,7 +2432,7 @@
         <v>150</v>
       </c>
       <c r="B150" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="151" spans="1:2">
@@ -2431,7 +2440,7 @@
         <v>151</v>
       </c>
       <c r="B151" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="152" spans="1:2">
@@ -2439,7 +2448,7 @@
         <v>152</v>
       </c>
       <c r="B152" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
     </row>
     <row r="153" spans="1:2">
@@ -2447,7 +2456,7 @@
         <v>153</v>
       </c>
       <c r="B153" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
     </row>
     <row r="154" spans="1:2">
@@ -2455,7 +2464,7 @@
         <v>154</v>
       </c>
       <c r="B154" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
     </row>
     <row r="155" spans="1:2">
@@ -2463,7 +2472,7 @@
         <v>155</v>
       </c>
       <c r="B155" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
     </row>
     <row r="156" spans="1:2">
@@ -2471,7 +2480,7 @@
         <v>156</v>
       </c>
       <c r="B156" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
     </row>
     <row r="157" spans="1:2">
@@ -2479,7 +2488,7 @@
         <v>157</v>
       </c>
       <c r="B157" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
     </row>
     <row r="158" spans="1:2">
@@ -2487,7 +2496,7 @@
         <v>158</v>
       </c>
       <c r="B158" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
     </row>
     <row r="159" spans="1:2">
@@ -2495,7 +2504,7 @@
         <v>159</v>
       </c>
       <c r="B159" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
     </row>
     <row r="160" spans="1:2">
@@ -2503,7 +2512,7 @@
         <v>160</v>
       </c>
       <c r="B160" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
     </row>
     <row r="161" spans="1:2">
@@ -2511,7 +2520,7 @@
         <v>161</v>
       </c>
       <c r="B161" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
     </row>
     <row r="162" spans="1:2">
@@ -2519,7 +2528,7 @@
         <v>162</v>
       </c>
       <c r="B162" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
     </row>
     <row r="163" spans="1:2">
@@ -2527,7 +2536,7 @@
         <v>163</v>
       </c>
       <c r="B163" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
     </row>
     <row r="164" spans="1:2">
@@ -2535,7 +2544,7 @@
         <v>164</v>
       </c>
       <c r="B164" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
     </row>
     <row r="165" spans="1:2">
@@ -2543,7 +2552,7 @@
         <v>165</v>
       </c>
       <c r="B165" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="166" spans="1:2">
@@ -2551,7 +2560,7 @@
         <v>166</v>
       </c>
       <c r="B166" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
     </row>
     <row r="167" spans="1:2">
@@ -2559,7 +2568,7 @@
         <v>167</v>
       </c>
       <c r="B167" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
     </row>
     <row r="168" spans="1:2">
@@ -2567,7 +2576,7 @@
         <v>168</v>
       </c>
       <c r="B168" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
     </row>
     <row r="169" spans="1:2">
@@ -2575,7 +2584,7 @@
         <v>169</v>
       </c>
       <c r="B169" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
     </row>
     <row r="170" spans="1:2">
@@ -2583,7 +2592,7 @@
         <v>170</v>
       </c>
       <c r="B170" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
     </row>
     <row r="171" spans="1:2">
@@ -2591,7 +2600,7 @@
         <v>171</v>
       </c>
       <c r="B171" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
     </row>
     <row r="172" spans="1:2">
@@ -2599,7 +2608,7 @@
         <v>172</v>
       </c>
       <c r="B172" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
     </row>
     <row r="173" spans="1:2">
@@ -2607,7 +2616,7 @@
         <v>173</v>
       </c>
       <c r="B173" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
     </row>
     <row r="174" spans="1:2">
@@ -2615,7 +2624,7 @@
         <v>174</v>
       </c>
       <c r="B174" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
     </row>
     <row r="175" spans="1:2">
@@ -2623,7 +2632,7 @@
         <v>175</v>
       </c>
       <c r="B175" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
     </row>
     <row r="176" spans="1:2">
@@ -2631,7 +2640,7 @@
         <v>176</v>
       </c>
       <c r="B176" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
     </row>
     <row r="177" spans="1:2">
@@ -2639,7 +2648,7 @@
         <v>177</v>
       </c>
       <c r="B177" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
     </row>
     <row r="178" spans="1:2">
@@ -2647,7 +2656,7 @@
         <v>178</v>
       </c>
       <c r="B178" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
     </row>
     <row r="179" spans="1:2">
@@ -2655,7 +2664,7 @@
         <v>179</v>
       </c>
       <c r="B179" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
     </row>
     <row r="180" spans="1:2">
@@ -2663,7 +2672,7 @@
         <v>180</v>
       </c>
       <c r="B180" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
     </row>
     <row r="181" spans="1:2">
@@ -2671,7 +2680,7 @@
         <v>181</v>
       </c>
       <c r="B181" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
     </row>
     <row r="182" spans="1:2">
@@ -2679,7 +2688,7 @@
         <v>182</v>
       </c>
       <c r="B182" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
     </row>
     <row r="183" spans="1:2">
@@ -2687,7 +2696,7 @@
         <v>183</v>
       </c>
       <c r="B183" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
     </row>
     <row r="184" spans="1:2">
@@ -2695,7 +2704,7 @@
         <v>184</v>
       </c>
       <c r="B184" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
     </row>
     <row r="185" spans="1:2">
@@ -2703,7 +2712,7 @@
         <v>185</v>
       </c>
       <c r="B185" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
     </row>
     <row r="186" spans="1:2">
@@ -2711,7 +2720,7 @@
         <v>186</v>
       </c>
       <c r="B186" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
     </row>
     <row r="187" spans="1:2">
@@ -2719,7 +2728,7 @@
         <v>187</v>
       </c>
       <c r="B187" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
     </row>
     <row r="188" spans="1:2">
@@ -2727,7 +2736,15 @@
         <v>188</v>
       </c>
       <c r="B188" t="s">
-        <v>282</v>
+        <v>285</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2">
+      <c r="A189" t="s">
+        <v>189</v>
+      </c>
+      <c r="B189" t="s">
+        <v>285</v>
       </c>
     </row>
   </sheetData>

--- a/lothiancriticalcare/1a74f8f7b8b7e871b413c4697f68b4401fbacdf0/reviewdates.xlsx
+++ b/lothiancriticalcare/1a74f8f7b8b7e871b413c4697f68b4401fbacdf0/reviewdates.xlsx
@@ -352,6 +352,9 @@
     <t>Infection_and_sepsis/Antifungal guidance in critical care.pdf</t>
   </si>
   <si>
+    <t>Breathing(Respiratory)/ARDS Strategy.pdf</t>
+  </si>
+  <si>
     <t>Transfer/Transfer Outdoors to Garden Guideline.pdf</t>
   </si>
   <si>
@@ -361,9 +364,6 @@
     <t>Cardiovascular/Intra Aortic Balloon Pump Bedside Checks_pub.pdf</t>
   </si>
   <si>
-    <t>Breathing(Respiratory)/ARDS Strategy.pdf</t>
-  </si>
-  <si>
     <t>Drugs/Dobutamine.pdf</t>
   </si>
   <si>
@@ -586,196 +586,196 @@
     <t>Transfer/Repatriaiton Checklist for Critical Care.pdf</t>
   </si>
   <si>
-    <t>2011-03-05</t>
-  </si>
-  <si>
-    <t>2011-06-05</t>
-  </si>
-  <si>
-    <t>2011-07-05</t>
-  </si>
-  <si>
-    <t>2011-12-05</t>
-  </si>
-  <si>
-    <t>2014-09-05</t>
-  </si>
-  <si>
-    <t>2014-10-05</t>
-  </si>
-  <si>
-    <t>2014-11-05</t>
-  </si>
-  <si>
-    <t>2014-12-05</t>
-  </si>
-  <si>
-    <t>2015-03-05</t>
-  </si>
-  <si>
-    <t>2016-04-05</t>
-  </si>
-  <si>
-    <t>2016-08-05</t>
-  </si>
-  <si>
-    <t>2017-01-05</t>
-  </si>
-  <si>
-    <t>2017-08-05</t>
-  </si>
-  <si>
-    <t>2017-10-05</t>
-  </si>
-  <si>
-    <t>2017-11-05</t>
-  </si>
-  <si>
-    <t>2018-07-05</t>
-  </si>
-  <si>
-    <t>2019-05-05</t>
-  </si>
-  <si>
-    <t>2019-06-05</t>
-  </si>
-  <si>
-    <t>2019-08-05</t>
-  </si>
-  <si>
-    <t>2019-09-05</t>
-  </si>
-  <si>
-    <t>2020-01-05</t>
-  </si>
-  <si>
-    <t>2020-03-05</t>
-  </si>
-  <si>
-    <t>2020-04-05</t>
-  </si>
-  <si>
-    <t>2020-05-05</t>
-  </si>
-  <si>
-    <t>2020-07-05</t>
-  </si>
-  <si>
-    <t>2020-08-05</t>
-  </si>
-  <si>
-    <t>2020-11-05</t>
-  </si>
-  <si>
-    <t>2021-02-05</t>
-  </si>
-  <si>
-    <t>2021-05-05</t>
-  </si>
-  <si>
-    <t>2021-06-05</t>
-  </si>
-  <si>
-    <t>2021-09-05</t>
-  </si>
-  <si>
-    <t>2021-12-05</t>
-  </si>
-  <si>
-    <t>2022-01-05</t>
-  </si>
-  <si>
-    <t>2022-03-05</t>
-  </si>
-  <si>
-    <t>2022-04-05</t>
-  </si>
-  <si>
-    <t>2022-05-05</t>
-  </si>
-  <si>
-    <t>2022-06-05</t>
-  </si>
-  <si>
-    <t>2022-07-05</t>
-  </si>
-  <si>
-    <t>2022-08-05</t>
-  </si>
-  <si>
-    <t>2022-10-05</t>
-  </si>
-  <si>
-    <t>2022-11-05</t>
-  </si>
-  <si>
-    <t>2022-12-05</t>
-  </si>
-  <si>
-    <t>2023-01-05</t>
-  </si>
-  <si>
-    <t>2023-02-05</t>
-  </si>
-  <si>
-    <t>2023-04-05</t>
-  </si>
-  <si>
-    <t>2023-05-05</t>
-  </si>
-  <si>
-    <t>2023-06-05</t>
-  </si>
-  <si>
-    <t>2023-07-05</t>
-  </si>
-  <si>
-    <t>2023-08-05</t>
-  </si>
-  <si>
-    <t>2023-09-05</t>
-  </si>
-  <si>
-    <t>2023-10-05</t>
-  </si>
-  <si>
-    <t>2024-01-05</t>
-  </si>
-  <si>
-    <t>2024-02-05</t>
-  </si>
-  <si>
-    <t>2024-03-05</t>
-  </si>
-  <si>
-    <t>2024-04-05</t>
-  </si>
-  <si>
-    <t>2024-05-05</t>
+    <t>2011-03-17</t>
+  </si>
+  <si>
+    <t>2011-06-17</t>
+  </si>
+  <si>
+    <t>2011-07-17</t>
+  </si>
+  <si>
+    <t>2011-12-17</t>
+  </si>
+  <si>
+    <t>2014-09-17</t>
+  </si>
+  <si>
+    <t>2014-10-17</t>
+  </si>
+  <si>
+    <t>2014-11-17</t>
+  </si>
+  <si>
+    <t>2014-12-17</t>
+  </si>
+  <si>
+    <t>2015-03-17</t>
+  </si>
+  <si>
+    <t>2016-04-17</t>
+  </si>
+  <si>
+    <t>2016-08-17</t>
+  </si>
+  <si>
+    <t>2017-01-17</t>
+  </si>
+  <si>
+    <t>2017-08-17</t>
+  </si>
+  <si>
+    <t>2017-10-17</t>
+  </si>
+  <si>
+    <t>2017-11-17</t>
+  </si>
+  <si>
+    <t>2018-07-17</t>
+  </si>
+  <si>
+    <t>2019-05-17</t>
+  </si>
+  <si>
+    <t>2019-06-17</t>
+  </si>
+  <si>
+    <t>2019-08-17</t>
+  </si>
+  <si>
+    <t>2019-09-17</t>
+  </si>
+  <si>
+    <t>2020-01-17</t>
+  </si>
+  <si>
+    <t>2020-03-17</t>
+  </si>
+  <si>
+    <t>2020-04-17</t>
+  </si>
+  <si>
+    <t>2020-05-17</t>
+  </si>
+  <si>
+    <t>2020-07-17</t>
+  </si>
+  <si>
+    <t>2020-08-17</t>
+  </si>
+  <si>
+    <t>2020-11-17</t>
+  </si>
+  <si>
+    <t>2021-02-17</t>
+  </si>
+  <si>
+    <t>2021-05-17</t>
+  </si>
+  <si>
+    <t>2021-06-17</t>
+  </si>
+  <si>
+    <t>2021-09-17</t>
+  </si>
+  <si>
+    <t>2021-12-17</t>
+  </si>
+  <si>
+    <t>2022-01-17</t>
+  </si>
+  <si>
+    <t>2022-03-17</t>
+  </si>
+  <si>
+    <t>2022-04-17</t>
+  </si>
+  <si>
+    <t>2022-05-17</t>
+  </si>
+  <si>
+    <t>2022-06-17</t>
+  </si>
+  <si>
+    <t>2022-07-17</t>
+  </si>
+  <si>
+    <t>2022-08-17</t>
+  </si>
+  <si>
+    <t>2022-10-17</t>
+  </si>
+  <si>
+    <t>2022-11-17</t>
+  </si>
+  <si>
+    <t>2022-12-17</t>
+  </si>
+  <si>
+    <t>2023-01-17</t>
+  </si>
+  <si>
+    <t>2023-02-17</t>
+  </si>
+  <si>
+    <t>2023-04-17</t>
+  </si>
+  <si>
+    <t>2023-05-17</t>
+  </si>
+  <si>
+    <t>2023-06-17</t>
+  </si>
+  <si>
+    <t>2023-07-17</t>
+  </si>
+  <si>
+    <t>2023-08-17</t>
+  </si>
+  <si>
+    <t>2023-09-17</t>
+  </si>
+  <si>
+    <t>2023-10-17</t>
+  </si>
+  <si>
+    <t>2024-01-17</t>
+  </si>
+  <si>
+    <t>2024-02-17</t>
+  </si>
+  <si>
+    <t>2024-03-17</t>
+  </si>
+  <si>
+    <t>2024-04-17</t>
+  </si>
+  <si>
+    <t>2024-05-17</t>
   </si>
   <si>
     <t>2024-06-02</t>
   </si>
   <si>
-    <t>2024-06-05</t>
+    <t>2024-06-17</t>
   </si>
   <si>
     <t>2024-06-26</t>
   </si>
   <si>
-    <t>2024-07-05</t>
+    <t>2024-07-17</t>
   </si>
   <si>
     <t>2024-07-25</t>
   </si>
   <si>
-    <t>2024-08-05</t>
-  </si>
-  <si>
     <t>2024-08-15</t>
   </si>
   <si>
-    <t>2024-10-05</t>
+    <t>2024-08-17</t>
+  </si>
+  <si>
+    <t>2024-10-17</t>
   </si>
   <si>
     <t>2024-10-24</t>
@@ -790,88 +790,88 @@
     <t>2024-12-24</t>
   </si>
   <si>
-    <t>2025-01-05</t>
-  </si>
-  <si>
-    <t>2025-02-05</t>
-  </si>
-  <si>
-    <t>2025-03-05</t>
-  </si>
-  <si>
-    <t>2025-04-05</t>
-  </si>
-  <si>
-    <t>2025-05-05</t>
-  </si>
-  <si>
-    <t>2025-06-05</t>
-  </si>
-  <si>
-    <t>2025-07-05</t>
-  </si>
-  <si>
-    <t>2025-08-05</t>
-  </si>
-  <si>
-    <t>2025-10-05</t>
-  </si>
-  <si>
-    <t>2025-11-05</t>
-  </si>
-  <si>
-    <t>2026-01-05</t>
-  </si>
-  <si>
-    <t>2026-03-05</t>
-  </si>
-  <si>
-    <t>2026-05-05</t>
-  </si>
-  <si>
-    <t>2026-07-05</t>
-  </si>
-  <si>
-    <t>2026-08-05</t>
-  </si>
-  <si>
-    <t>2026-09-05</t>
-  </si>
-  <si>
-    <t>2026-11-05</t>
-  </si>
-  <si>
-    <t>2027-01-05</t>
-  </si>
-  <si>
-    <t>2027-02-05</t>
-  </si>
-  <si>
-    <t>2027-03-05</t>
-  </si>
-  <si>
-    <t>2028-02-05</t>
-  </si>
-  <si>
-    <t>2028-03-05</t>
-  </si>
-  <si>
-    <t>2028-05-05</t>
-  </si>
-  <si>
-    <t>2028-07-05</t>
-  </si>
-  <si>
-    <t>2028-11-05</t>
-  </si>
-  <si>
-    <t>2029-02-05</t>
-  </si>
-  <si>
-    <t>2029-06-05</t>
-  </si>
-  <si>
-    <t>2030-11-05</t>
+    <t>2025-01-17</t>
+  </si>
+  <si>
+    <t>2025-02-17</t>
+  </si>
+  <si>
+    <t>2025-03-17</t>
+  </si>
+  <si>
+    <t>2025-04-17</t>
+  </si>
+  <si>
+    <t>2025-05-17</t>
+  </si>
+  <si>
+    <t>2025-06-17</t>
+  </si>
+  <si>
+    <t>2025-07-17</t>
+  </si>
+  <si>
+    <t>2025-08-17</t>
+  </si>
+  <si>
+    <t>2025-10-17</t>
+  </si>
+  <si>
+    <t>2025-11-17</t>
+  </si>
+  <si>
+    <t>2026-01-17</t>
+  </si>
+  <si>
+    <t>2026-03-17</t>
+  </si>
+  <si>
+    <t>2026-05-17</t>
+  </si>
+  <si>
+    <t>2026-07-17</t>
+  </si>
+  <si>
+    <t>2026-08-17</t>
+  </si>
+  <si>
+    <t>2026-09-17</t>
+  </si>
+  <si>
+    <t>2026-11-17</t>
+  </si>
+  <si>
+    <t>2027-01-17</t>
+  </si>
+  <si>
+    <t>2027-02-17</t>
+  </si>
+  <si>
+    <t>2027-03-17</t>
+  </si>
+  <si>
+    <t>2028-02-17</t>
+  </si>
+  <si>
+    <t>2028-03-17</t>
+  </si>
+  <si>
+    <t>2028-05-17</t>
+  </si>
+  <si>
+    <t>2028-07-17</t>
+  </si>
+  <si>
+    <t>2028-11-17</t>
+  </si>
+  <si>
+    <t>2029-02-17</t>
+  </si>
+  <si>
+    <t>2029-06-17</t>
+  </si>
+  <si>
+    <t>2030-11-17</t>
   </si>
 </sst>
 </file>
@@ -2136,7 +2136,7 @@
         <v>113</v>
       </c>
       <c r="B113" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
     </row>
     <row r="114" spans="1:2">
@@ -2144,7 +2144,7 @@
         <v>114</v>
       </c>
       <c r="B114" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
     </row>
     <row r="115" spans="1:2">

--- a/lothiancriticalcare/1a74f8f7b8b7e871b413c4697f68b4401fbacdf0/reviewdates.xlsx
+++ b/lothiancriticalcare/1a74f8f7b8b7e871b413c4697f68b4401fbacdf0/reviewdates.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="286">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="285">
   <si>
     <t>File</t>
   </si>
@@ -61,12 +61,12 @@
     <t>Routine_Care/Tracheostomy_nursing_care.pdf</t>
   </si>
   <si>
+    <t>Airway/Critical care extubation checklist.pdf</t>
+  </si>
+  <si>
     <t>ECLS/Extra Corporeal Carbon Dioxide Removal.pdf</t>
   </si>
   <si>
-    <t>Airway/Critical care extubation checklist.pdf</t>
-  </si>
-  <si>
     <t>Airway/Tracheostomy_Laryngectomy/Hospital_in-patients_with_a_Tracheostomy.pdf</t>
   </si>
   <si>
@@ -79,12 +79,12 @@
     <t>Breathing(Respiratory)/salbutamol and ipratroprium MDI.pdf</t>
   </si>
   <si>
+    <t>Neurological/SOP -  Femoral site care.pdf</t>
+  </si>
+  <si>
     <t>Airway/Tracheostomy_Laryngectomy/Tracheostomy suctioning cleaning guideline.pdf</t>
   </si>
   <si>
-    <t>Neurological/SOP -  Femoral site care.pdf</t>
-  </si>
-  <si>
     <t>Airway/Tracheostomy_Laryngectomy/Tracheostomy change in Critical Care.pdf</t>
   </si>
   <si>
@@ -97,21 +97,21 @@
     <t>Post_op_care/Epidural top-up.pdf</t>
   </si>
   <si>
+    <t>Covid-19/WGH/CoVid intubation checklist WGH.pdf</t>
+  </si>
+  <si>
+    <t>Covid-19/SJH/SJH COVID19 ITU Intubation Action Card.pdf</t>
+  </si>
+  <si>
+    <t>Covid-19/SJH/SJH COVID19 ED Intubation Action Card.pdf</t>
+  </si>
+  <si>
     <t>Airway/Emergency intubation checklist_em_pub.pdf</t>
   </si>
   <si>
     <t>Drugs/heparin for Haemofiltration.pdf</t>
   </si>
   <si>
-    <t>Covid-19/SJH/SJH COVID19 ITU Intubation Action Card.pdf</t>
-  </si>
-  <si>
-    <t>Covid-19/SJH/SJH COVID19 ED Intubation Action Card.pdf</t>
-  </si>
-  <si>
-    <t>Covid-19/WGH/CoVid intubation checklist WGH.pdf</t>
-  </si>
-  <si>
     <t>Diabetes_and_Glucose/Hyperosmolar Hyperglycaemic State.pdf</t>
   </si>
   <si>
@@ -139,27 +139,27 @@
     <t>Delirium/Risk assessment posi mit.pdf</t>
   </si>
   <si>
+    <t>GI_Liver_and_Transplant/Treatment of constipation.pdf</t>
+  </si>
+  <si>
+    <t>Airway/Tracheostomy_Laryngectomy/Tracheostomy safety box contents.pdf</t>
+  </si>
+  <si>
+    <t>GI_Liver_and_Transplant/Abdominal pressure measurement.pdf</t>
+  </si>
+  <si>
+    <t>Airway/Anticipated difficult airway tool.pdf</t>
+  </si>
+  <si>
+    <t>Breathing(Respiratory)/HFNO.pdf</t>
+  </si>
+  <si>
+    <t>Airway/McGrath Mac.pdf</t>
+  </si>
+  <si>
     <t>Neurological/Sub arachnoid haemorrhage management.pdf</t>
   </si>
   <si>
-    <t>Airway/Tracheostomy_Laryngectomy/Tracheostomy safety box contents.pdf</t>
-  </si>
-  <si>
-    <t>Airway/Anticipated difficult airway tool.pdf</t>
-  </si>
-  <si>
-    <t>Airway/McGrath Mac.pdf</t>
-  </si>
-  <si>
-    <t>GI_Liver_and_Transplant/Abdominal pressure measurement.pdf</t>
-  </si>
-  <si>
-    <t>Breathing(Respiratory)/HFNO.pdf</t>
-  </si>
-  <si>
-    <t>GI_Liver_and_Transplant/Treatment of constipation.pdf</t>
-  </si>
-  <si>
     <t>End_of_life_care/Documentation following death.pdf</t>
   </si>
   <si>
@@ -178,21 +178,21 @@
     <t>Breathing(Respiratory)/Inhaled Nitrous Oxide.pdf</t>
   </si>
   <si>
+    <t>Cardiovascular/Steroids for Septic Shock.pdf</t>
+  </si>
+  <si>
     <t>Breathing(Respiratory)/Equipment/APRV.pdf</t>
   </si>
   <si>
-    <t>Cardiovascular/Steroids for Septic Shock.pdf</t>
+    <t>Neurological/SOP for review of Neurosurgical patients in ITU by neurosurgical team.pdf</t>
+  </si>
+  <si>
+    <t>Post_op_care/Epidural Haematoma.pdf</t>
   </si>
   <si>
     <t>Breathing(Respiratory)/Equipment/T piece Y piece.pdf</t>
   </si>
   <si>
-    <t>Post_op_care/Epidural Haematoma.pdf</t>
-  </si>
-  <si>
-    <t>Neurological/SOP for review of Neurosurgical patients in ITU by neurosurgical team.pdf</t>
-  </si>
-  <si>
     <t>Policies_and_admin/General Critical Care Interaction with HEPMA_pub.pdf</t>
   </si>
   <si>
@@ -202,12 +202,12 @@
     <t>Breathing(Respiratory)/Equipment/HFNO through ventilator.pdf</t>
   </si>
   <si>
+    <t>Post_op_care/Adult Scoliosis Spinal Surgery Post-Op Care.pdf</t>
+  </si>
+  <si>
     <t>Routine_Care/VTE_Prevention/Dalteparin_thromboprophylaxis.pdf</t>
   </si>
   <si>
-    <t>Post_op_care/Adult Scoliosis Spinal Surgery Post-Op Care.pdf</t>
-  </si>
-  <si>
     <t>Post_op_care/Post op care pharyngo-laryngo-oesphagectomy PLOG.pdf</t>
   </si>
   <si>
@@ -217,9 +217,6 @@
     <t>Drugs/Antibiotic doses in CVVHD.pdf</t>
   </si>
   <si>
-    <t>Diabetes_and_Glucose/Intravenous Insulin Therapy (not for DKA or HHS).pdf</t>
-  </si>
-  <si>
     <t>GI_Liver_and_Transplant/Nasojejunal feeding protocol.pdf</t>
   </si>
   <si>
@@ -229,19 +226,22 @@
     <t>ECLS/RIE ECLS Anti Xa Protocol.pdf</t>
   </si>
   <si>
+    <t>Drugs/vasopressin_sepsis.pdf</t>
+  </si>
+  <si>
+    <t>Drugs/vasopressin organ donation.pdf</t>
+  </si>
+  <si>
     <t>Infection_and_sepsis/Winter Infections Stepdown Guidance.pdf</t>
   </si>
   <si>
-    <t>Drugs/vasopressin_sepsis.pdf</t>
-  </si>
-  <si>
-    <t>Drugs/vasopressin organ donation.pdf</t>
+    <t>Transfer/ACCP Transfers.pdf</t>
   </si>
   <si>
     <t>Covid-19/videos/Donning and Doffing Video.pdf</t>
   </si>
   <si>
-    <t>Transfer/ACCP Transfers.pdf</t>
+    <t>Drugs/piperacillin_tazobactam extended_infusion.pdf</t>
   </si>
   <si>
     <t>Infection_and_sepsis/Infection indications for IVIG.pdf</t>
@@ -250,9 +250,6 @@
     <t>Breathing(Respiratory)/Equipment/Ventilators Circuits Filters and Closed Suction - Set up and Maintenance.pdf</t>
   </si>
   <si>
-    <t>Drugs/piperacillin_tazobactam extended_infusion.pdf</t>
-  </si>
-  <si>
     <t>Covid-19/Covid 19 Death Certification Guideline.pdf</t>
   </si>
   <si>
@@ -262,12 +259,12 @@
     <t>Routine_Care/Video Communication.pdf</t>
   </si>
   <si>
+    <t>Cardiovascular/Cardiogenic Shock.pdf</t>
+  </si>
+  <si>
     <t>Drugs/isoprenaline.pdf</t>
   </si>
   <si>
-    <t>Cardiovascular/Cardiogenic Shock.pdf</t>
-  </si>
-  <si>
     <t>Haematology_CAR-T/Haem_ICU_transfer.pdf</t>
   </si>
   <si>
@@ -277,241 +274,244 @@
     <t>Haematology_CAR-T/Cytokine Release Syndrome.pdf</t>
   </si>
   <si>
+    <t>Drugs/pancuronium.pdf</t>
+  </si>
+  <si>
     <t>Haematology_CAR-T/ICANS.pdf</t>
   </si>
   <si>
-    <t>Drugs/pancuronium.pdf</t>
+    <t>Policies_and_admin/General Critical Care SOP_pub.pdf</t>
   </si>
   <si>
     <t>Drugs/milrinone.pdf</t>
   </si>
   <si>
-    <t>Policies_and_admin/General Critical Care SOP_pub.pdf</t>
+    <t>Ethics_and_Law/DNACPR policy for Scotland.pdf</t>
+  </si>
+  <si>
+    <t>Infection_and_sepsis/Trip Out of Unit infection guidance.pdf</t>
+  </si>
+  <si>
+    <t>GI_Liver_and_Transplant/ICU - Upper GI bleeding (Endoscopy guideline).pdf</t>
+  </si>
+  <si>
+    <t>Ethics_and_Law/Care at the End of Life (FICM).pdf</t>
   </si>
   <si>
     <t>Covid-19/COVID 19 ICM guidance basic goals_June_2022.pdf</t>
   </si>
   <si>
-    <t>Ethics_and_Law/DNACPR policy for Scotland.pdf</t>
-  </si>
-  <si>
-    <t>GI_Liver_and_Transplant/ICU - Upper GI bleeding (Endoscopy guideline).pdf</t>
-  </si>
-  <si>
-    <t>Infection_and_sepsis/Trip Out of Unit infection guidance.pdf</t>
+    <t>Neurological/Critical Care MRI Procedure_pub.pdf</t>
+  </si>
+  <si>
+    <t>Organ_donation/Organ Retrieval SOP.pdf</t>
+  </si>
+  <si>
+    <t>Neurological/Management of traumatic brain injury.pdf</t>
+  </si>
+  <si>
+    <t>End_of_life_care/CMO &amp; NRS Guidance for Doctors completing MCCD.pdf</t>
+  </si>
+  <si>
+    <t>End_of_life_care/Palliative extubation &amp; withdrawal of invasive ventilatory support nursing checklist.pdf</t>
   </si>
   <si>
     <t>Drugs/clonidine.pdf</t>
   </si>
   <si>
-    <t>Ethics_and_Law/Care at the End of Life (FICM).pdf</t>
-  </si>
-  <si>
-    <t>Neurological/Critical Care MRI Procedure_pub.pdf</t>
-  </si>
-  <si>
-    <t>Organ_donation/Organ Retrieval SOP.pdf</t>
-  </si>
-  <si>
-    <t>End_of_life_care/CMO &amp; NRS Guidance for Doctors completing MCCD.pdf</t>
-  </si>
-  <si>
-    <t>End_of_life_care/Palliative extubation &amp; withdrawal of invasive ventilatory support nursing checklist.pdf</t>
-  </si>
-  <si>
-    <t>Neurological/Management of traumatic brain injury.pdf</t>
-  </si>
-  <si>
     <t>Airway/Cook Staged Extubation Set.pdf</t>
   </si>
   <si>
+    <t>Post_op_care/Epidural hypotension.pdf</t>
+  </si>
+  <si>
+    <t>End_of_life_care/End of Life Care Guideline for Critical Care.pdf</t>
+  </si>
+  <si>
     <t>Drugs/noradrenaline (central).pdf</t>
   </si>
   <si>
-    <t>End_of_life_care/End of Life Care Guideline for Critical Care.pdf</t>
-  </si>
-  <si>
-    <t>Post_op_care/Epidural hypotension.pdf</t>
+    <t>Infection_and_sepsis/Antifungal guidance in critical care.pdf</t>
+  </si>
+  <si>
+    <t>Breathing(Respiratory)/Equipment/Passy Muir Valve.pdf</t>
+  </si>
+  <si>
+    <t>Drugs/dexmedetomidine.pdf</t>
+  </si>
+  <si>
+    <t>GI_Liver_and_Transplant/Fulminant Liver Failure.pdf</t>
+  </si>
+  <si>
+    <t>GI_Liver_and_Transplant/Confirmation of Nasogastric Tube Position.pdf</t>
   </si>
   <si>
     <t>Drugs/glyceryl_trinitrate.pdf</t>
   </si>
   <si>
-    <t>GI_Liver_and_Transplant/Fulminant Liver Failure.pdf</t>
-  </si>
-  <si>
-    <t>Drugs/dexmedetomidine.pdf</t>
-  </si>
-  <si>
-    <t>GI_Liver_and_Transplant/Confirmation of Nasogastric Tube Position.pdf</t>
-  </si>
-  <si>
-    <t>Breathing(Respiratory)/Equipment/Passy Muir Valve.pdf</t>
-  </si>
-  <si>
-    <t>Infection_and_sepsis/Antifungal guidance in critical care.pdf</t>
-  </si>
-  <si>
     <t>Breathing(Respiratory)/ARDS Strategy.pdf</t>
   </si>
   <si>
+    <t>Cardiovascular/Intra Aortic Balloon Pump Guideline_pub.pdf</t>
+  </si>
+  <si>
     <t>Transfer/Transfer Outdoors to Garden Guideline.pdf</t>
   </si>
   <si>
-    <t>Cardiovascular/Intra Aortic Balloon Pump Guideline_pub.pdf</t>
-  </si>
-  <si>
     <t>Cardiovascular/Intra Aortic Balloon Pump Bedside Checks_pub.pdf</t>
   </si>
   <si>
+    <t>Drugs/hydralazine.pdf</t>
+  </si>
+  <si>
+    <t>Drugs/adrenaline.pdf</t>
+  </si>
+  <si>
     <t>Drugs/Dobutamine.pdf</t>
   </si>
   <si>
-    <t>Drugs/adrenaline.pdf</t>
-  </si>
-  <si>
-    <t>Drugs/hydralazine.pdf</t>
-  </si>
-  <si>
     <t>Post_op_care/Major OMFS Free Flap.pdf</t>
   </si>
   <si>
+    <t>Drugs/alfentanil.pdf</t>
+  </si>
+  <si>
     <t>Drugs/Alteplase for massive PE.pdf</t>
   </si>
   <si>
-    <t>Drugs/alfentanil.pdf</t>
-  </si>
-  <si>
     <t>Drugs/magnesium.pdf</t>
   </si>
   <si>
+    <t>Drugs/neostigmine.pdf</t>
+  </si>
+  <si>
+    <t>Drugs/ICU - IV drug infusions.pdf</t>
+  </si>
+  <si>
     <t>Drugs/vancomycin continuous infusion.pdf</t>
   </si>
   <si>
-    <t>Drugs/neostigmine.pdf</t>
-  </si>
-  <si>
-    <t>Drugs/ICU - IV drug infusions.pdf</t>
-  </si>
-  <si>
     <t>Infection_and_sepsis/Initial investigation and management in unidentified Infections.pdf</t>
   </si>
   <si>
+    <t>Neurological/Intrathecal policy RIE.pdf</t>
+  </si>
+  <si>
     <t>Drugs/labetalol.pdf</t>
   </si>
   <si>
-    <t>Neurological/Intrathecal policy RIE.pdf</t>
-  </si>
-  <si>
     <t>Cardiovascular/Management of Acute Type B Aortic Dissection Guideline.pdf</t>
   </si>
   <si>
+    <t>Drugs/salbutamol.pdf</t>
+  </si>
+  <si>
+    <t>Drugs/potassium.pdf</t>
+  </si>
+  <si>
     <t>Drugs/nimodipine.pdf</t>
   </si>
   <si>
-    <t>Drugs/potassium.pdf</t>
-  </si>
-  <si>
     <t>Trauma and Burns/Management of Severe Burns v1.6.pdf</t>
   </si>
   <si>
     <t>Procedures/CVC Guidance/CVC NHL  April 2023.pdf</t>
   </si>
   <si>
-    <t>Drugs/salbutamol.pdf</t>
+    <t>Routine_Care/ICU Eye Care Guideline.pdf</t>
+  </si>
+  <si>
+    <t>Drugs/amiodarone.pdf</t>
   </si>
   <si>
     <t>Drugs/nicardipine.pdf</t>
   </si>
   <si>
-    <t>Drugs/amiodarone.pdf</t>
-  </si>
-  <si>
     <t>Drugs/phenobarbitone.pdf</t>
   </si>
   <si>
-    <t>Routine_Care/ICU Eye Care Guideline.pdf</t>
-  </si>
-  <si>
     <t>Procedures/Arterial Line insertion for ACCPs.pdf</t>
   </si>
   <si>
+    <t>Neurological/Ventriculitis Guideline.pdf</t>
+  </si>
+  <si>
+    <t>Drugs/morphine.pdf</t>
+  </si>
+  <si>
+    <t>Drugs/Epoprostenol.pdf</t>
+  </si>
+  <si>
     <t>Breathing(Respiratory)/Manual Ventilation and MHI.pdf</t>
   </si>
   <si>
-    <t>Drugs/morphine.pdf</t>
-  </si>
-  <si>
-    <t>Neurological/Ventriculitis Guideline.pdf</t>
-  </si>
-  <si>
     <t>Drugs/phenylephrine.pdf</t>
   </si>
   <si>
-    <t>Drugs/Epoprostenol.pdf</t>
-  </si>
-  <si>
     <t>Drugs/calcium.pdf</t>
   </si>
   <si>
+    <t>Cardiovascular/Cardiac Output Monitoring_pub .pdf</t>
+  </si>
+  <si>
     <t>Breathing(Respiratory)/Pulmonary_Embolism_and_DVT/Catheter directed thrombolysis of iliofemoral DVT alteplase_pub.pdf</t>
   </si>
   <si>
-    <t>Cardiovascular/Cardiac Output Monitoring_pub .pdf</t>
-  </si>
-  <si>
     <t>Drugs/atracurium.pdf</t>
   </si>
   <si>
     <t>Airway/Tracheostomy_Laryngectomy/Decannulation Guidline.pdf</t>
   </si>
   <si>
+    <t>Drugs/Vancomycin continuous infusion Fluid Restricted.pdf</t>
+  </si>
+  <si>
     <t>Drugs/dalteparin_thromboprophylaxis.pdf</t>
   </si>
   <si>
-    <t>Drugs/Vancomycin continuous infusion Fluid Restricted.pdf</t>
+    <t>Policies_and_admin/Pet Visitation.pdf</t>
+  </si>
+  <si>
+    <t>Drugs/valproate.pdf</t>
   </si>
   <si>
     <t>Procedures/Inadvertent Catheter Placement Guideline.pdf</t>
   </si>
   <si>
-    <t>Policies_and_admin/Pet Visitation.pdf</t>
-  </si>
-  <si>
-    <t>Drugs/valproate.pdf</t>
+    <t>Drugs/ketamine_for_status epilepticus.pdf</t>
   </si>
   <si>
     <t>Drugs/Phosphate.pdf</t>
   </si>
   <si>
-    <t>Drugs/ketamine_for_status epilepticus.pdf</t>
-  </si>
-  <si>
     <t>Drugs/stress ulcer prophylaxis.pdf</t>
   </si>
   <si>
+    <t>Breathing(Respiratory)/Proning Guideline.pdf</t>
+  </si>
+  <si>
+    <t>Drugs/Thiopentone.pdf</t>
+  </si>
+  <si>
+    <t>Drugs/Octreotide.pdf</t>
+  </si>
+  <si>
     <t>GI_Liver_and_Transplant/Prokinetics in ICU.pdf</t>
   </si>
   <si>
-    <t>Breathing(Respiratory)/Proning Guideline.pdf</t>
-  </si>
-  <si>
-    <t>Drugs/Octreotide.pdf</t>
-  </si>
-  <si>
     <t>Neurological/Status epilepticus.pdf</t>
   </si>
   <si>
-    <t>Drugs/Thiopentone.pdf</t>
+    <t>Procedures/ACCPs acquiring initial CVC competencies.pdf</t>
+  </si>
+  <si>
+    <t>Post_op_care/Prevention and treatment of paraplegia after major aortic procedures.pdf</t>
   </si>
   <si>
     <t>Procedures/ACCP CVC placement following completion of initial competencies.pdf</t>
   </si>
   <si>
-    <t>Post_op_care/Prevention and treatment of paraplegia after major aortic procedures.pdf</t>
-  </si>
-  <si>
-    <t>Procedures/ACCPs acquiring initial CVC competencies.pdf</t>
+    <t>Delirium/Violence and Agression.pdf</t>
   </si>
   <si>
     <t>Drugs/Ketamine_in_asthma.pdf</t>
@@ -520,9 +520,6 @@
     <t>Drugs/Rocuronium.pdf</t>
   </si>
   <si>
-    <t>Delirium/Violence and Agression.pdf</t>
-  </si>
-  <si>
     <t>Post_op_care/Care of the Transgender Patient.pdf</t>
   </si>
   <si>
@@ -550,12 +547,12 @@
     <t>Breathing(Respiratory)/Equipment/Setting up the NKV-330.pdf</t>
   </si>
   <si>
+    <t>Breathing(Respiratory)/T1RF - CPAP Guidelines_Mar24.pdf</t>
+  </si>
+  <si>
     <t>Breathing(Respiratory)/NKV 330 NIV guidelines.pdf</t>
   </si>
   <si>
-    <t>Breathing(Respiratory)/T1RF - CPAP Guidelines_Mar24.pdf</t>
-  </si>
-  <si>
     <t>Infection_and_sepsis/Influenza in Critical Care.pdf</t>
   </si>
   <si>
@@ -571,216 +568,216 @@
     <t>GI_Liver_and_Transplant/Insertion of Nasojejunal Tubes.pdf</t>
   </si>
   <si>
+    <t>GI_Liver_and_Transplant/Pabrinex.pdf</t>
+  </si>
+  <si>
+    <t>Cardiovascular/Focused TOE Guideline for General Critical Care_pub.pdf</t>
+  </si>
+  <si>
     <t>Drugs/Pabrinex.pdf</t>
   </si>
   <si>
-    <t>Cardiovascular/Focused TOE Guideline for General Critical Care_pub.pdf</t>
-  </si>
-  <si>
-    <t>GI_Liver_and_Transplant/Pabrinex.pdf</t>
-  </si>
-  <si>
     <t>Policies_and_admin/Repatriaiton Checklist for Critical Care.pdf</t>
   </si>
   <si>
     <t>Transfer/Repatriaiton Checklist for Critical Care.pdf</t>
   </si>
   <si>
-    <t>2011-03-17</t>
-  </si>
-  <si>
-    <t>2011-06-17</t>
-  </si>
-  <si>
-    <t>2011-07-17</t>
-  </si>
-  <si>
-    <t>2011-12-17</t>
-  </si>
-  <si>
-    <t>2014-09-17</t>
-  </si>
-  <si>
-    <t>2014-10-17</t>
-  </si>
-  <si>
-    <t>2014-11-17</t>
-  </si>
-  <si>
-    <t>2014-12-17</t>
-  </si>
-  <si>
-    <t>2015-03-17</t>
-  </si>
-  <si>
-    <t>2016-04-17</t>
-  </si>
-  <si>
-    <t>2016-08-17</t>
-  </si>
-  <si>
-    <t>2017-01-17</t>
-  </si>
-  <si>
-    <t>2017-08-17</t>
-  </si>
-  <si>
-    <t>2017-10-17</t>
-  </si>
-  <si>
-    <t>2017-11-17</t>
-  </si>
-  <si>
-    <t>2018-07-17</t>
-  </si>
-  <si>
-    <t>2019-05-17</t>
-  </si>
-  <si>
-    <t>2019-06-17</t>
-  </si>
-  <si>
-    <t>2019-08-17</t>
-  </si>
-  <si>
-    <t>2019-09-17</t>
-  </si>
-  <si>
-    <t>2020-01-17</t>
-  </si>
-  <si>
-    <t>2020-03-17</t>
-  </si>
-  <si>
-    <t>2020-04-17</t>
-  </si>
-  <si>
-    <t>2020-05-17</t>
-  </si>
-  <si>
-    <t>2020-07-17</t>
-  </si>
-  <si>
-    <t>2020-08-17</t>
-  </si>
-  <si>
-    <t>2020-11-17</t>
-  </si>
-  <si>
-    <t>2021-02-17</t>
-  </si>
-  <si>
-    <t>2021-05-17</t>
-  </si>
-  <si>
-    <t>2021-06-17</t>
-  </si>
-  <si>
-    <t>2021-09-17</t>
-  </si>
-  <si>
-    <t>2021-12-17</t>
-  </si>
-  <si>
-    <t>2022-01-17</t>
-  </si>
-  <si>
-    <t>2022-03-17</t>
-  </si>
-  <si>
-    <t>2022-04-17</t>
-  </si>
-  <si>
-    <t>2022-05-17</t>
-  </si>
-  <si>
-    <t>2022-06-17</t>
-  </si>
-  <si>
-    <t>2022-07-17</t>
-  </si>
-  <si>
-    <t>2022-08-17</t>
-  </si>
-  <si>
-    <t>2022-10-17</t>
-  </si>
-  <si>
-    <t>2022-11-17</t>
-  </si>
-  <si>
-    <t>2022-12-17</t>
-  </si>
-  <si>
-    <t>2023-01-17</t>
-  </si>
-  <si>
-    <t>2023-02-17</t>
-  </si>
-  <si>
-    <t>2023-04-17</t>
-  </si>
-  <si>
-    <t>2023-05-17</t>
-  </si>
-  <si>
-    <t>2023-06-17</t>
-  </si>
-  <si>
-    <t>2023-07-17</t>
-  </si>
-  <si>
-    <t>2023-08-17</t>
-  </si>
-  <si>
-    <t>2023-09-17</t>
-  </si>
-  <si>
-    <t>2023-10-17</t>
-  </si>
-  <si>
-    <t>2024-01-17</t>
-  </si>
-  <si>
-    <t>2024-02-17</t>
-  </si>
-  <si>
-    <t>2024-03-17</t>
-  </si>
-  <si>
-    <t>2024-04-17</t>
-  </si>
-  <si>
-    <t>2024-05-17</t>
+    <t>2011-03-27</t>
+  </si>
+  <si>
+    <t>2011-06-27</t>
+  </si>
+  <si>
+    <t>2011-07-27</t>
+  </si>
+  <si>
+    <t>2011-12-27</t>
+  </si>
+  <si>
+    <t>2014-09-27</t>
+  </si>
+  <si>
+    <t>2014-10-27</t>
+  </si>
+  <si>
+    <t>2014-11-27</t>
+  </si>
+  <si>
+    <t>2014-12-27</t>
+  </si>
+  <si>
+    <t>2015-03-27</t>
+  </si>
+  <si>
+    <t>2016-04-27</t>
+  </si>
+  <si>
+    <t>2016-08-27</t>
+  </si>
+  <si>
+    <t>2017-01-27</t>
+  </si>
+  <si>
+    <t>2017-08-27</t>
+  </si>
+  <si>
+    <t>2017-10-27</t>
+  </si>
+  <si>
+    <t>2017-11-27</t>
+  </si>
+  <si>
+    <t>2018-07-27</t>
+  </si>
+  <si>
+    <t>2019-05-27</t>
+  </si>
+  <si>
+    <t>2019-06-27</t>
+  </si>
+  <si>
+    <t>2019-08-27</t>
+  </si>
+  <si>
+    <t>2019-09-27</t>
+  </si>
+  <si>
+    <t>2020-01-27</t>
+  </si>
+  <si>
+    <t>2020-03-27</t>
+  </si>
+  <si>
+    <t>2020-04-27</t>
+  </si>
+  <si>
+    <t>2020-05-27</t>
+  </si>
+  <si>
+    <t>2020-07-27</t>
+  </si>
+  <si>
+    <t>2020-08-27</t>
+  </si>
+  <si>
+    <t>2020-11-27</t>
+  </si>
+  <si>
+    <t>2021-02-27</t>
+  </si>
+  <si>
+    <t>2021-05-27</t>
+  </si>
+  <si>
+    <t>2021-06-27</t>
+  </si>
+  <si>
+    <t>2021-09-27</t>
+  </si>
+  <si>
+    <t>2021-12-27</t>
+  </si>
+  <si>
+    <t>2022-01-27</t>
+  </si>
+  <si>
+    <t>2022-03-27</t>
+  </si>
+  <si>
+    <t>2022-04-27</t>
+  </si>
+  <si>
+    <t>2022-05-27</t>
+  </si>
+  <si>
+    <t>2022-06-27</t>
+  </si>
+  <si>
+    <t>2022-07-27</t>
+  </si>
+  <si>
+    <t>2022-08-27</t>
+  </si>
+  <si>
+    <t>2022-10-27</t>
+  </si>
+  <si>
+    <t>2022-11-27</t>
+  </si>
+  <si>
+    <t>2022-12-27</t>
+  </si>
+  <si>
+    <t>2023-01-27</t>
+  </si>
+  <si>
+    <t>2023-02-27</t>
+  </si>
+  <si>
+    <t>2023-04-27</t>
+  </si>
+  <si>
+    <t>2023-05-27</t>
+  </si>
+  <si>
+    <t>2023-06-27</t>
+  </si>
+  <si>
+    <t>2023-07-27</t>
+  </si>
+  <si>
+    <t>2023-08-27</t>
+  </si>
+  <si>
+    <t>2023-09-27</t>
+  </si>
+  <si>
+    <t>2023-10-27</t>
+  </si>
+  <si>
+    <t>2024-01-27</t>
+  </si>
+  <si>
+    <t>2024-02-27</t>
+  </si>
+  <si>
+    <t>2024-03-27</t>
+  </si>
+  <si>
+    <t>2024-04-27</t>
+  </si>
+  <si>
+    <t>2024-05-27</t>
   </si>
   <si>
     <t>2024-06-02</t>
   </si>
   <si>
-    <t>2024-06-17</t>
-  </si>
-  <si>
     <t>2024-06-26</t>
   </si>
   <si>
-    <t>2024-07-17</t>
+    <t>2024-06-27</t>
   </si>
   <si>
     <t>2024-07-25</t>
   </si>
   <si>
+    <t>2024-07-27</t>
+  </si>
+  <si>
     <t>2024-08-15</t>
   </si>
   <si>
-    <t>2024-08-17</t>
-  </si>
-  <si>
-    <t>2024-10-17</t>
+    <t>2024-08-27</t>
   </si>
   <si>
     <t>2024-10-24</t>
   </si>
   <si>
+    <t>2024-10-27</t>
+  </si>
+  <si>
     <t>2024-11-20</t>
   </si>
   <si>
@@ -790,88 +787,88 @@
     <t>2024-12-24</t>
   </si>
   <si>
-    <t>2025-01-17</t>
-  </si>
-  <si>
-    <t>2025-02-17</t>
-  </si>
-  <si>
-    <t>2025-03-17</t>
-  </si>
-  <si>
-    <t>2025-04-17</t>
-  </si>
-  <si>
-    <t>2025-05-17</t>
-  </si>
-  <si>
-    <t>2025-06-17</t>
-  </si>
-  <si>
-    <t>2025-07-17</t>
-  </si>
-  <si>
-    <t>2025-08-17</t>
-  </si>
-  <si>
-    <t>2025-10-17</t>
-  </si>
-  <si>
-    <t>2025-11-17</t>
-  </si>
-  <si>
-    <t>2026-01-17</t>
-  </si>
-  <si>
-    <t>2026-03-17</t>
-  </si>
-  <si>
-    <t>2026-05-17</t>
-  </si>
-  <si>
-    <t>2026-07-17</t>
-  </si>
-  <si>
-    <t>2026-08-17</t>
-  </si>
-  <si>
-    <t>2026-09-17</t>
-  </si>
-  <si>
-    <t>2026-11-17</t>
-  </si>
-  <si>
-    <t>2027-01-17</t>
-  </si>
-  <si>
-    <t>2027-02-17</t>
-  </si>
-  <si>
-    <t>2027-03-17</t>
-  </si>
-  <si>
-    <t>2028-02-17</t>
-  </si>
-  <si>
-    <t>2028-03-17</t>
-  </si>
-  <si>
-    <t>2028-05-17</t>
-  </si>
-  <si>
-    <t>2028-07-17</t>
-  </si>
-  <si>
-    <t>2028-11-17</t>
-  </si>
-  <si>
-    <t>2029-02-17</t>
-  </si>
-  <si>
-    <t>2029-06-17</t>
-  </si>
-  <si>
-    <t>2030-11-17</t>
+    <t>2025-01-27</t>
+  </si>
+  <si>
+    <t>2025-02-27</t>
+  </si>
+  <si>
+    <t>2025-03-27</t>
+  </si>
+  <si>
+    <t>2025-04-27</t>
+  </si>
+  <si>
+    <t>2025-05-27</t>
+  </si>
+  <si>
+    <t>2025-06-27</t>
+  </si>
+  <si>
+    <t>2025-07-27</t>
+  </si>
+  <si>
+    <t>2025-08-27</t>
+  </si>
+  <si>
+    <t>2025-10-27</t>
+  </si>
+  <si>
+    <t>2025-11-27</t>
+  </si>
+  <si>
+    <t>2026-01-27</t>
+  </si>
+  <si>
+    <t>2026-03-27</t>
+  </si>
+  <si>
+    <t>2026-05-27</t>
+  </si>
+  <si>
+    <t>2026-07-27</t>
+  </si>
+  <si>
+    <t>2026-08-27</t>
+  </si>
+  <si>
+    <t>2026-09-27</t>
+  </si>
+  <si>
+    <t>2026-11-27</t>
+  </si>
+  <si>
+    <t>2027-01-27</t>
+  </si>
+  <si>
+    <t>2027-02-27</t>
+  </si>
+  <si>
+    <t>2027-03-27</t>
+  </si>
+  <si>
+    <t>2028-02-27</t>
+  </si>
+  <si>
+    <t>2028-03-27</t>
+  </si>
+  <si>
+    <t>2028-05-27</t>
+  </si>
+  <si>
+    <t>2028-07-27</t>
+  </si>
+  <si>
+    <t>2028-11-27</t>
+  </si>
+  <si>
+    <t>2029-02-27</t>
+  </si>
+  <si>
+    <t>2029-06-27</t>
+  </si>
+  <si>
+    <t>2030-11-27</t>
   </si>
 </sst>
 </file>
@@ -1229,7 +1226,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B189"/>
+  <dimension ref="A1:B188"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1248,7 +1245,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -1256,7 +1253,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -1264,7 +1261,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -1272,7 +1269,7 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -1280,7 +1277,7 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -1288,7 +1285,7 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -1296,7 +1293,7 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -1304,7 +1301,7 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -1312,7 +1309,7 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -1320,7 +1317,7 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -1328,7 +1325,7 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -1336,7 +1333,7 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -1344,7 +1341,7 @@
         <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -1352,7 +1349,7 @@
         <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -1360,7 +1357,7 @@
         <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -1368,7 +1365,7 @@
         <v>17</v>
       </c>
       <c r="B17" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -1376,7 +1373,7 @@
         <v>18</v>
       </c>
       <c r="B18" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -1384,7 +1381,7 @@
         <v>19</v>
       </c>
       <c r="B19" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -1392,7 +1389,7 @@
         <v>20</v>
       </c>
       <c r="B20" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -1400,7 +1397,7 @@
         <v>21</v>
       </c>
       <c r="B21" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -1408,7 +1405,7 @@
         <v>22</v>
       </c>
       <c r="B22" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -1416,7 +1413,7 @@
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -1424,7 +1421,7 @@
         <v>24</v>
       </c>
       <c r="B24" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -1432,7 +1429,7 @@
         <v>25</v>
       </c>
       <c r="B25" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -1440,7 +1437,7 @@
         <v>26</v>
       </c>
       <c r="B26" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -1448,7 +1445,7 @@
         <v>27</v>
       </c>
       <c r="B27" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -1456,7 +1453,7 @@
         <v>28</v>
       </c>
       <c r="B28" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -1464,7 +1461,7 @@
         <v>29</v>
       </c>
       <c r="B29" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -1472,7 +1469,7 @@
         <v>30</v>
       </c>
       <c r="B30" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -1480,7 +1477,7 @@
         <v>31</v>
       </c>
       <c r="B31" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -1488,7 +1485,7 @@
         <v>32</v>
       </c>
       <c r="B32" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -1496,7 +1493,7 @@
         <v>33</v>
       </c>
       <c r="B33" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -1504,7 +1501,7 @@
         <v>34</v>
       </c>
       <c r="B34" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -1512,7 +1509,7 @@
         <v>35</v>
       </c>
       <c r="B35" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -1520,7 +1517,7 @@
         <v>36</v>
       </c>
       <c r="B36" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -1528,7 +1525,7 @@
         <v>37</v>
       </c>
       <c r="B37" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -1536,7 +1533,7 @@
         <v>38</v>
       </c>
       <c r="B38" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -1544,7 +1541,7 @@
         <v>39</v>
       </c>
       <c r="B39" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -1552,7 +1549,7 @@
         <v>40</v>
       </c>
       <c r="B40" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -1560,7 +1557,7 @@
         <v>41</v>
       </c>
       <c r="B41" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -1568,7 +1565,7 @@
         <v>42</v>
       </c>
       <c r="B42" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -1576,7 +1573,7 @@
         <v>43</v>
       </c>
       <c r="B43" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -1584,7 +1581,7 @@
         <v>44</v>
       </c>
       <c r="B44" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -1592,7 +1589,7 @@
         <v>45</v>
       </c>
       <c r="B45" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -1600,7 +1597,7 @@
         <v>46</v>
       </c>
       <c r="B46" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -1608,7 +1605,7 @@
         <v>47</v>
       </c>
       <c r="B47" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -1616,7 +1613,7 @@
         <v>48</v>
       </c>
       <c r="B48" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -1624,7 +1621,7 @@
         <v>49</v>
       </c>
       <c r="B49" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -1632,7 +1629,7 @@
         <v>50</v>
       </c>
       <c r="B50" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -1640,7 +1637,7 @@
         <v>51</v>
       </c>
       <c r="B51" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -1648,7 +1645,7 @@
         <v>52</v>
       </c>
       <c r="B52" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -1656,7 +1653,7 @@
         <v>53</v>
       </c>
       <c r="B53" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="54" spans="1:2">
@@ -1664,7 +1661,7 @@
         <v>54</v>
       </c>
       <c r="B54" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="55" spans="1:2">
@@ -1672,7 +1669,7 @@
         <v>55</v>
       </c>
       <c r="B55" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="56" spans="1:2">
@@ -1680,7 +1677,7 @@
         <v>56</v>
       </c>
       <c r="B56" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="57" spans="1:2">
@@ -1688,7 +1685,7 @@
         <v>57</v>
       </c>
       <c r="B57" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="58" spans="1:2">
@@ -1696,7 +1693,7 @@
         <v>58</v>
       </c>
       <c r="B58" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="59" spans="1:2">
@@ -1704,7 +1701,7 @@
         <v>59</v>
       </c>
       <c r="B59" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="60" spans="1:2">
@@ -1712,7 +1709,7 @@
         <v>60</v>
       </c>
       <c r="B60" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="61" spans="1:2">
@@ -1720,7 +1717,7 @@
         <v>61</v>
       </c>
       <c r="B61" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="62" spans="1:2">
@@ -1728,7 +1725,7 @@
         <v>62</v>
       </c>
       <c r="B62" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="63" spans="1:2">
@@ -1736,7 +1733,7 @@
         <v>63</v>
       </c>
       <c r="B63" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="64" spans="1:2">
@@ -1744,7 +1741,7 @@
         <v>64</v>
       </c>
       <c r="B64" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="65" spans="1:2">
@@ -1752,7 +1749,7 @@
         <v>65</v>
       </c>
       <c r="B65" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="66" spans="1:2">
@@ -1760,7 +1757,7 @@
         <v>66</v>
       </c>
       <c r="B66" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="67" spans="1:2">
@@ -1776,7 +1773,7 @@
         <v>68</v>
       </c>
       <c r="B68" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="69" spans="1:2">
@@ -1784,7 +1781,7 @@
         <v>69</v>
       </c>
       <c r="B69" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="70" spans="1:2">
@@ -1800,7 +1797,7 @@
         <v>71</v>
       </c>
       <c r="B71" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="72" spans="1:2">
@@ -1808,7 +1805,7 @@
         <v>72</v>
       </c>
       <c r="B72" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="73" spans="1:2">
@@ -1824,7 +1821,7 @@
         <v>74</v>
       </c>
       <c r="B74" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="75" spans="1:2">
@@ -1840,7 +1837,7 @@
         <v>76</v>
       </c>
       <c r="B76" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="77" spans="1:2">
@@ -1848,7 +1845,7 @@
         <v>77</v>
       </c>
       <c r="B77" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="78" spans="1:2">
@@ -1864,7 +1861,7 @@
         <v>79</v>
       </c>
       <c r="B79" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="80" spans="1:2">
@@ -1888,7 +1885,7 @@
         <v>82</v>
       </c>
       <c r="B82" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="83" spans="1:2">
@@ -1920,7 +1917,7 @@
         <v>86</v>
       </c>
       <c r="B86" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="87" spans="1:2">
@@ -1928,7 +1925,7 @@
         <v>87</v>
       </c>
       <c r="B87" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="88" spans="1:2">
@@ -1944,7 +1941,7 @@
         <v>89</v>
       </c>
       <c r="B89" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="90" spans="1:2">
@@ -1960,7 +1957,7 @@
         <v>91</v>
       </c>
       <c r="B91" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="92" spans="1:2">
@@ -1968,7 +1965,7 @@
         <v>92</v>
       </c>
       <c r="B92" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="93" spans="1:2">
@@ -1976,7 +1973,7 @@
         <v>93</v>
       </c>
       <c r="B93" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="94" spans="1:2">
@@ -1984,7 +1981,7 @@
         <v>94</v>
       </c>
       <c r="B94" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="95" spans="1:2">
@@ -1992,7 +1989,7 @@
         <v>95</v>
       </c>
       <c r="B95" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="96" spans="1:2">
@@ -2000,7 +1997,7 @@
         <v>96</v>
       </c>
       <c r="B96" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="97" spans="1:2">
@@ -2008,7 +2005,7 @@
         <v>97</v>
       </c>
       <c r="B97" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="98" spans="1:2">
@@ -2016,7 +2013,7 @@
         <v>98</v>
       </c>
       <c r="B98" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="99" spans="1:2">
@@ -2024,7 +2021,7 @@
         <v>99</v>
       </c>
       <c r="B99" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="100" spans="1:2">
@@ -2032,7 +2029,7 @@
         <v>100</v>
       </c>
       <c r="B100" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="101" spans="1:2">
@@ -2136,7 +2133,7 @@
         <v>113</v>
       </c>
       <c r="B113" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="114" spans="1:2">
@@ -2144,7 +2141,7 @@
         <v>114</v>
       </c>
       <c r="B114" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="115" spans="1:2">
@@ -2192,7 +2189,7 @@
         <v>120</v>
       </c>
       <c r="B120" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="121" spans="1:2">
@@ -2216,7 +2213,7 @@
         <v>123</v>
       </c>
       <c r="B123" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="124" spans="1:2">
@@ -2224,7 +2221,7 @@
         <v>124</v>
       </c>
       <c r="B124" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="125" spans="1:2">
@@ -2240,7 +2237,7 @@
         <v>126</v>
       </c>
       <c r="B126" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="127" spans="1:2">
@@ -2248,7 +2245,7 @@
         <v>127</v>
       </c>
       <c r="B127" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="128" spans="1:2">
@@ -2272,7 +2269,7 @@
         <v>130</v>
       </c>
       <c r="B130" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="131" spans="1:2">
@@ -2280,7 +2277,7 @@
         <v>131</v>
       </c>
       <c r="B131" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="132" spans="1:2">
@@ -2288,7 +2285,7 @@
         <v>132</v>
       </c>
       <c r="B132" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="133" spans="1:2">
@@ -2296,7 +2293,7 @@
         <v>133</v>
       </c>
       <c r="B133" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="134" spans="1:2">
@@ -2312,7 +2309,7 @@
         <v>135</v>
       </c>
       <c r="B135" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="136" spans="1:2">
@@ -2320,7 +2317,7 @@
         <v>136</v>
       </c>
       <c r="B136" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="137" spans="1:2">
@@ -2328,7 +2325,7 @@
         <v>137</v>
       </c>
       <c r="B137" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="138" spans="1:2">
@@ -2336,7 +2333,7 @@
         <v>138</v>
       </c>
       <c r="B138" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="139" spans="1:2">
@@ -2352,7 +2349,7 @@
         <v>140</v>
       </c>
       <c r="B140" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="141" spans="1:2">
@@ -2360,7 +2357,7 @@
         <v>141</v>
       </c>
       <c r="B141" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="142" spans="1:2">
@@ -2368,7 +2365,7 @@
         <v>142</v>
       </c>
       <c r="B142" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="143" spans="1:2">
@@ -2376,7 +2373,7 @@
         <v>143</v>
       </c>
       <c r="B143" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="144" spans="1:2">
@@ -2392,7 +2389,7 @@
         <v>145</v>
       </c>
       <c r="B145" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="146" spans="1:2">
@@ -2400,7 +2397,7 @@
         <v>146</v>
       </c>
       <c r="B146" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="147" spans="1:2">
@@ -2416,7 +2413,7 @@
         <v>148</v>
       </c>
       <c r="B148" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="149" spans="1:2">
@@ -2424,7 +2421,7 @@
         <v>149</v>
       </c>
       <c r="B149" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="150" spans="1:2">
@@ -2432,7 +2429,7 @@
         <v>150</v>
       </c>
       <c r="B150" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="151" spans="1:2">
@@ -2448,7 +2445,7 @@
         <v>152</v>
       </c>
       <c r="B152" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="153" spans="1:2">
@@ -2456,7 +2453,7 @@
         <v>153</v>
       </c>
       <c r="B153" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="154" spans="1:2">
@@ -2472,7 +2469,7 @@
         <v>155</v>
       </c>
       <c r="B155" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="156" spans="1:2">
@@ -2480,7 +2477,7 @@
         <v>156</v>
       </c>
       <c r="B156" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="157" spans="1:2">
@@ -2496,7 +2493,7 @@
         <v>158</v>
       </c>
       <c r="B158" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="159" spans="1:2">
@@ -2504,7 +2501,7 @@
         <v>159</v>
       </c>
       <c r="B159" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="160" spans="1:2">
@@ -2512,7 +2509,7 @@
         <v>160</v>
       </c>
       <c r="B160" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="161" spans="1:2">
@@ -2520,7 +2517,7 @@
         <v>161</v>
       </c>
       <c r="B161" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="162" spans="1:2">
@@ -2536,7 +2533,7 @@
         <v>163</v>
       </c>
       <c r="B163" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="164" spans="1:2">
@@ -2544,7 +2541,7 @@
         <v>164</v>
       </c>
       <c r="B164" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="165" spans="1:2">
@@ -2560,7 +2557,7 @@
         <v>166</v>
       </c>
       <c r="B166" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="167" spans="1:2">
@@ -2568,7 +2565,7 @@
         <v>167</v>
       </c>
       <c r="B167" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="168" spans="1:2">
@@ -2592,7 +2589,7 @@
         <v>170</v>
       </c>
       <c r="B170" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="171" spans="1:2">
@@ -2656,7 +2653,7 @@
         <v>178</v>
       </c>
       <c r="B178" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="179" spans="1:2">
@@ -2696,7 +2693,7 @@
         <v>183</v>
       </c>
       <c r="B183" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="184" spans="1:2">
@@ -2712,7 +2709,7 @@
         <v>185</v>
       </c>
       <c r="B185" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="186" spans="1:2">
@@ -2720,7 +2717,7 @@
         <v>186</v>
       </c>
       <c r="B186" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="187" spans="1:2">
@@ -2736,15 +2733,7 @@
         <v>188</v>
       </c>
       <c r="B188" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="189" spans="1:2">
-      <c r="A189" t="s">
-        <v>189</v>
-      </c>
-      <c r="B189" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
   </sheetData>

--- a/lothiancriticalcare/1a74f8f7b8b7e871b413c4697f68b4401fbacdf0/reviewdates.xlsx
+++ b/lothiancriticalcare/1a74f8f7b8b7e871b413c4697f68b4401fbacdf0/reviewdates.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="285">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="286">
   <si>
     <t>File</t>
   </si>
@@ -73,21 +73,21 @@
     <t>Drugs/diazepam_diazemuls.pdf</t>
   </si>
   <si>
+    <t>Breathing(Respiratory)/salbutamol and ipratroprium MDI.pdf</t>
+  </si>
+  <si>
     <t>End_of_life_care/Reasons to report a death to PF.pdf</t>
   </si>
   <si>
-    <t>Breathing(Respiratory)/salbutamol and ipratroprium MDI.pdf</t>
-  </si>
-  <si>
     <t>Neurological/SOP -  Femoral site care.pdf</t>
   </si>
   <si>
+    <t>Airway/Tracheostomy_Laryngectomy/Tracheostomy change in Critical Care.pdf</t>
+  </si>
+  <si>
     <t>Airway/Tracheostomy_Laryngectomy/Tracheostomy suctioning cleaning guideline.pdf</t>
   </si>
   <si>
-    <t>Airway/Tracheostomy_Laryngectomy/Tracheostomy change in Critical Care.pdf</t>
-  </si>
-  <si>
     <t>Drugs/sodium_bicarbonate.pdf</t>
   </si>
   <si>
@@ -97,24 +97,24 @@
     <t>Post_op_care/Epidural top-up.pdf</t>
   </si>
   <si>
+    <t>Diabetes_and_Glucose/Hyperosmolar Hyperglycaemic State.pdf</t>
+  </si>
+  <si>
+    <t>Covid-19/SJH/SJH COVID19 ED Intubation Action Card.pdf</t>
+  </si>
+  <si>
+    <t>Drugs/heparin for Haemofiltration.pdf</t>
+  </si>
+  <si>
     <t>Covid-19/WGH/CoVid intubation checklist WGH.pdf</t>
   </si>
   <si>
+    <t>Airway/Emergency intubation checklist_em_pub.pdf</t>
+  </si>
+  <si>
     <t>Covid-19/SJH/SJH COVID19 ITU Intubation Action Card.pdf</t>
   </si>
   <si>
-    <t>Covid-19/SJH/SJH COVID19 ED Intubation Action Card.pdf</t>
-  </si>
-  <si>
-    <t>Airway/Emergency intubation checklist_em_pub.pdf</t>
-  </si>
-  <si>
-    <t>Drugs/heparin for Haemofiltration.pdf</t>
-  </si>
-  <si>
-    <t>Diabetes_and_Glucose/Hyperosmolar Hyperglycaemic State.pdf</t>
-  </si>
-  <si>
     <t>Drugs/fentanyl.pdf</t>
   </si>
   <si>
@@ -133,33 +133,33 @@
     <t>Airway/Percutaneous tracheostomy checklist.pdf</t>
   </si>
   <si>
+    <t>Delirium/Risk assessment posi mit.pdf</t>
+  </si>
+  <si>
     <t>Infection_and_sepsis/SOP Ultrasound Cleaning.pdf</t>
   </si>
   <si>
-    <t>Delirium/Risk assessment posi mit.pdf</t>
-  </si>
-  <si>
     <t>GI_Liver_and_Transplant/Treatment of constipation.pdf</t>
   </si>
   <si>
     <t>Airway/Tracheostomy_Laryngectomy/Tracheostomy safety box contents.pdf</t>
   </si>
   <si>
+    <t>Airway/McGrath Mac.pdf</t>
+  </si>
+  <si>
+    <t>Neurological/Sub arachnoid haemorrhage management.pdf</t>
+  </si>
+  <si>
     <t>GI_Liver_and_Transplant/Abdominal pressure measurement.pdf</t>
   </si>
   <si>
+    <t>Breathing(Respiratory)/HFNO.pdf</t>
+  </si>
+  <si>
     <t>Airway/Anticipated difficult airway tool.pdf</t>
   </si>
   <si>
-    <t>Breathing(Respiratory)/HFNO.pdf</t>
-  </si>
-  <si>
-    <t>Airway/McGrath Mac.pdf</t>
-  </si>
-  <si>
-    <t>Neurological/Sub arachnoid haemorrhage management.pdf</t>
-  </si>
-  <si>
     <t>End_of_life_care/Documentation following death.pdf</t>
   </si>
   <si>
@@ -184,12 +184,12 @@
     <t>Breathing(Respiratory)/Equipment/APRV.pdf</t>
   </si>
   <si>
+    <t>Post_op_care/Epidural Haematoma.pdf</t>
+  </si>
+  <si>
     <t>Neurological/SOP for review of Neurosurgical patients in ITU by neurosurgical team.pdf</t>
   </si>
   <si>
-    <t>Post_op_care/Epidural Haematoma.pdf</t>
-  </si>
-  <si>
     <t>Breathing(Respiratory)/Equipment/T piece Y piece.pdf</t>
   </si>
   <si>
@@ -226,45 +226,45 @@
     <t>ECLS/RIE ECLS Anti Xa Protocol.pdf</t>
   </si>
   <si>
+    <t>Drugs/vasopressin organ donation.pdf</t>
+  </si>
+  <si>
+    <t>Infection_and_sepsis/Winter Infections Stepdown Guidance.pdf</t>
+  </si>
+  <si>
     <t>Drugs/vasopressin_sepsis.pdf</t>
   </si>
   <si>
-    <t>Drugs/vasopressin organ donation.pdf</t>
-  </si>
-  <si>
-    <t>Infection_and_sepsis/Winter Infections Stepdown Guidance.pdf</t>
-  </si>
-  <si>
     <t>Transfer/ACCP Transfers.pdf</t>
   </si>
   <si>
     <t>Covid-19/videos/Donning and Doffing Video.pdf</t>
   </si>
   <si>
+    <t>Infection_and_sepsis/Infection indications for IVIG.pdf</t>
+  </si>
+  <si>
+    <t>Breathing(Respiratory)/Equipment/Ventilators Circuits Filters and Closed Suction - Set up and Maintenance.pdf</t>
+  </si>
+  <si>
     <t>Drugs/piperacillin_tazobactam extended_infusion.pdf</t>
   </si>
   <si>
-    <t>Infection_and_sepsis/Infection indications for IVIG.pdf</t>
-  </si>
-  <si>
-    <t>Breathing(Respiratory)/Equipment/Ventilators Circuits Filters and Closed Suction - Set up and Maintenance.pdf</t>
+    <t>Procedures/CVC Guidance/Securing CVCs.pdf</t>
   </si>
   <si>
     <t>Covid-19/Covid 19 Death Certification Guideline.pdf</t>
   </si>
   <si>
-    <t>Procedures/CVC Guidance/Securing CVCs.pdf</t>
-  </si>
-  <si>
     <t>Routine_Care/Video Communication.pdf</t>
   </si>
   <si>
+    <t>Drugs/isoprenaline.pdf</t>
+  </si>
+  <si>
     <t>Cardiovascular/Cardiogenic Shock.pdf</t>
   </si>
   <si>
-    <t>Drugs/isoprenaline.pdf</t>
-  </si>
-  <si>
     <t>Haematology_CAR-T/Haem_ICU_transfer.pdf</t>
   </si>
   <si>
@@ -286,90 +286,90 @@
     <t>Drugs/milrinone.pdf</t>
   </si>
   <si>
+    <t>Drugs/clonidine.pdf</t>
+  </si>
+  <si>
+    <t>Infection_and_sepsis/Trip Out of Unit infection guidance.pdf</t>
+  </si>
+  <si>
     <t>Ethics_and_Law/DNACPR policy for Scotland.pdf</t>
   </si>
   <si>
-    <t>Infection_and_sepsis/Trip Out of Unit infection guidance.pdf</t>
+    <t>End_of_life_care/Palliative extubation &amp; withdrawal of invasive ventilatory support nursing checklist.pdf</t>
+  </si>
+  <si>
+    <t>Ethics_and_Law/Care at the End of Life (FICM).pdf</t>
+  </si>
+  <si>
+    <t>Covid-19/COVID 19 ICM guidance basic goals_June_2022.pdf</t>
+  </si>
+  <si>
+    <t>End_of_life_care/CMO &amp; NRS Guidance for Doctors completing MCCD.pdf</t>
+  </si>
+  <si>
+    <t>Organ_donation/Organ Retrieval SOP.pdf</t>
+  </si>
+  <si>
+    <t>Neurological/Management of traumatic brain injury.pdf</t>
   </si>
   <si>
     <t>GI_Liver_and_Transplant/ICU - Upper GI bleeding (Endoscopy guideline).pdf</t>
   </si>
   <si>
-    <t>Ethics_and_Law/Care at the End of Life (FICM).pdf</t>
-  </si>
-  <si>
-    <t>Covid-19/COVID 19 ICM guidance basic goals_June_2022.pdf</t>
-  </si>
-  <si>
     <t>Neurological/Critical Care MRI Procedure_pub.pdf</t>
   </si>
   <si>
-    <t>Organ_donation/Organ Retrieval SOP.pdf</t>
-  </si>
-  <si>
-    <t>Neurological/Management of traumatic brain injury.pdf</t>
-  </si>
-  <si>
-    <t>End_of_life_care/CMO &amp; NRS Guidance for Doctors completing MCCD.pdf</t>
-  </si>
-  <si>
-    <t>End_of_life_care/Palliative extubation &amp; withdrawal of invasive ventilatory support nursing checklist.pdf</t>
-  </si>
-  <si>
-    <t>Drugs/clonidine.pdf</t>
-  </si>
-  <si>
     <t>Airway/Cook Staged Extubation Set.pdf</t>
   </si>
   <si>
+    <t>End_of_life_care/End of Life Care Guideline for Critical Care.pdf</t>
+  </si>
+  <si>
+    <t>Drugs/noradrenaline (central).pdf</t>
+  </si>
+  <si>
     <t>Post_op_care/Epidural hypotension.pdf</t>
   </si>
   <si>
-    <t>End_of_life_care/End of Life Care Guideline for Critical Care.pdf</t>
-  </si>
-  <si>
-    <t>Drugs/noradrenaline (central).pdf</t>
+    <t>Drugs/glyceryl_trinitrate.pdf</t>
+  </si>
+  <si>
+    <t>Drugs/dexmedetomidine.pdf</t>
+  </si>
+  <si>
+    <t>GI_Liver_and_Transplant/Confirmation of Nasogastric Tube Position.pdf</t>
+  </si>
+  <si>
+    <t>Breathing(Respiratory)/Equipment/Passy Muir Valve.pdf</t>
+  </si>
+  <si>
+    <t>GI_Liver_and_Transplant/Fulminant Liver Failure.pdf</t>
   </si>
   <si>
     <t>Infection_and_sepsis/Antifungal guidance in critical care.pdf</t>
   </si>
   <si>
-    <t>Breathing(Respiratory)/Equipment/Passy Muir Valve.pdf</t>
-  </si>
-  <si>
-    <t>Drugs/dexmedetomidine.pdf</t>
-  </si>
-  <si>
-    <t>GI_Liver_and_Transplant/Fulminant Liver Failure.pdf</t>
-  </si>
-  <si>
-    <t>GI_Liver_and_Transplant/Confirmation of Nasogastric Tube Position.pdf</t>
-  </si>
-  <si>
-    <t>Drugs/glyceryl_trinitrate.pdf</t>
+    <t>Cardiovascular/Intra Aortic Balloon Pump Guideline_pub.pdf</t>
+  </si>
+  <si>
+    <t>Transfer/Transfer Outdoors to Garden Guideline.pdf</t>
+  </si>
+  <si>
+    <t>Cardiovascular/Intra Aortic Balloon Pump Bedside Checks_pub.pdf</t>
   </si>
   <si>
     <t>Breathing(Respiratory)/ARDS Strategy.pdf</t>
   </si>
   <si>
-    <t>Cardiovascular/Intra Aortic Balloon Pump Guideline_pub.pdf</t>
-  </si>
-  <si>
-    <t>Transfer/Transfer Outdoors to Garden Guideline.pdf</t>
-  </si>
-  <si>
-    <t>Cardiovascular/Intra Aortic Balloon Pump Bedside Checks_pub.pdf</t>
+    <t>Drugs/adrenaline.pdf</t>
+  </si>
+  <si>
+    <t>Drugs/Dobutamine.pdf</t>
   </si>
   <si>
     <t>Drugs/hydralazine.pdf</t>
   </si>
   <si>
-    <t>Drugs/adrenaline.pdf</t>
-  </si>
-  <si>
-    <t>Drugs/Dobutamine.pdf</t>
-  </si>
-  <si>
     <t>Post_op_care/Major OMFS Free Flap.pdf</t>
   </si>
   <si>
@@ -382,72 +382,72 @@
     <t>Drugs/magnesium.pdf</t>
   </si>
   <si>
+    <t>Drugs/ICU - IV drug infusions.pdf</t>
+  </si>
+  <si>
+    <t>Drugs/vancomycin continuous infusion.pdf</t>
+  </si>
+  <si>
     <t>Drugs/neostigmine.pdf</t>
   </si>
   <si>
-    <t>Drugs/ICU - IV drug infusions.pdf</t>
-  </si>
-  <si>
-    <t>Drugs/vancomycin continuous infusion.pdf</t>
+    <t>Neurological/Intrathecal policy RIE.pdf</t>
   </si>
   <si>
     <t>Infection_and_sepsis/Initial investigation and management in unidentified Infections.pdf</t>
   </si>
   <si>
-    <t>Neurological/Intrathecal policy RIE.pdf</t>
-  </si>
-  <si>
     <t>Drugs/labetalol.pdf</t>
   </si>
   <si>
     <t>Cardiovascular/Management of Acute Type B Aortic Dissection Guideline.pdf</t>
   </si>
   <si>
+    <t>Trauma and Burns/Management of Severe Burns v1.6.pdf</t>
+  </si>
+  <si>
+    <t>Drugs/nimodipine.pdf</t>
+  </si>
+  <si>
+    <t>Procedures/CVC Guidance/CVC NHL  April 2023.pdf</t>
+  </si>
+  <si>
+    <t>Drugs/potassium.pdf</t>
+  </si>
+  <si>
     <t>Drugs/salbutamol.pdf</t>
   </si>
   <si>
-    <t>Drugs/potassium.pdf</t>
-  </si>
-  <si>
-    <t>Drugs/nimodipine.pdf</t>
-  </si>
-  <si>
-    <t>Trauma and Burns/Management of Severe Burns v1.6.pdf</t>
-  </si>
-  <si>
-    <t>Procedures/CVC Guidance/CVC NHL  April 2023.pdf</t>
+    <t>Drugs/nicardipine.pdf</t>
+  </si>
+  <si>
+    <t>Drugs/phenobarbitone.pdf</t>
+  </si>
+  <si>
+    <t>Procedures/Arterial Line insertion for ACCPs.pdf</t>
+  </si>
+  <si>
+    <t>Drugs/amiodarone.pdf</t>
   </si>
   <si>
     <t>Routine_Care/ICU Eye Care Guideline.pdf</t>
   </si>
   <si>
-    <t>Drugs/amiodarone.pdf</t>
-  </si>
-  <si>
-    <t>Drugs/nicardipine.pdf</t>
-  </si>
-  <si>
-    <t>Drugs/phenobarbitone.pdf</t>
-  </si>
-  <si>
-    <t>Procedures/Arterial Line insertion for ACCPs.pdf</t>
+    <t>Drugs/phenylephrine.pdf</t>
+  </si>
+  <si>
+    <t>Drugs/morphine.pdf</t>
   </si>
   <si>
     <t>Neurological/Ventriculitis Guideline.pdf</t>
   </si>
   <si>
-    <t>Drugs/morphine.pdf</t>
-  </si>
-  <si>
     <t>Drugs/Epoprostenol.pdf</t>
   </si>
   <si>
     <t>Breathing(Respiratory)/Manual Ventilation and MHI.pdf</t>
   </si>
   <si>
-    <t>Drugs/phenylephrine.pdf</t>
-  </si>
-  <si>
     <t>Drugs/calcium.pdf</t>
   </si>
   <si>
@@ -457,69 +457,72 @@
     <t>Breathing(Respiratory)/Pulmonary_Embolism_and_DVT/Catheter directed thrombolysis of iliofemoral DVT alteplase_pub.pdf</t>
   </si>
   <si>
+    <t>Drugs/Vancomycin continuous infusion Fluid Restricted.pdf</t>
+  </si>
+  <si>
     <t>Drugs/atracurium.pdf</t>
   </si>
   <si>
     <t>Airway/Tracheostomy_Laryngectomy/Decannulation Guidline.pdf</t>
   </si>
   <si>
-    <t>Drugs/Vancomycin continuous infusion Fluid Restricted.pdf</t>
-  </si>
-  <si>
     <t>Drugs/dalteparin_thromboprophylaxis.pdf</t>
   </si>
   <si>
+    <t>Procedures/Inadvertent Catheter Placement Guideline.pdf</t>
+  </si>
+  <si>
     <t>Policies_and_admin/Pet Visitation.pdf</t>
   </si>
   <si>
     <t>Drugs/valproate.pdf</t>
   </si>
   <si>
-    <t>Procedures/Inadvertent Catheter Placement Guideline.pdf</t>
-  </si>
-  <si>
     <t>Drugs/ketamine_for_status epilepticus.pdf</t>
   </si>
   <si>
+    <t>Drugs/stress ulcer prophylaxis.pdf</t>
+  </si>
+  <si>
     <t>Drugs/Phosphate.pdf</t>
   </si>
   <si>
-    <t>Drugs/stress ulcer prophylaxis.pdf</t>
-  </si>
-  <si>
     <t>Breathing(Respiratory)/Proning Guideline.pdf</t>
   </si>
   <si>
+    <t>GI_Liver_and_Transplant/Prokinetics in ICU.pdf</t>
+  </si>
+  <si>
+    <t>Drugs/Octreotide.pdf</t>
+  </si>
+  <si>
+    <t>Neurological/Status epilepticus.pdf</t>
+  </si>
+  <si>
     <t>Drugs/Thiopentone.pdf</t>
   </si>
   <si>
-    <t>Drugs/Octreotide.pdf</t>
-  </si>
-  <si>
-    <t>GI_Liver_and_Transplant/Prokinetics in ICU.pdf</t>
-  </si>
-  <si>
-    <t>Neurological/Status epilepticus.pdf</t>
+    <t>Post_op_care/Prevention and treatment of paraplegia after major aortic procedures.pdf</t>
   </si>
   <si>
     <t>Procedures/ACCPs acquiring initial CVC competencies.pdf</t>
   </si>
   <si>
-    <t>Post_op_care/Prevention and treatment of paraplegia after major aortic procedures.pdf</t>
-  </si>
-  <si>
     <t>Procedures/ACCP CVC placement following completion of initial competencies.pdf</t>
   </si>
   <si>
+    <t>Drugs/Ketamine_in_asthma.pdf</t>
+  </si>
+  <si>
     <t>Delirium/Violence and Agression.pdf</t>
   </si>
   <si>
-    <t>Drugs/Ketamine_in_asthma.pdf</t>
-  </si>
-  <si>
     <t>Drugs/Rocuronium.pdf</t>
   </si>
   <si>
+    <t>Breathing(Respiratory)/Equipment/O2 through Drager setup.pdf</t>
+  </si>
+  <si>
     <t>Post_op_care/Care of the Transgender Patient.pdf</t>
   </si>
   <si>
@@ -577,207 +580,207 @@
     <t>Drugs/Pabrinex.pdf</t>
   </si>
   <si>
+    <t>Transfer/Repatriaiton Checklist for Critical Care.pdf</t>
+  </si>
+  <si>
     <t>Policies_and_admin/Repatriaiton Checklist for Critical Care.pdf</t>
   </si>
   <si>
-    <t>Transfer/Repatriaiton Checklist for Critical Care.pdf</t>
-  </si>
-  <si>
-    <t>2011-03-27</t>
-  </si>
-  <si>
-    <t>2011-06-27</t>
-  </si>
-  <si>
-    <t>2011-07-27</t>
-  </si>
-  <si>
-    <t>2011-12-27</t>
-  </si>
-  <si>
-    <t>2014-09-27</t>
-  </si>
-  <si>
-    <t>2014-10-27</t>
-  </si>
-  <si>
-    <t>2014-11-27</t>
-  </si>
-  <si>
-    <t>2014-12-27</t>
-  </si>
-  <si>
-    <t>2015-03-27</t>
-  </si>
-  <si>
-    <t>2016-04-27</t>
-  </si>
-  <si>
-    <t>2016-08-27</t>
-  </si>
-  <si>
-    <t>2017-01-27</t>
-  </si>
-  <si>
-    <t>2017-08-27</t>
-  </si>
-  <si>
-    <t>2017-10-27</t>
-  </si>
-  <si>
-    <t>2017-11-27</t>
-  </si>
-  <si>
-    <t>2018-07-27</t>
-  </si>
-  <si>
-    <t>2019-05-27</t>
-  </si>
-  <si>
-    <t>2019-06-27</t>
-  </si>
-  <si>
-    <t>2019-08-27</t>
-  </si>
-  <si>
-    <t>2019-09-27</t>
-  </si>
-  <si>
-    <t>2020-01-27</t>
-  </si>
-  <si>
-    <t>2020-03-27</t>
-  </si>
-  <si>
-    <t>2020-04-27</t>
-  </si>
-  <si>
-    <t>2020-05-27</t>
-  </si>
-  <si>
-    <t>2020-07-27</t>
-  </si>
-  <si>
-    <t>2020-08-27</t>
-  </si>
-  <si>
-    <t>2020-11-27</t>
-  </si>
-  <si>
-    <t>2021-02-27</t>
-  </si>
-  <si>
-    <t>2021-05-27</t>
-  </si>
-  <si>
-    <t>2021-06-27</t>
-  </si>
-  <si>
-    <t>2021-09-27</t>
-  </si>
-  <si>
-    <t>2021-12-27</t>
-  </si>
-  <si>
-    <t>2022-01-27</t>
-  </si>
-  <si>
-    <t>2022-03-27</t>
-  </si>
-  <si>
-    <t>2022-04-27</t>
-  </si>
-  <si>
-    <t>2022-05-27</t>
-  </si>
-  <si>
-    <t>2022-06-27</t>
-  </si>
-  <si>
-    <t>2022-07-27</t>
-  </si>
-  <si>
-    <t>2022-08-27</t>
-  </si>
-  <si>
-    <t>2022-10-27</t>
-  </si>
-  <si>
-    <t>2022-11-27</t>
-  </si>
-  <si>
-    <t>2022-12-27</t>
-  </si>
-  <si>
-    <t>2023-01-27</t>
-  </si>
-  <si>
-    <t>2023-02-27</t>
-  </si>
-  <si>
-    <t>2023-04-27</t>
-  </si>
-  <si>
-    <t>2023-05-27</t>
-  </si>
-  <si>
-    <t>2023-06-27</t>
-  </si>
-  <si>
-    <t>2023-07-27</t>
-  </si>
-  <si>
-    <t>2023-08-27</t>
-  </si>
-  <si>
-    <t>2023-09-27</t>
-  </si>
-  <si>
-    <t>2023-10-27</t>
-  </si>
-  <si>
-    <t>2024-01-27</t>
-  </si>
-  <si>
-    <t>2024-02-27</t>
-  </si>
-  <si>
-    <t>2024-03-27</t>
-  </si>
-  <si>
-    <t>2024-04-27</t>
-  </si>
-  <si>
-    <t>2024-05-27</t>
+    <t>2011-03-07</t>
+  </si>
+  <si>
+    <t>2011-06-07</t>
+  </si>
+  <si>
+    <t>2011-07-07</t>
+  </si>
+  <si>
+    <t>2011-12-07</t>
+  </si>
+  <si>
+    <t>2014-09-07</t>
+  </si>
+  <si>
+    <t>2014-10-07</t>
+  </si>
+  <si>
+    <t>2014-11-07</t>
+  </si>
+  <si>
+    <t>2014-12-07</t>
+  </si>
+  <si>
+    <t>2015-03-07</t>
+  </si>
+  <si>
+    <t>2016-04-07</t>
+  </si>
+  <si>
+    <t>2016-08-07</t>
+  </si>
+  <si>
+    <t>2017-01-07</t>
+  </si>
+  <si>
+    <t>2017-08-07</t>
+  </si>
+  <si>
+    <t>2017-10-07</t>
+  </si>
+  <si>
+    <t>2017-11-07</t>
+  </si>
+  <si>
+    <t>2018-07-07</t>
+  </si>
+  <si>
+    <t>2019-05-07</t>
+  </si>
+  <si>
+    <t>2019-06-07</t>
+  </si>
+  <si>
+    <t>2019-08-07</t>
+  </si>
+  <si>
+    <t>2019-09-07</t>
+  </si>
+  <si>
+    <t>2020-01-07</t>
+  </si>
+  <si>
+    <t>2020-03-07</t>
+  </si>
+  <si>
+    <t>2020-04-07</t>
+  </si>
+  <si>
+    <t>2020-05-07</t>
+  </si>
+  <si>
+    <t>2020-07-07</t>
+  </si>
+  <si>
+    <t>2020-08-07</t>
+  </si>
+  <si>
+    <t>2020-11-07</t>
+  </si>
+  <si>
+    <t>2021-02-07</t>
+  </si>
+  <si>
+    <t>2021-05-07</t>
+  </si>
+  <si>
+    <t>2021-06-07</t>
+  </si>
+  <si>
+    <t>2021-09-07</t>
+  </si>
+  <si>
+    <t>2021-12-07</t>
+  </si>
+  <si>
+    <t>2022-01-07</t>
+  </si>
+  <si>
+    <t>2022-03-07</t>
+  </si>
+  <si>
+    <t>2022-04-07</t>
+  </si>
+  <si>
+    <t>2022-05-07</t>
+  </si>
+  <si>
+    <t>2022-06-07</t>
+  </si>
+  <si>
+    <t>2022-07-07</t>
+  </si>
+  <si>
+    <t>2022-08-07</t>
+  </si>
+  <si>
+    <t>2022-10-07</t>
+  </si>
+  <si>
+    <t>2022-11-07</t>
+  </si>
+  <si>
+    <t>2022-12-07</t>
+  </si>
+  <si>
+    <t>2023-01-07</t>
+  </si>
+  <si>
+    <t>2023-02-07</t>
+  </si>
+  <si>
+    <t>2023-04-07</t>
+  </si>
+  <si>
+    <t>2023-05-07</t>
+  </si>
+  <si>
+    <t>2023-06-07</t>
+  </si>
+  <si>
+    <t>2023-07-07</t>
+  </si>
+  <si>
+    <t>2023-08-07</t>
+  </si>
+  <si>
+    <t>2023-09-07</t>
+  </si>
+  <si>
+    <t>2023-10-07</t>
+  </si>
+  <si>
+    <t>2024-01-07</t>
+  </si>
+  <si>
+    <t>2024-02-07</t>
+  </si>
+  <si>
+    <t>2024-03-07</t>
+  </si>
+  <si>
+    <t>2024-04-07</t>
+  </si>
+  <si>
+    <t>2024-05-07</t>
   </si>
   <si>
     <t>2024-06-02</t>
   </si>
   <si>
+    <t>2024-06-07</t>
+  </si>
+  <si>
     <t>2024-06-26</t>
   </si>
   <si>
-    <t>2024-06-27</t>
+    <t>2024-07-07</t>
   </si>
   <si>
     <t>2024-07-25</t>
   </si>
   <si>
-    <t>2024-07-27</t>
+    <t>2024-08-07</t>
   </si>
   <si>
     <t>2024-08-15</t>
   </si>
   <si>
-    <t>2024-08-27</t>
+    <t>2024-10-07</t>
   </si>
   <si>
     <t>2024-10-24</t>
   </si>
   <si>
-    <t>2024-10-27</t>
-  </si>
-  <si>
     <t>2024-11-20</t>
   </si>
   <si>
@@ -787,88 +790,88 @@
     <t>2024-12-24</t>
   </si>
   <si>
-    <t>2025-01-27</t>
-  </si>
-  <si>
-    <t>2025-02-27</t>
-  </si>
-  <si>
-    <t>2025-03-27</t>
-  </si>
-  <si>
-    <t>2025-04-27</t>
-  </si>
-  <si>
-    <t>2025-05-27</t>
-  </si>
-  <si>
-    <t>2025-06-27</t>
-  </si>
-  <si>
-    <t>2025-07-27</t>
-  </si>
-  <si>
-    <t>2025-08-27</t>
-  </si>
-  <si>
-    <t>2025-10-27</t>
-  </si>
-  <si>
-    <t>2025-11-27</t>
-  </si>
-  <si>
-    <t>2026-01-27</t>
-  </si>
-  <si>
-    <t>2026-03-27</t>
-  </si>
-  <si>
-    <t>2026-05-27</t>
-  </si>
-  <si>
-    <t>2026-07-27</t>
-  </si>
-  <si>
-    <t>2026-08-27</t>
-  </si>
-  <si>
-    <t>2026-09-27</t>
-  </si>
-  <si>
-    <t>2026-11-27</t>
-  </si>
-  <si>
-    <t>2027-01-27</t>
-  </si>
-  <si>
-    <t>2027-02-27</t>
-  </si>
-  <si>
-    <t>2027-03-27</t>
-  </si>
-  <si>
-    <t>2028-02-27</t>
-  </si>
-  <si>
-    <t>2028-03-27</t>
-  </si>
-  <si>
-    <t>2028-05-27</t>
-  </si>
-  <si>
-    <t>2028-07-27</t>
-  </si>
-  <si>
-    <t>2028-11-27</t>
-  </si>
-  <si>
-    <t>2029-02-27</t>
-  </si>
-  <si>
-    <t>2029-06-27</t>
-  </si>
-  <si>
-    <t>2030-11-27</t>
+    <t>2025-01-07</t>
+  </si>
+  <si>
+    <t>2025-02-07</t>
+  </si>
+  <si>
+    <t>2025-03-07</t>
+  </si>
+  <si>
+    <t>2025-04-07</t>
+  </si>
+  <si>
+    <t>2025-05-07</t>
+  </si>
+  <si>
+    <t>2025-06-07</t>
+  </si>
+  <si>
+    <t>2025-07-07</t>
+  </si>
+  <si>
+    <t>2025-08-07</t>
+  </si>
+  <si>
+    <t>2025-10-07</t>
+  </si>
+  <si>
+    <t>2025-11-07</t>
+  </si>
+  <si>
+    <t>2026-01-07</t>
+  </si>
+  <si>
+    <t>2026-03-07</t>
+  </si>
+  <si>
+    <t>2026-05-07</t>
+  </si>
+  <si>
+    <t>2026-07-07</t>
+  </si>
+  <si>
+    <t>2026-08-07</t>
+  </si>
+  <si>
+    <t>2026-09-07</t>
+  </si>
+  <si>
+    <t>2026-11-07</t>
+  </si>
+  <si>
+    <t>2027-01-07</t>
+  </si>
+  <si>
+    <t>2027-02-07</t>
+  </si>
+  <si>
+    <t>2027-03-07</t>
+  </si>
+  <si>
+    <t>2028-02-07</t>
+  </si>
+  <si>
+    <t>2028-03-07</t>
+  </si>
+  <si>
+    <t>2028-05-07</t>
+  </si>
+  <si>
+    <t>2028-07-07</t>
+  </si>
+  <si>
+    <t>2028-11-07</t>
+  </si>
+  <si>
+    <t>2029-02-07</t>
+  </si>
+  <si>
+    <t>2029-06-07</t>
+  </si>
+  <si>
+    <t>2030-11-07</t>
   </si>
 </sst>
 </file>
@@ -1226,7 +1229,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B188"/>
+  <dimension ref="A1:B189"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1245,7 +1248,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -1253,7 +1256,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -1261,7 +1264,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -1269,7 +1272,7 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -1277,7 +1280,7 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -1285,7 +1288,7 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -1293,7 +1296,7 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -1301,7 +1304,7 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -1309,7 +1312,7 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -1317,7 +1320,7 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -1325,7 +1328,7 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -1333,7 +1336,7 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -1341,7 +1344,7 @@
         <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -1349,7 +1352,7 @@
         <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -1357,7 +1360,7 @@
         <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -1365,7 +1368,7 @@
         <v>17</v>
       </c>
       <c r="B17" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -1373,7 +1376,7 @@
         <v>18</v>
       </c>
       <c r="B18" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -1381,7 +1384,7 @@
         <v>19</v>
       </c>
       <c r="B19" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -1389,7 +1392,7 @@
         <v>20</v>
       </c>
       <c r="B20" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -1397,7 +1400,7 @@
         <v>21</v>
       </c>
       <c r="B21" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -1405,7 +1408,7 @@
         <v>22</v>
       </c>
       <c r="B22" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -1413,7 +1416,7 @@
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -1421,7 +1424,7 @@
         <v>24</v>
       </c>
       <c r="B24" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -1429,7 +1432,7 @@
         <v>25</v>
       </c>
       <c r="B25" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -1437,7 +1440,7 @@
         <v>26</v>
       </c>
       <c r="B26" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -1445,7 +1448,7 @@
         <v>27</v>
       </c>
       <c r="B27" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -1453,7 +1456,7 @@
         <v>28</v>
       </c>
       <c r="B28" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -1461,7 +1464,7 @@
         <v>29</v>
       </c>
       <c r="B29" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -1469,7 +1472,7 @@
         <v>30</v>
       </c>
       <c r="B30" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -1477,7 +1480,7 @@
         <v>31</v>
       </c>
       <c r="B31" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -1485,7 +1488,7 @@
         <v>32</v>
       </c>
       <c r="B32" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -1493,7 +1496,7 @@
         <v>33</v>
       </c>
       <c r="B33" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -1501,7 +1504,7 @@
         <v>34</v>
       </c>
       <c r="B34" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -1509,7 +1512,7 @@
         <v>35</v>
       </c>
       <c r="B35" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -1517,7 +1520,7 @@
         <v>36</v>
       </c>
       <c r="B36" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -1525,7 +1528,7 @@
         <v>37</v>
       </c>
       <c r="B37" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -1533,7 +1536,7 @@
         <v>38</v>
       </c>
       <c r="B38" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -1541,7 +1544,7 @@
         <v>39</v>
       </c>
       <c r="B39" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -1549,7 +1552,7 @@
         <v>40</v>
       </c>
       <c r="B40" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -1557,7 +1560,7 @@
         <v>41</v>
       </c>
       <c r="B41" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -1565,7 +1568,7 @@
         <v>42</v>
       </c>
       <c r="B42" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -1573,7 +1576,7 @@
         <v>43</v>
       </c>
       <c r="B43" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -1581,7 +1584,7 @@
         <v>44</v>
       </c>
       <c r="B44" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -1589,7 +1592,7 @@
         <v>45</v>
       </c>
       <c r="B45" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -1597,7 +1600,7 @@
         <v>46</v>
       </c>
       <c r="B46" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -1605,7 +1608,7 @@
         <v>47</v>
       </c>
       <c r="B47" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -1613,7 +1616,7 @@
         <v>48</v>
       </c>
       <c r="B48" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -1621,7 +1624,7 @@
         <v>49</v>
       </c>
       <c r="B49" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -1629,7 +1632,7 @@
         <v>50</v>
       </c>
       <c r="B50" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -1637,7 +1640,7 @@
         <v>51</v>
       </c>
       <c r="B51" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -1645,7 +1648,7 @@
         <v>52</v>
       </c>
       <c r="B52" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -1653,7 +1656,7 @@
         <v>53</v>
       </c>
       <c r="B53" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
     </row>
     <row r="54" spans="1:2">
@@ -1661,7 +1664,7 @@
         <v>54</v>
       </c>
       <c r="B54" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
     </row>
     <row r="55" spans="1:2">
@@ -1669,7 +1672,7 @@
         <v>55</v>
       </c>
       <c r="B55" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
     </row>
     <row r="56" spans="1:2">
@@ -1677,7 +1680,7 @@
         <v>56</v>
       </c>
       <c r="B56" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
     </row>
     <row r="57" spans="1:2">
@@ -1685,7 +1688,7 @@
         <v>57</v>
       </c>
       <c r="B57" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
     </row>
     <row r="58" spans="1:2">
@@ -1693,7 +1696,7 @@
         <v>58</v>
       </c>
       <c r="B58" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
     </row>
     <row r="59" spans="1:2">
@@ -1701,7 +1704,7 @@
         <v>59</v>
       </c>
       <c r="B59" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
     </row>
     <row r="60" spans="1:2">
@@ -1709,7 +1712,7 @@
         <v>60</v>
       </c>
       <c r="B60" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="61" spans="1:2">
@@ -1717,7 +1720,7 @@
         <v>61</v>
       </c>
       <c r="B61" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
     <row r="62" spans="1:2">
@@ -1725,7 +1728,7 @@
         <v>62</v>
       </c>
       <c r="B62" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="63" spans="1:2">
@@ -1733,7 +1736,7 @@
         <v>63</v>
       </c>
       <c r="B63" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="64" spans="1:2">
@@ -1741,7 +1744,7 @@
         <v>64</v>
       </c>
       <c r="B64" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
     <row r="65" spans="1:2">
@@ -1749,7 +1752,7 @@
         <v>65</v>
       </c>
       <c r="B65" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
     </row>
     <row r="66" spans="1:2">
@@ -1757,7 +1760,7 @@
         <v>66</v>
       </c>
       <c r="B66" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
     </row>
     <row r="67" spans="1:2">
@@ -1765,7 +1768,7 @@
         <v>67</v>
       </c>
       <c r="B67" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
     </row>
     <row r="68" spans="1:2">
@@ -1773,7 +1776,7 @@
         <v>68</v>
       </c>
       <c r="B68" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
     </row>
     <row r="69" spans="1:2">
@@ -1781,7 +1784,7 @@
         <v>69</v>
       </c>
       <c r="B69" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
     </row>
     <row r="70" spans="1:2">
@@ -1789,7 +1792,7 @@
         <v>70</v>
       </c>
       <c r="B70" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
     </row>
     <row r="71" spans="1:2">
@@ -1797,7 +1800,7 @@
         <v>71</v>
       </c>
       <c r="B71" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
     </row>
     <row r="72" spans="1:2">
@@ -1805,7 +1808,7 @@
         <v>72</v>
       </c>
       <c r="B72" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
     </row>
     <row r="73" spans="1:2">
@@ -1813,7 +1816,7 @@
         <v>73</v>
       </c>
       <c r="B73" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="74" spans="1:2">
@@ -1821,7 +1824,7 @@
         <v>74</v>
       </c>
       <c r="B74" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="75" spans="1:2">
@@ -1829,7 +1832,7 @@
         <v>75</v>
       </c>
       <c r="B75" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="76" spans="1:2">
@@ -1837,7 +1840,7 @@
         <v>76</v>
       </c>
       <c r="B76" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="77" spans="1:2">
@@ -1845,7 +1848,7 @@
         <v>77</v>
       </c>
       <c r="B77" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="78" spans="1:2">
@@ -1853,7 +1856,7 @@
         <v>78</v>
       </c>
       <c r="B78" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="79" spans="1:2">
@@ -1861,7 +1864,7 @@
         <v>79</v>
       </c>
       <c r="B79" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="80" spans="1:2">
@@ -1869,7 +1872,7 @@
         <v>80</v>
       </c>
       <c r="B80" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="81" spans="1:2">
@@ -1877,7 +1880,7 @@
         <v>81</v>
       </c>
       <c r="B81" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="82" spans="1:2">
@@ -1885,7 +1888,7 @@
         <v>82</v>
       </c>
       <c r="B82" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="83" spans="1:2">
@@ -1893,7 +1896,7 @@
         <v>83</v>
       </c>
       <c r="B83" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="84" spans="1:2">
@@ -1901,7 +1904,7 @@
         <v>84</v>
       </c>
       <c r="B84" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="85" spans="1:2">
@@ -1909,7 +1912,7 @@
         <v>85</v>
       </c>
       <c r="B85" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="86" spans="1:2">
@@ -1917,7 +1920,7 @@
         <v>86</v>
       </c>
       <c r="B86" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="87" spans="1:2">
@@ -1925,7 +1928,7 @@
         <v>87</v>
       </c>
       <c r="B87" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="88" spans="1:2">
@@ -1933,7 +1936,7 @@
         <v>88</v>
       </c>
       <c r="B88" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
     </row>
     <row r="89" spans="1:2">
@@ -1941,7 +1944,7 @@
         <v>89</v>
       </c>
       <c r="B89" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
     </row>
     <row r="90" spans="1:2">
@@ -1949,7 +1952,7 @@
         <v>90</v>
       </c>
       <c r="B90" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="91" spans="1:2">
@@ -1957,7 +1960,7 @@
         <v>91</v>
       </c>
       <c r="B91" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="92" spans="1:2">
@@ -1965,7 +1968,7 @@
         <v>92</v>
       </c>
       <c r="B92" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="93" spans="1:2">
@@ -1973,7 +1976,7 @@
         <v>93</v>
       </c>
       <c r="B93" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="94" spans="1:2">
@@ -1981,7 +1984,7 @@
         <v>94</v>
       </c>
       <c r="B94" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="95" spans="1:2">
@@ -1989,7 +1992,7 @@
         <v>95</v>
       </c>
       <c r="B95" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="96" spans="1:2">
@@ -1997,7 +2000,7 @@
         <v>96</v>
       </c>
       <c r="B96" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="97" spans="1:2">
@@ -2005,7 +2008,7 @@
         <v>97</v>
       </c>
       <c r="B97" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="98" spans="1:2">
@@ -2013,7 +2016,7 @@
         <v>98</v>
       </c>
       <c r="B98" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="99" spans="1:2">
@@ -2021,7 +2024,7 @@
         <v>99</v>
       </c>
       <c r="B99" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="100" spans="1:2">
@@ -2029,7 +2032,7 @@
         <v>100</v>
       </c>
       <c r="B100" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="101" spans="1:2">
@@ -2037,7 +2040,7 @@
         <v>101</v>
       </c>
       <c r="B101" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="102" spans="1:2">
@@ -2045,7 +2048,7 @@
         <v>102</v>
       </c>
       <c r="B102" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
     </row>
     <row r="103" spans="1:2">
@@ -2061,7 +2064,7 @@
         <v>104</v>
       </c>
       <c r="B104" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
     </row>
     <row r="105" spans="1:2">
@@ -2069,7 +2072,7 @@
         <v>105</v>
       </c>
       <c r="B105" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
     </row>
     <row r="106" spans="1:2">
@@ -2109,7 +2112,7 @@
         <v>110</v>
       </c>
       <c r="B110" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="111" spans="1:2">
@@ -2117,7 +2120,7 @@
         <v>111</v>
       </c>
       <c r="B111" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
     </row>
     <row r="112" spans="1:2">
@@ -2141,7 +2144,7 @@
         <v>114</v>
       </c>
       <c r="B114" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
     </row>
     <row r="115" spans="1:2">
@@ -2149,7 +2152,7 @@
         <v>115</v>
       </c>
       <c r="B115" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
     </row>
     <row r="116" spans="1:2">
@@ -2165,7 +2168,7 @@
         <v>117</v>
       </c>
       <c r="B117" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
     <row r="118" spans="1:2">
@@ -2173,7 +2176,7 @@
         <v>118</v>
       </c>
       <c r="B118" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="119" spans="1:2">
@@ -2181,7 +2184,7 @@
         <v>119</v>
       </c>
       <c r="B119" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="120" spans="1:2">
@@ -2189,7 +2192,7 @@
         <v>120</v>
       </c>
       <c r="B120" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="121" spans="1:2">
@@ -2197,7 +2200,7 @@
         <v>121</v>
       </c>
       <c r="B121" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="122" spans="1:2">
@@ -2205,7 +2208,7 @@
         <v>122</v>
       </c>
       <c r="B122" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
     <row r="123" spans="1:2">
@@ -2213,7 +2216,7 @@
         <v>123</v>
       </c>
       <c r="B123" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
     <row r="124" spans="1:2">
@@ -2221,7 +2224,7 @@
         <v>124</v>
       </c>
       <c r="B124" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
     <row r="125" spans="1:2">
@@ -2229,7 +2232,7 @@
         <v>125</v>
       </c>
       <c r="B125" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
     <row r="126" spans="1:2">
@@ -2237,7 +2240,7 @@
         <v>126</v>
       </c>
       <c r="B126" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
     <row r="127" spans="1:2">
@@ -2245,7 +2248,7 @@
         <v>127</v>
       </c>
       <c r="B127" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
     <row r="128" spans="1:2">
@@ -2253,7 +2256,7 @@
         <v>128</v>
       </c>
       <c r="B128" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="129" spans="1:2">
@@ -2261,7 +2264,7 @@
         <v>129</v>
       </c>
       <c r="B129" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="130" spans="1:2">
@@ -2269,7 +2272,7 @@
         <v>130</v>
       </c>
       <c r="B130" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="131" spans="1:2">
@@ -2277,7 +2280,7 @@
         <v>131</v>
       </c>
       <c r="B131" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="132" spans="1:2">
@@ -2285,7 +2288,7 @@
         <v>132</v>
       </c>
       <c r="B132" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="133" spans="1:2">
@@ -2293,7 +2296,7 @@
         <v>133</v>
       </c>
       <c r="B133" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="134" spans="1:2">
@@ -2301,7 +2304,7 @@
         <v>134</v>
       </c>
       <c r="B134" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="135" spans="1:2">
@@ -2309,7 +2312,7 @@
         <v>135</v>
       </c>
       <c r="B135" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="136" spans="1:2">
@@ -2317,7 +2320,7 @@
         <v>136</v>
       </c>
       <c r="B136" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="137" spans="1:2">
@@ -2325,7 +2328,7 @@
         <v>137</v>
       </c>
       <c r="B137" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="138" spans="1:2">
@@ -2333,7 +2336,7 @@
         <v>138</v>
       </c>
       <c r="B138" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="139" spans="1:2">
@@ -2341,7 +2344,7 @@
         <v>139</v>
       </c>
       <c r="B139" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
     </row>
     <row r="140" spans="1:2">
@@ -2349,7 +2352,7 @@
         <v>140</v>
       </c>
       <c r="B140" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
     </row>
     <row r="141" spans="1:2">
@@ -2357,7 +2360,7 @@
         <v>141</v>
       </c>
       <c r="B141" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
     </row>
     <row r="142" spans="1:2">
@@ -2365,7 +2368,7 @@
         <v>142</v>
       </c>
       <c r="B142" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
     </row>
     <row r="143" spans="1:2">
@@ -2373,7 +2376,7 @@
         <v>143</v>
       </c>
       <c r="B143" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
     </row>
     <row r="144" spans="1:2">
@@ -2381,7 +2384,7 @@
         <v>144</v>
       </c>
       <c r="B144" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
     </row>
     <row r="145" spans="1:2">
@@ -2389,7 +2392,7 @@
         <v>145</v>
       </c>
       <c r="B145" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
     </row>
     <row r="146" spans="1:2">
@@ -2397,7 +2400,7 @@
         <v>146</v>
       </c>
       <c r="B146" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
     </row>
     <row r="147" spans="1:2">
@@ -2405,7 +2408,7 @@
         <v>147</v>
       </c>
       <c r="B147" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="148" spans="1:2">
@@ -2413,7 +2416,7 @@
         <v>148</v>
       </c>
       <c r="B148" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="149" spans="1:2">
@@ -2421,7 +2424,7 @@
         <v>149</v>
       </c>
       <c r="B149" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="150" spans="1:2">
@@ -2429,7 +2432,7 @@
         <v>150</v>
       </c>
       <c r="B150" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="151" spans="1:2">
@@ -2437,7 +2440,7 @@
         <v>151</v>
       </c>
       <c r="B151" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
     </row>
     <row r="152" spans="1:2">
@@ -2445,7 +2448,7 @@
         <v>152</v>
       </c>
       <c r="B152" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
     </row>
     <row r="153" spans="1:2">
@@ -2453,7 +2456,7 @@
         <v>153</v>
       </c>
       <c r="B153" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
     </row>
     <row r="154" spans="1:2">
@@ -2461,7 +2464,7 @@
         <v>154</v>
       </c>
       <c r="B154" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
     </row>
     <row r="155" spans="1:2">
@@ -2469,7 +2472,7 @@
         <v>155</v>
       </c>
       <c r="B155" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
     </row>
     <row r="156" spans="1:2">
@@ -2477,7 +2480,7 @@
         <v>156</v>
       </c>
       <c r="B156" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
     </row>
     <row r="157" spans="1:2">
@@ -2485,7 +2488,7 @@
         <v>157</v>
       </c>
       <c r="B157" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
     </row>
     <row r="158" spans="1:2">
@@ -2493,7 +2496,7 @@
         <v>158</v>
       </c>
       <c r="B158" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
     </row>
     <row r="159" spans="1:2">
@@ -2501,7 +2504,7 @@
         <v>159</v>
       </c>
       <c r="B159" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
     </row>
     <row r="160" spans="1:2">
@@ -2509,7 +2512,7 @@
         <v>160</v>
       </c>
       <c r="B160" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
     </row>
     <row r="161" spans="1:2">
@@ -2517,7 +2520,7 @@
         <v>161</v>
       </c>
       <c r="B161" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
     </row>
     <row r="162" spans="1:2">
@@ -2525,7 +2528,7 @@
         <v>162</v>
       </c>
       <c r="B162" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="163" spans="1:2">
@@ -2533,7 +2536,7 @@
         <v>163</v>
       </c>
       <c r="B163" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="164" spans="1:2">
@@ -2541,7 +2544,7 @@
         <v>164</v>
       </c>
       <c r="B164" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="165" spans="1:2">
@@ -2549,7 +2552,7 @@
         <v>165</v>
       </c>
       <c r="B165" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
     </row>
     <row r="166" spans="1:2">
@@ -2557,7 +2560,7 @@
         <v>166</v>
       </c>
       <c r="B166" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
     </row>
     <row r="167" spans="1:2">
@@ -2565,7 +2568,7 @@
         <v>167</v>
       </c>
       <c r="B167" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
     </row>
     <row r="168" spans="1:2">
@@ -2589,7 +2592,7 @@
         <v>170</v>
       </c>
       <c r="B170" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
     </row>
     <row r="171" spans="1:2">
@@ -2653,7 +2656,7 @@
         <v>178</v>
       </c>
       <c r="B178" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
     </row>
     <row r="179" spans="1:2">
@@ -2693,7 +2696,7 @@
         <v>183</v>
       </c>
       <c r="B183" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
     </row>
     <row r="184" spans="1:2">
@@ -2709,7 +2712,7 @@
         <v>185</v>
       </c>
       <c r="B185" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
     </row>
     <row r="186" spans="1:2">
@@ -2717,7 +2720,7 @@
         <v>186</v>
       </c>
       <c r="B186" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
     </row>
     <row r="187" spans="1:2">
@@ -2733,7 +2736,15 @@
         <v>188</v>
       </c>
       <c r="B188" t="s">
-        <v>284</v>
+        <v>285</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2">
+      <c r="A189" t="s">
+        <v>189</v>
+      </c>
+      <c r="B189" t="s">
+        <v>285</v>
       </c>
     </row>
   </sheetData>

--- a/lothiancriticalcare/1a74f8f7b8b7e871b413c4697f68b4401fbacdf0/reviewdates.xlsx
+++ b/lothiancriticalcare/1a74f8f7b8b7e871b413c4697f68b4401fbacdf0/reviewdates.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="286">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="288">
   <si>
     <t>File</t>
   </si>
@@ -97,24 +97,24 @@
     <t>Post_op_care/Epidural top-up.pdf</t>
   </si>
   <si>
+    <t>Covid-19/SJH/SJH COVID19 ED Intubation Action Card.pdf</t>
+  </si>
+  <si>
+    <t>Covid-19/SJH/SJH COVID19 ITU Intubation Action Card.pdf</t>
+  </si>
+  <si>
+    <t>Drugs/heparin for Haemofiltration.pdf</t>
+  </si>
+  <si>
     <t>Diabetes_and_Glucose/Hyperosmolar Hyperglycaemic State.pdf</t>
   </si>
   <si>
-    <t>Covid-19/SJH/SJH COVID19 ED Intubation Action Card.pdf</t>
-  </si>
-  <si>
-    <t>Drugs/heparin for Haemofiltration.pdf</t>
-  </si>
-  <si>
     <t>Covid-19/WGH/CoVid intubation checklist WGH.pdf</t>
   </si>
   <si>
     <t>Airway/Emergency intubation checklist_em_pub.pdf</t>
   </si>
   <si>
-    <t>Covid-19/SJH/SJH COVID19 ITU Intubation Action Card.pdf</t>
-  </si>
-  <si>
     <t>Drugs/fentanyl.pdf</t>
   </si>
   <si>
@@ -133,30 +133,30 @@
     <t>Airway/Percutaneous tracheostomy checklist.pdf</t>
   </si>
   <si>
+    <t>Infection_and_sepsis/SOP Ultrasound Cleaning.pdf</t>
+  </si>
+  <si>
     <t>Delirium/Risk assessment posi mit.pdf</t>
   </si>
   <si>
-    <t>Infection_and_sepsis/SOP Ultrasound Cleaning.pdf</t>
+    <t>Airway/Tracheostomy_Laryngectomy/Tracheostomy safety box contents.pdf</t>
   </si>
   <si>
     <t>GI_Liver_and_Transplant/Treatment of constipation.pdf</t>
   </si>
   <si>
-    <t>Airway/Tracheostomy_Laryngectomy/Tracheostomy safety box contents.pdf</t>
+    <t>GI_Liver_and_Transplant/Abdominal pressure measurement.pdf</t>
+  </si>
+  <si>
+    <t>Neurological/Sub arachnoid haemorrhage management.pdf</t>
+  </si>
+  <si>
+    <t>Breathing(Respiratory)/HFNO.pdf</t>
   </si>
   <si>
     <t>Airway/McGrath Mac.pdf</t>
   </si>
   <si>
-    <t>Neurological/Sub arachnoid haemorrhage management.pdf</t>
-  </si>
-  <si>
-    <t>GI_Liver_and_Transplant/Abdominal pressure measurement.pdf</t>
-  </si>
-  <si>
-    <t>Breathing(Respiratory)/HFNO.pdf</t>
-  </si>
-  <si>
     <t>Airway/Anticipated difficult airway tool.pdf</t>
   </si>
   <si>
@@ -184,15 +184,15 @@
     <t>Breathing(Respiratory)/Equipment/APRV.pdf</t>
   </si>
   <si>
+    <t>Breathing(Respiratory)/Equipment/T piece Y piece.pdf</t>
+  </si>
+  <si>
+    <t>Neurological/SOP for review of Neurosurgical patients in ITU by neurosurgical team.pdf</t>
+  </si>
+  <si>
     <t>Post_op_care/Epidural Haematoma.pdf</t>
   </si>
   <si>
-    <t>Neurological/SOP for review of Neurosurgical patients in ITU by neurosurgical team.pdf</t>
-  </si>
-  <si>
-    <t>Breathing(Respiratory)/Equipment/T piece Y piece.pdf</t>
-  </si>
-  <si>
     <t>Policies_and_admin/General Critical Care Interaction with HEPMA_pub.pdf</t>
   </si>
   <si>
@@ -202,12 +202,12 @@
     <t>Breathing(Respiratory)/Equipment/HFNO through ventilator.pdf</t>
   </si>
   <si>
+    <t>Routine_Care/VTE_Prevention/Dalteparin_thromboprophylaxis.pdf</t>
+  </si>
+  <si>
     <t>Post_op_care/Adult Scoliosis Spinal Surgery Post-Op Care.pdf</t>
   </si>
   <si>
-    <t>Routine_Care/VTE_Prevention/Dalteparin_thromboprophylaxis.pdf</t>
-  </si>
-  <si>
     <t>Post_op_care/Post op care pharyngo-laryngo-oesphagectomy PLOG.pdf</t>
   </si>
   <si>
@@ -220,10 +220,13 @@
     <t>GI_Liver_and_Transplant/Nasojejunal feeding protocol.pdf</t>
   </si>
   <si>
+    <t>ECLS/RIE ECLS Anti Xa Protocol.pdf</t>
+  </si>
+  <si>
     <t>GI_Liver_and_Transplant/Jejunostomy feeding protocol.pdf</t>
   </si>
   <si>
-    <t>ECLS/RIE ECLS Anti Xa Protocol.pdf</t>
+    <t>Drugs/vasopressin_sepsis.pdf</t>
   </si>
   <si>
     <t>Drugs/vasopressin organ donation.pdf</t>
@@ -232,21 +235,18 @@
     <t>Infection_and_sepsis/Winter Infections Stepdown Guidance.pdf</t>
   </si>
   <si>
-    <t>Drugs/vasopressin_sepsis.pdf</t>
+    <t>Covid-19/videos/Donning and Doffing Video.pdf</t>
   </si>
   <si>
     <t>Transfer/ACCP Transfers.pdf</t>
   </si>
   <si>
-    <t>Covid-19/videos/Donning and Doffing Video.pdf</t>
+    <t>Breathing(Respiratory)/Equipment/Ventilators Circuits Filters and Closed Suction - Set up and Maintenance.pdf</t>
   </si>
   <si>
     <t>Infection_and_sepsis/Infection indications for IVIG.pdf</t>
   </si>
   <si>
-    <t>Breathing(Respiratory)/Equipment/Ventilators Circuits Filters and Closed Suction - Set up and Maintenance.pdf</t>
-  </si>
-  <si>
     <t>Drugs/piperacillin_tazobactam extended_infusion.pdf</t>
   </si>
   <si>
@@ -259,105 +259,105 @@
     <t>Routine_Care/Video Communication.pdf</t>
   </si>
   <si>
+    <t>Cardiovascular/Cardiogenic Shock.pdf</t>
+  </si>
+  <si>
     <t>Drugs/isoprenaline.pdf</t>
   </si>
   <si>
-    <t>Cardiovascular/Cardiogenic Shock.pdf</t>
-  </si>
-  <si>
     <t>Haematology_CAR-T/Haem_ICU_transfer.pdf</t>
   </si>
   <si>
     <t>Cardiovascular/Management of hypertension within Critical Care.pdf</t>
   </si>
   <si>
+    <t>Drugs/pancuronium.pdf</t>
+  </si>
+  <si>
     <t>Haematology_CAR-T/Cytokine Release Syndrome.pdf</t>
   </si>
   <si>
-    <t>Drugs/pancuronium.pdf</t>
-  </si>
-  <si>
     <t>Haematology_CAR-T/ICANS.pdf</t>
   </si>
   <si>
+    <t>Drugs/milrinone.pdf</t>
+  </si>
+  <si>
     <t>Policies_and_admin/General Critical Care SOP_pub.pdf</t>
   </si>
   <si>
-    <t>Drugs/milrinone.pdf</t>
-  </si>
-  <si>
     <t>Drugs/clonidine.pdf</t>
   </si>
   <si>
     <t>Infection_and_sepsis/Trip Out of Unit infection guidance.pdf</t>
   </si>
   <si>
+    <t>Covid-19/COVID 19 ICM guidance basic goals_June_2022.pdf</t>
+  </si>
+  <si>
+    <t>End_of_life_care/CMO &amp; NRS Guidance for Doctors completing MCCD.pdf</t>
+  </si>
+  <si>
+    <t>Ethics_and_Law/Care at the End of Life (FICM).pdf</t>
+  </si>
+  <si>
     <t>Ethics_and_Law/DNACPR policy for Scotland.pdf</t>
   </si>
   <si>
     <t>End_of_life_care/Palliative extubation &amp; withdrawal of invasive ventilatory support nursing checklist.pdf</t>
   </si>
   <si>
-    <t>Ethics_and_Law/Care at the End of Life (FICM).pdf</t>
-  </si>
-  <si>
-    <t>Covid-19/COVID 19 ICM guidance basic goals_June_2022.pdf</t>
-  </si>
-  <si>
-    <t>End_of_life_care/CMO &amp; NRS Guidance for Doctors completing MCCD.pdf</t>
+    <t>Neurological/Management of traumatic brain injury.pdf</t>
+  </si>
+  <si>
+    <t>Neurological/Critical Care MRI Procedure_pub.pdf</t>
   </si>
   <si>
     <t>Organ_donation/Organ Retrieval SOP.pdf</t>
   </si>
   <si>
-    <t>Neurological/Management of traumatic brain injury.pdf</t>
-  </si>
-  <si>
     <t>GI_Liver_and_Transplant/ICU - Upper GI bleeding (Endoscopy guideline).pdf</t>
   </si>
   <si>
-    <t>Neurological/Critical Care MRI Procedure_pub.pdf</t>
-  </si>
-  <si>
     <t>Airway/Cook Staged Extubation Set.pdf</t>
   </si>
   <si>
+    <t>Drugs/noradrenaline (central).pdf</t>
+  </si>
+  <si>
     <t>End_of_life_care/End of Life Care Guideline for Critical Care.pdf</t>
   </si>
   <si>
-    <t>Drugs/noradrenaline (central).pdf</t>
-  </si>
-  <si>
     <t>Post_op_care/Epidural hypotension.pdf</t>
   </si>
   <si>
+    <t>GI_Liver_and_Transplant/Fulminant Liver Failure.pdf</t>
+  </si>
+  <si>
+    <t>GI_Liver_and_Transplant/Confirmation of Nasogastric Tube Position.pdf</t>
+  </si>
+  <si>
     <t>Drugs/glyceryl_trinitrate.pdf</t>
   </si>
   <si>
+    <t>Breathing(Respiratory)/Equipment/Passy Muir Valve.pdf</t>
+  </si>
+  <si>
     <t>Drugs/dexmedetomidine.pdf</t>
   </si>
   <si>
-    <t>GI_Liver_and_Transplant/Confirmation of Nasogastric Tube Position.pdf</t>
-  </si>
-  <si>
-    <t>Breathing(Respiratory)/Equipment/Passy Muir Valve.pdf</t>
-  </si>
-  <si>
-    <t>GI_Liver_and_Transplant/Fulminant Liver Failure.pdf</t>
-  </si>
-  <si>
     <t>Infection_and_sepsis/Antifungal guidance in critical care.pdf</t>
   </si>
   <si>
     <t>Cardiovascular/Intra Aortic Balloon Pump Guideline_pub.pdf</t>
   </si>
   <si>
+    <t>Cardiovascular/Intra Aortic Balloon Pump Bedside Checks_pub.pdf</t>
+  </si>
+  <si>
     <t>Transfer/Transfer Outdoors to Garden Guideline.pdf</t>
   </si>
   <si>
-    <t>Cardiovascular/Intra Aortic Balloon Pump Bedside Checks_pub.pdf</t>
-  </si>
-  <si>
     <t>Breathing(Respiratory)/ARDS Strategy.pdf</t>
   </si>
   <si>
@@ -382,147 +382,147 @@
     <t>Drugs/magnesium.pdf</t>
   </si>
   <si>
+    <t>Drugs/vancomycin continuous infusion.pdf</t>
+  </si>
+  <si>
     <t>Drugs/ICU - IV drug infusions.pdf</t>
   </si>
   <si>
-    <t>Drugs/vancomycin continuous infusion.pdf</t>
-  </si>
-  <si>
     <t>Drugs/neostigmine.pdf</t>
   </si>
   <si>
     <t>Neurological/Intrathecal policy RIE.pdf</t>
   </si>
   <si>
+    <t>Drugs/labetalol.pdf</t>
+  </si>
+  <si>
     <t>Infection_and_sepsis/Initial investigation and management in unidentified Infections.pdf</t>
   </si>
   <si>
-    <t>Drugs/labetalol.pdf</t>
-  </si>
-  <si>
     <t>Cardiovascular/Management of Acute Type B Aortic Dissection Guideline.pdf</t>
   </si>
   <si>
+    <t>Drugs/salbutamol.pdf</t>
+  </si>
+  <si>
+    <t>Drugs/nimodipine.pdf</t>
+  </si>
+  <si>
+    <t>Drugs/potassium.pdf</t>
+  </si>
+  <si>
+    <t>Procedures/CVC Guidance/CVC NHL  April 2023.pdf</t>
+  </si>
+  <si>
     <t>Trauma and Burns/Management of Severe Burns v1.6.pdf</t>
   </si>
   <si>
-    <t>Drugs/nimodipine.pdf</t>
-  </si>
-  <si>
-    <t>Procedures/CVC Guidance/CVC NHL  April 2023.pdf</t>
-  </si>
-  <si>
-    <t>Drugs/potassium.pdf</t>
-  </si>
-  <si>
-    <t>Drugs/salbutamol.pdf</t>
-  </si>
-  <si>
     <t>Drugs/nicardipine.pdf</t>
   </si>
   <si>
+    <t>Procedures/Arterial Line insertion for ACCPs.pdf</t>
+  </si>
+  <si>
     <t>Drugs/phenobarbitone.pdf</t>
   </si>
   <si>
-    <t>Procedures/Arterial Line insertion for ACCPs.pdf</t>
-  </si>
-  <si>
     <t>Drugs/amiodarone.pdf</t>
   </si>
   <si>
     <t>Routine_Care/ICU Eye Care Guideline.pdf</t>
   </si>
   <si>
+    <t>Drugs/Epoprostenol.pdf</t>
+  </si>
+  <si>
+    <t>Neurological/Ventriculitis Guideline.pdf</t>
+  </si>
+  <si>
     <t>Drugs/phenylephrine.pdf</t>
   </si>
   <si>
     <t>Drugs/morphine.pdf</t>
   </si>
   <si>
-    <t>Neurological/Ventriculitis Guideline.pdf</t>
-  </si>
-  <si>
-    <t>Drugs/Epoprostenol.pdf</t>
-  </si>
-  <si>
     <t>Breathing(Respiratory)/Manual Ventilation and MHI.pdf</t>
   </si>
   <si>
+    <t>Breathing(Respiratory)/Pulmonary_Embolism_and_DVT/Catheter directed thrombolysis of iliofemoral DVT alteplase_pub.pdf</t>
+  </si>
+  <si>
+    <t>Cardiovascular/Cardiac Output Monitoring_pub .pdf</t>
+  </si>
+  <si>
     <t>Drugs/calcium.pdf</t>
   </si>
   <si>
-    <t>Cardiovascular/Cardiac Output Monitoring_pub .pdf</t>
-  </si>
-  <si>
-    <t>Breathing(Respiratory)/Pulmonary_Embolism_and_DVT/Catheter directed thrombolysis of iliofemoral DVT alteplase_pub.pdf</t>
-  </si>
-  <si>
     <t>Drugs/Vancomycin continuous infusion Fluid Restricted.pdf</t>
   </si>
   <si>
+    <t>Drugs/dalteparin_thromboprophylaxis.pdf</t>
+  </si>
+  <si>
     <t>Drugs/atracurium.pdf</t>
   </si>
   <si>
     <t>Airway/Tracheostomy_Laryngectomy/Decannulation Guidline.pdf</t>
   </si>
   <si>
-    <t>Drugs/dalteparin_thromboprophylaxis.pdf</t>
+    <t>Policies_and_admin/Pet Visitation.pdf</t>
   </si>
   <si>
     <t>Procedures/Inadvertent Catheter Placement Guideline.pdf</t>
   </si>
   <si>
-    <t>Policies_and_admin/Pet Visitation.pdf</t>
-  </si>
-  <si>
     <t>Drugs/valproate.pdf</t>
   </si>
   <si>
+    <t>Drugs/stress ulcer prophylaxis.pdf</t>
+  </si>
+  <si>
+    <t>Drugs/Phosphate.pdf</t>
+  </si>
+  <si>
     <t>Drugs/ketamine_for_status epilepticus.pdf</t>
   </si>
   <si>
-    <t>Drugs/stress ulcer prophylaxis.pdf</t>
-  </si>
-  <si>
-    <t>Drugs/Phosphate.pdf</t>
+    <t>Neurological/Status epilepticus.pdf</t>
+  </si>
+  <si>
+    <t>Drugs/Thiopentone.pdf</t>
+  </si>
+  <si>
+    <t>Drugs/Octreotide.pdf</t>
+  </si>
+  <si>
+    <t>GI_Liver_and_Transplant/Prokinetics in ICU.pdf</t>
   </si>
   <si>
     <t>Breathing(Respiratory)/Proning Guideline.pdf</t>
   </si>
   <si>
-    <t>GI_Liver_and_Transplant/Prokinetics in ICU.pdf</t>
-  </si>
-  <si>
-    <t>Drugs/Octreotide.pdf</t>
-  </si>
-  <si>
-    <t>Neurological/Status epilepticus.pdf</t>
-  </si>
-  <si>
-    <t>Drugs/Thiopentone.pdf</t>
+    <t>Procedures/ACCP CVC placement following completion of initial competencies.pdf</t>
+  </si>
+  <si>
+    <t>Procedures/ACCPs acquiring initial CVC competencies.pdf</t>
   </si>
   <si>
     <t>Post_op_care/Prevention and treatment of paraplegia after major aortic procedures.pdf</t>
   </si>
   <si>
-    <t>Procedures/ACCPs acquiring initial CVC competencies.pdf</t>
-  </si>
-  <si>
-    <t>Procedures/ACCP CVC placement following completion of initial competencies.pdf</t>
+    <t>Drugs/Rocuronium.pdf</t>
   </si>
   <si>
     <t>Drugs/Ketamine_in_asthma.pdf</t>
   </si>
   <si>
+    <t>Breathing(Respiratory)/Equipment/O2 through Drager setup.pdf</t>
+  </si>
+  <si>
     <t>Delirium/Violence and Agression.pdf</t>
   </si>
   <si>
-    <t>Drugs/Rocuronium.pdf</t>
-  </si>
-  <si>
-    <t>Breathing(Respiratory)/Equipment/O2 through Drager setup.pdf</t>
-  </si>
-  <si>
     <t>Post_op_care/Care of the Transgender Patient.pdf</t>
   </si>
   <si>
@@ -550,12 +550,12 @@
     <t>Breathing(Respiratory)/Equipment/Setting up the NKV-330.pdf</t>
   </si>
   <si>
+    <t>Breathing(Respiratory)/NKV 330 NIV guidelines.pdf</t>
+  </si>
+  <si>
     <t>Breathing(Respiratory)/T1RF - CPAP Guidelines_Mar24.pdf</t>
   </si>
   <si>
-    <t>Breathing(Respiratory)/NKV 330 NIV guidelines.pdf</t>
-  </si>
-  <si>
     <t>Infection_and_sepsis/Influenza in Critical Care.pdf</t>
   </si>
   <si>
@@ -574,10 +574,13 @@
     <t>GI_Liver_and_Transplant/Pabrinex.pdf</t>
   </si>
   <si>
+    <t>Drugs/Pabrinex.pdf</t>
+  </si>
+  <si>
     <t>Cardiovascular/Focused TOE Guideline for General Critical Care_pub.pdf</t>
   </si>
   <si>
-    <t>Drugs/Pabrinex.pdf</t>
+    <t>Neurological/NPI Guideline.pdf</t>
   </si>
   <si>
     <t>Transfer/Repatriaiton Checklist for Critical Care.pdf</t>
@@ -586,196 +589,196 @@
     <t>Policies_and_admin/Repatriaiton Checklist for Critical Care.pdf</t>
   </si>
   <si>
-    <t>2011-03-07</t>
-  </si>
-  <si>
-    <t>2011-06-07</t>
-  </si>
-  <si>
-    <t>2011-07-07</t>
-  </si>
-  <si>
-    <t>2011-12-07</t>
-  </si>
-  <si>
-    <t>2014-09-07</t>
-  </si>
-  <si>
-    <t>2014-10-07</t>
-  </si>
-  <si>
-    <t>2014-11-07</t>
-  </si>
-  <si>
-    <t>2014-12-07</t>
-  </si>
-  <si>
-    <t>2015-03-07</t>
-  </si>
-  <si>
-    <t>2016-04-07</t>
-  </si>
-  <si>
-    <t>2016-08-07</t>
-  </si>
-  <si>
-    <t>2017-01-07</t>
-  </si>
-  <si>
-    <t>2017-08-07</t>
-  </si>
-  <si>
-    <t>2017-10-07</t>
-  </si>
-  <si>
-    <t>2017-11-07</t>
-  </si>
-  <si>
-    <t>2018-07-07</t>
-  </si>
-  <si>
-    <t>2019-05-07</t>
-  </si>
-  <si>
-    <t>2019-06-07</t>
-  </si>
-  <si>
-    <t>2019-08-07</t>
-  </si>
-  <si>
-    <t>2019-09-07</t>
-  </si>
-  <si>
-    <t>2020-01-07</t>
-  </si>
-  <si>
-    <t>2020-03-07</t>
-  </si>
-  <si>
-    <t>2020-04-07</t>
-  </si>
-  <si>
-    <t>2020-05-07</t>
-  </si>
-  <si>
-    <t>2020-07-07</t>
-  </si>
-  <si>
-    <t>2020-08-07</t>
-  </si>
-  <si>
-    <t>2020-11-07</t>
-  </si>
-  <si>
-    <t>2021-02-07</t>
-  </si>
-  <si>
-    <t>2021-05-07</t>
-  </si>
-  <si>
-    <t>2021-06-07</t>
-  </si>
-  <si>
-    <t>2021-09-07</t>
-  </si>
-  <si>
-    <t>2021-12-07</t>
-  </si>
-  <si>
-    <t>2022-01-07</t>
-  </si>
-  <si>
-    <t>2022-03-07</t>
-  </si>
-  <si>
-    <t>2022-04-07</t>
-  </si>
-  <si>
-    <t>2022-05-07</t>
-  </si>
-  <si>
-    <t>2022-06-07</t>
-  </si>
-  <si>
-    <t>2022-07-07</t>
-  </si>
-  <si>
-    <t>2022-08-07</t>
-  </si>
-  <si>
-    <t>2022-10-07</t>
-  </si>
-  <si>
-    <t>2022-11-07</t>
-  </si>
-  <si>
-    <t>2022-12-07</t>
-  </si>
-  <si>
-    <t>2023-01-07</t>
-  </si>
-  <si>
-    <t>2023-02-07</t>
-  </si>
-  <si>
-    <t>2023-04-07</t>
-  </si>
-  <si>
-    <t>2023-05-07</t>
-  </si>
-  <si>
-    <t>2023-06-07</t>
-  </si>
-  <si>
-    <t>2023-07-07</t>
-  </si>
-  <si>
-    <t>2023-08-07</t>
-  </si>
-  <si>
-    <t>2023-09-07</t>
-  </si>
-  <si>
-    <t>2023-10-07</t>
-  </si>
-  <si>
-    <t>2024-01-07</t>
-  </si>
-  <si>
-    <t>2024-02-07</t>
-  </si>
-  <si>
-    <t>2024-03-07</t>
-  </si>
-  <si>
-    <t>2024-04-07</t>
-  </si>
-  <si>
-    <t>2024-05-07</t>
+    <t>2011-03-10</t>
+  </si>
+  <si>
+    <t>2011-06-10</t>
+  </si>
+  <si>
+    <t>2011-07-10</t>
+  </si>
+  <si>
+    <t>2011-12-10</t>
+  </si>
+  <si>
+    <t>2014-09-10</t>
+  </si>
+  <si>
+    <t>2014-10-10</t>
+  </si>
+  <si>
+    <t>2014-11-10</t>
+  </si>
+  <si>
+    <t>2014-12-10</t>
+  </si>
+  <si>
+    <t>2015-03-10</t>
+  </si>
+  <si>
+    <t>2016-04-10</t>
+  </si>
+  <si>
+    <t>2016-08-10</t>
+  </si>
+  <si>
+    <t>2017-01-10</t>
+  </si>
+  <si>
+    <t>2017-08-10</t>
+  </si>
+  <si>
+    <t>2017-10-10</t>
+  </si>
+  <si>
+    <t>2017-11-10</t>
+  </si>
+  <si>
+    <t>2018-07-10</t>
+  </si>
+  <si>
+    <t>2019-05-10</t>
+  </si>
+  <si>
+    <t>2019-06-10</t>
+  </si>
+  <si>
+    <t>2019-08-10</t>
+  </si>
+  <si>
+    <t>2019-09-10</t>
+  </si>
+  <si>
+    <t>2020-01-10</t>
+  </si>
+  <si>
+    <t>2020-03-10</t>
+  </si>
+  <si>
+    <t>2020-04-10</t>
+  </si>
+  <si>
+    <t>2020-05-10</t>
+  </si>
+  <si>
+    <t>2020-07-10</t>
+  </si>
+  <si>
+    <t>2020-08-10</t>
+  </si>
+  <si>
+    <t>2020-11-10</t>
+  </si>
+  <si>
+    <t>2021-02-10</t>
+  </si>
+  <si>
+    <t>2021-05-10</t>
+  </si>
+  <si>
+    <t>2021-06-10</t>
+  </si>
+  <si>
+    <t>2021-09-10</t>
+  </si>
+  <si>
+    <t>2021-12-10</t>
+  </si>
+  <si>
+    <t>2022-01-10</t>
+  </si>
+  <si>
+    <t>2022-03-10</t>
+  </si>
+  <si>
+    <t>2022-04-10</t>
+  </si>
+  <si>
+    <t>2022-05-10</t>
+  </si>
+  <si>
+    <t>2022-06-10</t>
+  </si>
+  <si>
+    <t>2022-07-10</t>
+  </si>
+  <si>
+    <t>2022-08-10</t>
+  </si>
+  <si>
+    <t>2022-10-10</t>
+  </si>
+  <si>
+    <t>2022-11-10</t>
+  </si>
+  <si>
+    <t>2022-12-10</t>
+  </si>
+  <si>
+    <t>2023-01-10</t>
+  </si>
+  <si>
+    <t>2023-02-10</t>
+  </si>
+  <si>
+    <t>2023-04-10</t>
+  </si>
+  <si>
+    <t>2023-05-10</t>
+  </si>
+  <si>
+    <t>2023-06-10</t>
+  </si>
+  <si>
+    <t>2023-07-10</t>
+  </si>
+  <si>
+    <t>2023-08-10</t>
+  </si>
+  <si>
+    <t>2023-09-10</t>
+  </si>
+  <si>
+    <t>2023-10-10</t>
+  </si>
+  <si>
+    <t>2024-01-10</t>
+  </si>
+  <si>
+    <t>2024-02-10</t>
+  </si>
+  <si>
+    <t>2024-03-10</t>
+  </si>
+  <si>
+    <t>2024-04-10</t>
+  </si>
+  <si>
+    <t>2024-05-10</t>
   </si>
   <si>
     <t>2024-06-02</t>
   </si>
   <si>
-    <t>2024-06-07</t>
+    <t>2024-06-10</t>
   </si>
   <si>
     <t>2024-06-26</t>
   </si>
   <si>
-    <t>2024-07-07</t>
+    <t>2024-07-10</t>
   </si>
   <si>
     <t>2024-07-25</t>
   </si>
   <si>
-    <t>2024-08-07</t>
+    <t>2024-08-10</t>
   </si>
   <si>
     <t>2024-08-15</t>
   </si>
   <si>
-    <t>2024-10-07</t>
+    <t>2024-10-10</t>
   </si>
   <si>
     <t>2024-10-24</t>
@@ -790,88 +793,91 @@
     <t>2024-12-24</t>
   </si>
   <si>
-    <t>2025-01-07</t>
-  </si>
-  <si>
-    <t>2025-02-07</t>
-  </si>
-  <si>
-    <t>2025-03-07</t>
-  </si>
-  <si>
-    <t>2025-04-07</t>
-  </si>
-  <si>
-    <t>2025-05-07</t>
-  </si>
-  <si>
-    <t>2025-06-07</t>
-  </si>
-  <si>
-    <t>2025-07-07</t>
-  </si>
-  <si>
-    <t>2025-08-07</t>
-  </si>
-  <si>
-    <t>2025-10-07</t>
-  </si>
-  <si>
-    <t>2025-11-07</t>
-  </si>
-  <si>
-    <t>2026-01-07</t>
-  </si>
-  <si>
-    <t>2026-03-07</t>
-  </si>
-  <si>
-    <t>2026-05-07</t>
-  </si>
-  <si>
-    <t>2026-07-07</t>
-  </si>
-  <si>
-    <t>2026-08-07</t>
-  </si>
-  <si>
-    <t>2026-09-07</t>
-  </si>
-  <si>
-    <t>2026-11-07</t>
-  </si>
-  <si>
-    <t>2027-01-07</t>
-  </si>
-  <si>
-    <t>2027-02-07</t>
-  </si>
-  <si>
-    <t>2027-03-07</t>
-  </si>
-  <si>
-    <t>2028-02-07</t>
-  </si>
-  <si>
-    <t>2028-03-07</t>
-  </si>
-  <si>
-    <t>2028-05-07</t>
-  </si>
-  <si>
-    <t>2028-07-07</t>
-  </si>
-  <si>
-    <t>2028-11-07</t>
-  </si>
-  <si>
-    <t>2029-02-07</t>
-  </si>
-  <si>
-    <t>2029-06-07</t>
-  </si>
-  <si>
-    <t>2030-11-07</t>
+    <t>2025-01-10</t>
+  </si>
+  <si>
+    <t>2025-02-10</t>
+  </si>
+  <si>
+    <t>2025-03-10</t>
+  </si>
+  <si>
+    <t>2025-04-10</t>
+  </si>
+  <si>
+    <t>2025-05-10</t>
+  </si>
+  <si>
+    <t>2025-06-10</t>
+  </si>
+  <si>
+    <t>2025-07-10</t>
+  </si>
+  <si>
+    <t>2025-08-10</t>
+  </si>
+  <si>
+    <t>2025-10-10</t>
+  </si>
+  <si>
+    <t>2025-11-10</t>
+  </si>
+  <si>
+    <t>2026-01-10</t>
+  </si>
+  <si>
+    <t>2026-03-10</t>
+  </si>
+  <si>
+    <t>2026-05-10</t>
+  </si>
+  <si>
+    <t>2026-07-10</t>
+  </si>
+  <si>
+    <t>2026-08-10</t>
+  </si>
+  <si>
+    <t>2026-09-10</t>
+  </si>
+  <si>
+    <t>2026-11-10</t>
+  </si>
+  <si>
+    <t>2027-01-10</t>
+  </si>
+  <si>
+    <t>2027-02-10</t>
+  </si>
+  <si>
+    <t>2027-03-10</t>
+  </si>
+  <si>
+    <t>2028-02-10</t>
+  </si>
+  <si>
+    <t>2028-03-10</t>
+  </si>
+  <si>
+    <t>2028-05-10</t>
+  </si>
+  <si>
+    <t>2028-07-10</t>
+  </si>
+  <si>
+    <t>2028-11-10</t>
+  </si>
+  <si>
+    <t>2029-02-10</t>
+  </si>
+  <si>
+    <t>2029-06-10</t>
+  </si>
+  <si>
+    <t>2029-08-10</t>
+  </si>
+  <si>
+    <t>2030-11-10</t>
   </si>
 </sst>
 </file>
@@ -1229,7 +1235,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B189"/>
+  <dimension ref="A1:B190"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1248,7 +1254,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -1256,7 +1262,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -1264,7 +1270,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -1272,7 +1278,7 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -1280,7 +1286,7 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -1288,7 +1294,7 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -1296,7 +1302,7 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -1304,7 +1310,7 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -1312,7 +1318,7 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -1320,7 +1326,7 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -1328,7 +1334,7 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -1336,7 +1342,7 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -1344,7 +1350,7 @@
         <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -1352,7 +1358,7 @@
         <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -1360,7 +1366,7 @@
         <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -1368,7 +1374,7 @@
         <v>17</v>
       </c>
       <c r="B17" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -1376,7 +1382,7 @@
         <v>18</v>
       </c>
       <c r="B18" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -1384,7 +1390,7 @@
         <v>19</v>
       </c>
       <c r="B19" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -1392,7 +1398,7 @@
         <v>20</v>
       </c>
       <c r="B20" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -1400,7 +1406,7 @@
         <v>21</v>
       </c>
       <c r="B21" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -1408,7 +1414,7 @@
         <v>22</v>
       </c>
       <c r="B22" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -1416,7 +1422,7 @@
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -1424,7 +1430,7 @@
         <v>24</v>
       </c>
       <c r="B24" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -1432,7 +1438,7 @@
         <v>25</v>
       </c>
       <c r="B25" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -1440,7 +1446,7 @@
         <v>26</v>
       </c>
       <c r="B26" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -1448,7 +1454,7 @@
         <v>27</v>
       </c>
       <c r="B27" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -1456,7 +1462,7 @@
         <v>28</v>
       </c>
       <c r="B28" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -1464,7 +1470,7 @@
         <v>29</v>
       </c>
       <c r="B29" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -1472,7 +1478,7 @@
         <v>30</v>
       </c>
       <c r="B30" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -1480,7 +1486,7 @@
         <v>31</v>
       </c>
       <c r="B31" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -1488,7 +1494,7 @@
         <v>32</v>
       </c>
       <c r="B32" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -1496,7 +1502,7 @@
         <v>33</v>
       </c>
       <c r="B33" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -1504,7 +1510,7 @@
         <v>34</v>
       </c>
       <c r="B34" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -1512,7 +1518,7 @@
         <v>35</v>
       </c>
       <c r="B35" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -1520,7 +1526,7 @@
         <v>36</v>
       </c>
       <c r="B36" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -1528,7 +1534,7 @@
         <v>37</v>
       </c>
       <c r="B37" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -1536,7 +1542,7 @@
         <v>38</v>
       </c>
       <c r="B38" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -1544,7 +1550,7 @@
         <v>39</v>
       </c>
       <c r="B39" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -1552,7 +1558,7 @@
         <v>40</v>
       </c>
       <c r="B40" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -1560,7 +1566,7 @@
         <v>41</v>
       </c>
       <c r="B41" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -1568,7 +1574,7 @@
         <v>42</v>
       </c>
       <c r="B42" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -1576,7 +1582,7 @@
         <v>43</v>
       </c>
       <c r="B43" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -1584,7 +1590,7 @@
         <v>44</v>
       </c>
       <c r="B44" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -1592,7 +1598,7 @@
         <v>45</v>
       </c>
       <c r="B45" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -1600,7 +1606,7 @@
         <v>46</v>
       </c>
       <c r="B46" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -1608,7 +1614,7 @@
         <v>47</v>
       </c>
       <c r="B47" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -1616,7 +1622,7 @@
         <v>48</v>
       </c>
       <c r="B48" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -1624,7 +1630,7 @@
         <v>49</v>
       </c>
       <c r="B49" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -1632,7 +1638,7 @@
         <v>50</v>
       </c>
       <c r="B50" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -1640,7 +1646,7 @@
         <v>51</v>
       </c>
       <c r="B51" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -1648,7 +1654,7 @@
         <v>52</v>
       </c>
       <c r="B52" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -1656,7 +1662,7 @@
         <v>53</v>
       </c>
       <c r="B53" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
     </row>
     <row r="54" spans="1:2">
@@ -1664,7 +1670,7 @@
         <v>54</v>
       </c>
       <c r="B54" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
     </row>
     <row r="55" spans="1:2">
@@ -1672,7 +1678,7 @@
         <v>55</v>
       </c>
       <c r="B55" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
     </row>
     <row r="56" spans="1:2">
@@ -1680,7 +1686,7 @@
         <v>56</v>
       </c>
       <c r="B56" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
     </row>
     <row r="57" spans="1:2">
@@ -1688,7 +1694,7 @@
         <v>57</v>
       </c>
       <c r="B57" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
     </row>
     <row r="58" spans="1:2">
@@ -1696,7 +1702,7 @@
         <v>58</v>
       </c>
       <c r="B58" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
     </row>
     <row r="59" spans="1:2">
@@ -1704,7 +1710,7 @@
         <v>59</v>
       </c>
       <c r="B59" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="60" spans="1:2">
@@ -1712,7 +1718,7 @@
         <v>60</v>
       </c>
       <c r="B60" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
     <row r="61" spans="1:2">
@@ -1720,7 +1726,7 @@
         <v>61</v>
       </c>
       <c r="B61" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="62" spans="1:2">
@@ -1728,7 +1734,7 @@
         <v>62</v>
       </c>
       <c r="B62" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
     <row r="63" spans="1:2">
@@ -1736,7 +1742,7 @@
         <v>63</v>
       </c>
       <c r="B63" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
     <row r="64" spans="1:2">
@@ -1744,7 +1750,7 @@
         <v>64</v>
       </c>
       <c r="B64" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
     </row>
     <row r="65" spans="1:2">
@@ -1752,7 +1758,7 @@
         <v>65</v>
       </c>
       <c r="B65" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
     </row>
     <row r="66" spans="1:2">
@@ -1760,7 +1766,7 @@
         <v>66</v>
       </c>
       <c r="B66" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
     </row>
     <row r="67" spans="1:2">
@@ -1768,7 +1774,7 @@
         <v>67</v>
       </c>
       <c r="B67" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
     </row>
     <row r="68" spans="1:2">
@@ -1776,7 +1782,7 @@
         <v>68</v>
       </c>
       <c r="B68" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
     </row>
     <row r="69" spans="1:2">
@@ -1784,7 +1790,7 @@
         <v>69</v>
       </c>
       <c r="B69" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
     </row>
     <row r="70" spans="1:2">
@@ -1792,7 +1798,7 @@
         <v>70</v>
       </c>
       <c r="B70" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="71" spans="1:2">
@@ -1800,7 +1806,7 @@
         <v>71</v>
       </c>
       <c r="B71" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="72" spans="1:2">
@@ -1808,7 +1814,7 @@
         <v>72</v>
       </c>
       <c r="B72" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="73" spans="1:2">
@@ -1816,7 +1822,7 @@
         <v>73</v>
       </c>
       <c r="B73" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="74" spans="1:2">
@@ -1824,7 +1830,7 @@
         <v>74</v>
       </c>
       <c r="B74" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="75" spans="1:2">
@@ -1832,7 +1838,7 @@
         <v>75</v>
       </c>
       <c r="B75" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="76" spans="1:2">
@@ -1840,7 +1846,7 @@
         <v>76</v>
       </c>
       <c r="B76" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="77" spans="1:2">
@@ -1848,7 +1854,7 @@
         <v>77</v>
       </c>
       <c r="B77" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="78" spans="1:2">
@@ -1856,7 +1862,7 @@
         <v>78</v>
       </c>
       <c r="B78" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="79" spans="1:2">
@@ -1864,7 +1870,7 @@
         <v>79</v>
       </c>
       <c r="B79" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="80" spans="1:2">
@@ -1872,7 +1878,7 @@
         <v>80</v>
       </c>
       <c r="B80" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="81" spans="1:2">
@@ -1880,7 +1886,7 @@
         <v>81</v>
       </c>
       <c r="B81" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="82" spans="1:2">
@@ -1888,7 +1894,7 @@
         <v>82</v>
       </c>
       <c r="B82" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="83" spans="1:2">
@@ -1896,7 +1902,7 @@
         <v>83</v>
       </c>
       <c r="B83" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="84" spans="1:2">
@@ -1904,7 +1910,7 @@
         <v>84</v>
       </c>
       <c r="B84" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="85" spans="1:2">
@@ -1912,7 +1918,7 @@
         <v>85</v>
       </c>
       <c r="B85" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
     </row>
     <row r="86" spans="1:2">
@@ -1920,7 +1926,7 @@
         <v>86</v>
       </c>
       <c r="B86" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
     </row>
     <row r="87" spans="1:2">
@@ -1928,7 +1934,7 @@
         <v>87</v>
       </c>
       <c r="B87" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
     </row>
     <row r="88" spans="1:2">
@@ -1936,7 +1942,7 @@
         <v>88</v>
       </c>
       <c r="B88" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="89" spans="1:2">
@@ -1944,7 +1950,7 @@
         <v>89</v>
       </c>
       <c r="B89" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="90" spans="1:2">
@@ -1952,7 +1958,7 @@
         <v>90</v>
       </c>
       <c r="B90" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="91" spans="1:2">
@@ -1960,7 +1966,7 @@
         <v>91</v>
       </c>
       <c r="B91" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="92" spans="1:2">
@@ -1968,7 +1974,7 @@
         <v>92</v>
       </c>
       <c r="B92" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="93" spans="1:2">
@@ -1976,7 +1982,7 @@
         <v>93</v>
       </c>
       <c r="B93" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="94" spans="1:2">
@@ -1984,7 +1990,7 @@
         <v>94</v>
       </c>
       <c r="B94" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="95" spans="1:2">
@@ -1992,7 +1998,7 @@
         <v>95</v>
       </c>
       <c r="B95" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="96" spans="1:2">
@@ -2000,7 +2006,7 @@
         <v>96</v>
       </c>
       <c r="B96" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="97" spans="1:2">
@@ -2008,7 +2014,7 @@
         <v>97</v>
       </c>
       <c r="B97" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="98" spans="1:2">
@@ -2016,7 +2022,7 @@
         <v>98</v>
       </c>
       <c r="B98" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="99" spans="1:2">
@@ -2024,7 +2030,7 @@
         <v>99</v>
       </c>
       <c r="B99" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="100" spans="1:2">
@@ -2032,7 +2038,7 @@
         <v>100</v>
       </c>
       <c r="B100" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="101" spans="1:2">
@@ -2040,7 +2046,7 @@
         <v>101</v>
       </c>
       <c r="B101" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
     </row>
     <row r="102" spans="1:2">
@@ -2048,7 +2054,7 @@
         <v>102</v>
       </c>
       <c r="B102" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
     </row>
     <row r="103" spans="1:2">
@@ -2056,7 +2062,7 @@
         <v>103</v>
       </c>
       <c r="B103" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
     </row>
     <row r="104" spans="1:2">
@@ -2064,7 +2070,7 @@
         <v>104</v>
       </c>
       <c r="B104" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
     </row>
     <row r="105" spans="1:2">
@@ -2072,7 +2078,7 @@
         <v>105</v>
       </c>
       <c r="B105" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="106" spans="1:2">
@@ -2080,7 +2086,7 @@
         <v>106</v>
       </c>
       <c r="B106" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="107" spans="1:2">
@@ -2088,7 +2094,7 @@
         <v>107</v>
       </c>
       <c r="B107" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="108" spans="1:2">
@@ -2096,7 +2102,7 @@
         <v>108</v>
       </c>
       <c r="B108" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="109" spans="1:2">
@@ -2104,7 +2110,7 @@
         <v>109</v>
       </c>
       <c r="B109" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="110" spans="1:2">
@@ -2112,7 +2118,7 @@
         <v>110</v>
       </c>
       <c r="B110" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
     </row>
     <row r="111" spans="1:2">
@@ -2120,7 +2126,7 @@
         <v>111</v>
       </c>
       <c r="B111" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
     </row>
     <row r="112" spans="1:2">
@@ -2128,7 +2134,7 @@
         <v>112</v>
       </c>
       <c r="B112" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
     </row>
     <row r="113" spans="1:2">
@@ -2136,7 +2142,7 @@
         <v>113</v>
       </c>
       <c r="B113" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
     </row>
     <row r="114" spans="1:2">
@@ -2144,7 +2150,7 @@
         <v>114</v>
       </c>
       <c r="B114" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
     </row>
     <row r="115" spans="1:2">
@@ -2152,7 +2158,7 @@
         <v>115</v>
       </c>
       <c r="B115" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
     <row r="116" spans="1:2">
@@ -2160,7 +2166,7 @@
         <v>116</v>
       </c>
       <c r="B116" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
     <row r="117" spans="1:2">
@@ -2168,7 +2174,7 @@
         <v>117</v>
       </c>
       <c r="B117" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="118" spans="1:2">
@@ -2176,7 +2182,7 @@
         <v>118</v>
       </c>
       <c r="B118" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="119" spans="1:2">
@@ -2184,7 +2190,7 @@
         <v>119</v>
       </c>
       <c r="B119" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="120" spans="1:2">
@@ -2192,7 +2198,7 @@
         <v>120</v>
       </c>
       <c r="B120" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="121" spans="1:2">
@@ -2200,7 +2206,7 @@
         <v>121</v>
       </c>
       <c r="B121" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
     <row r="122" spans="1:2">
@@ -2208,7 +2214,7 @@
         <v>122</v>
       </c>
       <c r="B122" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
     <row r="123" spans="1:2">
@@ -2216,7 +2222,7 @@
         <v>123</v>
       </c>
       <c r="B123" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
     <row r="124" spans="1:2">
@@ -2224,7 +2230,7 @@
         <v>124</v>
       </c>
       <c r="B124" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
     <row r="125" spans="1:2">
@@ -2232,7 +2238,7 @@
         <v>125</v>
       </c>
       <c r="B125" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="126" spans="1:2">
@@ -2240,7 +2246,7 @@
         <v>126</v>
       </c>
       <c r="B126" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="127" spans="1:2">
@@ -2248,7 +2254,7 @@
         <v>127</v>
       </c>
       <c r="B127" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="128" spans="1:2">
@@ -2256,7 +2262,7 @@
         <v>128</v>
       </c>
       <c r="B128" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="129" spans="1:2">
@@ -2264,7 +2270,7 @@
         <v>129</v>
       </c>
       <c r="B129" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="130" spans="1:2">
@@ -2272,7 +2278,7 @@
         <v>130</v>
       </c>
       <c r="B130" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="131" spans="1:2">
@@ -2280,7 +2286,7 @@
         <v>131</v>
       </c>
       <c r="B131" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="132" spans="1:2">
@@ -2288,7 +2294,7 @@
         <v>132</v>
       </c>
       <c r="B132" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="133" spans="1:2">
@@ -2296,7 +2302,7 @@
         <v>133</v>
       </c>
       <c r="B133" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="134" spans="1:2">
@@ -2304,7 +2310,7 @@
         <v>134</v>
       </c>
       <c r="B134" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
     </row>
     <row r="135" spans="1:2">
@@ -2312,7 +2318,7 @@
         <v>135</v>
       </c>
       <c r="B135" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
     </row>
     <row r="136" spans="1:2">
@@ -2320,7 +2326,7 @@
         <v>136</v>
       </c>
       <c r="B136" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
     </row>
     <row r="137" spans="1:2">
@@ -2328,7 +2334,7 @@
         <v>137</v>
       </c>
       <c r="B137" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
     </row>
     <row r="138" spans="1:2">
@@ -2336,7 +2342,7 @@
         <v>138</v>
       </c>
       <c r="B138" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
     </row>
     <row r="139" spans="1:2">
@@ -2344,7 +2350,7 @@
         <v>139</v>
       </c>
       <c r="B139" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
     </row>
     <row r="140" spans="1:2">
@@ -2352,7 +2358,7 @@
         <v>140</v>
       </c>
       <c r="B140" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
     </row>
     <row r="141" spans="1:2">
@@ -2360,7 +2366,7 @@
         <v>141</v>
       </c>
       <c r="B141" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
     </row>
     <row r="142" spans="1:2">
@@ -2368,7 +2374,7 @@
         <v>142</v>
       </c>
       <c r="B142" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
     </row>
     <row r="143" spans="1:2">
@@ -2376,7 +2382,7 @@
         <v>143</v>
       </c>
       <c r="B143" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
     </row>
     <row r="144" spans="1:2">
@@ -2384,7 +2390,7 @@
         <v>144</v>
       </c>
       <c r="B144" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="145" spans="1:2">
@@ -2392,7 +2398,7 @@
         <v>145</v>
       </c>
       <c r="B145" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="146" spans="1:2">
@@ -2400,7 +2406,7 @@
         <v>146</v>
       </c>
       <c r="B146" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="147" spans="1:2">
@@ -2408,7 +2414,7 @@
         <v>147</v>
       </c>
       <c r="B147" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
     </row>
     <row r="148" spans="1:2">
@@ -2416,7 +2422,7 @@
         <v>148</v>
       </c>
       <c r="B148" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
     </row>
     <row r="149" spans="1:2">
@@ -2424,7 +2430,7 @@
         <v>149</v>
       </c>
       <c r="B149" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
     </row>
     <row r="150" spans="1:2">
@@ -2432,7 +2438,7 @@
         <v>150</v>
       </c>
       <c r="B150" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
     </row>
     <row r="151" spans="1:2">
@@ -2440,7 +2446,7 @@
         <v>151</v>
       </c>
       <c r="B151" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
     </row>
     <row r="152" spans="1:2">
@@ -2448,7 +2454,7 @@
         <v>152</v>
       </c>
       <c r="B152" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
     </row>
     <row r="153" spans="1:2">
@@ -2456,7 +2462,7 @@
         <v>153</v>
       </c>
       <c r="B153" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
     </row>
     <row r="154" spans="1:2">
@@ -2464,7 +2470,7 @@
         <v>154</v>
       </c>
       <c r="B154" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
     </row>
     <row r="155" spans="1:2">
@@ -2472,7 +2478,7 @@
         <v>155</v>
       </c>
       <c r="B155" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
     </row>
     <row r="156" spans="1:2">
@@ -2480,7 +2486,7 @@
         <v>156</v>
       </c>
       <c r="B156" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
     </row>
     <row r="157" spans="1:2">
@@ -2488,7 +2494,7 @@
         <v>157</v>
       </c>
       <c r="B157" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="158" spans="1:2">
@@ -2496,7 +2502,7 @@
         <v>158</v>
       </c>
       <c r="B158" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="159" spans="1:2">
@@ -2504,7 +2510,7 @@
         <v>159</v>
       </c>
       <c r="B159" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="160" spans="1:2">
@@ -2512,7 +2518,7 @@
         <v>160</v>
       </c>
       <c r="B160" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="161" spans="1:2">
@@ -2520,7 +2526,7 @@
         <v>161</v>
       </c>
       <c r="B161" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="162" spans="1:2">
@@ -2528,7 +2534,7 @@
         <v>162</v>
       </c>
       <c r="B162" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
     </row>
     <row r="163" spans="1:2">
@@ -2536,7 +2542,7 @@
         <v>163</v>
       </c>
       <c r="B163" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
     </row>
     <row r="164" spans="1:2">
@@ -2544,7 +2550,7 @@
         <v>164</v>
       </c>
       <c r="B164" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
     </row>
     <row r="165" spans="1:2">
@@ -2552,7 +2558,7 @@
         <v>165</v>
       </c>
       <c r="B165" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
     </row>
     <row r="166" spans="1:2">
@@ -2560,7 +2566,7 @@
         <v>166</v>
       </c>
       <c r="B166" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
     </row>
     <row r="167" spans="1:2">
@@ -2568,7 +2574,7 @@
         <v>167</v>
       </c>
       <c r="B167" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
     </row>
     <row r="168" spans="1:2">
@@ -2576,7 +2582,7 @@
         <v>168</v>
       </c>
       <c r="B168" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
     </row>
     <row r="169" spans="1:2">
@@ -2584,7 +2590,7 @@
         <v>169</v>
       </c>
       <c r="B169" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
     </row>
     <row r="170" spans="1:2">
@@ -2592,7 +2598,7 @@
         <v>170</v>
       </c>
       <c r="B170" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
     </row>
     <row r="171" spans="1:2">
@@ -2600,7 +2606,7 @@
         <v>171</v>
       </c>
       <c r="B171" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
     </row>
     <row r="172" spans="1:2">
@@ -2608,7 +2614,7 @@
         <v>172</v>
       </c>
       <c r="B172" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
     </row>
     <row r="173" spans="1:2">
@@ -2616,7 +2622,7 @@
         <v>173</v>
       </c>
       <c r="B173" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
     </row>
     <row r="174" spans="1:2">
@@ -2624,7 +2630,7 @@
         <v>174</v>
       </c>
       <c r="B174" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
     </row>
     <row r="175" spans="1:2">
@@ -2632,7 +2638,7 @@
         <v>175</v>
       </c>
       <c r="B175" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
     </row>
     <row r="176" spans="1:2">
@@ -2640,7 +2646,7 @@
         <v>176</v>
       </c>
       <c r="B176" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
     </row>
     <row r="177" spans="1:2">
@@ -2648,7 +2654,7 @@
         <v>177</v>
       </c>
       <c r="B177" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
     </row>
     <row r="178" spans="1:2">
@@ -2656,7 +2662,7 @@
         <v>178</v>
       </c>
       <c r="B178" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
     </row>
     <row r="179" spans="1:2">
@@ -2664,7 +2670,7 @@
         <v>179</v>
       </c>
       <c r="B179" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
     </row>
     <row r="180" spans="1:2">
@@ -2672,7 +2678,7 @@
         <v>180</v>
       </c>
       <c r="B180" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
     </row>
     <row r="181" spans="1:2">
@@ -2680,7 +2686,7 @@
         <v>181</v>
       </c>
       <c r="B181" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
     </row>
     <row r="182" spans="1:2">
@@ -2688,7 +2694,7 @@
         <v>182</v>
       </c>
       <c r="B182" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
     </row>
     <row r="183" spans="1:2">
@@ -2696,7 +2702,7 @@
         <v>183</v>
       </c>
       <c r="B183" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
     </row>
     <row r="184" spans="1:2">
@@ -2704,7 +2710,7 @@
         <v>184</v>
       </c>
       <c r="B184" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
     </row>
     <row r="185" spans="1:2">
@@ -2712,7 +2718,7 @@
         <v>185</v>
       </c>
       <c r="B185" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
     </row>
     <row r="186" spans="1:2">
@@ -2720,7 +2726,7 @@
         <v>186</v>
       </c>
       <c r="B186" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
     </row>
     <row r="187" spans="1:2">
@@ -2728,7 +2734,7 @@
         <v>187</v>
       </c>
       <c r="B187" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
     </row>
     <row r="188" spans="1:2">
@@ -2736,7 +2742,7 @@
         <v>188</v>
       </c>
       <c r="B188" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
     </row>
     <row r="189" spans="1:2">
@@ -2744,7 +2750,15 @@
         <v>189</v>
       </c>
       <c r="B189" t="s">
-        <v>285</v>
+        <v>287</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2">
+      <c r="A190" t="s">
+        <v>190</v>
+      </c>
+      <c r="B190" t="s">
+        <v>287</v>
       </c>
     </row>
   </sheetData>

--- a/lothiancriticalcare/1a74f8f7b8b7e871b413c4697f68b4401fbacdf0/reviewdates.xlsx
+++ b/lothiancriticalcare/1a74f8f7b8b7e871b413c4697f68b4401fbacdf0/reviewdates.xlsx
@@ -61,24 +61,24 @@
     <t>Routine_Care/Tracheostomy_nursing_care.pdf</t>
   </si>
   <si>
+    <t>ECLS/Extra Corporeal Carbon Dioxide Removal.pdf</t>
+  </si>
+  <si>
     <t>Airway/Critical care extubation checklist.pdf</t>
   </si>
   <si>
-    <t>ECLS/Extra Corporeal Carbon Dioxide Removal.pdf</t>
-  </si>
-  <si>
     <t>Airway/Tracheostomy_Laryngectomy/Hospital_in-patients_with_a_Tracheostomy.pdf</t>
   </si>
   <si>
     <t>Drugs/diazepam_diazemuls.pdf</t>
   </si>
   <si>
+    <t>End_of_life_care/Reasons to report a death to PF.pdf</t>
+  </si>
+  <si>
     <t>Breathing(Respiratory)/salbutamol and ipratroprium MDI.pdf</t>
   </si>
   <si>
-    <t>End_of_life_care/Reasons to report a death to PF.pdf</t>
-  </si>
-  <si>
     <t>Neurological/SOP -  Femoral site care.pdf</t>
   </si>
   <si>
@@ -100,18 +100,18 @@
     <t>Covid-19/SJH/SJH COVID19 ED Intubation Action Card.pdf</t>
   </si>
   <si>
+    <t>Diabetes_and_Glucose/Hyperosmolar Hyperglycaemic State.pdf</t>
+  </si>
+  <si>
     <t>Covid-19/SJH/SJH COVID19 ITU Intubation Action Card.pdf</t>
   </si>
   <si>
+    <t>Covid-19/WGH/CoVid intubation checklist WGH.pdf</t>
+  </si>
+  <si>
     <t>Drugs/heparin for Haemofiltration.pdf</t>
   </si>
   <si>
-    <t>Diabetes_and_Glucose/Hyperosmolar Hyperglycaemic State.pdf</t>
-  </si>
-  <si>
-    <t>Covid-19/WGH/CoVid intubation checklist WGH.pdf</t>
-  </si>
-  <si>
     <t>Airway/Emergency intubation checklist_em_pub.pdf</t>
   </si>
   <si>
@@ -133,33 +133,33 @@
     <t>Airway/Percutaneous tracheostomy checklist.pdf</t>
   </si>
   <si>
+    <t>Delirium/Risk assessment posi mit.pdf</t>
+  </si>
+  <si>
     <t>Infection_and_sepsis/SOP Ultrasound Cleaning.pdf</t>
   </si>
   <si>
-    <t>Delirium/Risk assessment posi mit.pdf</t>
-  </si>
-  <si>
     <t>Airway/Tracheostomy_Laryngectomy/Tracheostomy safety box contents.pdf</t>
   </si>
   <si>
+    <t>Airway/McGrath Mac.pdf</t>
+  </si>
+  <si>
+    <t>Airway/Anticipated difficult airway tool.pdf</t>
+  </si>
+  <si>
+    <t>GI_Liver_and_Transplant/Abdominal pressure measurement.pdf</t>
+  </si>
+  <si>
     <t>GI_Liver_and_Transplant/Treatment of constipation.pdf</t>
   </si>
   <si>
-    <t>GI_Liver_and_Transplant/Abdominal pressure measurement.pdf</t>
-  </si>
-  <si>
     <t>Neurological/Sub arachnoid haemorrhage management.pdf</t>
   </si>
   <si>
     <t>Breathing(Respiratory)/HFNO.pdf</t>
   </si>
   <si>
-    <t>Airway/McGrath Mac.pdf</t>
-  </si>
-  <si>
-    <t>Airway/Anticipated difficult airway tool.pdf</t>
-  </si>
-  <si>
     <t>End_of_life_care/Documentation following death.pdf</t>
   </si>
   <si>
@@ -169,30 +169,30 @@
     <t>Routine_Care/bBraun Spaceplus Failure EMERGENCY ACTION CARD_em.pdf</t>
   </si>
   <si>
+    <t>Drugs/insulin.pdf</t>
+  </si>
+  <si>
     <t>Breathing(Respiratory)/Equipment/HFNO Set Up.pdf</t>
   </si>
   <si>
-    <t>Drugs/insulin.pdf</t>
-  </si>
-  <si>
     <t>Breathing(Respiratory)/Inhaled Nitrous Oxide.pdf</t>
   </si>
   <si>
+    <t>Breathing(Respiratory)/Equipment/APRV.pdf</t>
+  </si>
+  <si>
     <t>Cardiovascular/Steroids for Septic Shock.pdf</t>
   </si>
   <si>
-    <t>Breathing(Respiratory)/Equipment/APRV.pdf</t>
+    <t>Neurological/SOP for review of Neurosurgical patients in ITU by neurosurgical team.pdf</t>
+  </si>
+  <si>
+    <t>Post_op_care/Epidural Haematoma.pdf</t>
   </si>
   <si>
     <t>Breathing(Respiratory)/Equipment/T piece Y piece.pdf</t>
   </si>
   <si>
-    <t>Neurological/SOP for review of Neurosurgical patients in ITU by neurosurgical team.pdf</t>
-  </si>
-  <si>
-    <t>Post_op_care/Epidural Haematoma.pdf</t>
-  </si>
-  <si>
     <t>Policies_and_admin/General Critical Care Interaction with HEPMA_pub.pdf</t>
   </si>
   <si>
@@ -202,12 +202,12 @@
     <t>Breathing(Respiratory)/Equipment/HFNO through ventilator.pdf</t>
   </si>
   <si>
+    <t>Post_op_care/Adult Scoliosis Spinal Surgery Post-Op Care.pdf</t>
+  </si>
+  <si>
     <t>Routine_Care/VTE_Prevention/Dalteparin_thromboprophylaxis.pdf</t>
   </si>
   <si>
-    <t>Post_op_care/Adult Scoliosis Spinal Surgery Post-Op Care.pdf</t>
-  </si>
-  <si>
     <t>Post_op_care/Post op care pharyngo-laryngo-oesphagectomy PLOG.pdf</t>
   </si>
   <si>
@@ -217,15 +217,15 @@
     <t>Drugs/Antibiotic doses in CVVHD.pdf</t>
   </si>
   <si>
+    <t>ECLS/RIE ECLS Anti Xa Protocol.pdf</t>
+  </si>
+  <si>
+    <t>GI_Liver_and_Transplant/Jejunostomy feeding protocol.pdf</t>
+  </si>
+  <si>
     <t>GI_Liver_and_Transplant/Nasojejunal feeding protocol.pdf</t>
   </si>
   <si>
-    <t>ECLS/RIE ECLS Anti Xa Protocol.pdf</t>
-  </si>
-  <si>
-    <t>GI_Liver_and_Transplant/Jejunostomy feeding protocol.pdf</t>
-  </si>
-  <si>
     <t>Drugs/vasopressin_sepsis.pdf</t>
   </si>
   <si>
@@ -235,21 +235,21 @@
     <t>Infection_and_sepsis/Winter Infections Stepdown Guidance.pdf</t>
   </si>
   <si>
+    <t>Transfer/ACCP Transfers.pdf</t>
+  </si>
+  <si>
     <t>Covid-19/videos/Donning and Doffing Video.pdf</t>
   </si>
   <si>
-    <t>Transfer/ACCP Transfers.pdf</t>
-  </si>
-  <si>
     <t>Breathing(Respiratory)/Equipment/Ventilators Circuits Filters and Closed Suction - Set up and Maintenance.pdf</t>
   </si>
   <si>
+    <t>Drugs/piperacillin_tazobactam extended_infusion.pdf</t>
+  </si>
+  <si>
     <t>Infection_and_sepsis/Infection indications for IVIG.pdf</t>
   </si>
   <si>
-    <t>Drugs/piperacillin_tazobactam extended_infusion.pdf</t>
-  </si>
-  <si>
     <t>Procedures/CVC Guidance/Securing CVCs.pdf</t>
   </si>
   <si>
@@ -259,66 +259,66 @@
     <t>Routine_Care/Video Communication.pdf</t>
   </si>
   <si>
+    <t>Drugs/isoprenaline.pdf</t>
+  </si>
+  <si>
     <t>Cardiovascular/Cardiogenic Shock.pdf</t>
   </si>
   <si>
-    <t>Drugs/isoprenaline.pdf</t>
-  </si>
-  <si>
     <t>Haematology_CAR-T/Haem_ICU_transfer.pdf</t>
   </si>
   <si>
     <t>Cardiovascular/Management of hypertension within Critical Care.pdf</t>
   </si>
   <si>
+    <t>Haematology_CAR-T/Cytokine Release Syndrome.pdf</t>
+  </si>
+  <si>
+    <t>Haematology_CAR-T/ICANS.pdf</t>
+  </si>
+  <si>
     <t>Drugs/pancuronium.pdf</t>
   </si>
   <si>
-    <t>Haematology_CAR-T/Cytokine Release Syndrome.pdf</t>
-  </si>
-  <si>
-    <t>Haematology_CAR-T/ICANS.pdf</t>
+    <t>Policies_and_admin/General Critical Care SOP_pub.pdf</t>
   </si>
   <si>
     <t>Drugs/milrinone.pdf</t>
   </si>
   <si>
-    <t>Policies_and_admin/General Critical Care SOP_pub.pdf</t>
+    <t>Ethics_and_Law/Care at the End of Life (FICM).pdf</t>
+  </si>
+  <si>
+    <t>GI_Liver_and_Transplant/ICU - Upper GI bleeding (Endoscopy guideline).pdf</t>
+  </si>
+  <si>
+    <t>Organ_donation/Organ Retrieval SOP.pdf</t>
+  </si>
+  <si>
+    <t>End_of_life_care/Palliative extubation &amp; withdrawal of invasive ventilatory support nursing checklist.pdf</t>
   </si>
   <si>
     <t>Drugs/clonidine.pdf</t>
   </si>
   <si>
+    <t>Covid-19/COVID 19 ICM guidance basic goals_June_2022.pdf</t>
+  </si>
+  <si>
+    <t>Neurological/Management of traumatic brain injury.pdf</t>
+  </si>
+  <si>
     <t>Infection_and_sepsis/Trip Out of Unit infection guidance.pdf</t>
   </si>
   <si>
-    <t>Covid-19/COVID 19 ICM guidance basic goals_June_2022.pdf</t>
-  </si>
-  <si>
     <t>End_of_life_care/CMO &amp; NRS Guidance for Doctors completing MCCD.pdf</t>
   </si>
   <si>
-    <t>Ethics_and_Law/Care at the End of Life (FICM).pdf</t>
-  </si>
-  <si>
     <t>Ethics_and_Law/DNACPR policy for Scotland.pdf</t>
   </si>
   <si>
-    <t>End_of_life_care/Palliative extubation &amp; withdrawal of invasive ventilatory support nursing checklist.pdf</t>
-  </si>
-  <si>
-    <t>Neurological/Management of traumatic brain injury.pdf</t>
-  </si>
-  <si>
     <t>Neurological/Critical Care MRI Procedure_pub.pdf</t>
   </si>
   <si>
-    <t>Organ_donation/Organ Retrieval SOP.pdf</t>
-  </si>
-  <si>
-    <t>GI_Liver_and_Transplant/ICU - Upper GI bleeding (Endoscopy guideline).pdf</t>
-  </si>
-  <si>
     <t>Airway/Cook Staged Extubation Set.pdf</t>
   </si>
   <si>
@@ -331,21 +331,21 @@
     <t>Post_op_care/Epidural hypotension.pdf</t>
   </si>
   <si>
+    <t>Drugs/dexmedetomidine.pdf</t>
+  </si>
+  <si>
+    <t>GI_Liver_and_Transplant/Confirmation of Nasogastric Tube Position.pdf</t>
+  </si>
+  <si>
+    <t>Breathing(Respiratory)/Equipment/Passy Muir Valve.pdf</t>
+  </si>
+  <si>
+    <t>Drugs/glyceryl_trinitrate.pdf</t>
+  </si>
+  <si>
     <t>GI_Liver_and_Transplant/Fulminant Liver Failure.pdf</t>
   </si>
   <si>
-    <t>GI_Liver_and_Transplant/Confirmation of Nasogastric Tube Position.pdf</t>
-  </si>
-  <si>
-    <t>Drugs/glyceryl_trinitrate.pdf</t>
-  </si>
-  <si>
-    <t>Breathing(Respiratory)/Equipment/Passy Muir Valve.pdf</t>
-  </si>
-  <si>
-    <t>Drugs/dexmedetomidine.pdf</t>
-  </si>
-  <si>
     <t>Infection_and_sepsis/Antifungal guidance in critical care.pdf</t>
   </si>
   <si>
@@ -373,24 +373,24 @@
     <t>Post_op_care/Major OMFS Free Flap.pdf</t>
   </si>
   <si>
+    <t>Drugs/Alteplase for massive PE.pdf</t>
+  </si>
+  <si>
     <t>Drugs/alfentanil.pdf</t>
   </si>
   <si>
-    <t>Drugs/Alteplase for massive PE.pdf</t>
-  </si>
-  <si>
     <t>Drugs/magnesium.pdf</t>
   </si>
   <si>
+    <t>Drugs/neostigmine.pdf</t>
+  </si>
+  <si>
+    <t>Drugs/ICU - IV drug infusions.pdf</t>
+  </si>
+  <si>
     <t>Drugs/vancomycin continuous infusion.pdf</t>
   </si>
   <si>
-    <t>Drugs/ICU - IV drug infusions.pdf</t>
-  </si>
-  <si>
-    <t>Drugs/neostigmine.pdf</t>
-  </si>
-  <si>
     <t>Neurological/Intrathecal policy RIE.pdf</t>
   </si>
   <si>
@@ -403,51 +403,51 @@
     <t>Cardiovascular/Management of Acute Type B Aortic Dissection Guideline.pdf</t>
   </si>
   <si>
+    <t>Drugs/nimodipine.pdf</t>
+  </si>
+  <si>
+    <t>Drugs/potassium.pdf</t>
+  </si>
+  <si>
+    <t>Procedures/CVC Guidance/CVC NHL  April 2023.pdf</t>
+  </si>
+  <si>
+    <t>Trauma and Burns/Management of Severe Burns v1.6.pdf</t>
+  </si>
+  <si>
     <t>Drugs/salbutamol.pdf</t>
   </si>
   <si>
-    <t>Drugs/nimodipine.pdf</t>
-  </si>
-  <si>
-    <t>Drugs/potassium.pdf</t>
-  </si>
-  <si>
-    <t>Procedures/CVC Guidance/CVC NHL  April 2023.pdf</t>
-  </si>
-  <si>
-    <t>Trauma and Burns/Management of Severe Burns v1.6.pdf</t>
+    <t>Routine_Care/ICU Eye Care Guideline.pdf</t>
+  </si>
+  <si>
+    <t>Drugs/phenobarbitone.pdf</t>
+  </si>
+  <si>
+    <t>Drugs/amiodarone.pdf</t>
+  </si>
+  <si>
+    <t>Procedures/Arterial Line insertion for ACCPs.pdf</t>
   </si>
   <si>
     <t>Drugs/nicardipine.pdf</t>
   </si>
   <si>
-    <t>Procedures/Arterial Line insertion for ACCPs.pdf</t>
-  </si>
-  <si>
-    <t>Drugs/phenobarbitone.pdf</t>
-  </si>
-  <si>
-    <t>Drugs/amiodarone.pdf</t>
-  </si>
-  <si>
-    <t>Routine_Care/ICU Eye Care Guideline.pdf</t>
+    <t>Drugs/phenylephrine.pdf</t>
+  </si>
+  <si>
+    <t>Breathing(Respiratory)/Manual Ventilation and MHI.pdf</t>
+  </si>
+  <si>
+    <t>Neurological/Ventriculitis Guideline.pdf</t>
+  </si>
+  <si>
+    <t>Drugs/morphine.pdf</t>
   </si>
   <si>
     <t>Drugs/Epoprostenol.pdf</t>
   </si>
   <si>
-    <t>Neurological/Ventriculitis Guideline.pdf</t>
-  </si>
-  <si>
-    <t>Drugs/phenylephrine.pdf</t>
-  </si>
-  <si>
-    <t>Drugs/morphine.pdf</t>
-  </si>
-  <si>
-    <t>Breathing(Respiratory)/Manual Ventilation and MHI.pdf</t>
-  </si>
-  <si>
     <t>Breathing(Respiratory)/Pulmonary_Embolism_and_DVT/Catheter directed thrombolysis of iliofemoral DVT alteplase_pub.pdf</t>
   </si>
   <si>
@@ -457,25 +457,28 @@
     <t>Drugs/calcium.pdf</t>
   </si>
   <si>
+    <t>Drugs/atracurium.pdf</t>
+  </si>
+  <si>
+    <t>Drugs/dalteparin_thromboprophylaxis.pdf</t>
+  </si>
+  <si>
+    <t>Airway/Tracheostomy_Laryngectomy/Decannulation Guidline.pdf</t>
+  </si>
+  <si>
     <t>Drugs/Vancomycin continuous infusion Fluid Restricted.pdf</t>
   </si>
   <si>
-    <t>Drugs/dalteparin_thromboprophylaxis.pdf</t>
-  </si>
-  <si>
-    <t>Drugs/atracurium.pdf</t>
-  </si>
-  <si>
-    <t>Airway/Tracheostomy_Laryngectomy/Decannulation Guidline.pdf</t>
-  </si>
-  <si>
     <t>Policies_and_admin/Pet Visitation.pdf</t>
   </si>
   <si>
+    <t>Drugs/valproate.pdf</t>
+  </si>
+  <si>
     <t>Procedures/Inadvertent Catheter Placement Guideline.pdf</t>
   </si>
   <si>
-    <t>Drugs/valproate.pdf</t>
+    <t>Drugs/ketamine_for_status epilepticus.pdf</t>
   </si>
   <si>
     <t>Drugs/stress ulcer prophylaxis.pdf</t>
@@ -484,54 +487,51 @@
     <t>Drugs/Phosphate.pdf</t>
   </si>
   <si>
-    <t>Drugs/ketamine_for_status epilepticus.pdf</t>
+    <t>Breathing(Respiratory)/Proning Guideline.pdf</t>
+  </si>
+  <si>
+    <t>Drugs/Octreotide.pdf</t>
+  </si>
+  <si>
+    <t>GI_Liver_and_Transplant/Prokinetics in ICU.pdf</t>
+  </si>
+  <si>
+    <t>Drugs/Thiopentone.pdf</t>
   </si>
   <si>
     <t>Neurological/Status epilepticus.pdf</t>
   </si>
   <si>
-    <t>Drugs/Thiopentone.pdf</t>
-  </si>
-  <si>
-    <t>Drugs/Octreotide.pdf</t>
-  </si>
-  <si>
-    <t>GI_Liver_and_Transplant/Prokinetics in ICU.pdf</t>
-  </si>
-  <si>
-    <t>Breathing(Respiratory)/Proning Guideline.pdf</t>
+    <t>Procedures/ACCPs acquiring initial CVC competencies.pdf</t>
+  </si>
+  <si>
+    <t>Post_op_care/Prevention and treatment of paraplegia after major aortic procedures.pdf</t>
   </si>
   <si>
     <t>Procedures/ACCP CVC placement following completion of initial competencies.pdf</t>
   </si>
   <si>
-    <t>Procedures/ACCPs acquiring initial CVC competencies.pdf</t>
-  </si>
-  <si>
-    <t>Post_op_care/Prevention and treatment of paraplegia after major aortic procedures.pdf</t>
-  </si>
-  <si>
     <t>Drugs/Rocuronium.pdf</t>
   </si>
   <si>
+    <t>Delirium/Violence and Agression.pdf</t>
+  </si>
+  <si>
     <t>Drugs/Ketamine_in_asthma.pdf</t>
   </si>
   <si>
     <t>Breathing(Respiratory)/Equipment/O2 through Drager setup.pdf</t>
   </si>
   <si>
-    <t>Delirium/Violence and Agression.pdf</t>
-  </si>
-  <si>
     <t>Post_op_care/Care of the Transgender Patient.pdf</t>
   </si>
   <si>
+    <t>Drugs/aminophylline.pdf</t>
+  </si>
+  <si>
     <t>Drugs/IVIG in staph and strep toxic shock syndrome.pdf</t>
   </si>
   <si>
-    <t>Drugs/aminophylline.pdf</t>
-  </si>
-  <si>
     <t>Drugs/Phenytoin.pdf</t>
   </si>
   <si>
@@ -574,12 +574,12 @@
     <t>GI_Liver_and_Transplant/Pabrinex.pdf</t>
   </si>
   <si>
+    <t>Cardiovascular/Focused TOE Guideline for General Critical Care_pub.pdf</t>
+  </si>
+  <si>
     <t>Drugs/Pabrinex.pdf</t>
   </si>
   <si>
-    <t>Cardiovascular/Focused TOE Guideline for General Critical Care_pub.pdf</t>
-  </si>
-  <si>
     <t>Neurological/NPI Guideline.pdf</t>
   </si>
   <si>
@@ -589,196 +589,196 @@
     <t>Policies_and_admin/Repatriaiton Checklist for Critical Care.pdf</t>
   </si>
   <si>
-    <t>2011-03-10</t>
-  </si>
-  <si>
-    <t>2011-06-10</t>
-  </si>
-  <si>
-    <t>2011-07-10</t>
-  </si>
-  <si>
-    <t>2011-12-10</t>
-  </si>
-  <si>
-    <t>2014-09-10</t>
-  </si>
-  <si>
-    <t>2014-10-10</t>
-  </si>
-  <si>
-    <t>2014-11-10</t>
-  </si>
-  <si>
-    <t>2014-12-10</t>
-  </si>
-  <si>
-    <t>2015-03-10</t>
-  </si>
-  <si>
-    <t>2016-04-10</t>
-  </si>
-  <si>
-    <t>2016-08-10</t>
-  </si>
-  <si>
-    <t>2017-01-10</t>
-  </si>
-  <si>
-    <t>2017-08-10</t>
-  </si>
-  <si>
-    <t>2017-10-10</t>
-  </si>
-  <si>
-    <t>2017-11-10</t>
-  </si>
-  <si>
-    <t>2018-07-10</t>
-  </si>
-  <si>
-    <t>2019-05-10</t>
-  </si>
-  <si>
-    <t>2019-06-10</t>
-  </si>
-  <si>
-    <t>2019-08-10</t>
-  </si>
-  <si>
-    <t>2019-09-10</t>
-  </si>
-  <si>
-    <t>2020-01-10</t>
-  </si>
-  <si>
-    <t>2020-03-10</t>
-  </si>
-  <si>
-    <t>2020-04-10</t>
-  </si>
-  <si>
-    <t>2020-05-10</t>
-  </si>
-  <si>
-    <t>2020-07-10</t>
-  </si>
-  <si>
-    <t>2020-08-10</t>
-  </si>
-  <si>
-    <t>2020-11-10</t>
-  </si>
-  <si>
-    <t>2021-02-10</t>
-  </si>
-  <si>
-    <t>2021-05-10</t>
-  </si>
-  <si>
-    <t>2021-06-10</t>
-  </si>
-  <si>
-    <t>2021-09-10</t>
-  </si>
-  <si>
-    <t>2021-12-10</t>
-  </si>
-  <si>
-    <t>2022-01-10</t>
-  </si>
-  <si>
-    <t>2022-03-10</t>
-  </si>
-  <si>
-    <t>2022-04-10</t>
-  </si>
-  <si>
-    <t>2022-05-10</t>
-  </si>
-  <si>
-    <t>2022-06-10</t>
-  </si>
-  <si>
-    <t>2022-07-10</t>
-  </si>
-  <si>
-    <t>2022-08-10</t>
-  </si>
-  <si>
-    <t>2022-10-10</t>
-  </si>
-  <si>
-    <t>2022-11-10</t>
-  </si>
-  <si>
-    <t>2022-12-10</t>
-  </si>
-  <si>
-    <t>2023-01-10</t>
-  </si>
-  <si>
-    <t>2023-02-10</t>
-  </si>
-  <si>
-    <t>2023-04-10</t>
-  </si>
-  <si>
-    <t>2023-05-10</t>
-  </si>
-  <si>
-    <t>2023-06-10</t>
-  </si>
-  <si>
-    <t>2023-07-10</t>
-  </si>
-  <si>
-    <t>2023-08-10</t>
-  </si>
-  <si>
-    <t>2023-09-10</t>
-  </si>
-  <si>
-    <t>2023-10-10</t>
-  </si>
-  <si>
-    <t>2024-01-10</t>
-  </si>
-  <si>
-    <t>2024-02-10</t>
-  </si>
-  <si>
-    <t>2024-03-10</t>
-  </si>
-  <si>
-    <t>2024-04-10</t>
-  </si>
-  <si>
-    <t>2024-05-10</t>
+    <t>2011-03-12</t>
+  </si>
+  <si>
+    <t>2011-06-12</t>
+  </si>
+  <si>
+    <t>2011-07-12</t>
+  </si>
+  <si>
+    <t>2011-12-12</t>
+  </si>
+  <si>
+    <t>2014-09-12</t>
+  </si>
+  <si>
+    <t>2014-10-12</t>
+  </si>
+  <si>
+    <t>2014-11-12</t>
+  </si>
+  <si>
+    <t>2014-12-12</t>
+  </si>
+  <si>
+    <t>2015-03-12</t>
+  </si>
+  <si>
+    <t>2016-04-12</t>
+  </si>
+  <si>
+    <t>2016-08-12</t>
+  </si>
+  <si>
+    <t>2017-01-12</t>
+  </si>
+  <si>
+    <t>2017-08-12</t>
+  </si>
+  <si>
+    <t>2017-10-12</t>
+  </si>
+  <si>
+    <t>2017-11-12</t>
+  </si>
+  <si>
+    <t>2018-07-12</t>
+  </si>
+  <si>
+    <t>2019-05-12</t>
+  </si>
+  <si>
+    <t>2019-06-12</t>
+  </si>
+  <si>
+    <t>2019-08-12</t>
+  </si>
+  <si>
+    <t>2019-09-12</t>
+  </si>
+  <si>
+    <t>2020-01-12</t>
+  </si>
+  <si>
+    <t>2020-03-12</t>
+  </si>
+  <si>
+    <t>2020-04-12</t>
+  </si>
+  <si>
+    <t>2020-05-12</t>
+  </si>
+  <si>
+    <t>2020-07-12</t>
+  </si>
+  <si>
+    <t>2020-08-12</t>
+  </si>
+  <si>
+    <t>2020-11-12</t>
+  </si>
+  <si>
+    <t>2021-02-12</t>
+  </si>
+  <si>
+    <t>2021-05-12</t>
+  </si>
+  <si>
+    <t>2021-06-12</t>
+  </si>
+  <si>
+    <t>2021-09-12</t>
+  </si>
+  <si>
+    <t>2021-12-12</t>
+  </si>
+  <si>
+    <t>2022-01-12</t>
+  </si>
+  <si>
+    <t>2022-03-12</t>
+  </si>
+  <si>
+    <t>2022-04-12</t>
+  </si>
+  <si>
+    <t>2022-05-12</t>
+  </si>
+  <si>
+    <t>2022-06-12</t>
+  </si>
+  <si>
+    <t>2022-07-12</t>
+  </si>
+  <si>
+    <t>2022-08-12</t>
+  </si>
+  <si>
+    <t>2022-10-12</t>
+  </si>
+  <si>
+    <t>2022-11-12</t>
+  </si>
+  <si>
+    <t>2022-12-12</t>
+  </si>
+  <si>
+    <t>2023-01-12</t>
+  </si>
+  <si>
+    <t>2023-02-12</t>
+  </si>
+  <si>
+    <t>2023-04-12</t>
+  </si>
+  <si>
+    <t>2023-05-12</t>
+  </si>
+  <si>
+    <t>2023-06-12</t>
+  </si>
+  <si>
+    <t>2023-07-12</t>
+  </si>
+  <si>
+    <t>2023-08-12</t>
+  </si>
+  <si>
+    <t>2023-09-12</t>
+  </si>
+  <si>
+    <t>2023-10-12</t>
+  </si>
+  <si>
+    <t>2024-01-12</t>
+  </si>
+  <si>
+    <t>2024-02-12</t>
+  </si>
+  <si>
+    <t>2024-03-12</t>
+  </si>
+  <si>
+    <t>2024-04-12</t>
+  </si>
+  <si>
+    <t>2024-05-12</t>
   </si>
   <si>
     <t>2024-06-02</t>
   </si>
   <si>
-    <t>2024-06-10</t>
+    <t>2024-06-12</t>
   </si>
   <si>
     <t>2024-06-26</t>
   </si>
   <si>
-    <t>2024-07-10</t>
+    <t>2024-07-12</t>
   </si>
   <si>
     <t>2024-07-25</t>
   </si>
   <si>
-    <t>2024-08-10</t>
+    <t>2024-08-12</t>
   </si>
   <si>
     <t>2024-08-15</t>
   </si>
   <si>
-    <t>2024-10-10</t>
+    <t>2024-10-12</t>
   </si>
   <si>
     <t>2024-10-24</t>
@@ -793,91 +793,91 @@
     <t>2024-12-24</t>
   </si>
   <si>
-    <t>2025-01-10</t>
-  </si>
-  <si>
-    <t>2025-02-10</t>
-  </si>
-  <si>
-    <t>2025-03-10</t>
-  </si>
-  <si>
-    <t>2025-04-10</t>
-  </si>
-  <si>
-    <t>2025-05-10</t>
-  </si>
-  <si>
-    <t>2025-06-10</t>
-  </si>
-  <si>
-    <t>2025-07-10</t>
-  </si>
-  <si>
-    <t>2025-08-10</t>
-  </si>
-  <si>
-    <t>2025-10-10</t>
-  </si>
-  <si>
-    <t>2025-11-10</t>
-  </si>
-  <si>
-    <t>2026-01-10</t>
-  </si>
-  <si>
-    <t>2026-03-10</t>
-  </si>
-  <si>
-    <t>2026-05-10</t>
-  </si>
-  <si>
-    <t>2026-07-10</t>
-  </si>
-  <si>
-    <t>2026-08-10</t>
-  </si>
-  <si>
-    <t>2026-09-10</t>
-  </si>
-  <si>
-    <t>2026-11-10</t>
-  </si>
-  <si>
-    <t>2027-01-10</t>
-  </si>
-  <si>
-    <t>2027-02-10</t>
-  </si>
-  <si>
-    <t>2027-03-10</t>
-  </si>
-  <si>
-    <t>2028-02-10</t>
-  </si>
-  <si>
-    <t>2028-03-10</t>
-  </si>
-  <si>
-    <t>2028-05-10</t>
-  </si>
-  <si>
-    <t>2028-07-10</t>
-  </si>
-  <si>
-    <t>2028-11-10</t>
-  </si>
-  <si>
-    <t>2029-02-10</t>
-  </si>
-  <si>
-    <t>2029-06-10</t>
-  </si>
-  <si>
-    <t>2029-08-10</t>
-  </si>
-  <si>
-    <t>2030-11-10</t>
+    <t>2025-01-12</t>
+  </si>
+  <si>
+    <t>2025-02-12</t>
+  </si>
+  <si>
+    <t>2025-03-12</t>
+  </si>
+  <si>
+    <t>2025-04-12</t>
+  </si>
+  <si>
+    <t>2025-05-12</t>
+  </si>
+  <si>
+    <t>2025-06-12</t>
+  </si>
+  <si>
+    <t>2025-07-12</t>
+  </si>
+  <si>
+    <t>2025-08-12</t>
+  </si>
+  <si>
+    <t>2025-10-12</t>
+  </si>
+  <si>
+    <t>2025-11-12</t>
+  </si>
+  <si>
+    <t>2026-01-12</t>
+  </si>
+  <si>
+    <t>2026-03-12</t>
+  </si>
+  <si>
+    <t>2026-05-12</t>
+  </si>
+  <si>
+    <t>2026-07-12</t>
+  </si>
+  <si>
+    <t>2026-08-12</t>
+  </si>
+  <si>
+    <t>2026-09-12</t>
+  </si>
+  <si>
+    <t>2026-11-12</t>
+  </si>
+  <si>
+    <t>2027-01-12</t>
+  </si>
+  <si>
+    <t>2027-02-12</t>
+  </si>
+  <si>
+    <t>2027-03-12</t>
+  </si>
+  <si>
+    <t>2028-02-12</t>
+  </si>
+  <si>
+    <t>2028-03-12</t>
+  </si>
+  <si>
+    <t>2028-05-12</t>
+  </si>
+  <si>
+    <t>2028-07-12</t>
+  </si>
+  <si>
+    <t>2028-11-12</t>
+  </si>
+  <si>
+    <t>2029-02-12</t>
+  </si>
+  <si>
+    <t>2029-06-12</t>
+  </si>
+  <si>
+    <t>2029-08-12</t>
+  </si>
+  <si>
+    <t>2030-11-12</t>
   </si>
 </sst>
 </file>
